--- a/sheet/cards.xlsx
+++ b/sheet/cards.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="303">
   <si>
     <t>カードID</t>
     <phoneticPr fontId="1"/>
@@ -432,12 +432,6 @@
   </si>
   <si>
     <t>4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>対応不可 
-【攻撃後】相手は手札から《攻撃》でないカード1枚を捨て札にする。それが行えない場合、相手は手札を公開する。 
-【再起】境地-あなたの集中力が2である。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -702,100 +696,46 @@
     <t>毒針</t>
   </si>
   <si>
-    <t>「麻痺毒」「幻覚毒」「弛緩毒」いずれかを相手山札上へ</t>
-  </si>
-  <si>
     <t>遁術</t>
   </si>
   <si>
-    <t>自オーラ→間合：2　このターン中基本動作で前進できない</t>
-  </si>
-  <si>
     <t>首切り</t>
   </si>
   <si>
     <t>0-3</t>
   </si>
   <si>
-    <t>相手手札2枚以上なら、相手手札1枚を捨て札</t>
-  </si>
-  <si>
     <t>毒霧</t>
   </si>
   <si>
-    <t>「麻痺毒」「幻覚毒」「弛緩毒」いずれかを相手手札へ</t>
-  </si>
-  <si>
     <t>抜き足</t>
   </si>
   <si>
-    <t>隙　【展開中】現在の間合-2</t>
-  </si>
-  <si>
     <t>泥濘</t>
   </si>
   <si>
-    <t>【展開中】相手は基本動作の後退と離脱ができない</t>
-  </si>
-  <si>
     <t>滅灯の魂毒</t>
   </si>
   <si>
-    <t>「滅灯毒」を相手山札上へ</t>
-  </si>
-  <si>
     <t>叛旗の纏毒</t>
   </si>
   <si>
-    <t>【展開中】相手のダメージに「-」を持つ攻撃を打ち消し</t>
-  </si>
-  <si>
     <t>流転の霞毒</t>
   </si>
   <si>
-    <t>再起：相手手札2以上</t>
-  </si>
-  <si>
     <t>闇昏千影の生きる道</t>
   </si>
   <si>
-    <t>【展開中】ダメージを受けたら失敗し未使用に</t>
-  </si>
-  <si>
-    <t>O-P-1</t>
-  </si>
-  <si>
     <t>麻痺毒</t>
   </si>
   <si>
-    <t>基本動作を行った場合使用できない。毒袋に戻す。このフェイズを終了する。</t>
-  </si>
-  <si>
-    <t>O-P-2</t>
-  </si>
-  <si>
     <t>幻覚毒</t>
   </si>
   <si>
-    <t>自フレア→ダスト：2　毒袋に戻す。</t>
-  </si>
-  <si>
-    <t>O-P-3</t>
-  </si>
-  <si>
     <t>弛緩毒</t>
   </si>
   <si>
-    <t>【展開中】《攻撃》カードを使用できない。【破棄時】毒袋に戻す。</t>
-  </si>
-  <si>
-    <t>O-P-4</t>
-  </si>
-  <si>
     <t>滅灯毒</t>
-  </si>
-  <si>
-    <t>自オーラ→ダスト：3</t>
   </si>
   <si>
     <t>4-5</t>
@@ -976,12 +916,301 @@
 自オーラ→ダスト：3</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>対応不可 
+【攻撃後】相手は手札から《攻撃》でないカード1枚を捨て札にする。それが行えない場合、相手は手札を公開する。 
+【再起】境地-あなたの集中力が2である。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>封印</t>
+    <rPh sb="0" eb="2">
+      <t>フウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しこみばり / ふくみばり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しこみばり/ふくみばり</t>
+  </si>
+  <si>
+    <t>閉</t>
+  </si>
+  <si>
+    <t>4-6</t>
+  </si>
+  <si>
+    <t>開</t>
+  </si>
+  <si>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>しこみび/ねこだまし</t>
+  </si>
+  <si>
+    <t>5-6</t>
+  </si>
+  <si>
+    <t>ふりはらい/たぐりよせ</t>
+  </si>
+  <si>
+    <t>2-5</t>
+  </si>
+  <si>
+    <t>間合⇔ダスト：1</t>
+  </si>
+  <si>
+    <t>間合→ダスト：2</t>
+  </si>
+  <si>
+    <t>ふりまわし/つきさし</t>
+  </si>
+  <si>
+    <t>かさまわし</t>
+  </si>
+  <si>
+    <t>ひきあし/もぐりこみ</t>
+  </si>
+  <si>
+    <t>ダスト→間合：1</t>
+  </si>
+  <si>
+    <t>間合→ダスト：1</t>
+  </si>
+  <si>
+    <t>えんむすび</t>
+  </si>
+  <si>
+    <t>【展開時】間合→ダスト：1【破棄時】ダスト→間合：1</t>
+  </si>
+  <si>
+    <t>傘が空いていたら矢印(→)の向きが逆</t>
+  </si>
+  <si>
+    <t>はらりゆき</t>
+  </si>
+  <si>
+    <t>3-5</t>
+  </si>
+  <si>
+    <t>即再起：傘を開閉する</t>
+  </si>
+  <si>
+    <t>0-1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>ゆらりび</t>
+  </si>
+  <si>
+    <t>どろりうら</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>【展開中】ユキヒのカードが開閉両方の間合を持つ</t>
+  </si>
+  <si>
+    <t>くるりみ</t>
+  </si>
+  <si>
+    <t>ダスト→自オーラ：1　傘を開閉する</t>
+  </si>
+  <si>
+    <t>06-yukihi-o-n-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>06-yukihi-o-n-2</t>
+  </si>
+  <si>
+    <t>06-yukihi-o-n-3</t>
+  </si>
+  <si>
+    <t>06-yukihi-o-n-4</t>
+  </si>
+  <si>
+    <t>06-yukihi-o-n-5</t>
+  </si>
+  <si>
+    <t>06-yukihi-o-n-6</t>
+  </si>
+  <si>
+    <t>06-yukihi-o-n-7</t>
+  </si>
+  <si>
+    <t>えんむすび</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひきあし / もぐりこみ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ふりまわし / つきさし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ふりはらい / たぐりよせ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しこみび / ねこだまし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>06-yukihi-o-s-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>06-yukihi-o-s-2</t>
+  </si>
+  <si>
+    <t>06-yukihi-o-s-3</t>
+  </si>
+  <si>
+    <t>06-yukihi-o-s-4</t>
+  </si>
+  <si>
+    <t>yukihi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>傘を開閉し、このカードを手札へ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（開）</t>
+    <rPh sb="1" eb="2">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3/1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【攻撃後】このカードを手札に戻し、傘の開閉を行う。 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5-6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5/-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-/2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>傘の開閉時に手札から見せると、ダスト→自オーラ：1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【攻撃後】ダスト⇔間合：1 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【攻撃後】間合→ダスト：2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">(このカードは使用しても効果はない) 
+【常時】あなたが傘の開閉を行った時、このカードを手札から公開してもよい。そうした場合、 
+ダスト→自オーラ：1
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【展開時】間合→ダスト：1 
+【破棄時】ダスト→間合：1 
+【常時】あなたの傘が開いているならば、このカードの矢印(→)は逆になる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【即再起】あなたが傘の開閉を行う。 </t>
+    <rPh sb="1" eb="2">
+      <t>ソク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【展開中】あなたのユキヒの《攻撃》は傘を開いた状態と傘を閉じた状態両方の適正距離を持つ。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>傘の開閉を行う。 
+ダスト→自オーラ：1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0/0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4/5</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1033,6 +1262,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1056,7 +1292,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1080,6 +1316,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1387,23 +1629,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N63"/>
+  <dimension ref="A1:R79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24:M38"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="9" style="4"/>
-    <col min="9" max="9" width="9" style="2"/>
-    <col min="10" max="11" width="9" style="4"/>
-    <col min="12" max="12" width="56" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="9" style="4"/>
+    <col min="3" max="3" width="18.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="9" style="4"/>
+    <col min="8" max="9" width="12.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="9" style="4"/>
+    <col min="15" max="15" width="56" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="255.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1428,20 +1676,32 @@
       <c r="H1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="P1" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1463,18 +1723,24 @@
       <c r="H2" s="4">
         <v>4</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="4">
+        <v>4</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="K2" s="4">
+        <v>4</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="3" t="str">
-        <f>", '"&amp;A2&amp;"': {megami: '"&amp;B2&amp;"', name: '"&amp;C2&amp;"', ruby: '"&amp;D2&amp;"', baseType: '"&amp;VLOOKUP(E2,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F2,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G2&lt;&gt;"",", '"&amp; VLOOKUP(G2,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H2&lt;&gt;"", ", range: '"&amp;H2&amp;"'", "")&amp;IF(I2&lt;&gt;"", ", damage: '"&amp;I2&amp;"'", "")&amp;IF(J2&lt;&gt;"", ", capacity: '"&amp;J2&amp;"'", "")&amp;IF(K2&lt;&gt;"", ", cost: '"&amp;K2&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(L2, CHAR(10), "\n")&amp;"'}"</f>
+      <c r="Q2" s="3" t="str">
+        <f>", '"&amp;A2&amp;"': {megami: '"&amp;B2&amp;"', name: '"&amp;C2&amp;"', ruby: '"&amp;D2&amp;"', baseType: '"&amp;VLOOKUP(E2,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F2,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G2&lt;&gt;"",", '"&amp; VLOOKUP(G2,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H2&lt;&gt;"", ", range: '"&amp;H2&amp;"'", "")&amp;IF(J2&lt;&gt;"", ", damage: '"&amp;J2&amp;"'", "")&amp;IF(L2&lt;&gt;"", ", capacity: '"&amp;L2&amp;"'", "")&amp;IF(M2&lt;&gt;"", ", cost: '"&amp;M2&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O2, CHAR(10), "\n")&amp;"'}"</f>
         <v>, '04-tokoyo-o-n-1': {megami: 'tokoyo', name: '梳流し', ruby: 'すきながし', baseType: 'normal', types: ['attack'], range: '4', damage: '-/1', text: '【攻撃後】境地-あなたの集中力が2ならば、このカードを山札の上に戻す。'}</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>35</v>
       </c>
@@ -1496,18 +1762,24 @@
       <c r="H3" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="K3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O3" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="M3" s="3" t="str">
-        <f>", '"&amp;A3&amp;"': {megami: '"&amp;B3&amp;"', name: '"&amp;C3&amp;"', ruby: '"&amp;D3&amp;"', baseType: '"&amp;VLOOKUP(E3,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F3,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G3&lt;&gt;"",", '"&amp; VLOOKUP(G3,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H3&lt;&gt;"", ", range: '"&amp;H3&amp;"'", "")&amp;IF(I3&lt;&gt;"", ", damage: '"&amp;I3&amp;"'", "")&amp;IF(J3&lt;&gt;"", ", capacity: '"&amp;J3&amp;"'", "")&amp;IF(K3&lt;&gt;"", ", cost: '"&amp;K3&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(L3, CHAR(10), "\n")&amp;"'}"</f>
+      <c r="Q3" s="3" t="str">
+        <f>", '"&amp;A3&amp;"': {megami: '"&amp;B3&amp;"', name: '"&amp;C3&amp;"', ruby: '"&amp;D3&amp;"', baseType: '"&amp;VLOOKUP(E3,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F3,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G3&lt;&gt;"",", '"&amp; VLOOKUP(G3,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H3&lt;&gt;"", ", range: '"&amp;H3&amp;"'", "")&amp;IF(J3&lt;&gt;"", ", damage: '"&amp;J3&amp;"'", "")&amp;IF(L3&lt;&gt;"", ", capacity: '"&amp;L3&amp;"'", "")&amp;IF(M3&lt;&gt;"", ", cost: '"&amp;M3&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O3, CHAR(10), "\n")&amp;"'}"</f>
         <v>, '04-tokoyo-o-n-2': {megami: 'tokoyo', name: '雅打ち', ruby: 'みやびうち', baseType: 'normal', types: ['attack'], range: '2-4', damage: '2/1', text: '【攻撃後】境地-あなたの集中力が2ならば、対応した切札でない《攻撃》を打ち消す。'}</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>36</v>
       </c>
@@ -1526,15 +1798,15 @@
       <c r="F4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="O4" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="M4" s="3" t="str">
-        <f>", '"&amp;A4&amp;"': {megami: '"&amp;B4&amp;"', name: '"&amp;C4&amp;"', ruby: '"&amp;D4&amp;"', baseType: '"&amp;VLOOKUP(E4,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F4,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G4&lt;&gt;"",", '"&amp; VLOOKUP(G4,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H4&lt;&gt;"", ", range: '"&amp;H4&amp;"'", "")&amp;IF(I4&lt;&gt;"", ", damage: '"&amp;I4&amp;"'", "")&amp;IF(J4&lt;&gt;"", ", capacity: '"&amp;J4&amp;"'", "")&amp;IF(K4&lt;&gt;"", ", cost: '"&amp;K4&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(L4, CHAR(10), "\n")&amp;"'}"</f>
+      <c r="Q4" s="3" t="str">
+        <f>", '"&amp;A4&amp;"': {megami: '"&amp;B4&amp;"', name: '"&amp;C4&amp;"', ruby: '"&amp;D4&amp;"', baseType: '"&amp;VLOOKUP(E4,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F4,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G4&lt;&gt;"",", '"&amp; VLOOKUP(G4,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H4&lt;&gt;"", ", range: '"&amp;H4&amp;"'", "")&amp;IF(J4&lt;&gt;"", ", damage: '"&amp;J4&amp;"'", "")&amp;IF(L4&lt;&gt;"", ", capacity: '"&amp;L4&amp;"'", "")&amp;IF(M4&lt;&gt;"", ", cost: '"&amp;M4&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O4, CHAR(10), "\n")&amp;"'}"</f>
         <v>, '04-tokoyo-o-n-3': {megami: 'tokoyo', name: '跳ね兎', ruby: 'はねうさぎ', baseType: 'normal', types: ['action'], text: '現在の間合が3以下ならば、ダスト→間合：2'}</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="36" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" ht="36" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>37</v>
       </c>
@@ -1556,15 +1828,15 @@
       <c r="G5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="O5" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="M5" s="3" t="str">
-        <f>", '"&amp;A5&amp;"': {megami: '"&amp;B5&amp;"', name: '"&amp;C5&amp;"', ruby: '"&amp;D5&amp;"', baseType: '"&amp;VLOOKUP(E5,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F5,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G5&lt;&gt;"",", '"&amp; VLOOKUP(G5,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H5&lt;&gt;"", ", range: '"&amp;H5&amp;"'", "")&amp;IF(I5&lt;&gt;"", ", damage: '"&amp;I5&amp;"'", "")&amp;IF(J5&lt;&gt;"", ", capacity: '"&amp;J5&amp;"'", "")&amp;IF(K5&lt;&gt;"", ", cost: '"&amp;K5&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(L5, CHAR(10), "\n")&amp;"'}"</f>
+      <c r="Q5" s="3" t="str">
+        <f>", '"&amp;A5&amp;"': {megami: '"&amp;B5&amp;"', name: '"&amp;C5&amp;"', ruby: '"&amp;D5&amp;"', baseType: '"&amp;VLOOKUP(E5,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F5,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G5&lt;&gt;"",", '"&amp; VLOOKUP(G5,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H5&lt;&gt;"", ", range: '"&amp;H5&amp;"'", "")&amp;IF(J5&lt;&gt;"", ", damage: '"&amp;J5&amp;"'", "")&amp;IF(L5&lt;&gt;"", ", capacity: '"&amp;L5&amp;"'", "")&amp;IF(M5&lt;&gt;"", ", cost: '"&amp;M5&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O5, CHAR(10), "\n")&amp;"'}"</f>
         <v>, '04-tokoyo-o-n-4': {megami: 'tokoyo', name: '詩舞', ruby: 'しぶ', baseType: 'normal', types: ['action', 'reaction'], text: '集中力を1得て、以下から1つを選ぶ。\n・自フレア→自オーラ：1\n・自オーラ→間合：1'}</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="36" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" ht="36" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
@@ -1586,15 +1858,15 @@
       <c r="G6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="O6" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="M6" s="3" t="str">
-        <f>", '"&amp;A6&amp;"': {megami: '"&amp;B6&amp;"', name: '"&amp;C6&amp;"', ruby: '"&amp;D6&amp;"', baseType: '"&amp;VLOOKUP(E6,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F6,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G6&lt;&gt;"",", '"&amp; VLOOKUP(G6,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H6&lt;&gt;"", ", range: '"&amp;H6&amp;"'", "")&amp;IF(I6&lt;&gt;"", ", damage: '"&amp;I6&amp;"'", "")&amp;IF(J6&lt;&gt;"", ", capacity: '"&amp;J6&amp;"'", "")&amp;IF(K6&lt;&gt;"", ", cost: '"&amp;K6&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(L6, CHAR(10), "\n")&amp;"'}"</f>
+      <c r="Q6" s="3" t="str">
+        <f>", '"&amp;A6&amp;"': {megami: '"&amp;B6&amp;"', name: '"&amp;C6&amp;"', ruby: '"&amp;D6&amp;"', baseType: '"&amp;VLOOKUP(E6,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F6,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G6&lt;&gt;"",", '"&amp; VLOOKUP(G6,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H6&lt;&gt;"", ", range: '"&amp;H6&amp;"'", "")&amp;IF(J6&lt;&gt;"", ", damage: '"&amp;J6&amp;"'", "")&amp;IF(L6&lt;&gt;"", ", capacity: '"&amp;L6&amp;"'", "")&amp;IF(M6&lt;&gt;"", ", cost: '"&amp;M6&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O6, CHAR(10), "\n")&amp;"'}"</f>
         <v>, '04-tokoyo-o-n-5': {megami: 'tokoyo', name: '要返し', ruby: 'かなめがえし', baseType: 'normal', types: ['action', 'fullpower'], text: '捨て札か伏せ札からカードを2枚まで選ぶ。それらのカードを好きな順で山札の底に置く。 \nダスト→自オーラ：2'}</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" ht="24" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>39</v>
       </c>
@@ -1613,18 +1885,18 @@
       <c r="F7" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="4">
+      <c r="L7" s="4">
         <v>2</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="O7" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="M7" s="3" t="str">
-        <f>", '"&amp;A7&amp;"': {megami: '"&amp;B7&amp;"', name: '"&amp;C7&amp;"', ruby: '"&amp;D7&amp;"', baseType: '"&amp;VLOOKUP(E7,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F7,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G7&lt;&gt;"",", '"&amp; VLOOKUP(G7,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H7&lt;&gt;"", ", range: '"&amp;H7&amp;"'", "")&amp;IF(I7&lt;&gt;"", ", damage: '"&amp;I7&amp;"'", "")&amp;IF(J7&lt;&gt;"", ", capacity: '"&amp;J7&amp;"'", "")&amp;IF(K7&lt;&gt;"", ", cost: '"&amp;K7&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(L7, CHAR(10), "\n")&amp;"'}"</f>
+      <c r="Q7" s="3" t="str">
+        <f>", '"&amp;A7&amp;"': {megami: '"&amp;B7&amp;"', name: '"&amp;C7&amp;"', ruby: '"&amp;D7&amp;"', baseType: '"&amp;VLOOKUP(E7,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F7,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G7&lt;&gt;"",", '"&amp; VLOOKUP(G7,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H7&lt;&gt;"", ", range: '"&amp;H7&amp;"'", "")&amp;IF(J7&lt;&gt;"", ", damage: '"&amp;J7&amp;"'", "")&amp;IF(L7&lt;&gt;"", ", capacity: '"&amp;L7&amp;"'", "")&amp;IF(M7&lt;&gt;"", ", cost: '"&amp;M7&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O7, CHAR(10), "\n")&amp;"'}"</f>
         <v>, '04-tokoyo-o-n-6': {megami: 'tokoyo', name: '風舞台', ruby: 'かぜぶたい', baseType: 'normal', types: ['enhance'], capacity: '2', text: '【展開時】間合→自オーラ：2 \n【破棄時】自オーラ→間合：2'}</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" ht="24" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>40</v>
       </c>
@@ -1643,18 +1915,18 @@
       <c r="F8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J8" s="4">
+      <c r="L8" s="4">
         <v>1</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="O8" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="M8" s="3" t="str">
-        <f>", '"&amp;A8&amp;"': {megami: '"&amp;B8&amp;"', name: '"&amp;C8&amp;"', ruby: '"&amp;D8&amp;"', baseType: '"&amp;VLOOKUP(E8,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F8,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G8&lt;&gt;"",", '"&amp; VLOOKUP(G8,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H8&lt;&gt;"", ", range: '"&amp;H8&amp;"'", "")&amp;IF(I8&lt;&gt;"", ", damage: '"&amp;I8&amp;"'", "")&amp;IF(J8&lt;&gt;"", ", capacity: '"&amp;J8&amp;"'", "")&amp;IF(K8&lt;&gt;"", ", cost: '"&amp;K8&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(L8, CHAR(10), "\n")&amp;"'}"</f>
+      <c r="Q8" s="3" t="str">
+        <f>", '"&amp;A8&amp;"': {megami: '"&amp;B8&amp;"', name: '"&amp;C8&amp;"', ruby: '"&amp;D8&amp;"', baseType: '"&amp;VLOOKUP(E8,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F8,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G8&lt;&gt;"",", '"&amp; VLOOKUP(G8,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H8&lt;&gt;"", ", range: '"&amp;H8&amp;"'", "")&amp;IF(J8&lt;&gt;"", ", damage: '"&amp;J8&amp;"'", "")&amp;IF(L8&lt;&gt;"", ", capacity: '"&amp;L8&amp;"'", "")&amp;IF(M8&lt;&gt;"", ", cost: '"&amp;M8&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O8, CHAR(10), "\n")&amp;"'}"</f>
         <v>, '04-tokoyo-o-n-7': {megami: 'tokoyo', name: '晴舞台', ruby: 'はれぶたい', baseType: 'normal', types: ['enhance'], capacity: '1', text: '【破棄時】境地-あなたの集中力が2ならば、ダスト→自オーラ：2 \n【破棄時】境地-あなたは集中力を1得る。'}</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>84</v>
       </c>
@@ -1676,21 +1948,27 @@
       <c r="H9" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="K9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M9" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="O9" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="M9" s="3" t="str">
-        <f>", '"&amp;A9&amp;"': {megami: '"&amp;B9&amp;"', name: '"&amp;C9&amp;"', ruby: '"&amp;D9&amp;"', baseType: '"&amp;VLOOKUP(E9,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F9,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G9&lt;&gt;"",", '"&amp; VLOOKUP(G9,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H9&lt;&gt;"", ", range: '"&amp;H9&amp;"'", "")&amp;IF(I9&lt;&gt;"", ", damage: '"&amp;I9&amp;"'", "")&amp;IF(J9&lt;&gt;"", ", capacity: '"&amp;J9&amp;"'", "")&amp;IF(K9&lt;&gt;"", ", cost: '"&amp;K9&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(L9, CHAR(10), "\n")&amp;"'}"</f>
+      <c r="Q9" s="3" t="str">
+        <f>", '"&amp;A9&amp;"': {megami: '"&amp;B9&amp;"', name: '"&amp;C9&amp;"', ruby: '"&amp;D9&amp;"', baseType: '"&amp;VLOOKUP(E9,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F9,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G9&lt;&gt;"",", '"&amp; VLOOKUP(G9,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H9&lt;&gt;"", ", range: '"&amp;H9&amp;"'", "")&amp;IF(J9&lt;&gt;"", ", damage: '"&amp;J9&amp;"'", "")&amp;IF(L9&lt;&gt;"", ", capacity: '"&amp;L9&amp;"'", "")&amp;IF(M9&lt;&gt;"", ", cost: '"&amp;M9&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O9, CHAR(10), "\n")&amp;"'}"</f>
         <v>, '04-tokoyo-o-s-1': {megami: 'tokoyo', name: '久遠ノ花', ruby: 'くおんのはな', baseType: 'special', types: ['attack'], range: '0-10', damage: '-/1', cost: '5', text: '【攻撃後】対応した《攻撃》を打ち消す。'}</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" ht="24" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>85</v>
       </c>
@@ -1712,21 +1990,27 @@
       <c r="H10" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>91</v>
       </c>
       <c r="K10" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M10" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="O10" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="M10" s="3" t="str">
-        <f>", '"&amp;A10&amp;"': {megami: '"&amp;B10&amp;"', name: '"&amp;C10&amp;"', ruby: '"&amp;D10&amp;"', baseType: '"&amp;VLOOKUP(E10,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F10,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G10&lt;&gt;"",", '"&amp; VLOOKUP(G10,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H10&lt;&gt;"", ", range: '"&amp;H10&amp;"'", "")&amp;IF(I10&lt;&gt;"", ", damage: '"&amp;I10&amp;"'", "")&amp;IF(J10&lt;&gt;"", ", capacity: '"&amp;J10&amp;"'", "")&amp;IF(K10&lt;&gt;"", ", cost: '"&amp;K10&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(L10, CHAR(10), "\n")&amp;"'}"</f>
+      <c r="Q10" s="3" t="str">
+        <f>", '"&amp;A10&amp;"': {megami: '"&amp;B10&amp;"', name: '"&amp;C10&amp;"', ruby: '"&amp;D10&amp;"', baseType: '"&amp;VLOOKUP(E10,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F10,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G10&lt;&gt;"",", '"&amp; VLOOKUP(G10,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H10&lt;&gt;"", ", range: '"&amp;H10&amp;"'", "")&amp;IF(J10&lt;&gt;"", ", damage: '"&amp;J10&amp;"'", "")&amp;IF(L10&lt;&gt;"", ", capacity: '"&amp;L10&amp;"'", "")&amp;IF(M10&lt;&gt;"", ", cost: '"&amp;M10&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O10, CHAR(10), "\n")&amp;"'}"</f>
         <v>, '04-tokoyo-o-s-2': {megami: 'tokoyo', name: '千歳ノ鳥', ruby: 'ちとせのとり', baseType: 'special', types: ['attack'], range: '3-4', damage: '2/2', cost: '2', text: '【攻撃後】山札を再構成する。 \n(その際にダメージは受けない)'}</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="48" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" ht="48" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>86</v>
       </c>
@@ -1748,21 +2032,27 @@
       <c r="H11" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>92</v>
       </c>
       <c r="K11" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="M11" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="L11" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="M11" s="3" t="str">
-        <f>", '"&amp;A11&amp;"': {megami: '"&amp;B11&amp;"', name: '"&amp;C11&amp;"', ruby: '"&amp;D11&amp;"', baseType: '"&amp;VLOOKUP(E11,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F11,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G11&lt;&gt;"",", '"&amp; VLOOKUP(G11,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H11&lt;&gt;"", ", range: '"&amp;H11&amp;"'", "")&amp;IF(I11&lt;&gt;"", ", damage: '"&amp;I11&amp;"'", "")&amp;IF(J11&lt;&gt;"", ", capacity: '"&amp;J11&amp;"'", "")&amp;IF(K11&lt;&gt;"", ", cost: '"&amp;K11&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(L11, CHAR(10), "\n")&amp;"'}"</f>
+      <c r="O11" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q11" s="3" t="str">
+        <f>", '"&amp;A11&amp;"': {megami: '"&amp;B11&amp;"', name: '"&amp;C11&amp;"', ruby: '"&amp;D11&amp;"', baseType: '"&amp;VLOOKUP(E11,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F11,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G11&lt;&gt;"",", '"&amp; VLOOKUP(G11,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H11&lt;&gt;"", ", range: '"&amp;H11&amp;"'", "")&amp;IF(J11&lt;&gt;"", ", damage: '"&amp;J11&amp;"'", "")&amp;IF(L11&lt;&gt;"", ", capacity: '"&amp;L11&amp;"'", "")&amp;IF(M11&lt;&gt;"", ", cost: '"&amp;M11&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O11, CHAR(10), "\n")&amp;"'}"</f>
         <v>, '04-tokoyo-o-s-3': {megami: 'tokoyo', name: '無窮ノ風', ruby: 'むきゅうのかぜ', baseType: 'special', types: ['attack'], range: '3-8', damage: '1/1', cost: '1', text: '対応不可 \n【攻撃後】相手は手札から《攻撃》でないカード1枚を捨て札にする。それが行えない場合、相手は手札を公開する。 \n【再起】境地-あなたの集中力が2である。'}</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>87</v>
       </c>
@@ -1781,29 +2071,29 @@
       <c r="F12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="M12" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="O12" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="M12" s="3" t="str">
-        <f>", '"&amp;A12&amp;"': {megami: '"&amp;B12&amp;"', name: '"&amp;C12&amp;"', ruby: '"&amp;D12&amp;"', baseType: '"&amp;VLOOKUP(E12,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F12,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G12&lt;&gt;"",", '"&amp; VLOOKUP(G12,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H12&lt;&gt;"", ", range: '"&amp;H12&amp;"'", "")&amp;IF(I12&lt;&gt;"", ", damage: '"&amp;I12&amp;"'", "")&amp;IF(J12&lt;&gt;"", ", capacity: '"&amp;J12&amp;"'", "")&amp;IF(K12&lt;&gt;"", ", cost: '"&amp;K12&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(L12, CHAR(10), "\n")&amp;"'}"</f>
+      <c r="Q12" s="3" t="str">
+        <f>", '"&amp;A12&amp;"': {megami: '"&amp;B12&amp;"', name: '"&amp;C12&amp;"', ruby: '"&amp;D12&amp;"', baseType: '"&amp;VLOOKUP(E12,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F12,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G12&lt;&gt;"",", '"&amp; VLOOKUP(G12,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H12&lt;&gt;"", ", range: '"&amp;H12&amp;"'", "")&amp;IF(J12&lt;&gt;"", ", damage: '"&amp;J12&amp;"'", "")&amp;IF(L12&lt;&gt;"", ", capacity: '"&amp;L12&amp;"'", "")&amp;IF(M12&lt;&gt;"", ", cost: '"&amp;M12&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O12, CHAR(10), "\n")&amp;"'}"</f>
         <v>, '04-tokoyo-o-s-4': {megami: 'tokoyo', name: '常世ノ月', ruby: 'とこよのつき', baseType: 'special', types: ['action'], cost: '2', text: 'あなたの集中力は2になり、相手の集中力は0になり、相手を畏縮させる。'}</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>7</v>
@@ -1814,29 +2104,35 @@
       <c r="H13" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="M13" s="3" t="str">
-        <f>", '"&amp;A13&amp;"': {megami: '"&amp;B13&amp;"', name: '"&amp;C13&amp;"', ruby: '"&amp;D13&amp;"', baseType: '"&amp;VLOOKUP(E13,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F13,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G13&lt;&gt;"",", '"&amp; VLOOKUP(G13,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H13&lt;&gt;"", ", range: '"&amp;H13&amp;"'", "")&amp;IF(I13&lt;&gt;"", ", damage: '"&amp;I13&amp;"'", "")&amp;IF(J13&lt;&gt;"", ", capacity: '"&amp;J13&amp;"'", "")&amp;IF(K13&lt;&gt;"", ", cost: '"&amp;K13&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(L13, CHAR(10), "\n")&amp;"'}"</f>
+      <c r="I13" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q13" s="3" t="str">
+        <f>", '"&amp;A13&amp;"': {megami: '"&amp;B13&amp;"', name: '"&amp;C13&amp;"', ruby: '"&amp;D13&amp;"', baseType: '"&amp;VLOOKUP(E13,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F13,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G13&lt;&gt;"",", '"&amp; VLOOKUP(G13,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H13&lt;&gt;"", ", range: '"&amp;H13&amp;"'", "")&amp;IF(J13&lt;&gt;"", ", damage: '"&amp;J13&amp;"'", "")&amp;IF(L13&lt;&gt;"", ", capacity: '"&amp;L13&amp;"'", "")&amp;IF(M13&lt;&gt;"", ", cost: '"&amp;M13&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O13, CHAR(10), "\n")&amp;"'}"</f>
         <v>, '05-oboro-o-n-1': {megami: 'oboro', name: '鋼糸', ruby: 'こうし', baseType: 'normal', types: ['attack'], range: '3-4', damage: '2/2', text: '設置'}</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>7</v>
@@ -1847,29 +2143,35 @@
       <c r="H14" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="M14" s="3" t="str">
-        <f>", '"&amp;A14&amp;"': {megami: '"&amp;B14&amp;"', name: '"&amp;C14&amp;"', ruby: '"&amp;D14&amp;"', baseType: '"&amp;VLOOKUP(E14,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F14,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G14&lt;&gt;"",", '"&amp; VLOOKUP(G14,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H14&lt;&gt;"", ", range: '"&amp;H14&amp;"'", "")&amp;IF(I14&lt;&gt;"", ", damage: '"&amp;I14&amp;"'", "")&amp;IF(J14&lt;&gt;"", ", capacity: '"&amp;J14&amp;"'", "")&amp;IF(K14&lt;&gt;"", ", cost: '"&amp;K14&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(L14, CHAR(10), "\n")&amp;"'}"</f>
+      <c r="I14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q14" s="3" t="str">
+        <f>", '"&amp;A14&amp;"': {megami: '"&amp;B14&amp;"', name: '"&amp;C14&amp;"', ruby: '"&amp;D14&amp;"', baseType: '"&amp;VLOOKUP(E14,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F14,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G14&lt;&gt;"",", '"&amp; VLOOKUP(G14,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H14&lt;&gt;"", ", range: '"&amp;H14&amp;"'", "")&amp;IF(J14&lt;&gt;"", ", damage: '"&amp;J14&amp;"'", "")&amp;IF(L14&lt;&gt;"", ", capacity: '"&amp;L14&amp;"'", "")&amp;IF(M14&lt;&gt;"", ", cost: '"&amp;M14&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O14, CHAR(10), "\n")&amp;"'}"</f>
         <v>, '05-oboro-o-n-2': {megami: 'oboro', name: '影菱', ruby: 'かげびし', baseType: 'normal', types: ['attack'], range: '2', damage: '2/1', text: '設置　対応不可\n【攻撃後】このカードを伏せ札から使用したならば、相手の手札を見てその中から1枚を選び、それを伏せ札にする。'}</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" ht="24" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>7</v>
@@ -1883,29 +2185,35 @@
       <c r="H15" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="M15" s="3" t="str">
-        <f>", '"&amp;A15&amp;"': {megami: '"&amp;B15&amp;"', name: '"&amp;C15&amp;"', ruby: '"&amp;D15&amp;"', baseType: '"&amp;VLOOKUP(E15,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F15,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G15&lt;&gt;"",", '"&amp; VLOOKUP(G15,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H15&lt;&gt;"", ", range: '"&amp;H15&amp;"'", "")&amp;IF(I15&lt;&gt;"", ", damage: '"&amp;I15&amp;"'", "")&amp;IF(J15&lt;&gt;"", ", capacity: '"&amp;J15&amp;"'", "")&amp;IF(K15&lt;&gt;"", ", cost: '"&amp;K15&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(L15, CHAR(10), "\n")&amp;"'}"</f>
+      <c r="I15" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q15" s="3" t="str">
+        <f>", '"&amp;A15&amp;"': {megami: '"&amp;B15&amp;"', name: '"&amp;C15&amp;"', ruby: '"&amp;D15&amp;"', baseType: '"&amp;VLOOKUP(E15,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F15,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G15&lt;&gt;"",", '"&amp; VLOOKUP(G15,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H15&lt;&gt;"", ", range: '"&amp;H15&amp;"'", "")&amp;IF(J15&lt;&gt;"", ", damage: '"&amp;J15&amp;"'", "")&amp;IF(L15&lt;&gt;"", ", capacity: '"&amp;L15&amp;"'", "")&amp;IF(M15&lt;&gt;"", ", cost: '"&amp;M15&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O15, CHAR(10), "\n")&amp;"'}"</f>
         <v>, '05-oboro-o-n-3': {megami: 'oboro', name: '斬撃乱舞', ruby: 'ざんげきらんぶ', baseType: 'normal', types: ['attack', 'fullpower'], range: '2-4', damage: '3/2', text: '【常時】相手がこのターン中にオーラへのダメージを受けているならば、この《攻撃》は+1/+1となる。'}</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="48" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" ht="48" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>7</v>
@@ -1913,26 +2221,26 @@
       <c r="F16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L16" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="M16" s="3" t="str">
-        <f>", '"&amp;A16&amp;"': {megami: '"&amp;B16&amp;"', name: '"&amp;C16&amp;"', ruby: '"&amp;D16&amp;"', baseType: '"&amp;VLOOKUP(E16,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F16,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G16&lt;&gt;"",", '"&amp; VLOOKUP(G16,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H16&lt;&gt;"", ", range: '"&amp;H16&amp;"'", "")&amp;IF(I16&lt;&gt;"", ", damage: '"&amp;I16&amp;"'", "")&amp;IF(J16&lt;&gt;"", ", capacity: '"&amp;J16&amp;"'", "")&amp;IF(K16&lt;&gt;"", ", cost: '"&amp;K16&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(L16, CHAR(10), "\n")&amp;"'}"</f>
+      <c r="O16" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q16" s="3" t="str">
+        <f>", '"&amp;A16&amp;"': {megami: '"&amp;B16&amp;"', name: '"&amp;C16&amp;"', ruby: '"&amp;D16&amp;"', baseType: '"&amp;VLOOKUP(E16,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F16,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G16&lt;&gt;"",", '"&amp; VLOOKUP(G16,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H16&lt;&gt;"", ", range: '"&amp;H16&amp;"'", "")&amp;IF(J16&lt;&gt;"", ", damage: '"&amp;J16&amp;"'", "")&amp;IF(L16&lt;&gt;"", ", capacity: '"&amp;L16&amp;"'", "")&amp;IF(M16&lt;&gt;"", ", cost: '"&amp;M16&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O16, CHAR(10), "\n")&amp;"'}"</f>
         <v>, '05-oboro-o-n-4': {megami: 'oboro', name: '忍歩', ruby: 'にんぽ', baseType: 'normal', types: ['action'], text: '設置 \n間合⇔ダスト：1 \nこのカードを伏せ札から使用したならば、伏せ札から設置を持つカードを1枚使用してもよい。'}</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="48" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" ht="48" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>7</v>
@@ -1943,26 +2251,26 @@
       <c r="G17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L17" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="M17" s="3" t="str">
-        <f>", '"&amp;A17&amp;"': {megami: '"&amp;B17&amp;"', name: '"&amp;C17&amp;"', ruby: '"&amp;D17&amp;"', baseType: '"&amp;VLOOKUP(E17,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F17,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G17&lt;&gt;"",", '"&amp; VLOOKUP(G17,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H17&lt;&gt;"", ", range: '"&amp;H17&amp;"'", "")&amp;IF(I17&lt;&gt;"", ", damage: '"&amp;I17&amp;"'", "")&amp;IF(J17&lt;&gt;"", ", capacity: '"&amp;J17&amp;"'", "")&amp;IF(K17&lt;&gt;"", ", cost: '"&amp;K17&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(L17, CHAR(10), "\n")&amp;"'}"</f>
+      <c r="O17" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q17" s="3" t="str">
+        <f>", '"&amp;A17&amp;"': {megami: '"&amp;B17&amp;"', name: '"&amp;C17&amp;"', ruby: '"&amp;D17&amp;"', baseType: '"&amp;VLOOKUP(E17,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F17,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G17&lt;&gt;"",", '"&amp; VLOOKUP(G17,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H17&lt;&gt;"", ", range: '"&amp;H17&amp;"'", "")&amp;IF(J17&lt;&gt;"", ", damage: '"&amp;J17&amp;"'", "")&amp;IF(L17&lt;&gt;"", ", capacity: '"&amp;L17&amp;"'", "")&amp;IF(M17&lt;&gt;"", ", cost: '"&amp;M17&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O17, CHAR(10), "\n")&amp;"'}"</f>
         <v>, '05-oboro-o-n-5': {megami: 'oboro', name: '誘導', ruby: 'ゆうどう', baseType: 'normal', types: ['action', 'reaction'], text: '設置\n以下から１つを選ぶ。\n・間合→相オーラ：1\n・相オーラ→相フレア：1'}</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="36" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" ht="36" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>7</v>
@@ -1973,26 +2281,26 @@
       <c r="G18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L18" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="M18" s="3" t="str">
-        <f>", '"&amp;A18&amp;"': {megami: '"&amp;B18&amp;"', name: '"&amp;C18&amp;"', ruby: '"&amp;D18&amp;"', baseType: '"&amp;VLOOKUP(E18,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F18,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G18&lt;&gt;"",", '"&amp; VLOOKUP(G18,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H18&lt;&gt;"", ", range: '"&amp;H18&amp;"'", "")&amp;IF(I18&lt;&gt;"", ", damage: '"&amp;I18&amp;"'", "")&amp;IF(J18&lt;&gt;"", ", capacity: '"&amp;J18&amp;"'", "")&amp;IF(K18&lt;&gt;"", ", cost: '"&amp;K18&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(L18, CHAR(10), "\n")&amp;"'}"</f>
+      <c r="O18" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q18" s="3" t="str">
+        <f>", '"&amp;A18&amp;"': {megami: '"&amp;B18&amp;"', name: '"&amp;C18&amp;"', ruby: '"&amp;D18&amp;"', baseType: '"&amp;VLOOKUP(E18,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F18,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G18&lt;&gt;"",", '"&amp; VLOOKUP(G18,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H18&lt;&gt;"", ", range: '"&amp;H18&amp;"'", "")&amp;IF(J18&lt;&gt;"", ", damage: '"&amp;J18&amp;"'", "")&amp;IF(L18&lt;&gt;"", ", capacity: '"&amp;L18&amp;"'", "")&amp;IF(M18&lt;&gt;"", ", cost: '"&amp;M18&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O18, CHAR(10), "\n")&amp;"'}"</f>
         <v>, '05-oboro-o-n-6': {megami: 'oboro', name: '分身の術', ruby: 'ぶんしんのじゅつ', baseType: 'normal', types: ['action', 'fullpower'], text: '伏せ札から《全力》でないカードを1枚選び、そのカードを使用する。その後、そのカードが捨て札にあるならば捨て札からもう1回使用する。《攻撃》カードが使用されたならばそれらの《攻撃》は対応不可を得る（2回ともに対応不可を得る）。'}</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17" ht="24" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>7</v>
@@ -2000,29 +2308,29 @@
       <c r="F19" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J19" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="M19" s="3" t="str">
-        <f>", '"&amp;A19&amp;"': {megami: '"&amp;B19&amp;"', name: '"&amp;C19&amp;"', ruby: '"&amp;D19&amp;"', baseType: '"&amp;VLOOKUP(E19,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F19,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G19&lt;&gt;"",", '"&amp; VLOOKUP(G19,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H19&lt;&gt;"", ", range: '"&amp;H19&amp;"'", "")&amp;IF(I19&lt;&gt;"", ", damage: '"&amp;I19&amp;"'", "")&amp;IF(J19&lt;&gt;"", ", capacity: '"&amp;J19&amp;"'", "")&amp;IF(K19&lt;&gt;"", ", cost: '"&amp;K19&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(L19, CHAR(10), "\n")&amp;"'}"</f>
+      <c r="L19" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q19" s="3" t="str">
+        <f>", '"&amp;A19&amp;"': {megami: '"&amp;B19&amp;"', name: '"&amp;C19&amp;"', ruby: '"&amp;D19&amp;"', baseType: '"&amp;VLOOKUP(E19,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F19,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G19&lt;&gt;"",", '"&amp; VLOOKUP(G19,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H19&lt;&gt;"", ", range: '"&amp;H19&amp;"'", "")&amp;IF(J19&lt;&gt;"", ", damage: '"&amp;J19&amp;"'", "")&amp;IF(L19&lt;&gt;"", ", capacity: '"&amp;L19&amp;"'", "")&amp;IF(M19&lt;&gt;"", ", cost: '"&amp;M19&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O19, CHAR(10), "\n")&amp;"'}"</f>
         <v>, '05-oboro-o-n-7': {megami: 'oboro', name: '生体活性', ruby: 'せいたいかっせい', baseType: 'normal', types: ['enhance'], capacity: '4', text: '隙　設置 \n【破棄時】あなたの使用済の切札を1枚選び、それを未使用に戻す。'}</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>19</v>
@@ -2036,32 +2344,38 @@
       <c r="H20" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>141</v>
+      <c r="I20" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="K20" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M20" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="L20" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="M20" s="3" t="str">
-        <f>", '"&amp;A20&amp;"': {megami: '"&amp;B20&amp;"', name: '"&amp;C20&amp;"', ruby: '"&amp;D20&amp;"', baseType: '"&amp;VLOOKUP(E20,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F20,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G20&lt;&gt;"",", '"&amp; VLOOKUP(G20,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H20&lt;&gt;"", ", range: '"&amp;H20&amp;"'", "")&amp;IF(I20&lt;&gt;"", ", damage: '"&amp;I20&amp;"'", "")&amp;IF(J20&lt;&gt;"", ", capacity: '"&amp;J20&amp;"'", "")&amp;IF(K20&lt;&gt;"", ", cost: '"&amp;K20&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(L20, CHAR(10), "\n")&amp;"'}"</f>
+      <c r="O20" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q20" s="3" t="str">
+        <f>", '"&amp;A20&amp;"': {megami: '"&amp;B20&amp;"', name: '"&amp;C20&amp;"', ruby: '"&amp;D20&amp;"', baseType: '"&amp;VLOOKUP(E20,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F20,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G20&lt;&gt;"",", '"&amp; VLOOKUP(G20,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H20&lt;&gt;"", ", range: '"&amp;H20&amp;"'", "")&amp;IF(J20&lt;&gt;"", ", damage: '"&amp;J20&amp;"'", "")&amp;IF(L20&lt;&gt;"", ", capacity: '"&amp;L20&amp;"'", "")&amp;IF(M20&lt;&gt;"", ", cost: '"&amp;M20&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O20, CHAR(10), "\n")&amp;"'}"</f>
         <v>, '05-oboro-o-s-1': {megami: 'oboro', name: '熊介', ruby: 'くますけ', baseType: 'special', types: ['attack', 'fullpower'], range: '3-4', damage: '2/2', cost: '4', text: '【攻撃後】攻撃『適正距離3-4、2/2』をX回行う。Xはあなたの伏せ札の枚数に等しい。'}</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="36" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17" ht="36" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>19</v>
@@ -2072,29 +2386,29 @@
       <c r="G21" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K21" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="M21" s="3" t="str">
-        <f>", '"&amp;A21&amp;"': {megami: '"&amp;B21&amp;"', name: '"&amp;C21&amp;"', ruby: '"&amp;D21&amp;"', baseType: '"&amp;VLOOKUP(E21,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F21,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G21&lt;&gt;"",", '"&amp; VLOOKUP(G21,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H21&lt;&gt;"", ", range: '"&amp;H21&amp;"'", "")&amp;IF(I21&lt;&gt;"", ", damage: '"&amp;I21&amp;"'", "")&amp;IF(J21&lt;&gt;"", ", capacity: '"&amp;J21&amp;"'", "")&amp;IF(K21&lt;&gt;"", ", cost: '"&amp;K21&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(L21, CHAR(10), "\n")&amp;"'}"</f>
+      <c r="M21" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q21" s="3" t="str">
+        <f>", '"&amp;A21&amp;"': {megami: '"&amp;B21&amp;"', name: '"&amp;C21&amp;"', ruby: '"&amp;D21&amp;"', baseType: '"&amp;VLOOKUP(E21,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F21,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G21&lt;&gt;"",", '"&amp; VLOOKUP(G21,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H21&lt;&gt;"", ", range: '"&amp;H21&amp;"'", "")&amp;IF(J21&lt;&gt;"", ", damage: '"&amp;J21&amp;"'", "")&amp;IF(L21&lt;&gt;"", ", capacity: '"&amp;L21&amp;"'", "")&amp;IF(M21&lt;&gt;"", ", cost: '"&amp;M21&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O21, CHAR(10), "\n")&amp;"'}"</f>
         <v>, '05-oboro-o-s-2': {megami: 'oboro', name: '鳶影', ruby: 'とびかげ', baseType: 'special', types: ['action', 'reaction'], cost: '3', text: '伏せ札から《全力》でないカードを1枚選び、そのカードを使用してもよい。この際、このカードが対応している《攻撃》があるならば、使用されたカードはそれに対応しているものと扱う。'}</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17" ht="24" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>19</v>
@@ -2102,29 +2416,29 @@
       <c r="F22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K22" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="M22" s="3" t="str">
-        <f>", '"&amp;A22&amp;"': {megami: '"&amp;B22&amp;"', name: '"&amp;C22&amp;"', ruby: '"&amp;D22&amp;"', baseType: '"&amp;VLOOKUP(E22,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F22,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G22&lt;&gt;"",", '"&amp; VLOOKUP(G22,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H22&lt;&gt;"", ", range: '"&amp;H22&amp;"'", "")&amp;IF(I22&lt;&gt;"", ", damage: '"&amp;I22&amp;"'", "")&amp;IF(J22&lt;&gt;"", ", capacity: '"&amp;J22&amp;"'", "")&amp;IF(K22&lt;&gt;"", ", cost: '"&amp;K22&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(L22, CHAR(10), "\n")&amp;"'}"</f>
+      <c r="M22" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q22" s="3" t="str">
+        <f>", '"&amp;A22&amp;"': {megami: '"&amp;B22&amp;"', name: '"&amp;C22&amp;"', ruby: '"&amp;D22&amp;"', baseType: '"&amp;VLOOKUP(E22,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F22,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G22&lt;&gt;"",", '"&amp; VLOOKUP(G22,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H22&lt;&gt;"", ", range: '"&amp;H22&amp;"'", "")&amp;IF(J22&lt;&gt;"", ", damage: '"&amp;J22&amp;"'", "")&amp;IF(L22&lt;&gt;"", ", capacity: '"&amp;L22&amp;"'", "")&amp;IF(M22&lt;&gt;"", ", cost: '"&amp;M22&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O22, CHAR(10), "\n")&amp;"'}"</f>
         <v>, '05-oboro-o-s-3': {megami: 'oboro', name: '虚魚', ruby: 'うろうお', baseType: 'special', types: ['action'], cost: '4', text: '【使用済】あなたは1回の再構成に対して、設置を持つカードを任意の枚数、任意の順で使用できる。'}</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17" ht="24" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="C23" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>19</v>
@@ -2132,29 +2446,26 @@
       <c r="F23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K23" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="M23" s="3" t="str">
-        <f>", '"&amp;A23&amp;"': {megami: '"&amp;B23&amp;"', name: '"&amp;C23&amp;"', ruby: '"&amp;D23&amp;"', baseType: '"&amp;VLOOKUP(E23,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F23,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G23&lt;&gt;"",", '"&amp; VLOOKUP(G23,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H23&lt;&gt;"", ", range: '"&amp;H23&amp;"'", "")&amp;IF(I23&lt;&gt;"", ", damage: '"&amp;I23&amp;"'", "")&amp;IF(J23&lt;&gt;"", ", capacity: '"&amp;J23&amp;"'", "")&amp;IF(K23&lt;&gt;"", ", cost: '"&amp;K23&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(L23, CHAR(10), "\n")&amp;"'}"</f>
+      <c r="M23" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q23" s="3" t="str">
+        <f>", '"&amp;A23&amp;"': {megami: '"&amp;B23&amp;"', name: '"&amp;C23&amp;"', ruby: '"&amp;D23&amp;"', baseType: '"&amp;VLOOKUP(E23,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F23,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G23&lt;&gt;"",", '"&amp; VLOOKUP(G23,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H23&lt;&gt;"", ", range: '"&amp;H23&amp;"'", "")&amp;IF(J23&lt;&gt;"", ", damage: '"&amp;J23&amp;"'", "")&amp;IF(L23&lt;&gt;"", ", capacity: '"&amp;L23&amp;"'", "")&amp;IF(M23&lt;&gt;"", ", cost: '"&amp;M23&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O23, CHAR(10), "\n")&amp;"'}"</f>
         <v>, '05-oboro-o-s-4': {megami: 'oboro', name: '壬蔓', ruby: 'みかずら', baseType: 'special', types: ['action'], cost: '0', text: '相オーラ→自フレア：1 \n再起：あなたのフレアが0である。'}</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>162</v>
+        <v>259</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>167</v>
+        <v>275</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>7</v>
@@ -2162,29 +2473,33 @@
       <c r="F24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="M24" s="3" t="str">
-        <f>", '"&amp;A24&amp;"': {megami: '"&amp;B24&amp;"', name: '"&amp;C24&amp;"', ruby: '"&amp;D24&amp;"', baseType: '"&amp;VLOOKUP(E24,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F24,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G24&lt;&gt;"",", '"&amp; VLOOKUP(G24,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H24&lt;&gt;"", ", range: '"&amp;H24&amp;"'", "")&amp;IF(I24&lt;&gt;"", ", damage: '"&amp;I24&amp;"'", "")&amp;IF(J24&lt;&gt;"", ", capacity: '"&amp;J24&amp;"'", "")&amp;IF(K24&lt;&gt;"", ", cost: '"&amp;K24&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(L24, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '09-chikage-o-n-1': {megami: 'chikage', name: '飛苦無', ruby: 'とびくない', baseType: 'normal', types: ['attack'], range: '4-5', damage: '2/2', text: ''}</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="H24" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="9" t="str">
+        <f>", '"&amp;A24&amp;"': {megami: '"&amp;B24&amp;"', name: '"&amp;C24&amp;"', ruby: '"&amp;D24&amp;"', baseType: '"&amp;VLOOKUP(E24,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F24,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G24&lt;&gt;"",", '"&amp; VLOOKUP(G24,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H24&lt;&gt;"", ", range: '"&amp;H24&amp;"'", "")&amp;IF(I24&lt;&gt;"", ", rangeOpened: '"&amp;I24&amp;"'", "")&amp;IF(J24&lt;&gt;"", ", damage: '"&amp;J24&amp;"'", "")&amp;IF(K24&lt;&gt;"", ", damageOpened: '"&amp;K24&amp;"'", "")&amp;IF(L24&lt;&gt;"", ", capacity: '"&amp;L24&amp;"'", "")&amp;IF(M24&lt;&gt;"", ", cost: '"&amp;M24&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O24, CHAR(10), "\n")&amp;", textOpened: '"&amp;SUBSTITUTE(P24, CHAR(10), "\n")&amp;"'}"</f>
+        <v>, '06-yukihi-o-n-1': {megami: 'yukihi', name: 'しこみばり / ふくみばり', ruby: '', baseType: 'normal', types: ['attack'], range: '4-6', rangeOpened: '0-2', damage: '3/1', damageOpened: '1/2', text: ', textOpened: ''}</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>156</v>
+        <v>260</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>167</v>
+        <v>275</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>210</v>
+        <v>270</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>7</v>
@@ -2193,31 +2508,34 @@
         <v>8</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="M25" s="3" t="str">
-        <f>", '"&amp;A25&amp;"': {megami: '"&amp;B25&amp;"', name: '"&amp;C25&amp;"', ruby: '"&amp;D25&amp;"', baseType: '"&amp;VLOOKUP(E25,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F25,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G25&lt;&gt;"",", '"&amp; VLOOKUP(G25,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H25&lt;&gt;"", ", range: '"&amp;H25&amp;"'", "")&amp;IF(I25&lt;&gt;"", ", damage: '"&amp;I25&amp;"'", "")&amp;IF(J25&lt;&gt;"", ", capacity: '"&amp;J25&amp;"'", "")&amp;IF(K25&lt;&gt;"", ", cost: '"&amp;K25&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(L25, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '09-chikage-o-n-2': {megami: 'chikage', name: '毒針', ruby: 'どくばり', baseType: 'normal', types: ['attack'], range: '4', damage: '1/1', text: '【攻撃後】毒袋から「麻痺毒」「幻覚毒」「弛緩毒」のいずれか1枚を選び、そのカードを相手の山札の一番上に置く。'}</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+        <v>288</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q25" s="9" t="str">
+        <f>", '"&amp;A25&amp;"': {megami: '"&amp;B25&amp;"', name: '"&amp;C25&amp;"', ruby: '"&amp;D25&amp;"', baseType: '"&amp;VLOOKUP(E25,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F25,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G25&lt;&gt;"",", '"&amp; VLOOKUP(G25,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H25&lt;&gt;"", ", range: '"&amp;H25&amp;"'", "")&amp;IF(I25&lt;&gt;"", ", rangeOpened: '"&amp;I25&amp;"'", "")&amp;IF(J25&lt;&gt;"", ", damage: '"&amp;J25&amp;"'", "")&amp;IF(K25&lt;&gt;"", ", damageOpened: '"&amp;K25&amp;"'", "")&amp;IF(L25&lt;&gt;"", ", capacity: '"&amp;L25&amp;"'", "")&amp;IF(M25&lt;&gt;"", ", cost: '"&amp;M25&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O25, CHAR(10), "\n")&amp;", textOpened: '"&amp;SUBSTITUTE(P25, CHAR(10), "\n")&amp;"'}"</f>
+        <v>, '06-yukihi-o-n-2': {megami: 'yukihi', name: 'しこみび / ねこだまし', ruby: '', baseType: 'normal', types: ['attack'], range: '5-6', rangeOpened: '0-2', damage: '1/1', damageOpened: '1/1', text: '【攻撃後】このカードを手札に戻し、傘の開閉を行う。 , textOpened: ''}</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>157</v>
+        <v>261</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>167</v>
+        <v>275</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>211</v>
+        <v>269</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>7</v>
@@ -2225,35 +2543,38 @@
       <c r="F26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="H26" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="L26" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="M26" s="3" t="str">
-        <f>", '"&amp;A26&amp;"': {megami: '"&amp;B26&amp;"', name: '"&amp;C26&amp;"', ruby: '"&amp;D26&amp;"', baseType: '"&amp;VLOOKUP(E26,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F26,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G26&lt;&gt;"",", '"&amp; VLOOKUP(G26,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H26&lt;&gt;"", ", range: '"&amp;H26&amp;"'", "")&amp;IF(I26&lt;&gt;"", ", damage: '"&amp;I26&amp;"'", "")&amp;IF(J26&lt;&gt;"", ", capacity: '"&amp;J26&amp;"'", "")&amp;IF(K26&lt;&gt;"", ", cost: '"&amp;K26&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(L26, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '09-chikage-o-n-3': {megami: 'chikage', name: '遁術', ruby: 'とんじゅつ', baseType: 'normal', types: ['attack', 'reaction'], range: '1-3', damage: '1/-', text: '【攻撃後】自オーラ→間合：2 \n【攻撃後】このターン中、全てのプレイヤーは基本動作《前進》を行えない。'}</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+        <v>237</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="O26" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q26" s="9" t="str">
+        <f>", '"&amp;A26&amp;"': {megami: '"&amp;B26&amp;"', name: '"&amp;C26&amp;"', ruby: '"&amp;D26&amp;"', baseType: '"&amp;VLOOKUP(E26,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F26,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G26&lt;&gt;"",", '"&amp; VLOOKUP(G26,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H26&lt;&gt;"", ", range: '"&amp;H26&amp;"'", "")&amp;IF(I26&lt;&gt;"", ", rangeOpened: '"&amp;I26&amp;"'", "")&amp;IF(J26&lt;&gt;"", ", damage: '"&amp;J26&amp;"'", "")&amp;IF(K26&lt;&gt;"", ", damageOpened: '"&amp;K26&amp;"'", "")&amp;IF(L26&lt;&gt;"", ", capacity: '"&amp;L26&amp;"'", "")&amp;IF(M26&lt;&gt;"", ", cost: '"&amp;M26&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O26, CHAR(10), "\n")&amp;", textOpened: '"&amp;SUBSTITUTE(P26, CHAR(10), "\n")&amp;"'}"</f>
+        <v>, '06-yukihi-o-n-3': {megami: 'yukihi', name: 'ふりはらい / たぐりよせ', ruby: '', baseType: 'normal', types: ['attack'], range: '2-5', rangeOpened: '0-2', damage: '1/1', damageOpened: '1/1', text: '【攻撃後】ダスト⇔間合：1 , textOpened: '【攻撃後】間合→ダスト：2'}</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>158</v>
+        <v>262</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>167</v>
+        <v>275</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>212</v>
+        <v>268</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>7</v>
@@ -2265,31 +2586,32 @@
         <v>31</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="L27" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I27" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="M27" s="3" t="str">
-        <f>", '"&amp;A27&amp;"': {megami: '"&amp;B27&amp;"', name: '"&amp;C27&amp;"', ruby: '"&amp;D27&amp;"', baseType: '"&amp;VLOOKUP(E27,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F27,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G27&lt;&gt;"",", '"&amp; VLOOKUP(G27,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H27&lt;&gt;"", ", range: '"&amp;H27&amp;"'", "")&amp;IF(I27&lt;&gt;"", ", damage: '"&amp;I27&amp;"'", "")&amp;IF(J27&lt;&gt;"", ", capacity: '"&amp;J27&amp;"'", "")&amp;IF(K27&lt;&gt;"", ", cost: '"&amp;K27&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(L27, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '09-chikage-o-n-4': {megami: 'chikage', name: '首切り', ruby: 'くびきり', baseType: 'normal', types: ['attack', 'fullpower'], range: '0-3', damage: '2/3', text: '【攻撃後】相手の手札が2枚以上あるならば、相手は手札を1枚捨て札にする。'}</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J27" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="O27" s="5"/>
+      <c r="Q27" s="9" t="str">
+        <f>", '"&amp;A27&amp;"': {megami: '"&amp;B27&amp;"', name: '"&amp;C27&amp;"', ruby: '"&amp;D27&amp;"', baseType: '"&amp;VLOOKUP(E27,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F27,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G27&lt;&gt;"",", '"&amp; VLOOKUP(G27,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H27&lt;&gt;"", ", range: '"&amp;H27&amp;"'", "")&amp;IF(I27&lt;&gt;"", ", rangeOpened: '"&amp;I27&amp;"'", "")&amp;IF(J27&lt;&gt;"", ", damage: '"&amp;J27&amp;"'", "")&amp;IF(K27&lt;&gt;"", ", damageOpened: '"&amp;K27&amp;"'", "")&amp;IF(L27&lt;&gt;"", ", capacity: '"&amp;L27&amp;"'", "")&amp;IF(M27&lt;&gt;"", ", cost: '"&amp;M27&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O27, CHAR(10), "\n")&amp;", textOpened: '"&amp;SUBSTITUTE(P27, CHAR(10), "\n")&amp;"'}"</f>
+        <v>, '06-yukihi-o-n-4': {megami: 'yukihi', name: 'ふりまわし / つきさし', ruby: '', baseType: 'normal', types: ['attack', 'fullpower'], range: '4-6', rangeOpened: '0-2', damage: '5/-', damageOpened: '-/2', text: ', textOpened: ''}</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="60" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>159</v>
+        <v>263</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>167</v>
+        <v>275</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>7</v>
@@ -2297,56 +2619,50 @@
       <c r="F28" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L28" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="M28" s="3" t="str">
-        <f>", '"&amp;A28&amp;"': {megami: '"&amp;B28&amp;"', name: '"&amp;C28&amp;"', ruby: '"&amp;D28&amp;"', baseType: '"&amp;VLOOKUP(E28,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F28,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G28&lt;&gt;"",", '"&amp; VLOOKUP(G28,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H28&lt;&gt;"", ", range: '"&amp;H28&amp;"'", "")&amp;IF(I28&lt;&gt;"", ", damage: '"&amp;I28&amp;"'", "")&amp;IF(J28&lt;&gt;"", ", capacity: '"&amp;J28&amp;"'", "")&amp;IF(K28&lt;&gt;"", ", cost: '"&amp;K28&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(L28, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '09-chikage-o-n-5': {megami: 'chikage', name: '毒霧', ruby: 'どくぎり', baseType: 'normal', types: ['action'], text: '毒袋から「麻痺毒」「幻覚毒」「弛緩毒」のいずれか1枚を選び、そのカードを相手の手札に加える。'}</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="36" x14ac:dyDescent="0.15">
+      <c r="O28" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q28" s="9" t="str">
+        <f>", '"&amp;A28&amp;"': {megami: '"&amp;B28&amp;"', name: '"&amp;C28&amp;"', ruby: '"&amp;D28&amp;"', baseType: '"&amp;VLOOKUP(E28,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F28,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G28&lt;&gt;"",", '"&amp; VLOOKUP(G28,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H28&lt;&gt;"", ", range: '"&amp;H28&amp;"'", "")&amp;IF(I28&lt;&gt;"", ", rangeOpened: '"&amp;I28&amp;"'", "")&amp;IF(J28&lt;&gt;"", ", damage: '"&amp;J28&amp;"'", "")&amp;IF(K28&lt;&gt;"", ", damageOpened: '"&amp;K28&amp;"'", "")&amp;IF(L28&lt;&gt;"", ", capacity: '"&amp;L28&amp;"'", "")&amp;IF(M28&lt;&gt;"", ", cost: '"&amp;M28&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O28, CHAR(10), "\n")&amp;", textOpened: '"&amp;SUBSTITUTE(P28, CHAR(10), "\n")&amp;"'}"</f>
+        <v>, '06-yukihi-o-n-5': {megami: 'yukihi', name: 'かさまわし', ruby: '', baseType: 'normal', types: ['action'], text: '(このカードは使用しても効果はない) \n【常時】あなたが傘の開閉を行った時、このカードを手札から公開してもよい。そうした場合、 \nダスト→自オーラ：1\n, textOpened: ''}</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="36" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>160</v>
+        <v>264</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>167</v>
+        <v>275</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>214</v>
+        <v>267</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="L29" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="M29" s="3" t="str">
-        <f>", '"&amp;A29&amp;"': {megami: '"&amp;B29&amp;"', name: '"&amp;C29&amp;"', ruby: '"&amp;D29&amp;"', baseType: '"&amp;VLOOKUP(E29,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F29,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G29&lt;&gt;"",", '"&amp; VLOOKUP(G29,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H29&lt;&gt;"", ", range: '"&amp;H29&amp;"'", "")&amp;IF(I29&lt;&gt;"", ", damage: '"&amp;I29&amp;"'", "")&amp;IF(J29&lt;&gt;"", ", capacity: '"&amp;J29&amp;"'", "")&amp;IF(K29&lt;&gt;"", ", cost: '"&amp;K29&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(L29, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '09-chikage-o-n-6': {megami: 'chikage', name: '抜き足', ruby: 'ぬきあし', baseType: 'normal', types: ['enhance'], capacity: '4', text: '隙 \n【展開中】現在の間合は2減少する。 \n(間合は0未満にならない)'}</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O29" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q29" s="9" t="str">
+        <f>", '"&amp;A29&amp;"': {megami: '"&amp;B29&amp;"', name: '"&amp;C29&amp;"', ruby: '"&amp;D29&amp;"', baseType: '"&amp;VLOOKUP(E29,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F29,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G29&lt;&gt;"",", '"&amp; VLOOKUP(G29,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H29&lt;&gt;"", ", range: '"&amp;H29&amp;"'", "")&amp;IF(I29&lt;&gt;"", ", rangeOpened: '"&amp;I29&amp;"'", "")&amp;IF(J29&lt;&gt;"", ", damage: '"&amp;J29&amp;"'", "")&amp;IF(K29&lt;&gt;"", ", damageOpened: '"&amp;K29&amp;"'", "")&amp;IF(L29&lt;&gt;"", ", capacity: '"&amp;L29&amp;"'", "")&amp;IF(M29&lt;&gt;"", ", cost: '"&amp;M29&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O29, CHAR(10), "\n")&amp;", textOpened: '"&amp;SUBSTITUTE(P29, CHAR(10), "\n")&amp;"'}"</f>
+        <v>, '06-yukihi-o-n-6': {megami: 'yukihi', name: 'ひきあし / もぐりこみ', ruby: '', baseType: 'normal', types: ['action', 'reaction'], text: '【展開時】間合→ダスト：1 \n【破棄時】ダスト→間合：1 \n【常時】あなたの傘が開いているならば、このカードの矢印(→)は逆になる。, textOpened: ''}</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>161</v>
+        <v>265</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>167</v>
+        <v>275</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>215</v>
+        <v>266</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>7</v>
@@ -2354,785 +2670,1323 @@
       <c r="F30" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J30" s="4" t="s">
+      <c r="L30" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="L30" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="M30" s="3" t="str">
-        <f>", '"&amp;A30&amp;"': {megami: '"&amp;B30&amp;"', name: '"&amp;C30&amp;"', ruby: '"&amp;D30&amp;"', baseType: '"&amp;VLOOKUP(E30,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F30,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G30&lt;&gt;"",", '"&amp; VLOOKUP(G30,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H30&lt;&gt;"", ", range: '"&amp;H30&amp;"'", "")&amp;IF(I30&lt;&gt;"", ", damage: '"&amp;I30&amp;"'", "")&amp;IF(J30&lt;&gt;"", ", capacity: '"&amp;J30&amp;"'", "")&amp;IF(K30&lt;&gt;"", ", cost: '"&amp;K30&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(L30, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '09-chikage-o-n-7': {megami: 'chikage', name: '泥濘', ruby: 'でいねい', baseType: 'normal', types: ['enhance'], capacity: '2', text: '【展開中】相手は基本動作《後退》と《離脱》を行えない。'}</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="O30" s="5"/>
+      <c r="Q30" s="9" t="str">
+        <f>", '"&amp;A30&amp;"': {megami: '"&amp;B30&amp;"', name: '"&amp;C30&amp;"', ruby: '"&amp;D30&amp;"', baseType: '"&amp;VLOOKUP(E30,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F30,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G30&lt;&gt;"",", '"&amp; VLOOKUP(G30,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H30&lt;&gt;"", ", range: '"&amp;H30&amp;"'", "")&amp;IF(I30&lt;&gt;"", ", rangeOpened: '"&amp;I30&amp;"'", "")&amp;IF(J30&lt;&gt;"", ", damage: '"&amp;J30&amp;"'", "")&amp;IF(K30&lt;&gt;"", ", damageOpened: '"&amp;K30&amp;"'", "")&amp;IF(L30&lt;&gt;"", ", capacity: '"&amp;L30&amp;"'", "")&amp;IF(M30&lt;&gt;"", ", cost: '"&amp;M30&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O30, CHAR(10), "\n")&amp;", textOpened: '"&amp;SUBSTITUTE(P30, CHAR(10), "\n")&amp;"'}"</f>
+        <v>, '06-yukihi-o-n-7': {megami: 'yukihi', name: 'えんむすび', ruby: '', baseType: 'normal', types: ['enhance'], capacity: '2', text: ', textOpened: ''}</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>163</v>
+        <v>271</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>167</v>
+        <v>275</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>23</v>
+        <v>8</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>284</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="M31" s="3" t="str">
-        <f>", '"&amp;A31&amp;"': {megami: '"&amp;B31&amp;"', name: '"&amp;C31&amp;"', ruby: '"&amp;D31&amp;"', baseType: '"&amp;VLOOKUP(E31,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F31,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G31&lt;&gt;"",", '"&amp; VLOOKUP(G31,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H31&lt;&gt;"", ", range: '"&amp;H31&amp;"'", "")&amp;IF(I31&lt;&gt;"", ", damage: '"&amp;I31&amp;"'", "")&amp;IF(J31&lt;&gt;"", ", capacity: '"&amp;J31&amp;"'", "")&amp;IF(K31&lt;&gt;"", ", cost: '"&amp;K31&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(L31, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '09-chikage-o-s-1': {megami: 'chikage', name: '滅灯の魂毒', ruby: 'ほろびのみたまどく', baseType: 'special', types: ['action'], cost: '3', text: '毒袋から「滅灯毒」を1枚を選び、そのカードを相手の山札の一番上に置く。'}</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+        <v>301</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="O31" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q31" s="9" t="str">
+        <f>", '"&amp;A31&amp;"': {megami: '"&amp;B31&amp;"', name: '"&amp;C31&amp;"', ruby: '"&amp;D31&amp;"', baseType: '"&amp;VLOOKUP(E31,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F31,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G31&lt;&gt;"",", '"&amp; VLOOKUP(G31,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H31&lt;&gt;"", ", range: '"&amp;H31&amp;"'", "")&amp;IF(I31&lt;&gt;"", ", rangeOpened: '"&amp;I31&amp;"'", "")&amp;IF(J31&lt;&gt;"", ", damage: '"&amp;J31&amp;"'", "")&amp;IF(K31&lt;&gt;"", ", damageOpened: '"&amp;K31&amp;"'", "")&amp;IF(L31&lt;&gt;"", ", capacity: '"&amp;L31&amp;"'", "")&amp;IF(M31&lt;&gt;"", ", cost: '"&amp;M31&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O31, CHAR(10), "\n")&amp;", textOpened: '"&amp;SUBSTITUTE(P31, CHAR(10), "\n")&amp;"'}"</f>
+        <v>, '06-yukihi-o-s-1': {megami: 'yukihi', name: 'はらりゆき', ruby: '', baseType: 'special', types: ['attack'], range: '3-5', rangeOpened: '0-1', damage: '3/1', damageOpened: '0/0', cost: '2', text: '【即再起】あなたが傘の開閉を行う。 , textOpened: ''}</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>164</v>
+        <v>272</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>167</v>
+        <v>275</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>217</v>
+        <v>253</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>88</v>
+        <v>8</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>301</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="L32" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="M32" s="3" t="str">
-        <f>", '"&amp;A32&amp;"': {megami: '"&amp;B32&amp;"', name: '"&amp;C32&amp;"', ruby: '"&amp;D32&amp;"', baseType: '"&amp;VLOOKUP(E32,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F32,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G32&lt;&gt;"",", '"&amp; VLOOKUP(G32,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H32&lt;&gt;"", ", range: '"&amp;H32&amp;"'", "")&amp;IF(I32&lt;&gt;"", ", damage: '"&amp;I32&amp;"'", "")&amp;IF(J32&lt;&gt;"", ", capacity: '"&amp;J32&amp;"'", "")&amp;IF(K32&lt;&gt;"", ", cost: '"&amp;K32&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(L32, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '09-chikage-o-s-2': {megami: 'chikage', name: '叛旗の纏毒', ruby: 'はんきのまといどく', baseType: 'special', types: ['enhance', 'reaction'], capacity: '5', cost: '2', text: '【展開中】相手によるオーラへのダメージかライフへのダメージのどちらかが「-」である《攻撃》は打ち消される。'}</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
+        <v>302</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="O32" s="5"/>
+      <c r="Q32" s="9" t="str">
+        <f>", '"&amp;A32&amp;"': {megami: '"&amp;B32&amp;"', name: '"&amp;C32&amp;"', ruby: '"&amp;D32&amp;"', baseType: '"&amp;VLOOKUP(E32,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F32,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G32&lt;&gt;"",", '"&amp; VLOOKUP(G32,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H32&lt;&gt;"", ", range: '"&amp;H32&amp;"'", "")&amp;IF(I32&lt;&gt;"", ", rangeOpened: '"&amp;I32&amp;"'", "")&amp;IF(J32&lt;&gt;"", ", damage: '"&amp;J32&amp;"'", "")&amp;IF(K32&lt;&gt;"", ", damageOpened: '"&amp;K32&amp;"'", "")&amp;IF(L32&lt;&gt;"", ", capacity: '"&amp;L32&amp;"'", "")&amp;IF(M32&lt;&gt;"", ", cost: '"&amp;M32&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O32, CHAR(10), "\n")&amp;", textOpened: '"&amp;SUBSTITUTE(P32, CHAR(10), "\n")&amp;"'}"</f>
+        <v>, '06-yukihi-o-s-2': {megami: 'yukihi', name: 'ゆらりび', ruby: '', baseType: 'special', types: ['attack'], range: '4-6', rangeOpened: '0', damage: '0/0', damageOpened: '4/5', cost: '5', text: ', textOpened: ''}</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="24" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>165</v>
+        <v>273</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>167</v>
+        <v>275</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>218</v>
+        <v>254</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>66</v>
+        <v>52</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="M33" s="3" t="str">
-        <f>", '"&amp;A33&amp;"': {megami: '"&amp;B33&amp;"', name: '"&amp;C33&amp;"', ruby: '"&amp;D33&amp;"', baseType: '"&amp;VLOOKUP(E33,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F33,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G33&lt;&gt;"",", '"&amp; VLOOKUP(G33,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H33&lt;&gt;"", ", range: '"&amp;H33&amp;"'", "")&amp;IF(I33&lt;&gt;"", ", damage: '"&amp;I33&amp;"'", "")&amp;IF(J33&lt;&gt;"", ", capacity: '"&amp;J33&amp;"'", "")&amp;IF(K33&lt;&gt;"", ", cost: '"&amp;K33&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(L33, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '09-chikage-o-s-3': {megami: 'chikage', name: '流転の霞毒', ruby: 'るてんのかすみどく', baseType: 'special', types: ['attack'], range: '3-7', damage: '1/2', cost: '1', text: '再起：相手の手札が2枚以上ある。'}</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="48" x14ac:dyDescent="0.15">
+        <v>300</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="O33" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q33" s="9" t="str">
+        <f>", '"&amp;A33&amp;"': {megami: '"&amp;B33&amp;"', name: '"&amp;C33&amp;"', ruby: '"&amp;D33&amp;"', baseType: '"&amp;VLOOKUP(E33,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F33,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G33&lt;&gt;"",", '"&amp; VLOOKUP(G33,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H33&lt;&gt;"", ", range: '"&amp;H33&amp;"'", "")&amp;IF(I33&lt;&gt;"", ", rangeOpened: '"&amp;I33&amp;"'", "")&amp;IF(J33&lt;&gt;"", ", damage: '"&amp;J33&amp;"'", "")&amp;IF(K33&lt;&gt;"", ", damageOpened: '"&amp;K33&amp;"'", "")&amp;IF(L33&lt;&gt;"", ", capacity: '"&amp;L33&amp;"'", "")&amp;IF(M33&lt;&gt;"", ", cost: '"&amp;M33&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O33, CHAR(10), "\n")&amp;", textOpened: '"&amp;SUBSTITUTE(P33, CHAR(10), "\n")&amp;"'}"</f>
+        <v>, '06-yukihi-o-s-3': {megami: 'yukihi', name: 'どろりうら', ruby: '', baseType: 'special', types: ['enhance', 'fullpower'], capacity: '7', cost: '3', text: '【展開中】あなたのユキヒの《攻撃》は傘を開いた状態と傘を閉じた状態両方の適正距離を持つ。, textOpened: ''}</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="24" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>166</v>
+        <v>274</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>167</v>
+        <v>275</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>219</v>
+        <v>257</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F34" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="O34" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q34" s="9" t="str">
+        <f>", '"&amp;A34&amp;"': {megami: '"&amp;B34&amp;"', name: '"&amp;C34&amp;"', ruby: '"&amp;D34&amp;"', baseType: '"&amp;VLOOKUP(E34,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F34,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G34&lt;&gt;"",", '"&amp; VLOOKUP(G34,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H34&lt;&gt;"", ", range: '"&amp;H34&amp;"'", "")&amp;IF(I34&lt;&gt;"", ", rangeOpened: '"&amp;I34&amp;"'", "")&amp;IF(J34&lt;&gt;"", ", damage: '"&amp;J34&amp;"'", "")&amp;IF(K34&lt;&gt;"", ", damageOpened: '"&amp;K34&amp;"'", "")&amp;IF(L34&lt;&gt;"", ", capacity: '"&amp;L34&amp;"'", "")&amp;IF(M34&lt;&gt;"", ", cost: '"&amp;M34&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O34, CHAR(10), "\n")&amp;", textOpened: '"&amp;SUBSTITUTE(P34, CHAR(10), "\n")&amp;"'}"</f>
+        <v>, '06-yukihi-o-s-4': {megami: 'yukihi', name: 'くるりみ', ruby: '', baseType: 'special', types: ['action', 'reaction'], cost: '1', text: '傘の開閉を行う。 \nダスト→自オーラ：1, textOpened: ''}</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A35" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q35" s="3" t="str">
+        <f>", '"&amp;A35&amp;"': {megami: '"&amp;B35&amp;"', name: '"&amp;C35&amp;"', ruby: '"&amp;D35&amp;"', baseType: '"&amp;VLOOKUP(E35,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F35,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G35&lt;&gt;"",", '"&amp; VLOOKUP(G35,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H35&lt;&gt;"", ", range: '"&amp;H35&amp;"'", "")&amp;IF(J35&lt;&gt;"", ", damage: '"&amp;J35&amp;"'", "")&amp;IF(L35&lt;&gt;"", ", capacity: '"&amp;L35&amp;"'", "")&amp;IF(M35&lt;&gt;"", ", cost: '"&amp;M35&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O35, CHAR(10), "\n")&amp;"'}"</f>
+        <v>, '09-chikage-o-n-1': {megami: 'chikage', name: '飛苦無', ruby: 'とびくない', baseType: 'normal', types: ['attack'], range: '4-5', damage: '2/2', text: ''}</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A36" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q36" s="3" t="str">
+        <f>", '"&amp;A36&amp;"': {megami: '"&amp;B36&amp;"', name: '"&amp;C36&amp;"', ruby: '"&amp;D36&amp;"', baseType: '"&amp;VLOOKUP(E36,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F36,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G36&lt;&gt;"",", '"&amp; VLOOKUP(G36,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H36&lt;&gt;"", ", range: '"&amp;H36&amp;"'", "")&amp;IF(J36&lt;&gt;"", ", damage: '"&amp;J36&amp;"'", "")&amp;IF(L36&lt;&gt;"", ", capacity: '"&amp;L36&amp;"'", "")&amp;IF(M36&lt;&gt;"", ", cost: '"&amp;M36&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O36, CHAR(10), "\n")&amp;"'}"</f>
+        <v>, '09-chikage-o-n-2': {megami: 'chikage', name: '毒針', ruby: 'どくばり', baseType: 'normal', types: ['attack'], range: '4', damage: '1/1', text: '【攻撃後】毒袋から「麻痺毒」「幻覚毒」「弛緩毒」のいずれか1枚を選び、そのカードを相手の山札の一番上に置く。'}</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="24" x14ac:dyDescent="0.15">
+      <c r="A37" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="O37" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q37" s="3" t="str">
+        <f>", '"&amp;A37&amp;"': {megami: '"&amp;B37&amp;"', name: '"&amp;C37&amp;"', ruby: '"&amp;D37&amp;"', baseType: '"&amp;VLOOKUP(E37,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F37,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G37&lt;&gt;"",", '"&amp; VLOOKUP(G37,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H37&lt;&gt;"", ", range: '"&amp;H37&amp;"'", "")&amp;IF(J37&lt;&gt;"", ", damage: '"&amp;J37&amp;"'", "")&amp;IF(L37&lt;&gt;"", ", capacity: '"&amp;L37&amp;"'", "")&amp;IF(M37&lt;&gt;"", ", cost: '"&amp;M37&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O37, CHAR(10), "\n")&amp;"'}"</f>
+        <v>, '09-chikage-o-n-3': {megami: 'chikage', name: '遁術', ruby: 'とんじゅつ', baseType: 'normal', types: ['attack', 'reaction'], range: '1-3', damage: '1/-', text: '【攻撃後】自オーラ→間合：2 \n【攻撃後】このターン中、全てのプレイヤーは基本動作《前進》を行えない。'}</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A38" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q38" s="3" t="str">
+        <f>", '"&amp;A38&amp;"': {megami: '"&amp;B38&amp;"', name: '"&amp;C38&amp;"', ruby: '"&amp;D38&amp;"', baseType: '"&amp;VLOOKUP(E38,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F38,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G38&lt;&gt;"",", '"&amp; VLOOKUP(G38,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H38&lt;&gt;"", ", range: '"&amp;H38&amp;"'", "")&amp;IF(J38&lt;&gt;"", ", damage: '"&amp;J38&amp;"'", "")&amp;IF(L38&lt;&gt;"", ", capacity: '"&amp;L38&amp;"'", "")&amp;IF(M38&lt;&gt;"", ", cost: '"&amp;M38&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O38, CHAR(10), "\n")&amp;"'}"</f>
+        <v>, '09-chikage-o-n-4': {megami: 'chikage', name: '首切り', ruby: 'くびきり', baseType: 'normal', types: ['attack', 'fullpower'], range: '0-3', damage: '2/3', text: '【攻撃後】相手の手札が2枚以上あるならば、相手は手札を1枚捨て札にする。'}</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A39" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q39" s="3" t="str">
+        <f>", '"&amp;A39&amp;"': {megami: '"&amp;B39&amp;"', name: '"&amp;C39&amp;"', ruby: '"&amp;D39&amp;"', baseType: '"&amp;VLOOKUP(E39,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F39,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G39&lt;&gt;"",", '"&amp; VLOOKUP(G39,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H39&lt;&gt;"", ", range: '"&amp;H39&amp;"'", "")&amp;IF(J39&lt;&gt;"", ", damage: '"&amp;J39&amp;"'", "")&amp;IF(L39&lt;&gt;"", ", capacity: '"&amp;L39&amp;"'", "")&amp;IF(M39&lt;&gt;"", ", cost: '"&amp;M39&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O39, CHAR(10), "\n")&amp;"'}"</f>
+        <v>, '09-chikage-o-n-5': {megami: 'chikage', name: '毒霧', ruby: 'どくぎり', baseType: 'normal', types: ['action'], text: '毒袋から「麻痺毒」「幻覚毒」「弛緩毒」のいずれか1枚を選び、そのカードを相手の手札に加える。'}</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="36" x14ac:dyDescent="0.15">
+      <c r="A40" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="L40" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="O40" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q40" s="3" t="str">
+        <f>", '"&amp;A40&amp;"': {megami: '"&amp;B40&amp;"', name: '"&amp;C40&amp;"', ruby: '"&amp;D40&amp;"', baseType: '"&amp;VLOOKUP(E40,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F40,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G40&lt;&gt;"",", '"&amp; VLOOKUP(G40,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H40&lt;&gt;"", ", range: '"&amp;H40&amp;"'", "")&amp;IF(J40&lt;&gt;"", ", damage: '"&amp;J40&amp;"'", "")&amp;IF(L40&lt;&gt;"", ", capacity: '"&amp;L40&amp;"'", "")&amp;IF(M40&lt;&gt;"", ", cost: '"&amp;M40&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O40, CHAR(10), "\n")&amp;"'}"</f>
+        <v>, '09-chikage-o-n-6': {megami: 'chikage', name: '抜き足', ruby: 'ぬきあし', baseType: 'normal', types: ['enhance'], capacity: '4', text: '隙 \n【展開中】現在の間合は2減少する。 \n(間合は0未満にならない)'}</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A41" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O41" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q41" s="3" t="str">
+        <f>", '"&amp;A41&amp;"': {megami: '"&amp;B41&amp;"', name: '"&amp;C41&amp;"', ruby: '"&amp;D41&amp;"', baseType: '"&amp;VLOOKUP(E41,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F41,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G41&lt;&gt;"",", '"&amp; VLOOKUP(G41,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H41&lt;&gt;"", ", range: '"&amp;H41&amp;"'", "")&amp;IF(J41&lt;&gt;"", ", damage: '"&amp;J41&amp;"'", "")&amp;IF(L41&lt;&gt;"", ", capacity: '"&amp;L41&amp;"'", "")&amp;IF(M41&lt;&gt;"", ", cost: '"&amp;M41&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O41, CHAR(10), "\n")&amp;"'}"</f>
+        <v>, '09-chikage-o-n-7': {megami: 'chikage', name: '泥濘', ruby: 'でいねい', baseType: 'normal', types: ['enhance'], capacity: '2', text: '【展開中】相手は基本動作《後退》と《離脱》を行えない。'}</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A42" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="O42" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q42" s="3" t="str">
+        <f>", '"&amp;A42&amp;"': {megami: '"&amp;B42&amp;"', name: '"&amp;C42&amp;"', ruby: '"&amp;D42&amp;"', baseType: '"&amp;VLOOKUP(E42,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F42,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G42&lt;&gt;"",", '"&amp; VLOOKUP(G42,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H42&lt;&gt;"", ", range: '"&amp;H42&amp;"'", "")&amp;IF(J42&lt;&gt;"", ", damage: '"&amp;J42&amp;"'", "")&amp;IF(L42&lt;&gt;"", ", capacity: '"&amp;L42&amp;"'", "")&amp;IF(M42&lt;&gt;"", ", cost: '"&amp;M42&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O42, CHAR(10), "\n")&amp;"'}"</f>
+        <v>, '09-chikage-o-s-1': {megami: 'chikage', name: '滅灯の魂毒', ruby: 'ほろびのみたまどく', baseType: 'special', types: ['action'], cost: '3', text: '毒袋から「滅灯毒」を1枚を選び、そのカードを相手の山札の一番上に置く。'}</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A43" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O43" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q43" s="3" t="str">
+        <f>", '"&amp;A43&amp;"': {megami: '"&amp;B43&amp;"', name: '"&amp;C43&amp;"', ruby: '"&amp;D43&amp;"', baseType: '"&amp;VLOOKUP(E43,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F43,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G43&lt;&gt;"",", '"&amp; VLOOKUP(G43,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H43&lt;&gt;"", ", range: '"&amp;H43&amp;"'", "")&amp;IF(J43&lt;&gt;"", ", damage: '"&amp;J43&amp;"'", "")&amp;IF(L43&lt;&gt;"", ", capacity: '"&amp;L43&amp;"'", "")&amp;IF(M43&lt;&gt;"", ", cost: '"&amp;M43&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O43, CHAR(10), "\n")&amp;"'}"</f>
+        <v>, '09-chikage-o-s-2': {megami: 'chikage', name: '叛旗の纏毒', ruby: 'はんきのまといどく', baseType: 'special', types: ['enhance', 'reaction'], capacity: '5', cost: '2', text: '【展開中】相手によるオーラへのダメージかライフへのダメージのどちらかが「-」である《攻撃》は打ち消される。'}</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A44" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O44" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q44" s="3" t="str">
+        <f>", '"&amp;A44&amp;"': {megami: '"&amp;B44&amp;"', name: '"&amp;C44&amp;"', ruby: '"&amp;D44&amp;"', baseType: '"&amp;VLOOKUP(E44,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F44,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G44&lt;&gt;"",", '"&amp; VLOOKUP(G44,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H44&lt;&gt;"", ", range: '"&amp;H44&amp;"'", "")&amp;IF(J44&lt;&gt;"", ", damage: '"&amp;J44&amp;"'", "")&amp;IF(L44&lt;&gt;"", ", capacity: '"&amp;L44&amp;"'", "")&amp;IF(M44&lt;&gt;"", ", cost: '"&amp;M44&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O44, CHAR(10), "\n")&amp;"'}"</f>
+        <v>, '09-chikage-o-s-3': {megami: 'chikage', name: '流転の霞毒', ruby: 'るてんのかすみどく', baseType: 'special', types: ['attack'], range: '3-7', damage: '1/2', cost: '1', text: '再起：相手の手札が2枚以上ある。'}</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="48" x14ac:dyDescent="0.15">
+      <c r="A45" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G45" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J34" s="4" t="s">
+      <c r="L45" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="K34" s="4" t="s">
+      <c r="M45" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="L34" s="5" t="s">
+      <c r="O45" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q45" s="3" t="str">
+        <f>", '"&amp;A45&amp;"': {megami: '"&amp;B45&amp;"', name: '"&amp;C45&amp;"', ruby: '"&amp;D45&amp;"', baseType: '"&amp;VLOOKUP(E45,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F45,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G45&lt;&gt;"",", '"&amp; VLOOKUP(G45,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H45&lt;&gt;"", ", range: '"&amp;H45&amp;"'", "")&amp;IF(J45&lt;&gt;"", ", damage: '"&amp;J45&amp;"'", "")&amp;IF(L45&lt;&gt;"", ", capacity: '"&amp;L45&amp;"'", "")&amp;IF(M45&lt;&gt;"", ", cost: '"&amp;M45&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O45, CHAR(10), "\n")&amp;"'}"</f>
+        <v>, '09-chikage-o-s-4': {megami: 'chikage', name: '闇昏千影の生きる道', ruby: 'やみくらちかげのいきるみち', baseType: 'special', types: ['enhance', 'fullpower'], capacity: '4', cost: '5', text: '【展開中】あなたが1以上のライフへのダメージを受けた時、このカードの上の桜花結晶は全てダストに送られ、このカードは未使用に戻る。 \n(破棄時効果は失敗する) \n【破棄時】あなたの他の切札が全て使用済ならば、あなたは勝利する。'}</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="48" x14ac:dyDescent="0.15">
+      <c r="A46" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O46" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q46" s="3" t="str">
+        <f>", '"&amp;A46&amp;"': {megami: '"&amp;B46&amp;"', name: '"&amp;C46&amp;"', ruby: '"&amp;D46&amp;"', baseType: '"&amp;VLOOKUP(E46,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F46,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G46&lt;&gt;"",", '"&amp; VLOOKUP(G46,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H46&lt;&gt;"", ", range: '"&amp;H46&amp;"'", "")&amp;IF(J46&lt;&gt;"", ", damage: '"&amp;J46&amp;"'", "")&amp;IF(L46&lt;&gt;"", ", capacity: '"&amp;L46&amp;"'", "")&amp;IF(M46&lt;&gt;"", ", cost: '"&amp;M46&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O46, CHAR(10), "\n")&amp;"'}"</f>
+        <v>, '09-chikage-o-p-1': {megami: 'chikage', name: '麻痺毒', ruby: 'まひどく', baseType: 'extra', types: ['action'], text: '毒（このカードは伏せ札にできない） \n【常時】このターン中にあなたが基本動作を行ったならば、このカードは使用できない。 \nこのカードを相手の毒袋に戻す。その後、このフェイズを終了する。'}</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="36" x14ac:dyDescent="0.15">
+      <c r="A47" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O47" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q47" s="3" t="str">
+        <f>", '"&amp;A47&amp;"': {megami: '"&amp;B47&amp;"', name: '"&amp;C47&amp;"', ruby: '"&amp;D47&amp;"', baseType: '"&amp;VLOOKUP(E47,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F47,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G47&lt;&gt;"",", '"&amp; VLOOKUP(G47,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H47&lt;&gt;"", ", range: '"&amp;H47&amp;"'", "")&amp;IF(J47&lt;&gt;"", ", damage: '"&amp;J47&amp;"'", "")&amp;IF(L47&lt;&gt;"", ", capacity: '"&amp;L47&amp;"'", "")&amp;IF(M47&lt;&gt;"", ", cost: '"&amp;M47&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O47, CHAR(10), "\n")&amp;"'}"</f>
+        <v>, '09-chikage-o-p-2': {megami: 'chikage', name: '幻覚毒', ruby: 'げんかくどく', baseType: 'extra', types: ['action'], text: '毒（このカードは伏せ札にできない） \nこのカードを相手の毒袋に戻す。 \n自フレア→ダスト：2'}</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="36" x14ac:dyDescent="0.15">
+      <c r="A48" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="O48" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q48" s="3" t="str">
+        <f>", '"&amp;A48&amp;"': {megami: '"&amp;B48&amp;"', name: '"&amp;C48&amp;"', ruby: '"&amp;D48&amp;"', baseType: '"&amp;VLOOKUP(E48,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F48,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G48&lt;&gt;"",", '"&amp; VLOOKUP(G48,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H48&lt;&gt;"", ", range: '"&amp;H48&amp;"'", "")&amp;IF(J48&lt;&gt;"", ", damage: '"&amp;J48&amp;"'", "")&amp;IF(L48&lt;&gt;"", ", capacity: '"&amp;L48&amp;"'", "")&amp;IF(M48&lt;&gt;"", ", cost: '"&amp;M48&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O48, CHAR(10), "\n")&amp;"'}"</f>
+        <v>, '09-chikage-o-p-3': {megami: 'chikage', name: '弛緩毒', ruby: 'しかんどく', baseType: 'extra', types: ['enhance'], capacity: '3', text: '毒（このカードは伏せ札にできない） \n【展開中】あなたは《攻撃》カードを使用できない。 \n【破棄時】このカードを相手の毒袋に戻す。'}</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="24" x14ac:dyDescent="0.15">
+      <c r="A49" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O49" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q49" s="3" t="str">
+        <f>", '"&amp;A49&amp;"': {megami: '"&amp;B49&amp;"', name: '"&amp;C49&amp;"', ruby: '"&amp;D49&amp;"', baseType: '"&amp;VLOOKUP(E49,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F49,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G49&lt;&gt;"",", '"&amp; VLOOKUP(G49,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H49&lt;&gt;"", ", range: '"&amp;H49&amp;"'", "")&amp;IF(J49&lt;&gt;"", ", damage: '"&amp;J49&amp;"'", "")&amp;IF(L49&lt;&gt;"", ", capacity: '"&amp;L49&amp;"'", "")&amp;IF(M49&lt;&gt;"", ", cost: '"&amp;M49&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O49, CHAR(10), "\n")&amp;"'}"</f>
+        <v>, '09-chikage-o-p-4': {megami: 'chikage', name: '滅灯毒', ruby: 'ほろびどく', baseType: 'extra', types: ['action'], text: '毒（このカードは伏せ札にできない） \n自オーラ→ダスト：3'}</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="D61" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="K61" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="L61" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="M61" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="N61" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="O61" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P61" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="R61" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="H62" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="K62" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="L62" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M62" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P62" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="D63" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="L63" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M63" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="N63" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="O63" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P63" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="R63" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="H64" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="K64" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="L64" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M64" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P64" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="65" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="D65" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="K65" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="L65" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M65" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="N65" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="O65" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P65" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="R65" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="66" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="H66" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="K66" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="L66" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M66" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P66" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q66" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="67" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="D67" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E67" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="M34" s="3" t="str">
-        <f>", '"&amp;A34&amp;"': {megami: '"&amp;B34&amp;"', name: '"&amp;C34&amp;"', ruby: '"&amp;D34&amp;"', baseType: '"&amp;VLOOKUP(E34,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F34,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G34&lt;&gt;"",", '"&amp; VLOOKUP(G34,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H34&lt;&gt;"", ", range: '"&amp;H34&amp;"'", "")&amp;IF(I34&lt;&gt;"", ", damage: '"&amp;I34&amp;"'", "")&amp;IF(J34&lt;&gt;"", ", capacity: '"&amp;J34&amp;"'", "")&amp;IF(K34&lt;&gt;"", ", cost: '"&amp;K34&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(L34, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '09-chikage-o-s-4': {megami: 'chikage', name: '闇昏千影の生きる道', ruby: 'やみくらちかげのいきるみち', baseType: 'special', types: ['enhance', 'fullpower'], capacity: '4', cost: '5', text: '【展開中】あなたが1以上のライフへのダメージを受けた時、このカードの上の桜花結晶は全てダストに送られ、このカードは未使用に戻る。 \n(破棄時効果は失敗する) \n【破棄時】あなたの他の切札が全て使用済ならば、あなたは勝利する。'}</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="48" x14ac:dyDescent="0.15">
-      <c r="A35" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="F35" s="4" t="s">
+      <c r="F67" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="K67" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="L67" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="M67" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N67" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="O67" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P67" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="R67" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="H68" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="K68" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="L68" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M68" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P68" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="69" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="D69" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="F69" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L35" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="M35" s="3" t="str">
-        <f>", '"&amp;A35&amp;"': {megami: '"&amp;B35&amp;"', name: '"&amp;C35&amp;"', ruby: '"&amp;D35&amp;"', baseType: '"&amp;VLOOKUP(E35,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F35,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G35&lt;&gt;"",", '"&amp; VLOOKUP(G35,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H35&lt;&gt;"", ", range: '"&amp;H35&amp;"'", "")&amp;IF(I35&lt;&gt;"", ", damage: '"&amp;I35&amp;"'", "")&amp;IF(J35&lt;&gt;"", ", capacity: '"&amp;J35&amp;"'", "")&amp;IF(K35&lt;&gt;"", ", cost: '"&amp;K35&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(L35, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '09-chikage-o-p-1': {megami: 'chikage', name: '麻痺毒', ruby: 'まひどく', baseType: 'extra', types: ['action'], text: '毒（このカードは伏せ札にできない） \n【常時】このターン中にあなたが基本動作を行ったならば、このカードは使用できない。 \nこのカードを相手の毒袋に戻す。その後、このフェイズを終了する。'}</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="36" x14ac:dyDescent="0.15">
-      <c r="A36" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="F36" s="4" t="s">
+      <c r="G69" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K69" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L69" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M69" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N69" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="O69" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P69" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q69" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="R69" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="D70" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="F70" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L36" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="M36" s="3" t="str">
-        <f>", '"&amp;A36&amp;"': {megami: '"&amp;B36&amp;"', name: '"&amp;C36&amp;"', ruby: '"&amp;D36&amp;"', baseType: '"&amp;VLOOKUP(E36,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F36,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G36&lt;&gt;"",", '"&amp; VLOOKUP(G36,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H36&lt;&gt;"", ", range: '"&amp;H36&amp;"'", "")&amp;IF(I36&lt;&gt;"", ", damage: '"&amp;I36&amp;"'", "")&amp;IF(J36&lt;&gt;"", ", capacity: '"&amp;J36&amp;"'", "")&amp;IF(K36&lt;&gt;"", ", cost: '"&amp;K36&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(L36, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '09-chikage-o-p-2': {megami: 'chikage', name: '幻覚毒', ruby: 'げんかくどく', baseType: 'extra', types: ['action'], text: '毒（このカードは伏せ札にできない） \nこのカードを相手の毒袋に戻す。 \n自フレア→ダスト：2'}</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="36" x14ac:dyDescent="0.15">
-      <c r="A37" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="F37" s="4" t="s">
+      <c r="G70" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K70" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="L70" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M70" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N70" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="O70" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P70" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="R70" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="H71" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="K71" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="P71" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q71" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="72" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="D72" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F72" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J37" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="L37" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="M37" s="3" t="str">
-        <f>", '"&amp;A37&amp;"': {megami: '"&amp;B37&amp;"', name: '"&amp;C37&amp;"', ruby: '"&amp;D37&amp;"', baseType: '"&amp;VLOOKUP(E37,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F37,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G37&lt;&gt;"",", '"&amp; VLOOKUP(G37,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H37&lt;&gt;"", ", range: '"&amp;H37&amp;"'", "")&amp;IF(I37&lt;&gt;"", ", damage: '"&amp;I37&amp;"'", "")&amp;IF(J37&lt;&gt;"", ", capacity: '"&amp;J37&amp;"'", "")&amp;IF(K37&lt;&gt;"", ", cost: '"&amp;K37&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(L37, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '09-chikage-o-p-3': {megami: 'chikage', name: '弛緩毒', ruby: 'しかんどく', baseType: 'extra', types: ['enhance'], capacity: '3', text: '毒（このカードは伏せ札にできない） \n【展開中】あなたは《攻撃》カードを使用できない。 \n【破棄時】このカードを相手の毒袋に戻す。'}</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="24" x14ac:dyDescent="0.15">
-      <c r="A38" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="F38" s="4" t="s">
+      <c r="G72" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K72" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L72" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M72" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N72" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O72" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P72" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q72" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="R72" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="Q73" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="74" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="D74" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="K74" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="L74" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="M74" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="N74" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="O74" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P74" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q74" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="R74" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="H75" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="K75" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="L75" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="M75" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="P75" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="76" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="D76" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="K76" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="L76" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="M76" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="N76" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="O76" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="P76" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="R76" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="77" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="H77" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K77" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="L77" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="M77" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="P77" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="78" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="D78" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K78" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L78" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M78" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N78" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="O78" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="P78" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q78" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="R78" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="79" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="D79" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="F79" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L38" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="M38" s="3" t="str">
-        <f>", '"&amp;A38&amp;"': {megami: '"&amp;B38&amp;"', name: '"&amp;C38&amp;"', ruby: '"&amp;D38&amp;"', baseType: '"&amp;VLOOKUP(E38,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F38,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G38&lt;&gt;"",", '"&amp; VLOOKUP(G38,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H38&lt;&gt;"", ", range: '"&amp;H38&amp;"'", "")&amp;IF(I38&lt;&gt;"", ", damage: '"&amp;I38&amp;"'", "")&amp;IF(J38&lt;&gt;"", ", capacity: '"&amp;J38&amp;"'", "")&amp;IF(K38&lt;&gt;"", ", cost: '"&amp;K38&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(L38, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '09-chikage-o-p-4': {megami: 'chikage', name: '滅灯毒', ruby: 'ほろびどく', baseType: 'extra', types: ['action'], text: '毒（このカードは伏せ札にできない） \n自オーラ→ダスト：3'}</v>
-      </c>
-    </row>
-    <row r="49" spans="4:14" x14ac:dyDescent="0.15">
-      <c r="D49" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J49" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K49" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="L49" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="N49" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="50" spans="4:14" x14ac:dyDescent="0.15">
-      <c r="D50" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I50" s="2" t="s">
+      <c r="G79" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K79" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L79" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M79" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N79" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="O79" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J50" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K50" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="L50" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="N50" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="51" spans="4:14" x14ac:dyDescent="0.15">
-      <c r="D51" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J51" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K51" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="L51" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="N51" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="52" spans="4:14" x14ac:dyDescent="0.15">
-      <c r="D52" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J52" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="K52" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="L52" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="N52" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="53" spans="4:14" x14ac:dyDescent="0.15">
-      <c r="D53" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J53" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K53" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="L53" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54" spans="4:14" x14ac:dyDescent="0.15">
-      <c r="D54" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J54" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K54" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="L54" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="N54" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="55" spans="4:14" x14ac:dyDescent="0.15">
-      <c r="D55" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J55" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K55" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="L55" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="M55" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="N55" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="56" spans="4:14" x14ac:dyDescent="0.15">
-      <c r="D56" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J56" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K56" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="L56" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="N56" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="57" spans="4:14" x14ac:dyDescent="0.15">
-      <c r="D57" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J57" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K57" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="L57" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="N57" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="58" spans="4:14" x14ac:dyDescent="0.15">
-      <c r="D58" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J58" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K58" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="L58" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="N58" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="59" spans="4:14" x14ac:dyDescent="0.15">
-      <c r="D59" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J59" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K59" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="L59" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="N59" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="60" spans="4:14" x14ac:dyDescent="0.15">
-      <c r="D60" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J60" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K60" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="L60" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="M60" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="N60" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="61" spans="4:14" x14ac:dyDescent="0.15">
-      <c r="D61" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J61" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K61" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="L61" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="M61" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="N61" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="62" spans="4:14" x14ac:dyDescent="0.15">
-      <c r="D62" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J62" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K62" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="L62" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="M62" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="N62" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="63" spans="4:14" x14ac:dyDescent="0.15">
-      <c r="D63" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J63" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K63" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="L63" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="M63" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="N63" s="1" t="s">
+      <c r="P79" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q79" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="R79" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3183,10 +4037,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="B3" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>

--- a/sheet/cards.xlsx
+++ b/sheet/cards.xlsx
@@ -1169,12 +1169,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>【展開時】間合→ダスト：1 
-【破棄時】ダスト→間合：1 
-【常時】あなたの傘が開いているならば、このカードの矢印(→)は逆になる。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">【即再起】あなたが傘の開閉を行う。 </t>
     <rPh sb="1" eb="2">
       <t>ソク</t>
@@ -1203,6 +1197,12 @@
   </si>
   <si>
     <t>4/5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【展開時】間合→ダスト：1 
+【破棄時】ダスト→間合：1 
+【常時】あなたの傘が開いているならば、このカードの矢印(→)は逆になる。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1631,8 +1631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="Q22" workbookViewId="0">
+      <selection activeCell="Q34" sqref="Q24:Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2487,8 +2487,8 @@
       </c>
       <c r="P24" s="8"/>
       <c r="Q24" s="9" t="str">
-        <f>", '"&amp;A24&amp;"': {megami: '"&amp;B24&amp;"', name: '"&amp;C24&amp;"', ruby: '"&amp;D24&amp;"', baseType: '"&amp;VLOOKUP(E24,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F24,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G24&lt;&gt;"",", '"&amp; VLOOKUP(G24,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H24&lt;&gt;"", ", range: '"&amp;H24&amp;"'", "")&amp;IF(I24&lt;&gt;"", ", rangeOpened: '"&amp;I24&amp;"'", "")&amp;IF(J24&lt;&gt;"", ", damage: '"&amp;J24&amp;"'", "")&amp;IF(K24&lt;&gt;"", ", damageOpened: '"&amp;K24&amp;"'", "")&amp;IF(L24&lt;&gt;"", ", capacity: '"&amp;L24&amp;"'", "")&amp;IF(M24&lt;&gt;"", ", cost: '"&amp;M24&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O24, CHAR(10), "\n")&amp;", textOpened: '"&amp;SUBSTITUTE(P24, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '06-yukihi-o-n-1': {megami: 'yukihi', name: 'しこみばり / ふくみばり', ruby: '', baseType: 'normal', types: ['attack'], range: '4-6', rangeOpened: '0-2', damage: '3/1', damageOpened: '1/2', text: ', textOpened: ''}</v>
+        <f>", '"&amp;A24&amp;"': {megami: '"&amp;B24&amp;"', name: '"&amp;C24&amp;"', ruby: '"&amp;D24&amp;"', baseType: '"&amp;VLOOKUP(E24,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F24,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G24&lt;&gt;"",", '"&amp; VLOOKUP(G24,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H24&lt;&gt;"", ", range: '"&amp;H24&amp;"'", "")&amp;IF(I24&lt;&gt;"", ", rangeOpened: '"&amp;I24&amp;"'", "")&amp;IF(J24&lt;&gt;"", ", damage: '"&amp;J24&amp;"'", "")&amp;IF(K24&lt;&gt;"", ", damageOpened: '"&amp;K24&amp;"'", "")&amp;IF(L24&lt;&gt;"", ", capacity: '"&amp;L24&amp;"'", "")&amp;IF(M24&lt;&gt;"", ", cost: '"&amp;M24&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O24, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(P24, CHAR(10), "\n")&amp;"'}"</f>
+        <v>, '06-yukihi-o-n-1': {megami: 'yukihi', name: 'しこみばり / ふくみばり', ruby: '', baseType: 'normal', types: ['attack'], range: '4-6', rangeOpened: '0-2', damage: '3/1', damageOpened: '1/2', text: '', textOpened: ''}</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.15">
@@ -2523,8 +2523,8 @@
         <v>286</v>
       </c>
       <c r="Q25" s="9" t="str">
-        <f>", '"&amp;A25&amp;"': {megami: '"&amp;B25&amp;"', name: '"&amp;C25&amp;"', ruby: '"&amp;D25&amp;"', baseType: '"&amp;VLOOKUP(E25,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F25,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G25&lt;&gt;"",", '"&amp; VLOOKUP(G25,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H25&lt;&gt;"", ", range: '"&amp;H25&amp;"'", "")&amp;IF(I25&lt;&gt;"", ", rangeOpened: '"&amp;I25&amp;"'", "")&amp;IF(J25&lt;&gt;"", ", damage: '"&amp;J25&amp;"'", "")&amp;IF(K25&lt;&gt;"", ", damageOpened: '"&amp;K25&amp;"'", "")&amp;IF(L25&lt;&gt;"", ", capacity: '"&amp;L25&amp;"'", "")&amp;IF(M25&lt;&gt;"", ", cost: '"&amp;M25&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O25, CHAR(10), "\n")&amp;", textOpened: '"&amp;SUBSTITUTE(P25, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '06-yukihi-o-n-2': {megami: 'yukihi', name: 'しこみび / ねこだまし', ruby: '', baseType: 'normal', types: ['attack'], range: '5-6', rangeOpened: '0-2', damage: '1/1', damageOpened: '1/1', text: '【攻撃後】このカードを手札に戻し、傘の開閉を行う。 , textOpened: ''}</v>
+        <f>", '"&amp;A25&amp;"': {megami: '"&amp;B25&amp;"', name: '"&amp;C25&amp;"', ruby: '"&amp;D25&amp;"', baseType: '"&amp;VLOOKUP(E25,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F25,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G25&lt;&gt;"",", '"&amp; VLOOKUP(G25,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H25&lt;&gt;"", ", range: '"&amp;H25&amp;"'", "")&amp;IF(I25&lt;&gt;"", ", rangeOpened: '"&amp;I25&amp;"'", "")&amp;IF(J25&lt;&gt;"", ", damage: '"&amp;J25&amp;"'", "")&amp;IF(K25&lt;&gt;"", ", damageOpened: '"&amp;K25&amp;"'", "")&amp;IF(L25&lt;&gt;"", ", capacity: '"&amp;L25&amp;"'", "")&amp;IF(M25&lt;&gt;"", ", cost: '"&amp;M25&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O25, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(P25, CHAR(10), "\n")&amp;"'}"</f>
+        <v>, '06-yukihi-o-n-2': {megami: 'yukihi', name: 'しこみび / ねこだまし', ruby: '', baseType: 'normal', types: ['attack'], range: '5-6', rangeOpened: '0-2', damage: '1/1', damageOpened: '1/1', text: '【攻撃後】このカードを手札に戻し、傘の開閉を行う。 ', textOpened: ''}</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.15">
@@ -2562,8 +2562,8 @@
         <v>294</v>
       </c>
       <c r="Q26" s="9" t="str">
-        <f>", '"&amp;A26&amp;"': {megami: '"&amp;B26&amp;"', name: '"&amp;C26&amp;"', ruby: '"&amp;D26&amp;"', baseType: '"&amp;VLOOKUP(E26,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F26,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G26&lt;&gt;"",", '"&amp; VLOOKUP(G26,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H26&lt;&gt;"", ", range: '"&amp;H26&amp;"'", "")&amp;IF(I26&lt;&gt;"", ", rangeOpened: '"&amp;I26&amp;"'", "")&amp;IF(J26&lt;&gt;"", ", damage: '"&amp;J26&amp;"'", "")&amp;IF(K26&lt;&gt;"", ", damageOpened: '"&amp;K26&amp;"'", "")&amp;IF(L26&lt;&gt;"", ", capacity: '"&amp;L26&amp;"'", "")&amp;IF(M26&lt;&gt;"", ", cost: '"&amp;M26&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O26, CHAR(10), "\n")&amp;", textOpened: '"&amp;SUBSTITUTE(P26, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '06-yukihi-o-n-3': {megami: 'yukihi', name: 'ふりはらい / たぐりよせ', ruby: '', baseType: 'normal', types: ['attack'], range: '2-5', rangeOpened: '0-2', damage: '1/1', damageOpened: '1/1', text: '【攻撃後】ダスト⇔間合：1 , textOpened: '【攻撃後】間合→ダスト：2'}</v>
+        <f>", '"&amp;A26&amp;"': {megami: '"&amp;B26&amp;"', name: '"&amp;C26&amp;"', ruby: '"&amp;D26&amp;"', baseType: '"&amp;VLOOKUP(E26,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F26,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G26&lt;&gt;"",", '"&amp; VLOOKUP(G26,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H26&lt;&gt;"", ", range: '"&amp;H26&amp;"'", "")&amp;IF(I26&lt;&gt;"", ", rangeOpened: '"&amp;I26&amp;"'", "")&amp;IF(J26&lt;&gt;"", ", damage: '"&amp;J26&amp;"'", "")&amp;IF(K26&lt;&gt;"", ", damageOpened: '"&amp;K26&amp;"'", "")&amp;IF(L26&lt;&gt;"", ", capacity: '"&amp;L26&amp;"'", "")&amp;IF(M26&lt;&gt;"", ", cost: '"&amp;M26&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O26, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(P26, CHAR(10), "\n")&amp;"'}"</f>
+        <v>, '06-yukihi-o-n-3': {megami: 'yukihi', name: 'ふりはらい / たぐりよせ', ruby: '', baseType: 'normal', types: ['attack'], range: '2-5', rangeOpened: '0-2', damage: '1/1', damageOpened: '1/1', text: '【攻撃後】ダスト⇔間合：1 ', textOpened: '【攻撃後】間合→ダスト：2'}</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.15">
@@ -2599,8 +2599,8 @@
       </c>
       <c r="O27" s="5"/>
       <c r="Q27" s="9" t="str">
-        <f>", '"&amp;A27&amp;"': {megami: '"&amp;B27&amp;"', name: '"&amp;C27&amp;"', ruby: '"&amp;D27&amp;"', baseType: '"&amp;VLOOKUP(E27,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F27,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G27&lt;&gt;"",", '"&amp; VLOOKUP(G27,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H27&lt;&gt;"", ", range: '"&amp;H27&amp;"'", "")&amp;IF(I27&lt;&gt;"", ", rangeOpened: '"&amp;I27&amp;"'", "")&amp;IF(J27&lt;&gt;"", ", damage: '"&amp;J27&amp;"'", "")&amp;IF(K27&lt;&gt;"", ", damageOpened: '"&amp;K27&amp;"'", "")&amp;IF(L27&lt;&gt;"", ", capacity: '"&amp;L27&amp;"'", "")&amp;IF(M27&lt;&gt;"", ", cost: '"&amp;M27&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O27, CHAR(10), "\n")&amp;", textOpened: '"&amp;SUBSTITUTE(P27, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '06-yukihi-o-n-4': {megami: 'yukihi', name: 'ふりまわし / つきさし', ruby: '', baseType: 'normal', types: ['attack', 'fullpower'], range: '4-6', rangeOpened: '0-2', damage: '5/-', damageOpened: '-/2', text: ', textOpened: ''}</v>
+        <f>", '"&amp;A27&amp;"': {megami: '"&amp;B27&amp;"', name: '"&amp;C27&amp;"', ruby: '"&amp;D27&amp;"', baseType: '"&amp;VLOOKUP(E27,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F27,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G27&lt;&gt;"",", '"&amp; VLOOKUP(G27,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H27&lt;&gt;"", ", range: '"&amp;H27&amp;"'", "")&amp;IF(I27&lt;&gt;"", ", rangeOpened: '"&amp;I27&amp;"'", "")&amp;IF(J27&lt;&gt;"", ", damage: '"&amp;J27&amp;"'", "")&amp;IF(K27&lt;&gt;"", ", damageOpened: '"&amp;K27&amp;"'", "")&amp;IF(L27&lt;&gt;"", ", capacity: '"&amp;L27&amp;"'", "")&amp;IF(M27&lt;&gt;"", ", cost: '"&amp;M27&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O27, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(P27, CHAR(10), "\n")&amp;"'}"</f>
+        <v>, '06-yukihi-o-n-4': {megami: 'yukihi', name: 'ふりまわし / つきさし', ruby: '', baseType: 'normal', types: ['attack', 'fullpower'], range: '4-6', rangeOpened: '0-2', damage: '5/-', damageOpened: '-/2', text: '', textOpened: ''}</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="60" x14ac:dyDescent="0.15">
@@ -2623,11 +2623,11 @@
         <v>295</v>
       </c>
       <c r="Q28" s="9" t="str">
-        <f>", '"&amp;A28&amp;"': {megami: '"&amp;B28&amp;"', name: '"&amp;C28&amp;"', ruby: '"&amp;D28&amp;"', baseType: '"&amp;VLOOKUP(E28,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F28,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G28&lt;&gt;"",", '"&amp; VLOOKUP(G28,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H28&lt;&gt;"", ", range: '"&amp;H28&amp;"'", "")&amp;IF(I28&lt;&gt;"", ", rangeOpened: '"&amp;I28&amp;"'", "")&amp;IF(J28&lt;&gt;"", ", damage: '"&amp;J28&amp;"'", "")&amp;IF(K28&lt;&gt;"", ", damageOpened: '"&amp;K28&amp;"'", "")&amp;IF(L28&lt;&gt;"", ", capacity: '"&amp;L28&amp;"'", "")&amp;IF(M28&lt;&gt;"", ", cost: '"&amp;M28&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O28, CHAR(10), "\n")&amp;", textOpened: '"&amp;SUBSTITUTE(P28, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '06-yukihi-o-n-5': {megami: 'yukihi', name: 'かさまわし', ruby: '', baseType: 'normal', types: ['action'], text: '(このカードは使用しても効果はない) \n【常時】あなたが傘の開閉を行った時、このカードを手札から公開してもよい。そうした場合、 \nダスト→自オーラ：1\n, textOpened: ''}</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="36" x14ac:dyDescent="0.15">
+        <f>", '"&amp;A28&amp;"': {megami: '"&amp;B28&amp;"', name: '"&amp;C28&amp;"', ruby: '"&amp;D28&amp;"', baseType: '"&amp;VLOOKUP(E28,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F28,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G28&lt;&gt;"",", '"&amp; VLOOKUP(G28,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H28&lt;&gt;"", ", range: '"&amp;H28&amp;"'", "")&amp;IF(I28&lt;&gt;"", ", rangeOpened: '"&amp;I28&amp;"'", "")&amp;IF(J28&lt;&gt;"", ", damage: '"&amp;J28&amp;"'", "")&amp;IF(K28&lt;&gt;"", ", damageOpened: '"&amp;K28&amp;"'", "")&amp;IF(L28&lt;&gt;"", ", capacity: '"&amp;L28&amp;"'", "")&amp;IF(M28&lt;&gt;"", ", cost: '"&amp;M28&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O28, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(P28, CHAR(10), "\n")&amp;"'}"</f>
+        <v>, '06-yukihi-o-n-5': {megami: 'yukihi', name: 'かさまわし', ruby: '', baseType: 'normal', types: ['action'], text: '(このカードは使用しても効果はない) \n【常時】あなたが傘の開閉を行った時、このカードを手札から公開してもよい。そうした場合、 \nダスト→自オーラ：1\n', textOpened: ''}</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>264</v>
       </c>
@@ -2646,15 +2646,13 @@
       <c r="G29" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="O29" s="5" t="s">
-        <v>296</v>
-      </c>
+      <c r="O29" s="5"/>
       <c r="Q29" s="9" t="str">
-        <f>", '"&amp;A29&amp;"': {megami: '"&amp;B29&amp;"', name: '"&amp;C29&amp;"', ruby: '"&amp;D29&amp;"', baseType: '"&amp;VLOOKUP(E29,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F29,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G29&lt;&gt;"",", '"&amp; VLOOKUP(G29,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H29&lt;&gt;"", ", range: '"&amp;H29&amp;"'", "")&amp;IF(I29&lt;&gt;"", ", rangeOpened: '"&amp;I29&amp;"'", "")&amp;IF(J29&lt;&gt;"", ", damage: '"&amp;J29&amp;"'", "")&amp;IF(K29&lt;&gt;"", ", damageOpened: '"&amp;K29&amp;"'", "")&amp;IF(L29&lt;&gt;"", ", capacity: '"&amp;L29&amp;"'", "")&amp;IF(M29&lt;&gt;"", ", cost: '"&amp;M29&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O29, CHAR(10), "\n")&amp;", textOpened: '"&amp;SUBSTITUTE(P29, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '06-yukihi-o-n-6': {megami: 'yukihi', name: 'ひきあし / もぐりこみ', ruby: '', baseType: 'normal', types: ['action', 'reaction'], text: '【展開時】間合→ダスト：1 \n【破棄時】ダスト→間合：1 \n【常時】あなたの傘が開いているならば、このカードの矢印(→)は逆になる。, textOpened: ''}</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
+        <f>", '"&amp;A29&amp;"': {megami: '"&amp;B29&amp;"', name: '"&amp;C29&amp;"', ruby: '"&amp;D29&amp;"', baseType: '"&amp;VLOOKUP(E29,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F29,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G29&lt;&gt;"",", '"&amp; VLOOKUP(G29,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H29&lt;&gt;"", ", range: '"&amp;H29&amp;"'", "")&amp;IF(I29&lt;&gt;"", ", rangeOpened: '"&amp;I29&amp;"'", "")&amp;IF(J29&lt;&gt;"", ", damage: '"&amp;J29&amp;"'", "")&amp;IF(K29&lt;&gt;"", ", damageOpened: '"&amp;K29&amp;"'", "")&amp;IF(L29&lt;&gt;"", ", capacity: '"&amp;L29&amp;"'", "")&amp;IF(M29&lt;&gt;"", ", cost: '"&amp;M29&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O29, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(P29, CHAR(10), "\n")&amp;"'}"</f>
+        <v>, '06-yukihi-o-n-6': {megami: 'yukihi', name: 'ひきあし / もぐりこみ', ruby: '', baseType: 'normal', types: ['action', 'reaction'], text: '', textOpened: ''}</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="36" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>265</v>
       </c>
@@ -2673,10 +2671,12 @@
       <c r="L30" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="O30" s="5"/>
+      <c r="O30" s="5" t="s">
+        <v>302</v>
+      </c>
       <c r="Q30" s="9" t="str">
-        <f>", '"&amp;A30&amp;"': {megami: '"&amp;B30&amp;"', name: '"&amp;C30&amp;"', ruby: '"&amp;D30&amp;"', baseType: '"&amp;VLOOKUP(E30,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F30,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G30&lt;&gt;"",", '"&amp; VLOOKUP(G30,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H30&lt;&gt;"", ", range: '"&amp;H30&amp;"'", "")&amp;IF(I30&lt;&gt;"", ", rangeOpened: '"&amp;I30&amp;"'", "")&amp;IF(J30&lt;&gt;"", ", damage: '"&amp;J30&amp;"'", "")&amp;IF(K30&lt;&gt;"", ", damageOpened: '"&amp;K30&amp;"'", "")&amp;IF(L30&lt;&gt;"", ", capacity: '"&amp;L30&amp;"'", "")&amp;IF(M30&lt;&gt;"", ", cost: '"&amp;M30&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O30, CHAR(10), "\n")&amp;", textOpened: '"&amp;SUBSTITUTE(P30, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '06-yukihi-o-n-7': {megami: 'yukihi', name: 'えんむすび', ruby: '', baseType: 'normal', types: ['enhance'], capacity: '2', text: ', textOpened: ''}</v>
+        <f>", '"&amp;A30&amp;"': {megami: '"&amp;B30&amp;"', name: '"&amp;C30&amp;"', ruby: '"&amp;D30&amp;"', baseType: '"&amp;VLOOKUP(E30,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F30,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G30&lt;&gt;"",", '"&amp; VLOOKUP(G30,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H30&lt;&gt;"", ", range: '"&amp;H30&amp;"'", "")&amp;IF(I30&lt;&gt;"", ", rangeOpened: '"&amp;I30&amp;"'", "")&amp;IF(J30&lt;&gt;"", ", damage: '"&amp;J30&amp;"'", "")&amp;IF(K30&lt;&gt;"", ", damageOpened: '"&amp;K30&amp;"'", "")&amp;IF(L30&lt;&gt;"", ", capacity: '"&amp;L30&amp;"'", "")&amp;IF(M30&lt;&gt;"", ", cost: '"&amp;M30&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O30, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(P30, CHAR(10), "\n")&amp;"'}"</f>
+        <v>, '06-yukihi-o-n-7': {megami: 'yukihi', name: 'えんむすび', ruby: '', baseType: 'normal', types: ['enhance'], capacity: '2', text: '【展開時】間合→ダスト：1 \n【破棄時】ダスト→間合：1 \n【常時】あなたの傘が開いているならば、このカードの矢印(→)は逆になる。', textOpened: ''}</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
@@ -2705,17 +2705,17 @@
         <v>284</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M31" s="4" t="s">
         <v>276</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q31" s="9" t="str">
-        <f>", '"&amp;A31&amp;"': {megami: '"&amp;B31&amp;"', name: '"&amp;C31&amp;"', ruby: '"&amp;D31&amp;"', baseType: '"&amp;VLOOKUP(E31,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F31,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G31&lt;&gt;"",", '"&amp; VLOOKUP(G31,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H31&lt;&gt;"", ", range: '"&amp;H31&amp;"'", "")&amp;IF(I31&lt;&gt;"", ", rangeOpened: '"&amp;I31&amp;"'", "")&amp;IF(J31&lt;&gt;"", ", damage: '"&amp;J31&amp;"'", "")&amp;IF(K31&lt;&gt;"", ", damageOpened: '"&amp;K31&amp;"'", "")&amp;IF(L31&lt;&gt;"", ", capacity: '"&amp;L31&amp;"'", "")&amp;IF(M31&lt;&gt;"", ", cost: '"&amp;M31&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O31, CHAR(10), "\n")&amp;", textOpened: '"&amp;SUBSTITUTE(P31, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '06-yukihi-o-s-1': {megami: 'yukihi', name: 'はらりゆき', ruby: '', baseType: 'special', types: ['attack'], range: '3-5', rangeOpened: '0-1', damage: '3/1', damageOpened: '0/0', cost: '2', text: '【即再起】あなたが傘の開閉を行う。 , textOpened: ''}</v>
+        <f>", '"&amp;A31&amp;"': {megami: '"&amp;B31&amp;"', name: '"&amp;C31&amp;"', ruby: '"&amp;D31&amp;"', baseType: '"&amp;VLOOKUP(E31,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F31,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G31&lt;&gt;"",", '"&amp; VLOOKUP(G31,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H31&lt;&gt;"", ", range: '"&amp;H31&amp;"'", "")&amp;IF(I31&lt;&gt;"", ", rangeOpened: '"&amp;I31&amp;"'", "")&amp;IF(J31&lt;&gt;"", ", damage: '"&amp;J31&amp;"'", "")&amp;IF(K31&lt;&gt;"", ", damageOpened: '"&amp;K31&amp;"'", "")&amp;IF(L31&lt;&gt;"", ", capacity: '"&amp;L31&amp;"'", "")&amp;IF(M31&lt;&gt;"", ", cost: '"&amp;M31&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O31, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(P31, CHAR(10), "\n")&amp;"'}"</f>
+        <v>, '06-yukihi-o-s-1': {megami: 'yukihi', name: 'はらりゆき', ruby: '', baseType: 'special', types: ['attack'], range: '3-5', rangeOpened: '0-1', damage: '3/1', damageOpened: '0/0', cost: '2', text: '【即再起】あなたが傘の開閉を行う。 ', textOpened: ''}</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
@@ -2741,18 +2741,18 @@
         <v>252</v>
       </c>
       <c r="J32" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="K32" s="4" t="s">
         <v>301</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>302</v>
       </c>
       <c r="M32" s="4" t="s">
         <v>277</v>
       </c>
       <c r="O32" s="5"/>
       <c r="Q32" s="9" t="str">
-        <f>", '"&amp;A32&amp;"': {megami: '"&amp;B32&amp;"', name: '"&amp;C32&amp;"', ruby: '"&amp;D32&amp;"', baseType: '"&amp;VLOOKUP(E32,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F32,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G32&lt;&gt;"",", '"&amp; VLOOKUP(G32,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H32&lt;&gt;"", ", range: '"&amp;H32&amp;"'", "")&amp;IF(I32&lt;&gt;"", ", rangeOpened: '"&amp;I32&amp;"'", "")&amp;IF(J32&lt;&gt;"", ", damage: '"&amp;J32&amp;"'", "")&amp;IF(K32&lt;&gt;"", ", damageOpened: '"&amp;K32&amp;"'", "")&amp;IF(L32&lt;&gt;"", ", capacity: '"&amp;L32&amp;"'", "")&amp;IF(M32&lt;&gt;"", ", cost: '"&amp;M32&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O32, CHAR(10), "\n")&amp;", textOpened: '"&amp;SUBSTITUTE(P32, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '06-yukihi-o-s-2': {megami: 'yukihi', name: 'ゆらりび', ruby: '', baseType: 'special', types: ['attack'], range: '4-6', rangeOpened: '0', damage: '0/0', damageOpened: '4/5', cost: '5', text: ', textOpened: ''}</v>
+        <f>", '"&amp;A32&amp;"': {megami: '"&amp;B32&amp;"', name: '"&amp;C32&amp;"', ruby: '"&amp;D32&amp;"', baseType: '"&amp;VLOOKUP(E32,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F32,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G32&lt;&gt;"",", '"&amp; VLOOKUP(G32,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H32&lt;&gt;"", ", range: '"&amp;H32&amp;"'", "")&amp;IF(I32&lt;&gt;"", ", rangeOpened: '"&amp;I32&amp;"'", "")&amp;IF(J32&lt;&gt;"", ", damage: '"&amp;J32&amp;"'", "")&amp;IF(K32&lt;&gt;"", ", damageOpened: '"&amp;K32&amp;"'", "")&amp;IF(L32&lt;&gt;"", ", capacity: '"&amp;L32&amp;"'", "")&amp;IF(M32&lt;&gt;"", ", cost: '"&amp;M32&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O32, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(P32, CHAR(10), "\n")&amp;"'}"</f>
+        <v>, '06-yukihi-o-s-2': {megami: 'yukihi', name: 'ゆらりび', ruby: '', baseType: 'special', types: ['attack'], range: '4-6', rangeOpened: '0', damage: '0/0', damageOpened: '4/5', cost: '5', text: '', textOpened: ''}</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="24" x14ac:dyDescent="0.15">
@@ -2775,17 +2775,17 @@
         <v>31</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M33" s="4" t="s">
         <v>278</v>
       </c>
       <c r="O33" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q33" s="9" t="str">
-        <f>", '"&amp;A33&amp;"': {megami: '"&amp;B33&amp;"', name: '"&amp;C33&amp;"', ruby: '"&amp;D33&amp;"', baseType: '"&amp;VLOOKUP(E33,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F33,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G33&lt;&gt;"",", '"&amp; VLOOKUP(G33,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H33&lt;&gt;"", ", range: '"&amp;H33&amp;"'", "")&amp;IF(I33&lt;&gt;"", ", rangeOpened: '"&amp;I33&amp;"'", "")&amp;IF(J33&lt;&gt;"", ", damage: '"&amp;J33&amp;"'", "")&amp;IF(K33&lt;&gt;"", ", damageOpened: '"&amp;K33&amp;"'", "")&amp;IF(L33&lt;&gt;"", ", capacity: '"&amp;L33&amp;"'", "")&amp;IF(M33&lt;&gt;"", ", cost: '"&amp;M33&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O33, CHAR(10), "\n")&amp;", textOpened: '"&amp;SUBSTITUTE(P33, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '06-yukihi-o-s-3': {megami: 'yukihi', name: 'どろりうら', ruby: '', baseType: 'special', types: ['enhance', 'fullpower'], capacity: '7', cost: '3', text: '【展開中】あなたのユキヒの《攻撃》は傘を開いた状態と傘を閉じた状態両方の適正距離を持つ。, textOpened: ''}</v>
+        <f>", '"&amp;A33&amp;"': {megami: '"&amp;B33&amp;"', name: '"&amp;C33&amp;"', ruby: '"&amp;D33&amp;"', baseType: '"&amp;VLOOKUP(E33,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F33,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G33&lt;&gt;"",", '"&amp; VLOOKUP(G33,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H33&lt;&gt;"", ", range: '"&amp;H33&amp;"'", "")&amp;IF(I33&lt;&gt;"", ", rangeOpened: '"&amp;I33&amp;"'", "")&amp;IF(J33&lt;&gt;"", ", damage: '"&amp;J33&amp;"'", "")&amp;IF(K33&lt;&gt;"", ", damageOpened: '"&amp;K33&amp;"'", "")&amp;IF(L33&lt;&gt;"", ", capacity: '"&amp;L33&amp;"'", "")&amp;IF(M33&lt;&gt;"", ", cost: '"&amp;M33&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O33, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(P33, CHAR(10), "\n")&amp;"'}"</f>
+        <v>, '06-yukihi-o-s-3': {megami: 'yukihi', name: 'どろりうら', ruby: '', baseType: 'special', types: ['enhance', 'fullpower'], capacity: '7', cost: '3', text: '【展開中】あなたのユキヒの《攻撃》は傘を開いた状態と傘を閉じた状態両方の適正距離を持つ。', textOpened: ''}</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="24" x14ac:dyDescent="0.15">
@@ -2811,11 +2811,11 @@
         <v>279</v>
       </c>
       <c r="O34" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Q34" s="9" t="str">
-        <f>", '"&amp;A34&amp;"': {megami: '"&amp;B34&amp;"', name: '"&amp;C34&amp;"', ruby: '"&amp;D34&amp;"', baseType: '"&amp;VLOOKUP(E34,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F34,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G34&lt;&gt;"",", '"&amp; VLOOKUP(G34,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H34&lt;&gt;"", ", range: '"&amp;H34&amp;"'", "")&amp;IF(I34&lt;&gt;"", ", rangeOpened: '"&amp;I34&amp;"'", "")&amp;IF(J34&lt;&gt;"", ", damage: '"&amp;J34&amp;"'", "")&amp;IF(K34&lt;&gt;"", ", damageOpened: '"&amp;K34&amp;"'", "")&amp;IF(L34&lt;&gt;"", ", capacity: '"&amp;L34&amp;"'", "")&amp;IF(M34&lt;&gt;"", ", cost: '"&amp;M34&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O34, CHAR(10), "\n")&amp;", textOpened: '"&amp;SUBSTITUTE(P34, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '06-yukihi-o-s-4': {megami: 'yukihi', name: 'くるりみ', ruby: '', baseType: 'special', types: ['action', 'reaction'], cost: '1', text: '傘の開閉を行う。 \nダスト→自オーラ：1, textOpened: ''}</v>
+        <f>", '"&amp;A34&amp;"': {megami: '"&amp;B34&amp;"', name: '"&amp;C34&amp;"', ruby: '"&amp;D34&amp;"', baseType: '"&amp;VLOOKUP(E34,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F34,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G34&lt;&gt;"",", '"&amp; VLOOKUP(G34,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H34&lt;&gt;"", ", range: '"&amp;H34&amp;"'", "")&amp;IF(I34&lt;&gt;"", ", rangeOpened: '"&amp;I34&amp;"'", "")&amp;IF(J34&lt;&gt;"", ", damage: '"&amp;J34&amp;"'", "")&amp;IF(K34&lt;&gt;"", ", damageOpened: '"&amp;K34&amp;"'", "")&amp;IF(L34&lt;&gt;"", ", capacity: '"&amp;L34&amp;"'", "")&amp;IF(M34&lt;&gt;"", ", cost: '"&amp;M34&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O34, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(P34, CHAR(10), "\n")&amp;"'}"</f>
+        <v>, '06-yukihi-o-s-4': {megami: 'yukihi', name: 'くるりみ', ruby: '', baseType: 'special', types: ['action', 'reaction'], cost: '1', text: '傘の開閉を行う。 \nダスト→自オーラ：1', textOpened: ''}</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">

--- a/sheet/cards.xlsx
+++ b/sheet/cards.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="568">
   <si>
     <t>カードID</t>
     <phoneticPr fontId="1"/>
@@ -225,67 +225,37 @@
     <t>跳ね兎</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>QA</t>
   </si>
   <si>
-    <t>O-N-4</t>
-  </si>
-  <si>
     <t>詩舞</t>
   </si>
   <si>
-    <t>O-N-5</t>
-  </si>
-  <si>
     <t>要返し</t>
   </si>
   <si>
-    <t>O-N-6</t>
-  </si>
-  <si>
     <t>風舞台</t>
   </si>
   <si>
     <t>付与</t>
   </si>
   <si>
-    <t>O-N-7</t>
-  </si>
-  <si>
     <t>晴舞台</t>
   </si>
   <si>
-    <t>O-S-1</t>
-  </si>
-  <si>
     <t>久遠ノ花</t>
   </si>
   <si>
     <t>0-10</t>
   </si>
   <si>
-    <t>O-S-2</t>
-  </si>
-  <si>
     <t>千歳ノ鳥</t>
   </si>
   <si>
-    <t>O-S-3</t>
-  </si>
-  <si>
     <t>無窮ノ風</t>
   </si>
   <si>
-    <t>O-S-4</t>
-  </si>
-  <si>
     <t>常世ノ月</t>
-  </si>
-  <si>
-    <t>O-N-3</t>
   </si>
   <si>
     <t>2</t>
@@ -474,16 +444,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>O-N-1</t>
-  </si>
-  <si>
     <t>鋼糸</t>
   </si>
   <si>
     <t>設置</t>
-  </si>
-  <si>
-    <t>O-N-2</t>
   </si>
   <si>
     <t>影菱</t>
@@ -627,14 +591,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>相オーラ→自フレア：1 
-再起：あなたのフレアが0である。</t>
-    <rPh sb="13" eb="15">
-      <t>サイキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>09-chikage-o-n-2</t>
   </si>
   <si>
@@ -881,13 +837,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>再起：相手の手札が2枚以上ある。</t>
-    <rPh sb="0" eb="2">
-      <t>サイキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>【展開中】あなたが1以上のライフへのダメージを受けた時、このカードの上の桜花結晶は全てダストに送られ、このカードは未使用に戻る。 
 (破棄時効果は失敗する) 
 【破棄時】あなたの他の切札が全て使用済ならば、あなたは勝利する。</t>
@@ -914,12 +863,6 @@
   <si>
     <t>毒（このカードは伏せ札にできない） 
 自オーラ→ダスト：3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>対応不可 
-【攻撃後】相手は手札から《攻撃》でないカード1枚を捨て札にする。それが行えない場合、相手は手札を公開する。 
-【再起】境地-あなたの集中力が2である。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -934,119 +877,62 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>しこみばり/ふくみばり</t>
-  </si>
-  <si>
-    <t>閉</t>
-  </si>
-  <si>
     <t>4-6</t>
   </si>
   <si>
-    <t>開</t>
-  </si>
-  <si>
     <t>0-2</t>
   </si>
   <si>
-    <t>しこみび/ねこだまし</t>
-  </si>
-  <si>
-    <t>5-6</t>
-  </si>
-  <si>
-    <t>ふりはらい/たぐりよせ</t>
-  </si>
-  <si>
     <t>2-5</t>
   </si>
   <si>
-    <t>間合⇔ダスト：1</t>
-  </si>
-  <si>
-    <t>間合→ダスト：2</t>
-  </si>
-  <si>
-    <t>ふりまわし/つきさし</t>
-  </si>
-  <si>
     <t>かさまわし</t>
   </si>
   <si>
-    <t>ひきあし/もぐりこみ</t>
-  </si>
-  <si>
-    <t>ダスト→間合：1</t>
-  </si>
-  <si>
-    <t>間合→ダスト：1</t>
+    <t>はらりゆき</t>
+  </si>
+  <si>
+    <t>3-5</t>
+  </si>
+  <si>
+    <t>0-1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>ゆらりび</t>
+  </si>
+  <si>
+    <t>どろりうら</t>
+  </si>
+  <si>
+    <t>くるりみ</t>
+  </si>
+  <si>
+    <t>06-yukihi-o-n-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>06-yukihi-o-n-2</t>
+  </si>
+  <si>
+    <t>06-yukihi-o-n-3</t>
+  </si>
+  <si>
+    <t>06-yukihi-o-n-4</t>
+  </si>
+  <si>
+    <t>06-yukihi-o-n-5</t>
+  </si>
+  <si>
+    <t>06-yukihi-o-n-6</t>
+  </si>
+  <si>
+    <t>06-yukihi-o-n-7</t>
   </si>
   <si>
     <t>えんむすび</t>
-  </si>
-  <si>
-    <t>【展開時】間合→ダスト：1【破棄時】ダスト→間合：1</t>
-  </si>
-  <si>
-    <t>傘が空いていたら矢印(→)の向きが逆</t>
-  </si>
-  <si>
-    <t>はらりゆき</t>
-  </si>
-  <si>
-    <t>3-5</t>
-  </si>
-  <si>
-    <t>即再起：傘を開閉する</t>
-  </si>
-  <si>
-    <t>0-1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>ゆらりび</t>
-  </si>
-  <si>
-    <t>どろりうら</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>【展開中】ユキヒのカードが開閉両方の間合を持つ</t>
-  </si>
-  <si>
-    <t>くるりみ</t>
-  </si>
-  <si>
-    <t>ダスト→自オーラ：1　傘を開閉する</t>
-  </si>
-  <si>
-    <t>06-yukihi-o-n-1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>06-yukihi-o-n-2</t>
-  </si>
-  <si>
-    <t>06-yukihi-o-n-3</t>
-  </si>
-  <si>
-    <t>06-yukihi-o-n-4</t>
-  </si>
-  <si>
-    <t>06-yukihi-o-n-5</t>
-  </si>
-  <si>
-    <t>06-yukihi-o-n-6</t>
-  </si>
-  <si>
-    <t>06-yukihi-o-n-7</t>
-  </si>
-  <si>
-    <t>えんむすび</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1096,10 +982,6 @@
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>傘を開閉し、このカードを手札へ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1150,15 +1032,385 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>傘の開閉時に手札から見せると、ダスト→自オーラ：1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">【攻撃後】ダスト⇔間合：1 </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>【攻撃後】間合→ダスト：2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0/0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4/5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>立論</t>
+  </si>
+  <si>
+    <t>反論</t>
+  </si>
+  <si>
+    <t>詭弁</t>
+  </si>
+  <si>
+    <t>引用</t>
+  </si>
+  <si>
+    <t>煽動</t>
+  </si>
+  <si>
+    <t>壮語</t>
+  </si>
+  <si>
+    <t>論破</t>
+  </si>
+  <si>
+    <t>完全論破</t>
+  </si>
+  <si>
+    <t>皆式理解</t>
+  </si>
+  <si>
+    <t>天地反駁</t>
+  </si>
+  <si>
+    <t>森羅判証</t>
+  </si>
+  <si>
+    <t>2-7</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>shinra</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>07-shinra-o-n-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>07-shinra-o-n-2</t>
+  </si>
+  <si>
+    <t>07-shinra-o-n-3</t>
+  </si>
+  <si>
+    <t>07-shinra-o-n-4</t>
+  </si>
+  <si>
+    <t>07-shinra-o-n-5</t>
+  </si>
+  <si>
+    <t>07-shinra-o-n-6</t>
+  </si>
+  <si>
+    <t>07-shinra-o-n-7</t>
+  </si>
+  <si>
+    <t>07-shinra-o-s-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>07-shinra-o-s-2</t>
+  </si>
+  <si>
+    <t>07-shinra-o-s-3</t>
+  </si>
+  <si>
+    <t>07-shinra-o-s-4</t>
+  </si>
+  <si>
+    <t>りつろん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はんろん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きべん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いんよう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>せんどう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そうご</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ろんぱ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かんぜんろんぱ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいしきりかい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>てんちはんぱく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しんらばんしょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2/-</t>
+  </si>
+  <si>
+    <t>1/-</t>
+  </si>
+  <si>
+    <t>-/1</t>
+  </si>
+  <si>
+    <t>【常時】相手の山札に2枚以上のカードがあるならば、この《攻撃》はダメージを与える代わりに山札の上から2枚を伏せ札にする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【攻撃後】対応した切札でなく、オーラへのダメージが3以上である《攻撃》のダメージを打ち消す。 
+【攻撃後】相手はカードを1枚引く。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相手の手札を見て、《攻撃》カードを1枚選んでもよい。そうした場合、そのカードを使用するか伏せ札にする。その後、そのカードが《全力》を持つならば現在のフェイズを終了する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【展開時】相手の捨て札にあるカード1枚を選び、このカードの下に封印する。 
+【破棄時】このカードに封印されたカードを相手の捨て札に戻す。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相手の捨て札にあるカード1枚を選び、このカードの下に封印する。 
+(ゲーム中に戻ることはない)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【展開中】あなたの《攻撃》のオーラへのダメージとライフへのダメージを入れ替える。 
+（ダメージの入れ替えは、ダメージの増減より先に適用される）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【展開時】ダスト→自ライフ：2 
+【展開中】あなたの他の付与札が破棄された時、相手のライフに1ダメージを与える。 
+【破棄時】あなたは敗北する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【破棄時】計略を実行し、次の計略を準備する。 
+[神算] あなたの集中力は1増加し、このカードを山札の一番上に置く。 
+[鬼謀] 相手は手札が2枚以上ならば、手札を1枚になるまで捨て札にする。相手の集中力は0になる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>計略を実行し、次の計略を準備する。 
+[神算] ダスト→間合：1 
+[鬼謀] 間合→相オーラ：1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【攻撃後】計略を実行し、次の計略を準備する。 
+[神算] 相手の山札の上から3枚を伏せ札にする。 
+[鬼謀] 相手の捨て札にあるカードを1枚選び、それを使用してもよい。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>計略を実行し、次の計略を準備する。 
+[神算] あなたの捨て札または使用済の切札から、消費を支払わずに《付与》カード1枚を使用する。そのカードが《全力》ならば現在のフェイズを終了する。 
+[鬼謀] 切札でない相手の付与札を1枚選ぶ。その上の桜花結晶全てをダストに送る。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>08-hagane-o-n-1</t>
+  </si>
+  <si>
+    <t>08-hagane-o-n-2</t>
+  </si>
+  <si>
+    <t>08-hagane-o-n-3</t>
+  </si>
+  <si>
+    <t>08-hagane-o-n-4</t>
+  </si>
+  <si>
+    <t>08-hagane-o-n-5</t>
+  </si>
+  <si>
+    <t>08-hagane-o-n-6</t>
+  </si>
+  <si>
+    <t>08-hagane-o-n-7</t>
+  </si>
+  <si>
+    <t>08-hagane-o-s-1</t>
+  </si>
+  <si>
+    <t>08-hagane-o-s-2</t>
+  </si>
+  <si>
+    <t>08-hagane-o-s-3</t>
+  </si>
+  <si>
+    <t>08-hagane-o-s-4</t>
+  </si>
+  <si>
+    <t>hagane</t>
+  </si>
+  <si>
+    <t>遠心撃</t>
+  </si>
+  <si>
+    <t>2-6</t>
+  </si>
+  <si>
+    <t>砂風塵</t>
+  </si>
+  <si>
+    <t>0-6</t>
+  </si>
+  <si>
+    <t>大地砕き</t>
+  </si>
+  <si>
+    <t>超反発</t>
+  </si>
+  <si>
+    <t>円舞錬</t>
+  </si>
+  <si>
+    <t>鐘鳴らし</t>
+  </si>
+  <si>
+    <t>引力場</t>
+  </si>
+  <si>
+    <t>大天空クラッシュ</t>
+  </si>
+  <si>
+    <t>大破鐘メガロベル</t>
+  </si>
+  <si>
+    <t>大重力アトラクト</t>
+  </si>
+  <si>
+    <t>大山脈リスペクト</t>
+  </si>
+  <si>
+    <t>だいはがねメガロベル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>だいじゅうりょくアトラクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>だいさんみゃくリスペクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>だいてんくうクラッシュ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いんりょくば</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>えんぶれん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かねならし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちょうはんぱつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>だいちくだき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さふうじん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>えんしんげき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5/3</t>
+  </si>
+  <si>
+    <t>X/Y</t>
+  </si>
+  <si>
+    <t>遠心 
+【攻撃後】現在のターンがあなたのターンならば、あなたと相手の手札を全て伏せ札にし、あなたの集中力は0になり、現在のフェイズを終了する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【攻撃後】現在の間合がターン開始時の間合から2以上変化しているならば、相手の手札を1枚無作為に選び、それを捨て札にする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対応不可 
+【攻撃後】相手の集中力は0になり、相手を畏縮させる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在の間合が4以下ならば、相フレア→間合：1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遠心 
+相手のフレアが3以上ならば、相フレア→自オーラ：2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遠心 
+以下から１つを選ぶ。
+・このターンにあなたが次に行う《攻撃》は対応不可を得る。
+・このターンにあなたが次に行う《攻撃》はオーラへのダメージが3以上ならば+0/+1、そうでないならば+2/+0となる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【展開時】間合→ダスト：1 
+【展開中】達人の間合は1小さくなる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>超克 
+【常時】Xは現在の間合がターン開始時の間合からどれだけ変化しているかに等しい。YはXの半分(切り上げ)に等しい。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あなたの他の切札が全て使用済ならば、ダスト→自ライフ：2</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1169,40 +1421,837 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">【即再起】あなたが傘の開閉を行う。 </t>
-    <rPh sb="1" eb="2">
-      <t>ソク</t>
+    <t>遠心 
+あなたの捨て札にある異なる《全力》でないカードを2枚まで選び、任意の順番で使用する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kururu</t>
+  </si>
+  <si>
+    <t>10-kururu-o-n-1</t>
+  </si>
+  <si>
+    <t>10-kururu-o-n-2</t>
+  </si>
+  <si>
+    <t>10-kururu-o-n-3</t>
+  </si>
+  <si>
+    <t>10-kururu-o-n-4</t>
+  </si>
+  <si>
+    <t>10-kururu-o-n-5</t>
+  </si>
+  <si>
+    <t>10-kururu-o-n-6</t>
+  </si>
+  <si>
+    <t>10-kururu-o-n-7</t>
+  </si>
+  <si>
+    <t>10-kururu-o-s-1</t>
+  </si>
+  <si>
+    <t>10-kururu-o-s-2</t>
+  </si>
+  <si>
+    <t>10-kururu-o-s-3</t>
+  </si>
+  <si>
+    <t>10-kururu-o-s-4</t>
+  </si>
+  <si>
+    <t>えれきてる</t>
+  </si>
+  <si>
+    <t>あくせらー</t>
+  </si>
+  <si>
+    <t>くるるーん</t>
+  </si>
+  <si>
+    <t>とるねーど</t>
+  </si>
+  <si>
+    <t>りげいなー</t>
+  </si>
+  <si>
+    <t>もじゅるー</t>
+  </si>
+  <si>
+    <t>りふれくた</t>
+  </si>
+  <si>
+    <t>どれーんでびる</t>
+  </si>
+  <si>
+    <t>びっぐごーれむ</t>
+  </si>
+  <si>
+    <t>いんだすとりあ</t>
+  </si>
+  <si>
+    <t>神渉装置：枢式</t>
+  </si>
+  <si>
+    <t>10-kururu-o-s-3-ex1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>でゅーぷりぎあ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かんしょうそうちくるるしき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不定</t>
+    <rPh sb="0" eb="2">
+      <t>フテイ</t>
     </rPh>
-    <rPh sb="2" eb="4">
-      <t>サイキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【展開中】あなたのユキヒの《攻撃》は傘を開いた状態と傘を閉じた状態両方の適正距離を持つ。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>傘の開閉を行う。 
-ダスト→自オーラ：1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0/0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4/5</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>【展開時】間合→ダスト：1 
 【破棄時】ダスト→間合：1 
 【常時】あなたの傘が開いているならば、このカードの矢印(→)は逆になる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【展開中】あなたのユキヒの《攻撃》は傘を開いた状態と傘を閉じた状態両方の適正距離を持つ。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>傘の開閉を行う。 
+ダスト→自オーラ：1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ダスト→間合：1 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>間合→ダスト：1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;行行行対対&gt; 相手のライフに1ダメージを与える。 </t>
+    <rPh sb="1" eb="2">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【常時】このカードは対応でしか使用できない。 
+以下から2つまでを選び、任意の順に行う。 
+(同じものを2回選ぶことはできない)
+・カードを1枚引く。
+・伏せ札1枚を山札の底に置く。
+・相手は手札を1枚捨て札にする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;行行付&gt; あなたの手札から《全力》カードを1枚選び、そのカードを使用してもよい。 
+(フェイズは終了しない) </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;攻攻行行行付付&gt; 相手の切札を見て、その中から1枚選び、それを使用済にしてもよい。
+----
+相手の使用済の切札1枚を選んでもよい。そのカードを消費を支払わずに使用する(《全力》カードでもよい)。その後、このカードを取り除く。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;対全全&gt; 【使用済】あなたの終了フェイズに相手のライフに1ダメージを与えてもよい。そうした場合、山札を再構成する。 
+----
+【使用済】あなたが《全力》カードを使用した時、その解決後に基本動作を1回行ってもよい。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相オーラ→自オーラ：1 
+【使用済】あなたの使用済の切札が未使用に戻った時、このカードを消費を支払わずに使用してもよい。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;攻対&gt; 【展開時】このカードの上に桜花結晶を4個ダストから置く。 
+----
+【展開中】各ターンにおける相手の2回目の《攻撃》は打ち消される。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【展開中】あなたが《行動》カードを使用した時、その解決後に基本動作を1回行ってもよい。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;攻対&gt; あなたの使用済の切札を1枚選んでもよい。そのカードを消費を支払わずに使用する。(《全力》カードでもよい) 
+----
+あなたの集中力は0になる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;攻攻&gt; 相手のオーラに5ダメージを与える。 
+----
+&lt;付付&gt; 相手のライフに1ダメージを与える。</t>
+    <rPh sb="34" eb="36">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>アタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(カードタイプが不定のカードは使用できない) 
+【常時】このカードはあなたの「いんだすとりあ」に封印されたカードの複製となる。但し、名前は変更されない。 
+(「いんだすとりあ」が未使用なら複製とならないので、使用できない)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対応不可 
+【攻撃後】相手は手札から《攻撃》でないカード1枚を捨て札にする。それが行えない場合、相手は手札を公開する。 
+----
+【再起】境地-あなたの集中力が2である。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相オーラ→自フレア：1 
+----
+【再起】あなたのフレアが0である。</t>
+    <rPh sb="19" eb="21">
+      <t>サイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">----
+【即再起】あなたが傘の開閉を行う。 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>間合→自フレア：3 
+----
+【再起】このターンにあなたが遠心を持つカードを使用しており、このカードを使用していない。</t>
+    <rPh sb="17" eb="19">
+      <t>サイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【再起】相手の手札が2枚以上ある。</t>
+    <rPh sb="1" eb="3">
+      <t>サイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このカードにカードが封印されていないならば、あなたの手札から《付与》でないカードを1枚選び、そのカードをこのカードの下に表向きで封印してもよい。 
+あなたの追加札から「でゅーぷりぎあ」を山札の底に1枚置く(最大で合計3枚)。 
+----
+【即再起】あなたが山札を再構成する(再構成の後に未使用に戻る)。</t>
+    <rPh sb="120" eb="121">
+      <t>ソク</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>サイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>thallya</t>
+  </si>
+  <si>
+    <t>11-thallya-o-n-1</t>
+  </si>
+  <si>
+    <t>11-thallya-o-n-2</t>
+  </si>
+  <si>
+    <t>11-thallya-o-n-3</t>
+  </si>
+  <si>
+    <t>11-thallya-o-n-4</t>
+  </si>
+  <si>
+    <t>11-thallya-o-n-5</t>
+  </si>
+  <si>
+    <t>11-thallya-o-n-6</t>
+  </si>
+  <si>
+    <t>11-thallya-o-n-7</t>
+  </si>
+  <si>
+    <t>11-thallya-o-s-1</t>
+  </si>
+  <si>
+    <t>11-thallya-o-s-2</t>
+  </si>
+  <si>
+    <t>11-thallya-o-s-4</t>
+  </si>
+  <si>
+    <t>raira</t>
+  </si>
+  <si>
+    <t>12-raira-o-n-1</t>
+  </si>
+  <si>
+    <t>12-raira-o-n-2</t>
+  </si>
+  <si>
+    <t>12-raira-o-n-3</t>
+  </si>
+  <si>
+    <t>12-raira-o-n-4</t>
+  </si>
+  <si>
+    <t>12-raira-o-n-5</t>
+  </si>
+  <si>
+    <t>12-raira-o-n-6</t>
+  </si>
+  <si>
+    <t>12-raira-o-n-7</t>
+  </si>
+  <si>
+    <t>12-raira-o-s-1</t>
+  </si>
+  <si>
+    <t>12-raira-o-s-2</t>
+  </si>
+  <si>
+    <t>12-raira-o-s-4</t>
+  </si>
+  <si>
+    <t>12-utsuro-o-n-1</t>
+  </si>
+  <si>
+    <t>utsuro</t>
+  </si>
+  <si>
+    <t>12-utsuro-o-n-2</t>
+  </si>
+  <si>
+    <t>12-utsuro-o-n-3</t>
+  </si>
+  <si>
+    <t>12-utsuro-o-n-4</t>
+  </si>
+  <si>
+    <t>12-utsuro-o-n-5</t>
+  </si>
+  <si>
+    <t>12-utsuro-o-n-6</t>
+  </si>
+  <si>
+    <t>12-utsuro-o-n-7</t>
+  </si>
+  <si>
+    <t>12-utsuro-o-s-1</t>
+  </si>
+  <si>
+    <t>12-utsuro-o-s-2</t>
+  </si>
+  <si>
+    <t>12-utsuro-o-s-3</t>
+  </si>
+  <si>
+    <t>12-utsuro-o-s-4</t>
+  </si>
+  <si>
+    <t>円月</t>
+  </si>
+  <si>
+    <t>6-7</t>
+  </si>
+  <si>
+    <t>黒き波動</t>
+  </si>
+  <si>
+    <t>4-7</t>
+  </si>
+  <si>
+    <t>刈取り</t>
+  </si>
+  <si>
+    <t>重圧</t>
+  </si>
+  <si>
+    <t>影の翅</t>
+  </si>
+  <si>
+    <t>影の壁</t>
+  </si>
+  <si>
+    <t>遺灰呪</t>
+  </si>
+  <si>
+    <t>灰滅</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>虚偽</t>
+  </si>
+  <si>
+    <t>終末</t>
+  </si>
+  <si>
+    <t>魔食</t>
+  </si>
+  <si>
+    <t>ヴィミラニエ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローシェ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カニェッツ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エロージャ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いかいじゅ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かげのかべ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かげのはね</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>えんげつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>くろきはどう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かりとり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じゅうあつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2/2</t>
+  </si>
+  <si>
+    <t>1/2</t>
+  </si>
+  <si>
+    <t>-/0</t>
+  </si>
+  <si>
+    <t>獣爪</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>風雷撃</t>
+  </si>
+  <si>
+    <t>流転爪</t>
+  </si>
+  <si>
+    <t>風走り</t>
+  </si>
+  <si>
+    <t>風雷の知恵</t>
+  </si>
+  <si>
+    <t>呼び声</t>
+  </si>
+  <si>
+    <t>空駆け</t>
+  </si>
+  <si>
+    <t>雷螺風神爪</t>
+  </si>
+  <si>
+    <t>天雷召喚陣</t>
+  </si>
+  <si>
+    <t>風魔招来孔</t>
+  </si>
+  <si>
+    <t>円環輪廻旋</t>
+  </si>
+  <si>
+    <t>風魔旋風</t>
+  </si>
+  <si>
+    <t>風魔纏廻</t>
+  </si>
+  <si>
+    <t>風魔天狗道</t>
+  </si>
+  <si>
+    <t>12-raira-o-s-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12-raira-o-s-3-ex1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12-raira-o-s-3-ex2</t>
+  </si>
+  <si>
+    <t>12-raira-o-s-3-ex3</t>
+  </si>
+  <si>
+    <t>ふうませんぷう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ふうまてんかい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ふうまてんぐどう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>てんらいしょうかんじん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ふうましょうらいこう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そらかけ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>らいらふうじんそう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ふうらいのちえ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>よびごえ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かぜばしり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じゅうそう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ふうらいげき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>るてんそう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>えんかんりんかいせん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3/1</t>
+  </si>
+  <si>
+    <t>X/2</t>
+  </si>
+  <si>
+    <t>2/1</t>
+  </si>
+  <si>
+    <t>Burning Steam</t>
+  </si>
+  <si>
+    <t>Waving Edge</t>
+  </si>
+  <si>
+    <t>Shield Charge</t>
+  </si>
+  <si>
+    <t>Steam Cannon</t>
+  </si>
+  <si>
+    <t>2-8</t>
+  </si>
+  <si>
+    <t>Stunt</t>
+  </si>
+  <si>
+    <t>Roaring</t>
+  </si>
+  <si>
+    <t>Turbo Switch</t>
+  </si>
+  <si>
+    <t>Alpha-Edge</t>
+  </si>
+  <si>
+    <t>1,3,5,7</t>
+  </si>
+  <si>
+    <t>Omega-Burst</t>
+  </si>
+  <si>
+    <t>Julia's BlackBox</t>
+  </si>
+  <si>
+    <t>バーニングスチーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウェービングエッジ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シールドチャージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロアリング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ターボスイッチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルファエッジ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オメガバースト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジュリアズ　ブラックボックス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スチームカノン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3/2</t>
+  </si>
+  <si>
+    <t>3/3</t>
+  </si>
+  <si>
+    <t>1/1</t>
+  </si>
+  <si>
+    <t>【攻撃後】騎動を行う。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>燃焼 
+【攻撃後】騎動を行う。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>燃焼 
+【常時】この《攻撃》のダメージにより移動する桜花結晶は、ダストやフレアでなく間合に動かす。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>燃焼</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相手を畏縮させる。 
+自オーラ→自フレア：2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コストとして、あなたのマシンにある造花結晶を2つ燃焼済にしても良い。そうした場合、あなたは集中力を1得て、相手は集中力を1失い、相手を畏縮させる。 
+コストとして、集中力を2支払ってもよい。そうした場合、あなたの燃焼済の造花結晶を3つ回復する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>燃焼 
+騎動を行う。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あなたのマシンに造花結晶がないならば、あなたのマシンはTransFormし、あなたの燃焼済の造花結晶を2つ回復する。そうでない場合、このカードを未使用に戻す。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【常時】Xは風神ゲージと雷神ゲージのうち、小さい方の値である。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【攻撃後】あなたの捨て札にある《攻撃》カード1枚を選び、山札の一番上に置いてもよい。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在の間合が3以上ならば、間合→ダスト：2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>風神ゲージと雷神ゲージの合計が4以上ならば、あなたの捨て札にある他のメガミのカード1枚を選び、山札の一番上に置いてもよい。 
+風神ゲージか雷神ゲージを1上げる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相手を畏縮させ、以下から1つを選ぶ。
+・風神ゲージと雷神ゲージを1ずつ上げる。
+・手札を全て伏せ札にし、雷神ゲージを2倍にする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>間合⇔ダスト：3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【常時】あなたの雷神ゲージが4以上ならば、この《攻撃》は+1/+0となる。 
+----
+【再起】あなたの風神ゲージが4以上である。</t>
+    <rPh sb="45" eb="47">
+      <t>サイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃『適正距離0-10、1/1』をX回行う。Xは雷神ゲージの半分(切り上げ)に等しい。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【展開中】あなたが《付与》でない通常札を使用した場合、それを捨て札にする代わりに山札の底に置く。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在の風神ゲージに応じて、以下の切札を追加札から未使用で得る(条件を満たしたものは全て得る)。その後、このカードを取り除く。 
+3以上……風魔旋風 
+6以上……風魔纏廻 
+10以上……風魔天狗道</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取り除く</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ノゾ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あなたの燃焼済の造花結晶を全て回復する。 
+対応した、オーラへのダメージが「-」またはX以下の《攻撃》を打ち消す。Xはこのカードにより回復した造花結晶の個数に等しい。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【常時】灰塵-ダストが12以上ならば、この《攻撃》のオーラへのダメージは「-」になる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【攻撃後】相手が&lt;オーラ&gt;へのダメージを選んだならば、相手の手札を見てその中から1枚を選び、それを捨て札にする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【攻撃後】相手は相手の&lt;オーラ&gt;、&lt;フレア&gt;、&lt;ライフ&gt;のいずれかから桜花結晶を合計2つ&lt;ダスト&gt;へ移動させる。 
+【攻撃後】相手の付与札を1枚選んでもよい。そうした場合、その付与札の上から桜花結晶を2つ&lt;ダスト&gt;へ送る。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相手は相手の&lt;オーラ&gt;、&lt;フレア&gt;、&lt;ライフ&gt;のいずれかから桜花結晶を1つ&lt;ダスト&gt;へ移動させる。 
+灰塵-ダストが12以上ならば、相手を畏縮させる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このターン中、現在の&lt;間合&gt;は2増加し、達人の間合は2大きくなる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対応した《攻撃》は+0/-1となる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【展開時】相オーラ→ダスト：3 
+【破棄時】灰塵-&lt;ダスト&gt;が12以上ならば以下を行う。 
+ダスト→相オーラ：2、相ライフ→ダスト：1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【常時】このカードの消費はダストの数だけ少なくなる。 
+相ライフ→ダスト：3 
+このカードを取り除く。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あなたの使用済の切札を1枚選び、それを未使用に戻す。 
+【使用済】あなたの切札の消費は1少なくなる(0未満にはならない)。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダスト⇔間合：5 
+あなたはこの効果で本来より少ない個数の桜花結晶を動かしてもよい。その後、このカードを取り除く。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【展開中】相手の《攻撃》は距離縮小(近1)を得て、【攻撃後】効果が解決されない。 
+【展開中】相手の《付与》カードは納が1減少し、【破棄時】効果が解決されない。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【展開中】あなたに1以上のダメージを与えた《攻撃》の解決後に、このカードの上の桜花結晶を全てをダストに送る。 
+【破棄時】現在のフェイズを終了する。 
+----
+【再起】灰塵-ダストが12以上である。</t>
+    <rPh sb="82" eb="84">
+      <t>サイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【使用済】あなたの開始フェイズの開始時に相手は以下のどちらかを選ぶ。
+・相オーラ→ダスト：1
+・相フレア→ダスト：2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【即再起】あなたが騎動により間合を変化させる。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1270,12 +2319,24 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1292,7 +2353,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1321,6 +2382,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1629,10 +2702,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R79"/>
+  <dimension ref="A1:S135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q22" workbookViewId="0">
-      <selection activeCell="Q34" sqref="Q24:Q34"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J83" sqref="J83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1640,18 +2714,19 @@
     <col min="1" max="1" width="16.5" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="4"/>
     <col min="3" max="3" width="18.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="9" style="4"/>
+    <col min="4" max="4" width="21.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9" style="4"/>
     <col min="8" max="9" width="12.75" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.75" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="9" style="4"/>
-    <col min="15" max="15" width="56" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="255.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="1"/>
+    <col min="12" max="15" width="9" style="4"/>
+    <col min="16" max="16" width="56" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="255.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1676,14 +2751,14 @@
       <c r="H1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>281</v>
+      <c r="I1" s="13" t="s">
+        <v>246</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>281</v>
+      <c r="K1" s="13" t="s">
+        <v>246</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>13</v>
@@ -1692,16 +2767,19 @@
         <v>14</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="O1" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="4" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q1" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1723,24 +2801,21 @@
       <c r="H2" s="4">
         <v>4</v>
       </c>
-      <c r="I2" s="4">
-        <v>4</v>
-      </c>
+      <c r="I2" s="13"/>
       <c r="J2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="4">
-        <v>4</v>
-      </c>
-      <c r="O2" s="4" t="s">
+      <c r="K2" s="13"/>
+      <c r="P2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="3" t="str">
-        <f>", '"&amp;A2&amp;"': {megami: '"&amp;B2&amp;"', name: '"&amp;C2&amp;"', ruby: '"&amp;D2&amp;"', baseType: '"&amp;VLOOKUP(E2,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F2,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G2&lt;&gt;"",", '"&amp; VLOOKUP(G2,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H2&lt;&gt;"", ", range: '"&amp;H2&amp;"'", "")&amp;IF(J2&lt;&gt;"", ", damage: '"&amp;J2&amp;"'", "")&amp;IF(L2&lt;&gt;"", ", capacity: '"&amp;L2&amp;"'", "")&amp;IF(M2&lt;&gt;"", ", cost: '"&amp;M2&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O2, CHAR(10), "\n")&amp;"'}"</f>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="3" t="str">
+        <f>", '"&amp;A2&amp;"': {megami: '"&amp;B2&amp;"', name: '"&amp;C2&amp;"', ruby: '"&amp;D2&amp;"', baseType: '"&amp;VLOOKUP(E2,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F2,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G2&lt;&gt;"",", '"&amp; VLOOKUP(G2,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H2&lt;&gt;"", ", range: '"&amp;H2&amp;"'", "")&amp;IF(J2&lt;&gt;"", ", damage: '"&amp;J2&amp;"'", "")&amp;IF(L2&lt;&gt;"", ", capacity: '"&amp;L2&amp;"'", "")&amp;IF(M2&lt;&gt;"", ", cost: '"&amp;M2&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P2, CHAR(10), "\n")&amp;"'"&amp;IF(N2="○", ", sealable: true", "")&amp;IF(O2="○", ", removable: true", "")&amp;"}"</f>
         <v>, '04-tokoyo-o-n-1': {megami: 'tokoyo', name: '梳流し', ruby: 'すきながし', baseType: 'normal', types: ['attack'], range: '4', damage: '-/1', text: '【攻撃後】境地-あなたの集中力が2ならば、このカードを山札の上に戻す。'}</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>35</v>
       </c>
@@ -1751,7 +2826,7 @@
         <v>42</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>7</v>
@@ -1760,26 +2835,23 @@
         <v>9</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>68</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="I3" s="13"/>
       <c r="J3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q3" s="3" t="str">
-        <f>", '"&amp;A3&amp;"': {megami: '"&amp;B3&amp;"', name: '"&amp;C3&amp;"', ruby: '"&amp;D3&amp;"', baseType: '"&amp;VLOOKUP(E3,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F3,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G3&lt;&gt;"",", '"&amp; VLOOKUP(G3,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H3&lt;&gt;"", ", range: '"&amp;H3&amp;"'", "")&amp;IF(J3&lt;&gt;"", ", damage: '"&amp;J3&amp;"'", "")&amp;IF(L3&lt;&gt;"", ", capacity: '"&amp;L3&amp;"'", "")&amp;IF(M3&lt;&gt;"", ", cost: '"&amp;M3&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O3, CHAR(10), "\n")&amp;"'}"</f>
+        <v>59</v>
+      </c>
+      <c r="K3" s="13"/>
+      <c r="P3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="3" t="str">
+        <f>", '"&amp;A3&amp;"': {megami: '"&amp;B3&amp;"', name: '"&amp;C3&amp;"', ruby: '"&amp;D3&amp;"', baseType: '"&amp;VLOOKUP(E3,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F3,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G3&lt;&gt;"",", '"&amp; VLOOKUP(G3,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H3&lt;&gt;"", ", range: '"&amp;H3&amp;"'", "")&amp;IF(J3&lt;&gt;"", ", damage: '"&amp;J3&amp;"'", "")&amp;IF(L3&lt;&gt;"", ", capacity: '"&amp;L3&amp;"'", "")&amp;IF(M3&lt;&gt;"", ", cost: '"&amp;M3&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P3, CHAR(10), "\n")&amp;"'"&amp;IF(N3="○", ", sealable: true", "")&amp;IF(O3="○", ", removable: true", "")&amp;"}"</f>
         <v>, '04-tokoyo-o-n-2': {megami: 'tokoyo', name: '雅打ち', ruby: 'みやびうち', baseType: 'normal', types: ['attack'], range: '2-4', damage: '2/1', text: '【攻撃後】境地-あなたの集中力が2ならば、対応した切札でない《攻撃》を打ち消す。'}</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>36</v>
       </c>
@@ -1790,7 +2862,7 @@
         <v>43</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>7</v>
@@ -1798,15 +2870,18 @@
       <c r="F4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q4" s="3" t="str">
-        <f>", '"&amp;A4&amp;"': {megami: '"&amp;B4&amp;"', name: '"&amp;C4&amp;"', ruby: '"&amp;D4&amp;"', baseType: '"&amp;VLOOKUP(E4,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F4,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G4&lt;&gt;"",", '"&amp; VLOOKUP(G4,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H4&lt;&gt;"", ", range: '"&amp;H4&amp;"'", "")&amp;IF(J4&lt;&gt;"", ", damage: '"&amp;J4&amp;"'", "")&amp;IF(L4&lt;&gt;"", ", capacity: '"&amp;L4&amp;"'", "")&amp;IF(M4&lt;&gt;"", ", cost: '"&amp;M4&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O4, CHAR(10), "\n")&amp;"'}"</f>
+      <c r="I4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="P4" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="3" t="str">
+        <f>", '"&amp;A4&amp;"': {megami: '"&amp;B4&amp;"', name: '"&amp;C4&amp;"', ruby: '"&amp;D4&amp;"', baseType: '"&amp;VLOOKUP(E4,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F4,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G4&lt;&gt;"",", '"&amp; VLOOKUP(G4,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H4&lt;&gt;"", ", range: '"&amp;H4&amp;"'", "")&amp;IF(J4&lt;&gt;"", ", damage: '"&amp;J4&amp;"'", "")&amp;IF(L4&lt;&gt;"", ", capacity: '"&amp;L4&amp;"'", "")&amp;IF(M4&lt;&gt;"", ", cost: '"&amp;M4&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P4, CHAR(10), "\n")&amp;"'"&amp;IF(N4="○", ", sealable: true", "")&amp;IF(O4="○", ", removable: true", "")&amp;"}"</f>
         <v>, '04-tokoyo-o-n-3': {megami: 'tokoyo', name: '跳ね兎', ruby: 'はねうさぎ', baseType: 'normal', types: ['action'], text: '現在の間合が3以下ならば、ダスト→間合：2'}</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="36" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18" ht="36" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>37</v>
       </c>
@@ -1814,10 +2889,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>7</v>
@@ -1828,15 +2903,18 @@
       <c r="G5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q5" s="3" t="str">
-        <f>", '"&amp;A5&amp;"': {megami: '"&amp;B5&amp;"', name: '"&amp;C5&amp;"', ruby: '"&amp;D5&amp;"', baseType: '"&amp;VLOOKUP(E5,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F5,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G5&lt;&gt;"",", '"&amp; VLOOKUP(G5,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H5&lt;&gt;"", ", range: '"&amp;H5&amp;"'", "")&amp;IF(J5&lt;&gt;"", ", damage: '"&amp;J5&amp;"'", "")&amp;IF(L5&lt;&gt;"", ", capacity: '"&amp;L5&amp;"'", "")&amp;IF(M5&lt;&gt;"", ", cost: '"&amp;M5&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O5, CHAR(10), "\n")&amp;"'}"</f>
+      <c r="I5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="P5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="3" t="str">
+        <f>", '"&amp;A5&amp;"': {megami: '"&amp;B5&amp;"', name: '"&amp;C5&amp;"', ruby: '"&amp;D5&amp;"', baseType: '"&amp;VLOOKUP(E5,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F5,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G5&lt;&gt;"",", '"&amp; VLOOKUP(G5,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H5&lt;&gt;"", ", range: '"&amp;H5&amp;"'", "")&amp;IF(J5&lt;&gt;"", ", damage: '"&amp;J5&amp;"'", "")&amp;IF(L5&lt;&gt;"", ", capacity: '"&amp;L5&amp;"'", "")&amp;IF(M5&lt;&gt;"", ", cost: '"&amp;M5&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P5, CHAR(10), "\n")&amp;"'"&amp;IF(N5="○", ", sealable: true", "")&amp;IF(O5="○", ", removable: true", "")&amp;"}"</f>
         <v>, '04-tokoyo-o-n-4': {megami: 'tokoyo', name: '詩舞', ruby: 'しぶ', baseType: 'normal', types: ['action', 'reaction'], text: '集中力を1得て、以下から1つを選ぶ。\n・自フレア→自オーラ：1\n・自オーラ→間合：1'}</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="36" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" ht="36" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
@@ -1844,10 +2922,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>7</v>
@@ -1858,15 +2936,18 @@
       <c r="G6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q6" s="3" t="str">
-        <f>", '"&amp;A6&amp;"': {megami: '"&amp;B6&amp;"', name: '"&amp;C6&amp;"', ruby: '"&amp;D6&amp;"', baseType: '"&amp;VLOOKUP(E6,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F6,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G6&lt;&gt;"",", '"&amp; VLOOKUP(G6,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H6&lt;&gt;"", ", range: '"&amp;H6&amp;"'", "")&amp;IF(J6&lt;&gt;"", ", damage: '"&amp;J6&amp;"'", "")&amp;IF(L6&lt;&gt;"", ", capacity: '"&amp;L6&amp;"'", "")&amp;IF(M6&lt;&gt;"", ", cost: '"&amp;M6&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O6, CHAR(10), "\n")&amp;"'}"</f>
+      <c r="I6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="P6" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="3" t="str">
+        <f>", '"&amp;A6&amp;"': {megami: '"&amp;B6&amp;"', name: '"&amp;C6&amp;"', ruby: '"&amp;D6&amp;"', baseType: '"&amp;VLOOKUP(E6,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F6,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G6&lt;&gt;"",", '"&amp; VLOOKUP(G6,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H6&lt;&gt;"", ", range: '"&amp;H6&amp;"'", "")&amp;IF(J6&lt;&gt;"", ", damage: '"&amp;J6&amp;"'", "")&amp;IF(L6&lt;&gt;"", ", capacity: '"&amp;L6&amp;"'", "")&amp;IF(M6&lt;&gt;"", ", cost: '"&amp;M6&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P6, CHAR(10), "\n")&amp;"'"&amp;IF(N6="○", ", sealable: true", "")&amp;IF(O6="○", ", removable: true", "")&amp;"}"</f>
         <v>, '04-tokoyo-o-n-5': {megami: 'tokoyo', name: '要返し', ruby: 'かなめがえし', baseType: 'normal', types: ['action', 'fullpower'], text: '捨て札か伏せ札からカードを2枚まで選ぶ。それらのカードを好きな順で山札の底に置く。 \nダスト→自オーラ：2'}</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="24" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" ht="24" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>39</v>
       </c>
@@ -1874,29 +2955,32 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>52</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="K7" s="13"/>
       <c r="L7" s="4">
         <v>2</v>
       </c>
-      <c r="O7" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q7" s="3" t="str">
-        <f>", '"&amp;A7&amp;"': {megami: '"&amp;B7&amp;"', name: '"&amp;C7&amp;"', ruby: '"&amp;D7&amp;"', baseType: '"&amp;VLOOKUP(E7,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F7,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G7&lt;&gt;"",", '"&amp; VLOOKUP(G7,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H7&lt;&gt;"", ", range: '"&amp;H7&amp;"'", "")&amp;IF(J7&lt;&gt;"", ", damage: '"&amp;J7&amp;"'", "")&amp;IF(L7&lt;&gt;"", ", capacity: '"&amp;L7&amp;"'", "")&amp;IF(M7&lt;&gt;"", ", cost: '"&amp;M7&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O7, CHAR(10), "\n")&amp;"'}"</f>
+      <c r="P7" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="3" t="str">
+        <f>", '"&amp;A7&amp;"': {megami: '"&amp;B7&amp;"', name: '"&amp;C7&amp;"', ruby: '"&amp;D7&amp;"', baseType: '"&amp;VLOOKUP(E7,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F7,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G7&lt;&gt;"",", '"&amp; VLOOKUP(G7,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H7&lt;&gt;"", ", range: '"&amp;H7&amp;"'", "")&amp;IF(J7&lt;&gt;"", ", damage: '"&amp;J7&amp;"'", "")&amp;IF(L7&lt;&gt;"", ", capacity: '"&amp;L7&amp;"'", "")&amp;IF(M7&lt;&gt;"", ", cost: '"&amp;M7&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P7, CHAR(10), "\n")&amp;"'"&amp;IF(N7="○", ", sealable: true", "")&amp;IF(O7="○", ", removable: true", "")&amp;"}"</f>
         <v>, '04-tokoyo-o-n-6': {megami: 'tokoyo', name: '風舞台', ruby: 'かぜぶたい', baseType: 'normal', types: ['enhance'], capacity: '2', text: '【展開時】間合→自オーラ：2 \n【破棄時】自オーラ→間合：2'}</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="24" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18" ht="24" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>40</v>
       </c>
@@ -1904,40 +2988,43 @@
         <v>3</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>52</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="K8" s="13"/>
       <c r="L8" s="4">
         <v>1</v>
       </c>
-      <c r="O8" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q8" s="3" t="str">
-        <f>", '"&amp;A8&amp;"': {megami: '"&amp;B8&amp;"', name: '"&amp;C8&amp;"', ruby: '"&amp;D8&amp;"', baseType: '"&amp;VLOOKUP(E8,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F8,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G8&lt;&gt;"",", '"&amp; VLOOKUP(G8,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H8&lt;&gt;"", ", range: '"&amp;H8&amp;"'", "")&amp;IF(J8&lt;&gt;"", ", damage: '"&amp;J8&amp;"'", "")&amp;IF(L8&lt;&gt;"", ", capacity: '"&amp;L8&amp;"'", "")&amp;IF(M8&lt;&gt;"", ", cost: '"&amp;M8&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O8, CHAR(10), "\n")&amp;"'}"</f>
+      <c r="P8" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="3" t="str">
+        <f>", '"&amp;A8&amp;"': {megami: '"&amp;B8&amp;"', name: '"&amp;C8&amp;"', ruby: '"&amp;D8&amp;"', baseType: '"&amp;VLOOKUP(E8,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F8,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G8&lt;&gt;"",", '"&amp; VLOOKUP(G8,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H8&lt;&gt;"", ", range: '"&amp;H8&amp;"'", "")&amp;IF(J8&lt;&gt;"", ", damage: '"&amp;J8&amp;"'", "")&amp;IF(L8&lt;&gt;"", ", capacity: '"&amp;L8&amp;"'", "")&amp;IF(M8&lt;&gt;"", ", cost: '"&amp;M8&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P8, CHAR(10), "\n")&amp;"'"&amp;IF(N8="○", ", sealable: true", "")&amp;IF(O8="○", ", removable: true", "")&amp;"}"</f>
         <v>, '04-tokoyo-o-n-7': {megami: 'tokoyo', name: '晴舞台', ruby: 'はれぶたい', baseType: 'normal', types: ['enhance'], capacity: '1', text: '【破棄時】境地-あなたの集中力が2ならば、ダスト→自オーラ：2 \n【破棄時】境地-あなたは集中力を1得る。'}</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>19</v>
@@ -1946,40 +3033,37 @@
         <v>8</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>57</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="I9" s="13"/>
       <c r="J9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="4" t="s">
-        <v>57</v>
-      </c>
+      <c r="K9" s="13"/>
       <c r="M9" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q9" s="3" t="str">
-        <f>", '"&amp;A9&amp;"': {megami: '"&amp;B9&amp;"', name: '"&amp;C9&amp;"', ruby: '"&amp;D9&amp;"', baseType: '"&amp;VLOOKUP(E9,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F9,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G9&lt;&gt;"",", '"&amp; VLOOKUP(G9,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H9&lt;&gt;"", ", range: '"&amp;H9&amp;"'", "")&amp;IF(J9&lt;&gt;"", ", damage: '"&amp;J9&amp;"'", "")&amp;IF(L9&lt;&gt;"", ", capacity: '"&amp;L9&amp;"'", "")&amp;IF(M9&lt;&gt;"", ", cost: '"&amp;M9&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O9, CHAR(10), "\n")&amp;"'}"</f>
+        <v>78</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="3" t="str">
+        <f>", '"&amp;A9&amp;"': {megami: '"&amp;B9&amp;"', name: '"&amp;C9&amp;"', ruby: '"&amp;D9&amp;"', baseType: '"&amp;VLOOKUP(E9,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F9,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G9&lt;&gt;"",", '"&amp; VLOOKUP(G9,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H9&lt;&gt;"", ", range: '"&amp;H9&amp;"'", "")&amp;IF(J9&lt;&gt;"", ", damage: '"&amp;J9&amp;"'", "")&amp;IF(L9&lt;&gt;"", ", capacity: '"&amp;L9&amp;"'", "")&amp;IF(M9&lt;&gt;"", ", cost: '"&amp;M9&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P9, CHAR(10), "\n")&amp;"'"&amp;IF(N9="○", ", sealable: true", "")&amp;IF(O9="○", ", removable: true", "")&amp;"}"</f>
         <v>, '04-tokoyo-o-s-1': {megami: 'tokoyo', name: '久遠ノ花', ruby: 'くおんのはな', baseType: 'special', types: ['attack'], range: '0-10', damage: '-/1', cost: '5', text: '【攻撃後】対応した《攻撃》を打ち消す。'}</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="24" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" ht="24" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>19</v>
@@ -1988,40 +3072,37 @@
         <v>8</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>89</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="I10" s="13"/>
       <c r="J10" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>89</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="K10" s="13"/>
       <c r="M10" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q10" s="3" t="str">
-        <f>", '"&amp;A10&amp;"': {megami: '"&amp;B10&amp;"', name: '"&amp;C10&amp;"', ruby: '"&amp;D10&amp;"', baseType: '"&amp;VLOOKUP(E10,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F10,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G10&lt;&gt;"",", '"&amp; VLOOKUP(G10,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H10&lt;&gt;"", ", range: '"&amp;H10&amp;"'", "")&amp;IF(J10&lt;&gt;"", ", damage: '"&amp;J10&amp;"'", "")&amp;IF(L10&lt;&gt;"", ", capacity: '"&amp;L10&amp;"'", "")&amp;IF(M10&lt;&gt;"", ", cost: '"&amp;M10&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O10, CHAR(10), "\n")&amp;"'}"</f>
+        <v>55</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="3" t="str">
+        <f>", '"&amp;A10&amp;"': {megami: '"&amp;B10&amp;"', name: '"&amp;C10&amp;"', ruby: '"&amp;D10&amp;"', baseType: '"&amp;VLOOKUP(E10,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F10,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G10&lt;&gt;"",", '"&amp; VLOOKUP(G10,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H10&lt;&gt;"", ", range: '"&amp;H10&amp;"'", "")&amp;IF(J10&lt;&gt;"", ", damage: '"&amp;J10&amp;"'", "")&amp;IF(L10&lt;&gt;"", ", capacity: '"&amp;L10&amp;"'", "")&amp;IF(M10&lt;&gt;"", ", cost: '"&amp;M10&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P10, CHAR(10), "\n")&amp;"'"&amp;IF(N10="○", ", sealable: true", "")&amp;IF(O10="○", ", removable: true", "")&amp;"}"</f>
         <v>, '04-tokoyo-o-s-2': {megami: 'tokoyo', name: '千歳ノ鳥', ruby: 'ちとせのとり', baseType: 'special', types: ['attack'], range: '3-4', damage: '2/2', cost: '2', text: '【攻撃後】山札を再構成する。 \n(その際にダメージは受けない)'}</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="48" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18" ht="60" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>19</v>
@@ -2030,40 +3111,37 @@
         <v>8</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>90</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="I11" s="13"/>
       <c r="J11" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>90</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="K11" s="13"/>
       <c r="M11" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="O11" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q11" s="3" t="str">
-        <f>", '"&amp;A11&amp;"': {megami: '"&amp;B11&amp;"', name: '"&amp;C11&amp;"', ruby: '"&amp;D11&amp;"', baseType: '"&amp;VLOOKUP(E11,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F11,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G11&lt;&gt;"",", '"&amp; VLOOKUP(G11,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H11&lt;&gt;"", ", range: '"&amp;H11&amp;"'", "")&amp;IF(J11&lt;&gt;"", ", damage: '"&amp;J11&amp;"'", "")&amp;IF(L11&lt;&gt;"", ", capacity: '"&amp;L11&amp;"'", "")&amp;IF(M11&lt;&gt;"", ", cost: '"&amp;M11&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O11, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '04-tokoyo-o-s-3': {megami: 'tokoyo', name: '無窮ノ風', ruby: 'むきゅうのかぜ', baseType: 'special', types: ['attack'], range: '3-8', damage: '1/1', cost: '1', text: '対応不可 \n【攻撃後】相手は手札から《攻撃》でないカード1枚を捨て札にする。それが行えない場合、相手は手札を公開する。 \n【再起】境地-あなたの集中力が2である。'}</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="3" t="str">
+        <f>", '"&amp;A11&amp;"': {megami: '"&amp;B11&amp;"', name: '"&amp;C11&amp;"', ruby: '"&amp;D11&amp;"', baseType: '"&amp;VLOOKUP(E11,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F11,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G11&lt;&gt;"",", '"&amp; VLOOKUP(G11,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H11&lt;&gt;"", ", range: '"&amp;H11&amp;"'", "")&amp;IF(J11&lt;&gt;"", ", damage: '"&amp;J11&amp;"'", "")&amp;IF(L11&lt;&gt;"", ", capacity: '"&amp;L11&amp;"'", "")&amp;IF(M11&lt;&gt;"", ", cost: '"&amp;M11&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P11, CHAR(10), "\n")&amp;"'"&amp;IF(N11="○", ", sealable: true", "")&amp;IF(O11="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '04-tokoyo-o-s-3': {megami: 'tokoyo', name: '無窮ノ風', ruby: 'むきゅうのかぜ', baseType: 'special', types: ['attack'], range: '3-8', damage: '1/1', cost: '1', text: '対応不可 \n【攻撃後】相手は手札から《攻撃》でないカード1枚を捨て札にする。それが行えない場合、相手は手札を公開する。 \n----\n【再起】境地-あなたの集中力が2である。'}</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>19</v>
@@ -2071,29 +3149,32 @@
       <c r="F12" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="I12" s="13"/>
+      <c r="K12" s="13"/>
       <c r="M12" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q12" s="3" t="str">
-        <f>", '"&amp;A12&amp;"': {megami: '"&amp;B12&amp;"', name: '"&amp;C12&amp;"', ruby: '"&amp;D12&amp;"', baseType: '"&amp;VLOOKUP(E12,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F12,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G12&lt;&gt;"",", '"&amp; VLOOKUP(G12,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H12&lt;&gt;"", ", range: '"&amp;H12&amp;"'", "")&amp;IF(J12&lt;&gt;"", ", damage: '"&amp;J12&amp;"'", "")&amp;IF(L12&lt;&gt;"", ", capacity: '"&amp;L12&amp;"'", "")&amp;IF(M12&lt;&gt;"", ", cost: '"&amp;M12&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O12, CHAR(10), "\n")&amp;"'}"</f>
+        <v>55</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="3" t="str">
+        <f>", '"&amp;A12&amp;"': {megami: '"&amp;B12&amp;"', name: '"&amp;C12&amp;"', ruby: '"&amp;D12&amp;"', baseType: '"&amp;VLOOKUP(E12,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F12,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G12&lt;&gt;"",", '"&amp; VLOOKUP(G12,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H12&lt;&gt;"", ", range: '"&amp;H12&amp;"'", "")&amp;IF(J12&lt;&gt;"", ", damage: '"&amp;J12&amp;"'", "")&amp;IF(L12&lt;&gt;"", ", capacity: '"&amp;L12&amp;"'", "")&amp;IF(M12&lt;&gt;"", ", cost: '"&amp;M12&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P12, CHAR(10), "\n")&amp;"'"&amp;IF(N12="○", ", sealable: true", "")&amp;IF(O12="○", ", removable: true", "")&amp;"}"</f>
         <v>, '04-tokoyo-o-s-4': {megami: 'tokoyo', name: '常世ノ月', ruby: 'とこよのつき', baseType: 'special', types: ['action'], cost: '2', text: 'あなたの集中力は2になり、相手の集中力は0になり、相手を畏縮させる。'}</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>7</v>
@@ -2102,37 +3183,34 @@
         <v>8</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>89</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="I13" s="13"/>
       <c r="J13" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q13" s="3" t="str">
-        <f>", '"&amp;A13&amp;"': {megami: '"&amp;B13&amp;"', name: '"&amp;C13&amp;"', ruby: '"&amp;D13&amp;"', baseType: '"&amp;VLOOKUP(E13,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F13,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G13&lt;&gt;"",", '"&amp; VLOOKUP(G13,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H13&lt;&gt;"", ", range: '"&amp;H13&amp;"'", "")&amp;IF(J13&lt;&gt;"", ", damage: '"&amp;J13&amp;"'", "")&amp;IF(L13&lt;&gt;"", ", capacity: '"&amp;L13&amp;"'", "")&amp;IF(M13&lt;&gt;"", ", cost: '"&amp;M13&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O13, CHAR(10), "\n")&amp;"'}"</f>
+        <v>128</v>
+      </c>
+      <c r="K13" s="13"/>
+      <c r="P13" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="3" t="str">
+        <f>", '"&amp;A13&amp;"': {megami: '"&amp;B13&amp;"', name: '"&amp;C13&amp;"', ruby: '"&amp;D13&amp;"', baseType: '"&amp;VLOOKUP(E13,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F13,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G13&lt;&gt;"",", '"&amp; VLOOKUP(G13,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H13&lt;&gt;"", ", range: '"&amp;H13&amp;"'", "")&amp;IF(J13&lt;&gt;"", ", damage: '"&amp;J13&amp;"'", "")&amp;IF(L13&lt;&gt;"", ", capacity: '"&amp;L13&amp;"'", "")&amp;IF(M13&lt;&gt;"", ", cost: '"&amp;M13&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P13, CHAR(10), "\n")&amp;"'"&amp;IF(N13="○", ", sealable: true", "")&amp;IF(O13="○", ", removable: true", "")&amp;"}"</f>
         <v>, '05-oboro-o-n-1': {megami: 'oboro', name: '鋼糸', ruby: 'こうし', baseType: 'normal', types: ['attack'], range: '3-4', damage: '2/2', text: '設置'}</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="C14" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>7</v>
@@ -2141,37 +3219,34 @@
         <v>8</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>65</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="I14" s="13"/>
       <c r="J14" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q14" s="3" t="str">
-        <f>", '"&amp;A14&amp;"': {megami: '"&amp;B14&amp;"', name: '"&amp;C14&amp;"', ruby: '"&amp;D14&amp;"', baseType: '"&amp;VLOOKUP(E14,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F14,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G14&lt;&gt;"",", '"&amp; VLOOKUP(G14,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H14&lt;&gt;"", ", range: '"&amp;H14&amp;"'", "")&amp;IF(J14&lt;&gt;"", ", damage: '"&amp;J14&amp;"'", "")&amp;IF(L14&lt;&gt;"", ", capacity: '"&amp;L14&amp;"'", "")&amp;IF(M14&lt;&gt;"", ", cost: '"&amp;M14&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O14, CHAR(10), "\n")&amp;"'}"</f>
+        <v>129</v>
+      </c>
+      <c r="K14" s="13"/>
+      <c r="P14" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="3" t="str">
+        <f>", '"&amp;A14&amp;"': {megami: '"&amp;B14&amp;"', name: '"&amp;C14&amp;"', ruby: '"&amp;D14&amp;"', baseType: '"&amp;VLOOKUP(E14,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F14,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G14&lt;&gt;"",", '"&amp; VLOOKUP(G14,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H14&lt;&gt;"", ", range: '"&amp;H14&amp;"'", "")&amp;IF(J14&lt;&gt;"", ", damage: '"&amp;J14&amp;"'", "")&amp;IF(L14&lt;&gt;"", ", capacity: '"&amp;L14&amp;"'", "")&amp;IF(M14&lt;&gt;"", ", cost: '"&amp;M14&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P14, CHAR(10), "\n")&amp;"'"&amp;IF(N14="○", ", sealable: true", "")&amp;IF(O14="○", ", removable: true", "")&amp;"}"</f>
         <v>, '05-oboro-o-n-2': {megami: 'oboro', name: '影菱', ruby: 'かげびし', baseType: 'normal', types: ['attack'], range: '2', damage: '2/1', text: '設置　対応不可\n【攻撃後】このカードを伏せ札から使用したならば、相手の手札を見てその中から1枚を選び、それを伏せ札にする。'}</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="24" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18" ht="24" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>7</v>
@@ -2183,37 +3258,34 @@
         <v>31</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>67</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="I15" s="13"/>
       <c r="J15" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="O15" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q15" s="3" t="str">
-        <f>", '"&amp;A15&amp;"': {megami: '"&amp;B15&amp;"', name: '"&amp;C15&amp;"', ruby: '"&amp;D15&amp;"', baseType: '"&amp;VLOOKUP(E15,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F15,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G15&lt;&gt;"",", '"&amp; VLOOKUP(G15,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H15&lt;&gt;"", ", range: '"&amp;H15&amp;"'", "")&amp;IF(J15&lt;&gt;"", ", damage: '"&amp;J15&amp;"'", "")&amp;IF(L15&lt;&gt;"", ", capacity: '"&amp;L15&amp;"'", "")&amp;IF(M15&lt;&gt;"", ", cost: '"&amp;M15&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O15, CHAR(10), "\n")&amp;"'}"</f>
+        <v>130</v>
+      </c>
+      <c r="K15" s="13"/>
+      <c r="P15" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="3" t="str">
+        <f>", '"&amp;A15&amp;"': {megami: '"&amp;B15&amp;"', name: '"&amp;C15&amp;"', ruby: '"&amp;D15&amp;"', baseType: '"&amp;VLOOKUP(E15,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F15,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G15&lt;&gt;"",", '"&amp; VLOOKUP(G15,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H15&lt;&gt;"", ", range: '"&amp;H15&amp;"'", "")&amp;IF(J15&lt;&gt;"", ", damage: '"&amp;J15&amp;"'", "")&amp;IF(L15&lt;&gt;"", ", capacity: '"&amp;L15&amp;"'", "")&amp;IF(M15&lt;&gt;"", ", cost: '"&amp;M15&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P15, CHAR(10), "\n")&amp;"'"&amp;IF(N15="○", ", sealable: true", "")&amp;IF(O15="○", ", removable: true", "")&amp;"}"</f>
         <v>, '05-oboro-o-n-3': {megami: 'oboro', name: '斬撃乱舞', ruby: 'ざんげきらんぶ', baseType: 'normal', types: ['attack', 'fullpower'], range: '2-4', damage: '3/2', text: '【常時】相手がこのターン中にオーラへのダメージを受けているならば、この《攻撃》は+1/+1となる。'}</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="48" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18" ht="48" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>7</v>
@@ -2221,26 +3293,29 @@
       <c r="F16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O16" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q16" s="3" t="str">
-        <f>", '"&amp;A16&amp;"': {megami: '"&amp;B16&amp;"', name: '"&amp;C16&amp;"', ruby: '"&amp;D16&amp;"', baseType: '"&amp;VLOOKUP(E16,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F16,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G16&lt;&gt;"",", '"&amp; VLOOKUP(G16,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H16&lt;&gt;"", ", range: '"&amp;H16&amp;"'", "")&amp;IF(J16&lt;&gt;"", ", damage: '"&amp;J16&amp;"'", "")&amp;IF(L16&lt;&gt;"", ", capacity: '"&amp;L16&amp;"'", "")&amp;IF(M16&lt;&gt;"", ", cost: '"&amp;M16&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O16, CHAR(10), "\n")&amp;"'}"</f>
+      <c r="I16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="P16" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="3" t="str">
+        <f>", '"&amp;A16&amp;"': {megami: '"&amp;B16&amp;"', name: '"&amp;C16&amp;"', ruby: '"&amp;D16&amp;"', baseType: '"&amp;VLOOKUP(E16,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F16,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G16&lt;&gt;"",", '"&amp; VLOOKUP(G16,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H16&lt;&gt;"", ", range: '"&amp;H16&amp;"'", "")&amp;IF(J16&lt;&gt;"", ", damage: '"&amp;J16&amp;"'", "")&amp;IF(L16&lt;&gt;"", ", capacity: '"&amp;L16&amp;"'", "")&amp;IF(M16&lt;&gt;"", ", cost: '"&amp;M16&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P16, CHAR(10), "\n")&amp;"'"&amp;IF(N16="○", ", sealable: true", "")&amp;IF(O16="○", ", removable: true", "")&amp;"}"</f>
         <v>, '05-oboro-o-n-4': {megami: 'oboro', name: '忍歩', ruby: 'にんぽ', baseType: 'normal', types: ['action'], text: '設置 \n間合⇔ダスト：1 \nこのカードを伏せ札から使用したならば、伏せ札から設置を持つカードを1枚使用してもよい。'}</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="48" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:18" ht="48" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>7</v>
@@ -2251,26 +3326,29 @@
       <c r="G17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="O17" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q17" s="3" t="str">
-        <f>", '"&amp;A17&amp;"': {megami: '"&amp;B17&amp;"', name: '"&amp;C17&amp;"', ruby: '"&amp;D17&amp;"', baseType: '"&amp;VLOOKUP(E17,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F17,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G17&lt;&gt;"",", '"&amp; VLOOKUP(G17,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H17&lt;&gt;"", ", range: '"&amp;H17&amp;"'", "")&amp;IF(J17&lt;&gt;"", ", damage: '"&amp;J17&amp;"'", "")&amp;IF(L17&lt;&gt;"", ", capacity: '"&amp;L17&amp;"'", "")&amp;IF(M17&lt;&gt;"", ", cost: '"&amp;M17&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O17, CHAR(10), "\n")&amp;"'}"</f>
+      <c r="I17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="P17" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="3" t="str">
+        <f>", '"&amp;A17&amp;"': {megami: '"&amp;B17&amp;"', name: '"&amp;C17&amp;"', ruby: '"&amp;D17&amp;"', baseType: '"&amp;VLOOKUP(E17,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F17,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G17&lt;&gt;"",", '"&amp; VLOOKUP(G17,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H17&lt;&gt;"", ", range: '"&amp;H17&amp;"'", "")&amp;IF(J17&lt;&gt;"", ", damage: '"&amp;J17&amp;"'", "")&amp;IF(L17&lt;&gt;"", ", capacity: '"&amp;L17&amp;"'", "")&amp;IF(M17&lt;&gt;"", ", cost: '"&amp;M17&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P17, CHAR(10), "\n")&amp;"'"&amp;IF(N17="○", ", sealable: true", "")&amp;IF(O17="○", ", removable: true", "")&amp;"}"</f>
         <v>, '05-oboro-o-n-5': {megami: 'oboro', name: '誘導', ruby: 'ゆうどう', baseType: 'normal', types: ['action', 'reaction'], text: '設置\n以下から１つを選ぶ。\n・間合→相オーラ：1\n・相オーラ→相フレア：1'}</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="36" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:18" ht="36" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>7</v>
@@ -2281,56 +3359,62 @@
       <c r="G18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="O18" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q18" s="3" t="str">
-        <f>", '"&amp;A18&amp;"': {megami: '"&amp;B18&amp;"', name: '"&amp;C18&amp;"', ruby: '"&amp;D18&amp;"', baseType: '"&amp;VLOOKUP(E18,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F18,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G18&lt;&gt;"",", '"&amp; VLOOKUP(G18,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H18&lt;&gt;"", ", range: '"&amp;H18&amp;"'", "")&amp;IF(J18&lt;&gt;"", ", damage: '"&amp;J18&amp;"'", "")&amp;IF(L18&lt;&gt;"", ", capacity: '"&amp;L18&amp;"'", "")&amp;IF(M18&lt;&gt;"", ", cost: '"&amp;M18&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O18, CHAR(10), "\n")&amp;"'}"</f>
+      <c r="I18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="P18" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="3" t="str">
+        <f>", '"&amp;A18&amp;"': {megami: '"&amp;B18&amp;"', name: '"&amp;C18&amp;"', ruby: '"&amp;D18&amp;"', baseType: '"&amp;VLOOKUP(E18,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F18,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G18&lt;&gt;"",", '"&amp; VLOOKUP(G18,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H18&lt;&gt;"", ", range: '"&amp;H18&amp;"'", "")&amp;IF(J18&lt;&gt;"", ", damage: '"&amp;J18&amp;"'", "")&amp;IF(L18&lt;&gt;"", ", capacity: '"&amp;L18&amp;"'", "")&amp;IF(M18&lt;&gt;"", ", cost: '"&amp;M18&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P18, CHAR(10), "\n")&amp;"'"&amp;IF(N18="○", ", sealable: true", "")&amp;IF(O18="○", ", removable: true", "")&amp;"}"</f>
         <v>, '05-oboro-o-n-6': {megami: 'oboro', name: '分身の術', ruby: 'ぶんしんのじゅつ', baseType: 'normal', types: ['action', 'fullpower'], text: '伏せ札から《全力》でないカードを1枚選び、そのカードを使用する。その後、そのカードが捨て札にあるならば捨て札からもう1回使用する。《攻撃》カードが使用されたならばそれらの《攻撃》は対応不可を得る（2回ともに対応不可を得る）。'}</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="24" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:18" ht="24" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="3" t="str">
+        <f>", '"&amp;A19&amp;"': {megami: '"&amp;B19&amp;"', name: '"&amp;C19&amp;"', ruby: '"&amp;D19&amp;"', baseType: '"&amp;VLOOKUP(E19,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F19,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G19&lt;&gt;"",", '"&amp; VLOOKUP(G19,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H19&lt;&gt;"", ", range: '"&amp;H19&amp;"'", "")&amp;IF(J19&lt;&gt;"", ", damage: '"&amp;J19&amp;"'", "")&amp;IF(L19&lt;&gt;"", ", capacity: '"&amp;L19&amp;"'", "")&amp;IF(M19&lt;&gt;"", ", cost: '"&amp;M19&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P19, CHAR(10), "\n")&amp;"'"&amp;IF(N19="○", ", sealable: true", "")&amp;IF(O19="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '05-oboro-o-n-7': {megami: 'oboro', name: '生体活性', ruby: 'せいたいかっせい', baseType: 'normal', types: ['enhance'], capacity: '4', text: '隙　設置 \n【破棄時】あなたの使用済の切札を1枚選び、それを未使用に戻す。'}</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A20" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="O19" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q19" s="3" t="str">
-        <f>", '"&amp;A19&amp;"': {megami: '"&amp;B19&amp;"', name: '"&amp;C19&amp;"', ruby: '"&amp;D19&amp;"', baseType: '"&amp;VLOOKUP(E19,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F19,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G19&lt;&gt;"",", '"&amp; VLOOKUP(G19,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H19&lt;&gt;"", ", range: '"&amp;H19&amp;"'", "")&amp;IF(J19&lt;&gt;"", ", damage: '"&amp;J19&amp;"'", "")&amp;IF(L19&lt;&gt;"", ", capacity: '"&amp;L19&amp;"'", "")&amp;IF(M19&lt;&gt;"", ", cost: '"&amp;M19&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O19, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '05-oboro-o-n-7': {megami: 'oboro', name: '生体活性', ruby: 'せいたいかっせい', baseType: 'normal', types: ['enhance'], capacity: '4', text: '隙　設置 \n【破棄時】あなたの使用済の切札を1枚選び、それを未使用に戻す。'}</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A20" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>19</v>
@@ -2342,40 +3426,37 @@
         <v>31</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>89</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="I20" s="13"/>
       <c r="J20" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>89</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="K20" s="13"/>
       <c r="M20" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q20" s="3" t="str">
-        <f>", '"&amp;A20&amp;"': {megami: '"&amp;B20&amp;"', name: '"&amp;C20&amp;"', ruby: '"&amp;D20&amp;"', baseType: '"&amp;VLOOKUP(E20,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F20,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G20&lt;&gt;"",", '"&amp; VLOOKUP(G20,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H20&lt;&gt;"", ", range: '"&amp;H20&amp;"'", "")&amp;IF(J20&lt;&gt;"", ", damage: '"&amp;J20&amp;"'", "")&amp;IF(L20&lt;&gt;"", ", capacity: '"&amp;L20&amp;"'", "")&amp;IF(M20&lt;&gt;"", ", cost: '"&amp;M20&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O20, CHAR(10), "\n")&amp;"'}"</f>
+        <v>91</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="3" t="str">
+        <f>", '"&amp;A20&amp;"': {megami: '"&amp;B20&amp;"', name: '"&amp;C20&amp;"', ruby: '"&amp;D20&amp;"', baseType: '"&amp;VLOOKUP(E20,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F20,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G20&lt;&gt;"",", '"&amp; VLOOKUP(G20,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H20&lt;&gt;"", ", range: '"&amp;H20&amp;"'", "")&amp;IF(J20&lt;&gt;"", ", damage: '"&amp;J20&amp;"'", "")&amp;IF(L20&lt;&gt;"", ", capacity: '"&amp;L20&amp;"'", "")&amp;IF(M20&lt;&gt;"", ", cost: '"&amp;M20&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P20, CHAR(10), "\n")&amp;"'"&amp;IF(N20="○", ", sealable: true", "")&amp;IF(O20="○", ", removable: true", "")&amp;"}"</f>
         <v>, '05-oboro-o-s-1': {megami: 'oboro', name: '熊介', ruby: 'くますけ', baseType: 'special', types: ['attack', 'fullpower'], range: '3-4', damage: '2/2', cost: '4', text: '【攻撃後】攻撃『適正距離3-4、2/2』をX回行う。Xはあなたの伏せ札の枚数に等しい。'}</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="36" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:18" ht="36" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>19</v>
@@ -2386,29 +3467,32 @@
       <c r="G21" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="I21" s="13"/>
+      <c r="K21" s="13"/>
       <c r="M21" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="O21" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q21" s="3" t="str">
-        <f>", '"&amp;A21&amp;"': {megami: '"&amp;B21&amp;"', name: '"&amp;C21&amp;"', ruby: '"&amp;D21&amp;"', baseType: '"&amp;VLOOKUP(E21,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F21,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G21&lt;&gt;"",", '"&amp; VLOOKUP(G21,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H21&lt;&gt;"", ", range: '"&amp;H21&amp;"'", "")&amp;IF(J21&lt;&gt;"", ", damage: '"&amp;J21&amp;"'", "")&amp;IF(L21&lt;&gt;"", ", capacity: '"&amp;L21&amp;"'", "")&amp;IF(M21&lt;&gt;"", ", cost: '"&amp;M21&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O21, CHAR(10), "\n")&amp;"'}"</f>
+        <v>132</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="3" t="str">
+        <f>", '"&amp;A21&amp;"': {megami: '"&amp;B21&amp;"', name: '"&amp;C21&amp;"', ruby: '"&amp;D21&amp;"', baseType: '"&amp;VLOOKUP(E21,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F21,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G21&lt;&gt;"",", '"&amp; VLOOKUP(G21,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H21&lt;&gt;"", ", range: '"&amp;H21&amp;"'", "")&amp;IF(J21&lt;&gt;"", ", damage: '"&amp;J21&amp;"'", "")&amp;IF(L21&lt;&gt;"", ", capacity: '"&amp;L21&amp;"'", "")&amp;IF(M21&lt;&gt;"", ", cost: '"&amp;M21&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P21, CHAR(10), "\n")&amp;"'"&amp;IF(N21="○", ", sealable: true", "")&amp;IF(O21="○", ", removable: true", "")&amp;"}"</f>
         <v>, '05-oboro-o-s-2': {megami: 'oboro', name: '鳶影', ruby: 'とびかげ', baseType: 'special', types: ['action', 'reaction'], cost: '3', text: '伏せ札から《全力》でないカードを1枚選び、そのカードを使用してもよい。この際、このカードが対応している《攻撃》があるならば、使用されたカードはそれに対応しているものと扱う。'}</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="24" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:18" ht="24" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>19</v>
@@ -2416,29 +3500,32 @@
       <c r="F22" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="I22" s="13"/>
+      <c r="K22" s="13"/>
       <c r="M22" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="O22" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q22" s="3" t="str">
-        <f>", '"&amp;A22&amp;"': {megami: '"&amp;B22&amp;"', name: '"&amp;C22&amp;"', ruby: '"&amp;D22&amp;"', baseType: '"&amp;VLOOKUP(E22,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F22,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G22&lt;&gt;"",", '"&amp; VLOOKUP(G22,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H22&lt;&gt;"", ", range: '"&amp;H22&amp;"'", "")&amp;IF(J22&lt;&gt;"", ", damage: '"&amp;J22&amp;"'", "")&amp;IF(L22&lt;&gt;"", ", capacity: '"&amp;L22&amp;"'", "")&amp;IF(M22&lt;&gt;"", ", cost: '"&amp;M22&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O22, CHAR(10), "\n")&amp;"'}"</f>
+        <v>133</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="3" t="str">
+        <f>", '"&amp;A22&amp;"': {megami: '"&amp;B22&amp;"', name: '"&amp;C22&amp;"', ruby: '"&amp;D22&amp;"', baseType: '"&amp;VLOOKUP(E22,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F22,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G22&lt;&gt;"",", '"&amp; VLOOKUP(G22,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H22&lt;&gt;"", ", range: '"&amp;H22&amp;"'", "")&amp;IF(J22&lt;&gt;"", ", damage: '"&amp;J22&amp;"'", "")&amp;IF(L22&lt;&gt;"", ", capacity: '"&amp;L22&amp;"'", "")&amp;IF(M22&lt;&gt;"", ", cost: '"&amp;M22&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P22, CHAR(10), "\n")&amp;"'"&amp;IF(N22="○", ", sealable: true", "")&amp;IF(O22="○", ", removable: true", "")&amp;"}"</f>
         <v>, '05-oboro-o-s-3': {megami: 'oboro', name: '虚魚', ruby: 'うろうお', baseType: 'special', types: ['action'], cost: '4', text: '【使用済】あなたは1回の再構成に対して、設置を持つカードを任意の枚数、任意の順で使用できる。'}</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="24" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:18" ht="36" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>19</v>
@@ -2446,26 +3533,29 @@
       <c r="F23" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="I23" s="13"/>
+      <c r="K23" s="13"/>
       <c r="M23" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="O23" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q23" s="3" t="str">
-        <f>", '"&amp;A23&amp;"': {megami: '"&amp;B23&amp;"', name: '"&amp;C23&amp;"', ruby: '"&amp;D23&amp;"', baseType: '"&amp;VLOOKUP(E23,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F23,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G23&lt;&gt;"",", '"&amp; VLOOKUP(G23,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H23&lt;&gt;"", ", range: '"&amp;H23&amp;"'", "")&amp;IF(J23&lt;&gt;"", ", damage: '"&amp;J23&amp;"'", "")&amp;IF(L23&lt;&gt;"", ", capacity: '"&amp;L23&amp;"'", "")&amp;IF(M23&lt;&gt;"", ", cost: '"&amp;M23&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O23, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '05-oboro-o-s-4': {megami: 'oboro', name: '壬蔓', ruby: 'みかずら', baseType: 'special', types: ['action'], cost: '0', text: '相オーラ→自フレア：1 \n再起：あなたのフレアが0である。'}</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+        <v>134</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="3" t="str">
+        <f>", '"&amp;A23&amp;"': {megami: '"&amp;B23&amp;"', name: '"&amp;C23&amp;"', ruby: '"&amp;D23&amp;"', baseType: '"&amp;VLOOKUP(E23,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F23,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G23&lt;&gt;"",", '"&amp; VLOOKUP(G23,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H23&lt;&gt;"", ", range: '"&amp;H23&amp;"'", "")&amp;IF(J23&lt;&gt;"", ", damage: '"&amp;J23&amp;"'", "")&amp;IF(L23&lt;&gt;"", ", capacity: '"&amp;L23&amp;"'", "")&amp;IF(M23&lt;&gt;"", ", cost: '"&amp;M23&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P23, CHAR(10), "\n")&amp;"'"&amp;IF(N23="○", ", sealable: true", "")&amp;IF(O23="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '05-oboro-o-s-4': {megami: 'oboro', name: '壬蔓', ruby: 'みかずら', baseType: 'special', types: ['action'], cost: '0', text: '相オーラ→自フレア：1 \n----\n【再起】あなたのフレアが0である。'}</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>259</v>
+        <v>225</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>275</v>
+        <v>241</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>7</v>
@@ -2474,32 +3564,32 @@
         <v>8</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>282</v>
+        <v>248</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>247</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="9" t="str">
-        <f>", '"&amp;A24&amp;"': {megami: '"&amp;B24&amp;"', name: '"&amp;C24&amp;"', ruby: '"&amp;D24&amp;"', baseType: '"&amp;VLOOKUP(E24,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F24,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G24&lt;&gt;"",", '"&amp; VLOOKUP(G24,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H24&lt;&gt;"", ", range: '"&amp;H24&amp;"'", "")&amp;IF(I24&lt;&gt;"", ", rangeOpened: '"&amp;I24&amp;"'", "")&amp;IF(J24&lt;&gt;"", ", damage: '"&amp;J24&amp;"'", "")&amp;IF(K24&lt;&gt;"", ", damageOpened: '"&amp;K24&amp;"'", "")&amp;IF(L24&lt;&gt;"", ", capacity: '"&amp;L24&amp;"'", "")&amp;IF(M24&lt;&gt;"", ", cost: '"&amp;M24&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O24, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(P24, CHAR(10), "\n")&amp;"'}"</f>
+        <v>249</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="9" t="str">
+        <f>", '"&amp;A24&amp;"': {megami: '"&amp;B24&amp;"', name: '"&amp;C24&amp;"', ruby: '"&amp;D24&amp;"', baseType: '"&amp;VLOOKUP(E24,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F24,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G24&lt;&gt;"",", '"&amp; VLOOKUP(G24,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H24&lt;&gt;"", ", range: '"&amp;H24&amp;"'", "")&amp;IF(I24&lt;&gt;"", ", rangeOpened: '"&amp;I24&amp;"'", "")&amp;IF(J24&lt;&gt;"", ", damage: '"&amp;J24&amp;"'", "")&amp;IF(K24&lt;&gt;"", ", damageOpened: '"&amp;K24&amp;"'", "")&amp;IF(L24&lt;&gt;"", ", capacity: '"&amp;L24&amp;"'", "")&amp;IF(M24&lt;&gt;"", ", cost: '"&amp;M24&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P24, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(Q24, CHAR(10), "\n")&amp;"'}"</f>
         <v>, '06-yukihi-o-n-1': {megami: 'yukihi', name: 'しこみばり / ふくみばり', ruby: '', baseType: 'normal', types: ['attack'], range: '4-6', rangeOpened: '0-2', damage: '3/1', damageOpened: '1/2', text: '', textOpened: ''}</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>260</v>
+        <v>226</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>275</v>
+        <v>241</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>7</v>
@@ -2508,34 +3598,34 @@
         <v>8</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>289</v>
+        <v>253</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>254</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="O25" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q25" s="9" t="str">
-        <f>", '"&amp;A25&amp;"': {megami: '"&amp;B25&amp;"', name: '"&amp;C25&amp;"', ruby: '"&amp;D25&amp;"', baseType: '"&amp;VLOOKUP(E25,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F25,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G25&lt;&gt;"",", '"&amp; VLOOKUP(G25,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H25&lt;&gt;"", ", range: '"&amp;H25&amp;"'", "")&amp;IF(I25&lt;&gt;"", ", rangeOpened: '"&amp;I25&amp;"'", "")&amp;IF(J25&lt;&gt;"", ", damage: '"&amp;J25&amp;"'", "")&amp;IF(K25&lt;&gt;"", ", damageOpened: '"&amp;K25&amp;"'", "")&amp;IF(L25&lt;&gt;"", ", capacity: '"&amp;L25&amp;"'", "")&amp;IF(M25&lt;&gt;"", ", cost: '"&amp;M25&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O25, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(P25, CHAR(10), "\n")&amp;"'}"</f>
+        <v>252</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="R25" s="9" t="str">
+        <f>", '"&amp;A25&amp;"': {megami: '"&amp;B25&amp;"', name: '"&amp;C25&amp;"', ruby: '"&amp;D25&amp;"', baseType: '"&amp;VLOOKUP(E25,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F25,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G25&lt;&gt;"",", '"&amp; VLOOKUP(G25,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H25&lt;&gt;"", ", range: '"&amp;H25&amp;"'", "")&amp;IF(I25&lt;&gt;"", ", rangeOpened: '"&amp;I25&amp;"'", "")&amp;IF(J25&lt;&gt;"", ", damage: '"&amp;J25&amp;"'", "")&amp;IF(K25&lt;&gt;"", ", damageOpened: '"&amp;K25&amp;"'", "")&amp;IF(L25&lt;&gt;"", ", capacity: '"&amp;L25&amp;"'", "")&amp;IF(M25&lt;&gt;"", ", cost: '"&amp;M25&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P25, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(Q25, CHAR(10), "\n")&amp;"'}"</f>
         <v>, '06-yukihi-o-n-2': {megami: 'yukihi', name: 'しこみび / ねこだまし', ruby: '', baseType: 'normal', types: ['attack'], range: '5-6', rangeOpened: '0-2', damage: '1/1', damageOpened: '1/1', text: '【攻撃後】このカードを手札に戻し、傘の開閉を行う。 ', textOpened: ''}</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>275</v>
+        <v>241</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>269</v>
+        <v>235</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>7</v>
@@ -2544,37 +3634,37 @@
         <v>8</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>233</v>
+        <v>216</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>215</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="O26" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="P26" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q26" s="9" t="str">
-        <f>", '"&amp;A26&amp;"': {megami: '"&amp;B26&amp;"', name: '"&amp;C26&amp;"', ruby: '"&amp;D26&amp;"', baseType: '"&amp;VLOOKUP(E26,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F26,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G26&lt;&gt;"",", '"&amp; VLOOKUP(G26,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H26&lt;&gt;"", ", range: '"&amp;H26&amp;"'", "")&amp;IF(I26&lt;&gt;"", ", rangeOpened: '"&amp;I26&amp;"'", "")&amp;IF(J26&lt;&gt;"", ", damage: '"&amp;J26&amp;"'", "")&amp;IF(K26&lt;&gt;"", ", damageOpened: '"&amp;K26&amp;"'", "")&amp;IF(L26&lt;&gt;"", ", capacity: '"&amp;L26&amp;"'", "")&amp;IF(M26&lt;&gt;"", ", cost: '"&amp;M26&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O26, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(P26, CHAR(10), "\n")&amp;"'}"</f>
+        <v>252</v>
+      </c>
+      <c r="K26" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="P26" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="R26" s="9" t="str">
+        <f>", '"&amp;A26&amp;"': {megami: '"&amp;B26&amp;"', name: '"&amp;C26&amp;"', ruby: '"&amp;D26&amp;"', baseType: '"&amp;VLOOKUP(E26,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F26,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G26&lt;&gt;"",", '"&amp; VLOOKUP(G26,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H26&lt;&gt;"", ", range: '"&amp;H26&amp;"'", "")&amp;IF(I26&lt;&gt;"", ", rangeOpened: '"&amp;I26&amp;"'", "")&amp;IF(J26&lt;&gt;"", ", damage: '"&amp;J26&amp;"'", "")&amp;IF(K26&lt;&gt;"", ", damageOpened: '"&amp;K26&amp;"'", "")&amp;IF(L26&lt;&gt;"", ", capacity: '"&amp;L26&amp;"'", "")&amp;IF(M26&lt;&gt;"", ", cost: '"&amp;M26&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P26, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(Q26, CHAR(10), "\n")&amp;"'}"</f>
         <v>, '06-yukihi-o-n-3': {megami: 'yukihi', name: 'ふりはらい / たぐりよせ', ruby: '', baseType: 'normal', types: ['attack'], range: '2-5', rangeOpened: '0-2', damage: '1/1', damageOpened: '1/1', text: '【攻撃後】ダスト⇔間合：1 ', textOpened: '【攻撃後】間合→ダスト：2'}</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>262</v>
+        <v>228</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>275</v>
+        <v>241</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>268</v>
+        <v>234</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>7</v>
@@ -2586,32 +3676,32 @@
         <v>31</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>233</v>
+        <v>214</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>215</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="O27" s="5"/>
-      <c r="Q27" s="9" t="str">
-        <f>", '"&amp;A27&amp;"': {megami: '"&amp;B27&amp;"', name: '"&amp;C27&amp;"', ruby: '"&amp;D27&amp;"', baseType: '"&amp;VLOOKUP(E27,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F27,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G27&lt;&gt;"",", '"&amp; VLOOKUP(G27,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H27&lt;&gt;"", ", range: '"&amp;H27&amp;"'", "")&amp;IF(I27&lt;&gt;"", ", rangeOpened: '"&amp;I27&amp;"'", "")&amp;IF(J27&lt;&gt;"", ", damage: '"&amp;J27&amp;"'", "")&amp;IF(K27&lt;&gt;"", ", damageOpened: '"&amp;K27&amp;"'", "")&amp;IF(L27&lt;&gt;"", ", capacity: '"&amp;L27&amp;"'", "")&amp;IF(M27&lt;&gt;"", ", cost: '"&amp;M27&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O27, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(P27, CHAR(10), "\n")&amp;"'}"</f>
+        <v>255</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="P27" s="5"/>
+      <c r="R27" s="9" t="str">
+        <f>", '"&amp;A27&amp;"': {megami: '"&amp;B27&amp;"', name: '"&amp;C27&amp;"', ruby: '"&amp;D27&amp;"', baseType: '"&amp;VLOOKUP(E27,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F27,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G27&lt;&gt;"",", '"&amp; VLOOKUP(G27,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H27&lt;&gt;"", ", range: '"&amp;H27&amp;"'", "")&amp;IF(I27&lt;&gt;"", ", rangeOpened: '"&amp;I27&amp;"'", "")&amp;IF(J27&lt;&gt;"", ", damage: '"&amp;J27&amp;"'", "")&amp;IF(K27&lt;&gt;"", ", damageOpened: '"&amp;K27&amp;"'", "")&amp;IF(L27&lt;&gt;"", ", capacity: '"&amp;L27&amp;"'", "")&amp;IF(M27&lt;&gt;"", ", cost: '"&amp;M27&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P27, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(Q27, CHAR(10), "\n")&amp;"'}"</f>
         <v>, '06-yukihi-o-n-4': {megami: 'yukihi', name: 'ふりまわし / つきさし', ruby: '', baseType: 'normal', types: ['attack', 'fullpower'], range: '4-6', rangeOpened: '0-2', damage: '5/-', damageOpened: '-/2', text: '', textOpened: ''}</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="60" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:18" ht="60" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>263</v>
+        <v>229</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>275</v>
+        <v>241</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>7</v>
@@ -2619,23 +3709,25 @@
       <c r="F28" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O28" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q28" s="9" t="str">
-        <f>", '"&amp;A28&amp;"': {megami: '"&amp;B28&amp;"', name: '"&amp;C28&amp;"', ruby: '"&amp;D28&amp;"', baseType: '"&amp;VLOOKUP(E28,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F28,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G28&lt;&gt;"",", '"&amp; VLOOKUP(G28,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H28&lt;&gt;"", ", range: '"&amp;H28&amp;"'", "")&amp;IF(I28&lt;&gt;"", ", rangeOpened: '"&amp;I28&amp;"'", "")&amp;IF(J28&lt;&gt;"", ", damage: '"&amp;J28&amp;"'", "")&amp;IF(K28&lt;&gt;"", ", damageOpened: '"&amp;K28&amp;"'", "")&amp;IF(L28&lt;&gt;"", ", capacity: '"&amp;L28&amp;"'", "")&amp;IF(M28&lt;&gt;"", ", cost: '"&amp;M28&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O28, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(P28, CHAR(10), "\n")&amp;"'}"</f>
+      <c r="I28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="P28" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="R28" s="9" t="str">
+        <f>", '"&amp;A28&amp;"': {megami: '"&amp;B28&amp;"', name: '"&amp;C28&amp;"', ruby: '"&amp;D28&amp;"', baseType: '"&amp;VLOOKUP(E28,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F28,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G28&lt;&gt;"",", '"&amp; VLOOKUP(G28,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H28&lt;&gt;"", ", range: '"&amp;H28&amp;"'", "")&amp;IF(I28&lt;&gt;"", ", rangeOpened: '"&amp;I28&amp;"'", "")&amp;IF(J28&lt;&gt;"", ", damage: '"&amp;J28&amp;"'", "")&amp;IF(K28&lt;&gt;"", ", damageOpened: '"&amp;K28&amp;"'", "")&amp;IF(L28&lt;&gt;"", ", capacity: '"&amp;L28&amp;"'", "")&amp;IF(M28&lt;&gt;"", ", cost: '"&amp;M28&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P28, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(Q28, CHAR(10), "\n")&amp;"'}"</f>
         <v>, '06-yukihi-o-n-5': {megami: 'yukihi', name: 'かさまわし', ruby: '', baseType: 'normal', types: ['action'], text: '(このカードは使用しても効果はない) \n【常時】あなたが傘の開閉を行った時、このカードを手札から公開してもよい。そうした場合、 \nダスト→自オーラ：1\n', textOpened: ''}</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>275</v>
+        <v>241</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>267</v>
+        <v>233</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>7</v>
@@ -2646,48 +3738,57 @@
       <c r="G29" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="O29" s="5"/>
-      <c r="Q29" s="9" t="str">
-        <f>", '"&amp;A29&amp;"': {megami: '"&amp;B29&amp;"', name: '"&amp;C29&amp;"', ruby: '"&amp;D29&amp;"', baseType: '"&amp;VLOOKUP(E29,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F29,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G29&lt;&gt;"",", '"&amp; VLOOKUP(G29,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H29&lt;&gt;"", ", range: '"&amp;H29&amp;"'", "")&amp;IF(I29&lt;&gt;"", ", rangeOpened: '"&amp;I29&amp;"'", "")&amp;IF(J29&lt;&gt;"", ", damage: '"&amp;J29&amp;"'", "")&amp;IF(K29&lt;&gt;"", ", damageOpened: '"&amp;K29&amp;"'", "")&amp;IF(L29&lt;&gt;"", ", capacity: '"&amp;L29&amp;"'", "")&amp;IF(M29&lt;&gt;"", ", cost: '"&amp;M29&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O29, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(P29, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '06-yukihi-o-n-6': {megami: 'yukihi', name: 'ひきあし / もぐりこみ', ruby: '', baseType: 'normal', types: ['action', 'reaction'], text: '', textOpened: ''}</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="36" x14ac:dyDescent="0.15">
+      <c r="I29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="P29" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="R29" s="9" t="str">
+        <f>", '"&amp;A29&amp;"': {megami: '"&amp;B29&amp;"', name: '"&amp;C29&amp;"', ruby: '"&amp;D29&amp;"', baseType: '"&amp;VLOOKUP(E29,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F29,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G29&lt;&gt;"",", '"&amp; VLOOKUP(G29,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H29&lt;&gt;"", ", range: '"&amp;H29&amp;"'", "")&amp;IF(I29&lt;&gt;"", ", rangeOpened: '"&amp;I29&amp;"'", "")&amp;IF(J29&lt;&gt;"", ", damage: '"&amp;J29&amp;"'", "")&amp;IF(K29&lt;&gt;"", ", damageOpened: '"&amp;K29&amp;"'", "")&amp;IF(L29&lt;&gt;"", ", capacity: '"&amp;L29&amp;"'", "")&amp;IF(M29&lt;&gt;"", ", cost: '"&amp;M29&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P29, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(Q29, CHAR(10), "\n")&amp;"'}"</f>
+        <v>, '06-yukihi-o-n-6': {megami: 'yukihi', name: 'ひきあし / もぐりこみ', ruby: '', baseType: 'normal', types: ['action', 'reaction'], text: 'ダスト→間合：1 ', textOpened: '間合→ダスト：1'}</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="36" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>265</v>
+        <v>231</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>275</v>
+        <v>241</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>52</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="I30" s="11"/>
+      <c r="K30" s="11"/>
       <c r="L30" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="O30" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q30" s="9" t="str">
-        <f>", '"&amp;A30&amp;"': {megami: '"&amp;B30&amp;"', name: '"&amp;C30&amp;"', ruby: '"&amp;D30&amp;"', baseType: '"&amp;VLOOKUP(E30,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F30,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G30&lt;&gt;"",", '"&amp; VLOOKUP(G30,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H30&lt;&gt;"", ", range: '"&amp;H30&amp;"'", "")&amp;IF(I30&lt;&gt;"", ", rangeOpened: '"&amp;I30&amp;"'", "")&amp;IF(J30&lt;&gt;"", ", damage: '"&amp;J30&amp;"'", "")&amp;IF(K30&lt;&gt;"", ", damageOpened: '"&amp;K30&amp;"'", "")&amp;IF(L30&lt;&gt;"", ", capacity: '"&amp;L30&amp;"'", "")&amp;IF(M30&lt;&gt;"", ", cost: '"&amp;M30&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O30, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(P30, CHAR(10), "\n")&amp;"'}"</f>
+        <v>55</v>
+      </c>
+      <c r="P30" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="R30" s="9" t="str">
+        <f>", '"&amp;A30&amp;"': {megami: '"&amp;B30&amp;"', name: '"&amp;C30&amp;"', ruby: '"&amp;D30&amp;"', baseType: '"&amp;VLOOKUP(E30,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F30,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G30&lt;&gt;"",", '"&amp; VLOOKUP(G30,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H30&lt;&gt;"", ", range: '"&amp;H30&amp;"'", "")&amp;IF(I30&lt;&gt;"", ", rangeOpened: '"&amp;I30&amp;"'", "")&amp;IF(J30&lt;&gt;"", ", damage: '"&amp;J30&amp;"'", "")&amp;IF(K30&lt;&gt;"", ", damageOpened: '"&amp;K30&amp;"'", "")&amp;IF(L30&lt;&gt;"", ", capacity: '"&amp;L30&amp;"'", "")&amp;IF(M30&lt;&gt;"", ", cost: '"&amp;M30&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P30, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(Q30, CHAR(10), "\n")&amp;"'}"</f>
         <v>, '06-yukihi-o-n-7': {megami: 'yukihi', name: 'えんむすび', ruby: '', baseType: 'normal', types: ['enhance'], capacity: '2', text: '【展開時】間合→ダスト：1 \n【破棄時】ダスト→間合：1 \n【常時】あなたの傘が開いているならば、このカードの矢印(→)は逆になる。', textOpened: ''}</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:18" ht="48" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>275</v>
+        <v>241</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>19</v>
@@ -2696,37 +3797,38 @@
         <v>8</v>
       </c>
       <c r="H31" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="J31" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="I31" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>300</v>
+      <c r="K31" s="11" t="s">
+        <v>260</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="O31" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q31" s="9" t="str">
-        <f>", '"&amp;A31&amp;"': {megami: '"&amp;B31&amp;"', name: '"&amp;C31&amp;"', ruby: '"&amp;D31&amp;"', baseType: '"&amp;VLOOKUP(E31,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F31,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G31&lt;&gt;"",", '"&amp; VLOOKUP(G31,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H31&lt;&gt;"", ", range: '"&amp;H31&amp;"'", "")&amp;IF(I31&lt;&gt;"", ", rangeOpened: '"&amp;I31&amp;"'", "")&amp;IF(J31&lt;&gt;"", ", damage: '"&amp;J31&amp;"'", "")&amp;IF(K31&lt;&gt;"", ", damageOpened: '"&amp;K31&amp;"'", "")&amp;IF(L31&lt;&gt;"", ", capacity: '"&amp;L31&amp;"'", "")&amp;IF(M31&lt;&gt;"", ", cost: '"&amp;M31&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O31, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(P31, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '06-yukihi-o-s-1': {megami: 'yukihi', name: 'はらりゆき', ruby: '', baseType: 'special', types: ['attack'], range: '3-5', rangeOpened: '0-1', damage: '3/1', damageOpened: '0/0', cost: '2', text: '【即再起】あなたが傘の開閉を行う。 ', textOpened: ''}</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+        <v>242</v>
+      </c>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="R31" s="9" t="str">
+        <f>", '"&amp;A31&amp;"': {megami: '"&amp;B31&amp;"', name: '"&amp;C31&amp;"', ruby: '"&amp;D31&amp;"', baseType: '"&amp;VLOOKUP(E31,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F31,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G31&lt;&gt;"",", '"&amp; VLOOKUP(G31,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H31&lt;&gt;"", ", range: '"&amp;H31&amp;"'", "")&amp;IF(I31&lt;&gt;"", ", rangeOpened: '"&amp;I31&amp;"'", "")&amp;IF(J31&lt;&gt;"", ", damage: '"&amp;J31&amp;"'", "")&amp;IF(K31&lt;&gt;"", ", damageOpened: '"&amp;K31&amp;"'", "")&amp;IF(L31&lt;&gt;"", ", capacity: '"&amp;L31&amp;"'", "")&amp;IF(M31&lt;&gt;"", ", cost: '"&amp;M31&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P31, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(Q31, CHAR(10), "\n")&amp;"'}"</f>
+        <v>, '06-yukihi-o-s-1': {megami: 'yukihi', name: 'はらりゆき', ruby: '', baseType: 'special', types: ['attack'], range: '3-5', rangeOpened: '0-1', damage: '3/1', damageOpened: '0/0', cost: '2', text: '', textOpened: '----\n【即再起】あなたが傘の開閉を行う。 '}</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>275</v>
+        <v>241</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>19</v>
@@ -2735,68 +3837,70 @@
         <v>8</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>252</v>
+        <v>214</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>221</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>301</v>
+        <v>260</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>261</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="O32" s="5"/>
-      <c r="Q32" s="9" t="str">
-        <f>", '"&amp;A32&amp;"': {megami: '"&amp;B32&amp;"', name: '"&amp;C32&amp;"', ruby: '"&amp;D32&amp;"', baseType: '"&amp;VLOOKUP(E32,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F32,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G32&lt;&gt;"",", '"&amp; VLOOKUP(G32,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H32&lt;&gt;"", ", range: '"&amp;H32&amp;"'", "")&amp;IF(I32&lt;&gt;"", ", rangeOpened: '"&amp;I32&amp;"'", "")&amp;IF(J32&lt;&gt;"", ", damage: '"&amp;J32&amp;"'", "")&amp;IF(K32&lt;&gt;"", ", damageOpened: '"&amp;K32&amp;"'", "")&amp;IF(L32&lt;&gt;"", ", capacity: '"&amp;L32&amp;"'", "")&amp;IF(M32&lt;&gt;"", ", cost: '"&amp;M32&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O32, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(P32, CHAR(10), "\n")&amp;"'}"</f>
+        <v>243</v>
+      </c>
+      <c r="P32" s="5"/>
+      <c r="R32" s="9" t="str">
+        <f>", '"&amp;A32&amp;"': {megami: '"&amp;B32&amp;"', name: '"&amp;C32&amp;"', ruby: '"&amp;D32&amp;"', baseType: '"&amp;VLOOKUP(E32,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F32,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G32&lt;&gt;"",", '"&amp; VLOOKUP(G32,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H32&lt;&gt;"", ", range: '"&amp;H32&amp;"'", "")&amp;IF(I32&lt;&gt;"", ", rangeOpened: '"&amp;I32&amp;"'", "")&amp;IF(J32&lt;&gt;"", ", damage: '"&amp;J32&amp;"'", "")&amp;IF(K32&lt;&gt;"", ", damageOpened: '"&amp;K32&amp;"'", "")&amp;IF(L32&lt;&gt;"", ", capacity: '"&amp;L32&amp;"'", "")&amp;IF(M32&lt;&gt;"", ", cost: '"&amp;M32&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P32, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(Q32, CHAR(10), "\n")&amp;"'}"</f>
         <v>, '06-yukihi-o-s-2': {megami: 'yukihi', name: 'ゆらりび', ruby: '', baseType: 'special', types: ['attack'], range: '4-6', rangeOpened: '0', damage: '0/0', damageOpened: '4/5', cost: '5', text: '', textOpened: ''}</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="24" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:18" ht="24" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>273</v>
+        <v>239</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>275</v>
+        <v>241</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="I33" s="11"/>
+      <c r="K33" s="11"/>
       <c r="L33" s="4" t="s">
-        <v>299</v>
+        <v>259</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="O33" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q33" s="9" t="str">
-        <f>", '"&amp;A33&amp;"': {megami: '"&amp;B33&amp;"', name: '"&amp;C33&amp;"', ruby: '"&amp;D33&amp;"', baseType: '"&amp;VLOOKUP(E33,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F33,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G33&lt;&gt;"",", '"&amp; VLOOKUP(G33,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H33&lt;&gt;"", ", range: '"&amp;H33&amp;"'", "")&amp;IF(I33&lt;&gt;"", ", rangeOpened: '"&amp;I33&amp;"'", "")&amp;IF(J33&lt;&gt;"", ", damage: '"&amp;J33&amp;"'", "")&amp;IF(K33&lt;&gt;"", ", damageOpened: '"&amp;K33&amp;"'", "")&amp;IF(L33&lt;&gt;"", ", capacity: '"&amp;L33&amp;"'", "")&amp;IF(M33&lt;&gt;"", ", cost: '"&amp;M33&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O33, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(P33, CHAR(10), "\n")&amp;"'}"</f>
+        <v>244</v>
+      </c>
+      <c r="P33" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="R33" s="9" t="str">
+        <f>", '"&amp;A33&amp;"': {megami: '"&amp;B33&amp;"', name: '"&amp;C33&amp;"', ruby: '"&amp;D33&amp;"', baseType: '"&amp;VLOOKUP(E33,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F33,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G33&lt;&gt;"",", '"&amp; VLOOKUP(G33,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H33&lt;&gt;"", ", range: '"&amp;H33&amp;"'", "")&amp;IF(I33&lt;&gt;"", ", rangeOpened: '"&amp;I33&amp;"'", "")&amp;IF(J33&lt;&gt;"", ", damage: '"&amp;J33&amp;"'", "")&amp;IF(K33&lt;&gt;"", ", damageOpened: '"&amp;K33&amp;"'", "")&amp;IF(L33&lt;&gt;"", ", capacity: '"&amp;L33&amp;"'", "")&amp;IF(M33&lt;&gt;"", ", cost: '"&amp;M33&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P33, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(Q33, CHAR(10), "\n")&amp;"'}"</f>
         <v>, '06-yukihi-o-s-3': {megami: 'yukihi', name: 'どろりうら', ruby: '', baseType: 'special', types: ['enhance', 'fullpower'], capacity: '7', cost: '3', text: '【展開中】あなたのユキヒの《攻撃》は傘を開いた状態と傘を閉じた状態両方の適正距離を持つ。', textOpened: ''}</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="24" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:18" ht="24" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>274</v>
+        <v>240</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>275</v>
+        <v>241</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>19</v>
@@ -2807,29 +3911,31 @@
       <c r="G34" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="I34" s="11"/>
+      <c r="K34" s="11"/>
       <c r="M34" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="O34" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q34" s="9" t="str">
-        <f>", '"&amp;A34&amp;"': {megami: '"&amp;B34&amp;"', name: '"&amp;C34&amp;"', ruby: '"&amp;D34&amp;"', baseType: '"&amp;VLOOKUP(E34,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F34,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G34&lt;&gt;"",", '"&amp; VLOOKUP(G34,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H34&lt;&gt;"", ", range: '"&amp;H34&amp;"'", "")&amp;IF(I34&lt;&gt;"", ", rangeOpened: '"&amp;I34&amp;"'", "")&amp;IF(J34&lt;&gt;"", ", damage: '"&amp;J34&amp;"'", "")&amp;IF(K34&lt;&gt;"", ", damageOpened: '"&amp;K34&amp;"'", "")&amp;IF(L34&lt;&gt;"", ", capacity: '"&amp;L34&amp;"'", "")&amp;IF(M34&lt;&gt;"", ", cost: '"&amp;M34&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O34, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(P34, CHAR(10), "\n")&amp;"'}"</f>
+        <v>245</v>
+      </c>
+      <c r="P34" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="R34" s="9" t="str">
+        <f>", '"&amp;A34&amp;"': {megami: '"&amp;B34&amp;"', name: '"&amp;C34&amp;"', ruby: '"&amp;D34&amp;"', baseType: '"&amp;VLOOKUP(E34,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F34,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G34&lt;&gt;"",", '"&amp; VLOOKUP(G34,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H34&lt;&gt;"", ", range: '"&amp;H34&amp;"'", "")&amp;IF(I34&lt;&gt;"", ", rangeOpened: '"&amp;I34&amp;"'", "")&amp;IF(J34&lt;&gt;"", ", damage: '"&amp;J34&amp;"'", "")&amp;IF(K34&lt;&gt;"", ", damageOpened: '"&amp;K34&amp;"'", "")&amp;IF(L34&lt;&gt;"", ", capacity: '"&amp;L34&amp;"'", "")&amp;IF(M34&lt;&gt;"", ", cost: '"&amp;M34&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P34, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(Q34, CHAR(10), "\n")&amp;"'}"</f>
         <v>, '06-yukihi-o-s-4': {megami: 'yukihi', name: 'くるりみ', ruby: '', baseType: 'special', types: ['action', 'reaction'], cost: '1', text: '傘の開閉を行う。 \nダスト→自オーラ：1', textOpened: ''}</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>161</v>
+        <v>276</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>166</v>
+        <v>275</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>171</v>
+        <v>262</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>190</v>
+        <v>287</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>7</v>
@@ -2838,34 +3944,34 @@
         <v>8</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>187</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="I35" s="13"/>
       <c r="J35" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="K35" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q35" s="3" t="str">
-        <f>", '"&amp;A35&amp;"': {megami: '"&amp;B35&amp;"', name: '"&amp;C35&amp;"', ruby: '"&amp;D35&amp;"', baseType: '"&amp;VLOOKUP(E35,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F35,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G35&lt;&gt;"",", '"&amp; VLOOKUP(G35,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H35&lt;&gt;"", ", range: '"&amp;H35&amp;"'", "")&amp;IF(J35&lt;&gt;"", ", damage: '"&amp;J35&amp;"'", "")&amp;IF(L35&lt;&gt;"", ", capacity: '"&amp;L35&amp;"'", "")&amp;IF(M35&lt;&gt;"", ", cost: '"&amp;M35&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O35, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '09-chikage-o-n-1': {megami: 'chikage', name: '飛苦無', ruby: 'とびくない', baseType: 'normal', types: ['attack'], range: '4-5', damage: '2/2', text: ''}</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
+        <v>299</v>
+      </c>
+      <c r="K35" s="13"/>
+      <c r="P35" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="3" t="str">
+        <f>", '"&amp;A35&amp;"': {megami: '"&amp;B35&amp;"', name: '"&amp;C35&amp;"', ruby: '"&amp;D35&amp;"', baseType: '"&amp;VLOOKUP(E35,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F35,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G35&lt;&gt;"",", '"&amp; VLOOKUP(G35,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H35&lt;&gt;"", ", range: '"&amp;H35&amp;"'", "")&amp;IF(J35&lt;&gt;"", ", damage: '"&amp;J35&amp;"'", "")&amp;IF(L35&lt;&gt;"", ", capacity: '"&amp;L35&amp;"'", "")&amp;IF(M35&lt;&gt;"", ", cost: '"&amp;M35&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P35, CHAR(10), "\n")&amp;"'"&amp;IF(N35="○", ", sealable: true", "")&amp;IF(O35="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '07-shinra-o-n-1': {megami: 'shinra', name: '立論', ruby: 'りつろん', baseType: 'normal', types: ['attack'], range: '2-7', damage: '2/-', text: '【常時】相手の山札に2枚以上のカードがあるならば、この《攻撃》はダメージを与える代わりに山札の上から2枚を伏せ札にする。'}</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="36" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
-        <v>155</v>
+        <v>277</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>166</v>
+        <v>275</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>172</v>
+        <v>263</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>191</v>
+        <v>288</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>7</v>
@@ -2873,38 +3979,38 @@
       <c r="F36" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="G36" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="H36" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>100</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="I36" s="13"/>
       <c r="J36" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="O36" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q36" s="3" t="str">
-        <f>", '"&amp;A36&amp;"': {megami: '"&amp;B36&amp;"', name: '"&amp;C36&amp;"', ruby: '"&amp;D36&amp;"', baseType: '"&amp;VLOOKUP(E36,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F36,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G36&lt;&gt;"",", '"&amp; VLOOKUP(G36,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H36&lt;&gt;"", ", range: '"&amp;H36&amp;"'", "")&amp;IF(J36&lt;&gt;"", ", damage: '"&amp;J36&amp;"'", "")&amp;IF(L36&lt;&gt;"", ", capacity: '"&amp;L36&amp;"'", "")&amp;IF(M36&lt;&gt;"", ", cost: '"&amp;M36&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O36, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '09-chikage-o-n-2': {megami: 'chikage', name: '毒針', ruby: 'どくばり', baseType: 'normal', types: ['attack'], range: '4', damage: '1/1', text: '【攻撃後】毒袋から「麻痺毒」「幻覚毒」「弛緩毒」のいずれか1枚を選び、そのカードを相手の山札の一番上に置く。'}</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="24" x14ac:dyDescent="0.15">
+        <v>300</v>
+      </c>
+      <c r="K36" s="13"/>
+      <c r="P36" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="3" t="str">
+        <f>", '"&amp;A36&amp;"': {megami: '"&amp;B36&amp;"', name: '"&amp;C36&amp;"', ruby: '"&amp;D36&amp;"', baseType: '"&amp;VLOOKUP(E36,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F36,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G36&lt;&gt;"",", '"&amp; VLOOKUP(G36,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H36&lt;&gt;"", ", range: '"&amp;H36&amp;"'", "")&amp;IF(J36&lt;&gt;"", ", damage: '"&amp;J36&amp;"'", "")&amp;IF(L36&lt;&gt;"", ", capacity: '"&amp;L36&amp;"'", "")&amp;IF(M36&lt;&gt;"", ", cost: '"&amp;M36&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P36, CHAR(10), "\n")&amp;"'"&amp;IF(N36="○", ", sealable: true", "")&amp;IF(O36="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '07-shinra-o-n-2': {megami: 'shinra', name: '反論', ruby: 'はんろん', baseType: 'normal', types: ['attack', 'reaction'], range: '2-7', damage: '1/-', text: '【攻撃後】対応した切札でなく、オーラへのダメージが3以上である《攻撃》のダメージを打ち消す。 \n【攻撃後】相手はカードを1枚引く。'}</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="36" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>156</v>
+        <v>278</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>166</v>
+        <v>275</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>173</v>
+        <v>264</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>192</v>
+        <v>289</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>7</v>
@@ -2913,82 +4019,67 @@
         <v>8</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>188</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="I37" s="13"/>
       <c r="J37" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="O37" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q37" s="3" t="str">
-        <f>", '"&amp;A37&amp;"': {megami: '"&amp;B37&amp;"', name: '"&amp;C37&amp;"', ruby: '"&amp;D37&amp;"', baseType: '"&amp;VLOOKUP(E37,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F37,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G37&lt;&gt;"",", '"&amp; VLOOKUP(G37,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H37&lt;&gt;"", ", range: '"&amp;H37&amp;"'", "")&amp;IF(J37&lt;&gt;"", ", damage: '"&amp;J37&amp;"'", "")&amp;IF(L37&lt;&gt;"", ", capacity: '"&amp;L37&amp;"'", "")&amp;IF(M37&lt;&gt;"", ", cost: '"&amp;M37&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O37, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '09-chikage-o-n-3': {megami: 'chikage', name: '遁術', ruby: 'とんじゅつ', baseType: 'normal', types: ['attack', 'reaction'], range: '1-3', damage: '1/-', text: '【攻撃後】自オーラ→間合：2 \n【攻撃後】このターン中、全てのプレイヤーは基本動作《前進》を行えない。'}</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
+        <v>301</v>
+      </c>
+      <c r="K37" s="13"/>
+      <c r="P37" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q37" s="13"/>
+      <c r="R37" s="3" t="str">
+        <f>", '"&amp;A37&amp;"': {megami: '"&amp;B37&amp;"', name: '"&amp;C37&amp;"', ruby: '"&amp;D37&amp;"', baseType: '"&amp;VLOOKUP(E37,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F37,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G37&lt;&gt;"",", '"&amp; VLOOKUP(G37,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H37&lt;&gt;"", ", range: '"&amp;H37&amp;"'", "")&amp;IF(J37&lt;&gt;"", ", damage: '"&amp;J37&amp;"'", "")&amp;IF(L37&lt;&gt;"", ", capacity: '"&amp;L37&amp;"'", "")&amp;IF(M37&lt;&gt;"", ", cost: '"&amp;M37&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P37, CHAR(10), "\n")&amp;"'"&amp;IF(N37="○", ", sealable: true", "")&amp;IF(O37="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '07-shinra-o-n-3': {megami: 'shinra', name: '詭弁', ruby: 'きべん', baseType: 'normal', types: ['attack', 'fullpower'], range: '3-8', damage: '-/1', text: '【攻撃後】計略を実行し、次の計略を準備する。 \n[神算] 相手の山札の上から3枚を伏せ札にする。 \n[鬼謀] 相手の捨て札にあるカードを1枚選び、それを使用してもよい。'}</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
-        <v>157</v>
+        <v>279</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>166</v>
+        <v>275</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>174</v>
+        <v>265</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>193</v>
+        <v>290</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="O38" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q38" s="3" t="str">
-        <f>", '"&amp;A38&amp;"': {megami: '"&amp;B38&amp;"', name: '"&amp;C38&amp;"', ruby: '"&amp;D38&amp;"', baseType: '"&amp;VLOOKUP(E38,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F38,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G38&lt;&gt;"",", '"&amp; VLOOKUP(G38,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H38&lt;&gt;"", ", range: '"&amp;H38&amp;"'", "")&amp;IF(J38&lt;&gt;"", ", damage: '"&amp;J38&amp;"'", "")&amp;IF(L38&lt;&gt;"", ", capacity: '"&amp;L38&amp;"'", "")&amp;IF(M38&lt;&gt;"", ", cost: '"&amp;M38&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O38, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '09-chikage-o-n-4': {megami: 'chikage', name: '首切り', ruby: 'くびきり', baseType: 'normal', types: ['attack', 'fullpower'], range: '0-3', damage: '2/3', text: '【攻撃後】相手の手札が2枚以上あるならば、相手は手札を1枚捨て札にする。'}</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="I38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="P38" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="3" t="str">
+        <f>", '"&amp;A38&amp;"': {megami: '"&amp;B38&amp;"', name: '"&amp;C38&amp;"', ruby: '"&amp;D38&amp;"', baseType: '"&amp;VLOOKUP(E38,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F38,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G38&lt;&gt;"",", '"&amp; VLOOKUP(G38,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H38&lt;&gt;"", ", range: '"&amp;H38&amp;"'", "")&amp;IF(J38&lt;&gt;"", ", damage: '"&amp;J38&amp;"'", "")&amp;IF(L38&lt;&gt;"", ", capacity: '"&amp;L38&amp;"'", "")&amp;IF(M38&lt;&gt;"", ", cost: '"&amp;M38&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P38, CHAR(10), "\n")&amp;"'"&amp;IF(N38="○", ", sealable: true", "")&amp;IF(O38="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '07-shinra-o-n-4': {megami: 'shinra', name: '引用', ruby: 'いんよう', baseType: 'normal', types: ['action'], text: '相手の手札を見て、《攻撃》カードを1枚選んでもよい。そうした場合、そのカードを使用するか伏せ札にする。その後、そのカードが《全力》を持つならば現在のフェイズを終了する。'}</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="36" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>158</v>
+        <v>280</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>166</v>
+        <v>275</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>176</v>
+        <v>266</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>7</v>
@@ -2996,86 +4087,101 @@
       <c r="F39" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O39" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q39" s="3" t="str">
-        <f>", '"&amp;A39&amp;"': {megami: '"&amp;B39&amp;"', name: '"&amp;C39&amp;"', ruby: '"&amp;D39&amp;"', baseType: '"&amp;VLOOKUP(E39,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F39,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G39&lt;&gt;"",", '"&amp; VLOOKUP(G39,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H39&lt;&gt;"", ", range: '"&amp;H39&amp;"'", "")&amp;IF(J39&lt;&gt;"", ", damage: '"&amp;J39&amp;"'", "")&amp;IF(L39&lt;&gt;"", ", capacity: '"&amp;L39&amp;"'", "")&amp;IF(M39&lt;&gt;"", ", cost: '"&amp;M39&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O39, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '09-chikage-o-n-5': {megami: 'chikage', name: '毒霧', ruby: 'どくぎり', baseType: 'normal', types: ['action'], text: '毒袋から「麻痺毒」「幻覚毒」「弛緩毒」のいずれか1枚を選び、そのカードを相手の手札に加える。'}</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" ht="36" x14ac:dyDescent="0.15">
+      <c r="G39" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="P39" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="3" t="str">
+        <f>", '"&amp;A39&amp;"': {megami: '"&amp;B39&amp;"', name: '"&amp;C39&amp;"', ruby: '"&amp;D39&amp;"', baseType: '"&amp;VLOOKUP(E39,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F39,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G39&lt;&gt;"",", '"&amp; VLOOKUP(G39,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H39&lt;&gt;"", ", range: '"&amp;H39&amp;"'", "")&amp;IF(J39&lt;&gt;"", ", damage: '"&amp;J39&amp;"'", "")&amp;IF(L39&lt;&gt;"", ", capacity: '"&amp;L39&amp;"'", "")&amp;IF(M39&lt;&gt;"", ", cost: '"&amp;M39&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P39, CHAR(10), "\n")&amp;"'"&amp;IF(N39="○", ", sealable: true", "")&amp;IF(O39="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '07-shinra-o-n-5': {megami: 'shinra', name: '煽動', ruby: 'せんどう', baseType: 'normal', types: ['action', 'reaction'], text: '計略を実行し、次の計略を準備する。 \n[神算] ダスト→間合：1 \n[鬼謀] 間合→相オーラ：1'}</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="48" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>159</v>
+        <v>281</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>166</v>
+        <v>275</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>177</v>
+        <v>267</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>195</v>
+        <v>292</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>52</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="I40" s="13"/>
+      <c r="K40" s="13"/>
       <c r="L40" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="O40" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q40" s="3" t="str">
-        <f>", '"&amp;A40&amp;"': {megami: '"&amp;B40&amp;"', name: '"&amp;C40&amp;"', ruby: '"&amp;D40&amp;"', baseType: '"&amp;VLOOKUP(E40,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F40,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G40&lt;&gt;"",", '"&amp; VLOOKUP(G40,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H40&lt;&gt;"", ", range: '"&amp;H40&amp;"'", "")&amp;IF(J40&lt;&gt;"", ", damage: '"&amp;J40&amp;"'", "")&amp;IF(L40&lt;&gt;"", ", capacity: '"&amp;L40&amp;"'", "")&amp;IF(M40&lt;&gt;"", ", cost: '"&amp;M40&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O40, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '09-chikage-o-n-6': {megami: 'chikage', name: '抜き足', ruby: 'ぬきあし', baseType: 'normal', types: ['enhance'], capacity: '4', text: '隙 \n【展開中】現在の間合は2減少する。 \n(間合は0未満にならない)'}</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+      <c r="P40" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q40" s="13"/>
+      <c r="R40" s="3" t="str">
+        <f>", '"&amp;A40&amp;"': {megami: '"&amp;B40&amp;"', name: '"&amp;C40&amp;"', ruby: '"&amp;D40&amp;"', baseType: '"&amp;VLOOKUP(E40,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F40,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G40&lt;&gt;"",", '"&amp; VLOOKUP(G40,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H40&lt;&gt;"", ", range: '"&amp;H40&amp;"'", "")&amp;IF(J40&lt;&gt;"", ", damage: '"&amp;J40&amp;"'", "")&amp;IF(L40&lt;&gt;"", ", capacity: '"&amp;L40&amp;"'", "")&amp;IF(M40&lt;&gt;"", ", cost: '"&amp;M40&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P40, CHAR(10), "\n")&amp;"'"&amp;IF(N40="○", ", sealable: true", "")&amp;IF(O40="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '07-shinra-o-n-6': {megami: 'shinra', name: '壮語', ruby: 'そうご', baseType: 'normal', types: ['enhance'], capacity: '2', text: '【破棄時】計略を実行し、次の計略を準備する。 \n[神算] あなたの集中力は1増加し、このカードを山札の一番上に置く。 \n[鬼謀] 相手は手札が2枚以上ならば、手札を1枚になるまで捨て札にする。相手の集中力は0になる。'}</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="24" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
-        <v>160</v>
+        <v>282</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>166</v>
+        <v>275</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>178</v>
+        <v>268</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>196</v>
+        <v>293</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>52</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="I41" s="13"/>
+      <c r="K41" s="13"/>
       <c r="L41" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="O41" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q41" s="3" t="str">
-        <f>", '"&amp;A41&amp;"': {megami: '"&amp;B41&amp;"', name: '"&amp;C41&amp;"', ruby: '"&amp;D41&amp;"', baseType: '"&amp;VLOOKUP(E41,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F41,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G41&lt;&gt;"",", '"&amp; VLOOKUP(G41,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H41&lt;&gt;"", ", range: '"&amp;H41&amp;"'", "")&amp;IF(J41&lt;&gt;"", ", damage: '"&amp;J41&amp;"'", "")&amp;IF(L41&lt;&gt;"", ", capacity: '"&amp;L41&amp;"'", "")&amp;IF(M41&lt;&gt;"", ", cost: '"&amp;M41&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O41, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '09-chikage-o-n-7': {megami: 'chikage', name: '泥濘', ruby: 'でいねい', baseType: 'normal', types: ['enhance'], capacity: '2', text: '【展開中】相手は基本動作《後退》と《離脱》を行えない。'}</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="P41" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q41" s="13"/>
+      <c r="R41" s="3" t="str">
+        <f>", '"&amp;A41&amp;"': {megami: '"&amp;B41&amp;"', name: '"&amp;C41&amp;"', ruby: '"&amp;D41&amp;"', baseType: '"&amp;VLOOKUP(E41,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F41,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G41&lt;&gt;"",", '"&amp; VLOOKUP(G41,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H41&lt;&gt;"", ", range: '"&amp;H41&amp;"'", "")&amp;IF(J41&lt;&gt;"", ", damage: '"&amp;J41&amp;"'", "")&amp;IF(L41&lt;&gt;"", ", capacity: '"&amp;L41&amp;"'", "")&amp;IF(M41&lt;&gt;"", ", cost: '"&amp;M41&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P41, CHAR(10), "\n")&amp;"'"&amp;IF(N41="○", ", sealable: true", "")&amp;IF(O41="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '07-shinra-o-n-7': {megami: 'shinra', name: '論破', ruby: 'ろんぱ', baseType: 'normal', types: ['enhance'], capacity: '4', text: '【展開時】相手の捨て札にあるカード1枚を選び、このカードの下に封印する。 \n【破棄時】このカードに封印されたカードを相手の捨て札に戻す。', sealable: true}</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="24" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
-        <v>162</v>
+        <v>283</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>166</v>
+        <v>275</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>179</v>
+        <v>269</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>197</v>
+        <v>294</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>19</v>
@@ -3083,872 +4189,1235 @@
       <c r="F42" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="I42" s="13"/>
+      <c r="K42" s="13"/>
       <c r="M42" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="O42" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q42" s="3" t="str">
-        <f>", '"&amp;A42&amp;"': {megami: '"&amp;B42&amp;"', name: '"&amp;C42&amp;"', ruby: '"&amp;D42&amp;"', baseType: '"&amp;VLOOKUP(E42,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F42,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G42&lt;&gt;"",", '"&amp; VLOOKUP(G42,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H42&lt;&gt;"", ", range: '"&amp;H42&amp;"'", "")&amp;IF(J42&lt;&gt;"", ", damage: '"&amp;J42&amp;"'", "")&amp;IF(L42&lt;&gt;"", ", capacity: '"&amp;L42&amp;"'", "")&amp;IF(M42&lt;&gt;"", ", cost: '"&amp;M42&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O42, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '09-chikage-o-s-1': {megami: 'chikage', name: '滅灯の魂毒', ruby: 'ほろびのみたまどく', baseType: 'special', types: ['action'], cost: '3', text: '毒袋から「滅灯毒」を1枚を選び、そのカードを相手の山札の一番上に置く。'}</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="P42" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q42" s="13"/>
+      <c r="R42" s="3" t="str">
+        <f>", '"&amp;A42&amp;"': {megami: '"&amp;B42&amp;"', name: '"&amp;C42&amp;"', ruby: '"&amp;D42&amp;"', baseType: '"&amp;VLOOKUP(E42,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F42,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G42&lt;&gt;"",", '"&amp; VLOOKUP(G42,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H42&lt;&gt;"", ", range: '"&amp;H42&amp;"'", "")&amp;IF(J42&lt;&gt;"", ", damage: '"&amp;J42&amp;"'", "")&amp;IF(L42&lt;&gt;"", ", capacity: '"&amp;L42&amp;"'", "")&amp;IF(M42&lt;&gt;"", ", cost: '"&amp;M42&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P42, CHAR(10), "\n")&amp;"'"&amp;IF(N42="○", ", sealable: true", "")&amp;IF(O42="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '07-shinra-o-s-1': {megami: 'shinra', name: '完全論破', ruby: 'かんぜんろんぱ', baseType: 'special', types: ['action'], cost: '4', text: '相手の捨て札にあるカード1枚を選び、このカードの下に封印する。 \n(ゲーム中に戻ることはない)', sealable: true}</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="60" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
-        <v>163</v>
+        <v>284</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>166</v>
+        <v>275</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>198</v>
+        <v>296</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L43" s="4" t="s">
-        <v>88</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="I43" s="13"/>
+      <c r="K43" s="13"/>
       <c r="M43" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="O43" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q43" s="3" t="str">
-        <f>", '"&amp;A43&amp;"': {megami: '"&amp;B43&amp;"', name: '"&amp;C43&amp;"', ruby: '"&amp;D43&amp;"', baseType: '"&amp;VLOOKUP(E43,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F43,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G43&lt;&gt;"",", '"&amp; VLOOKUP(G43,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H43&lt;&gt;"", ", range: '"&amp;H43&amp;"'", "")&amp;IF(J43&lt;&gt;"", ", damage: '"&amp;J43&amp;"'", "")&amp;IF(L43&lt;&gt;"", ", capacity: '"&amp;L43&amp;"'", "")&amp;IF(M43&lt;&gt;"", ", cost: '"&amp;M43&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O43, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '09-chikage-o-s-2': {megami: 'chikage', name: '叛旗の纏毒', ruby: 'はんきのまといどく', baseType: 'special', types: ['enhance', 'reaction'], capacity: '5', cost: '2', text: '【展開中】相手によるオーラへのダメージかライフへのダメージのどちらかが「-」である《攻撃》は打ち消される。'}</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+      <c r="P43" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q43" s="13"/>
+      <c r="R43" s="3" t="str">
+        <f>", '"&amp;A43&amp;"': {megami: '"&amp;B43&amp;"', name: '"&amp;C43&amp;"', ruby: '"&amp;D43&amp;"', baseType: '"&amp;VLOOKUP(E43,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F43,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G43&lt;&gt;"",", '"&amp; VLOOKUP(G43,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H43&lt;&gt;"", ", range: '"&amp;H43&amp;"'", "")&amp;IF(J43&lt;&gt;"", ", damage: '"&amp;J43&amp;"'", "")&amp;IF(L43&lt;&gt;"", ", capacity: '"&amp;L43&amp;"'", "")&amp;IF(M43&lt;&gt;"", ", cost: '"&amp;M43&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P43, CHAR(10), "\n")&amp;"'"&amp;IF(N43="○", ", sealable: true", "")&amp;IF(O43="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '07-shinra-o-s-2': {megami: 'shinra', name: '皆式理解', ruby: 'かいしきりかい', baseType: 'special', types: ['action'], cost: '2', text: '計略を実行し、次の計略を準備する。 \n[神算] あなたの捨て札または使用済の切札から、消費を支払わずに《付与》カード1枚を使用する。そのカードが《全力》ならば現在のフェイズを終了する。 \n[鬼謀] 切札でない相手の付与札を1枚選ぶ。その上の桜花結晶全てをダストに送る。'}</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="36" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
-        <v>164</v>
+        <v>285</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>166</v>
+        <v>275</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>181</v>
+        <v>271</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>199</v>
+        <v>297</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="K44" s="4" t="s">
-        <v>189</v>
+        <v>48</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="O44" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q44" s="3" t="str">
-        <f>", '"&amp;A44&amp;"': {megami: '"&amp;B44&amp;"', name: '"&amp;C44&amp;"', ruby: '"&amp;D44&amp;"', baseType: '"&amp;VLOOKUP(E44,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F44,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G44&lt;&gt;"",", '"&amp; VLOOKUP(G44,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H44&lt;&gt;"", ", range: '"&amp;H44&amp;"'", "")&amp;IF(J44&lt;&gt;"", ", damage: '"&amp;J44&amp;"'", "")&amp;IF(L44&lt;&gt;"", ", capacity: '"&amp;L44&amp;"'", "")&amp;IF(M44&lt;&gt;"", ", cost: '"&amp;M44&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O44, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '09-chikage-o-s-3': {megami: 'chikage', name: '流転の霞毒', ruby: 'るてんのかすみどく', baseType: 'special', types: ['attack'], range: '3-7', damage: '1/2', cost: '1', text: '再起：相手の手札が2枚以上ある。'}</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" ht="48" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+      <c r="P44" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="3" t="str">
+        <f>", '"&amp;A44&amp;"': {megami: '"&amp;B44&amp;"', name: '"&amp;C44&amp;"', ruby: '"&amp;D44&amp;"', baseType: '"&amp;VLOOKUP(E44,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F44,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G44&lt;&gt;"",", '"&amp; VLOOKUP(G44,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H44&lt;&gt;"", ", range: '"&amp;H44&amp;"'", "")&amp;IF(J44&lt;&gt;"", ", damage: '"&amp;J44&amp;"'", "")&amp;IF(L44&lt;&gt;"", ", capacity: '"&amp;L44&amp;"'", "")&amp;IF(M44&lt;&gt;"", ", cost: '"&amp;M44&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P44, CHAR(10), "\n")&amp;"'"&amp;IF(N44="○", ", sealable: true", "")&amp;IF(O44="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '07-shinra-o-s-3': {megami: 'shinra', name: '天地反駁', ruby: 'てんちはんぱく', baseType: 'special', types: ['enhance', 'fullpower'], capacity: '5', cost: '2', text: '【展開中】あなたの《攻撃》のオーラへのダメージとライフへのダメージを入れ替える。 \n（ダメージの入れ替えは、ダメージの増減より先に適用される）'}</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="48" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
-        <v>165</v>
+        <v>286</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>166</v>
+        <v>275</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>182</v>
+        <v>272</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>200</v>
+        <v>298</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G45" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="P45" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q45" s="13"/>
+      <c r="R45" s="3" t="str">
+        <f>", '"&amp;A45&amp;"': {megami: '"&amp;B45&amp;"', name: '"&amp;C45&amp;"', ruby: '"&amp;D45&amp;"', baseType: '"&amp;VLOOKUP(E45,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F45,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G45&lt;&gt;"",", '"&amp; VLOOKUP(G45,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H45&lt;&gt;"", ", range: '"&amp;H45&amp;"'", "")&amp;IF(J45&lt;&gt;"", ", damage: '"&amp;J45&amp;"'", "")&amp;IF(L45&lt;&gt;"", ", capacity: '"&amp;L45&amp;"'", "")&amp;IF(M45&lt;&gt;"", ", cost: '"&amp;M45&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P45, CHAR(10), "\n")&amp;"'"&amp;IF(N45="○", ", sealable: true", "")&amp;IF(O45="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '07-shinra-o-s-4': {megami: 'shinra', name: '森羅判証', ruby: 'しんらばんしょう', baseType: 'special', types: ['enhance'], capacity: '6', cost: '6', text: '【展開時】ダスト→自ライフ：2 \n【展開中】あなたの他の付与札が破棄された時、相手のライフに1ダメージを与える。 \n【破棄時】あなたは敗北する。'}</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="36" x14ac:dyDescent="0.15">
+      <c r="A46" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="I46" s="13"/>
+      <c r="J46" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="K46" s="13"/>
+      <c r="P46" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q46" s="13"/>
+      <c r="R46" s="3" t="str">
+        <f>", '"&amp;A46&amp;"': {megami: '"&amp;B46&amp;"', name: '"&amp;C46&amp;"', ruby: '"&amp;D46&amp;"', baseType: '"&amp;VLOOKUP(E46,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F46,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G46&lt;&gt;"",", '"&amp; VLOOKUP(G46,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H46&lt;&gt;"", ", range: '"&amp;H46&amp;"'", "")&amp;IF(J46&lt;&gt;"", ", damage: '"&amp;J46&amp;"'", "")&amp;IF(L46&lt;&gt;"", ", capacity: '"&amp;L46&amp;"'", "")&amp;IF(M46&lt;&gt;"", ", cost: '"&amp;M46&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P46, CHAR(10), "\n")&amp;"'"&amp;IF(N46="○", ", sealable: true", "")&amp;IF(O46="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '08-hagane-o-n-1': {megami: 'hagane', name: '遠心撃', ruby: 'えんしんげき', baseType: 'normal', types: ['attack'], range: '2-6', damage: '5/3', text: '遠心 \n【攻撃後】現在のターンがあなたのターンならば、あなたと相手の手札を全て伏せ札にし、あなたの集中力は0になり、現在のフェイズを終了する。'}</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="24" x14ac:dyDescent="0.15">
+      <c r="A47" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="I47" s="13"/>
+      <c r="J47" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="K47" s="13"/>
+      <c r="P47" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q47" s="13"/>
+      <c r="R47" s="3" t="str">
+        <f>", '"&amp;A47&amp;"': {megami: '"&amp;B47&amp;"', name: '"&amp;C47&amp;"', ruby: '"&amp;D47&amp;"', baseType: '"&amp;VLOOKUP(E47,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F47,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G47&lt;&gt;"",", '"&amp; VLOOKUP(G47,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H47&lt;&gt;"", ", range: '"&amp;H47&amp;"'", "")&amp;IF(J47&lt;&gt;"", ", damage: '"&amp;J47&amp;"'", "")&amp;IF(L47&lt;&gt;"", ", capacity: '"&amp;L47&amp;"'", "")&amp;IF(M47&lt;&gt;"", ", cost: '"&amp;M47&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P47, CHAR(10), "\n")&amp;"'"&amp;IF(N47="○", ", sealable: true", "")&amp;IF(O47="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '08-hagane-o-n-2': {megami: 'hagane', name: '砂風塵', ruby: 'さふうじん', baseType: 'normal', types: ['attack'], range: '0-6', damage: '1/-', text: '【攻撃後】現在の間合がターン開始時の間合から2以上変化しているならば、相手の手札を1枚無作為に選び、それを捨て札にする。'}</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="24" x14ac:dyDescent="0.15">
+      <c r="A48" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L45" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="M45" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="O45" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q45" s="3" t="str">
-        <f>", '"&amp;A45&amp;"': {megami: '"&amp;B45&amp;"', name: '"&amp;C45&amp;"', ruby: '"&amp;D45&amp;"', baseType: '"&amp;VLOOKUP(E45,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F45,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G45&lt;&gt;"",", '"&amp; VLOOKUP(G45,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H45&lt;&gt;"", ", range: '"&amp;H45&amp;"'", "")&amp;IF(J45&lt;&gt;"", ", damage: '"&amp;J45&amp;"'", "")&amp;IF(L45&lt;&gt;"", ", capacity: '"&amp;L45&amp;"'", "")&amp;IF(M45&lt;&gt;"", ", cost: '"&amp;M45&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O45, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '09-chikage-o-s-4': {megami: 'chikage', name: '闇昏千影の生きる道', ruby: 'やみくらちかげのいきるみち', baseType: 'special', types: ['enhance', 'fullpower'], capacity: '4', cost: '5', text: '【展開中】あなたが1以上のライフへのダメージを受けた時、このカードの上の桜花結晶は全てダストに送られ、このカードは未使用に戻る。 \n(破棄時効果は失敗する) \n【破棄時】あなたの他の切札が全て使用済ならば、あなたは勝利する。'}</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" ht="48" x14ac:dyDescent="0.15">
-      <c r="A46" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O46" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q46" s="3" t="str">
-        <f>", '"&amp;A46&amp;"': {megami: '"&amp;B46&amp;"', name: '"&amp;C46&amp;"', ruby: '"&amp;D46&amp;"', baseType: '"&amp;VLOOKUP(E46,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F46,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G46&lt;&gt;"",", '"&amp; VLOOKUP(G46,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H46&lt;&gt;"", ", range: '"&amp;H46&amp;"'", "")&amp;IF(J46&lt;&gt;"", ", damage: '"&amp;J46&amp;"'", "")&amp;IF(L46&lt;&gt;"", ", capacity: '"&amp;L46&amp;"'", "")&amp;IF(M46&lt;&gt;"", ", cost: '"&amp;M46&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O46, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '09-chikage-o-p-1': {megami: 'chikage', name: '麻痺毒', ruby: 'まひどく', baseType: 'extra', types: ['action'], text: '毒（このカードは伏せ札にできない） \n【常時】このターン中にあなたが基本動作を行ったならば、このカードは使用できない。 \nこのカードを相手の毒袋に戻す。その後、このフェイズを終了する。'}</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" ht="36" x14ac:dyDescent="0.15">
-      <c r="A47" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O47" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q47" s="3" t="str">
-        <f>", '"&amp;A47&amp;"': {megami: '"&amp;B47&amp;"', name: '"&amp;C47&amp;"', ruby: '"&amp;D47&amp;"', baseType: '"&amp;VLOOKUP(E47,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F47,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G47&lt;&gt;"",", '"&amp; VLOOKUP(G47,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H47&lt;&gt;"", ", range: '"&amp;H47&amp;"'", "")&amp;IF(J47&lt;&gt;"", ", damage: '"&amp;J47&amp;"'", "")&amp;IF(L47&lt;&gt;"", ", capacity: '"&amp;L47&amp;"'", "")&amp;IF(M47&lt;&gt;"", ", cost: '"&amp;M47&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O47, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '09-chikage-o-p-2': {megami: 'chikage', name: '幻覚毒', ruby: 'げんかくどく', baseType: 'extra', types: ['action'], text: '毒（このカードは伏せ札にできない） \nこのカードを相手の毒袋に戻す。 \n自フレア→ダスト：2'}</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" ht="36" x14ac:dyDescent="0.15">
-      <c r="A48" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="L48" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="O48" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q48" s="3" t="str">
-        <f>", '"&amp;A48&amp;"': {megami: '"&amp;B48&amp;"', name: '"&amp;C48&amp;"', ruby: '"&amp;D48&amp;"', baseType: '"&amp;VLOOKUP(E48,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F48,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G48&lt;&gt;"",", '"&amp; VLOOKUP(G48,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H48&lt;&gt;"", ", range: '"&amp;H48&amp;"'", "")&amp;IF(J48&lt;&gt;"", ", damage: '"&amp;J48&amp;"'", "")&amp;IF(L48&lt;&gt;"", ", capacity: '"&amp;L48&amp;"'", "")&amp;IF(M48&lt;&gt;"", ", cost: '"&amp;M48&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O48, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '09-chikage-o-p-3': {megami: 'chikage', name: '弛緩毒', ruby: 'しかんどく', baseType: 'extra', types: ['enhance'], capacity: '3', text: '毒（このカードは伏せ札にできない） \n【展開中】あなたは《攻撃》カードを使用できない。 \n【破棄時】このカードを相手の毒袋に戻す。'}</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" ht="24" x14ac:dyDescent="0.15">
+      <c r="H48" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="I48" s="13"/>
+      <c r="J48" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="K48" s="13"/>
+      <c r="P48" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q48" s="13"/>
+      <c r="R48" s="3" t="str">
+        <f>", '"&amp;A48&amp;"': {megami: '"&amp;B48&amp;"', name: '"&amp;C48&amp;"', ruby: '"&amp;D48&amp;"', baseType: '"&amp;VLOOKUP(E48,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F48,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G48&lt;&gt;"",", '"&amp; VLOOKUP(G48,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H48&lt;&gt;"", ", range: '"&amp;H48&amp;"'", "")&amp;IF(J48&lt;&gt;"", ", damage: '"&amp;J48&amp;"'", "")&amp;IF(L48&lt;&gt;"", ", capacity: '"&amp;L48&amp;"'", "")&amp;IF(M48&lt;&gt;"", ", cost: '"&amp;M48&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P48, CHAR(10), "\n")&amp;"'"&amp;IF(N48="○", ", sealable: true", "")&amp;IF(O48="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '08-hagane-o-n-3': {megami: 'hagane', name: '大地砕き', ruby: 'だいちくだき', baseType: 'normal', types: ['attack', 'fullpower'], range: '0-3', damage: '2/-', text: '対応不可 \n【攻撃後】相手の集中力は0になり、相手を畏縮させる。'}</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
-        <v>170</v>
+        <v>316</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>166</v>
+        <v>324</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>186</v>
+        <v>330</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>204</v>
+        <v>345</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O49" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q49" s="3" t="str">
-        <f>", '"&amp;A49&amp;"': {megami: '"&amp;B49&amp;"', name: '"&amp;C49&amp;"', ruby: '"&amp;D49&amp;"', baseType: '"&amp;VLOOKUP(E49,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F49,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G49&lt;&gt;"",", '"&amp; VLOOKUP(G49,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H49&lt;&gt;"", ", range: '"&amp;H49&amp;"'", "")&amp;IF(J49&lt;&gt;"", ", damage: '"&amp;J49&amp;"'", "")&amp;IF(L49&lt;&gt;"", ", capacity: '"&amp;L49&amp;"'", "")&amp;IF(M49&lt;&gt;"", ", cost: '"&amp;M49&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(O49, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '09-chikage-o-p-4': {megami: 'chikage', name: '滅灯毒', ruby: 'ほろびどく', baseType: 'extra', types: ['action'], text: '毒（このカードは伏せ札にできない） \n自オーラ→ダスト：3'}</v>
+      <c r="I49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="P49" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q49" s="13"/>
+      <c r="R49" s="3" t="str">
+        <f>", '"&amp;A49&amp;"': {megami: '"&amp;B49&amp;"', name: '"&amp;C49&amp;"', ruby: '"&amp;D49&amp;"', baseType: '"&amp;VLOOKUP(E49,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F49,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G49&lt;&gt;"",", '"&amp; VLOOKUP(G49,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H49&lt;&gt;"", ", range: '"&amp;H49&amp;"'", "")&amp;IF(J49&lt;&gt;"", ", damage: '"&amp;J49&amp;"'", "")&amp;IF(L49&lt;&gt;"", ", capacity: '"&amp;L49&amp;"'", "")&amp;IF(M49&lt;&gt;"", ", cost: '"&amp;M49&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P49, CHAR(10), "\n")&amp;"'"&amp;IF(N49="○", ", sealable: true", "")&amp;IF(O49="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '08-hagane-o-n-4': {megami: 'hagane', name: '超反発', ruby: 'ちょうはんぱつ', baseType: 'normal', types: ['action'], text: '現在の間合が4以下ならば、相フレア→間合：1'}</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="24" x14ac:dyDescent="0.15">
+      <c r="A50" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I50" s="13"/>
+      <c r="K50" s="13"/>
+      <c r="P50" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q50" s="13"/>
+      <c r="R50" s="3" t="str">
+        <f>", '"&amp;A50&amp;"': {megami: '"&amp;B50&amp;"', name: '"&amp;C50&amp;"', ruby: '"&amp;D50&amp;"', baseType: '"&amp;VLOOKUP(E50,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F50,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G50&lt;&gt;"",", '"&amp; VLOOKUP(G50,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H50&lt;&gt;"", ", range: '"&amp;H50&amp;"'", "")&amp;IF(J50&lt;&gt;"", ", damage: '"&amp;J50&amp;"'", "")&amp;IF(L50&lt;&gt;"", ", capacity: '"&amp;L50&amp;"'", "")&amp;IF(M50&lt;&gt;"", ", cost: '"&amp;M50&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P50, CHAR(10), "\n")&amp;"'"&amp;IF(N50="○", ", sealable: true", "")&amp;IF(O50="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '08-hagane-o-n-5': {megami: 'hagane', name: '円舞錬', ruby: 'えんぶれん', baseType: 'normal', types: ['action'], text: '遠心 \n相手のフレアが3以上ならば、相フレア→自オーラ：2'}</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="60" x14ac:dyDescent="0.15">
+      <c r="A51" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I51" s="13"/>
+      <c r="K51" s="13"/>
+      <c r="P51" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q51" s="13"/>
+      <c r="R51" s="3" t="str">
+        <f>", '"&amp;A51&amp;"': {megami: '"&amp;B51&amp;"', name: '"&amp;C51&amp;"', ruby: '"&amp;D51&amp;"', baseType: '"&amp;VLOOKUP(E51,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F51,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G51&lt;&gt;"",", '"&amp; VLOOKUP(G51,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H51&lt;&gt;"", ", range: '"&amp;H51&amp;"'", "")&amp;IF(J51&lt;&gt;"", ", damage: '"&amp;J51&amp;"'", "")&amp;IF(L51&lt;&gt;"", ", capacity: '"&amp;L51&amp;"'", "")&amp;IF(M51&lt;&gt;"", ", cost: '"&amp;M51&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P51, CHAR(10), "\n")&amp;"'"&amp;IF(N51="○", ", sealable: true", "")&amp;IF(O51="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '08-hagane-o-n-6': {megami: 'hagane', name: '鐘鳴らし', ruby: 'かねならし', baseType: 'normal', types: ['action'], text: '遠心 \n以下から１つを選ぶ。\n・このターンにあなたが次に行う《攻撃》は対応不可を得る。\n・このターンにあなたが次に行う《攻撃》はオーラへのダメージが3以上ならば+0/+1、そうでないならば+2/+0となる。'}</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="24" x14ac:dyDescent="0.15">
+      <c r="A52" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I52" s="13"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="P52" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q52" s="13"/>
+      <c r="R52" s="3" t="str">
+        <f>", '"&amp;A52&amp;"': {megami: '"&amp;B52&amp;"', name: '"&amp;C52&amp;"', ruby: '"&amp;D52&amp;"', baseType: '"&amp;VLOOKUP(E52,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F52,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G52&lt;&gt;"",", '"&amp; VLOOKUP(G52,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H52&lt;&gt;"", ", range: '"&amp;H52&amp;"'", "")&amp;IF(J52&lt;&gt;"", ", damage: '"&amp;J52&amp;"'", "")&amp;IF(L52&lt;&gt;"", ", capacity: '"&amp;L52&amp;"'", "")&amp;IF(M52&lt;&gt;"", ", cost: '"&amp;M52&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P52, CHAR(10), "\n")&amp;"'"&amp;IF(N52="○", ", sealable: true", "")&amp;IF(O52="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '08-hagane-o-n-7': {megami: 'hagane', name: '引力場', ruby: 'いんりょくば', baseType: 'normal', types: ['enhance'], capacity: '4', text: '【展開時】間合→ダスト：1 \n【展開中】達人の間合は1小さくなる。'}</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" ht="36" x14ac:dyDescent="0.15">
+      <c r="A53" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I53" s="13"/>
+      <c r="J53" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="K53" s="13"/>
+      <c r="M53" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="P53" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q53" s="13"/>
+      <c r="R53" s="3" t="str">
+        <f>", '"&amp;A53&amp;"': {megami: '"&amp;B53&amp;"', name: '"&amp;C53&amp;"', ruby: '"&amp;D53&amp;"', baseType: '"&amp;VLOOKUP(E53,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F53,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G53&lt;&gt;"",", '"&amp; VLOOKUP(G53,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H53&lt;&gt;"", ", range: '"&amp;H53&amp;"'", "")&amp;IF(J53&lt;&gt;"", ", damage: '"&amp;J53&amp;"'", "")&amp;IF(L53&lt;&gt;"", ", capacity: '"&amp;L53&amp;"'", "")&amp;IF(M53&lt;&gt;"", ", cost: '"&amp;M53&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P53, CHAR(10), "\n")&amp;"'"&amp;IF(N53="○", ", sealable: true", "")&amp;IF(O53="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '08-hagane-o-s-1': {megami: 'hagane', name: '大天空クラッシュ', ruby: 'だいてんくうクラッシュ', baseType: 'special', types: ['attack'], range: '0-10', damage: 'X/Y', cost: '5', text: '超克 \n【常時】Xは現在の間合がターン開始時の間合からどれだけ変化しているかに等しい。YはXの半分(切り上げ)に等しい。'}</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A54" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I54" s="13"/>
+      <c r="K54" s="13"/>
+      <c r="M54" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="P54" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q54" s="13"/>
+      <c r="R54" s="3" t="str">
+        <f>", '"&amp;A54&amp;"': {megami: '"&amp;B54&amp;"', name: '"&amp;C54&amp;"', ruby: '"&amp;D54&amp;"', baseType: '"&amp;VLOOKUP(E54,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F54,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G54&lt;&gt;"",", '"&amp; VLOOKUP(G54,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H54&lt;&gt;"", ", range: '"&amp;H54&amp;"'", "")&amp;IF(J54&lt;&gt;"", ", damage: '"&amp;J54&amp;"'", "")&amp;IF(L54&lt;&gt;"", ", capacity: '"&amp;L54&amp;"'", "")&amp;IF(M54&lt;&gt;"", ", cost: '"&amp;M54&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P54, CHAR(10), "\n")&amp;"'"&amp;IF(N54="○", ", sealable: true", "")&amp;IF(O54="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '08-hagane-o-s-2': {megami: 'hagane', name: '大破鐘メガロベル', ruby: 'だいはがねメガロベル', baseType: 'special', types: ['action'], cost: '2', text: 'あなたの他の切札が全て使用済ならば、ダスト→自ライフ：2'}</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" ht="48" x14ac:dyDescent="0.15">
+      <c r="A55" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I55" s="13"/>
+      <c r="K55" s="13"/>
+      <c r="M55" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="P55" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q55" s="13"/>
+      <c r="R55" s="3" t="str">
+        <f>", '"&amp;A55&amp;"': {megami: '"&amp;B55&amp;"', name: '"&amp;C55&amp;"', ruby: '"&amp;D55&amp;"', baseType: '"&amp;VLOOKUP(E55,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F55,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G55&lt;&gt;"",", '"&amp; VLOOKUP(G55,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H55&lt;&gt;"", ", range: '"&amp;H55&amp;"'", "")&amp;IF(J55&lt;&gt;"", ", damage: '"&amp;J55&amp;"'", "")&amp;IF(L55&lt;&gt;"", ", capacity: '"&amp;L55&amp;"'", "")&amp;IF(M55&lt;&gt;"", ", cost: '"&amp;M55&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P55, CHAR(10), "\n")&amp;"'"&amp;IF(N55="○", ", sealable: true", "")&amp;IF(O55="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '08-hagane-o-s-3': {megami: 'hagane', name: '大重力アトラクト', ruby: 'だいじゅうりょくアトラクト', baseType: 'special', types: ['action'], cost: '5', text: '間合→自フレア：3 \n----\n【再起】このターンにあなたが遠心を持つカードを使用しており、このカードを使用していない。'}</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" ht="36" x14ac:dyDescent="0.15">
+      <c r="A56" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I56" s="13"/>
+      <c r="K56" s="13"/>
+      <c r="M56" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="P56" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q56" s="13"/>
+      <c r="R56" s="3" t="str">
+        <f>", '"&amp;A56&amp;"': {megami: '"&amp;B56&amp;"', name: '"&amp;C56&amp;"', ruby: '"&amp;D56&amp;"', baseType: '"&amp;VLOOKUP(E56,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F56,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G56&lt;&gt;"",", '"&amp; VLOOKUP(G56,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H56&lt;&gt;"", ", range: '"&amp;H56&amp;"'", "")&amp;IF(J56&lt;&gt;"", ", damage: '"&amp;J56&amp;"'", "")&amp;IF(L56&lt;&gt;"", ", capacity: '"&amp;L56&amp;"'", "")&amp;IF(M56&lt;&gt;"", ", cost: '"&amp;M56&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P56, CHAR(10), "\n")&amp;"'"&amp;IF(N56="○", ", sealable: true", "")&amp;IF(O56="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '08-hagane-o-s-4': {megami: 'hagane', name: '大山脈リスペクト', ruby: 'だいさんみゃくリスペクト', baseType: 'special', types: ['action'], cost: '4', text: '遠心 \nあなたの捨て札にある異なる《全力》でないカードを2枚まで選び、任意の順番で使用する。'}</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A57" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="I57" s="13"/>
+      <c r="J57" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K57" s="13"/>
+      <c r="Q57" s="13"/>
+      <c r="R57" s="3" t="str">
+        <f>", '"&amp;A57&amp;"': {megami: '"&amp;B57&amp;"', name: '"&amp;C57&amp;"', ruby: '"&amp;D57&amp;"', baseType: '"&amp;VLOOKUP(E57,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F57,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G57&lt;&gt;"",", '"&amp; VLOOKUP(G57,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H57&lt;&gt;"", ", range: '"&amp;H57&amp;"'", "")&amp;IF(J57&lt;&gt;"", ", damage: '"&amp;J57&amp;"'", "")&amp;IF(L57&lt;&gt;"", ", capacity: '"&amp;L57&amp;"'", "")&amp;IF(M57&lt;&gt;"", ", cost: '"&amp;M57&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P57, CHAR(10), "\n")&amp;"'"&amp;IF(N57="○", ", sealable: true", "")&amp;IF(O57="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '09-chikage-o-n-1': {megami: 'chikage', name: '飛苦無', ruby: 'とびくない', baseType: 'normal', types: ['attack'], range: '4-5', damage: '2/2', text: ''}</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A58" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I58" s="13"/>
+      <c r="J58" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K58" s="13"/>
+      <c r="P58" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q58" s="13"/>
+      <c r="R58" s="3" t="str">
+        <f>", '"&amp;A58&amp;"': {megami: '"&amp;B58&amp;"', name: '"&amp;C58&amp;"', ruby: '"&amp;D58&amp;"', baseType: '"&amp;VLOOKUP(E58,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F58,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G58&lt;&gt;"",", '"&amp; VLOOKUP(G58,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H58&lt;&gt;"", ", range: '"&amp;H58&amp;"'", "")&amp;IF(J58&lt;&gt;"", ", damage: '"&amp;J58&amp;"'", "")&amp;IF(L58&lt;&gt;"", ", capacity: '"&amp;L58&amp;"'", "")&amp;IF(M58&lt;&gt;"", ", cost: '"&amp;M58&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P58, CHAR(10), "\n")&amp;"'"&amp;IF(N58="○", ", sealable: true", "")&amp;IF(O58="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '09-chikage-o-n-2': {megami: 'chikage', name: '毒針', ruby: 'どくばり', baseType: 'normal', types: ['attack'], range: '4', damage: '1/1', text: '【攻撃後】毒袋から「麻痺毒」「幻覚毒」「弛緩毒」のいずれか1枚を選び、そのカードを相手の山札の一番上に置く。'}</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" ht="24" x14ac:dyDescent="0.15">
+      <c r="A59" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="I59" s="13"/>
+      <c r="J59" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="K59" s="13"/>
+      <c r="P59" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q59" s="13"/>
+      <c r="R59" s="3" t="str">
+        <f>", '"&amp;A59&amp;"': {megami: '"&amp;B59&amp;"', name: '"&amp;C59&amp;"', ruby: '"&amp;D59&amp;"', baseType: '"&amp;VLOOKUP(E59,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F59,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G59&lt;&gt;"",", '"&amp; VLOOKUP(G59,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H59&lt;&gt;"", ", range: '"&amp;H59&amp;"'", "")&amp;IF(J59&lt;&gt;"", ", damage: '"&amp;J59&amp;"'", "")&amp;IF(L59&lt;&gt;"", ", capacity: '"&amp;L59&amp;"'", "")&amp;IF(M59&lt;&gt;"", ", cost: '"&amp;M59&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P59, CHAR(10), "\n")&amp;"'"&amp;IF(N59="○", ", sealable: true", "")&amp;IF(O59="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '09-chikage-o-n-3': {megami: 'chikage', name: '遁術', ruby: 'とんじゅつ', baseType: 'normal', types: ['attack', 'reaction'], range: '1-3', damage: '1/-', text: '【攻撃後】自オーラ→間合：2 \n【攻撃後】このターン中、全てのプレイヤーは基本動作《前進》を行えない。'}</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A60" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="I60" s="13"/>
+      <c r="J60" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="K60" s="13"/>
+      <c r="P60" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q60" s="13"/>
+      <c r="R60" s="3" t="str">
+        <f>", '"&amp;A60&amp;"': {megami: '"&amp;B60&amp;"', name: '"&amp;C60&amp;"', ruby: '"&amp;D60&amp;"', baseType: '"&amp;VLOOKUP(E60,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F60,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G60&lt;&gt;"",", '"&amp; VLOOKUP(G60,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H60&lt;&gt;"", ", range: '"&amp;H60&amp;"'", "")&amp;IF(J60&lt;&gt;"", ", damage: '"&amp;J60&amp;"'", "")&amp;IF(L60&lt;&gt;"", ", capacity: '"&amp;L60&amp;"'", "")&amp;IF(M60&lt;&gt;"", ", cost: '"&amp;M60&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P60, CHAR(10), "\n")&amp;"'"&amp;IF(N60="○", ", sealable: true", "")&amp;IF(O60="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '09-chikage-o-n-4': {megami: 'chikage', name: '首切り', ruby: 'くびきり', baseType: 'normal', types: ['attack', 'fullpower'], range: '0-3', damage: '2/3', text: '【攻撃後】相手の手札が2枚以上あるならば、相手は手札を1枚捨て札にする。'}</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A61" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>163</v>
+      </c>
       <c r="D61" s="4" t="s">
-        <v>114</v>
+        <v>181</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>229</v>
+        <v>7</v>
       </c>
       <c r="F61" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I61" s="13"/>
+      <c r="K61" s="13"/>
+      <c r="P61" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q61" s="13"/>
+      <c r="R61" s="3" t="str">
+        <f>", '"&amp;A61&amp;"': {megami: '"&amp;B61&amp;"', name: '"&amp;C61&amp;"', ruby: '"&amp;D61&amp;"', baseType: '"&amp;VLOOKUP(E61,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F61,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G61&lt;&gt;"",", '"&amp; VLOOKUP(G61,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H61&lt;&gt;"", ", range: '"&amp;H61&amp;"'", "")&amp;IF(J61&lt;&gt;"", ", damage: '"&amp;J61&amp;"'", "")&amp;IF(L61&lt;&gt;"", ", capacity: '"&amp;L61&amp;"'", "")&amp;IF(M61&lt;&gt;"", ", cost: '"&amp;M61&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P61, CHAR(10), "\n")&amp;"'"&amp;IF(N61="○", ", sealable: true", "")&amp;IF(O61="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '09-chikage-o-n-5': {megami: 'chikage', name: '毒霧', ruby: 'どくぎり', baseType: 'normal', types: ['action'], text: '毒袋から「麻痺毒」「幻覚毒」「弛緩毒」のいずれか1枚を選び、そのカードを相手の手札に加える。'}</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" ht="36" x14ac:dyDescent="0.15">
+      <c r="A62" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I62" s="13"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="P62" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q62" s="13"/>
+      <c r="R62" s="3" t="str">
+        <f>", '"&amp;A62&amp;"': {megami: '"&amp;B62&amp;"', name: '"&amp;C62&amp;"', ruby: '"&amp;D62&amp;"', baseType: '"&amp;VLOOKUP(E62,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F62,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G62&lt;&gt;"",", '"&amp; VLOOKUP(G62,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H62&lt;&gt;"", ", range: '"&amp;H62&amp;"'", "")&amp;IF(J62&lt;&gt;"", ", damage: '"&amp;J62&amp;"'", "")&amp;IF(L62&lt;&gt;"", ", capacity: '"&amp;L62&amp;"'", "")&amp;IF(M62&lt;&gt;"", ", cost: '"&amp;M62&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P62, CHAR(10), "\n")&amp;"'"&amp;IF(N62="○", ", sealable: true", "")&amp;IF(O62="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '09-chikage-o-n-6': {megami: 'chikage', name: '抜き足', ruby: 'ぬきあし', baseType: 'normal', types: ['enhance'], capacity: '4', text: '隙 \n【展開中】現在の間合は2減少する。 \n(間合は0未満にならない)'}</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A63" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I63" s="13"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="P63" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q63" s="13"/>
+      <c r="R63" s="3" t="str">
+        <f>", '"&amp;A63&amp;"': {megami: '"&amp;B63&amp;"', name: '"&amp;C63&amp;"', ruby: '"&amp;D63&amp;"', baseType: '"&amp;VLOOKUP(E63,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F63,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G63&lt;&gt;"",", '"&amp; VLOOKUP(G63,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H63&lt;&gt;"", ", range: '"&amp;H63&amp;"'", "")&amp;IF(J63&lt;&gt;"", ", damage: '"&amp;J63&amp;"'", "")&amp;IF(L63&lt;&gt;"", ", capacity: '"&amp;L63&amp;"'", "")&amp;IF(M63&lt;&gt;"", ", cost: '"&amp;M63&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P63, CHAR(10), "\n")&amp;"'"&amp;IF(N63="○", ", sealable: true", "")&amp;IF(O63="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '09-chikage-o-n-7': {megami: 'chikage', name: '泥濘', ruby: 'でいねい', baseType: 'normal', types: ['enhance'], capacity: '2', text: '【展開中】相手は基本動作《後退》と《離脱》を行えない。'}</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A64" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I64" s="13"/>
+      <c r="K64" s="13"/>
+      <c r="M64" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="P64" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q64" s="13"/>
+      <c r="R64" s="3" t="str">
+        <f>", '"&amp;A64&amp;"': {megami: '"&amp;B64&amp;"', name: '"&amp;C64&amp;"', ruby: '"&amp;D64&amp;"', baseType: '"&amp;VLOOKUP(E64,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F64,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G64&lt;&gt;"",", '"&amp; VLOOKUP(G64,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H64&lt;&gt;"", ", range: '"&amp;H64&amp;"'", "")&amp;IF(J64&lt;&gt;"", ", damage: '"&amp;J64&amp;"'", "")&amp;IF(L64&lt;&gt;"", ", capacity: '"&amp;L64&amp;"'", "")&amp;IF(M64&lt;&gt;"", ", cost: '"&amp;M64&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P64, CHAR(10), "\n")&amp;"'"&amp;IF(N64="○", ", sealable: true", "")&amp;IF(O64="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '09-chikage-o-s-1': {megami: 'chikage', name: '滅灯の魂毒', ruby: 'ほろびのみたまどく', baseType: 'special', types: ['action'], cost: '3', text: '毒袋から「滅灯毒」を1枚を選び、そのカードを相手の山札の一番上に置く。'}</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A65" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I65" s="13"/>
+      <c r="K65" s="13"/>
+      <c r="L65" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="M65" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="P65" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q65" s="13"/>
+      <c r="R65" s="3" t="str">
+        <f>", '"&amp;A65&amp;"': {megami: '"&amp;B65&amp;"', name: '"&amp;C65&amp;"', ruby: '"&amp;D65&amp;"', baseType: '"&amp;VLOOKUP(E65,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F65,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G65&lt;&gt;"",", '"&amp; VLOOKUP(G65,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H65&lt;&gt;"", ", range: '"&amp;H65&amp;"'", "")&amp;IF(J65&lt;&gt;"", ", damage: '"&amp;J65&amp;"'", "")&amp;IF(L65&lt;&gt;"", ", capacity: '"&amp;L65&amp;"'", "")&amp;IF(M65&lt;&gt;"", ", cost: '"&amp;M65&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P65, CHAR(10), "\n")&amp;"'"&amp;IF(N65="○", ", sealable: true", "")&amp;IF(O65="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '09-chikage-o-s-2': {megami: 'chikage', name: '叛旗の纏毒', ruby: 'はんきのまといどく', baseType: 'special', types: ['enhance', 'reaction'], capacity: '5', cost: '2', text: '【展開中】相手によるオーラへのダメージかライフへのダメージのどちらかが「-」である《攻撃》は打ち消される。'}</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A66" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F66" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G61" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="K61" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="L61" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="M61" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="N61" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="O61" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="P61" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="R61" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="H62" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="K62" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="L62" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="M62" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="P62" s="4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="D63" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="K63" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="L63" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="M63" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="N63" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="O63" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="P63" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q63" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="R63" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="H64" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="I64" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="K64" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="L64" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="M64" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="P64" s="4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="65" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D65" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="I65" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="K65" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="L65" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="M65" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="N65" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="O65" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="P65" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q65" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="R65" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="66" spans="4:18" x14ac:dyDescent="0.15">
       <c r="H66" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="I66" s="4" t="s">
-        <v>232</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="I66" s="13"/>
       <c r="J66" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="K66" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="L66" s="4" t="s">
-        <v>66</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="K66" s="13"/>
       <c r="M66" s="4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="P66" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q66" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="67" spans="4:18" x14ac:dyDescent="0.15">
+        <v>409</v>
+      </c>
+      <c r="Q66" s="13"/>
+      <c r="R66" s="3" t="str">
+        <f>", '"&amp;A66&amp;"': {megami: '"&amp;B66&amp;"', name: '"&amp;C66&amp;"', ruby: '"&amp;D66&amp;"', baseType: '"&amp;VLOOKUP(E66,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F66,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G66&lt;&gt;"",", '"&amp; VLOOKUP(G66,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H66&lt;&gt;"", ", range: '"&amp;H66&amp;"'", "")&amp;IF(J66&lt;&gt;"", ", damage: '"&amp;J66&amp;"'", "")&amp;IF(L66&lt;&gt;"", ", capacity: '"&amp;L66&amp;"'", "")&amp;IF(M66&lt;&gt;"", ", cost: '"&amp;M66&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P66, CHAR(10), "\n")&amp;"'"&amp;IF(N66="○", ", sealable: true", "")&amp;IF(O66="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '09-chikage-o-s-3': {megami: 'chikage', name: '流転の霞毒', ruby: 'るてんのかすみどく', baseType: 'special', types: ['attack'], range: '3-7', damage: '1/2', cost: '1', text: '【再起】相手の手札が2枚以上ある。'}</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" ht="48" x14ac:dyDescent="0.15">
+      <c r="A67" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>169</v>
+      </c>
       <c r="D67" s="4" t="s">
-        <v>46</v>
+        <v>187</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>240</v>
+        <v>19</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H67" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="I67" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="K67" s="4" t="s">
-        <v>230</v>
-      </c>
+      <c r="I67" s="13"/>
+      <c r="K67" s="13"/>
       <c r="L67" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M67" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="N67" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="O67" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="P67" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="R67" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="68" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="H68" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="J68" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="K68" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="L68" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="M68" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="P68" s="4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="69" spans="4:18" x14ac:dyDescent="0.15">
+        <v>78</v>
+      </c>
+      <c r="P67" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q67" s="13"/>
+      <c r="R67" s="3" t="str">
+        <f>", '"&amp;A67&amp;"': {megami: '"&amp;B67&amp;"', name: '"&amp;C67&amp;"', ruby: '"&amp;D67&amp;"', baseType: '"&amp;VLOOKUP(E67,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F67,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G67&lt;&gt;"",", '"&amp; VLOOKUP(G67,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H67&lt;&gt;"", ", range: '"&amp;H67&amp;"'", "")&amp;IF(J67&lt;&gt;"", ", damage: '"&amp;J67&amp;"'", "")&amp;IF(L67&lt;&gt;"", ", capacity: '"&amp;L67&amp;"'", "")&amp;IF(M67&lt;&gt;"", ", cost: '"&amp;M67&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P67, CHAR(10), "\n")&amp;"'"&amp;IF(N67="○", ", sealable: true", "")&amp;IF(O67="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '09-chikage-o-s-4': {megami: 'chikage', name: '闇昏千影の生きる道', ruby: 'やみくらちかげのいきるみち', baseType: 'special', types: ['enhance', 'fullpower'], capacity: '4', cost: '5', text: '【展開中】あなたが1以上のライフへのダメージを受けた時、このカードの上の桜花結晶は全てダストに送られ、このカードは未使用に戻る。 \n(破棄時効果は失敗する) \n【破棄時】あなたの他の切札が全て使用済ならば、あなたは勝利する。'}</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" ht="48" x14ac:dyDescent="0.15">
+      <c r="A68" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I68" s="13"/>
+      <c r="K68" s="13"/>
+      <c r="P68" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q68" s="13"/>
+      <c r="R68" s="3" t="str">
+        <f>", '"&amp;A68&amp;"': {megami: '"&amp;B68&amp;"', name: '"&amp;C68&amp;"', ruby: '"&amp;D68&amp;"', baseType: '"&amp;VLOOKUP(E68,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F68,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G68&lt;&gt;"",", '"&amp; VLOOKUP(G68,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H68&lt;&gt;"", ", range: '"&amp;H68&amp;"'", "")&amp;IF(J68&lt;&gt;"", ", damage: '"&amp;J68&amp;"'", "")&amp;IF(L68&lt;&gt;"", ", capacity: '"&amp;L68&amp;"'", "")&amp;IF(M68&lt;&gt;"", ", cost: '"&amp;M68&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P68, CHAR(10), "\n")&amp;"'"&amp;IF(N68="○", ", sealable: true", "")&amp;IF(O68="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '09-chikage-o-p-1': {megami: 'chikage', name: '麻痺毒', ruby: 'まひどく', baseType: 'extra', types: ['action'], text: '毒（このカードは伏せ札にできない） \n【常時】このターン中にあなたが基本動作を行ったならば、このカードは使用できない。 \nこのカードを相手の毒袋に戻す。その後、このフェイズを終了する。'}</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" ht="36" x14ac:dyDescent="0.15">
+      <c r="A69" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>171</v>
+      </c>
       <c r="D69" s="4" t="s">
-        <v>48</v>
+        <v>189</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>241</v>
+        <v>192</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G69" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I69" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K69" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="L69" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="M69" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="N69" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="O69" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="P69" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q69" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="R69" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="70" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="I69" s="13"/>
+      <c r="K69" s="13"/>
+      <c r="P69" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q69" s="13"/>
+      <c r="R69" s="3" t="str">
+        <f>", '"&amp;A69&amp;"': {megami: '"&amp;B69&amp;"', name: '"&amp;C69&amp;"', ruby: '"&amp;D69&amp;"', baseType: '"&amp;VLOOKUP(E69,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F69,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G69&lt;&gt;"",", '"&amp; VLOOKUP(G69,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H69&lt;&gt;"", ", range: '"&amp;H69&amp;"'", "")&amp;IF(J69&lt;&gt;"", ", damage: '"&amp;J69&amp;"'", "")&amp;IF(L69&lt;&gt;"", ", capacity: '"&amp;L69&amp;"'", "")&amp;IF(M69&lt;&gt;"", ", cost: '"&amp;M69&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P69, CHAR(10), "\n")&amp;"'"&amp;IF(N69="○", ", sealable: true", "")&amp;IF(O69="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '09-chikage-o-p-2': {megami: 'chikage', name: '幻覚毒', ruby: 'げんかくどく', baseType: 'extra', types: ['action'], text: '毒（このカードは伏せ札にできない） \nこのカードを相手の毒袋に戻す。 \n自フレア→ダスト：2'}</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" ht="36" x14ac:dyDescent="0.15">
+      <c r="A70" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>172</v>
+      </c>
       <c r="D70" s="4" t="s">
-        <v>50</v>
+        <v>190</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>242</v>
+        <v>192</v>
       </c>
       <c r="F70" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I70" s="13"/>
+      <c r="K70" s="13"/>
+      <c r="L70" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="P70" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q70" s="13"/>
+      <c r="R70" s="3" t="str">
+        <f>", '"&amp;A70&amp;"': {megami: '"&amp;B70&amp;"', name: '"&amp;C70&amp;"', ruby: '"&amp;D70&amp;"', baseType: '"&amp;VLOOKUP(E70,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F70,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G70&lt;&gt;"",", '"&amp; VLOOKUP(G70,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H70&lt;&gt;"", ", range: '"&amp;H70&amp;"'", "")&amp;IF(J70&lt;&gt;"", ", damage: '"&amp;J70&amp;"'", "")&amp;IF(L70&lt;&gt;"", ", capacity: '"&amp;L70&amp;"'", "")&amp;IF(M70&lt;&gt;"", ", cost: '"&amp;M70&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P70, CHAR(10), "\n")&amp;"'"&amp;IF(N70="○", ", sealable: true", "")&amp;IF(O70="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '09-chikage-o-p-3': {megami: 'chikage', name: '弛緩毒', ruby: 'しかんどく', baseType: 'extra', types: ['enhance'], capacity: '3', text: '毒（このカードは伏せ札にできない） \n【展開中】あなたは《攻撃》カードを使用できない。 \n【破棄時】このカードを相手の毒袋に戻す。'}</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" ht="24" x14ac:dyDescent="0.15">
+      <c r="A71" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F71" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G70" s="4" t="s">
+      <c r="I71" s="13"/>
+      <c r="K71" s="13"/>
+      <c r="P71" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q71" s="13"/>
+      <c r="R71" s="3" t="str">
+        <f>", '"&amp;A71&amp;"': {megami: '"&amp;B71&amp;"', name: '"&amp;C71&amp;"', ruby: '"&amp;D71&amp;"', baseType: '"&amp;VLOOKUP(E71,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F71,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G71&lt;&gt;"",", '"&amp; VLOOKUP(G71,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H71&lt;&gt;"", ", range: '"&amp;H71&amp;"'", "")&amp;IF(J71&lt;&gt;"", ", damage: '"&amp;J71&amp;"'", "")&amp;IF(L71&lt;&gt;"", ", capacity: '"&amp;L71&amp;"'", "")&amp;IF(M71&lt;&gt;"", ", cost: '"&amp;M71&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P71, CHAR(10), "\n")&amp;"'"&amp;IF(N71="○", ", sealable: true", "")&amp;IF(O71="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '09-chikage-o-p-4': {megami: 'chikage', name: '滅灯毒', ruby: 'ほろびどく', baseType: 'extra', types: ['action'], text: '毒（このカードは伏せ札にできない） \n自オーラ→ダスト：3'}</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A72" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I72" s="13"/>
+      <c r="K72" s="13"/>
+      <c r="P72" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q72" s="13"/>
+      <c r="R72" s="3" t="str">
+        <f>", '"&amp;A72&amp;"': {megami: '"&amp;B72&amp;"', name: '"&amp;C72&amp;"', ruby: '"&amp;D72&amp;"', baseType: '"&amp;VLOOKUP(E72,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F72,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G72&lt;&gt;"",", '"&amp; VLOOKUP(G72,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H72&lt;&gt;"", ", range: '"&amp;H72&amp;"'", "")&amp;IF(J72&lt;&gt;"", ", damage: '"&amp;J72&amp;"'", "")&amp;IF(L72&lt;&gt;"", ", capacity: '"&amp;L72&amp;"'", "")&amp;IF(M72&lt;&gt;"", ", cost: '"&amp;M72&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P72, CHAR(10), "\n")&amp;"'"&amp;IF(N72="○", ", sealable: true", "")&amp;IF(O72="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '10-kururu-o-n-1': {megami: 'kururu', name: 'えれきてる', ruby: '', baseType: 'normal', types: ['action'], text: '&lt;行行行対対&gt; 相手のライフに1ダメージを与える。 '}</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" ht="36" x14ac:dyDescent="0.15">
+      <c r="A73" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I73" s="13"/>
+      <c r="K73" s="13"/>
+      <c r="P73" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q73" s="13"/>
+      <c r="R73" s="3" t="str">
+        <f>", '"&amp;A73&amp;"': {megami: '"&amp;B73&amp;"', name: '"&amp;C73&amp;"', ruby: '"&amp;D73&amp;"', baseType: '"&amp;VLOOKUP(E73,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F73,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G73&lt;&gt;"",", '"&amp; VLOOKUP(G73,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H73&lt;&gt;"", ", range: '"&amp;H73&amp;"'", "")&amp;IF(J73&lt;&gt;"", ", damage: '"&amp;J73&amp;"'", "")&amp;IF(L73&lt;&gt;"", ", capacity: '"&amp;L73&amp;"'", "")&amp;IF(M73&lt;&gt;"", ", cost: '"&amp;M73&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P73, CHAR(10), "\n")&amp;"'"&amp;IF(N73="○", ", sealable: true", "")&amp;IF(O73="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '10-kururu-o-n-2': {megami: 'kururu', name: 'あくせらー', ruby: '', baseType: 'normal', types: ['action'], text: '&lt;行行付&gt; あなたの手札から《全力》カードを1枚選び、そのカードを使用してもよい。 \n(フェイズは終了しない) '}</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" ht="72" x14ac:dyDescent="0.15">
+      <c r="A74" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G74" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H70" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="I70" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="J70" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K70" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="L70" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="M70" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="N70" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="O70" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="P70" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q70" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="R70" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="71" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="H71" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="I71" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="K71" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="P71" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q71" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="72" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D72" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H72" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I72" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J72" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K72" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="L72" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="M72" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="N72" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="O72" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="P72" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q72" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="R72" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="73" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="Q73" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="74" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D74" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H74" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="I74" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="J74" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="K74" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="L74" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="M74" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="N74" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="O74" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="P74" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q74" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="R74" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="75" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="H75" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="I75" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="J75" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="K75" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="L75" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="M75" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="P75" s="4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="76" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D76" s="4" t="s">
-        <v>58</v>
+      <c r="I74" s="13"/>
+      <c r="K74" s="13"/>
+      <c r="P74" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q74" s="13"/>
+      <c r="R74" s="3" t="str">
+        <f>", '"&amp;A74&amp;"': {megami: '"&amp;B74&amp;"', name: '"&amp;C74&amp;"', ruby: '"&amp;D74&amp;"', baseType: '"&amp;VLOOKUP(E74,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F74,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G74&lt;&gt;"",", '"&amp; VLOOKUP(G74,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H74&lt;&gt;"", ", range: '"&amp;H74&amp;"'", "")&amp;IF(J74&lt;&gt;"", ", damage: '"&amp;J74&amp;"'", "")&amp;IF(L74&lt;&gt;"", ", capacity: '"&amp;L74&amp;"'", "")&amp;IF(M74&lt;&gt;"", ", cost: '"&amp;M74&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P74, CHAR(10), "\n")&amp;"'"&amp;IF(N74="○", ", sealable: true", "")&amp;IF(O74="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '10-kururu-o-n-3': {megami: 'kururu', name: 'くるるーん', ruby: '', baseType: 'normal', types: ['action', 'reaction'], text: '【常時】このカードは対応でしか使用できない。 \n以下から2つまでを選び、任意の順に行う。 \n(同じものを2回選ぶことはできない)\n・カードを1枚引く。\n・伏せ札1枚を山札の底に置く。\n・相手は手札を1枚捨て札にする。'}</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" ht="36" x14ac:dyDescent="0.15">
+      <c r="A75" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I75" s="13"/>
+      <c r="K75" s="13"/>
+      <c r="P75" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q75" s="13"/>
+      <c r="R75" s="3" t="str">
+        <f>", '"&amp;A75&amp;"': {megami: '"&amp;B75&amp;"', name: '"&amp;C75&amp;"', ruby: '"&amp;D75&amp;"', baseType: '"&amp;VLOOKUP(E75,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F75,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G75&lt;&gt;"",", '"&amp; VLOOKUP(G75,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H75&lt;&gt;"", ", range: '"&amp;H75&amp;"'", "")&amp;IF(J75&lt;&gt;"", ", damage: '"&amp;J75&amp;"'", "")&amp;IF(L75&lt;&gt;"", ", capacity: '"&amp;L75&amp;"'", "")&amp;IF(M75&lt;&gt;"", ", cost: '"&amp;M75&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P75, CHAR(10), "\n")&amp;"'"&amp;IF(N75="○", ", sealable: true", "")&amp;IF(O75="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '10-kururu-o-n-4': {megami: 'kururu', name: 'とるねーど', ruby: '', baseType: 'normal', types: ['action', 'fullpower'], text: '&lt;攻攻&gt; 相手のオーラに5ダメージを与える。 \n----\n&lt;付付&gt; 相手のライフに1ダメージを与える。'}</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" ht="48" x14ac:dyDescent="0.15">
+      <c r="A76" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>378</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H76" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="I76" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="J76" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="K76" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="L76" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="M76" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="N76" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="O76" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="P76" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="R76" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="77" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="H77" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="I77" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="J77" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="K77" s="4" t="s">
-        <v>232</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="I76" s="13"/>
+      <c r="K76" s="13"/>
+      <c r="P76" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q76" s="13"/>
+      <c r="R76" s="3" t="str">
+        <f>", '"&amp;A76&amp;"': {megami: '"&amp;B76&amp;"', name: '"&amp;C76&amp;"', ruby: '"&amp;D76&amp;"', baseType: '"&amp;VLOOKUP(E76,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F76,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G76&lt;&gt;"",", '"&amp; VLOOKUP(G76,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H76&lt;&gt;"", ", range: '"&amp;H76&amp;"'", "")&amp;IF(J76&lt;&gt;"", ", damage: '"&amp;J76&amp;"'", "")&amp;IF(L76&lt;&gt;"", ", capacity: '"&amp;L76&amp;"'", "")&amp;IF(M76&lt;&gt;"", ", cost: '"&amp;M76&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P76, CHAR(10), "\n")&amp;"'"&amp;IF(N76="○", ", sealable: true", "")&amp;IF(O76="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '10-kururu-o-n-5': {megami: 'kururu', name: 'りげいなー', ruby: '', baseType: 'normal', types: ['action', 'fullpower'], text: '&lt;攻対&gt; あなたの使用済の切札を1枚選んでもよい。そのカードを消費を支払わずに使用する。(《全力》カードでもよい) \n----\nあなたの集中力は0になる。'}</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" ht="24" x14ac:dyDescent="0.15">
+      <c r="A77" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I77" s="13"/>
+      <c r="K77" s="13"/>
       <c r="L77" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="M77" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="P77" s="4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="78" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D78" s="4" t="s">
-        <v>60</v>
+        <v>108</v>
+      </c>
+      <c r="P77" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q77" s="13"/>
+      <c r="R77" s="3" t="str">
+        <f>", '"&amp;A77&amp;"': {megami: '"&amp;B77&amp;"', name: '"&amp;C77&amp;"', ruby: '"&amp;D77&amp;"', baseType: '"&amp;VLOOKUP(E77,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F77,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G77&lt;&gt;"",", '"&amp; VLOOKUP(G77,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H77&lt;&gt;"", ", range: '"&amp;H77&amp;"'", "")&amp;IF(J77&lt;&gt;"", ", damage: '"&amp;J77&amp;"'", "")&amp;IF(L77&lt;&gt;"", ", capacity: '"&amp;L77&amp;"'", "")&amp;IF(M77&lt;&gt;"", ", cost: '"&amp;M77&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P77, CHAR(10), "\n")&amp;"'"&amp;IF(N77="○", ", sealable: true", "")&amp;IF(O77="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '10-kururu-o-n-6': {megami: 'kururu', name: 'もじゅるー', ruby: '', baseType: 'normal', types: ['enhance'], capacity: '3', text: '【展開中】あなたが《行動》カードを使用した時、その解決後に基本動作を1回行ってもよい。'}</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" ht="48" x14ac:dyDescent="0.15">
+      <c r="A78" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>380</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>254</v>
+        <v>7</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I78" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J78" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K78" s="4" t="s">
-        <v>44</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="I78" s="13"/>
+      <c r="K78" s="13"/>
       <c r="L78" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="M78" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="N78" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="O78" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="P78" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q78" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="R78" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="79" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D79" s="4" t="s">
-        <v>62</v>
+        <v>221</v>
+      </c>
+      <c r="P78" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q78" s="13"/>
+      <c r="R78" s="3" t="str">
+        <f>", '"&amp;A78&amp;"': {megami: '"&amp;B78&amp;"', name: '"&amp;C78&amp;"', ruby: '"&amp;D78&amp;"', baseType: '"&amp;VLOOKUP(E78,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F78,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G78&lt;&gt;"",", '"&amp; VLOOKUP(G78,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H78&lt;&gt;"", ", range: '"&amp;H78&amp;"'", "")&amp;IF(J78&lt;&gt;"", ", damage: '"&amp;J78&amp;"'", "")&amp;IF(L78&lt;&gt;"", ", capacity: '"&amp;L78&amp;"'", "")&amp;IF(M78&lt;&gt;"", ", cost: '"&amp;M78&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P78, CHAR(10), "\n")&amp;"'"&amp;IF(N78="○", ", sealable: true", "")&amp;IF(O78="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '10-kururu-o-n-7': {megami: 'kururu', name: 'りふれくた', ruby: '', baseType: 'normal', types: ['enhance'], capacity: '0', text: '&lt;攻対&gt; 【展開時】このカードの上に桜花結晶を4個ダストから置く。 \n----\n【展開中】各ターンにおける相手の2回目の《攻撃》は打ち消される。\n'}</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" ht="36" x14ac:dyDescent="0.15">
+      <c r="A79" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>381</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>257</v>
+        <v>19</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>23</v>
@@ -3956,39 +5425,1422 @@
       <c r="G79" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H79" s="4" t="s">
+      <c r="I79" s="13"/>
+      <c r="K79" s="13"/>
+      <c r="M79" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="P79" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q79" s="13"/>
+      <c r="R79" s="3" t="str">
+        <f>", '"&amp;A79&amp;"': {megami: '"&amp;B79&amp;"', name: '"&amp;C79&amp;"', ruby: '"&amp;D79&amp;"', baseType: '"&amp;VLOOKUP(E79,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F79,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G79&lt;&gt;"",", '"&amp; VLOOKUP(G79,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H79&lt;&gt;"", ", range: '"&amp;H79&amp;"'", "")&amp;IF(J79&lt;&gt;"", ", damage: '"&amp;J79&amp;"'", "")&amp;IF(L79&lt;&gt;"", ", capacity: '"&amp;L79&amp;"'", "")&amp;IF(M79&lt;&gt;"", ", cost: '"&amp;M79&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P79, CHAR(10), "\n")&amp;"'"&amp;IF(N79="○", ", sealable: true", "")&amp;IF(O79="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '10-kururu-o-s-1': {megami: 'kururu', name: 'どれーんでびる', ruby: '', baseType: 'special', types: ['action', 'reaction'], cost: '2', text: '相オーラ→自オーラ：1 \n【使用済】あなたの使用済の切札が未使用に戻った時、このカードを消費を支払わずに使用してもよい。'}</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" ht="72" x14ac:dyDescent="0.15">
+      <c r="A80" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I80" s="13"/>
+      <c r="K80" s="13"/>
+      <c r="M80" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="P80" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q80" s="13"/>
+      <c r="R80" s="3" t="str">
+        <f>", '"&amp;A80&amp;"': {megami: '"&amp;B80&amp;"', name: '"&amp;C80&amp;"', ruby: '"&amp;D80&amp;"', baseType: '"&amp;VLOOKUP(E80,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F80,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G80&lt;&gt;"",", '"&amp; VLOOKUP(G80,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H80&lt;&gt;"", ", range: '"&amp;H80&amp;"'", "")&amp;IF(J80&lt;&gt;"", ", damage: '"&amp;J80&amp;"'", "")&amp;IF(L80&lt;&gt;"", ", capacity: '"&amp;L80&amp;"'", "")&amp;IF(M80&lt;&gt;"", ", cost: '"&amp;M80&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P80, CHAR(10), "\n")&amp;"'"&amp;IF(N80="○", ", sealable: true", "")&amp;IF(O80="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '10-kururu-o-s-2': {megami: 'kururu', name: 'びっぐごーれむ', ruby: '', baseType: 'special', types: ['action'], cost: '4', text: '&lt;対全全&gt; 【使用済】あなたの終了フェイズに相手のライフに1ダメージを与えてもよい。そうした場合、山札を再構成する。 \n----\n【使用済】あなたが《全力》カードを使用した時、その解決後に基本動作を1回行ってもよい。\n'}</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" ht="60" x14ac:dyDescent="0.15">
+      <c r="A81" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I81" s="13"/>
+      <c r="K81" s="13"/>
+      <c r="M81" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N81" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="P81" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q81" s="13"/>
+      <c r="R81" s="3" t="str">
+        <f>", '"&amp;A81&amp;"': {megami: '"&amp;B81&amp;"', name: '"&amp;C81&amp;"', ruby: '"&amp;D81&amp;"', baseType: '"&amp;VLOOKUP(E81,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F81,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G81&lt;&gt;"",", '"&amp; VLOOKUP(G81,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H81&lt;&gt;"", ", range: '"&amp;H81&amp;"'", "")&amp;IF(J81&lt;&gt;"", ", damage: '"&amp;J81&amp;"'", "")&amp;IF(L81&lt;&gt;"", ", capacity: '"&amp;L81&amp;"'", "")&amp;IF(M81&lt;&gt;"", ", cost: '"&amp;M81&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P81, CHAR(10), "\n")&amp;"'"&amp;IF(N81="○", ", sealable: true", "")&amp;IF(O81="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '10-kururu-o-s-3': {megami: 'kururu', name: 'いんだすとりあ', ruby: '', baseType: 'special', types: ['action'], cost: '1', text: 'このカードにカードが封印されていないならば、あなたの手札から《付与》でないカードを1枚選び、そのカードをこのカードの下に表向きで封印してもよい。 \nあなたの追加札から「でゅーぷりぎあ」を山札の底に1枚置く(最大で合計3枚)。 \n----\n【即再起】あなたが山札を再構成する(再構成の後に未使用に戻る)。', sealable: true}</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" ht="60" x14ac:dyDescent="0.15">
+      <c r="A82" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I82" s="13"/>
+      <c r="K82" s="13"/>
+      <c r="M82" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="O82" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="P82" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q82" s="13"/>
+      <c r="R82" s="3" t="str">
+        <f>", '"&amp;A82&amp;"': {megami: '"&amp;B82&amp;"', name: '"&amp;C82&amp;"', ruby: '"&amp;D82&amp;"', baseType: '"&amp;VLOOKUP(E82,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F82,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G82&lt;&gt;"",", '"&amp; VLOOKUP(G82,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H82&lt;&gt;"", ", range: '"&amp;H82&amp;"'", "")&amp;IF(J82&lt;&gt;"", ", damage: '"&amp;J82&amp;"'", "")&amp;IF(L82&lt;&gt;"", ", capacity: '"&amp;L82&amp;"'", "")&amp;IF(M82&lt;&gt;"", ", cost: '"&amp;M82&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P82, CHAR(10), "\n")&amp;"'"&amp;IF(N82="○", ", sealable: true", "")&amp;IF(O82="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '10-kururu-o-s-4': {megami: 'kururu', name: '神渉装置：枢式', ruby: 'かんしょうそうちくるるしき', baseType: 'special', types: ['action'], cost: '3', text: '&lt;攻攻行行行付付&gt; 相手の切札を見て、その中から1枚選び、それを使用済にしてもよい。\n----\n相手の使用済の切札1枚を選んでもよい。そのカードを消費を支払わずに使用する(《全力》カードでもよい)。その後、このカードを取り除く。', removable: true}</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" ht="48" x14ac:dyDescent="0.15">
+      <c r="A83" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="I83" s="13"/>
+      <c r="K83" s="13"/>
+      <c r="P83" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q83" s="13"/>
+      <c r="R83" s="3" t="str">
+        <f>", '"&amp;A83&amp;"': {megami: '"&amp;B83&amp;"', name: '"&amp;C83&amp;"', ruby: '"&amp;D83&amp;"', baseType: '"&amp;VLOOKUP(E83,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F83,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G83&lt;&gt;"",", '"&amp; VLOOKUP(G83,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H83&lt;&gt;"", ", range: '"&amp;H83&amp;"'", "")&amp;IF(J83&lt;&gt;"", ", damage: '"&amp;J83&amp;"'", "")&amp;IF(L83&lt;&gt;"", ", capacity: '"&amp;L83&amp;"'", "")&amp;IF(M83&lt;&gt;"", ", cost: '"&amp;M83&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P83, CHAR(10), "\n")&amp;"'"&amp;IF(N83="○", ", sealable: true", "")&amp;IF(O83="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '10-kururu-o-s-3-ex1': {megami: 'kururu', name: 'でゅーぷりぎあ', ruby: '', baseType: 'extra', types: ['variable'], text: '(カードタイプが不定のカードは使用できない) \n【常時】このカードはあなたの「いんだすとりあ」に封印されたカードの複製となる。但し、名前は変更されない。 \n(「いんだすとりあ」が未使用なら複製とならないので、使用できない)'}</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A84" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="I84" s="13"/>
+      <c r="J84" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="K84" s="13"/>
+      <c r="P84" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q84" s="13"/>
+      <c r="R84" s="3" t="str">
+        <f>", '"&amp;A84&amp;"': {megami: '"&amp;B84&amp;"', name: '"&amp;C84&amp;"', ruby: '"&amp;D84&amp;"', baseType: '"&amp;VLOOKUP(E84,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F84,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G84&lt;&gt;"",", '"&amp; VLOOKUP(G84,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H84&lt;&gt;"", ", range: '"&amp;H84&amp;"'", "")&amp;IF(J84&lt;&gt;"", ", damage: '"&amp;J84&amp;"'", "")&amp;IF(L84&lt;&gt;"", ", capacity: '"&amp;L84&amp;"'", "")&amp;IF(M84&lt;&gt;"", ", cost: '"&amp;M84&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P84, CHAR(10), "\n")&amp;"'"&amp;IF(N84="○", ", sealable: true", "")&amp;IF(O84="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '11-thallya-o-n-1': {megami: 'thallya', name: 'Burning Steam', ruby: 'バーニングスチーム', baseType: 'normal', types: ['attack'], range: '3-5', damage: '2/1', text: '【攻撃後】騎動を行う。'}</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" ht="24" x14ac:dyDescent="0.15">
+      <c r="A85" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="I85" s="13"/>
+      <c r="J85" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="K85" s="13"/>
+      <c r="P85" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="Q85" s="13"/>
+      <c r="R85" s="3" t="str">
+        <f>", '"&amp;A85&amp;"': {megami: '"&amp;B85&amp;"', name: '"&amp;C85&amp;"', ruby: '"&amp;D85&amp;"', baseType: '"&amp;VLOOKUP(E85,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F85,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G85&lt;&gt;"",", '"&amp; VLOOKUP(G85,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H85&lt;&gt;"", ", range: '"&amp;H85&amp;"'", "")&amp;IF(J85&lt;&gt;"", ", damage: '"&amp;J85&amp;"'", "")&amp;IF(L85&lt;&gt;"", ", capacity: '"&amp;L85&amp;"'", "")&amp;IF(M85&lt;&gt;"", ", cost: '"&amp;M85&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P85, CHAR(10), "\n")&amp;"'"&amp;IF(N85="○", ", sealable: true", "")&amp;IF(O85="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '11-thallya-o-n-2': {megami: 'thallya', name: 'Waving Edge', ruby: 'ウェービングエッジ', baseType: 'normal', types: ['attack'], range: '1-3', damage: '3/1', text: '燃焼 \n【攻撃後】騎動を行う。'}</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" ht="36" x14ac:dyDescent="0.15">
+      <c r="A86" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I86" s="13"/>
+      <c r="J86" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="K86" s="13"/>
+      <c r="P86" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="Q86" s="13"/>
+      <c r="R86" s="3" t="str">
+        <f>", '"&amp;A86&amp;"': {megami: '"&amp;B86&amp;"', name: '"&amp;C86&amp;"', ruby: '"&amp;D86&amp;"', baseType: '"&amp;VLOOKUP(E86,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F86,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G86&lt;&gt;"",", '"&amp; VLOOKUP(G86,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H86&lt;&gt;"", ", range: '"&amp;H86&amp;"'", "")&amp;IF(J86&lt;&gt;"", ", damage: '"&amp;J86&amp;"'", "")&amp;IF(L86&lt;&gt;"", ", capacity: '"&amp;L86&amp;"'", "")&amp;IF(M86&lt;&gt;"", ", cost: '"&amp;M86&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P86, CHAR(10), "\n")&amp;"'"&amp;IF(N86="○", ", sealable: true", "")&amp;IF(O86="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '11-thallya-o-n-3': {megami: 'thallya', name: 'Shield Charge', ruby: 'シールドチャージ', baseType: 'normal', types: ['attack'], range: '1', damage: '3/2', text: '燃焼 \n【常時】この《攻撃》のダメージにより移動する桜花結晶は、ダストやフレアでなく間合に動かす。'}</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A87" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="I87" s="13"/>
+      <c r="J87" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="K87" s="13"/>
+      <c r="P87" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q87" s="13"/>
+      <c r="R87" s="3" t="str">
+        <f>", '"&amp;A87&amp;"': {megami: '"&amp;B87&amp;"', name: '"&amp;C87&amp;"', ruby: '"&amp;D87&amp;"', baseType: '"&amp;VLOOKUP(E87,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F87,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G87&lt;&gt;"",", '"&amp; VLOOKUP(G87,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H87&lt;&gt;"", ", range: '"&amp;H87&amp;"'", "")&amp;IF(J87&lt;&gt;"", ", damage: '"&amp;J87&amp;"'", "")&amp;IF(L87&lt;&gt;"", ", capacity: '"&amp;L87&amp;"'", "")&amp;IF(M87&lt;&gt;"", ", cost: '"&amp;M87&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P87, CHAR(10), "\n")&amp;"'"&amp;IF(N87="○", ", sealable: true", "")&amp;IF(O87="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '11-thallya-o-n-4': {megami: 'thallya', name: 'Steam Cannon', ruby: 'スチームカノン', baseType: 'normal', types: ['attack', 'fullpower'], range: '2-8', damage: '3/3', text: '燃焼'}</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" ht="24" x14ac:dyDescent="0.15">
+      <c r="A88" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I88" s="13"/>
+      <c r="J88" s="10"/>
+      <c r="K88" s="13"/>
+      <c r="P88" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="Q88" s="13"/>
+      <c r="R88" s="3" t="str">
+        <f>", '"&amp;A88&amp;"': {megami: '"&amp;B88&amp;"', name: '"&amp;C88&amp;"', ruby: '"&amp;D88&amp;"', baseType: '"&amp;VLOOKUP(E88,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F88,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G88&lt;&gt;"",", '"&amp; VLOOKUP(G88,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H88&lt;&gt;"", ", range: '"&amp;H88&amp;"'", "")&amp;IF(J88&lt;&gt;"", ", damage: '"&amp;J88&amp;"'", "")&amp;IF(L88&lt;&gt;"", ", capacity: '"&amp;L88&amp;"'", "")&amp;IF(M88&lt;&gt;"", ", cost: '"&amp;M88&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P88, CHAR(10), "\n")&amp;"'"&amp;IF(N88="○", ", sealable: true", "")&amp;IF(O88="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '11-thallya-o-n-5': {megami: 'thallya', name: 'Stunt', ruby: 'スタント', baseType: 'normal', types: ['action'], text: '相手を畏縮させる。 \n自オーラ→自フレア：2'}</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" ht="48" x14ac:dyDescent="0.15">
+      <c r="A89" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I89" s="13"/>
+      <c r="J89" s="10"/>
+      <c r="K89" s="13"/>
+      <c r="P89" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="Q89" s="13"/>
+      <c r="R89" s="3" t="str">
+        <f>", '"&amp;A89&amp;"': {megami: '"&amp;B89&amp;"', name: '"&amp;C89&amp;"', ruby: '"&amp;D89&amp;"', baseType: '"&amp;VLOOKUP(E89,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F89,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G89&lt;&gt;"",", '"&amp; VLOOKUP(G89,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H89&lt;&gt;"", ", range: '"&amp;H89&amp;"'", "")&amp;IF(J89&lt;&gt;"", ", damage: '"&amp;J89&amp;"'", "")&amp;IF(L89&lt;&gt;"", ", capacity: '"&amp;L89&amp;"'", "")&amp;IF(M89&lt;&gt;"", ", cost: '"&amp;M89&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P89, CHAR(10), "\n")&amp;"'"&amp;IF(N89="○", ", sealable: true", "")&amp;IF(O89="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '11-thallya-o-n-6': {megami: 'thallya', name: 'Roaring', ruby: 'ロアリング', baseType: 'normal', types: ['action'], text: 'コストとして、あなたのマシンにある造花結晶を2つ燃焼済にしても良い。そうした場合、あなたは集中力を1得て、相手は集中力を1失い、相手を畏縮させる。 \nコストとして、集中力を2支払ってもよい。そうした場合、あなたの燃焼済の造花結晶を3つ回復する。'}</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" ht="24" x14ac:dyDescent="0.15">
+      <c r="A90" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I90" s="13"/>
+      <c r="J90" s="10"/>
+      <c r="K90" s="13"/>
+      <c r="P90" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="Q90" s="13"/>
+      <c r="R90" s="3" t="str">
+        <f>", '"&amp;A90&amp;"': {megami: '"&amp;B90&amp;"', name: '"&amp;C90&amp;"', ruby: '"&amp;D90&amp;"', baseType: '"&amp;VLOOKUP(E90,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F90,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G90&lt;&gt;"",", '"&amp; VLOOKUP(G90,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H90&lt;&gt;"", ", range: '"&amp;H90&amp;"'", "")&amp;IF(J90&lt;&gt;"", ", damage: '"&amp;J90&amp;"'", "")&amp;IF(L90&lt;&gt;"", ", capacity: '"&amp;L90&amp;"'", "")&amp;IF(M90&lt;&gt;"", ", cost: '"&amp;M90&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P90, CHAR(10), "\n")&amp;"'"&amp;IF(N90="○", ", sealable: true", "")&amp;IF(O90="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '11-thallya-o-n-7': {megami: 'thallya', name: 'Turbo Switch', ruby: 'ターボスイッチ', baseType: 'normal', types: ['action', 'reaction'], text: '燃焼 \n騎動を行う。'}</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A91" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="I91" s="13"/>
+      <c r="J91" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="K91" s="13"/>
+      <c r="M91" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="P91" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="Q91" s="13"/>
+      <c r="R91" s="3" t="str">
+        <f>", '"&amp;A91&amp;"': {megami: '"&amp;B91&amp;"', name: '"&amp;C91&amp;"', ruby: '"&amp;D91&amp;"', baseType: '"&amp;VLOOKUP(E91,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F91,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G91&lt;&gt;"",", '"&amp; VLOOKUP(G91,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H91&lt;&gt;"", ", range: '"&amp;H91&amp;"'", "")&amp;IF(J91&lt;&gt;"", ", damage: '"&amp;J91&amp;"'", "")&amp;IF(L91&lt;&gt;"", ", capacity: '"&amp;L91&amp;"'", "")&amp;IF(M91&lt;&gt;"", ", cost: '"&amp;M91&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P91, CHAR(10), "\n")&amp;"'"&amp;IF(N91="○", ", sealable: true", "")&amp;IF(O91="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '11-thallya-o-s-1': {megami: 'thallya', name: 'Alpha-Edge', ruby: 'アルファエッジ', baseType: 'special', types: ['attack'], range: '1,3,5,7', damage: '1/1', cost: '1', text: '【即再起】あなたが騎動により間合を変化させる。'}</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" ht="36" x14ac:dyDescent="0.15">
+      <c r="A92" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I92" s="13"/>
+      <c r="J92" s="10"/>
+      <c r="K92" s="13"/>
+      <c r="M92" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="P92" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="Q92" s="13"/>
+      <c r="R92" s="3" t="str">
+        <f>", '"&amp;A92&amp;"': {megami: '"&amp;B92&amp;"', name: '"&amp;C92&amp;"', ruby: '"&amp;D92&amp;"', baseType: '"&amp;VLOOKUP(E92,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F92,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G92&lt;&gt;"",", '"&amp; VLOOKUP(G92,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H92&lt;&gt;"", ", range: '"&amp;H92&amp;"'", "")&amp;IF(J92&lt;&gt;"", ", damage: '"&amp;J92&amp;"'", "")&amp;IF(L92&lt;&gt;"", ", capacity: '"&amp;L92&amp;"'", "")&amp;IF(M92&lt;&gt;"", ", cost: '"&amp;M92&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P92, CHAR(10), "\n")&amp;"'"&amp;IF(N92="○", ", sealable: true", "")&amp;IF(O92="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '11-thallya-o-s-2': {megami: 'thallya', name: 'Omega-Burst', ruby: 'オメガバースト', baseType: 'special', types: ['action', 'reaction'], cost: '4', text: 'あなたの燃焼済の造花結晶を全て回復する。 \n対応した、オーラへのダメージが「-」またはX以下の《攻撃》を打ち消す。Xはこのカードにより回復した造花結晶の個数に等しい。'}</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I93" s="13"/>
+      <c r="J93" s="10"/>
+      <c r="K93" s="13"/>
+      <c r="M93" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="P93" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="Q93" s="13"/>
+      <c r="R93" s="3" t="str">
+        <f>", '"&amp;A93&amp;"': {megami: '"&amp;B93&amp;"', name: '"&amp;C93&amp;"', ruby: '"&amp;D93&amp;"', baseType: '"&amp;VLOOKUP(E93,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F93,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G93&lt;&gt;"",", '"&amp; VLOOKUP(G93,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H93&lt;&gt;"", ", range: '"&amp;H93&amp;"'", "")&amp;IF(J93&lt;&gt;"", ", damage: '"&amp;J93&amp;"'", "")&amp;IF(L93&lt;&gt;"", ", capacity: '"&amp;L93&amp;"'", "")&amp;IF(M93&lt;&gt;"", ", cost: '"&amp;M93&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P93, CHAR(10), "\n")&amp;"'"&amp;IF(N93="○", ", sealable: true", "")&amp;IF(O93="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '11-thallya-o-s-4': {megami: 'thallya', name: 'Julia's BlackBox', ruby: 'ジュリアズ　ブラックボックス', baseType: 'special', types: ['action', 'fullpower'], cost: '0', text: 'あなたのマシンに造花結晶がないならば、あなたのマシンはTransFormし、あなたの燃焼済の造花結晶を2つ回復する。そうでない場合、このカードを未使用に戻す。'}</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A94" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="I94" s="13"/>
+      <c r="J94" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="K94" s="13"/>
+      <c r="Q94" s="13"/>
+      <c r="R94" s="3" t="str">
+        <f>", '"&amp;A94&amp;"': {megami: '"&amp;B94&amp;"', name: '"&amp;C94&amp;"', ruby: '"&amp;D94&amp;"', baseType: '"&amp;VLOOKUP(E94,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F94,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G94&lt;&gt;"",", '"&amp; VLOOKUP(G94,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H94&lt;&gt;"", ", range: '"&amp;H94&amp;"'", "")&amp;IF(J94&lt;&gt;"", ", damage: '"&amp;J94&amp;"'", "")&amp;IF(L94&lt;&gt;"", ", capacity: '"&amp;L94&amp;"'", "")&amp;IF(M94&lt;&gt;"", ", cost: '"&amp;M94&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P94, CHAR(10), "\n")&amp;"'"&amp;IF(N94="○", ", sealable: true", "")&amp;IF(O94="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-raira-o-n-1': {megami: 'raira', name: '獣爪', ruby: 'じゅうそう', baseType: 'normal', types: ['attack'], range: '1-2', damage: '3/1', text: ''}</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A95" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I95" s="13"/>
+      <c r="J95" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="K95" s="13"/>
+      <c r="P95" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q95" s="13"/>
+      <c r="R95" s="3" t="str">
+        <f>", '"&amp;A95&amp;"': {megami: '"&amp;B95&amp;"', name: '"&amp;C95&amp;"', ruby: '"&amp;D95&amp;"', baseType: '"&amp;VLOOKUP(E95,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F95,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G95&lt;&gt;"",", '"&amp; VLOOKUP(G95,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H95&lt;&gt;"", ", range: '"&amp;H95&amp;"'", "")&amp;IF(J95&lt;&gt;"", ", damage: '"&amp;J95&amp;"'", "")&amp;IF(L95&lt;&gt;"", ", capacity: '"&amp;L95&amp;"'", "")&amp;IF(M95&lt;&gt;"", ", cost: '"&amp;M95&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P95, CHAR(10), "\n")&amp;"'"&amp;IF(N95="○", ", sealable: true", "")&amp;IF(O95="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-raira-o-n-2': {megami: 'raira', name: '風雷撃', ruby: 'ふうらいげき', baseType: 'normal', types: ['attack'], range: '2', damage: 'X/2', text: '【常時】Xは風神ゲージと雷神ゲージのうち、小さい方の値である。'}</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" ht="24" x14ac:dyDescent="0.15">
+      <c r="A96" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="I96" s="13"/>
+      <c r="J96" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="K96" s="13"/>
+      <c r="P96" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="Q96" s="13"/>
+      <c r="R96" s="3" t="str">
+        <f>", '"&amp;A96&amp;"': {megami: '"&amp;B96&amp;"', name: '"&amp;C96&amp;"', ruby: '"&amp;D96&amp;"', baseType: '"&amp;VLOOKUP(E96,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F96,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G96&lt;&gt;"",", '"&amp; VLOOKUP(G96,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H96&lt;&gt;"", ", range: '"&amp;H96&amp;"'", "")&amp;IF(J96&lt;&gt;"", ", damage: '"&amp;J96&amp;"'", "")&amp;IF(L96&lt;&gt;"", ", capacity: '"&amp;L96&amp;"'", "")&amp;IF(M96&lt;&gt;"", ", cost: '"&amp;M96&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P96, CHAR(10), "\n")&amp;"'"&amp;IF(N96="○", ", sealable: true", "")&amp;IF(O96="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-raira-o-n-3': {megami: 'raira', name: '流転爪', ruby: 'るてんそう', baseType: 'normal', types: ['attack'], range: '1-2', damage: '2/1', text: '【攻撃後】あなたの捨て札にある《攻撃》カード1枚を選び、山札の一番上に置いてもよい。'}</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A97" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I97" s="13"/>
+      <c r="K97" s="13"/>
+      <c r="P97" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="Q97" s="13"/>
+      <c r="R97" s="3" t="str">
+        <f>", '"&amp;A97&amp;"': {megami: '"&amp;B97&amp;"', name: '"&amp;C97&amp;"', ruby: '"&amp;D97&amp;"', baseType: '"&amp;VLOOKUP(E97,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F97,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G97&lt;&gt;"",", '"&amp; VLOOKUP(G97,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H97&lt;&gt;"", ", range: '"&amp;H97&amp;"'", "")&amp;IF(J97&lt;&gt;"", ", damage: '"&amp;J97&amp;"'", "")&amp;IF(L97&lt;&gt;"", ", capacity: '"&amp;L97&amp;"'", "")&amp;IF(M97&lt;&gt;"", ", cost: '"&amp;M97&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P97, CHAR(10), "\n")&amp;"'"&amp;IF(N97="○", ", sealable: true", "")&amp;IF(O97="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-raira-o-n-4': {megami: 'raira', name: '風走り', ruby: 'かぜばしり', baseType: 'normal', types: ['action'], text: '現在の間合が3以上ならば、間合→ダスト：2'}</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" ht="36" x14ac:dyDescent="0.15">
+      <c r="A98" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I98" s="13"/>
+      <c r="K98" s="13"/>
+      <c r="P98" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="Q98" s="13"/>
+      <c r="R98" s="3" t="str">
+        <f>", '"&amp;A98&amp;"': {megami: '"&amp;B98&amp;"', name: '"&amp;C98&amp;"', ruby: '"&amp;D98&amp;"', baseType: '"&amp;VLOOKUP(E98,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F98,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G98&lt;&gt;"",", '"&amp; VLOOKUP(G98,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H98&lt;&gt;"", ", range: '"&amp;H98&amp;"'", "")&amp;IF(J98&lt;&gt;"", ", damage: '"&amp;J98&amp;"'", "")&amp;IF(L98&lt;&gt;"", ", capacity: '"&amp;L98&amp;"'", "")&amp;IF(M98&lt;&gt;"", ", cost: '"&amp;M98&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P98, CHAR(10), "\n")&amp;"'"&amp;IF(N98="○", ", sealable: true", "")&amp;IF(O98="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-raira-o-n-5': {megami: 'raira', name: '風雷の知恵', ruby: 'ふうらいのちえ', baseType: 'normal', types: ['action'], text: '風神ゲージと雷神ゲージの合計が4以上ならば、あなたの捨て札にある他のメガミのカード1枚を選び、山札の一番上に置いてもよい。 \n風神ゲージか雷神ゲージを1上げる。'}</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" ht="36" x14ac:dyDescent="0.15">
+      <c r="A99" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I99" s="13"/>
+      <c r="K99" s="13"/>
+      <c r="P99" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="Q99" s="13"/>
+      <c r="R99" s="3" t="str">
+        <f>", '"&amp;A99&amp;"': {megami: '"&amp;B99&amp;"', name: '"&amp;C99&amp;"', ruby: '"&amp;D99&amp;"', baseType: '"&amp;VLOOKUP(E99,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F99,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G99&lt;&gt;"",", '"&amp; VLOOKUP(G99,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H99&lt;&gt;"", ", range: '"&amp;H99&amp;"'", "")&amp;IF(J99&lt;&gt;"", ", damage: '"&amp;J99&amp;"'", "")&amp;IF(L99&lt;&gt;"", ", capacity: '"&amp;L99&amp;"'", "")&amp;IF(M99&lt;&gt;"", ", cost: '"&amp;M99&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P99, CHAR(10), "\n")&amp;"'"&amp;IF(N99="○", ", sealable: true", "")&amp;IF(O99="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-raira-o-n-6': {megami: 'raira', name: '呼び声', ruby: 'よびごえ', baseType: 'normal', types: ['action', 'fullpower'], text: '相手を畏縮させ、以下から1つを選ぶ。\n・風神ゲージと雷神ゲージを1ずつ上げる。\n・手札を全て伏せ札にし、雷神ゲージを2倍にする。'}</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A100" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I100" s="13"/>
+      <c r="K100" s="13"/>
+      <c r="P100" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="Q100" s="13"/>
+      <c r="R100" s="3" t="str">
+        <f>", '"&amp;A100&amp;"': {megami: '"&amp;B100&amp;"', name: '"&amp;C100&amp;"', ruby: '"&amp;D100&amp;"', baseType: '"&amp;VLOOKUP(E100,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F100,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G100&lt;&gt;"",", '"&amp; VLOOKUP(G100,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H100&lt;&gt;"", ", range: '"&amp;H100&amp;"'", "")&amp;IF(J100&lt;&gt;"", ", damage: '"&amp;J100&amp;"'", "")&amp;IF(L100&lt;&gt;"", ", capacity: '"&amp;L100&amp;"'", "")&amp;IF(M100&lt;&gt;"", ", cost: '"&amp;M100&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P100, CHAR(10), "\n")&amp;"'"&amp;IF(N100="○", ", sealable: true", "")&amp;IF(O100="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-raira-o-n-7': {megami: 'raira', name: '空駆け', ruby: 'そらかけ', baseType: 'normal', types: ['action', 'fullpower'], text: '間合⇔ダスト：3'}</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" ht="36" x14ac:dyDescent="0.15">
+      <c r="A101" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="I101" s="13"/>
+      <c r="J101" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="K101" s="13"/>
+      <c r="M101" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="P101" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q101" s="13"/>
+      <c r="R101" s="3" t="str">
+        <f>", '"&amp;A101&amp;"': {megami: '"&amp;B101&amp;"', name: '"&amp;C101&amp;"', ruby: '"&amp;D101&amp;"', baseType: '"&amp;VLOOKUP(E101,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F101,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G101&lt;&gt;"",", '"&amp; VLOOKUP(G101,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H101&lt;&gt;"", ", range: '"&amp;H101&amp;"'", "")&amp;IF(J101&lt;&gt;"", ", damage: '"&amp;J101&amp;"'", "")&amp;IF(L101&lt;&gt;"", ", capacity: '"&amp;L101&amp;"'", "")&amp;IF(M101&lt;&gt;"", ", cost: '"&amp;M101&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P101, CHAR(10), "\n")&amp;"'"&amp;IF(N101="○", ", sealable: true", "")&amp;IF(O101="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-raira-o-s-1': {megami: 'raira', name: '雷螺風神爪', ruby: 'らいらふうじんそう', baseType: 'special', types: ['attack'], range: '1-2', damage: '2/2', cost: '3', text: '【常時】あなたの雷神ゲージが4以上ならば、この《攻撃》は+1/+0となる。 \n----\n【再起】あなたの風神ゲージが4以上である。'}</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A102" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I102" s="13"/>
+      <c r="K102" s="13"/>
+      <c r="M102" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="P102" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q102" s="13"/>
+      <c r="R102" s="3" t="str">
+        <f>", '"&amp;A102&amp;"': {megami: '"&amp;B102&amp;"', name: '"&amp;C102&amp;"', ruby: '"&amp;D102&amp;"', baseType: '"&amp;VLOOKUP(E102,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F102,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G102&lt;&gt;"",", '"&amp; VLOOKUP(G102,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H102&lt;&gt;"", ", range: '"&amp;H102&amp;"'", "")&amp;IF(J102&lt;&gt;"", ", damage: '"&amp;J102&amp;"'", "")&amp;IF(L102&lt;&gt;"", ", capacity: '"&amp;L102&amp;"'", "")&amp;IF(M102&lt;&gt;"", ", cost: '"&amp;M102&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P102, CHAR(10), "\n")&amp;"'"&amp;IF(N102="○", ", sealable: true", "")&amp;IF(O102="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-raira-o-s-2': {megami: 'raira', name: '天雷召喚陣', ruby: 'てんらいしょうかんじん', baseType: 'special', types: ['action', 'fullpower'], cost: '6', text: '攻撃『適正距離0-10、1/1』をX回行う。Xは雷神ゲージの半分(切り上げ)に等しい。'}</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" ht="60" x14ac:dyDescent="0.15">
+      <c r="A103" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I103" s="13"/>
+      <c r="K103" s="13"/>
+      <c r="M103" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="O103" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="P103" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="Q103" s="13"/>
+      <c r="R103" s="3" t="str">
+        <f>", '"&amp;A103&amp;"': {megami: '"&amp;B103&amp;"', name: '"&amp;C103&amp;"', ruby: '"&amp;D103&amp;"', baseType: '"&amp;VLOOKUP(E103,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F103,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G103&lt;&gt;"",", '"&amp; VLOOKUP(G103,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H103&lt;&gt;"", ", range: '"&amp;H103&amp;"'", "")&amp;IF(J103&lt;&gt;"", ", damage: '"&amp;J103&amp;"'", "")&amp;IF(L103&lt;&gt;"", ", capacity: '"&amp;L103&amp;"'", "")&amp;IF(M103&lt;&gt;"", ", cost: '"&amp;M103&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P103, CHAR(10), "\n")&amp;"'"&amp;IF(N103="○", ", sealable: true", "")&amp;IF(O103="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-raira-o-s-3': {megami: 'raira', name: '風魔招来孔', ruby: 'ふうましょうらいこう', baseType: 'special', types: ['action'], cost: '0', text: '現在の風神ゲージに応じて、以下の切札を追加札から未使用で得る(条件を満たしたものは全て得る)。その後、このカードを取り除く。 \n3以上……風魔旋風 \n6以上……風魔纏廻 \n10以上……風魔天狗道', removable: true}</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" ht="24" x14ac:dyDescent="0.15">
+      <c r="A104" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I104" s="13"/>
+      <c r="K104" s="13"/>
+      <c r="L104" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="M104" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="P104" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="Q104" s="13"/>
+      <c r="R104" s="3" t="str">
+        <f>", '"&amp;A104&amp;"': {megami: '"&amp;B104&amp;"', name: '"&amp;C104&amp;"', ruby: '"&amp;D104&amp;"', baseType: '"&amp;VLOOKUP(E104,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F104,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G104&lt;&gt;"",", '"&amp; VLOOKUP(G104,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H104&lt;&gt;"", ", range: '"&amp;H104&amp;"'", "")&amp;IF(J104&lt;&gt;"", ", damage: '"&amp;J104&amp;"'", "")&amp;IF(L104&lt;&gt;"", ", capacity: '"&amp;L104&amp;"'", "")&amp;IF(M104&lt;&gt;"", ", cost: '"&amp;M104&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P104, CHAR(10), "\n")&amp;"'"&amp;IF(N104="○", ", sealable: true", "")&amp;IF(O104="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-raira-o-s-4': {megami: 'raira', name: '円環輪廻旋', ruby: 'えんかんりんかいせん', baseType: 'special', types: ['enhance', 'fullpower'], capacity: '5', cost: '3', text: '【展開中】あなたが《付与》でない通常札を使用した場合、それを捨て札にする代わりに山札の底に置く。'}</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A105" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="I105" s="13"/>
+      <c r="J105" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="K105" s="13"/>
+      <c r="M105" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="P105" s="5"/>
+      <c r="Q105" s="13"/>
+      <c r="R105" s="3" t="str">
+        <f>", '"&amp;A105&amp;"': {megami: '"&amp;B105&amp;"', name: '"&amp;C105&amp;"', ruby: '"&amp;D105&amp;"', baseType: '"&amp;VLOOKUP(E105,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F105,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G105&lt;&gt;"",", '"&amp; VLOOKUP(G105,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H105&lt;&gt;"", ", range: '"&amp;H105&amp;"'", "")&amp;IF(J105&lt;&gt;"", ", damage: '"&amp;J105&amp;"'", "")&amp;IF(L105&lt;&gt;"", ", capacity: '"&amp;L105&amp;"'", "")&amp;IF(M105&lt;&gt;"", ", cost: '"&amp;M105&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P105, CHAR(10), "\n")&amp;"'"&amp;IF(N105="○", ", sealable: true", "")&amp;IF(O105="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-raira-o-s-3-ex1': {megami: 'raira', name: '風魔旋風', ruby: 'ふうませんぷう', baseType: 'extra', types: ['attack'], range: '1-3', damage: '1/2', cost: '1', text: ''}</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" ht="24" x14ac:dyDescent="0.15">
+      <c r="A106" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I106" s="13"/>
+      <c r="K106" s="13"/>
+      <c r="M106" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="P106" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="Q106" s="13"/>
+      <c r="R106" s="3" t="str">
+        <f>", '"&amp;A106&amp;"': {megami: '"&amp;B106&amp;"', name: '"&amp;C106&amp;"', ruby: '"&amp;D106&amp;"', baseType: '"&amp;VLOOKUP(E106,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F106,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G106&lt;&gt;"",", '"&amp; VLOOKUP(G106,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H106&lt;&gt;"", ", range: '"&amp;H106&amp;"'", "")&amp;IF(J106&lt;&gt;"", ", damage: '"&amp;J106&amp;"'", "")&amp;IF(L106&lt;&gt;"", ", capacity: '"&amp;L106&amp;"'", "")&amp;IF(M106&lt;&gt;"", ", cost: '"&amp;M106&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P106, CHAR(10), "\n")&amp;"'"&amp;IF(N106="○", ", sealable: true", "")&amp;IF(O106="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-raira-o-s-3-ex2': {megami: 'raira', name: '風魔纏廻', ruby: 'ふうまてんかい', baseType: 'extra', types: ['action'], cost: '1', text: 'あなたの使用済の切札を1枚選び、それを未使用に戻す。 \n【使用済】あなたの切札の消費は1少なくなる(0未満にはならない)。'}</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" ht="36" x14ac:dyDescent="0.15">
+      <c r="A107" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I107" s="13"/>
+      <c r="K107" s="13"/>
+      <c r="M107" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="O107" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="P107" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="Q107" s="13"/>
+      <c r="R107" s="3" t="str">
+        <f>", '"&amp;A107&amp;"': {megami: '"&amp;B107&amp;"', name: '"&amp;C107&amp;"', ruby: '"&amp;D107&amp;"', baseType: '"&amp;VLOOKUP(E107,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F107,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G107&lt;&gt;"",", '"&amp; VLOOKUP(G107,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H107&lt;&gt;"", ", range: '"&amp;H107&amp;"'", "")&amp;IF(J107&lt;&gt;"", ", damage: '"&amp;J107&amp;"'", "")&amp;IF(L107&lt;&gt;"", ", capacity: '"&amp;L107&amp;"'", "")&amp;IF(M107&lt;&gt;"", ", cost: '"&amp;M107&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P107, CHAR(10), "\n")&amp;"'"&amp;IF(N107="○", ", sealable: true", "")&amp;IF(O107="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-raira-o-s-3-ex3': {megami: 'raira', name: '風魔天狗道', ruby: 'ふうまてんぐどう', baseType: 'extra', types: ['action', 'reaction'], cost: '4', text: 'ダスト⇔間合：5 \nあなたはこの効果で本来より少ない個数の桜花結晶を動かしてもよい。その後、このカードを取り除く。', removable: true}</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" ht="24" x14ac:dyDescent="0.15">
+      <c r="A108" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="I108" s="13"/>
+      <c r="J108" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="K108" s="13"/>
+      <c r="P108" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="Q108" s="13"/>
+      <c r="R108" s="3" t="str">
+        <f>", '"&amp;A108&amp;"': {megami: '"&amp;B108&amp;"', name: '"&amp;C108&amp;"', ruby: '"&amp;D108&amp;"', baseType: '"&amp;VLOOKUP(E108,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F108,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G108&lt;&gt;"",", '"&amp; VLOOKUP(G108,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H108&lt;&gt;"", ", range: '"&amp;H108&amp;"'", "")&amp;IF(J108&lt;&gt;"", ", damage: '"&amp;J108&amp;"'", "")&amp;IF(L108&lt;&gt;"", ", capacity: '"&amp;L108&amp;"'", "")&amp;IF(M108&lt;&gt;"", ", cost: '"&amp;M108&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P108, CHAR(10), "\n")&amp;"'"&amp;IF(N108="○", ", sealable: true", "")&amp;IF(O108="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-utsuro-o-n-1': {megami: 'utsuro', name: '円月', ruby: 'えんげつ', baseType: 'normal', types: ['attack'], range: '6-7', damage: '2/2', text: '【常時】灰塵-ダストが12以上ならば、この《攻撃》のオーラへのダメージは「-」になる。'}</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" ht="24" x14ac:dyDescent="0.15">
+      <c r="A109" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="I109" s="13"/>
+      <c r="J109" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K109" s="13"/>
+      <c r="P109" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="Q109" s="13"/>
+      <c r="R109" s="3" t="str">
+        <f>", '"&amp;A109&amp;"': {megami: '"&amp;B109&amp;"', name: '"&amp;C109&amp;"', ruby: '"&amp;D109&amp;"', baseType: '"&amp;VLOOKUP(E109,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F109,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G109&lt;&gt;"",", '"&amp; VLOOKUP(G109,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H109&lt;&gt;"", ", range: '"&amp;H109&amp;"'", "")&amp;IF(J109&lt;&gt;"", ", damage: '"&amp;J109&amp;"'", "")&amp;IF(L109&lt;&gt;"", ", capacity: '"&amp;L109&amp;"'", "")&amp;IF(M109&lt;&gt;"", ", cost: '"&amp;M109&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P109, CHAR(10), "\n")&amp;"'"&amp;IF(N109="○", ", sealable: true", "")&amp;IF(O109="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-utsuro-o-n-2': {megami: 'utsuro', name: '黒き波動', ruby: 'くろきはどう', baseType: 'normal', types: ['attack'], range: '4-7', damage: '1/2', text: '【攻撃後】相手が&lt;オーラ&gt;へのダメージを選んだならば、相手の手札を見てその中から1枚を選び、それを捨て札にする。'}</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" ht="48" x14ac:dyDescent="0.15">
+      <c r="A110" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I110" s="13"/>
+      <c r="J110" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="K110" s="13"/>
+      <c r="P110" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="Q110" s="13"/>
+      <c r="R110" s="3" t="str">
+        <f>", '"&amp;A110&amp;"': {megami: '"&amp;B110&amp;"', name: '"&amp;C110&amp;"', ruby: '"&amp;D110&amp;"', baseType: '"&amp;VLOOKUP(E110,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F110,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G110&lt;&gt;"",", '"&amp; VLOOKUP(G110,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H110&lt;&gt;"", ", range: '"&amp;H110&amp;"'", "")&amp;IF(J110&lt;&gt;"", ", damage: '"&amp;J110&amp;"'", "")&amp;IF(L110&lt;&gt;"", ", capacity: '"&amp;L110&amp;"'", "")&amp;IF(M110&lt;&gt;"", ", cost: '"&amp;M110&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P110, CHAR(10), "\n")&amp;"'"&amp;IF(N110="○", ", sealable: true", "")&amp;IF(O110="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-utsuro-o-n-3': {megami: 'utsuro', name: '刈取り', ruby: 'かりとり', baseType: 'normal', types: ['attack'], range: '4', damage: '-/0', text: '【攻撃後】相手は相手の&lt;オーラ&gt;、&lt;フレア&gt;、&lt;ライフ&gt;のいずれかから桜花結晶を合計2つ&lt;ダスト&gt;へ移動させる。 \n【攻撃後】相手の付与札を1枚選んでもよい。そうした場合、その付与札の上から桜花結晶を2つ&lt;ダスト&gt;へ送る。'}</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" ht="36" x14ac:dyDescent="0.15">
+      <c r="A111" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I111" s="13"/>
+      <c r="K111" s="13"/>
+      <c r="P111" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="Q111" s="13"/>
+      <c r="R111" s="3" t="str">
+        <f>", '"&amp;A111&amp;"': {megami: '"&amp;B111&amp;"', name: '"&amp;C111&amp;"', ruby: '"&amp;D111&amp;"', baseType: '"&amp;VLOOKUP(E111,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F111,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G111&lt;&gt;"",", '"&amp; VLOOKUP(G111,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H111&lt;&gt;"", ", range: '"&amp;H111&amp;"'", "")&amp;IF(J111&lt;&gt;"", ", damage: '"&amp;J111&amp;"'", "")&amp;IF(L111&lt;&gt;"", ", capacity: '"&amp;L111&amp;"'", "")&amp;IF(M111&lt;&gt;"", ", cost: '"&amp;M111&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P111, CHAR(10), "\n")&amp;"'"&amp;IF(N111="○", ", sealable: true", "")&amp;IF(O111="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-utsuro-o-n-4': {megami: 'utsuro', name: '重圧', ruby: 'じゅうあつ', baseType: 'normal', types: ['action'], text: '相手は相手の&lt;オーラ&gt;、&lt;フレア&gt;、&lt;ライフ&gt;のいずれかから桜花結晶を1つ&lt;ダスト&gt;へ移動させる。 \n灰塵-ダストが12以上ならば、相手を畏縮させる。'}</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A112" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I112" s="13"/>
+      <c r="K112" s="13"/>
+      <c r="P112" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="Q112" s="13"/>
+      <c r="R112" s="3" t="str">
+        <f>", '"&amp;A112&amp;"': {megami: '"&amp;B112&amp;"', name: '"&amp;C112&amp;"', ruby: '"&amp;D112&amp;"', baseType: '"&amp;VLOOKUP(E112,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F112,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G112&lt;&gt;"",", '"&amp; VLOOKUP(G112,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H112&lt;&gt;"", ", range: '"&amp;H112&amp;"'", "")&amp;IF(J112&lt;&gt;"", ", damage: '"&amp;J112&amp;"'", "")&amp;IF(L112&lt;&gt;"", ", capacity: '"&amp;L112&amp;"'", "")&amp;IF(M112&lt;&gt;"", ", cost: '"&amp;M112&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P112, CHAR(10), "\n")&amp;"'"&amp;IF(N112="○", ", sealable: true", "")&amp;IF(O112="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-utsuro-o-n-5': {megami: 'utsuro', name: '影の翅', ruby: 'かげのはね', baseType: 'normal', types: ['action'], text: 'このターン中、現在の&lt;間合&gt;は2増加し、達人の間合は2大きくなる。'}</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A113" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I113" s="13"/>
+      <c r="K113" s="13"/>
+      <c r="P113" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="Q113" s="13"/>
+      <c r="R113" s="3" t="str">
+        <f>", '"&amp;A113&amp;"': {megami: '"&amp;B113&amp;"', name: '"&amp;C113&amp;"', ruby: '"&amp;D113&amp;"', baseType: '"&amp;VLOOKUP(E113,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F113,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G113&lt;&gt;"",", '"&amp; VLOOKUP(G113,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H113&lt;&gt;"", ", range: '"&amp;H113&amp;"'", "")&amp;IF(J113&lt;&gt;"", ", damage: '"&amp;J113&amp;"'", "")&amp;IF(L113&lt;&gt;"", ", capacity: '"&amp;L113&amp;"'", "")&amp;IF(M113&lt;&gt;"", ", cost: '"&amp;M113&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P113, CHAR(10), "\n")&amp;"'"&amp;IF(N113="○", ", sealable: true", "")&amp;IF(O113="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-utsuro-o-n-6': {megami: 'utsuro', name: '影の壁', ruby: 'かげのかべ', baseType: 'normal', types: ['action', 'reaction'], text: '対応した《攻撃》は+0/-1となる。'}</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" ht="36" x14ac:dyDescent="0.15">
+      <c r="A114" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I114" s="13"/>
+      <c r="K114" s="13"/>
+      <c r="L114" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="P114" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="Q114" s="13"/>
+      <c r="R114" s="3" t="str">
+        <f>", '"&amp;A114&amp;"': {megami: '"&amp;B114&amp;"', name: '"&amp;C114&amp;"', ruby: '"&amp;D114&amp;"', baseType: '"&amp;VLOOKUP(E114,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F114,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G114&lt;&gt;"",", '"&amp; VLOOKUP(G114,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H114&lt;&gt;"", ", range: '"&amp;H114&amp;"'", "")&amp;IF(J114&lt;&gt;"", ", damage: '"&amp;J114&amp;"'", "")&amp;IF(L114&lt;&gt;"", ", capacity: '"&amp;L114&amp;"'", "")&amp;IF(M114&lt;&gt;"", ", cost: '"&amp;M114&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P114, CHAR(10), "\n")&amp;"'"&amp;IF(N114="○", ", sealable: true", "")&amp;IF(O114="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-utsuro-o-n-7': {megami: 'utsuro', name: '遺灰呪', ruby: 'いかいじゅ', baseType: 'normal', types: ['enhance', 'fullpower'], capacity: '2', text: '【展開時】相オーラ→ダスト：3 \n【破棄時】灰塵-&lt;ダスト&gt;が12以上ならば以下を行う。 \nダスト→相オーラ：2、相ライフ→ダスト：1'}</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" ht="36" x14ac:dyDescent="0.15">
+      <c r="A115" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I115" s="13"/>
+      <c r="K115" s="13"/>
+      <c r="M115" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="O115" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="P115" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="Q115" s="13"/>
+      <c r="R115" s="3" t="str">
+        <f>", '"&amp;A115&amp;"': {megami: '"&amp;B115&amp;"', name: '"&amp;C115&amp;"', ruby: '"&amp;D115&amp;"', baseType: '"&amp;VLOOKUP(E115,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F115,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G115&lt;&gt;"",", '"&amp; VLOOKUP(G115,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H115&lt;&gt;"", ", range: '"&amp;H115&amp;"'", "")&amp;IF(J115&lt;&gt;"", ", damage: '"&amp;J115&amp;"'", "")&amp;IF(L115&lt;&gt;"", ", capacity: '"&amp;L115&amp;"'", "")&amp;IF(M115&lt;&gt;"", ", cost: '"&amp;M115&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P115, CHAR(10), "\n")&amp;"'"&amp;IF(N115="○", ", sealable: true", "")&amp;IF(O115="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-utsuro-o-s-1': {megami: 'utsuro', name: '灰滅', ruby: 'ヴィミラニエ', baseType: 'special', types: ['action'], cost: '24', text: '【常時】このカードの消費はダストの数だけ少なくなる。 \n相ライフ→ダスト：3 \nこのカードを取り除く。', removable: true}</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" ht="24" x14ac:dyDescent="0.15">
+      <c r="A116" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I116" s="13"/>
+      <c r="K116" s="13"/>
+      <c r="L116" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="M116" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="P116" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="Q116" s="13"/>
+      <c r="R116" s="3" t="str">
+        <f>", '"&amp;A116&amp;"': {megami: '"&amp;B116&amp;"', name: '"&amp;C116&amp;"', ruby: '"&amp;D116&amp;"', baseType: '"&amp;VLOOKUP(E116,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F116,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G116&lt;&gt;"",", '"&amp; VLOOKUP(G116,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H116&lt;&gt;"", ", range: '"&amp;H116&amp;"'", "")&amp;IF(J116&lt;&gt;"", ", damage: '"&amp;J116&amp;"'", "")&amp;IF(L116&lt;&gt;"", ", capacity: '"&amp;L116&amp;"'", "")&amp;IF(M116&lt;&gt;"", ", cost: '"&amp;M116&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P116, CHAR(10), "\n")&amp;"'"&amp;IF(N116="○", ", sealable: true", "")&amp;IF(O116="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-utsuro-o-s-2': {megami: 'utsuro', name: '虚偽', ruby: 'ローシェ', baseType: 'special', types: ['enhance', 'reaction'], capacity: '3', cost: '3', text: '【展開中】相手の《攻撃》は距離縮小(近1)を得て、【攻撃後】効果が解決されない。 \n【展開中】相手の《付与》カードは納が1減少し、【破棄時】効果が解決されない。'}</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" ht="60" x14ac:dyDescent="0.15">
+      <c r="A117" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I117" s="13"/>
+      <c r="K117" s="13"/>
+      <c r="L117" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="M117" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="P117" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="Q117" s="13"/>
+      <c r="R117" s="3" t="str">
+        <f>", '"&amp;A117&amp;"': {megami: '"&amp;B117&amp;"', name: '"&amp;C117&amp;"', ruby: '"&amp;D117&amp;"', baseType: '"&amp;VLOOKUP(E117,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F117,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G117&lt;&gt;"",", '"&amp; VLOOKUP(G117,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H117&lt;&gt;"", ", range: '"&amp;H117&amp;"'", "")&amp;IF(J117&lt;&gt;"", ", damage: '"&amp;J117&amp;"'", "")&amp;IF(L117&lt;&gt;"", ", capacity: '"&amp;L117&amp;"'", "")&amp;IF(M117&lt;&gt;"", ", cost: '"&amp;M117&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P117, CHAR(10), "\n")&amp;"'"&amp;IF(N117="○", ", sealable: true", "")&amp;IF(O117="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-utsuro-o-s-3': {megami: 'utsuro', name: '終末', ruby: 'カニェッツ', baseType: 'special', types: ['enhance'], capacity: '3', cost: '2', text: '【展開中】あなたに1以上のダメージを与えた《攻撃》の解決後に、このカードの上の桜花結晶を全てをダストに送る。 \n【破棄時】現在のフェイズを終了する。 \n----\n【再起】灰塵-ダストが12以上である。'}</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" ht="36" x14ac:dyDescent="0.15">
+      <c r="A118" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I118" s="13"/>
+      <c r="K118" s="13"/>
+      <c r="M118" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="P118" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="Q118" s="13"/>
+      <c r="R118" s="3" t="str">
+        <f>", '"&amp;A118&amp;"': {megami: '"&amp;B118&amp;"', name: '"&amp;C118&amp;"', ruby: '"&amp;D118&amp;"', baseType: '"&amp;VLOOKUP(E118,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F118,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G118&lt;&gt;"",", '"&amp; VLOOKUP(G118,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H118&lt;&gt;"", ", range: '"&amp;H118&amp;"'", "")&amp;IF(J118&lt;&gt;"", ", damage: '"&amp;J118&amp;"'", "")&amp;IF(L118&lt;&gt;"", ", capacity: '"&amp;L118&amp;"'", "")&amp;IF(M118&lt;&gt;"", ", cost: '"&amp;M118&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P118, CHAR(10), "\n")&amp;"'"&amp;IF(N118="○", ", sealable: true", "")&amp;IF(O118="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-utsuro-o-s-4': {megami: 'utsuro', name: '魔食', ruby: 'エロージャ', baseType: 'special', types: ['action'], cost: '5', text: '【使用済】あなたの開始フェイズの開始時に相手は以下のどちらかを選ぶ。\n・相オーラ→ダスト：1\n・相フレア→ダスト：2'}</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S120" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I79" s="4" t="s">
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S121" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J79" s="2" t="s">
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S122" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K79" s="4" t="s">
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S123" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L79" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="M79" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="N79" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="O79" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="P79" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q79" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="R79" s="1" t="s">
-        <v>45</v>
-      </c>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="C126" s="10"/>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="C127" s="10"/>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="C128" s="10"/>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C129" s="10"/>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C130" s="10"/>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C131" s="10"/>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C132" s="10"/>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C133" s="10"/>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C134" s="10"/>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C135" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4037,10 +6889,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="B3" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -4067,10 +6919,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D6" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/sheet/cards.xlsx
+++ b/sheet/cards.xlsx
@@ -1492,18 +1492,11 @@
     <t>いんだすとりあ</t>
   </si>
   <si>
-    <t>神渉装置：枢式</t>
-  </si>
-  <si>
     <t>10-kururu-o-s-3-ex1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>でゅーぷりぎあ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>かんしょうそうちくるるしき</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1534,25 +1527,6 @@
   </si>
   <si>
     <t>間合→ダスト：1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;行行行対対&gt; 相手のライフに1ダメージを与える。 </t>
-    <rPh sb="1" eb="2">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>タイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1565,55 +1539,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">&lt;行行付&gt; あなたの手札から《全力》カードを1枚選び、そのカードを使用してもよい。 
-(フェイズは終了しない) </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;攻攻行行行付付&gt; 相手の切札を見て、その中から1枚選び、それを使用済にしてもよい。
-----
-相手の使用済の切札1枚を選んでもよい。そのカードを消費を支払わずに使用する(《全力》カードでもよい)。その後、このカードを取り除く。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;対全全&gt; 【使用済】あなたの終了フェイズに相手のライフに1ダメージを与えてもよい。そうした場合、山札を再構成する。 
-----
-【使用済】あなたが《全力》カードを使用した時、その解決後に基本動作を1回行ってもよい。
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>相オーラ→自オーラ：1 
 【使用済】あなたの使用済の切札が未使用に戻った時、このカードを消費を支払わずに使用してもよい。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">&lt;攻対&gt; 【展開時】このカードの上に桜花結晶を4個ダストから置く。 
-----
-【展開中】各ターンにおける相手の2回目の《攻撃》は打ち消される。
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>【展開中】あなたが《行動》カードを使用した時、その解決後に基本動作を1回行ってもよい。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;攻対&gt; あなたの使用済の切札を1枚選んでもよい。そのカードを消費を支払わずに使用する。(《全力》カードでもよい) 
-----
-あなたの集中力は0になる。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;攻攻&gt; 相手のオーラに5ダメージを与える。 
-----
-&lt;付付&gt; 相手のライフに1ダメージを与える。</t>
-    <rPh sb="34" eb="36">
-      <t>アイテ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>アタ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2027,9 +1958,6 @@
     <t>Omega-Burst</t>
   </si>
   <si>
-    <t>Julia's BlackBox</t>
-  </si>
-  <si>
     <t>バーニングスチーム</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2252,6 +2180,87 @@
   </si>
   <si>
     <t>【即再起】あなたが騎動により間合を変化させる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>----
+&lt;攻攻&gt; 相手のオーラに5ダメージを与える。 
+----
+&lt;付付&gt; 相手のライフに1ダメージを与える。</t>
+    <rPh sb="39" eb="41">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>アタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>----
+&lt;攻対&gt; あなたの使用済の切札を1枚選んでもよい。そのカードを消費を支払わずに使用する。(《全力》カードでもよい) 
+----
+あなたの集中力は0になる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">----
+&lt;攻対&gt; 【展開時】このカードの上に桜花結晶を4個ダストから置く。 
+----
+【展開中】各ターンにおける相手の2回目の《攻撃》は打ち消される。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">----
+&lt;対全全&gt; 【使用済】あなたの終了フェイズに相手のライフに1ダメージを与えてもよい。そうした場合、山札を再構成する。 
+----
+【使用済】あなたが《全力》カードを使用した時、その解決後に基本動作を1回行ってもよい。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>----
+&lt;攻攻行行行付付&gt; 相手の切札を見て、その中から1枚選び、それを使用済にしてもよい。
+----
+相手の使用済の切札1枚を選んでもよい。そのカードを消費を支払わずに使用する(《全力》カードでもよい)。その後、このカードを取り除く。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">----
+&lt;行行行対対&gt; 相手のライフに1ダメージを与える。 </t>
+    <rPh sb="6" eb="7">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">----
+&lt;行行付&gt; あなたの手札から《全力》カードを1枚選び、そのカードを使用してもよい。 
+(フェイズは終了しない) </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かんしょうそうち　くるるしき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神渉装置:枢式</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Julia\'s BlackBox</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2704,9 +2713,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J83" sqref="J83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2770,7 +2779,7 @@
         <v>212</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="P1" s="4" t="s">
         <v>15</v>
@@ -3122,7 +3131,7 @@
         <v>56</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="Q11" s="13"/>
       <c r="R11" s="3" t="str">
@@ -3539,7 +3548,7 @@
         <v>134</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="Q23" s="13"/>
       <c r="R23" s="3" t="str">
@@ -3741,10 +3750,10 @@
       <c r="I29" s="11"/>
       <c r="K29" s="11"/>
       <c r="P29" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="Q29" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R29" s="9" t="str">
         <f>", '"&amp;A29&amp;"': {megami: '"&amp;B29&amp;"', name: '"&amp;C29&amp;"', ruby: '"&amp;D29&amp;"', baseType: '"&amp;VLOOKUP(E29,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F29,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G29&lt;&gt;"",", '"&amp; VLOOKUP(G29,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H29&lt;&gt;"", ", range: '"&amp;H29&amp;"'", "")&amp;IF(I29&lt;&gt;"", ", rangeOpened: '"&amp;I29&amp;"'", "")&amp;IF(J29&lt;&gt;"", ", damage: '"&amp;J29&amp;"'", "")&amp;IF(K29&lt;&gt;"", ", damageOpened: '"&amp;K29&amp;"'", "")&amp;IF(L29&lt;&gt;"", ", capacity: '"&amp;L29&amp;"'", "")&amp;IF(M29&lt;&gt;"", ", cost: '"&amp;M29&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P29, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(Q29, CHAR(10), "\n")&amp;"'}"</f>
@@ -3773,7 +3782,7 @@
         <v>55</v>
       </c>
       <c r="P30" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="R30" s="9" t="str">
         <f>", '"&amp;A30&amp;"': {megami: '"&amp;B30&amp;"', name: '"&amp;C30&amp;"', ruby: '"&amp;D30&amp;"', baseType: '"&amp;VLOOKUP(E30,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F30,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G30&lt;&gt;"",", '"&amp; VLOOKUP(G30,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H30&lt;&gt;"", ", range: '"&amp;H30&amp;"'", "")&amp;IF(I30&lt;&gt;"", ", rangeOpened: '"&amp;I30&amp;"'", "")&amp;IF(J30&lt;&gt;"", ", damage: '"&amp;J30&amp;"'", "")&amp;IF(K30&lt;&gt;"", ", damageOpened: '"&amp;K30&amp;"'", "")&amp;IF(L30&lt;&gt;"", ", capacity: '"&amp;L30&amp;"'", "")&amp;IF(M30&lt;&gt;"", ", cost: '"&amp;M30&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P30, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(Q30, CHAR(10), "\n")&amp;"'}"</f>
@@ -3813,7 +3822,7 @@
       </c>
       <c r="P31" s="5"/>
       <c r="Q31" s="5" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="R31" s="9" t="str">
         <f>", '"&amp;A31&amp;"': {megami: '"&amp;B31&amp;"', name: '"&amp;C31&amp;"', ruby: '"&amp;D31&amp;"', baseType: '"&amp;VLOOKUP(E31,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F31,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G31&lt;&gt;"",", '"&amp; VLOOKUP(G31,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H31&lt;&gt;"", ", range: '"&amp;H31&amp;"'", "")&amp;IF(I31&lt;&gt;"", ", rangeOpened: '"&amp;I31&amp;"'", "")&amp;IF(J31&lt;&gt;"", ", damage: '"&amp;J31&amp;"'", "")&amp;IF(K31&lt;&gt;"", ", damageOpened: '"&amp;K31&amp;"'", "")&amp;IF(L31&lt;&gt;"", ", capacity: '"&amp;L31&amp;"'", "")&amp;IF(M31&lt;&gt;"", ", cost: '"&amp;M31&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P31, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(Q31, CHAR(10), "\n")&amp;"'}"</f>
@@ -3885,7 +3894,7 @@
         <v>244</v>
       </c>
       <c r="P33" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="R33" s="9" t="str">
         <f>", '"&amp;A33&amp;"': {megami: '"&amp;B33&amp;"', name: '"&amp;C33&amp;"', ruby: '"&amp;D33&amp;"', baseType: '"&amp;VLOOKUP(E33,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F33,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G33&lt;&gt;"",", '"&amp; VLOOKUP(G33,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H33&lt;&gt;"", ", range: '"&amp;H33&amp;"'", "")&amp;IF(I33&lt;&gt;"", ", rangeOpened: '"&amp;I33&amp;"'", "")&amp;IF(J33&lt;&gt;"", ", damage: '"&amp;J33&amp;"'", "")&amp;IF(K33&lt;&gt;"", ", damageOpened: '"&amp;K33&amp;"'", "")&amp;IF(L33&lt;&gt;"", ", capacity: '"&amp;L33&amp;"'", "")&amp;IF(M33&lt;&gt;"", ", cost: '"&amp;M33&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P33, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(Q33, CHAR(10), "\n")&amp;"'}"</f>
@@ -3917,7 +3926,7 @@
         <v>245</v>
       </c>
       <c r="P34" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="R34" s="9" t="str">
         <f>", '"&amp;A34&amp;"': {megami: '"&amp;B34&amp;"', name: '"&amp;C34&amp;"', ruby: '"&amp;D34&amp;"', baseType: '"&amp;VLOOKUP(E34,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F34,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G34&lt;&gt;"",", '"&amp; VLOOKUP(G34,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H34&lt;&gt;"", ", range: '"&amp;H34&amp;"'", "")&amp;IF(I34&lt;&gt;"", ", rangeOpened: '"&amp;I34&amp;"'", "")&amp;IF(J34&lt;&gt;"", ", damage: '"&amp;J34&amp;"'", "")&amp;IF(K34&lt;&gt;"", ", damageOpened: '"&amp;K34&amp;"'", "")&amp;IF(L34&lt;&gt;"", ", capacity: '"&amp;L34&amp;"'", "")&amp;IF(M34&lt;&gt;"", ", cost: '"&amp;M34&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P34, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(Q34, CHAR(10), "\n")&amp;"'}"</f>
@@ -4645,7 +4654,7 @@
         <v>78</v>
       </c>
       <c r="P55" s="5" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="Q55" s="13"/>
       <c r="R55" s="3" t="str">
@@ -5032,7 +5041,7 @@
         <v>56</v>
       </c>
       <c r="P66" s="4" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="Q66" s="13"/>
       <c r="R66" s="3" t="str">
@@ -5202,7 +5211,7 @@
         <v>, '09-chikage-o-p-4': {megami: 'chikage', name: '滅灯毒', ruby: 'ほろびどく', baseType: 'extra', types: ['action'], text: '毒（このカードは伏せ札にできない） \n自オーラ→ダスト：3'}</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:18" ht="24" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
         <v>363</v>
       </c>
@@ -5221,15 +5230,15 @@
       <c r="I72" s="13"/>
       <c r="K72" s="13"/>
       <c r="P72" s="5" t="s">
-        <v>394</v>
+        <v>563</v>
       </c>
       <c r="Q72" s="13"/>
       <c r="R72" s="3" t="str">
         <f>", '"&amp;A72&amp;"': {megami: '"&amp;B72&amp;"', name: '"&amp;C72&amp;"', ruby: '"&amp;D72&amp;"', baseType: '"&amp;VLOOKUP(E72,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F72,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G72&lt;&gt;"",", '"&amp; VLOOKUP(G72,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H72&lt;&gt;"", ", range: '"&amp;H72&amp;"'", "")&amp;IF(J72&lt;&gt;"", ", damage: '"&amp;J72&amp;"'", "")&amp;IF(L72&lt;&gt;"", ", capacity: '"&amp;L72&amp;"'", "")&amp;IF(M72&lt;&gt;"", ", cost: '"&amp;M72&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P72, CHAR(10), "\n")&amp;"'"&amp;IF(N72="○", ", sealable: true", "")&amp;IF(O72="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '10-kururu-o-n-1': {megami: 'kururu', name: 'えれきてる', ruby: '', baseType: 'normal', types: ['action'], text: '&lt;行行行対対&gt; 相手のライフに1ダメージを与える。 '}</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" ht="36" x14ac:dyDescent="0.15">
+        <v>, '10-kururu-o-n-1': {megami: 'kururu', name: 'えれきてる', ruby: '', baseType: 'normal', types: ['action'], text: '----\n&lt;行行行対対&gt; 相手のライフに1ダメージを与える。 '}</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" ht="48" x14ac:dyDescent="0.15">
       <c r="A73" s="4" t="s">
         <v>364</v>
       </c>
@@ -5248,12 +5257,12 @@
       <c r="I73" s="13"/>
       <c r="K73" s="13"/>
       <c r="P73" s="5" t="s">
-        <v>396</v>
+        <v>564</v>
       </c>
       <c r="Q73" s="13"/>
       <c r="R73" s="3" t="str">
         <f>", '"&amp;A73&amp;"': {megami: '"&amp;B73&amp;"', name: '"&amp;C73&amp;"', ruby: '"&amp;D73&amp;"', baseType: '"&amp;VLOOKUP(E73,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F73,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G73&lt;&gt;"",", '"&amp; VLOOKUP(G73,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H73&lt;&gt;"", ", range: '"&amp;H73&amp;"'", "")&amp;IF(J73&lt;&gt;"", ", damage: '"&amp;J73&amp;"'", "")&amp;IF(L73&lt;&gt;"", ", capacity: '"&amp;L73&amp;"'", "")&amp;IF(M73&lt;&gt;"", ", cost: '"&amp;M73&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P73, CHAR(10), "\n")&amp;"'"&amp;IF(N73="○", ", sealable: true", "")&amp;IF(O73="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '10-kururu-o-n-2': {megami: 'kururu', name: 'あくせらー', ruby: '', baseType: 'normal', types: ['action'], text: '&lt;行行付&gt; あなたの手札から《全力》カードを1枚選び、そのカードを使用してもよい。 \n(フェイズは終了しない) '}</v>
+        <v>, '10-kururu-o-n-2': {megami: 'kururu', name: 'あくせらー', ruby: '', baseType: 'normal', types: ['action'], text: '----\n&lt;行行付&gt; あなたの手札から《全力》カードを1枚選び、そのカードを使用してもよい。 \n(フェイズは終了しない) '}</v>
       </c>
     </row>
     <row r="74" spans="1:18" ht="72" x14ac:dyDescent="0.15">
@@ -5278,7 +5287,7 @@
       <c r="I74" s="13"/>
       <c r="K74" s="13"/>
       <c r="P74" s="5" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="Q74" s="13"/>
       <c r="R74" s="3" t="str">
@@ -5286,7 +5295,7 @@
         <v>, '10-kururu-o-n-3': {megami: 'kururu', name: 'くるるーん', ruby: '', baseType: 'normal', types: ['action', 'reaction'], text: '【常時】このカードは対応でしか使用できない。 \n以下から2つまでを選び、任意の順に行う。 \n(同じものを2回選ぶことはできない)\n・カードを1枚引く。\n・伏せ札1枚を山札の底に置く。\n・相手は手札を1枚捨て札にする。'}</v>
       </c>
     </row>
-    <row r="75" spans="1:18" ht="36" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:18" ht="48" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
         <v>366</v>
       </c>
@@ -5308,15 +5317,15 @@
       <c r="I75" s="13"/>
       <c r="K75" s="13"/>
       <c r="P75" s="5" t="s">
-        <v>403</v>
+        <v>558</v>
       </c>
       <c r="Q75" s="13"/>
       <c r="R75" s="3" t="str">
         <f>", '"&amp;A75&amp;"': {megami: '"&amp;B75&amp;"', name: '"&amp;C75&amp;"', ruby: '"&amp;D75&amp;"', baseType: '"&amp;VLOOKUP(E75,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F75,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G75&lt;&gt;"",", '"&amp; VLOOKUP(G75,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H75&lt;&gt;"", ", range: '"&amp;H75&amp;"'", "")&amp;IF(J75&lt;&gt;"", ", damage: '"&amp;J75&amp;"'", "")&amp;IF(L75&lt;&gt;"", ", capacity: '"&amp;L75&amp;"'", "")&amp;IF(M75&lt;&gt;"", ", cost: '"&amp;M75&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P75, CHAR(10), "\n")&amp;"'"&amp;IF(N75="○", ", sealable: true", "")&amp;IF(O75="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '10-kururu-o-n-4': {megami: 'kururu', name: 'とるねーど', ruby: '', baseType: 'normal', types: ['action', 'fullpower'], text: '&lt;攻攻&gt; 相手のオーラに5ダメージを与える。 \n----\n&lt;付付&gt; 相手のライフに1ダメージを与える。'}</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" ht="48" x14ac:dyDescent="0.15">
+        <v>, '10-kururu-o-n-4': {megami: 'kururu', name: 'とるねーど', ruby: '', baseType: 'normal', types: ['action', 'fullpower'], text: '----\n&lt;攻攻&gt; 相手のオーラに5ダメージを与える。 \n----\n&lt;付付&gt; 相手のライフに1ダメージを与える。'}</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" ht="60" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
         <v>367</v>
       </c>
@@ -5338,12 +5347,12 @@
       <c r="I76" s="13"/>
       <c r="K76" s="13"/>
       <c r="P76" s="5" t="s">
-        <v>402</v>
+        <v>559</v>
       </c>
       <c r="Q76" s="13"/>
       <c r="R76" s="3" t="str">
         <f>", '"&amp;A76&amp;"': {megami: '"&amp;B76&amp;"', name: '"&amp;C76&amp;"', ruby: '"&amp;D76&amp;"', baseType: '"&amp;VLOOKUP(E76,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F76,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G76&lt;&gt;"",", '"&amp; VLOOKUP(G76,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H76&lt;&gt;"", ", range: '"&amp;H76&amp;"'", "")&amp;IF(J76&lt;&gt;"", ", damage: '"&amp;J76&amp;"'", "")&amp;IF(L76&lt;&gt;"", ", capacity: '"&amp;L76&amp;"'", "")&amp;IF(M76&lt;&gt;"", ", cost: '"&amp;M76&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P76, CHAR(10), "\n")&amp;"'"&amp;IF(N76="○", ", sealable: true", "")&amp;IF(O76="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '10-kururu-o-n-5': {megami: 'kururu', name: 'りげいなー', ruby: '', baseType: 'normal', types: ['action', 'fullpower'], text: '&lt;攻対&gt; あなたの使用済の切札を1枚選んでもよい。そのカードを消費を支払わずに使用する。(《全力》カードでもよい) \n----\nあなたの集中力は0になる。'}</v>
+        <v>, '10-kururu-o-n-5': {megami: 'kururu', name: 'りげいなー', ruby: '', baseType: 'normal', types: ['action', 'fullpower'], text: '----\n&lt;攻対&gt; あなたの使用済の切札を1枚選んでもよい。そのカードを消費を支払わずに使用する。(《全力》カードでもよい) \n----\nあなたの集中力は0になる。'}</v>
       </c>
     </row>
     <row r="77" spans="1:18" ht="24" x14ac:dyDescent="0.15">
@@ -5368,7 +5377,7 @@
         <v>108</v>
       </c>
       <c r="P77" s="5" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="Q77" s="13"/>
       <c r="R77" s="3" t="str">
@@ -5376,7 +5385,7 @@
         <v>, '10-kururu-o-n-6': {megami: 'kururu', name: 'もじゅるー', ruby: '', baseType: 'normal', types: ['enhance'], capacity: '3', text: '【展開中】あなたが《行動》カードを使用した時、その解決後に基本動作を1回行ってもよい。'}</v>
       </c>
     </row>
-    <row r="78" spans="1:18" ht="48" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:18" ht="60" x14ac:dyDescent="0.15">
       <c r="A78" s="4" t="s">
         <v>369</v>
       </c>
@@ -5398,12 +5407,12 @@
         <v>221</v>
       </c>
       <c r="P78" s="5" t="s">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="Q78" s="13"/>
       <c r="R78" s="3" t="str">
         <f>", '"&amp;A78&amp;"': {megami: '"&amp;B78&amp;"', name: '"&amp;C78&amp;"', ruby: '"&amp;D78&amp;"', baseType: '"&amp;VLOOKUP(E78,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F78,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G78&lt;&gt;"",", '"&amp; VLOOKUP(G78,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H78&lt;&gt;"", ", range: '"&amp;H78&amp;"'", "")&amp;IF(J78&lt;&gt;"", ", damage: '"&amp;J78&amp;"'", "")&amp;IF(L78&lt;&gt;"", ", capacity: '"&amp;L78&amp;"'", "")&amp;IF(M78&lt;&gt;"", ", cost: '"&amp;M78&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P78, CHAR(10), "\n")&amp;"'"&amp;IF(N78="○", ", sealable: true", "")&amp;IF(O78="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '10-kururu-o-n-7': {megami: 'kururu', name: 'りふれくた', ruby: '', baseType: 'normal', types: ['enhance'], capacity: '0', text: '&lt;攻対&gt; 【展開時】このカードの上に桜花結晶を4個ダストから置く。 \n----\n【展開中】各ターンにおける相手の2回目の《攻撃》は打ち消される。\n'}</v>
+        <v>, '10-kururu-o-n-7': {megami: 'kururu', name: 'りふれくた', ruby: '', baseType: 'normal', types: ['enhance'], capacity: '0', text: '----\n&lt;攻対&gt; 【展開時】このカードの上に桜花結晶を4個ダストから置く。 \n----\n【展開中】各ターンにおける相手の2回目の《攻撃》は打ち消される。\n'}</v>
       </c>
     </row>
     <row r="79" spans="1:18" ht="36" x14ac:dyDescent="0.15">
@@ -5431,7 +5440,7 @@
         <v>55</v>
       </c>
       <c r="P79" s="5" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="Q79" s="13"/>
       <c r="R79" s="3" t="str">
@@ -5439,7 +5448,7 @@
         <v>, '10-kururu-o-s-1': {megami: 'kururu', name: 'どれーんでびる', ruby: '', baseType: 'special', types: ['action', 'reaction'], cost: '2', text: '相オーラ→自オーラ：1 \n【使用済】あなたの使用済の切札が未使用に戻った時、このカードを消費を支払わずに使用してもよい。'}</v>
       </c>
     </row>
-    <row r="80" spans="1:18" ht="72" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:18" ht="84" x14ac:dyDescent="0.15">
       <c r="A80" s="4" t="s">
         <v>371</v>
       </c>
@@ -5461,12 +5470,12 @@
         <v>90</v>
       </c>
       <c r="P80" s="5" t="s">
-        <v>398</v>
+        <v>561</v>
       </c>
       <c r="Q80" s="13"/>
       <c r="R80" s="3" t="str">
         <f>", '"&amp;A80&amp;"': {megami: '"&amp;B80&amp;"', name: '"&amp;C80&amp;"', ruby: '"&amp;D80&amp;"', baseType: '"&amp;VLOOKUP(E80,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F80,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G80&lt;&gt;"",", '"&amp; VLOOKUP(G80,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H80&lt;&gt;"", ", range: '"&amp;H80&amp;"'", "")&amp;IF(J80&lt;&gt;"", ", damage: '"&amp;J80&amp;"'", "")&amp;IF(L80&lt;&gt;"", ", capacity: '"&amp;L80&amp;"'", "")&amp;IF(M80&lt;&gt;"", ", cost: '"&amp;M80&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P80, CHAR(10), "\n")&amp;"'"&amp;IF(N80="○", ", sealable: true", "")&amp;IF(O80="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '10-kururu-o-s-2': {megami: 'kururu', name: 'びっぐごーれむ', ruby: '', baseType: 'special', types: ['action'], cost: '4', text: '&lt;対全全&gt; 【使用済】あなたの終了フェイズに相手のライフに1ダメージを与えてもよい。そうした場合、山札を再構成する。 \n----\n【使用済】あなたが《全力》カードを使用した時、その解決後に基本動作を1回行ってもよい。\n'}</v>
+        <v>, '10-kururu-o-s-2': {megami: 'kururu', name: 'びっぐごーれむ', ruby: '', baseType: 'special', types: ['action'], cost: '4', text: '----\n&lt;対全全&gt; 【使用済】あなたの終了フェイズに相手のライフに1ダメージを与えてもよい。そうした場合、山札を再構成する。 \n----\n【使用済】あなたが《全力》カードを使用した時、その解決後に基本動作を1回行ってもよい。\n'}</v>
       </c>
     </row>
     <row r="81" spans="1:18" ht="60" x14ac:dyDescent="0.15">
@@ -5494,7 +5503,7 @@
         <v>295</v>
       </c>
       <c r="P81" s="5" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="Q81" s="13"/>
       <c r="R81" s="3" t="str">
@@ -5502,7 +5511,7 @@
         <v>, '10-kururu-o-s-3': {megami: 'kururu', name: 'いんだすとりあ', ruby: '', baseType: 'special', types: ['action'], cost: '1', text: 'このカードにカードが封印されていないならば、あなたの手札から《付与》でないカードを1枚選び、そのカードをこのカードの下に表向きで封印してもよい。 \nあなたの追加札から「でゅーぷりぎあ」を山札の底に1枚置く(最大で合計3枚)。 \n----\n【即再起】あなたが山札を再構成する(再構成の後に未使用に戻る)。', sealable: true}</v>
       </c>
     </row>
-    <row r="82" spans="1:18" ht="60" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:18" ht="72" x14ac:dyDescent="0.15">
       <c r="A82" s="4" t="s">
         <v>373</v>
       </c>
@@ -5510,10 +5519,10 @@
         <v>362</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>384</v>
+        <v>566</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>387</v>
+        <v>565</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>19</v>
@@ -5530,34 +5539,34 @@
         <v>295</v>
       </c>
       <c r="P82" s="5" t="s">
-        <v>397</v>
+        <v>562</v>
       </c>
       <c r="Q82" s="13"/>
       <c r="R82" s="3" t="str">
         <f>", '"&amp;A82&amp;"': {megami: '"&amp;B82&amp;"', name: '"&amp;C82&amp;"', ruby: '"&amp;D82&amp;"', baseType: '"&amp;VLOOKUP(E82,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F82,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G82&lt;&gt;"",", '"&amp; VLOOKUP(G82,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H82&lt;&gt;"", ", range: '"&amp;H82&amp;"'", "")&amp;IF(J82&lt;&gt;"", ", damage: '"&amp;J82&amp;"'", "")&amp;IF(L82&lt;&gt;"", ", capacity: '"&amp;L82&amp;"'", "")&amp;IF(M82&lt;&gt;"", ", cost: '"&amp;M82&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P82, CHAR(10), "\n")&amp;"'"&amp;IF(N82="○", ", sealable: true", "")&amp;IF(O82="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '10-kururu-o-s-4': {megami: 'kururu', name: '神渉装置：枢式', ruby: 'かんしょうそうちくるるしき', baseType: 'special', types: ['action'], cost: '3', text: '&lt;攻攻行行行付付&gt; 相手の切札を見て、その中から1枚選び、それを使用済にしてもよい。\n----\n相手の使用済の切札1枚を選んでもよい。そのカードを消費を支払わずに使用する(《全力》カードでもよい)。その後、このカードを取り除く。', removable: true}</v>
+        <v>, '10-kururu-o-s-4': {megami: 'kururu', name: '神渉装置:枢式', ruby: 'かんしょうそうち　くるるしき', baseType: 'special', types: ['action'], cost: '3', text: '----\n&lt;攻攻行行行付付&gt; 相手の切札を見て、その中から1枚選び、それを使用済にしてもよい。\n----\n相手の使用済の切札1枚を選んでもよい。そのカードを消費を支払わずに使用する(《全力》カードでもよい)。その後、このカードを取り除く。', removable: true}</v>
       </c>
     </row>
     <row r="83" spans="1:18" ht="48" x14ac:dyDescent="0.15">
       <c r="A83" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>362</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>192</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="I83" s="13"/>
       <c r="K83" s="13"/>
       <c r="P83" s="5" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="Q83" s="13"/>
       <c r="R83" s="3" t="str">
@@ -5567,16 +5576,16 @@
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A84" s="4" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>7</v>
@@ -5589,11 +5598,11 @@
       </c>
       <c r="I84" s="13"/>
       <c r="J84" s="10" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="K84" s="13"/>
       <c r="P84" s="4" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="Q84" s="13"/>
       <c r="R84" s="3" t="str">
@@ -5603,16 +5612,16 @@
     </row>
     <row r="85" spans="1:18" ht="24" x14ac:dyDescent="0.15">
       <c r="A85" s="4" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>7</v>
@@ -5625,11 +5634,11 @@
       </c>
       <c r="I85" s="13"/>
       <c r="J85" s="10" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="K85" s="13"/>
       <c r="P85" s="5" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="Q85" s="13"/>
       <c r="R85" s="3" t="str">
@@ -5639,16 +5648,16 @@
     </row>
     <row r="86" spans="1:18" ht="36" x14ac:dyDescent="0.15">
       <c r="A86" s="4" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>7</v>
@@ -5661,11 +5670,11 @@
       </c>
       <c r="I86" s="13"/>
       <c r="J86" s="10" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="K86" s="13"/>
       <c r="P86" s="5" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="Q86" s="13"/>
       <c r="R86" s="3" t="str">
@@ -5675,16 +5684,16 @@
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A87" s="4" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>7</v>
@@ -5696,15 +5705,15 @@
         <v>31</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="I87" s="13"/>
       <c r="J87" s="10" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="K87" s="13"/>
       <c r="P87" s="4" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="Q87" s="13"/>
       <c r="R87" s="3" t="str">
@@ -5714,16 +5723,16 @@
     </row>
     <row r="88" spans="1:18" ht="24" x14ac:dyDescent="0.15">
       <c r="A88" s="4" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="C88" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="D88" s="4" t="s">
         <v>514</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>524</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>7</v>
@@ -5735,7 +5744,7 @@
       <c r="J88" s="10"/>
       <c r="K88" s="13"/>
       <c r="P88" s="5" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="Q88" s="13"/>
       <c r="R88" s="3" t="str">
@@ -5745,16 +5754,16 @@
     </row>
     <row r="89" spans="1:18" ht="48" x14ac:dyDescent="0.15">
       <c r="A89" s="4" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="C89" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="D89" s="4" t="s">
         <v>515</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>525</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>7</v>
@@ -5766,7 +5775,7 @@
       <c r="J89" s="10"/>
       <c r="K89" s="13"/>
       <c r="P89" s="5" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="Q89" s="13"/>
       <c r="R89" s="3" t="str">
@@ -5776,16 +5785,16 @@
     </row>
     <row r="90" spans="1:18" ht="24" x14ac:dyDescent="0.15">
       <c r="A90" s="4" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="C90" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="D90" s="4" t="s">
         <v>516</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>526</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>7</v>
@@ -5800,7 +5809,7 @@
       <c r="J90" s="10"/>
       <c r="K90" s="13"/>
       <c r="P90" s="5" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="Q90" s="13"/>
       <c r="R90" s="3" t="str">
@@ -5810,16 +5819,16 @@
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A91" s="4" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="C91" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="D91" s="4" t="s">
         <v>517</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>527</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>19</v>
@@ -5828,18 +5837,18 @@
         <v>8</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="I91" s="13"/>
       <c r="J91" s="10" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="K91" s="13"/>
       <c r="M91" s="4" t="s">
         <v>56</v>
       </c>
       <c r="P91" s="5" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="Q91" s="13"/>
       <c r="R91" s="3" t="str">
@@ -5849,16 +5858,16 @@
     </row>
     <row r="92" spans="1:18" ht="36" x14ac:dyDescent="0.15">
       <c r="A92" s="4" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>19</v>
@@ -5876,7 +5885,7 @@
         <v>90</v>
       </c>
       <c r="P92" s="5" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="Q92" s="13"/>
       <c r="R92" s="3" t="str">
@@ -5886,16 +5895,16 @@
     </row>
     <row r="93" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>520</v>
+        <v>567</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>19</v>
@@ -5913,26 +5922,26 @@
         <v>221</v>
       </c>
       <c r="P93" s="8" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="Q93" s="13"/>
       <c r="R93" s="3" t="str">
         <f>", '"&amp;A93&amp;"': {megami: '"&amp;B93&amp;"', name: '"&amp;C93&amp;"', ruby: '"&amp;D93&amp;"', baseType: '"&amp;VLOOKUP(E93,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F93,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G93&lt;&gt;"",", '"&amp; VLOOKUP(G93,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H93&lt;&gt;"", ", range: '"&amp;H93&amp;"'", "")&amp;IF(J93&lt;&gt;"", ", damage: '"&amp;J93&amp;"'", "")&amp;IF(L93&lt;&gt;"", ", capacity: '"&amp;L93&amp;"'", "")&amp;IF(M93&lt;&gt;"", ", cost: '"&amp;M93&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P93, CHAR(10), "\n")&amp;"'"&amp;IF(N93="○", ", sealable: true", "")&amp;IF(O93="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '11-thallya-o-s-4': {megami: 'thallya', name: 'Julia's BlackBox', ruby: 'ジュリアズ　ブラックボックス', baseType: 'special', types: ['action', 'fullpower'], cost: '0', text: 'あなたのマシンに造花結晶がないならば、あなたのマシンはTransFormし、あなたの燃焼済の造花結晶を2つ回復する。そうでない場合、このカードを未使用に戻す。'}</v>
+        <v>, '11-thallya-o-s-4': {megami: 'thallya', name: 'Julia\'s BlackBox', ruby: 'ジュリアズ　ブラックボックス', baseType: 'special', types: ['action', 'fullpower'], cost: '0', text: 'あなたのマシンに造花結晶がないならば、あなたのマシンはTransFormし、あなたの燃焼済の造花結晶を2つ回復する。そうでない場合、このカードを未使用に戻す。'}</v>
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A94" s="4" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="E94" s="4" t="s">
         <v>7</v>
@@ -5941,11 +5950,11 @@
         <v>8</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="I94" s="13"/>
       <c r="J94" s="2" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="K94" s="13"/>
       <c r="Q94" s="13"/>
@@ -5956,16 +5965,16 @@
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A95" s="4" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>7</v>
@@ -5978,11 +5987,11 @@
       </c>
       <c r="I95" s="13"/>
       <c r="J95" s="2" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="K95" s="13"/>
       <c r="P95" s="4" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="Q95" s="13"/>
       <c r="R95" s="3" t="str">
@@ -5992,16 +6001,16 @@
     </row>
     <row r="96" spans="1:18" ht="24" x14ac:dyDescent="0.15">
       <c r="A96" s="4" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>7</v>
@@ -6010,15 +6019,15 @@
         <v>8</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="I96" s="13"/>
       <c r="J96" s="2" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="K96" s="13"/>
       <c r="P96" s="5" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="Q96" s="13"/>
       <c r="R96" s="3" t="str">
@@ -6028,16 +6037,16 @@
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A97" s="4" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>7</v>
@@ -6048,7 +6057,7 @@
       <c r="I97" s="13"/>
       <c r="K97" s="13"/>
       <c r="P97" s="4" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="Q97" s="13"/>
       <c r="R97" s="3" t="str">
@@ -6058,16 +6067,16 @@
     </row>
     <row r="98" spans="1:18" ht="36" x14ac:dyDescent="0.15">
       <c r="A98" s="4" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>7</v>
@@ -6078,7 +6087,7 @@
       <c r="I98" s="13"/>
       <c r="K98" s="13"/>
       <c r="P98" s="5" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="Q98" s="13"/>
       <c r="R98" s="3" t="str">
@@ -6088,16 +6097,16 @@
     </row>
     <row r="99" spans="1:18" ht="36" x14ac:dyDescent="0.15">
       <c r="A99" s="4" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>7</v>
@@ -6111,7 +6120,7 @@
       <c r="I99" s="13"/>
       <c r="K99" s="13"/>
       <c r="P99" s="5" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="Q99" s="13"/>
       <c r="R99" s="3" t="str">
@@ -6121,16 +6130,16 @@
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A100" s="4" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="E100" s="4" t="s">
         <v>7</v>
@@ -6144,7 +6153,7 @@
       <c r="I100" s="13"/>
       <c r="K100" s="13"/>
       <c r="P100" s="4" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="Q100" s="13"/>
       <c r="R100" s="3" t="str">
@@ -6154,16 +6163,16 @@
     </row>
     <row r="101" spans="1:18" ht="36" x14ac:dyDescent="0.15">
       <c r="A101" s="4" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>19</v>
@@ -6172,18 +6181,18 @@
         <v>8</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="I101" s="13"/>
       <c r="J101" s="2" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="K101" s="13"/>
       <c r="M101" s="4" t="s">
         <v>108</v>
       </c>
       <c r="P101" s="5" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="Q101" s="13"/>
       <c r="R101" s="3" t="str">
@@ -6193,16 +6202,16 @@
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A102" s="4" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="E102" s="4" t="s">
         <v>19</v>
@@ -6219,7 +6228,7 @@
         <v>274</v>
       </c>
       <c r="P102" s="4" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="Q102" s="13"/>
       <c r="R102" s="3" t="str">
@@ -6229,16 +6238,16 @@
     </row>
     <row r="103" spans="1:18" ht="60" x14ac:dyDescent="0.15">
       <c r="A103" s="4" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="E103" s="4" t="s">
         <v>19</v>
@@ -6255,7 +6264,7 @@
         <v>295</v>
       </c>
       <c r="P103" s="5" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="Q103" s="13"/>
       <c r="R103" s="3" t="str">
@@ -6265,16 +6274,16 @@
     </row>
     <row r="104" spans="1:18" ht="24" x14ac:dyDescent="0.15">
       <c r="A104" s="4" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="E104" s="4" t="s">
         <v>19</v>
@@ -6294,7 +6303,7 @@
         <v>108</v>
       </c>
       <c r="P104" s="5" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="Q104" s="13"/>
       <c r="R104" s="3" t="str">
@@ -6304,16 +6313,16 @@
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A105" s="4" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="E105" s="4" t="s">
         <v>192</v>
@@ -6326,7 +6335,7 @@
       </c>
       <c r="I105" s="13"/>
       <c r="J105" s="2" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="K105" s="13"/>
       <c r="M105" s="4" t="s">
@@ -6341,16 +6350,16 @@
     </row>
     <row r="106" spans="1:18" ht="24" x14ac:dyDescent="0.15">
       <c r="A106" s="4" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="E106" s="4" t="s">
         <v>192</v>
@@ -6364,7 +6373,7 @@
         <v>56</v>
       </c>
       <c r="P106" s="5" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="Q106" s="13"/>
       <c r="R106" s="3" t="str">
@@ -6374,16 +6383,16 @@
     </row>
     <row r="107" spans="1:18" ht="36" x14ac:dyDescent="0.15">
       <c r="A107" s="4" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="E107" s="4" t="s">
         <v>192</v>
@@ -6403,7 +6412,7 @@
         <v>295</v>
       </c>
       <c r="P107" s="5" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="Q107" s="13"/>
       <c r="R107" s="3" t="str">
@@ -6413,16 +6422,16 @@
     </row>
     <row r="108" spans="1:18" ht="24" x14ac:dyDescent="0.15">
       <c r="A108" s="4" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="E108" s="4" t="s">
         <v>7</v>
@@ -6431,15 +6440,15 @@
         <v>8</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="I108" s="13"/>
       <c r="J108" s="10" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="K108" s="13"/>
       <c r="P108" s="5" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="Q108" s="13"/>
       <c r="R108" s="3" t="str">
@@ -6449,16 +6458,16 @@
     </row>
     <row r="109" spans="1:18" ht="24" x14ac:dyDescent="0.15">
       <c r="A109" s="4" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="E109" s="4" t="s">
         <v>7</v>
@@ -6467,15 +6476,15 @@
         <v>8</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="I109" s="13"/>
       <c r="J109" s="10" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="K109" s="13"/>
       <c r="P109" s="5" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="Q109" s="13"/>
       <c r="R109" s="3" t="str">
@@ -6485,16 +6494,16 @@
     </row>
     <row r="110" spans="1:18" ht="48" x14ac:dyDescent="0.15">
       <c r="A110" s="4" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="E110" s="4" t="s">
         <v>7</v>
@@ -6507,11 +6516,11 @@
       </c>
       <c r="I110" s="13"/>
       <c r="J110" s="10" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="K110" s="13"/>
       <c r="P110" s="5" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="Q110" s="13"/>
       <c r="R110" s="3" t="str">
@@ -6521,16 +6530,16 @@
     </row>
     <row r="111" spans="1:18" ht="36" x14ac:dyDescent="0.15">
       <c r="A111" s="4" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="E111" s="4" t="s">
         <v>7</v>
@@ -6541,7 +6550,7 @@
       <c r="I111" s="13"/>
       <c r="K111" s="13"/>
       <c r="P111" s="5" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="Q111" s="13"/>
       <c r="R111" s="3" t="str">
@@ -6551,16 +6560,16 @@
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A112" s="4" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="E112" s="4" t="s">
         <v>7</v>
@@ -6571,7 +6580,7 @@
       <c r="I112" s="13"/>
       <c r="K112" s="13"/>
       <c r="P112" s="4" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="Q112" s="13"/>
       <c r="R112" s="3" t="str">
@@ -6581,16 +6590,16 @@
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A113" s="4" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="E113" s="4" t="s">
         <v>7</v>
@@ -6604,7 +6613,7 @@
       <c r="I113" s="13"/>
       <c r="K113" s="13"/>
       <c r="P113" s="5" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="Q113" s="13"/>
       <c r="R113" s="3" t="str">
@@ -6614,16 +6623,16 @@
     </row>
     <row r="114" spans="1:19" ht="36" x14ac:dyDescent="0.15">
       <c r="A114" s="4" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="E114" s="4" t="s">
         <v>7</v>
@@ -6640,7 +6649,7 @@
         <v>55</v>
       </c>
       <c r="P114" s="5" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="Q114" s="13"/>
       <c r="R114" s="3" t="str">
@@ -6650,16 +6659,16 @@
     </row>
     <row r="115" spans="1:19" ht="36" x14ac:dyDescent="0.15">
       <c r="A115" s="4" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="E115" s="4" t="s">
         <v>19</v>
@@ -6670,13 +6679,13 @@
       <c r="I115" s="13"/>
       <c r="K115" s="13"/>
       <c r="M115" s="4" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="O115" s="4" t="s">
         <v>295</v>
       </c>
       <c r="P115" s="5" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="Q115" s="13"/>
       <c r="R115" s="3" t="str">
@@ -6686,16 +6695,16 @@
     </row>
     <row r="116" spans="1:19" ht="24" x14ac:dyDescent="0.15">
       <c r="A116" s="4" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="E116" s="4" t="s">
         <v>19</v>
@@ -6715,7 +6724,7 @@
         <v>108</v>
       </c>
       <c r="P116" s="5" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="Q116" s="13"/>
       <c r="R116" s="3" t="str">
@@ -6725,16 +6734,16 @@
     </row>
     <row r="117" spans="1:19" ht="60" x14ac:dyDescent="0.15">
       <c r="A117" s="4" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E117" s="4" t="s">
         <v>19</v>
@@ -6751,7 +6760,7 @@
         <v>55</v>
       </c>
       <c r="P117" s="5" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="Q117" s="13"/>
       <c r="R117" s="3" t="str">
@@ -6761,16 +6770,16 @@
     </row>
     <row r="118" spans="1:19" ht="36" x14ac:dyDescent="0.15">
       <c r="A118" s="4" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="E118" s="4" t="s">
         <v>19</v>
@@ -6784,7 +6793,7 @@
         <v>78</v>
       </c>
       <c r="P118" s="5" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="Q118" s="13"/>
       <c r="R118" s="3" t="str">

--- a/sheet/cards.xlsx
+++ b/sheet/cards.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="587">
   <si>
     <t>カードID</t>
     <phoneticPr fontId="1"/>
@@ -1551,13 +1551,6 @@
     <t>(カードタイプが不定のカードは使用できない) 
 【常時】このカードはあなたの「いんだすとりあ」に封印されたカードの複製となる。但し、名前は変更されない。 
 (「いんだすとりあ」が未使用なら複製とならないので、使用できない)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>対応不可 
-【攻撃後】相手は手札から《攻撃》でないカード1枚を捨て札にする。それが行えない場合、相手は手札を公開する。 
-----
-【再起】境地-あなたの集中力が2である。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2261,6 +2254,102 @@
   </si>
   <si>
     <t>Julia\'s BlackBox</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>奏流し</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>陽の音</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かなでながし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二重奏:吹弾陽明</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひのね</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>にじゅうそう：すいだんようめい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【常時】あなたのトコヨの切札が1枚以上使用済ならば、この《攻撃》は対応不可を得る。 
+【攻撃後】境地-あなたの集中力が2かつ、あなたの他のメガミの切札が1枚以上使用済ならば、このカードを山札の上に置く。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【展開時/展開中】展開時、およびあなたが《対応》カードを使用した時、その解決後にダスト→自オーラ：1 
+【展開中】相手のターンにこのカードの上の桜花結晶は移動しない。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対応不可 
+【攻撃後】相手は手札から《攻撃》でないカード1枚を捨て札にする。それが行えない場合、相手は手札を公開する。 
+----
+【再起】境地-あなたの集中力が2である。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【使用済】あなたの開始フェイズの開始時に捨て札または伏せ札からカード1枚を選び、それを山札の底に置いてもよい。 
+----
+【即再起】あなたが再構成以外でライフに1以上のダメージを受ける。</t>
+    <rPh sb="63" eb="64">
+      <t>ソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>04-tokoyo-A1-n-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>04-tokoyo-A1-n-7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>04-tokoyo-A1-s-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アナザーID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>置換元カード</t>
+    <rPh sb="0" eb="2">
+      <t>チカン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モト</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2711,31 +2800,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S135"/>
+  <dimension ref="A1:U138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C94" sqref="C94"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T13" sqref="T13:T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="4"/>
-    <col min="3" max="3" width="18.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9" style="4"/>
-    <col min="8" max="9" width="12.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="9" style="4"/>
-    <col min="16" max="16" width="56" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="255.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="1"/>
+    <col min="2" max="3" width="9" style="4"/>
+    <col min="4" max="4" width="14.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="9" style="4"/>
+    <col min="10" max="11" width="12.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="9" style="4"/>
+    <col min="18" max="18" width="56" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="255.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2743,4113 +2833,4239 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="K1" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>542</v>
-      </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="R1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="4">
+      <c r="J2" s="4">
         <v>4</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="13"/>
+      <c r="L2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="13"/>
-      <c r="P2" s="4" t="s">
+      <c r="M2" s="13"/>
+      <c r="R2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="3" t="str">
-        <f>", '"&amp;A2&amp;"': {megami: '"&amp;B2&amp;"', name: '"&amp;C2&amp;"', ruby: '"&amp;D2&amp;"', baseType: '"&amp;VLOOKUP(E2,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F2,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G2&lt;&gt;"",", '"&amp; VLOOKUP(G2,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H2&lt;&gt;"", ", range: '"&amp;H2&amp;"'", "")&amp;IF(J2&lt;&gt;"", ", damage: '"&amp;J2&amp;"'", "")&amp;IF(L2&lt;&gt;"", ", capacity: '"&amp;L2&amp;"'", "")&amp;IF(M2&lt;&gt;"", ", cost: '"&amp;M2&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P2, CHAR(10), "\n")&amp;"'"&amp;IF(N2="○", ", sealable: true", "")&amp;IF(O2="○", ", removable: true", "")&amp;"}"</f>
+      <c r="S2" s="13"/>
+      <c r="T2" s="3" t="str">
+        <f>", '"&amp;A2&amp;"': {megami: '"&amp;B2&amp;"'"&amp;IF(C2&lt;&gt;"", ", anotherID: '" &amp; C2 &amp; "', replace: '" &amp; D2 &amp; "'", "")&amp;", name: '"&amp;E2&amp;"', ruby: '"&amp;F2&amp;"', baseType: '"&amp;VLOOKUP(G2,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H2,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I2&lt;&gt;"",", '"&amp; VLOOKUP(I2,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J2&lt;&gt;"", ", range: '"&amp;J2&amp;"'", "")&amp;IF(L2&lt;&gt;"", ", damage: '"&amp;L2&amp;"'", "")&amp;IF(N2&lt;&gt;"", ", capacity: '"&amp;N2&amp;"'", "")&amp;IF(O2&lt;&gt;"", ", cost: '"&amp;O2&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R2, CHAR(10), "\n")&amp;"'"&amp;IF(P2="○", ", sealable: true", "")&amp;IF(Q2="○", ", removable: true", "")&amp;"}"</f>
         <v>, '04-tokoyo-o-n-1': {megami: 'tokoyo', name: '梳流し', ruby: 'すきながし', baseType: 'normal', types: ['attack'], range: '4', damage: '-/1', text: '【攻撃後】境地-あなたの集中力が2ならば、このカードを山札の上に戻す。'}</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="13"/>
+      <c r="L3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K3" s="13"/>
-      <c r="P3" s="4" t="s">
+      <c r="M3" s="13"/>
+      <c r="R3" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="3" t="str">
-        <f>", '"&amp;A3&amp;"': {megami: '"&amp;B3&amp;"', name: '"&amp;C3&amp;"', ruby: '"&amp;D3&amp;"', baseType: '"&amp;VLOOKUP(E3,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F3,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G3&lt;&gt;"",", '"&amp; VLOOKUP(G3,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H3&lt;&gt;"", ", range: '"&amp;H3&amp;"'", "")&amp;IF(J3&lt;&gt;"", ", damage: '"&amp;J3&amp;"'", "")&amp;IF(L3&lt;&gt;"", ", capacity: '"&amp;L3&amp;"'", "")&amp;IF(M3&lt;&gt;"", ", cost: '"&amp;M3&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P3, CHAR(10), "\n")&amp;"'"&amp;IF(N3="○", ", sealable: true", "")&amp;IF(O3="○", ", removable: true", "")&amp;"}"</f>
+      <c r="S3" s="13"/>
+      <c r="T3" s="3" t="str">
+        <f>", '"&amp;A3&amp;"': {megami: '"&amp;B3&amp;"'"&amp;IF(C3&lt;&gt;"", ", anotherID: '" &amp; C3 &amp; "', replace: '" &amp; D3 &amp; "'", "")&amp;", name: '"&amp;E3&amp;"', ruby: '"&amp;F3&amp;"', baseType: '"&amp;VLOOKUP(G3,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H3,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I3&lt;&gt;"",", '"&amp; VLOOKUP(I3,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J3&lt;&gt;"", ", range: '"&amp;J3&amp;"'", "")&amp;IF(L3&lt;&gt;"", ", damage: '"&amp;L3&amp;"'", "")&amp;IF(N3&lt;&gt;"", ", capacity: '"&amp;N3&amp;"'", "")&amp;IF(O3&lt;&gt;"", ", cost: '"&amp;O3&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R3, CHAR(10), "\n")&amp;"'"&amp;IF(P3="○", ", sealable: true", "")&amp;IF(Q3="○", ", removable: true", "")&amp;"}"</f>
         <v>, '04-tokoyo-o-n-2': {megami: 'tokoyo', name: '雅打ち', ruby: 'みやびうち', baseType: 'normal', types: ['attack'], range: '2-4', damage: '2/1', text: '【攻撃後】境地-あなたの集中力が2ならば、対応した切札でない《攻撃》を打ち消す。'}</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="13"/>
       <c r="K4" s="13"/>
-      <c r="P4" s="5" t="s">
+      <c r="M4" s="13"/>
+      <c r="R4" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="3" t="str">
-        <f>", '"&amp;A4&amp;"': {megami: '"&amp;B4&amp;"', name: '"&amp;C4&amp;"', ruby: '"&amp;D4&amp;"', baseType: '"&amp;VLOOKUP(E4,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F4,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G4&lt;&gt;"",", '"&amp; VLOOKUP(G4,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H4&lt;&gt;"", ", range: '"&amp;H4&amp;"'", "")&amp;IF(J4&lt;&gt;"", ", damage: '"&amp;J4&amp;"'", "")&amp;IF(L4&lt;&gt;"", ", capacity: '"&amp;L4&amp;"'", "")&amp;IF(M4&lt;&gt;"", ", cost: '"&amp;M4&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P4, CHAR(10), "\n")&amp;"'"&amp;IF(N4="○", ", sealable: true", "")&amp;IF(O4="○", ", removable: true", "")&amp;"}"</f>
+      <c r="S4" s="13"/>
+      <c r="T4" s="3" t="str">
+        <f>", '"&amp;A4&amp;"': {megami: '"&amp;B4&amp;"'"&amp;IF(C4&lt;&gt;"", ", anotherID: '" &amp; C4 &amp; "', replace: '" &amp; D4 &amp; "'", "")&amp;", name: '"&amp;E4&amp;"', ruby: '"&amp;F4&amp;"', baseType: '"&amp;VLOOKUP(G4,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H4,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I4&lt;&gt;"",", '"&amp; VLOOKUP(I4,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J4&lt;&gt;"", ", range: '"&amp;J4&amp;"'", "")&amp;IF(L4&lt;&gt;"", ", damage: '"&amp;L4&amp;"'", "")&amp;IF(N4&lt;&gt;"", ", capacity: '"&amp;N4&amp;"'", "")&amp;IF(O4&lt;&gt;"", ", cost: '"&amp;O4&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R4, CHAR(10), "\n")&amp;"'"&amp;IF(P4="○", ", sealable: true", "")&amp;IF(Q4="○", ", removable: true", "")&amp;"}"</f>
         <v>, '04-tokoyo-o-n-3': {megami: 'tokoyo', name: '跳ね兎', ruby: 'はねうさぎ', baseType: 'normal', types: ['action'], text: '現在の間合が3以下ならば、ダスト→間合：2'}</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="36" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20" ht="36" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="13"/>
       <c r="K5" s="13"/>
-      <c r="P5" s="5" t="s">
+      <c r="M5" s="13"/>
+      <c r="R5" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="3" t="str">
-        <f>", '"&amp;A5&amp;"': {megami: '"&amp;B5&amp;"', name: '"&amp;C5&amp;"', ruby: '"&amp;D5&amp;"', baseType: '"&amp;VLOOKUP(E5,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F5,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G5&lt;&gt;"",", '"&amp; VLOOKUP(G5,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H5&lt;&gt;"", ", range: '"&amp;H5&amp;"'", "")&amp;IF(J5&lt;&gt;"", ", damage: '"&amp;J5&amp;"'", "")&amp;IF(L5&lt;&gt;"", ", capacity: '"&amp;L5&amp;"'", "")&amp;IF(M5&lt;&gt;"", ", cost: '"&amp;M5&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P5, CHAR(10), "\n")&amp;"'"&amp;IF(N5="○", ", sealable: true", "")&amp;IF(O5="○", ", removable: true", "")&amp;"}"</f>
+      <c r="S5" s="13"/>
+      <c r="T5" s="3" t="str">
+        <f>", '"&amp;A5&amp;"': {megami: '"&amp;B5&amp;"'"&amp;IF(C5&lt;&gt;"", ", anotherID: '" &amp; C5 &amp; "', replace: '" &amp; D5 &amp; "'", "")&amp;", name: '"&amp;E5&amp;"', ruby: '"&amp;F5&amp;"', baseType: '"&amp;VLOOKUP(G5,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H5,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I5&lt;&gt;"",", '"&amp; VLOOKUP(I5,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J5&lt;&gt;"", ", range: '"&amp;J5&amp;"'", "")&amp;IF(L5&lt;&gt;"", ", damage: '"&amp;L5&amp;"'", "")&amp;IF(N5&lt;&gt;"", ", capacity: '"&amp;N5&amp;"'", "")&amp;IF(O5&lt;&gt;"", ", cost: '"&amp;O5&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R5, CHAR(10), "\n")&amp;"'"&amp;IF(P5="○", ", sealable: true", "")&amp;IF(Q5="○", ", removable: true", "")&amp;"}"</f>
         <v>, '04-tokoyo-o-n-4': {megami: 'tokoyo', name: '詩舞', ruby: 'しぶ', baseType: 'normal', types: ['action', 'reaction'], text: '集中力を1得て、以下から1つを選ぶ。\n・自フレア→自オーラ：1\n・自オーラ→間合：1'}</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="36" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20" ht="36" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="13"/>
       <c r="K6" s="13"/>
-      <c r="P6" s="5" t="s">
+      <c r="M6" s="13"/>
+      <c r="R6" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="3" t="str">
-        <f>", '"&amp;A6&amp;"': {megami: '"&amp;B6&amp;"', name: '"&amp;C6&amp;"', ruby: '"&amp;D6&amp;"', baseType: '"&amp;VLOOKUP(E6,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F6,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G6&lt;&gt;"",", '"&amp; VLOOKUP(G6,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H6&lt;&gt;"", ", range: '"&amp;H6&amp;"'", "")&amp;IF(J6&lt;&gt;"", ", damage: '"&amp;J6&amp;"'", "")&amp;IF(L6&lt;&gt;"", ", capacity: '"&amp;L6&amp;"'", "")&amp;IF(M6&lt;&gt;"", ", cost: '"&amp;M6&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P6, CHAR(10), "\n")&amp;"'"&amp;IF(N6="○", ", sealable: true", "")&amp;IF(O6="○", ", removable: true", "")&amp;"}"</f>
+      <c r="S6" s="13"/>
+      <c r="T6" s="3" t="str">
+        <f>", '"&amp;A6&amp;"': {megami: '"&amp;B6&amp;"'"&amp;IF(C6&lt;&gt;"", ", anotherID: '" &amp; C6 &amp; "', replace: '" &amp; D6 &amp; "'", "")&amp;", name: '"&amp;E6&amp;"', ruby: '"&amp;F6&amp;"', baseType: '"&amp;VLOOKUP(G6,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H6,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I6&lt;&gt;"",", '"&amp; VLOOKUP(I6,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J6&lt;&gt;"", ", range: '"&amp;J6&amp;"'", "")&amp;IF(L6&lt;&gt;"", ", damage: '"&amp;L6&amp;"'", "")&amp;IF(N6&lt;&gt;"", ", capacity: '"&amp;N6&amp;"'", "")&amp;IF(O6&lt;&gt;"", ", cost: '"&amp;O6&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R6, CHAR(10), "\n")&amp;"'"&amp;IF(P6="○", ", sealable: true", "")&amp;IF(Q6="○", ", removable: true", "")&amp;"}"</f>
         <v>, '04-tokoyo-o-n-5': {megami: 'tokoyo', name: '要返し', ruby: 'かなめがえし', baseType: 'normal', types: ['action', 'fullpower'], text: '捨て札か伏せ札からカードを2枚まで選ぶ。それらのカードを好きな順で山札の底に置く。 \nダスト→自オーラ：2'}</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="24" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="13"/>
       <c r="K7" s="13"/>
-      <c r="L7" s="4">
+      <c r="M7" s="13"/>
+      <c r="N7" s="4">
         <v>2</v>
       </c>
-      <c r="P7" s="5" t="s">
+      <c r="R7" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="3" t="str">
-        <f>", '"&amp;A7&amp;"': {megami: '"&amp;B7&amp;"', name: '"&amp;C7&amp;"', ruby: '"&amp;D7&amp;"', baseType: '"&amp;VLOOKUP(E7,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F7,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G7&lt;&gt;"",", '"&amp; VLOOKUP(G7,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H7&lt;&gt;"", ", range: '"&amp;H7&amp;"'", "")&amp;IF(J7&lt;&gt;"", ", damage: '"&amp;J7&amp;"'", "")&amp;IF(L7&lt;&gt;"", ", capacity: '"&amp;L7&amp;"'", "")&amp;IF(M7&lt;&gt;"", ", cost: '"&amp;M7&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P7, CHAR(10), "\n")&amp;"'"&amp;IF(N7="○", ", sealable: true", "")&amp;IF(O7="○", ", removable: true", "")&amp;"}"</f>
+      <c r="S7" s="13"/>
+      <c r="T7" s="3" t="str">
+        <f>", '"&amp;A7&amp;"': {megami: '"&amp;B7&amp;"'"&amp;IF(C7&lt;&gt;"", ", anotherID: '" &amp; C7 &amp; "', replace: '" &amp; D7 &amp; "'", "")&amp;", name: '"&amp;E7&amp;"', ruby: '"&amp;F7&amp;"', baseType: '"&amp;VLOOKUP(G7,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H7,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I7&lt;&gt;"",", '"&amp; VLOOKUP(I7,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J7&lt;&gt;"", ", range: '"&amp;J7&amp;"'", "")&amp;IF(L7&lt;&gt;"", ", damage: '"&amp;L7&amp;"'", "")&amp;IF(N7&lt;&gt;"", ", capacity: '"&amp;N7&amp;"'", "")&amp;IF(O7&lt;&gt;"", ", cost: '"&amp;O7&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R7, CHAR(10), "\n")&amp;"'"&amp;IF(P7="○", ", sealable: true", "")&amp;IF(Q7="○", ", removable: true", "")&amp;"}"</f>
         <v>, '04-tokoyo-o-n-6': {megami: 'tokoyo', name: '風舞台', ruby: 'かぜぶたい', baseType: 'normal', types: ['enhance'], capacity: '2', text: '【展開時】間合→自オーラ：2 \n【破棄時】自オーラ→間合：2'}</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="24" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I8" s="13"/>
       <c r="K8" s="13"/>
-      <c r="L8" s="4">
+      <c r="M8" s="13"/>
+      <c r="N8" s="4">
         <v>1</v>
       </c>
-      <c r="P8" s="5" t="s">
+      <c r="R8" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="3" t="str">
-        <f>", '"&amp;A8&amp;"': {megami: '"&amp;B8&amp;"', name: '"&amp;C8&amp;"', ruby: '"&amp;D8&amp;"', baseType: '"&amp;VLOOKUP(E8,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F8,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G8&lt;&gt;"",", '"&amp; VLOOKUP(G8,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H8&lt;&gt;"", ", range: '"&amp;H8&amp;"'", "")&amp;IF(J8&lt;&gt;"", ", damage: '"&amp;J8&amp;"'", "")&amp;IF(L8&lt;&gt;"", ", capacity: '"&amp;L8&amp;"'", "")&amp;IF(M8&lt;&gt;"", ", cost: '"&amp;M8&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P8, CHAR(10), "\n")&amp;"'"&amp;IF(N8="○", ", sealable: true", "")&amp;IF(O8="○", ", removable: true", "")&amp;"}"</f>
+      <c r="S8" s="13"/>
+      <c r="T8" s="3" t="str">
+        <f>", '"&amp;A8&amp;"': {megami: '"&amp;B8&amp;"'"&amp;IF(C8&lt;&gt;"", ", anotherID: '" &amp; C8 &amp; "', replace: '" &amp; D8 &amp; "'", "")&amp;", name: '"&amp;E8&amp;"', ruby: '"&amp;F8&amp;"', baseType: '"&amp;VLOOKUP(G8,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H8,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I8&lt;&gt;"",", '"&amp; VLOOKUP(I8,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J8&lt;&gt;"", ", range: '"&amp;J8&amp;"'", "")&amp;IF(L8&lt;&gt;"", ", damage: '"&amp;L8&amp;"'", "")&amp;IF(N8&lt;&gt;"", ", capacity: '"&amp;N8&amp;"'", "")&amp;IF(O8&lt;&gt;"", ", cost: '"&amp;O8&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R8, CHAR(10), "\n")&amp;"'"&amp;IF(P8="○", ", sealable: true", "")&amp;IF(Q8="○", ", removable: true", "")&amp;"}"</f>
         <v>, '04-tokoyo-o-n-7': {megami: 'tokoyo', name: '晴舞台', ruby: 'はれぶたい', baseType: 'normal', types: ['enhance'], capacity: '1', text: '【破棄時】境地-あなたの集中力が2ならば、ダスト→自オーラ：2 \n【破棄時】境地-あなたは集中力を1得る。'}</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="J9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="13"/>
+      <c r="L9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="13"/>
-      <c r="M9" s="4" t="s">
+      <c r="M9" s="13"/>
+      <c r="O9" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="P9" s="4" t="s">
+      <c r="R9" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="3" t="str">
-        <f>", '"&amp;A9&amp;"': {megami: '"&amp;B9&amp;"', name: '"&amp;C9&amp;"', ruby: '"&amp;D9&amp;"', baseType: '"&amp;VLOOKUP(E9,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F9,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G9&lt;&gt;"",", '"&amp; VLOOKUP(G9,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H9&lt;&gt;"", ", range: '"&amp;H9&amp;"'", "")&amp;IF(J9&lt;&gt;"", ", damage: '"&amp;J9&amp;"'", "")&amp;IF(L9&lt;&gt;"", ", capacity: '"&amp;L9&amp;"'", "")&amp;IF(M9&lt;&gt;"", ", cost: '"&amp;M9&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P9, CHAR(10), "\n")&amp;"'"&amp;IF(N9="○", ", sealable: true", "")&amp;IF(O9="○", ", removable: true", "")&amp;"}"</f>
+      <c r="S9" s="13"/>
+      <c r="T9" s="3" t="str">
+        <f>", '"&amp;A9&amp;"': {megami: '"&amp;B9&amp;"'"&amp;IF(C9&lt;&gt;"", ", anotherID: '" &amp; C9 &amp; "', replace: '" &amp; D9 &amp; "'", "")&amp;", name: '"&amp;E9&amp;"', ruby: '"&amp;F9&amp;"', baseType: '"&amp;VLOOKUP(G9,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H9,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I9&lt;&gt;"",", '"&amp; VLOOKUP(I9,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J9&lt;&gt;"", ", range: '"&amp;J9&amp;"'", "")&amp;IF(L9&lt;&gt;"", ", damage: '"&amp;L9&amp;"'", "")&amp;IF(N9&lt;&gt;"", ", capacity: '"&amp;N9&amp;"'", "")&amp;IF(O9&lt;&gt;"", ", cost: '"&amp;O9&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R9, CHAR(10), "\n")&amp;"'"&amp;IF(P9="○", ", sealable: true", "")&amp;IF(Q9="○", ", removable: true", "")&amp;"}"</f>
         <v>, '04-tokoyo-o-s-1': {megami: 'tokoyo', name: '久遠ノ花', ruby: 'くおんのはな', baseType: 'special', types: ['attack'], range: '0-10', damage: '-/1', cost: '5', text: '【攻撃後】対応した《攻撃》を打ち消す。'}</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="24" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="J10" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="13"/>
+      <c r="L10" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="K10" s="13"/>
-      <c r="M10" s="4" t="s">
+      <c r="M10" s="13"/>
+      <c r="O10" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="P10" s="5" t="s">
+      <c r="R10" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="3" t="str">
-        <f>", '"&amp;A10&amp;"': {megami: '"&amp;B10&amp;"', name: '"&amp;C10&amp;"', ruby: '"&amp;D10&amp;"', baseType: '"&amp;VLOOKUP(E10,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F10,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G10&lt;&gt;"",", '"&amp; VLOOKUP(G10,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H10&lt;&gt;"", ", range: '"&amp;H10&amp;"'", "")&amp;IF(J10&lt;&gt;"", ", damage: '"&amp;J10&amp;"'", "")&amp;IF(L10&lt;&gt;"", ", capacity: '"&amp;L10&amp;"'", "")&amp;IF(M10&lt;&gt;"", ", cost: '"&amp;M10&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P10, CHAR(10), "\n")&amp;"'"&amp;IF(N10="○", ", sealable: true", "")&amp;IF(O10="○", ", removable: true", "")&amp;"}"</f>
+      <c r="S10" s="13"/>
+      <c r="T10" s="3" t="str">
+        <f>", '"&amp;A10&amp;"': {megami: '"&amp;B10&amp;"'"&amp;IF(C10&lt;&gt;"", ", anotherID: '" &amp; C10 &amp; "', replace: '" &amp; D10 &amp; "'", "")&amp;", name: '"&amp;E10&amp;"', ruby: '"&amp;F10&amp;"', baseType: '"&amp;VLOOKUP(G10,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H10,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I10&lt;&gt;"",", '"&amp; VLOOKUP(I10,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J10&lt;&gt;"", ", range: '"&amp;J10&amp;"'", "")&amp;IF(L10&lt;&gt;"", ", damage: '"&amp;L10&amp;"'", "")&amp;IF(N10&lt;&gt;"", ", capacity: '"&amp;N10&amp;"'", "")&amp;IF(O10&lt;&gt;"", ", cost: '"&amp;O10&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R10, CHAR(10), "\n")&amp;"'"&amp;IF(P10="○", ", sealable: true", "")&amp;IF(Q10="○", ", removable: true", "")&amp;"}"</f>
         <v>, '04-tokoyo-o-s-2': {megami: 'tokoyo', name: '千歳ノ鳥', ruby: 'ちとせのとり', baseType: 'special', types: ['attack'], range: '3-4', damage: '2/2', cost: '2', text: '【攻撃後】山札を再構成する。 \n(その際にダメージは受けない)'}</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="60" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20" ht="60" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>76</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="J11" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="13"/>
+      <c r="L11" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="K11" s="13"/>
-      <c r="M11" s="4" t="s">
+      <c r="M11" s="13"/>
+      <c r="O11" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="P11" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="3" t="str">
-        <f>", '"&amp;A11&amp;"': {megami: '"&amp;B11&amp;"', name: '"&amp;C11&amp;"', ruby: '"&amp;D11&amp;"', baseType: '"&amp;VLOOKUP(E11,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F11,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G11&lt;&gt;"",", '"&amp; VLOOKUP(G11,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H11&lt;&gt;"", ", range: '"&amp;H11&amp;"'", "")&amp;IF(J11&lt;&gt;"", ", damage: '"&amp;J11&amp;"'", "")&amp;IF(L11&lt;&gt;"", ", capacity: '"&amp;L11&amp;"'", "")&amp;IF(M11&lt;&gt;"", ", cost: '"&amp;M11&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P11, CHAR(10), "\n")&amp;"'"&amp;IF(N11="○", ", sealable: true", "")&amp;IF(O11="○", ", removable: true", "")&amp;"}"</f>
+      <c r="R11" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="S11" s="13"/>
+      <c r="T11" s="3" t="str">
+        <f>", '"&amp;A11&amp;"': {megami: '"&amp;B11&amp;"'"&amp;IF(C11&lt;&gt;"", ", anotherID: '" &amp; C11 &amp; "', replace: '" &amp; D11 &amp; "'", "")&amp;", name: '"&amp;E11&amp;"', ruby: '"&amp;F11&amp;"', baseType: '"&amp;VLOOKUP(G11,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H11,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I11&lt;&gt;"",", '"&amp; VLOOKUP(I11,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J11&lt;&gt;"", ", range: '"&amp;J11&amp;"'", "")&amp;IF(L11&lt;&gt;"", ", damage: '"&amp;L11&amp;"'", "")&amp;IF(N11&lt;&gt;"", ", capacity: '"&amp;N11&amp;"'", "")&amp;IF(O11&lt;&gt;"", ", cost: '"&amp;O11&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R11, CHAR(10), "\n")&amp;"'"&amp;IF(P11="○", ", sealable: true", "")&amp;IF(Q11="○", ", removable: true", "")&amp;"}"</f>
         <v>, '04-tokoyo-o-s-3': {megami: 'tokoyo', name: '無窮ノ風', ruby: 'むきゅうのかぜ', baseType: 'special', types: ['attack'], range: '3-8', damage: '1/1', cost: '1', text: '対応不可 \n【攻撃後】相手は手札から《攻撃》でないカード1枚を捨て札にする。それが行えない場合、相手は手札を公開する。 \n----\n【再起】境地-あなたの集中力が2である。'}</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>77</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="H12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="13"/>
       <c r="K12" s="13"/>
-      <c r="M12" s="4" t="s">
+      <c r="M12" s="13"/>
+      <c r="O12" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="P12" s="4" t="s">
+      <c r="R12" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="3" t="str">
-        <f>", '"&amp;A12&amp;"': {megami: '"&amp;B12&amp;"', name: '"&amp;C12&amp;"', ruby: '"&amp;D12&amp;"', baseType: '"&amp;VLOOKUP(E12,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F12,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G12&lt;&gt;"",", '"&amp; VLOOKUP(G12,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H12&lt;&gt;"", ", range: '"&amp;H12&amp;"'", "")&amp;IF(J12&lt;&gt;"", ", damage: '"&amp;J12&amp;"'", "")&amp;IF(L12&lt;&gt;"", ", capacity: '"&amp;L12&amp;"'", "")&amp;IF(M12&lt;&gt;"", ", cost: '"&amp;M12&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P12, CHAR(10), "\n")&amp;"'"&amp;IF(N12="○", ", sealable: true", "")&amp;IF(O12="○", ", removable: true", "")&amp;"}"</f>
+      <c r="S12" s="13"/>
+      <c r="T12" s="3" t="str">
+        <f>", '"&amp;A12&amp;"': {megami: '"&amp;B12&amp;"'"&amp;IF(C12&lt;&gt;"", ", anotherID: '" &amp; C12 &amp; "', replace: '" &amp; D12 &amp; "'", "")&amp;", name: '"&amp;E12&amp;"', ruby: '"&amp;F12&amp;"', baseType: '"&amp;VLOOKUP(G12,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H12,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I12&lt;&gt;"",", '"&amp; VLOOKUP(I12,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J12&lt;&gt;"", ", range: '"&amp;J12&amp;"'", "")&amp;IF(L12&lt;&gt;"", ", damage: '"&amp;L12&amp;"'", "")&amp;IF(N12&lt;&gt;"", ", capacity: '"&amp;N12&amp;"'", "")&amp;IF(O12&lt;&gt;"", ", cost: '"&amp;O12&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R12, CHAR(10), "\n")&amp;"'"&amp;IF(P12="○", ", sealable: true", "")&amp;IF(Q12="○", ", removable: true", "")&amp;"}"</f>
         <v>, '04-tokoyo-o-s-4': {megami: 'tokoyo', name: '常世ノ月', ruby: 'とこよのつき', baseType: 'special', types: ['action'], cost: '2', text: 'あなたの集中力は2になり、相手の集中力は0になり、相手を畏縮させる。'}</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:20" ht="48" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="K13" s="13"/>
+      <c r="L13" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="M13" s="13"/>
+      <c r="R13" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="S13" s="13"/>
+      <c r="T13" s="3" t="str">
+        <f>", '"&amp;A13&amp;"': {megami: '"&amp;B13&amp;"'"&amp;IF(C13&lt;&gt;"", ", anotherID: '" &amp; C13 &amp; "', replace: '" &amp; D13 &amp; "'", "")&amp;", name: '"&amp;E13&amp;"', ruby: '"&amp;F13&amp;"', baseType: '"&amp;VLOOKUP(G13,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H13,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I13&lt;&gt;"",", '"&amp; VLOOKUP(I13,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J13&lt;&gt;"", ", range: '"&amp;J13&amp;"'", "")&amp;IF(L13&lt;&gt;"", ", damage: '"&amp;L13&amp;"'", "")&amp;IF(N13&lt;&gt;"", ", capacity: '"&amp;N13&amp;"'", "")&amp;IF(O13&lt;&gt;"", ", cost: '"&amp;O13&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R13, CHAR(10), "\n")&amp;"'"&amp;IF(P13="○", ", sealable: true", "")&amp;IF(Q13="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '04-tokoyo-A1-n-1': {megami: 'tokoyo', anotherID: 'A1', replace: '04-tokoyo-o-n-5', name: '奏流し', ruby: 'かなでながし', baseType: 'normal', types: ['attack'], range: '5', damage: '-/1', text: '【常時】あなたのトコヨの切札が1枚以上使用済ならば、この《攻撃》は対応不可を得る。 \n【攻撃後】境地-あなたの集中力が2かつ、あなたの他のメガミの切札が1枚以上使用済ならば、このカードを山札の上に置く。'}</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="S14" s="13"/>
+      <c r="T14" s="3" t="str">
+        <f>", '"&amp;A14&amp;"': {megami: '"&amp;B14&amp;"'"&amp;IF(C14&lt;&gt;"", ", anotherID: '" &amp; C14 &amp; "', replace: '" &amp; D14 &amp; "'", "")&amp;", name: '"&amp;E14&amp;"', ruby: '"&amp;F14&amp;"', baseType: '"&amp;VLOOKUP(G14,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H14,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I14&lt;&gt;"",", '"&amp; VLOOKUP(I14,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J14&lt;&gt;"", ", range: '"&amp;J14&amp;"'", "")&amp;IF(L14&lt;&gt;"", ", damage: '"&amp;L14&amp;"'", "")&amp;IF(N14&lt;&gt;"", ", capacity: '"&amp;N14&amp;"'", "")&amp;IF(O14&lt;&gt;"", ", cost: '"&amp;O14&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R14, CHAR(10), "\n")&amp;"'"&amp;IF(P14="○", ", sealable: true", "")&amp;IF(Q14="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '04-tokoyo-A1-n-7': {megami: 'tokoyo', anotherID: 'A1', replace: '04-tokoyo-o-n-7', name: '陽の音', ruby: 'ひのね', baseType: 'normal', types: ['enhance'], capacity: '2', text: '【展開時/展開中】展開時、およびあなたが《対応》カードを使用した時、その解決後にダスト→自オーラ：1 \n【展開中】相手のターンにこのカードの上の桜花結晶は移動しない。'}</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="48" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="O15" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="S15" s="13"/>
+      <c r="T15" s="3" t="str">
+        <f>", '"&amp;A15&amp;"': {megami: '"&amp;B15&amp;"'"&amp;IF(C15&lt;&gt;"", ", anotherID: '" &amp; C15 &amp; "', replace: '" &amp; D15 &amp; "'", "")&amp;", name: '"&amp;E15&amp;"', ruby: '"&amp;F15&amp;"', baseType: '"&amp;VLOOKUP(G15,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H15,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I15&lt;&gt;"",", '"&amp; VLOOKUP(I15,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J15&lt;&gt;"", ", range: '"&amp;J15&amp;"'", "")&amp;IF(L15&lt;&gt;"", ", damage: '"&amp;L15&amp;"'", "")&amp;IF(N15&lt;&gt;"", ", capacity: '"&amp;N15&amp;"'", "")&amp;IF(O15&lt;&gt;"", ", cost: '"&amp;O15&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R15, CHAR(10), "\n")&amp;"'"&amp;IF(P15="○", ", sealable: true", "")&amp;IF(Q15="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '04-tokoyo-A1-s-2': {megami: 'tokoyo', anotherID: 'A1', replace: '04-tokoyo-o-s-2', name: '二重奏:吹弾陽明', ruby: 'にじゅうそう：すいだんようめい', baseType: 'special', types: ['action'], cost: '1', text: '【使用済】あなたの開始フェイズの開始時に捨て札または伏せ札からカード1枚を選び、それを山札の底に置いてもよい。 \n----\n【即再起】あなたが再構成以外でライフに1以上のダメージを受ける。'}</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A16" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="K13" s="13"/>
-      <c r="P13" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="3" t="str">
-        <f>", '"&amp;A13&amp;"': {megami: '"&amp;B13&amp;"', name: '"&amp;C13&amp;"', ruby: '"&amp;D13&amp;"', baseType: '"&amp;VLOOKUP(E13,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F13,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G13&lt;&gt;"",", '"&amp; VLOOKUP(G13,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H13&lt;&gt;"", ", range: '"&amp;H13&amp;"'", "")&amp;IF(J13&lt;&gt;"", ", damage: '"&amp;J13&amp;"'", "")&amp;IF(L13&lt;&gt;"", ", capacity: '"&amp;L13&amp;"'", "")&amp;IF(M13&lt;&gt;"", ", cost: '"&amp;M13&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P13, CHAR(10), "\n")&amp;"'"&amp;IF(N13="○", ", sealable: true", "")&amp;IF(O13="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '05-oboro-o-n-1': {megami: 'oboro', name: '鋼糸', ruby: 'こうし', baseType: 'normal', types: ['attack'], range: '3-4', damage: '2/2', text: '設置'}</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="K14" s="13"/>
-      <c r="P14" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="3" t="str">
-        <f>", '"&amp;A14&amp;"': {megami: '"&amp;B14&amp;"', name: '"&amp;C14&amp;"', ruby: '"&amp;D14&amp;"', baseType: '"&amp;VLOOKUP(E14,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F14,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G14&lt;&gt;"",", '"&amp; VLOOKUP(G14,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H14&lt;&gt;"", ", range: '"&amp;H14&amp;"'", "")&amp;IF(J14&lt;&gt;"", ", damage: '"&amp;J14&amp;"'", "")&amp;IF(L14&lt;&gt;"", ", capacity: '"&amp;L14&amp;"'", "")&amp;IF(M14&lt;&gt;"", ", cost: '"&amp;M14&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P14, CHAR(10), "\n")&amp;"'"&amp;IF(N14="○", ", sealable: true", "")&amp;IF(O14="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '05-oboro-o-n-2': {megami: 'oboro', name: '影菱', ruby: 'かげびし', baseType: 'normal', types: ['attack'], range: '2', damage: '2/1', text: '設置　対応不可\n【攻撃後】このカードを伏せ札から使用したならば、相手の手札を見てその中から1枚を選び、それを伏せ札にする。'}</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="24" x14ac:dyDescent="0.15">
-      <c r="A15" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="K15" s="13"/>
-      <c r="P15" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="3" t="str">
-        <f>", '"&amp;A15&amp;"': {megami: '"&amp;B15&amp;"', name: '"&amp;C15&amp;"', ruby: '"&amp;D15&amp;"', baseType: '"&amp;VLOOKUP(E15,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F15,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G15&lt;&gt;"",", '"&amp; VLOOKUP(G15,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H15&lt;&gt;"", ", range: '"&amp;H15&amp;"'", "")&amp;IF(J15&lt;&gt;"", ", damage: '"&amp;J15&amp;"'", "")&amp;IF(L15&lt;&gt;"", ", capacity: '"&amp;L15&amp;"'", "")&amp;IF(M15&lt;&gt;"", ", cost: '"&amp;M15&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P15, CHAR(10), "\n")&amp;"'"&amp;IF(N15="○", ", sealable: true", "")&amp;IF(O15="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '05-oboro-o-n-3': {megami: 'oboro', name: '斬撃乱舞', ruby: 'ざんげきらんぶ', baseType: 'normal', types: ['attack', 'fullpower'], range: '2-4', damage: '3/2', text: '【常時】相手がこのターン中にオーラへのダメージを受けているならば、この《攻撃》は+1/+1となる。'}</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="48" x14ac:dyDescent="0.15">
-      <c r="A16" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>120</v>
-      </c>
       <c r="E16" s="4" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="13"/>
+        <v>117</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="K16" s="13"/>
-      <c r="P16" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="3" t="str">
-        <f>", '"&amp;A16&amp;"': {megami: '"&amp;B16&amp;"', name: '"&amp;C16&amp;"', ruby: '"&amp;D16&amp;"', baseType: '"&amp;VLOOKUP(E16,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F16,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G16&lt;&gt;"",", '"&amp; VLOOKUP(G16,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H16&lt;&gt;"", ", range: '"&amp;H16&amp;"'", "")&amp;IF(J16&lt;&gt;"", ", damage: '"&amp;J16&amp;"'", "")&amp;IF(L16&lt;&gt;"", ", capacity: '"&amp;L16&amp;"'", "")&amp;IF(M16&lt;&gt;"", ", cost: '"&amp;M16&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P16, CHAR(10), "\n")&amp;"'"&amp;IF(N16="○", ", sealable: true", "")&amp;IF(O16="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '05-oboro-o-n-4': {megami: 'oboro', name: '忍歩', ruby: 'にんぽ', baseType: 'normal', types: ['action'], text: '設置 \n間合⇔ダスト：1 \nこのカードを伏せ札から使用したならば、伏せ札から設置を持つカードを1枚使用してもよい。'}</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="48" x14ac:dyDescent="0.15">
+      <c r="L16" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M16" s="13"/>
+      <c r="R16" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="S16" s="13"/>
+      <c r="T16" s="3" t="str">
+        <f>", '"&amp;A16&amp;"': {megami: '"&amp;B16&amp;"'"&amp;IF(C16&lt;&gt;"", ", anotherID: '" &amp; C16 &amp; "', replace: '" &amp; D16 &amp; "'", "")&amp;", name: '"&amp;E16&amp;"', ruby: '"&amp;F16&amp;"', baseType: '"&amp;VLOOKUP(G16,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H16,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I16&lt;&gt;"",", '"&amp; VLOOKUP(I16,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J16&lt;&gt;"", ", range: '"&amp;J16&amp;"'", "")&amp;IF(L16&lt;&gt;"", ", damage: '"&amp;L16&amp;"'", "")&amp;IF(N16&lt;&gt;"", ", capacity: '"&amp;N16&amp;"'", "")&amp;IF(O16&lt;&gt;"", ", cost: '"&amp;O16&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R16, CHAR(10), "\n")&amp;"'"&amp;IF(P16="○", ", sealable: true", "")&amp;IF(Q16="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '05-oboro-o-n-1': {megami: 'oboro', name: '鋼糸', ruby: 'こうし', baseType: 'normal', types: ['attack'], range: '3-4', damage: '2/2', text: '設置'}</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>121</v>
-      </c>
       <c r="E17" s="4" t="s">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="K17" s="13"/>
-      <c r="P17" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="3" t="str">
-        <f>", '"&amp;A17&amp;"': {megami: '"&amp;B17&amp;"', name: '"&amp;C17&amp;"', ruby: '"&amp;D17&amp;"', baseType: '"&amp;VLOOKUP(E17,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F17,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G17&lt;&gt;"",", '"&amp; VLOOKUP(G17,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H17&lt;&gt;"", ", range: '"&amp;H17&amp;"'", "")&amp;IF(J17&lt;&gt;"", ", damage: '"&amp;J17&amp;"'", "")&amp;IF(L17&lt;&gt;"", ", capacity: '"&amp;L17&amp;"'", "")&amp;IF(M17&lt;&gt;"", ", cost: '"&amp;M17&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P17, CHAR(10), "\n")&amp;"'"&amp;IF(N17="○", ", sealable: true", "")&amp;IF(O17="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '05-oboro-o-n-5': {megami: 'oboro', name: '誘導', ruby: 'ゆうどう', baseType: 'normal', types: ['action', 'reaction'], text: '設置\n以下から１つを選ぶ。\n・間合→相オーラ：1\n・相オーラ→相フレア：1'}</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="36" x14ac:dyDescent="0.15">
+      <c r="L17" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="M17" s="13"/>
+      <c r="R17" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="S17" s="13"/>
+      <c r="T17" s="3" t="str">
+        <f>", '"&amp;A17&amp;"': {megami: '"&amp;B17&amp;"'"&amp;IF(C17&lt;&gt;"", ", anotherID: '" &amp; C17 &amp; "', replace: '" &amp; D17 &amp; "'", "")&amp;", name: '"&amp;E17&amp;"', ruby: '"&amp;F17&amp;"', baseType: '"&amp;VLOOKUP(G17,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H17,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I17&lt;&gt;"",", '"&amp; VLOOKUP(I17,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J17&lt;&gt;"", ", range: '"&amp;J17&amp;"'", "")&amp;IF(L17&lt;&gt;"", ", damage: '"&amp;L17&amp;"'", "")&amp;IF(N17&lt;&gt;"", ", capacity: '"&amp;N17&amp;"'", "")&amp;IF(O17&lt;&gt;"", ", cost: '"&amp;O17&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R17, CHAR(10), "\n")&amp;"'"&amp;IF(P17="○", ", sealable: true", "")&amp;IF(Q17="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '05-oboro-o-n-2': {megami: 'oboro', name: '影菱', ruby: 'かげびし', baseType: 'normal', types: ['attack'], range: '2', damage: '2/1', text: '設置　対応不可\n【攻撃後】このカードを伏せ札から使用したならば、相手の手札を見てその中から1枚を選び、それを伏せ札にする。'}</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>122</v>
-      </c>
       <c r="E18" s="4" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="G18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I18" s="13"/>
+      <c r="J18" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="K18" s="13"/>
-      <c r="P18" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="3" t="str">
-        <f>", '"&amp;A18&amp;"': {megami: '"&amp;B18&amp;"', name: '"&amp;C18&amp;"', ruby: '"&amp;D18&amp;"', baseType: '"&amp;VLOOKUP(E18,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F18,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G18&lt;&gt;"",", '"&amp; VLOOKUP(G18,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H18&lt;&gt;"", ", range: '"&amp;H18&amp;"'", "")&amp;IF(J18&lt;&gt;"", ", damage: '"&amp;J18&amp;"'", "")&amp;IF(L18&lt;&gt;"", ", capacity: '"&amp;L18&amp;"'", "")&amp;IF(M18&lt;&gt;"", ", cost: '"&amp;M18&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P18, CHAR(10), "\n")&amp;"'"&amp;IF(N18="○", ", sealable: true", "")&amp;IF(O18="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '05-oboro-o-n-6': {megami: 'oboro', name: '分身の術', ruby: 'ぶんしんのじゅつ', baseType: 'normal', types: ['action', 'fullpower'], text: '伏せ札から《全力》でないカードを1枚選び、そのカードを使用する。その後、そのカードが捨て札にあるならば捨て札からもう1回使用する。《攻撃》カードが使用されたならばそれらの《攻撃》は対応不可を得る（2回ともに対応不可を得る）。'}</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="24" x14ac:dyDescent="0.15">
+      <c r="L18" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M18" s="13"/>
+      <c r="R18" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="S18" s="13"/>
+      <c r="T18" s="3" t="str">
+        <f>", '"&amp;A18&amp;"': {megami: '"&amp;B18&amp;"'"&amp;IF(C18&lt;&gt;"", ", anotherID: '" &amp; C18 &amp; "', replace: '" &amp; D18 &amp; "'", "")&amp;", name: '"&amp;E18&amp;"', ruby: '"&amp;F18&amp;"', baseType: '"&amp;VLOOKUP(G18,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H18,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I18&lt;&gt;"",", '"&amp; VLOOKUP(I18,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J18&lt;&gt;"", ", range: '"&amp;J18&amp;"'", "")&amp;IF(L18&lt;&gt;"", ", damage: '"&amp;L18&amp;"'", "")&amp;IF(N18&lt;&gt;"", ", capacity: '"&amp;N18&amp;"'", "")&amp;IF(O18&lt;&gt;"", ", cost: '"&amp;O18&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R18, CHAR(10), "\n")&amp;"'"&amp;IF(P18="○", ", sealable: true", "")&amp;IF(Q18="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '05-oboro-o-n-3': {megami: 'oboro', name: '斬撃乱舞', ruby: 'ざんげきらんぶ', baseType: 'normal', types: ['attack', 'fullpower'], range: '2-4', damage: '3/2', text: '【常時】相手がこのターン中にオーラへのダメージを受けているならば、この《攻撃》は+1/+1となる。'}</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="48" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>123</v>
-      </c>
       <c r="E19" s="4" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I19" s="13"/>
+        <v>120</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="K19" s="13"/>
-      <c r="L19" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="P19" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="3" t="str">
-        <f>", '"&amp;A19&amp;"': {megami: '"&amp;B19&amp;"', name: '"&amp;C19&amp;"', ruby: '"&amp;D19&amp;"', baseType: '"&amp;VLOOKUP(E19,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F19,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G19&lt;&gt;"",", '"&amp; VLOOKUP(G19,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H19&lt;&gt;"", ", range: '"&amp;H19&amp;"'", "")&amp;IF(J19&lt;&gt;"", ", damage: '"&amp;J19&amp;"'", "")&amp;IF(L19&lt;&gt;"", ", capacity: '"&amp;L19&amp;"'", "")&amp;IF(M19&lt;&gt;"", ", cost: '"&amp;M19&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P19, CHAR(10), "\n")&amp;"'"&amp;IF(N19="○", ", sealable: true", "")&amp;IF(O19="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '05-oboro-o-n-7': {megami: 'oboro', name: '生体活性', ruby: 'せいたいかっせい', baseType: 'normal', types: ['enhance'], capacity: '4', text: '隙　設置 \n【破棄時】あなたの使用済の切札を1枚選び、それを未使用に戻す。'}</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="M19" s="13"/>
+      <c r="R19" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="S19" s="13"/>
+      <c r="T19" s="3" t="str">
+        <f>", '"&amp;A19&amp;"': {megami: '"&amp;B19&amp;"'"&amp;IF(C19&lt;&gt;"", ", anotherID: '" &amp; C19 &amp; "', replace: '" &amp; D19 &amp; "'", "")&amp;", name: '"&amp;E19&amp;"', ruby: '"&amp;F19&amp;"', baseType: '"&amp;VLOOKUP(G19,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H19,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I19&lt;&gt;"",", '"&amp; VLOOKUP(I19,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J19&lt;&gt;"", ", range: '"&amp;J19&amp;"'", "")&amp;IF(L19&lt;&gt;"", ", damage: '"&amp;L19&amp;"'", "")&amp;IF(N19&lt;&gt;"", ", capacity: '"&amp;N19&amp;"'", "")&amp;IF(O19&lt;&gt;"", ", cost: '"&amp;O19&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R19, CHAR(10), "\n")&amp;"'"&amp;IF(P19="○", ", sealable: true", "")&amp;IF(Q19="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '05-oboro-o-n-4': {megami: 'oboro', name: '忍歩', ruby: 'にんぽ', baseType: 'normal', types: ['action'], text: '設置 \n間合⇔ダスト：1 \nこのカードを伏せ札から使用したならば、伏せ札から設置を持つカードを1枚使用してもよい。'}</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="48" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>124</v>
-      </c>
       <c r="E20" s="4" t="s">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>8</v>
+        <v>121</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="2" t="s">
-        <v>128</v>
+        <v>23</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="K20" s="13"/>
-      <c r="M20" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="P20" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="3" t="str">
-        <f>", '"&amp;A20&amp;"': {megami: '"&amp;B20&amp;"', name: '"&amp;C20&amp;"', ruby: '"&amp;D20&amp;"', baseType: '"&amp;VLOOKUP(E20,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F20,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G20&lt;&gt;"",", '"&amp; VLOOKUP(G20,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H20&lt;&gt;"", ", range: '"&amp;H20&amp;"'", "")&amp;IF(J20&lt;&gt;"", ", damage: '"&amp;J20&amp;"'", "")&amp;IF(L20&lt;&gt;"", ", capacity: '"&amp;L20&amp;"'", "")&amp;IF(M20&lt;&gt;"", ", cost: '"&amp;M20&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P20, CHAR(10), "\n")&amp;"'"&amp;IF(N20="○", ", sealable: true", "")&amp;IF(O20="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '05-oboro-o-s-1': {megami: 'oboro', name: '熊介', ruby: 'くますけ', baseType: 'special', types: ['attack', 'fullpower'], range: '3-4', damage: '2/2', cost: '4', text: '【攻撃後】攻撃『適正距離3-4、2/2』をX回行う。Xはあなたの伏せ札の枚数に等しい。'}</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="36" x14ac:dyDescent="0.15">
+      <c r="M20" s="13"/>
+      <c r="R20" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="S20" s="13"/>
+      <c r="T20" s="3" t="str">
+        <f>", '"&amp;A20&amp;"': {megami: '"&amp;B20&amp;"'"&amp;IF(C20&lt;&gt;"", ", anotherID: '" &amp; C20 &amp; "', replace: '" &amp; D20 &amp; "'", "")&amp;", name: '"&amp;E20&amp;"', ruby: '"&amp;F20&amp;"', baseType: '"&amp;VLOOKUP(G20,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H20,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I20&lt;&gt;"",", '"&amp; VLOOKUP(I20,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J20&lt;&gt;"", ", range: '"&amp;J20&amp;"'", "")&amp;IF(L20&lt;&gt;"", ", damage: '"&amp;L20&amp;"'", "")&amp;IF(N20&lt;&gt;"", ", capacity: '"&amp;N20&amp;"'", "")&amp;IF(O20&lt;&gt;"", ", cost: '"&amp;O20&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R20, CHAR(10), "\n")&amp;"'"&amp;IF(P20="○", ", sealable: true", "")&amp;IF(Q20="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '05-oboro-o-n-5': {megami: 'oboro', name: '誘導', ruby: 'ゆうどう', baseType: 'normal', types: ['action', 'reaction'], text: '設置\n以下から１つを選ぶ。\n・間合→相オーラ：1\n・相オーラ→相フレア：1'}</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="36" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>125</v>
-      </c>
       <c r="E21" s="4" t="s">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="F21" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I21" s="13"/>
+      <c r="I21" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="K21" s="13"/>
-      <c r="M21" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="P21" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="3" t="str">
-        <f>", '"&amp;A21&amp;"': {megami: '"&amp;B21&amp;"', name: '"&amp;C21&amp;"', ruby: '"&amp;D21&amp;"', baseType: '"&amp;VLOOKUP(E21,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F21,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G21&lt;&gt;"",", '"&amp; VLOOKUP(G21,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H21&lt;&gt;"", ", range: '"&amp;H21&amp;"'", "")&amp;IF(J21&lt;&gt;"", ", damage: '"&amp;J21&amp;"'", "")&amp;IF(L21&lt;&gt;"", ", capacity: '"&amp;L21&amp;"'", "")&amp;IF(M21&lt;&gt;"", ", cost: '"&amp;M21&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P21, CHAR(10), "\n")&amp;"'"&amp;IF(N21="○", ", sealable: true", "")&amp;IF(O21="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '05-oboro-o-s-2': {megami: 'oboro', name: '鳶影', ruby: 'とびかげ', baseType: 'special', types: ['action', 'reaction'], cost: '3', text: '伏せ札から《全力》でないカードを1枚選び、そのカードを使用してもよい。この際、このカードが対応している《攻撃》があるならば、使用されたカードはそれに対応しているものと扱う。'}</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="24" x14ac:dyDescent="0.15">
+      <c r="M21" s="13"/>
+      <c r="R21" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="S21" s="13"/>
+      <c r="T21" s="3" t="str">
+        <f>", '"&amp;A21&amp;"': {megami: '"&amp;B21&amp;"'"&amp;IF(C21&lt;&gt;"", ", anotherID: '" &amp; C21 &amp; "', replace: '" &amp; D21 &amp; "'", "")&amp;", name: '"&amp;E21&amp;"', ruby: '"&amp;F21&amp;"', baseType: '"&amp;VLOOKUP(G21,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H21,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I21&lt;&gt;"",", '"&amp; VLOOKUP(I21,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J21&lt;&gt;"", ", range: '"&amp;J21&amp;"'", "")&amp;IF(L21&lt;&gt;"", ", damage: '"&amp;L21&amp;"'", "")&amp;IF(N21&lt;&gt;"", ", capacity: '"&amp;N21&amp;"'", "")&amp;IF(O21&lt;&gt;"", ", cost: '"&amp;O21&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R21, CHAR(10), "\n")&amp;"'"&amp;IF(P21="○", ", sealable: true", "")&amp;IF(Q21="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '05-oboro-o-n-6': {megami: 'oboro', name: '分身の術', ruby: 'ぶんしんのじゅつ', baseType: 'normal', types: ['action', 'fullpower'], text: '伏せ札から《全力》でないカードを1枚選び、そのカードを使用する。その後、そのカードが捨て札にあるならば捨て札からもう1回使用する。《攻撃》カードが使用されたならばそれらの《攻撃》は対応不可を得る（2回ともに対応不可を得る）。'}</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>126</v>
-      </c>
       <c r="E22" s="4" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I22" s="13"/>
+        <v>123</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="K22" s="13"/>
-      <c r="M22" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="P22" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="3" t="str">
-        <f>", '"&amp;A22&amp;"': {megami: '"&amp;B22&amp;"', name: '"&amp;C22&amp;"', ruby: '"&amp;D22&amp;"', baseType: '"&amp;VLOOKUP(E22,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F22,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G22&lt;&gt;"",", '"&amp; VLOOKUP(G22,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H22&lt;&gt;"", ", range: '"&amp;H22&amp;"'", "")&amp;IF(J22&lt;&gt;"", ", damage: '"&amp;J22&amp;"'", "")&amp;IF(L22&lt;&gt;"", ", capacity: '"&amp;L22&amp;"'", "")&amp;IF(M22&lt;&gt;"", ", cost: '"&amp;M22&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P22, CHAR(10), "\n")&amp;"'"&amp;IF(N22="○", ", sealable: true", "")&amp;IF(O22="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '05-oboro-o-s-3': {megami: 'oboro', name: '虚魚', ruby: 'うろうお', baseType: 'special', types: ['action'], cost: '4', text: '【使用済】あなたは1回の再構成に対して、設置を持つカードを任意の枚数、任意の順で使用できる。'}</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="36" x14ac:dyDescent="0.15">
+      <c r="M22" s="13"/>
+      <c r="N22" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="S22" s="13"/>
+      <c r="T22" s="3" t="str">
+        <f>", '"&amp;A22&amp;"': {megami: '"&amp;B22&amp;"'"&amp;IF(C22&lt;&gt;"", ", anotherID: '" &amp; C22 &amp; "', replace: '" &amp; D22 &amp; "'", "")&amp;", name: '"&amp;E22&amp;"', ruby: '"&amp;F22&amp;"', baseType: '"&amp;VLOOKUP(G22,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H22,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I22&lt;&gt;"",", '"&amp; VLOOKUP(I22,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J22&lt;&gt;"", ", range: '"&amp;J22&amp;"'", "")&amp;IF(L22&lt;&gt;"", ", damage: '"&amp;L22&amp;"'", "")&amp;IF(N22&lt;&gt;"", ", capacity: '"&amp;N22&amp;"'", "")&amp;IF(O22&lt;&gt;"", ", cost: '"&amp;O22&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R22, CHAR(10), "\n")&amp;"'"&amp;IF(P22="○", ", sealable: true", "")&amp;IF(Q22="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '05-oboro-o-n-7': {megami: 'oboro', name: '生体活性', ruby: 'せいたいかっせい', baseType: 'normal', types: ['enhance'], capacity: '4', text: '隙　設置 \n【破棄時】あなたの使用済の切札を1枚選び、それを未使用に戻す。'}</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="E23" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="K23" s="13"/>
+      <c r="L23" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M23" s="13"/>
+      <c r="O23" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="S23" s="13"/>
+      <c r="T23" s="3" t="str">
+        <f>", '"&amp;A23&amp;"': {megami: '"&amp;B23&amp;"'"&amp;IF(C23&lt;&gt;"", ", anotherID: '" &amp; C23 &amp; "', replace: '" &amp; D23 &amp; "'", "")&amp;", name: '"&amp;E23&amp;"', ruby: '"&amp;F23&amp;"', baseType: '"&amp;VLOOKUP(G23,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H23,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I23&lt;&gt;"",", '"&amp; VLOOKUP(I23,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J23&lt;&gt;"", ", range: '"&amp;J23&amp;"'", "")&amp;IF(L23&lt;&gt;"", ", damage: '"&amp;L23&amp;"'", "")&amp;IF(N23&lt;&gt;"", ", capacity: '"&amp;N23&amp;"'", "")&amp;IF(O23&lt;&gt;"", ", cost: '"&amp;O23&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R23, CHAR(10), "\n")&amp;"'"&amp;IF(P23="○", ", sealable: true", "")&amp;IF(Q23="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '05-oboro-o-s-1': {megami: 'oboro', name: '熊介', ruby: 'くますけ', baseType: 'special', types: ['attack', 'fullpower'], range: '3-4', damage: '2/2', cost: '4', text: '【攻撃後】攻撃『適正距離3-4、2/2』をX回行う。Xはあなたの伏せ札の枚数に等しい。'}</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+      <c r="A24" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="O24" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="R24" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="S24" s="13"/>
+      <c r="T24" s="3" t="str">
+        <f>", '"&amp;A24&amp;"': {megami: '"&amp;B24&amp;"'"&amp;IF(C24&lt;&gt;"", ", anotherID: '" &amp; C24 &amp; "', replace: '" &amp; D24 &amp; "'", "")&amp;", name: '"&amp;E24&amp;"', ruby: '"&amp;F24&amp;"', baseType: '"&amp;VLOOKUP(G24,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H24,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I24&lt;&gt;"",", '"&amp; VLOOKUP(I24,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J24&lt;&gt;"", ", range: '"&amp;J24&amp;"'", "")&amp;IF(L24&lt;&gt;"", ", damage: '"&amp;L24&amp;"'", "")&amp;IF(N24&lt;&gt;"", ", capacity: '"&amp;N24&amp;"'", "")&amp;IF(O24&lt;&gt;"", ", cost: '"&amp;O24&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R24, CHAR(10), "\n")&amp;"'"&amp;IF(P24="○", ", sealable: true", "")&amp;IF(Q24="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '05-oboro-o-s-2': {megami: 'oboro', name: '鳶影', ruby: 'とびかげ', baseType: 'special', types: ['action', 'reaction'], cost: '3', text: '伏せ札から《全力》でないカードを1枚選び、そのカードを使用してもよい。この際、このカードが対応している《攻撃》があるならば、使用されたカードはそれに対応しているものと扱う。'}</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+      <c r="A25" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="O25" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="R25" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="S25" s="13"/>
+      <c r="T25" s="3" t="str">
+        <f>", '"&amp;A25&amp;"': {megami: '"&amp;B25&amp;"'"&amp;IF(C25&lt;&gt;"", ", anotherID: '" &amp; C25 &amp; "', replace: '" &amp; D25 &amp; "'", "")&amp;", name: '"&amp;E25&amp;"', ruby: '"&amp;F25&amp;"', baseType: '"&amp;VLOOKUP(G25,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H25,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I25&lt;&gt;"",", '"&amp; VLOOKUP(I25,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J25&lt;&gt;"", ", range: '"&amp;J25&amp;"'", "")&amp;IF(L25&lt;&gt;"", ", damage: '"&amp;L25&amp;"'", "")&amp;IF(N25&lt;&gt;"", ", capacity: '"&amp;N25&amp;"'", "")&amp;IF(O25&lt;&gt;"", ", cost: '"&amp;O25&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R25, CHAR(10), "\n")&amp;"'"&amp;IF(P25="○", ", sealable: true", "")&amp;IF(Q25="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '05-oboro-o-s-3': {megami: 'oboro', name: '虚魚', ruby: 'うろうお', baseType: 'special', types: ['action'], cost: '4', text: '【使用済】あなたは1回の再構成に対して、設置を持つカードを任意の枚数、任意の順で使用できる。'}</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+      <c r="A26" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="F26" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="G26" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="H26" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="M23" s="4" t="s">
+      <c r="K26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="O26" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="P23" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="3" t="str">
-        <f>", '"&amp;A23&amp;"': {megami: '"&amp;B23&amp;"', name: '"&amp;C23&amp;"', ruby: '"&amp;D23&amp;"', baseType: '"&amp;VLOOKUP(E23,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F23,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G23&lt;&gt;"",", '"&amp; VLOOKUP(G23,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H23&lt;&gt;"", ", range: '"&amp;H23&amp;"'", "")&amp;IF(J23&lt;&gt;"", ", damage: '"&amp;J23&amp;"'", "")&amp;IF(L23&lt;&gt;"", ", capacity: '"&amp;L23&amp;"'", "")&amp;IF(M23&lt;&gt;"", ", cost: '"&amp;M23&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P23, CHAR(10), "\n")&amp;"'"&amp;IF(N23="○", ", sealable: true", "")&amp;IF(O23="○", ", removable: true", "")&amp;"}"</f>
+      <c r="R26" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="S26" s="13"/>
+      <c r="T26" s="3" t="str">
+        <f>", '"&amp;A26&amp;"': {megami: '"&amp;B26&amp;"'"&amp;IF(C26&lt;&gt;"", ", anotherID: '" &amp; C26 &amp; "', replace: '" &amp; D26 &amp; "'", "")&amp;", name: '"&amp;E26&amp;"', ruby: '"&amp;F26&amp;"', baseType: '"&amp;VLOOKUP(G26,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H26,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I26&lt;&gt;"",", '"&amp; VLOOKUP(I26,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J26&lt;&gt;"", ", range: '"&amp;J26&amp;"'", "")&amp;IF(L26&lt;&gt;"", ", damage: '"&amp;L26&amp;"'", "")&amp;IF(N26&lt;&gt;"", ", capacity: '"&amp;N26&amp;"'", "")&amp;IF(O26&lt;&gt;"", ", cost: '"&amp;O26&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R26, CHAR(10), "\n")&amp;"'"&amp;IF(P26="○", ", sealable: true", "")&amp;IF(Q26="○", ", removable: true", "")&amp;"}"</f>
         <v>, '05-oboro-o-s-4': {megami: 'oboro', name: '壬蔓', ruby: 'みかずら', baseType: 'special', types: ['action'], cost: '0', text: '相オーラ→自フレア：1 \n----\n【再起】あなたのフレアが0である。'}</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A24" s="4" t="s">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A27" s="4" t="s">
         <v>225</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="9" t="str">
-        <f>", '"&amp;A24&amp;"': {megami: '"&amp;B24&amp;"', name: '"&amp;C24&amp;"', ruby: '"&amp;D24&amp;"', baseType: '"&amp;VLOOKUP(E24,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F24,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G24&lt;&gt;"",", '"&amp; VLOOKUP(G24,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H24&lt;&gt;"", ", range: '"&amp;H24&amp;"'", "")&amp;IF(I24&lt;&gt;"", ", rangeOpened: '"&amp;I24&amp;"'", "")&amp;IF(J24&lt;&gt;"", ", damage: '"&amp;J24&amp;"'", "")&amp;IF(K24&lt;&gt;"", ", damageOpened: '"&amp;K24&amp;"'", "")&amp;IF(L24&lt;&gt;"", ", capacity: '"&amp;L24&amp;"'", "")&amp;IF(M24&lt;&gt;"", ", cost: '"&amp;M24&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P24, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(Q24, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '06-yukihi-o-n-1': {megami: 'yukihi', name: 'しこみばり / ふくみばり', ruby: '', baseType: 'normal', types: ['attack'], range: '4-6', rangeOpened: '0-2', damage: '3/1', damageOpened: '1/2', text: '', textOpened: ''}</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A25" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="K25" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="P25" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="R25" s="9" t="str">
-        <f>", '"&amp;A25&amp;"': {megami: '"&amp;B25&amp;"', name: '"&amp;C25&amp;"', ruby: '"&amp;D25&amp;"', baseType: '"&amp;VLOOKUP(E25,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F25,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G25&lt;&gt;"",", '"&amp; VLOOKUP(G25,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H25&lt;&gt;"", ", range: '"&amp;H25&amp;"'", "")&amp;IF(I25&lt;&gt;"", ", rangeOpened: '"&amp;I25&amp;"'", "")&amp;IF(J25&lt;&gt;"", ", damage: '"&amp;J25&amp;"'", "")&amp;IF(K25&lt;&gt;"", ", damageOpened: '"&amp;K25&amp;"'", "")&amp;IF(L25&lt;&gt;"", ", capacity: '"&amp;L25&amp;"'", "")&amp;IF(M25&lt;&gt;"", ", cost: '"&amp;M25&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P25, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(Q25, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '06-yukihi-o-n-2': {megami: 'yukihi', name: 'しこみび / ねこだまし', ruby: '', baseType: 'normal', types: ['attack'], range: '5-6', rangeOpened: '0-2', damage: '1/1', damageOpened: '1/1', text: '【攻撃後】このカードを手札に戻し、傘の開閉を行う。 ', textOpened: ''}</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A26" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="K26" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="P26" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q26" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="R26" s="9" t="str">
-        <f>", '"&amp;A26&amp;"': {megami: '"&amp;B26&amp;"', name: '"&amp;C26&amp;"', ruby: '"&amp;D26&amp;"', baseType: '"&amp;VLOOKUP(E26,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F26,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G26&lt;&gt;"",", '"&amp; VLOOKUP(G26,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H26&lt;&gt;"", ", range: '"&amp;H26&amp;"'", "")&amp;IF(I26&lt;&gt;"", ", rangeOpened: '"&amp;I26&amp;"'", "")&amp;IF(J26&lt;&gt;"", ", damage: '"&amp;J26&amp;"'", "")&amp;IF(K26&lt;&gt;"", ", damageOpened: '"&amp;K26&amp;"'", "")&amp;IF(L26&lt;&gt;"", ", capacity: '"&amp;L26&amp;"'", "")&amp;IF(M26&lt;&gt;"", ", cost: '"&amp;M26&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P26, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(Q26, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '06-yukihi-o-n-3': {megami: 'yukihi', name: 'ふりはらい / たぐりよせ', ruby: '', baseType: 'normal', types: ['attack'], range: '2-5', rangeOpened: '0-2', damage: '1/1', damageOpened: '1/1', text: '【攻撃後】ダスト⇔間合：1 ', textOpened: '【攻撃後】間合→ダスト：2'}</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A27" s="4" t="s">
-        <v>228</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>234</v>
-      </c>
       <c r="E27" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="K27" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="P27" s="5"/>
-      <c r="R27" s="9" t="str">
-        <f>", '"&amp;A27&amp;"': {megami: '"&amp;B27&amp;"', name: '"&amp;C27&amp;"', ruby: '"&amp;D27&amp;"', baseType: '"&amp;VLOOKUP(E27,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F27,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G27&lt;&gt;"",", '"&amp; VLOOKUP(G27,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H27&lt;&gt;"", ", range: '"&amp;H27&amp;"'", "")&amp;IF(I27&lt;&gt;"", ", rangeOpened: '"&amp;I27&amp;"'", "")&amp;IF(J27&lt;&gt;"", ", damage: '"&amp;J27&amp;"'", "")&amp;IF(K27&lt;&gt;"", ", damageOpened: '"&amp;K27&amp;"'", "")&amp;IF(L27&lt;&gt;"", ", capacity: '"&amp;L27&amp;"'", "")&amp;IF(M27&lt;&gt;"", ", cost: '"&amp;M27&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P27, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(Q27, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '06-yukihi-o-n-4': {megami: 'yukihi', name: 'ふりまわし / つきさし', ruby: '', baseType: 'normal', types: ['attack', 'fullpower'], range: '4-6', rangeOpened: '0-2', damage: '5/-', damageOpened: '-/2', text: '', textOpened: ''}</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" ht="60" x14ac:dyDescent="0.15">
+      <c r="J27" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="M27" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="S27" s="8"/>
+      <c r="T27" s="9" t="str">
+        <f>", '"&amp;A27&amp;"': {megami: '"&amp;B27&amp;"', name: '"&amp;E27&amp;"', ruby: '"&amp;F27&amp;"', baseType: '"&amp;VLOOKUP(G27,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H27,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I27&lt;&gt;"",", '"&amp; VLOOKUP(I27,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J27&lt;&gt;"", ", range: '"&amp;J27&amp;"'", "")&amp;IF(K27&lt;&gt;"", ", rangeOpened: '"&amp;K27&amp;"'", "")&amp;IF(L27&lt;&gt;"", ", damage: '"&amp;L27&amp;"'", "")&amp;IF(M27&lt;&gt;"", ", damageOpened: '"&amp;M27&amp;"'", "")&amp;IF(N27&lt;&gt;"", ", capacity: '"&amp;N27&amp;"'", "")&amp;IF(O27&lt;&gt;"", ", cost: '"&amp;O27&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R27, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(S27, CHAR(10), "\n")&amp;"'}"</f>
+        <v>, '06-yukihi-o-n-1': {megami: 'yukihi', name: 'しこみばり / ふくみばり', ruby: '', baseType: 'normal', types: ['attack'], range: '4-6', rangeOpened: '0-2', damage: '3/1', damageOpened: '1/2', text: '', textOpened: ''}</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>217</v>
-      </c>
       <c r="E28" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="P28" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="R28" s="9" t="str">
-        <f>", '"&amp;A28&amp;"': {megami: '"&amp;B28&amp;"', name: '"&amp;C28&amp;"', ruby: '"&amp;D28&amp;"', baseType: '"&amp;VLOOKUP(E28,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F28,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G28&lt;&gt;"",", '"&amp; VLOOKUP(G28,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H28&lt;&gt;"", ", range: '"&amp;H28&amp;"'", "")&amp;IF(I28&lt;&gt;"", ", rangeOpened: '"&amp;I28&amp;"'", "")&amp;IF(J28&lt;&gt;"", ", damage: '"&amp;J28&amp;"'", "")&amp;IF(K28&lt;&gt;"", ", damageOpened: '"&amp;K28&amp;"'", "")&amp;IF(L28&lt;&gt;"", ", capacity: '"&amp;L28&amp;"'", "")&amp;IF(M28&lt;&gt;"", ", cost: '"&amp;M28&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P28, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(Q28, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '06-yukihi-o-n-5': {megami: 'yukihi', name: 'かさまわし', ruby: '', baseType: 'normal', types: ['action'], text: '(このカードは使用しても効果はない) \n【常時】あなたが傘の開閉を行った時、このカードを手札から公開してもよい。そうした場合、 \nダスト→自オーラ：1\n', textOpened: ''}</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
+        <v>236</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="M28" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="R28" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="T28" s="9" t="str">
+        <f>", '"&amp;A28&amp;"': {megami: '"&amp;B28&amp;"', name: '"&amp;E28&amp;"', ruby: '"&amp;F28&amp;"', baseType: '"&amp;VLOOKUP(G28,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H28,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I28&lt;&gt;"",", '"&amp; VLOOKUP(I28,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J28&lt;&gt;"", ", range: '"&amp;J28&amp;"'", "")&amp;IF(K28&lt;&gt;"", ", rangeOpened: '"&amp;K28&amp;"'", "")&amp;IF(L28&lt;&gt;"", ", damage: '"&amp;L28&amp;"'", "")&amp;IF(M28&lt;&gt;"", ", damageOpened: '"&amp;M28&amp;"'", "")&amp;IF(N28&lt;&gt;"", ", capacity: '"&amp;N28&amp;"'", "")&amp;IF(O28&lt;&gt;"", ", cost: '"&amp;O28&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R28, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(S28, CHAR(10), "\n")&amp;"'}"</f>
+        <v>, '06-yukihi-o-n-2': {megami: 'yukihi', name: 'しこみび / ねこだまし', ruby: '', baseType: 'normal', types: ['attack'], range: '5-6', rangeOpened: '0-2', damage: '1/1', damageOpened: '1/1', text: '【攻撃後】このカードを手札に戻し、傘の開閉を行う。 ', textOpened: ''}</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>233</v>
-      </c>
       <c r="E29" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="P29" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="Q29" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="R29" s="9" t="str">
-        <f>", '"&amp;A29&amp;"': {megami: '"&amp;B29&amp;"', name: '"&amp;C29&amp;"', ruby: '"&amp;D29&amp;"', baseType: '"&amp;VLOOKUP(E29,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F29,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G29&lt;&gt;"",", '"&amp; VLOOKUP(G29,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H29&lt;&gt;"", ", range: '"&amp;H29&amp;"'", "")&amp;IF(I29&lt;&gt;"", ", rangeOpened: '"&amp;I29&amp;"'", "")&amp;IF(J29&lt;&gt;"", ", damage: '"&amp;J29&amp;"'", "")&amp;IF(K29&lt;&gt;"", ", damageOpened: '"&amp;K29&amp;"'", "")&amp;IF(L29&lt;&gt;"", ", capacity: '"&amp;L29&amp;"'", "")&amp;IF(M29&lt;&gt;"", ", cost: '"&amp;M29&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P29, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(Q29, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '06-yukihi-o-n-6': {megami: 'yukihi', name: 'ひきあし / もぐりこみ', ruby: '', baseType: 'normal', types: ['action', 'reaction'], text: 'ダスト→間合：1 ', textOpened: '間合→ダスト：1'}</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" ht="36" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="R29" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="S29" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="T29" s="9" t="str">
+        <f>", '"&amp;A29&amp;"': {megami: '"&amp;B29&amp;"', name: '"&amp;E29&amp;"', ruby: '"&amp;F29&amp;"', baseType: '"&amp;VLOOKUP(G29,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H29,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I29&lt;&gt;"",", '"&amp; VLOOKUP(I29,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J29&lt;&gt;"", ", range: '"&amp;J29&amp;"'", "")&amp;IF(K29&lt;&gt;"", ", rangeOpened: '"&amp;K29&amp;"'", "")&amp;IF(L29&lt;&gt;"", ", damage: '"&amp;L29&amp;"'", "")&amp;IF(M29&lt;&gt;"", ", damageOpened: '"&amp;M29&amp;"'", "")&amp;IF(N29&lt;&gt;"", ", capacity: '"&amp;N29&amp;"'", "")&amp;IF(O29&lt;&gt;"", ", cost: '"&amp;O29&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R29, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(S29, CHAR(10), "\n")&amp;"'}"</f>
+        <v>, '06-yukihi-o-n-3': {megami: 'yukihi', name: 'ふりはらい / たぐりよせ', ruby: '', baseType: 'normal', types: ['attack'], range: '2-5', rangeOpened: '0-2', damage: '1/1', damageOpened: '1/1', text: '【攻撃後】ダスト⇔間合：1 ', textOpened: '【攻撃後】間合→ダスト：2'}</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>232</v>
-      </c>
       <c r="E30" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="P30" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="R30" s="9" t="str">
-        <f>", '"&amp;A30&amp;"': {megami: '"&amp;B30&amp;"', name: '"&amp;C30&amp;"', ruby: '"&amp;D30&amp;"', baseType: '"&amp;VLOOKUP(E30,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F30,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G30&lt;&gt;"",", '"&amp; VLOOKUP(G30,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H30&lt;&gt;"", ", range: '"&amp;H30&amp;"'", "")&amp;IF(I30&lt;&gt;"", ", rangeOpened: '"&amp;I30&amp;"'", "")&amp;IF(J30&lt;&gt;"", ", damage: '"&amp;J30&amp;"'", "")&amp;IF(K30&lt;&gt;"", ", damageOpened: '"&amp;K30&amp;"'", "")&amp;IF(L30&lt;&gt;"", ", capacity: '"&amp;L30&amp;"'", "")&amp;IF(M30&lt;&gt;"", ", cost: '"&amp;M30&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P30, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(Q30, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '06-yukihi-o-n-7': {megami: 'yukihi', name: 'えんむすび', ruby: '', baseType: 'normal', types: ['enhance'], capacity: '2', text: '【展開時】間合→ダスト：1 \n【破棄時】ダスト→間合：1 \n【常時】あなたの傘が開いているならば、このカードの矢印(→)は逆になる。', textOpened: ''}</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" ht="48" x14ac:dyDescent="0.15">
+        <v>234</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="R30" s="5"/>
+      <c r="T30" s="9" t="str">
+        <f>", '"&amp;A30&amp;"': {megami: '"&amp;B30&amp;"', name: '"&amp;E30&amp;"', ruby: '"&amp;F30&amp;"', baseType: '"&amp;VLOOKUP(G30,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H30,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I30&lt;&gt;"",", '"&amp; VLOOKUP(I30,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J30&lt;&gt;"", ", range: '"&amp;J30&amp;"'", "")&amp;IF(K30&lt;&gt;"", ", rangeOpened: '"&amp;K30&amp;"'", "")&amp;IF(L30&lt;&gt;"", ", damage: '"&amp;L30&amp;"'", "")&amp;IF(M30&lt;&gt;"", ", damageOpened: '"&amp;M30&amp;"'", "")&amp;IF(N30&lt;&gt;"", ", capacity: '"&amp;N30&amp;"'", "")&amp;IF(O30&lt;&gt;"", ", cost: '"&amp;O30&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R30, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(S30, CHAR(10), "\n")&amp;"'}"</f>
+        <v>, '06-yukihi-o-n-4': {megami: 'yukihi', name: 'ふりまわし / つきさし', ruby: '', baseType: 'normal', types: ['attack', 'fullpower'], range: '4-6', rangeOpened: '0-2', damage: '5/-', damageOpened: '-/2', text: '', textOpened: ''}</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="60" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>218</v>
-      </c>
       <c r="E31" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>8</v>
+        <v>217</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="K31" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="R31" s="9" t="str">
-        <f>", '"&amp;A31&amp;"': {megami: '"&amp;B31&amp;"', name: '"&amp;C31&amp;"', ruby: '"&amp;D31&amp;"', baseType: '"&amp;VLOOKUP(E31,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F31,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G31&lt;&gt;"",", '"&amp; VLOOKUP(G31,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H31&lt;&gt;"", ", range: '"&amp;H31&amp;"'", "")&amp;IF(I31&lt;&gt;"", ", rangeOpened: '"&amp;I31&amp;"'", "")&amp;IF(J31&lt;&gt;"", ", damage: '"&amp;J31&amp;"'", "")&amp;IF(K31&lt;&gt;"", ", damageOpened: '"&amp;K31&amp;"'", "")&amp;IF(L31&lt;&gt;"", ", capacity: '"&amp;L31&amp;"'", "")&amp;IF(M31&lt;&gt;"", ", cost: '"&amp;M31&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P31, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(Q31, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '06-yukihi-o-s-1': {megami: 'yukihi', name: 'はらりゆき', ruby: '', baseType: 'special', types: ['attack'], range: '3-5', rangeOpened: '0-1', damage: '3/1', damageOpened: '0/0', cost: '2', text: '', textOpened: '----\n【即再起】あなたが傘の開閉を行う。 '}</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="K31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="R31" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="T31" s="9" t="str">
+        <f>", '"&amp;A31&amp;"': {megami: '"&amp;B31&amp;"', name: '"&amp;E31&amp;"', ruby: '"&amp;F31&amp;"', baseType: '"&amp;VLOOKUP(G31,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H31,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I31&lt;&gt;"",", '"&amp; VLOOKUP(I31,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J31&lt;&gt;"", ", range: '"&amp;J31&amp;"'", "")&amp;IF(K31&lt;&gt;"", ", rangeOpened: '"&amp;K31&amp;"'", "")&amp;IF(L31&lt;&gt;"", ", damage: '"&amp;L31&amp;"'", "")&amp;IF(M31&lt;&gt;"", ", damageOpened: '"&amp;M31&amp;"'", "")&amp;IF(N31&lt;&gt;"", ", capacity: '"&amp;N31&amp;"'", "")&amp;IF(O31&lt;&gt;"", ", cost: '"&amp;O31&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R31, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(S31, CHAR(10), "\n")&amp;"'}"</f>
+        <v>, '06-yukihi-o-n-5': {megami: 'yukihi', name: 'かさまわし', ruby: '', baseType: 'normal', types: ['action'], text: '(このカードは使用しても効果はない) \n【常時】あなたが傘の開閉を行った時、このカードを手札から公開してもよい。そうした場合、 \nダスト→自オーラ：1\n', textOpened: ''}</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>222</v>
-      </c>
       <c r="E32" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>8</v>
+        <v>233</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="K32" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="M32" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="P32" s="5"/>
-      <c r="R32" s="9" t="str">
-        <f>", '"&amp;A32&amp;"': {megami: '"&amp;B32&amp;"', name: '"&amp;C32&amp;"', ruby: '"&amp;D32&amp;"', baseType: '"&amp;VLOOKUP(E32,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F32,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G32&lt;&gt;"",", '"&amp; VLOOKUP(G32,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H32&lt;&gt;"", ", range: '"&amp;H32&amp;"'", "")&amp;IF(I32&lt;&gt;"", ", rangeOpened: '"&amp;I32&amp;"'", "")&amp;IF(J32&lt;&gt;"", ", damage: '"&amp;J32&amp;"'", "")&amp;IF(K32&lt;&gt;"", ", damageOpened: '"&amp;K32&amp;"'", "")&amp;IF(L32&lt;&gt;"", ", capacity: '"&amp;L32&amp;"'", "")&amp;IF(M32&lt;&gt;"", ", cost: '"&amp;M32&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P32, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(Q32, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '06-yukihi-o-s-2': {megami: 'yukihi', name: 'ゆらりび', ruby: '', baseType: 'special', types: ['attack'], range: '4-6', rangeOpened: '0', damage: '0/0', damageOpened: '4/5', cost: '5', text: '', textOpened: ''}</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" ht="24" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="R32" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="S32" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="T32" s="9" t="str">
+        <f>", '"&amp;A32&amp;"': {megami: '"&amp;B32&amp;"', name: '"&amp;E32&amp;"', ruby: '"&amp;F32&amp;"', baseType: '"&amp;VLOOKUP(G32,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H32,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I32&lt;&gt;"",", '"&amp; VLOOKUP(I32,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J32&lt;&gt;"", ", range: '"&amp;J32&amp;"'", "")&amp;IF(K32&lt;&gt;"", ", rangeOpened: '"&amp;K32&amp;"'", "")&amp;IF(L32&lt;&gt;"", ", damage: '"&amp;L32&amp;"'", "")&amp;IF(M32&lt;&gt;"", ", damageOpened: '"&amp;M32&amp;"'", "")&amp;IF(N32&lt;&gt;"", ", capacity: '"&amp;N32&amp;"'", "")&amp;IF(O32&lt;&gt;"", ", cost: '"&amp;O32&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R32, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(S32, CHAR(10), "\n")&amp;"'}"</f>
+        <v>, '06-yukihi-o-n-6': {megami: 'yukihi', name: 'ひきあし / もぐりこみ', ruby: '', baseType: 'normal', types: ['action', 'reaction'], text: 'ダスト→間合：1 ', textOpened: '間合→ダスト：1'}</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="36" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>223</v>
-      </c>
       <c r="E33" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F33" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G33" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I33" s="11"/>
       <c r="K33" s="11"/>
-      <c r="L33" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="P33" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="R33" s="9" t="str">
-        <f>", '"&amp;A33&amp;"': {megami: '"&amp;B33&amp;"', name: '"&amp;C33&amp;"', ruby: '"&amp;D33&amp;"', baseType: '"&amp;VLOOKUP(E33,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F33,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G33&lt;&gt;"",", '"&amp; VLOOKUP(G33,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H33&lt;&gt;"", ", range: '"&amp;H33&amp;"'", "")&amp;IF(I33&lt;&gt;"", ", rangeOpened: '"&amp;I33&amp;"'", "")&amp;IF(J33&lt;&gt;"", ", damage: '"&amp;J33&amp;"'", "")&amp;IF(K33&lt;&gt;"", ", damageOpened: '"&amp;K33&amp;"'", "")&amp;IF(L33&lt;&gt;"", ", capacity: '"&amp;L33&amp;"'", "")&amp;IF(M33&lt;&gt;"", ", cost: '"&amp;M33&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P33, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(Q33, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '06-yukihi-o-s-3': {megami: 'yukihi', name: 'どろりうら', ruby: '', baseType: 'special', types: ['enhance', 'fullpower'], capacity: '7', cost: '3', text: '【展開中】あなたのユキヒの《攻撃》は傘を開いた状態と傘を閉じた状態両方の適正距離を持つ。', textOpened: ''}</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" ht="24" x14ac:dyDescent="0.15">
+      <c r="M33" s="11"/>
+      <c r="N33" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R33" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="T33" s="9" t="str">
+        <f>", '"&amp;A33&amp;"': {megami: '"&amp;B33&amp;"', name: '"&amp;E33&amp;"', ruby: '"&amp;F33&amp;"', baseType: '"&amp;VLOOKUP(G33,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H33,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I33&lt;&gt;"",", '"&amp; VLOOKUP(I33,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J33&lt;&gt;"", ", range: '"&amp;J33&amp;"'", "")&amp;IF(K33&lt;&gt;"", ", rangeOpened: '"&amp;K33&amp;"'", "")&amp;IF(L33&lt;&gt;"", ", damage: '"&amp;L33&amp;"'", "")&amp;IF(M33&lt;&gt;"", ", damageOpened: '"&amp;M33&amp;"'", "")&amp;IF(N33&lt;&gt;"", ", capacity: '"&amp;N33&amp;"'", "")&amp;IF(O33&lt;&gt;"", ", cost: '"&amp;O33&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R33, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(S33, CHAR(10), "\n")&amp;"'}"</f>
+        <v>, '06-yukihi-o-n-7': {megami: 'yukihi', name: 'えんむすび', ruby: '', baseType: 'normal', types: ['enhance'], capacity: '2', text: '【展開時】間合→ダスト：1 \n【破棄時】ダスト→間合：1 \n【常時】あなたの傘が開いているならば、このカードの矢印(→)は逆になる。', textOpened: ''}</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="48" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="E34" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="M34" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="T34" s="9" t="str">
+        <f>", '"&amp;A34&amp;"': {megami: '"&amp;B34&amp;"', name: '"&amp;E34&amp;"', ruby: '"&amp;F34&amp;"', baseType: '"&amp;VLOOKUP(G34,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H34,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I34&lt;&gt;"",", '"&amp; VLOOKUP(I34,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J34&lt;&gt;"", ", range: '"&amp;J34&amp;"'", "")&amp;IF(K34&lt;&gt;"", ", rangeOpened: '"&amp;K34&amp;"'", "")&amp;IF(L34&lt;&gt;"", ", damage: '"&amp;L34&amp;"'", "")&amp;IF(M34&lt;&gt;"", ", damageOpened: '"&amp;M34&amp;"'", "")&amp;IF(N34&lt;&gt;"", ", capacity: '"&amp;N34&amp;"'", "")&amp;IF(O34&lt;&gt;"", ", cost: '"&amp;O34&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R34, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(S34, CHAR(10), "\n")&amp;"'}"</f>
+        <v>, '06-yukihi-o-s-1': {megami: 'yukihi', name: 'はらりゆき', ruby: '', baseType: 'special', types: ['attack'], range: '3-5', rangeOpened: '0-1', damage: '3/1', damageOpened: '0/0', cost: '2', text: '', textOpened: '----\n【即再起】あなたが傘の開閉を行う。 '}</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A35" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="M35" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="R35" s="5"/>
+      <c r="T35" s="9" t="str">
+        <f>", '"&amp;A35&amp;"': {megami: '"&amp;B35&amp;"', name: '"&amp;E35&amp;"', ruby: '"&amp;F35&amp;"', baseType: '"&amp;VLOOKUP(G35,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H35,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I35&lt;&gt;"",", '"&amp; VLOOKUP(I35,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J35&lt;&gt;"", ", range: '"&amp;J35&amp;"'", "")&amp;IF(K35&lt;&gt;"", ", rangeOpened: '"&amp;K35&amp;"'", "")&amp;IF(L35&lt;&gt;"", ", damage: '"&amp;L35&amp;"'", "")&amp;IF(M35&lt;&gt;"", ", damageOpened: '"&amp;M35&amp;"'", "")&amp;IF(N35&lt;&gt;"", ", capacity: '"&amp;N35&amp;"'", "")&amp;IF(O35&lt;&gt;"", ", cost: '"&amp;O35&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R35, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(S35, CHAR(10), "\n")&amp;"'}"</f>
+        <v>, '06-yukihi-o-s-2': {megami: 'yukihi', name: 'ゆらりび', ruby: '', baseType: 'special', types: ['attack'], range: '4-6', rangeOpened: '0', damage: '0/0', damageOpened: '4/5', cost: '5', text: '', textOpened: ''}</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+      <c r="A36" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="R36" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="T36" s="9" t="str">
+        <f>", '"&amp;A36&amp;"': {megami: '"&amp;B36&amp;"', name: '"&amp;E36&amp;"', ruby: '"&amp;F36&amp;"', baseType: '"&amp;VLOOKUP(G36,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H36,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I36&lt;&gt;"",", '"&amp; VLOOKUP(I36,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J36&lt;&gt;"", ", range: '"&amp;J36&amp;"'", "")&amp;IF(K36&lt;&gt;"", ", rangeOpened: '"&amp;K36&amp;"'", "")&amp;IF(L36&lt;&gt;"", ", damage: '"&amp;L36&amp;"'", "")&amp;IF(M36&lt;&gt;"", ", damageOpened: '"&amp;M36&amp;"'", "")&amp;IF(N36&lt;&gt;"", ", capacity: '"&amp;N36&amp;"'", "")&amp;IF(O36&lt;&gt;"", ", cost: '"&amp;O36&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R36, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(S36, CHAR(10), "\n")&amp;"'}"</f>
+        <v>, '06-yukihi-o-s-3': {megami: 'yukihi', name: 'どろりうら', ruby: '', baseType: 'special', types: ['enhance', 'fullpower'], capacity: '7', cost: '3', text: '【展開中】あなたのユキヒの《攻撃》は傘を開いた状態と傘を閉じた状態両方の適正距離を持つ。', textOpened: ''}</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+      <c r="A37" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="G37" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="H37" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="I37" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="M34" s="4" t="s">
+      <c r="K37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="O37" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="P34" s="5" t="s">
+      <c r="R37" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="R34" s="9" t="str">
-        <f>", '"&amp;A34&amp;"': {megami: '"&amp;B34&amp;"', name: '"&amp;C34&amp;"', ruby: '"&amp;D34&amp;"', baseType: '"&amp;VLOOKUP(E34,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F34,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G34&lt;&gt;"",", '"&amp; VLOOKUP(G34,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H34&lt;&gt;"", ", range: '"&amp;H34&amp;"'", "")&amp;IF(I34&lt;&gt;"", ", rangeOpened: '"&amp;I34&amp;"'", "")&amp;IF(J34&lt;&gt;"", ", damage: '"&amp;J34&amp;"'", "")&amp;IF(K34&lt;&gt;"", ", damageOpened: '"&amp;K34&amp;"'", "")&amp;IF(L34&lt;&gt;"", ", capacity: '"&amp;L34&amp;"'", "")&amp;IF(M34&lt;&gt;"", ", cost: '"&amp;M34&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P34, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(Q34, CHAR(10), "\n")&amp;"'}"</f>
+      <c r="T37" s="9" t="str">
+        <f>", '"&amp;A37&amp;"': {megami: '"&amp;B37&amp;"', name: '"&amp;E37&amp;"', ruby: '"&amp;F37&amp;"', baseType: '"&amp;VLOOKUP(G37,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H37,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I37&lt;&gt;"",", '"&amp; VLOOKUP(I37,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J37&lt;&gt;"", ", range: '"&amp;J37&amp;"'", "")&amp;IF(K37&lt;&gt;"", ", rangeOpened: '"&amp;K37&amp;"'", "")&amp;IF(L37&lt;&gt;"", ", damage: '"&amp;L37&amp;"'", "")&amp;IF(M37&lt;&gt;"", ", damageOpened: '"&amp;M37&amp;"'", "")&amp;IF(N37&lt;&gt;"", ", capacity: '"&amp;N37&amp;"'", "")&amp;IF(O37&lt;&gt;"", ", cost: '"&amp;O37&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R37, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(S37, CHAR(10), "\n")&amp;"'}"</f>
         <v>, '06-yukihi-o-s-4': {megami: 'yukihi', name: 'くるりみ', ruby: '', baseType: 'special', types: ['action', 'reaction'], cost: '1', text: '傘の開閉を行う。 \nダスト→自オーラ：1', textOpened: ''}</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A35" s="4" t="s">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A38" s="4" t="s">
         <v>276</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="I35" s="13"/>
-      <c r="J35" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="K35" s="13"/>
-      <c r="P35" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="3" t="str">
-        <f>", '"&amp;A35&amp;"': {megami: '"&amp;B35&amp;"', name: '"&amp;C35&amp;"', ruby: '"&amp;D35&amp;"', baseType: '"&amp;VLOOKUP(E35,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F35,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G35&lt;&gt;"",", '"&amp; VLOOKUP(G35,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H35&lt;&gt;"", ", range: '"&amp;H35&amp;"'", "")&amp;IF(J35&lt;&gt;"", ", damage: '"&amp;J35&amp;"'", "")&amp;IF(L35&lt;&gt;"", ", capacity: '"&amp;L35&amp;"'", "")&amp;IF(M35&lt;&gt;"", ", cost: '"&amp;M35&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P35, CHAR(10), "\n")&amp;"'"&amp;IF(N35="○", ", sealable: true", "")&amp;IF(O35="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '07-shinra-o-n-1': {megami: 'shinra', name: '立論', ruby: 'りつろん', baseType: 'normal', types: ['attack'], range: '2-7', damage: '2/-', text: '【常時】相手の山札に2枚以上のカードがあるならば、この《攻撃》はダメージを与える代わりに山札の上から2枚を伏せ札にする。'}</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" ht="36" x14ac:dyDescent="0.15">
-      <c r="A36" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="I36" s="13"/>
-      <c r="J36" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="K36" s="13"/>
-      <c r="P36" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="3" t="str">
-        <f>", '"&amp;A36&amp;"': {megami: '"&amp;B36&amp;"', name: '"&amp;C36&amp;"', ruby: '"&amp;D36&amp;"', baseType: '"&amp;VLOOKUP(E36,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F36,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G36&lt;&gt;"",", '"&amp; VLOOKUP(G36,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H36&lt;&gt;"", ", range: '"&amp;H36&amp;"'", "")&amp;IF(J36&lt;&gt;"", ", damage: '"&amp;J36&amp;"'", "")&amp;IF(L36&lt;&gt;"", ", capacity: '"&amp;L36&amp;"'", "")&amp;IF(M36&lt;&gt;"", ", cost: '"&amp;M36&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P36, CHAR(10), "\n")&amp;"'"&amp;IF(N36="○", ", sealable: true", "")&amp;IF(O36="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '07-shinra-o-n-2': {megami: 'shinra', name: '反論', ruby: 'はんろん', baseType: 'normal', types: ['attack', 'reaction'], range: '2-7', damage: '1/-', text: '【攻撃後】対応した切札でなく、オーラへのダメージが3以上である《攻撃》のダメージを打ち消す。 \n【攻撃後】相手はカードを1枚引く。'}</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" ht="36" x14ac:dyDescent="0.15">
-      <c r="A37" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I37" s="13"/>
-      <c r="J37" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="K37" s="13"/>
-      <c r="P37" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q37" s="13"/>
-      <c r="R37" s="3" t="str">
-        <f>", '"&amp;A37&amp;"': {megami: '"&amp;B37&amp;"', name: '"&amp;C37&amp;"', ruby: '"&amp;D37&amp;"', baseType: '"&amp;VLOOKUP(E37,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F37,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G37&lt;&gt;"",", '"&amp; VLOOKUP(G37,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H37&lt;&gt;"", ", range: '"&amp;H37&amp;"'", "")&amp;IF(J37&lt;&gt;"", ", damage: '"&amp;J37&amp;"'", "")&amp;IF(L37&lt;&gt;"", ", capacity: '"&amp;L37&amp;"'", "")&amp;IF(M37&lt;&gt;"", ", cost: '"&amp;M37&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P37, CHAR(10), "\n")&amp;"'"&amp;IF(N37="○", ", sealable: true", "")&amp;IF(O37="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '07-shinra-o-n-3': {megami: 'shinra', name: '詭弁', ruby: 'きべん', baseType: 'normal', types: ['attack', 'fullpower'], range: '3-8', damage: '-/1', text: '【攻撃後】計略を実行し、次の計略を準備する。 \n[神算] 相手の山札の上から3枚を伏せ札にする。 \n[鬼謀] 相手の捨て札にあるカードを1枚選び、それを使用してもよい。'}</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A38" s="4" t="s">
-        <v>279</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>290</v>
-      </c>
       <c r="E38" s="4" t="s">
-        <v>7</v>
+        <v>262</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I38" s="13"/>
+        <v>287</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>273</v>
+      </c>
       <c r="K38" s="13"/>
-      <c r="P38" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="3" t="str">
-        <f>", '"&amp;A38&amp;"': {megami: '"&amp;B38&amp;"', name: '"&amp;C38&amp;"', ruby: '"&amp;D38&amp;"', baseType: '"&amp;VLOOKUP(E38,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F38,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G38&lt;&gt;"",", '"&amp; VLOOKUP(G38,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H38&lt;&gt;"", ", range: '"&amp;H38&amp;"'", "")&amp;IF(J38&lt;&gt;"", ", damage: '"&amp;J38&amp;"'", "")&amp;IF(L38&lt;&gt;"", ", capacity: '"&amp;L38&amp;"'", "")&amp;IF(M38&lt;&gt;"", ", cost: '"&amp;M38&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P38, CHAR(10), "\n")&amp;"'"&amp;IF(N38="○", ", sealable: true", "")&amp;IF(O38="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '07-shinra-o-n-4': {megami: 'shinra', name: '引用', ruby: 'いんよう', baseType: 'normal', types: ['action'], text: '相手の手札を見て、《攻撃》カードを1枚選んでもよい。そうした場合、そのカードを使用するか伏せ札にする。その後、そのカードが《全力》を持つならば現在のフェイズを終了する。'}</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" ht="36" x14ac:dyDescent="0.15">
+      <c r="L38" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="M38" s="13"/>
+      <c r="R38" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="S38" s="13"/>
+      <c r="T38" s="3" t="str">
+        <f>", '"&amp;A38&amp;"': {megami: '"&amp;B38&amp;"'"&amp;IF(C38&lt;&gt;"", ", anotherID: '" &amp; C38 &amp; "', replace: '" &amp; D38 &amp; "'", "")&amp;", name: '"&amp;E38&amp;"', ruby: '"&amp;F38&amp;"', baseType: '"&amp;VLOOKUP(G38,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H38,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I38&lt;&gt;"",", '"&amp; VLOOKUP(I38,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J38&lt;&gt;"", ", range: '"&amp;J38&amp;"'", "")&amp;IF(L38&lt;&gt;"", ", damage: '"&amp;L38&amp;"'", "")&amp;IF(N38&lt;&gt;"", ", capacity: '"&amp;N38&amp;"'", "")&amp;IF(O38&lt;&gt;"", ", cost: '"&amp;O38&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R38, CHAR(10), "\n")&amp;"'"&amp;IF(P38="○", ", sealable: true", "")&amp;IF(Q38="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '07-shinra-o-n-1': {megami: 'shinra', name: '立論', ruby: 'りつろん', baseType: 'normal', types: ['attack'], range: '2-7', damage: '2/-', text: '【常時】相手の山札に2枚以上のカードがあるならば、この《攻撃》はダメージを与える代わりに山札の上から2枚を伏せ札にする。'}</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" ht="36" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>291</v>
-      </c>
       <c r="E39" s="4" t="s">
-        <v>7</v>
+        <v>263</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>23</v>
+        <v>288</v>
       </c>
       <c r="G39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I39" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I39" s="13"/>
+      <c r="J39" s="4" t="s">
+        <v>273</v>
+      </c>
       <c r="K39" s="13"/>
-      <c r="P39" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q39" s="13"/>
-      <c r="R39" s="3" t="str">
-        <f>", '"&amp;A39&amp;"': {megami: '"&amp;B39&amp;"', name: '"&amp;C39&amp;"', ruby: '"&amp;D39&amp;"', baseType: '"&amp;VLOOKUP(E39,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F39,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G39&lt;&gt;"",", '"&amp; VLOOKUP(G39,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H39&lt;&gt;"", ", range: '"&amp;H39&amp;"'", "")&amp;IF(J39&lt;&gt;"", ", damage: '"&amp;J39&amp;"'", "")&amp;IF(L39&lt;&gt;"", ", capacity: '"&amp;L39&amp;"'", "")&amp;IF(M39&lt;&gt;"", ", cost: '"&amp;M39&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P39, CHAR(10), "\n")&amp;"'"&amp;IF(N39="○", ", sealable: true", "")&amp;IF(O39="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '07-shinra-o-n-5': {megami: 'shinra', name: '煽動', ruby: 'せんどう', baseType: 'normal', types: ['action', 'reaction'], text: '計略を実行し、次の計略を準備する。 \n[神算] ダスト→間合：1 \n[鬼謀] 間合→相オーラ：1'}</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" ht="48" x14ac:dyDescent="0.15">
+      <c r="L39" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="M39" s="13"/>
+      <c r="R39" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="S39" s="13"/>
+      <c r="T39" s="3" t="str">
+        <f>", '"&amp;A39&amp;"': {megami: '"&amp;B39&amp;"'"&amp;IF(C39&lt;&gt;"", ", anotherID: '" &amp; C39 &amp; "', replace: '" &amp; D39 &amp; "'", "")&amp;", name: '"&amp;E39&amp;"', ruby: '"&amp;F39&amp;"', baseType: '"&amp;VLOOKUP(G39,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H39,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I39&lt;&gt;"",", '"&amp; VLOOKUP(I39,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J39&lt;&gt;"", ", range: '"&amp;J39&amp;"'", "")&amp;IF(L39&lt;&gt;"", ", damage: '"&amp;L39&amp;"'", "")&amp;IF(N39&lt;&gt;"", ", capacity: '"&amp;N39&amp;"'", "")&amp;IF(O39&lt;&gt;"", ", cost: '"&amp;O39&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R39, CHAR(10), "\n")&amp;"'"&amp;IF(P39="○", ", sealable: true", "")&amp;IF(Q39="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '07-shinra-o-n-2': {megami: 'shinra', name: '反論', ruby: 'はんろん', baseType: 'normal', types: ['attack', 'reaction'], range: '2-7', damage: '1/-', text: '【攻撃後】対応した切札でなく、オーラへのダメージが3以上である《攻撃》のダメージを打ち消す。 \n【攻撃後】相手はカードを1枚引く。'}</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" ht="36" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>292</v>
-      </c>
       <c r="E40" s="4" t="s">
-        <v>7</v>
+        <v>264</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I40" s="13"/>
+        <v>289</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="K40" s="13"/>
-      <c r="L40" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="P40" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="3" t="str">
-        <f>", '"&amp;A40&amp;"': {megami: '"&amp;B40&amp;"', name: '"&amp;C40&amp;"', ruby: '"&amp;D40&amp;"', baseType: '"&amp;VLOOKUP(E40,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F40,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G40&lt;&gt;"",", '"&amp; VLOOKUP(G40,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H40&lt;&gt;"", ", range: '"&amp;H40&amp;"'", "")&amp;IF(J40&lt;&gt;"", ", damage: '"&amp;J40&amp;"'", "")&amp;IF(L40&lt;&gt;"", ", capacity: '"&amp;L40&amp;"'", "")&amp;IF(M40&lt;&gt;"", ", cost: '"&amp;M40&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P40, CHAR(10), "\n")&amp;"'"&amp;IF(N40="○", ", sealable: true", "")&amp;IF(O40="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '07-shinra-o-n-6': {megami: 'shinra', name: '壮語', ruby: 'そうご', baseType: 'normal', types: ['enhance'], capacity: '2', text: '【破棄時】計略を実行し、次の計略を準備する。 \n[神算] あなたの集中力は1増加し、このカードを山札の一番上に置く。 \n[鬼謀] 相手は手札が2枚以上ならば、手札を1枚になるまで捨て札にする。相手の集中力は0になる。'}</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" ht="24" x14ac:dyDescent="0.15">
+      <c r="L40" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="M40" s="13"/>
+      <c r="R40" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="S40" s="13"/>
+      <c r="T40" s="3" t="str">
+        <f>", '"&amp;A40&amp;"': {megami: '"&amp;B40&amp;"'"&amp;IF(C40&lt;&gt;"", ", anotherID: '" &amp; C40 &amp; "', replace: '" &amp; D40 &amp; "'", "")&amp;", name: '"&amp;E40&amp;"', ruby: '"&amp;F40&amp;"', baseType: '"&amp;VLOOKUP(G40,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H40,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I40&lt;&gt;"",", '"&amp; VLOOKUP(I40,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J40&lt;&gt;"", ", range: '"&amp;J40&amp;"'", "")&amp;IF(L40&lt;&gt;"", ", damage: '"&amp;L40&amp;"'", "")&amp;IF(N40&lt;&gt;"", ", capacity: '"&amp;N40&amp;"'", "")&amp;IF(O40&lt;&gt;"", ", cost: '"&amp;O40&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R40, CHAR(10), "\n")&amp;"'"&amp;IF(P40="○", ", sealable: true", "")&amp;IF(Q40="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '07-shinra-o-n-3': {megami: 'shinra', name: '詭弁', ruby: 'きべん', baseType: 'normal', types: ['attack', 'fullpower'], range: '3-8', damage: '-/1', text: '【攻撃後】計略を実行し、次の計略を準備する。 \n[神算] 相手の山札の上から3枚を伏せ札にする。 \n[鬼謀] 相手の捨て札にあるカードを1枚選び、それを使用してもよい。'}</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>293</v>
-      </c>
       <c r="E41" s="4" t="s">
-        <v>7</v>
+        <v>265</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I41" s="13"/>
+        <v>290</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="K41" s="13"/>
-      <c r="L41" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="N41" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="P41" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q41" s="13"/>
-      <c r="R41" s="3" t="str">
-        <f>", '"&amp;A41&amp;"': {megami: '"&amp;B41&amp;"', name: '"&amp;C41&amp;"', ruby: '"&amp;D41&amp;"', baseType: '"&amp;VLOOKUP(E41,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F41,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G41&lt;&gt;"",", '"&amp; VLOOKUP(G41,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H41&lt;&gt;"", ", range: '"&amp;H41&amp;"'", "")&amp;IF(J41&lt;&gt;"", ", damage: '"&amp;J41&amp;"'", "")&amp;IF(L41&lt;&gt;"", ", capacity: '"&amp;L41&amp;"'", "")&amp;IF(M41&lt;&gt;"", ", cost: '"&amp;M41&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P41, CHAR(10), "\n")&amp;"'"&amp;IF(N41="○", ", sealable: true", "")&amp;IF(O41="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '07-shinra-o-n-7': {megami: 'shinra', name: '論破', ruby: 'ろんぱ', baseType: 'normal', types: ['enhance'], capacity: '4', text: '【展開時】相手の捨て札にあるカード1枚を選び、このカードの下に封印する。 \n【破棄時】このカードに封印されたカードを相手の捨て札に戻す。', sealable: true}</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" ht="24" x14ac:dyDescent="0.15">
+      <c r="M41" s="13"/>
+      <c r="R41" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="S41" s="13"/>
+      <c r="T41" s="3" t="str">
+        <f>", '"&amp;A41&amp;"': {megami: '"&amp;B41&amp;"'"&amp;IF(C41&lt;&gt;"", ", anotherID: '" &amp; C41 &amp; "', replace: '" &amp; D41 &amp; "'", "")&amp;", name: '"&amp;E41&amp;"', ruby: '"&amp;F41&amp;"', baseType: '"&amp;VLOOKUP(G41,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H41,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I41&lt;&gt;"",", '"&amp; VLOOKUP(I41,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J41&lt;&gt;"", ", range: '"&amp;J41&amp;"'", "")&amp;IF(L41&lt;&gt;"", ", damage: '"&amp;L41&amp;"'", "")&amp;IF(N41&lt;&gt;"", ", capacity: '"&amp;N41&amp;"'", "")&amp;IF(O41&lt;&gt;"", ", cost: '"&amp;O41&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R41, CHAR(10), "\n")&amp;"'"&amp;IF(P41="○", ", sealable: true", "")&amp;IF(Q41="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '07-shinra-o-n-4': {megami: 'shinra', name: '引用', ruby: 'いんよう', baseType: 'normal', types: ['action'], text: '相手の手札を見て、《攻撃》カードを1枚選んでもよい。そうした場合、そのカードを使用するか伏せ札にする。その後、そのカードが《全力》を持つならば現在のフェイズを終了する。'}</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" ht="36" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>294</v>
-      </c>
       <c r="E42" s="4" t="s">
-        <v>19</v>
+        <v>266</v>
       </c>
       <c r="F42" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I42" s="13"/>
+      <c r="I42" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="K42" s="13"/>
-      <c r="M42" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="N42" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="P42" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q42" s="13"/>
-      <c r="R42" s="3" t="str">
-        <f>", '"&amp;A42&amp;"': {megami: '"&amp;B42&amp;"', name: '"&amp;C42&amp;"', ruby: '"&amp;D42&amp;"', baseType: '"&amp;VLOOKUP(E42,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F42,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G42&lt;&gt;"",", '"&amp; VLOOKUP(G42,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H42&lt;&gt;"", ", range: '"&amp;H42&amp;"'", "")&amp;IF(J42&lt;&gt;"", ", damage: '"&amp;J42&amp;"'", "")&amp;IF(L42&lt;&gt;"", ", capacity: '"&amp;L42&amp;"'", "")&amp;IF(M42&lt;&gt;"", ", cost: '"&amp;M42&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P42, CHAR(10), "\n")&amp;"'"&amp;IF(N42="○", ", sealable: true", "")&amp;IF(O42="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '07-shinra-o-s-1': {megami: 'shinra', name: '完全論破', ruby: 'かんぜんろんぱ', baseType: 'special', types: ['action'], cost: '4', text: '相手の捨て札にあるカード1枚を選び、このカードの下に封印する。 \n(ゲーム中に戻ることはない)', sealable: true}</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" ht="60" x14ac:dyDescent="0.15">
+      <c r="M42" s="13"/>
+      <c r="R42" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="S42" s="13"/>
+      <c r="T42" s="3" t="str">
+        <f>", '"&amp;A42&amp;"': {megami: '"&amp;B42&amp;"'"&amp;IF(C42&lt;&gt;"", ", anotherID: '" &amp; C42 &amp; "', replace: '" &amp; D42 &amp; "'", "")&amp;", name: '"&amp;E42&amp;"', ruby: '"&amp;F42&amp;"', baseType: '"&amp;VLOOKUP(G42,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H42,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I42&lt;&gt;"",", '"&amp; VLOOKUP(I42,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J42&lt;&gt;"", ", range: '"&amp;J42&amp;"'", "")&amp;IF(L42&lt;&gt;"", ", damage: '"&amp;L42&amp;"'", "")&amp;IF(N42&lt;&gt;"", ", capacity: '"&amp;N42&amp;"'", "")&amp;IF(O42&lt;&gt;"", ", cost: '"&amp;O42&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R42, CHAR(10), "\n")&amp;"'"&amp;IF(P42="○", ", sealable: true", "")&amp;IF(Q42="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '07-shinra-o-n-5': {megami: 'shinra', name: '煽動', ruby: 'せんどう', baseType: 'normal', types: ['action', 'reaction'], text: '計略を実行し、次の計略を準備する。 \n[神算] ダスト→間合：1 \n[鬼謀] 間合→相オーラ：1'}</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" ht="48" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>296</v>
-      </c>
       <c r="E43" s="4" t="s">
-        <v>19</v>
+        <v>267</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I43" s="13"/>
+        <v>292</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="K43" s="13"/>
-      <c r="M43" s="4" t="s">
+      <c r="M43" s="13"/>
+      <c r="N43" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="P43" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q43" s="13"/>
-      <c r="R43" s="3" t="str">
-        <f>", '"&amp;A43&amp;"': {megami: '"&amp;B43&amp;"', name: '"&amp;C43&amp;"', ruby: '"&amp;D43&amp;"', baseType: '"&amp;VLOOKUP(E43,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F43,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G43&lt;&gt;"",", '"&amp; VLOOKUP(G43,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H43&lt;&gt;"", ", range: '"&amp;H43&amp;"'", "")&amp;IF(J43&lt;&gt;"", ", damage: '"&amp;J43&amp;"'", "")&amp;IF(L43&lt;&gt;"", ", capacity: '"&amp;L43&amp;"'", "")&amp;IF(M43&lt;&gt;"", ", cost: '"&amp;M43&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P43, CHAR(10), "\n")&amp;"'"&amp;IF(N43="○", ", sealable: true", "")&amp;IF(O43="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '07-shinra-o-s-2': {megami: 'shinra', name: '皆式理解', ruby: 'かいしきりかい', baseType: 'special', types: ['action'], cost: '2', text: '計略を実行し、次の計略を準備する。 \n[神算] あなたの捨て札または使用済の切札から、消費を支払わずに《付与》カード1枚を使用する。そのカードが《全力》ならば現在のフェイズを終了する。 \n[鬼謀] 切札でない相手の付与札を1枚選ぶ。その上の桜花結晶全てをダストに送る。'}</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" ht="36" x14ac:dyDescent="0.15">
+      <c r="R43" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="S43" s="13"/>
+      <c r="T43" s="3" t="str">
+        <f>", '"&amp;A43&amp;"': {megami: '"&amp;B43&amp;"'"&amp;IF(C43&lt;&gt;"", ", anotherID: '" &amp; C43 &amp; "', replace: '" &amp; D43 &amp; "'", "")&amp;", name: '"&amp;E43&amp;"', ruby: '"&amp;F43&amp;"', baseType: '"&amp;VLOOKUP(G43,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H43,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I43&lt;&gt;"",", '"&amp; VLOOKUP(I43,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J43&lt;&gt;"", ", range: '"&amp;J43&amp;"'", "")&amp;IF(L43&lt;&gt;"", ", damage: '"&amp;L43&amp;"'", "")&amp;IF(N43&lt;&gt;"", ", capacity: '"&amp;N43&amp;"'", "")&amp;IF(O43&lt;&gt;"", ", cost: '"&amp;O43&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R43, CHAR(10), "\n")&amp;"'"&amp;IF(P43="○", ", sealable: true", "")&amp;IF(Q43="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '07-shinra-o-n-6': {megami: 'shinra', name: '壮語', ruby: 'そうご', baseType: 'normal', types: ['enhance'], capacity: '2', text: '【破棄時】計略を実行し、次の計略を準備する。 \n[神算] あなたの集中力は1増加し、このカードを山札の一番上に置く。 \n[鬼謀] 相手は手札が2枚以上ならば、手札を1枚になるまで捨て札にする。相手の集中力は0になる。'}</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>297</v>
-      </c>
       <c r="E44" s="4" t="s">
-        <v>19</v>
+        <v>268</v>
       </c>
       <c r="F44" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H44" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G44" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I44" s="13"/>
       <c r="K44" s="13"/>
-      <c r="L44" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="M44" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="P44" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q44" s="13"/>
-      <c r="R44" s="3" t="str">
-        <f>", '"&amp;A44&amp;"': {megami: '"&amp;B44&amp;"', name: '"&amp;C44&amp;"', ruby: '"&amp;D44&amp;"', baseType: '"&amp;VLOOKUP(E44,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F44,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G44&lt;&gt;"",", '"&amp; VLOOKUP(G44,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H44&lt;&gt;"", ", range: '"&amp;H44&amp;"'", "")&amp;IF(J44&lt;&gt;"", ", damage: '"&amp;J44&amp;"'", "")&amp;IF(L44&lt;&gt;"", ", capacity: '"&amp;L44&amp;"'", "")&amp;IF(M44&lt;&gt;"", ", cost: '"&amp;M44&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P44, CHAR(10), "\n")&amp;"'"&amp;IF(N44="○", ", sealable: true", "")&amp;IF(O44="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '07-shinra-o-s-3': {megami: 'shinra', name: '天地反駁', ruby: 'てんちはんぱく', baseType: 'special', types: ['enhance', 'fullpower'], capacity: '5', cost: '2', text: '【展開中】あなたの《攻撃》のオーラへのダメージとライフへのダメージを入れ替える。 \n（ダメージの入れ替えは、ダメージの増減より先に適用される）'}</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" ht="48" x14ac:dyDescent="0.15">
+      <c r="M44" s="13"/>
+      <c r="N44" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="P44" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="R44" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="S44" s="13"/>
+      <c r="T44" s="3" t="str">
+        <f>", '"&amp;A44&amp;"': {megami: '"&amp;B44&amp;"'"&amp;IF(C44&lt;&gt;"", ", anotherID: '" &amp; C44 &amp; "', replace: '" &amp; D44 &amp; "'", "")&amp;", name: '"&amp;E44&amp;"', ruby: '"&amp;F44&amp;"', baseType: '"&amp;VLOOKUP(G44,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H44,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I44&lt;&gt;"",", '"&amp; VLOOKUP(I44,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J44&lt;&gt;"", ", range: '"&amp;J44&amp;"'", "")&amp;IF(L44&lt;&gt;"", ", damage: '"&amp;L44&amp;"'", "")&amp;IF(N44&lt;&gt;"", ", capacity: '"&amp;N44&amp;"'", "")&amp;IF(O44&lt;&gt;"", ", cost: '"&amp;O44&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R44, CHAR(10), "\n")&amp;"'"&amp;IF(P44="○", ", sealable: true", "")&amp;IF(Q44="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '07-shinra-o-n-7': {megami: 'shinra', name: '論破', ruby: 'ろんぱ', baseType: 'normal', types: ['enhance'], capacity: '4', text: '【展開時】相手の捨て札にあるカード1枚を選び、このカードの下に封印する。 \n【破棄時】このカードに封印されたカードを相手の捨て札に戻す。', sealable: true}</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="E45" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K45" s="13"/>
+      <c r="M45" s="13"/>
+      <c r="O45" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="P45" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="R45" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="S45" s="13"/>
+      <c r="T45" s="3" t="str">
+        <f>", '"&amp;A45&amp;"': {megami: '"&amp;B45&amp;"'"&amp;IF(C45&lt;&gt;"", ", anotherID: '" &amp; C45 &amp; "', replace: '" &amp; D45 &amp; "'", "")&amp;", name: '"&amp;E45&amp;"', ruby: '"&amp;F45&amp;"', baseType: '"&amp;VLOOKUP(G45,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H45,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I45&lt;&gt;"",", '"&amp; VLOOKUP(I45,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J45&lt;&gt;"", ", range: '"&amp;J45&amp;"'", "")&amp;IF(L45&lt;&gt;"", ", damage: '"&amp;L45&amp;"'", "")&amp;IF(N45&lt;&gt;"", ", capacity: '"&amp;N45&amp;"'", "")&amp;IF(O45&lt;&gt;"", ", cost: '"&amp;O45&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R45, CHAR(10), "\n")&amp;"'"&amp;IF(P45="○", ", sealable: true", "")&amp;IF(Q45="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '07-shinra-o-s-1': {megami: 'shinra', name: '完全論破', ruby: 'かんぜんろんぱ', baseType: 'special', types: ['action'], cost: '4', text: '相手の捨て札にあるカード1枚を選び、このカードの下に封印する。 \n(ゲーム中に戻ることはない)', sealable: true}</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" ht="60" x14ac:dyDescent="0.15">
+      <c r="A46" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K46" s="13"/>
+      <c r="M46" s="13"/>
+      <c r="O46" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R46" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="S46" s="13"/>
+      <c r="T46" s="3" t="str">
+        <f>", '"&amp;A46&amp;"': {megami: '"&amp;B46&amp;"'"&amp;IF(C46&lt;&gt;"", ", anotherID: '" &amp; C46 &amp; "', replace: '" &amp; D46 &amp; "'", "")&amp;", name: '"&amp;E46&amp;"', ruby: '"&amp;F46&amp;"', baseType: '"&amp;VLOOKUP(G46,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H46,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I46&lt;&gt;"",", '"&amp; VLOOKUP(I46,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J46&lt;&gt;"", ", range: '"&amp;J46&amp;"'", "")&amp;IF(L46&lt;&gt;"", ", damage: '"&amp;L46&amp;"'", "")&amp;IF(N46&lt;&gt;"", ", capacity: '"&amp;N46&amp;"'", "")&amp;IF(O46&lt;&gt;"", ", cost: '"&amp;O46&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R46, CHAR(10), "\n")&amp;"'"&amp;IF(P46="○", ", sealable: true", "")&amp;IF(Q46="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '07-shinra-o-s-2': {megami: 'shinra', name: '皆式理解', ruby: 'かいしきりかい', baseType: 'special', types: ['action'], cost: '2', text: '計略を実行し、次の計略を準備する。 \n[神算] あなたの捨て札または使用済の切札から、消費を支払わずに《付与》カード1枚を使用する。そのカードが《全力》ならば現在のフェイズを終了する。 \n[鬼謀] 切札でない相手の付与札を1枚選ぶ。その上の桜花結晶全てをダストに送る。'}</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+      <c r="A47" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K47" s="13"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="O47" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R47" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="S47" s="13"/>
+      <c r="T47" s="3" t="str">
+        <f>", '"&amp;A47&amp;"': {megami: '"&amp;B47&amp;"'"&amp;IF(C47&lt;&gt;"", ", anotherID: '" &amp; C47 &amp; "', replace: '" &amp; D47 &amp; "'", "")&amp;", name: '"&amp;E47&amp;"', ruby: '"&amp;F47&amp;"', baseType: '"&amp;VLOOKUP(G47,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H47,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I47&lt;&gt;"",", '"&amp; VLOOKUP(I47,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J47&lt;&gt;"", ", range: '"&amp;J47&amp;"'", "")&amp;IF(L47&lt;&gt;"", ", damage: '"&amp;L47&amp;"'", "")&amp;IF(N47&lt;&gt;"", ", capacity: '"&amp;N47&amp;"'", "")&amp;IF(O47&lt;&gt;"", ", cost: '"&amp;O47&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R47, CHAR(10), "\n")&amp;"'"&amp;IF(P47="○", ", sealable: true", "")&amp;IF(Q47="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '07-shinra-o-s-3': {megami: 'shinra', name: '天地反駁', ruby: 'てんちはんぱく', baseType: 'special', types: ['enhance', 'fullpower'], capacity: '5', cost: '2', text: '【展開中】あなたの《攻撃》のオーラへのダメージとライフへのダメージを入れ替える。 \n（ダメージの入れ替えは、ダメージの増減より先に適用される）'}</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" ht="48" x14ac:dyDescent="0.15">
+      <c r="A48" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="E48" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="F48" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="G48" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="H48" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I45" s="13"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="4" t="s">
+      <c r="K48" s="13"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="M45" s="4" t="s">
+      <c r="O48" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="P45" s="5" t="s">
+      <c r="R48" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="Q45" s="13"/>
-      <c r="R45" s="3" t="str">
-        <f>", '"&amp;A45&amp;"': {megami: '"&amp;B45&amp;"', name: '"&amp;C45&amp;"', ruby: '"&amp;D45&amp;"', baseType: '"&amp;VLOOKUP(E45,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F45,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G45&lt;&gt;"",", '"&amp; VLOOKUP(G45,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H45&lt;&gt;"", ", range: '"&amp;H45&amp;"'", "")&amp;IF(J45&lt;&gt;"", ", damage: '"&amp;J45&amp;"'", "")&amp;IF(L45&lt;&gt;"", ", capacity: '"&amp;L45&amp;"'", "")&amp;IF(M45&lt;&gt;"", ", cost: '"&amp;M45&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P45, CHAR(10), "\n")&amp;"'"&amp;IF(N45="○", ", sealable: true", "")&amp;IF(O45="○", ", removable: true", "")&amp;"}"</f>
+      <c r="S48" s="13"/>
+      <c r="T48" s="3" t="str">
+        <f>", '"&amp;A48&amp;"': {megami: '"&amp;B48&amp;"'"&amp;IF(C48&lt;&gt;"", ", anotherID: '" &amp; C48 &amp; "', replace: '" &amp; D48 &amp; "'", "")&amp;", name: '"&amp;E48&amp;"', ruby: '"&amp;F48&amp;"', baseType: '"&amp;VLOOKUP(G48,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H48,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I48&lt;&gt;"",", '"&amp; VLOOKUP(I48,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J48&lt;&gt;"", ", range: '"&amp;J48&amp;"'", "")&amp;IF(L48&lt;&gt;"", ", damage: '"&amp;L48&amp;"'", "")&amp;IF(N48&lt;&gt;"", ", capacity: '"&amp;N48&amp;"'", "")&amp;IF(O48&lt;&gt;"", ", cost: '"&amp;O48&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R48, CHAR(10), "\n")&amp;"'"&amp;IF(P48="○", ", sealable: true", "")&amp;IF(Q48="○", ", removable: true", "")&amp;"}"</f>
         <v>, '07-shinra-o-s-4': {megami: 'shinra', name: '森羅判証', ruby: 'しんらばんしょう', baseType: 'special', types: ['enhance'], capacity: '6', cost: '6', text: '【展開時】ダスト→自ライフ：2 \n【展開中】あなたの他の付与札が破棄された時、相手のライフに1ダメージを与える。 \n【破棄時】あなたは敗北する。'}</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="36" x14ac:dyDescent="0.15">
-      <c r="A46" s="4" t="s">
+    <row r="49" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+      <c r="A49" s="4" t="s">
         <v>313</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="I46" s="13"/>
-      <c r="J46" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="K46" s="13"/>
-      <c r="P46" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q46" s="13"/>
-      <c r="R46" s="3" t="str">
-        <f>", '"&amp;A46&amp;"': {megami: '"&amp;B46&amp;"', name: '"&amp;C46&amp;"', ruby: '"&amp;D46&amp;"', baseType: '"&amp;VLOOKUP(E46,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F46,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G46&lt;&gt;"",", '"&amp; VLOOKUP(G46,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H46&lt;&gt;"", ", range: '"&amp;H46&amp;"'", "")&amp;IF(J46&lt;&gt;"", ", damage: '"&amp;J46&amp;"'", "")&amp;IF(L46&lt;&gt;"", ", capacity: '"&amp;L46&amp;"'", "")&amp;IF(M46&lt;&gt;"", ", cost: '"&amp;M46&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P46, CHAR(10), "\n")&amp;"'"&amp;IF(N46="○", ", sealable: true", "")&amp;IF(O46="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '08-hagane-o-n-1': {megami: 'hagane', name: '遠心撃', ruby: 'えんしんげき', baseType: 'normal', types: ['attack'], range: '2-6', damage: '5/3', text: '遠心 \n【攻撃後】現在のターンがあなたのターンならば、あなたと相手の手札を全て伏せ札にし、あなたの集中力は0になり、現在のフェイズを終了する。'}</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" ht="24" x14ac:dyDescent="0.15">
-      <c r="A47" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="I47" s="13"/>
-      <c r="J47" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="K47" s="13"/>
-      <c r="P47" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q47" s="13"/>
-      <c r="R47" s="3" t="str">
-        <f>", '"&amp;A47&amp;"': {megami: '"&amp;B47&amp;"', name: '"&amp;C47&amp;"', ruby: '"&amp;D47&amp;"', baseType: '"&amp;VLOOKUP(E47,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F47,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G47&lt;&gt;"",", '"&amp; VLOOKUP(G47,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H47&lt;&gt;"", ", range: '"&amp;H47&amp;"'", "")&amp;IF(J47&lt;&gt;"", ", damage: '"&amp;J47&amp;"'", "")&amp;IF(L47&lt;&gt;"", ", capacity: '"&amp;L47&amp;"'", "")&amp;IF(M47&lt;&gt;"", ", cost: '"&amp;M47&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P47, CHAR(10), "\n")&amp;"'"&amp;IF(N47="○", ", sealable: true", "")&amp;IF(O47="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '08-hagane-o-n-2': {megami: 'hagane', name: '砂風塵', ruby: 'さふうじん', baseType: 'normal', types: ['attack'], range: '0-6', damage: '1/-', text: '【攻撃後】現在の間合がターン開始時の間合から2以上変化しているならば、相手の手札を1枚無作為に選び、それを捨て札にする。'}</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" ht="24" x14ac:dyDescent="0.15">
-      <c r="A48" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="I48" s="13"/>
-      <c r="J48" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="K48" s="13"/>
-      <c r="P48" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q48" s="13"/>
-      <c r="R48" s="3" t="str">
-        <f>", '"&amp;A48&amp;"': {megami: '"&amp;B48&amp;"', name: '"&amp;C48&amp;"', ruby: '"&amp;D48&amp;"', baseType: '"&amp;VLOOKUP(E48,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F48,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G48&lt;&gt;"",", '"&amp; VLOOKUP(G48,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H48&lt;&gt;"", ", range: '"&amp;H48&amp;"'", "")&amp;IF(J48&lt;&gt;"", ", damage: '"&amp;J48&amp;"'", "")&amp;IF(L48&lt;&gt;"", ", capacity: '"&amp;L48&amp;"'", "")&amp;IF(M48&lt;&gt;"", ", cost: '"&amp;M48&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P48, CHAR(10), "\n")&amp;"'"&amp;IF(N48="○", ", sealable: true", "")&amp;IF(O48="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '08-hagane-o-n-3': {megami: 'hagane', name: '大地砕き', ruby: 'だいちくだき', baseType: 'normal', types: ['attack', 'fullpower'], range: '0-3', damage: '2/-', text: '対応不可 \n【攻撃後】相手の集中力は0になり、相手を畏縮させる。'}</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A49" s="4" t="s">
-        <v>316</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>345</v>
-      </c>
       <c r="E49" s="4" t="s">
-        <v>7</v>
+        <v>325</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I49" s="13"/>
+        <v>348</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>326</v>
+      </c>
       <c r="K49" s="13"/>
-      <c r="P49" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q49" s="13"/>
-      <c r="R49" s="3" t="str">
-        <f>", '"&amp;A49&amp;"': {megami: '"&amp;B49&amp;"', name: '"&amp;C49&amp;"', ruby: '"&amp;D49&amp;"', baseType: '"&amp;VLOOKUP(E49,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F49,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G49&lt;&gt;"",", '"&amp; VLOOKUP(G49,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H49&lt;&gt;"", ", range: '"&amp;H49&amp;"'", "")&amp;IF(J49&lt;&gt;"", ", damage: '"&amp;J49&amp;"'", "")&amp;IF(L49&lt;&gt;"", ", capacity: '"&amp;L49&amp;"'", "")&amp;IF(M49&lt;&gt;"", ", cost: '"&amp;M49&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P49, CHAR(10), "\n")&amp;"'"&amp;IF(N49="○", ", sealable: true", "")&amp;IF(O49="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '08-hagane-o-n-4': {megami: 'hagane', name: '超反発', ruby: 'ちょうはんぱつ', baseType: 'normal', types: ['action'], text: '現在の間合が4以下ならば、相フレア→間合：1'}</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" ht="24" x14ac:dyDescent="0.15">
+      <c r="L49" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="M49" s="13"/>
+      <c r="R49" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="S49" s="13"/>
+      <c r="T49" s="3" t="str">
+        <f>", '"&amp;A49&amp;"': {megami: '"&amp;B49&amp;"'"&amp;IF(C49&lt;&gt;"", ", anotherID: '" &amp; C49 &amp; "', replace: '" &amp; D49 &amp; "'", "")&amp;", name: '"&amp;E49&amp;"', ruby: '"&amp;F49&amp;"', baseType: '"&amp;VLOOKUP(G49,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H49,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I49&lt;&gt;"",", '"&amp; VLOOKUP(I49,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J49&lt;&gt;"", ", range: '"&amp;J49&amp;"'", "")&amp;IF(L49&lt;&gt;"", ", damage: '"&amp;L49&amp;"'", "")&amp;IF(N49&lt;&gt;"", ", capacity: '"&amp;N49&amp;"'", "")&amp;IF(O49&lt;&gt;"", ", cost: '"&amp;O49&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R49, CHAR(10), "\n")&amp;"'"&amp;IF(P49="○", ", sealable: true", "")&amp;IF(Q49="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '08-hagane-o-n-1': {megami: 'hagane', name: '遠心撃', ruby: 'えんしんげき', baseType: 'normal', types: ['attack'], range: '2-6', damage: '5/3', text: '遠心 \n【攻撃後】現在のターンがあなたのターンならば、あなたと相手の手札を全て伏せ札にし、あなたの集中力は0になり、現在のフェイズを終了する。'}</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>343</v>
-      </c>
       <c r="E50" s="4" t="s">
-        <v>7</v>
+        <v>327</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I50" s="13"/>
+        <v>347</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>328</v>
+      </c>
       <c r="K50" s="13"/>
-      <c r="P50" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q50" s="13"/>
-      <c r="R50" s="3" t="str">
-        <f>", '"&amp;A50&amp;"': {megami: '"&amp;B50&amp;"', name: '"&amp;C50&amp;"', ruby: '"&amp;D50&amp;"', baseType: '"&amp;VLOOKUP(E50,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F50,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G50&lt;&gt;"",", '"&amp; VLOOKUP(G50,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H50&lt;&gt;"", ", range: '"&amp;H50&amp;"'", "")&amp;IF(J50&lt;&gt;"", ", damage: '"&amp;J50&amp;"'", "")&amp;IF(L50&lt;&gt;"", ", capacity: '"&amp;L50&amp;"'", "")&amp;IF(M50&lt;&gt;"", ", cost: '"&amp;M50&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P50, CHAR(10), "\n")&amp;"'"&amp;IF(N50="○", ", sealable: true", "")&amp;IF(O50="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '08-hagane-o-n-5': {megami: 'hagane', name: '円舞錬', ruby: 'えんぶれん', baseType: 'normal', types: ['action'], text: '遠心 \n相手のフレアが3以上ならば、相フレア→自オーラ：2'}</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" ht="60" x14ac:dyDescent="0.15">
+      <c r="L50" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="M50" s="13"/>
+      <c r="R50" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="S50" s="13"/>
+      <c r="T50" s="3" t="str">
+        <f>", '"&amp;A50&amp;"': {megami: '"&amp;B50&amp;"'"&amp;IF(C50&lt;&gt;"", ", anotherID: '" &amp; C50 &amp; "', replace: '" &amp; D50 &amp; "'", "")&amp;", name: '"&amp;E50&amp;"', ruby: '"&amp;F50&amp;"', baseType: '"&amp;VLOOKUP(G50,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H50,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I50&lt;&gt;"",", '"&amp; VLOOKUP(I50,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J50&lt;&gt;"", ", range: '"&amp;J50&amp;"'", "")&amp;IF(L50&lt;&gt;"", ", damage: '"&amp;L50&amp;"'", "")&amp;IF(N50&lt;&gt;"", ", capacity: '"&amp;N50&amp;"'", "")&amp;IF(O50&lt;&gt;"", ", cost: '"&amp;O50&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R50, CHAR(10), "\n")&amp;"'"&amp;IF(P50="○", ", sealable: true", "")&amp;IF(Q50="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '08-hagane-o-n-2': {megami: 'hagane', name: '砂風塵', ruby: 'さふうじん', baseType: 'normal', types: ['attack'], range: '0-6', damage: '1/-', text: '【攻撃後】現在の間合がターン開始時の間合から2以上変化しているならば、相手の手札を1枚無作為に選び、それを捨て札にする。'}</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>344</v>
-      </c>
       <c r="E51" s="4" t="s">
-        <v>7</v>
+        <v>329</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I51" s="13"/>
+        <v>346</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="K51" s="13"/>
-      <c r="P51" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q51" s="13"/>
-      <c r="R51" s="3" t="str">
-        <f>", '"&amp;A51&amp;"': {megami: '"&amp;B51&amp;"', name: '"&amp;C51&amp;"', ruby: '"&amp;D51&amp;"', baseType: '"&amp;VLOOKUP(E51,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F51,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G51&lt;&gt;"",", '"&amp; VLOOKUP(G51,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H51&lt;&gt;"", ", range: '"&amp;H51&amp;"'", "")&amp;IF(J51&lt;&gt;"", ", damage: '"&amp;J51&amp;"'", "")&amp;IF(L51&lt;&gt;"", ", capacity: '"&amp;L51&amp;"'", "")&amp;IF(M51&lt;&gt;"", ", cost: '"&amp;M51&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P51, CHAR(10), "\n")&amp;"'"&amp;IF(N51="○", ", sealable: true", "")&amp;IF(O51="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '08-hagane-o-n-6': {megami: 'hagane', name: '鐘鳴らし', ruby: 'かねならし', baseType: 'normal', types: ['action'], text: '遠心 \n以下から１つを選ぶ。\n・このターンにあなたが次に行う《攻撃》は対応不可を得る。\n・このターンにあなたが次に行う《攻撃》はオーラへのダメージが3以上ならば+0/+1、そうでないならば+2/+0となる。'}</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" ht="24" x14ac:dyDescent="0.15">
+      <c r="L51" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="M51" s="13"/>
+      <c r="R51" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="S51" s="13"/>
+      <c r="T51" s="3" t="str">
+        <f>", '"&amp;A51&amp;"': {megami: '"&amp;B51&amp;"'"&amp;IF(C51&lt;&gt;"", ", anotherID: '" &amp; C51 &amp; "', replace: '" &amp; D51 &amp; "'", "")&amp;", name: '"&amp;E51&amp;"', ruby: '"&amp;F51&amp;"', baseType: '"&amp;VLOOKUP(G51,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H51,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I51&lt;&gt;"",", '"&amp; VLOOKUP(I51,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J51&lt;&gt;"", ", range: '"&amp;J51&amp;"'", "")&amp;IF(L51&lt;&gt;"", ", damage: '"&amp;L51&amp;"'", "")&amp;IF(N51&lt;&gt;"", ", capacity: '"&amp;N51&amp;"'", "")&amp;IF(O51&lt;&gt;"", ", cost: '"&amp;O51&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R51, CHAR(10), "\n")&amp;"'"&amp;IF(P51="○", ", sealable: true", "")&amp;IF(Q51="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '08-hagane-o-n-3': {megami: 'hagane', name: '大地砕き', ruby: 'だいちくだき', baseType: 'normal', types: ['attack', 'fullpower'], range: '0-3', damage: '2/-', text: '対応不可 \n【攻撃後】相手の集中力は0になり、相手を畏縮させる。'}</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>342</v>
-      </c>
       <c r="E52" s="4" t="s">
-        <v>7</v>
+        <v>330</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I52" s="13"/>
+        <v>345</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="K52" s="13"/>
-      <c r="L52" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="P52" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q52" s="13"/>
-      <c r="R52" s="3" t="str">
-        <f>", '"&amp;A52&amp;"': {megami: '"&amp;B52&amp;"', name: '"&amp;C52&amp;"', ruby: '"&amp;D52&amp;"', baseType: '"&amp;VLOOKUP(E52,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F52,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G52&lt;&gt;"",", '"&amp; VLOOKUP(G52,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H52&lt;&gt;"", ", range: '"&amp;H52&amp;"'", "")&amp;IF(J52&lt;&gt;"", ", damage: '"&amp;J52&amp;"'", "")&amp;IF(L52&lt;&gt;"", ", capacity: '"&amp;L52&amp;"'", "")&amp;IF(M52&lt;&gt;"", ", cost: '"&amp;M52&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P52, CHAR(10), "\n")&amp;"'"&amp;IF(N52="○", ", sealable: true", "")&amp;IF(O52="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '08-hagane-o-n-7': {megami: 'hagane', name: '引力場', ruby: 'いんりょくば', baseType: 'normal', types: ['enhance'], capacity: '4', text: '【展開時】間合→ダスト：1 \n【展開中】達人の間合は1小さくなる。'}</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" ht="36" x14ac:dyDescent="0.15">
+      <c r="M52" s="13"/>
+      <c r="R52" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="S52" s="13"/>
+      <c r="T52" s="3" t="str">
+        <f>", '"&amp;A52&amp;"': {megami: '"&amp;B52&amp;"'"&amp;IF(C52&lt;&gt;"", ", anotherID: '" &amp; C52 &amp; "', replace: '" &amp; D52 &amp; "'", "")&amp;", name: '"&amp;E52&amp;"', ruby: '"&amp;F52&amp;"', baseType: '"&amp;VLOOKUP(G52,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H52,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I52&lt;&gt;"",", '"&amp; VLOOKUP(I52,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J52&lt;&gt;"", ", range: '"&amp;J52&amp;"'", "")&amp;IF(L52&lt;&gt;"", ", damage: '"&amp;L52&amp;"'", "")&amp;IF(N52&lt;&gt;"", ", capacity: '"&amp;N52&amp;"'", "")&amp;IF(O52&lt;&gt;"", ", cost: '"&amp;O52&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R52, CHAR(10), "\n")&amp;"'"&amp;IF(P52="○", ", sealable: true", "")&amp;IF(Q52="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '08-hagane-o-n-4': {megami: 'hagane', name: '超反発', ruby: 'ちょうはんぱつ', baseType: 'normal', types: ['action'], text: '現在の間合が4以下ならば、相フレア→間合：1'}</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>341</v>
-      </c>
       <c r="E53" s="4" t="s">
-        <v>19</v>
+        <v>331</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>8</v>
+        <v>343</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I53" s="13"/>
-      <c r="J53" s="2" t="s">
-        <v>350</v>
+        <v>23</v>
       </c>
       <c r="K53" s="13"/>
-      <c r="M53" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="P53" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q53" s="13"/>
-      <c r="R53" s="3" t="str">
-        <f>", '"&amp;A53&amp;"': {megami: '"&amp;B53&amp;"', name: '"&amp;C53&amp;"', ruby: '"&amp;D53&amp;"', baseType: '"&amp;VLOOKUP(E53,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F53,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G53&lt;&gt;"",", '"&amp; VLOOKUP(G53,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H53&lt;&gt;"", ", range: '"&amp;H53&amp;"'", "")&amp;IF(J53&lt;&gt;"", ", damage: '"&amp;J53&amp;"'", "")&amp;IF(L53&lt;&gt;"", ", capacity: '"&amp;L53&amp;"'", "")&amp;IF(M53&lt;&gt;"", ", cost: '"&amp;M53&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P53, CHAR(10), "\n")&amp;"'"&amp;IF(N53="○", ", sealable: true", "")&amp;IF(O53="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '08-hagane-o-s-1': {megami: 'hagane', name: '大天空クラッシュ', ruby: 'だいてんくうクラッシュ', baseType: 'special', types: ['attack'], range: '0-10', damage: 'X/Y', cost: '5', text: '超克 \n【常時】Xは現在の間合がターン開始時の間合からどれだけ変化しているかに等しい。YはXの半分(切り上げ)に等しい。'}</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="M53" s="13"/>
+      <c r="R53" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="S53" s="13"/>
+      <c r="T53" s="3" t="str">
+        <f>", '"&amp;A53&amp;"': {megami: '"&amp;B53&amp;"'"&amp;IF(C53&lt;&gt;"", ", anotherID: '" &amp; C53 &amp; "', replace: '" &amp; D53 &amp; "'", "")&amp;", name: '"&amp;E53&amp;"', ruby: '"&amp;F53&amp;"', baseType: '"&amp;VLOOKUP(G53,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H53,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I53&lt;&gt;"",", '"&amp; VLOOKUP(I53,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J53&lt;&gt;"", ", range: '"&amp;J53&amp;"'", "")&amp;IF(L53&lt;&gt;"", ", damage: '"&amp;L53&amp;"'", "")&amp;IF(N53&lt;&gt;"", ", capacity: '"&amp;N53&amp;"'", "")&amp;IF(O53&lt;&gt;"", ", cost: '"&amp;O53&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R53, CHAR(10), "\n")&amp;"'"&amp;IF(P53="○", ", sealable: true", "")&amp;IF(Q53="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '08-hagane-o-n-5': {megami: 'hagane', name: '円舞錬', ruby: 'えんぶれん', baseType: 'normal', types: ['action'], text: '遠心 \n相手のフレアが3以上ならば、相フレア→自オーラ：2'}</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" ht="60" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>338</v>
-      </c>
       <c r="E54" s="4" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="F54" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H54" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I54" s="13"/>
       <c r="K54" s="13"/>
-      <c r="M54" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="P54" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q54" s="13"/>
-      <c r="R54" s="3" t="str">
-        <f>", '"&amp;A54&amp;"': {megami: '"&amp;B54&amp;"', name: '"&amp;C54&amp;"', ruby: '"&amp;D54&amp;"', baseType: '"&amp;VLOOKUP(E54,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F54,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G54&lt;&gt;"",", '"&amp; VLOOKUP(G54,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H54&lt;&gt;"", ", range: '"&amp;H54&amp;"'", "")&amp;IF(J54&lt;&gt;"", ", damage: '"&amp;J54&amp;"'", "")&amp;IF(L54&lt;&gt;"", ", capacity: '"&amp;L54&amp;"'", "")&amp;IF(M54&lt;&gt;"", ", cost: '"&amp;M54&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P54, CHAR(10), "\n")&amp;"'"&amp;IF(N54="○", ", sealable: true", "")&amp;IF(O54="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '08-hagane-o-s-2': {megami: 'hagane', name: '大破鐘メガロベル', ruby: 'だいはがねメガロベル', baseType: 'special', types: ['action'], cost: '2', text: 'あなたの他の切札が全て使用済ならば、ダスト→自ライフ：2'}</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" ht="48" x14ac:dyDescent="0.15">
+      <c r="M54" s="13"/>
+      <c r="R54" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="S54" s="13"/>
+      <c r="T54" s="3" t="str">
+        <f>", '"&amp;A54&amp;"': {megami: '"&amp;B54&amp;"'"&amp;IF(C54&lt;&gt;"", ", anotherID: '" &amp; C54 &amp; "', replace: '" &amp; D54 &amp; "'", "")&amp;", name: '"&amp;E54&amp;"', ruby: '"&amp;F54&amp;"', baseType: '"&amp;VLOOKUP(G54,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H54,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I54&lt;&gt;"",", '"&amp; VLOOKUP(I54,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J54&lt;&gt;"", ", range: '"&amp;J54&amp;"'", "")&amp;IF(L54&lt;&gt;"", ", damage: '"&amp;L54&amp;"'", "")&amp;IF(N54&lt;&gt;"", ", capacity: '"&amp;N54&amp;"'", "")&amp;IF(O54&lt;&gt;"", ", cost: '"&amp;O54&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R54, CHAR(10), "\n")&amp;"'"&amp;IF(P54="○", ", sealable: true", "")&amp;IF(Q54="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '08-hagane-o-n-6': {megami: 'hagane', name: '鐘鳴らし', ruby: 'かねならし', baseType: 'normal', types: ['action'], text: '遠心 \n以下から１つを選ぶ。\n・このターンにあなたが次に行う《攻撃》は対応不可を得る。\n・このターンにあなたが次に行う《攻撃》はオーラへのダメージが3以上ならば+0/+1、そうでないならば+2/+0となる。'}</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>339</v>
-      </c>
       <c r="E55" s="4" t="s">
-        <v>19</v>
+        <v>333</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I55" s="13"/>
+        <v>342</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="K55" s="13"/>
-      <c r="M55" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="P55" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="Q55" s="13"/>
-      <c r="R55" s="3" t="str">
-        <f>", '"&amp;A55&amp;"': {megami: '"&amp;B55&amp;"', name: '"&amp;C55&amp;"', ruby: '"&amp;D55&amp;"', baseType: '"&amp;VLOOKUP(E55,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F55,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G55&lt;&gt;"",", '"&amp; VLOOKUP(G55,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H55&lt;&gt;"", ", range: '"&amp;H55&amp;"'", "")&amp;IF(J55&lt;&gt;"", ", damage: '"&amp;J55&amp;"'", "")&amp;IF(L55&lt;&gt;"", ", capacity: '"&amp;L55&amp;"'", "")&amp;IF(M55&lt;&gt;"", ", cost: '"&amp;M55&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P55, CHAR(10), "\n")&amp;"'"&amp;IF(N55="○", ", sealable: true", "")&amp;IF(O55="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '08-hagane-o-s-3': {megami: 'hagane', name: '大重力アトラクト', ruby: 'だいじゅうりょくアトラクト', baseType: 'special', types: ['action'], cost: '5', text: '間合→自フレア：3 \n----\n【再起】このターンにあなたが遠心を持つカードを使用しており、このカードを使用していない。'}</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" ht="36" x14ac:dyDescent="0.15">
+      <c r="M55" s="13"/>
+      <c r="N55" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="R55" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="S55" s="13"/>
+      <c r="T55" s="3" t="str">
+        <f>", '"&amp;A55&amp;"': {megami: '"&amp;B55&amp;"'"&amp;IF(C55&lt;&gt;"", ", anotherID: '" &amp; C55 &amp; "', replace: '" &amp; D55 &amp; "'", "")&amp;", name: '"&amp;E55&amp;"', ruby: '"&amp;F55&amp;"', baseType: '"&amp;VLOOKUP(G55,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H55,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I55&lt;&gt;"",", '"&amp; VLOOKUP(I55,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J55&lt;&gt;"", ", range: '"&amp;J55&amp;"'", "")&amp;IF(L55&lt;&gt;"", ", damage: '"&amp;L55&amp;"'", "")&amp;IF(N55&lt;&gt;"", ", capacity: '"&amp;N55&amp;"'", "")&amp;IF(O55&lt;&gt;"", ", cost: '"&amp;O55&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R55, CHAR(10), "\n")&amp;"'"&amp;IF(P55="○", ", sealable: true", "")&amp;IF(Q55="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '08-hagane-o-n-7': {megami: 'hagane', name: '引力場', ruby: 'いんりょくば', baseType: 'normal', types: ['enhance'], capacity: '4', text: '【展開時】間合→ダスト：1 \n【展開中】達人の間合は1小さくなる。'}</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" ht="36" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="E56" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K56" s="13"/>
+      <c r="L56" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="M56" s="13"/>
+      <c r="O56" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="R56" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="S56" s="13"/>
+      <c r="T56" s="3" t="str">
+        <f>", '"&amp;A56&amp;"': {megami: '"&amp;B56&amp;"'"&amp;IF(C56&lt;&gt;"", ", anotherID: '" &amp; C56 &amp; "', replace: '" &amp; D56 &amp; "'", "")&amp;", name: '"&amp;E56&amp;"', ruby: '"&amp;F56&amp;"', baseType: '"&amp;VLOOKUP(G56,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H56,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I56&lt;&gt;"",", '"&amp; VLOOKUP(I56,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J56&lt;&gt;"", ", range: '"&amp;J56&amp;"'", "")&amp;IF(L56&lt;&gt;"", ", damage: '"&amp;L56&amp;"'", "")&amp;IF(N56&lt;&gt;"", ", capacity: '"&amp;N56&amp;"'", "")&amp;IF(O56&lt;&gt;"", ", cost: '"&amp;O56&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R56, CHAR(10), "\n")&amp;"'"&amp;IF(P56="○", ", sealable: true", "")&amp;IF(Q56="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '08-hagane-o-s-1': {megami: 'hagane', name: '大天空クラッシュ', ruby: 'だいてんくうクラッシュ', baseType: 'special', types: ['attack'], range: '0-10', damage: 'X/Y', cost: '5', text: '超克 \n【常時】Xは現在の間合がターン開始時の間合からどれだけ変化しているかに等しい。YはXの半分(切り上げ)に等しい。'}</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A57" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K57" s="13"/>
+      <c r="M57" s="13"/>
+      <c r="O57" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R57" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="S57" s="13"/>
+      <c r="T57" s="3" t="str">
+        <f>", '"&amp;A57&amp;"': {megami: '"&amp;B57&amp;"'"&amp;IF(C57&lt;&gt;"", ", anotherID: '" &amp; C57 &amp; "', replace: '" &amp; D57 &amp; "'", "")&amp;", name: '"&amp;E57&amp;"', ruby: '"&amp;F57&amp;"', baseType: '"&amp;VLOOKUP(G57,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H57,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I57&lt;&gt;"",", '"&amp; VLOOKUP(I57,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J57&lt;&gt;"", ", range: '"&amp;J57&amp;"'", "")&amp;IF(L57&lt;&gt;"", ", damage: '"&amp;L57&amp;"'", "")&amp;IF(N57&lt;&gt;"", ", capacity: '"&amp;N57&amp;"'", "")&amp;IF(O57&lt;&gt;"", ", cost: '"&amp;O57&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R57, CHAR(10), "\n")&amp;"'"&amp;IF(P57="○", ", sealable: true", "")&amp;IF(Q57="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '08-hagane-o-s-2': {megami: 'hagane', name: '大破鐘メガロベル', ruby: 'だいはがねメガロベル', baseType: 'special', types: ['action'], cost: '2', text: 'あなたの他の切札が全て使用済ならば、ダスト→自ライフ：2'}</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" ht="48" x14ac:dyDescent="0.15">
+      <c r="A58" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K58" s="13"/>
+      <c r="M58" s="13"/>
+      <c r="O58" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="R58" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="S58" s="13"/>
+      <c r="T58" s="3" t="str">
+        <f>", '"&amp;A58&amp;"': {megami: '"&amp;B58&amp;"'"&amp;IF(C58&lt;&gt;"", ", anotherID: '" &amp; C58 &amp; "', replace: '" &amp; D58 &amp; "'", "")&amp;", name: '"&amp;E58&amp;"', ruby: '"&amp;F58&amp;"', baseType: '"&amp;VLOOKUP(G58,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H58,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I58&lt;&gt;"",", '"&amp; VLOOKUP(I58,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J58&lt;&gt;"", ", range: '"&amp;J58&amp;"'", "")&amp;IF(L58&lt;&gt;"", ", damage: '"&amp;L58&amp;"'", "")&amp;IF(N58&lt;&gt;"", ", capacity: '"&amp;N58&amp;"'", "")&amp;IF(O58&lt;&gt;"", ", cost: '"&amp;O58&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R58, CHAR(10), "\n")&amp;"'"&amp;IF(P58="○", ", sealable: true", "")&amp;IF(Q58="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '08-hagane-o-s-3': {megami: 'hagane', name: '大重力アトラクト', ruby: 'だいじゅうりょくアトラクト', baseType: 'special', types: ['action'], cost: '5', text: '間合→自フレア：3 \n----\n【再起】このターンにあなたが遠心を持つカードを使用しており、このカードを使用していない。'}</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+      <c r="A59" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="E59" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="F59" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="G59" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="H59" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I56" s="13"/>
-      <c r="K56" s="13"/>
-      <c r="M56" s="4" t="s">
+      <c r="K59" s="13"/>
+      <c r="M59" s="13"/>
+      <c r="O59" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="P56" s="5" t="s">
+      <c r="R59" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="Q56" s="13"/>
-      <c r="R56" s="3" t="str">
-        <f>", '"&amp;A56&amp;"': {megami: '"&amp;B56&amp;"', name: '"&amp;C56&amp;"', ruby: '"&amp;D56&amp;"', baseType: '"&amp;VLOOKUP(E56,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F56,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G56&lt;&gt;"",", '"&amp; VLOOKUP(G56,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H56&lt;&gt;"", ", range: '"&amp;H56&amp;"'", "")&amp;IF(J56&lt;&gt;"", ", damage: '"&amp;J56&amp;"'", "")&amp;IF(L56&lt;&gt;"", ", capacity: '"&amp;L56&amp;"'", "")&amp;IF(M56&lt;&gt;"", ", cost: '"&amp;M56&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P56, CHAR(10), "\n")&amp;"'"&amp;IF(N56="○", ", sealable: true", "")&amp;IF(O56="○", ", removable: true", "")&amp;"}"</f>
+      <c r="S59" s="13"/>
+      <c r="T59" s="3" t="str">
+        <f>", '"&amp;A59&amp;"': {megami: '"&amp;B59&amp;"'"&amp;IF(C59&lt;&gt;"", ", anotherID: '" &amp; C59 &amp; "', replace: '" &amp; D59 &amp; "'", "")&amp;", name: '"&amp;E59&amp;"', ruby: '"&amp;F59&amp;"', baseType: '"&amp;VLOOKUP(G59,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H59,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I59&lt;&gt;"",", '"&amp; VLOOKUP(I59,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J59&lt;&gt;"", ", range: '"&amp;J59&amp;"'", "")&amp;IF(L59&lt;&gt;"", ", damage: '"&amp;L59&amp;"'", "")&amp;IF(N59&lt;&gt;"", ", capacity: '"&amp;N59&amp;"'", "")&amp;IF(O59&lt;&gt;"", ", cost: '"&amp;O59&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R59, CHAR(10), "\n")&amp;"'"&amp;IF(P59="○", ", sealable: true", "")&amp;IF(Q59="○", ", removable: true", "")&amp;"}"</f>
         <v>, '08-hagane-o-s-4': {megami: 'hagane', name: '大山脈リスペクト', ruby: 'だいさんみゃくリスペクト', baseType: 'special', types: ['action'], cost: '4', text: '遠心 \nあなたの捨て札にある異なる《全力》でないカードを2枚まで選び、任意の順番で使用する。'}</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A57" s="4" t="s">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A60" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="I57" s="13"/>
-      <c r="J57" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="K57" s="13"/>
-      <c r="Q57" s="13"/>
-      <c r="R57" s="3" t="str">
-        <f>", '"&amp;A57&amp;"': {megami: '"&amp;B57&amp;"', name: '"&amp;C57&amp;"', ruby: '"&amp;D57&amp;"', baseType: '"&amp;VLOOKUP(E57,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F57,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G57&lt;&gt;"",", '"&amp; VLOOKUP(G57,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H57&lt;&gt;"", ", range: '"&amp;H57&amp;"'", "")&amp;IF(J57&lt;&gt;"", ", damage: '"&amp;J57&amp;"'", "")&amp;IF(L57&lt;&gt;"", ", capacity: '"&amp;L57&amp;"'", "")&amp;IF(M57&lt;&gt;"", ", cost: '"&amp;M57&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P57, CHAR(10), "\n")&amp;"'"&amp;IF(N57="○", ", sealable: true", "")&amp;IF(O57="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '09-chikage-o-n-1': {megami: 'chikage', name: '飛苦無', ruby: 'とびくない', baseType: 'normal', types: ['attack'], range: '4-5', damage: '2/2', text: ''}</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A58" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="I58" s="13"/>
-      <c r="J58" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="K58" s="13"/>
-      <c r="P58" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q58" s="13"/>
-      <c r="R58" s="3" t="str">
-        <f>", '"&amp;A58&amp;"': {megami: '"&amp;B58&amp;"', name: '"&amp;C58&amp;"', ruby: '"&amp;D58&amp;"', baseType: '"&amp;VLOOKUP(E58,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F58,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G58&lt;&gt;"",", '"&amp; VLOOKUP(G58,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H58&lt;&gt;"", ", range: '"&amp;H58&amp;"'", "")&amp;IF(J58&lt;&gt;"", ", damage: '"&amp;J58&amp;"'", "")&amp;IF(L58&lt;&gt;"", ", capacity: '"&amp;L58&amp;"'", "")&amp;IF(M58&lt;&gt;"", ", cost: '"&amp;M58&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P58, CHAR(10), "\n")&amp;"'"&amp;IF(N58="○", ", sealable: true", "")&amp;IF(O58="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '09-chikage-o-n-2': {megami: 'chikage', name: '毒針', ruby: 'どくばり', baseType: 'normal', types: ['attack'], range: '4', damage: '1/1', text: '【攻撃後】毒袋から「麻痺毒」「幻覚毒」「弛緩毒」のいずれか1枚を選び、そのカードを相手の山札の一番上に置く。'}</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" ht="24" x14ac:dyDescent="0.15">
-      <c r="A59" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="I59" s="13"/>
-      <c r="J59" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="K59" s="13"/>
-      <c r="P59" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q59" s="13"/>
-      <c r="R59" s="3" t="str">
-        <f>", '"&amp;A59&amp;"': {megami: '"&amp;B59&amp;"', name: '"&amp;C59&amp;"', ruby: '"&amp;D59&amp;"', baseType: '"&amp;VLOOKUP(E59,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F59,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G59&lt;&gt;"",", '"&amp; VLOOKUP(G59,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H59&lt;&gt;"", ", range: '"&amp;H59&amp;"'", "")&amp;IF(J59&lt;&gt;"", ", damage: '"&amp;J59&amp;"'", "")&amp;IF(L59&lt;&gt;"", ", capacity: '"&amp;L59&amp;"'", "")&amp;IF(M59&lt;&gt;"", ", cost: '"&amp;M59&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P59, CHAR(10), "\n")&amp;"'"&amp;IF(N59="○", ", sealable: true", "")&amp;IF(O59="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '09-chikage-o-n-3': {megami: 'chikage', name: '遁術', ruby: 'とんじゅつ', baseType: 'normal', types: ['attack', 'reaction'], range: '1-3', damage: '1/-', text: '【攻撃後】自オーラ→間合：2 \n【攻撃後】このターン中、全てのプレイヤーは基本動作《前進》を行えない。'}</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A60" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>180</v>
-      </c>
       <c r="E60" s="4" t="s">
-        <v>7</v>
+        <v>158</v>
       </c>
       <c r="F60" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H60" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G60" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="I60" s="13"/>
-      <c r="J60" s="2" t="s">
-        <v>195</v>
+      <c r="J60" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="K60" s="13"/>
-      <c r="P60" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q60" s="13"/>
-      <c r="R60" s="3" t="str">
-        <f>", '"&amp;A60&amp;"': {megami: '"&amp;B60&amp;"', name: '"&amp;C60&amp;"', ruby: '"&amp;D60&amp;"', baseType: '"&amp;VLOOKUP(E60,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F60,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G60&lt;&gt;"",", '"&amp; VLOOKUP(G60,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H60&lt;&gt;"", ", range: '"&amp;H60&amp;"'", "")&amp;IF(J60&lt;&gt;"", ", damage: '"&amp;J60&amp;"'", "")&amp;IF(L60&lt;&gt;"", ", capacity: '"&amp;L60&amp;"'", "")&amp;IF(M60&lt;&gt;"", ", cost: '"&amp;M60&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P60, CHAR(10), "\n")&amp;"'"&amp;IF(N60="○", ", sealable: true", "")&amp;IF(O60="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '09-chikage-o-n-4': {megami: 'chikage', name: '首切り', ruby: 'くびきり', baseType: 'normal', types: ['attack', 'fullpower'], range: '0-3', damage: '2/3', text: '【攻撃後】相手の手札が2枚以上あるならば、相手は手札を1枚捨て札にする。'}</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="L60" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M60" s="13"/>
+      <c r="S60" s="13"/>
+      <c r="T60" s="3" t="str">
+        <f>", '"&amp;A60&amp;"': {megami: '"&amp;B60&amp;"'"&amp;IF(C60&lt;&gt;"", ", anotherID: '" &amp; C60 &amp; "', replace: '" &amp; D60 &amp; "'", "")&amp;", name: '"&amp;E60&amp;"', ruby: '"&amp;F60&amp;"', baseType: '"&amp;VLOOKUP(G60,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H60,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I60&lt;&gt;"",", '"&amp; VLOOKUP(I60,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J60&lt;&gt;"", ", range: '"&amp;J60&amp;"'", "")&amp;IF(L60&lt;&gt;"", ", damage: '"&amp;L60&amp;"'", "")&amp;IF(N60&lt;&gt;"", ", capacity: '"&amp;N60&amp;"'", "")&amp;IF(O60&lt;&gt;"", ", cost: '"&amp;O60&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R60, CHAR(10), "\n")&amp;"'"&amp;IF(P60="○", ", sealable: true", "")&amp;IF(Q60="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '09-chikage-o-n-1': {megami: 'chikage', name: '飛苦無', ruby: 'とびくない', baseType: 'normal', types: ['attack'], range: '4-5', damage: '2/2', text: ''}</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>181</v>
-      </c>
       <c r="E61" s="4" t="s">
-        <v>7</v>
+        <v>159</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I61" s="13"/>
+        <v>178</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="K61" s="13"/>
-      <c r="P61" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q61" s="13"/>
-      <c r="R61" s="3" t="str">
-        <f>", '"&amp;A61&amp;"': {megami: '"&amp;B61&amp;"', name: '"&amp;C61&amp;"', ruby: '"&amp;D61&amp;"', baseType: '"&amp;VLOOKUP(E61,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F61,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G61&lt;&gt;"",", '"&amp; VLOOKUP(G61,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H61&lt;&gt;"", ", range: '"&amp;H61&amp;"'", "")&amp;IF(J61&lt;&gt;"", ", damage: '"&amp;J61&amp;"'", "")&amp;IF(L61&lt;&gt;"", ", capacity: '"&amp;L61&amp;"'", "")&amp;IF(M61&lt;&gt;"", ", cost: '"&amp;M61&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P61, CHAR(10), "\n")&amp;"'"&amp;IF(N61="○", ", sealable: true", "")&amp;IF(O61="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '09-chikage-o-n-5': {megami: 'chikage', name: '毒霧', ruby: 'どくぎり', baseType: 'normal', types: ['action'], text: '毒袋から「麻痺毒」「幻覚毒」「弛緩毒」のいずれか1枚を選び、そのカードを相手の手札に加える。'}</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" ht="36" x14ac:dyDescent="0.15">
+      <c r="L61" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M61" s="13"/>
+      <c r="R61" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="S61" s="13"/>
+      <c r="T61" s="3" t="str">
+        <f>", '"&amp;A61&amp;"': {megami: '"&amp;B61&amp;"'"&amp;IF(C61&lt;&gt;"", ", anotherID: '" &amp; C61 &amp; "', replace: '" &amp; D61 &amp; "'", "")&amp;", name: '"&amp;E61&amp;"', ruby: '"&amp;F61&amp;"', baseType: '"&amp;VLOOKUP(G61,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H61,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I61&lt;&gt;"",", '"&amp; VLOOKUP(I61,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J61&lt;&gt;"", ", range: '"&amp;J61&amp;"'", "")&amp;IF(L61&lt;&gt;"", ", damage: '"&amp;L61&amp;"'", "")&amp;IF(N61&lt;&gt;"", ", capacity: '"&amp;N61&amp;"'", "")&amp;IF(O61&lt;&gt;"", ", cost: '"&amp;O61&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R61, CHAR(10), "\n")&amp;"'"&amp;IF(P61="○", ", sealable: true", "")&amp;IF(Q61="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '09-chikage-o-n-2': {megami: 'chikage', name: '毒針', ruby: 'どくばり', baseType: 'normal', types: ['attack'], range: '4', damage: '1/1', text: '【攻撃後】毒袋から「麻痺毒」「幻覚毒」「弛緩毒」のいずれか1枚を選び、そのカードを相手の山札の一番上に置く。'}</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A62" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>182</v>
-      </c>
       <c r="E62" s="4" t="s">
-        <v>7</v>
+        <v>160</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I62" s="13"/>
+        <v>179</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>175</v>
+      </c>
       <c r="K62" s="13"/>
-      <c r="L62" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="P62" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q62" s="13"/>
-      <c r="R62" s="3" t="str">
-        <f>", '"&amp;A62&amp;"': {megami: '"&amp;B62&amp;"', name: '"&amp;C62&amp;"', ruby: '"&amp;D62&amp;"', baseType: '"&amp;VLOOKUP(E62,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F62,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G62&lt;&gt;"",", '"&amp; VLOOKUP(G62,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H62&lt;&gt;"", ", range: '"&amp;H62&amp;"'", "")&amp;IF(J62&lt;&gt;"", ", damage: '"&amp;J62&amp;"'", "")&amp;IF(L62&lt;&gt;"", ", capacity: '"&amp;L62&amp;"'", "")&amp;IF(M62&lt;&gt;"", ", cost: '"&amp;M62&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P62, CHAR(10), "\n")&amp;"'"&amp;IF(N62="○", ", sealable: true", "")&amp;IF(O62="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '09-chikage-o-n-6': {megami: 'chikage', name: '抜き足', ruby: 'ぬきあし', baseType: 'normal', types: ['enhance'], capacity: '4', text: '隙 \n【展開中】現在の間合は2減少する。 \n(間合は0未満にならない)'}</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="L62" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="M62" s="13"/>
+      <c r="R62" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="S62" s="13"/>
+      <c r="T62" s="3" t="str">
+        <f>", '"&amp;A62&amp;"': {megami: '"&amp;B62&amp;"'"&amp;IF(C62&lt;&gt;"", ", anotherID: '" &amp; C62 &amp; "', replace: '" &amp; D62 &amp; "'", "")&amp;", name: '"&amp;E62&amp;"', ruby: '"&amp;F62&amp;"', baseType: '"&amp;VLOOKUP(G62,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H62,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I62&lt;&gt;"",", '"&amp; VLOOKUP(I62,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J62&lt;&gt;"", ", range: '"&amp;J62&amp;"'", "")&amp;IF(L62&lt;&gt;"", ", damage: '"&amp;L62&amp;"'", "")&amp;IF(N62&lt;&gt;"", ", capacity: '"&amp;N62&amp;"'", "")&amp;IF(O62&lt;&gt;"", ", cost: '"&amp;O62&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R62, CHAR(10), "\n")&amp;"'"&amp;IF(P62="○", ", sealable: true", "")&amp;IF(Q62="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '09-chikage-o-n-3': {megami: 'chikage', name: '遁術', ruby: 'とんじゅつ', baseType: 'normal', types: ['attack', 'reaction'], range: '1-3', damage: '1/-', text: '【攻撃後】自オーラ→間合：2 \n【攻撃後】このターン中、全てのプレイヤーは基本動作《前進》を行えない。'}</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A63" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>183</v>
-      </c>
       <c r="E63" s="4" t="s">
-        <v>7</v>
+        <v>161</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I63" s="13"/>
+        <v>180</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="K63" s="13"/>
-      <c r="L63" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="P63" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q63" s="13"/>
-      <c r="R63" s="3" t="str">
-        <f>", '"&amp;A63&amp;"': {megami: '"&amp;B63&amp;"', name: '"&amp;C63&amp;"', ruby: '"&amp;D63&amp;"', baseType: '"&amp;VLOOKUP(E63,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F63,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G63&lt;&gt;"",", '"&amp; VLOOKUP(G63,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H63&lt;&gt;"", ", range: '"&amp;H63&amp;"'", "")&amp;IF(J63&lt;&gt;"", ", damage: '"&amp;J63&amp;"'", "")&amp;IF(L63&lt;&gt;"", ", capacity: '"&amp;L63&amp;"'", "")&amp;IF(M63&lt;&gt;"", ", cost: '"&amp;M63&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P63, CHAR(10), "\n")&amp;"'"&amp;IF(N63="○", ", sealable: true", "")&amp;IF(O63="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '09-chikage-o-n-7': {megami: 'chikage', name: '泥濘', ruby: 'でいねい', baseType: 'normal', types: ['enhance'], capacity: '2', text: '【展開中】相手は基本動作《後退》と《離脱》を行えない。'}</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="L63" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="M63" s="13"/>
+      <c r="R63" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="S63" s="13"/>
+      <c r="T63" s="3" t="str">
+        <f>", '"&amp;A63&amp;"': {megami: '"&amp;B63&amp;"'"&amp;IF(C63&lt;&gt;"", ", anotherID: '" &amp; C63 &amp; "', replace: '" &amp; D63 &amp; "'", "")&amp;", name: '"&amp;E63&amp;"', ruby: '"&amp;F63&amp;"', baseType: '"&amp;VLOOKUP(G63,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H63,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I63&lt;&gt;"",", '"&amp; VLOOKUP(I63,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J63&lt;&gt;"", ", range: '"&amp;J63&amp;"'", "")&amp;IF(L63&lt;&gt;"", ", damage: '"&amp;L63&amp;"'", "")&amp;IF(N63&lt;&gt;"", ", capacity: '"&amp;N63&amp;"'", "")&amp;IF(O63&lt;&gt;"", ", cost: '"&amp;O63&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R63, CHAR(10), "\n")&amp;"'"&amp;IF(P63="○", ", sealable: true", "")&amp;IF(Q63="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '09-chikage-o-n-4': {megami: 'chikage', name: '首切り', ruby: 'くびきり', baseType: 'normal', types: ['attack', 'fullpower'], range: '0-3', damage: '2/3', text: '【攻撃後】相手の手札が2枚以上あるならば、相手は手札を1枚捨て札にする。'}</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A64" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>184</v>
-      </c>
       <c r="E64" s="4" t="s">
-        <v>19</v>
+        <v>163</v>
       </c>
       <c r="F64" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H64" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I64" s="13"/>
       <c r="K64" s="13"/>
-      <c r="M64" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="P64" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q64" s="13"/>
-      <c r="R64" s="3" t="str">
-        <f>", '"&amp;A64&amp;"': {megami: '"&amp;B64&amp;"', name: '"&amp;C64&amp;"', ruby: '"&amp;D64&amp;"', baseType: '"&amp;VLOOKUP(E64,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F64,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G64&lt;&gt;"",", '"&amp; VLOOKUP(G64,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H64&lt;&gt;"", ", range: '"&amp;H64&amp;"'", "")&amp;IF(J64&lt;&gt;"", ", damage: '"&amp;J64&amp;"'", "")&amp;IF(L64&lt;&gt;"", ", capacity: '"&amp;L64&amp;"'", "")&amp;IF(M64&lt;&gt;"", ", cost: '"&amp;M64&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P64, CHAR(10), "\n")&amp;"'"&amp;IF(N64="○", ", sealable: true", "")&amp;IF(O64="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '09-chikage-o-s-1': {megami: 'chikage', name: '滅灯の魂毒', ruby: 'ほろびのみたまどく', baseType: 'special', types: ['action'], cost: '3', text: '毒袋から「滅灯毒」を1枚を選び、そのカードを相手の山札の一番上に置く。'}</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="M64" s="13"/>
+      <c r="R64" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="S64" s="13"/>
+      <c r="T64" s="3" t="str">
+        <f>", '"&amp;A64&amp;"': {megami: '"&amp;B64&amp;"'"&amp;IF(C64&lt;&gt;"", ", anotherID: '" &amp; C64 &amp; "', replace: '" &amp; D64 &amp; "'", "")&amp;", name: '"&amp;E64&amp;"', ruby: '"&amp;F64&amp;"', baseType: '"&amp;VLOOKUP(G64,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H64,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I64&lt;&gt;"",", '"&amp; VLOOKUP(I64,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J64&lt;&gt;"", ", range: '"&amp;J64&amp;"'", "")&amp;IF(L64&lt;&gt;"", ", damage: '"&amp;L64&amp;"'", "")&amp;IF(N64&lt;&gt;"", ", capacity: '"&amp;N64&amp;"'", "")&amp;IF(O64&lt;&gt;"", ", cost: '"&amp;O64&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R64, CHAR(10), "\n")&amp;"'"&amp;IF(P64="○", ", sealable: true", "")&amp;IF(Q64="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '09-chikage-o-n-5': {megami: 'chikage', name: '毒霧', ruby: 'どくぎり', baseType: 'normal', types: ['action'], text: '毒袋から「麻痺毒」「幻覚毒」「弛緩毒」のいずれか1枚を選び、そのカードを相手の手札に加える。'}</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" ht="36" x14ac:dyDescent="0.15">
       <c r="A65" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>185</v>
-      </c>
       <c r="E65" s="4" t="s">
-        <v>19</v>
+        <v>164</v>
       </c>
       <c r="F65" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H65" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G65" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I65" s="13"/>
       <c r="K65" s="13"/>
-      <c r="L65" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="M65" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="P65" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q65" s="13"/>
-      <c r="R65" s="3" t="str">
-        <f>", '"&amp;A65&amp;"': {megami: '"&amp;B65&amp;"', name: '"&amp;C65&amp;"', ruby: '"&amp;D65&amp;"', baseType: '"&amp;VLOOKUP(E65,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F65,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G65&lt;&gt;"",", '"&amp; VLOOKUP(G65,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H65&lt;&gt;"", ", range: '"&amp;H65&amp;"'", "")&amp;IF(J65&lt;&gt;"", ", damage: '"&amp;J65&amp;"'", "")&amp;IF(L65&lt;&gt;"", ", capacity: '"&amp;L65&amp;"'", "")&amp;IF(M65&lt;&gt;"", ", cost: '"&amp;M65&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P65, CHAR(10), "\n")&amp;"'"&amp;IF(N65="○", ", sealable: true", "")&amp;IF(O65="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '09-chikage-o-s-2': {megami: 'chikage', name: '叛旗の纏毒', ruby: 'はんきのまといどく', baseType: 'special', types: ['enhance', 'reaction'], capacity: '5', cost: '2', text: '【展開中】相手によるオーラへのダメージかライフへのダメージのどちらかが「-」である《攻撃》は打ち消される。'}</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="M65" s="13"/>
+      <c r="N65" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="R65" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="S65" s="13"/>
+      <c r="T65" s="3" t="str">
+        <f>", '"&amp;A65&amp;"': {megami: '"&amp;B65&amp;"'"&amp;IF(C65&lt;&gt;"", ", anotherID: '" &amp; C65 &amp; "', replace: '" &amp; D65 &amp; "'", "")&amp;", name: '"&amp;E65&amp;"', ruby: '"&amp;F65&amp;"', baseType: '"&amp;VLOOKUP(G65,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H65,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I65&lt;&gt;"",", '"&amp; VLOOKUP(I65,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J65&lt;&gt;"", ", range: '"&amp;J65&amp;"'", "")&amp;IF(L65&lt;&gt;"", ", damage: '"&amp;L65&amp;"'", "")&amp;IF(N65&lt;&gt;"", ", capacity: '"&amp;N65&amp;"'", "")&amp;IF(O65&lt;&gt;"", ", cost: '"&amp;O65&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R65, CHAR(10), "\n")&amp;"'"&amp;IF(P65="○", ", sealable: true", "")&amp;IF(Q65="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '09-chikage-o-n-6': {megami: 'chikage', name: '抜き足', ruby: 'ぬきあし', baseType: 'normal', types: ['enhance'], capacity: '4', text: '隙 \n【展開中】現在の間合は2減少する。 \n(間合は0未満にならない)'}</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C66" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>186</v>
-      </c>
       <c r="E66" s="4" t="s">
-        <v>19</v>
+        <v>165</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>8</v>
+        <v>183</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="I66" s="13"/>
-      <c r="J66" s="2" t="s">
-        <v>196</v>
+        <v>48</v>
       </c>
       <c r="K66" s="13"/>
-      <c r="M66" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="P66" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="Q66" s="13"/>
-      <c r="R66" s="3" t="str">
-        <f>", '"&amp;A66&amp;"': {megami: '"&amp;B66&amp;"', name: '"&amp;C66&amp;"', ruby: '"&amp;D66&amp;"', baseType: '"&amp;VLOOKUP(E66,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F66,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G66&lt;&gt;"",", '"&amp; VLOOKUP(G66,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H66&lt;&gt;"", ", range: '"&amp;H66&amp;"'", "")&amp;IF(J66&lt;&gt;"", ", damage: '"&amp;J66&amp;"'", "")&amp;IF(L66&lt;&gt;"", ", capacity: '"&amp;L66&amp;"'", "")&amp;IF(M66&lt;&gt;"", ", cost: '"&amp;M66&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P66, CHAR(10), "\n")&amp;"'"&amp;IF(N66="○", ", sealable: true", "")&amp;IF(O66="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '09-chikage-o-s-3': {megami: 'chikage', name: '流転の霞毒', ruby: 'るてんのかすみどく', baseType: 'special', types: ['attack'], range: '3-7', damage: '1/2', cost: '1', text: '【再起】相手の手札が2枚以上ある。'}</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" ht="48" x14ac:dyDescent="0.15">
+      <c r="M66" s="13"/>
+      <c r="N66" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R66" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="S66" s="13"/>
+      <c r="T66" s="3" t="str">
+        <f>", '"&amp;A66&amp;"': {megami: '"&amp;B66&amp;"'"&amp;IF(C66&lt;&gt;"", ", anotherID: '" &amp; C66 &amp; "', replace: '" &amp; D66 &amp; "'", "")&amp;", name: '"&amp;E66&amp;"', ruby: '"&amp;F66&amp;"', baseType: '"&amp;VLOOKUP(G66,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H66,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I66&lt;&gt;"",", '"&amp; VLOOKUP(I66,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J66&lt;&gt;"", ", range: '"&amp;J66&amp;"'", "")&amp;IF(L66&lt;&gt;"", ", damage: '"&amp;L66&amp;"'", "")&amp;IF(N66&lt;&gt;"", ", capacity: '"&amp;N66&amp;"'", "")&amp;IF(O66&lt;&gt;"", ", cost: '"&amp;O66&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R66, CHAR(10), "\n")&amp;"'"&amp;IF(P66="○", ", sealable: true", "")&amp;IF(Q66="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '09-chikage-o-n-7': {megami: 'chikage', name: '泥濘', ruby: 'でいねい', baseType: 'normal', types: ['enhance'], capacity: '2', text: '【展開中】相手は基本動作《後退》と《離脱》を行えない。'}</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C67" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>187</v>
-      </c>
       <c r="E67" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G67" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F67" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I67" s="13"/>
+      <c r="H67" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="K67" s="13"/>
-      <c r="L67" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="M67" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="P67" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q67" s="13"/>
-      <c r="R67" s="3" t="str">
-        <f>", '"&amp;A67&amp;"': {megami: '"&amp;B67&amp;"', name: '"&amp;C67&amp;"', ruby: '"&amp;D67&amp;"', baseType: '"&amp;VLOOKUP(E67,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F67,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G67&lt;&gt;"",", '"&amp; VLOOKUP(G67,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H67&lt;&gt;"", ", range: '"&amp;H67&amp;"'", "")&amp;IF(J67&lt;&gt;"", ", damage: '"&amp;J67&amp;"'", "")&amp;IF(L67&lt;&gt;"", ", capacity: '"&amp;L67&amp;"'", "")&amp;IF(M67&lt;&gt;"", ", cost: '"&amp;M67&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P67, CHAR(10), "\n")&amp;"'"&amp;IF(N67="○", ", sealable: true", "")&amp;IF(O67="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '09-chikage-o-s-4': {megami: 'chikage', name: '闇昏千影の生きる道', ruby: 'やみくらちかげのいきるみち', baseType: 'special', types: ['enhance', 'fullpower'], capacity: '4', cost: '5', text: '【展開中】あなたが1以上のライフへのダメージを受けた時、このカードの上の桜花結晶は全てダストに送られ、このカードは未使用に戻る。 \n(破棄時効果は失敗する) \n【破棄時】あなたの他の切札が全て使用済ならば、あなたは勝利する。'}</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" ht="48" x14ac:dyDescent="0.15">
+      <c r="M67" s="13"/>
+      <c r="O67" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="R67" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="S67" s="13"/>
+      <c r="T67" s="3" t="str">
+        <f>", '"&amp;A67&amp;"': {megami: '"&amp;B67&amp;"'"&amp;IF(C67&lt;&gt;"", ", anotherID: '" &amp; C67 &amp; "', replace: '" &amp; D67 &amp; "'", "")&amp;", name: '"&amp;E67&amp;"', ruby: '"&amp;F67&amp;"', baseType: '"&amp;VLOOKUP(G67,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H67,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I67&lt;&gt;"",", '"&amp; VLOOKUP(I67,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J67&lt;&gt;"", ", range: '"&amp;J67&amp;"'", "")&amp;IF(L67&lt;&gt;"", ", damage: '"&amp;L67&amp;"'", "")&amp;IF(N67&lt;&gt;"", ", capacity: '"&amp;N67&amp;"'", "")&amp;IF(O67&lt;&gt;"", ", cost: '"&amp;O67&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R67, CHAR(10), "\n")&amp;"'"&amp;IF(P67="○", ", sealable: true", "")&amp;IF(Q67="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '09-chikage-o-s-1': {megami: 'chikage', name: '滅灯の魂毒', ruby: 'ほろびのみたまどく', baseType: 'special', types: ['action'], cost: '3', text: '毒袋から「滅灯毒」を1枚を選び、そのカードを相手の山札の一番上に置く。'}</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A68" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>188</v>
-      </c>
       <c r="E68" s="4" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I68" s="13"/>
+        <v>185</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="K68" s="13"/>
-      <c r="P68" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q68" s="13"/>
-      <c r="R68" s="3" t="str">
-        <f>", '"&amp;A68&amp;"': {megami: '"&amp;B68&amp;"', name: '"&amp;C68&amp;"', ruby: '"&amp;D68&amp;"', baseType: '"&amp;VLOOKUP(E68,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F68,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G68&lt;&gt;"",", '"&amp; VLOOKUP(G68,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H68&lt;&gt;"", ", range: '"&amp;H68&amp;"'", "")&amp;IF(J68&lt;&gt;"", ", damage: '"&amp;J68&amp;"'", "")&amp;IF(L68&lt;&gt;"", ", capacity: '"&amp;L68&amp;"'", "")&amp;IF(M68&lt;&gt;"", ", cost: '"&amp;M68&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P68, CHAR(10), "\n")&amp;"'"&amp;IF(N68="○", ", sealable: true", "")&amp;IF(O68="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '09-chikage-o-p-1': {megami: 'chikage', name: '麻痺毒', ruby: 'まひどく', baseType: 'extra', types: ['action'], text: '毒（このカードは伏せ札にできない） \n【常時】このターン中にあなたが基本動作を行ったならば、このカードは使用できない。 \nこのカードを相手の毒袋に戻す。その後、このフェイズを終了する。'}</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" ht="36" x14ac:dyDescent="0.15">
+      <c r="M68" s="13"/>
+      <c r="N68" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="O68" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R68" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="S68" s="13"/>
+      <c r="T68" s="3" t="str">
+        <f>", '"&amp;A68&amp;"': {megami: '"&amp;B68&amp;"'"&amp;IF(C68&lt;&gt;"", ", anotherID: '" &amp; C68 &amp; "', replace: '" &amp; D68 &amp; "'", "")&amp;", name: '"&amp;E68&amp;"', ruby: '"&amp;F68&amp;"', baseType: '"&amp;VLOOKUP(G68,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H68,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I68&lt;&gt;"",", '"&amp; VLOOKUP(I68,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J68&lt;&gt;"", ", range: '"&amp;J68&amp;"'", "")&amp;IF(L68&lt;&gt;"", ", damage: '"&amp;L68&amp;"'", "")&amp;IF(N68&lt;&gt;"", ", capacity: '"&amp;N68&amp;"'", "")&amp;IF(O68&lt;&gt;"", ", cost: '"&amp;O68&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R68, CHAR(10), "\n")&amp;"'"&amp;IF(P68="○", ", sealable: true", "")&amp;IF(Q68="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '09-chikage-o-s-2': {megami: 'chikage', name: '叛旗の纏毒', ruby: 'はんきのまといどく', baseType: 'special', types: ['enhance', 'reaction'], capacity: '5', cost: '2', text: '【展開中】相手によるオーラへのダメージかライフへのダメージのどちらかが「-」である《攻撃》は打ち消される。'}</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A69" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C69" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>189</v>
-      </c>
       <c r="E69" s="4" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I69" s="13"/>
+        <v>186</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="K69" s="13"/>
-      <c r="P69" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q69" s="13"/>
-      <c r="R69" s="3" t="str">
-        <f>", '"&amp;A69&amp;"': {megami: '"&amp;B69&amp;"', name: '"&amp;C69&amp;"', ruby: '"&amp;D69&amp;"', baseType: '"&amp;VLOOKUP(E69,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F69,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G69&lt;&gt;"",", '"&amp; VLOOKUP(G69,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H69&lt;&gt;"", ", range: '"&amp;H69&amp;"'", "")&amp;IF(J69&lt;&gt;"", ", damage: '"&amp;J69&amp;"'", "")&amp;IF(L69&lt;&gt;"", ", capacity: '"&amp;L69&amp;"'", "")&amp;IF(M69&lt;&gt;"", ", cost: '"&amp;M69&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P69, CHAR(10), "\n")&amp;"'"&amp;IF(N69="○", ", sealable: true", "")&amp;IF(O69="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '09-chikage-o-p-2': {megami: 'chikage', name: '幻覚毒', ruby: 'げんかくどく', baseType: 'extra', types: ['action'], text: '毒（このカードは伏せ札にできない） \nこのカードを相手の毒袋に戻す。 \n自フレア→ダスト：2'}</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" ht="36" x14ac:dyDescent="0.15">
+      <c r="L69" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="M69" s="13"/>
+      <c r="O69" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R69" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="S69" s="13"/>
+      <c r="T69" s="3" t="str">
+        <f>", '"&amp;A69&amp;"': {megami: '"&amp;B69&amp;"'"&amp;IF(C69&lt;&gt;"", ", anotherID: '" &amp; C69 &amp; "', replace: '" &amp; D69 &amp; "'", "")&amp;", name: '"&amp;E69&amp;"', ruby: '"&amp;F69&amp;"', baseType: '"&amp;VLOOKUP(G69,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H69,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I69&lt;&gt;"",", '"&amp; VLOOKUP(I69,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J69&lt;&gt;"", ", range: '"&amp;J69&amp;"'", "")&amp;IF(L69&lt;&gt;"", ", damage: '"&amp;L69&amp;"'", "")&amp;IF(N69&lt;&gt;"", ", capacity: '"&amp;N69&amp;"'", "")&amp;IF(O69&lt;&gt;"", ", cost: '"&amp;O69&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R69, CHAR(10), "\n")&amp;"'"&amp;IF(P69="○", ", sealable: true", "")&amp;IF(Q69="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '09-chikage-o-s-3': {megami: 'chikage', name: '流転の霞毒', ruby: 'るてんのかすみどく', baseType: 'special', types: ['attack'], range: '3-7', damage: '1/2', cost: '1', text: '【再起】相手の手札が2枚以上ある。'}</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" ht="48" x14ac:dyDescent="0.15">
       <c r="A70" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>190</v>
-      </c>
       <c r="E70" s="4" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="F70" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H70" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I70" s="13"/>
+      <c r="I70" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="K70" s="13"/>
-      <c r="L70" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="P70" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q70" s="13"/>
-      <c r="R70" s="3" t="str">
-        <f>", '"&amp;A70&amp;"': {megami: '"&amp;B70&amp;"', name: '"&amp;C70&amp;"', ruby: '"&amp;D70&amp;"', baseType: '"&amp;VLOOKUP(E70,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F70,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G70&lt;&gt;"",", '"&amp; VLOOKUP(G70,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H70&lt;&gt;"", ", range: '"&amp;H70&amp;"'", "")&amp;IF(J70&lt;&gt;"", ", damage: '"&amp;J70&amp;"'", "")&amp;IF(L70&lt;&gt;"", ", capacity: '"&amp;L70&amp;"'", "")&amp;IF(M70&lt;&gt;"", ", cost: '"&amp;M70&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P70, CHAR(10), "\n")&amp;"'"&amp;IF(N70="○", ", sealable: true", "")&amp;IF(O70="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '09-chikage-o-p-3': {megami: 'chikage', name: '弛緩毒', ruby: 'しかんどく', baseType: 'extra', types: ['enhance'], capacity: '3', text: '毒（このカードは伏せ札にできない） \n【展開中】あなたは《攻撃》カードを使用できない。 \n【破棄時】このカードを相手の毒袋に戻す。'}</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" ht="24" x14ac:dyDescent="0.15">
+      <c r="M70" s="13"/>
+      <c r="N70" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="O70" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="R70" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="S70" s="13"/>
+      <c r="T70" s="3" t="str">
+        <f>", '"&amp;A70&amp;"': {megami: '"&amp;B70&amp;"'"&amp;IF(C70&lt;&gt;"", ", anotherID: '" &amp; C70 &amp; "', replace: '" &amp; D70 &amp; "'", "")&amp;", name: '"&amp;E70&amp;"', ruby: '"&amp;F70&amp;"', baseType: '"&amp;VLOOKUP(G70,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H70,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I70&lt;&gt;"",", '"&amp; VLOOKUP(I70,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J70&lt;&gt;"", ", range: '"&amp;J70&amp;"'", "")&amp;IF(L70&lt;&gt;"", ", damage: '"&amp;L70&amp;"'", "")&amp;IF(N70&lt;&gt;"", ", capacity: '"&amp;N70&amp;"'", "")&amp;IF(O70&lt;&gt;"", ", cost: '"&amp;O70&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R70, CHAR(10), "\n")&amp;"'"&amp;IF(P70="○", ", sealable: true", "")&amp;IF(Q70="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '09-chikage-o-s-4': {megami: 'chikage', name: '闇昏千影の生きる道', ruby: 'やみくらちかげのいきるみち', baseType: 'special', types: ['enhance', 'fullpower'], capacity: '4', cost: '5', text: '【展開中】あなたが1以上のライフへのダメージを受けた時、このカードの上の桜花結晶は全てダストに送られ、このカードは未使用に戻る。 \n(破棄時効果は失敗する) \n【破棄時】あなたの他の切札が全て使用済ならば、あなたは勝利する。'}</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" ht="48" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="E71" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K71" s="13"/>
+      <c r="M71" s="13"/>
+      <c r="R71" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="S71" s="13"/>
+      <c r="T71" s="3" t="str">
+        <f>", '"&amp;A71&amp;"': {megami: '"&amp;B71&amp;"'"&amp;IF(C71&lt;&gt;"", ", anotherID: '" &amp; C71 &amp; "', replace: '" &amp; D71 &amp; "'", "")&amp;", name: '"&amp;E71&amp;"', ruby: '"&amp;F71&amp;"', baseType: '"&amp;VLOOKUP(G71,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H71,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I71&lt;&gt;"",", '"&amp; VLOOKUP(I71,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J71&lt;&gt;"", ", range: '"&amp;J71&amp;"'", "")&amp;IF(L71&lt;&gt;"", ", damage: '"&amp;L71&amp;"'", "")&amp;IF(N71&lt;&gt;"", ", capacity: '"&amp;N71&amp;"'", "")&amp;IF(O71&lt;&gt;"", ", cost: '"&amp;O71&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R71, CHAR(10), "\n")&amp;"'"&amp;IF(P71="○", ", sealable: true", "")&amp;IF(Q71="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '09-chikage-o-p-1': {megami: 'chikage', name: '麻痺毒', ruby: 'まひどく', baseType: 'extra', types: ['action'], text: '毒（このカードは伏せ札にできない） \n【常時】このターン中にあなたが基本動作を行ったならば、このカードは使用できない。 \nこのカードを相手の毒袋に戻す。その後、このフェイズを終了する。'}</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+      <c r="A72" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K72" s="13"/>
+      <c r="M72" s="13"/>
+      <c r="R72" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="S72" s="13"/>
+      <c r="T72" s="3" t="str">
+        <f>", '"&amp;A72&amp;"': {megami: '"&amp;B72&amp;"'"&amp;IF(C72&lt;&gt;"", ", anotherID: '" &amp; C72 &amp; "', replace: '" &amp; D72 &amp; "'", "")&amp;", name: '"&amp;E72&amp;"', ruby: '"&amp;F72&amp;"', baseType: '"&amp;VLOOKUP(G72,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H72,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I72&lt;&gt;"",", '"&amp; VLOOKUP(I72,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J72&lt;&gt;"", ", range: '"&amp;J72&amp;"'", "")&amp;IF(L72&lt;&gt;"", ", damage: '"&amp;L72&amp;"'", "")&amp;IF(N72&lt;&gt;"", ", capacity: '"&amp;N72&amp;"'", "")&amp;IF(O72&lt;&gt;"", ", cost: '"&amp;O72&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R72, CHAR(10), "\n")&amp;"'"&amp;IF(P72="○", ", sealable: true", "")&amp;IF(Q72="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '09-chikage-o-p-2': {megami: 'chikage', name: '幻覚毒', ruby: 'げんかくどく', baseType: 'extra', types: ['action'], text: '毒（このカードは伏せ札にできない） \nこのカードを相手の毒袋に戻す。 \n自フレア→ダスト：2'}</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+      <c r="A73" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K73" s="13"/>
+      <c r="M73" s="13"/>
+      <c r="N73" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="R73" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="S73" s="13"/>
+      <c r="T73" s="3" t="str">
+        <f>", '"&amp;A73&amp;"': {megami: '"&amp;B73&amp;"'"&amp;IF(C73&lt;&gt;"", ", anotherID: '" &amp; C73 &amp; "', replace: '" &amp; D73 &amp; "'", "")&amp;", name: '"&amp;E73&amp;"', ruby: '"&amp;F73&amp;"', baseType: '"&amp;VLOOKUP(G73,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H73,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I73&lt;&gt;"",", '"&amp; VLOOKUP(I73,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J73&lt;&gt;"", ", range: '"&amp;J73&amp;"'", "")&amp;IF(L73&lt;&gt;"", ", damage: '"&amp;L73&amp;"'", "")&amp;IF(N73&lt;&gt;"", ", capacity: '"&amp;N73&amp;"'", "")&amp;IF(O73&lt;&gt;"", ", cost: '"&amp;O73&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R73, CHAR(10), "\n")&amp;"'"&amp;IF(P73="○", ", sealable: true", "")&amp;IF(Q73="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '09-chikage-o-p-3': {megami: 'chikage', name: '弛緩毒', ruby: 'しかんどく', baseType: 'extra', types: ['enhance'], capacity: '3', text: '毒（このカードは伏せ札にできない） \n【展開中】あなたは《攻撃》カードを使用できない。 \n【破棄時】このカードを相手の毒袋に戻す。'}</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+      <c r="A74" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E74" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="F74" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="E71" s="4" t="s">
+      <c r="G74" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="F71" s="4" t="s">
+      <c r="H74" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I71" s="13"/>
-      <c r="K71" s="13"/>
-      <c r="P71" s="5" t="s">
+      <c r="K74" s="13"/>
+      <c r="M74" s="13"/>
+      <c r="R74" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="Q71" s="13"/>
-      <c r="R71" s="3" t="str">
-        <f>", '"&amp;A71&amp;"': {megami: '"&amp;B71&amp;"', name: '"&amp;C71&amp;"', ruby: '"&amp;D71&amp;"', baseType: '"&amp;VLOOKUP(E71,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F71,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G71&lt;&gt;"",", '"&amp; VLOOKUP(G71,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H71&lt;&gt;"", ", range: '"&amp;H71&amp;"'", "")&amp;IF(J71&lt;&gt;"", ", damage: '"&amp;J71&amp;"'", "")&amp;IF(L71&lt;&gt;"", ", capacity: '"&amp;L71&amp;"'", "")&amp;IF(M71&lt;&gt;"", ", cost: '"&amp;M71&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P71, CHAR(10), "\n")&amp;"'"&amp;IF(N71="○", ", sealable: true", "")&amp;IF(O71="○", ", removable: true", "")&amp;"}"</f>
+      <c r="S74" s="13"/>
+      <c r="T74" s="3" t="str">
+        <f>", '"&amp;A74&amp;"': {megami: '"&amp;B74&amp;"'"&amp;IF(C74&lt;&gt;"", ", anotherID: '" &amp; C74 &amp; "', replace: '" &amp; D74 &amp; "'", "")&amp;", name: '"&amp;E74&amp;"', ruby: '"&amp;F74&amp;"', baseType: '"&amp;VLOOKUP(G74,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H74,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I74&lt;&gt;"",", '"&amp; VLOOKUP(I74,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J74&lt;&gt;"", ", range: '"&amp;J74&amp;"'", "")&amp;IF(L74&lt;&gt;"", ", damage: '"&amp;L74&amp;"'", "")&amp;IF(N74&lt;&gt;"", ", capacity: '"&amp;N74&amp;"'", "")&amp;IF(O74&lt;&gt;"", ", cost: '"&amp;O74&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R74, CHAR(10), "\n")&amp;"'"&amp;IF(P74="○", ", sealable: true", "")&amp;IF(Q74="○", ", removable: true", "")&amp;"}"</f>
         <v>, '09-chikage-o-p-4': {megami: 'chikage', name: '滅灯毒', ruby: 'ほろびどく', baseType: 'extra', types: ['action'], text: '毒（このカードは伏せ札にできない） \n自オーラ→ダスト：3'}</v>
       </c>
     </row>
-    <row r="72" spans="1:18" ht="24" x14ac:dyDescent="0.15">
-      <c r="A72" s="4" t="s">
+    <row r="75" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+      <c r="A75" s="4" t="s">
         <v>363</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I72" s="13"/>
-      <c r="K72" s="13"/>
-      <c r="P72" s="5" t="s">
-        <v>563</v>
-      </c>
-      <c r="Q72" s="13"/>
-      <c r="R72" s="3" t="str">
-        <f>", '"&amp;A72&amp;"': {megami: '"&amp;B72&amp;"', name: '"&amp;C72&amp;"', ruby: '"&amp;D72&amp;"', baseType: '"&amp;VLOOKUP(E72,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F72,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G72&lt;&gt;"",", '"&amp; VLOOKUP(G72,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H72&lt;&gt;"", ", range: '"&amp;H72&amp;"'", "")&amp;IF(J72&lt;&gt;"", ", damage: '"&amp;J72&amp;"'", "")&amp;IF(L72&lt;&gt;"", ", capacity: '"&amp;L72&amp;"'", "")&amp;IF(M72&lt;&gt;"", ", cost: '"&amp;M72&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P72, CHAR(10), "\n")&amp;"'"&amp;IF(N72="○", ", sealable: true", "")&amp;IF(O72="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '10-kururu-o-n-1': {megami: 'kururu', name: 'えれきてる', ruby: '', baseType: 'normal', types: ['action'], text: '----\n&lt;行行行対対&gt; 相手のライフに1ダメージを与える。 '}</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" ht="48" x14ac:dyDescent="0.15">
-      <c r="A73" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I73" s="13"/>
-      <c r="K73" s="13"/>
-      <c r="P73" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="Q73" s="13"/>
-      <c r="R73" s="3" t="str">
-        <f>", '"&amp;A73&amp;"': {megami: '"&amp;B73&amp;"', name: '"&amp;C73&amp;"', ruby: '"&amp;D73&amp;"', baseType: '"&amp;VLOOKUP(E73,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F73,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G73&lt;&gt;"",", '"&amp; VLOOKUP(G73,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H73&lt;&gt;"", ", range: '"&amp;H73&amp;"'", "")&amp;IF(J73&lt;&gt;"", ", damage: '"&amp;J73&amp;"'", "")&amp;IF(L73&lt;&gt;"", ", capacity: '"&amp;L73&amp;"'", "")&amp;IF(M73&lt;&gt;"", ", cost: '"&amp;M73&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P73, CHAR(10), "\n")&amp;"'"&amp;IF(N73="○", ", sealable: true", "")&amp;IF(O73="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '10-kururu-o-n-2': {megami: 'kururu', name: 'あくせらー', ruby: '', baseType: 'normal', types: ['action'], text: '----\n&lt;行行付&gt; あなたの手札から《全力》カードを1枚選び、そのカードを使用してもよい。 \n(フェイズは終了しない) '}</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" ht="72" x14ac:dyDescent="0.15">
-      <c r="A74" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I74" s="13"/>
-      <c r="K74" s="13"/>
-      <c r="P74" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="Q74" s="13"/>
-      <c r="R74" s="3" t="str">
-        <f>", '"&amp;A74&amp;"': {megami: '"&amp;B74&amp;"', name: '"&amp;C74&amp;"', ruby: '"&amp;D74&amp;"', baseType: '"&amp;VLOOKUP(E74,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F74,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G74&lt;&gt;"",", '"&amp; VLOOKUP(G74,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H74&lt;&gt;"", ", range: '"&amp;H74&amp;"'", "")&amp;IF(J74&lt;&gt;"", ", damage: '"&amp;J74&amp;"'", "")&amp;IF(L74&lt;&gt;"", ", capacity: '"&amp;L74&amp;"'", "")&amp;IF(M74&lt;&gt;"", ", cost: '"&amp;M74&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P74, CHAR(10), "\n")&amp;"'"&amp;IF(N74="○", ", sealable: true", "")&amp;IF(O74="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '10-kururu-o-n-3': {megami: 'kururu', name: 'くるるーん', ruby: '', baseType: 'normal', types: ['action', 'reaction'], text: '【常時】このカードは対応でしか使用できない。 \n以下から2つまでを選び、任意の順に行う。 \n(同じものを2回選ぶことはできない)\n・カードを1枚引く。\n・伏せ札1枚を山札の底に置く。\n・相手は手札を1枚捨て札にする。'}</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" ht="48" x14ac:dyDescent="0.15">
-      <c r="A75" s="4" t="s">
-        <v>366</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="C75" s="4" t="s">
-        <v>377</v>
-      </c>
       <c r="E75" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F75" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H75" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G75" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I75" s="13"/>
       <c r="K75" s="13"/>
-      <c r="P75" s="5" t="s">
-        <v>558</v>
-      </c>
-      <c r="Q75" s="13"/>
-      <c r="R75" s="3" t="str">
-        <f>", '"&amp;A75&amp;"': {megami: '"&amp;B75&amp;"', name: '"&amp;C75&amp;"', ruby: '"&amp;D75&amp;"', baseType: '"&amp;VLOOKUP(E75,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F75,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G75&lt;&gt;"",", '"&amp; VLOOKUP(G75,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H75&lt;&gt;"", ", range: '"&amp;H75&amp;"'", "")&amp;IF(J75&lt;&gt;"", ", damage: '"&amp;J75&amp;"'", "")&amp;IF(L75&lt;&gt;"", ", capacity: '"&amp;L75&amp;"'", "")&amp;IF(M75&lt;&gt;"", ", cost: '"&amp;M75&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P75, CHAR(10), "\n")&amp;"'"&amp;IF(N75="○", ", sealable: true", "")&amp;IF(O75="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '10-kururu-o-n-4': {megami: 'kururu', name: 'とるねーど', ruby: '', baseType: 'normal', types: ['action', 'fullpower'], text: '----\n&lt;攻攻&gt; 相手のオーラに5ダメージを与える。 \n----\n&lt;付付&gt; 相手のライフに1ダメージを与える。'}</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" ht="60" x14ac:dyDescent="0.15">
+      <c r="M75" s="13"/>
+      <c r="R75" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="S75" s="13"/>
+      <c r="T75" s="3" t="str">
+        <f>", '"&amp;A75&amp;"': {megami: '"&amp;B75&amp;"'"&amp;IF(C75&lt;&gt;"", ", anotherID: '" &amp; C75 &amp; "', replace: '" &amp; D75 &amp; "'", "")&amp;", name: '"&amp;E75&amp;"', ruby: '"&amp;F75&amp;"', baseType: '"&amp;VLOOKUP(G75,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H75,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I75&lt;&gt;"",", '"&amp; VLOOKUP(I75,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J75&lt;&gt;"", ", range: '"&amp;J75&amp;"'", "")&amp;IF(L75&lt;&gt;"", ", damage: '"&amp;L75&amp;"'", "")&amp;IF(N75&lt;&gt;"", ", capacity: '"&amp;N75&amp;"'", "")&amp;IF(O75&lt;&gt;"", ", cost: '"&amp;O75&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R75, CHAR(10), "\n")&amp;"'"&amp;IF(P75="○", ", sealable: true", "")&amp;IF(Q75="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '10-kururu-o-n-1': {megami: 'kururu', name: 'えれきてる', ruby: '', baseType: 'normal', types: ['action'], text: '----\n&lt;行行行対対&gt; 相手のライフに1ダメージを与える。 '}</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" ht="48" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="C76" s="4" t="s">
-        <v>378</v>
-      </c>
       <c r="E76" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F76" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H76" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G76" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I76" s="13"/>
       <c r="K76" s="13"/>
-      <c r="P76" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="Q76" s="13"/>
-      <c r="R76" s="3" t="str">
-        <f>", '"&amp;A76&amp;"': {megami: '"&amp;B76&amp;"', name: '"&amp;C76&amp;"', ruby: '"&amp;D76&amp;"', baseType: '"&amp;VLOOKUP(E76,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F76,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G76&lt;&gt;"",", '"&amp; VLOOKUP(G76,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H76&lt;&gt;"", ", range: '"&amp;H76&amp;"'", "")&amp;IF(J76&lt;&gt;"", ", damage: '"&amp;J76&amp;"'", "")&amp;IF(L76&lt;&gt;"", ", capacity: '"&amp;L76&amp;"'", "")&amp;IF(M76&lt;&gt;"", ", cost: '"&amp;M76&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P76, CHAR(10), "\n")&amp;"'"&amp;IF(N76="○", ", sealable: true", "")&amp;IF(O76="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '10-kururu-o-n-5': {megami: 'kururu', name: 'りげいなー', ruby: '', baseType: 'normal', types: ['action', 'fullpower'], text: '----\n&lt;攻対&gt; あなたの使用済の切札を1枚選んでもよい。そのカードを消費を支払わずに使用する。(《全力》カードでもよい) \n----\nあなたの集中力は0になる。'}</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" ht="24" x14ac:dyDescent="0.15">
+      <c r="M76" s="13"/>
+      <c r="R76" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="S76" s="13"/>
+      <c r="T76" s="3" t="str">
+        <f>", '"&amp;A76&amp;"': {megami: '"&amp;B76&amp;"'"&amp;IF(C76&lt;&gt;"", ", anotherID: '" &amp; C76 &amp; "', replace: '" &amp; D76 &amp; "'", "")&amp;", name: '"&amp;E76&amp;"', ruby: '"&amp;F76&amp;"', baseType: '"&amp;VLOOKUP(G76,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H76,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I76&lt;&gt;"",", '"&amp; VLOOKUP(I76,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J76&lt;&gt;"", ", range: '"&amp;J76&amp;"'", "")&amp;IF(L76&lt;&gt;"", ", damage: '"&amp;L76&amp;"'", "")&amp;IF(N76&lt;&gt;"", ", capacity: '"&amp;N76&amp;"'", "")&amp;IF(O76&lt;&gt;"", ", cost: '"&amp;O76&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R76, CHAR(10), "\n")&amp;"'"&amp;IF(P76="○", ", sealable: true", "")&amp;IF(Q76="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '10-kururu-o-n-2': {megami: 'kururu', name: 'あくせらー', ruby: '', baseType: 'normal', types: ['action'], text: '----\n&lt;行行付&gt; あなたの手札から《全力》カードを1枚選び、そのカードを使用してもよい。 \n(フェイズは終了しない) '}</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" ht="72" x14ac:dyDescent="0.15">
       <c r="A77" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="C77" s="4" t="s">
-        <v>379</v>
-      </c>
       <c r="E77" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I77" s="13"/>
+        <v>376</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="K77" s="13"/>
-      <c r="L77" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="P77" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="Q77" s="13"/>
-      <c r="R77" s="3" t="str">
-        <f>", '"&amp;A77&amp;"': {megami: '"&amp;B77&amp;"', name: '"&amp;C77&amp;"', ruby: '"&amp;D77&amp;"', baseType: '"&amp;VLOOKUP(E77,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F77,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G77&lt;&gt;"",", '"&amp; VLOOKUP(G77,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H77&lt;&gt;"", ", range: '"&amp;H77&amp;"'", "")&amp;IF(J77&lt;&gt;"", ", damage: '"&amp;J77&amp;"'", "")&amp;IF(L77&lt;&gt;"", ", capacity: '"&amp;L77&amp;"'", "")&amp;IF(M77&lt;&gt;"", ", cost: '"&amp;M77&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P77, CHAR(10), "\n")&amp;"'"&amp;IF(N77="○", ", sealable: true", "")&amp;IF(O77="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '10-kururu-o-n-6': {megami: 'kururu', name: 'もじゅるー', ruby: '', baseType: 'normal', types: ['enhance'], capacity: '3', text: '【展開中】あなたが《行動》カードを使用した時、その解決後に基本動作を1回行ってもよい。'}</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" ht="60" x14ac:dyDescent="0.15">
+      <c r="M77" s="13"/>
+      <c r="R77" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="S77" s="13"/>
+      <c r="T77" s="3" t="str">
+        <f>", '"&amp;A77&amp;"': {megami: '"&amp;B77&amp;"'"&amp;IF(C77&lt;&gt;"", ", anotherID: '" &amp; C77 &amp; "', replace: '" &amp; D77 &amp; "'", "")&amp;", name: '"&amp;E77&amp;"', ruby: '"&amp;F77&amp;"', baseType: '"&amp;VLOOKUP(G77,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H77,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I77&lt;&gt;"",", '"&amp; VLOOKUP(I77,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J77&lt;&gt;"", ", range: '"&amp;J77&amp;"'", "")&amp;IF(L77&lt;&gt;"", ", damage: '"&amp;L77&amp;"'", "")&amp;IF(N77&lt;&gt;"", ", capacity: '"&amp;N77&amp;"'", "")&amp;IF(O77&lt;&gt;"", ", cost: '"&amp;O77&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R77, CHAR(10), "\n")&amp;"'"&amp;IF(P77="○", ", sealable: true", "")&amp;IF(Q77="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '10-kururu-o-n-3': {megami: 'kururu', name: 'くるるーん', ruby: '', baseType: 'normal', types: ['action', 'reaction'], text: '【常時】このカードは対応でしか使用できない。 \n以下から2つまでを選び、任意の順に行う。 \n(同じものを2回選ぶことはできない)\n・カードを1枚引く。\n・伏せ札1枚を山札の底に置く。\n・相手は手札を1枚捨て札にする。'}</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" ht="48" x14ac:dyDescent="0.15">
       <c r="A78" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="C78" s="4" t="s">
-        <v>380</v>
-      </c>
       <c r="E78" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I78" s="13"/>
+        <v>377</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="K78" s="13"/>
-      <c r="L78" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="P78" s="5" t="s">
-        <v>560</v>
-      </c>
-      <c r="Q78" s="13"/>
-      <c r="R78" s="3" t="str">
-        <f>", '"&amp;A78&amp;"': {megami: '"&amp;B78&amp;"', name: '"&amp;C78&amp;"', ruby: '"&amp;D78&amp;"', baseType: '"&amp;VLOOKUP(E78,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F78,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G78&lt;&gt;"",", '"&amp; VLOOKUP(G78,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H78&lt;&gt;"", ", range: '"&amp;H78&amp;"'", "")&amp;IF(J78&lt;&gt;"", ", damage: '"&amp;J78&amp;"'", "")&amp;IF(L78&lt;&gt;"", ", capacity: '"&amp;L78&amp;"'", "")&amp;IF(M78&lt;&gt;"", ", cost: '"&amp;M78&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P78, CHAR(10), "\n")&amp;"'"&amp;IF(N78="○", ", sealable: true", "")&amp;IF(O78="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '10-kururu-o-n-7': {megami: 'kururu', name: 'りふれくた', ruby: '', baseType: 'normal', types: ['enhance'], capacity: '0', text: '----\n&lt;攻対&gt; 【展開時】このカードの上に桜花結晶を4個ダストから置く。 \n----\n【展開中】各ターンにおける相手の2回目の《攻撃》は打ち消される。\n'}</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" ht="36" x14ac:dyDescent="0.15">
+      <c r="M78" s="13"/>
+      <c r="R78" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="S78" s="13"/>
+      <c r="T78" s="3" t="str">
+        <f>", '"&amp;A78&amp;"': {megami: '"&amp;B78&amp;"'"&amp;IF(C78&lt;&gt;"", ", anotherID: '" &amp; C78 &amp; "', replace: '" &amp; D78 &amp; "'", "")&amp;", name: '"&amp;E78&amp;"', ruby: '"&amp;F78&amp;"', baseType: '"&amp;VLOOKUP(G78,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H78,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I78&lt;&gt;"",", '"&amp; VLOOKUP(I78,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J78&lt;&gt;"", ", range: '"&amp;J78&amp;"'", "")&amp;IF(L78&lt;&gt;"", ", damage: '"&amp;L78&amp;"'", "")&amp;IF(N78&lt;&gt;"", ", capacity: '"&amp;N78&amp;"'", "")&amp;IF(O78&lt;&gt;"", ", cost: '"&amp;O78&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R78, CHAR(10), "\n")&amp;"'"&amp;IF(P78="○", ", sealable: true", "")&amp;IF(Q78="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '10-kururu-o-n-4': {megami: 'kururu', name: 'とるねーど', ruby: '', baseType: 'normal', types: ['action', 'fullpower'], text: '----\n&lt;攻攻&gt; 相手のオーラに5ダメージを与える。 \n----\n&lt;付付&gt; 相手のライフに1ダメージを与える。'}</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" ht="60" x14ac:dyDescent="0.15">
       <c r="A79" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="C79" s="4" t="s">
-        <v>381</v>
-      </c>
       <c r="E79" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F79" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H79" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G79" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I79" s="13"/>
+      <c r="I79" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="K79" s="13"/>
-      <c r="M79" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="P79" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q79" s="13"/>
-      <c r="R79" s="3" t="str">
-        <f>", '"&amp;A79&amp;"': {megami: '"&amp;B79&amp;"', name: '"&amp;C79&amp;"', ruby: '"&amp;D79&amp;"', baseType: '"&amp;VLOOKUP(E79,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F79,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G79&lt;&gt;"",", '"&amp; VLOOKUP(G79,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H79&lt;&gt;"", ", range: '"&amp;H79&amp;"'", "")&amp;IF(J79&lt;&gt;"", ", damage: '"&amp;J79&amp;"'", "")&amp;IF(L79&lt;&gt;"", ", capacity: '"&amp;L79&amp;"'", "")&amp;IF(M79&lt;&gt;"", ", cost: '"&amp;M79&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P79, CHAR(10), "\n")&amp;"'"&amp;IF(N79="○", ", sealable: true", "")&amp;IF(O79="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '10-kururu-o-s-1': {megami: 'kururu', name: 'どれーんでびる', ruby: '', baseType: 'special', types: ['action', 'reaction'], cost: '2', text: '相オーラ→自オーラ：1 \n【使用済】あなたの使用済の切札が未使用に戻った時、このカードを消費を支払わずに使用してもよい。'}</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" ht="84" x14ac:dyDescent="0.15">
+      <c r="M79" s="13"/>
+      <c r="R79" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="S79" s="13"/>
+      <c r="T79" s="3" t="str">
+        <f>", '"&amp;A79&amp;"': {megami: '"&amp;B79&amp;"'"&amp;IF(C79&lt;&gt;"", ", anotherID: '" &amp; C79 &amp; "', replace: '" &amp; D79 &amp; "'", "")&amp;", name: '"&amp;E79&amp;"', ruby: '"&amp;F79&amp;"', baseType: '"&amp;VLOOKUP(G79,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H79,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I79&lt;&gt;"",", '"&amp; VLOOKUP(I79,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J79&lt;&gt;"", ", range: '"&amp;J79&amp;"'", "")&amp;IF(L79&lt;&gt;"", ", damage: '"&amp;L79&amp;"'", "")&amp;IF(N79&lt;&gt;"", ", capacity: '"&amp;N79&amp;"'", "")&amp;IF(O79&lt;&gt;"", ", cost: '"&amp;O79&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R79, CHAR(10), "\n")&amp;"'"&amp;IF(P79="○", ", sealable: true", "")&amp;IF(Q79="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '10-kururu-o-n-5': {megami: 'kururu', name: 'りげいなー', ruby: '', baseType: 'normal', types: ['action', 'fullpower'], text: '----\n&lt;攻対&gt; あなたの使用済の切札を1枚選んでもよい。そのカードを消費を支払わずに使用する。(《全力》カードでもよい) \n----\nあなたの集中力は0になる。'}</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A80" s="4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="C80" s="4" t="s">
-        <v>382</v>
-      </c>
       <c r="E80" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I80" s="13"/>
+        <v>379</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="K80" s="13"/>
-      <c r="M80" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="P80" s="5" t="s">
-        <v>561</v>
-      </c>
-      <c r="Q80" s="13"/>
-      <c r="R80" s="3" t="str">
-        <f>", '"&amp;A80&amp;"': {megami: '"&amp;B80&amp;"', name: '"&amp;C80&amp;"', ruby: '"&amp;D80&amp;"', baseType: '"&amp;VLOOKUP(E80,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F80,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G80&lt;&gt;"",", '"&amp; VLOOKUP(G80,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H80&lt;&gt;"", ", range: '"&amp;H80&amp;"'", "")&amp;IF(J80&lt;&gt;"", ", damage: '"&amp;J80&amp;"'", "")&amp;IF(L80&lt;&gt;"", ", capacity: '"&amp;L80&amp;"'", "")&amp;IF(M80&lt;&gt;"", ", cost: '"&amp;M80&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P80, CHAR(10), "\n")&amp;"'"&amp;IF(N80="○", ", sealable: true", "")&amp;IF(O80="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '10-kururu-o-s-2': {megami: 'kururu', name: 'びっぐごーれむ', ruby: '', baseType: 'special', types: ['action'], cost: '4', text: '----\n&lt;対全全&gt; 【使用済】あなたの終了フェイズに相手のライフに1ダメージを与えてもよい。そうした場合、山札を再構成する。 \n----\n【使用済】あなたが《全力》カードを使用した時、その解決後に基本動作を1回行ってもよい。\n'}</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18" ht="60" x14ac:dyDescent="0.15">
+      <c r="M80" s="13"/>
+      <c r="N80" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="R80" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="S80" s="13"/>
+      <c r="T80" s="3" t="str">
+        <f>", '"&amp;A80&amp;"': {megami: '"&amp;B80&amp;"'"&amp;IF(C80&lt;&gt;"", ", anotherID: '" &amp; C80 &amp; "', replace: '" &amp; D80 &amp; "'", "")&amp;", name: '"&amp;E80&amp;"', ruby: '"&amp;F80&amp;"', baseType: '"&amp;VLOOKUP(G80,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H80,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I80&lt;&gt;"",", '"&amp; VLOOKUP(I80,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J80&lt;&gt;"", ", range: '"&amp;J80&amp;"'", "")&amp;IF(L80&lt;&gt;"", ", damage: '"&amp;L80&amp;"'", "")&amp;IF(N80&lt;&gt;"", ", capacity: '"&amp;N80&amp;"'", "")&amp;IF(O80&lt;&gt;"", ", cost: '"&amp;O80&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R80, CHAR(10), "\n")&amp;"'"&amp;IF(P80="○", ", sealable: true", "")&amp;IF(Q80="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '10-kururu-o-n-6': {megami: 'kururu', name: 'もじゅるー', ruby: '', baseType: 'normal', types: ['enhance'], capacity: '3', text: '【展開中】あなたが《行動》カードを使用した時、その解決後に基本動作を1回行ってもよい。'}</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" ht="60" x14ac:dyDescent="0.15">
       <c r="A81" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="C81" s="4" t="s">
-        <v>383</v>
-      </c>
       <c r="E81" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I81" s="13"/>
+        <v>380</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="K81" s="13"/>
-      <c r="M81" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="M81" s="13"/>
       <c r="N81" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="P81" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="Q81" s="13"/>
-      <c r="R81" s="3" t="str">
-        <f>", '"&amp;A81&amp;"': {megami: '"&amp;B81&amp;"', name: '"&amp;C81&amp;"', ruby: '"&amp;D81&amp;"', baseType: '"&amp;VLOOKUP(E81,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F81,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G81&lt;&gt;"",", '"&amp; VLOOKUP(G81,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H81&lt;&gt;"", ", range: '"&amp;H81&amp;"'", "")&amp;IF(J81&lt;&gt;"", ", damage: '"&amp;J81&amp;"'", "")&amp;IF(L81&lt;&gt;"", ", capacity: '"&amp;L81&amp;"'", "")&amp;IF(M81&lt;&gt;"", ", cost: '"&amp;M81&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P81, CHAR(10), "\n")&amp;"'"&amp;IF(N81="○", ", sealable: true", "")&amp;IF(O81="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '10-kururu-o-s-3': {megami: 'kururu', name: 'いんだすとりあ', ruby: '', baseType: 'special', types: ['action'], cost: '1', text: 'このカードにカードが封印されていないならば、あなたの手札から《付与》でないカードを1枚選び、そのカードをこのカードの下に表向きで封印してもよい。 \nあなたの追加札から「でゅーぷりぎあ」を山札の底に1枚置く(最大で合計3枚)。 \n----\n【即再起】あなたが山札を再構成する(再構成の後に未使用に戻る)。', sealable: true}</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18" ht="72" x14ac:dyDescent="0.15">
+        <v>221</v>
+      </c>
+      <c r="R81" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="S81" s="13"/>
+      <c r="T81" s="3" t="str">
+        <f>", '"&amp;A81&amp;"': {megami: '"&amp;B81&amp;"'"&amp;IF(C81&lt;&gt;"", ", anotherID: '" &amp; C81 &amp; "', replace: '" &amp; D81 &amp; "'", "")&amp;", name: '"&amp;E81&amp;"', ruby: '"&amp;F81&amp;"', baseType: '"&amp;VLOOKUP(G81,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H81,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I81&lt;&gt;"",", '"&amp; VLOOKUP(I81,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J81&lt;&gt;"", ", range: '"&amp;J81&amp;"'", "")&amp;IF(L81&lt;&gt;"", ", damage: '"&amp;L81&amp;"'", "")&amp;IF(N81&lt;&gt;"", ", capacity: '"&amp;N81&amp;"'", "")&amp;IF(O81&lt;&gt;"", ", cost: '"&amp;O81&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R81, CHAR(10), "\n")&amp;"'"&amp;IF(P81="○", ", sealable: true", "")&amp;IF(Q81="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '10-kururu-o-n-7': {megami: 'kururu', name: 'りふれくた', ruby: '', baseType: 'normal', types: ['enhance'], capacity: '0', text: '----\n&lt;攻対&gt; 【展開時】このカードの上に桜花結晶を4個ダストから置く。 \n----\n【展開中】各ターンにおける相手の2回目の《攻撃》は打ち消される。\n'}</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" ht="36" x14ac:dyDescent="0.15">
       <c r="A82" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="C82" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>565</v>
-      </c>
       <c r="E82" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="G82" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F82" s="4" t="s">
+      <c r="H82" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I82" s="13"/>
+      <c r="I82" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="K82" s="13"/>
-      <c r="M82" s="4" t="s">
-        <v>108</v>
-      </c>
+      <c r="M82" s="13"/>
       <c r="O82" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="P82" s="5" t="s">
-        <v>562</v>
-      </c>
-      <c r="Q82" s="13"/>
-      <c r="R82" s="3" t="str">
-        <f>", '"&amp;A82&amp;"': {megami: '"&amp;B82&amp;"', name: '"&amp;C82&amp;"', ruby: '"&amp;D82&amp;"', baseType: '"&amp;VLOOKUP(E82,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F82,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G82&lt;&gt;"",", '"&amp; VLOOKUP(G82,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H82&lt;&gt;"", ", range: '"&amp;H82&amp;"'", "")&amp;IF(J82&lt;&gt;"", ", damage: '"&amp;J82&amp;"'", "")&amp;IF(L82&lt;&gt;"", ", capacity: '"&amp;L82&amp;"'", "")&amp;IF(M82&lt;&gt;"", ", cost: '"&amp;M82&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P82, CHAR(10), "\n")&amp;"'"&amp;IF(N82="○", ", sealable: true", "")&amp;IF(O82="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '10-kururu-o-s-4': {megami: 'kururu', name: '神渉装置:枢式', ruby: 'かんしょうそうち　くるるしき', baseType: 'special', types: ['action'], cost: '3', text: '----\n&lt;攻攻行行行付付&gt; 相手の切札を見て、その中から1枚選び、それを使用済にしてもよい。\n----\n相手の使用済の切札1枚を選んでもよい。そのカードを消費を支払わずに使用する(《全力》カードでもよい)。その後、このカードを取り除く。', removable: true}</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18" ht="48" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+      <c r="R82" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="S82" s="13"/>
+      <c r="T82" s="3" t="str">
+        <f>", '"&amp;A82&amp;"': {megami: '"&amp;B82&amp;"'"&amp;IF(C82&lt;&gt;"", ", anotherID: '" &amp; C82 &amp; "', replace: '" &amp; D82 &amp; "'", "")&amp;", name: '"&amp;E82&amp;"', ruby: '"&amp;F82&amp;"', baseType: '"&amp;VLOOKUP(G82,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H82,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I82&lt;&gt;"",", '"&amp; VLOOKUP(I82,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J82&lt;&gt;"", ", range: '"&amp;J82&amp;"'", "")&amp;IF(L82&lt;&gt;"", ", damage: '"&amp;L82&amp;"'", "")&amp;IF(N82&lt;&gt;"", ", capacity: '"&amp;N82&amp;"'", "")&amp;IF(O82&lt;&gt;"", ", cost: '"&amp;O82&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R82, CHAR(10), "\n")&amp;"'"&amp;IF(P82="○", ", sealable: true", "")&amp;IF(Q82="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '10-kururu-o-s-1': {megami: 'kururu', name: 'どれーんでびる', ruby: '', baseType: 'special', types: ['action', 'reaction'], cost: '2', text: '相オーラ→自オーラ：1 \n【使用済】あなたの使用済の切札が未使用に戻った時、このカードを消費を支払わずに使用してもよい。'}</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" ht="84" x14ac:dyDescent="0.15">
       <c r="A83" s="4" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="E83" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K83" s="13"/>
+      <c r="M83" s="13"/>
+      <c r="O83" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="R83" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="S83" s="13"/>
+      <c r="T83" s="3" t="str">
+        <f>", '"&amp;A83&amp;"': {megami: '"&amp;B83&amp;"'"&amp;IF(C83&lt;&gt;"", ", anotherID: '" &amp; C83 &amp; "', replace: '" &amp; D83 &amp; "'", "")&amp;", name: '"&amp;E83&amp;"', ruby: '"&amp;F83&amp;"', baseType: '"&amp;VLOOKUP(G83,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H83,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I83&lt;&gt;"",", '"&amp; VLOOKUP(I83,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J83&lt;&gt;"", ", range: '"&amp;J83&amp;"'", "")&amp;IF(L83&lt;&gt;"", ", damage: '"&amp;L83&amp;"'", "")&amp;IF(N83&lt;&gt;"", ", capacity: '"&amp;N83&amp;"'", "")&amp;IF(O83&lt;&gt;"", ", cost: '"&amp;O83&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R83, CHAR(10), "\n")&amp;"'"&amp;IF(P83="○", ", sealable: true", "")&amp;IF(Q83="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '10-kururu-o-s-2': {megami: 'kururu', name: 'びっぐごーれむ', ruby: '', baseType: 'special', types: ['action'], cost: '4', text: '----\n&lt;対全全&gt; 【使用済】あなたの終了フェイズに相手のライフに1ダメージを与えてもよい。そうした場合、山札を再構成する。 \n----\n【使用済】あなたが《全力》カードを使用した時、その解決後に基本動作を1回行ってもよい。\n'}</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" ht="60" x14ac:dyDescent="0.15">
+      <c r="A84" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K84" s="13"/>
+      <c r="M84" s="13"/>
+      <c r="O84" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="P84" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="R84" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="S84" s="13"/>
+      <c r="T84" s="3" t="str">
+        <f>", '"&amp;A84&amp;"': {megami: '"&amp;B84&amp;"'"&amp;IF(C84&lt;&gt;"", ", anotherID: '" &amp; C84 &amp; "', replace: '" &amp; D84 &amp; "'", "")&amp;", name: '"&amp;E84&amp;"', ruby: '"&amp;F84&amp;"', baseType: '"&amp;VLOOKUP(G84,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H84,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I84&lt;&gt;"",", '"&amp; VLOOKUP(I84,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J84&lt;&gt;"", ", range: '"&amp;J84&amp;"'", "")&amp;IF(L84&lt;&gt;"", ", damage: '"&amp;L84&amp;"'", "")&amp;IF(N84&lt;&gt;"", ", capacity: '"&amp;N84&amp;"'", "")&amp;IF(O84&lt;&gt;"", ", cost: '"&amp;O84&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R84, CHAR(10), "\n")&amp;"'"&amp;IF(P84="○", ", sealable: true", "")&amp;IF(Q84="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '10-kururu-o-s-3': {megami: 'kururu', name: 'いんだすとりあ', ruby: '', baseType: 'special', types: ['action'], cost: '1', text: 'このカードにカードが封印されていないならば、あなたの手札から《付与》でないカードを1枚選び、そのカードをこのカードの下に表向きで封印してもよい。 \nあなたの追加札から「でゅーぷりぎあ」を山札の底に1枚置く(最大で合計3枚)。 \n----\n【即再起】あなたが山札を再構成する(再構成の後に未使用に戻る)。', sealable: true}</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" ht="72" x14ac:dyDescent="0.15">
+      <c r="A85" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K85" s="13"/>
+      <c r="M85" s="13"/>
+      <c r="O85" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q85" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="R85" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="S85" s="13"/>
+      <c r="T85" s="3" t="str">
+        <f>", '"&amp;A85&amp;"': {megami: '"&amp;B85&amp;"'"&amp;IF(C85&lt;&gt;"", ", anotherID: '" &amp; C85 &amp; "', replace: '" &amp; D85 &amp; "'", "")&amp;", name: '"&amp;E85&amp;"', ruby: '"&amp;F85&amp;"', baseType: '"&amp;VLOOKUP(G85,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H85,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I85&lt;&gt;"",", '"&amp; VLOOKUP(I85,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J85&lt;&gt;"", ", range: '"&amp;J85&amp;"'", "")&amp;IF(L85&lt;&gt;"", ", damage: '"&amp;L85&amp;"'", "")&amp;IF(N85&lt;&gt;"", ", capacity: '"&amp;N85&amp;"'", "")&amp;IF(O85&lt;&gt;"", ", cost: '"&amp;O85&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R85, CHAR(10), "\n")&amp;"'"&amp;IF(P85="○", ", sealable: true", "")&amp;IF(Q85="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '10-kururu-o-s-4': {megami: 'kururu', name: '神渉装置:枢式', ruby: 'かんしょうそうち　くるるしき', baseType: 'special', types: ['action'], cost: '3', text: '----\n&lt;攻攻行行行付付&gt; 相手の切札を見て、その中から1枚選び、それを使用済にしてもよい。\n----\n相手の使用済の切札1枚を選んでもよい。そのカードを消費を支払わずに使用する(《全力》カードでもよい)。その後、このカードを取り除く。', removable: true}</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" ht="48" x14ac:dyDescent="0.15">
+      <c r="A86" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="E86" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="E83" s="4" t="s">
+      <c r="G86" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="F83" s="4" t="s">
+      <c r="H86" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="I83" s="13"/>
-      <c r="K83" s="13"/>
-      <c r="P83" s="5" t="s">
+      <c r="K86" s="13"/>
+      <c r="M86" s="13"/>
+      <c r="R86" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="Q83" s="13"/>
-      <c r="R83" s="3" t="str">
-        <f>", '"&amp;A83&amp;"': {megami: '"&amp;B83&amp;"', name: '"&amp;C83&amp;"', ruby: '"&amp;D83&amp;"', baseType: '"&amp;VLOOKUP(E83,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F83,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G83&lt;&gt;"",", '"&amp; VLOOKUP(G83,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H83&lt;&gt;"", ", range: '"&amp;H83&amp;"'", "")&amp;IF(J83&lt;&gt;"", ", damage: '"&amp;J83&amp;"'", "")&amp;IF(L83&lt;&gt;"", ", capacity: '"&amp;L83&amp;"'", "")&amp;IF(M83&lt;&gt;"", ", cost: '"&amp;M83&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P83, CHAR(10), "\n")&amp;"'"&amp;IF(N83="○", ", sealable: true", "")&amp;IF(O83="○", ", removable: true", "")&amp;"}"</f>
+      <c r="S86" s="13"/>
+      <c r="T86" s="3" t="str">
+        <f>", '"&amp;A86&amp;"': {megami: '"&amp;B86&amp;"'"&amp;IF(C86&lt;&gt;"", ", anotherID: '" &amp; C86 &amp; "', replace: '" &amp; D86 &amp; "'", "")&amp;", name: '"&amp;E86&amp;"', ruby: '"&amp;F86&amp;"', baseType: '"&amp;VLOOKUP(G86,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H86,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I86&lt;&gt;"",", '"&amp; VLOOKUP(I86,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J86&lt;&gt;"", ", range: '"&amp;J86&amp;"'", "")&amp;IF(L86&lt;&gt;"", ", damage: '"&amp;L86&amp;"'", "")&amp;IF(N86&lt;&gt;"", ", capacity: '"&amp;N86&amp;"'", "")&amp;IF(O86&lt;&gt;"", ", cost: '"&amp;O86&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R86, CHAR(10), "\n")&amp;"'"&amp;IF(P86="○", ", sealable: true", "")&amp;IF(Q86="○", ", removable: true", "")&amp;"}"</f>
         <v>, '10-kururu-o-s-3-ex1': {megami: 'kururu', name: 'でゅーぷりぎあ', ruby: '', baseType: 'extra', types: ['variable'], text: '(カードタイプが不定のカードは使用できない) \n【常時】このカードはあなたの「いんだすとりあ」に封印されたカードの複製となる。但し、名前は変更されない。 \n(「いんだすとりあ」が未使用なら複製とならないので、使用できない)'}</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A84" s="4" t="s">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A87" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J87" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="K87" s="13"/>
+      <c r="L87" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="M87" s="13"/>
+      <c r="R87" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="S87" s="13"/>
+      <c r="T87" s="3" t="str">
+        <f>", '"&amp;A87&amp;"': {megami: '"&amp;B87&amp;"'"&amp;IF(C87&lt;&gt;"", ", anotherID: '" &amp; C87 &amp; "', replace: '" &amp; D87 &amp; "'", "")&amp;", name: '"&amp;E87&amp;"', ruby: '"&amp;F87&amp;"', baseType: '"&amp;VLOOKUP(G87,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H87,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I87&lt;&gt;"",", '"&amp; VLOOKUP(I87,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J87&lt;&gt;"", ", range: '"&amp;J87&amp;"'", "")&amp;IF(L87&lt;&gt;"", ", damage: '"&amp;L87&amp;"'", "")&amp;IF(N87&lt;&gt;"", ", capacity: '"&amp;N87&amp;"'", "")&amp;IF(O87&lt;&gt;"", ", cost: '"&amp;O87&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R87, CHAR(10), "\n")&amp;"'"&amp;IF(P87="○", ", sealable: true", "")&amp;IF(Q87="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '11-thallya-o-n-1': {megami: 'thallya', name: 'Burning Steam', ruby: 'バーニングスチーム', baseType: 'normal', types: ['attack'], range: '3-5', damage: '2/1', text: '【攻撃後】騎動を行う。'}</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+      <c r="A88" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="C84" s="4" t="s">
+      <c r="B88" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="E88" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="F88" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="E84" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F84" s="4" t="s">
+      <c r="G88" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H88" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H84" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="I84" s="13"/>
-      <c r="J84" s="10" t="s">
-        <v>499</v>
-      </c>
-      <c r="K84" s="13"/>
-      <c r="P84" s="4" t="s">
+      <c r="J88" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="K88" s="13"/>
+      <c r="L88" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="M88" s="13"/>
+      <c r="R88" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="Q84" s="13"/>
-      <c r="R84" s="3" t="str">
-        <f>", '"&amp;A84&amp;"': {megami: '"&amp;B84&amp;"', name: '"&amp;C84&amp;"', ruby: '"&amp;D84&amp;"', baseType: '"&amp;VLOOKUP(E84,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F84,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G84&lt;&gt;"",", '"&amp; VLOOKUP(G84,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H84&lt;&gt;"", ", range: '"&amp;H84&amp;"'", "")&amp;IF(J84&lt;&gt;"", ", damage: '"&amp;J84&amp;"'", "")&amp;IF(L84&lt;&gt;"", ", capacity: '"&amp;L84&amp;"'", "")&amp;IF(M84&lt;&gt;"", ", cost: '"&amp;M84&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P84, CHAR(10), "\n")&amp;"'"&amp;IF(N84="○", ", sealable: true", "")&amp;IF(O84="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '11-thallya-o-n-1': {megami: 'thallya', name: 'Burning Steam', ruby: 'バーニングスチーム', baseType: 'normal', types: ['attack'], range: '3-5', damage: '2/1', text: '【攻撃後】騎動を行う。'}</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18" ht="24" x14ac:dyDescent="0.15">
-      <c r="A85" s="4" t="s">
+      <c r="S88" s="13"/>
+      <c r="T88" s="3" t="str">
+        <f>", '"&amp;A88&amp;"': {megami: '"&amp;B88&amp;"'"&amp;IF(C88&lt;&gt;"", ", anotherID: '" &amp; C88 &amp; "', replace: '" &amp; D88 &amp; "'", "")&amp;", name: '"&amp;E88&amp;"', ruby: '"&amp;F88&amp;"', baseType: '"&amp;VLOOKUP(G88,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H88,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I88&lt;&gt;"",", '"&amp; VLOOKUP(I88,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J88&lt;&gt;"", ", range: '"&amp;J88&amp;"'", "")&amp;IF(L88&lt;&gt;"", ", damage: '"&amp;L88&amp;"'", "")&amp;IF(N88&lt;&gt;"", ", capacity: '"&amp;N88&amp;"'", "")&amp;IF(O88&lt;&gt;"", ", cost: '"&amp;O88&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R88, CHAR(10), "\n")&amp;"'"&amp;IF(P88="○", ", sealable: true", "")&amp;IF(Q88="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '11-thallya-o-n-2': {megami: 'thallya', name: 'Waving Edge', ruby: 'ウェービングエッジ', baseType: 'normal', types: ['attack'], range: '1-3', damage: '3/1', text: '燃焼 \n【攻撃後】騎動を行う。'}</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+      <c r="A89" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="C85" s="4" t="s">
+      <c r="B89" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="E89" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="F89" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="E85" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F85" s="4" t="s">
+      <c r="G89" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H89" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H85" s="4" t="s">
+      <c r="J89" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K89" s="13"/>
+      <c r="L89" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="M89" s="13"/>
+      <c r="R89" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="S89" s="13"/>
+      <c r="T89" s="3" t="str">
+        <f>", '"&amp;A89&amp;"': {megami: '"&amp;B89&amp;"'"&amp;IF(C89&lt;&gt;"", ", anotherID: '" &amp; C89 &amp; "', replace: '" &amp; D89 &amp; "'", "")&amp;", name: '"&amp;E89&amp;"', ruby: '"&amp;F89&amp;"', baseType: '"&amp;VLOOKUP(G89,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H89,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I89&lt;&gt;"",", '"&amp; VLOOKUP(I89,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J89&lt;&gt;"", ", range: '"&amp;J89&amp;"'", "")&amp;IF(L89&lt;&gt;"", ", damage: '"&amp;L89&amp;"'", "")&amp;IF(N89&lt;&gt;"", ", capacity: '"&amp;N89&amp;"'", "")&amp;IF(O89&lt;&gt;"", ", cost: '"&amp;O89&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R89, CHAR(10), "\n")&amp;"'"&amp;IF(P89="○", ", sealable: true", "")&amp;IF(Q89="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '11-thallya-o-n-3': {megami: 'thallya', name: 'Shield Charge', ruby: 'シールドチャージ', baseType: 'normal', types: ['attack'], range: '1', damage: '3/2', text: '燃焼 \n【常時】この《攻撃》のダメージにより移動する桜花結晶は、ダストやフレアでなく間合に動かす。'}</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A90" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J90" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="K90" s="13"/>
+      <c r="L90" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="M90" s="13"/>
+      <c r="R90" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="S90" s="13"/>
+      <c r="T90" s="3" t="str">
+        <f>", '"&amp;A90&amp;"': {megami: '"&amp;B90&amp;"'"&amp;IF(C90&lt;&gt;"", ", anotherID: '" &amp; C90 &amp; "', replace: '" &amp; D90 &amp; "'", "")&amp;", name: '"&amp;E90&amp;"', ruby: '"&amp;F90&amp;"', baseType: '"&amp;VLOOKUP(G90,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H90,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I90&lt;&gt;"",", '"&amp; VLOOKUP(I90,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J90&lt;&gt;"", ", range: '"&amp;J90&amp;"'", "")&amp;IF(L90&lt;&gt;"", ", damage: '"&amp;L90&amp;"'", "")&amp;IF(N90&lt;&gt;"", ", capacity: '"&amp;N90&amp;"'", "")&amp;IF(O90&lt;&gt;"", ", cost: '"&amp;O90&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R90, CHAR(10), "\n")&amp;"'"&amp;IF(P90="○", ", sealable: true", "")&amp;IF(Q90="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '11-thallya-o-n-4': {megami: 'thallya', name: 'Steam Cannon', ruby: 'スチームカノン', baseType: 'normal', types: ['attack', 'fullpower'], range: '2-8', damage: '3/3', text: '燃焼'}</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+      <c r="A91" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K91" s="13"/>
+      <c r="L91" s="10"/>
+      <c r="M91" s="13"/>
+      <c r="R91" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="S91" s="13"/>
+      <c r="T91" s="3" t="str">
+        <f>", '"&amp;A91&amp;"': {megami: '"&amp;B91&amp;"'"&amp;IF(C91&lt;&gt;"", ", anotherID: '" &amp; C91 &amp; "', replace: '" &amp; D91 &amp; "'", "")&amp;", name: '"&amp;E91&amp;"', ruby: '"&amp;F91&amp;"', baseType: '"&amp;VLOOKUP(G91,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H91,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I91&lt;&gt;"",", '"&amp; VLOOKUP(I91,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J91&lt;&gt;"", ", range: '"&amp;J91&amp;"'", "")&amp;IF(L91&lt;&gt;"", ", damage: '"&amp;L91&amp;"'", "")&amp;IF(N91&lt;&gt;"", ", capacity: '"&amp;N91&amp;"'", "")&amp;IF(O91&lt;&gt;"", ", cost: '"&amp;O91&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R91, CHAR(10), "\n")&amp;"'"&amp;IF(P91="○", ", sealable: true", "")&amp;IF(Q91="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '11-thallya-o-n-5': {megami: 'thallya', name: 'Stunt', ruby: 'スタント', baseType: 'normal', types: ['action'], text: '相手を畏縮させる。 \n自オーラ→自フレア：2'}</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" ht="48" x14ac:dyDescent="0.15">
+      <c r="A92" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K92" s="13"/>
+      <c r="L92" s="10"/>
+      <c r="M92" s="13"/>
+      <c r="R92" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="S92" s="13"/>
+      <c r="T92" s="3" t="str">
+        <f>", '"&amp;A92&amp;"': {megami: '"&amp;B92&amp;"'"&amp;IF(C92&lt;&gt;"", ", anotherID: '" &amp; C92 &amp; "', replace: '" &amp; D92 &amp; "'", "")&amp;", name: '"&amp;E92&amp;"', ruby: '"&amp;F92&amp;"', baseType: '"&amp;VLOOKUP(G92,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H92,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I92&lt;&gt;"",", '"&amp; VLOOKUP(I92,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J92&lt;&gt;"", ", range: '"&amp;J92&amp;"'", "")&amp;IF(L92&lt;&gt;"", ", damage: '"&amp;L92&amp;"'", "")&amp;IF(N92&lt;&gt;"", ", capacity: '"&amp;N92&amp;"'", "")&amp;IF(O92&lt;&gt;"", ", cost: '"&amp;O92&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R92, CHAR(10), "\n")&amp;"'"&amp;IF(P92="○", ", sealable: true", "")&amp;IF(Q92="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '11-thallya-o-n-6': {megami: 'thallya', name: 'Roaring', ruby: 'ロアリング', baseType: 'normal', types: ['action'], text: 'コストとして、あなたのマシンにある造花結晶を2つ燃焼済にしても良い。そうした場合、あなたは集中力を1得て、相手は集中力を1失い、相手を畏縮させる。 \nコストとして、集中力を2支払ってもよい。そうした場合、あなたの燃焼済の造花結晶を3つ回復する。'}</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+      <c r="A93" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K93" s="13"/>
+      <c r="L93" s="10"/>
+      <c r="M93" s="13"/>
+      <c r="R93" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="S93" s="13"/>
+      <c r="T93" s="3" t="str">
+        <f>", '"&amp;A93&amp;"': {megami: '"&amp;B93&amp;"'"&amp;IF(C93&lt;&gt;"", ", anotherID: '" &amp; C93 &amp; "', replace: '" &amp; D93 &amp; "'", "")&amp;", name: '"&amp;E93&amp;"', ruby: '"&amp;F93&amp;"', baseType: '"&amp;VLOOKUP(G93,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H93,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I93&lt;&gt;"",", '"&amp; VLOOKUP(I93,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J93&lt;&gt;"", ", range: '"&amp;J93&amp;"'", "")&amp;IF(L93&lt;&gt;"", ", damage: '"&amp;L93&amp;"'", "")&amp;IF(N93&lt;&gt;"", ", capacity: '"&amp;N93&amp;"'", "")&amp;IF(O93&lt;&gt;"", ", cost: '"&amp;O93&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R93, CHAR(10), "\n")&amp;"'"&amp;IF(P93="○", ", sealable: true", "")&amp;IF(Q93="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '11-thallya-o-n-7': {megami: 'thallya', name: 'Turbo Switch', ruby: 'ターボスイッチ', baseType: 'normal', types: ['action', 'reaction'], text: '燃焼 \n騎動を行う。'}</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A94" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J94" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="K94" s="13"/>
+      <c r="L94" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="M94" s="13"/>
+      <c r="O94" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R94" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="S94" s="13"/>
+      <c r="T94" s="3" t="str">
+        <f>", '"&amp;A94&amp;"': {megami: '"&amp;B94&amp;"'"&amp;IF(C94&lt;&gt;"", ", anotherID: '" &amp; C94 &amp; "', replace: '" &amp; D94 &amp; "'", "")&amp;", name: '"&amp;E94&amp;"', ruby: '"&amp;F94&amp;"', baseType: '"&amp;VLOOKUP(G94,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H94,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I94&lt;&gt;"",", '"&amp; VLOOKUP(I94,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J94&lt;&gt;"", ", range: '"&amp;J94&amp;"'", "")&amp;IF(L94&lt;&gt;"", ", damage: '"&amp;L94&amp;"'", "")&amp;IF(N94&lt;&gt;"", ", capacity: '"&amp;N94&amp;"'", "")&amp;IF(O94&lt;&gt;"", ", cost: '"&amp;O94&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R94, CHAR(10), "\n")&amp;"'"&amp;IF(P94="○", ", sealable: true", "")&amp;IF(Q94="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '11-thallya-o-s-1': {megami: 'thallya', name: 'Alpha-Edge', ruby: 'アルファエッジ', baseType: 'special', types: ['attack'], range: '1,3,5,7', damage: '1/1', cost: '1', text: '【即再起】あなたが騎動により間合を変化させる。'}</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+      <c r="A95" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K95" s="13"/>
+      <c r="L95" s="10"/>
+      <c r="M95" s="13"/>
+      <c r="O95" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="R95" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="S95" s="13"/>
+      <c r="T95" s="3" t="str">
+        <f>", '"&amp;A95&amp;"': {megami: '"&amp;B95&amp;"'"&amp;IF(C95&lt;&gt;"", ", anotherID: '" &amp; C95 &amp; "', replace: '" &amp; D95 &amp; "'", "")&amp;", name: '"&amp;E95&amp;"', ruby: '"&amp;F95&amp;"', baseType: '"&amp;VLOOKUP(G95,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H95,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I95&lt;&gt;"",", '"&amp; VLOOKUP(I95,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J95&lt;&gt;"", ", range: '"&amp;J95&amp;"'", "")&amp;IF(L95&lt;&gt;"", ", damage: '"&amp;L95&amp;"'", "")&amp;IF(N95&lt;&gt;"", ", capacity: '"&amp;N95&amp;"'", "")&amp;IF(O95&lt;&gt;"", ", cost: '"&amp;O95&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R95, CHAR(10), "\n")&amp;"'"&amp;IF(P95="○", ", sealable: true", "")&amp;IF(Q95="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '11-thallya-o-s-2': {megami: 'thallya', name: 'Omega-Burst', ruby: 'オメガバースト', baseType: 'special', types: ['action', 'reaction'], cost: '4', text: 'あなたの燃焼済の造花結晶を全て回復する。 \n対応した、オーラへのダメージが「-」またはX以下の《攻撃》を打ち消す。Xはこのカードにより回復した造花結晶の個数に等しい。'}</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I96" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K96" s="13"/>
+      <c r="L96" s="10"/>
+      <c r="M96" s="13"/>
+      <c r="O96" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="R96" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="S96" s="13"/>
+      <c r="T96" s="3" t="str">
+        <f>", '"&amp;A96&amp;"': {megami: '"&amp;B96&amp;"'"&amp;IF(C96&lt;&gt;"", ", anotherID: '" &amp; C96 &amp; "', replace: '" &amp; D96 &amp; "'", "")&amp;", name: '"&amp;E96&amp;"', ruby: '"&amp;F96&amp;"', baseType: '"&amp;VLOOKUP(G96,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H96,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I96&lt;&gt;"",", '"&amp; VLOOKUP(I96,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J96&lt;&gt;"", ", range: '"&amp;J96&amp;"'", "")&amp;IF(L96&lt;&gt;"", ", damage: '"&amp;L96&amp;"'", "")&amp;IF(N96&lt;&gt;"", ", capacity: '"&amp;N96&amp;"'", "")&amp;IF(O96&lt;&gt;"", ", cost: '"&amp;O96&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R96, CHAR(10), "\n")&amp;"'"&amp;IF(P96="○", ", sealable: true", "")&amp;IF(Q96="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '11-thallya-o-s-4': {megami: 'thallya', name: 'Julia\'s BlackBox', ruby: 'ジュリアズ　ブラックボックス', baseType: 'special', types: ['action', 'fullpower'], cost: '0', text: 'あなたのマシンに造花結晶がないならば、あなたのマシンはTransFormし、あなたの燃焼済の造花結晶を2つ回復する。そうでない場合、このカードを未使用に戻す。'}</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A97" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J97" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="K97" s="13"/>
+      <c r="L97" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="M97" s="13"/>
+      <c r="S97" s="13"/>
+      <c r="T97" s="3" t="str">
+        <f>", '"&amp;A97&amp;"': {megami: '"&amp;B97&amp;"'"&amp;IF(C97&lt;&gt;"", ", anotherID: '" &amp; C97 &amp; "', replace: '" &amp; D97 &amp; "'", "")&amp;", name: '"&amp;E97&amp;"', ruby: '"&amp;F97&amp;"', baseType: '"&amp;VLOOKUP(G97,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H97,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I97&lt;&gt;"",", '"&amp; VLOOKUP(I97,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J97&lt;&gt;"", ", range: '"&amp;J97&amp;"'", "")&amp;IF(L97&lt;&gt;"", ", damage: '"&amp;L97&amp;"'", "")&amp;IF(N97&lt;&gt;"", ", capacity: '"&amp;N97&amp;"'", "")&amp;IF(O97&lt;&gt;"", ", cost: '"&amp;O97&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R97, CHAR(10), "\n")&amp;"'"&amp;IF(P97="○", ", sealable: true", "")&amp;IF(Q97="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-raira-o-n-1': {megami: 'raira', name: '獣爪', ruby: 'じゅうそう', baseType: 'normal', types: ['attack'], range: '1-2', damage: '3/1', text: ''}</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A98" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J98" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K98" s="13"/>
+      <c r="L98" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="M98" s="13"/>
+      <c r="R98" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="S98" s="13"/>
+      <c r="T98" s="3" t="str">
+        <f>", '"&amp;A98&amp;"': {megami: '"&amp;B98&amp;"'"&amp;IF(C98&lt;&gt;"", ", anotherID: '" &amp; C98 &amp; "', replace: '" &amp; D98 &amp; "'", "")&amp;", name: '"&amp;E98&amp;"', ruby: '"&amp;F98&amp;"', baseType: '"&amp;VLOOKUP(G98,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H98,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I98&lt;&gt;"",", '"&amp; VLOOKUP(I98,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J98&lt;&gt;"", ", range: '"&amp;J98&amp;"'", "")&amp;IF(L98&lt;&gt;"", ", damage: '"&amp;L98&amp;"'", "")&amp;IF(N98&lt;&gt;"", ", capacity: '"&amp;N98&amp;"'", "")&amp;IF(O98&lt;&gt;"", ", cost: '"&amp;O98&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R98, CHAR(10), "\n")&amp;"'"&amp;IF(P98="○", ", sealable: true", "")&amp;IF(Q98="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-raira-o-n-2': {megami: 'raira', name: '風雷撃', ruby: 'ふうらいげき', baseType: 'normal', types: ['attack'], range: '2', damage: 'X/2', text: '【常時】Xは風神ゲージと雷神ゲージのうち、小さい方の値である。'}</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+      <c r="A99" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J99" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="K99" s="13"/>
+      <c r="L99" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="M99" s="13"/>
+      <c r="R99" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="S99" s="13"/>
+      <c r="T99" s="3" t="str">
+        <f>", '"&amp;A99&amp;"': {megami: '"&amp;B99&amp;"'"&amp;IF(C99&lt;&gt;"", ", anotherID: '" &amp; C99 &amp; "', replace: '" &amp; D99 &amp; "'", "")&amp;", name: '"&amp;E99&amp;"', ruby: '"&amp;F99&amp;"', baseType: '"&amp;VLOOKUP(G99,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H99,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I99&lt;&gt;"",", '"&amp; VLOOKUP(I99,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J99&lt;&gt;"", ", range: '"&amp;J99&amp;"'", "")&amp;IF(L99&lt;&gt;"", ", damage: '"&amp;L99&amp;"'", "")&amp;IF(N99&lt;&gt;"", ", capacity: '"&amp;N99&amp;"'", "")&amp;IF(O99&lt;&gt;"", ", cost: '"&amp;O99&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R99, CHAR(10), "\n")&amp;"'"&amp;IF(P99="○", ", sealable: true", "")&amp;IF(Q99="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-raira-o-n-3': {megami: 'raira', name: '流転爪', ruby: 'るてんそう', baseType: 'normal', types: ['attack'], range: '1-2', damage: '2/1', text: '【攻撃後】あなたの捨て札にある《攻撃》カード1枚を選び、山札の一番上に置いてもよい。'}</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A100" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K100" s="13"/>
+      <c r="M100" s="13"/>
+      <c r="R100" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="S100" s="13"/>
+      <c r="T100" s="3" t="str">
+        <f>", '"&amp;A100&amp;"': {megami: '"&amp;B100&amp;"'"&amp;IF(C100&lt;&gt;"", ", anotherID: '" &amp; C100 &amp; "', replace: '" &amp; D100 &amp; "'", "")&amp;", name: '"&amp;E100&amp;"', ruby: '"&amp;F100&amp;"', baseType: '"&amp;VLOOKUP(G100,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H100,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I100&lt;&gt;"",", '"&amp; VLOOKUP(I100,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J100&lt;&gt;"", ", range: '"&amp;J100&amp;"'", "")&amp;IF(L100&lt;&gt;"", ", damage: '"&amp;L100&amp;"'", "")&amp;IF(N100&lt;&gt;"", ", capacity: '"&amp;N100&amp;"'", "")&amp;IF(O100&lt;&gt;"", ", cost: '"&amp;O100&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R100, CHAR(10), "\n")&amp;"'"&amp;IF(P100="○", ", sealable: true", "")&amp;IF(Q100="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-raira-o-n-4': {megami: 'raira', name: '風走り', ruby: 'かぜばしり', baseType: 'normal', types: ['action'], text: '現在の間合が3以上ならば、間合→ダスト：2'}</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+      <c r="A101" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K101" s="13"/>
+      <c r="M101" s="13"/>
+      <c r="R101" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="S101" s="13"/>
+      <c r="T101" s="3" t="str">
+        <f>", '"&amp;A101&amp;"': {megami: '"&amp;B101&amp;"'"&amp;IF(C101&lt;&gt;"", ", anotherID: '" &amp; C101 &amp; "', replace: '" &amp; D101 &amp; "'", "")&amp;", name: '"&amp;E101&amp;"', ruby: '"&amp;F101&amp;"', baseType: '"&amp;VLOOKUP(G101,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H101,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I101&lt;&gt;"",", '"&amp; VLOOKUP(I101,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J101&lt;&gt;"", ", range: '"&amp;J101&amp;"'", "")&amp;IF(L101&lt;&gt;"", ", damage: '"&amp;L101&amp;"'", "")&amp;IF(N101&lt;&gt;"", ", capacity: '"&amp;N101&amp;"'", "")&amp;IF(O101&lt;&gt;"", ", cost: '"&amp;O101&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R101, CHAR(10), "\n")&amp;"'"&amp;IF(P101="○", ", sealable: true", "")&amp;IF(Q101="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-raira-o-n-5': {megami: 'raira', name: '風雷の知恵', ruby: 'ふうらいのちえ', baseType: 'normal', types: ['action'], text: '風神ゲージと雷神ゲージの合計が4以上ならば、あなたの捨て札にある他のメガミのカード1枚を選び、山札の一番上に置いてもよい。 \n風神ゲージか雷神ゲージを1上げる。'}</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+      <c r="A102" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I102" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K102" s="13"/>
+      <c r="M102" s="13"/>
+      <c r="R102" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="S102" s="13"/>
+      <c r="T102" s="3" t="str">
+        <f>", '"&amp;A102&amp;"': {megami: '"&amp;B102&amp;"'"&amp;IF(C102&lt;&gt;"", ", anotherID: '" &amp; C102 &amp; "', replace: '" &amp; D102 &amp; "'", "")&amp;", name: '"&amp;E102&amp;"', ruby: '"&amp;F102&amp;"', baseType: '"&amp;VLOOKUP(G102,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H102,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I102&lt;&gt;"",", '"&amp; VLOOKUP(I102,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J102&lt;&gt;"", ", range: '"&amp;J102&amp;"'", "")&amp;IF(L102&lt;&gt;"", ", damage: '"&amp;L102&amp;"'", "")&amp;IF(N102&lt;&gt;"", ", capacity: '"&amp;N102&amp;"'", "")&amp;IF(O102&lt;&gt;"", ", cost: '"&amp;O102&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R102, CHAR(10), "\n")&amp;"'"&amp;IF(P102="○", ", sealable: true", "")&amp;IF(Q102="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-raira-o-n-6': {megami: 'raira', name: '呼び声', ruby: 'よびごえ', baseType: 'normal', types: ['action', 'fullpower'], text: '相手を畏縮させ、以下から1つを選ぶ。\n・風神ゲージと雷神ゲージを1ずつ上げる。\n・手札を全て伏せ札にし、雷神ゲージを2倍にする。'}</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A103" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I103" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K103" s="13"/>
+      <c r="M103" s="13"/>
+      <c r="R103" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="S103" s="13"/>
+      <c r="T103" s="3" t="str">
+        <f>", '"&amp;A103&amp;"': {megami: '"&amp;B103&amp;"'"&amp;IF(C103&lt;&gt;"", ", anotherID: '" &amp; C103 &amp; "', replace: '" &amp; D103 &amp; "'", "")&amp;", name: '"&amp;E103&amp;"', ruby: '"&amp;F103&amp;"', baseType: '"&amp;VLOOKUP(G103,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H103,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I103&lt;&gt;"",", '"&amp; VLOOKUP(I103,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J103&lt;&gt;"", ", range: '"&amp;J103&amp;"'", "")&amp;IF(L103&lt;&gt;"", ", damage: '"&amp;L103&amp;"'", "")&amp;IF(N103&lt;&gt;"", ", capacity: '"&amp;N103&amp;"'", "")&amp;IF(O103&lt;&gt;"", ", cost: '"&amp;O103&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R103, CHAR(10), "\n")&amp;"'"&amp;IF(P103="○", ", sealable: true", "")&amp;IF(Q103="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-raira-o-n-7': {megami: 'raira', name: '空駆け', ruby: 'そらかけ', baseType: 'normal', types: ['action', 'fullpower'], text: '間合⇔ダスト：3'}</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+      <c r="A104" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J104" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="K104" s="13"/>
+      <c r="L104" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="M104" s="13"/>
+      <c r="O104" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="R104" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="S104" s="13"/>
+      <c r="T104" s="3" t="str">
+        <f>", '"&amp;A104&amp;"': {megami: '"&amp;B104&amp;"'"&amp;IF(C104&lt;&gt;"", ", anotherID: '" &amp; C104 &amp; "', replace: '" &amp; D104 &amp; "'", "")&amp;", name: '"&amp;E104&amp;"', ruby: '"&amp;F104&amp;"', baseType: '"&amp;VLOOKUP(G104,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H104,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I104&lt;&gt;"",", '"&amp; VLOOKUP(I104,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J104&lt;&gt;"", ", range: '"&amp;J104&amp;"'", "")&amp;IF(L104&lt;&gt;"", ", damage: '"&amp;L104&amp;"'", "")&amp;IF(N104&lt;&gt;"", ", capacity: '"&amp;N104&amp;"'", "")&amp;IF(O104&lt;&gt;"", ", cost: '"&amp;O104&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R104, CHAR(10), "\n")&amp;"'"&amp;IF(P104="○", ", sealable: true", "")&amp;IF(Q104="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-raira-o-s-1': {megami: 'raira', name: '雷螺風神爪', ruby: 'らいらふうじんそう', baseType: 'special', types: ['attack'], range: '1-2', damage: '2/2', cost: '3', text: '【常時】あなたの雷神ゲージが4以上ならば、この《攻撃》は+1/+0となる。 \n----\n【再起】あなたの風神ゲージが4以上である。'}</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A105" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I105" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K105" s="13"/>
+      <c r="M105" s="13"/>
+      <c r="O105" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="R105" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="S105" s="13"/>
+      <c r="T105" s="3" t="str">
+        <f>", '"&amp;A105&amp;"': {megami: '"&amp;B105&amp;"'"&amp;IF(C105&lt;&gt;"", ", anotherID: '" &amp; C105 &amp; "', replace: '" &amp; D105 &amp; "'", "")&amp;", name: '"&amp;E105&amp;"', ruby: '"&amp;F105&amp;"', baseType: '"&amp;VLOOKUP(G105,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H105,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I105&lt;&gt;"",", '"&amp; VLOOKUP(I105,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J105&lt;&gt;"", ", range: '"&amp;J105&amp;"'", "")&amp;IF(L105&lt;&gt;"", ", damage: '"&amp;L105&amp;"'", "")&amp;IF(N105&lt;&gt;"", ", capacity: '"&amp;N105&amp;"'", "")&amp;IF(O105&lt;&gt;"", ", cost: '"&amp;O105&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R105, CHAR(10), "\n")&amp;"'"&amp;IF(P105="○", ", sealable: true", "")&amp;IF(Q105="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-raira-o-s-2': {megami: 'raira', name: '天雷召喚陣', ruby: 'てんらいしょうかんじん', baseType: 'special', types: ['action', 'fullpower'], cost: '6', text: '攻撃『適正距離0-10、1/1』をX回行う。Xは雷神ゲージの半分(切り上げ)に等しい。'}</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" ht="60" x14ac:dyDescent="0.15">
+      <c r="A106" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K106" s="13"/>
+      <c r="M106" s="13"/>
+      <c r="O106" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q106" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="R106" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="S106" s="13"/>
+      <c r="T106" s="3" t="str">
+        <f>", '"&amp;A106&amp;"': {megami: '"&amp;B106&amp;"'"&amp;IF(C106&lt;&gt;"", ", anotherID: '" &amp; C106 &amp; "', replace: '" &amp; D106 &amp; "'", "")&amp;", name: '"&amp;E106&amp;"', ruby: '"&amp;F106&amp;"', baseType: '"&amp;VLOOKUP(G106,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H106,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I106&lt;&gt;"",", '"&amp; VLOOKUP(I106,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J106&lt;&gt;"", ", range: '"&amp;J106&amp;"'", "")&amp;IF(L106&lt;&gt;"", ", damage: '"&amp;L106&amp;"'", "")&amp;IF(N106&lt;&gt;"", ", capacity: '"&amp;N106&amp;"'", "")&amp;IF(O106&lt;&gt;"", ", cost: '"&amp;O106&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R106, CHAR(10), "\n")&amp;"'"&amp;IF(P106="○", ", sealable: true", "")&amp;IF(Q106="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-raira-o-s-3': {megami: 'raira', name: '風魔招来孔', ruby: 'ふうましょうらいこう', baseType: 'special', types: ['action'], cost: '0', text: '現在の風神ゲージに応じて、以下の切札を追加札から未使用で得る(条件を満たしたものは全て得る)。その後、このカードを取り除く。 \n3以上……風魔旋風 \n6以上……風魔纏廻 \n10以上……風魔天狗道', removable: true}</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+      <c r="A107" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K107" s="13"/>
+      <c r="M107" s="13"/>
+      <c r="N107" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="O107" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="R107" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="S107" s="13"/>
+      <c r="T107" s="3" t="str">
+        <f>", '"&amp;A107&amp;"': {megami: '"&amp;B107&amp;"'"&amp;IF(C107&lt;&gt;"", ", anotherID: '" &amp; C107 &amp; "', replace: '" &amp; D107 &amp; "'", "")&amp;", name: '"&amp;E107&amp;"', ruby: '"&amp;F107&amp;"', baseType: '"&amp;VLOOKUP(G107,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H107,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I107&lt;&gt;"",", '"&amp; VLOOKUP(I107,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J107&lt;&gt;"", ", range: '"&amp;J107&amp;"'", "")&amp;IF(L107&lt;&gt;"", ", damage: '"&amp;L107&amp;"'", "")&amp;IF(N107&lt;&gt;"", ", capacity: '"&amp;N107&amp;"'", "")&amp;IF(O107&lt;&gt;"", ", cost: '"&amp;O107&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R107, CHAR(10), "\n")&amp;"'"&amp;IF(P107="○", ", sealable: true", "")&amp;IF(Q107="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-raira-o-s-4': {megami: 'raira', name: '円環輪廻旋', ruby: 'えんかんりんかいせん', baseType: 'special', types: ['enhance', 'fullpower'], capacity: '5', cost: '3', text: '【展開中】あなたが《付与》でない通常札を使用した場合、それを捨て札にする代わりに山札の底に置く。'}</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A108" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J108" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="I85" s="13"/>
-      <c r="J85" s="10" t="s">
-        <v>497</v>
-      </c>
-      <c r="K85" s="13"/>
-      <c r="P85" s="5" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q85" s="13"/>
-      <c r="R85" s="3" t="str">
-        <f>", '"&amp;A85&amp;"': {megami: '"&amp;B85&amp;"', name: '"&amp;C85&amp;"', ruby: '"&amp;D85&amp;"', baseType: '"&amp;VLOOKUP(E85,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F85,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G85&lt;&gt;"",", '"&amp; VLOOKUP(G85,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H85&lt;&gt;"", ", range: '"&amp;H85&amp;"'", "")&amp;IF(J85&lt;&gt;"", ", damage: '"&amp;J85&amp;"'", "")&amp;IF(L85&lt;&gt;"", ", capacity: '"&amp;L85&amp;"'", "")&amp;IF(M85&lt;&gt;"", ", cost: '"&amp;M85&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P85, CHAR(10), "\n")&amp;"'"&amp;IF(N85="○", ", sealable: true", "")&amp;IF(O85="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '11-thallya-o-n-2': {megami: 'thallya', name: 'Waving Edge', ruby: 'ウェービングエッジ', baseType: 'normal', types: ['attack'], range: '1-3', damage: '3/1', text: '燃焼 \n【攻撃後】騎動を行う。'}</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18" ht="36" x14ac:dyDescent="0.15">
-      <c r="A86" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>502</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F86" s="4" t="s">
+      <c r="K108" s="13"/>
+      <c r="L108" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="M108" s="13"/>
+      <c r="O108" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R108" s="5"/>
+      <c r="S108" s="13"/>
+      <c r="T108" s="3" t="str">
+        <f>", '"&amp;A108&amp;"': {megami: '"&amp;B108&amp;"'"&amp;IF(C108&lt;&gt;"", ", anotherID: '" &amp; C108 &amp; "', replace: '" &amp; D108 &amp; "'", "")&amp;", name: '"&amp;E108&amp;"', ruby: '"&amp;F108&amp;"', baseType: '"&amp;VLOOKUP(G108,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H108,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I108&lt;&gt;"",", '"&amp; VLOOKUP(I108,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J108&lt;&gt;"", ", range: '"&amp;J108&amp;"'", "")&amp;IF(L108&lt;&gt;"", ", damage: '"&amp;L108&amp;"'", "")&amp;IF(N108&lt;&gt;"", ", capacity: '"&amp;N108&amp;"'", "")&amp;IF(O108&lt;&gt;"", ", cost: '"&amp;O108&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R108, CHAR(10), "\n")&amp;"'"&amp;IF(P108="○", ", sealable: true", "")&amp;IF(Q108="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-raira-o-s-3-ex1': {megami: 'raira', name: '風魔旋風', ruby: 'ふうませんぷう', baseType: 'extra', types: ['attack'], range: '1-3', damage: '1/2', cost: '1', text: ''}</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+      <c r="A109" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K109" s="13"/>
+      <c r="M109" s="13"/>
+      <c r="O109" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R109" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="S109" s="13"/>
+      <c r="T109" s="3" t="str">
+        <f>", '"&amp;A109&amp;"': {megami: '"&amp;B109&amp;"'"&amp;IF(C109&lt;&gt;"", ", anotherID: '" &amp; C109 &amp; "', replace: '" &amp; D109 &amp; "'", "")&amp;", name: '"&amp;E109&amp;"', ruby: '"&amp;F109&amp;"', baseType: '"&amp;VLOOKUP(G109,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H109,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I109&lt;&gt;"",", '"&amp; VLOOKUP(I109,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J109&lt;&gt;"", ", range: '"&amp;J109&amp;"'", "")&amp;IF(L109&lt;&gt;"", ", damage: '"&amp;L109&amp;"'", "")&amp;IF(N109&lt;&gt;"", ", capacity: '"&amp;N109&amp;"'", "")&amp;IF(O109&lt;&gt;"", ", cost: '"&amp;O109&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R109, CHAR(10), "\n")&amp;"'"&amp;IF(P109="○", ", sealable: true", "")&amp;IF(Q109="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-raira-o-s-3-ex2': {megami: 'raira', name: '風魔纏廻', ruby: 'ふうまてんかい', baseType: 'extra', types: ['action'], cost: '1', text: 'あなたの使用済の切札を1枚選び、それを未使用に戻す。 \n【使用済】あなたの切札の消費は1少なくなる(0未満にはならない)。'}</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+      <c r="A110" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I110" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K110" s="13"/>
+      <c r="M110" s="13"/>
+      <c r="O110" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q110" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="R110" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="S110" s="13"/>
+      <c r="T110" s="3" t="str">
+        <f>", '"&amp;A110&amp;"': {megami: '"&amp;B110&amp;"'"&amp;IF(C110&lt;&gt;"", ", anotherID: '" &amp; C110 &amp; "', replace: '" &amp; D110 &amp; "'", "")&amp;", name: '"&amp;E110&amp;"', ruby: '"&amp;F110&amp;"', baseType: '"&amp;VLOOKUP(G110,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H110,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I110&lt;&gt;"",", '"&amp; VLOOKUP(I110,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J110&lt;&gt;"", ", range: '"&amp;J110&amp;"'", "")&amp;IF(L110&lt;&gt;"", ", damage: '"&amp;L110&amp;"'", "")&amp;IF(N110&lt;&gt;"", ", capacity: '"&amp;N110&amp;"'", "")&amp;IF(O110&lt;&gt;"", ", cost: '"&amp;O110&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R110, CHAR(10), "\n")&amp;"'"&amp;IF(P110="○", ", sealable: true", "")&amp;IF(Q110="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-raira-o-s-3-ex3': {megami: 'raira', name: '風魔天狗道', ruby: 'ふうまてんぐどう', baseType: 'extra', types: ['action', 'reaction'], cost: '4', text: 'ダスト⇔間合：5 \nあなたはこの効果で本来より少ない個数の桜花結晶を動かしてもよい。その後、このカードを取り除く。', removable: true}</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+      <c r="A111" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H111" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H86" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I86" s="13"/>
-      <c r="J86" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="K86" s="13"/>
-      <c r="P86" s="5" t="s">
-        <v>526</v>
-      </c>
-      <c r="Q86" s="13"/>
-      <c r="R86" s="3" t="str">
-        <f>", '"&amp;A86&amp;"': {megami: '"&amp;B86&amp;"', name: '"&amp;C86&amp;"', ruby: '"&amp;D86&amp;"', baseType: '"&amp;VLOOKUP(E86,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F86,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G86&lt;&gt;"",", '"&amp; VLOOKUP(G86,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H86&lt;&gt;"", ", range: '"&amp;H86&amp;"'", "")&amp;IF(J86&lt;&gt;"", ", damage: '"&amp;J86&amp;"'", "")&amp;IF(L86&lt;&gt;"", ", capacity: '"&amp;L86&amp;"'", "")&amp;IF(M86&lt;&gt;"", ", cost: '"&amp;M86&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P86, CHAR(10), "\n")&amp;"'"&amp;IF(N86="○", ", sealable: true", "")&amp;IF(O86="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '11-thallya-o-n-3': {megami: 'thallya', name: 'Shield Charge', ruby: 'シールドチャージ', baseType: 'normal', types: ['attack'], range: '1', damage: '3/2', text: '燃焼 \n【常時】この《攻撃》のダメージにより移動する桜花結晶は、ダストやフレアでなく間合に動かす。'}</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A87" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>503</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>520</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F87" s="4" t="s">
+      <c r="J111" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="K111" s="13"/>
+      <c r="L111" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="M111" s="13"/>
+      <c r="R111" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="S111" s="13"/>
+      <c r="T111" s="3" t="str">
+        <f>", '"&amp;A111&amp;"': {megami: '"&amp;B111&amp;"'"&amp;IF(C111&lt;&gt;"", ", anotherID: '" &amp; C111 &amp; "', replace: '" &amp; D111 &amp; "'", "")&amp;", name: '"&amp;E111&amp;"', ruby: '"&amp;F111&amp;"', baseType: '"&amp;VLOOKUP(G111,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H111,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I111&lt;&gt;"",", '"&amp; VLOOKUP(I111,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J111&lt;&gt;"", ", range: '"&amp;J111&amp;"'", "")&amp;IF(L111&lt;&gt;"", ", damage: '"&amp;L111&amp;"'", "")&amp;IF(N111&lt;&gt;"", ", capacity: '"&amp;N111&amp;"'", "")&amp;IF(O111&lt;&gt;"", ", cost: '"&amp;O111&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R111, CHAR(10), "\n")&amp;"'"&amp;IF(P111="○", ", sealable: true", "")&amp;IF(Q111="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-utsuro-o-n-1': {megami: 'utsuro', name: '円月', ruby: 'えんげつ', baseType: 'normal', types: ['attack'], range: '6-7', damage: '2/2', text: '【常時】灰塵-ダストが12以上ならば、この《攻撃》のオーラへのダメージは「-」になる。'}</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+      <c r="A112" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H112" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G87" s="4" t="s">
+      <c r="J112" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="K112" s="13"/>
+      <c r="L112" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="M112" s="13"/>
+      <c r="R112" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="S112" s="13"/>
+      <c r="T112" s="3" t="str">
+        <f>", '"&amp;A112&amp;"': {megami: '"&amp;B112&amp;"'"&amp;IF(C112&lt;&gt;"", ", anotherID: '" &amp; C112 &amp; "', replace: '" &amp; D112 &amp; "'", "")&amp;", name: '"&amp;E112&amp;"', ruby: '"&amp;F112&amp;"', baseType: '"&amp;VLOOKUP(G112,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H112,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I112&lt;&gt;"",", '"&amp; VLOOKUP(I112,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J112&lt;&gt;"", ", range: '"&amp;J112&amp;"'", "")&amp;IF(L112&lt;&gt;"", ", damage: '"&amp;L112&amp;"'", "")&amp;IF(N112&lt;&gt;"", ", capacity: '"&amp;N112&amp;"'", "")&amp;IF(O112&lt;&gt;"", ", cost: '"&amp;O112&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R112, CHAR(10), "\n")&amp;"'"&amp;IF(P112="○", ", sealable: true", "")&amp;IF(Q112="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-utsuro-o-n-2': {megami: 'utsuro', name: '黒き波動', ruby: 'くろきはどう', baseType: 'normal', types: ['attack'], range: '4-7', damage: '1/2', text: '【攻撃後】相手が&lt;オーラ&gt;へのダメージを選んだならば、相手の手札を見てその中から1枚を選び、それを捨て札にする。'}</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" ht="48" x14ac:dyDescent="0.15">
+      <c r="A113" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J113" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="K113" s="13"/>
+      <c r="L113" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="M113" s="13"/>
+      <c r="R113" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="S113" s="13"/>
+      <c r="T113" s="3" t="str">
+        <f>", '"&amp;A113&amp;"': {megami: '"&amp;B113&amp;"'"&amp;IF(C113&lt;&gt;"", ", anotherID: '" &amp; C113 &amp; "', replace: '" &amp; D113 &amp; "'", "")&amp;", name: '"&amp;E113&amp;"', ruby: '"&amp;F113&amp;"', baseType: '"&amp;VLOOKUP(G113,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H113,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I113&lt;&gt;"",", '"&amp; VLOOKUP(I113,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J113&lt;&gt;"", ", range: '"&amp;J113&amp;"'", "")&amp;IF(L113&lt;&gt;"", ", damage: '"&amp;L113&amp;"'", "")&amp;IF(N113&lt;&gt;"", ", capacity: '"&amp;N113&amp;"'", "")&amp;IF(O113&lt;&gt;"", ", cost: '"&amp;O113&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R113, CHAR(10), "\n")&amp;"'"&amp;IF(P113="○", ", sealable: true", "")&amp;IF(Q113="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-utsuro-o-n-3': {megami: 'utsuro', name: '刈取り', ruby: 'かりとり', baseType: 'normal', types: ['attack'], range: '4', damage: '-/0', text: '【攻撃後】相手は相手の&lt;オーラ&gt;、&lt;フレア&gt;、&lt;ライフ&gt;のいずれかから桜花結晶を合計2つ&lt;ダスト&gt;へ移動させる。 \n【攻撃後】相手の付与札を1枚選んでもよい。そうした場合、その付与札の上から桜花結晶を2つ&lt;ダスト&gt;へ送る。'}</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" ht="36" x14ac:dyDescent="0.15">
+      <c r="A114" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K114" s="13"/>
+      <c r="M114" s="13"/>
+      <c r="R114" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="S114" s="13"/>
+      <c r="T114" s="3" t="str">
+        <f>", '"&amp;A114&amp;"': {megami: '"&amp;B114&amp;"'"&amp;IF(C114&lt;&gt;"", ", anotherID: '" &amp; C114 &amp; "', replace: '" &amp; D114 &amp; "'", "")&amp;", name: '"&amp;E114&amp;"', ruby: '"&amp;F114&amp;"', baseType: '"&amp;VLOOKUP(G114,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H114,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I114&lt;&gt;"",", '"&amp; VLOOKUP(I114,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J114&lt;&gt;"", ", range: '"&amp;J114&amp;"'", "")&amp;IF(L114&lt;&gt;"", ", damage: '"&amp;L114&amp;"'", "")&amp;IF(N114&lt;&gt;"", ", capacity: '"&amp;N114&amp;"'", "")&amp;IF(O114&lt;&gt;"", ", cost: '"&amp;O114&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R114, CHAR(10), "\n")&amp;"'"&amp;IF(P114="○", ", sealable: true", "")&amp;IF(Q114="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-utsuro-o-n-4': {megami: 'utsuro', name: '重圧', ruby: 'じゅうあつ', baseType: 'normal', types: ['action'], text: '相手は相手の&lt;オーラ&gt;、&lt;フレア&gt;、&lt;ライフ&gt;のいずれかから桜花結晶を1つ&lt;ダスト&gt;へ移動させる。 \n灰塵-ダストが12以上ならば、相手を畏縮させる。'}</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A115" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K115" s="13"/>
+      <c r="M115" s="13"/>
+      <c r="R115" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="S115" s="13"/>
+      <c r="T115" s="3" t="str">
+        <f>", '"&amp;A115&amp;"': {megami: '"&amp;B115&amp;"'"&amp;IF(C115&lt;&gt;"", ", anotherID: '" &amp; C115 &amp; "', replace: '" &amp; D115 &amp; "'", "")&amp;", name: '"&amp;E115&amp;"', ruby: '"&amp;F115&amp;"', baseType: '"&amp;VLOOKUP(G115,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H115,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I115&lt;&gt;"",", '"&amp; VLOOKUP(I115,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J115&lt;&gt;"", ", range: '"&amp;J115&amp;"'", "")&amp;IF(L115&lt;&gt;"", ", damage: '"&amp;L115&amp;"'", "")&amp;IF(N115&lt;&gt;"", ", capacity: '"&amp;N115&amp;"'", "")&amp;IF(O115&lt;&gt;"", ", cost: '"&amp;O115&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R115, CHAR(10), "\n")&amp;"'"&amp;IF(P115="○", ", sealable: true", "")&amp;IF(Q115="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-utsuro-o-n-5': {megami: 'utsuro', name: '影の翅', ruby: 'かげのはね', baseType: 'normal', types: ['action'], text: 'このターン中、現在の&lt;間合&gt;は2増加し、達人の間合は2大きくなる。'}</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A116" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H116" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I116" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K116" s="13"/>
+      <c r="M116" s="13"/>
+      <c r="R116" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="S116" s="13"/>
+      <c r="T116" s="3" t="str">
+        <f>", '"&amp;A116&amp;"': {megami: '"&amp;B116&amp;"'"&amp;IF(C116&lt;&gt;"", ", anotherID: '" &amp; C116 &amp; "', replace: '" &amp; D116 &amp; "'", "")&amp;", name: '"&amp;E116&amp;"', ruby: '"&amp;F116&amp;"', baseType: '"&amp;VLOOKUP(G116,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H116,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I116&lt;&gt;"",", '"&amp; VLOOKUP(I116,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J116&lt;&gt;"", ", range: '"&amp;J116&amp;"'", "")&amp;IF(L116&lt;&gt;"", ", damage: '"&amp;L116&amp;"'", "")&amp;IF(N116&lt;&gt;"", ", capacity: '"&amp;N116&amp;"'", "")&amp;IF(O116&lt;&gt;"", ", cost: '"&amp;O116&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R116, CHAR(10), "\n")&amp;"'"&amp;IF(P116="○", ", sealable: true", "")&amp;IF(Q116="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-utsuro-o-n-6': {megami: 'utsuro', name: '影の壁', ruby: 'かげのかべ', baseType: 'normal', types: ['action', 'reaction'], text: '対応した《攻撃》は+0/-1となる。'}</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" ht="36" x14ac:dyDescent="0.15">
+      <c r="A117" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I117" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H87" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="I87" s="13"/>
-      <c r="J87" s="10" t="s">
-        <v>522</v>
-      </c>
-      <c r="K87" s="13"/>
-      <c r="P87" s="4" t="s">
-        <v>527</v>
-      </c>
-      <c r="Q87" s="13"/>
-      <c r="R87" s="3" t="str">
-        <f>", '"&amp;A87&amp;"': {megami: '"&amp;B87&amp;"', name: '"&amp;C87&amp;"', ruby: '"&amp;D87&amp;"', baseType: '"&amp;VLOOKUP(E87,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F87,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G87&lt;&gt;"",", '"&amp; VLOOKUP(G87,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H87&lt;&gt;"", ", range: '"&amp;H87&amp;"'", "")&amp;IF(J87&lt;&gt;"", ", damage: '"&amp;J87&amp;"'", "")&amp;IF(L87&lt;&gt;"", ", capacity: '"&amp;L87&amp;"'", "")&amp;IF(M87&lt;&gt;"", ", cost: '"&amp;M87&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P87, CHAR(10), "\n")&amp;"'"&amp;IF(N87="○", ", sealable: true", "")&amp;IF(O87="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '11-thallya-o-n-4': {megami: 'thallya', name: 'Steam Cannon', ruby: 'スチームカノン', baseType: 'normal', types: ['attack', 'fullpower'], range: '2-8', damage: '3/3', text: '燃焼'}</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18" ht="24" x14ac:dyDescent="0.15">
-      <c r="A88" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F88" s="4" t="s">
+      <c r="K117" s="13"/>
+      <c r="M117" s="13"/>
+      <c r="N117" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R117" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="S117" s="13"/>
+      <c r="T117" s="3" t="str">
+        <f>", '"&amp;A117&amp;"': {megami: '"&amp;B117&amp;"'"&amp;IF(C117&lt;&gt;"", ", anotherID: '" &amp; C117 &amp; "', replace: '" &amp; D117 &amp; "'", "")&amp;", name: '"&amp;E117&amp;"', ruby: '"&amp;F117&amp;"', baseType: '"&amp;VLOOKUP(G117,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H117,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I117&lt;&gt;"",", '"&amp; VLOOKUP(I117,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J117&lt;&gt;"", ", range: '"&amp;J117&amp;"'", "")&amp;IF(L117&lt;&gt;"", ", damage: '"&amp;L117&amp;"'", "")&amp;IF(N117&lt;&gt;"", ", capacity: '"&amp;N117&amp;"'", "")&amp;IF(O117&lt;&gt;"", ", cost: '"&amp;O117&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R117, CHAR(10), "\n")&amp;"'"&amp;IF(P117="○", ", sealable: true", "")&amp;IF(Q117="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-utsuro-o-n-7': {megami: 'utsuro', name: '遺灰呪', ruby: 'いかいじゅ', baseType: 'normal', types: ['enhance', 'fullpower'], capacity: '2', text: '【展開時】相オーラ→ダスト：3 \n【破棄時】灰塵-&lt;ダスト&gt;が12以上ならば以下を行う。 \nダスト→相オーラ：2、相ライフ→ダスト：1'}</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" ht="36" x14ac:dyDescent="0.15">
+      <c r="A118" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H118" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I88" s="13"/>
-      <c r="J88" s="10"/>
-      <c r="K88" s="13"/>
-      <c r="P88" s="5" t="s">
-        <v>528</v>
-      </c>
-      <c r="Q88" s="13"/>
-      <c r="R88" s="3" t="str">
-        <f>", '"&amp;A88&amp;"': {megami: '"&amp;B88&amp;"', name: '"&amp;C88&amp;"', ruby: '"&amp;D88&amp;"', baseType: '"&amp;VLOOKUP(E88,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F88,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G88&lt;&gt;"",", '"&amp; VLOOKUP(G88,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H88&lt;&gt;"", ", range: '"&amp;H88&amp;"'", "")&amp;IF(J88&lt;&gt;"", ", damage: '"&amp;J88&amp;"'", "")&amp;IF(L88&lt;&gt;"", ", capacity: '"&amp;L88&amp;"'", "")&amp;IF(M88&lt;&gt;"", ", cost: '"&amp;M88&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P88, CHAR(10), "\n")&amp;"'"&amp;IF(N88="○", ", sealable: true", "")&amp;IF(O88="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '11-thallya-o-n-5': {megami: 'thallya', name: 'Stunt', ruby: 'スタント', baseType: 'normal', types: ['action'], text: '相手を畏縮させる。 \n自オーラ→自フレア：2'}</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18" ht="48" x14ac:dyDescent="0.15">
-      <c r="A89" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>515</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F89" s="4" t="s">
+      <c r="K118" s="13"/>
+      <c r="M118" s="13"/>
+      <c r="O118" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q118" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="R118" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="S118" s="13"/>
+      <c r="T118" s="3" t="str">
+        <f>", '"&amp;A118&amp;"': {megami: '"&amp;B118&amp;"'"&amp;IF(C118&lt;&gt;"", ", anotherID: '" &amp; C118 &amp; "', replace: '" &amp; D118 &amp; "'", "")&amp;", name: '"&amp;E118&amp;"', ruby: '"&amp;F118&amp;"', baseType: '"&amp;VLOOKUP(G118,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H118,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I118&lt;&gt;"",", '"&amp; VLOOKUP(I118,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J118&lt;&gt;"", ", range: '"&amp;J118&amp;"'", "")&amp;IF(L118&lt;&gt;"", ", damage: '"&amp;L118&amp;"'", "")&amp;IF(N118&lt;&gt;"", ", capacity: '"&amp;N118&amp;"'", "")&amp;IF(O118&lt;&gt;"", ", cost: '"&amp;O118&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R118, CHAR(10), "\n")&amp;"'"&amp;IF(P118="○", ", sealable: true", "")&amp;IF(Q118="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-utsuro-o-s-1': {megami: 'utsuro', name: '灰滅', ruby: 'ヴィミラニエ', baseType: 'special', types: ['action'], cost: '24', text: '【常時】このカードの消費はダストの数だけ少なくなる。 \n相ライフ→ダスト：3 \nこのカードを取り除く。', removable: true}</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21" ht="24" x14ac:dyDescent="0.15">
+      <c r="A119" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H119" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I119" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K119" s="13"/>
+      <c r="M119" s="13"/>
+      <c r="N119" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="O119" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="R119" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="S119" s="13"/>
+      <c r="T119" s="3" t="str">
+        <f>", '"&amp;A119&amp;"': {megami: '"&amp;B119&amp;"'"&amp;IF(C119&lt;&gt;"", ", anotherID: '" &amp; C119 &amp; "', replace: '" &amp; D119 &amp; "'", "")&amp;", name: '"&amp;E119&amp;"', ruby: '"&amp;F119&amp;"', baseType: '"&amp;VLOOKUP(G119,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H119,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I119&lt;&gt;"",", '"&amp; VLOOKUP(I119,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J119&lt;&gt;"", ", range: '"&amp;J119&amp;"'", "")&amp;IF(L119&lt;&gt;"", ", damage: '"&amp;L119&amp;"'", "")&amp;IF(N119&lt;&gt;"", ", capacity: '"&amp;N119&amp;"'", "")&amp;IF(O119&lt;&gt;"", ", cost: '"&amp;O119&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R119, CHAR(10), "\n")&amp;"'"&amp;IF(P119="○", ", sealable: true", "")&amp;IF(Q119="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-utsuro-o-s-2': {megami: 'utsuro', name: '虚偽', ruby: 'ローシェ', baseType: 'special', types: ['enhance', 'reaction'], capacity: '3', cost: '3', text: '【展開中】相手の《攻撃》は距離縮小(近1)を得て、【攻撃後】効果が解決されない。 \n【展開中】相手の《付与》カードは納が1減少し、【破棄時】効果が解決されない。'}</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" ht="60" x14ac:dyDescent="0.15">
+      <c r="A120" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H120" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K120" s="13"/>
+      <c r="M120" s="13"/>
+      <c r="N120" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="O120" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R120" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="S120" s="13"/>
+      <c r="T120" s="3" t="str">
+        <f>", '"&amp;A120&amp;"': {megami: '"&amp;B120&amp;"'"&amp;IF(C120&lt;&gt;"", ", anotherID: '" &amp; C120 &amp; "', replace: '" &amp; D120 &amp; "'", "")&amp;", name: '"&amp;E120&amp;"', ruby: '"&amp;F120&amp;"', baseType: '"&amp;VLOOKUP(G120,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H120,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I120&lt;&gt;"",", '"&amp; VLOOKUP(I120,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J120&lt;&gt;"", ", range: '"&amp;J120&amp;"'", "")&amp;IF(L120&lt;&gt;"", ", damage: '"&amp;L120&amp;"'", "")&amp;IF(N120&lt;&gt;"", ", capacity: '"&amp;N120&amp;"'", "")&amp;IF(O120&lt;&gt;"", ", cost: '"&amp;O120&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R120, CHAR(10), "\n")&amp;"'"&amp;IF(P120="○", ", sealable: true", "")&amp;IF(Q120="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-utsuro-o-s-3': {megami: 'utsuro', name: '終末', ruby: 'カニェッツ', baseType: 'special', types: ['enhance'], capacity: '3', cost: '2', text: '【展開中】あなたに1以上のダメージを与えた《攻撃》の解決後に、このカードの上の桜花結晶を全てをダストに送る。 \n【破棄時】現在のフェイズを終了する。 \n----\n【再起】灰塵-ダストが12以上である。'}</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" ht="36" x14ac:dyDescent="0.15">
+      <c r="A121" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H121" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I89" s="13"/>
-      <c r="J89" s="10"/>
-      <c r="K89" s="13"/>
-      <c r="P89" s="5" t="s">
-        <v>529</v>
-      </c>
-      <c r="Q89" s="13"/>
-      <c r="R89" s="3" t="str">
-        <f>", '"&amp;A89&amp;"': {megami: '"&amp;B89&amp;"', name: '"&amp;C89&amp;"', ruby: '"&amp;D89&amp;"', baseType: '"&amp;VLOOKUP(E89,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F89,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G89&lt;&gt;"",", '"&amp; VLOOKUP(G89,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H89&lt;&gt;"", ", range: '"&amp;H89&amp;"'", "")&amp;IF(J89&lt;&gt;"", ", damage: '"&amp;J89&amp;"'", "")&amp;IF(L89&lt;&gt;"", ", capacity: '"&amp;L89&amp;"'", "")&amp;IF(M89&lt;&gt;"", ", cost: '"&amp;M89&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P89, CHAR(10), "\n")&amp;"'"&amp;IF(N89="○", ", sealable: true", "")&amp;IF(O89="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '11-thallya-o-n-6': {megami: 'thallya', name: 'Roaring', ruby: 'ロアリング', baseType: 'normal', types: ['action'], text: 'コストとして、あなたのマシンにある造花結晶を2つ燃焼済にしても良い。そうした場合、あなたは集中力を1得て、相手は集中力を1失い、相手を畏縮させる。 \nコストとして、集中力を2支払ってもよい。そうした場合、あなたの燃焼済の造花結晶を3つ回復する。'}</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18" ht="24" x14ac:dyDescent="0.15">
-      <c r="A90" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>516</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I90" s="13"/>
-      <c r="J90" s="10"/>
-      <c r="K90" s="13"/>
-      <c r="P90" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="Q90" s="13"/>
-      <c r="R90" s="3" t="str">
-        <f>", '"&amp;A90&amp;"': {megami: '"&amp;B90&amp;"', name: '"&amp;C90&amp;"', ruby: '"&amp;D90&amp;"', baseType: '"&amp;VLOOKUP(E90,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F90,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G90&lt;&gt;"",", '"&amp; VLOOKUP(G90,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H90&lt;&gt;"", ", range: '"&amp;H90&amp;"'", "")&amp;IF(J90&lt;&gt;"", ", damage: '"&amp;J90&amp;"'", "")&amp;IF(L90&lt;&gt;"", ", capacity: '"&amp;L90&amp;"'", "")&amp;IF(M90&lt;&gt;"", ", cost: '"&amp;M90&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P90, CHAR(10), "\n")&amp;"'"&amp;IF(N90="○", ", sealable: true", "")&amp;IF(O90="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '11-thallya-o-n-7': {megami: 'thallya', name: 'Turbo Switch', ruby: 'ターボスイッチ', baseType: 'normal', types: ['action', 'reaction'], text: '燃焼 \n騎動を行う。'}</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A91" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>508</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>517</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H91" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="I91" s="13"/>
-      <c r="J91" s="10" t="s">
-        <v>523</v>
-      </c>
-      <c r="K91" s="13"/>
-      <c r="M91" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="P91" s="5" t="s">
-        <v>557</v>
-      </c>
-      <c r="Q91" s="13"/>
-      <c r="R91" s="3" t="str">
-        <f>", '"&amp;A91&amp;"': {megami: '"&amp;B91&amp;"', name: '"&amp;C91&amp;"', ruby: '"&amp;D91&amp;"', baseType: '"&amp;VLOOKUP(E91,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F91,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G91&lt;&gt;"",", '"&amp; VLOOKUP(G91,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H91&lt;&gt;"", ", range: '"&amp;H91&amp;"'", "")&amp;IF(J91&lt;&gt;"", ", damage: '"&amp;J91&amp;"'", "")&amp;IF(L91&lt;&gt;"", ", capacity: '"&amp;L91&amp;"'", "")&amp;IF(M91&lt;&gt;"", ", cost: '"&amp;M91&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P91, CHAR(10), "\n")&amp;"'"&amp;IF(N91="○", ", sealable: true", "")&amp;IF(O91="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '11-thallya-o-s-1': {megami: 'thallya', name: 'Alpha-Edge', ruby: 'アルファエッジ', baseType: 'special', types: ['attack'], range: '1,3,5,7', damage: '1/1', cost: '1', text: '【即再起】あなたが騎動により間合を変化させる。'}</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18" ht="36" x14ac:dyDescent="0.15">
-      <c r="A92" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>510</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G92" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I92" s="13"/>
-      <c r="J92" s="10"/>
-      <c r="K92" s="13"/>
-      <c r="M92" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="P92" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="Q92" s="13"/>
-      <c r="R92" s="3" t="str">
-        <f>", '"&amp;A92&amp;"': {megami: '"&amp;B92&amp;"', name: '"&amp;C92&amp;"', ruby: '"&amp;D92&amp;"', baseType: '"&amp;VLOOKUP(E92,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F92,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G92&lt;&gt;"",", '"&amp; VLOOKUP(G92,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H92&lt;&gt;"", ", range: '"&amp;H92&amp;"'", "")&amp;IF(J92&lt;&gt;"", ", damage: '"&amp;J92&amp;"'", "")&amp;IF(L92&lt;&gt;"", ", capacity: '"&amp;L92&amp;"'", "")&amp;IF(M92&lt;&gt;"", ", cost: '"&amp;M92&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P92, CHAR(10), "\n")&amp;"'"&amp;IF(N92="○", ", sealable: true", "")&amp;IF(O92="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '11-thallya-o-s-2': {megami: 'thallya', name: 'Omega-Burst', ruby: 'オメガバースト', baseType: 'special', types: ['action', 'reaction'], cost: '4', text: 'あなたの燃焼済の造花結晶を全て回復する。 \n対応した、オーラへのダメージが「-」またはX以下の《攻撃》を打ち消す。Xはこのカードにより回復した造花結晶の個数に等しい。'}</v>
-      </c>
-    </row>
-    <row r="93" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>567</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>519</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G93" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I93" s="13"/>
-      <c r="J93" s="10"/>
-      <c r="K93" s="13"/>
-      <c r="M93" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="P93" s="8" t="s">
-        <v>531</v>
-      </c>
-      <c r="Q93" s="13"/>
-      <c r="R93" s="3" t="str">
-        <f>", '"&amp;A93&amp;"': {megami: '"&amp;B93&amp;"', name: '"&amp;C93&amp;"', ruby: '"&amp;D93&amp;"', baseType: '"&amp;VLOOKUP(E93,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F93,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G93&lt;&gt;"",", '"&amp; VLOOKUP(G93,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H93&lt;&gt;"", ", range: '"&amp;H93&amp;"'", "")&amp;IF(J93&lt;&gt;"", ", damage: '"&amp;J93&amp;"'", "")&amp;IF(L93&lt;&gt;"", ", capacity: '"&amp;L93&amp;"'", "")&amp;IF(M93&lt;&gt;"", ", cost: '"&amp;M93&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P93, CHAR(10), "\n")&amp;"'"&amp;IF(N93="○", ", sealable: true", "")&amp;IF(O93="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '11-thallya-o-s-4': {megami: 'thallya', name: 'Julia\'s BlackBox', ruby: 'ジュリアズ　ブラックボックス', baseType: 'special', types: ['action', 'fullpower'], cost: '0', text: 'あなたのマシンに造花結晶がないならば、あなたのマシンはTransFormし、あなたの燃焼済の造花結晶を2つ回復する。そうでない場合、このカードを未使用に戻す。'}</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A94" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H94" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="I94" s="13"/>
-      <c r="J94" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="K94" s="13"/>
-      <c r="Q94" s="13"/>
-      <c r="R94" s="3" t="str">
-        <f>", '"&amp;A94&amp;"': {megami: '"&amp;B94&amp;"', name: '"&amp;C94&amp;"', ruby: '"&amp;D94&amp;"', baseType: '"&amp;VLOOKUP(E94,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F94,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G94&lt;&gt;"",", '"&amp; VLOOKUP(G94,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H94&lt;&gt;"", ", range: '"&amp;H94&amp;"'", "")&amp;IF(J94&lt;&gt;"", ", damage: '"&amp;J94&amp;"'", "")&amp;IF(L94&lt;&gt;"", ", capacity: '"&amp;L94&amp;"'", "")&amp;IF(M94&lt;&gt;"", ", cost: '"&amp;M94&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P94, CHAR(10), "\n")&amp;"'"&amp;IF(N94="○", ", sealable: true", "")&amp;IF(O94="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-raira-o-n-1': {megami: 'raira', name: '獣爪', ruby: 'じゅうそう', baseType: 'normal', types: ['attack'], range: '1-2', damage: '3/1', text: ''}</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A95" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H95" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I95" s="13"/>
-      <c r="J95" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="K95" s="13"/>
-      <c r="P95" s="4" t="s">
-        <v>532</v>
-      </c>
-      <c r="Q95" s="13"/>
-      <c r="R95" s="3" t="str">
-        <f>", '"&amp;A95&amp;"': {megami: '"&amp;B95&amp;"', name: '"&amp;C95&amp;"', ruby: '"&amp;D95&amp;"', baseType: '"&amp;VLOOKUP(E95,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F95,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G95&lt;&gt;"",", '"&amp; VLOOKUP(G95,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H95&lt;&gt;"", ", range: '"&amp;H95&amp;"'", "")&amp;IF(J95&lt;&gt;"", ", damage: '"&amp;J95&amp;"'", "")&amp;IF(L95&lt;&gt;"", ", capacity: '"&amp;L95&amp;"'", "")&amp;IF(M95&lt;&gt;"", ", cost: '"&amp;M95&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P95, CHAR(10), "\n")&amp;"'"&amp;IF(N95="○", ", sealable: true", "")&amp;IF(O95="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-raira-o-n-2': {megami: 'raira', name: '風雷撃', ruby: 'ふうらいげき', baseType: 'normal', types: ['attack'], range: '2', damage: 'X/2', text: '【常時】Xは風神ゲージと雷神ゲージのうち、小さい方の値である。'}</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18" ht="24" x14ac:dyDescent="0.15">
-      <c r="A96" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H96" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="I96" s="13"/>
-      <c r="J96" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="K96" s="13"/>
-      <c r="P96" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="Q96" s="13"/>
-      <c r="R96" s="3" t="str">
-        <f>", '"&amp;A96&amp;"': {megami: '"&amp;B96&amp;"', name: '"&amp;C96&amp;"', ruby: '"&amp;D96&amp;"', baseType: '"&amp;VLOOKUP(E96,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F96,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G96&lt;&gt;"",", '"&amp; VLOOKUP(G96,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H96&lt;&gt;"", ", range: '"&amp;H96&amp;"'", "")&amp;IF(J96&lt;&gt;"", ", damage: '"&amp;J96&amp;"'", "")&amp;IF(L96&lt;&gt;"", ", capacity: '"&amp;L96&amp;"'", "")&amp;IF(M96&lt;&gt;"", ", cost: '"&amp;M96&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P96, CHAR(10), "\n")&amp;"'"&amp;IF(N96="○", ", sealable: true", "")&amp;IF(O96="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-raira-o-n-3': {megami: 'raira', name: '流転爪', ruby: 'るてんそう', baseType: 'normal', types: ['attack'], range: '1-2', damage: '2/1', text: '【攻撃後】あなたの捨て札にある《攻撃》カード1枚を選び、山札の一番上に置いてもよい。'}</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A97" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F97" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I97" s="13"/>
-      <c r="K97" s="13"/>
-      <c r="P97" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="Q97" s="13"/>
-      <c r="R97" s="3" t="str">
-        <f>", '"&amp;A97&amp;"': {megami: '"&amp;B97&amp;"', name: '"&amp;C97&amp;"', ruby: '"&amp;D97&amp;"', baseType: '"&amp;VLOOKUP(E97,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F97,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G97&lt;&gt;"",", '"&amp; VLOOKUP(G97,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H97&lt;&gt;"", ", range: '"&amp;H97&amp;"'", "")&amp;IF(J97&lt;&gt;"", ", damage: '"&amp;J97&amp;"'", "")&amp;IF(L97&lt;&gt;"", ", capacity: '"&amp;L97&amp;"'", "")&amp;IF(M97&lt;&gt;"", ", cost: '"&amp;M97&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P97, CHAR(10), "\n")&amp;"'"&amp;IF(N97="○", ", sealable: true", "")&amp;IF(O97="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-raira-o-n-4': {megami: 'raira', name: '風走り', ruby: 'かぜばしり', baseType: 'normal', types: ['action'], text: '現在の間合が3以上ならば、間合→ダスト：2'}</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18" ht="36" x14ac:dyDescent="0.15">
-      <c r="A98" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I98" s="13"/>
-      <c r="K98" s="13"/>
-      <c r="P98" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="Q98" s="13"/>
-      <c r="R98" s="3" t="str">
-        <f>", '"&amp;A98&amp;"': {megami: '"&amp;B98&amp;"', name: '"&amp;C98&amp;"', ruby: '"&amp;D98&amp;"', baseType: '"&amp;VLOOKUP(E98,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F98,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G98&lt;&gt;"",", '"&amp; VLOOKUP(G98,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H98&lt;&gt;"", ", range: '"&amp;H98&amp;"'", "")&amp;IF(J98&lt;&gt;"", ", damage: '"&amp;J98&amp;"'", "")&amp;IF(L98&lt;&gt;"", ", capacity: '"&amp;L98&amp;"'", "")&amp;IF(M98&lt;&gt;"", ", cost: '"&amp;M98&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P98, CHAR(10), "\n")&amp;"'"&amp;IF(N98="○", ", sealable: true", "")&amp;IF(O98="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-raira-o-n-5': {megami: 'raira', name: '風雷の知恵', ruby: 'ふうらいのちえ', baseType: 'normal', types: ['action'], text: '風神ゲージと雷神ゲージの合計が4以上ならば、あなたの捨て札にある他のメガミのカード1枚を選び、山札の一番上に置いてもよい。 \n風神ゲージか雷神ゲージを1上げる。'}</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18" ht="36" x14ac:dyDescent="0.15">
-      <c r="A99" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F99" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G99" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I99" s="13"/>
-      <c r="K99" s="13"/>
-      <c r="P99" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="Q99" s="13"/>
-      <c r="R99" s="3" t="str">
-        <f>", '"&amp;A99&amp;"': {megami: '"&amp;B99&amp;"', name: '"&amp;C99&amp;"', ruby: '"&amp;D99&amp;"', baseType: '"&amp;VLOOKUP(E99,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F99,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G99&lt;&gt;"",", '"&amp; VLOOKUP(G99,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H99&lt;&gt;"", ", range: '"&amp;H99&amp;"'", "")&amp;IF(J99&lt;&gt;"", ", damage: '"&amp;J99&amp;"'", "")&amp;IF(L99&lt;&gt;"", ", capacity: '"&amp;L99&amp;"'", "")&amp;IF(M99&lt;&gt;"", ", cost: '"&amp;M99&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P99, CHAR(10), "\n")&amp;"'"&amp;IF(N99="○", ", sealable: true", "")&amp;IF(O99="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-raira-o-n-6': {megami: 'raira', name: '呼び声', ruby: 'よびごえ', baseType: 'normal', types: ['action', 'fullpower'], text: '相手を畏縮させ、以下から1つを選ぶ。\n・風神ゲージと雷神ゲージを1ずつ上げる。\n・手札を全て伏せ札にし、雷神ゲージを2倍にする。'}</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A100" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F100" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G100" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I100" s="13"/>
-      <c r="K100" s="13"/>
-      <c r="P100" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="Q100" s="13"/>
-      <c r="R100" s="3" t="str">
-        <f>", '"&amp;A100&amp;"': {megami: '"&amp;B100&amp;"', name: '"&amp;C100&amp;"', ruby: '"&amp;D100&amp;"', baseType: '"&amp;VLOOKUP(E100,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F100,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G100&lt;&gt;"",", '"&amp; VLOOKUP(G100,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H100&lt;&gt;"", ", range: '"&amp;H100&amp;"'", "")&amp;IF(J100&lt;&gt;"", ", damage: '"&amp;J100&amp;"'", "")&amp;IF(L100&lt;&gt;"", ", capacity: '"&amp;L100&amp;"'", "")&amp;IF(M100&lt;&gt;"", ", cost: '"&amp;M100&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P100, CHAR(10), "\n")&amp;"'"&amp;IF(N100="○", ", sealable: true", "")&amp;IF(O100="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-raira-o-n-7': {megami: 'raira', name: '空駆け', ruby: 'そらかけ', baseType: 'normal', types: ['action', 'fullpower'], text: '間合⇔ダスト：3'}</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18" ht="36" x14ac:dyDescent="0.15">
-      <c r="A101" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F101" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H101" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="I101" s="13"/>
-      <c r="J101" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="K101" s="13"/>
-      <c r="M101" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="P101" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="Q101" s="13"/>
-      <c r="R101" s="3" t="str">
-        <f>", '"&amp;A101&amp;"': {megami: '"&amp;B101&amp;"', name: '"&amp;C101&amp;"', ruby: '"&amp;D101&amp;"', baseType: '"&amp;VLOOKUP(E101,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F101,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G101&lt;&gt;"",", '"&amp; VLOOKUP(G101,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H101&lt;&gt;"", ", range: '"&amp;H101&amp;"'", "")&amp;IF(J101&lt;&gt;"", ", damage: '"&amp;J101&amp;"'", "")&amp;IF(L101&lt;&gt;"", ", capacity: '"&amp;L101&amp;"'", "")&amp;IF(M101&lt;&gt;"", ", cost: '"&amp;M101&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P101, CHAR(10), "\n")&amp;"'"&amp;IF(N101="○", ", sealable: true", "")&amp;IF(O101="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-raira-o-s-1': {megami: 'raira', name: '雷螺風神爪', ruby: 'らいらふうじんそう', baseType: 'special', types: ['attack'], range: '1-2', damage: '2/2', cost: '3', text: '【常時】あなたの雷神ゲージが4以上ならば、この《攻撃》は+1/+0となる。 \n----\n【再起】あなたの風神ゲージが4以上である。'}</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A102" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F102" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G102" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I102" s="13"/>
-      <c r="K102" s="13"/>
-      <c r="M102" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="P102" s="4" t="s">
-        <v>539</v>
-      </c>
-      <c r="Q102" s="13"/>
-      <c r="R102" s="3" t="str">
-        <f>", '"&amp;A102&amp;"': {megami: '"&amp;B102&amp;"', name: '"&amp;C102&amp;"', ruby: '"&amp;D102&amp;"', baseType: '"&amp;VLOOKUP(E102,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F102,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G102&lt;&gt;"",", '"&amp; VLOOKUP(G102,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H102&lt;&gt;"", ", range: '"&amp;H102&amp;"'", "")&amp;IF(J102&lt;&gt;"", ", damage: '"&amp;J102&amp;"'", "")&amp;IF(L102&lt;&gt;"", ", capacity: '"&amp;L102&amp;"'", "")&amp;IF(M102&lt;&gt;"", ", cost: '"&amp;M102&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P102, CHAR(10), "\n")&amp;"'"&amp;IF(N102="○", ", sealable: true", "")&amp;IF(O102="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-raira-o-s-2': {megami: 'raira', name: '天雷召喚陣', ruby: 'てんらいしょうかんじん', baseType: 'special', types: ['action', 'fullpower'], cost: '6', text: '攻撃『適正距離0-10、1/1』をX回行う。Xは雷神ゲージの半分(切り上げ)に等しい。'}</v>
-      </c>
-    </row>
-    <row r="103" spans="1:18" ht="60" x14ac:dyDescent="0.15">
-      <c r="A103" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F103" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I103" s="13"/>
-      <c r="K103" s="13"/>
-      <c r="M103" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="O103" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="P103" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="Q103" s="13"/>
-      <c r="R103" s="3" t="str">
-        <f>", '"&amp;A103&amp;"': {megami: '"&amp;B103&amp;"', name: '"&amp;C103&amp;"', ruby: '"&amp;D103&amp;"', baseType: '"&amp;VLOOKUP(E103,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F103,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G103&lt;&gt;"",", '"&amp; VLOOKUP(G103,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H103&lt;&gt;"", ", range: '"&amp;H103&amp;"'", "")&amp;IF(J103&lt;&gt;"", ", damage: '"&amp;J103&amp;"'", "")&amp;IF(L103&lt;&gt;"", ", capacity: '"&amp;L103&amp;"'", "")&amp;IF(M103&lt;&gt;"", ", cost: '"&amp;M103&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P103, CHAR(10), "\n")&amp;"'"&amp;IF(N103="○", ", sealable: true", "")&amp;IF(O103="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-raira-o-s-3': {megami: 'raira', name: '風魔招来孔', ruby: 'ふうましょうらいこう', baseType: 'special', types: ['action'], cost: '0', text: '現在の風神ゲージに応じて、以下の切札を追加札から未使用で得る(条件を満たしたものは全て得る)。その後、このカードを取り除く。 \n3以上……風魔旋風 \n6以上……風魔纏廻 \n10以上……風魔天狗道', removable: true}</v>
-      </c>
-    </row>
-    <row r="104" spans="1:18" ht="24" x14ac:dyDescent="0.15">
-      <c r="A104" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F104" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G104" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I104" s="13"/>
-      <c r="K104" s="13"/>
-      <c r="L104" s="4" t="s">
+      <c r="K121" s="13"/>
+      <c r="M121" s="13"/>
+      <c r="O121" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="M104" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="P104" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="Q104" s="13"/>
-      <c r="R104" s="3" t="str">
-        <f>", '"&amp;A104&amp;"': {megami: '"&amp;B104&amp;"', name: '"&amp;C104&amp;"', ruby: '"&amp;D104&amp;"', baseType: '"&amp;VLOOKUP(E104,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F104,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G104&lt;&gt;"",", '"&amp; VLOOKUP(G104,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H104&lt;&gt;"", ", range: '"&amp;H104&amp;"'", "")&amp;IF(J104&lt;&gt;"", ", damage: '"&amp;J104&amp;"'", "")&amp;IF(L104&lt;&gt;"", ", capacity: '"&amp;L104&amp;"'", "")&amp;IF(M104&lt;&gt;"", ", cost: '"&amp;M104&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P104, CHAR(10), "\n")&amp;"'"&amp;IF(N104="○", ", sealable: true", "")&amp;IF(O104="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-raira-o-s-4': {megami: 'raira', name: '円環輪廻旋', ruby: 'えんかんりんかいせん', baseType: 'special', types: ['enhance', 'fullpower'], capacity: '5', cost: '3', text: '【展開中】あなたが《付与》でない通常札を使用した場合、それを捨て札にする代わりに山札の底に置く。'}</v>
-      </c>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A105" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H105" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="I105" s="13"/>
-      <c r="J105" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="K105" s="13"/>
-      <c r="M105" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="P105" s="5"/>
-      <c r="Q105" s="13"/>
-      <c r="R105" s="3" t="str">
-        <f>", '"&amp;A105&amp;"': {megami: '"&amp;B105&amp;"', name: '"&amp;C105&amp;"', ruby: '"&amp;D105&amp;"', baseType: '"&amp;VLOOKUP(E105,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F105,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G105&lt;&gt;"",", '"&amp; VLOOKUP(G105,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H105&lt;&gt;"", ", range: '"&amp;H105&amp;"'", "")&amp;IF(J105&lt;&gt;"", ", damage: '"&amp;J105&amp;"'", "")&amp;IF(L105&lt;&gt;"", ", capacity: '"&amp;L105&amp;"'", "")&amp;IF(M105&lt;&gt;"", ", cost: '"&amp;M105&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P105, CHAR(10), "\n")&amp;"'"&amp;IF(N105="○", ", sealable: true", "")&amp;IF(O105="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-raira-o-s-3-ex1': {megami: 'raira', name: '風魔旋風', ruby: 'ふうませんぷう', baseType: 'extra', types: ['attack'], range: '1-3', damage: '1/2', cost: '1', text: ''}</v>
-      </c>
-    </row>
-    <row r="106" spans="1:18" ht="24" x14ac:dyDescent="0.15">
-      <c r="A106" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="F106" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I106" s="13"/>
-      <c r="K106" s="13"/>
-      <c r="M106" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="P106" s="5" t="s">
-        <v>552</v>
-      </c>
-      <c r="Q106" s="13"/>
-      <c r="R106" s="3" t="str">
-        <f>", '"&amp;A106&amp;"': {megami: '"&amp;B106&amp;"', name: '"&amp;C106&amp;"', ruby: '"&amp;D106&amp;"', baseType: '"&amp;VLOOKUP(E106,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F106,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G106&lt;&gt;"",", '"&amp; VLOOKUP(G106,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H106&lt;&gt;"", ", range: '"&amp;H106&amp;"'", "")&amp;IF(J106&lt;&gt;"", ", damage: '"&amp;J106&amp;"'", "")&amp;IF(L106&lt;&gt;"", ", capacity: '"&amp;L106&amp;"'", "")&amp;IF(M106&lt;&gt;"", ", cost: '"&amp;M106&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P106, CHAR(10), "\n")&amp;"'"&amp;IF(N106="○", ", sealable: true", "")&amp;IF(O106="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-raira-o-s-3-ex2': {megami: 'raira', name: '風魔纏廻', ruby: 'ふうまてんかい', baseType: 'extra', types: ['action'], cost: '1', text: 'あなたの使用済の切札を1枚選び、それを未使用に戻す。 \n【使用済】あなたの切札の消費は1少なくなる(0未満にはならない)。'}</v>
-      </c>
-    </row>
-    <row r="107" spans="1:18" ht="36" x14ac:dyDescent="0.15">
-      <c r="A107" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="F107" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G107" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="M107" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="O107" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="P107" s="5" t="s">
-        <v>553</v>
-      </c>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="3" t="str">
-        <f>", '"&amp;A107&amp;"': {megami: '"&amp;B107&amp;"', name: '"&amp;C107&amp;"', ruby: '"&amp;D107&amp;"', baseType: '"&amp;VLOOKUP(E107,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F107,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G107&lt;&gt;"",", '"&amp; VLOOKUP(G107,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H107&lt;&gt;"", ", range: '"&amp;H107&amp;"'", "")&amp;IF(J107&lt;&gt;"", ", damage: '"&amp;J107&amp;"'", "")&amp;IF(L107&lt;&gt;"", ", capacity: '"&amp;L107&amp;"'", "")&amp;IF(M107&lt;&gt;"", ", cost: '"&amp;M107&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P107, CHAR(10), "\n")&amp;"'"&amp;IF(N107="○", ", sealable: true", "")&amp;IF(O107="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-raira-o-s-3-ex3': {megami: 'raira', name: '風魔天狗道', ruby: 'ふうまてんぐどう', baseType: 'extra', types: ['action', 'reaction'], cost: '4', text: 'ダスト⇔間合：5 \nあなたはこの効果で本来より少ない個数の桜花結晶を動かしてもよい。その後、このカードを取り除く。', removable: true}</v>
-      </c>
-    </row>
-    <row r="108" spans="1:18" ht="24" x14ac:dyDescent="0.15">
-      <c r="A108" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H108" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="I108" s="13"/>
-      <c r="J108" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="K108" s="13"/>
-      <c r="P108" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="Q108" s="13"/>
-      <c r="R108" s="3" t="str">
-        <f>", '"&amp;A108&amp;"': {megami: '"&amp;B108&amp;"', name: '"&amp;C108&amp;"', ruby: '"&amp;D108&amp;"', baseType: '"&amp;VLOOKUP(E108,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F108,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G108&lt;&gt;"",", '"&amp; VLOOKUP(G108,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H108&lt;&gt;"", ", range: '"&amp;H108&amp;"'", "")&amp;IF(J108&lt;&gt;"", ", damage: '"&amp;J108&amp;"'", "")&amp;IF(L108&lt;&gt;"", ", capacity: '"&amp;L108&amp;"'", "")&amp;IF(M108&lt;&gt;"", ", cost: '"&amp;M108&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P108, CHAR(10), "\n")&amp;"'"&amp;IF(N108="○", ", sealable: true", "")&amp;IF(O108="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-utsuro-o-n-1': {megami: 'utsuro', name: '円月', ruby: 'えんげつ', baseType: 'normal', types: ['attack'], range: '6-7', damage: '2/2', text: '【常時】灰塵-ダストが12以上ならば、この《攻撃》のオーラへのダメージは「-」になる。'}</v>
-      </c>
-    </row>
-    <row r="109" spans="1:18" ht="24" x14ac:dyDescent="0.15">
-      <c r="A109" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="E109" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F109" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H109" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="I109" s="13"/>
-      <c r="J109" s="10" t="s">
-        <v>462</v>
-      </c>
-      <c r="K109" s="13"/>
-      <c r="P109" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="Q109" s="13"/>
-      <c r="R109" s="3" t="str">
-        <f>", '"&amp;A109&amp;"': {megami: '"&amp;B109&amp;"', name: '"&amp;C109&amp;"', ruby: '"&amp;D109&amp;"', baseType: '"&amp;VLOOKUP(E109,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F109,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G109&lt;&gt;"",", '"&amp; VLOOKUP(G109,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H109&lt;&gt;"", ", range: '"&amp;H109&amp;"'", "")&amp;IF(J109&lt;&gt;"", ", damage: '"&amp;J109&amp;"'", "")&amp;IF(L109&lt;&gt;"", ", capacity: '"&amp;L109&amp;"'", "")&amp;IF(M109&lt;&gt;"", ", cost: '"&amp;M109&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P109, CHAR(10), "\n")&amp;"'"&amp;IF(N109="○", ", sealable: true", "")&amp;IF(O109="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-utsuro-o-n-2': {megami: 'utsuro', name: '黒き波動', ruby: 'くろきはどう', baseType: 'normal', types: ['attack'], range: '4-7', damage: '1/2', text: '【攻撃後】相手が&lt;オーラ&gt;へのダメージを選んだならば、相手の手札を見てその中から1枚を選び、それを捨て札にする。'}</v>
-      </c>
-    </row>
-    <row r="110" spans="1:18" ht="48" x14ac:dyDescent="0.15">
-      <c r="A110" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="E110" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F110" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H110" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="I110" s="13"/>
-      <c r="J110" s="10" t="s">
-        <v>463</v>
-      </c>
-      <c r="K110" s="13"/>
-      <c r="P110" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="Q110" s="13"/>
-      <c r="R110" s="3" t="str">
-        <f>", '"&amp;A110&amp;"': {megami: '"&amp;B110&amp;"', name: '"&amp;C110&amp;"', ruby: '"&amp;D110&amp;"', baseType: '"&amp;VLOOKUP(E110,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F110,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G110&lt;&gt;"",", '"&amp; VLOOKUP(G110,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H110&lt;&gt;"", ", range: '"&amp;H110&amp;"'", "")&amp;IF(J110&lt;&gt;"", ", damage: '"&amp;J110&amp;"'", "")&amp;IF(L110&lt;&gt;"", ", capacity: '"&amp;L110&amp;"'", "")&amp;IF(M110&lt;&gt;"", ", cost: '"&amp;M110&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P110, CHAR(10), "\n")&amp;"'"&amp;IF(N110="○", ", sealable: true", "")&amp;IF(O110="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-utsuro-o-n-3': {megami: 'utsuro', name: '刈取り', ruby: 'かりとり', baseType: 'normal', types: ['attack'], range: '4', damage: '-/0', text: '【攻撃後】相手は相手の&lt;オーラ&gt;、&lt;フレア&gt;、&lt;ライフ&gt;のいずれかから桜花結晶を合計2つ&lt;ダスト&gt;へ移動させる。 \n【攻撃後】相手の付与札を1枚選んでもよい。そうした場合、その付与札の上から桜花結晶を2つ&lt;ダスト&gt;へ送る。'}</v>
-      </c>
-    </row>
-    <row r="111" spans="1:18" ht="36" x14ac:dyDescent="0.15">
-      <c r="A111" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="E111" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F111" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I111" s="13"/>
-      <c r="K111" s="13"/>
-      <c r="P111" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="Q111" s="13"/>
-      <c r="R111" s="3" t="str">
-        <f>", '"&amp;A111&amp;"': {megami: '"&amp;B111&amp;"', name: '"&amp;C111&amp;"', ruby: '"&amp;D111&amp;"', baseType: '"&amp;VLOOKUP(E111,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F111,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G111&lt;&gt;"",", '"&amp; VLOOKUP(G111,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H111&lt;&gt;"", ", range: '"&amp;H111&amp;"'", "")&amp;IF(J111&lt;&gt;"", ", damage: '"&amp;J111&amp;"'", "")&amp;IF(L111&lt;&gt;"", ", capacity: '"&amp;L111&amp;"'", "")&amp;IF(M111&lt;&gt;"", ", cost: '"&amp;M111&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P111, CHAR(10), "\n")&amp;"'"&amp;IF(N111="○", ", sealable: true", "")&amp;IF(O111="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-utsuro-o-n-4': {megami: 'utsuro', name: '重圧', ruby: 'じゅうあつ', baseType: 'normal', types: ['action'], text: '相手は相手の&lt;オーラ&gt;、&lt;フレア&gt;、&lt;ライフ&gt;のいずれかから桜花結晶を1つ&lt;ダスト&gt;へ移動させる。 \n灰塵-ダストが12以上ならば、相手を畏縮させる。'}</v>
-      </c>
-    </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A112" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="E112" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F112" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I112" s="13"/>
-      <c r="K112" s="13"/>
-      <c r="P112" s="4" t="s">
-        <v>548</v>
-      </c>
-      <c r="Q112" s="13"/>
-      <c r="R112" s="3" t="str">
-        <f>", '"&amp;A112&amp;"': {megami: '"&amp;B112&amp;"', name: '"&amp;C112&amp;"', ruby: '"&amp;D112&amp;"', baseType: '"&amp;VLOOKUP(E112,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F112,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G112&lt;&gt;"",", '"&amp; VLOOKUP(G112,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H112&lt;&gt;"", ", range: '"&amp;H112&amp;"'", "")&amp;IF(J112&lt;&gt;"", ", damage: '"&amp;J112&amp;"'", "")&amp;IF(L112&lt;&gt;"", ", capacity: '"&amp;L112&amp;"'", "")&amp;IF(M112&lt;&gt;"", ", cost: '"&amp;M112&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P112, CHAR(10), "\n")&amp;"'"&amp;IF(N112="○", ", sealable: true", "")&amp;IF(O112="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-utsuro-o-n-5': {megami: 'utsuro', name: '影の翅', ruby: 'かげのはね', baseType: 'normal', types: ['action'], text: 'このターン中、現在の&lt;間合&gt;は2増加し、達人の間合は2大きくなる。'}</v>
-      </c>
-    </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A113" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="E113" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F113" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G113" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I113" s="13"/>
-      <c r="K113" s="13"/>
-      <c r="P113" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="Q113" s="13"/>
-      <c r="R113" s="3" t="str">
-        <f>", '"&amp;A113&amp;"': {megami: '"&amp;B113&amp;"', name: '"&amp;C113&amp;"', ruby: '"&amp;D113&amp;"', baseType: '"&amp;VLOOKUP(E113,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F113,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G113&lt;&gt;"",", '"&amp; VLOOKUP(G113,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H113&lt;&gt;"", ", range: '"&amp;H113&amp;"'", "")&amp;IF(J113&lt;&gt;"", ", damage: '"&amp;J113&amp;"'", "")&amp;IF(L113&lt;&gt;"", ", capacity: '"&amp;L113&amp;"'", "")&amp;IF(M113&lt;&gt;"", ", cost: '"&amp;M113&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P113, CHAR(10), "\n")&amp;"'"&amp;IF(N113="○", ", sealable: true", "")&amp;IF(O113="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-utsuro-o-n-6': {megami: 'utsuro', name: '影の壁', ruby: 'かげのかべ', baseType: 'normal', types: ['action', 'reaction'], text: '対応した《攻撃》は+0/-1となる。'}</v>
-      </c>
-    </row>
-    <row r="114" spans="1:19" ht="36" x14ac:dyDescent="0.15">
-      <c r="A114" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F114" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G114" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I114" s="13"/>
-      <c r="K114" s="13"/>
-      <c r="L114" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="P114" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="Q114" s="13"/>
-      <c r="R114" s="3" t="str">
-        <f>", '"&amp;A114&amp;"': {megami: '"&amp;B114&amp;"', name: '"&amp;C114&amp;"', ruby: '"&amp;D114&amp;"', baseType: '"&amp;VLOOKUP(E114,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F114,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G114&lt;&gt;"",", '"&amp; VLOOKUP(G114,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H114&lt;&gt;"", ", range: '"&amp;H114&amp;"'", "")&amp;IF(J114&lt;&gt;"", ", damage: '"&amp;J114&amp;"'", "")&amp;IF(L114&lt;&gt;"", ", capacity: '"&amp;L114&amp;"'", "")&amp;IF(M114&lt;&gt;"", ", cost: '"&amp;M114&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P114, CHAR(10), "\n")&amp;"'"&amp;IF(N114="○", ", sealable: true", "")&amp;IF(O114="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-utsuro-o-n-7': {megami: 'utsuro', name: '遺灰呪', ruby: 'いかいじゅ', baseType: 'normal', types: ['enhance', 'fullpower'], capacity: '2', text: '【展開時】相オーラ→ダスト：3 \n【破棄時】灰塵-&lt;ダスト&gt;が12以上ならば以下を行う。 \nダスト→相オーラ：2、相ライフ→ダスト：1'}</v>
-      </c>
-    </row>
-    <row r="115" spans="1:19" ht="36" x14ac:dyDescent="0.15">
-      <c r="A115" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="E115" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F115" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I115" s="13"/>
-      <c r="K115" s="13"/>
-      <c r="M115" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="O115" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="P115" s="5" t="s">
-        <v>551</v>
-      </c>
-      <c r="Q115" s="13"/>
-      <c r="R115" s="3" t="str">
-        <f>", '"&amp;A115&amp;"': {megami: '"&amp;B115&amp;"', name: '"&amp;C115&amp;"', ruby: '"&amp;D115&amp;"', baseType: '"&amp;VLOOKUP(E115,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F115,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G115&lt;&gt;"",", '"&amp; VLOOKUP(G115,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H115&lt;&gt;"", ", range: '"&amp;H115&amp;"'", "")&amp;IF(J115&lt;&gt;"", ", damage: '"&amp;J115&amp;"'", "")&amp;IF(L115&lt;&gt;"", ", capacity: '"&amp;L115&amp;"'", "")&amp;IF(M115&lt;&gt;"", ", cost: '"&amp;M115&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P115, CHAR(10), "\n")&amp;"'"&amp;IF(N115="○", ", sealable: true", "")&amp;IF(O115="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-utsuro-o-s-1': {megami: 'utsuro', name: '灰滅', ruby: 'ヴィミラニエ', baseType: 'special', types: ['action'], cost: '24', text: '【常時】このカードの消費はダストの数だけ少なくなる。 \n相ライフ→ダスト：3 \nこのカードを取り除く。', removable: true}</v>
-      </c>
-    </row>
-    <row r="116" spans="1:19" ht="24" x14ac:dyDescent="0.15">
-      <c r="A116" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="E116" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F116" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G116" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I116" s="13"/>
-      <c r="K116" s="13"/>
-      <c r="L116" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="M116" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="P116" s="5" t="s">
-        <v>554</v>
-      </c>
-      <c r="Q116" s="13"/>
-      <c r="R116" s="3" t="str">
-        <f>", '"&amp;A116&amp;"': {megami: '"&amp;B116&amp;"', name: '"&amp;C116&amp;"', ruby: '"&amp;D116&amp;"', baseType: '"&amp;VLOOKUP(E116,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F116,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G116&lt;&gt;"",", '"&amp; VLOOKUP(G116,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H116&lt;&gt;"", ", range: '"&amp;H116&amp;"'", "")&amp;IF(J116&lt;&gt;"", ", damage: '"&amp;J116&amp;"'", "")&amp;IF(L116&lt;&gt;"", ", capacity: '"&amp;L116&amp;"'", "")&amp;IF(M116&lt;&gt;"", ", cost: '"&amp;M116&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P116, CHAR(10), "\n")&amp;"'"&amp;IF(N116="○", ", sealable: true", "")&amp;IF(O116="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-utsuro-o-s-2': {megami: 'utsuro', name: '虚偽', ruby: 'ローシェ', baseType: 'special', types: ['enhance', 'reaction'], capacity: '3', cost: '3', text: '【展開中】相手の《攻撃》は距離縮小(近1)を得て、【攻撃後】効果が解決されない。 \n【展開中】相手の《付与》カードは納が1減少し、【破棄時】効果が解決されない。'}</v>
-      </c>
-    </row>
-    <row r="117" spans="1:19" ht="60" x14ac:dyDescent="0.15">
-      <c r="A117" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="E117" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F117" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I117" s="13"/>
-      <c r="K117" s="13"/>
-      <c r="L117" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="M117" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="P117" s="5" t="s">
+      <c r="R121" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="Q117" s="13"/>
-      <c r="R117" s="3" t="str">
-        <f>", '"&amp;A117&amp;"': {megami: '"&amp;B117&amp;"', name: '"&amp;C117&amp;"', ruby: '"&amp;D117&amp;"', baseType: '"&amp;VLOOKUP(E117,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F117,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G117&lt;&gt;"",", '"&amp; VLOOKUP(G117,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H117&lt;&gt;"", ", range: '"&amp;H117&amp;"'", "")&amp;IF(J117&lt;&gt;"", ", damage: '"&amp;J117&amp;"'", "")&amp;IF(L117&lt;&gt;"", ", capacity: '"&amp;L117&amp;"'", "")&amp;IF(M117&lt;&gt;"", ", cost: '"&amp;M117&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P117, CHAR(10), "\n")&amp;"'"&amp;IF(N117="○", ", sealable: true", "")&amp;IF(O117="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-utsuro-o-s-3': {megami: 'utsuro', name: '終末', ruby: 'カニェッツ', baseType: 'special', types: ['enhance'], capacity: '3', cost: '2', text: '【展開中】あなたに1以上のダメージを与えた《攻撃》の解決後に、このカードの上の桜花結晶を全てをダストに送る。 \n【破棄時】現在のフェイズを終了する。 \n----\n【再起】灰塵-ダストが12以上である。'}</v>
-      </c>
-    </row>
-    <row r="118" spans="1:19" ht="36" x14ac:dyDescent="0.15">
-      <c r="A118" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="E118" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F118" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I118" s="13"/>
-      <c r="K118" s="13"/>
-      <c r="M118" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="P118" s="5" t="s">
-        <v>556</v>
-      </c>
-      <c r="Q118" s="13"/>
-      <c r="R118" s="3" t="str">
-        <f>", '"&amp;A118&amp;"': {megami: '"&amp;B118&amp;"', name: '"&amp;C118&amp;"', ruby: '"&amp;D118&amp;"', baseType: '"&amp;VLOOKUP(E118,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(F118,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(G118&lt;&gt;"",", '"&amp; VLOOKUP(G118,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(H118&lt;&gt;"", ", range: '"&amp;H118&amp;"'", "")&amp;IF(J118&lt;&gt;"", ", damage: '"&amp;J118&amp;"'", "")&amp;IF(L118&lt;&gt;"", ", capacity: '"&amp;L118&amp;"'", "")&amp;IF(M118&lt;&gt;"", ", cost: '"&amp;M118&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(P118, CHAR(10), "\n")&amp;"'"&amp;IF(N118="○", ", sealable: true", "")&amp;IF(O118="○", ", removable: true", "")&amp;"}"</f>
+      <c r="S121" s="13"/>
+      <c r="T121" s="3" t="str">
+        <f>", '"&amp;A121&amp;"': {megami: '"&amp;B121&amp;"'"&amp;IF(C121&lt;&gt;"", ", anotherID: '" &amp; C121 &amp; "', replace: '" &amp; D121 &amp; "'", "")&amp;", name: '"&amp;E121&amp;"', ruby: '"&amp;F121&amp;"', baseType: '"&amp;VLOOKUP(G121,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H121,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I121&lt;&gt;"",", '"&amp; VLOOKUP(I121,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J121&lt;&gt;"", ", range: '"&amp;J121&amp;"'", "")&amp;IF(L121&lt;&gt;"", ", damage: '"&amp;L121&amp;"'", "")&amp;IF(N121&lt;&gt;"", ", capacity: '"&amp;N121&amp;"'", "")&amp;IF(O121&lt;&gt;"", ", cost: '"&amp;O121&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R121, CHAR(10), "\n")&amp;"'"&amp;IF(P121="○", ", sealable: true", "")&amp;IF(Q121="○", ", removable: true", "")&amp;"}"</f>
         <v>, '12-utsuro-o-s-4': {megami: 'utsuro', name: '魔食', ruby: 'エロージャ', baseType: 'special', types: ['action'], cost: '5', text: '【使用済】あなたの開始フェイズの開始時に相手は以下のどちらかを選ぶ。\n・相オーラ→ダスト：1\n・相フレア→ダスト：2'}</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="S120" s="1" t="s">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U123" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="S121" s="1" t="s">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U124" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="S122" s="1" t="s">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U125" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="S123" s="1" t="s">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U126" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="C126" s="10"/>
-    </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="C127" s="10"/>
-    </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="C128" s="10"/>
-    </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C129" s="10"/>
-    </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C130" s="10"/>
-    </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C131" s="10"/>
-    </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C132" s="10"/>
-    </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C133" s="10"/>
-    </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C134" s="10"/>
-    </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C135" s="10"/>
+    <row r="129" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E129" s="10"/>
+    </row>
+    <row r="130" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E130" s="10"/>
+    </row>
+    <row r="131" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E131" s="10"/>
+    </row>
+    <row r="132" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E132" s="10"/>
+    </row>
+    <row r="133" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E133" s="10"/>
+    </row>
+    <row r="134" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E134" s="10"/>
+    </row>
+    <row r="135" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E135" s="10"/>
+    </row>
+    <row r="136" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E136" s="10"/>
+    </row>
+    <row r="137" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E137" s="10"/>
+    </row>
+    <row r="138" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E138" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/sheet/cards.xlsx
+++ b/sheet/cards.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="616">
   <si>
     <t>カードID</t>
     <phoneticPr fontId="1"/>
@@ -2350,6 +2350,128 @@
     <rPh sb="2" eb="3">
       <t>モト</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>04-tokoyo-o-n-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yurina</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>himika</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>saine</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01-yurina-A1-n-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>乱打</t>
+    <rPh sb="0" eb="2">
+      <t>ランダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01-yurina-o-n-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>らんだ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2/1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【常時】決死-あなたのライフが3以下ならば、この《攻撃》は+0/+2となり、対応不可を得る。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>癇癪玉</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">かんしゃくだま </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不完全浦波嵐</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ふかんぜんうらなみあらし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対応</t>
+    <rPh sb="0" eb="2">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>付与</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0-10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3/-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【破棄時】攻撃『適正距離0-4、1/-、対応不可、【攻撃後】相手を畏縮させる』を行う。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【攻撃後】対応した《攻撃》は-3/+0となる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01-yurina-A1-n-6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01-yurina-A1-s-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01-yurina-o-n-6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01-yurina-o-s-2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2800,11 +2922,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U138"/>
+  <dimension ref="A1:U147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T13" sqref="T13:T15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2884,762 +3006,696 @@
         <v>246</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>1</v>
+        <v>591</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>3</v>
+        <v>588</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>593</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>41</v>
+        <v>592</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>18</v>
+        <v>594</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="4">
-        <v>4</v>
+        <v>595</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>596</v>
       </c>
       <c r="K2" s="13"/>
       <c r="L2" s="2" t="s">
-        <v>12</v>
+        <v>597</v>
       </c>
       <c r="M2" s="13"/>
-      <c r="R2" s="4" t="s">
-        <v>34</v>
+      <c r="R2" s="5" t="s">
+        <v>598</v>
       </c>
       <c r="S2" s="13"/>
       <c r="T2" s="3" t="str">
         <f>", '"&amp;A2&amp;"': {megami: '"&amp;B2&amp;"'"&amp;IF(C2&lt;&gt;"", ", anotherID: '" &amp; C2 &amp; "', replace: '" &amp; D2 &amp; "'", "")&amp;", name: '"&amp;E2&amp;"', ruby: '"&amp;F2&amp;"', baseType: '"&amp;VLOOKUP(G2,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H2,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I2&lt;&gt;"",", '"&amp; VLOOKUP(I2,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J2&lt;&gt;"", ", range: '"&amp;J2&amp;"'", "")&amp;IF(L2&lt;&gt;"", ", damage: '"&amp;L2&amp;"'", "")&amp;IF(N2&lt;&gt;"", ", capacity: '"&amp;N2&amp;"'", "")&amp;IF(O2&lt;&gt;"", ", cost: '"&amp;O2&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R2, CHAR(10), "\n")&amp;"'"&amp;IF(P2="○", ", sealable: true", "")&amp;IF(Q2="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '04-tokoyo-o-n-1': {megami: 'tokoyo', name: '梳流し', ruby: 'すきながし', baseType: 'normal', types: ['attack'], range: '4', damage: '-/1', text: '【攻撃後】境地-あなたの集中力が2ならば、このカードを山札の上に戻す。'}</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
+        <v>, '01-yurina-A1-n-1': {megami: 'yurina', anotherID: 'A1', replace: '01-yurina-o-n-1', name: '乱打', ruby: 'らんだ', baseType: 'normal', types: ['attack'], range: '2', damage: '2/1', text: '【常時】決死-あなたのライフが3以下ならば、この《攻撃》は+0/+2となり、対応不可を得る。'}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>35</v>
+        <v>612</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>588</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>614</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>42</v>
+        <v>599</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>62</v>
+        <v>600</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>58</v>
+        <v>605</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>604</v>
       </c>
       <c r="K3" s="13"/>
-      <c r="L3" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="M3" s="13"/>
-      <c r="R3" s="4" t="s">
-        <v>73</v>
+      <c r="N3" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>609</v>
       </c>
       <c r="S3" s="13"/>
       <c r="T3" s="3" t="str">
         <f>", '"&amp;A3&amp;"': {megami: '"&amp;B3&amp;"'"&amp;IF(C3&lt;&gt;"", ", anotherID: '" &amp; C3 &amp; "', replace: '" &amp; D3 &amp; "'", "")&amp;", name: '"&amp;E3&amp;"', ruby: '"&amp;F3&amp;"', baseType: '"&amp;VLOOKUP(G3,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H3,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I3&lt;&gt;"",", '"&amp; VLOOKUP(I3,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J3&lt;&gt;"", ", range: '"&amp;J3&amp;"'", "")&amp;IF(L3&lt;&gt;"", ", damage: '"&amp;L3&amp;"'", "")&amp;IF(N3&lt;&gt;"", ", capacity: '"&amp;N3&amp;"'", "")&amp;IF(O3&lt;&gt;"", ", cost: '"&amp;O3&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R3, CHAR(10), "\n")&amp;"'"&amp;IF(P3="○", ", sealable: true", "")&amp;IF(Q3="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '04-tokoyo-o-n-2': {megami: 'tokoyo', name: '雅打ち', ruby: 'みやびうち', baseType: 'normal', types: ['attack'], range: '2-4', damage: '2/1', text: '【攻撃後】境地-あなたの集中力が2ならば、対応した切札でない《攻撃》を打ち消す。'}</v>
+        <v>, '01-yurina-A1-n-6': {megami: 'yurina', anotherID: 'A1', replace: '01-yurina-o-n-6', name: '癇癪玉', ruby: 'かんしゃくだま ', baseType: 'normal', types: ['enhance', 'reaction'], capacity: '１', text: '【破棄時】攻撃『適正距離0-4、1/-、対応不可、【攻撃後】相手を畏縮させる』を行う。'}</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>36</v>
+        <v>613</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>3</v>
+        <v>588</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>615</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>43</v>
+        <v>601</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>63</v>
+        <v>602</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>23</v>
+        <v>603</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>606</v>
       </c>
       <c r="K4" s="13"/>
+      <c r="L4" s="2" t="s">
+        <v>607</v>
+      </c>
       <c r="M4" s="13"/>
+      <c r="O4" s="4" t="s">
+        <v>608</v>
+      </c>
       <c r="R4" s="5" t="s">
-        <v>72</v>
+        <v>611</v>
       </c>
       <c r="S4" s="13"/>
       <c r="T4" s="3" t="str">
         <f>", '"&amp;A4&amp;"': {megami: '"&amp;B4&amp;"'"&amp;IF(C4&lt;&gt;"", ", anotherID: '" &amp; C4 &amp; "', replace: '" &amp; D4 &amp; "'", "")&amp;", name: '"&amp;E4&amp;"', ruby: '"&amp;F4&amp;"', baseType: '"&amp;VLOOKUP(G4,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H4,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I4&lt;&gt;"",", '"&amp; VLOOKUP(I4,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J4&lt;&gt;"", ", range: '"&amp;J4&amp;"'", "")&amp;IF(L4&lt;&gt;"", ", damage: '"&amp;L4&amp;"'", "")&amp;IF(N4&lt;&gt;"", ", capacity: '"&amp;N4&amp;"'", "")&amp;IF(O4&lt;&gt;"", ", cost: '"&amp;O4&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R4, CHAR(10), "\n")&amp;"'"&amp;IF(P4="○", ", sealable: true", "")&amp;IF(Q4="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '04-tokoyo-o-n-3': {megami: 'tokoyo', name: '跳ね兎', ruby: 'はねうさぎ', baseType: 'normal', types: ['action'], text: '現在の間合が3以下ならば、ダスト→間合：2'}</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="36" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
-        <v>37</v>
-      </c>
+        <v>, '01-yurina-A1-s-2': {megami: 'yurina', anotherID: 'A1', replace: '01-yurina-o-s-2', name: '不完全浦波嵐', ruby: 'ふかんぜんうらなみあらし', baseType: 'special', types: ['attack', 'reaction'], range: '0-10', damage: '3/-', cost: '5', text: '【攻撃後】対応した《攻撃》は-3/+0となる。'}</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>64</v>
+        <v>589</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>567</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="K5" s="13"/>
       <c r="M5" s="13"/>
-      <c r="R5" s="5" t="s">
-        <v>71</v>
-      </c>
+      <c r="R5" s="5"/>
       <c r="S5" s="13"/>
-      <c r="T5" s="3" t="str">
+      <c r="T5" s="3" t="e">
         <f>", '"&amp;A5&amp;"': {megami: '"&amp;B5&amp;"'"&amp;IF(C5&lt;&gt;"", ", anotherID: '" &amp; C5 &amp; "', replace: '" &amp; D5 &amp; "'", "")&amp;", name: '"&amp;E5&amp;"', ruby: '"&amp;F5&amp;"', baseType: '"&amp;VLOOKUP(G5,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H5,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I5&lt;&gt;"",", '"&amp; VLOOKUP(I5,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J5&lt;&gt;"", ", range: '"&amp;J5&amp;"'", "")&amp;IF(L5&lt;&gt;"", ", damage: '"&amp;L5&amp;"'", "")&amp;IF(N5&lt;&gt;"", ", capacity: '"&amp;N5&amp;"'", "")&amp;IF(O5&lt;&gt;"", ", cost: '"&amp;O5&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R5, CHAR(10), "\n")&amp;"'"&amp;IF(P5="○", ", sealable: true", "")&amp;IF(Q5="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '04-tokoyo-o-n-4': {megami: 'tokoyo', name: '詩舞', ruby: 'しぶ', baseType: 'normal', types: ['action', 'reaction'], text: '集中力を1得て、以下から1つを選ぶ。\n・自フレア→自オーラ：1\n・自オーラ→間合：1'}</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="36" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
-        <v>38</v>
-      </c>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>65</v>
+        <v>589</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>567</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="K6" s="13"/>
       <c r="M6" s="13"/>
-      <c r="R6" s="5" t="s">
-        <v>70</v>
-      </c>
+      <c r="R6" s="5"/>
       <c r="S6" s="13"/>
-      <c r="T6" s="3" t="str">
+      <c r="T6" s="3" t="e">
         <f>", '"&amp;A6&amp;"': {megami: '"&amp;B6&amp;"'"&amp;IF(C6&lt;&gt;"", ", anotherID: '" &amp; C6 &amp; "', replace: '" &amp; D6 &amp; "'", "")&amp;", name: '"&amp;E6&amp;"', ruby: '"&amp;F6&amp;"', baseType: '"&amp;VLOOKUP(G6,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H6,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I6&lt;&gt;"",", '"&amp; VLOOKUP(I6,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J6&lt;&gt;"", ", range: '"&amp;J6&amp;"'", "")&amp;IF(L6&lt;&gt;"", ", damage: '"&amp;L6&amp;"'", "")&amp;IF(N6&lt;&gt;"", ", capacity: '"&amp;N6&amp;"'", "")&amp;IF(O6&lt;&gt;"", ", cost: '"&amp;O6&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R6, CHAR(10), "\n")&amp;"'"&amp;IF(P6="○", ", sealable: true", "")&amp;IF(Q6="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '04-tokoyo-o-n-5': {megami: 'tokoyo', name: '要返し', ruby: 'かなめがえし', baseType: 'normal', types: ['action', 'fullpower'], text: '捨て札か伏せ札からカードを2枚まで選ぶ。それらのカードを好きな順で山札の底に置く。 \nダスト→自オーラ：2'}</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="24" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>66</v>
+        <v>589</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>567</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="K7" s="13"/>
       <c r="M7" s="13"/>
-      <c r="N7" s="4">
-        <v>2</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>68</v>
-      </c>
+      <c r="R7" s="5"/>
       <c r="S7" s="13"/>
-      <c r="T7" s="3" t="str">
+      <c r="T7" s="3" t="e">
         <f>", '"&amp;A7&amp;"': {megami: '"&amp;B7&amp;"'"&amp;IF(C7&lt;&gt;"", ", anotherID: '" &amp; C7 &amp; "', replace: '" &amp; D7 &amp; "'", "")&amp;", name: '"&amp;E7&amp;"', ruby: '"&amp;F7&amp;"', baseType: '"&amp;VLOOKUP(G7,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H7,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I7&lt;&gt;"",", '"&amp; VLOOKUP(I7,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J7&lt;&gt;"", ", range: '"&amp;J7&amp;"'", "")&amp;IF(L7&lt;&gt;"", ", damage: '"&amp;L7&amp;"'", "")&amp;IF(N7&lt;&gt;"", ", capacity: '"&amp;N7&amp;"'", "")&amp;IF(O7&lt;&gt;"", ", cost: '"&amp;O7&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R7, CHAR(10), "\n")&amp;"'"&amp;IF(P7="○", ", sealable: true", "")&amp;IF(Q7="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '04-tokoyo-o-n-6': {megami: 'tokoyo', name: '風舞台', ruby: 'かぜぶたい', baseType: 'normal', types: ['enhance'], capacity: '2', text: '【展開時】間合→自オーラ：2 \n【破棄時】自オーラ→間合：2'}</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="24" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
-        <v>40</v>
-      </c>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>67</v>
+        <v>590</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>567</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="K8" s="13"/>
       <c r="M8" s="13"/>
-      <c r="N8" s="4">
-        <v>1</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>69</v>
-      </c>
+      <c r="R8" s="5"/>
       <c r="S8" s="13"/>
-      <c r="T8" s="3" t="str">
+      <c r="T8" s="3" t="e">
         <f>", '"&amp;A8&amp;"': {megami: '"&amp;B8&amp;"'"&amp;IF(C8&lt;&gt;"", ", anotherID: '" &amp; C8 &amp; "', replace: '" &amp; D8 &amp; "'", "")&amp;", name: '"&amp;E8&amp;"', ruby: '"&amp;F8&amp;"', baseType: '"&amp;VLOOKUP(G8,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H8,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I8&lt;&gt;"",", '"&amp; VLOOKUP(I8,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J8&lt;&gt;"", ", range: '"&amp;J8&amp;"'", "")&amp;IF(L8&lt;&gt;"", ", damage: '"&amp;L8&amp;"'", "")&amp;IF(N8&lt;&gt;"", ", capacity: '"&amp;N8&amp;"'", "")&amp;IF(O8&lt;&gt;"", ", cost: '"&amp;O8&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R8, CHAR(10), "\n")&amp;"'"&amp;IF(P8="○", ", sealable: true", "")&amp;IF(Q8="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '04-tokoyo-o-n-7': {megami: 'tokoyo', name: '晴舞台', ruby: 'はれぶたい', baseType: 'normal', types: ['enhance'], capacity: '1', text: '【破棄時】境地-あなたの集中力が2ならば、ダスト→自オーラ：2 \n【破棄時】境地-あなたは集中力を1得る。'}</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="B9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>89</v>
+        <v>590</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>567</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="K9" s="13"/>
-      <c r="L9" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="M9" s="13"/>
-      <c r="O9" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>83</v>
-      </c>
+      <c r="R9" s="5"/>
       <c r="S9" s="13"/>
-      <c r="T9" s="3" t="str">
+      <c r="T9" s="3" t="e">
         <f>", '"&amp;A9&amp;"': {megami: '"&amp;B9&amp;"'"&amp;IF(C9&lt;&gt;"", ", anotherID: '" &amp; C9 &amp; "', replace: '" &amp; D9 &amp; "'", "")&amp;", name: '"&amp;E9&amp;"', ruby: '"&amp;F9&amp;"', baseType: '"&amp;VLOOKUP(G9,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H9,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I9&lt;&gt;"",", '"&amp; VLOOKUP(I9,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J9&lt;&gt;"", ", range: '"&amp;J9&amp;"'", "")&amp;IF(L9&lt;&gt;"", ", damage: '"&amp;L9&amp;"'", "")&amp;IF(N9&lt;&gt;"", ", capacity: '"&amp;N9&amp;"'", "")&amp;IF(O9&lt;&gt;"", ", cost: '"&amp;O9&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R9, CHAR(10), "\n")&amp;"'"&amp;IF(P9="○", ", sealable: true", "")&amp;IF(Q9="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '04-tokoyo-o-s-1': {megami: 'tokoyo', name: '久遠ノ花', ruby: 'くおんのはな', baseType: 'special', types: ['attack'], range: '0-10', damage: '-/1', cost: '5', text: '【攻撃後】対応した《攻撃》を打ち消す。'}</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="24" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
-        <v>75</v>
-      </c>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>88</v>
+        <v>590</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>567</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>79</v>
-      </c>
       <c r="K10" s="13"/>
-      <c r="L10" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="M10" s="13"/>
-      <c r="O10" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="R10" s="5" t="s">
-        <v>84</v>
-      </c>
+      <c r="R10" s="5"/>
       <c r="S10" s="13"/>
-      <c r="T10" s="3" t="str">
+      <c r="T10" s="3" t="e">
         <f>", '"&amp;A10&amp;"': {megami: '"&amp;B10&amp;"'"&amp;IF(C10&lt;&gt;"", ", anotherID: '" &amp; C10 &amp; "', replace: '" &amp; D10 &amp; "'", "")&amp;", name: '"&amp;E10&amp;"', ruby: '"&amp;F10&amp;"', baseType: '"&amp;VLOOKUP(G10,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H10,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I10&lt;&gt;"",", '"&amp; VLOOKUP(I10,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J10&lt;&gt;"", ", range: '"&amp;J10&amp;"'", "")&amp;IF(L10&lt;&gt;"", ", damage: '"&amp;L10&amp;"'", "")&amp;IF(N10&lt;&gt;"", ", capacity: '"&amp;N10&amp;"'", "")&amp;IF(O10&lt;&gt;"", ", cost: '"&amp;O10&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R10, CHAR(10), "\n")&amp;"'"&amp;IF(P10="○", ", sealable: true", "")&amp;IF(Q10="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '04-tokoyo-o-s-2': {megami: 'tokoyo', name: '千歳ノ鳥', ruby: 'ちとせのとり', baseType: 'special', types: ['attack'], range: '3-4', damage: '2/2', cost: '2', text: '【攻撃後】山札を再構成する。 \n(その際にダメージは受けない)'}</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="60" x14ac:dyDescent="0.15">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>80</v>
+        <v>9</v>
+      </c>
+      <c r="J11" s="4">
+        <v>4</v>
       </c>
       <c r="K11" s="13"/>
       <c r="L11" s="2" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="M11" s="13"/>
-      <c r="O11" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="R11" s="5" t="s">
-        <v>580</v>
+      <c r="R11" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="S11" s="13"/>
       <c r="T11" s="3" t="str">
         <f>", '"&amp;A11&amp;"': {megami: '"&amp;B11&amp;"'"&amp;IF(C11&lt;&gt;"", ", anotherID: '" &amp; C11 &amp; "', replace: '" &amp; D11 &amp; "'", "")&amp;", name: '"&amp;E11&amp;"', ruby: '"&amp;F11&amp;"', baseType: '"&amp;VLOOKUP(G11,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H11,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I11&lt;&gt;"",", '"&amp; VLOOKUP(I11,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J11&lt;&gt;"", ", range: '"&amp;J11&amp;"'", "")&amp;IF(L11&lt;&gt;"", ", damage: '"&amp;L11&amp;"'", "")&amp;IF(N11&lt;&gt;"", ", capacity: '"&amp;N11&amp;"'", "")&amp;IF(O11&lt;&gt;"", ", cost: '"&amp;O11&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R11, CHAR(10), "\n")&amp;"'"&amp;IF(P11="○", ", sealable: true", "")&amp;IF(Q11="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '04-tokoyo-o-s-3': {megami: 'tokoyo', name: '無窮ノ風', ruby: 'むきゅうのかぜ', baseType: 'special', types: ['attack'], range: '3-8', damage: '1/1', cost: '1', text: '対応不可 \n【攻撃後】相手は手札から《攻撃》でないカード1枚を捨て札にする。それが行えない場合、相手は手札を公開する。 \n----\n【再起】境地-あなたの集中力が2である。'}</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
+        <v>, '04-tokoyo-o-n-1': {megami: 'tokoyo', name: '梳流し', ruby: 'すきながし', baseType: 'normal', types: ['attack'], range: '4', damage: '-/1', text: '【攻撃後】境地-あなたの集中力が2ならば、このカードを山札の上に戻す。'}</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="48" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>77</v>
+        <v>582</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="C12" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>587</v>
+      </c>
       <c r="E12" s="4" t="s">
-        <v>54</v>
+        <v>569</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>86</v>
+        <v>574</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>23</v>
+        <v>8</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>570</v>
       </c>
       <c r="K12" s="13"/>
+      <c r="L12" s="2" t="s">
+        <v>301</v>
+      </c>
       <c r="M12" s="13"/>
-      <c r="O12" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="R12" s="4" t="s">
-        <v>85</v>
+      <c r="R12" s="5" t="s">
+        <v>578</v>
       </c>
       <c r="S12" s="13"/>
       <c r="T12" s="3" t="str">
         <f>", '"&amp;A12&amp;"': {megami: '"&amp;B12&amp;"'"&amp;IF(C12&lt;&gt;"", ", anotherID: '" &amp; C12 &amp; "', replace: '" &amp; D12 &amp; "'", "")&amp;", name: '"&amp;E12&amp;"', ruby: '"&amp;F12&amp;"', baseType: '"&amp;VLOOKUP(G12,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H12,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I12&lt;&gt;"",", '"&amp; VLOOKUP(I12,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J12&lt;&gt;"", ", range: '"&amp;J12&amp;"'", "")&amp;IF(L12&lt;&gt;"", ", damage: '"&amp;L12&amp;"'", "")&amp;IF(N12&lt;&gt;"", ", capacity: '"&amp;N12&amp;"'", "")&amp;IF(O12&lt;&gt;"", ", cost: '"&amp;O12&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R12, CHAR(10), "\n")&amp;"'"&amp;IF(P12="○", ", sealable: true", "")&amp;IF(Q12="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '04-tokoyo-o-s-4': {megami: 'tokoyo', name: '常世ノ月', ruby: 'とこよのつき', baseType: 'special', types: ['action'], cost: '2', text: 'あなたの集中力は2になり、相手の集中力は0になり、相手を畏縮させる。'}</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="48" x14ac:dyDescent="0.15">
+        <v>, '04-tokoyo-A1-n-1': {megami: 'tokoyo', anotherID: 'A1', replace: '04-tokoyo-o-n-1', name: '奏流し', ruby: 'かなでながし', baseType: 'normal', types: ['attack'], range: '5', damage: '-/1', text: '【常時】あなたのトコヨの切札が1枚以上使用済ならば、この《攻撃》は対応不可を得る。 \n【攻撃後】境地-あなたの集中力が2かつ、あなたの他のメガミの切札が1枚以上使用済ならば、このカードを山札の上に置く。'}</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>582</v>
+        <v>35</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>567</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="E13" s="4" t="s">
-        <v>569</v>
+        <v>42</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>574</v>
+        <v>62</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>570</v>
+        <v>58</v>
       </c>
       <c r="K13" s="13"/>
       <c r="L13" s="2" t="s">
-        <v>301</v>
+        <v>59</v>
       </c>
       <c r="M13" s="13"/>
-      <c r="R13" s="5" t="s">
-        <v>578</v>
+      <c r="R13" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="S13" s="13"/>
       <c r="T13" s="3" t="str">
         <f>", '"&amp;A13&amp;"': {megami: '"&amp;B13&amp;"'"&amp;IF(C13&lt;&gt;"", ", anotherID: '" &amp; C13 &amp; "', replace: '" &amp; D13 &amp; "'", "")&amp;", name: '"&amp;E13&amp;"', ruby: '"&amp;F13&amp;"', baseType: '"&amp;VLOOKUP(G13,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H13,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I13&lt;&gt;"",", '"&amp; VLOOKUP(I13,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J13&lt;&gt;"", ", range: '"&amp;J13&amp;"'", "")&amp;IF(L13&lt;&gt;"", ", damage: '"&amp;L13&amp;"'", "")&amp;IF(N13&lt;&gt;"", ", capacity: '"&amp;N13&amp;"'", "")&amp;IF(O13&lt;&gt;"", ", cost: '"&amp;O13&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R13, CHAR(10), "\n")&amp;"'"&amp;IF(P13="○", ", sealable: true", "")&amp;IF(Q13="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '04-tokoyo-A1-n-1': {megami: 'tokoyo', anotherID: 'A1', replace: '04-tokoyo-o-n-5', name: '奏流し', ruby: 'かなでながし', baseType: 'normal', types: ['attack'], range: '5', damage: '-/1', text: '【常時】あなたのトコヨの切札が1枚以上使用済ならば、この《攻撃》は対応不可を得る。 \n【攻撃後】境地-あなたの集中力が2かつ、あなたの他のメガミの切札が1枚以上使用済ならば、このカードを山札の上に置く。'}</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+        <v>, '04-tokoyo-o-n-2': {megami: 'tokoyo', name: '雅打ち', ruby: 'みやびうち', baseType: 'normal', types: ['attack'], range: '2-4', damage: '2/1', text: '【攻撃後】境地-あなたの集中力が2ならば、対応した切札でない《攻撃》を打ち消す。'}</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>583</v>
+        <v>36</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>568</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="E14" s="4" t="s">
-        <v>573</v>
+        <v>43</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>576</v>
+        <v>63</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="K14" s="13"/>
       <c r="M14" s="13"/>
-      <c r="N14" s="4" t="s">
-        <v>571</v>
-      </c>
       <c r="R14" s="5" t="s">
-        <v>579</v>
+        <v>72</v>
       </c>
       <c r="S14" s="13"/>
       <c r="T14" s="3" t="str">
         <f>", '"&amp;A14&amp;"': {megami: '"&amp;B14&amp;"'"&amp;IF(C14&lt;&gt;"", ", anotherID: '" &amp; C14 &amp; "', replace: '" &amp; D14 &amp; "'", "")&amp;", name: '"&amp;E14&amp;"', ruby: '"&amp;F14&amp;"', baseType: '"&amp;VLOOKUP(G14,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H14,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I14&lt;&gt;"",", '"&amp; VLOOKUP(I14,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J14&lt;&gt;"", ", range: '"&amp;J14&amp;"'", "")&amp;IF(L14&lt;&gt;"", ", damage: '"&amp;L14&amp;"'", "")&amp;IF(N14&lt;&gt;"", ", capacity: '"&amp;N14&amp;"'", "")&amp;IF(O14&lt;&gt;"", ", cost: '"&amp;O14&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R14, CHAR(10), "\n")&amp;"'"&amp;IF(P14="○", ", sealable: true", "")&amp;IF(Q14="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '04-tokoyo-A1-n-7': {megami: 'tokoyo', anotherID: 'A1', replace: '04-tokoyo-o-n-7', name: '陽の音', ruby: 'ひのね', baseType: 'normal', types: ['enhance'], capacity: '2', text: '【展開時/展開中】展開時、およびあなたが《対応》カードを使用した時、その解決後にダスト→自オーラ：1 \n【展開中】相手のターンにこのカードの上の桜花結晶は移動しない。'}</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="48" x14ac:dyDescent="0.15">
+        <v>, '04-tokoyo-o-n-3': {megami: 'tokoyo', name: '跳ね兎', ruby: 'はねうさぎ', baseType: 'normal', types: ['action'], text: '現在の間合が3以下ならば、ダスト→間合：2'}</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="36" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>584</v>
+        <v>37</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>568</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>75</v>
-      </c>
       <c r="E15" s="4" t="s">
-        <v>575</v>
+        <v>45</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>577</v>
+        <v>64</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="I15" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="K15" s="13"/>
       <c r="M15" s="13"/>
-      <c r="O15" s="4" t="s">
-        <v>572</v>
-      </c>
       <c r="R15" s="5" t="s">
-        <v>581</v>
+        <v>71</v>
       </c>
       <c r="S15" s="13"/>
       <c r="T15" s="3" t="str">
         <f>", '"&amp;A15&amp;"': {megami: '"&amp;B15&amp;"'"&amp;IF(C15&lt;&gt;"", ", anotherID: '" &amp; C15 &amp; "', replace: '" &amp; D15 &amp; "'", "")&amp;", name: '"&amp;E15&amp;"', ruby: '"&amp;F15&amp;"', baseType: '"&amp;VLOOKUP(G15,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H15,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I15&lt;&gt;"",", '"&amp; VLOOKUP(I15,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J15&lt;&gt;"", ", range: '"&amp;J15&amp;"'", "")&amp;IF(L15&lt;&gt;"", ", damage: '"&amp;L15&amp;"'", "")&amp;IF(N15&lt;&gt;"", ", capacity: '"&amp;N15&amp;"'", "")&amp;IF(O15&lt;&gt;"", ", cost: '"&amp;O15&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R15, CHAR(10), "\n")&amp;"'"&amp;IF(P15="○", ", sealable: true", "")&amp;IF(Q15="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '04-tokoyo-A1-s-2': {megami: 'tokoyo', anotherID: 'A1', replace: '04-tokoyo-o-s-2', name: '二重奏:吹弾陽明', ruby: 'にじゅうそう：すいだんようめい', baseType: 'special', types: ['action'], cost: '1', text: '【使用済】あなたの開始フェイズの開始時に捨て札または伏せ札からカード1枚を選び、それを山札の底に置いてもよい。 \n----\n【即再起】あなたが再構成以外でライフに1以上のダメージを受ける。'}</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
+        <v>, '04-tokoyo-o-n-4': {megami: 'tokoyo', name: '詩舞', ruby: 'しぶ', baseType: 'normal', types: ['action', 'reaction'], text: '集中力を1得て、以下から1つを選ぶ。\n・自フレア→自オーラ：1\n・自オーラ→間合：1'}</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="36" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>79</v>
+        <v>23</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="K16" s="13"/>
-      <c r="L16" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="M16" s="13"/>
-      <c r="R16" s="6" t="s">
-        <v>105</v>
+      <c r="R16" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="S16" s="13"/>
       <c r="T16" s="3" t="str">
         <f>", '"&amp;A16&amp;"': {megami: '"&amp;B16&amp;"'"&amp;IF(C16&lt;&gt;"", ", anotherID: '" &amp; C16 &amp; "', replace: '" &amp; D16 &amp; "'", "")&amp;", name: '"&amp;E16&amp;"', ruby: '"&amp;F16&amp;"', baseType: '"&amp;VLOOKUP(G16,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H16,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I16&lt;&gt;"",", '"&amp; VLOOKUP(I16,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J16&lt;&gt;"", ", range: '"&amp;J16&amp;"'", "")&amp;IF(L16&lt;&gt;"", ", damage: '"&amp;L16&amp;"'", "")&amp;IF(N16&lt;&gt;"", ", capacity: '"&amp;N16&amp;"'", "")&amp;IF(O16&lt;&gt;"", ", cost: '"&amp;O16&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R16, CHAR(10), "\n")&amp;"'"&amp;IF(P16="○", ", sealable: true", "")&amp;IF(Q16="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '05-oboro-o-n-1': {megami: 'oboro', name: '鋼糸', ruby: 'こうし', baseType: 'normal', types: ['attack'], range: '3-4', damage: '2/2', text: '設置'}</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="33.75" x14ac:dyDescent="0.15">
+        <v>, '04-tokoyo-o-n-5': {megami: 'tokoyo', name: '要返し', ruby: 'かなめがえし', baseType: 'normal', types: ['action', 'fullpower'], text: '捨て札か伏せ札からカードを2枚まで選ぶ。それらのカードを好きな順で山札の底に置く。 \nダスト→自オーラ：2'}</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K17" s="13"/>
-      <c r="L17" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="M17" s="13"/>
-      <c r="R17" s="7" t="s">
-        <v>135</v>
+      <c r="N17" s="4">
+        <v>2</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="S17" s="13"/>
       <c r="T17" s="3" t="str">
         <f>", '"&amp;A17&amp;"': {megami: '"&amp;B17&amp;"'"&amp;IF(C17&lt;&gt;"", ", anotherID: '" &amp; C17 &amp; "', replace: '" &amp; D17 &amp; "'", "")&amp;", name: '"&amp;E17&amp;"', ruby: '"&amp;F17&amp;"', baseType: '"&amp;VLOOKUP(G17,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H17,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I17&lt;&gt;"",", '"&amp; VLOOKUP(I17,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J17&lt;&gt;"", ", range: '"&amp;J17&amp;"'", "")&amp;IF(L17&lt;&gt;"", ", damage: '"&amp;L17&amp;"'", "")&amp;IF(N17&lt;&gt;"", ", capacity: '"&amp;N17&amp;"'", "")&amp;IF(O17&lt;&gt;"", ", cost: '"&amp;O17&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R17, CHAR(10), "\n")&amp;"'"&amp;IF(P17="○", ", sealable: true", "")&amp;IF(Q17="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '05-oboro-o-n-2': {megami: 'oboro', name: '影菱', ruby: 'かげびし', baseType: 'normal', types: ['attack'], range: '2', damage: '2/1', text: '設置　対応不可\n【攻撃後】このカードを伏せ札から使用したならば、相手の手札を見てその中から1枚を選び、それを伏せ札にする。'}</v>
+        <v>, '04-tokoyo-o-n-6': {megami: 'tokoyo', name: '風舞台', ruby: 'かぜぶたい', baseType: 'normal', types: ['enhance'], capacity: '2', text: '【展開時】間合→自オーラ：2 \n【破棄時】自オーラ→間合：2'}</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>119</v>
+        <v>67</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="K18" s="13"/>
-      <c r="L18" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="M18" s="13"/>
+      <c r="N18" s="4">
+        <v>1</v>
+      </c>
       <c r="R18" s="5" t="s">
-        <v>136</v>
+        <v>69</v>
       </c>
       <c r="S18" s="13"/>
       <c r="T18" s="3" t="str">
         <f>", '"&amp;A18&amp;"': {megami: '"&amp;B18&amp;"'"&amp;IF(C18&lt;&gt;"", ", anotherID: '" &amp; C18 &amp; "', replace: '" &amp; D18 &amp; "'", "")&amp;", name: '"&amp;E18&amp;"', ruby: '"&amp;F18&amp;"', baseType: '"&amp;VLOOKUP(G18,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H18,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I18&lt;&gt;"",", '"&amp; VLOOKUP(I18,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J18&lt;&gt;"", ", range: '"&amp;J18&amp;"'", "")&amp;IF(L18&lt;&gt;"", ", damage: '"&amp;L18&amp;"'", "")&amp;IF(N18&lt;&gt;"", ", capacity: '"&amp;N18&amp;"'", "")&amp;IF(O18&lt;&gt;"", ", cost: '"&amp;O18&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R18, CHAR(10), "\n")&amp;"'"&amp;IF(P18="○", ", sealable: true", "")&amp;IF(Q18="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '05-oboro-o-n-3': {megami: 'oboro', name: '斬撃乱舞', ruby: 'ざんげきらんぶ', baseType: 'normal', types: ['attack', 'fullpower'], range: '2-4', damage: '3/2', text: '【常時】相手がこのターン中にオーラへのダメージを受けているならば、この《攻撃》は+1/+1となる。'}</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="48" x14ac:dyDescent="0.15">
+        <v>, '04-tokoyo-o-n-7': {megami: 'tokoyo', name: '晴舞台', ruby: 'はれぶたい', baseType: 'normal', types: ['enhance'], capacity: '1', text: '【破棄時】境地-あなたの集中力が2ならば、ダスト→自オーラ：2 \n【破棄時】境地-あなたは集中力を1得る。'}</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="36" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>95</v>
+        <v>583</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>103</v>
+        <v>3</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>109</v>
+        <v>573</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>120</v>
+        <v>576</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="K19" s="13"/>
       <c r="M19" s="13"/>
+      <c r="N19" s="4" t="s">
+        <v>571</v>
+      </c>
       <c r="R19" s="5" t="s">
-        <v>197</v>
+        <v>579</v>
       </c>
       <c r="S19" s="13"/>
       <c r="T19" s="3" t="str">
         <f>", '"&amp;A19&amp;"': {megami: '"&amp;B19&amp;"'"&amp;IF(C19&lt;&gt;"", ", anotherID: '" &amp; C19 &amp; "', replace: '" &amp; D19 &amp; "'", "")&amp;", name: '"&amp;E19&amp;"', ruby: '"&amp;F19&amp;"', baseType: '"&amp;VLOOKUP(G19,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H19,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I19&lt;&gt;"",", '"&amp; VLOOKUP(I19,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J19&lt;&gt;"", ", range: '"&amp;J19&amp;"'", "")&amp;IF(L19&lt;&gt;"", ", damage: '"&amp;L19&amp;"'", "")&amp;IF(N19&lt;&gt;"", ", capacity: '"&amp;N19&amp;"'", "")&amp;IF(O19&lt;&gt;"", ", cost: '"&amp;O19&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R19, CHAR(10), "\n")&amp;"'"&amp;IF(P19="○", ", sealable: true", "")&amp;IF(Q19="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '05-oboro-o-n-4': {megami: 'oboro', name: '忍歩', ruby: 'にんぽ', baseType: 'normal', types: ['action'], text: '設置 \n間合⇔ダスト：1 \nこのカードを伏せ札から使用したならば、伏せ札から設置を持つカードを1枚使用してもよい。'}</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="48" x14ac:dyDescent="0.15">
+        <v>, '04-tokoyo-A1-n-7': {megami: 'tokoyo', anotherID: 'A1', replace: '04-tokoyo-o-n-7', name: '陽の音', ruby: 'ひのね', baseType: 'normal', types: ['enhance'], capacity: '2', text: '【展開時/展開中】展開時、およびあなたが《対応》カードを使用した時、その解決後にダスト→自オーラ：1 \n【展開中】相手のターンにこのカードの上の桜花結晶は移動しない。'}</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>28</v>
+        <v>8</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="K20" s="13"/>
+      <c r="L20" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="M20" s="13"/>
-      <c r="R20" s="5" t="s">
-        <v>198</v>
+      <c r="O20" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="S20" s="13"/>
       <c r="T20" s="3" t="str">
         <f>", '"&amp;A20&amp;"': {megami: '"&amp;B20&amp;"'"&amp;IF(C20&lt;&gt;"", ", anotherID: '" &amp; C20 &amp; "', replace: '" &amp; D20 &amp; "'", "")&amp;", name: '"&amp;E20&amp;"', ruby: '"&amp;F20&amp;"', baseType: '"&amp;VLOOKUP(G20,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H20,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I20&lt;&gt;"",", '"&amp; VLOOKUP(I20,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J20&lt;&gt;"", ", range: '"&amp;J20&amp;"'", "")&amp;IF(L20&lt;&gt;"", ", damage: '"&amp;L20&amp;"'", "")&amp;IF(N20&lt;&gt;"", ", capacity: '"&amp;N20&amp;"'", "")&amp;IF(O20&lt;&gt;"", ", cost: '"&amp;O20&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R20, CHAR(10), "\n")&amp;"'"&amp;IF(P20="○", ", sealable: true", "")&amp;IF(Q20="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '05-oboro-o-n-5': {megami: 'oboro', name: '誘導', ruby: 'ゆうどう', baseType: 'normal', types: ['action', 'reaction'], text: '設置\n以下から１つを選ぶ。\n・間合→相オーラ：1\n・相オーラ→相フレア：1'}</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+        <v>, '04-tokoyo-o-s-1': {megami: 'tokoyo', name: '久遠ノ花', ruby: 'くおんのはな', baseType: 'special', types: ['attack'], range: '0-10', damage: '-/1', cost: '5', text: '【攻撃後】対応した《攻撃》を打ち消す。'}</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="K21" s="13"/>
+      <c r="L21" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="M21" s="13"/>
+      <c r="O21" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="R21" s="5" t="s">
-        <v>137</v>
+        <v>84</v>
       </c>
       <c r="S21" s="13"/>
       <c r="T21" s="3" t="str">
         <f>", '"&amp;A21&amp;"': {megami: '"&amp;B21&amp;"'"&amp;IF(C21&lt;&gt;"", ", anotherID: '" &amp; C21 &amp; "', replace: '" &amp; D21 &amp; "'", "")&amp;", name: '"&amp;E21&amp;"', ruby: '"&amp;F21&amp;"', baseType: '"&amp;VLOOKUP(G21,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H21,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I21&lt;&gt;"",", '"&amp; VLOOKUP(I21,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J21&lt;&gt;"", ", range: '"&amp;J21&amp;"'", "")&amp;IF(L21&lt;&gt;"", ", damage: '"&amp;L21&amp;"'", "")&amp;IF(N21&lt;&gt;"", ", capacity: '"&amp;N21&amp;"'", "")&amp;IF(O21&lt;&gt;"", ", cost: '"&amp;O21&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R21, CHAR(10), "\n")&amp;"'"&amp;IF(P21="○", ", sealable: true", "")&amp;IF(Q21="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '05-oboro-o-n-6': {megami: 'oboro', name: '分身の術', ruby: 'ぶんしんのじゅつ', baseType: 'normal', types: ['action', 'fullpower'], text: '伏せ札から《全力》でないカードを1枚選び、そのカードを使用する。その後、そのカードが捨て札にあるならば捨て札からもう1回使用する。《攻撃》カードが使用されたならばそれらの《攻撃》は対応不可を得る（2回ともに対応不可を得る）。'}</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+        <v>, '04-tokoyo-o-s-2': {megami: 'tokoyo', name: '千歳ノ鳥', ruby: 'ちとせのとり', baseType: 'special', types: ['attack'], range: '3-4', damage: '2/2', cost: '2', text: '【攻撃後】山札を再構成する。 \n(その際にダメージは受けない)'}</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="48" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
-        <v>98</v>
+        <v>584</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>103</v>
+        <v>3</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>112</v>
+        <v>575</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>123</v>
+        <v>577</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="K22" s="13"/>
       <c r="M22" s="13"/>
-      <c r="N22" s="4" t="s">
-        <v>131</v>
+      <c r="O22" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="R22" s="5" t="s">
-        <v>138</v>
+        <v>581</v>
       </c>
       <c r="S22" s="13"/>
       <c r="T22" s="3" t="str">
         <f>", '"&amp;A22&amp;"': {megami: '"&amp;B22&amp;"'"&amp;IF(C22&lt;&gt;"", ", anotherID: '" &amp; C22 &amp; "', replace: '" &amp; D22 &amp; "'", "")&amp;", name: '"&amp;E22&amp;"', ruby: '"&amp;F22&amp;"', baseType: '"&amp;VLOOKUP(G22,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H22,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I22&lt;&gt;"",", '"&amp; VLOOKUP(I22,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J22&lt;&gt;"", ", range: '"&amp;J22&amp;"'", "")&amp;IF(L22&lt;&gt;"", ", damage: '"&amp;L22&amp;"'", "")&amp;IF(N22&lt;&gt;"", ", capacity: '"&amp;N22&amp;"'", "")&amp;IF(O22&lt;&gt;"", ", cost: '"&amp;O22&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R22, CHAR(10), "\n")&amp;"'"&amp;IF(P22="○", ", sealable: true", "")&amp;IF(Q22="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '05-oboro-o-n-7': {megami: 'oboro', name: '生体活性', ruby: 'せいたいかっせい', baseType: 'normal', types: ['enhance'], capacity: '4', text: '隙　設置 \n【破棄時】あなたの使用済の切札を1枚選び、それを未使用に戻す。'}</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
+        <v>, '04-tokoyo-A1-s-2': {megami: 'tokoyo', anotherID: 'A1', replace: '04-tokoyo-o-s-2', name: '二重奏:吹弾陽明', ruby: 'にじゅうそう：すいだんようめい', baseType: 'special', types: ['action'], cost: '1', text: '【使用済】あなたの開始フェイズの開始時に捨て札または伏せ札からカード1枚を選び、それを山札の底に置いてもよい。 \n----\n【即再起】あなたが再構成以外でライフに1以上のダメージを受ける。'}</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="60" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>19</v>
@@ -3647,140 +3703,143 @@
       <c r="H23" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I23" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="J23" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K23" s="13"/>
       <c r="L23" s="2" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="M23" s="13"/>
       <c r="O23" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="R23" s="4" t="s">
-        <v>139</v>
+        <v>56</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>580</v>
       </c>
       <c r="S23" s="13"/>
       <c r="T23" s="3" t="str">
         <f>", '"&amp;A23&amp;"': {megami: '"&amp;B23&amp;"'"&amp;IF(C23&lt;&gt;"", ", anotherID: '" &amp; C23 &amp; "', replace: '" &amp; D23 &amp; "'", "")&amp;", name: '"&amp;E23&amp;"', ruby: '"&amp;F23&amp;"', baseType: '"&amp;VLOOKUP(G23,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H23,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I23&lt;&gt;"",", '"&amp; VLOOKUP(I23,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J23&lt;&gt;"", ", range: '"&amp;J23&amp;"'", "")&amp;IF(L23&lt;&gt;"", ", damage: '"&amp;L23&amp;"'", "")&amp;IF(N23&lt;&gt;"", ", capacity: '"&amp;N23&amp;"'", "")&amp;IF(O23&lt;&gt;"", ", cost: '"&amp;O23&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R23, CHAR(10), "\n")&amp;"'"&amp;IF(P23="○", ", sealable: true", "")&amp;IF(Q23="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '05-oboro-o-s-1': {megami: 'oboro', name: '熊介', ruby: 'くますけ', baseType: 'special', types: ['attack', 'fullpower'], range: '3-4', damage: '2/2', cost: '4', text: '【攻撃後】攻撃『適正距離3-4、2/2』をX回行う。Xはあなたの伏せ札の枚数に等しい。'}</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+        <v>, '04-tokoyo-o-s-3': {megami: 'tokoyo', name: '無窮ノ風', ruby: 'むきゅうのかぜ', baseType: 'special', types: ['attack'], range: '3-8', damage: '1/1', cost: '1', text: '対応不可 \n【攻撃後】相手は手札から《攻撃》でないカード1枚を捨て札にする。それが行えない場合、相手は手札を公開する。 \n----\n【再起】境地-あなたの集中力が2である。'}</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="K24" s="13"/>
       <c r="M24" s="13"/>
       <c r="O24" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="R24" s="5" t="s">
-        <v>140</v>
+        <v>55</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="S24" s="13"/>
       <c r="T24" s="3" t="str">
         <f>", '"&amp;A24&amp;"': {megami: '"&amp;B24&amp;"'"&amp;IF(C24&lt;&gt;"", ", anotherID: '" &amp; C24 &amp; "', replace: '" &amp; D24 &amp; "'", "")&amp;", name: '"&amp;E24&amp;"', ruby: '"&amp;F24&amp;"', baseType: '"&amp;VLOOKUP(G24,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H24,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I24&lt;&gt;"",", '"&amp; VLOOKUP(I24,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J24&lt;&gt;"", ", range: '"&amp;J24&amp;"'", "")&amp;IF(L24&lt;&gt;"", ", damage: '"&amp;L24&amp;"'", "")&amp;IF(N24&lt;&gt;"", ", capacity: '"&amp;N24&amp;"'", "")&amp;IF(O24&lt;&gt;"", ", cost: '"&amp;O24&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R24, CHAR(10), "\n")&amp;"'"&amp;IF(P24="○", ", sealable: true", "")&amp;IF(Q24="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '05-oboro-o-s-2': {megami: 'oboro', name: '鳶影', ruby: 'とびかげ', baseType: 'special', types: ['action', 'reaction'], cost: '3', text: '伏せ札から《全力》でないカードを1枚選び、そのカードを使用してもよい。この際、このカードが対応している《攻撃》があるならば、使用されたカードはそれに対応しているものと扱う。'}</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+        <v>, '04-tokoyo-o-s-4': {megami: 'tokoyo', name: '常世ノ月', ruby: 'とこよのつき', baseType: 'special', types: ['action'], cost: '2', text: 'あなたの集中力は2になり、相手の集中力は0になり、相手を畏縮させる。'}</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>103</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>23</v>
+        <v>8</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="K25" s="13"/>
+      <c r="L25" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="M25" s="13"/>
-      <c r="O25" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="R25" s="5" t="s">
-        <v>141</v>
+      <c r="R25" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="S25" s="13"/>
       <c r="T25" s="3" t="str">
         <f>", '"&amp;A25&amp;"': {megami: '"&amp;B25&amp;"'"&amp;IF(C25&lt;&gt;"", ", anotherID: '" &amp; C25 &amp; "', replace: '" &amp; D25 &amp; "'", "")&amp;", name: '"&amp;E25&amp;"', ruby: '"&amp;F25&amp;"', baseType: '"&amp;VLOOKUP(G25,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H25,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I25&lt;&gt;"",", '"&amp; VLOOKUP(I25,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J25&lt;&gt;"", ", range: '"&amp;J25&amp;"'", "")&amp;IF(L25&lt;&gt;"", ", damage: '"&amp;L25&amp;"'", "")&amp;IF(N25&lt;&gt;"", ", capacity: '"&amp;N25&amp;"'", "")&amp;IF(O25&lt;&gt;"", ", cost: '"&amp;O25&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R25, CHAR(10), "\n")&amp;"'"&amp;IF(P25="○", ", sealable: true", "")&amp;IF(Q25="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '05-oboro-o-s-3': {megami: 'oboro', name: '虚魚', ruby: 'うろうお', baseType: 'special', types: ['action'], cost: '4', text: '【使用済】あなたは1回の再構成に対して、設置を持つカードを任意の枚数、任意の順で使用できる。'}</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+        <v>, '05-oboro-o-n-1': {megami: 'oboro', name: '鋼糸', ruby: 'こうし', baseType: 'normal', types: ['attack'], range: '3-4', damage: '2/2', text: '設置'}</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>103</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>23</v>
+        <v>8</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="K26" s="13"/>
+      <c r="L26" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="M26" s="13"/>
-      <c r="O26" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="R26" s="5" t="s">
-        <v>396</v>
+      <c r="R26" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="S26" s="13"/>
       <c r="T26" s="3" t="str">
         <f>", '"&amp;A26&amp;"': {megami: '"&amp;B26&amp;"'"&amp;IF(C26&lt;&gt;"", ", anotherID: '" &amp; C26 &amp; "', replace: '" &amp; D26 &amp; "'", "")&amp;", name: '"&amp;E26&amp;"', ruby: '"&amp;F26&amp;"', baseType: '"&amp;VLOOKUP(G26,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H26,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I26&lt;&gt;"",", '"&amp; VLOOKUP(I26,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J26&lt;&gt;"", ", range: '"&amp;J26&amp;"'", "")&amp;IF(L26&lt;&gt;"", ", damage: '"&amp;L26&amp;"'", "")&amp;IF(N26&lt;&gt;"", ", capacity: '"&amp;N26&amp;"'", "")&amp;IF(O26&lt;&gt;"", ", cost: '"&amp;O26&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R26, CHAR(10), "\n")&amp;"'"&amp;IF(P26="○", ", sealable: true", "")&amp;IF(Q26="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '05-oboro-o-s-4': {megami: 'oboro', name: '壬蔓', ruby: 'みかずら', baseType: 'special', types: ['action'], cost: '0', text: '相オーラ→自フレア：1 \n----\n【再起】あなたのフレアが0である。'}</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.15">
+        <v>, '05-oboro-o-n-2': {megami: 'oboro', name: '影菱', ruby: 'かげびし', baseType: 'normal', types: ['attack'], range: '2', damage: '2/1', text: '設置　対応不可\n【攻撃後】このカードを伏せ札から使用したならば、相手の手札を見てその中から1枚を選び、それを伏せ札にする。'}</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>225</v>
+        <v>94</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>241</v>
+        <v>103</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>213</v>
+        <v>107</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>7</v>
@@ -3788,379 +3847,378 @@
       <c r="H27" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J27" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="K27" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="M27" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="S27" s="8"/>
-      <c r="T27" s="9" t="str">
-        <f>", '"&amp;A27&amp;"': {megami: '"&amp;B27&amp;"', name: '"&amp;E27&amp;"', ruby: '"&amp;F27&amp;"', baseType: '"&amp;VLOOKUP(G27,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H27,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I27&lt;&gt;"",", '"&amp; VLOOKUP(I27,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J27&lt;&gt;"", ", range: '"&amp;J27&amp;"'", "")&amp;IF(K27&lt;&gt;"", ", rangeOpened: '"&amp;K27&amp;"'", "")&amp;IF(L27&lt;&gt;"", ", damage: '"&amp;L27&amp;"'", "")&amp;IF(M27&lt;&gt;"", ", damageOpened: '"&amp;M27&amp;"'", "")&amp;IF(N27&lt;&gt;"", ", capacity: '"&amp;N27&amp;"'", "")&amp;IF(O27&lt;&gt;"", ", cost: '"&amp;O27&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R27, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(S27, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '06-yukihi-o-n-1': {megami: 'yukihi', name: 'しこみばり / ふくみばり', ruby: '', baseType: 'normal', types: ['attack'], range: '4-6', rangeOpened: '0-2', damage: '3/1', damageOpened: '1/2', text: '', textOpened: ''}</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="I27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K27" s="13"/>
+      <c r="L27" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M27" s="13"/>
+      <c r="R27" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="S27" s="13"/>
+      <c r="T27" s="3" t="str">
+        <f>", '"&amp;A27&amp;"': {megami: '"&amp;B27&amp;"'"&amp;IF(C27&lt;&gt;"", ", anotherID: '" &amp; C27 &amp; "', replace: '" &amp; D27 &amp; "'", "")&amp;", name: '"&amp;E27&amp;"', ruby: '"&amp;F27&amp;"', baseType: '"&amp;VLOOKUP(G27,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H27,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I27&lt;&gt;"",", '"&amp; VLOOKUP(I27,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J27&lt;&gt;"", ", range: '"&amp;J27&amp;"'", "")&amp;IF(L27&lt;&gt;"", ", damage: '"&amp;L27&amp;"'", "")&amp;IF(N27&lt;&gt;"", ", capacity: '"&amp;N27&amp;"'", "")&amp;IF(O27&lt;&gt;"", ", cost: '"&amp;O27&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R27, CHAR(10), "\n")&amp;"'"&amp;IF(P27="○", ", sealable: true", "")&amp;IF(Q27="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '05-oboro-o-n-3': {megami: 'oboro', name: '斬撃乱舞', ruby: 'ざんげきらんぶ', baseType: 'normal', types: ['attack', 'fullpower'], range: '2-4', damage: '3/2', text: '【常時】相手がこのターン中にオーラへのダメージを受けているならば、この《攻撃》は+1/+1となる。'}</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="48" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>226</v>
+        <v>95</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>241</v>
+        <v>103</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>236</v>
+        <v>109</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="K28" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="M28" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="R28" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="T28" s="9" t="str">
-        <f>", '"&amp;A28&amp;"': {megami: '"&amp;B28&amp;"', name: '"&amp;E28&amp;"', ruby: '"&amp;F28&amp;"', baseType: '"&amp;VLOOKUP(G28,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H28,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I28&lt;&gt;"",", '"&amp; VLOOKUP(I28,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J28&lt;&gt;"", ", range: '"&amp;J28&amp;"'", "")&amp;IF(K28&lt;&gt;"", ", rangeOpened: '"&amp;K28&amp;"'", "")&amp;IF(L28&lt;&gt;"", ", damage: '"&amp;L28&amp;"'", "")&amp;IF(M28&lt;&gt;"", ", damageOpened: '"&amp;M28&amp;"'", "")&amp;IF(N28&lt;&gt;"", ", capacity: '"&amp;N28&amp;"'", "")&amp;IF(O28&lt;&gt;"", ", cost: '"&amp;O28&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R28, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(S28, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '06-yukihi-o-n-2': {megami: 'yukihi', name: 'しこみび / ねこだまし', ruby: '', baseType: 'normal', types: ['attack'], range: '5-6', rangeOpened: '0-2', damage: '1/1', damageOpened: '1/1', text: '【攻撃後】このカードを手札に戻し、傘の開閉を行う。 ', textOpened: ''}</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="K28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="R28" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="S28" s="13"/>
+      <c r="T28" s="3" t="str">
+        <f>", '"&amp;A28&amp;"': {megami: '"&amp;B28&amp;"'"&amp;IF(C28&lt;&gt;"", ", anotherID: '" &amp; C28 &amp; "', replace: '" &amp; D28 &amp; "'", "")&amp;", name: '"&amp;E28&amp;"', ruby: '"&amp;F28&amp;"', baseType: '"&amp;VLOOKUP(G28,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H28,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I28&lt;&gt;"",", '"&amp; VLOOKUP(I28,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J28&lt;&gt;"", ", range: '"&amp;J28&amp;"'", "")&amp;IF(L28&lt;&gt;"", ", damage: '"&amp;L28&amp;"'", "")&amp;IF(N28&lt;&gt;"", ", capacity: '"&amp;N28&amp;"'", "")&amp;IF(O28&lt;&gt;"", ", cost: '"&amp;O28&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R28, CHAR(10), "\n")&amp;"'"&amp;IF(P28="○", ", sealable: true", "")&amp;IF(Q28="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '05-oboro-o-n-4': {megami: 'oboro', name: '忍歩', ruby: 'にんぽ', baseType: 'normal', types: ['action'], text: '設置 \n間合⇔ダスト：1 \nこのカードを伏せ札から使用したならば、伏せ札から設置を持つカードを1枚使用してもよい。'}</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="48" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>227</v>
+        <v>96</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>241</v>
+        <v>103</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>235</v>
+        <v>110</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="K29" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="M29" s="11" t="s">
-        <v>252</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K29" s="13"/>
+      <c r="M29" s="13"/>
       <c r="R29" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="S29" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="T29" s="9" t="str">
-        <f>", '"&amp;A29&amp;"': {megami: '"&amp;B29&amp;"', name: '"&amp;E29&amp;"', ruby: '"&amp;F29&amp;"', baseType: '"&amp;VLOOKUP(G29,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H29,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I29&lt;&gt;"",", '"&amp; VLOOKUP(I29,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J29&lt;&gt;"", ", range: '"&amp;J29&amp;"'", "")&amp;IF(K29&lt;&gt;"", ", rangeOpened: '"&amp;K29&amp;"'", "")&amp;IF(L29&lt;&gt;"", ", damage: '"&amp;L29&amp;"'", "")&amp;IF(M29&lt;&gt;"", ", damageOpened: '"&amp;M29&amp;"'", "")&amp;IF(N29&lt;&gt;"", ", capacity: '"&amp;N29&amp;"'", "")&amp;IF(O29&lt;&gt;"", ", cost: '"&amp;O29&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R29, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(S29, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '06-yukihi-o-n-3': {megami: 'yukihi', name: 'ふりはらい / たぐりよせ', ruby: '', baseType: 'normal', types: ['attack'], range: '2-5', rangeOpened: '0-2', damage: '1/1', damageOpened: '1/1', text: '【攻撃後】ダスト⇔間合：1 ', textOpened: '【攻撃後】間合→ダスト：2'}</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.15">
+        <v>198</v>
+      </c>
+      <c r="S29" s="13"/>
+      <c r="T29" s="3" t="str">
+        <f>", '"&amp;A29&amp;"': {megami: '"&amp;B29&amp;"'"&amp;IF(C29&lt;&gt;"", ", anotherID: '" &amp; C29 &amp; "', replace: '" &amp; D29 &amp; "'", "")&amp;", name: '"&amp;E29&amp;"', ruby: '"&amp;F29&amp;"', baseType: '"&amp;VLOOKUP(G29,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H29,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I29&lt;&gt;"",", '"&amp; VLOOKUP(I29,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J29&lt;&gt;"", ", range: '"&amp;J29&amp;"'", "")&amp;IF(L29&lt;&gt;"", ", damage: '"&amp;L29&amp;"'", "")&amp;IF(N29&lt;&gt;"", ", capacity: '"&amp;N29&amp;"'", "")&amp;IF(O29&lt;&gt;"", ", cost: '"&amp;O29&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R29, CHAR(10), "\n")&amp;"'"&amp;IF(P29="○", ", sealable: true", "")&amp;IF(Q29="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '05-oboro-o-n-5': {megami: 'oboro', name: '誘導', ruby: 'ゆうどう', baseType: 'normal', types: ['action', 'reaction'], text: '設置\n以下から１つを選ぶ。\n・間合→相オーラ：1\n・相オーラ→相フレア：1'}</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="36" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>228</v>
+        <v>97</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>241</v>
+        <v>103</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>234</v>
+        <v>111</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J30" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="K30" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="M30" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="R30" s="5"/>
-      <c r="T30" s="9" t="str">
-        <f>", '"&amp;A30&amp;"': {megami: '"&amp;B30&amp;"', name: '"&amp;E30&amp;"', ruby: '"&amp;F30&amp;"', baseType: '"&amp;VLOOKUP(G30,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H30,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I30&lt;&gt;"",", '"&amp; VLOOKUP(I30,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J30&lt;&gt;"", ", range: '"&amp;J30&amp;"'", "")&amp;IF(K30&lt;&gt;"", ", rangeOpened: '"&amp;K30&amp;"'", "")&amp;IF(L30&lt;&gt;"", ", damage: '"&amp;L30&amp;"'", "")&amp;IF(M30&lt;&gt;"", ", damageOpened: '"&amp;M30&amp;"'", "")&amp;IF(N30&lt;&gt;"", ", capacity: '"&amp;N30&amp;"'", "")&amp;IF(O30&lt;&gt;"", ", cost: '"&amp;O30&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R30, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(S30, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '06-yukihi-o-n-4': {megami: 'yukihi', name: 'ふりまわし / つきさし', ruby: '', baseType: 'normal', types: ['attack', 'fullpower'], range: '4-6', rangeOpened: '0-2', damage: '5/-', damageOpened: '-/2', text: '', textOpened: ''}</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" ht="60" x14ac:dyDescent="0.15">
+      <c r="K30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="R30" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="S30" s="13"/>
+      <c r="T30" s="3" t="str">
+        <f>", '"&amp;A30&amp;"': {megami: '"&amp;B30&amp;"'"&amp;IF(C30&lt;&gt;"", ", anotherID: '" &amp; C30 &amp; "', replace: '" &amp; D30 &amp; "'", "")&amp;", name: '"&amp;E30&amp;"', ruby: '"&amp;F30&amp;"', baseType: '"&amp;VLOOKUP(G30,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H30,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I30&lt;&gt;"",", '"&amp; VLOOKUP(I30,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J30&lt;&gt;"", ", range: '"&amp;J30&amp;"'", "")&amp;IF(L30&lt;&gt;"", ", damage: '"&amp;L30&amp;"'", "")&amp;IF(N30&lt;&gt;"", ", capacity: '"&amp;N30&amp;"'", "")&amp;IF(O30&lt;&gt;"", ", cost: '"&amp;O30&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R30, CHAR(10), "\n")&amp;"'"&amp;IF(P30="○", ", sealable: true", "")&amp;IF(Q30="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '05-oboro-o-n-6': {megami: 'oboro', name: '分身の術', ruby: 'ぶんしんのじゅつ', baseType: 'normal', types: ['action', 'fullpower'], text: '伏せ札から《全力》でないカードを1枚選び、そのカードを使用する。その後、そのカードが捨て札にあるならば捨て札からもう1回使用する。《攻撃》カードが使用されたならばそれらの《攻撃》は対応不可を得る（2回ともに対応不可を得る）。'}</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>229</v>
+        <v>98</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>241</v>
+        <v>103</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>217</v>
+        <v>112</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K31" s="11"/>
-      <c r="M31" s="11"/>
+        <v>48</v>
+      </c>
+      <c r="K31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="R31" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="T31" s="9" t="str">
-        <f>", '"&amp;A31&amp;"': {megami: '"&amp;B31&amp;"', name: '"&amp;E31&amp;"', ruby: '"&amp;F31&amp;"', baseType: '"&amp;VLOOKUP(G31,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H31,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I31&lt;&gt;"",", '"&amp; VLOOKUP(I31,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J31&lt;&gt;"", ", range: '"&amp;J31&amp;"'", "")&amp;IF(K31&lt;&gt;"", ", rangeOpened: '"&amp;K31&amp;"'", "")&amp;IF(L31&lt;&gt;"", ", damage: '"&amp;L31&amp;"'", "")&amp;IF(M31&lt;&gt;"", ", damageOpened: '"&amp;M31&amp;"'", "")&amp;IF(N31&lt;&gt;"", ", capacity: '"&amp;N31&amp;"'", "")&amp;IF(O31&lt;&gt;"", ", cost: '"&amp;O31&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R31, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(S31, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '06-yukihi-o-n-5': {megami: 'yukihi', name: 'かさまわし', ruby: '', baseType: 'normal', types: ['action'], text: '(このカードは使用しても効果はない) \n【常時】あなたが傘の開閉を行った時、このカードを手札から公開してもよい。そうした場合、 \nダスト→自オーラ：1\n', textOpened: ''}</v>
+        <v>138</v>
+      </c>
+      <c r="S31" s="13"/>
+      <c r="T31" s="3" t="str">
+        <f>", '"&amp;A31&amp;"': {megami: '"&amp;B31&amp;"'"&amp;IF(C31&lt;&gt;"", ", anotherID: '" &amp; C31 &amp; "', replace: '" &amp; D31 &amp; "'", "")&amp;", name: '"&amp;E31&amp;"', ruby: '"&amp;F31&amp;"', baseType: '"&amp;VLOOKUP(G31,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H31,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I31&lt;&gt;"",", '"&amp; VLOOKUP(I31,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J31&lt;&gt;"", ", range: '"&amp;J31&amp;"'", "")&amp;IF(L31&lt;&gt;"", ", damage: '"&amp;L31&amp;"'", "")&amp;IF(N31&lt;&gt;"", ", capacity: '"&amp;N31&amp;"'", "")&amp;IF(O31&lt;&gt;"", ", cost: '"&amp;O31&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R31, CHAR(10), "\n")&amp;"'"&amp;IF(P31="○", ", sealable: true", "")&amp;IF(Q31="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '05-oboro-o-n-7': {megami: 'oboro', name: '生体活性', ruby: 'せいたいかっせい', baseType: 'normal', types: ['enhance'], capacity: '4', text: '隙　設置 \n【破棄時】あなたの使用済の切札を1枚選び、それを未使用に戻す。'}</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>230</v>
+        <v>99</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>241</v>
+        <v>103</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>233</v>
+        <v>113</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="R32" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="S32" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="T32" s="9" t="str">
-        <f>", '"&amp;A32&amp;"': {megami: '"&amp;B32&amp;"', name: '"&amp;E32&amp;"', ruby: '"&amp;F32&amp;"', baseType: '"&amp;VLOOKUP(G32,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H32,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I32&lt;&gt;"",", '"&amp; VLOOKUP(I32,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J32&lt;&gt;"", ", range: '"&amp;J32&amp;"'", "")&amp;IF(K32&lt;&gt;"", ", rangeOpened: '"&amp;K32&amp;"'", "")&amp;IF(L32&lt;&gt;"", ", damage: '"&amp;L32&amp;"'", "")&amp;IF(M32&lt;&gt;"", ", damageOpened: '"&amp;M32&amp;"'", "")&amp;IF(N32&lt;&gt;"", ", capacity: '"&amp;N32&amp;"'", "")&amp;IF(O32&lt;&gt;"", ", cost: '"&amp;O32&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R32, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(S32, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '06-yukihi-o-n-6': {megami: 'yukihi', name: 'ひきあし / もぐりこみ', ruby: '', baseType: 'normal', types: ['action', 'reaction'], text: 'ダスト→間合：1 ', textOpened: '間合→ダスト：1'}</v>
+        <v>31</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="K32" s="13"/>
+      <c r="L32" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M32" s="13"/>
+      <c r="O32" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="R32" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="S32" s="13"/>
+      <c r="T32" s="3" t="str">
+        <f>", '"&amp;A32&amp;"': {megami: '"&amp;B32&amp;"'"&amp;IF(C32&lt;&gt;"", ", anotherID: '" &amp; C32 &amp; "', replace: '" &amp; D32 &amp; "'", "")&amp;", name: '"&amp;E32&amp;"', ruby: '"&amp;F32&amp;"', baseType: '"&amp;VLOOKUP(G32,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H32,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I32&lt;&gt;"",", '"&amp; VLOOKUP(I32,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J32&lt;&gt;"", ", range: '"&amp;J32&amp;"'", "")&amp;IF(L32&lt;&gt;"", ", damage: '"&amp;L32&amp;"'", "")&amp;IF(N32&lt;&gt;"", ", capacity: '"&amp;N32&amp;"'", "")&amp;IF(O32&lt;&gt;"", ", cost: '"&amp;O32&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R32, CHAR(10), "\n")&amp;"'"&amp;IF(P32="○", ", sealable: true", "")&amp;IF(Q32="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '05-oboro-o-s-1': {megami: 'oboro', name: '熊介', ruby: 'くますけ', baseType: 'special', types: ['attack', 'fullpower'], range: '3-4', damage: '2/2', cost: '4', text: '【攻撃後】攻撃『適正距離3-4、2/2』をX回行う。Xはあなたの伏せ札の枚数に等しい。'}</v>
       </c>
     </row>
     <row r="33" spans="1:20" ht="36" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>231</v>
+        <v>100</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>241</v>
+        <v>103</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>232</v>
+        <v>114</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="4" t="s">
-        <v>55</v>
+        <v>23</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="O33" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="R33" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="T33" s="9" t="str">
-        <f>", '"&amp;A33&amp;"': {megami: '"&amp;B33&amp;"', name: '"&amp;E33&amp;"', ruby: '"&amp;F33&amp;"', baseType: '"&amp;VLOOKUP(G33,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H33,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I33&lt;&gt;"",", '"&amp; VLOOKUP(I33,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J33&lt;&gt;"", ", range: '"&amp;J33&amp;"'", "")&amp;IF(K33&lt;&gt;"", ", rangeOpened: '"&amp;K33&amp;"'", "")&amp;IF(L33&lt;&gt;"", ", damage: '"&amp;L33&amp;"'", "")&amp;IF(M33&lt;&gt;"", ", damageOpened: '"&amp;M33&amp;"'", "")&amp;IF(N33&lt;&gt;"", ", capacity: '"&amp;N33&amp;"'", "")&amp;IF(O33&lt;&gt;"", ", cost: '"&amp;O33&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R33, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(S33, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '06-yukihi-o-n-7': {megami: 'yukihi', name: 'えんむすび', ruby: '', baseType: 'normal', types: ['enhance'], capacity: '2', text: '【展開時】間合→ダスト：1 \n【破棄時】ダスト→間合：1 \n【常時】あなたの傘が開いているならば、このカードの矢印(→)は逆になる。', textOpened: ''}</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" ht="48" x14ac:dyDescent="0.15">
+        <v>140</v>
+      </c>
+      <c r="S33" s="13"/>
+      <c r="T33" s="3" t="str">
+        <f>", '"&amp;A33&amp;"': {megami: '"&amp;B33&amp;"'"&amp;IF(C33&lt;&gt;"", ", anotherID: '" &amp; C33 &amp; "', replace: '" &amp; D33 &amp; "'", "")&amp;", name: '"&amp;E33&amp;"', ruby: '"&amp;F33&amp;"', baseType: '"&amp;VLOOKUP(G33,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H33,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I33&lt;&gt;"",", '"&amp; VLOOKUP(I33,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J33&lt;&gt;"", ", range: '"&amp;J33&amp;"'", "")&amp;IF(L33&lt;&gt;"", ", damage: '"&amp;L33&amp;"'", "")&amp;IF(N33&lt;&gt;"", ", capacity: '"&amp;N33&amp;"'", "")&amp;IF(O33&lt;&gt;"", ", cost: '"&amp;O33&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R33, CHAR(10), "\n")&amp;"'"&amp;IF(P33="○", ", sealable: true", "")&amp;IF(Q33="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '05-oboro-o-s-2': {megami: 'oboro', name: '鳶影', ruby: 'とびかげ', baseType: 'special', types: ['action', 'reaction'], cost: '3', text: '伏せ札から《全力》でないカードを1枚選び、そのカードを使用してもよい。この際、このカードが対応している《攻撃》があるならば、使用されたカードはそれに対応しているものと扱う。'}</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>237</v>
+        <v>101</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>241</v>
+        <v>103</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>218</v>
+        <v>115</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="K34" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="M34" s="11" t="s">
-        <v>260</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="K34" s="13"/>
+      <c r="M34" s="13"/>
       <c r="O34" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="T34" s="9" t="str">
-        <f>", '"&amp;A34&amp;"': {megami: '"&amp;B34&amp;"', name: '"&amp;E34&amp;"', ruby: '"&amp;F34&amp;"', baseType: '"&amp;VLOOKUP(G34,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H34,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I34&lt;&gt;"",", '"&amp; VLOOKUP(I34,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J34&lt;&gt;"", ", range: '"&amp;J34&amp;"'", "")&amp;IF(K34&lt;&gt;"", ", rangeOpened: '"&amp;K34&amp;"'", "")&amp;IF(L34&lt;&gt;"", ", damage: '"&amp;L34&amp;"'", "")&amp;IF(M34&lt;&gt;"", ", damageOpened: '"&amp;M34&amp;"'", "")&amp;IF(N34&lt;&gt;"", ", capacity: '"&amp;N34&amp;"'", "")&amp;IF(O34&lt;&gt;"", ", cost: '"&amp;O34&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R34, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(S34, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '06-yukihi-o-s-1': {megami: 'yukihi', name: 'はらりゆき', ruby: '', baseType: 'special', types: ['attack'], range: '3-5', rangeOpened: '0-1', damage: '3/1', damageOpened: '0/0', cost: '2', text: '', textOpened: '----\n【即再起】あなたが傘の開閉を行う。 '}</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.15">
+        <v>133</v>
+      </c>
+      <c r="R34" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="S34" s="13"/>
+      <c r="T34" s="3" t="str">
+        <f>", '"&amp;A34&amp;"': {megami: '"&amp;B34&amp;"'"&amp;IF(C34&lt;&gt;"", ", anotherID: '" &amp; C34 &amp; "', replace: '" &amp; D34 &amp; "'", "")&amp;", name: '"&amp;E34&amp;"', ruby: '"&amp;F34&amp;"', baseType: '"&amp;VLOOKUP(G34,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H34,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I34&lt;&gt;"",", '"&amp; VLOOKUP(I34,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J34&lt;&gt;"", ", range: '"&amp;J34&amp;"'", "")&amp;IF(L34&lt;&gt;"", ", damage: '"&amp;L34&amp;"'", "")&amp;IF(N34&lt;&gt;"", ", capacity: '"&amp;N34&amp;"'", "")&amp;IF(O34&lt;&gt;"", ", cost: '"&amp;O34&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R34, CHAR(10), "\n")&amp;"'"&amp;IF(P34="○", ", sealable: true", "")&amp;IF(Q34="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '05-oboro-o-s-3': {megami: 'oboro', name: '虚魚', ruby: 'うろうお', baseType: 'special', types: ['action'], cost: '4', text: '【使用済】あなたは1回の再構成に対して、設置を持つカードを任意の枚数、任意の順で使用できる。'}</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="36" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>238</v>
+        <v>102</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>241</v>
+        <v>103</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>222</v>
+        <v>116</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="K35" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="M35" s="11" t="s">
-        <v>261</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="K35" s="13"/>
+      <c r="M35" s="13"/>
       <c r="O35" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="R35" s="5"/>
-      <c r="T35" s="9" t="str">
-        <f>", '"&amp;A35&amp;"': {megami: '"&amp;B35&amp;"', name: '"&amp;E35&amp;"', ruby: '"&amp;F35&amp;"', baseType: '"&amp;VLOOKUP(G35,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H35,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I35&lt;&gt;"",", '"&amp; VLOOKUP(I35,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J35&lt;&gt;"", ", range: '"&amp;J35&amp;"'", "")&amp;IF(K35&lt;&gt;"", ", rangeOpened: '"&amp;K35&amp;"'", "")&amp;IF(L35&lt;&gt;"", ", damage: '"&amp;L35&amp;"'", "")&amp;IF(M35&lt;&gt;"", ", damageOpened: '"&amp;M35&amp;"'", "")&amp;IF(N35&lt;&gt;"", ", capacity: '"&amp;N35&amp;"'", "")&amp;IF(O35&lt;&gt;"", ", cost: '"&amp;O35&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R35, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(S35, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '06-yukihi-o-s-2': {megami: 'yukihi', name: 'ゆらりび', ruby: '', baseType: 'special', types: ['attack'], range: '4-6', rangeOpened: '0', damage: '0/0', damageOpened: '4/5', cost: '5', text: '', textOpened: ''}</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+        <v>134</v>
+      </c>
+      <c r="R35" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="S35" s="13"/>
+      <c r="T35" s="3" t="str">
+        <f>", '"&amp;A35&amp;"': {megami: '"&amp;B35&amp;"'"&amp;IF(C35&lt;&gt;"", ", anotherID: '" &amp; C35 &amp; "', replace: '" &amp; D35 &amp; "'", "")&amp;", name: '"&amp;E35&amp;"', ruby: '"&amp;F35&amp;"', baseType: '"&amp;VLOOKUP(G35,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H35,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I35&lt;&gt;"",", '"&amp; VLOOKUP(I35,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J35&lt;&gt;"", ", range: '"&amp;J35&amp;"'", "")&amp;IF(L35&lt;&gt;"", ", damage: '"&amp;L35&amp;"'", "")&amp;IF(N35&lt;&gt;"", ", capacity: '"&amp;N35&amp;"'", "")&amp;IF(O35&lt;&gt;"", ", cost: '"&amp;O35&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R35, CHAR(10), "\n")&amp;"'"&amp;IF(P35="○", ", sealable: true", "")&amp;IF(Q35="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '05-oboro-o-s-4': {megami: 'oboro', name: '壬蔓', ruby: 'みかずら', baseType: 'special', types: ['action'], cost: '0', text: '相オーラ→自フレア：1 \n----\n【再起】あなたのフレアが0である。'}</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>241</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="O36" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="R36" s="5" t="s">
-        <v>388</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="K36" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="M36" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="S36" s="8"/>
       <c r="T36" s="9" t="str">
         <f>", '"&amp;A36&amp;"': {megami: '"&amp;B36&amp;"', name: '"&amp;E36&amp;"', ruby: '"&amp;F36&amp;"', baseType: '"&amp;VLOOKUP(G36,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H36,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I36&lt;&gt;"",", '"&amp; VLOOKUP(I36,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J36&lt;&gt;"", ", range: '"&amp;J36&amp;"'", "")&amp;IF(K36&lt;&gt;"", ", rangeOpened: '"&amp;K36&amp;"'", "")&amp;IF(L36&lt;&gt;"", ", damage: '"&amp;L36&amp;"'", "")&amp;IF(M36&lt;&gt;"", ", damageOpened: '"&amp;M36&amp;"'", "")&amp;IF(N36&lt;&gt;"", ", capacity: '"&amp;N36&amp;"'", "")&amp;IF(O36&lt;&gt;"", ", cost: '"&amp;O36&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R36, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(S36, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '06-yukihi-o-s-3': {megami: 'yukihi', name: 'どろりうら', ruby: '', baseType: 'special', types: ['enhance', 'fullpower'], capacity: '7', cost: '3', text: '【展開中】あなたのユキヒの《攻撃》は傘を開いた状態と傘を閉じた状態両方の適正距離を持つ。', textOpened: ''}</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+        <v>, '06-yukihi-o-n-1': {megami: 'yukihi', name: 'しこみばり / ふくみばり', ruby: '', baseType: 'normal', types: ['attack'], range: '4-6', rangeOpened: '0-2', damage: '3/1', damageOpened: '1/2', text: '', textOpened: ''}</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>241</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K37" s="11"/>
-      <c r="M37" s="11"/>
-      <c r="O37" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="R37" s="5" t="s">
-        <v>389</v>
+        <v>8</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="K37" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="M37" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="R37" s="4" t="s">
+        <v>251</v>
       </c>
       <c r="T37" s="9" t="str">
         <f>", '"&amp;A37&amp;"': {megami: '"&amp;B37&amp;"', name: '"&amp;E37&amp;"', ruby: '"&amp;F37&amp;"', baseType: '"&amp;VLOOKUP(G37,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H37,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I37&lt;&gt;"",", '"&amp; VLOOKUP(I37,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J37&lt;&gt;"", ", range: '"&amp;J37&amp;"'", "")&amp;IF(K37&lt;&gt;"", ", rangeOpened: '"&amp;K37&amp;"'", "")&amp;IF(L37&lt;&gt;"", ", damage: '"&amp;L37&amp;"'", "")&amp;IF(M37&lt;&gt;"", ", damageOpened: '"&amp;M37&amp;"'", "")&amp;IF(N37&lt;&gt;"", ", capacity: '"&amp;N37&amp;"'", "")&amp;IF(O37&lt;&gt;"", ", cost: '"&amp;O37&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R37, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(S37, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '06-yukihi-o-s-4': {megami: 'yukihi', name: 'くるりみ', ruby: '', baseType: 'special', types: ['action', 'reaction'], cost: '1', text: '傘の開閉を行う。 \nダスト→自オーラ：1', textOpened: ''}</v>
+        <v>, '06-yukihi-o-n-2': {megami: 'yukihi', name: 'しこみび / ねこだまし', ruby: '', baseType: 'normal', types: ['attack'], range: '5-6', rangeOpened: '0-2', damage: '1/1', damageOpened: '1/1', text: '【攻撃後】このカードを手札に戻し、傘の開閉を行う。 ', textOpened: ''}</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
-        <v>276</v>
+        <v>227</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>275</v>
+        <v>241</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>287</v>
+        <v>235</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>7</v>
@@ -4169,34 +4227,37 @@
         <v>8</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="K38" s="13"/>
+        <v>216</v>
+      </c>
+      <c r="K38" s="11" t="s">
+        <v>215</v>
+      </c>
       <c r="L38" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="M38" s="13"/>
-      <c r="R38" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="S38" s="13"/>
-      <c r="T38" s="3" t="str">
-        <f>", '"&amp;A38&amp;"': {megami: '"&amp;B38&amp;"'"&amp;IF(C38&lt;&gt;"", ", anotherID: '" &amp; C38 &amp; "', replace: '" &amp; D38 &amp; "'", "")&amp;", name: '"&amp;E38&amp;"', ruby: '"&amp;F38&amp;"', baseType: '"&amp;VLOOKUP(G38,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H38,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I38&lt;&gt;"",", '"&amp; VLOOKUP(I38,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J38&lt;&gt;"", ", range: '"&amp;J38&amp;"'", "")&amp;IF(L38&lt;&gt;"", ", damage: '"&amp;L38&amp;"'", "")&amp;IF(N38&lt;&gt;"", ", capacity: '"&amp;N38&amp;"'", "")&amp;IF(O38&lt;&gt;"", ", cost: '"&amp;O38&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R38, CHAR(10), "\n")&amp;"'"&amp;IF(P38="○", ", sealable: true", "")&amp;IF(Q38="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '07-shinra-o-n-1': {megami: 'shinra', name: '立論', ruby: 'りつろん', baseType: 'normal', types: ['attack'], range: '2-7', damage: '2/-', text: '【常時】相手の山札に2枚以上のカードがあるならば、この《攻撃》はダメージを与える代わりに山札の上から2枚を伏せ札にする。'}</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+        <v>252</v>
+      </c>
+      <c r="M38" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="R38" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="S38" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="T38" s="9" t="str">
+        <f>", '"&amp;A38&amp;"': {megami: '"&amp;B38&amp;"', name: '"&amp;E38&amp;"', ruby: '"&amp;F38&amp;"', baseType: '"&amp;VLOOKUP(G38,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H38,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I38&lt;&gt;"",", '"&amp; VLOOKUP(I38,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J38&lt;&gt;"", ", range: '"&amp;J38&amp;"'", "")&amp;IF(K38&lt;&gt;"", ", rangeOpened: '"&amp;K38&amp;"'", "")&amp;IF(L38&lt;&gt;"", ", damage: '"&amp;L38&amp;"'", "")&amp;IF(M38&lt;&gt;"", ", damageOpened: '"&amp;M38&amp;"'", "")&amp;IF(N38&lt;&gt;"", ", capacity: '"&amp;N38&amp;"'", "")&amp;IF(O38&lt;&gt;"", ", cost: '"&amp;O38&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R38, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(S38, CHAR(10), "\n")&amp;"'}"</f>
+        <v>, '06-yukihi-o-n-3': {megami: 'yukihi', name: 'ふりはらい / たぐりよせ', ruby: '', baseType: 'normal', types: ['attack'], range: '2-5', rangeOpened: '0-2', damage: '1/1', damageOpened: '1/1', text: '【攻撃後】ダスト⇔間合：1 ', textOpened: '【攻撃後】間合→ダスト：2'}</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>277</v>
+        <v>228</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>275</v>
+        <v>241</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>288</v>
+        <v>234</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>7</v>
@@ -4205,76 +4266,61 @@
         <v>8</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="K39" s="13"/>
+        <v>214</v>
+      </c>
+      <c r="K39" s="11" t="s">
+        <v>215</v>
+      </c>
       <c r="L39" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="M39" s="13"/>
-      <c r="R39" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="S39" s="13"/>
-      <c r="T39" s="3" t="str">
-        <f>", '"&amp;A39&amp;"': {megami: '"&amp;B39&amp;"'"&amp;IF(C39&lt;&gt;"", ", anotherID: '" &amp; C39 &amp; "', replace: '" &amp; D39 &amp; "'", "")&amp;", name: '"&amp;E39&amp;"', ruby: '"&amp;F39&amp;"', baseType: '"&amp;VLOOKUP(G39,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H39,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I39&lt;&gt;"",", '"&amp; VLOOKUP(I39,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J39&lt;&gt;"", ", range: '"&amp;J39&amp;"'", "")&amp;IF(L39&lt;&gt;"", ", damage: '"&amp;L39&amp;"'", "")&amp;IF(N39&lt;&gt;"", ", capacity: '"&amp;N39&amp;"'", "")&amp;IF(O39&lt;&gt;"", ", cost: '"&amp;O39&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R39, CHAR(10), "\n")&amp;"'"&amp;IF(P39="○", ", sealable: true", "")&amp;IF(Q39="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '07-shinra-o-n-2': {megami: 'shinra', name: '反論', ruby: 'はんろん', baseType: 'normal', types: ['attack', 'reaction'], range: '2-7', damage: '1/-', text: '【攻撃後】対応した切札でなく、オーラへのダメージが3以上である《攻撃》のダメージを打ち消す。 \n【攻撃後】相手はカードを1枚引く。'}</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+        <v>255</v>
+      </c>
+      <c r="M39" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="R39" s="5"/>
+      <c r="T39" s="9" t="str">
+        <f>", '"&amp;A39&amp;"': {megami: '"&amp;B39&amp;"', name: '"&amp;E39&amp;"', ruby: '"&amp;F39&amp;"', baseType: '"&amp;VLOOKUP(G39,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H39,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I39&lt;&gt;"",", '"&amp; VLOOKUP(I39,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J39&lt;&gt;"", ", range: '"&amp;J39&amp;"'", "")&amp;IF(K39&lt;&gt;"", ", rangeOpened: '"&amp;K39&amp;"'", "")&amp;IF(L39&lt;&gt;"", ", damage: '"&amp;L39&amp;"'", "")&amp;IF(M39&lt;&gt;"", ", damageOpened: '"&amp;M39&amp;"'", "")&amp;IF(N39&lt;&gt;"", ", capacity: '"&amp;N39&amp;"'", "")&amp;IF(O39&lt;&gt;"", ", cost: '"&amp;O39&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R39, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(S39, CHAR(10), "\n")&amp;"'}"</f>
+        <v>, '06-yukihi-o-n-4': {megami: 'yukihi', name: 'ふりまわし / つきさし', ruby: '', baseType: 'normal', types: ['attack', 'fullpower'], range: '4-6', rangeOpened: '0-2', damage: '5/-', damageOpened: '-/2', text: '', textOpened: ''}</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" ht="60" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>278</v>
+        <v>229</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>275</v>
+        <v>241</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>289</v>
+        <v>217</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="K40" s="13"/>
-      <c r="L40" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="M40" s="13"/>
+        <v>23</v>
+      </c>
+      <c r="K40" s="11"/>
+      <c r="M40" s="11"/>
       <c r="R40" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="S40" s="13"/>
-      <c r="T40" s="3" t="str">
-        <f>", '"&amp;A40&amp;"': {megami: '"&amp;B40&amp;"'"&amp;IF(C40&lt;&gt;"", ", anotherID: '" &amp; C40 &amp; "', replace: '" &amp; D40 &amp; "'", "")&amp;", name: '"&amp;E40&amp;"', ruby: '"&amp;F40&amp;"', baseType: '"&amp;VLOOKUP(G40,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H40,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I40&lt;&gt;"",", '"&amp; VLOOKUP(I40,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J40&lt;&gt;"", ", range: '"&amp;J40&amp;"'", "")&amp;IF(L40&lt;&gt;"", ", damage: '"&amp;L40&amp;"'", "")&amp;IF(N40&lt;&gt;"", ", capacity: '"&amp;N40&amp;"'", "")&amp;IF(O40&lt;&gt;"", ", cost: '"&amp;O40&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R40, CHAR(10), "\n")&amp;"'"&amp;IF(P40="○", ", sealable: true", "")&amp;IF(Q40="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '07-shinra-o-n-3': {megami: 'shinra', name: '詭弁', ruby: 'きべん', baseType: 'normal', types: ['attack', 'fullpower'], range: '3-8', damage: '-/1', text: '【攻撃後】計略を実行し、次の計略を準備する。 \n[神算] 相手の山札の上から3枚を伏せ札にする。 \n[鬼謀] 相手の捨て札にあるカードを1枚選び、それを使用してもよい。'}</v>
+        <v>360</v>
+      </c>
+      <c r="T40" s="9" t="str">
+        <f>", '"&amp;A40&amp;"': {megami: '"&amp;B40&amp;"', name: '"&amp;E40&amp;"', ruby: '"&amp;F40&amp;"', baseType: '"&amp;VLOOKUP(G40,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H40,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I40&lt;&gt;"",", '"&amp; VLOOKUP(I40,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J40&lt;&gt;"", ", range: '"&amp;J40&amp;"'", "")&amp;IF(K40&lt;&gt;"", ", rangeOpened: '"&amp;K40&amp;"'", "")&amp;IF(L40&lt;&gt;"", ", damage: '"&amp;L40&amp;"'", "")&amp;IF(M40&lt;&gt;"", ", damageOpened: '"&amp;M40&amp;"'", "")&amp;IF(N40&lt;&gt;"", ", capacity: '"&amp;N40&amp;"'", "")&amp;IF(O40&lt;&gt;"", ", cost: '"&amp;O40&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R40, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(S40, CHAR(10), "\n")&amp;"'}"</f>
+        <v>, '06-yukihi-o-n-5': {megami: 'yukihi', name: 'かさまわし', ruby: '', baseType: 'normal', types: ['action'], text: '(このカードは使用しても効果はない) \n【常時】あなたが傘の開閉を行った時、このカードを手札から公開してもよい。そうした場合、 \nダスト→自オーラ：1\n', textOpened: ''}</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>275</v>
+        <v>241</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>290</v>
+        <v>233</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>7</v>
@@ -4282,167 +4328,172 @@
       <c r="H41" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="R41" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="S41" s="13"/>
-      <c r="T41" s="3" t="str">
-        <f>", '"&amp;A41&amp;"': {megami: '"&amp;B41&amp;"'"&amp;IF(C41&lt;&gt;"", ", anotherID: '" &amp; C41 &amp; "', replace: '" &amp; D41 &amp; "'", "")&amp;", name: '"&amp;E41&amp;"', ruby: '"&amp;F41&amp;"', baseType: '"&amp;VLOOKUP(G41,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H41,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I41&lt;&gt;"",", '"&amp; VLOOKUP(I41,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J41&lt;&gt;"", ", range: '"&amp;J41&amp;"'", "")&amp;IF(L41&lt;&gt;"", ", damage: '"&amp;L41&amp;"'", "")&amp;IF(N41&lt;&gt;"", ", capacity: '"&amp;N41&amp;"'", "")&amp;IF(O41&lt;&gt;"", ", cost: '"&amp;O41&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R41, CHAR(10), "\n")&amp;"'"&amp;IF(P41="○", ", sealable: true", "")&amp;IF(Q41="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '07-shinra-o-n-4': {megami: 'shinra', name: '引用', ruby: 'いんよう', baseType: 'normal', types: ['action'], text: '相手の手札を見て、《攻撃》カードを1枚選んでもよい。そうした場合、そのカードを使用するか伏せ札にする。その後、そのカードが《全力》を持つならば現在のフェイズを終了する。'}</v>
+      <c r="I41" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="R41" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="S41" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="T41" s="9" t="str">
+        <f>", '"&amp;A41&amp;"': {megami: '"&amp;B41&amp;"', name: '"&amp;E41&amp;"', ruby: '"&amp;F41&amp;"', baseType: '"&amp;VLOOKUP(G41,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H41,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I41&lt;&gt;"",", '"&amp; VLOOKUP(I41,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J41&lt;&gt;"", ", range: '"&amp;J41&amp;"'", "")&amp;IF(K41&lt;&gt;"", ", rangeOpened: '"&amp;K41&amp;"'", "")&amp;IF(L41&lt;&gt;"", ", damage: '"&amp;L41&amp;"'", "")&amp;IF(M41&lt;&gt;"", ", damageOpened: '"&amp;M41&amp;"'", "")&amp;IF(N41&lt;&gt;"", ", capacity: '"&amp;N41&amp;"'", "")&amp;IF(O41&lt;&gt;"", ", cost: '"&amp;O41&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R41, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(S41, CHAR(10), "\n")&amp;"'}"</f>
+        <v>, '06-yukihi-o-n-6': {megami: 'yukihi', name: 'ひきあし / もぐりこみ', ruby: '', baseType: 'normal', types: ['action', 'reaction'], text: 'ダスト→間合：1 ', textOpened: '間合→ダスト：1'}</v>
       </c>
     </row>
     <row r="42" spans="1:20" ht="36" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
-        <v>280</v>
+        <v>231</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>275</v>
+        <v>241</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>291</v>
+        <v>232</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K42" s="13"/>
-      <c r="M42" s="13"/>
+        <v>48</v>
+      </c>
+      <c r="K42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="R42" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="S42" s="13"/>
-      <c r="T42" s="3" t="str">
-        <f>", '"&amp;A42&amp;"': {megami: '"&amp;B42&amp;"'"&amp;IF(C42&lt;&gt;"", ", anotherID: '" &amp; C42 &amp; "', replace: '" &amp; D42 &amp; "'", "")&amp;", name: '"&amp;E42&amp;"', ruby: '"&amp;F42&amp;"', baseType: '"&amp;VLOOKUP(G42,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H42,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I42&lt;&gt;"",", '"&amp; VLOOKUP(I42,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J42&lt;&gt;"", ", range: '"&amp;J42&amp;"'", "")&amp;IF(L42&lt;&gt;"", ", damage: '"&amp;L42&amp;"'", "")&amp;IF(N42&lt;&gt;"", ", capacity: '"&amp;N42&amp;"'", "")&amp;IF(O42&lt;&gt;"", ", cost: '"&amp;O42&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R42, CHAR(10), "\n")&amp;"'"&amp;IF(P42="○", ", sealable: true", "")&amp;IF(Q42="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '07-shinra-o-n-5': {megami: 'shinra', name: '煽動', ruby: 'せんどう', baseType: 'normal', types: ['action', 'reaction'], text: '計略を実行し、次の計略を準備する。 \n[神算] ダスト→間合：1 \n[鬼謀] 間合→相オーラ：1'}</v>
+        <v>387</v>
+      </c>
+      <c r="T42" s="9" t="str">
+        <f>", '"&amp;A42&amp;"': {megami: '"&amp;B42&amp;"', name: '"&amp;E42&amp;"', ruby: '"&amp;F42&amp;"', baseType: '"&amp;VLOOKUP(G42,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H42,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I42&lt;&gt;"",", '"&amp; VLOOKUP(I42,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J42&lt;&gt;"", ", range: '"&amp;J42&amp;"'", "")&amp;IF(K42&lt;&gt;"", ", rangeOpened: '"&amp;K42&amp;"'", "")&amp;IF(L42&lt;&gt;"", ", damage: '"&amp;L42&amp;"'", "")&amp;IF(M42&lt;&gt;"", ", damageOpened: '"&amp;M42&amp;"'", "")&amp;IF(N42&lt;&gt;"", ", capacity: '"&amp;N42&amp;"'", "")&amp;IF(O42&lt;&gt;"", ", cost: '"&amp;O42&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R42, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(S42, CHAR(10), "\n")&amp;"'}"</f>
+        <v>, '06-yukihi-o-n-7': {megami: 'yukihi', name: 'えんむすび', ruby: '', baseType: 'normal', types: ['enhance'], capacity: '2', text: '【展開時】間合→ダスト：1 \n【破棄時】ダスト→間合：1 \n【常時】あなたの傘が開いているならば、このカードの矢印(→)は逆になる。', textOpened: ''}</v>
       </c>
     </row>
     <row r="43" spans="1:20" ht="48" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
-        <v>281</v>
+        <v>237</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>275</v>
+        <v>241</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>292</v>
+        <v>218</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="R43" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="S43" s="13"/>
-      <c r="T43" s="3" t="str">
-        <f>", '"&amp;A43&amp;"': {megami: '"&amp;B43&amp;"'"&amp;IF(C43&lt;&gt;"", ", anotherID: '" &amp; C43 &amp; "', replace: '" &amp; D43 &amp; "'", "")&amp;", name: '"&amp;E43&amp;"', ruby: '"&amp;F43&amp;"', baseType: '"&amp;VLOOKUP(G43,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H43,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I43&lt;&gt;"",", '"&amp; VLOOKUP(I43,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J43&lt;&gt;"", ", range: '"&amp;J43&amp;"'", "")&amp;IF(L43&lt;&gt;"", ", damage: '"&amp;L43&amp;"'", "")&amp;IF(N43&lt;&gt;"", ", capacity: '"&amp;N43&amp;"'", "")&amp;IF(O43&lt;&gt;"", ", cost: '"&amp;O43&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R43, CHAR(10), "\n")&amp;"'"&amp;IF(P43="○", ", sealable: true", "")&amp;IF(Q43="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '07-shinra-o-n-6': {megami: 'shinra', name: '壮語', ruby: 'そうご', baseType: 'normal', types: ['enhance'], capacity: '2', text: '【破棄時】計略を実行し、次の計略を準備する。 \n[神算] あなたの集中力は1増加し、このカードを山札の一番上に置く。 \n[鬼謀] 相手は手札が2枚以上ならば、手札を1枚になるまで捨て札にする。相手の集中力は0になる。'}</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="K43" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="M43" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="O43" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="T43" s="9" t="str">
+        <f>", '"&amp;A43&amp;"': {megami: '"&amp;B43&amp;"', name: '"&amp;E43&amp;"', ruby: '"&amp;F43&amp;"', baseType: '"&amp;VLOOKUP(G43,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H43,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I43&lt;&gt;"",", '"&amp; VLOOKUP(I43,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J43&lt;&gt;"", ", range: '"&amp;J43&amp;"'", "")&amp;IF(K43&lt;&gt;"", ", rangeOpened: '"&amp;K43&amp;"'", "")&amp;IF(L43&lt;&gt;"", ", damage: '"&amp;L43&amp;"'", "")&amp;IF(M43&lt;&gt;"", ", damageOpened: '"&amp;M43&amp;"'", "")&amp;IF(N43&lt;&gt;"", ", capacity: '"&amp;N43&amp;"'", "")&amp;IF(O43&lt;&gt;"", ", cost: '"&amp;O43&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R43, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(S43, CHAR(10), "\n")&amp;"'}"</f>
+        <v>, '06-yukihi-o-s-1': {megami: 'yukihi', name: 'はらりゆき', ruby: '', baseType: 'special', types: ['attack'], range: '3-5', rangeOpened: '0-1', damage: '3/1', damageOpened: '0/0', cost: '2', text: '', textOpened: '----\n【即再起】あなたが傘の開閉を行う。 '}</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
-        <v>282</v>
+        <v>238</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>275</v>
+        <v>241</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>293</v>
+        <v>222</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K44" s="13"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="P44" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="R44" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="S44" s="13"/>
-      <c r="T44" s="3" t="str">
-        <f>", '"&amp;A44&amp;"': {megami: '"&amp;B44&amp;"'"&amp;IF(C44&lt;&gt;"", ", anotherID: '" &amp; C44 &amp; "', replace: '" &amp; D44 &amp; "'", "")&amp;", name: '"&amp;E44&amp;"', ruby: '"&amp;F44&amp;"', baseType: '"&amp;VLOOKUP(G44,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H44,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I44&lt;&gt;"",", '"&amp; VLOOKUP(I44,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J44&lt;&gt;"", ", range: '"&amp;J44&amp;"'", "")&amp;IF(L44&lt;&gt;"", ", damage: '"&amp;L44&amp;"'", "")&amp;IF(N44&lt;&gt;"", ", capacity: '"&amp;N44&amp;"'", "")&amp;IF(O44&lt;&gt;"", ", cost: '"&amp;O44&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R44, CHAR(10), "\n")&amp;"'"&amp;IF(P44="○", ", sealable: true", "")&amp;IF(Q44="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '07-shinra-o-n-7': {megami: 'shinra', name: '論破', ruby: 'ろんぱ', baseType: 'normal', types: ['enhance'], capacity: '4', text: '【展開時】相手の捨て札にあるカード1枚を選び、このカードの下に封印する。 \n【破棄時】このカードに封印されたカードを相手の捨て札に戻す。', sealable: true}</v>
+        <v>8</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="K44" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="M44" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="O44" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="R44" s="5"/>
+      <c r="T44" s="9" t="str">
+        <f>", '"&amp;A44&amp;"': {megami: '"&amp;B44&amp;"', name: '"&amp;E44&amp;"', ruby: '"&amp;F44&amp;"', baseType: '"&amp;VLOOKUP(G44,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H44,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I44&lt;&gt;"",", '"&amp; VLOOKUP(I44,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J44&lt;&gt;"", ", range: '"&amp;J44&amp;"'", "")&amp;IF(K44&lt;&gt;"", ", rangeOpened: '"&amp;K44&amp;"'", "")&amp;IF(L44&lt;&gt;"", ", damage: '"&amp;L44&amp;"'", "")&amp;IF(M44&lt;&gt;"", ", damageOpened: '"&amp;M44&amp;"'", "")&amp;IF(N44&lt;&gt;"", ", capacity: '"&amp;N44&amp;"'", "")&amp;IF(O44&lt;&gt;"", ", cost: '"&amp;O44&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R44, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(S44, CHAR(10), "\n")&amp;"'}"</f>
+        <v>, '06-yukihi-o-s-2': {megami: 'yukihi', name: 'ゆらりび', ruby: '', baseType: 'special', types: ['attack'], range: '4-6', rangeOpened: '0', damage: '0/0', damageOpened: '4/5', cost: '5', text: '', textOpened: ''}</v>
       </c>
     </row>
     <row r="45" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
-        <v>283</v>
+        <v>239</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>275</v>
+        <v>241</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>294</v>
+        <v>223</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K45" s="13"/>
-      <c r="M45" s="13"/>
+        <v>48</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="4" t="s">
+        <v>259</v>
+      </c>
       <c r="O45" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="P45" s="4" t="s">
-        <v>295</v>
+        <v>244</v>
       </c>
       <c r="R45" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="S45" s="13"/>
-      <c r="T45" s="3" t="str">
-        <f>", '"&amp;A45&amp;"': {megami: '"&amp;B45&amp;"'"&amp;IF(C45&lt;&gt;"", ", anotherID: '" &amp; C45 &amp; "', replace: '" &amp; D45 &amp; "'", "")&amp;", name: '"&amp;E45&amp;"', ruby: '"&amp;F45&amp;"', baseType: '"&amp;VLOOKUP(G45,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H45,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I45&lt;&gt;"",", '"&amp; VLOOKUP(I45,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J45&lt;&gt;"", ", range: '"&amp;J45&amp;"'", "")&amp;IF(L45&lt;&gt;"", ", damage: '"&amp;L45&amp;"'", "")&amp;IF(N45&lt;&gt;"", ", capacity: '"&amp;N45&amp;"'", "")&amp;IF(O45&lt;&gt;"", ", cost: '"&amp;O45&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R45, CHAR(10), "\n")&amp;"'"&amp;IF(P45="○", ", sealable: true", "")&amp;IF(Q45="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '07-shinra-o-s-1': {megami: 'shinra', name: '完全論破', ruby: 'かんぜんろんぱ', baseType: 'special', types: ['action'], cost: '4', text: '相手の捨て札にあるカード1枚を選び、このカードの下に封印する。 \n(ゲーム中に戻ることはない)', sealable: true}</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" ht="60" x14ac:dyDescent="0.15">
+        <v>388</v>
+      </c>
+      <c r="T45" s="9" t="str">
+        <f>", '"&amp;A45&amp;"': {megami: '"&amp;B45&amp;"', name: '"&amp;E45&amp;"', ruby: '"&amp;F45&amp;"', baseType: '"&amp;VLOOKUP(G45,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H45,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I45&lt;&gt;"",", '"&amp; VLOOKUP(I45,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J45&lt;&gt;"", ", range: '"&amp;J45&amp;"'", "")&amp;IF(K45&lt;&gt;"", ", rangeOpened: '"&amp;K45&amp;"'", "")&amp;IF(L45&lt;&gt;"", ", damage: '"&amp;L45&amp;"'", "")&amp;IF(M45&lt;&gt;"", ", damageOpened: '"&amp;M45&amp;"'", "")&amp;IF(N45&lt;&gt;"", ", capacity: '"&amp;N45&amp;"'", "")&amp;IF(O45&lt;&gt;"", ", cost: '"&amp;O45&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R45, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(S45, CHAR(10), "\n")&amp;"'}"</f>
+        <v>, '06-yukihi-o-s-3': {megami: 'yukihi', name: 'どろりうら', ruby: '', baseType: 'special', types: ['enhance', 'fullpower'], capacity: '7', cost: '3', text: '【展開中】あなたのユキヒの《攻撃》は傘を開いた状態と傘を閉じた状態両方の適正距離を持つ。', textOpened: ''}</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
-        <v>284</v>
+        <v>240</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>275</v>
+        <v>241</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>296</v>
+        <v>224</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>19</v>
@@ -4450,107 +4501,109 @@
       <c r="H46" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K46" s="13"/>
-      <c r="M46" s="13"/>
+      <c r="I46" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K46" s="11"/>
+      <c r="M46" s="11"/>
       <c r="O46" s="4" t="s">
-        <v>55</v>
+        <v>245</v>
       </c>
       <c r="R46" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="S46" s="13"/>
-      <c r="T46" s="3" t="str">
-        <f>", '"&amp;A46&amp;"': {megami: '"&amp;B46&amp;"'"&amp;IF(C46&lt;&gt;"", ", anotherID: '" &amp; C46 &amp; "', replace: '" &amp; D46 &amp; "'", "")&amp;", name: '"&amp;E46&amp;"', ruby: '"&amp;F46&amp;"', baseType: '"&amp;VLOOKUP(G46,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H46,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I46&lt;&gt;"",", '"&amp; VLOOKUP(I46,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J46&lt;&gt;"", ", range: '"&amp;J46&amp;"'", "")&amp;IF(L46&lt;&gt;"", ", damage: '"&amp;L46&amp;"'", "")&amp;IF(N46&lt;&gt;"", ", capacity: '"&amp;N46&amp;"'", "")&amp;IF(O46&lt;&gt;"", ", cost: '"&amp;O46&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R46, CHAR(10), "\n")&amp;"'"&amp;IF(P46="○", ", sealable: true", "")&amp;IF(Q46="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '07-shinra-o-s-2': {megami: 'shinra', name: '皆式理解', ruby: 'かいしきりかい', baseType: 'special', types: ['action'], cost: '2', text: '計略を実行し、次の計略を準備する。 \n[神算] あなたの捨て札または使用済の切札から、消費を支払わずに《付与》カード1枚を使用する。そのカードが《全力》ならば現在のフェイズを終了する。 \n[鬼謀] 切札でない相手の付与札を1枚選ぶ。その上の桜花結晶全てをダストに送る。'}</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+        <v>389</v>
+      </c>
+      <c r="T46" s="9" t="str">
+        <f>", '"&amp;A46&amp;"': {megami: '"&amp;B46&amp;"', name: '"&amp;E46&amp;"', ruby: '"&amp;F46&amp;"', baseType: '"&amp;VLOOKUP(G46,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H46,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I46&lt;&gt;"",", '"&amp; VLOOKUP(I46,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J46&lt;&gt;"", ", range: '"&amp;J46&amp;"'", "")&amp;IF(K46&lt;&gt;"", ", rangeOpened: '"&amp;K46&amp;"'", "")&amp;IF(L46&lt;&gt;"", ", damage: '"&amp;L46&amp;"'", "")&amp;IF(M46&lt;&gt;"", ", damageOpened: '"&amp;M46&amp;"'", "")&amp;IF(N46&lt;&gt;"", ", capacity: '"&amp;N46&amp;"'", "")&amp;IF(O46&lt;&gt;"", ", cost: '"&amp;O46&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R46, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(S46, CHAR(10), "\n")&amp;"'}"</f>
+        <v>, '06-yukihi-o-s-4': {megami: 'yukihi', name: 'くるりみ', ruby: '', baseType: 'special', types: ['action', 'reaction'], cost: '1', text: '傘の開閉を行う。 \nダスト→自オーラ：1', textOpened: ''}</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>275</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>273</v>
       </c>
       <c r="K47" s="13"/>
+      <c r="L47" s="2" t="s">
+        <v>299</v>
+      </c>
       <c r="M47" s="13"/>
-      <c r="N47" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="O47" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="R47" s="5" t="s">
-        <v>307</v>
+      <c r="R47" s="4" t="s">
+        <v>302</v>
       </c>
       <c r="S47" s="13"/>
       <c r="T47" s="3" t="str">
         <f>", '"&amp;A47&amp;"': {megami: '"&amp;B47&amp;"'"&amp;IF(C47&lt;&gt;"", ", anotherID: '" &amp; C47 &amp; "', replace: '" &amp; D47 &amp; "'", "")&amp;", name: '"&amp;E47&amp;"', ruby: '"&amp;F47&amp;"', baseType: '"&amp;VLOOKUP(G47,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H47,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I47&lt;&gt;"",", '"&amp; VLOOKUP(I47,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J47&lt;&gt;"", ", range: '"&amp;J47&amp;"'", "")&amp;IF(L47&lt;&gt;"", ", damage: '"&amp;L47&amp;"'", "")&amp;IF(N47&lt;&gt;"", ", capacity: '"&amp;N47&amp;"'", "")&amp;IF(O47&lt;&gt;"", ", cost: '"&amp;O47&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R47, CHAR(10), "\n")&amp;"'"&amp;IF(P47="○", ", sealable: true", "")&amp;IF(Q47="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '07-shinra-o-s-3': {megami: 'shinra', name: '天地反駁', ruby: 'てんちはんぱく', baseType: 'special', types: ['enhance', 'fullpower'], capacity: '5', cost: '2', text: '【展開中】あなたの《攻撃》のオーラへのダメージとライフへのダメージを入れ替える。 \n（ダメージの入れ替えは、ダメージの増減より先に適用される）'}</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" ht="48" x14ac:dyDescent="0.15">
+        <v>, '07-shinra-o-n-1': {megami: 'shinra', name: '立論', ruby: 'りつろん', baseType: 'normal', types: ['attack'], range: '2-7', damage: '2/-', text: '【常時】相手の山札に2枚以上のカードがあるならば、この《攻撃》はダメージを与える代わりに山札の上から2枚を伏せ札にする。'}</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" ht="36" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>275</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>273</v>
       </c>
       <c r="K48" s="13"/>
+      <c r="L48" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="M48" s="13"/>
-      <c r="N48" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="O48" s="4" t="s">
-        <v>274</v>
-      </c>
       <c r="R48" s="5" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="S48" s="13"/>
       <c r="T48" s="3" t="str">
         <f>", '"&amp;A48&amp;"': {megami: '"&amp;B48&amp;"'"&amp;IF(C48&lt;&gt;"", ", anotherID: '" &amp; C48 &amp; "', replace: '" &amp; D48 &amp; "'", "")&amp;", name: '"&amp;E48&amp;"', ruby: '"&amp;F48&amp;"', baseType: '"&amp;VLOOKUP(G48,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H48,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I48&lt;&gt;"",", '"&amp; VLOOKUP(I48,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J48&lt;&gt;"", ", range: '"&amp;J48&amp;"'", "")&amp;IF(L48&lt;&gt;"", ", damage: '"&amp;L48&amp;"'", "")&amp;IF(N48&lt;&gt;"", ", capacity: '"&amp;N48&amp;"'", "")&amp;IF(O48&lt;&gt;"", ", cost: '"&amp;O48&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R48, CHAR(10), "\n")&amp;"'"&amp;IF(P48="○", ", sealable: true", "")&amp;IF(Q48="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '07-shinra-o-s-4': {megami: 'shinra', name: '森羅判証', ruby: 'しんらばんしょう', baseType: 'special', types: ['enhance'], capacity: '6', cost: '6', text: '【展開時】ダスト→自ライフ：2 \n【展開中】あなたの他の付与札が破棄された時、相手のライフに1ダメージを与える。 \n【破棄時】あなたは敗北する。'}</v>
+        <v>, '07-shinra-o-n-2': {megami: 'shinra', name: '反論', ruby: 'はんろん', baseType: 'normal', types: ['attack', 'reaction'], range: '2-7', damage: '1/-', text: '【攻撃後】対応した切札でなく、オーラへのダメージが3以上である《攻撃》のダメージを打ち消す。 \n【攻撃後】相手はカードを1枚引く。'}</v>
       </c>
     </row>
     <row r="49" spans="1:20" ht="36" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
-        <v>313</v>
+        <v>278</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>324</v>
+        <v>275</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>325</v>
+        <v>264</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>348</v>
+        <v>289</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>7</v>
@@ -4558,371 +4611,386 @@
       <c r="H49" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="I49" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J49" s="4" t="s">
-        <v>326</v>
+        <v>80</v>
       </c>
       <c r="K49" s="13"/>
       <c r="L49" s="2" t="s">
-        <v>349</v>
+        <v>301</v>
       </c>
       <c r="M49" s="13"/>
       <c r="R49" s="5" t="s">
-        <v>351</v>
+        <v>311</v>
       </c>
       <c r="S49" s="13"/>
       <c r="T49" s="3" t="str">
         <f>", '"&amp;A49&amp;"': {megami: '"&amp;B49&amp;"'"&amp;IF(C49&lt;&gt;"", ", anotherID: '" &amp; C49 &amp; "', replace: '" &amp; D49 &amp; "'", "")&amp;", name: '"&amp;E49&amp;"', ruby: '"&amp;F49&amp;"', baseType: '"&amp;VLOOKUP(G49,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H49,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I49&lt;&gt;"",", '"&amp; VLOOKUP(I49,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J49&lt;&gt;"", ", range: '"&amp;J49&amp;"'", "")&amp;IF(L49&lt;&gt;"", ", damage: '"&amp;L49&amp;"'", "")&amp;IF(N49&lt;&gt;"", ", capacity: '"&amp;N49&amp;"'", "")&amp;IF(O49&lt;&gt;"", ", cost: '"&amp;O49&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R49, CHAR(10), "\n")&amp;"'"&amp;IF(P49="○", ", sealable: true", "")&amp;IF(Q49="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '08-hagane-o-n-1': {megami: 'hagane', name: '遠心撃', ruby: 'えんしんげき', baseType: 'normal', types: ['attack'], range: '2-6', damage: '5/3', text: '遠心 \n【攻撃後】現在のターンがあなたのターンならば、あなたと相手の手札を全て伏せ札にし、あなたの集中力は0になり、現在のフェイズを終了する。'}</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+        <v>, '07-shinra-o-n-3': {megami: 'shinra', name: '詭弁', ruby: 'きべん', baseType: 'normal', types: ['attack', 'fullpower'], range: '3-8', damage: '-/1', text: '【攻撃後】計略を実行し、次の計略を準備する。 \n[神算] 相手の山札の上から3枚を伏せ札にする。 \n[鬼謀] 相手の捨て札にあるカードを1枚選び、それを使用してもよい。'}</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
-        <v>314</v>
+        <v>279</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>324</v>
+        <v>275</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>327</v>
+        <v>265</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>347</v>
+        <v>290</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>328</v>
+        <v>23</v>
       </c>
       <c r="K50" s="13"/>
-      <c r="L50" s="2" t="s">
-        <v>300</v>
-      </c>
       <c r="M50" s="13"/>
-      <c r="R50" s="5" t="s">
-        <v>352</v>
+      <c r="R50" s="4" t="s">
+        <v>304</v>
       </c>
       <c r="S50" s="13"/>
       <c r="T50" s="3" t="str">
         <f>", '"&amp;A50&amp;"': {megami: '"&amp;B50&amp;"'"&amp;IF(C50&lt;&gt;"", ", anotherID: '" &amp; C50 &amp; "', replace: '" &amp; D50 &amp; "'", "")&amp;", name: '"&amp;E50&amp;"', ruby: '"&amp;F50&amp;"', baseType: '"&amp;VLOOKUP(G50,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H50,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I50&lt;&gt;"",", '"&amp; VLOOKUP(I50,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J50&lt;&gt;"", ", range: '"&amp;J50&amp;"'", "")&amp;IF(L50&lt;&gt;"", ", damage: '"&amp;L50&amp;"'", "")&amp;IF(N50&lt;&gt;"", ", capacity: '"&amp;N50&amp;"'", "")&amp;IF(O50&lt;&gt;"", ", cost: '"&amp;O50&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R50, CHAR(10), "\n")&amp;"'"&amp;IF(P50="○", ", sealable: true", "")&amp;IF(Q50="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '08-hagane-o-n-2': {megami: 'hagane', name: '砂風塵', ruby: 'さふうじん', baseType: 'normal', types: ['attack'], range: '0-6', damage: '1/-', text: '【攻撃後】現在の間合がターン開始時の間合から2以上変化しているならば、相手の手札を1枚無作為に選び、それを捨て札にする。'}</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+        <v>, '07-shinra-o-n-4': {megami: 'shinra', name: '引用', ruby: 'いんよう', baseType: 'normal', types: ['action'], text: '相手の手札を見て、《攻撃》カードを1枚選んでもよい。そうした場合、そのカードを使用するか伏せ札にする。その後、そのカードが《全力》を持つならば現在のフェイズを終了する。'}</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" ht="36" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>324</v>
+        <v>275</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>329</v>
+        <v>266</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>346</v>
+        <v>291</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J51" s="4" t="s">
-        <v>162</v>
+        <v>28</v>
       </c>
       <c r="K51" s="13"/>
-      <c r="L51" s="2" t="s">
-        <v>299</v>
-      </c>
       <c r="M51" s="13"/>
       <c r="R51" s="5" t="s">
-        <v>353</v>
+        <v>310</v>
       </c>
       <c r="S51" s="13"/>
       <c r="T51" s="3" t="str">
         <f>", '"&amp;A51&amp;"': {megami: '"&amp;B51&amp;"'"&amp;IF(C51&lt;&gt;"", ", anotherID: '" &amp; C51 &amp; "', replace: '" &amp; D51 &amp; "'", "")&amp;", name: '"&amp;E51&amp;"', ruby: '"&amp;F51&amp;"', baseType: '"&amp;VLOOKUP(G51,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H51,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I51&lt;&gt;"",", '"&amp; VLOOKUP(I51,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J51&lt;&gt;"", ", range: '"&amp;J51&amp;"'", "")&amp;IF(L51&lt;&gt;"", ", damage: '"&amp;L51&amp;"'", "")&amp;IF(N51&lt;&gt;"", ", capacity: '"&amp;N51&amp;"'", "")&amp;IF(O51&lt;&gt;"", ", cost: '"&amp;O51&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R51, CHAR(10), "\n")&amp;"'"&amp;IF(P51="○", ", sealable: true", "")&amp;IF(Q51="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '08-hagane-o-n-3': {megami: 'hagane', name: '大地砕き', ruby: 'だいちくだき', baseType: 'normal', types: ['attack', 'fullpower'], range: '0-3', damage: '2/-', text: '対応不可 \n【攻撃後】相手の集中力は0になり、相手を畏縮させる。'}</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.15">
+        <v>, '07-shinra-o-n-5': {megami: 'shinra', name: '煽動', ruby: 'せんどう', baseType: 'normal', types: ['action', 'reaction'], text: '計略を実行し、次の計略を準備する。 \n[神算] ダスト→間合：1 \n[鬼謀] 間合→相オーラ：1'}</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" ht="48" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>324</v>
+        <v>275</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>330</v>
+        <v>267</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>345</v>
+        <v>292</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="K52" s="13"/>
       <c r="M52" s="13"/>
+      <c r="N52" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="R52" s="5" t="s">
-        <v>354</v>
+        <v>309</v>
       </c>
       <c r="S52" s="13"/>
       <c r="T52" s="3" t="str">
         <f>", '"&amp;A52&amp;"': {megami: '"&amp;B52&amp;"'"&amp;IF(C52&lt;&gt;"", ", anotherID: '" &amp; C52 &amp; "', replace: '" &amp; D52 &amp; "'", "")&amp;", name: '"&amp;E52&amp;"', ruby: '"&amp;F52&amp;"', baseType: '"&amp;VLOOKUP(G52,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H52,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I52&lt;&gt;"",", '"&amp; VLOOKUP(I52,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J52&lt;&gt;"", ", range: '"&amp;J52&amp;"'", "")&amp;IF(L52&lt;&gt;"", ", damage: '"&amp;L52&amp;"'", "")&amp;IF(N52&lt;&gt;"", ", capacity: '"&amp;N52&amp;"'", "")&amp;IF(O52&lt;&gt;"", ", cost: '"&amp;O52&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R52, CHAR(10), "\n")&amp;"'"&amp;IF(P52="○", ", sealable: true", "")&amp;IF(Q52="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '08-hagane-o-n-4': {megami: 'hagane', name: '超反発', ruby: 'ちょうはんぱつ', baseType: 'normal', types: ['action'], text: '現在の間合が4以下ならば、相フレア→間合：1'}</v>
+        <v>, '07-shinra-o-n-6': {megami: 'shinra', name: '壮語', ruby: 'そうご', baseType: 'normal', types: ['enhance'], capacity: '2', text: '【破棄時】計略を実行し、次の計略を準備する。 \n[神算] あなたの集中力は1増加し、このカードを山札の一番上に置く。 \n[鬼謀] 相手は手札が2枚以上ならば、手札を1枚になるまで捨て札にする。相手の集中力は0になる。'}</v>
       </c>
     </row>
     <row r="53" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>324</v>
+        <v>275</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>331</v>
+        <v>268</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>343</v>
+        <v>293</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="K53" s="13"/>
       <c r="M53" s="13"/>
+      <c r="N53" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="P53" s="4" t="s">
+        <v>295</v>
+      </c>
       <c r="R53" s="5" t="s">
-        <v>355</v>
+        <v>305</v>
       </c>
       <c r="S53" s="13"/>
       <c r="T53" s="3" t="str">
         <f>", '"&amp;A53&amp;"': {megami: '"&amp;B53&amp;"'"&amp;IF(C53&lt;&gt;"", ", anotherID: '" &amp; C53 &amp; "', replace: '" &amp; D53 &amp; "'", "")&amp;", name: '"&amp;E53&amp;"', ruby: '"&amp;F53&amp;"', baseType: '"&amp;VLOOKUP(G53,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H53,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I53&lt;&gt;"",", '"&amp; VLOOKUP(I53,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J53&lt;&gt;"", ", range: '"&amp;J53&amp;"'", "")&amp;IF(L53&lt;&gt;"", ", damage: '"&amp;L53&amp;"'", "")&amp;IF(N53&lt;&gt;"", ", capacity: '"&amp;N53&amp;"'", "")&amp;IF(O53&lt;&gt;"", ", cost: '"&amp;O53&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R53, CHAR(10), "\n")&amp;"'"&amp;IF(P53="○", ", sealable: true", "")&amp;IF(Q53="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '08-hagane-o-n-5': {megami: 'hagane', name: '円舞錬', ruby: 'えんぶれん', baseType: 'normal', types: ['action'], text: '遠心 \n相手のフレアが3以上ならば、相フレア→自オーラ：2'}</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" ht="60" x14ac:dyDescent="0.15">
+        <v>, '07-shinra-o-n-7': {megami: 'shinra', name: '論破', ruby: 'ろんぱ', baseType: 'normal', types: ['enhance'], capacity: '4', text: '【展開時】相手の捨て札にあるカード1枚を選び、このカードの下に封印する。 \n【破棄時】このカードに封印されたカードを相手の捨て札に戻す。', sealable: true}</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
-        <v>318</v>
+        <v>283</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>324</v>
+        <v>275</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>332</v>
+        <v>269</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>344</v>
+        <v>294</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>23</v>
       </c>
       <c r="K54" s="13"/>
       <c r="M54" s="13"/>
+      <c r="O54" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="P54" s="4" t="s">
+        <v>295</v>
+      </c>
       <c r="R54" s="5" t="s">
-        <v>356</v>
+        <v>306</v>
       </c>
       <c r="S54" s="13"/>
       <c r="T54" s="3" t="str">
         <f>", '"&amp;A54&amp;"': {megami: '"&amp;B54&amp;"'"&amp;IF(C54&lt;&gt;"", ", anotherID: '" &amp; C54 &amp; "', replace: '" &amp; D54 &amp; "'", "")&amp;", name: '"&amp;E54&amp;"', ruby: '"&amp;F54&amp;"', baseType: '"&amp;VLOOKUP(G54,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H54,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I54&lt;&gt;"",", '"&amp; VLOOKUP(I54,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J54&lt;&gt;"", ", range: '"&amp;J54&amp;"'", "")&amp;IF(L54&lt;&gt;"", ", damage: '"&amp;L54&amp;"'", "")&amp;IF(N54&lt;&gt;"", ", capacity: '"&amp;N54&amp;"'", "")&amp;IF(O54&lt;&gt;"", ", cost: '"&amp;O54&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R54, CHAR(10), "\n")&amp;"'"&amp;IF(P54="○", ", sealable: true", "")&amp;IF(Q54="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '08-hagane-o-n-6': {megami: 'hagane', name: '鐘鳴らし', ruby: 'かねならし', baseType: 'normal', types: ['action'], text: '遠心 \n以下から１つを選ぶ。\n・このターンにあなたが次に行う《攻撃》は対応不可を得る。\n・このターンにあなたが次に行う《攻撃》はオーラへのダメージが3以上ならば+0/+1、そうでないならば+2/+0となる。'}</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+        <v>, '07-shinra-o-s-1': {megami: 'shinra', name: '完全論破', ruby: 'かんぜんろんぱ', baseType: 'special', types: ['action'], cost: '4', text: '相手の捨て札にあるカード1枚を選び、このカードの下に封印する。 \n(ゲーム中に戻ることはない)', sealable: true}</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" ht="60" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
-        <v>319</v>
+        <v>284</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>324</v>
+        <v>275</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>333</v>
+        <v>270</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>342</v>
+        <v>296</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="K55" s="13"/>
       <c r="M55" s="13"/>
-      <c r="N55" s="4" t="s">
-        <v>90</v>
+      <c r="O55" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="R55" s="5" t="s">
-        <v>357</v>
+        <v>312</v>
       </c>
       <c r="S55" s="13"/>
       <c r="T55" s="3" t="str">
         <f>", '"&amp;A55&amp;"': {megami: '"&amp;B55&amp;"'"&amp;IF(C55&lt;&gt;"", ", anotherID: '" &amp; C55 &amp; "', replace: '" &amp; D55 &amp; "'", "")&amp;", name: '"&amp;E55&amp;"', ruby: '"&amp;F55&amp;"', baseType: '"&amp;VLOOKUP(G55,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H55,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I55&lt;&gt;"",", '"&amp; VLOOKUP(I55,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J55&lt;&gt;"", ", range: '"&amp;J55&amp;"'", "")&amp;IF(L55&lt;&gt;"", ", damage: '"&amp;L55&amp;"'", "")&amp;IF(N55&lt;&gt;"", ", capacity: '"&amp;N55&amp;"'", "")&amp;IF(O55&lt;&gt;"", ", cost: '"&amp;O55&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R55, CHAR(10), "\n")&amp;"'"&amp;IF(P55="○", ", sealable: true", "")&amp;IF(Q55="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '08-hagane-o-n-7': {megami: 'hagane', name: '引力場', ruby: 'いんりょくば', baseType: 'normal', types: ['enhance'], capacity: '4', text: '【展開時】間合→ダスト：1 \n【展開中】達人の間合は1小さくなる。'}</v>
+        <v>, '07-shinra-o-s-2': {megami: 'shinra', name: '皆式理解', ruby: 'かいしきりかい', baseType: 'special', types: ['action'], cost: '2', text: '計略を実行し、次の計略を準備する。 \n[神算] あなたの捨て札または使用済の切札から、消費を支払わずに《付与》カード1枚を使用する。そのカードが《全力》ならば現在のフェイズを終了する。 \n[鬼謀] 切札でない相手の付与札を1枚選ぶ。その上の桜花結晶全てをダストに送る。'}</v>
       </c>
     </row>
     <row r="56" spans="1:20" ht="36" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>324</v>
+        <v>275</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>334</v>
+        <v>271</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>341</v>
+        <v>297</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J56" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="K56" s="13"/>
-      <c r="L56" s="2" t="s">
-        <v>350</v>
-      </c>
       <c r="M56" s="13"/>
+      <c r="N56" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="O56" s="4" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="R56" s="5" t="s">
-        <v>358</v>
+        <v>307</v>
       </c>
       <c r="S56" s="13"/>
       <c r="T56" s="3" t="str">
         <f>", '"&amp;A56&amp;"': {megami: '"&amp;B56&amp;"'"&amp;IF(C56&lt;&gt;"", ", anotherID: '" &amp; C56 &amp; "', replace: '" &amp; D56 &amp; "'", "")&amp;", name: '"&amp;E56&amp;"', ruby: '"&amp;F56&amp;"', baseType: '"&amp;VLOOKUP(G56,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H56,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I56&lt;&gt;"",", '"&amp; VLOOKUP(I56,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J56&lt;&gt;"", ", range: '"&amp;J56&amp;"'", "")&amp;IF(L56&lt;&gt;"", ", damage: '"&amp;L56&amp;"'", "")&amp;IF(N56&lt;&gt;"", ", capacity: '"&amp;N56&amp;"'", "")&amp;IF(O56&lt;&gt;"", ", cost: '"&amp;O56&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R56, CHAR(10), "\n")&amp;"'"&amp;IF(P56="○", ", sealable: true", "")&amp;IF(Q56="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '08-hagane-o-s-1': {megami: 'hagane', name: '大天空クラッシュ', ruby: 'だいてんくうクラッシュ', baseType: 'special', types: ['attack'], range: '0-10', damage: 'X/Y', cost: '5', text: '超克 \n【常時】Xは現在の間合がターン開始時の間合からどれだけ変化しているかに等しい。YはXの半分(切り上げ)に等しい。'}</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.15">
+        <v>, '07-shinra-o-s-3': {megami: 'shinra', name: '天地反駁', ruby: 'てんちはんぱく', baseType: 'special', types: ['enhance', 'fullpower'], capacity: '5', cost: '2', text: '【展開中】あなたの《攻撃》のオーラへのダメージとライフへのダメージを入れ替える。 \n（ダメージの入れ替えは、ダメージの増減より先に適用される）'}</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" ht="48" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
-        <v>321</v>
+        <v>286</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>324</v>
+        <v>275</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>335</v>
+        <v>272</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="K57" s="13"/>
       <c r="M57" s="13"/>
+      <c r="N57" s="4" t="s">
+        <v>274</v>
+      </c>
       <c r="O57" s="4" t="s">
-        <v>55</v>
+        <v>274</v>
       </c>
       <c r="R57" s="5" t="s">
-        <v>359</v>
+        <v>308</v>
       </c>
       <c r="S57" s="13"/>
       <c r="T57" s="3" t="str">
         <f>", '"&amp;A57&amp;"': {megami: '"&amp;B57&amp;"'"&amp;IF(C57&lt;&gt;"", ", anotherID: '" &amp; C57 &amp; "', replace: '" &amp; D57 &amp; "'", "")&amp;", name: '"&amp;E57&amp;"', ruby: '"&amp;F57&amp;"', baseType: '"&amp;VLOOKUP(G57,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H57,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I57&lt;&gt;"",", '"&amp; VLOOKUP(I57,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J57&lt;&gt;"", ", range: '"&amp;J57&amp;"'", "")&amp;IF(L57&lt;&gt;"", ", damage: '"&amp;L57&amp;"'", "")&amp;IF(N57&lt;&gt;"", ", capacity: '"&amp;N57&amp;"'", "")&amp;IF(O57&lt;&gt;"", ", cost: '"&amp;O57&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R57, CHAR(10), "\n")&amp;"'"&amp;IF(P57="○", ", sealable: true", "")&amp;IF(Q57="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '08-hagane-o-s-2': {megami: 'hagane', name: '大破鐘メガロベル', ruby: 'だいはがねメガロベル', baseType: 'special', types: ['action'], cost: '2', text: 'あなたの他の切札が全て使用済ならば、ダスト→自ライフ：2'}</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" ht="48" x14ac:dyDescent="0.15">
+        <v>, '07-shinra-o-s-4': {megami: 'shinra', name: '森羅判証', ruby: 'しんらばんしょう', baseType: 'special', types: ['enhance'], capacity: '6', cost: '6', text: '【展開時】ダスト→自ライフ：2 \n【展開中】あなたの他の付与札が破棄された時、相手のライフに1ダメージを与える。 \n【破棄時】あなたは敗北する。'}</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" ht="36" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>324</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>23</v>
+        <v>8</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>326</v>
       </c>
       <c r="K58" s="13"/>
+      <c r="L58" s="2" t="s">
+        <v>349</v>
+      </c>
       <c r="M58" s="13"/>
-      <c r="O58" s="4" t="s">
-        <v>78</v>
-      </c>
       <c r="R58" s="5" t="s">
-        <v>398</v>
+        <v>351</v>
       </c>
       <c r="S58" s="13"/>
       <c r="T58" s="3" t="str">
         <f>", '"&amp;A58&amp;"': {megami: '"&amp;B58&amp;"'"&amp;IF(C58&lt;&gt;"", ", anotherID: '" &amp; C58 &amp; "', replace: '" &amp; D58 &amp; "'", "")&amp;", name: '"&amp;E58&amp;"', ruby: '"&amp;F58&amp;"', baseType: '"&amp;VLOOKUP(G58,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H58,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I58&lt;&gt;"",", '"&amp; VLOOKUP(I58,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J58&lt;&gt;"", ", range: '"&amp;J58&amp;"'", "")&amp;IF(L58&lt;&gt;"", ", damage: '"&amp;L58&amp;"'", "")&amp;IF(N58&lt;&gt;"", ", capacity: '"&amp;N58&amp;"'", "")&amp;IF(O58&lt;&gt;"", ", cost: '"&amp;O58&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R58, CHAR(10), "\n")&amp;"'"&amp;IF(P58="○", ", sealable: true", "")&amp;IF(Q58="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '08-hagane-o-s-3': {megami: 'hagane', name: '大重力アトラクト', ruby: 'だいじゅうりょくアトラクト', baseType: 'special', types: ['action'], cost: '5', text: '間合→自フレア：3 \n----\n【再起】このターンにあなたが遠心を持つカードを使用しており、このカードを使用していない。'}</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+        <v>, '08-hagane-o-n-1': {megami: 'hagane', name: '遠心撃', ruby: 'えんしんげき', baseType: 'normal', types: ['attack'], range: '2-6', damage: '5/3', text: '遠心 \n【攻撃後】現在のターンがあなたのターンならば、あなたと相手の手札を全て伏せ札にし、あなたの集中力は0になり、現在のフェイズを終了する。'}</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>324</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>23</v>
+        <v>8</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>328</v>
       </c>
       <c r="K59" s="13"/>
+      <c r="L59" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="M59" s="13"/>
-      <c r="O59" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="R59" s="5" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="S59" s="13"/>
       <c r="T59" s="3" t="str">
         <f>", '"&amp;A59&amp;"': {megami: '"&amp;B59&amp;"'"&amp;IF(C59&lt;&gt;"", ", anotherID: '" &amp; C59 &amp; "', replace: '" &amp; D59 &amp; "'", "")&amp;", name: '"&amp;E59&amp;"', ruby: '"&amp;F59&amp;"', baseType: '"&amp;VLOOKUP(G59,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H59,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I59&lt;&gt;"",", '"&amp; VLOOKUP(I59,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J59&lt;&gt;"", ", range: '"&amp;J59&amp;"'", "")&amp;IF(L59&lt;&gt;"", ", damage: '"&amp;L59&amp;"'", "")&amp;IF(N59&lt;&gt;"", ", capacity: '"&amp;N59&amp;"'", "")&amp;IF(O59&lt;&gt;"", ", cost: '"&amp;O59&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R59, CHAR(10), "\n")&amp;"'"&amp;IF(P59="○", ", sealable: true", "")&amp;IF(Q59="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '08-hagane-o-s-4': {megami: 'hagane', name: '大山脈リスペクト', ruby: 'だいさんみゃくリスペクト', baseType: 'special', types: ['action'], cost: '4', text: '遠心 \nあなたの捨て札にある異なる《全力》でないカードを2枚まで選び、任意の順番で使用する。'}</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.15">
+        <v>, '08-hagane-o-n-2': {megami: 'hagane', name: '砂風塵', ruby: 'さふうじん', baseType: 'normal', types: ['attack'], range: '0-6', damage: '1/-', text: '【攻撃後】現在の間合がターン開始時の間合から2以上変化しているならば、相手の手札を1枚無作為に選び、それを捨て札にする。'}</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
-        <v>148</v>
+        <v>315</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>153</v>
+        <v>324</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>158</v>
+        <v>329</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>177</v>
+        <v>346</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>7</v>
@@ -4930,242 +4998,233 @@
       <c r="H60" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="I60" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J60" s="4" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="K60" s="13"/>
       <c r="L60" s="2" t="s">
-        <v>128</v>
+        <v>299</v>
       </c>
       <c r="M60" s="13"/>
+      <c r="R60" s="5" t="s">
+        <v>353</v>
+      </c>
       <c r="S60" s="13"/>
       <c r="T60" s="3" t="str">
         <f>", '"&amp;A60&amp;"': {megami: '"&amp;B60&amp;"'"&amp;IF(C60&lt;&gt;"", ", anotherID: '" &amp; C60 &amp; "', replace: '" &amp; D60 &amp; "'", "")&amp;", name: '"&amp;E60&amp;"', ruby: '"&amp;F60&amp;"', baseType: '"&amp;VLOOKUP(G60,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H60,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I60&lt;&gt;"",", '"&amp; VLOOKUP(I60,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J60&lt;&gt;"", ", range: '"&amp;J60&amp;"'", "")&amp;IF(L60&lt;&gt;"", ", damage: '"&amp;L60&amp;"'", "")&amp;IF(N60&lt;&gt;"", ", capacity: '"&amp;N60&amp;"'", "")&amp;IF(O60&lt;&gt;"", ", cost: '"&amp;O60&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R60, CHAR(10), "\n")&amp;"'"&amp;IF(P60="○", ", sealable: true", "")&amp;IF(Q60="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '09-chikage-o-n-1': {megami: 'chikage', name: '飛苦無', ruby: 'とびくない', baseType: 'normal', types: ['attack'], range: '4-5', damage: '2/2', text: ''}</v>
+        <v>, '08-hagane-o-n-3': {megami: 'hagane', name: '大地砕き', ruby: 'だいちくだき', baseType: 'normal', types: ['attack', 'fullpower'], range: '0-3', damage: '2/-', text: '対応不可 \n【攻撃後】相手の集中力は0になり、相手を畏縮させる。'}</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
-        <v>142</v>
+        <v>316</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>153</v>
+        <v>324</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>159</v>
+        <v>330</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>178</v>
+        <v>345</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J61" s="4" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="K61" s="13"/>
-      <c r="L61" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="M61" s="13"/>
-      <c r="R61" s="4" t="s">
-        <v>199</v>
+      <c r="R61" s="5" t="s">
+        <v>354</v>
       </c>
       <c r="S61" s="13"/>
       <c r="T61" s="3" t="str">
         <f>", '"&amp;A61&amp;"': {megami: '"&amp;B61&amp;"'"&amp;IF(C61&lt;&gt;"", ", anotherID: '" &amp; C61 &amp; "', replace: '" &amp; D61 &amp; "'", "")&amp;", name: '"&amp;E61&amp;"', ruby: '"&amp;F61&amp;"', baseType: '"&amp;VLOOKUP(G61,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H61,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I61&lt;&gt;"",", '"&amp; VLOOKUP(I61,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J61&lt;&gt;"", ", range: '"&amp;J61&amp;"'", "")&amp;IF(L61&lt;&gt;"", ", damage: '"&amp;L61&amp;"'", "")&amp;IF(N61&lt;&gt;"", ", capacity: '"&amp;N61&amp;"'", "")&amp;IF(O61&lt;&gt;"", ", cost: '"&amp;O61&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R61, CHAR(10), "\n")&amp;"'"&amp;IF(P61="○", ", sealable: true", "")&amp;IF(Q61="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '09-chikage-o-n-2': {megami: 'chikage', name: '毒針', ruby: 'どくばり', baseType: 'normal', types: ['attack'], range: '4', damage: '1/1', text: '【攻撃後】毒袋から「麻痺毒」「幻覚毒」「弛緩毒」のいずれか1枚を選び、そのカードを相手の山札の一番上に置く。'}</v>
+        <v>, '08-hagane-o-n-4': {megami: 'hagane', name: '超反発', ruby: 'ちょうはんぱつ', baseType: 'normal', types: ['action'], text: '現在の間合が4以下ならば、相フレア→間合：1'}</v>
       </c>
     </row>
     <row r="62" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A62" s="4" t="s">
-        <v>143</v>
+        <v>317</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>153</v>
+        <v>324</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>160</v>
+        <v>331</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>179</v>
+        <v>343</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J62" s="4" t="s">
-        <v>175</v>
+        <v>23</v>
       </c>
       <c r="K62" s="13"/>
-      <c r="L62" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="M62" s="13"/>
       <c r="R62" s="5" t="s">
-        <v>200</v>
+        <v>355</v>
       </c>
       <c r="S62" s="13"/>
       <c r="T62" s="3" t="str">
         <f>", '"&amp;A62&amp;"': {megami: '"&amp;B62&amp;"'"&amp;IF(C62&lt;&gt;"", ", anotherID: '" &amp; C62 &amp; "', replace: '" &amp; D62 &amp; "'", "")&amp;", name: '"&amp;E62&amp;"', ruby: '"&amp;F62&amp;"', baseType: '"&amp;VLOOKUP(G62,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H62,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I62&lt;&gt;"",", '"&amp; VLOOKUP(I62,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J62&lt;&gt;"", ", range: '"&amp;J62&amp;"'", "")&amp;IF(L62&lt;&gt;"", ", damage: '"&amp;L62&amp;"'", "")&amp;IF(N62&lt;&gt;"", ", capacity: '"&amp;N62&amp;"'", "")&amp;IF(O62&lt;&gt;"", ", cost: '"&amp;O62&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R62, CHAR(10), "\n")&amp;"'"&amp;IF(P62="○", ", sealable: true", "")&amp;IF(Q62="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '09-chikage-o-n-3': {megami: 'chikage', name: '遁術', ruby: 'とんじゅつ', baseType: 'normal', types: ['attack', 'reaction'], range: '1-3', damage: '1/-', text: '【攻撃後】自オーラ→間合：2 \n【攻撃後】このターン中、全てのプレイヤーは基本動作《前進》を行えない。'}</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.15">
+        <v>, '08-hagane-o-n-5': {megami: 'hagane', name: '円舞錬', ruby: 'えんぶれん', baseType: 'normal', types: ['action'], text: '遠心 \n相手のフレアが3以上ならば、相フレア→自オーラ：2'}</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" ht="60" x14ac:dyDescent="0.15">
       <c r="A63" s="4" t="s">
-        <v>144</v>
+        <v>318</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>153</v>
+        <v>324</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>161</v>
+        <v>332</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>180</v>
+        <v>344</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J63" s="4" t="s">
-        <v>162</v>
+        <v>23</v>
       </c>
       <c r="K63" s="13"/>
-      <c r="L63" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="M63" s="13"/>
-      <c r="R63" s="4" t="s">
-        <v>201</v>
+      <c r="R63" s="5" t="s">
+        <v>356</v>
       </c>
       <c r="S63" s="13"/>
       <c r="T63" s="3" t="str">
         <f>", '"&amp;A63&amp;"': {megami: '"&amp;B63&amp;"'"&amp;IF(C63&lt;&gt;"", ", anotherID: '" &amp; C63 &amp; "', replace: '" &amp; D63 &amp; "'", "")&amp;", name: '"&amp;E63&amp;"', ruby: '"&amp;F63&amp;"', baseType: '"&amp;VLOOKUP(G63,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H63,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I63&lt;&gt;"",", '"&amp; VLOOKUP(I63,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J63&lt;&gt;"", ", range: '"&amp;J63&amp;"'", "")&amp;IF(L63&lt;&gt;"", ", damage: '"&amp;L63&amp;"'", "")&amp;IF(N63&lt;&gt;"", ", capacity: '"&amp;N63&amp;"'", "")&amp;IF(O63&lt;&gt;"", ", cost: '"&amp;O63&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R63, CHAR(10), "\n")&amp;"'"&amp;IF(P63="○", ", sealable: true", "")&amp;IF(Q63="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '09-chikage-o-n-4': {megami: 'chikage', name: '首切り', ruby: 'くびきり', baseType: 'normal', types: ['attack', 'fullpower'], range: '0-3', damage: '2/3', text: '【攻撃後】相手の手札が2枚以上あるならば、相手は手札を1枚捨て札にする。'}</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.15">
+        <v>, '08-hagane-o-n-6': {megami: 'hagane', name: '鐘鳴らし', ruby: 'かねならし', baseType: 'normal', types: ['action'], text: '遠心 \n以下から１つを選ぶ。\n・このターンにあなたが次に行う《攻撃》は対応不可を得る。\n・このターンにあなたが次に行う《攻撃》はオーラへのダメージが3以上ならば+0/+1、そうでないならば+2/+0となる。'}</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A64" s="4" t="s">
-        <v>145</v>
+        <v>319</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>153</v>
+        <v>324</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>163</v>
+        <v>333</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>181</v>
+        <v>342</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="K64" s="13"/>
       <c r="M64" s="13"/>
-      <c r="R64" s="4" t="s">
-        <v>202</v>
+      <c r="N64" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="R64" s="5" t="s">
+        <v>357</v>
       </c>
       <c r="S64" s="13"/>
       <c r="T64" s="3" t="str">
         <f>", '"&amp;A64&amp;"': {megami: '"&amp;B64&amp;"'"&amp;IF(C64&lt;&gt;"", ", anotherID: '" &amp; C64 &amp; "', replace: '" &amp; D64 &amp; "'", "")&amp;", name: '"&amp;E64&amp;"', ruby: '"&amp;F64&amp;"', baseType: '"&amp;VLOOKUP(G64,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H64,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I64&lt;&gt;"",", '"&amp; VLOOKUP(I64,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J64&lt;&gt;"", ", range: '"&amp;J64&amp;"'", "")&amp;IF(L64&lt;&gt;"", ", damage: '"&amp;L64&amp;"'", "")&amp;IF(N64&lt;&gt;"", ", capacity: '"&amp;N64&amp;"'", "")&amp;IF(O64&lt;&gt;"", ", cost: '"&amp;O64&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R64, CHAR(10), "\n")&amp;"'"&amp;IF(P64="○", ", sealable: true", "")&amp;IF(Q64="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '09-chikage-o-n-5': {megami: 'chikage', name: '毒霧', ruby: 'どくぎり', baseType: 'normal', types: ['action'], text: '毒袋から「麻痺毒」「幻覚毒」「弛緩毒」のいずれか1枚を選び、そのカードを相手の手札に加える。'}</v>
+        <v>, '08-hagane-o-n-7': {megami: 'hagane', name: '引力場', ruby: 'いんりょくば', baseType: 'normal', types: ['enhance'], capacity: '4', text: '【展開時】間合→ダスト：1 \n【展開中】達人の間合は1小さくなる。'}</v>
       </c>
     </row>
     <row r="65" spans="1:20" ht="36" x14ac:dyDescent="0.15">
       <c r="A65" s="4" t="s">
-        <v>146</v>
+        <v>320</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>153</v>
+        <v>324</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>164</v>
+        <v>334</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>182</v>
+        <v>341</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="K65" s="13"/>
+      <c r="L65" s="2" t="s">
+        <v>350</v>
+      </c>
       <c r="M65" s="13"/>
-      <c r="N65" s="4" t="s">
-        <v>90</v>
+      <c r="O65" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="R65" s="5" t="s">
-        <v>203</v>
+        <v>358</v>
       </c>
       <c r="S65" s="13"/>
       <c r="T65" s="3" t="str">
         <f>", '"&amp;A65&amp;"': {megami: '"&amp;B65&amp;"'"&amp;IF(C65&lt;&gt;"", ", anotherID: '" &amp; C65 &amp; "', replace: '" &amp; D65 &amp; "'", "")&amp;", name: '"&amp;E65&amp;"', ruby: '"&amp;F65&amp;"', baseType: '"&amp;VLOOKUP(G65,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H65,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I65&lt;&gt;"",", '"&amp; VLOOKUP(I65,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J65&lt;&gt;"", ", range: '"&amp;J65&amp;"'", "")&amp;IF(L65&lt;&gt;"", ", damage: '"&amp;L65&amp;"'", "")&amp;IF(N65&lt;&gt;"", ", capacity: '"&amp;N65&amp;"'", "")&amp;IF(O65&lt;&gt;"", ", cost: '"&amp;O65&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R65, CHAR(10), "\n")&amp;"'"&amp;IF(P65="○", ", sealable: true", "")&amp;IF(Q65="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '09-chikage-o-n-6': {megami: 'chikage', name: '抜き足', ruby: 'ぬきあし', baseType: 'normal', types: ['enhance'], capacity: '4', text: '隙 \n【展開中】現在の間合は2減少する。 \n(間合は0未満にならない)'}</v>
+        <v>, '08-hagane-o-s-1': {megami: 'hagane', name: '大天空クラッシュ', ruby: 'だいてんくうクラッシュ', baseType: 'special', types: ['attack'], range: '0-10', damage: 'X/Y', cost: '5', text: '超克 \n【常時】Xは現在の間合がターン開始時の間合からどれだけ変化しているかに等しい。YはXの半分(切り上げ)に等しい。'}</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
-        <v>147</v>
+        <v>321</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>153</v>
+        <v>324</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>165</v>
+        <v>335</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>183</v>
+        <v>338</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="K66" s="13"/>
       <c r="M66" s="13"/>
-      <c r="N66" s="4" t="s">
+      <c r="O66" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="R66" s="4" t="s">
-        <v>204</v>
+      <c r="R66" s="5" t="s">
+        <v>359</v>
       </c>
       <c r="S66" s="13"/>
       <c r="T66" s="3" t="str">
         <f>", '"&amp;A66&amp;"': {megami: '"&amp;B66&amp;"'"&amp;IF(C66&lt;&gt;"", ", anotherID: '" &amp; C66 &amp; "', replace: '" &amp; D66 &amp; "'", "")&amp;", name: '"&amp;E66&amp;"', ruby: '"&amp;F66&amp;"', baseType: '"&amp;VLOOKUP(G66,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H66,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I66&lt;&gt;"",", '"&amp; VLOOKUP(I66,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J66&lt;&gt;"", ", range: '"&amp;J66&amp;"'", "")&amp;IF(L66&lt;&gt;"", ", damage: '"&amp;L66&amp;"'", "")&amp;IF(N66&lt;&gt;"", ", capacity: '"&amp;N66&amp;"'", "")&amp;IF(O66&lt;&gt;"", ", cost: '"&amp;O66&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R66, CHAR(10), "\n")&amp;"'"&amp;IF(P66="○", ", sealable: true", "")&amp;IF(Q66="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '09-chikage-o-n-7': {megami: 'chikage', name: '泥濘', ruby: 'でいねい', baseType: 'normal', types: ['enhance'], capacity: '2', text: '【展開中】相手は基本動作《後退》と《離脱》を行えない。'}</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.15">
+        <v>, '08-hagane-o-s-2': {megami: 'hagane', name: '大破鐘メガロベル', ruby: 'だいはがねメガロベル', baseType: 'special', types: ['action'], cost: '2', text: 'あなたの他の切札が全て使用済ならば、ダスト→自ライフ：2'}</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" ht="48" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
-        <v>149</v>
+        <v>322</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>153</v>
+        <v>324</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>166</v>
+        <v>336</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>184</v>
+        <v>339</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>19</v>
@@ -5176,988 +5235,977 @@
       <c r="K67" s="13"/>
       <c r="M67" s="13"/>
       <c r="O67" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="R67" s="4" t="s">
-        <v>205</v>
+        <v>78</v>
+      </c>
+      <c r="R67" s="5" t="s">
+        <v>398</v>
       </c>
       <c r="S67" s="13"/>
       <c r="T67" s="3" t="str">
         <f>", '"&amp;A67&amp;"': {megami: '"&amp;B67&amp;"'"&amp;IF(C67&lt;&gt;"", ", anotherID: '" &amp; C67 &amp; "', replace: '" &amp; D67 &amp; "'", "")&amp;", name: '"&amp;E67&amp;"', ruby: '"&amp;F67&amp;"', baseType: '"&amp;VLOOKUP(G67,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H67,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I67&lt;&gt;"",", '"&amp; VLOOKUP(I67,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J67&lt;&gt;"", ", range: '"&amp;J67&amp;"'", "")&amp;IF(L67&lt;&gt;"", ", damage: '"&amp;L67&amp;"'", "")&amp;IF(N67&lt;&gt;"", ", capacity: '"&amp;N67&amp;"'", "")&amp;IF(O67&lt;&gt;"", ", cost: '"&amp;O67&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R67, CHAR(10), "\n")&amp;"'"&amp;IF(P67="○", ", sealable: true", "")&amp;IF(Q67="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '09-chikage-o-s-1': {megami: 'chikage', name: '滅灯の魂毒', ruby: 'ほろびのみたまどく', baseType: 'special', types: ['action'], cost: '3', text: '毒袋から「滅灯毒」を1枚を選び、そのカードを相手の山札の一番上に置く。'}</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.15">
+        <v>, '08-hagane-o-s-3': {megami: 'hagane', name: '大重力アトラクト', ruby: 'だいじゅうりょくアトラクト', baseType: 'special', types: ['action'], cost: '5', text: '間合→自フレア：3 \n----\n【再起】このターンにあなたが遠心を持つカードを使用しており、このカードを使用していない。'}</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" ht="36" x14ac:dyDescent="0.15">
       <c r="A68" s="4" t="s">
-        <v>150</v>
+        <v>323</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>153</v>
+        <v>324</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>167</v>
+        <v>337</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>185</v>
+        <v>340</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K68" s="13"/>
       <c r="M68" s="13"/>
-      <c r="N68" s="4" t="s">
-        <v>78</v>
-      </c>
       <c r="O68" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="R68" s="4" t="s">
-        <v>206</v>
+        <v>90</v>
+      </c>
+      <c r="R68" s="5" t="s">
+        <v>361</v>
       </c>
       <c r="S68" s="13"/>
       <c r="T68" s="3" t="str">
         <f>", '"&amp;A68&amp;"': {megami: '"&amp;B68&amp;"'"&amp;IF(C68&lt;&gt;"", ", anotherID: '" &amp; C68 &amp; "', replace: '" &amp; D68 &amp; "'", "")&amp;", name: '"&amp;E68&amp;"', ruby: '"&amp;F68&amp;"', baseType: '"&amp;VLOOKUP(G68,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H68,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I68&lt;&gt;"",", '"&amp; VLOOKUP(I68,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J68&lt;&gt;"", ", range: '"&amp;J68&amp;"'", "")&amp;IF(L68&lt;&gt;"", ", damage: '"&amp;L68&amp;"'", "")&amp;IF(N68&lt;&gt;"", ", capacity: '"&amp;N68&amp;"'", "")&amp;IF(O68&lt;&gt;"", ", cost: '"&amp;O68&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R68, CHAR(10), "\n")&amp;"'"&amp;IF(P68="○", ", sealable: true", "")&amp;IF(Q68="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '09-chikage-o-s-2': {megami: 'chikage', name: '叛旗の纏毒', ruby: 'はんきのまといどく', baseType: 'special', types: ['enhance', 'reaction'], capacity: '5', cost: '2', text: '【展開中】相手によるオーラへのダメージかライフへのダメージのどちらかが「-」である《攻撃》は打ち消される。'}</v>
+        <v>, '08-hagane-o-s-4': {megami: 'hagane', name: '大山脈リスペクト', ruby: 'だいさんみゃくリスペクト', baseType: 'special', types: ['action'], cost: '4', text: '遠心 \nあなたの捨て札にある異なる《全力》でないカードを2枚まで選び、任意の順番で使用する。'}</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A69" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H69" s="4" t="s">
         <v>8</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K69" s="13"/>
       <c r="L69" s="2" t="s">
-        <v>196</v>
+        <v>128</v>
       </c>
       <c r="M69" s="13"/>
-      <c r="O69" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="R69" s="4" t="s">
-        <v>399</v>
-      </c>
       <c r="S69" s="13"/>
       <c r="T69" s="3" t="str">
         <f>", '"&amp;A69&amp;"': {megami: '"&amp;B69&amp;"'"&amp;IF(C69&lt;&gt;"", ", anotherID: '" &amp; C69 &amp; "', replace: '" &amp; D69 &amp; "'", "")&amp;", name: '"&amp;E69&amp;"', ruby: '"&amp;F69&amp;"', baseType: '"&amp;VLOOKUP(G69,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H69,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I69&lt;&gt;"",", '"&amp; VLOOKUP(I69,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J69&lt;&gt;"", ", range: '"&amp;J69&amp;"'", "")&amp;IF(L69&lt;&gt;"", ", damage: '"&amp;L69&amp;"'", "")&amp;IF(N69&lt;&gt;"", ", capacity: '"&amp;N69&amp;"'", "")&amp;IF(O69&lt;&gt;"", ", cost: '"&amp;O69&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R69, CHAR(10), "\n")&amp;"'"&amp;IF(P69="○", ", sealable: true", "")&amp;IF(Q69="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '09-chikage-o-s-3': {megami: 'chikage', name: '流転の霞毒', ruby: 'るてんのかすみどく', baseType: 'special', types: ['attack'], range: '3-7', damage: '1/2', cost: '1', text: '【再起】相手の手札が2枚以上ある。'}</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" ht="48" x14ac:dyDescent="0.15">
+        <v>, '09-chikage-o-n-1': {megami: 'chikage', name: '飛苦無', ruby: 'とびくない', baseType: 'normal', types: ['attack'], range: '4-5', damage: '2/2', text: ''}</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A70" s="4" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I70" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="K70" s="13"/>
+      <c r="L70" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="M70" s="13"/>
-      <c r="N70" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="O70" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="R70" s="5" t="s">
-        <v>207</v>
+      <c r="R70" s="4" t="s">
+        <v>199</v>
       </c>
       <c r="S70" s="13"/>
       <c r="T70" s="3" t="str">
         <f>", '"&amp;A70&amp;"': {megami: '"&amp;B70&amp;"'"&amp;IF(C70&lt;&gt;"", ", anotherID: '" &amp; C70 &amp; "', replace: '" &amp; D70 &amp; "'", "")&amp;", name: '"&amp;E70&amp;"', ruby: '"&amp;F70&amp;"', baseType: '"&amp;VLOOKUP(G70,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H70,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I70&lt;&gt;"",", '"&amp; VLOOKUP(I70,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J70&lt;&gt;"", ", range: '"&amp;J70&amp;"'", "")&amp;IF(L70&lt;&gt;"", ", damage: '"&amp;L70&amp;"'", "")&amp;IF(N70&lt;&gt;"", ", capacity: '"&amp;N70&amp;"'", "")&amp;IF(O70&lt;&gt;"", ", cost: '"&amp;O70&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R70, CHAR(10), "\n")&amp;"'"&amp;IF(P70="○", ", sealable: true", "")&amp;IF(Q70="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '09-chikage-o-s-4': {megami: 'chikage', name: '闇昏千影の生きる道', ruby: 'やみくらちかげのいきるみち', baseType: 'special', types: ['enhance', 'fullpower'], capacity: '4', cost: '5', text: '【展開中】あなたが1以上のライフへのダメージを受けた時、このカードの上の桜花結晶は全てダストに送られ、このカードは未使用に戻る。 \n(破棄時効果は失敗する) \n【破棄時】あなたの他の切札が全て使用済ならば、あなたは勝利する。'}</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" ht="48" x14ac:dyDescent="0.15">
+        <v>, '09-chikage-o-n-2': {megami: 'chikage', name: '毒針', ruby: 'どくばり', baseType: 'normal', types: ['attack'], range: '4', damage: '1/1', text: '【攻撃後】毒袋から「麻痺毒」「幻覚毒」「弛緩毒」のいずれか1枚を選び、そのカードを相手の山札の一番上に置く。'}</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>192</v>
+        <v>7</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>23</v>
+        <v>8</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>175</v>
       </c>
       <c r="K71" s="13"/>
+      <c r="L71" s="2" t="s">
+        <v>194</v>
+      </c>
       <c r="M71" s="13"/>
       <c r="R71" s="5" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="S71" s="13"/>
       <c r="T71" s="3" t="str">
         <f>", '"&amp;A71&amp;"': {megami: '"&amp;B71&amp;"'"&amp;IF(C71&lt;&gt;"", ", anotherID: '" &amp; C71 &amp; "', replace: '" &amp; D71 &amp; "'", "")&amp;", name: '"&amp;E71&amp;"', ruby: '"&amp;F71&amp;"', baseType: '"&amp;VLOOKUP(G71,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H71,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I71&lt;&gt;"",", '"&amp; VLOOKUP(I71,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J71&lt;&gt;"", ", range: '"&amp;J71&amp;"'", "")&amp;IF(L71&lt;&gt;"", ", damage: '"&amp;L71&amp;"'", "")&amp;IF(N71&lt;&gt;"", ", capacity: '"&amp;N71&amp;"'", "")&amp;IF(O71&lt;&gt;"", ", cost: '"&amp;O71&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R71, CHAR(10), "\n")&amp;"'"&amp;IF(P71="○", ", sealable: true", "")&amp;IF(Q71="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '09-chikage-o-p-1': {megami: 'chikage', name: '麻痺毒', ruby: 'まひどく', baseType: 'extra', types: ['action'], text: '毒（このカードは伏せ札にできない） \n【常時】このターン中にあなたが基本動作を行ったならば、このカードは使用できない。 \nこのカードを相手の毒袋に戻す。その後、このフェイズを終了する。'}</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+        <v>, '09-chikage-o-n-3': {megami: 'chikage', name: '遁術', ruby: 'とんじゅつ', baseType: 'normal', types: ['attack', 'reaction'], range: '1-3', damage: '1/-', text: '【攻撃後】自オーラ→間合：2 \n【攻撃後】このターン中、全てのプレイヤーは基本動作《前進》を行えない。'}</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>192</v>
+        <v>7</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>23</v>
+        <v>8</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="K72" s="13"/>
+      <c r="L72" s="2" t="s">
+        <v>195</v>
+      </c>
       <c r="M72" s="13"/>
-      <c r="R72" s="5" t="s">
-        <v>209</v>
+      <c r="R72" s="4" t="s">
+        <v>201</v>
       </c>
       <c r="S72" s="13"/>
       <c r="T72" s="3" t="str">
         <f>", '"&amp;A72&amp;"': {megami: '"&amp;B72&amp;"'"&amp;IF(C72&lt;&gt;"", ", anotherID: '" &amp; C72 &amp; "', replace: '" &amp; D72 &amp; "'", "")&amp;", name: '"&amp;E72&amp;"', ruby: '"&amp;F72&amp;"', baseType: '"&amp;VLOOKUP(G72,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H72,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I72&lt;&gt;"",", '"&amp; VLOOKUP(I72,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J72&lt;&gt;"", ", range: '"&amp;J72&amp;"'", "")&amp;IF(L72&lt;&gt;"", ", damage: '"&amp;L72&amp;"'", "")&amp;IF(N72&lt;&gt;"", ", capacity: '"&amp;N72&amp;"'", "")&amp;IF(O72&lt;&gt;"", ", cost: '"&amp;O72&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R72, CHAR(10), "\n")&amp;"'"&amp;IF(P72="○", ", sealable: true", "")&amp;IF(Q72="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '09-chikage-o-p-2': {megami: 'chikage', name: '幻覚毒', ruby: 'げんかくどく', baseType: 'extra', types: ['action'], text: '毒（このカードは伏せ札にできない） \nこのカードを相手の毒袋に戻す。 \n自フレア→ダスト：2'}</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+        <v>, '09-chikage-o-n-4': {megami: 'chikage', name: '首切り', ruby: 'くびきり', baseType: 'normal', types: ['attack', 'fullpower'], range: '0-3', damage: '2/3', text: '【攻撃後】相手の手札が2枚以上あるならば、相手は手札を1枚捨て札にする。'}</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A73" s="4" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>192</v>
+        <v>7</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="K73" s="13"/>
       <c r="M73" s="13"/>
-      <c r="N73" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="R73" s="5" t="s">
-        <v>210</v>
+      <c r="R73" s="4" t="s">
+        <v>202</v>
       </c>
       <c r="S73" s="13"/>
       <c r="T73" s="3" t="str">
         <f>", '"&amp;A73&amp;"': {megami: '"&amp;B73&amp;"'"&amp;IF(C73&lt;&gt;"", ", anotherID: '" &amp; C73 &amp; "', replace: '" &amp; D73 &amp; "'", "")&amp;", name: '"&amp;E73&amp;"', ruby: '"&amp;F73&amp;"', baseType: '"&amp;VLOOKUP(G73,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H73,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I73&lt;&gt;"",", '"&amp; VLOOKUP(I73,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J73&lt;&gt;"", ", range: '"&amp;J73&amp;"'", "")&amp;IF(L73&lt;&gt;"", ", damage: '"&amp;L73&amp;"'", "")&amp;IF(N73&lt;&gt;"", ", capacity: '"&amp;N73&amp;"'", "")&amp;IF(O73&lt;&gt;"", ", cost: '"&amp;O73&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R73, CHAR(10), "\n")&amp;"'"&amp;IF(P73="○", ", sealable: true", "")&amp;IF(Q73="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '09-chikage-o-p-3': {megami: 'chikage', name: '弛緩毒', ruby: 'しかんどく', baseType: 'extra', types: ['enhance'], capacity: '3', text: '毒（このカードは伏せ札にできない） \n【展開中】あなたは《攻撃》カードを使用できない。 \n【破棄時】このカードを相手の毒袋に戻す。'}</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+        <v>, '09-chikage-o-n-5': {megami: 'chikage', name: '毒霧', ruby: 'どくぎり', baseType: 'normal', types: ['action'], text: '毒袋から「麻痺毒」「幻覚毒」「弛緩毒」のいずれか1枚を選び、そのカードを相手の手札に加える。'}</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" ht="36" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>192</v>
+        <v>7</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="K74" s="13"/>
       <c r="M74" s="13"/>
+      <c r="N74" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="R74" s="5" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="S74" s="13"/>
       <c r="T74" s="3" t="str">
         <f>", '"&amp;A74&amp;"': {megami: '"&amp;B74&amp;"'"&amp;IF(C74&lt;&gt;"", ", anotherID: '" &amp; C74 &amp; "', replace: '" &amp; D74 &amp; "'", "")&amp;", name: '"&amp;E74&amp;"', ruby: '"&amp;F74&amp;"', baseType: '"&amp;VLOOKUP(G74,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H74,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I74&lt;&gt;"",", '"&amp; VLOOKUP(I74,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J74&lt;&gt;"", ", range: '"&amp;J74&amp;"'", "")&amp;IF(L74&lt;&gt;"", ", damage: '"&amp;L74&amp;"'", "")&amp;IF(N74&lt;&gt;"", ", capacity: '"&amp;N74&amp;"'", "")&amp;IF(O74&lt;&gt;"", ", cost: '"&amp;O74&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R74, CHAR(10), "\n")&amp;"'"&amp;IF(P74="○", ", sealable: true", "")&amp;IF(Q74="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '09-chikage-o-p-4': {megami: 'chikage', name: '滅灯毒', ruby: 'ほろびどく', baseType: 'extra', types: ['action'], text: '毒（このカードは伏せ札にできない） \n自オーラ→ダスト：3'}</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+        <v>, '09-chikage-o-n-6': {megami: 'chikage', name: '抜き足', ruby: 'ぬきあし', baseType: 'normal', types: ['enhance'], capacity: '4', text: '隙 \n【展開中】現在の間合は2減少する。 \n(間合は0未満にならない)'}</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
-        <v>363</v>
+        <v>147</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>362</v>
+        <v>153</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>374</v>
+        <v>165</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>183</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="K75" s="13"/>
       <c r="M75" s="13"/>
-      <c r="R75" s="5" t="s">
-        <v>562</v>
+      <c r="N75" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R75" s="4" t="s">
+        <v>204</v>
       </c>
       <c r="S75" s="13"/>
       <c r="T75" s="3" t="str">
         <f>", '"&amp;A75&amp;"': {megami: '"&amp;B75&amp;"'"&amp;IF(C75&lt;&gt;"", ", anotherID: '" &amp; C75 &amp; "', replace: '" &amp; D75 &amp; "'", "")&amp;", name: '"&amp;E75&amp;"', ruby: '"&amp;F75&amp;"', baseType: '"&amp;VLOOKUP(G75,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H75,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I75&lt;&gt;"",", '"&amp; VLOOKUP(I75,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J75&lt;&gt;"", ", range: '"&amp;J75&amp;"'", "")&amp;IF(L75&lt;&gt;"", ", damage: '"&amp;L75&amp;"'", "")&amp;IF(N75&lt;&gt;"", ", capacity: '"&amp;N75&amp;"'", "")&amp;IF(O75&lt;&gt;"", ", cost: '"&amp;O75&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R75, CHAR(10), "\n")&amp;"'"&amp;IF(P75="○", ", sealable: true", "")&amp;IF(Q75="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '10-kururu-o-n-1': {megami: 'kururu', name: 'えれきてる', ruby: '', baseType: 'normal', types: ['action'], text: '----\n&lt;行行行対対&gt; 相手のライフに1ダメージを与える。 '}</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" ht="48" x14ac:dyDescent="0.15">
+        <v>, '09-chikage-o-n-7': {megami: 'chikage', name: '泥濘', ruby: 'でいねい', baseType: 'normal', types: ['enhance'], capacity: '2', text: '【展開中】相手は基本動作《後退》と《離脱》を行えない。'}</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
-        <v>364</v>
+        <v>149</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>362</v>
+        <v>153</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>375</v>
+        <v>166</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H76" s="4" t="s">
         <v>23</v>
       </c>
       <c r="K76" s="13"/>
       <c r="M76" s="13"/>
-      <c r="R76" s="5" t="s">
-        <v>563</v>
+      <c r="O76" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="R76" s="4" t="s">
+        <v>205</v>
       </c>
       <c r="S76" s="13"/>
       <c r="T76" s="3" t="str">
         <f>", '"&amp;A76&amp;"': {megami: '"&amp;B76&amp;"'"&amp;IF(C76&lt;&gt;"", ", anotherID: '" &amp; C76 &amp; "', replace: '" &amp; D76 &amp; "'", "")&amp;", name: '"&amp;E76&amp;"', ruby: '"&amp;F76&amp;"', baseType: '"&amp;VLOOKUP(G76,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H76,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I76&lt;&gt;"",", '"&amp; VLOOKUP(I76,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J76&lt;&gt;"", ", range: '"&amp;J76&amp;"'", "")&amp;IF(L76&lt;&gt;"", ", damage: '"&amp;L76&amp;"'", "")&amp;IF(N76&lt;&gt;"", ", capacity: '"&amp;N76&amp;"'", "")&amp;IF(O76&lt;&gt;"", ", cost: '"&amp;O76&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R76, CHAR(10), "\n")&amp;"'"&amp;IF(P76="○", ", sealable: true", "")&amp;IF(Q76="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '10-kururu-o-n-2': {megami: 'kururu', name: 'あくせらー', ruby: '', baseType: 'normal', types: ['action'], text: '----\n&lt;行行付&gt; あなたの手札から《全力》カードを1枚選び、そのカードを使用してもよい。 \n(フェイズは終了しない) '}</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" ht="72" x14ac:dyDescent="0.15">
+        <v>, '09-chikage-o-s-1': {megami: 'chikage', name: '滅灯の魂毒', ruby: 'ほろびのみたまどく', baseType: 'special', types: ['action'], cost: '3', text: '毒袋から「滅灯毒」を1枚を選び、そのカードを相手の山札の一番上に置く。'}</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A77" s="4" t="s">
-        <v>365</v>
+        <v>150</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>362</v>
+        <v>153</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>376</v>
+        <v>167</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>185</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="I77" s="4" t="s">
         <v>28</v>
       </c>
       <c r="K77" s="13"/>
       <c r="M77" s="13"/>
-      <c r="R77" s="5" t="s">
-        <v>392</v>
+      <c r="N77" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="O77" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R77" s="4" t="s">
+        <v>206</v>
       </c>
       <c r="S77" s="13"/>
       <c r="T77" s="3" t="str">
         <f>", '"&amp;A77&amp;"': {megami: '"&amp;B77&amp;"'"&amp;IF(C77&lt;&gt;"", ", anotherID: '" &amp; C77 &amp; "', replace: '" &amp; D77 &amp; "'", "")&amp;", name: '"&amp;E77&amp;"', ruby: '"&amp;F77&amp;"', baseType: '"&amp;VLOOKUP(G77,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H77,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I77&lt;&gt;"",", '"&amp; VLOOKUP(I77,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J77&lt;&gt;"", ", range: '"&amp;J77&amp;"'", "")&amp;IF(L77&lt;&gt;"", ", damage: '"&amp;L77&amp;"'", "")&amp;IF(N77&lt;&gt;"", ", capacity: '"&amp;N77&amp;"'", "")&amp;IF(O77&lt;&gt;"", ", cost: '"&amp;O77&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R77, CHAR(10), "\n")&amp;"'"&amp;IF(P77="○", ", sealable: true", "")&amp;IF(Q77="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '10-kururu-o-n-3': {megami: 'kururu', name: 'くるるーん', ruby: '', baseType: 'normal', types: ['action', 'reaction'], text: '【常時】このカードは対応でしか使用できない。 \n以下から2つまでを選び、任意の順に行う。 \n(同じものを2回選ぶことはできない)\n・カードを1枚引く。\n・伏せ札1枚を山札の底に置く。\n・相手は手札を1枚捨て札にする。'}</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" ht="48" x14ac:dyDescent="0.15">
+        <v>, '09-chikage-o-s-2': {megami: 'chikage', name: '叛旗の纏毒', ruby: 'はんきのまといどく', baseType: 'special', types: ['enhance', 'reaction'], capacity: '5', cost: '2', text: '【展開中】相手によるオーラへのダメージかライフへのダメージのどちらかが「-」である《攻撃》は打ち消される。'}</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A78" s="4" t="s">
-        <v>366</v>
+        <v>151</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>362</v>
+        <v>153</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>377</v>
+        <v>168</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>186</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I78" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
+      </c>
+      <c r="J78" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="K78" s="13"/>
+      <c r="L78" s="2" t="s">
+        <v>196</v>
+      </c>
       <c r="M78" s="13"/>
-      <c r="R78" s="5" t="s">
-        <v>557</v>
+      <c r="O78" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R78" s="4" t="s">
+        <v>399</v>
       </c>
       <c r="S78" s="13"/>
       <c r="T78" s="3" t="str">
         <f>", '"&amp;A78&amp;"': {megami: '"&amp;B78&amp;"'"&amp;IF(C78&lt;&gt;"", ", anotherID: '" &amp; C78 &amp; "', replace: '" &amp; D78 &amp; "'", "")&amp;", name: '"&amp;E78&amp;"', ruby: '"&amp;F78&amp;"', baseType: '"&amp;VLOOKUP(G78,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H78,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I78&lt;&gt;"",", '"&amp; VLOOKUP(I78,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J78&lt;&gt;"", ", range: '"&amp;J78&amp;"'", "")&amp;IF(L78&lt;&gt;"", ", damage: '"&amp;L78&amp;"'", "")&amp;IF(N78&lt;&gt;"", ", capacity: '"&amp;N78&amp;"'", "")&amp;IF(O78&lt;&gt;"", ", cost: '"&amp;O78&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R78, CHAR(10), "\n")&amp;"'"&amp;IF(P78="○", ", sealable: true", "")&amp;IF(Q78="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '10-kururu-o-n-4': {megami: 'kururu', name: 'とるねーど', ruby: '', baseType: 'normal', types: ['action', 'fullpower'], text: '----\n&lt;攻攻&gt; 相手のオーラに5ダメージを与える。 \n----\n&lt;付付&gt; 相手のライフに1ダメージを与える。'}</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20" ht="60" x14ac:dyDescent="0.15">
+        <v>, '09-chikage-o-s-3': {megami: 'chikage', name: '流転の霞毒', ruby: 'るてんのかすみどく', baseType: 'special', types: ['attack'], range: '3-7', damage: '1/2', cost: '1', text: '【再起】相手の手札が2枚以上ある。'}</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" ht="48" x14ac:dyDescent="0.15">
       <c r="A79" s="4" t="s">
-        <v>367</v>
+        <v>152</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>362</v>
+        <v>153</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>378</v>
+        <v>169</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>187</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="I79" s="4" t="s">
         <v>31</v>
       </c>
       <c r="K79" s="13"/>
       <c r="M79" s="13"/>
+      <c r="N79" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="O79" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="R79" s="5" t="s">
-        <v>558</v>
+        <v>207</v>
       </c>
       <c r="S79" s="13"/>
       <c r="T79" s="3" t="str">
         <f>", '"&amp;A79&amp;"': {megami: '"&amp;B79&amp;"'"&amp;IF(C79&lt;&gt;"", ", anotherID: '" &amp; C79 &amp; "', replace: '" &amp; D79 &amp; "'", "")&amp;", name: '"&amp;E79&amp;"', ruby: '"&amp;F79&amp;"', baseType: '"&amp;VLOOKUP(G79,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H79,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I79&lt;&gt;"",", '"&amp; VLOOKUP(I79,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J79&lt;&gt;"", ", range: '"&amp;J79&amp;"'", "")&amp;IF(L79&lt;&gt;"", ", damage: '"&amp;L79&amp;"'", "")&amp;IF(N79&lt;&gt;"", ", capacity: '"&amp;N79&amp;"'", "")&amp;IF(O79&lt;&gt;"", ", cost: '"&amp;O79&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R79, CHAR(10), "\n")&amp;"'"&amp;IF(P79="○", ", sealable: true", "")&amp;IF(Q79="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '10-kururu-o-n-5': {megami: 'kururu', name: 'りげいなー', ruby: '', baseType: 'normal', types: ['action', 'fullpower'], text: '----\n&lt;攻対&gt; あなたの使用済の切札を1枚選んでもよい。そのカードを消費を支払わずに使用する。(《全力》カードでもよい) \n----\nあなたの集中力は0になる。'}</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+        <v>, '09-chikage-o-s-4': {megami: 'chikage', name: '闇昏千影の生きる道', ruby: 'やみくらちかげのいきるみち', baseType: 'special', types: ['enhance', 'fullpower'], capacity: '4', cost: '5', text: '【展開中】あなたが1以上のライフへのダメージを受けた時、このカードの上の桜花結晶は全てダストに送られ、このカードは未使用に戻る。 \n(破棄時効果は失敗する) \n【破棄時】あなたの他の切札が全て使用済ならば、あなたは勝利する。'}</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" ht="48" x14ac:dyDescent="0.15">
       <c r="A80" s="4" t="s">
-        <v>368</v>
+        <v>154</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>362</v>
+        <v>153</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>379</v>
+        <v>170</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>188</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>7</v>
+        <v>192</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="K80" s="13"/>
       <c r="M80" s="13"/>
-      <c r="N80" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="R80" s="5" t="s">
-        <v>394</v>
+        <v>208</v>
       </c>
       <c r="S80" s="13"/>
       <c r="T80" s="3" t="str">
         <f>", '"&amp;A80&amp;"': {megami: '"&amp;B80&amp;"'"&amp;IF(C80&lt;&gt;"", ", anotherID: '" &amp; C80 &amp; "', replace: '" &amp; D80 &amp; "'", "")&amp;", name: '"&amp;E80&amp;"', ruby: '"&amp;F80&amp;"', baseType: '"&amp;VLOOKUP(G80,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H80,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I80&lt;&gt;"",", '"&amp; VLOOKUP(I80,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J80&lt;&gt;"", ", range: '"&amp;J80&amp;"'", "")&amp;IF(L80&lt;&gt;"", ", damage: '"&amp;L80&amp;"'", "")&amp;IF(N80&lt;&gt;"", ", capacity: '"&amp;N80&amp;"'", "")&amp;IF(O80&lt;&gt;"", ", cost: '"&amp;O80&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R80, CHAR(10), "\n")&amp;"'"&amp;IF(P80="○", ", sealable: true", "")&amp;IF(Q80="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '10-kururu-o-n-6': {megami: 'kururu', name: 'もじゅるー', ruby: '', baseType: 'normal', types: ['enhance'], capacity: '3', text: '【展開中】あなたが《行動》カードを使用した時、その解決後に基本動作を1回行ってもよい。'}</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20" ht="60" x14ac:dyDescent="0.15">
+        <v>, '09-chikage-o-p-1': {megami: 'chikage', name: '麻痺毒', ruby: 'まひどく', baseType: 'extra', types: ['action'], text: '毒（このカードは伏せ札にできない） \n【常時】このターン中にあなたが基本動作を行ったならば、このカードは使用できない。 \nこのカードを相手の毒袋に戻す。その後、このフェイズを終了する。'}</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" ht="36" x14ac:dyDescent="0.15">
       <c r="A81" s="4" t="s">
-        <v>369</v>
+        <v>155</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>362</v>
+        <v>153</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>380</v>
+        <v>171</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>189</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>7</v>
+        <v>192</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="K81" s="13"/>
       <c r="M81" s="13"/>
-      <c r="N81" s="4" t="s">
-        <v>221</v>
-      </c>
       <c r="R81" s="5" t="s">
-        <v>559</v>
+        <v>209</v>
       </c>
       <c r="S81" s="13"/>
       <c r="T81" s="3" t="str">
         <f>", '"&amp;A81&amp;"': {megami: '"&amp;B81&amp;"'"&amp;IF(C81&lt;&gt;"", ", anotherID: '" &amp; C81 &amp; "', replace: '" &amp; D81 &amp; "'", "")&amp;", name: '"&amp;E81&amp;"', ruby: '"&amp;F81&amp;"', baseType: '"&amp;VLOOKUP(G81,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H81,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I81&lt;&gt;"",", '"&amp; VLOOKUP(I81,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J81&lt;&gt;"", ", range: '"&amp;J81&amp;"'", "")&amp;IF(L81&lt;&gt;"", ", damage: '"&amp;L81&amp;"'", "")&amp;IF(N81&lt;&gt;"", ", capacity: '"&amp;N81&amp;"'", "")&amp;IF(O81&lt;&gt;"", ", cost: '"&amp;O81&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R81, CHAR(10), "\n")&amp;"'"&amp;IF(P81="○", ", sealable: true", "")&amp;IF(Q81="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '10-kururu-o-n-7': {megami: 'kururu', name: 'りふれくた', ruby: '', baseType: 'normal', types: ['enhance'], capacity: '0', text: '----\n&lt;攻対&gt; 【展開時】このカードの上に桜花結晶を4個ダストから置く。 \n----\n【展開中】各ターンにおける相手の2回目の《攻撃》は打ち消される。\n'}</v>
+        <v>, '09-chikage-o-p-2': {megami: 'chikage', name: '幻覚毒', ruby: 'げんかくどく', baseType: 'extra', types: ['action'], text: '毒（このカードは伏せ札にできない） \nこのカードを相手の毒袋に戻す。 \n自フレア→ダスト：2'}</v>
       </c>
     </row>
     <row r="82" spans="1:20" ht="36" x14ac:dyDescent="0.15">
       <c r="A82" s="4" t="s">
-        <v>370</v>
+        <v>156</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>362</v>
+        <v>153</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>381</v>
+        <v>172</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>19</v>
+        <v>192</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I82" s="4" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="K82" s="13"/>
       <c r="M82" s="13"/>
-      <c r="O82" s="4" t="s">
-        <v>55</v>
+      <c r="N82" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="R82" s="5" t="s">
-        <v>393</v>
+        <v>210</v>
       </c>
       <c r="S82" s="13"/>
       <c r="T82" s="3" t="str">
         <f>", '"&amp;A82&amp;"': {megami: '"&amp;B82&amp;"'"&amp;IF(C82&lt;&gt;"", ", anotherID: '" &amp; C82 &amp; "', replace: '" &amp; D82 &amp; "'", "")&amp;", name: '"&amp;E82&amp;"', ruby: '"&amp;F82&amp;"', baseType: '"&amp;VLOOKUP(G82,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H82,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I82&lt;&gt;"",", '"&amp; VLOOKUP(I82,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J82&lt;&gt;"", ", range: '"&amp;J82&amp;"'", "")&amp;IF(L82&lt;&gt;"", ", damage: '"&amp;L82&amp;"'", "")&amp;IF(N82&lt;&gt;"", ", capacity: '"&amp;N82&amp;"'", "")&amp;IF(O82&lt;&gt;"", ", cost: '"&amp;O82&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R82, CHAR(10), "\n")&amp;"'"&amp;IF(P82="○", ", sealable: true", "")&amp;IF(Q82="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '10-kururu-o-s-1': {megami: 'kururu', name: 'どれーんでびる', ruby: '', baseType: 'special', types: ['action', 'reaction'], cost: '2', text: '相オーラ→自オーラ：1 \n【使用済】あなたの使用済の切札が未使用に戻った時、このカードを消費を支払わずに使用してもよい。'}</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20" ht="84" x14ac:dyDescent="0.15">
+        <v>, '09-chikage-o-p-3': {megami: 'chikage', name: '弛緩毒', ruby: 'しかんどく', baseType: 'extra', types: ['enhance'], capacity: '3', text: '毒（このカードは伏せ札にできない） \n【展開中】あなたは《攻撃》カードを使用できない。 \n【破棄時】このカードを相手の毒袋に戻す。'}</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A83" s="4" t="s">
-        <v>371</v>
+        <v>157</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>362</v>
+        <v>153</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>382</v>
+        <v>173</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>191</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>19</v>
+        <v>192</v>
       </c>
       <c r="H83" s="4" t="s">
         <v>23</v>
       </c>
       <c r="K83" s="13"/>
       <c r="M83" s="13"/>
-      <c r="O83" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="R83" s="5" t="s">
-        <v>560</v>
+        <v>211</v>
       </c>
       <c r="S83" s="13"/>
       <c r="T83" s="3" t="str">
         <f>", '"&amp;A83&amp;"': {megami: '"&amp;B83&amp;"'"&amp;IF(C83&lt;&gt;"", ", anotherID: '" &amp; C83 &amp; "', replace: '" &amp; D83 &amp; "'", "")&amp;", name: '"&amp;E83&amp;"', ruby: '"&amp;F83&amp;"', baseType: '"&amp;VLOOKUP(G83,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H83,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I83&lt;&gt;"",", '"&amp; VLOOKUP(I83,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J83&lt;&gt;"", ", range: '"&amp;J83&amp;"'", "")&amp;IF(L83&lt;&gt;"", ", damage: '"&amp;L83&amp;"'", "")&amp;IF(N83&lt;&gt;"", ", capacity: '"&amp;N83&amp;"'", "")&amp;IF(O83&lt;&gt;"", ", cost: '"&amp;O83&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R83, CHAR(10), "\n")&amp;"'"&amp;IF(P83="○", ", sealable: true", "")&amp;IF(Q83="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '10-kururu-o-s-2': {megami: 'kururu', name: 'びっぐごーれむ', ruby: '', baseType: 'special', types: ['action'], cost: '4', text: '----\n&lt;対全全&gt; 【使用済】あなたの終了フェイズに相手のライフに1ダメージを与えてもよい。そうした場合、山札を再構成する。 \n----\n【使用済】あなたが《全力》カードを使用した時、その解決後に基本動作を1回行ってもよい。\n'}</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20" ht="60" x14ac:dyDescent="0.15">
+        <v>, '09-chikage-o-p-4': {megami: 'chikage', name: '滅灯毒', ruby: 'ほろびどく', baseType: 'extra', types: ['action'], text: '毒（このカードは伏せ札にできない） \n自オーラ→ダスト：3'}</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A84" s="4" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>362</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H84" s="4" t="s">
         <v>23</v>
       </c>
       <c r="K84" s="13"/>
       <c r="M84" s="13"/>
-      <c r="O84" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="P84" s="4" t="s">
-        <v>295</v>
-      </c>
       <c r="R84" s="5" t="s">
-        <v>400</v>
+        <v>562</v>
       </c>
       <c r="S84" s="13"/>
       <c r="T84" s="3" t="str">
         <f>", '"&amp;A84&amp;"': {megami: '"&amp;B84&amp;"'"&amp;IF(C84&lt;&gt;"", ", anotherID: '" &amp; C84 &amp; "', replace: '" &amp; D84 &amp; "'", "")&amp;", name: '"&amp;E84&amp;"', ruby: '"&amp;F84&amp;"', baseType: '"&amp;VLOOKUP(G84,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H84,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I84&lt;&gt;"",", '"&amp; VLOOKUP(I84,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J84&lt;&gt;"", ", range: '"&amp;J84&amp;"'", "")&amp;IF(L84&lt;&gt;"", ", damage: '"&amp;L84&amp;"'", "")&amp;IF(N84&lt;&gt;"", ", capacity: '"&amp;N84&amp;"'", "")&amp;IF(O84&lt;&gt;"", ", cost: '"&amp;O84&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R84, CHAR(10), "\n")&amp;"'"&amp;IF(P84="○", ", sealable: true", "")&amp;IF(Q84="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '10-kururu-o-s-3': {megami: 'kururu', name: 'いんだすとりあ', ruby: '', baseType: 'special', types: ['action'], cost: '1', text: 'このカードにカードが封印されていないならば、あなたの手札から《付与》でないカードを1枚選び、そのカードをこのカードの下に表向きで封印してもよい。 \nあなたの追加札から「でゅーぷりぎあ」を山札の底に1枚置く(最大で合計3枚)。 \n----\n【即再起】あなたが山札を再構成する(再構成の後に未使用に戻る)。', sealable: true}</v>
-      </c>
-    </row>
-    <row r="85" spans="1:20" ht="72" x14ac:dyDescent="0.15">
+        <v>, '10-kururu-o-n-1': {megami: 'kururu', name: 'えれきてる', ruby: '', baseType: 'normal', types: ['action'], text: '----\n&lt;行行行対対&gt; 相手のライフに1ダメージを与える。 '}</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" ht="48" x14ac:dyDescent="0.15">
       <c r="A85" s="4" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>362</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>565</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>564</v>
+        <v>375</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H85" s="4" t="s">
         <v>23</v>
       </c>
       <c r="K85" s="13"/>
       <c r="M85" s="13"/>
-      <c r="O85" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q85" s="4" t="s">
-        <v>295</v>
-      </c>
       <c r="R85" s="5" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="S85" s="13"/>
       <c r="T85" s="3" t="str">
         <f>", '"&amp;A85&amp;"': {megami: '"&amp;B85&amp;"'"&amp;IF(C85&lt;&gt;"", ", anotherID: '" &amp; C85 &amp; "', replace: '" &amp; D85 &amp; "'", "")&amp;", name: '"&amp;E85&amp;"', ruby: '"&amp;F85&amp;"', baseType: '"&amp;VLOOKUP(G85,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H85,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I85&lt;&gt;"",", '"&amp; VLOOKUP(I85,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J85&lt;&gt;"", ", range: '"&amp;J85&amp;"'", "")&amp;IF(L85&lt;&gt;"", ", damage: '"&amp;L85&amp;"'", "")&amp;IF(N85&lt;&gt;"", ", capacity: '"&amp;N85&amp;"'", "")&amp;IF(O85&lt;&gt;"", ", cost: '"&amp;O85&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R85, CHAR(10), "\n")&amp;"'"&amp;IF(P85="○", ", sealable: true", "")&amp;IF(Q85="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '10-kururu-o-s-4': {megami: 'kururu', name: '神渉装置:枢式', ruby: 'かんしょうそうち　くるるしき', baseType: 'special', types: ['action'], cost: '3', text: '----\n&lt;攻攻行行行付付&gt; 相手の切札を見て、その中から1枚選び、それを使用済にしてもよい。\n----\n相手の使用済の切札1枚を選んでもよい。そのカードを消費を支払わずに使用する(《全力》カードでもよい)。その後、このカードを取り除く。', removable: true}</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20" ht="48" x14ac:dyDescent="0.15">
+        <v>, '10-kururu-o-n-2': {megami: 'kururu', name: 'あくせらー', ruby: '', baseType: 'normal', types: ['action'], text: '----\n&lt;行行付&gt; あなたの手札から《全力》カードを1枚選び、そのカードを使用してもよい。 \n(フェイズは終了しない) '}</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" ht="72" x14ac:dyDescent="0.15">
       <c r="A86" s="4" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>362</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>192</v>
+        <v>7</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>386</v>
+        <v>23</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="K86" s="13"/>
       <c r="M86" s="13"/>
       <c r="R86" s="5" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="S86" s="13"/>
       <c r="T86" s="3" t="str">
         <f>", '"&amp;A86&amp;"': {megami: '"&amp;B86&amp;"'"&amp;IF(C86&lt;&gt;"", ", anotherID: '" &amp; C86 &amp; "', replace: '" &amp; D86 &amp; "'", "")&amp;", name: '"&amp;E86&amp;"', ruby: '"&amp;F86&amp;"', baseType: '"&amp;VLOOKUP(G86,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H86,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I86&lt;&gt;"",", '"&amp; VLOOKUP(I86,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J86&lt;&gt;"", ", range: '"&amp;J86&amp;"'", "")&amp;IF(L86&lt;&gt;"", ", damage: '"&amp;L86&amp;"'", "")&amp;IF(N86&lt;&gt;"", ", capacity: '"&amp;N86&amp;"'", "")&amp;IF(O86&lt;&gt;"", ", cost: '"&amp;O86&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R86, CHAR(10), "\n")&amp;"'"&amp;IF(P86="○", ", sealable: true", "")&amp;IF(Q86="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '10-kururu-o-s-3-ex1': {megami: 'kururu', name: 'でゅーぷりぎあ', ruby: '', baseType: 'extra', types: ['variable'], text: '(カードタイプが不定のカードは使用できない) \n【常時】このカードはあなたの「いんだすとりあ」に封印されたカードの複製となる。但し、名前は変更されない。 \n(「いんだすとりあ」が未使用なら複製とならないので、使用できない)'}</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.15">
+        <v>, '10-kururu-o-n-3': {megami: 'kururu', name: 'くるるーん', ruby: '', baseType: 'normal', types: ['action', 'reaction'], text: '【常時】このカードは対応でしか使用できない。 \n以下から2つまでを選び、任意の順に行う。 \n(同じものを2回選ぶことはできない)\n・カードを1枚引く。\n・伏せ札1枚を山札の底に置く。\n・相手は手札を1枚捨て札にする。'}</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" ht="48" x14ac:dyDescent="0.15">
       <c r="A87" s="4" t="s">
-        <v>402</v>
+        <v>366</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>401</v>
+        <v>362</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>510</v>
+        <v>377</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J87" s="4" t="s">
-        <v>219</v>
+        <v>23</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="K87" s="13"/>
-      <c r="L87" s="10" t="s">
-        <v>498</v>
-      </c>
       <c r="M87" s="13"/>
-      <c r="R87" s="4" t="s">
-        <v>523</v>
+      <c r="R87" s="5" t="s">
+        <v>557</v>
       </c>
       <c r="S87" s="13"/>
       <c r="T87" s="3" t="str">
         <f>", '"&amp;A87&amp;"': {megami: '"&amp;B87&amp;"'"&amp;IF(C87&lt;&gt;"", ", anotherID: '" &amp; C87 &amp; "', replace: '" &amp; D87 &amp; "'", "")&amp;", name: '"&amp;E87&amp;"', ruby: '"&amp;F87&amp;"', baseType: '"&amp;VLOOKUP(G87,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H87,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I87&lt;&gt;"",", '"&amp; VLOOKUP(I87,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J87&lt;&gt;"", ", range: '"&amp;J87&amp;"'", "")&amp;IF(L87&lt;&gt;"", ", damage: '"&amp;L87&amp;"'", "")&amp;IF(N87&lt;&gt;"", ", capacity: '"&amp;N87&amp;"'", "")&amp;IF(O87&lt;&gt;"", ", cost: '"&amp;O87&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R87, CHAR(10), "\n")&amp;"'"&amp;IF(P87="○", ", sealable: true", "")&amp;IF(Q87="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '11-thallya-o-n-1': {megami: 'thallya', name: 'Burning Steam', ruby: 'バーニングスチーム', baseType: 'normal', types: ['attack'], range: '3-5', damage: '2/1', text: '【攻撃後】騎動を行う。'}</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+        <v>, '10-kururu-o-n-4': {megami: 'kururu', name: 'とるねーど', ruby: '', baseType: 'normal', types: ['action', 'fullpower'], text: '----\n&lt;攻攻&gt; 相手のオーラに5ダメージを与える。 \n----\n&lt;付付&gt; 相手のライフに1ダメージを与える。'}</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" ht="60" x14ac:dyDescent="0.15">
       <c r="A88" s="4" t="s">
-        <v>403</v>
+        <v>367</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>401</v>
+        <v>362</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>511</v>
+        <v>378</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J88" s="4" t="s">
-        <v>175</v>
+        <v>23</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="K88" s="13"/>
-      <c r="L88" s="10" t="s">
-        <v>496</v>
-      </c>
       <c r="M88" s="13"/>
       <c r="R88" s="5" t="s">
-        <v>524</v>
+        <v>558</v>
       </c>
       <c r="S88" s="13"/>
       <c r="T88" s="3" t="str">
         <f>", '"&amp;A88&amp;"': {megami: '"&amp;B88&amp;"'"&amp;IF(C88&lt;&gt;"", ", anotherID: '" &amp; C88 &amp; "', replace: '" &amp; D88 &amp; "'", "")&amp;", name: '"&amp;E88&amp;"', ruby: '"&amp;F88&amp;"', baseType: '"&amp;VLOOKUP(G88,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H88,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I88&lt;&gt;"",", '"&amp; VLOOKUP(I88,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J88&lt;&gt;"", ", range: '"&amp;J88&amp;"'", "")&amp;IF(L88&lt;&gt;"", ", damage: '"&amp;L88&amp;"'", "")&amp;IF(N88&lt;&gt;"", ", capacity: '"&amp;N88&amp;"'", "")&amp;IF(O88&lt;&gt;"", ", cost: '"&amp;O88&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R88, CHAR(10), "\n")&amp;"'"&amp;IF(P88="○", ", sealable: true", "")&amp;IF(Q88="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '11-thallya-o-n-2': {megami: 'thallya', name: 'Waving Edge', ruby: 'ウェービングエッジ', baseType: 'normal', types: ['attack'], range: '1-3', damage: '3/1', text: '燃焼 \n【攻撃後】騎動を行う。'}</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+        <v>, '10-kururu-o-n-5': {megami: 'kururu', name: 'りげいなー', ruby: '', baseType: 'normal', types: ['action', 'fullpower'], text: '----\n&lt;攻対&gt; あなたの使用済の切札を1枚選んでもよい。そのカードを消費を支払わずに使用する。(《全力》カードでもよい) \n----\nあなたの集中力は0になる。'}</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A89" s="4" t="s">
-        <v>404</v>
+        <v>368</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>401</v>
+        <v>362</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>512</v>
+        <v>379</v>
       </c>
       <c r="G89" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J89" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="K89" s="13"/>
-      <c r="L89" s="10" t="s">
-        <v>520</v>
-      </c>
       <c r="M89" s="13"/>
+      <c r="N89" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="R89" s="5" t="s">
-        <v>525</v>
+        <v>394</v>
       </c>
       <c r="S89" s="13"/>
       <c r="T89" s="3" t="str">
         <f>", '"&amp;A89&amp;"': {megami: '"&amp;B89&amp;"'"&amp;IF(C89&lt;&gt;"", ", anotherID: '" &amp; C89 &amp; "', replace: '" &amp; D89 &amp; "'", "")&amp;", name: '"&amp;E89&amp;"', ruby: '"&amp;F89&amp;"', baseType: '"&amp;VLOOKUP(G89,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H89,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I89&lt;&gt;"",", '"&amp; VLOOKUP(I89,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J89&lt;&gt;"", ", range: '"&amp;J89&amp;"'", "")&amp;IF(L89&lt;&gt;"", ", damage: '"&amp;L89&amp;"'", "")&amp;IF(N89&lt;&gt;"", ", capacity: '"&amp;N89&amp;"'", "")&amp;IF(O89&lt;&gt;"", ", cost: '"&amp;O89&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R89, CHAR(10), "\n")&amp;"'"&amp;IF(P89="○", ", sealable: true", "")&amp;IF(Q89="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '11-thallya-o-n-3': {megami: 'thallya', name: 'Shield Charge', ruby: 'シールドチャージ', baseType: 'normal', types: ['attack'], range: '1', damage: '3/2', text: '燃焼 \n【常時】この《攻撃》のダメージにより移動する桜花結晶は、ダストやフレアでなく間合に動かす。'}</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.15">
+        <v>, '10-kururu-o-n-6': {megami: 'kururu', name: 'もじゅるー', ruby: '', baseType: 'normal', types: ['enhance'], capacity: '3', text: '【展開中】あなたが《行動》カードを使用した時、その解決後に基本動作を1回行ってもよい。'}</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" ht="60" x14ac:dyDescent="0.15">
       <c r="A90" s="4" t="s">
-        <v>405</v>
+        <v>369</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>401</v>
+        <v>362</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>502</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>519</v>
+        <v>380</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I90" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J90" s="4" t="s">
-        <v>503</v>
+        <v>48</v>
       </c>
       <c r="K90" s="13"/>
-      <c r="L90" s="10" t="s">
-        <v>521</v>
-      </c>
       <c r="M90" s="13"/>
-      <c r="R90" s="4" t="s">
-        <v>526</v>
+      <c r="N90" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="R90" s="5" t="s">
+        <v>559</v>
       </c>
       <c r="S90" s="13"/>
       <c r="T90" s="3" t="str">
         <f>", '"&amp;A90&amp;"': {megami: '"&amp;B90&amp;"'"&amp;IF(C90&lt;&gt;"", ", anotherID: '" &amp; C90 &amp; "', replace: '" &amp; D90 &amp; "'", "")&amp;", name: '"&amp;E90&amp;"', ruby: '"&amp;F90&amp;"', baseType: '"&amp;VLOOKUP(G90,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H90,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I90&lt;&gt;"",", '"&amp; VLOOKUP(I90,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J90&lt;&gt;"", ", range: '"&amp;J90&amp;"'", "")&amp;IF(L90&lt;&gt;"", ", damage: '"&amp;L90&amp;"'", "")&amp;IF(N90&lt;&gt;"", ", capacity: '"&amp;N90&amp;"'", "")&amp;IF(O90&lt;&gt;"", ", cost: '"&amp;O90&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R90, CHAR(10), "\n")&amp;"'"&amp;IF(P90="○", ", sealable: true", "")&amp;IF(Q90="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '11-thallya-o-n-4': {megami: 'thallya', name: 'Steam Cannon', ruby: 'スチームカノン', baseType: 'normal', types: ['attack', 'fullpower'], range: '2-8', damage: '3/3', text: '燃焼'}</v>
-      </c>
-    </row>
-    <row r="91" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+        <v>, '10-kururu-o-n-7': {megami: 'kururu', name: 'りふれくた', ruby: '', baseType: 'normal', types: ['enhance'], capacity: '0', text: '----\n&lt;攻対&gt; 【展開時】このカードの上に桜花結晶を4個ダストから置く。 \n----\n【展開中】各ターンにおける相手の2回目の《攻撃》は打ち消される。\n'}</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" ht="36" x14ac:dyDescent="0.15">
       <c r="A91" s="4" t="s">
-        <v>406</v>
+        <v>370</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>401</v>
+        <v>362</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>513</v>
+        <v>381</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H91" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="I91" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="K91" s="13"/>
-      <c r="L91" s="10"/>
       <c r="M91" s="13"/>
+      <c r="O91" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="R91" s="5" t="s">
-        <v>527</v>
+        <v>393</v>
       </c>
       <c r="S91" s="13"/>
       <c r="T91" s="3" t="str">
         <f>", '"&amp;A91&amp;"': {megami: '"&amp;B91&amp;"'"&amp;IF(C91&lt;&gt;"", ", anotherID: '" &amp; C91 &amp; "', replace: '" &amp; D91 &amp; "'", "")&amp;", name: '"&amp;E91&amp;"', ruby: '"&amp;F91&amp;"', baseType: '"&amp;VLOOKUP(G91,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H91,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I91&lt;&gt;"",", '"&amp; VLOOKUP(I91,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J91&lt;&gt;"", ", range: '"&amp;J91&amp;"'", "")&amp;IF(L91&lt;&gt;"", ", damage: '"&amp;L91&amp;"'", "")&amp;IF(N91&lt;&gt;"", ", capacity: '"&amp;N91&amp;"'", "")&amp;IF(O91&lt;&gt;"", ", cost: '"&amp;O91&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R91, CHAR(10), "\n")&amp;"'"&amp;IF(P91="○", ", sealable: true", "")&amp;IF(Q91="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '11-thallya-o-n-5': {megami: 'thallya', name: 'Stunt', ruby: 'スタント', baseType: 'normal', types: ['action'], text: '相手を畏縮させる。 \n自オーラ→自フレア：2'}</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20" ht="48" x14ac:dyDescent="0.15">
+        <v>, '10-kururu-o-s-1': {megami: 'kururu', name: 'どれーんでびる', ruby: '', baseType: 'special', types: ['action', 'reaction'], cost: '2', text: '相オーラ→自オーラ：1 \n【使用済】あなたの使用済の切札が未使用に戻った時、このカードを消費を支払わずに使用してもよい。'}</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" ht="84" x14ac:dyDescent="0.15">
       <c r="A92" s="4" t="s">
-        <v>407</v>
+        <v>371</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>401</v>
+        <v>362</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>514</v>
+        <v>382</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H92" s="4" t="s">
         <v>23</v>
       </c>
       <c r="K92" s="13"/>
-      <c r="L92" s="10"/>
       <c r="M92" s="13"/>
+      <c r="O92" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="R92" s="5" t="s">
-        <v>528</v>
+        <v>560</v>
       </c>
       <c r="S92" s="13"/>
       <c r="T92" s="3" t="str">
         <f>", '"&amp;A92&amp;"': {megami: '"&amp;B92&amp;"'"&amp;IF(C92&lt;&gt;"", ", anotherID: '" &amp; C92 &amp; "', replace: '" &amp; D92 &amp; "'", "")&amp;", name: '"&amp;E92&amp;"', ruby: '"&amp;F92&amp;"', baseType: '"&amp;VLOOKUP(G92,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H92,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I92&lt;&gt;"",", '"&amp; VLOOKUP(I92,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J92&lt;&gt;"", ", range: '"&amp;J92&amp;"'", "")&amp;IF(L92&lt;&gt;"", ", damage: '"&amp;L92&amp;"'", "")&amp;IF(N92&lt;&gt;"", ", capacity: '"&amp;N92&amp;"'", "")&amp;IF(O92&lt;&gt;"", ", cost: '"&amp;O92&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R92, CHAR(10), "\n")&amp;"'"&amp;IF(P92="○", ", sealable: true", "")&amp;IF(Q92="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '11-thallya-o-n-6': {megami: 'thallya', name: 'Roaring', ruby: 'ロアリング', baseType: 'normal', types: ['action'], text: 'コストとして、あなたのマシンにある造花結晶を2つ燃焼済にしても良い。そうした場合、あなたは集中力を1得て、相手は集中力を1失い、相手を畏縮させる。 \nコストとして、集中力を2支払ってもよい。そうした場合、あなたの燃焼済の造花結晶を3つ回復する。'}</v>
-      </c>
-    </row>
-    <row r="93" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+        <v>, '10-kururu-o-s-2': {megami: 'kururu', name: 'びっぐごーれむ', ruby: '', baseType: 'special', types: ['action'], cost: '4', text: '----\n&lt;対全全&gt; 【使用済】あなたの終了フェイズに相手のライフに1ダメージを与えてもよい。そうした場合、山札を再構成する。 \n----\n【使用済】あなたが《全力》カードを使用した時、その解決後に基本動作を1回行ってもよい。\n'}</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" ht="60" x14ac:dyDescent="0.15">
       <c r="A93" s="4" t="s">
-        <v>408</v>
+        <v>372</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>401</v>
+        <v>362</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>515</v>
+        <v>383</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H93" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I93" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="K93" s="13"/>
-      <c r="L93" s="10"/>
       <c r="M93" s="13"/>
+      <c r="O93" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="P93" s="4" t="s">
+        <v>295</v>
+      </c>
       <c r="R93" s="5" t="s">
-        <v>529</v>
+        <v>400</v>
       </c>
       <c r="S93" s="13"/>
       <c r="T93" s="3" t="str">
         <f>", '"&amp;A93&amp;"': {megami: '"&amp;B93&amp;"'"&amp;IF(C93&lt;&gt;"", ", anotherID: '" &amp; C93 &amp; "', replace: '" &amp; D93 &amp; "'", "")&amp;", name: '"&amp;E93&amp;"', ruby: '"&amp;F93&amp;"', baseType: '"&amp;VLOOKUP(G93,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H93,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I93&lt;&gt;"",", '"&amp; VLOOKUP(I93,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J93&lt;&gt;"", ", range: '"&amp;J93&amp;"'", "")&amp;IF(L93&lt;&gt;"", ", damage: '"&amp;L93&amp;"'", "")&amp;IF(N93&lt;&gt;"", ", capacity: '"&amp;N93&amp;"'", "")&amp;IF(O93&lt;&gt;"", ", cost: '"&amp;O93&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R93, CHAR(10), "\n")&amp;"'"&amp;IF(P93="○", ", sealable: true", "")&amp;IF(Q93="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '11-thallya-o-n-7': {megami: 'thallya', name: 'Turbo Switch', ruby: 'ターボスイッチ', baseType: 'normal', types: ['action', 'reaction'], text: '燃焼 \n騎動を行う。'}</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.15">
+        <v>, '10-kururu-o-s-3': {megami: 'kururu', name: 'いんだすとりあ', ruby: '', baseType: 'special', types: ['action'], cost: '1', text: 'このカードにカードが封印されていないならば、あなたの手札から《付与》でないカードを1枚選び、そのカードをこのカードの下に表向きで封印してもよい。 \nあなたの追加札から「でゅーぷりぎあ」を山札の底に1枚置く(最大で合計3枚)。 \n----\n【即再起】あなたが山札を再構成する(再構成の後に未使用に戻る)。', sealable: true}</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" ht="72" x14ac:dyDescent="0.15">
       <c r="A94" s="4" t="s">
-        <v>409</v>
+        <v>373</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>401</v>
+        <v>362</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>507</v>
+        <v>565</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>516</v>
+        <v>564</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J94" s="4" t="s">
-        <v>508</v>
+        <v>23</v>
       </c>
       <c r="K94" s="13"/>
-      <c r="L94" s="10" t="s">
-        <v>522</v>
-      </c>
       <c r="M94" s="13"/>
       <c r="O94" s="4" t="s">
-        <v>56</v>
+        <v>108</v>
+      </c>
+      <c r="Q94" s="4" t="s">
+        <v>295</v>
       </c>
       <c r="R94" s="5" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="S94" s="13"/>
       <c r="T94" s="3" t="str">
         <f>", '"&amp;A94&amp;"': {megami: '"&amp;B94&amp;"'"&amp;IF(C94&lt;&gt;"", ", anotherID: '" &amp; C94 &amp; "', replace: '" &amp; D94 &amp; "'", "")&amp;", name: '"&amp;E94&amp;"', ruby: '"&amp;F94&amp;"', baseType: '"&amp;VLOOKUP(G94,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H94,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I94&lt;&gt;"",", '"&amp; VLOOKUP(I94,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J94&lt;&gt;"", ", range: '"&amp;J94&amp;"'", "")&amp;IF(L94&lt;&gt;"", ", damage: '"&amp;L94&amp;"'", "")&amp;IF(N94&lt;&gt;"", ", capacity: '"&amp;N94&amp;"'", "")&amp;IF(O94&lt;&gt;"", ", cost: '"&amp;O94&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R94, CHAR(10), "\n")&amp;"'"&amp;IF(P94="○", ", sealable: true", "")&amp;IF(Q94="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '11-thallya-o-s-1': {megami: 'thallya', name: 'Alpha-Edge', ruby: 'アルファエッジ', baseType: 'special', types: ['attack'], range: '1,3,5,7', damage: '1/1', cost: '1', text: '【即再起】あなたが騎動により間合を変化させる。'}</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+        <v>, '10-kururu-o-s-4': {megami: 'kururu', name: '神渉装置:枢式', ruby: 'かんしょうそうち　くるるしき', baseType: 'special', types: ['action'], cost: '3', text: '----\n&lt;攻攻行行行付付&gt; 相手の切札を見て、その中から1枚選び、それを使用済にしてもよい。\n----\n相手の使用済の切札1枚を選んでもよい。そのカードを消費を支払わずに使用する(《全力》カードでもよい)。その後、このカードを取り除く。', removable: true}</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" ht="48" x14ac:dyDescent="0.15">
       <c r="A95" s="4" t="s">
-        <v>410</v>
+        <v>384</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>401</v>
+        <v>362</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>517</v>
+        <v>385</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>19</v>
+        <v>192</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I95" s="4" t="s">
-        <v>28</v>
+        <v>386</v>
       </c>
       <c r="K95" s="13"/>
-      <c r="L95" s="10"/>
       <c r="M95" s="13"/>
-      <c r="O95" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="R95" s="5" t="s">
-        <v>542</v>
+        <v>395</v>
       </c>
       <c r="S95" s="13"/>
       <c r="T95" s="3" t="str">
         <f>", '"&amp;A95&amp;"': {megami: '"&amp;B95&amp;"'"&amp;IF(C95&lt;&gt;"", ", anotherID: '" &amp; C95 &amp; "', replace: '" &amp; D95 &amp; "'", "")&amp;", name: '"&amp;E95&amp;"', ruby: '"&amp;F95&amp;"', baseType: '"&amp;VLOOKUP(G95,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H95,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I95&lt;&gt;"",", '"&amp; VLOOKUP(I95,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J95&lt;&gt;"", ", range: '"&amp;J95&amp;"'", "")&amp;IF(L95&lt;&gt;"", ", damage: '"&amp;L95&amp;"'", "")&amp;IF(N95&lt;&gt;"", ", capacity: '"&amp;N95&amp;"'", "")&amp;IF(O95&lt;&gt;"", ", cost: '"&amp;O95&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R95, CHAR(10), "\n")&amp;"'"&amp;IF(P95="○", ", sealable: true", "")&amp;IF(Q95="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '11-thallya-o-s-2': {megami: 'thallya', name: 'Omega-Burst', ruby: 'オメガバースト', baseType: 'special', types: ['action', 'reaction'], cost: '4', text: 'あなたの燃焼済の造花結晶を全て回復する。 \n対応した、オーラへのダメージが「-」またはX以下の《攻撃》を打ち消す。Xはこのカードにより回復した造花結晶の個数に等しい。'}</v>
-      </c>
-    </row>
-    <row r="96" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>, '10-kururu-o-s-3-ex1': {megami: 'kururu', name: 'でゅーぷりぎあ', ruby: '', baseType: 'extra', types: ['variable'], text: '(カードタイプが不定のカードは使用できない) \n【常時】このカードはあなたの「いんだすとりあ」に封印されたカードの複製となる。但し、名前は変更されない。 \n(「いんだすとりあ」が未使用なら複製とならないので、使用できない)'}</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A96" s="4" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>401</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>566</v>
+        <v>499</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I96" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
+      </c>
+      <c r="J96" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="K96" s="13"/>
-      <c r="L96" s="10"/>
+      <c r="L96" s="10" t="s">
+        <v>498</v>
+      </c>
       <c r="M96" s="13"/>
-      <c r="O96" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="R96" s="8" t="s">
-        <v>530</v>
+      <c r="R96" s="4" t="s">
+        <v>523</v>
       </c>
       <c r="S96" s="13"/>
       <c r="T96" s="3" t="str">
         <f>", '"&amp;A96&amp;"': {megami: '"&amp;B96&amp;"'"&amp;IF(C96&lt;&gt;"", ", anotherID: '" &amp; C96 &amp; "', replace: '" &amp; D96 &amp; "'", "")&amp;", name: '"&amp;E96&amp;"', ruby: '"&amp;F96&amp;"', baseType: '"&amp;VLOOKUP(G96,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H96,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I96&lt;&gt;"",", '"&amp; VLOOKUP(I96,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J96&lt;&gt;"", ", range: '"&amp;J96&amp;"'", "")&amp;IF(L96&lt;&gt;"", ", damage: '"&amp;L96&amp;"'", "")&amp;IF(N96&lt;&gt;"", ", capacity: '"&amp;N96&amp;"'", "")&amp;IF(O96&lt;&gt;"", ", cost: '"&amp;O96&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R96, CHAR(10), "\n")&amp;"'"&amp;IF(P96="○", ", sealable: true", "")&amp;IF(Q96="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '11-thallya-o-s-4': {megami: 'thallya', name: 'Julia\'s BlackBox', ruby: 'ジュリアズ　ブラックボックス', baseType: 'special', types: ['action', 'fullpower'], cost: '0', text: 'あなたのマシンに造花結晶がないならば、あなたのマシンはTransFormし、あなたの燃焼済の造花結晶を2つ回復する。そうでない場合、このカードを未使用に戻す。'}</v>
-      </c>
-    </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.15">
+        <v>, '11-thallya-o-n-1': {megami: 'thallya', name: 'Burning Steam', ruby: 'バーニングスチーム', baseType: 'normal', types: ['attack'], range: '3-5', damage: '2/1', text: '【攻撃後】騎動を行う。'}</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A97" s="4" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>463</v>
+        <v>500</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>492</v>
+        <v>511</v>
       </c>
       <c r="G97" s="4" t="s">
         <v>7</v>
@@ -6166,31 +6214,34 @@
         <v>8</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>464</v>
+        <v>175</v>
       </c>
       <c r="K97" s="13"/>
-      <c r="L97" s="2" t="s">
+      <c r="L97" s="10" t="s">
         <v>496</v>
       </c>
       <c r="M97" s="13"/>
+      <c r="R97" s="5" t="s">
+        <v>524</v>
+      </c>
       <c r="S97" s="13"/>
       <c r="T97" s="3" t="str">
         <f>", '"&amp;A97&amp;"': {megami: '"&amp;B97&amp;"'"&amp;IF(C97&lt;&gt;"", ", anotherID: '" &amp; C97 &amp; "', replace: '" &amp; D97 &amp; "'", "")&amp;", name: '"&amp;E97&amp;"', ruby: '"&amp;F97&amp;"', baseType: '"&amp;VLOOKUP(G97,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H97,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I97&lt;&gt;"",", '"&amp; VLOOKUP(I97,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J97&lt;&gt;"", ", range: '"&amp;J97&amp;"'", "")&amp;IF(L97&lt;&gt;"", ", damage: '"&amp;L97&amp;"'", "")&amp;IF(N97&lt;&gt;"", ", capacity: '"&amp;N97&amp;"'", "")&amp;IF(O97&lt;&gt;"", ", cost: '"&amp;O97&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R97, CHAR(10), "\n")&amp;"'"&amp;IF(P97="○", ", sealable: true", "")&amp;IF(Q97="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-raira-o-n-1': {megami: 'raira', name: '獣爪', ruby: 'じゅうそう', baseType: 'normal', types: ['attack'], range: '1-2', damage: '3/1', text: ''}</v>
-      </c>
-    </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.15">
+        <v>, '11-thallya-o-n-2': {megami: 'thallya', name: 'Waving Edge', ruby: 'ウェービングエッジ', baseType: 'normal', types: ['attack'], range: '1-3', damage: '3/1', text: '燃焼 \n【攻撃後】騎動を行う。'}</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" ht="36" x14ac:dyDescent="0.15">
       <c r="A98" s="4" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>465</v>
+        <v>501</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>493</v>
+        <v>512</v>
       </c>
       <c r="G98" s="4" t="s">
         <v>7</v>
@@ -6199,34 +6250,34 @@
         <v>8</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K98" s="13"/>
-      <c r="L98" s="2" t="s">
-        <v>497</v>
+      <c r="L98" s="10" t="s">
+        <v>520</v>
       </c>
       <c r="M98" s="13"/>
-      <c r="R98" s="4" t="s">
-        <v>531</v>
+      <c r="R98" s="5" t="s">
+        <v>525</v>
       </c>
       <c r="S98" s="13"/>
       <c r="T98" s="3" t="str">
         <f>", '"&amp;A98&amp;"': {megami: '"&amp;B98&amp;"'"&amp;IF(C98&lt;&gt;"", ", anotherID: '" &amp; C98 &amp; "', replace: '" &amp; D98 &amp; "'", "")&amp;", name: '"&amp;E98&amp;"', ruby: '"&amp;F98&amp;"', baseType: '"&amp;VLOOKUP(G98,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H98,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I98&lt;&gt;"",", '"&amp; VLOOKUP(I98,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J98&lt;&gt;"", ", range: '"&amp;J98&amp;"'", "")&amp;IF(L98&lt;&gt;"", ", damage: '"&amp;L98&amp;"'", "")&amp;IF(N98&lt;&gt;"", ", capacity: '"&amp;N98&amp;"'", "")&amp;IF(O98&lt;&gt;"", ", cost: '"&amp;O98&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R98, CHAR(10), "\n")&amp;"'"&amp;IF(P98="○", ", sealable: true", "")&amp;IF(Q98="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-raira-o-n-2': {megami: 'raira', name: '風雷撃', ruby: 'ふうらいげき', baseType: 'normal', types: ['attack'], range: '2', damage: 'X/2', text: '【常時】Xは風神ゲージと雷神ゲージのうち、小さい方の値である。'}</v>
-      </c>
-    </row>
-    <row r="99" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+        <v>, '11-thallya-o-n-3': {megami: 'thallya', name: 'Shield Charge', ruby: 'シールドチャージ', baseType: 'normal', types: ['attack'], range: '1', damage: '3/2', text: '燃焼 \n【常時】この《攻撃》のダメージにより移動する桜花結晶は、ダストやフレアでなく間合に動かす。'}</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A99" s="4" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>466</v>
+        <v>502</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>494</v>
+        <v>519</v>
       </c>
       <c r="G99" s="4" t="s">
         <v>7</v>
@@ -6234,35 +6285,38 @@
       <c r="H99" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="I99" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J99" s="4" t="s">
-        <v>464</v>
+        <v>503</v>
       </c>
       <c r="K99" s="13"/>
-      <c r="L99" s="2" t="s">
-        <v>498</v>
+      <c r="L99" s="10" t="s">
+        <v>521</v>
       </c>
       <c r="M99" s="13"/>
-      <c r="R99" s="5" t="s">
-        <v>532</v>
+      <c r="R99" s="4" t="s">
+        <v>526</v>
       </c>
       <c r="S99" s="13"/>
       <c r="T99" s="3" t="str">
         <f>", '"&amp;A99&amp;"': {megami: '"&amp;B99&amp;"'"&amp;IF(C99&lt;&gt;"", ", anotherID: '" &amp; C99 &amp; "', replace: '" &amp; D99 &amp; "'", "")&amp;", name: '"&amp;E99&amp;"', ruby: '"&amp;F99&amp;"', baseType: '"&amp;VLOOKUP(G99,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H99,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I99&lt;&gt;"",", '"&amp; VLOOKUP(I99,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J99&lt;&gt;"", ", range: '"&amp;J99&amp;"'", "")&amp;IF(L99&lt;&gt;"", ", damage: '"&amp;L99&amp;"'", "")&amp;IF(N99&lt;&gt;"", ", capacity: '"&amp;N99&amp;"'", "")&amp;IF(O99&lt;&gt;"", ", cost: '"&amp;O99&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R99, CHAR(10), "\n")&amp;"'"&amp;IF(P99="○", ", sealable: true", "")&amp;IF(Q99="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-raira-o-n-3': {megami: 'raira', name: '流転爪', ruby: 'るてんそう', baseType: 'normal', types: ['attack'], range: '1-2', damage: '2/1', text: '【攻撃後】あなたの捨て札にある《攻撃》カード1枚を選び、山札の一番上に置いてもよい。'}</v>
-      </c>
-    </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.15">
+        <v>, '11-thallya-o-n-4': {megami: 'thallya', name: 'Steam Cannon', ruby: 'スチームカノン', baseType: 'normal', types: ['attack', 'fullpower'], range: '2-8', damage: '3/3', text: '燃焼'}</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A100" s="4" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>467</v>
+        <v>504</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>491</v>
+        <v>513</v>
       </c>
       <c r="G100" s="4" t="s">
         <v>7</v>
@@ -6271,28 +6325,29 @@
         <v>23</v>
       </c>
       <c r="K100" s="13"/>
+      <c r="L100" s="10"/>
       <c r="M100" s="13"/>
-      <c r="R100" s="4" t="s">
-        <v>533</v>
+      <c r="R100" s="5" t="s">
+        <v>527</v>
       </c>
       <c r="S100" s="13"/>
       <c r="T100" s="3" t="str">
         <f>", '"&amp;A100&amp;"': {megami: '"&amp;B100&amp;"'"&amp;IF(C100&lt;&gt;"", ", anotherID: '" &amp; C100 &amp; "', replace: '" &amp; D100 &amp; "'", "")&amp;", name: '"&amp;E100&amp;"', ruby: '"&amp;F100&amp;"', baseType: '"&amp;VLOOKUP(G100,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H100,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I100&lt;&gt;"",", '"&amp; VLOOKUP(I100,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J100&lt;&gt;"", ", range: '"&amp;J100&amp;"'", "")&amp;IF(L100&lt;&gt;"", ", damage: '"&amp;L100&amp;"'", "")&amp;IF(N100&lt;&gt;"", ", capacity: '"&amp;N100&amp;"'", "")&amp;IF(O100&lt;&gt;"", ", cost: '"&amp;O100&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R100, CHAR(10), "\n")&amp;"'"&amp;IF(P100="○", ", sealable: true", "")&amp;IF(Q100="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-raira-o-n-4': {megami: 'raira', name: '風走り', ruby: 'かぜばしり', baseType: 'normal', types: ['action'], text: '現在の間合が3以上ならば、間合→ダスト：2'}</v>
-      </c>
-    </row>
-    <row r="101" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+        <v>, '11-thallya-o-n-5': {megami: 'thallya', name: 'Stunt', ruby: 'スタント', baseType: 'normal', types: ['action'], text: '相手を畏縮させる。 \n自オーラ→自フレア：2'}</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" ht="48" x14ac:dyDescent="0.15">
       <c r="A101" s="4" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>468</v>
+        <v>505</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>489</v>
+        <v>514</v>
       </c>
       <c r="G101" s="4" t="s">
         <v>7</v>
@@ -6301,28 +6356,29 @@
         <v>23</v>
       </c>
       <c r="K101" s="13"/>
+      <c r="L101" s="10"/>
       <c r="M101" s="13"/>
       <c r="R101" s="5" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="S101" s="13"/>
       <c r="T101" s="3" t="str">
         <f>", '"&amp;A101&amp;"': {megami: '"&amp;B101&amp;"'"&amp;IF(C101&lt;&gt;"", ", anotherID: '" &amp; C101 &amp; "', replace: '" &amp; D101 &amp; "'", "")&amp;", name: '"&amp;E101&amp;"', ruby: '"&amp;F101&amp;"', baseType: '"&amp;VLOOKUP(G101,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H101,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I101&lt;&gt;"",", '"&amp; VLOOKUP(I101,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J101&lt;&gt;"", ", range: '"&amp;J101&amp;"'", "")&amp;IF(L101&lt;&gt;"", ", damage: '"&amp;L101&amp;"'", "")&amp;IF(N101&lt;&gt;"", ", capacity: '"&amp;N101&amp;"'", "")&amp;IF(O101&lt;&gt;"", ", cost: '"&amp;O101&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R101, CHAR(10), "\n")&amp;"'"&amp;IF(P101="○", ", sealable: true", "")&amp;IF(Q101="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-raira-o-n-5': {megami: 'raira', name: '風雷の知恵', ruby: 'ふうらいのちえ', baseType: 'normal', types: ['action'], text: '風神ゲージと雷神ゲージの合計が4以上ならば、あなたの捨て札にある他のメガミのカード1枚を選び、山札の一番上に置いてもよい。 \n風神ゲージか雷神ゲージを1上げる。'}</v>
-      </c>
-    </row>
-    <row r="102" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+        <v>, '11-thallya-o-n-6': {megami: 'thallya', name: 'Roaring', ruby: 'ロアリング', baseType: 'normal', types: ['action'], text: 'コストとして、あなたのマシンにある造花結晶を2つ燃焼済にしても良い。そうした場合、あなたは集中力を1得て、相手は集中力を1失い、相手を畏縮させる。 \nコストとして、集中力を2支払ってもよい。そうした場合、あなたの燃焼済の造花結晶を3つ回復する。'}</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A102" s="4" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>469</v>
+        <v>506</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>490</v>
+        <v>515</v>
       </c>
       <c r="G102" s="4" t="s">
         <v>7</v>
@@ -6331,103 +6387,108 @@
         <v>23</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K102" s="13"/>
+      <c r="L102" s="10"/>
       <c r="M102" s="13"/>
       <c r="R102" s="5" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="S102" s="13"/>
       <c r="T102" s="3" t="str">
         <f>", '"&amp;A102&amp;"': {megami: '"&amp;B102&amp;"'"&amp;IF(C102&lt;&gt;"", ", anotherID: '" &amp; C102 &amp; "', replace: '" &amp; D102 &amp; "'", "")&amp;", name: '"&amp;E102&amp;"', ruby: '"&amp;F102&amp;"', baseType: '"&amp;VLOOKUP(G102,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H102,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I102&lt;&gt;"",", '"&amp; VLOOKUP(I102,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J102&lt;&gt;"", ", range: '"&amp;J102&amp;"'", "")&amp;IF(L102&lt;&gt;"", ", damage: '"&amp;L102&amp;"'", "")&amp;IF(N102&lt;&gt;"", ", capacity: '"&amp;N102&amp;"'", "")&amp;IF(O102&lt;&gt;"", ", cost: '"&amp;O102&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R102, CHAR(10), "\n")&amp;"'"&amp;IF(P102="○", ", sealable: true", "")&amp;IF(Q102="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-raira-o-n-6': {megami: 'raira', name: '呼び声', ruby: 'よびごえ', baseType: 'normal', types: ['action', 'fullpower'], text: '相手を畏縮させ、以下から1つを選ぶ。\n・風神ゲージと雷神ゲージを1ずつ上げる。\n・手札を全て伏せ札にし、雷神ゲージを2倍にする。'}</v>
+        <v>, '11-thallya-o-n-7': {megami: 'thallya', name: 'Turbo Switch', ruby: 'ターボスイッチ', baseType: 'normal', types: ['action', 'reaction'], text: '燃焼 \n騎動を行う。'}</v>
       </c>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A103" s="4" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>470</v>
+        <v>507</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>487</v>
+        <v>516</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I103" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
+      </c>
+      <c r="J103" s="4" t="s">
+        <v>508</v>
       </c>
       <c r="K103" s="13"/>
+      <c r="L103" s="10" t="s">
+        <v>522</v>
+      </c>
       <c r="M103" s="13"/>
-      <c r="R103" s="4" t="s">
-        <v>536</v>
+      <c r="O103" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R103" s="5" t="s">
+        <v>556</v>
       </c>
       <c r="S103" s="13"/>
       <c r="T103" s="3" t="str">
         <f>", '"&amp;A103&amp;"': {megami: '"&amp;B103&amp;"'"&amp;IF(C103&lt;&gt;"", ", anotherID: '" &amp; C103 &amp; "', replace: '" &amp; D103 &amp; "'", "")&amp;", name: '"&amp;E103&amp;"', ruby: '"&amp;F103&amp;"', baseType: '"&amp;VLOOKUP(G103,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H103,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I103&lt;&gt;"",", '"&amp; VLOOKUP(I103,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J103&lt;&gt;"", ", range: '"&amp;J103&amp;"'", "")&amp;IF(L103&lt;&gt;"", ", damage: '"&amp;L103&amp;"'", "")&amp;IF(N103&lt;&gt;"", ", capacity: '"&amp;N103&amp;"'", "")&amp;IF(O103&lt;&gt;"", ", cost: '"&amp;O103&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R103, CHAR(10), "\n")&amp;"'"&amp;IF(P103="○", ", sealable: true", "")&amp;IF(Q103="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-raira-o-n-7': {megami: 'raira', name: '空駆け', ruby: 'そらかけ', baseType: 'normal', types: ['action', 'fullpower'], text: '間合⇔ダスト：3'}</v>
+        <v>, '11-thallya-o-s-1': {megami: 'thallya', name: 'Alpha-Edge', ruby: 'アルファエッジ', baseType: 'special', types: ['attack'], range: '1,3,5,7', damage: '1/1', cost: '1', text: '【即再起】あなたが騎動により間合を変化させる。'}</v>
       </c>
     </row>
     <row r="104" spans="1:20" ht="36" x14ac:dyDescent="0.15">
       <c r="A104" s="4" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>471</v>
+        <v>509</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="G104" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J104" s="4" t="s">
-        <v>464</v>
+        <v>23</v>
+      </c>
+      <c r="I104" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="K104" s="13"/>
-      <c r="L104" s="2" t="s">
-        <v>460</v>
-      </c>
+      <c r="L104" s="10"/>
       <c r="M104" s="13"/>
       <c r="O104" s="4" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="R104" s="5" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="S104" s="13"/>
       <c r="T104" s="3" t="str">
         <f>", '"&amp;A104&amp;"': {megami: '"&amp;B104&amp;"'"&amp;IF(C104&lt;&gt;"", ", anotherID: '" &amp; C104 &amp; "', replace: '" &amp; D104 &amp; "'", "")&amp;", name: '"&amp;E104&amp;"', ruby: '"&amp;F104&amp;"', baseType: '"&amp;VLOOKUP(G104,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H104,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I104&lt;&gt;"",", '"&amp; VLOOKUP(I104,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J104&lt;&gt;"", ", range: '"&amp;J104&amp;"'", "")&amp;IF(L104&lt;&gt;"", ", damage: '"&amp;L104&amp;"'", "")&amp;IF(N104&lt;&gt;"", ", capacity: '"&amp;N104&amp;"'", "")&amp;IF(O104&lt;&gt;"", ", cost: '"&amp;O104&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R104, CHAR(10), "\n")&amp;"'"&amp;IF(P104="○", ", sealable: true", "")&amp;IF(Q104="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-raira-o-s-1': {megami: 'raira', name: '雷螺風神爪', ruby: 'らいらふうじんそう', baseType: 'special', types: ['attack'], range: '1-2', damage: '2/2', cost: '3', text: '【常時】あなたの雷神ゲージが4以上ならば、この《攻撃》は+1/+0となる。 \n----\n【再起】あなたの風神ゲージが4以上である。'}</v>
-      </c>
-    </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.15">
+        <v>, '11-thallya-o-s-2': {megami: 'thallya', name: 'Omega-Burst', ruby: 'オメガバースト', baseType: 'special', types: ['action', 'reaction'], cost: '4', text: 'あなたの燃焼済の造花結晶を全て回復する。 \n対応した、オーラへのダメージが「-」またはX以下の《攻撃》を打ち消す。Xはこのカードにより回復した造花結晶の個数に等しい。'}</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="4" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>472</v>
+        <v>566</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>485</v>
+        <v>518</v>
       </c>
       <c r="G105" s="4" t="s">
         <v>19</v>
@@ -6439,455 +6500,453 @@
         <v>31</v>
       </c>
       <c r="K105" s="13"/>
+      <c r="L105" s="10"/>
       <c r="M105" s="13"/>
       <c r="O105" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="R105" s="4" t="s">
-        <v>538</v>
+        <v>221</v>
+      </c>
+      <c r="R105" s="8" t="s">
+        <v>530</v>
       </c>
       <c r="S105" s="13"/>
       <c r="T105" s="3" t="str">
         <f>", '"&amp;A105&amp;"': {megami: '"&amp;B105&amp;"'"&amp;IF(C105&lt;&gt;"", ", anotherID: '" &amp; C105 &amp; "', replace: '" &amp; D105 &amp; "'", "")&amp;", name: '"&amp;E105&amp;"', ruby: '"&amp;F105&amp;"', baseType: '"&amp;VLOOKUP(G105,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H105,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I105&lt;&gt;"",", '"&amp; VLOOKUP(I105,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J105&lt;&gt;"", ", range: '"&amp;J105&amp;"'", "")&amp;IF(L105&lt;&gt;"", ", damage: '"&amp;L105&amp;"'", "")&amp;IF(N105&lt;&gt;"", ", capacity: '"&amp;N105&amp;"'", "")&amp;IF(O105&lt;&gt;"", ", cost: '"&amp;O105&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R105, CHAR(10), "\n")&amp;"'"&amp;IF(P105="○", ", sealable: true", "")&amp;IF(Q105="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-raira-o-s-2': {megami: 'raira', name: '天雷召喚陣', ruby: 'てんらいしょうかんじん', baseType: 'special', types: ['action', 'fullpower'], cost: '6', text: '攻撃『適正距離0-10、1/1』をX回行う。Xは雷神ゲージの半分(切り上げ)に等しい。'}</v>
-      </c>
-    </row>
-    <row r="106" spans="1:20" ht="60" x14ac:dyDescent="0.15">
+        <v>, '11-thallya-o-s-4': {megami: 'thallya', name: 'Julia\'s BlackBox', ruby: 'ジュリアズ　ブラックボックス', baseType: 'special', types: ['action', 'fullpower'], cost: '0', text: 'あなたのマシンに造花結晶がないならば、あなたのマシンはTransFormし、あなたの燃焼済の造花結晶を2つ回復する。そうでない場合、このカードを未使用に戻す。'}</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A106" s="4" t="s">
-        <v>478</v>
+        <v>413</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>412</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>23</v>
+        <v>8</v>
+      </c>
+      <c r="J106" s="4" t="s">
+        <v>464</v>
       </c>
       <c r="K106" s="13"/>
+      <c r="L106" s="2" t="s">
+        <v>496</v>
+      </c>
       <c r="M106" s="13"/>
-      <c r="O106" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q106" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="R106" s="5" t="s">
-        <v>540</v>
-      </c>
       <c r="S106" s="13"/>
       <c r="T106" s="3" t="str">
         <f>", '"&amp;A106&amp;"': {megami: '"&amp;B106&amp;"'"&amp;IF(C106&lt;&gt;"", ", anotherID: '" &amp; C106 &amp; "', replace: '" &amp; D106 &amp; "'", "")&amp;", name: '"&amp;E106&amp;"', ruby: '"&amp;F106&amp;"', baseType: '"&amp;VLOOKUP(G106,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H106,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I106&lt;&gt;"",", '"&amp; VLOOKUP(I106,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J106&lt;&gt;"", ", range: '"&amp;J106&amp;"'", "")&amp;IF(L106&lt;&gt;"", ", damage: '"&amp;L106&amp;"'", "")&amp;IF(N106&lt;&gt;"", ", capacity: '"&amp;N106&amp;"'", "")&amp;IF(O106&lt;&gt;"", ", cost: '"&amp;O106&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R106, CHAR(10), "\n")&amp;"'"&amp;IF(P106="○", ", sealable: true", "")&amp;IF(Q106="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-raira-o-s-3': {megami: 'raira', name: '風魔招来孔', ruby: 'ふうましょうらいこう', baseType: 'special', types: ['action'], cost: '0', text: '現在の風神ゲージに応じて、以下の切札を追加札から未使用で得る(条件を満たしたものは全て得る)。その後、このカードを取り除く。 \n3以上……風魔旋風 \n6以上……風魔纏廻 \n10以上……風魔天狗道', removable: true}</v>
-      </c>
-    </row>
-    <row r="107" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+        <v>, '12-raira-o-n-1': {megami: 'raira', name: '獣爪', ruby: 'じゅうそう', baseType: 'normal', types: ['attack'], range: '1-2', damage: '3/1', text: ''}</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A107" s="4" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>412</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I107" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
+      </c>
+      <c r="J107" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="K107" s="13"/>
+      <c r="L107" s="2" t="s">
+        <v>497</v>
+      </c>
       <c r="M107" s="13"/>
-      <c r="N107" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="O107" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="R107" s="5" t="s">
-        <v>539</v>
+      <c r="R107" s="4" t="s">
+        <v>531</v>
       </c>
       <c r="S107" s="13"/>
       <c r="T107" s="3" t="str">
         <f>", '"&amp;A107&amp;"': {megami: '"&amp;B107&amp;"'"&amp;IF(C107&lt;&gt;"", ", anotherID: '" &amp; C107 &amp; "', replace: '" &amp; D107 &amp; "'", "")&amp;", name: '"&amp;E107&amp;"', ruby: '"&amp;F107&amp;"', baseType: '"&amp;VLOOKUP(G107,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H107,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I107&lt;&gt;"",", '"&amp; VLOOKUP(I107,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J107&lt;&gt;"", ", range: '"&amp;J107&amp;"'", "")&amp;IF(L107&lt;&gt;"", ", damage: '"&amp;L107&amp;"'", "")&amp;IF(N107&lt;&gt;"", ", capacity: '"&amp;N107&amp;"'", "")&amp;IF(O107&lt;&gt;"", ", cost: '"&amp;O107&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R107, CHAR(10), "\n")&amp;"'"&amp;IF(P107="○", ", sealable: true", "")&amp;IF(Q107="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-raira-o-s-4': {megami: 'raira', name: '円環輪廻旋', ruby: 'えんかんりんかいせん', baseType: 'special', types: ['enhance', 'fullpower'], capacity: '5', cost: '3', text: '【展開中】あなたが《付与》でない通常札を使用した場合、それを捨て札にする代わりに山札の底に置く。'}</v>
-      </c>
-    </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.15">
+        <v>, '12-raira-o-n-2': {megami: 'raira', name: '風雷撃', ruby: 'ふうらいげき', baseType: 'normal', types: ['attack'], range: '2', damage: 'X/2', text: '【常時】Xは風神ゲージと雷神ゲージのうち、小さい方の値である。'}</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A108" s="4" t="s">
-        <v>479</v>
+        <v>415</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>412</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>192</v>
+        <v>7</v>
       </c>
       <c r="H108" s="4" t="s">
         <v>8</v>
       </c>
       <c r="J108" s="4" t="s">
-        <v>175</v>
+        <v>464</v>
       </c>
       <c r="K108" s="13"/>
       <c r="L108" s="2" t="s">
-        <v>461</v>
+        <v>498</v>
       </c>
       <c r="M108" s="13"/>
-      <c r="O108" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="R108" s="5"/>
+      <c r="R108" s="5" t="s">
+        <v>532</v>
+      </c>
       <c r="S108" s="13"/>
       <c r="T108" s="3" t="str">
         <f>", '"&amp;A108&amp;"': {megami: '"&amp;B108&amp;"'"&amp;IF(C108&lt;&gt;"", ", anotherID: '" &amp; C108 &amp; "', replace: '" &amp; D108 &amp; "'", "")&amp;", name: '"&amp;E108&amp;"', ruby: '"&amp;F108&amp;"', baseType: '"&amp;VLOOKUP(G108,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H108,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I108&lt;&gt;"",", '"&amp; VLOOKUP(I108,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J108&lt;&gt;"", ", range: '"&amp;J108&amp;"'", "")&amp;IF(L108&lt;&gt;"", ", damage: '"&amp;L108&amp;"'", "")&amp;IF(N108&lt;&gt;"", ", capacity: '"&amp;N108&amp;"'", "")&amp;IF(O108&lt;&gt;"", ", cost: '"&amp;O108&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R108, CHAR(10), "\n")&amp;"'"&amp;IF(P108="○", ", sealable: true", "")&amp;IF(Q108="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-raira-o-s-3-ex1': {megami: 'raira', name: '風魔旋風', ruby: 'ふうませんぷう', baseType: 'extra', types: ['attack'], range: '1-3', damage: '1/2', cost: '1', text: ''}</v>
-      </c>
-    </row>
-    <row r="109" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+        <v>, '12-raira-o-n-3': {megami: 'raira', name: '流転爪', ruby: 'るてんそう', baseType: 'normal', types: ['attack'], range: '1-2', damage: '2/1', text: '【攻撃後】あなたの捨て札にある《攻撃》カード1枚を選び、山札の一番上に置いてもよい。'}</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A109" s="4" t="s">
-        <v>480</v>
+        <v>416</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>412</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>192</v>
+        <v>7</v>
       </c>
       <c r="H109" s="4" t="s">
         <v>23</v>
       </c>
       <c r="K109" s="13"/>
       <c r="M109" s="13"/>
-      <c r="O109" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="R109" s="5" t="s">
-        <v>551</v>
+      <c r="R109" s="4" t="s">
+        <v>533</v>
       </c>
       <c r="S109" s="13"/>
       <c r="T109" s="3" t="str">
         <f>", '"&amp;A109&amp;"': {megami: '"&amp;B109&amp;"'"&amp;IF(C109&lt;&gt;"", ", anotherID: '" &amp; C109 &amp; "', replace: '" &amp; D109 &amp; "'", "")&amp;", name: '"&amp;E109&amp;"', ruby: '"&amp;F109&amp;"', baseType: '"&amp;VLOOKUP(G109,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H109,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I109&lt;&gt;"",", '"&amp; VLOOKUP(I109,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J109&lt;&gt;"", ", range: '"&amp;J109&amp;"'", "")&amp;IF(L109&lt;&gt;"", ", damage: '"&amp;L109&amp;"'", "")&amp;IF(N109&lt;&gt;"", ", capacity: '"&amp;N109&amp;"'", "")&amp;IF(O109&lt;&gt;"", ", cost: '"&amp;O109&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R109, CHAR(10), "\n")&amp;"'"&amp;IF(P109="○", ", sealable: true", "")&amp;IF(Q109="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-raira-o-s-3-ex2': {megami: 'raira', name: '風魔纏廻', ruby: 'ふうまてんかい', baseType: 'extra', types: ['action'], cost: '1', text: 'あなたの使用済の切札を1枚選び、それを未使用に戻す。 \n【使用済】あなたの切札の消費は1少なくなる(0未満にはならない)。'}</v>
+        <v>, '12-raira-o-n-4': {megami: 'raira', name: '風走り', ruby: 'かぜばしり', baseType: 'normal', types: ['action'], text: '現在の間合が3以上ならば、間合→ダスト：2'}</v>
       </c>
     </row>
     <row r="110" spans="1:20" ht="36" x14ac:dyDescent="0.15">
       <c r="A110" s="4" t="s">
-        <v>481</v>
+        <v>417</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>412</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>192</v>
+        <v>7</v>
       </c>
       <c r="H110" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I110" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="K110" s="13"/>
       <c r="M110" s="13"/>
-      <c r="O110" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q110" s="4" t="s">
-        <v>295</v>
-      </c>
       <c r="R110" s="5" t="s">
-        <v>552</v>
+        <v>534</v>
       </c>
       <c r="S110" s="13"/>
       <c r="T110" s="3" t="str">
         <f>", '"&amp;A110&amp;"': {megami: '"&amp;B110&amp;"'"&amp;IF(C110&lt;&gt;"", ", anotherID: '" &amp; C110 &amp; "', replace: '" &amp; D110 &amp; "'", "")&amp;", name: '"&amp;E110&amp;"', ruby: '"&amp;F110&amp;"', baseType: '"&amp;VLOOKUP(G110,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H110,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I110&lt;&gt;"",", '"&amp; VLOOKUP(I110,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J110&lt;&gt;"", ", range: '"&amp;J110&amp;"'", "")&amp;IF(L110&lt;&gt;"", ", damage: '"&amp;L110&amp;"'", "")&amp;IF(N110&lt;&gt;"", ", capacity: '"&amp;N110&amp;"'", "")&amp;IF(O110&lt;&gt;"", ", cost: '"&amp;O110&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R110, CHAR(10), "\n")&amp;"'"&amp;IF(P110="○", ", sealable: true", "")&amp;IF(Q110="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-raira-o-s-3-ex3': {megami: 'raira', name: '風魔天狗道', ruby: 'ふうまてんぐどう', baseType: 'extra', types: ['action', 'reaction'], cost: '4', text: 'ダスト⇔間合：5 \nあなたはこの効果で本来より少ない個数の桜花結晶を動かしてもよい。その後、このカードを取り除く。', removable: true}</v>
-      </c>
-    </row>
-    <row r="111" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+        <v>, '12-raira-o-n-5': {megami: 'raira', name: '風雷の知恵', ruby: 'ふうらいのちえ', baseType: 'normal', types: ['action'], text: '風神ゲージと雷神ゲージの合計が4以上ならば、あなたの捨て札にある他のメガミのカード1枚を選び、山札の一番上に置いてもよい。 \n風神ゲージか雷神ゲージを1上げる。'}</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" ht="36" x14ac:dyDescent="0.15">
       <c r="A111" s="4" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>435</v>
+        <v>469</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>456</v>
+        <v>490</v>
       </c>
       <c r="G111" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J111" s="4" t="s">
-        <v>436</v>
+        <v>23</v>
+      </c>
+      <c r="I111" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="K111" s="13"/>
-      <c r="L111" s="10" t="s">
-        <v>460</v>
-      </c>
       <c r="M111" s="13"/>
       <c r="R111" s="5" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="S111" s="13"/>
       <c r="T111" s="3" t="str">
         <f>", '"&amp;A111&amp;"': {megami: '"&amp;B111&amp;"'"&amp;IF(C111&lt;&gt;"", ", anotherID: '" &amp; C111 &amp; "', replace: '" &amp; D111 &amp; "'", "")&amp;", name: '"&amp;E111&amp;"', ruby: '"&amp;F111&amp;"', baseType: '"&amp;VLOOKUP(G111,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H111,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I111&lt;&gt;"",", '"&amp; VLOOKUP(I111,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J111&lt;&gt;"", ", range: '"&amp;J111&amp;"'", "")&amp;IF(L111&lt;&gt;"", ", damage: '"&amp;L111&amp;"'", "")&amp;IF(N111&lt;&gt;"", ", capacity: '"&amp;N111&amp;"'", "")&amp;IF(O111&lt;&gt;"", ", cost: '"&amp;O111&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R111, CHAR(10), "\n")&amp;"'"&amp;IF(P111="○", ", sealable: true", "")&amp;IF(Q111="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-utsuro-o-n-1': {megami: 'utsuro', name: '円月', ruby: 'えんげつ', baseType: 'normal', types: ['attack'], range: '6-7', damage: '2/2', text: '【常時】灰塵-ダストが12以上ならば、この《攻撃》のオーラへのダメージは「-」になる。'}</v>
-      </c>
-    </row>
-    <row r="112" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+        <v>, '12-raira-o-n-6': {megami: 'raira', name: '呼び声', ruby: 'よびごえ', baseType: 'normal', types: ['action', 'fullpower'], text: '相手を畏縮させ、以下から1つを選ぶ。\n・風神ゲージと雷神ゲージを1ずつ上げる。\n・手札を全て伏せ札にし、雷神ゲージを2倍にする。'}</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A112" s="4" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>437</v>
+        <v>470</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>457</v>
+        <v>487</v>
       </c>
       <c r="G112" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J112" s="4" t="s">
-        <v>438</v>
+        <v>23</v>
+      </c>
+      <c r="I112" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="K112" s="13"/>
-      <c r="L112" s="10" t="s">
-        <v>461</v>
-      </c>
       <c r="M112" s="13"/>
-      <c r="R112" s="5" t="s">
-        <v>544</v>
+      <c r="R112" s="4" t="s">
+        <v>536</v>
       </c>
       <c r="S112" s="13"/>
       <c r="T112" s="3" t="str">
         <f>", '"&amp;A112&amp;"': {megami: '"&amp;B112&amp;"'"&amp;IF(C112&lt;&gt;"", ", anotherID: '" &amp; C112 &amp; "', replace: '" &amp; D112 &amp; "'", "")&amp;", name: '"&amp;E112&amp;"', ruby: '"&amp;F112&amp;"', baseType: '"&amp;VLOOKUP(G112,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H112,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I112&lt;&gt;"",", '"&amp; VLOOKUP(I112,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J112&lt;&gt;"", ", range: '"&amp;J112&amp;"'", "")&amp;IF(L112&lt;&gt;"", ", damage: '"&amp;L112&amp;"'", "")&amp;IF(N112&lt;&gt;"", ", capacity: '"&amp;N112&amp;"'", "")&amp;IF(O112&lt;&gt;"", ", cost: '"&amp;O112&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R112, CHAR(10), "\n")&amp;"'"&amp;IF(P112="○", ", sealable: true", "")&amp;IF(Q112="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-utsuro-o-n-2': {megami: 'utsuro', name: '黒き波動', ruby: 'くろきはどう', baseType: 'normal', types: ['attack'], range: '4-7', damage: '1/2', text: '【攻撃後】相手が&lt;オーラ&gt;へのダメージを選んだならば、相手の手札を見てその中から1枚を選び、それを捨て札にする。'}</v>
-      </c>
-    </row>
-    <row r="113" spans="1:21" ht="48" x14ac:dyDescent="0.15">
+        <v>, '12-raira-o-n-7': {megami: 'raira', name: '空駆け', ruby: 'そらかけ', baseType: 'normal', types: ['action', 'fullpower'], text: '間合⇔ダスト：3'}</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" ht="36" x14ac:dyDescent="0.15">
       <c r="A113" s="4" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>439</v>
+        <v>471</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>458</v>
+        <v>488</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H113" s="4" t="s">
         <v>8</v>
       </c>
       <c r="J113" s="4" t="s">
-        <v>90</v>
+        <v>464</v>
       </c>
       <c r="K113" s="13"/>
-      <c r="L113" s="10" t="s">
-        <v>462</v>
+      <c r="L113" s="2" t="s">
+        <v>460</v>
       </c>
       <c r="M113" s="13"/>
+      <c r="O113" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="R113" s="5" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="S113" s="13"/>
       <c r="T113" s="3" t="str">
         <f>", '"&amp;A113&amp;"': {megami: '"&amp;B113&amp;"'"&amp;IF(C113&lt;&gt;"", ", anotherID: '" &amp; C113 &amp; "', replace: '" &amp; D113 &amp; "'", "")&amp;", name: '"&amp;E113&amp;"', ruby: '"&amp;F113&amp;"', baseType: '"&amp;VLOOKUP(G113,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H113,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I113&lt;&gt;"",", '"&amp; VLOOKUP(I113,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J113&lt;&gt;"", ", range: '"&amp;J113&amp;"'", "")&amp;IF(L113&lt;&gt;"", ", damage: '"&amp;L113&amp;"'", "")&amp;IF(N113&lt;&gt;"", ", capacity: '"&amp;N113&amp;"'", "")&amp;IF(O113&lt;&gt;"", ", cost: '"&amp;O113&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R113, CHAR(10), "\n")&amp;"'"&amp;IF(P113="○", ", sealable: true", "")&amp;IF(Q113="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-utsuro-o-n-3': {megami: 'utsuro', name: '刈取り', ruby: 'かりとり', baseType: 'normal', types: ['attack'], range: '4', damage: '-/0', text: '【攻撃後】相手は相手の&lt;オーラ&gt;、&lt;フレア&gt;、&lt;ライフ&gt;のいずれかから桜花結晶を合計2つ&lt;ダスト&gt;へ移動させる。 \n【攻撃後】相手の付与札を1枚選んでもよい。そうした場合、その付与札の上から桜花結晶を2つ&lt;ダスト&gt;へ送る。'}</v>
-      </c>
-    </row>
-    <row r="114" spans="1:21" ht="36" x14ac:dyDescent="0.15">
+        <v>, '12-raira-o-s-1': {megami: 'raira', name: '雷螺風神爪', ruby: 'らいらふうじんそう', baseType: 'special', types: ['attack'], range: '1-2', damage: '2/2', cost: '3', text: '【常時】あなたの雷神ゲージが4以上ならば、この《攻撃》は+1/+0となる。 \n----\n【再起】あなたの風神ゲージが4以上である。'}</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A114" s="4" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>440</v>
+        <v>472</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>459</v>
+        <v>485</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H114" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="I114" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="K114" s="13"/>
       <c r="M114" s="13"/>
-      <c r="R114" s="5" t="s">
-        <v>546</v>
+      <c r="O114" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="R114" s="4" t="s">
+        <v>538</v>
       </c>
       <c r="S114" s="13"/>
       <c r="T114" s="3" t="str">
         <f>", '"&amp;A114&amp;"': {megami: '"&amp;B114&amp;"'"&amp;IF(C114&lt;&gt;"", ", anotherID: '" &amp; C114 &amp; "', replace: '" &amp; D114 &amp; "'", "")&amp;", name: '"&amp;E114&amp;"', ruby: '"&amp;F114&amp;"', baseType: '"&amp;VLOOKUP(G114,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H114,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I114&lt;&gt;"",", '"&amp; VLOOKUP(I114,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J114&lt;&gt;"", ", range: '"&amp;J114&amp;"'", "")&amp;IF(L114&lt;&gt;"", ", damage: '"&amp;L114&amp;"'", "")&amp;IF(N114&lt;&gt;"", ", capacity: '"&amp;N114&amp;"'", "")&amp;IF(O114&lt;&gt;"", ", cost: '"&amp;O114&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R114, CHAR(10), "\n")&amp;"'"&amp;IF(P114="○", ", sealable: true", "")&amp;IF(Q114="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-utsuro-o-n-4': {megami: 'utsuro', name: '重圧', ruby: 'じゅうあつ', baseType: 'normal', types: ['action'], text: '相手は相手の&lt;オーラ&gt;、&lt;フレア&gt;、&lt;ライフ&gt;のいずれかから桜花結晶を1つ&lt;ダスト&gt;へ移動させる。 \n灰塵-ダストが12以上ならば、相手を畏縮させる。'}</v>
-      </c>
-    </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.15">
+        <v>, '12-raira-o-s-2': {megami: 'raira', name: '天雷召喚陣', ruby: 'てんらいしょうかんじん', baseType: 'special', types: ['action', 'fullpower'], cost: '6', text: '攻撃『適正距離0-10、1/1』をX回行う。Xは雷神ゲージの半分(切り上げ)に等しい。'}</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" ht="60" x14ac:dyDescent="0.15">
       <c r="A115" s="4" t="s">
-        <v>428</v>
+        <v>478</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>441</v>
+        <v>473</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>455</v>
+        <v>486</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H115" s="4" t="s">
         <v>23</v>
       </c>
       <c r="K115" s="13"/>
       <c r="M115" s="13"/>
-      <c r="R115" s="4" t="s">
-        <v>547</v>
+      <c r="O115" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q115" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="R115" s="5" t="s">
+        <v>540</v>
       </c>
       <c r="S115" s="13"/>
       <c r="T115" s="3" t="str">
         <f>", '"&amp;A115&amp;"': {megami: '"&amp;B115&amp;"'"&amp;IF(C115&lt;&gt;"", ", anotherID: '" &amp; C115 &amp; "', replace: '" &amp; D115 &amp; "'", "")&amp;", name: '"&amp;E115&amp;"', ruby: '"&amp;F115&amp;"', baseType: '"&amp;VLOOKUP(G115,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H115,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I115&lt;&gt;"",", '"&amp; VLOOKUP(I115,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J115&lt;&gt;"", ", range: '"&amp;J115&amp;"'", "")&amp;IF(L115&lt;&gt;"", ", damage: '"&amp;L115&amp;"'", "")&amp;IF(N115&lt;&gt;"", ", capacity: '"&amp;N115&amp;"'", "")&amp;IF(O115&lt;&gt;"", ", cost: '"&amp;O115&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R115, CHAR(10), "\n")&amp;"'"&amp;IF(P115="○", ", sealable: true", "")&amp;IF(Q115="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-utsuro-o-n-5': {megami: 'utsuro', name: '影の翅', ruby: 'かげのはね', baseType: 'normal', types: ['action'], text: 'このターン中、現在の&lt;間合&gt;は2増加し、達人の間合は2大きくなる。'}</v>
-      </c>
-    </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.15">
+        <v>, '12-raira-o-s-3': {megami: 'raira', name: '風魔招来孔', ruby: 'ふうましょうらいこう', baseType: 'special', types: ['action'], cost: '0', text: '現在の風神ゲージに応じて、以下の切札を追加札から未使用で得る(条件を満たしたものは全て得る)。その後、このカードを取り除く。 \n3以上……風魔旋風 \n6以上……風魔纏廻 \n10以上……風魔天狗道', removable: true}</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A116" s="4" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>442</v>
+        <v>474</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>454</v>
+        <v>495</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="I116" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K116" s="13"/>
       <c r="M116" s="13"/>
+      <c r="N116" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="O116" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="R116" s="5" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="S116" s="13"/>
       <c r="T116" s="3" t="str">
         <f>", '"&amp;A116&amp;"': {megami: '"&amp;B116&amp;"'"&amp;IF(C116&lt;&gt;"", ", anotherID: '" &amp; C116 &amp; "', replace: '" &amp; D116 &amp; "'", "")&amp;", name: '"&amp;E116&amp;"', ruby: '"&amp;F116&amp;"', baseType: '"&amp;VLOOKUP(G116,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H116,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I116&lt;&gt;"",", '"&amp; VLOOKUP(I116,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J116&lt;&gt;"", ", range: '"&amp;J116&amp;"'", "")&amp;IF(L116&lt;&gt;"", ", damage: '"&amp;L116&amp;"'", "")&amp;IF(N116&lt;&gt;"", ", capacity: '"&amp;N116&amp;"'", "")&amp;IF(O116&lt;&gt;"", ", cost: '"&amp;O116&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R116, CHAR(10), "\n")&amp;"'"&amp;IF(P116="○", ", sealable: true", "")&amp;IF(Q116="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-utsuro-o-n-6': {megami: 'utsuro', name: '影の壁', ruby: 'かげのかべ', baseType: 'normal', types: ['action', 'reaction'], text: '対応した《攻撃》は+0/-1となる。'}</v>
-      </c>
-    </row>
-    <row r="117" spans="1:21" ht="36" x14ac:dyDescent="0.15">
+        <v>, '12-raira-o-s-4': {megami: 'raira', name: '円環輪廻旋', ruby: 'えんかんりんかいせん', baseType: 'special', types: ['enhance', 'fullpower'], capacity: '5', cost: '3', text: '【展開中】あなたが《付与》でない通常札を使用した場合、それを捨て札にする代わりに山札の底に置く。'}</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A117" s="4" t="s">
-        <v>430</v>
+        <v>479</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>443</v>
+        <v>475</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>453</v>
+        <v>482</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>7</v>
+        <v>192</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I117" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
+      </c>
+      <c r="J117" s="4" t="s">
+        <v>175</v>
       </c>
       <c r="K117" s="13"/>
+      <c r="L117" s="2" t="s">
+        <v>461</v>
+      </c>
       <c r="M117" s="13"/>
-      <c r="N117" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="R117" s="5" t="s">
-        <v>549</v>
-      </c>
+      <c r="O117" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R117" s="5"/>
       <c r="S117" s="13"/>
       <c r="T117" s="3" t="str">
         <f>", '"&amp;A117&amp;"': {megami: '"&amp;B117&amp;"'"&amp;IF(C117&lt;&gt;"", ", anotherID: '" &amp; C117 &amp; "', replace: '" &amp; D117 &amp; "'", "")&amp;", name: '"&amp;E117&amp;"', ruby: '"&amp;F117&amp;"', baseType: '"&amp;VLOOKUP(G117,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H117,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I117&lt;&gt;"",", '"&amp; VLOOKUP(I117,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J117&lt;&gt;"", ", range: '"&amp;J117&amp;"'", "")&amp;IF(L117&lt;&gt;"", ", damage: '"&amp;L117&amp;"'", "")&amp;IF(N117&lt;&gt;"", ", capacity: '"&amp;N117&amp;"'", "")&amp;IF(O117&lt;&gt;"", ", cost: '"&amp;O117&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R117, CHAR(10), "\n")&amp;"'"&amp;IF(P117="○", ", sealable: true", "")&amp;IF(Q117="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-utsuro-o-n-7': {megami: 'utsuro', name: '遺灰呪', ruby: 'いかいじゅ', baseType: 'normal', types: ['enhance', 'fullpower'], capacity: '2', text: '【展開時】相オーラ→ダスト：3 \n【破棄時】灰塵-&lt;ダスト&gt;が12以上ならば以下を行う。 \nダスト→相オーラ：2、相ライフ→ダスト：1'}</v>
-      </c>
-    </row>
-    <row r="118" spans="1:21" ht="36" x14ac:dyDescent="0.15">
+        <v>, '12-raira-o-s-3-ex1': {megami: 'raira', name: '風魔旋風', ruby: 'ふうませんぷう', baseType: 'extra', types: ['attack'], range: '1-3', damage: '1/2', cost: '1', text: ''}</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A118" s="4" t="s">
-        <v>431</v>
+        <v>480</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>444</v>
+        <v>476</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>449</v>
+        <v>483</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>19</v>
+        <v>192</v>
       </c>
       <c r="H118" s="4" t="s">
         <v>23</v>
@@ -6895,177 +6954,486 @@
       <c r="K118" s="13"/>
       <c r="M118" s="13"/>
       <c r="O118" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="Q118" s="4" t="s">
-        <v>295</v>
+        <v>56</v>
       </c>
       <c r="R118" s="5" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="S118" s="13"/>
       <c r="T118" s="3" t="str">
         <f>", '"&amp;A118&amp;"': {megami: '"&amp;B118&amp;"'"&amp;IF(C118&lt;&gt;"", ", anotherID: '" &amp; C118 &amp; "', replace: '" &amp; D118 &amp; "'", "")&amp;", name: '"&amp;E118&amp;"', ruby: '"&amp;F118&amp;"', baseType: '"&amp;VLOOKUP(G118,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H118,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I118&lt;&gt;"",", '"&amp; VLOOKUP(I118,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J118&lt;&gt;"", ", range: '"&amp;J118&amp;"'", "")&amp;IF(L118&lt;&gt;"", ", damage: '"&amp;L118&amp;"'", "")&amp;IF(N118&lt;&gt;"", ", capacity: '"&amp;N118&amp;"'", "")&amp;IF(O118&lt;&gt;"", ", cost: '"&amp;O118&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R118, CHAR(10), "\n")&amp;"'"&amp;IF(P118="○", ", sealable: true", "")&amp;IF(Q118="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-utsuro-o-s-1': {megami: 'utsuro', name: '灰滅', ruby: 'ヴィミラニエ', baseType: 'special', types: ['action'], cost: '24', text: '【常時】このカードの消費はダストの数だけ少なくなる。 \n相ライフ→ダスト：3 \nこのカードを取り除く。', removable: true}</v>
-      </c>
-    </row>
-    <row r="119" spans="1:21" ht="24" x14ac:dyDescent="0.15">
+        <v>, '12-raira-o-s-3-ex2': {megami: 'raira', name: '風魔纏廻', ruby: 'ふうまてんかい', baseType: 'extra', types: ['action'], cost: '1', text: 'あなたの使用済の切札を1枚選び、それを未使用に戻す。 \n【使用済】あなたの切札の消費は1少なくなる(0未満にはならない)。'}</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" ht="36" x14ac:dyDescent="0.15">
       <c r="A119" s="4" t="s">
-        <v>432</v>
+        <v>481</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>446</v>
+        <v>477</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>450</v>
+        <v>484</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>19</v>
+        <v>192</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="I119" s="4" t="s">
         <v>28</v>
       </c>
       <c r="K119" s="13"/>
       <c r="M119" s="13"/>
-      <c r="N119" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="O119" s="4" t="s">
-        <v>108</v>
+        <v>90</v>
+      </c>
+      <c r="Q119" s="4" t="s">
+        <v>295</v>
       </c>
       <c r="R119" s="5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="S119" s="13"/>
       <c r="T119" s="3" t="str">
         <f>", '"&amp;A119&amp;"': {megami: '"&amp;B119&amp;"'"&amp;IF(C119&lt;&gt;"", ", anotherID: '" &amp; C119 &amp; "', replace: '" &amp; D119 &amp; "'", "")&amp;", name: '"&amp;E119&amp;"', ruby: '"&amp;F119&amp;"', baseType: '"&amp;VLOOKUP(G119,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H119,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I119&lt;&gt;"",", '"&amp; VLOOKUP(I119,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J119&lt;&gt;"", ", range: '"&amp;J119&amp;"'", "")&amp;IF(L119&lt;&gt;"", ", damage: '"&amp;L119&amp;"'", "")&amp;IF(N119&lt;&gt;"", ", capacity: '"&amp;N119&amp;"'", "")&amp;IF(O119&lt;&gt;"", ", cost: '"&amp;O119&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R119, CHAR(10), "\n")&amp;"'"&amp;IF(P119="○", ", sealable: true", "")&amp;IF(Q119="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-utsuro-o-s-2': {megami: 'utsuro', name: '虚偽', ruby: 'ローシェ', baseType: 'special', types: ['enhance', 'reaction'], capacity: '3', cost: '3', text: '【展開中】相手の《攻撃》は距離縮小(近1)を得て、【攻撃後】効果が解決されない。 \n【展開中】相手の《付与》カードは納が1減少し、【破棄時】効果が解決されない。'}</v>
-      </c>
-    </row>
-    <row r="120" spans="1:21" ht="60" x14ac:dyDescent="0.15">
+        <v>, '12-raira-o-s-3-ex3': {megami: 'raira', name: '風魔天狗道', ruby: 'ふうまてんぐどう', baseType: 'extra', types: ['action', 'reaction'], cost: '4', text: 'ダスト⇔間合：5 \nあなたはこの効果で本来より少ない個数の桜花結晶を動かしてもよい。その後、このカードを取り除く。', removable: true}</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A120" s="4" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>424</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="J120" s="4" t="s">
+        <v>436</v>
       </c>
       <c r="K120" s="13"/>
+      <c r="L120" s="10" t="s">
+        <v>460</v>
+      </c>
       <c r="M120" s="13"/>
-      <c r="N120" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="O120" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="R120" s="5" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="S120" s="13"/>
       <c r="T120" s="3" t="str">
         <f>", '"&amp;A120&amp;"': {megami: '"&amp;B120&amp;"'"&amp;IF(C120&lt;&gt;"", ", anotherID: '" &amp; C120 &amp; "', replace: '" &amp; D120 &amp; "'", "")&amp;", name: '"&amp;E120&amp;"', ruby: '"&amp;F120&amp;"', baseType: '"&amp;VLOOKUP(G120,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H120,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I120&lt;&gt;"",", '"&amp; VLOOKUP(I120,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J120&lt;&gt;"", ", range: '"&amp;J120&amp;"'", "")&amp;IF(L120&lt;&gt;"", ", damage: '"&amp;L120&amp;"'", "")&amp;IF(N120&lt;&gt;"", ", capacity: '"&amp;N120&amp;"'", "")&amp;IF(O120&lt;&gt;"", ", cost: '"&amp;O120&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R120, CHAR(10), "\n")&amp;"'"&amp;IF(P120="○", ", sealable: true", "")&amp;IF(Q120="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-utsuro-o-s-3': {megami: 'utsuro', name: '終末', ruby: 'カニェッツ', baseType: 'special', types: ['enhance'], capacity: '3', cost: '2', text: '【展開中】あなたに1以上のダメージを与えた《攻撃》の解決後に、このカードの上の桜花結晶を全てをダストに送る。 \n【破棄時】現在のフェイズを終了する。 \n----\n【再起】灰塵-ダストが12以上である。'}</v>
-      </c>
-    </row>
-    <row r="121" spans="1:21" ht="36" x14ac:dyDescent="0.15">
+        <v>, '12-utsuro-o-n-1': {megami: 'utsuro', name: '円月', ruby: 'えんげつ', baseType: 'normal', types: ['attack'], range: '6-7', damage: '2/2', text: '【常時】灰塵-ダストが12以上ならば、この《攻撃》のオーラへのダメージは「-」になる。'}</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A121" s="4" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>424</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>23</v>
+        <v>8</v>
+      </c>
+      <c r="J121" s="4" t="s">
+        <v>438</v>
       </c>
       <c r="K121" s="13"/>
+      <c r="L121" s="10" t="s">
+        <v>461</v>
+      </c>
       <c r="M121" s="13"/>
-      <c r="O121" s="4" t="s">
-        <v>78</v>
-      </c>
       <c r="R121" s="5" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="S121" s="13"/>
       <c r="T121" s="3" t="str">
         <f>", '"&amp;A121&amp;"': {megami: '"&amp;B121&amp;"'"&amp;IF(C121&lt;&gt;"", ", anotherID: '" &amp; C121 &amp; "', replace: '" &amp; D121 &amp; "'", "")&amp;", name: '"&amp;E121&amp;"', ruby: '"&amp;F121&amp;"', baseType: '"&amp;VLOOKUP(G121,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H121,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I121&lt;&gt;"",", '"&amp; VLOOKUP(I121,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J121&lt;&gt;"", ", range: '"&amp;J121&amp;"'", "")&amp;IF(L121&lt;&gt;"", ", damage: '"&amp;L121&amp;"'", "")&amp;IF(N121&lt;&gt;"", ", capacity: '"&amp;N121&amp;"'", "")&amp;IF(O121&lt;&gt;"", ", cost: '"&amp;O121&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R121, CHAR(10), "\n")&amp;"'"&amp;IF(P121="○", ", sealable: true", "")&amp;IF(Q121="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-utsuro-o-n-2': {megami: 'utsuro', name: '黒き波動', ruby: 'くろきはどう', baseType: 'normal', types: ['attack'], range: '4-7', damage: '1/2', text: '【攻撃後】相手が&lt;オーラ&gt;へのダメージを選んだならば、相手の手札を見てその中から1枚を選び、それを捨て札にする。'}</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" ht="48" x14ac:dyDescent="0.15">
+      <c r="A122" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J122" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="K122" s="13"/>
+      <c r="L122" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="M122" s="13"/>
+      <c r="R122" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="S122" s="13"/>
+      <c r="T122" s="3" t="str">
+        <f>", '"&amp;A122&amp;"': {megami: '"&amp;B122&amp;"'"&amp;IF(C122&lt;&gt;"", ", anotherID: '" &amp; C122 &amp; "', replace: '" &amp; D122 &amp; "'", "")&amp;", name: '"&amp;E122&amp;"', ruby: '"&amp;F122&amp;"', baseType: '"&amp;VLOOKUP(G122,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H122,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I122&lt;&gt;"",", '"&amp; VLOOKUP(I122,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J122&lt;&gt;"", ", range: '"&amp;J122&amp;"'", "")&amp;IF(L122&lt;&gt;"", ", damage: '"&amp;L122&amp;"'", "")&amp;IF(N122&lt;&gt;"", ", capacity: '"&amp;N122&amp;"'", "")&amp;IF(O122&lt;&gt;"", ", cost: '"&amp;O122&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R122, CHAR(10), "\n")&amp;"'"&amp;IF(P122="○", ", sealable: true", "")&amp;IF(Q122="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-utsuro-o-n-3': {megami: 'utsuro', name: '刈取り', ruby: 'かりとり', baseType: 'normal', types: ['attack'], range: '4', damage: '-/0', text: '【攻撃後】相手は相手の&lt;オーラ&gt;、&lt;フレア&gt;、&lt;ライフ&gt;のいずれかから桜花結晶を合計2つ&lt;ダスト&gt;へ移動させる。 \n【攻撃後】相手の付与札を1枚選んでもよい。そうした場合、その付与札の上から桜花結晶を2つ&lt;ダスト&gt;へ送る。'}</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+      <c r="A123" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K123" s="13"/>
+      <c r="M123" s="13"/>
+      <c r="R123" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="S123" s="13"/>
+      <c r="T123" s="3" t="str">
+        <f>", '"&amp;A123&amp;"': {megami: '"&amp;B123&amp;"'"&amp;IF(C123&lt;&gt;"", ", anotherID: '" &amp; C123 &amp; "', replace: '" &amp; D123 &amp; "'", "")&amp;", name: '"&amp;E123&amp;"', ruby: '"&amp;F123&amp;"', baseType: '"&amp;VLOOKUP(G123,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H123,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I123&lt;&gt;"",", '"&amp; VLOOKUP(I123,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J123&lt;&gt;"", ", range: '"&amp;J123&amp;"'", "")&amp;IF(L123&lt;&gt;"", ", damage: '"&amp;L123&amp;"'", "")&amp;IF(N123&lt;&gt;"", ", capacity: '"&amp;N123&amp;"'", "")&amp;IF(O123&lt;&gt;"", ", cost: '"&amp;O123&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R123, CHAR(10), "\n")&amp;"'"&amp;IF(P123="○", ", sealable: true", "")&amp;IF(Q123="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-utsuro-o-n-4': {megami: 'utsuro', name: '重圧', ruby: 'じゅうあつ', baseType: 'normal', types: ['action'], text: '相手は相手の&lt;オーラ&gt;、&lt;フレア&gt;、&lt;ライフ&gt;のいずれかから桜花結晶を1つ&lt;ダスト&gt;へ移動させる。 \n灰塵-ダストが12以上ならば、相手を畏縮させる。'}</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A124" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K124" s="13"/>
+      <c r="M124" s="13"/>
+      <c r="R124" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="S124" s="13"/>
+      <c r="T124" s="3" t="str">
+        <f>", '"&amp;A124&amp;"': {megami: '"&amp;B124&amp;"'"&amp;IF(C124&lt;&gt;"", ", anotherID: '" &amp; C124 &amp; "', replace: '" &amp; D124 &amp; "'", "")&amp;", name: '"&amp;E124&amp;"', ruby: '"&amp;F124&amp;"', baseType: '"&amp;VLOOKUP(G124,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H124,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I124&lt;&gt;"",", '"&amp; VLOOKUP(I124,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J124&lt;&gt;"", ", range: '"&amp;J124&amp;"'", "")&amp;IF(L124&lt;&gt;"", ", damage: '"&amp;L124&amp;"'", "")&amp;IF(N124&lt;&gt;"", ", capacity: '"&amp;N124&amp;"'", "")&amp;IF(O124&lt;&gt;"", ", cost: '"&amp;O124&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R124, CHAR(10), "\n")&amp;"'"&amp;IF(P124="○", ", sealable: true", "")&amp;IF(Q124="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-utsuro-o-n-5': {megami: 'utsuro', name: '影の翅', ruby: 'かげのはね', baseType: 'normal', types: ['action'], text: 'このターン中、現在の&lt;間合&gt;は2増加し、達人の間合は2大きくなる。'}</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A125" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I125" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K125" s="13"/>
+      <c r="M125" s="13"/>
+      <c r="R125" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="S125" s="13"/>
+      <c r="T125" s="3" t="str">
+        <f>", '"&amp;A125&amp;"': {megami: '"&amp;B125&amp;"'"&amp;IF(C125&lt;&gt;"", ", anotherID: '" &amp; C125 &amp; "', replace: '" &amp; D125 &amp; "'", "")&amp;", name: '"&amp;E125&amp;"', ruby: '"&amp;F125&amp;"', baseType: '"&amp;VLOOKUP(G125,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H125,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I125&lt;&gt;"",", '"&amp; VLOOKUP(I125,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J125&lt;&gt;"", ", range: '"&amp;J125&amp;"'", "")&amp;IF(L125&lt;&gt;"", ", damage: '"&amp;L125&amp;"'", "")&amp;IF(N125&lt;&gt;"", ", capacity: '"&amp;N125&amp;"'", "")&amp;IF(O125&lt;&gt;"", ", cost: '"&amp;O125&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R125, CHAR(10), "\n")&amp;"'"&amp;IF(P125="○", ", sealable: true", "")&amp;IF(Q125="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-utsuro-o-n-6': {megami: 'utsuro', name: '影の壁', ruby: 'かげのかべ', baseType: 'normal', types: ['action', 'reaction'], text: '対応した《攻撃》は+0/-1となる。'}</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+      <c r="A126" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I126" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K126" s="13"/>
+      <c r="M126" s="13"/>
+      <c r="N126" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R126" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="S126" s="13"/>
+      <c r="T126" s="3" t="str">
+        <f>", '"&amp;A126&amp;"': {megami: '"&amp;B126&amp;"'"&amp;IF(C126&lt;&gt;"", ", anotherID: '" &amp; C126 &amp; "', replace: '" &amp; D126 &amp; "'", "")&amp;", name: '"&amp;E126&amp;"', ruby: '"&amp;F126&amp;"', baseType: '"&amp;VLOOKUP(G126,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H126,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I126&lt;&gt;"",", '"&amp; VLOOKUP(I126,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J126&lt;&gt;"", ", range: '"&amp;J126&amp;"'", "")&amp;IF(L126&lt;&gt;"", ", damage: '"&amp;L126&amp;"'", "")&amp;IF(N126&lt;&gt;"", ", capacity: '"&amp;N126&amp;"'", "")&amp;IF(O126&lt;&gt;"", ", cost: '"&amp;O126&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R126, CHAR(10), "\n")&amp;"'"&amp;IF(P126="○", ", sealable: true", "")&amp;IF(Q126="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-utsuro-o-n-7': {megami: 'utsuro', name: '遺灰呪', ruby: 'いかいじゅ', baseType: 'normal', types: ['enhance', 'fullpower'], capacity: '2', text: '【展開時】相オーラ→ダスト：3 \n【破棄時】灰塵-&lt;ダスト&gt;が12以上ならば以下を行う。 \nダスト→相オーラ：2、相ライフ→ダスト：1'}</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+      <c r="A127" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K127" s="13"/>
+      <c r="M127" s="13"/>
+      <c r="O127" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q127" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="R127" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="S127" s="13"/>
+      <c r="T127" s="3" t="str">
+        <f>", '"&amp;A127&amp;"': {megami: '"&amp;B127&amp;"'"&amp;IF(C127&lt;&gt;"", ", anotherID: '" &amp; C127 &amp; "', replace: '" &amp; D127 &amp; "'", "")&amp;", name: '"&amp;E127&amp;"', ruby: '"&amp;F127&amp;"', baseType: '"&amp;VLOOKUP(G127,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H127,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I127&lt;&gt;"",", '"&amp; VLOOKUP(I127,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J127&lt;&gt;"", ", range: '"&amp;J127&amp;"'", "")&amp;IF(L127&lt;&gt;"", ", damage: '"&amp;L127&amp;"'", "")&amp;IF(N127&lt;&gt;"", ", capacity: '"&amp;N127&amp;"'", "")&amp;IF(O127&lt;&gt;"", ", cost: '"&amp;O127&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R127, CHAR(10), "\n")&amp;"'"&amp;IF(P127="○", ", sealable: true", "")&amp;IF(Q127="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-utsuro-o-s-1': {megami: 'utsuro', name: '灰滅', ruby: 'ヴィミラニエ', baseType: 'special', types: ['action'], cost: '24', text: '【常時】このカードの消費はダストの数だけ少なくなる。 \n相ライフ→ダスト：3 \nこのカードを取り除く。', removable: true}</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+      <c r="A128" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H128" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I128" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K128" s="13"/>
+      <c r="M128" s="13"/>
+      <c r="N128" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="O128" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="R128" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="S128" s="13"/>
+      <c r="T128" s="3" t="str">
+        <f>", '"&amp;A128&amp;"': {megami: '"&amp;B128&amp;"'"&amp;IF(C128&lt;&gt;"", ", anotherID: '" &amp; C128 &amp; "', replace: '" &amp; D128 &amp; "'", "")&amp;", name: '"&amp;E128&amp;"', ruby: '"&amp;F128&amp;"', baseType: '"&amp;VLOOKUP(G128,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H128,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I128&lt;&gt;"",", '"&amp; VLOOKUP(I128,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J128&lt;&gt;"", ", range: '"&amp;J128&amp;"'", "")&amp;IF(L128&lt;&gt;"", ", damage: '"&amp;L128&amp;"'", "")&amp;IF(N128&lt;&gt;"", ", capacity: '"&amp;N128&amp;"'", "")&amp;IF(O128&lt;&gt;"", ", cost: '"&amp;O128&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R128, CHAR(10), "\n")&amp;"'"&amp;IF(P128="○", ", sealable: true", "")&amp;IF(Q128="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-utsuro-o-s-2': {megami: 'utsuro', name: '虚偽', ruby: 'ローシェ', baseType: 'special', types: ['enhance', 'reaction'], capacity: '3', cost: '3', text: '【展開中】相手の《攻撃》は距離縮小(近1)を得て、【攻撃後】効果が解決されない。 \n【展開中】相手の《付与》カードは納が1減少し、【破棄時】効果が解決されない。'}</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21" ht="60" x14ac:dyDescent="0.15">
+      <c r="A129" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H129" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K129" s="13"/>
+      <c r="M129" s="13"/>
+      <c r="N129" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="O129" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R129" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="S129" s="13"/>
+      <c r="T129" s="3" t="str">
+        <f>", '"&amp;A129&amp;"': {megami: '"&amp;B129&amp;"'"&amp;IF(C129&lt;&gt;"", ", anotherID: '" &amp; C129 &amp; "', replace: '" &amp; D129 &amp; "'", "")&amp;", name: '"&amp;E129&amp;"', ruby: '"&amp;F129&amp;"', baseType: '"&amp;VLOOKUP(G129,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H129,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I129&lt;&gt;"",", '"&amp; VLOOKUP(I129,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J129&lt;&gt;"", ", range: '"&amp;J129&amp;"'", "")&amp;IF(L129&lt;&gt;"", ", damage: '"&amp;L129&amp;"'", "")&amp;IF(N129&lt;&gt;"", ", capacity: '"&amp;N129&amp;"'", "")&amp;IF(O129&lt;&gt;"", ", cost: '"&amp;O129&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R129, CHAR(10), "\n")&amp;"'"&amp;IF(P129="○", ", sealable: true", "")&amp;IF(Q129="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-utsuro-o-s-3': {megami: 'utsuro', name: '終末', ruby: 'カニェッツ', baseType: 'special', types: ['enhance'], capacity: '3', cost: '2', text: '【展開中】あなたに1以上のダメージを与えた《攻撃》の解決後に、このカードの上の桜花結晶を全てをダストに送る。 \n【破棄時】現在のフェイズを終了する。 \n----\n【再起】灰塵-ダストが12以上である。'}</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21" ht="36" x14ac:dyDescent="0.15">
+      <c r="A130" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K130" s="13"/>
+      <c r="M130" s="13"/>
+      <c r="O130" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="R130" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="S130" s="13"/>
+      <c r="T130" s="3" t="str">
+        <f>", '"&amp;A130&amp;"': {megami: '"&amp;B130&amp;"'"&amp;IF(C130&lt;&gt;"", ", anotherID: '" &amp; C130 &amp; "', replace: '" &amp; D130 &amp; "'", "")&amp;", name: '"&amp;E130&amp;"', ruby: '"&amp;F130&amp;"', baseType: '"&amp;VLOOKUP(G130,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H130,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I130&lt;&gt;"",", '"&amp; VLOOKUP(I130,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J130&lt;&gt;"", ", range: '"&amp;J130&amp;"'", "")&amp;IF(L130&lt;&gt;"", ", damage: '"&amp;L130&amp;"'", "")&amp;IF(N130&lt;&gt;"", ", capacity: '"&amp;N130&amp;"'", "")&amp;IF(O130&lt;&gt;"", ", cost: '"&amp;O130&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R130, CHAR(10), "\n")&amp;"'"&amp;IF(P130="○", ", sealable: true", "")&amp;IF(Q130="○", ", removable: true", "")&amp;"}"</f>
         <v>, '12-utsuro-o-s-4': {megami: 'utsuro', name: '魔食', ruby: 'エロージャ', baseType: 'special', types: ['action'], cost: '5', text: '【使用済】あなたの開始フェイズの開始時に相手は以下のどちらかを選ぶ。\n・相オーラ→ダスト：1\n・相フレア→ダスト：2'}</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="U123" s="1" t="s">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U132" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="U124" s="1" t="s">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U133" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="U125" s="1" t="s">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U134" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="U126" s="1" t="s">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U135" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="129" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E129" s="10"/>
-    </row>
-    <row r="130" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E130" s="10"/>
-    </row>
-    <row r="131" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E131" s="10"/>
-    </row>
-    <row r="132" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E132" s="10"/>
-    </row>
-    <row r="133" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E133" s="10"/>
-    </row>
-    <row r="134" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E134" s="10"/>
-    </row>
-    <row r="135" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E135" s="10"/>
-    </row>
-    <row r="136" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E136" s="10"/>
-    </row>
-    <row r="137" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E137" s="10"/>
-    </row>
-    <row r="138" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.15">
       <c r="E138" s="10"/>
+    </row>
+    <row r="139" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="E139" s="10"/>
+    </row>
+    <row r="140" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="E140" s="10"/>
+    </row>
+    <row r="141" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="E141" s="10"/>
+    </row>
+    <row r="142" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="E142" s="10"/>
+    </row>
+    <row r="143" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="E143" s="10"/>
+    </row>
+    <row r="144" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="E144" s="10"/>
+    </row>
+    <row r="145" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E145" s="10"/>
+    </row>
+    <row r="146" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E146" s="10"/>
+    </row>
+    <row r="147" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E147" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/sheet/cards.xlsx
+++ b/sheet/cards.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="657">
   <si>
     <t>カードID</t>
     <phoneticPr fontId="1"/>
@@ -2447,31 +2447,212 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>１</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【攻撃後】対応した《攻撃》は-3/+0となる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01-yurina-A1-n-6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01-yurina-A1-s-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01-yurina-o-n-6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01-yurina-o-s-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>himika</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>氷の音</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>伴奏</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二重奏:弾奏氷瞑</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>にじゅうそう:だんそうひょうめい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひのね</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ばんそう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在のフェイズを終了する。 
+【使用済】あなたの他のメガミによる《攻撃》は+0/+1となる。 
+----
+【即再起】あなたが再構成以外でライフに1以上のダメージを受ける。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>02-saine-A1-s-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>02-saine-A1-n-6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>02-saine-A1-n-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>02-saine-o-n-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>02-saine-o-n-6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>02-saine-o-s-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>03-himika-A1-n-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>03-himika-A1-n-5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>03-himika-o-n-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>03-himika-o-n-5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>火炎流</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>殺意</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>炎天・紅緋弥香</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かえんりゅう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さつい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>えんてん・くれないひみか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全力</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行動</t>
+    <rPh sb="0" eb="2">
+      <t>コウドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0-6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2/1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X/X</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対応不可 
+【常時】Xは7から現在の間合を引いた値に等しい。 
+【攻撃後】あなたは敗北する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【常時】連火-このカードがこのターンに使用した3枚目以降のカードならば、この《攻撃》は+0/+1となる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>03-himika-A1-s-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>03-himika-o-s-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>【破棄時】攻撃『適正距離0-4、1/-、対応不可、【攻撃後】相手を畏縮させる』を行う。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>１</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【攻撃後】対応した《攻撃》は-3/+0となる。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>01-yurina-A1-n-6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>01-yurina-A1-s-2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>01-yurina-o-n-6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>01-yurina-o-s-2</t>
+    <t>【展開中】あなたの他のメガミの切札が1枚以上使用済ならば、各ターンの最初の相手の《攻撃》は-1/+0となる。 
+【展開中】あなたのサイネの切札が1枚以上使用済ならば、各ターンにあなたが最初に使用する切札の消費は1少なくなる(0未満にはならない)。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相オーラ→ダスト：1 
+このカードを対応で使用したならば、さらに
+相オーラ→ダスト：1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あなたの手札が0枚ならば、相オーラ→ダスト：2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2924,9 +3105,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -3050,7 +3231,7 @@
     </row>
     <row r="3" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>588</v>
@@ -3059,7 +3240,7 @@
         <v>567</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>599</v>
@@ -3079,10 +3260,10 @@
       <c r="K3" s="13"/>
       <c r="M3" s="13"/>
       <c r="N3" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>609</v>
+        <v>653</v>
       </c>
       <c r="S3" s="13"/>
       <c r="T3" s="3" t="str">
@@ -3092,7 +3273,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>588</v>
@@ -3101,7 +3282,7 @@
         <v>567</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>601</v>
@@ -3130,7 +3311,7 @@
         <v>608</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="S4" s="13"/>
       <c r="T4" s="3" t="str">
@@ -3138,118 +3319,247 @@
         <v>, '01-yurina-A1-s-2': {megami: 'yurina', anotherID: 'A1', replace: '01-yurina-o-s-2', name: '不完全浦波嵐', ruby: 'ふかんぜんうらなみあらし', baseType: 'special', types: ['attack', 'reaction'], range: '0-10', damage: '3/-', cost: '5', text: '【攻撃後】対応した《攻撃》は-3/+0となる。'}</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>627</v>
+      </c>
       <c r="B5" s="4" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>567</v>
       </c>
+      <c r="D5" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="G5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="H5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="K5" s="13"/>
       <c r="M5" s="13"/>
-      <c r="R5" s="5"/>
+      <c r="R5" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="S5" s="13"/>
-      <c r="T5" s="3" t="e">
+      <c r="T5" s="3" t="str">
         <f>", '"&amp;A5&amp;"': {megami: '"&amp;B5&amp;"'"&amp;IF(C5&lt;&gt;"", ", anotherID: '" &amp; C5 &amp; "', replace: '" &amp; D5 &amp; "'", "")&amp;", name: '"&amp;E5&amp;"', ruby: '"&amp;F5&amp;"', baseType: '"&amp;VLOOKUP(G5,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H5,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I5&lt;&gt;"",", '"&amp; VLOOKUP(I5,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J5&lt;&gt;"", ", range: '"&amp;J5&amp;"'", "")&amp;IF(L5&lt;&gt;"", ", damage: '"&amp;L5&amp;"'", "")&amp;IF(N5&lt;&gt;"", ", capacity: '"&amp;N5&amp;"'", "")&amp;IF(O5&lt;&gt;"", ", cost: '"&amp;O5&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R5, CHAR(10), "\n")&amp;"'"&amp;IF(P5="○", ", sealable: true", "")&amp;IF(Q5="○", ", removable: true", "")&amp;"}"</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+        <v>, '02-saine-A1-n-3': {megami: 'saine', anotherID: 'A1', replace: '02-saine-o-n-3', name: '氷の音', ruby: 'ひのね', baseType: 'normal', types: ['action', 'reaction'], text: '相オーラ→ダスト：1 \nこのカードを対応で使用したならば、さらに\n相オーラ→ダスト：1'}</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="48" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>626</v>
+      </c>
       <c r="B6" s="4" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>567</v>
       </c>
+      <c r="D6" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>621</v>
+      </c>
       <c r="G6" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="H6" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="K6" s="13"/>
       <c r="M6" s="13"/>
-      <c r="R6" s="5"/>
+      <c r="N6" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="S6" s="13"/>
-      <c r="T6" s="3" t="e">
+      <c r="T6" s="3" t="str">
         <f>", '"&amp;A6&amp;"': {megami: '"&amp;B6&amp;"'"&amp;IF(C6&lt;&gt;"", ", anotherID: '" &amp; C6 &amp; "', replace: '" &amp; D6 &amp; "'", "")&amp;", name: '"&amp;E6&amp;"', ruby: '"&amp;F6&amp;"', baseType: '"&amp;VLOOKUP(G6,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H6,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I6&lt;&gt;"",", '"&amp; VLOOKUP(I6,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J6&lt;&gt;"", ", range: '"&amp;J6&amp;"'", "")&amp;IF(L6&lt;&gt;"", ", damage: '"&amp;L6&amp;"'", "")&amp;IF(N6&lt;&gt;"", ", capacity: '"&amp;N6&amp;"'", "")&amp;IF(O6&lt;&gt;"", ", cost: '"&amp;O6&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R6, CHAR(10), "\n")&amp;"'"&amp;IF(P6="○", ", sealable: true", "")&amp;IF(Q6="○", ", removable: true", "")&amp;"}"</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
+        <v>, '02-saine-A1-n-6': {megami: 'saine', anotherID: 'A1', replace: '02-saine-o-n-6', name: '伴奏', ruby: 'ばんそう', baseType: 'normal', types: ['enhance'], capacity: '4', text: '【展開中】あなたの他のメガミの切札が1枚以上使用済ならば、各ターンの最初の相手の《攻撃》は-1/+0となる。 \n【展開中】あなたのサイネの切札が1枚以上使用済ならば、各ターンにあなたが最初に使用する切札の消費は1少なくなる(0未満にはならない)。'}</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="48" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>625</v>
+      </c>
       <c r="B7" s="4" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>567</v>
       </c>
+      <c r="D7" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>619</v>
+      </c>
       <c r="G7" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="H7" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="K7" s="13"/>
       <c r="M7" s="13"/>
-      <c r="R7" s="5"/>
+      <c r="O7" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>624</v>
+      </c>
       <c r="S7" s="13"/>
-      <c r="T7" s="3" t="e">
+      <c r="T7" s="3" t="str">
         <f>", '"&amp;A7&amp;"': {megami: '"&amp;B7&amp;"'"&amp;IF(C7&lt;&gt;"", ", anotherID: '" &amp; C7 &amp; "', replace: '" &amp; D7 &amp; "'", "")&amp;", name: '"&amp;E7&amp;"', ruby: '"&amp;F7&amp;"', baseType: '"&amp;VLOOKUP(G7,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H7,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I7&lt;&gt;"",", '"&amp; VLOOKUP(I7,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J7&lt;&gt;"", ", range: '"&amp;J7&amp;"'", "")&amp;IF(L7&lt;&gt;"", ", damage: '"&amp;L7&amp;"'", "")&amp;IF(N7&lt;&gt;"", ", capacity: '"&amp;N7&amp;"'", "")&amp;IF(O7&lt;&gt;"", ", cost: '"&amp;O7&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R7, CHAR(10), "\n")&amp;"'"&amp;IF(P7="○", ", sealable: true", "")&amp;IF(Q7="○", ", removable: true", "")&amp;"}"</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
+        <v>, '02-saine-A1-s-2': {megami: 'saine', anotherID: 'A1', replace: '02-saine-o-s-2', name: '二重奏:弾奏氷瞑', ruby: 'にじゅうそう:だんそうひょうめい', baseType: 'special', types: ['action'], cost: '2', text: '現在のフェイズを終了する。 \n【使用済】あなたの他のメガミによる《攻撃》は+0/+1となる。 \n----\n【即再起】あなたが再構成以外でライフに1以上のダメージを受ける。'}</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
+        <v>631</v>
+      </c>
       <c r="B8" s="4" t="s">
-        <v>590</v>
+        <v>615</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>567</v>
       </c>
+      <c r="D8" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>638</v>
+      </c>
       <c r="G8" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="H8" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>644</v>
+      </c>
       <c r="K8" s="13"/>
+      <c r="L8" s="2" t="s">
+        <v>646</v>
+      </c>
       <c r="M8" s="13"/>
-      <c r="R8" s="5"/>
+      <c r="R8" s="5" t="s">
+        <v>650</v>
+      </c>
       <c r="S8" s="13"/>
-      <c r="T8" s="3" t="e">
+      <c r="T8" s="3" t="str">
         <f>", '"&amp;A8&amp;"': {megami: '"&amp;B8&amp;"'"&amp;IF(C8&lt;&gt;"", ", anotherID: '" &amp; C8 &amp; "', replace: '" &amp; D8 &amp; "'", "")&amp;", name: '"&amp;E8&amp;"', ruby: '"&amp;F8&amp;"', baseType: '"&amp;VLOOKUP(G8,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H8,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I8&lt;&gt;"",", '"&amp; VLOOKUP(I8,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J8&lt;&gt;"", ", range: '"&amp;J8&amp;"'", "")&amp;IF(L8&lt;&gt;"", ", damage: '"&amp;L8&amp;"'", "")&amp;IF(N8&lt;&gt;"", ", capacity: '"&amp;N8&amp;"'", "")&amp;IF(O8&lt;&gt;"", ", cost: '"&amp;O8&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R8, CHAR(10), "\n")&amp;"'"&amp;IF(P8="○", ", sealable: true", "")&amp;IF(Q8="○", ", removable: true", "")&amp;"}"</f>
-        <v>#N/A</v>
+        <v>, '03-himika-A1-n-2': {megami: 'himika', anotherID: 'A1', replace: '03-himika-o-n-2', name: '火炎流', ruby: 'かえんりゅう', baseType: 'normal', types: ['attack'], range: '1-3', damage: '2/1', text: '【常時】連火-このカードがこのターンに使用した3枚目以降のカードならば、この《攻撃》は+0/+1となる。'}</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
+        <v>632</v>
+      </c>
       <c r="B9" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>567</v>
       </c>
+      <c r="D9" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>639</v>
+      </c>
       <c r="G9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="H9" s="4" t="s">
+        <v>643</v>
+      </c>
       <c r="K9" s="13"/>
       <c r="M9" s="13"/>
-      <c r="R9" s="5"/>
+      <c r="R9" s="5" t="s">
+        <v>656</v>
+      </c>
       <c r="S9" s="13"/>
-      <c r="T9" s="3" t="e">
+      <c r="T9" s="3" t="str">
         <f>", '"&amp;A9&amp;"': {megami: '"&amp;B9&amp;"'"&amp;IF(C9&lt;&gt;"", ", anotherID: '" &amp; C9 &amp; "', replace: '" &amp; D9 &amp; "'", "")&amp;", name: '"&amp;E9&amp;"', ruby: '"&amp;F9&amp;"', baseType: '"&amp;VLOOKUP(G9,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H9,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I9&lt;&gt;"",", '"&amp; VLOOKUP(I9,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J9&lt;&gt;"", ", range: '"&amp;J9&amp;"'", "")&amp;IF(L9&lt;&gt;"", ", damage: '"&amp;L9&amp;"'", "")&amp;IF(N9&lt;&gt;"", ", capacity: '"&amp;N9&amp;"'", "")&amp;IF(O9&lt;&gt;"", ", cost: '"&amp;O9&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R9, CHAR(10), "\n")&amp;"'"&amp;IF(P9="○", ", sealable: true", "")&amp;IF(Q9="○", ", removable: true", "")&amp;"}"</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
+        <v>, '03-himika-A1-n-5': {megami: 'himika', anotherID: 'A1', replace: '03-himika-o-n-5', name: '殺意', ruby: 'さつい', baseType: 'normal', types: ['action'], text: 'あなたの手札が0枚ならば、相オーラ→ダスト：2'}</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
+        <v>651</v>
+      </c>
       <c r="B10" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>567</v>
       </c>
+      <c r="D10" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>640</v>
+      </c>
       <c r="G10" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="H10" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="K10" s="13"/>
+      <c r="L10" s="2" t="s">
+        <v>647</v>
+      </c>
       <c r="M10" s="13"/>
-      <c r="R10" s="5"/>
+      <c r="O10" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>649</v>
+      </c>
       <c r="S10" s="13"/>
-      <c r="T10" s="3" t="e">
+      <c r="T10" s="3" t="str">
         <f>", '"&amp;A10&amp;"': {megami: '"&amp;B10&amp;"'"&amp;IF(C10&lt;&gt;"", ", anotherID: '" &amp; C10 &amp; "', replace: '" &amp; D10 &amp; "'", "")&amp;", name: '"&amp;E10&amp;"', ruby: '"&amp;F10&amp;"', baseType: '"&amp;VLOOKUP(G10,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H10,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I10&lt;&gt;"",", '"&amp; VLOOKUP(I10,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J10&lt;&gt;"", ", range: '"&amp;J10&amp;"'", "")&amp;IF(L10&lt;&gt;"", ", damage: '"&amp;L10&amp;"'", "")&amp;IF(N10&lt;&gt;"", ", capacity: '"&amp;N10&amp;"'", "")&amp;IF(O10&lt;&gt;"", ", cost: '"&amp;O10&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R10, CHAR(10), "\n")&amp;"'"&amp;IF(P10="○", ", sealable: true", "")&amp;IF(Q10="○", ", removable: true", "")&amp;"}"</f>
-        <v>#N/A</v>
+        <v>, '03-himika-A1-s-2': {megami: 'himika', anotherID: 'A1', replace: '03-himika-o-s-2', name: '炎天・紅緋弥香', ruby: 'えんてん・くれないひみか', baseType: 'special', types: ['attack', 'fullpower'], range: '0-6', damage: 'X/X', cost: '7', text: '対応不可 \n【常時】Xは7から現在の間合を引いた値に等しい。 \n【攻撃後】あなたは敗北する。'}</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.15">

--- a/sheet/cards.xlsx
+++ b/sheet/cards.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="658">
   <si>
     <t>カードID</t>
     <phoneticPr fontId="1"/>
@@ -2653,6 +2653,13 @@
   </si>
   <si>
     <t>あなたの手札が0枚ならば、相オーラ→ダスト：2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対応</t>
+    <rPh sb="0" eb="2">
+      <t>タイオウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3105,9 +3112,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -3659,6 +3666,9 @@
       <c r="H13" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="I13" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="J13" s="4" t="s">
         <v>58</v>
       </c>
@@ -3673,7 +3683,7 @@
       <c r="S13" s="13"/>
       <c r="T13" s="3" t="str">
         <f>", '"&amp;A13&amp;"': {megami: '"&amp;B13&amp;"'"&amp;IF(C13&lt;&gt;"", ", anotherID: '" &amp; C13 &amp; "', replace: '" &amp; D13 &amp; "'", "")&amp;", name: '"&amp;E13&amp;"', ruby: '"&amp;F13&amp;"', baseType: '"&amp;VLOOKUP(G13,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H13,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I13&lt;&gt;"",", '"&amp; VLOOKUP(I13,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J13&lt;&gt;"", ", range: '"&amp;J13&amp;"'", "")&amp;IF(L13&lt;&gt;"", ", damage: '"&amp;L13&amp;"'", "")&amp;IF(N13&lt;&gt;"", ", capacity: '"&amp;N13&amp;"'", "")&amp;IF(O13&lt;&gt;"", ", cost: '"&amp;O13&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R13, CHAR(10), "\n")&amp;"'"&amp;IF(P13="○", ", sealable: true", "")&amp;IF(Q13="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '04-tokoyo-o-n-2': {megami: 'tokoyo', name: '雅打ち', ruby: 'みやびうち', baseType: 'normal', types: ['attack'], range: '2-4', damage: '2/1', text: '【攻撃後】境地-あなたの集中力が2ならば、対応した切札でない《攻撃》を打ち消す。'}</v>
+        <v>, '04-tokoyo-o-n-2': {megami: 'tokoyo', name: '雅打ち', ruby: 'みやびうち', baseType: 'normal', types: ['attack', 'reaction'], range: '2-4', damage: '2/1', text: '【攻撃後】境地-あなたの集中力が2ならば、対応した切札でない《攻撃》を打ち消す。'}</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.15">
@@ -3896,6 +3906,9 @@
       <c r="H20" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="I20" s="4" t="s">
+        <v>657</v>
+      </c>
       <c r="J20" s="4" t="s">
         <v>51</v>
       </c>
@@ -3913,7 +3926,7 @@
       <c r="S20" s="13"/>
       <c r="T20" s="3" t="str">
         <f>", '"&amp;A20&amp;"': {megami: '"&amp;B20&amp;"'"&amp;IF(C20&lt;&gt;"", ", anotherID: '" &amp; C20 &amp; "', replace: '" &amp; D20 &amp; "'", "")&amp;", name: '"&amp;E20&amp;"', ruby: '"&amp;F20&amp;"', baseType: '"&amp;VLOOKUP(G20,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H20,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I20&lt;&gt;"",", '"&amp; VLOOKUP(I20,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J20&lt;&gt;"", ", range: '"&amp;J20&amp;"'", "")&amp;IF(L20&lt;&gt;"", ", damage: '"&amp;L20&amp;"'", "")&amp;IF(N20&lt;&gt;"", ", capacity: '"&amp;N20&amp;"'", "")&amp;IF(O20&lt;&gt;"", ", cost: '"&amp;O20&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R20, CHAR(10), "\n")&amp;"'"&amp;IF(P20="○", ", sealable: true", "")&amp;IF(Q20="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '04-tokoyo-o-s-1': {megami: 'tokoyo', name: '久遠ノ花', ruby: 'くおんのはな', baseType: 'special', types: ['attack'], range: '0-10', damage: '-/1', cost: '5', text: '【攻撃後】対応した《攻撃》を打ち消す。'}</v>
+        <v>, '04-tokoyo-o-s-1': {megami: 'tokoyo', name: '久遠ノ花', ruby: 'くおんのはな', baseType: 'special', types: ['attack', 'reaction'], range: '0-10', damage: '-/1', cost: '5', text: '【攻撃後】対応した《攻撃》を打ち消す。'}</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="24" x14ac:dyDescent="0.15">

--- a/sheet/cards.xlsx
+++ b/sheet/cards.xlsx
@@ -2107,31 +2107,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>【攻撃後】相手が&lt;オーラ&gt;へのダメージを選んだならば、相手の手札を見てその中から1枚を選び、それを捨て札にする。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【攻撃後】相手は相手の&lt;オーラ&gt;、&lt;フレア&gt;、&lt;ライフ&gt;のいずれかから桜花結晶を合計2つ&lt;ダスト&gt;へ移動させる。 
-【攻撃後】相手の付与札を1枚選んでもよい。そうした場合、その付与札の上から桜花結晶を2つ&lt;ダスト&gt;へ送る。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>相手は相手の&lt;オーラ&gt;、&lt;フレア&gt;、&lt;ライフ&gt;のいずれかから桜花結晶を1つ&lt;ダスト&gt;へ移動させる。 
-灰塵-ダストが12以上ならば、相手を畏縮させる。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>このターン中、現在の&lt;間合&gt;は2増加し、達人の間合は2大きくなる。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>対応した《攻撃》は+0/-1となる。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【展開時】相オーラ→ダスト：3 
-【破棄時】灰塵-&lt;ダスト&gt;が12以上ならば以下を行う。 
-ダスト→相オーラ：2、相ライフ→ダスト：1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2660,6 +2636,30 @@
     <rPh sb="0" eb="2">
       <t>タイオウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【攻撃後】相手がオーラへのダメージを選んだならば、相手の手札を見てその中から1枚を選び、それを捨て札にする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このターン中、現在の間合は2増加し、達人の間合は2大きくなる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【展開時】相オーラ→ダスト：3 
+【破棄時】灰塵-ダストが12以上ならば以下を行う。 
+ダスト→相オーラ：2、相ライフ→ダスト：1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相手は相手のオーラ、フレア、ライフのいずれかから桜花結晶を1つダストへ移動させる。 
+灰塵-ダストが12以上ならば、相手を畏縮させる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【攻撃後】相手は相手のオーラ、フレア、ライフのいずれかから桜花結晶を合計2つダストへ移動させる。 
+【攻撃後】相手の付与札を1枚選んでもよい。そうした場合、その付与札の上から桜花結晶を2つダストへ送る。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3112,9 +3112,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T122" sqref="T122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -3143,10 +3143,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>16</v>
@@ -3196,39 +3196,39 @@
     </row>
     <row r="2" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>588</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>567</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>593</v>
-      </c>
       <c r="E2" s="4" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="K2" s="13"/>
       <c r="L2" s="2" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="M2" s="13"/>
       <c r="R2" s="5" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="S2" s="13"/>
       <c r="T2" s="3" t="str">
@@ -3238,39 +3238,39 @@
     </row>
     <row r="3" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="K3" s="13"/>
       <c r="M3" s="13"/>
       <c r="N3" s="4" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="S3" s="13"/>
       <c r="T3" s="3" t="str">
@@ -3280,45 +3280,45 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="K4" s="13"/>
       <c r="L4" s="2" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="M4" s="13"/>
       <c r="O4" s="4" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="S4" s="13"/>
       <c r="T4" s="3" t="str">
@@ -3328,22 +3328,22 @@
     </row>
     <row r="5" spans="1:20" ht="36" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>7</v>
@@ -3357,7 +3357,7 @@
       <c r="K5" s="13"/>
       <c r="M5" s="13"/>
       <c r="R5" s="5" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="S5" s="13"/>
       <c r="T5" s="3" t="str">
@@ -3367,22 +3367,22 @@
     </row>
     <row r="6" spans="1:20" ht="48" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>7</v>
@@ -3393,10 +3393,10 @@
       <c r="K6" s="13"/>
       <c r="M6" s="13"/>
       <c r="N6" s="4" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="S6" s="13"/>
       <c r="T6" s="3" t="str">
@@ -3406,22 +3406,22 @@
     </row>
     <row r="7" spans="1:20" ht="48" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>625</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>590</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>567</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>630</v>
-      </c>
       <c r="E7" s="4" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>19</v>
@@ -3432,10 +3432,10 @@
       <c r="K7" s="13"/>
       <c r="M7" s="13"/>
       <c r="O7" s="4" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="S7" s="13"/>
       <c r="T7" s="3" t="str">
@@ -3445,39 +3445,39 @@
     </row>
     <row r="8" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>633</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>635</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>638</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="K8" s="13"/>
       <c r="L8" s="2" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="M8" s="13"/>
       <c r="R8" s="5" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="S8" s="13"/>
       <c r="T8" s="3" t="str">
@@ -3487,33 +3487,33 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>634</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>636</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>639</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="K9" s="13"/>
       <c r="M9" s="13"/>
       <c r="R9" s="5" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="S9" s="13"/>
       <c r="T9" s="3" t="str">
@@ -3523,45 +3523,45 @@
     </row>
     <row r="10" spans="1:20" ht="36" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="K10" s="13"/>
       <c r="L10" s="2" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="M10" s="13"/>
       <c r="O10" s="4" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="S10" s="13"/>
       <c r="T10" s="3" t="str">
@@ -3607,22 +3607,22 @@
     </row>
     <row r="12" spans="1:20" ht="48" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="E12" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>569</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>574</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>7</v>
@@ -3631,7 +3631,7 @@
         <v>8</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="K12" s="13"/>
       <c r="L12" s="2" t="s">
@@ -3639,7 +3639,7 @@
       </c>
       <c r="M12" s="13"/>
       <c r="R12" s="5" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="S12" s="13"/>
       <c r="T12" s="3" t="str">
@@ -3850,22 +3850,22 @@
     </row>
     <row r="19" spans="1:20" ht="36" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>7</v>
@@ -3876,10 +3876,10 @@
       <c r="K19" s="13"/>
       <c r="M19" s="13"/>
       <c r="N19" s="4" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="S19" s="13"/>
       <c r="T19" s="3" t="str">
@@ -3907,7 +3907,7 @@
         <v>8</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>51</v>
@@ -3970,22 +3970,22 @@
     </row>
     <row r="22" spans="1:20" ht="48" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>75</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>19</v>
@@ -3996,10 +3996,10 @@
       <c r="K22" s="13"/>
       <c r="M22" s="13"/>
       <c r="O22" s="4" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="R22" s="5" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="S22" s="13"/>
       <c r="T22" s="3" t="str">
@@ -4038,7 +4038,7 @@
         <v>56</v>
       </c>
       <c r="R23" s="5" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="S23" s="13"/>
       <c r="T23" s="3" t="str">
@@ -6137,7 +6137,7 @@
       <c r="K84" s="13"/>
       <c r="M84" s="13"/>
       <c r="R84" s="5" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="S84" s="13"/>
       <c r="T84" s="3" t="str">
@@ -6164,7 +6164,7 @@
       <c r="K85" s="13"/>
       <c r="M85" s="13"/>
       <c r="R85" s="5" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="S85" s="13"/>
       <c r="T85" s="3" t="str">
@@ -6224,7 +6224,7 @@
       <c r="K87" s="13"/>
       <c r="M87" s="13"/>
       <c r="R87" s="5" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="S87" s="13"/>
       <c r="T87" s="3" t="str">
@@ -6254,7 +6254,7 @@
       <c r="K88" s="13"/>
       <c r="M88" s="13"/>
       <c r="R88" s="5" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="S88" s="13"/>
       <c r="T88" s="3" t="str">
@@ -6314,7 +6314,7 @@
         <v>221</v>
       </c>
       <c r="R90" s="5" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="S90" s="13"/>
       <c r="T90" s="3" t="str">
@@ -6377,7 +6377,7 @@
         <v>90</v>
       </c>
       <c r="R92" s="5" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="S92" s="13"/>
       <c r="T92" s="3" t="str">
@@ -6426,10 +6426,10 @@
         <v>362</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>19</v>
@@ -6446,7 +6446,7 @@
         <v>295</v>
       </c>
       <c r="R94" s="5" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="S94" s="13"/>
       <c r="T94" s="3" t="str">
@@ -6755,7 +6755,7 @@
         <v>56</v>
       </c>
       <c r="R103" s="5" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="S103" s="13"/>
       <c r="T103" s="3" t="str">
@@ -6808,7 +6808,7 @@
         <v>401</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="F105" s="4" t="s">
         <v>518</v>
@@ -7280,7 +7280,7 @@
         <v>56</v>
       </c>
       <c r="R118" s="5" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="S118" s="13"/>
       <c r="T118" s="3" t="str">
@@ -7319,7 +7319,7 @@
         <v>295</v>
       </c>
       <c r="R119" s="5" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="S119" s="13"/>
       <c r="T119" s="3" t="str">
@@ -7391,12 +7391,12 @@
       </c>
       <c r="M121" s="13"/>
       <c r="R121" s="5" t="s">
-        <v>544</v>
+        <v>653</v>
       </c>
       <c r="S121" s="13"/>
       <c r="T121" s="3" t="str">
         <f>", '"&amp;A121&amp;"': {megami: '"&amp;B121&amp;"'"&amp;IF(C121&lt;&gt;"", ", anotherID: '" &amp; C121 &amp; "', replace: '" &amp; D121 &amp; "'", "")&amp;", name: '"&amp;E121&amp;"', ruby: '"&amp;F121&amp;"', baseType: '"&amp;VLOOKUP(G121,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H121,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I121&lt;&gt;"",", '"&amp; VLOOKUP(I121,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J121&lt;&gt;"", ", range: '"&amp;J121&amp;"'", "")&amp;IF(L121&lt;&gt;"", ", damage: '"&amp;L121&amp;"'", "")&amp;IF(N121&lt;&gt;"", ", capacity: '"&amp;N121&amp;"'", "")&amp;IF(O121&lt;&gt;"", ", cost: '"&amp;O121&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R121, CHAR(10), "\n")&amp;"'"&amp;IF(P121="○", ", sealable: true", "")&amp;IF(Q121="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-utsuro-o-n-2': {megami: 'utsuro', name: '黒き波動', ruby: 'くろきはどう', baseType: 'normal', types: ['attack'], range: '4-7', damage: '1/2', text: '【攻撃後】相手が&lt;オーラ&gt;へのダメージを選んだならば、相手の手札を見てその中から1枚を選び、それを捨て札にする。'}</v>
+        <v>, '12-utsuro-o-n-2': {megami: 'utsuro', name: '黒き波動', ruby: 'くろきはどう', baseType: 'normal', types: ['attack'], range: '4-7', damage: '1/2', text: '【攻撃後】相手がオーラへのダメージを選んだならば、相手の手札を見てその中から1枚を選び、それを捨て札にする。'}</v>
       </c>
     </row>
     <row r="122" spans="1:20" ht="48" x14ac:dyDescent="0.15">
@@ -7427,12 +7427,12 @@
       </c>
       <c r="M122" s="13"/>
       <c r="R122" s="5" t="s">
-        <v>545</v>
+        <v>657</v>
       </c>
       <c r="S122" s="13"/>
       <c r="T122" s="3" t="str">
         <f>", '"&amp;A122&amp;"': {megami: '"&amp;B122&amp;"'"&amp;IF(C122&lt;&gt;"", ", anotherID: '" &amp; C122 &amp; "', replace: '" &amp; D122 &amp; "'", "")&amp;", name: '"&amp;E122&amp;"', ruby: '"&amp;F122&amp;"', baseType: '"&amp;VLOOKUP(G122,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H122,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I122&lt;&gt;"",", '"&amp; VLOOKUP(I122,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J122&lt;&gt;"", ", range: '"&amp;J122&amp;"'", "")&amp;IF(L122&lt;&gt;"", ", damage: '"&amp;L122&amp;"'", "")&amp;IF(N122&lt;&gt;"", ", capacity: '"&amp;N122&amp;"'", "")&amp;IF(O122&lt;&gt;"", ", cost: '"&amp;O122&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R122, CHAR(10), "\n")&amp;"'"&amp;IF(P122="○", ", sealable: true", "")&amp;IF(Q122="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-utsuro-o-n-3': {megami: 'utsuro', name: '刈取り', ruby: 'かりとり', baseType: 'normal', types: ['attack'], range: '4', damage: '-/0', text: '【攻撃後】相手は相手の&lt;オーラ&gt;、&lt;フレア&gt;、&lt;ライフ&gt;のいずれかから桜花結晶を合計2つ&lt;ダスト&gt;へ移動させる。 \n【攻撃後】相手の付与札を1枚選んでもよい。そうした場合、その付与札の上から桜花結晶を2つ&lt;ダスト&gt;へ送る。'}</v>
+        <v>, '12-utsuro-o-n-3': {megami: 'utsuro', name: '刈取り', ruby: 'かりとり', baseType: 'normal', types: ['attack'], range: '4', damage: '-/0', text: '【攻撃後】相手は相手のオーラ、フレア、ライフのいずれかから桜花結晶を合計2つダストへ移動させる。 \n【攻撃後】相手の付与札を1枚選んでもよい。そうした場合、その付与札の上から桜花結晶を2つダストへ送る。'}</v>
       </c>
     </row>
     <row r="123" spans="1:20" ht="36" x14ac:dyDescent="0.15">
@@ -7457,12 +7457,12 @@
       <c r="K123" s="13"/>
       <c r="M123" s="13"/>
       <c r="R123" s="5" t="s">
-        <v>546</v>
+        <v>656</v>
       </c>
       <c r="S123" s="13"/>
       <c r="T123" s="3" t="str">
         <f>", '"&amp;A123&amp;"': {megami: '"&amp;B123&amp;"'"&amp;IF(C123&lt;&gt;"", ", anotherID: '" &amp; C123 &amp; "', replace: '" &amp; D123 &amp; "'", "")&amp;", name: '"&amp;E123&amp;"', ruby: '"&amp;F123&amp;"', baseType: '"&amp;VLOOKUP(G123,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H123,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I123&lt;&gt;"",", '"&amp; VLOOKUP(I123,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J123&lt;&gt;"", ", range: '"&amp;J123&amp;"'", "")&amp;IF(L123&lt;&gt;"", ", damage: '"&amp;L123&amp;"'", "")&amp;IF(N123&lt;&gt;"", ", capacity: '"&amp;N123&amp;"'", "")&amp;IF(O123&lt;&gt;"", ", cost: '"&amp;O123&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R123, CHAR(10), "\n")&amp;"'"&amp;IF(P123="○", ", sealable: true", "")&amp;IF(Q123="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-utsuro-o-n-4': {megami: 'utsuro', name: '重圧', ruby: 'じゅうあつ', baseType: 'normal', types: ['action'], text: '相手は相手の&lt;オーラ&gt;、&lt;フレア&gt;、&lt;ライフ&gt;のいずれかから桜花結晶を1つ&lt;ダスト&gt;へ移動させる。 \n灰塵-ダストが12以上ならば、相手を畏縮させる。'}</v>
+        <v>, '12-utsuro-o-n-4': {megami: 'utsuro', name: '重圧', ruby: 'じゅうあつ', baseType: 'normal', types: ['action'], text: '相手は相手のオーラ、フレア、ライフのいずれかから桜花結晶を1つダストへ移動させる。 \n灰塵-ダストが12以上ならば、相手を畏縮させる。'}</v>
       </c>
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.15">
@@ -7487,12 +7487,12 @@
       <c r="K124" s="13"/>
       <c r="M124" s="13"/>
       <c r="R124" s="4" t="s">
-        <v>547</v>
+        <v>654</v>
       </c>
       <c r="S124" s="13"/>
       <c r="T124" s="3" t="str">
         <f>", '"&amp;A124&amp;"': {megami: '"&amp;B124&amp;"'"&amp;IF(C124&lt;&gt;"", ", anotherID: '" &amp; C124 &amp; "', replace: '" &amp; D124 &amp; "'", "")&amp;", name: '"&amp;E124&amp;"', ruby: '"&amp;F124&amp;"', baseType: '"&amp;VLOOKUP(G124,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H124,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I124&lt;&gt;"",", '"&amp; VLOOKUP(I124,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J124&lt;&gt;"", ", range: '"&amp;J124&amp;"'", "")&amp;IF(L124&lt;&gt;"", ", damage: '"&amp;L124&amp;"'", "")&amp;IF(N124&lt;&gt;"", ", capacity: '"&amp;N124&amp;"'", "")&amp;IF(O124&lt;&gt;"", ", cost: '"&amp;O124&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R124, CHAR(10), "\n")&amp;"'"&amp;IF(P124="○", ", sealable: true", "")&amp;IF(Q124="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-utsuro-o-n-5': {megami: 'utsuro', name: '影の翅', ruby: 'かげのはね', baseType: 'normal', types: ['action'], text: 'このターン中、現在の&lt;間合&gt;は2増加し、達人の間合は2大きくなる。'}</v>
+        <v>, '12-utsuro-o-n-5': {megami: 'utsuro', name: '影の翅', ruby: 'かげのはね', baseType: 'normal', types: ['action'], text: 'このターン中、現在の間合は2増加し、達人の間合は2大きくなる。'}</v>
       </c>
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.15">
@@ -7520,7 +7520,7 @@
       <c r="K125" s="13"/>
       <c r="M125" s="13"/>
       <c r="R125" s="5" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="S125" s="13"/>
       <c r="T125" s="3" t="str">
@@ -7556,12 +7556,12 @@
         <v>55</v>
       </c>
       <c r="R126" s="5" t="s">
-        <v>549</v>
+        <v>655</v>
       </c>
       <c r="S126" s="13"/>
       <c r="T126" s="3" t="str">
         <f>", '"&amp;A126&amp;"': {megami: '"&amp;B126&amp;"'"&amp;IF(C126&lt;&gt;"", ", anotherID: '" &amp; C126 &amp; "', replace: '" &amp; D126 &amp; "'", "")&amp;", name: '"&amp;E126&amp;"', ruby: '"&amp;F126&amp;"', baseType: '"&amp;VLOOKUP(G126,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H126,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I126&lt;&gt;"",", '"&amp; VLOOKUP(I126,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J126&lt;&gt;"", ", range: '"&amp;J126&amp;"'", "")&amp;IF(L126&lt;&gt;"", ", damage: '"&amp;L126&amp;"'", "")&amp;IF(N126&lt;&gt;"", ", capacity: '"&amp;N126&amp;"'", "")&amp;IF(O126&lt;&gt;"", ", cost: '"&amp;O126&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R126, CHAR(10), "\n")&amp;"'"&amp;IF(P126="○", ", sealable: true", "")&amp;IF(Q126="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-utsuro-o-n-7': {megami: 'utsuro', name: '遺灰呪', ruby: 'いかいじゅ', baseType: 'normal', types: ['enhance', 'fullpower'], capacity: '2', text: '【展開時】相オーラ→ダスト：3 \n【破棄時】灰塵-&lt;ダスト&gt;が12以上ならば以下を行う。 \nダスト→相オーラ：2、相ライフ→ダスト：1'}</v>
+        <v>, '12-utsuro-o-n-7': {megami: 'utsuro', name: '遺灰呪', ruby: 'いかいじゅ', baseType: 'normal', types: ['enhance', 'fullpower'], capacity: '2', text: '【展開時】相オーラ→ダスト：3 \n【破棄時】灰塵-ダストが12以上ならば以下を行う。 \nダスト→相オーラ：2、相ライフ→ダスト：1'}</v>
       </c>
     </row>
     <row r="127" spans="1:20" ht="36" x14ac:dyDescent="0.15">
@@ -7592,7 +7592,7 @@
         <v>295</v>
       </c>
       <c r="R127" s="5" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="S127" s="13"/>
       <c r="T127" s="3" t="str">
@@ -7631,7 +7631,7 @@
         <v>108</v>
       </c>
       <c r="R128" s="5" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="S128" s="13"/>
       <c r="T128" s="3" t="str">
@@ -7667,7 +7667,7 @@
         <v>55</v>
       </c>
       <c r="R129" s="5" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="S129" s="13"/>
       <c r="T129" s="3" t="str">
@@ -7700,7 +7700,7 @@
         <v>78</v>
       </c>
       <c r="R130" s="5" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="S130" s="13"/>
       <c r="T130" s="3" t="str">

--- a/sheet/cards.xlsx
+++ b/sheet/cards.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="814">
   <si>
     <t>カードID</t>
     <phoneticPr fontId="1"/>
@@ -2287,13 +2287,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>対応不可 
-【攻撃後】相手は手札から《攻撃》でないカード1枚を捨て札にする。それが行えない場合、相手は手札を公開する。 
-----
-【再起】境地-あなたの集中力が2である。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>【使用済】あなたの開始フェイズの開始時に捨て札または伏せ札からカード1枚を選び、それを山札の底に置いてもよい。 
 ----
 【即再起】あなたが再構成以外でライフに1以上のダメージを受ける。</t>
@@ -2483,13 +2476,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>現在のフェイズを終了する。 
-【使用済】あなたの他のメガミによる《攻撃》は+0/+1となる。 
-----
-【即再起】あなたが再構成以外でライフに1以上のダメージを受ける。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>02-saine-A1-s-2</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2601,10 +2587,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>【常時】連火-このカードがこのターンに使用した3枚目以降のカードならば、この《攻撃》は+0/+1となる。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>03-himika-A1-s-2</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2614,21 +2596,6 @@
   </si>
   <si>
     <t>【破棄時】攻撃『適正距離0-4、1/-、対応不可、【攻撃後】相手を畏縮させる』を行う。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【展開中】あなたの他のメガミの切札が1枚以上使用済ならば、各ターンの最初の相手の《攻撃》は-1/+0となる。 
-【展開中】あなたのサイネの切札が1枚以上使用済ならば、各ターンにあなたが最初に使用する切札の消費は1少なくなる(0未満にはならない)。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>相オーラ→ダスト：1 
-このカードを対応で使用したならば、さらに
-相オーラ→ダスト：1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>あなたの手札が0枚ならば、相オーラ→ダスト：2</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2660,6 +2627,666 @@
   <si>
     <t>【攻撃後】相手は相手のオーラ、フレア、ライフのいずれかから桜花結晶を合計2つダストへ移動させる。 
 【攻撃後】相手の付与札を1枚選んでもよい。そうした場合、その付与札の上から桜花結晶を2つダストへ送る。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01-yurina-o-n-2</t>
+  </si>
+  <si>
+    <t>01-yurina-o-n-3</t>
+  </si>
+  <si>
+    <t>01-yurina-o-n-4</t>
+  </si>
+  <si>
+    <t>01-yurina-o-n-5</t>
+  </si>
+  <si>
+    <t>01-yurina-o-n-6</t>
+  </si>
+  <si>
+    <t>01-yurina-o-n-7</t>
+  </si>
+  <si>
+    <t>01-yurina-o-s-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01-yurina-o-s-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>斬</t>
+    <rPh sb="0" eb="1">
+      <t>ザン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ざん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01-yurina-o-s-4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一閃</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>柄打ち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>居合</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>足捌き</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>圧気</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>気炎万丈</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月影落</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>浦波嵐</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>浮舟宿</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天音揺波の底力</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いっせん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>つかうち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いあい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あしさばき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あっき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きえんばんじょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>つきかげおとし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うらなみあらし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うきふねやどし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あまねゆりなのそこぢから</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全力</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対応</t>
+    <rPh sb="0" eb="2">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2/2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2/1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4/3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4/4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2/-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5/5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【常時】決死-あなたのライフが3以下ならば、この《攻撃》は+1/+0となる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【攻撃後】決死-あなたのライフが3以下ならば、このターンにあなたが次に行う《攻撃》は+1/+0となる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【常時】現在の間合が2以下ならば、この攻撃は-1/-1となる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在の間合が4以上ならば、間合→ダスト：2
+現在の間合が1以下ならば、ダスト→間合：2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>隙
+【破棄時】攻撃『適正距離1-4、3/-』を行う。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【展開中】決死-あなたのライフが3以下ならば、あなたの他のメガミによる《攻撃》は+1/+1となるとともに超克を得る。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【攻撃後】対応した《攻撃》は-2/+0となる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダスト→自オーラ：5 
+----
+【即再起】決死-あなたのライフが3以下である。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【常時】決死-あなたのライフが3以下でないと、このカードは使用できない。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>02-saine-o-n-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>03-himika-o-n-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>02-saine-o-n-2</t>
+  </si>
+  <si>
+    <t>02-saine-o-n-3</t>
+  </si>
+  <si>
+    <t>02-saine-o-n-4</t>
+  </si>
+  <si>
+    <t>02-saine-o-n-5</t>
+  </si>
+  <si>
+    <t>02-saine-o-n-6</t>
+  </si>
+  <si>
+    <t>02-saine-o-n-7</t>
+  </si>
+  <si>
+    <t>03-himika-o-n-2</t>
+  </si>
+  <si>
+    <t>03-himika-o-n-3</t>
+  </si>
+  <si>
+    <t>03-himika-o-n-4</t>
+  </si>
+  <si>
+    <t>03-himika-o-n-5</t>
+  </si>
+  <si>
+    <t>03-himika-o-n-6</t>
+  </si>
+  <si>
+    <t>02-saine-o-s-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>02-saine-o-s-2</t>
+  </si>
+  <si>
+    <t>02-saine-o-s-3</t>
+  </si>
+  <si>
+    <t>02-saine-o-s-4</t>
+  </si>
+  <si>
+    <t>03-himika-o-n-7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>03-himika-o-s-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>03-himika-o-s-2</t>
+  </si>
+  <si>
+    <t>03-himika-o-s-3</t>
+  </si>
+  <si>
+    <t>03-himika-o-s-4</t>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>八方振り</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>薙斬り</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>返し刃</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見切り</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>圏域</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>衝音晶</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無音壁</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>律動弧戟</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>響鳴共振</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>音無砕氷</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>氷雨細音の果ての果て</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シュート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラピッドファイア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マグナムカノン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フルバースト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バックステップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バックドラフト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スモーク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レッドバレット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリムゾンゼロ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スカーレットイマジン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヴァーミリオンフィールド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はっぽうぶり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なぎぎり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かえしやいば</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>みきり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けんいき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しょうおんしょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>むおんへき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>りつどうこげき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きょうめいきょうしん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おとなしさいひょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひさめさいねのはてのはて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2/1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3/1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【攻撃後】このカードを対応で使用したならば、攻撃『適正距離3-5、2/1、対応不可』を行う。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0-10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5/5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【攻撃後】八相-あなたのオーラが0ならば、攻撃『適正距離4-5、2/1』を行う。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7-8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5-8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5-9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5-10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2/2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2/1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3/2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3/1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【常時】連火-このカードがこのターンに使用した3枚目以降のカードならば、この《攻撃》は+0/+1となる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【常時】連火-このカードがこのターンに使用した3枚目以降のカードならば、この《攻撃》は+1/+1となる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【攻撃後】自ライフ→ダスト：1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カードを1枚引く。 
+ダスト→間合：1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【展開中】カードの矢印(→)により間合にある桜花結晶は移動しない。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カードを2枚引く。その後、あなたは手札を1枚伏せ札にする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【常時】八相-あなたのオーラが0ならば、このカードを《対応》を持つかのように相手の《攻撃》に割り込んで使用できる。
+間合⇔ダスト：1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相オーラ→ダスト：1
+このカードを対応で使用したならば、さらに
+相オーラ→ダスト：1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【展開時】ダスト→間合：1
+【展開中】達人の間合は2大きくなる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【展開時】対応した《攻撃》は-1/+0となる。
+【破棄時】攻撃『適正距離0-10、1/-、対応不可』を行う。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【展開中】あなたの他のメガミの切札が1枚以上使用済ならば、各ターンの最初の相手の《攻撃》は-1/+0となる。
+【展開中】あなたのサイネの切札が1枚以上使用済ならば、各ターンにあなたが最初に使用する切札の消費は1少なくなる(0未満にはならない)。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【展開中】あなたへのダメージを解決するに際し、このカードの上に置かれた桜花結晶をあなたのオーラにあるかのように扱う。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃『適正距離3-4、1/1』を行う。
+攻撃『適正距離4-5、1/1』を行う。
+攻撃『適正距離3-5、2/2』を行う。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【常時】このカードの消費は相手のオーラの数だけ少なくなる。
+相オーラ→間合：2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在のフェイズを終了する。
+【使用済】あなたの他のメガミによる《攻撃》は+0/+1となる。
+----
+【即再起】あなたが再構成以外でライフに1以上のダメージを受ける。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対応した《攻撃》は-1/-1となる。
+----
+【再起】八相-あなたのオーラが0である。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【常時】このカードは切札に対する対応でしか使用できない。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【常時】この《攻撃》がダメージを与えるならば、相手は片方を選ぶのではなく両方のダメージを受ける。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あなたの手札が0枚ならば、相オーラ→ダスト：2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相手を畏縮させる。
+連火-このカードがこのターンに使用した3枚目以降のカードならば、このターンにあなたが次に行う他のメガミによる《攻撃》を+1/+1する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【常時】この《攻撃》がダメージを与えるならば、相手は片方を選ぶのではなく両方のダメージを受ける。
+【常時】現在の間合が0ならば、この《攻撃》は対応不可を得る。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対応不可 
+【攻撃後】相手は手札から《攻撃》でないカード1枚を捨て札にする。それが行えない場合、相手は手札を公開する。 
+----
+【再起】境地-あなたの集中力が2である。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>連火-このカードがこのターンに使用した3枚目以降のカードならば、ダスト→間合：2
+----
+【再起】あなたの手札が0枚である。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2761,7 +3388,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2803,6 +3430,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3110,11 +3740,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U147"/>
+  <dimension ref="A1:U180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T122" sqref="T122"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R41" sqref="R41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -3143,10 +3773,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>580</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>581</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>16</v>
@@ -3194,1841 +3824,1820 @@
         <v>246</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>583</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>587</v>
+        <v>660</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>590</v>
-      </c>
       <c r="J2" s="4" t="s">
-        <v>591</v>
+        <v>662</v>
       </c>
       <c r="K2" s="13"/>
       <c r="L2" s="2" t="s">
-        <v>592</v>
+        <v>249</v>
       </c>
       <c r="M2" s="13"/>
-      <c r="R2" s="5" t="s">
-        <v>593</v>
-      </c>
+      <c r="R2" s="5"/>
       <c r="S2" s="13"/>
       <c r="T2" s="3" t="str">
         <f>", '"&amp;A2&amp;"': {megami: '"&amp;B2&amp;"'"&amp;IF(C2&lt;&gt;"", ", anotherID: '" &amp; C2 &amp; "', replace: '" &amp; D2 &amp; "'", "")&amp;", name: '"&amp;E2&amp;"', ruby: '"&amp;F2&amp;"', baseType: '"&amp;VLOOKUP(G2,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H2,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I2&lt;&gt;"",", '"&amp; VLOOKUP(I2,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J2&lt;&gt;"", ", range: '"&amp;J2&amp;"'", "")&amp;IF(L2&lt;&gt;"", ", damage: '"&amp;L2&amp;"'", "")&amp;IF(N2&lt;&gt;"", ", capacity: '"&amp;N2&amp;"'", "")&amp;IF(O2&lt;&gt;"", ", cost: '"&amp;O2&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R2, CHAR(10), "\n")&amp;"'"&amp;IF(P2="○", ", sealable: true", "")&amp;IF(Q2="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '01-yurina-A1-n-1': {megami: 'yurina', anotherID: 'A1', replace: '01-yurina-o-n-1', name: '乱打', ruby: 'らんだ', baseType: 'normal', types: ['attack'], range: '2', damage: '2/1', text: '【常時】決死-あなたのライフが3以下ならば、この《攻撃》は+0/+2となり、対応不可を得る。'}</v>
+        <v>, '01-yurina-o-n-1': {megami: 'yurina', name: '斬', ruby: 'ざん', baseType: 'normal', types: ['attack'], range: '3-4', damage: '3/1', text: ''}</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>606</v>
+        <v>585</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>562</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>608</v>
+        <v>587</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>600</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>599</v>
+        <v>589</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>590</v>
       </c>
       <c r="K3" s="13"/>
+      <c r="L3" s="2" t="s">
+        <v>591</v>
+      </c>
       <c r="M3" s="13"/>
-      <c r="N3" s="4" t="s">
-        <v>604</v>
-      </c>
       <c r="R3" s="5" t="s">
-        <v>648</v>
+        <v>592</v>
       </c>
       <c r="S3" s="13"/>
       <c r="T3" s="3" t="str">
         <f>", '"&amp;A3&amp;"': {megami: '"&amp;B3&amp;"'"&amp;IF(C3&lt;&gt;"", ", anotherID: '" &amp; C3 &amp; "', replace: '" &amp; D3 &amp; "'", "")&amp;", name: '"&amp;E3&amp;"', ruby: '"&amp;F3&amp;"', baseType: '"&amp;VLOOKUP(G3,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H3,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I3&lt;&gt;"",", '"&amp; VLOOKUP(I3,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J3&lt;&gt;"", ", range: '"&amp;J3&amp;"'", "")&amp;IF(L3&lt;&gt;"", ", damage: '"&amp;L3&amp;"'", "")&amp;IF(N3&lt;&gt;"", ", capacity: '"&amp;N3&amp;"'", "")&amp;IF(O3&lt;&gt;"", ", cost: '"&amp;O3&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R3, CHAR(10), "\n")&amp;"'"&amp;IF(P3="○", ", sealable: true", "")&amp;IF(Q3="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '01-yurina-A1-n-6': {megami: 'yurina', anotherID: 'A1', replace: '01-yurina-o-n-6', name: '癇癪玉', ruby: 'かんしゃくだま ', baseType: 'normal', types: ['enhance', 'reaction'], capacity: '１', text: '【破棄時】攻撃『適正距離0-4、1/-、対応不可、【攻撃後】相手を畏縮させる』を行う。'}</v>
+        <v>, '01-yurina-A1-n-1': {megami: 'yurina', anotherID: 'A1', replace: '01-yurina-o-n-1', name: '乱打', ruby: 'らんだ', baseType: 'normal', types: ['attack'], range: '2', damage: '2/1', text: '【常時】決死-あなたのライフが3以下ならば、この《攻撃》は+0/+2となり、対応不可を得る。'}</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>607</v>
+        <v>652</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>583</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>609</v>
+        <v>582</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>596</v>
+        <v>664</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>597</v>
+        <v>674</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>598</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>601</v>
+        <v>132</v>
       </c>
       <c r="K4" s="13"/>
       <c r="L4" s="2" t="s">
-        <v>602</v>
+        <v>688</v>
       </c>
       <c r="M4" s="13"/>
-      <c r="O4" s="4" t="s">
-        <v>603</v>
-      </c>
       <c r="R4" s="5" t="s">
-        <v>605</v>
+        <v>700</v>
       </c>
       <c r="S4" s="13"/>
       <c r="T4" s="3" t="str">
         <f>", '"&amp;A4&amp;"': {megami: '"&amp;B4&amp;"'"&amp;IF(C4&lt;&gt;"", ", anotherID: '" &amp; C4 &amp; "', replace: '" &amp; D4 &amp; "'", "")&amp;", name: '"&amp;E4&amp;"', ruby: '"&amp;F4&amp;"', baseType: '"&amp;VLOOKUP(G4,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H4,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I4&lt;&gt;"",", '"&amp; VLOOKUP(I4,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J4&lt;&gt;"", ", range: '"&amp;J4&amp;"'", "")&amp;IF(L4&lt;&gt;"", ", damage: '"&amp;L4&amp;"'", "")&amp;IF(N4&lt;&gt;"", ", capacity: '"&amp;N4&amp;"'", "")&amp;IF(O4&lt;&gt;"", ", cost: '"&amp;O4&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R4, CHAR(10), "\n")&amp;"'"&amp;IF(P4="○", ", sealable: true", "")&amp;IF(Q4="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '01-yurina-A1-s-2': {megami: 'yurina', anotherID: 'A1', replace: '01-yurina-o-s-2', name: '不完全浦波嵐', ruby: 'ふかんぜんうらなみあらし', baseType: 'special', types: ['attack', 'reaction'], range: '0-10', damage: '3/-', cost: '5', text: '【攻撃後】対応した《攻撃》は-3/+0となる。'}</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+        <v>, '01-yurina-o-n-2': {megami: 'yurina', name: '一閃', ruby: 'いっせん', baseType: 'normal', types: ['attack'], range: '3', damage: '2/2', text: '【常時】決死-あなたのライフが3以下ならば、この《攻撃》は+1/+0となる。'}</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>622</v>
+        <v>653</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>585</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>623</v>
+        <v>582</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>611</v>
+        <v>665</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>615</v>
+        <v>675</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>28</v>
+        <v>589</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>686</v>
       </c>
       <c r="K5" s="13"/>
+      <c r="L5" s="2" t="s">
+        <v>689</v>
+      </c>
       <c r="M5" s="13"/>
       <c r="R5" s="5" t="s">
-        <v>650</v>
+        <v>701</v>
       </c>
       <c r="S5" s="13"/>
       <c r="T5" s="3" t="str">
         <f>", '"&amp;A5&amp;"': {megami: '"&amp;B5&amp;"'"&amp;IF(C5&lt;&gt;"", ", anotherID: '" &amp; C5 &amp; "', replace: '" &amp; D5 &amp; "'", "")&amp;", name: '"&amp;E5&amp;"', ruby: '"&amp;F5&amp;"', baseType: '"&amp;VLOOKUP(G5,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H5,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I5&lt;&gt;"",", '"&amp; VLOOKUP(I5,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J5&lt;&gt;"", ", range: '"&amp;J5&amp;"'", "")&amp;IF(L5&lt;&gt;"", ", damage: '"&amp;L5&amp;"'", "")&amp;IF(N5&lt;&gt;"", ", capacity: '"&amp;N5&amp;"'", "")&amp;IF(O5&lt;&gt;"", ", cost: '"&amp;O5&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R5, CHAR(10), "\n")&amp;"'"&amp;IF(P5="○", ", sealable: true", "")&amp;IF(Q5="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '02-saine-A1-n-3': {megami: 'saine', anotherID: 'A1', replace: '02-saine-o-n-3', name: '氷の音', ruby: 'ひのね', baseType: 'normal', types: ['action', 'reaction'], text: '相オーラ→ダスト：1 \nこのカードを対応で使用したならば、さらに\n相オーラ→ダスト：1'}</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="48" x14ac:dyDescent="0.15">
+        <v>, '01-yurina-o-n-3': {megami: 'yurina', name: '柄打ち', ruby: 'つかうち', baseType: 'normal', types: ['attack'], range: '1-2', damage: '2/1', text: '【攻撃後】決死-あなたのライフが3以下ならば、このターンにあなたが次に行う《攻撃》は+1/+0となる。'}</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>621</v>
+        <v>654</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>585</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>624</v>
+        <v>582</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>612</v>
+        <v>666</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>616</v>
+        <v>676</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>48</v>
+        <v>589</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="K6" s="13"/>
+      <c r="L6" s="2" t="s">
+        <v>690</v>
+      </c>
       <c r="M6" s="13"/>
-      <c r="N6" s="4" t="s">
-        <v>617</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>649</v>
+      <c r="R6" s="14" t="s">
+        <v>702</v>
       </c>
       <c r="S6" s="13"/>
       <c r="T6" s="3" t="str">
         <f>", '"&amp;A6&amp;"': {megami: '"&amp;B6&amp;"'"&amp;IF(C6&lt;&gt;"", ", anotherID: '" &amp; C6 &amp; "', replace: '" &amp; D6 &amp; "'", "")&amp;", name: '"&amp;E6&amp;"', ruby: '"&amp;F6&amp;"', baseType: '"&amp;VLOOKUP(G6,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H6,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I6&lt;&gt;"",", '"&amp; VLOOKUP(I6,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J6&lt;&gt;"", ", range: '"&amp;J6&amp;"'", "")&amp;IF(L6&lt;&gt;"", ", damage: '"&amp;L6&amp;"'", "")&amp;IF(N6&lt;&gt;"", ", capacity: '"&amp;N6&amp;"'", "")&amp;IF(O6&lt;&gt;"", ", cost: '"&amp;O6&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R6, CHAR(10), "\n")&amp;"'"&amp;IF(P6="○", ", sealable: true", "")&amp;IF(Q6="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '02-saine-A1-n-6': {megami: 'saine', anotherID: 'A1', replace: '02-saine-o-n-6', name: '伴奏', ruby: 'ばんそう', baseType: 'normal', types: ['enhance'], capacity: '4', text: '【展開中】あなたの他のメガミの切札が1枚以上使用済ならば、各ターンの最初の相手の《攻撃》は-1/+0となる。 \n【展開中】あなたのサイネの切札が1枚以上使用済ならば、各ターンにあなたが最初に使用する切札の消費は1少なくなる(0未満にはならない)。'}</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="48" x14ac:dyDescent="0.15">
+        <v>, '01-yurina-o-n-4': {megami: 'yurina', name: '居合', ruby: 'いあい', baseType: 'normal', types: ['attack', 'fullpower'], range: '2-4', damage: '4/3', text: '【常時】現在の間合が2以下ならば、この攻撃は-1/-1となる。'}</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>620</v>
+        <v>655</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>585</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>625</v>
+        <v>582</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>613</v>
+        <v>667</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>614</v>
+        <v>677</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K7" s="13"/>
       <c r="M7" s="13"/>
-      <c r="O7" s="4" t="s">
-        <v>618</v>
-      </c>
       <c r="R7" s="5" t="s">
-        <v>619</v>
+        <v>703</v>
       </c>
       <c r="S7" s="13"/>
       <c r="T7" s="3" t="str">
         <f>", '"&amp;A7&amp;"': {megami: '"&amp;B7&amp;"'"&amp;IF(C7&lt;&gt;"", ", anotherID: '" &amp; C7 &amp; "', replace: '" &amp; D7 &amp; "'", "")&amp;", name: '"&amp;E7&amp;"', ruby: '"&amp;F7&amp;"', baseType: '"&amp;VLOOKUP(G7,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H7,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I7&lt;&gt;"",", '"&amp; VLOOKUP(I7,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J7&lt;&gt;"", ", range: '"&amp;J7&amp;"'", "")&amp;IF(L7&lt;&gt;"", ", damage: '"&amp;L7&amp;"'", "")&amp;IF(N7&lt;&gt;"", ", capacity: '"&amp;N7&amp;"'", "")&amp;IF(O7&lt;&gt;"", ", cost: '"&amp;O7&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R7, CHAR(10), "\n")&amp;"'"&amp;IF(P7="○", ", sealable: true", "")&amp;IF(Q7="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '02-saine-A1-s-2': {megami: 'saine', anotherID: 'A1', replace: '02-saine-o-s-2', name: '二重奏:弾奏氷瞑', ruby: 'にじゅうそう:だんそうひょうめい', baseType: 'special', types: ['action'], cost: '2', text: '現在のフェイズを終了する。 \n【使用済】あなたの他のメガミによる《攻撃》は+0/+1となる。 \n----\n【即再起】あなたが再構成以外でライフに1以上のダメージを受ける。'}</v>
+        <v>, '01-yurina-o-n-5': {megami: 'yurina', name: '足捌き', ruby: 'あしさばき', baseType: 'normal', types: ['action'], text: '現在の間合が4以上ならば、間合→ダスト：2\n現在の間合が1以下ならば、ダスト→間合：2'}</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>626</v>
+        <v>656</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>610</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>628</v>
+        <v>582</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>630</v>
+        <v>668</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>633</v>
+        <v>678</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>636</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>639</v>
+        <v>60</v>
       </c>
       <c r="K8" s="13"/>
-      <c r="L8" s="2" t="s">
-        <v>641</v>
-      </c>
       <c r="M8" s="13"/>
+      <c r="N8" s="4" t="s">
+        <v>694</v>
+      </c>
       <c r="R8" s="5" t="s">
-        <v>645</v>
+        <v>704</v>
       </c>
       <c r="S8" s="13"/>
       <c r="T8" s="3" t="str">
         <f>", '"&amp;A8&amp;"': {megami: '"&amp;B8&amp;"'"&amp;IF(C8&lt;&gt;"", ", anotherID: '" &amp; C8 &amp; "', replace: '" &amp; D8 &amp; "'", "")&amp;", name: '"&amp;E8&amp;"', ruby: '"&amp;F8&amp;"', baseType: '"&amp;VLOOKUP(G8,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H8,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I8&lt;&gt;"",", '"&amp; VLOOKUP(I8,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J8&lt;&gt;"", ", range: '"&amp;J8&amp;"'", "")&amp;IF(L8&lt;&gt;"", ", damage: '"&amp;L8&amp;"'", "")&amp;IF(N8&lt;&gt;"", ", capacity: '"&amp;N8&amp;"'", "")&amp;IF(O8&lt;&gt;"", ", cost: '"&amp;O8&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R8, CHAR(10), "\n")&amp;"'"&amp;IF(P8="○", ", sealable: true", "")&amp;IF(Q8="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '03-himika-A1-n-2': {megami: 'himika', anotherID: 'A1', replace: '03-himika-o-n-2', name: '火炎流', ruby: 'かえんりゅう', baseType: 'normal', types: ['attack'], range: '1-3', damage: '2/1', text: '【常時】連火-このカードがこのターンに使用した3枚目以降のカードならば、この《攻撃》は+0/+1となる。'}</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
+        <v>, '01-yurina-o-n-6': {megami: 'yurina', name: '圧気', ruby: 'あっき', baseType: 'normal', types: ['enhance'], capacity: '2', text: '隙\n【破棄時】攻撃『適正距離1-4、3/-』を行う。'}</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>627</v>
+        <v>605</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>562</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>629</v>
+        <v>607</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>631</v>
+        <v>593</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>634</v>
+        <v>594</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>638</v>
+        <v>599</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>598</v>
       </c>
       <c r="K9" s="13"/>
       <c r="M9" s="13"/>
+      <c r="N9" s="4" t="s">
+        <v>603</v>
+      </c>
       <c r="R9" s="5" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="S9" s="13"/>
       <c r="T9" s="3" t="str">
         <f>", '"&amp;A9&amp;"': {megami: '"&amp;B9&amp;"'"&amp;IF(C9&lt;&gt;"", ", anotherID: '" &amp; C9 &amp; "', replace: '" &amp; D9 &amp; "'", "")&amp;", name: '"&amp;E9&amp;"', ruby: '"&amp;F9&amp;"', baseType: '"&amp;VLOOKUP(G9,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H9,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I9&lt;&gt;"",", '"&amp; VLOOKUP(I9,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J9&lt;&gt;"", ", range: '"&amp;J9&amp;"'", "")&amp;IF(L9&lt;&gt;"", ", damage: '"&amp;L9&amp;"'", "")&amp;IF(N9&lt;&gt;"", ", capacity: '"&amp;N9&amp;"'", "")&amp;IF(O9&lt;&gt;"", ", cost: '"&amp;O9&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R9, CHAR(10), "\n")&amp;"'"&amp;IF(P9="○", ", sealable: true", "")&amp;IF(Q9="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '03-himika-A1-n-5': {megami: 'himika', anotherID: 'A1', replace: '03-himika-o-n-5', name: '殺意', ruby: 'さつい', baseType: 'normal', types: ['action'], text: 'あなたの手札が0枚ならば、相オーラ→ダスト：2'}</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+        <v>, '01-yurina-A1-n-6': {megami: 'yurina', anotherID: 'A1', replace: '01-yurina-o-n-6', name: '癇癪玉', ruby: 'かんしゃくだま ', baseType: 'normal', types: ['enhance', 'reaction'], capacity: '１', text: '【破棄時】攻撃『適正距離0-4、1/-、対応不可、【攻撃後】相手を畏縮させる』を行う。'}</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>646</v>
+        <v>657</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>647</v>
+        <v>582</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>632</v>
+        <v>669</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>635</v>
+        <v>679</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>636</v>
+        <v>60</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>637</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>640</v>
+        <v>684</v>
       </c>
       <c r="K10" s="13"/>
-      <c r="L10" s="2" t="s">
-        <v>642</v>
-      </c>
       <c r="M10" s="13"/>
-      <c r="O10" s="4" t="s">
-        <v>643</v>
+      <c r="N10" s="4" t="s">
+        <v>695</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>644</v>
+        <v>705</v>
       </c>
       <c r="S10" s="13"/>
       <c r="T10" s="3" t="str">
         <f>", '"&amp;A10&amp;"': {megami: '"&amp;B10&amp;"'"&amp;IF(C10&lt;&gt;"", ", anotherID: '" &amp; C10 &amp; "', replace: '" &amp; D10 &amp; "'", "")&amp;", name: '"&amp;E10&amp;"', ruby: '"&amp;F10&amp;"', baseType: '"&amp;VLOOKUP(G10,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H10,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I10&lt;&gt;"",", '"&amp; VLOOKUP(I10,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J10&lt;&gt;"", ", range: '"&amp;J10&amp;"'", "")&amp;IF(L10&lt;&gt;"", ", damage: '"&amp;L10&amp;"'", "")&amp;IF(N10&lt;&gt;"", ", capacity: '"&amp;N10&amp;"'", "")&amp;IF(O10&lt;&gt;"", ", cost: '"&amp;O10&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R10, CHAR(10), "\n")&amp;"'"&amp;IF(P10="○", ", sealable: true", "")&amp;IF(Q10="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '03-himika-A1-s-2': {megami: 'himika', anotherID: 'A1', replace: '03-himika-o-s-2', name: '炎天・紅緋弥香', ruby: 'えんてん・くれないひみか', baseType: 'special', types: ['attack', 'fullpower'], range: '0-6', damage: 'X/X', cost: '7', text: '対応不可 \n【常時】Xは7から現在の間合を引いた値に等しい。 \n【攻撃後】あなたは敗北する。'}</v>
+        <v>, '01-yurina-o-n-7': {megami: 'yurina', name: '気炎万丈', ruby: 'きえんばんじょう', baseType: 'normal', types: ['enhance', 'fullpower'], capacity: '4', text: '【展開中】決死-あなたのライフが3以下ならば、あなたの他のメガミによる《攻撃》は+1/+1となるとともに超克を得る。'}</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>1</v>
+        <v>658</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>3</v>
+        <v>582</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>41</v>
+        <v>670</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>18</v>
+        <v>680</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J11" s="4">
-        <v>4</v>
+        <v>589</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>662</v>
       </c>
       <c r="K11" s="13"/>
       <c r="L11" s="2" t="s">
-        <v>12</v>
+        <v>691</v>
       </c>
       <c r="M11" s="13"/>
-      <c r="R11" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="O11" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="R11" s="5"/>
       <c r="S11" s="13"/>
       <c r="T11" s="3" t="str">
         <f>", '"&amp;A11&amp;"': {megami: '"&amp;B11&amp;"'"&amp;IF(C11&lt;&gt;"", ", anotherID: '" &amp; C11 &amp; "', replace: '" &amp; D11 &amp; "'", "")&amp;", name: '"&amp;E11&amp;"', ruby: '"&amp;F11&amp;"', baseType: '"&amp;VLOOKUP(G11,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H11,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I11&lt;&gt;"",", '"&amp; VLOOKUP(I11,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J11&lt;&gt;"", ", range: '"&amp;J11&amp;"'", "")&amp;IF(L11&lt;&gt;"", ", damage: '"&amp;L11&amp;"'", "")&amp;IF(N11&lt;&gt;"", ", capacity: '"&amp;N11&amp;"'", "")&amp;IF(O11&lt;&gt;"", ", cost: '"&amp;O11&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R11, CHAR(10), "\n")&amp;"'"&amp;IF(P11="○", ", sealable: true", "")&amp;IF(Q11="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '04-tokoyo-o-n-1': {megami: 'tokoyo', name: '梳流し', ruby: 'すきながし', baseType: 'normal', types: ['attack'], range: '4', damage: '-/1', text: '【攻撃後】境地-あなたの集中力が2ならば、このカードを山札の上に戻す。'}</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="48" x14ac:dyDescent="0.15">
+        <v>, '01-yurina-o-s-1': {megami: 'yurina', name: '月影落', ruby: 'つきかげおとし', baseType: 'special', types: ['attack'], range: '3-4', damage: '4/4', cost: '7', text: ''}</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>577</v>
+        <v>608</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="D12" s="4" t="s">
         <v>582</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>564</v>
+        <v>671</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>569</v>
+        <v>681</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>8</v>
+        <v>589</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>685</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>565</v>
+        <v>600</v>
       </c>
       <c r="K12" s="13"/>
       <c r="L12" s="2" t="s">
-        <v>301</v>
+        <v>692</v>
       </c>
       <c r="M12" s="13"/>
+      <c r="O12" s="4" t="s">
+        <v>697</v>
+      </c>
       <c r="R12" s="5" t="s">
-        <v>573</v>
+        <v>706</v>
       </c>
       <c r="S12" s="13"/>
       <c r="T12" s="3" t="str">
         <f>", '"&amp;A12&amp;"': {megami: '"&amp;B12&amp;"'"&amp;IF(C12&lt;&gt;"", ", anotherID: '" &amp; C12 &amp; "', replace: '" &amp; D12 &amp; "'", "")&amp;", name: '"&amp;E12&amp;"', ruby: '"&amp;F12&amp;"', baseType: '"&amp;VLOOKUP(G12,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H12,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I12&lt;&gt;"",", '"&amp; VLOOKUP(I12,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J12&lt;&gt;"", ", range: '"&amp;J12&amp;"'", "")&amp;IF(L12&lt;&gt;"", ", damage: '"&amp;L12&amp;"'", "")&amp;IF(N12&lt;&gt;"", ", capacity: '"&amp;N12&amp;"'", "")&amp;IF(O12&lt;&gt;"", ", cost: '"&amp;O12&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R12, CHAR(10), "\n")&amp;"'"&amp;IF(P12="○", ", sealable: true", "")&amp;IF(Q12="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '04-tokoyo-A1-n-1': {megami: 'tokoyo', anotherID: 'A1', replace: '04-tokoyo-o-n-1', name: '奏流し', ruby: 'かなでながし', baseType: 'normal', types: ['attack'], range: '5', damage: '-/1', text: '【常時】あなたのトコヨの切札が1枚以上使用済ならば、この《攻撃》は対応不可を得る。 \n【攻撃後】境地-あなたの集中力が2かつ、あなたの他のメガミの切札が1枚以上使用済ならば、このカードを山札の上に置く。'}</v>
+        <v>, '01-yurina-o-s-2': {megami: 'yurina', name: '浦波嵐', ruby: 'うらなみあらし', baseType: 'special', types: ['attack', 'reaction'], range: '0-10', damage: '2/-', cost: '3', text: '【攻撃後】対応した《攻撃》は-2/+0となる。'}</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>35</v>
+        <v>606</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>3</v>
+        <v>582</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>608</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>42</v>
+        <v>595</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>62</v>
+        <v>596</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>9</v>
+        <v>597</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>28</v>
+        <v>598</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>58</v>
+        <v>600</v>
       </c>
       <c r="K13" s="13"/>
       <c r="L13" s="2" t="s">
-        <v>59</v>
+        <v>601</v>
       </c>
       <c r="M13" s="13"/>
-      <c r="R13" s="4" t="s">
-        <v>73</v>
+      <c r="O13" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>604</v>
       </c>
       <c r="S13" s="13"/>
       <c r="T13" s="3" t="str">
         <f>", '"&amp;A13&amp;"': {megami: '"&amp;B13&amp;"'"&amp;IF(C13&lt;&gt;"", ", anotherID: '" &amp; C13 &amp; "', replace: '" &amp; D13 &amp; "'", "")&amp;", name: '"&amp;E13&amp;"', ruby: '"&amp;F13&amp;"', baseType: '"&amp;VLOOKUP(G13,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H13,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I13&lt;&gt;"",", '"&amp; VLOOKUP(I13,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J13&lt;&gt;"", ", range: '"&amp;J13&amp;"'", "")&amp;IF(L13&lt;&gt;"", ", damage: '"&amp;L13&amp;"'", "")&amp;IF(N13&lt;&gt;"", ", capacity: '"&amp;N13&amp;"'", "")&amp;IF(O13&lt;&gt;"", ", cost: '"&amp;O13&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R13, CHAR(10), "\n")&amp;"'"&amp;IF(P13="○", ", sealable: true", "")&amp;IF(Q13="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '04-tokoyo-o-n-2': {megami: 'tokoyo', name: '雅打ち', ruby: 'みやびうち', baseType: 'normal', types: ['attack', 'reaction'], range: '2-4', damage: '2/1', text: '【攻撃後】境地-あなたの集中力が2ならば、対応した切札でない《攻撃》を打ち消す。'}</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
+        <v>, '01-yurina-A1-s-2': {megami: 'yurina', anotherID: 'A1', replace: '01-yurina-o-s-2', name: '不完全浦波嵐', ruby: 'ふかんぜんうらなみあらし', baseType: 'special', types: ['attack', 'reaction'], range: '0-10', damage: '3/-', cost: '5', text: '【攻撃後】対応した《攻撃》は-3/+0となる。'}</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="36" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>36</v>
+        <v>659</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>3</v>
+        <v>582</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>43</v>
+        <v>672</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>63</v>
+        <v>682</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K14" s="13"/>
       <c r="M14" s="13"/>
+      <c r="O14" s="4" t="s">
+        <v>698</v>
+      </c>
       <c r="R14" s="5" t="s">
-        <v>72</v>
+        <v>707</v>
       </c>
       <c r="S14" s="13"/>
       <c r="T14" s="3" t="str">
         <f>", '"&amp;A14&amp;"': {megami: '"&amp;B14&amp;"'"&amp;IF(C14&lt;&gt;"", ", anotherID: '" &amp; C14 &amp; "', replace: '" &amp; D14 &amp; "'", "")&amp;", name: '"&amp;E14&amp;"', ruby: '"&amp;F14&amp;"', baseType: '"&amp;VLOOKUP(G14,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H14,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I14&lt;&gt;"",", '"&amp; VLOOKUP(I14,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J14&lt;&gt;"", ", range: '"&amp;J14&amp;"'", "")&amp;IF(L14&lt;&gt;"", ", damage: '"&amp;L14&amp;"'", "")&amp;IF(N14&lt;&gt;"", ", capacity: '"&amp;N14&amp;"'", "")&amp;IF(O14&lt;&gt;"", ", cost: '"&amp;O14&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R14, CHAR(10), "\n")&amp;"'"&amp;IF(P14="○", ", sealable: true", "")&amp;IF(Q14="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '04-tokoyo-o-n-3': {megami: 'tokoyo', name: '跳ね兎', ruby: 'はねうさぎ', baseType: 'normal', types: ['action'], text: '現在の間合が3以下ならば、ダスト→間合：2'}</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+        <v>, '01-yurina-o-s-3': {megami: 'yurina', name: '浮舟宿', ruby: 'うきふねやどし', baseType: 'special', types: ['action'], cost: '2', text: 'ダスト→自オーラ：5 \n----\n【即再起】決死-あなたのライフが3以下である。'}</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>37</v>
+        <v>663</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>3</v>
+        <v>582</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>45</v>
+        <v>673</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>64</v>
+        <v>683</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>23</v>
+        <v>589</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>28</v>
+        <v>684</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>687</v>
       </c>
       <c r="K15" s="13"/>
+      <c r="L15" s="2" t="s">
+        <v>693</v>
+      </c>
       <c r="M15" s="13"/>
+      <c r="O15" s="4" t="s">
+        <v>699</v>
+      </c>
       <c r="R15" s="5" t="s">
-        <v>71</v>
+        <v>708</v>
       </c>
       <c r="S15" s="13"/>
       <c r="T15" s="3" t="str">
         <f>", '"&amp;A15&amp;"': {megami: '"&amp;B15&amp;"'"&amp;IF(C15&lt;&gt;"", ", anotherID: '" &amp; C15 &amp; "', replace: '" &amp; D15 &amp; "'", "")&amp;", name: '"&amp;E15&amp;"', ruby: '"&amp;F15&amp;"', baseType: '"&amp;VLOOKUP(G15,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H15,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I15&lt;&gt;"",", '"&amp; VLOOKUP(I15,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J15&lt;&gt;"", ", range: '"&amp;J15&amp;"'", "")&amp;IF(L15&lt;&gt;"", ", damage: '"&amp;L15&amp;"'", "")&amp;IF(N15&lt;&gt;"", ", capacity: '"&amp;N15&amp;"'", "")&amp;IF(O15&lt;&gt;"", ", cost: '"&amp;O15&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R15, CHAR(10), "\n")&amp;"'"&amp;IF(P15="○", ", sealable: true", "")&amp;IF(Q15="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '04-tokoyo-o-n-4': {megami: 'tokoyo', name: '詩舞', ruby: 'しぶ', baseType: 'normal', types: ['action', 'reaction'], text: '集中力を1得て、以下から1つを選ぶ。\n・自フレア→自オーラ：1\n・自オーラ→間合：1'}</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+        <v>, '01-yurina-o-s-4': {megami: 'yurina', name: '天音揺波の底力', ruby: 'あまねゆりなのそこぢから', baseType: 'special', types: ['attack', 'fullpower'], range: '1-4', damage: '5/5', cost: '5', text: '【常時】決死-あなたのライフが3以下でないと、このカードは使用できない。'}</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>38</v>
+        <v>709</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>3</v>
+        <v>584</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>46</v>
+        <v>736</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>65</v>
+        <v>758</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>31</v>
+        <v>589</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>769</v>
       </c>
       <c r="K16" s="13"/>
+      <c r="L16" s="2" t="s">
+        <v>772</v>
+      </c>
       <c r="M16" s="13"/>
       <c r="R16" s="5" t="s">
-        <v>70</v>
+        <v>780</v>
       </c>
       <c r="S16" s="13"/>
       <c r="T16" s="3" t="str">
         <f>", '"&amp;A16&amp;"': {megami: '"&amp;B16&amp;"'"&amp;IF(C16&lt;&gt;"", ", anotherID: '" &amp; C16 &amp; "', replace: '" &amp; D16 &amp; "'", "")&amp;", name: '"&amp;E16&amp;"', ruby: '"&amp;F16&amp;"', baseType: '"&amp;VLOOKUP(G16,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H16,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I16&lt;&gt;"",", '"&amp; VLOOKUP(I16,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J16&lt;&gt;"", ", range: '"&amp;J16&amp;"'", "")&amp;IF(L16&lt;&gt;"", ", damage: '"&amp;L16&amp;"'", "")&amp;IF(N16&lt;&gt;"", ", capacity: '"&amp;N16&amp;"'", "")&amp;IF(O16&lt;&gt;"", ", cost: '"&amp;O16&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R16, CHAR(10), "\n")&amp;"'"&amp;IF(P16="○", ", sealable: true", "")&amp;IF(Q16="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '04-tokoyo-o-n-5': {megami: 'tokoyo', name: '要返し', ruby: 'かなめがえし', baseType: 'normal', types: ['action', 'fullpower'], text: '捨て札か伏せ札からカードを2枚まで選ぶ。それらのカードを好きな順で山札の底に置く。 \nダスト→自オーラ：2'}</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+        <v>, '02-saine-o-n-1': {megami: 'saine', name: '八方振り', ruby: 'はっぽうぶり', baseType: 'normal', types: ['attack'], range: '4-5', damage: '2/1', text: '【攻撃後】八相-あなたのオーラが0ならば、攻撃『適正距離4-5、2/1』を行う。'}</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>39</v>
+        <v>711</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>3</v>
+        <v>584</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>47</v>
+        <v>737</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>66</v>
+        <v>759</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>48</v>
+        <v>589</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>770</v>
       </c>
       <c r="K17" s="13"/>
+      <c r="L17" s="2" t="s">
+        <v>773</v>
+      </c>
       <c r="M17" s="13"/>
-      <c r="N17" s="4">
-        <v>2</v>
-      </c>
-      <c r="R17" s="5" t="s">
-        <v>68</v>
-      </c>
+      <c r="R17" s="5"/>
       <c r="S17" s="13"/>
       <c r="T17" s="3" t="str">
         <f>", '"&amp;A17&amp;"': {megami: '"&amp;B17&amp;"'"&amp;IF(C17&lt;&gt;"", ", anotherID: '" &amp; C17 &amp; "', replace: '" &amp; D17 &amp; "'", "")&amp;", name: '"&amp;E17&amp;"', ruby: '"&amp;F17&amp;"', baseType: '"&amp;VLOOKUP(G17,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H17,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I17&lt;&gt;"",", '"&amp; VLOOKUP(I17,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J17&lt;&gt;"", ", range: '"&amp;J17&amp;"'", "")&amp;IF(L17&lt;&gt;"", ", damage: '"&amp;L17&amp;"'", "")&amp;IF(N17&lt;&gt;"", ", capacity: '"&amp;N17&amp;"'", "")&amp;IF(O17&lt;&gt;"", ", cost: '"&amp;O17&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R17, CHAR(10), "\n")&amp;"'"&amp;IF(P17="○", ", sealable: true", "")&amp;IF(Q17="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '04-tokoyo-o-n-6': {megami: 'tokoyo', name: '風舞台', ruby: 'かぜぶたい', baseType: 'normal', types: ['enhance'], capacity: '2', text: '【展開時】間合→自オーラ：2 \n【破棄時】自オーラ→間合：2'}</v>
+        <v>, '02-saine-o-n-2': {megami: 'saine', name: '薙斬り', ruby: 'なぎぎり', baseType: 'normal', types: ['attack', 'reaction'], range: '4-5', damage: '3/1', text: ''}</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>40</v>
+        <v>712</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>3</v>
+        <v>584</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>49</v>
+        <v>738</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>67</v>
+        <v>760</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>48</v>
+        <v>589</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>771</v>
       </c>
       <c r="K18" s="13"/>
+      <c r="L18" s="2" t="s">
+        <v>774</v>
+      </c>
       <c r="M18" s="13"/>
-      <c r="N18" s="4">
-        <v>1</v>
-      </c>
       <c r="R18" s="5" t="s">
-        <v>69</v>
+        <v>775</v>
       </c>
       <c r="S18" s="13"/>
       <c r="T18" s="3" t="str">
         <f>", '"&amp;A18&amp;"': {megami: '"&amp;B18&amp;"'"&amp;IF(C18&lt;&gt;"", ", anotherID: '" &amp; C18 &amp; "', replace: '" &amp; D18 &amp; "'", "")&amp;", name: '"&amp;E18&amp;"', ruby: '"&amp;F18&amp;"', baseType: '"&amp;VLOOKUP(G18,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H18,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I18&lt;&gt;"",", '"&amp; VLOOKUP(I18,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J18&lt;&gt;"", ", range: '"&amp;J18&amp;"'", "")&amp;IF(L18&lt;&gt;"", ", damage: '"&amp;L18&amp;"'", "")&amp;IF(N18&lt;&gt;"", ", capacity: '"&amp;N18&amp;"'", "")&amp;IF(O18&lt;&gt;"", ", cost: '"&amp;O18&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R18, CHAR(10), "\n")&amp;"'"&amp;IF(P18="○", ", sealable: true", "")&amp;IF(Q18="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '04-tokoyo-o-n-7': {megami: 'tokoyo', name: '晴舞台', ruby: 'はれぶたい', baseType: 'normal', types: ['enhance'], capacity: '1', text: '【破棄時】境地-あなたの集中力が2ならば、ダスト→自オーラ：2 \n【破棄時】境地-あなたは集中力を1得る。'}</v>
+        <v>, '02-saine-o-n-3': {megami: 'saine', name: '返し刃', ruby: 'かえしやいば', baseType: 'normal', types: ['attack', 'reaction'], range: '3-5', damage: '1/1', text: '【攻撃後】このカードを対応で使用したならば、攻撃『適正距離3-5、2/1、対応不可』を行う。'}</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="36" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>578</v>
+        <v>620</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>3</v>
+        <v>584</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>40</v>
+        <v>621</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>568</v>
+        <v>610</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>571</v>
+        <v>614</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>48</v>
+        <v>23</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="K19" s="13"/>
       <c r="M19" s="13"/>
-      <c r="N19" s="4" t="s">
-        <v>566</v>
-      </c>
       <c r="R19" s="5" t="s">
-        <v>574</v>
+        <v>798</v>
       </c>
       <c r="S19" s="13"/>
       <c r="T19" s="3" t="str">
         <f>", '"&amp;A19&amp;"': {megami: '"&amp;B19&amp;"'"&amp;IF(C19&lt;&gt;"", ", anotherID: '" &amp; C19 &amp; "', replace: '" &amp; D19 &amp; "'", "")&amp;", name: '"&amp;E19&amp;"', ruby: '"&amp;F19&amp;"', baseType: '"&amp;VLOOKUP(G19,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H19,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I19&lt;&gt;"",", '"&amp; VLOOKUP(I19,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J19&lt;&gt;"", ", range: '"&amp;J19&amp;"'", "")&amp;IF(L19&lt;&gt;"", ", damage: '"&amp;L19&amp;"'", "")&amp;IF(N19&lt;&gt;"", ", capacity: '"&amp;N19&amp;"'", "")&amp;IF(O19&lt;&gt;"", ", cost: '"&amp;O19&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R19, CHAR(10), "\n")&amp;"'"&amp;IF(P19="○", ", sealable: true", "")&amp;IF(Q19="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '04-tokoyo-A1-n-7': {megami: 'tokoyo', anotherID: 'A1', replace: '04-tokoyo-o-n-7', name: '陽の音', ruby: 'ひのね', baseType: 'normal', types: ['enhance'], capacity: '2', text: '【展開時/展開中】展開時、およびあなたが《対応》カードを使用した時、その解決後にダスト→自オーラ：1 \n【展開中】相手のターンにこのカードの上の桜花結晶は移動しない。'}</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
+        <v>, '02-saine-A1-n-3': {megami: 'saine', anotherID: 'A1', replace: '02-saine-o-n-3', name: '氷の音', ruby: 'ひのね', baseType: 'normal', types: ['action', 'reaction'], text: '相オーラ→ダスト：1\nこのカードを対応で使用したならば、さらに\n相オーラ→ダスト：1'}</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="36" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>74</v>
+        <v>713</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>3</v>
+        <v>584</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>50</v>
+        <v>739</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>89</v>
+        <v>761</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="K20" s="13"/>
-      <c r="L20" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="M20" s="13"/>
-      <c r="O20" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="R20" s="4" t="s">
-        <v>83</v>
+      <c r="R20" s="5" t="s">
+        <v>797</v>
       </c>
       <c r="S20" s="13"/>
       <c r="T20" s="3" t="str">
         <f>", '"&amp;A20&amp;"': {megami: '"&amp;B20&amp;"'"&amp;IF(C20&lt;&gt;"", ", anotherID: '" &amp; C20 &amp; "', replace: '" &amp; D20 &amp; "'", "")&amp;", name: '"&amp;E20&amp;"', ruby: '"&amp;F20&amp;"', baseType: '"&amp;VLOOKUP(G20,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H20,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I20&lt;&gt;"",", '"&amp; VLOOKUP(I20,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J20&lt;&gt;"", ", range: '"&amp;J20&amp;"'", "")&amp;IF(L20&lt;&gt;"", ", damage: '"&amp;L20&amp;"'", "")&amp;IF(N20&lt;&gt;"", ", capacity: '"&amp;N20&amp;"'", "")&amp;IF(O20&lt;&gt;"", ", cost: '"&amp;O20&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R20, CHAR(10), "\n")&amp;"'"&amp;IF(P20="○", ", sealable: true", "")&amp;IF(Q20="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '04-tokoyo-o-s-1': {megami: 'tokoyo', name: '久遠ノ花', ruby: 'くおんのはな', baseType: 'special', types: ['attack', 'reaction'], range: '0-10', damage: '-/1', cost: '5', text: '【攻撃後】対応した《攻撃》を打ち消す。'}</v>
+        <v>, '02-saine-o-n-4': {megami: 'saine', name: '見切り', ruby: 'みきり', baseType: 'normal', types: ['action'], text: '【常時】八相-あなたのオーラが0ならば、このカードを《対応》を持つかのように相手の《攻撃》に割り込んで使用できる。\n間合⇔ダスト：1'}</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>75</v>
+        <v>714</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>3</v>
+        <v>584</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>52</v>
+        <v>740</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>88</v>
+        <v>762</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="K21" s="13"/>
-      <c r="L21" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="M21" s="13"/>
-      <c r="O21" s="4" t="s">
-        <v>55</v>
+      <c r="N21" s="4" t="s">
+        <v>735</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>84</v>
+        <v>799</v>
       </c>
       <c r="S21" s="13"/>
       <c r="T21" s="3" t="str">
         <f>", '"&amp;A21&amp;"': {megami: '"&amp;B21&amp;"'"&amp;IF(C21&lt;&gt;"", ", anotherID: '" &amp; C21 &amp; "', replace: '" &amp; D21 &amp; "'", "")&amp;", name: '"&amp;E21&amp;"', ruby: '"&amp;F21&amp;"', baseType: '"&amp;VLOOKUP(G21,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H21,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I21&lt;&gt;"",", '"&amp; VLOOKUP(I21,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J21&lt;&gt;"", ", range: '"&amp;J21&amp;"'", "")&amp;IF(L21&lt;&gt;"", ", damage: '"&amp;L21&amp;"'", "")&amp;IF(N21&lt;&gt;"", ", capacity: '"&amp;N21&amp;"'", "")&amp;IF(O21&lt;&gt;"", ", cost: '"&amp;O21&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R21, CHAR(10), "\n")&amp;"'"&amp;IF(P21="○", ", sealable: true", "")&amp;IF(Q21="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '04-tokoyo-o-s-2': {megami: 'tokoyo', name: '千歳ノ鳥', ruby: 'ちとせのとり', baseType: 'special', types: ['attack'], range: '3-4', damage: '2/2', cost: '2', text: '【攻撃後】山札を再構成する。 \n(その際にダメージは受けない)'}</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" ht="48" x14ac:dyDescent="0.15">
+        <v>, '02-saine-o-n-5': {megami: 'saine', name: '圏域', ruby: 'けんいき', baseType: 'normal', types: ['enhance'], capacity: '3', text: '【展開時】ダスト→間合：1\n【展開中】達人の間合は2大きくなる。'}</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
-        <v>579</v>
+        <v>715</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>563</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>75</v>
+        <v>584</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>570</v>
+        <v>741</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>572</v>
+        <v>763</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="K22" s="13"/>
       <c r="M22" s="13"/>
-      <c r="O22" s="4" t="s">
-        <v>567</v>
+      <c r="N22" s="4" t="s">
+        <v>776</v>
       </c>
       <c r="R22" s="5" t="s">
-        <v>576</v>
+        <v>800</v>
       </c>
       <c r="S22" s="13"/>
       <c r="T22" s="3" t="str">
         <f>", '"&amp;A22&amp;"': {megami: '"&amp;B22&amp;"'"&amp;IF(C22&lt;&gt;"", ", anotherID: '" &amp; C22 &amp; "', replace: '" &amp; D22 &amp; "'", "")&amp;", name: '"&amp;E22&amp;"', ruby: '"&amp;F22&amp;"', baseType: '"&amp;VLOOKUP(G22,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H22,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I22&lt;&gt;"",", '"&amp; VLOOKUP(I22,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J22&lt;&gt;"", ", range: '"&amp;J22&amp;"'", "")&amp;IF(L22&lt;&gt;"", ", damage: '"&amp;L22&amp;"'", "")&amp;IF(N22&lt;&gt;"", ", capacity: '"&amp;N22&amp;"'", "")&amp;IF(O22&lt;&gt;"", ", cost: '"&amp;O22&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R22, CHAR(10), "\n")&amp;"'"&amp;IF(P22="○", ", sealable: true", "")&amp;IF(Q22="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '04-tokoyo-A1-s-2': {megami: 'tokoyo', anotherID: 'A1', replace: '04-tokoyo-o-s-2', name: '二重奏:吹弾陽明', ruby: 'にじゅうそう：すいだんようめい', baseType: 'special', types: ['action'], cost: '1', text: '【使用済】あなたの開始フェイズの開始時に捨て札または伏せ札からカード1枚を選び、それを山札の底に置いてもよい。 \n----\n【即再起】あなたが再構成以外でライフに1以上のダメージを受ける。'}</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="60" x14ac:dyDescent="0.15">
+        <v>, '02-saine-o-n-6': {megami: 'saine', name: '衝音晶', ruby: 'しょうおんしょう', baseType: 'normal', types: ['enhance', 'reaction'], capacity: '1', text: '【展開時】対応した《攻撃》は-1/+0となる。\n【破棄時】攻撃『適正距離0-10、1/-、対応不可』を行う。'}</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="48" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>76</v>
+        <v>619</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>3</v>
+        <v>584</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>622</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>53</v>
+        <v>611</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>87</v>
+        <v>615</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="K23" s="13"/>
-      <c r="L23" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="M23" s="13"/>
-      <c r="O23" s="4" t="s">
-        <v>56</v>
+      <c r="N23" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="R23" s="5" t="s">
-        <v>575</v>
+        <v>801</v>
       </c>
       <c r="S23" s="13"/>
       <c r="T23" s="3" t="str">
         <f>", '"&amp;A23&amp;"': {megami: '"&amp;B23&amp;"'"&amp;IF(C23&lt;&gt;"", ", anotherID: '" &amp; C23 &amp; "', replace: '" &amp; D23 &amp; "'", "")&amp;", name: '"&amp;E23&amp;"', ruby: '"&amp;F23&amp;"', baseType: '"&amp;VLOOKUP(G23,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H23,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I23&lt;&gt;"",", '"&amp; VLOOKUP(I23,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J23&lt;&gt;"", ", range: '"&amp;J23&amp;"'", "")&amp;IF(L23&lt;&gt;"", ", damage: '"&amp;L23&amp;"'", "")&amp;IF(N23&lt;&gt;"", ", capacity: '"&amp;N23&amp;"'", "")&amp;IF(O23&lt;&gt;"", ", cost: '"&amp;O23&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R23, CHAR(10), "\n")&amp;"'"&amp;IF(P23="○", ", sealable: true", "")&amp;IF(Q23="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '04-tokoyo-o-s-3': {megami: 'tokoyo', name: '無窮ノ風', ruby: 'むきゅうのかぜ', baseType: 'special', types: ['attack'], range: '3-8', damage: '1/1', cost: '1', text: '対応不可 \n【攻撃後】相手は手札から《攻撃》でないカード1枚を捨て札にする。それが行えない場合、相手は手札を公開する。 \n----\n【再起】境地-あなたの集中力が2である。'}</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
+        <v>, '02-saine-A1-n-6': {megami: 'saine', anotherID: 'A1', replace: '02-saine-o-n-6', name: '伴奏', ruby: 'ばんそう', baseType: 'normal', types: ['enhance'], capacity: '4', text: '【展開中】あなたの他のメガミの切札が1枚以上使用済ならば、各ターンの最初の相手の《攻撃》は-1/+0となる。\n【展開中】あなたのサイネの切札が1枚以上使用済ならば、各ターンにあなたが最初に使用する切札の消費は1少なくなる(0未満にはならない)。'}</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>77</v>
+        <v>716</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>3</v>
+        <v>584</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>54</v>
+        <v>742</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>86</v>
+        <v>764</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>684</v>
       </c>
       <c r="K24" s="13"/>
       <c r="M24" s="13"/>
-      <c r="O24" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="R24" s="4" t="s">
-        <v>85</v>
+      <c r="N24" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="R24" s="5" t="s">
+        <v>802</v>
       </c>
       <c r="S24" s="13"/>
       <c r="T24" s="3" t="str">
         <f>", '"&amp;A24&amp;"': {megami: '"&amp;B24&amp;"'"&amp;IF(C24&lt;&gt;"", ", anotherID: '" &amp; C24 &amp; "', replace: '" &amp; D24 &amp; "'", "")&amp;", name: '"&amp;E24&amp;"', ruby: '"&amp;F24&amp;"', baseType: '"&amp;VLOOKUP(G24,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H24,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I24&lt;&gt;"",", '"&amp; VLOOKUP(I24,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J24&lt;&gt;"", ", range: '"&amp;J24&amp;"'", "")&amp;IF(L24&lt;&gt;"", ", damage: '"&amp;L24&amp;"'", "")&amp;IF(N24&lt;&gt;"", ", capacity: '"&amp;N24&amp;"'", "")&amp;IF(O24&lt;&gt;"", ", cost: '"&amp;O24&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R24, CHAR(10), "\n")&amp;"'"&amp;IF(P24="○", ", sealable: true", "")&amp;IF(Q24="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '04-tokoyo-o-s-4': {megami: 'tokoyo', name: '常世ノ月', ruby: 'とこよのつき', baseType: 'special', types: ['action'], cost: '2', text: 'あなたの集中力は2になり、相手の集中力は0になり、相手を畏縮させる。'}</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.15">
+        <v>, '02-saine-o-n-7': {megami: 'saine', name: '無音壁', ruby: 'むおんへき', baseType: 'normal', types: ['enhance', 'fullpower'], capacity: '5', text: '【展開中】あなたへのダメージを解決するに際し、このカードの上に置かれた桜花結晶をあなたのオーラにあるかのように扱う。'}</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="36" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>92</v>
+        <v>722</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>103</v>
+        <v>584</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>104</v>
+        <v>743</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>117</v>
+        <v>765</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="K25" s="13"/>
-      <c r="L25" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="M25" s="13"/>
-      <c r="R25" s="6" t="s">
-        <v>105</v>
+      <c r="O25" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="R25" s="5" t="s">
+        <v>803</v>
       </c>
       <c r="S25" s="13"/>
       <c r="T25" s="3" t="str">
         <f>", '"&amp;A25&amp;"': {megami: '"&amp;B25&amp;"'"&amp;IF(C25&lt;&gt;"", ", anotherID: '" &amp; C25 &amp; "', replace: '" &amp; D25 &amp; "'", "")&amp;", name: '"&amp;E25&amp;"', ruby: '"&amp;F25&amp;"', baseType: '"&amp;VLOOKUP(G25,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H25,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I25&lt;&gt;"",", '"&amp; VLOOKUP(I25,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J25&lt;&gt;"", ", range: '"&amp;J25&amp;"'", "")&amp;IF(L25&lt;&gt;"", ", damage: '"&amp;L25&amp;"'", "")&amp;IF(N25&lt;&gt;"", ", capacity: '"&amp;N25&amp;"'", "")&amp;IF(O25&lt;&gt;"", ", cost: '"&amp;O25&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R25, CHAR(10), "\n")&amp;"'"&amp;IF(P25="○", ", sealable: true", "")&amp;IF(Q25="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '05-oboro-o-n-1': {megami: 'oboro', name: '鋼糸', ruby: 'こうし', baseType: 'normal', types: ['attack'], range: '3-4', damage: '2/2', text: '設置'}</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" ht="33.75" x14ac:dyDescent="0.15">
+        <v>, '02-saine-o-s-1': {megami: 'saine', name: '律動弧戟', ruby: 'りつどうこげき', baseType: 'special', types: ['action'], cost: '6', text: '攻撃『適正距離3-4、1/1』を行う。\n攻撃『適正距離4-5、1/1』を行う。\n攻撃『適正距離3-5、2/2』を行う。'}</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>93</v>
+        <v>723</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>103</v>
+        <v>584</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>106</v>
+        <v>744</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>118</v>
+        <v>766</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="K26" s="13"/>
-      <c r="L26" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="M26" s="13"/>
-      <c r="R26" s="7" t="s">
-        <v>135</v>
+      <c r="O26" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="R26" s="5" t="s">
+        <v>804</v>
       </c>
       <c r="S26" s="13"/>
       <c r="T26" s="3" t="str">
         <f>", '"&amp;A26&amp;"': {megami: '"&amp;B26&amp;"'"&amp;IF(C26&lt;&gt;"", ", anotherID: '" &amp; C26 &amp; "', replace: '" &amp; D26 &amp; "'", "")&amp;", name: '"&amp;E26&amp;"', ruby: '"&amp;F26&amp;"', baseType: '"&amp;VLOOKUP(G26,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H26,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I26&lt;&gt;"",", '"&amp; VLOOKUP(I26,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J26&lt;&gt;"", ", range: '"&amp;J26&amp;"'", "")&amp;IF(L26&lt;&gt;"", ", damage: '"&amp;L26&amp;"'", "")&amp;IF(N26&lt;&gt;"", ", capacity: '"&amp;N26&amp;"'", "")&amp;IF(O26&lt;&gt;"", ", cost: '"&amp;O26&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R26, CHAR(10), "\n")&amp;"'"&amp;IF(P26="○", ", sealable: true", "")&amp;IF(Q26="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '05-oboro-o-n-2': {megami: 'oboro', name: '影菱', ruby: 'かげびし', baseType: 'normal', types: ['attack'], range: '2', damage: '2/1', text: '設置　対応不可\n【攻撃後】このカードを伏せ札から使用したならば、相手の手札を見てその中から1枚を選び、それを伏せ札にする。'}</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+        <v>, '02-saine-o-s-2': {megami: 'saine', name: '響鳴共振', ruby: 'きょうめいきょうしん', baseType: 'special', types: ['action'], cost: '8', text: '【常時】このカードの消費は相手のオーラの数だけ少なくなる。\n相オーラ→間合：2'}</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="48" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>94</v>
+        <v>618</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>103</v>
+        <v>584</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>623</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>107</v>
+        <v>612</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>119</v>
+        <v>613</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="K27" s="13"/>
-      <c r="L27" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="M27" s="13"/>
+      <c r="O27" s="4" t="s">
+        <v>617</v>
+      </c>
       <c r="R27" s="5" t="s">
-        <v>136</v>
+        <v>805</v>
       </c>
       <c r="S27" s="13"/>
       <c r="T27" s="3" t="str">
         <f>", '"&amp;A27&amp;"': {megami: '"&amp;B27&amp;"'"&amp;IF(C27&lt;&gt;"", ", anotherID: '" &amp; C27 &amp; "', replace: '" &amp; D27 &amp; "'", "")&amp;", name: '"&amp;E27&amp;"', ruby: '"&amp;F27&amp;"', baseType: '"&amp;VLOOKUP(G27,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H27,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I27&lt;&gt;"",", '"&amp; VLOOKUP(I27,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J27&lt;&gt;"", ", range: '"&amp;J27&amp;"'", "")&amp;IF(L27&lt;&gt;"", ", damage: '"&amp;L27&amp;"'", "")&amp;IF(N27&lt;&gt;"", ", capacity: '"&amp;N27&amp;"'", "")&amp;IF(O27&lt;&gt;"", ", cost: '"&amp;O27&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R27, CHAR(10), "\n")&amp;"'"&amp;IF(P27="○", ", sealable: true", "")&amp;IF(Q27="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '05-oboro-o-n-3': {megami: 'oboro', name: '斬撃乱舞', ruby: 'ざんげきらんぶ', baseType: 'normal', types: ['attack', 'fullpower'], range: '2-4', damage: '3/2', text: '【常時】相手がこのターン中にオーラへのダメージを受けているならば、この《攻撃》は+1/+1となる。'}</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" ht="48" x14ac:dyDescent="0.15">
+        <v>, '02-saine-A1-s-2': {megami: 'saine', anotherID: 'A1', replace: '02-saine-o-s-2', name: '二重奏:弾奏氷瞑', ruby: 'にじゅうそう:だんそうひょうめい', baseType: 'special', types: ['action'], cost: '2', text: '現在のフェイズを終了する。\n【使用済】あなたの他のメガミによる《攻撃》は+0/+1となる。\n----\n【即再起】あなたが再構成以外でライフに1以上のダメージを受ける。'}</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="36" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>95</v>
+        <v>724</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>103</v>
+        <v>584</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>109</v>
+        <v>745</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>120</v>
+        <v>767</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>23</v>
+        <v>589</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>777</v>
       </c>
       <c r="K28" s="13"/>
+      <c r="L28" s="2" t="s">
+        <v>774</v>
+      </c>
       <c r="M28" s="13"/>
+      <c r="O28" s="4" t="s">
+        <v>698</v>
+      </c>
       <c r="R28" s="5" t="s">
-        <v>197</v>
+        <v>806</v>
       </c>
       <c r="S28" s="13"/>
       <c r="T28" s="3" t="str">
         <f>", '"&amp;A28&amp;"': {megami: '"&amp;B28&amp;"'"&amp;IF(C28&lt;&gt;"", ", anotherID: '" &amp; C28 &amp; "', replace: '" &amp; D28 &amp; "'", "")&amp;", name: '"&amp;E28&amp;"', ruby: '"&amp;F28&amp;"', baseType: '"&amp;VLOOKUP(G28,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H28,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I28&lt;&gt;"",", '"&amp; VLOOKUP(I28,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J28&lt;&gt;"", ", range: '"&amp;J28&amp;"'", "")&amp;IF(L28&lt;&gt;"", ", damage: '"&amp;L28&amp;"'", "")&amp;IF(N28&lt;&gt;"", ", capacity: '"&amp;N28&amp;"'", "")&amp;IF(O28&lt;&gt;"", ", cost: '"&amp;O28&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R28, CHAR(10), "\n")&amp;"'"&amp;IF(P28="○", ", sealable: true", "")&amp;IF(Q28="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '05-oboro-o-n-4': {megami: 'oboro', name: '忍歩', ruby: 'にんぽ', baseType: 'normal', types: ['action'], text: '設置 \n間合⇔ダスト：1 \nこのカードを伏せ札から使用したならば、伏せ札から設置を持つカードを1枚使用してもよい。'}</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" ht="48" x14ac:dyDescent="0.15">
+        <v>, '02-saine-o-s-3': {megami: 'saine', name: '音無砕氷', ruby: 'おとなしさいひょう', baseType: 'special', types: ['attack', 'reaction'], range: '0-10', damage: '1/1', cost: '2', text: '対応した《攻撃》は-1/-1となる。\n----\n【再起】八相-あなたのオーラが0である。'}</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>96</v>
+        <v>725</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>103</v>
+        <v>584</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>110</v>
+        <v>746</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>121</v>
+        <v>768</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>23</v>
+        <v>589</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>778</v>
       </c>
       <c r="K29" s="13"/>
+      <c r="L29" s="2" t="s">
+        <v>779</v>
+      </c>
       <c r="M29" s="13"/>
+      <c r="O29" s="4" t="s">
+        <v>733</v>
+      </c>
       <c r="R29" s="5" t="s">
-        <v>198</v>
+        <v>807</v>
       </c>
       <c r="S29" s="13"/>
       <c r="T29" s="3" t="str">
         <f>", '"&amp;A29&amp;"': {megami: '"&amp;B29&amp;"'"&amp;IF(C29&lt;&gt;"", ", anotherID: '" &amp; C29 &amp; "', replace: '" &amp; D29 &amp; "'", "")&amp;", name: '"&amp;E29&amp;"', ruby: '"&amp;F29&amp;"', baseType: '"&amp;VLOOKUP(G29,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H29,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I29&lt;&gt;"",", '"&amp; VLOOKUP(I29,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J29&lt;&gt;"", ", range: '"&amp;J29&amp;"'", "")&amp;IF(L29&lt;&gt;"", ", damage: '"&amp;L29&amp;"'", "")&amp;IF(N29&lt;&gt;"", ", capacity: '"&amp;N29&amp;"'", "")&amp;IF(O29&lt;&gt;"", ", cost: '"&amp;O29&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R29, CHAR(10), "\n")&amp;"'"&amp;IF(P29="○", ", sealable: true", "")&amp;IF(Q29="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '05-oboro-o-n-5': {megami: 'oboro', name: '誘導', ruby: 'ゆうどう', baseType: 'normal', types: ['action', 'reaction'], text: '設置\n以下から１つを選ぶ。\n・間合→相オーラ：1\n・相オーラ→相フレア：1'}</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+        <v>, '02-saine-o-s-4': {megami: 'saine', name: '氷雨細音の果ての果て', ruby: 'ひさめさいねのはてのはて', baseType: 'special', types: ['attack', 'reaction'], range: '1-5', damage: '5/5', cost: '5', text: '【常時】このカードは切札に対する対応でしか使用できない。'}</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>97</v>
+        <v>710</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>103</v>
+        <v>583</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>122</v>
+        <v>747</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>31</v>
+        <v>589</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>781</v>
       </c>
       <c r="K30" s="13"/>
+      <c r="L30" s="2" t="s">
+        <v>788</v>
+      </c>
       <c r="M30" s="13"/>
-      <c r="R30" s="5" t="s">
-        <v>137</v>
-      </c>
+      <c r="R30" s="5"/>
       <c r="S30" s="13"/>
       <c r="T30" s="3" t="str">
         <f>", '"&amp;A30&amp;"': {megami: '"&amp;B30&amp;"'"&amp;IF(C30&lt;&gt;"", ", anotherID: '" &amp; C30 &amp; "', replace: '" &amp; D30 &amp; "'", "")&amp;", name: '"&amp;E30&amp;"', ruby: '"&amp;F30&amp;"', baseType: '"&amp;VLOOKUP(G30,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H30,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I30&lt;&gt;"",", '"&amp; VLOOKUP(I30,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J30&lt;&gt;"", ", range: '"&amp;J30&amp;"'", "")&amp;IF(L30&lt;&gt;"", ", damage: '"&amp;L30&amp;"'", "")&amp;IF(N30&lt;&gt;"", ", capacity: '"&amp;N30&amp;"'", "")&amp;IF(O30&lt;&gt;"", ", cost: '"&amp;O30&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R30, CHAR(10), "\n")&amp;"'"&amp;IF(P30="○", ", sealable: true", "")&amp;IF(Q30="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '05-oboro-o-n-6': {megami: 'oboro', name: '分身の術', ruby: 'ぶんしんのじゅつ', baseType: 'normal', types: ['action', 'fullpower'], text: '伏せ札から《全力》でないカードを1枚選び、そのカードを使用する。その後、そのカードが捨て札にあるならば捨て札からもう1回使用する。《攻撃》カードが使用されたならばそれらの《攻撃》は対応不可を得る（2回ともに対応不可を得る）。'}</v>
+        <v>, '03-himika-o-n-1': {megami: 'himika', name: 'シュート', ruby: '', baseType: 'normal', types: ['attack'], range: '4-10', damage: '2/1', text: ''}</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>98</v>
+        <v>717</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>103</v>
+        <v>583</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>123</v>
+        <v>748</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>48</v>
+        <v>589</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>782</v>
       </c>
       <c r="K31" s="13"/>
+      <c r="L31" s="2" t="s">
+        <v>788</v>
+      </c>
       <c r="M31" s="13"/>
-      <c r="N31" s="4" t="s">
-        <v>131</v>
-      </c>
       <c r="R31" s="5" t="s">
-        <v>138</v>
+        <v>792</v>
       </c>
       <c r="S31" s="13"/>
       <c r="T31" s="3" t="str">
         <f>", '"&amp;A31&amp;"': {megami: '"&amp;B31&amp;"'"&amp;IF(C31&lt;&gt;"", ", anotherID: '" &amp; C31 &amp; "', replace: '" &amp; D31 &amp; "'", "")&amp;", name: '"&amp;E31&amp;"', ruby: '"&amp;F31&amp;"', baseType: '"&amp;VLOOKUP(G31,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H31,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I31&lt;&gt;"",", '"&amp; VLOOKUP(I31,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J31&lt;&gt;"", ", range: '"&amp;J31&amp;"'", "")&amp;IF(L31&lt;&gt;"", ", damage: '"&amp;L31&amp;"'", "")&amp;IF(N31&lt;&gt;"", ", capacity: '"&amp;N31&amp;"'", "")&amp;IF(O31&lt;&gt;"", ", cost: '"&amp;O31&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R31, CHAR(10), "\n")&amp;"'"&amp;IF(P31="○", ", sealable: true", "")&amp;IF(Q31="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '05-oboro-o-n-7': {megami: 'oboro', name: '生体活性', ruby: 'せいたいかっせい', baseType: 'normal', types: ['enhance'], capacity: '4', text: '隙　設置 \n【破棄時】あなたの使用済の切札を1枚選び、それを未使用に戻す。'}</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.15">
+        <v>, '03-himika-o-n-2': {megami: 'himika', name: 'ラピッドファイア', ruby: '', baseType: 'normal', types: ['attack'], range: '7-8', damage: '2/1', text: '【常時】連火-このカードがこのターンに使用した3枚目以降のカードならば、この《攻撃》は+1/+1となる。'}</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>99</v>
+        <v>624</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>103</v>
+        <v>609</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>626</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>113</v>
+        <v>628</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>124</v>
+        <v>631</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>31</v>
+        <v>634</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>79</v>
+        <v>637</v>
       </c>
       <c r="K32" s="13"/>
       <c r="L32" s="2" t="s">
-        <v>128</v>
+        <v>639</v>
       </c>
       <c r="M32" s="13"/>
-      <c r="O32" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="R32" s="4" t="s">
-        <v>139</v>
+      <c r="R32" s="5" t="s">
+        <v>791</v>
       </c>
       <c r="S32" s="13"/>
       <c r="T32" s="3" t="str">
         <f>", '"&amp;A32&amp;"': {megami: '"&amp;B32&amp;"'"&amp;IF(C32&lt;&gt;"", ", anotherID: '" &amp; C32 &amp; "', replace: '" &amp; D32 &amp; "'", "")&amp;", name: '"&amp;E32&amp;"', ruby: '"&amp;F32&amp;"', baseType: '"&amp;VLOOKUP(G32,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H32,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I32&lt;&gt;"",", '"&amp; VLOOKUP(I32,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J32&lt;&gt;"", ", range: '"&amp;J32&amp;"'", "")&amp;IF(L32&lt;&gt;"", ", damage: '"&amp;L32&amp;"'", "")&amp;IF(N32&lt;&gt;"", ", capacity: '"&amp;N32&amp;"'", "")&amp;IF(O32&lt;&gt;"", ", cost: '"&amp;O32&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R32, CHAR(10), "\n")&amp;"'"&amp;IF(P32="○", ", sealable: true", "")&amp;IF(Q32="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '05-oboro-o-s-1': {megami: 'oboro', name: '熊介', ruby: 'くますけ', baseType: 'special', types: ['attack', 'fullpower'], range: '3-4', damage: '2/2', cost: '4', text: '【攻撃後】攻撃『適正距離3-4、2/2』をX回行う。Xはあなたの伏せ札の枚数に等しい。'}</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+        <v>, '03-himika-A1-n-2': {megami: 'himika', anotherID: 'A1', replace: '03-himika-o-n-2', name: '火炎流', ruby: 'かえんりゅう', baseType: 'normal', types: ['attack'], range: '1-3', damage: '2/1', text: '【常時】連火-このカードがこのターンに使用した3枚目以降のカードならば、この《攻撃》は+0/+1となる。'}</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>100</v>
+        <v>718</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>103</v>
+        <v>583</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>125</v>
+        <v>749</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>28</v>
+        <v>589</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>783</v>
       </c>
       <c r="K33" s="13"/>
+      <c r="L33" s="2" t="s">
+        <v>789</v>
+      </c>
       <c r="M33" s="13"/>
-      <c r="O33" s="4" t="s">
-        <v>132</v>
-      </c>
       <c r="R33" s="5" t="s">
-        <v>140</v>
+        <v>793</v>
       </c>
       <c r="S33" s="13"/>
       <c r="T33" s="3" t="str">
         <f>", '"&amp;A33&amp;"': {megami: '"&amp;B33&amp;"'"&amp;IF(C33&lt;&gt;"", ", anotherID: '" &amp; C33 &amp; "', replace: '" &amp; D33 &amp; "'", "")&amp;", name: '"&amp;E33&amp;"', ruby: '"&amp;F33&amp;"', baseType: '"&amp;VLOOKUP(G33,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H33,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I33&lt;&gt;"",", '"&amp; VLOOKUP(I33,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J33&lt;&gt;"", ", range: '"&amp;J33&amp;"'", "")&amp;IF(L33&lt;&gt;"", ", damage: '"&amp;L33&amp;"'", "")&amp;IF(N33&lt;&gt;"", ", capacity: '"&amp;N33&amp;"'", "")&amp;IF(O33&lt;&gt;"", ", cost: '"&amp;O33&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R33, CHAR(10), "\n")&amp;"'"&amp;IF(P33="○", ", sealable: true", "")&amp;IF(Q33="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '05-oboro-o-s-2': {megami: 'oboro', name: '鳶影', ruby: 'とびかげ', baseType: 'special', types: ['action', 'reaction'], cost: '3', text: '伏せ札から《全力》でないカードを1枚選び、そのカードを使用してもよい。この際、このカードが対応している《攻撃》があるならば、使用されたカードはそれに対応しているものと扱う。'}</v>
+        <v>, '03-himika-o-n-3': {megami: 'himika', name: 'マグナムカノン', ruby: '', baseType: 'normal', types: ['attack'], range: '5-8', damage: '3/2', text: '【攻撃後】自ライフ→ダスト：1'}</v>
       </c>
     </row>
     <row r="34" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>101</v>
+        <v>719</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>103</v>
+        <v>583</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>126</v>
+        <v>750</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>23</v>
+        <v>589</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>784</v>
       </c>
       <c r="K34" s="13"/>
+      <c r="L34" s="2" t="s">
+        <v>790</v>
+      </c>
       <c r="M34" s="13"/>
-      <c r="O34" s="4" t="s">
-        <v>133</v>
-      </c>
       <c r="R34" s="5" t="s">
-        <v>141</v>
+        <v>808</v>
       </c>
       <c r="S34" s="13"/>
       <c r="T34" s="3" t="str">
         <f>", '"&amp;A34&amp;"': {megami: '"&amp;B34&amp;"'"&amp;IF(C34&lt;&gt;"", ", anotherID: '" &amp; C34 &amp; "', replace: '" &amp; D34 &amp; "'", "")&amp;", name: '"&amp;E34&amp;"', ruby: '"&amp;F34&amp;"', baseType: '"&amp;VLOOKUP(G34,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H34,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I34&lt;&gt;"",", '"&amp; VLOOKUP(I34,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J34&lt;&gt;"", ", range: '"&amp;J34&amp;"'", "")&amp;IF(L34&lt;&gt;"", ", damage: '"&amp;L34&amp;"'", "")&amp;IF(N34&lt;&gt;"", ", capacity: '"&amp;N34&amp;"'", "")&amp;IF(O34&lt;&gt;"", ", cost: '"&amp;O34&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R34, CHAR(10), "\n")&amp;"'"&amp;IF(P34="○", ", sealable: true", "")&amp;IF(Q34="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '05-oboro-o-s-3': {megami: 'oboro', name: '虚魚', ruby: 'うろうお', baseType: 'special', types: ['action'], cost: '4', text: '【使用済】あなたは1回の再構成に対して、設置を持つカードを任意の枚数、任意の順で使用できる。'}</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+        <v>, '03-himika-o-n-4': {megami: 'himika', name: 'フルバースト', ruby: '', baseType: 'normal', types: ['attack', 'fullpower'], range: '5-9', damage: '3/1', text: '【常時】この《攻撃》がダメージを与えるならば、相手は片方を選ぶのではなく両方のダメージを受ける。'}</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>102</v>
+        <v>720</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>103</v>
+        <v>583</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>127</v>
+        <v>751</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K35" s="13"/>
       <c r="M35" s="13"/>
-      <c r="O35" s="4" t="s">
-        <v>134</v>
-      </c>
       <c r="R35" s="5" t="s">
-        <v>396</v>
+        <v>794</v>
       </c>
       <c r="S35" s="13"/>
       <c r="T35" s="3" t="str">
         <f>", '"&amp;A35&amp;"': {megami: '"&amp;B35&amp;"'"&amp;IF(C35&lt;&gt;"", ", anotherID: '" &amp; C35 &amp; "', replace: '" &amp; D35 &amp; "'", "")&amp;", name: '"&amp;E35&amp;"', ruby: '"&amp;F35&amp;"', baseType: '"&amp;VLOOKUP(G35,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H35,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I35&lt;&gt;"",", '"&amp; VLOOKUP(I35,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J35&lt;&gt;"", ", range: '"&amp;J35&amp;"'", "")&amp;IF(L35&lt;&gt;"", ", damage: '"&amp;L35&amp;"'", "")&amp;IF(N35&lt;&gt;"", ", capacity: '"&amp;N35&amp;"'", "")&amp;IF(O35&lt;&gt;"", ", cost: '"&amp;O35&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R35, CHAR(10), "\n")&amp;"'"&amp;IF(P35="○", ", sealable: true", "")&amp;IF(Q35="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '05-oboro-o-s-4': {megami: 'oboro', name: '壬蔓', ruby: 'みかずら', baseType: 'special', types: ['action'], cost: '0', text: '相オーラ→自フレア：1 \n----\n【再起】あなたのフレアが0である。'}</v>
+        <v>, '03-himika-o-n-5': {megami: 'himika', name: 'バックステップ', ruby: '', baseType: 'normal', types: ['action'], text: 'カードを1枚引く。 \nダスト→間合：1'}</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
-        <v>225</v>
+        <v>625</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>241</v>
+        <v>583</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>627</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>213</v>
+        <v>629</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>632</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J36" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="K36" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="L36" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="M36" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="S36" s="8"/>
-      <c r="T36" s="9" t="str">
-        <f>", '"&amp;A36&amp;"': {megami: '"&amp;B36&amp;"', name: '"&amp;E36&amp;"', ruby: '"&amp;F36&amp;"', baseType: '"&amp;VLOOKUP(G36,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H36,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I36&lt;&gt;"",", '"&amp; VLOOKUP(I36,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J36&lt;&gt;"", ", range: '"&amp;J36&amp;"'", "")&amp;IF(K36&lt;&gt;"", ", rangeOpened: '"&amp;K36&amp;"'", "")&amp;IF(L36&lt;&gt;"", ", damage: '"&amp;L36&amp;"'", "")&amp;IF(M36&lt;&gt;"", ", damageOpened: '"&amp;M36&amp;"'", "")&amp;IF(N36&lt;&gt;"", ", capacity: '"&amp;N36&amp;"'", "")&amp;IF(O36&lt;&gt;"", ", cost: '"&amp;O36&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R36, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(S36, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '06-yukihi-o-n-1': {megami: 'yukihi', name: 'しこみばり / ふくみばり', ruby: '', baseType: 'normal', types: ['attack'], range: '4-6', rangeOpened: '0-2', damage: '3/1', damageOpened: '1/2', text: '', textOpened: ''}</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.15">
+        <v>636</v>
+      </c>
+      <c r="K36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="R36" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="S36" s="13"/>
+      <c r="T36" s="3" t="str">
+        <f>", '"&amp;A36&amp;"': {megami: '"&amp;B36&amp;"'"&amp;IF(C36&lt;&gt;"", ", anotherID: '" &amp; C36 &amp; "', replace: '" &amp; D36 &amp; "'", "")&amp;", name: '"&amp;E36&amp;"', ruby: '"&amp;F36&amp;"', baseType: '"&amp;VLOOKUP(G36,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H36,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I36&lt;&gt;"",", '"&amp; VLOOKUP(I36,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J36&lt;&gt;"", ", range: '"&amp;J36&amp;"'", "")&amp;IF(L36&lt;&gt;"", ", damage: '"&amp;L36&amp;"'", "")&amp;IF(N36&lt;&gt;"", ", capacity: '"&amp;N36&amp;"'", "")&amp;IF(O36&lt;&gt;"", ", cost: '"&amp;O36&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R36, CHAR(10), "\n")&amp;"'"&amp;IF(P36="○", ", sealable: true", "")&amp;IF(Q36="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '03-himika-A1-n-5': {megami: 'himika', anotherID: 'A1', replace: '03-himika-o-n-5', name: '殺意', ruby: 'さつい', baseType: 'normal', types: ['action'], text: 'あなたの手札が0枚ならば、相オーラ→ダスト：2'}</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="36" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>226</v>
+        <v>721</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>241</v>
+        <v>583</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>236</v>
+        <v>752</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="K37" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="M37" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="R37" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="T37" s="9" t="str">
-        <f>", '"&amp;A37&amp;"': {megami: '"&amp;B37&amp;"', name: '"&amp;E37&amp;"', ruby: '"&amp;F37&amp;"', baseType: '"&amp;VLOOKUP(G37,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H37,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I37&lt;&gt;"",", '"&amp; VLOOKUP(I37,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J37&lt;&gt;"", ", range: '"&amp;J37&amp;"'", "")&amp;IF(K37&lt;&gt;"", ", rangeOpened: '"&amp;K37&amp;"'", "")&amp;IF(L37&lt;&gt;"", ", damage: '"&amp;L37&amp;"'", "")&amp;IF(M37&lt;&gt;"", ", damageOpened: '"&amp;M37&amp;"'", "")&amp;IF(N37&lt;&gt;"", ", capacity: '"&amp;N37&amp;"'", "")&amp;IF(O37&lt;&gt;"", ", cost: '"&amp;O37&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R37, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(S37, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '06-yukihi-o-n-2': {megami: 'yukihi', name: 'しこみび / ねこだまし', ruby: '', baseType: 'normal', types: ['attack'], range: '5-6', rangeOpened: '0-2', damage: '1/1', damageOpened: '1/1', text: '【攻撃後】このカードを手札に戻し、傘の開閉を行う。 ', textOpened: ''}</v>
+        <v>24</v>
+      </c>
+      <c r="K37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="R37" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="S37" s="13"/>
+      <c r="T37" s="3" t="str">
+        <f>", '"&amp;A37&amp;"': {megami: '"&amp;B37&amp;"'"&amp;IF(C37&lt;&gt;"", ", anotherID: '" &amp; C37 &amp; "', replace: '" &amp; D37 &amp; "'", "")&amp;", name: '"&amp;E37&amp;"', ruby: '"&amp;F37&amp;"', baseType: '"&amp;VLOOKUP(G37,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H37,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I37&lt;&gt;"",", '"&amp; VLOOKUP(I37,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J37&lt;&gt;"", ", range: '"&amp;J37&amp;"'", "")&amp;IF(L37&lt;&gt;"", ", damage: '"&amp;L37&amp;"'", "")&amp;IF(N37&lt;&gt;"", ", capacity: '"&amp;N37&amp;"'", "")&amp;IF(O37&lt;&gt;"", ", cost: '"&amp;O37&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R37, CHAR(10), "\n")&amp;"'"&amp;IF(P37="○", ", sealable: true", "")&amp;IF(Q37="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '03-himika-o-n-6': {megami: 'himika', name: 'バックドラフト', ruby: '', baseType: 'normal', types: ['action'], text: '相手を畏縮させる。\n連火-このカードがこのターンに使用した3枚目以降のカードならば、このターンにあなたが次に行う他のメガミによる《攻撃》を+1/+1する。'}</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
-        <v>227</v>
+        <v>726</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>241</v>
+        <v>583</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>235</v>
+        <v>753</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="K38" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="M38" s="11" t="s">
-        <v>252</v>
+        <v>48</v>
+      </c>
+      <c r="K38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="4" t="s">
+        <v>735</v>
       </c>
       <c r="R38" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="S38" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="T38" s="9" t="str">
-        <f>", '"&amp;A38&amp;"': {megami: '"&amp;B38&amp;"', name: '"&amp;E38&amp;"', ruby: '"&amp;F38&amp;"', baseType: '"&amp;VLOOKUP(G38,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H38,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I38&lt;&gt;"",", '"&amp; VLOOKUP(I38,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J38&lt;&gt;"", ", range: '"&amp;J38&amp;"'", "")&amp;IF(K38&lt;&gt;"", ", rangeOpened: '"&amp;K38&amp;"'", "")&amp;IF(L38&lt;&gt;"", ", damage: '"&amp;L38&amp;"'", "")&amp;IF(M38&lt;&gt;"", ", damageOpened: '"&amp;M38&amp;"'", "")&amp;IF(N38&lt;&gt;"", ", capacity: '"&amp;N38&amp;"'", "")&amp;IF(O38&lt;&gt;"", ", cost: '"&amp;O38&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R38, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(S38, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '06-yukihi-o-n-3': {megami: 'yukihi', name: 'ふりはらい / たぐりよせ', ruby: '', baseType: 'normal', types: ['attack'], range: '2-5', rangeOpened: '0-2', damage: '1/1', damageOpened: '1/1', text: '【攻撃後】ダスト⇔間合：1 ', textOpened: '【攻撃後】間合→ダスト：2'}</v>
+        <v>795</v>
+      </c>
+      <c r="S38" s="13"/>
+      <c r="T38" s="3" t="str">
+        <f>", '"&amp;A38&amp;"': {megami: '"&amp;B38&amp;"'"&amp;IF(C38&lt;&gt;"", ", anotherID: '" &amp; C38 &amp; "', replace: '" &amp; D38 &amp; "'", "")&amp;", name: '"&amp;E38&amp;"', ruby: '"&amp;F38&amp;"', baseType: '"&amp;VLOOKUP(G38,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H38,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I38&lt;&gt;"",", '"&amp; VLOOKUP(I38,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J38&lt;&gt;"", ", range: '"&amp;J38&amp;"'", "")&amp;IF(L38&lt;&gt;"", ", damage: '"&amp;L38&amp;"'", "")&amp;IF(N38&lt;&gt;"", ", capacity: '"&amp;N38&amp;"'", "")&amp;IF(O38&lt;&gt;"", ", cost: '"&amp;O38&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R38, CHAR(10), "\n")&amp;"'"&amp;IF(P38="○", ", sealable: true", "")&amp;IF(Q38="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '03-himika-o-n-7': {megami: 'himika', name: 'スモーク', ruby: '', baseType: 'normal', types: ['enhance'], capacity: '3', text: '【展開中】カードの矢印(→)により間合にある桜花結晶は移動しない。'}</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>228</v>
+        <v>727</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>241</v>
+        <v>583</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>234</v>
+        <v>754</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>31</v>
+        <v>589</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="K39" s="11" t="s">
-        <v>215</v>
-      </c>
+        <v>785</v>
+      </c>
+      <c r="K39" s="13"/>
       <c r="L39" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="M39" s="11" t="s">
-        <v>256</v>
+        <v>773</v>
+      </c>
+      <c r="M39" s="13"/>
+      <c r="O39" s="4" t="s">
+        <v>734</v>
       </c>
       <c r="R39" s="5"/>
-      <c r="T39" s="9" t="str">
-        <f>", '"&amp;A39&amp;"': {megami: '"&amp;B39&amp;"', name: '"&amp;E39&amp;"', ruby: '"&amp;F39&amp;"', baseType: '"&amp;VLOOKUP(G39,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H39,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I39&lt;&gt;"",", '"&amp; VLOOKUP(I39,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J39&lt;&gt;"", ", range: '"&amp;J39&amp;"'", "")&amp;IF(K39&lt;&gt;"", ", rangeOpened: '"&amp;K39&amp;"'", "")&amp;IF(L39&lt;&gt;"", ", damage: '"&amp;L39&amp;"'", "")&amp;IF(M39&lt;&gt;"", ", damageOpened: '"&amp;M39&amp;"'", "")&amp;IF(N39&lt;&gt;"", ", capacity: '"&amp;N39&amp;"'", "")&amp;IF(O39&lt;&gt;"", ", cost: '"&amp;O39&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R39, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(S39, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '06-yukihi-o-n-4': {megami: 'yukihi', name: 'ふりまわし / つきさし', ruby: '', baseType: 'normal', types: ['attack', 'fullpower'], range: '4-6', rangeOpened: '0-2', damage: '5/-', damageOpened: '-/2', text: '', textOpened: ''}</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" ht="60" x14ac:dyDescent="0.15">
+      <c r="S39" s="13"/>
+      <c r="T39" s="3" t="str">
+        <f>", '"&amp;A39&amp;"': {megami: '"&amp;B39&amp;"'"&amp;IF(C39&lt;&gt;"", ", anotherID: '" &amp; C39 &amp; "', replace: '" &amp; D39 &amp; "'", "")&amp;", name: '"&amp;E39&amp;"', ruby: '"&amp;F39&amp;"', baseType: '"&amp;VLOOKUP(G39,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H39,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I39&lt;&gt;"",", '"&amp; VLOOKUP(I39,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J39&lt;&gt;"", ", range: '"&amp;J39&amp;"'", "")&amp;IF(L39&lt;&gt;"", ", damage: '"&amp;L39&amp;"'", "")&amp;IF(N39&lt;&gt;"", ", capacity: '"&amp;N39&amp;"'", "")&amp;IF(O39&lt;&gt;"", ", cost: '"&amp;O39&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R39, CHAR(10), "\n")&amp;"'"&amp;IF(P39="○", ", sealable: true", "")&amp;IF(Q39="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '03-himika-o-s-1': {megami: 'himika', name: 'レッドバレット', ruby: '', baseType: 'special', types: ['attack'], range: '5-10', damage: '3/1', cost: '0', text: ''}</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" ht="36" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>229</v>
+        <v>728</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>241</v>
+        <v>583</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>217</v>
+        <v>755</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K40" s="11"/>
-      <c r="M40" s="11"/>
+        <v>589</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="K40" s="13"/>
+      <c r="L40" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="M40" s="13"/>
+      <c r="O40" s="4" t="s">
+        <v>733</v>
+      </c>
       <c r="R40" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="T40" s="9" t="str">
-        <f>", '"&amp;A40&amp;"': {megami: '"&amp;B40&amp;"', name: '"&amp;E40&amp;"', ruby: '"&amp;F40&amp;"', baseType: '"&amp;VLOOKUP(G40,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H40,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I40&lt;&gt;"",", '"&amp; VLOOKUP(I40,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J40&lt;&gt;"", ", range: '"&amp;J40&amp;"'", "")&amp;IF(K40&lt;&gt;"", ", rangeOpened: '"&amp;K40&amp;"'", "")&amp;IF(L40&lt;&gt;"", ", damage: '"&amp;L40&amp;"'", "")&amp;IF(M40&lt;&gt;"", ", damageOpened: '"&amp;M40&amp;"'", "")&amp;IF(N40&lt;&gt;"", ", capacity: '"&amp;N40&amp;"'", "")&amp;IF(O40&lt;&gt;"", ", cost: '"&amp;O40&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R40, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(S40, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '06-yukihi-o-n-5': {megami: 'yukihi', name: 'かさまわし', ruby: '', baseType: 'normal', types: ['action'], text: '(このカードは使用しても効果はない) \n【常時】あなたが傘の開閉を行った時、このカードを手札から公開してもよい。そうした場合、 \nダスト→自オーラ：1\n', textOpened: ''}</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.15">
+        <v>811</v>
+      </c>
+      <c r="S40" s="13"/>
+      <c r="T40" s="3" t="str">
+        <f>", '"&amp;A40&amp;"': {megami: '"&amp;B40&amp;"'"&amp;IF(C40&lt;&gt;"", ", anotherID: '" &amp; C40 &amp; "', replace: '" &amp; D40 &amp; "'", "")&amp;", name: '"&amp;E40&amp;"', ruby: '"&amp;F40&amp;"', baseType: '"&amp;VLOOKUP(G40,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H40,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I40&lt;&gt;"",", '"&amp; VLOOKUP(I40,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J40&lt;&gt;"", ", range: '"&amp;J40&amp;"'", "")&amp;IF(L40&lt;&gt;"", ", damage: '"&amp;L40&amp;"'", "")&amp;IF(N40&lt;&gt;"", ", capacity: '"&amp;N40&amp;"'", "")&amp;IF(O40&lt;&gt;"", ", cost: '"&amp;O40&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R40, CHAR(10), "\n")&amp;"'"&amp;IF(P40="○", ", sealable: true", "")&amp;IF(Q40="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '03-himika-o-s-2': {megami: 'himika', name: 'クリムゾンゼロ', ruby: '', baseType: 'special', types: ['attack'], range: '0-2', damage: '2/2', cost: '5', text: '【常時】この《攻撃》がダメージを与えるならば、相手は片方を選ぶのではなく両方のダメージを受ける。\n【常時】現在の間合が0ならば、この《攻撃》は対応不可を得る。'}</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" ht="36" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
-        <v>230</v>
+        <v>643</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>241</v>
+        <v>583</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>644</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>233</v>
+        <v>630</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>633</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>23</v>
+        <v>634</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K41" s="11"/>
-      <c r="M41" s="11"/>
+        <v>635</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="K41" s="13"/>
+      <c r="L41" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="M41" s="13"/>
+      <c r="O41" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="R41" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="S41" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="T41" s="9" t="str">
-        <f>", '"&amp;A41&amp;"': {megami: '"&amp;B41&amp;"', name: '"&amp;E41&amp;"', ruby: '"&amp;F41&amp;"', baseType: '"&amp;VLOOKUP(G41,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H41,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I41&lt;&gt;"",", '"&amp; VLOOKUP(I41,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J41&lt;&gt;"", ", range: '"&amp;J41&amp;"'", "")&amp;IF(K41&lt;&gt;"", ", rangeOpened: '"&amp;K41&amp;"'", "")&amp;IF(L41&lt;&gt;"", ", damage: '"&amp;L41&amp;"'", "")&amp;IF(M41&lt;&gt;"", ", damageOpened: '"&amp;M41&amp;"'", "")&amp;IF(N41&lt;&gt;"", ", capacity: '"&amp;N41&amp;"'", "")&amp;IF(O41&lt;&gt;"", ", cost: '"&amp;O41&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R41, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(S41, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '06-yukihi-o-n-6': {megami: 'yukihi', name: 'ひきあし / もぐりこみ', ruby: '', baseType: 'normal', types: ['action', 'reaction'], text: 'ダスト→間合：1 ', textOpened: '間合→ダスト：1'}</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+        <v>642</v>
+      </c>
+      <c r="S41" s="13"/>
+      <c r="T41" s="3" t="str">
+        <f>", '"&amp;A41&amp;"': {megami: '"&amp;B41&amp;"'"&amp;IF(C41&lt;&gt;"", ", anotherID: '" &amp; C41 &amp; "', replace: '" &amp; D41 &amp; "'", "")&amp;", name: '"&amp;E41&amp;"', ruby: '"&amp;F41&amp;"', baseType: '"&amp;VLOOKUP(G41,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H41,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I41&lt;&gt;"",", '"&amp; VLOOKUP(I41,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J41&lt;&gt;"", ", range: '"&amp;J41&amp;"'", "")&amp;IF(L41&lt;&gt;"", ", damage: '"&amp;L41&amp;"'", "")&amp;IF(N41&lt;&gt;"", ", capacity: '"&amp;N41&amp;"'", "")&amp;IF(O41&lt;&gt;"", ", cost: '"&amp;O41&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R41, CHAR(10), "\n")&amp;"'"&amp;IF(P41="○", ", sealable: true", "")&amp;IF(Q41="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '03-himika-A1-s-2': {megami: 'himika', anotherID: 'A1', replace: '03-himika-o-s-2', name: '炎天・紅緋弥香', ruby: 'えんてん・くれないひみか', baseType: 'special', types: ['attack', 'fullpower'], range: '0-6', damage: 'X/X', cost: '7', text: '対応不可 \n【常時】Xは7から現在の間合を引いた値に等しい。 \n【攻撃後】あなたは敗北する。'}</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
-        <v>231</v>
+        <v>729</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>241</v>
+        <v>583</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>232</v>
+        <v>756</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K42" s="11"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="4" t="s">
-        <v>55</v>
+        <v>24</v>
+      </c>
+      <c r="K42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="O42" s="4" t="s">
+        <v>735</v>
       </c>
       <c r="R42" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="T42" s="9" t="str">
-        <f>", '"&amp;A42&amp;"': {megami: '"&amp;B42&amp;"', name: '"&amp;E42&amp;"', ruby: '"&amp;F42&amp;"', baseType: '"&amp;VLOOKUP(G42,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H42,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I42&lt;&gt;"",", '"&amp; VLOOKUP(I42,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J42&lt;&gt;"", ", range: '"&amp;J42&amp;"'", "")&amp;IF(K42&lt;&gt;"", ", rangeOpened: '"&amp;K42&amp;"'", "")&amp;IF(L42&lt;&gt;"", ", damage: '"&amp;L42&amp;"'", "")&amp;IF(M42&lt;&gt;"", ", damageOpened: '"&amp;M42&amp;"'", "")&amp;IF(N42&lt;&gt;"", ", capacity: '"&amp;N42&amp;"'", "")&amp;IF(O42&lt;&gt;"", ", cost: '"&amp;O42&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R42, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(S42, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '06-yukihi-o-n-7': {megami: 'yukihi', name: 'えんむすび', ruby: '', baseType: 'normal', types: ['enhance'], capacity: '2', text: '【展開時】間合→ダスト：1 \n【破棄時】ダスト→間合：1 \n【常時】あなたの傘が開いているならば、このカードの矢印(→)は逆になる。', textOpened: ''}</v>
+        <v>796</v>
+      </c>
+      <c r="S42" s="13"/>
+      <c r="T42" s="3" t="str">
+        <f>", '"&amp;A42&amp;"': {megami: '"&amp;B42&amp;"'"&amp;IF(C42&lt;&gt;"", ", anotherID: '" &amp; C42 &amp; "', replace: '" &amp; D42 &amp; "'", "")&amp;", name: '"&amp;E42&amp;"', ruby: '"&amp;F42&amp;"', baseType: '"&amp;VLOOKUP(G42,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H42,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I42&lt;&gt;"",", '"&amp; VLOOKUP(I42,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J42&lt;&gt;"", ", range: '"&amp;J42&amp;"'", "")&amp;IF(L42&lt;&gt;"", ", damage: '"&amp;L42&amp;"'", "")&amp;IF(N42&lt;&gt;"", ", capacity: '"&amp;N42&amp;"'", "")&amp;IF(O42&lt;&gt;"", ", cost: '"&amp;O42&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R42, CHAR(10), "\n")&amp;"'"&amp;IF(P42="○", ", sealable: true", "")&amp;IF(Q42="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '03-himika-o-s-3': {megami: 'himika', name: 'スカーレットイマジン', ruby: '', baseType: 'special', types: ['action'], cost: '3', text: 'カードを2枚引く。その後、あなたは手札を1枚伏せ札にする。'}</v>
       </c>
     </row>
     <row r="43" spans="1:20" ht="48" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
-        <v>237</v>
+        <v>730</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>241</v>
+        <v>583</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>218</v>
+        <v>757</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J43" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="K43" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="M43" s="11" t="s">
-        <v>260</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="K43" s="13"/>
+      <c r="M43" s="13"/>
       <c r="O43" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="T43" s="9" t="str">
-        <f>", '"&amp;A43&amp;"': {megami: '"&amp;B43&amp;"', name: '"&amp;E43&amp;"', ruby: '"&amp;F43&amp;"', baseType: '"&amp;VLOOKUP(G43,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H43,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I43&lt;&gt;"",", '"&amp; VLOOKUP(I43,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J43&lt;&gt;"", ", range: '"&amp;J43&amp;"'", "")&amp;IF(K43&lt;&gt;"", ", rangeOpened: '"&amp;K43&amp;"'", "")&amp;IF(L43&lt;&gt;"", ", damage: '"&amp;L43&amp;"'", "")&amp;IF(M43&lt;&gt;"", ", damageOpened: '"&amp;M43&amp;"'", "")&amp;IF(N43&lt;&gt;"", ", capacity: '"&amp;N43&amp;"'", "")&amp;IF(O43&lt;&gt;"", ", cost: '"&amp;O43&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R43, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(S43, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '06-yukihi-o-s-1': {megami: 'yukihi', name: 'はらりゆき', ruby: '', baseType: 'special', types: ['attack'], range: '3-5', rangeOpened: '0-1', damage: '3/1', damageOpened: '0/0', cost: '2', text: '', textOpened: '----\n【即再起】あなたが傘の開閉を行う。 '}</v>
+        <v>698</v>
+      </c>
+      <c r="R43" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="S43" s="13"/>
+      <c r="T43" s="3" t="str">
+        <f>", '"&amp;A43&amp;"': {megami: '"&amp;B43&amp;"'"&amp;IF(C43&lt;&gt;"", ", anotherID: '" &amp; C43 &amp; "', replace: '" &amp; D43 &amp; "'", "")&amp;", name: '"&amp;E43&amp;"', ruby: '"&amp;F43&amp;"', baseType: '"&amp;VLOOKUP(G43,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H43,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I43&lt;&gt;"",", '"&amp; VLOOKUP(I43,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J43&lt;&gt;"", ", range: '"&amp;J43&amp;"'", "")&amp;IF(L43&lt;&gt;"", ", damage: '"&amp;L43&amp;"'", "")&amp;IF(N43&lt;&gt;"", ", capacity: '"&amp;N43&amp;"'", "")&amp;IF(O43&lt;&gt;"", ", cost: '"&amp;O43&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R43, CHAR(10), "\n")&amp;"'"&amp;IF(P43="○", ", sealable: true", "")&amp;IF(Q43="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '03-himika-o-s-4': {megami: 'himika', name: 'ヴァーミリオンフィールド', ruby: '', baseType: 'special', types: ['action'], cost: '2', text: '連火-このカードがこのターンに使用した3枚目以降のカードならば、ダスト→間合：2\n----\n【再起】あなたの手札が0枚である。'}</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
-        <v>238</v>
+        <v>1</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>241</v>
+        <v>3</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>222</v>
+        <v>41</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J44" s="4">
+        <v>4</v>
+      </c>
+      <c r="K44" s="13"/>
+      <c r="L44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M44" s="13"/>
+      <c r="R44" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S44" s="13"/>
+      <c r="T44" s="3" t="str">
+        <f>", '"&amp;A44&amp;"': {megami: '"&amp;B44&amp;"'"&amp;IF(C44&lt;&gt;"", ", anotherID: '" &amp; C44 &amp; "', replace: '" &amp; D44 &amp; "'", "")&amp;", name: '"&amp;E44&amp;"', ruby: '"&amp;F44&amp;"', baseType: '"&amp;VLOOKUP(G44,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H44,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I44&lt;&gt;"",", '"&amp; VLOOKUP(I44,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J44&lt;&gt;"", ", range: '"&amp;J44&amp;"'", "")&amp;IF(L44&lt;&gt;"", ", damage: '"&amp;L44&amp;"'", "")&amp;IF(N44&lt;&gt;"", ", capacity: '"&amp;N44&amp;"'", "")&amp;IF(O44&lt;&gt;"", ", cost: '"&amp;O44&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R44, CHAR(10), "\n")&amp;"'"&amp;IF(P44="○", ", sealable: true", "")&amp;IF(Q44="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '04-tokoyo-o-n-1': {megami: 'tokoyo', name: '梳流し', ruby: 'すきながし', baseType: 'normal', types: ['attack'], range: '4', damage: '-/1', text: '【攻撃後】境地-あなたの集中力が2ならば、このカードを山札の上に戻す。'}</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" ht="48" x14ac:dyDescent="0.15">
+      <c r="A45" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H45" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J44" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="K44" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="M44" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="O44" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="R44" s="5"/>
-      <c r="T44" s="9" t="str">
-        <f>", '"&amp;A44&amp;"': {megami: '"&amp;B44&amp;"', name: '"&amp;E44&amp;"', ruby: '"&amp;F44&amp;"', baseType: '"&amp;VLOOKUP(G44,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H44,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I44&lt;&gt;"",", '"&amp; VLOOKUP(I44,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J44&lt;&gt;"", ", range: '"&amp;J44&amp;"'", "")&amp;IF(K44&lt;&gt;"", ", rangeOpened: '"&amp;K44&amp;"'", "")&amp;IF(L44&lt;&gt;"", ", damage: '"&amp;L44&amp;"'", "")&amp;IF(M44&lt;&gt;"", ", damageOpened: '"&amp;M44&amp;"'", "")&amp;IF(N44&lt;&gt;"", ", capacity: '"&amp;N44&amp;"'", "")&amp;IF(O44&lt;&gt;"", ", cost: '"&amp;O44&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R44, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(S44, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '06-yukihi-o-s-2': {megami: 'yukihi', name: 'ゆらりび', ruby: '', baseType: 'special', types: ['attack'], range: '4-6', rangeOpened: '0', damage: '0/0', damageOpened: '4/5', cost: '5', text: '', textOpened: ''}</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" ht="24" x14ac:dyDescent="0.15">
-      <c r="A45" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K45" s="11"/>
-      <c r="M45" s="11"/>
-      <c r="N45" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="O45" s="4" t="s">
-        <v>244</v>
-      </c>
+      <c r="J45" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="K45" s="13"/>
+      <c r="L45" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="M45" s="13"/>
       <c r="R45" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="T45" s="9" t="str">
-        <f>", '"&amp;A45&amp;"': {megami: '"&amp;B45&amp;"', name: '"&amp;E45&amp;"', ruby: '"&amp;F45&amp;"', baseType: '"&amp;VLOOKUP(G45,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H45,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I45&lt;&gt;"",", '"&amp; VLOOKUP(I45,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J45&lt;&gt;"", ", range: '"&amp;J45&amp;"'", "")&amp;IF(K45&lt;&gt;"", ", rangeOpened: '"&amp;K45&amp;"'", "")&amp;IF(L45&lt;&gt;"", ", damage: '"&amp;L45&amp;"'", "")&amp;IF(M45&lt;&gt;"", ", damageOpened: '"&amp;M45&amp;"'", "")&amp;IF(N45&lt;&gt;"", ", capacity: '"&amp;N45&amp;"'", "")&amp;IF(O45&lt;&gt;"", ", cost: '"&amp;O45&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R45, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(S45, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '06-yukihi-o-s-3': {megami: 'yukihi', name: 'どろりうら', ruby: '', baseType: 'special', types: ['enhance', 'fullpower'], capacity: '7', cost: '3', text: '【展開中】あなたのユキヒの《攻撃》は傘を開いた状態と傘を閉じた状態両方の適正距離を持つ。', textOpened: ''}</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+        <v>573</v>
+      </c>
+      <c r="S45" s="13"/>
+      <c r="T45" s="3" t="str">
+        <f>", '"&amp;A45&amp;"': {megami: '"&amp;B45&amp;"'"&amp;IF(C45&lt;&gt;"", ", anotherID: '" &amp; C45 &amp; "', replace: '" &amp; D45 &amp; "'", "")&amp;", name: '"&amp;E45&amp;"', ruby: '"&amp;F45&amp;"', baseType: '"&amp;VLOOKUP(G45,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H45,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I45&lt;&gt;"",", '"&amp; VLOOKUP(I45,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J45&lt;&gt;"", ", range: '"&amp;J45&amp;"'", "")&amp;IF(L45&lt;&gt;"", ", damage: '"&amp;L45&amp;"'", "")&amp;IF(N45&lt;&gt;"", ", capacity: '"&amp;N45&amp;"'", "")&amp;IF(O45&lt;&gt;"", ", cost: '"&amp;O45&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R45, CHAR(10), "\n")&amp;"'"&amp;IF(P45="○", ", sealable: true", "")&amp;IF(Q45="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '04-tokoyo-A1-n-1': {megami: 'tokoyo', anotherID: 'A1', replace: '04-tokoyo-o-n-1', name: '奏流し', ruby: 'かなでながし', baseType: 'normal', types: ['attack'], range: '5', damage: '-/1', text: '【常時】あなたのトコヨの切札が1枚以上使用済ならば、この《攻撃》は対応不可を得る。 \n【攻撃後】境地-あなたの集中力が2かつ、あなたの他のメガミの切札が1枚以上使用済ならば、このカードを山札の上に置く。'}</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
-        <v>240</v>
+        <v>35</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>241</v>
+        <v>3</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>224</v>
+        <v>42</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K46" s="11"/>
-      <c r="M46" s="11"/>
-      <c r="O46" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="R46" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="T46" s="9" t="str">
-        <f>", '"&amp;A46&amp;"': {megami: '"&amp;B46&amp;"', name: '"&amp;E46&amp;"', ruby: '"&amp;F46&amp;"', baseType: '"&amp;VLOOKUP(G46,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H46,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I46&lt;&gt;"",", '"&amp; VLOOKUP(I46,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J46&lt;&gt;"", ", range: '"&amp;J46&amp;"'", "")&amp;IF(K46&lt;&gt;"", ", rangeOpened: '"&amp;K46&amp;"'", "")&amp;IF(L46&lt;&gt;"", ", damage: '"&amp;L46&amp;"'", "")&amp;IF(M46&lt;&gt;"", ", damageOpened: '"&amp;M46&amp;"'", "")&amp;IF(N46&lt;&gt;"", ", capacity: '"&amp;N46&amp;"'", "")&amp;IF(O46&lt;&gt;"", ", cost: '"&amp;O46&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R46, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(S46, CHAR(10), "\n")&amp;"'}"</f>
-        <v>, '06-yukihi-o-s-4': {megami: 'yukihi', name: 'くるりみ', ruby: '', baseType: 'special', types: ['action', 'reaction'], cost: '1', text: '傘の開閉を行う。 \nダスト→自オーラ：1', textOpened: ''}</v>
+      <c r="J46" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K46" s="13"/>
+      <c r="L46" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M46" s="13"/>
+      <c r="R46" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="S46" s="13"/>
+      <c r="T46" s="3" t="str">
+        <f>", '"&amp;A46&amp;"': {megami: '"&amp;B46&amp;"'"&amp;IF(C46&lt;&gt;"", ", anotherID: '" &amp; C46 &amp; "', replace: '" &amp; D46 &amp; "'", "")&amp;", name: '"&amp;E46&amp;"', ruby: '"&amp;F46&amp;"', baseType: '"&amp;VLOOKUP(G46,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H46,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I46&lt;&gt;"",", '"&amp; VLOOKUP(I46,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J46&lt;&gt;"", ", range: '"&amp;J46&amp;"'", "")&amp;IF(L46&lt;&gt;"", ", damage: '"&amp;L46&amp;"'", "")&amp;IF(N46&lt;&gt;"", ", capacity: '"&amp;N46&amp;"'", "")&amp;IF(O46&lt;&gt;"", ", cost: '"&amp;O46&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R46, CHAR(10), "\n")&amp;"'"&amp;IF(P46="○", ", sealable: true", "")&amp;IF(Q46="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '04-tokoyo-o-n-2': {megami: 'tokoyo', name: '雅打ち', ruby: 'みやびうち', baseType: 'normal', types: ['attack', 'reaction'], range: '2-4', damage: '2/1', text: '【攻撃後】境地-あなたの集中力が2ならば、対応した切札でない《攻撃》を打ち消す。'}</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
-        <v>276</v>
+        <v>36</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>275</v>
+        <v>3</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>262</v>
+        <v>43</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>287</v>
+        <v>63</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J47" s="4" t="s">
-        <v>273</v>
+        <v>23</v>
       </c>
       <c r="K47" s="13"/>
-      <c r="L47" s="2" t="s">
-        <v>299</v>
-      </c>
       <c r="M47" s="13"/>
-      <c r="R47" s="4" t="s">
-        <v>302</v>
+      <c r="R47" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="S47" s="13"/>
       <c r="T47" s="3" t="str">
         <f>", '"&amp;A47&amp;"': {megami: '"&amp;B47&amp;"'"&amp;IF(C47&lt;&gt;"", ", anotherID: '" &amp; C47 &amp; "', replace: '" &amp; D47 &amp; "'", "")&amp;", name: '"&amp;E47&amp;"', ruby: '"&amp;F47&amp;"', baseType: '"&amp;VLOOKUP(G47,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H47,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I47&lt;&gt;"",", '"&amp; VLOOKUP(I47,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J47&lt;&gt;"", ", range: '"&amp;J47&amp;"'", "")&amp;IF(L47&lt;&gt;"", ", damage: '"&amp;L47&amp;"'", "")&amp;IF(N47&lt;&gt;"", ", capacity: '"&amp;N47&amp;"'", "")&amp;IF(O47&lt;&gt;"", ", cost: '"&amp;O47&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R47, CHAR(10), "\n")&amp;"'"&amp;IF(P47="○", ", sealable: true", "")&amp;IF(Q47="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '07-shinra-o-n-1': {megami: 'shinra', name: '立論', ruby: 'りつろん', baseType: 'normal', types: ['attack'], range: '2-7', damage: '2/-', text: '【常時】相手の山札に2枚以上のカードがあるならば、この《攻撃》はダメージを与える代わりに山札の上から2枚を伏せ札にする。'}</v>
+        <v>, '04-tokoyo-o-n-3': {megami: 'tokoyo', name: '跳ね兎', ruby: 'はねうさぎ', baseType: 'normal', types: ['action'], text: '現在の間合が3以下ならば、ダスト→間合：2'}</v>
       </c>
     </row>
     <row r="48" spans="1:20" ht="36" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
-        <v>277</v>
+        <v>37</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>275</v>
+        <v>3</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>263</v>
+        <v>45</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>288</v>
+        <v>64</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J48" s="4" t="s">
-        <v>273</v>
-      </c>
       <c r="K48" s="13"/>
-      <c r="L48" s="2" t="s">
-        <v>300</v>
-      </c>
       <c r="M48" s="13"/>
       <c r="R48" s="5" t="s">
-        <v>303</v>
+        <v>71</v>
       </c>
       <c r="S48" s="13"/>
       <c r="T48" s="3" t="str">
         <f>", '"&amp;A48&amp;"': {megami: '"&amp;B48&amp;"'"&amp;IF(C48&lt;&gt;"", ", anotherID: '" &amp; C48 &amp; "', replace: '" &amp; D48 &amp; "'", "")&amp;", name: '"&amp;E48&amp;"', ruby: '"&amp;F48&amp;"', baseType: '"&amp;VLOOKUP(G48,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H48,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I48&lt;&gt;"",", '"&amp; VLOOKUP(I48,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J48&lt;&gt;"", ", range: '"&amp;J48&amp;"'", "")&amp;IF(L48&lt;&gt;"", ", damage: '"&amp;L48&amp;"'", "")&amp;IF(N48&lt;&gt;"", ", capacity: '"&amp;N48&amp;"'", "")&amp;IF(O48&lt;&gt;"", ", cost: '"&amp;O48&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R48, CHAR(10), "\n")&amp;"'"&amp;IF(P48="○", ", sealable: true", "")&amp;IF(Q48="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '07-shinra-o-n-2': {megami: 'shinra', name: '反論', ruby: 'はんろん', baseType: 'normal', types: ['attack', 'reaction'], range: '2-7', damage: '1/-', text: '【攻撃後】対応した切札でなく、オーラへのダメージが3以上である《攻撃》のダメージを打ち消す。 \n【攻撃後】相手はカードを1枚引く。'}</v>
+        <v>, '04-tokoyo-o-n-4': {megami: 'tokoyo', name: '詩舞', ruby: 'しぶ', baseType: 'normal', types: ['action', 'reaction'], text: '集中力を1得て、以下から1つを選ぶ。\n・自フレア→自オーラ：1\n・自オーラ→間合：1'}</v>
       </c>
     </row>
     <row r="49" spans="1:20" ht="36" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
-        <v>278</v>
+        <v>38</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>275</v>
+        <v>3</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>264</v>
+        <v>46</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>289</v>
+        <v>65</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J49" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="K49" s="13"/>
-      <c r="L49" s="2" t="s">
-        <v>301</v>
-      </c>
       <c r="M49" s="13"/>
       <c r="R49" s="5" t="s">
-        <v>311</v>
+        <v>70</v>
       </c>
       <c r="S49" s="13"/>
       <c r="T49" s="3" t="str">
         <f>", '"&amp;A49&amp;"': {megami: '"&amp;B49&amp;"'"&amp;IF(C49&lt;&gt;"", ", anotherID: '" &amp; C49 &amp; "', replace: '" &amp; D49 &amp; "'", "")&amp;", name: '"&amp;E49&amp;"', ruby: '"&amp;F49&amp;"', baseType: '"&amp;VLOOKUP(G49,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H49,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I49&lt;&gt;"",", '"&amp; VLOOKUP(I49,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J49&lt;&gt;"", ", range: '"&amp;J49&amp;"'", "")&amp;IF(L49&lt;&gt;"", ", damage: '"&amp;L49&amp;"'", "")&amp;IF(N49&lt;&gt;"", ", capacity: '"&amp;N49&amp;"'", "")&amp;IF(O49&lt;&gt;"", ", cost: '"&amp;O49&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R49, CHAR(10), "\n")&amp;"'"&amp;IF(P49="○", ", sealable: true", "")&amp;IF(Q49="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '07-shinra-o-n-3': {megami: 'shinra', name: '詭弁', ruby: 'きべん', baseType: 'normal', types: ['attack', 'fullpower'], range: '3-8', damage: '-/1', text: '【攻撃後】計略を実行し、次の計略を準備する。 \n[神算] 相手の山札の上から3枚を伏せ札にする。 \n[鬼謀] 相手の捨て札にあるカードを1枚選び、それを使用してもよい。'}</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.15">
+        <v>, '04-tokoyo-o-n-5': {megami: 'tokoyo', name: '要返し', ruby: 'かなめがえし', baseType: 'normal', types: ['action', 'fullpower'], text: '捨て札か伏せ札からカードを2枚まで選ぶ。それらのカードを好きな順で山札の底に置く。 \nダスト→自オーラ：2'}</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
-        <v>279</v>
+        <v>39</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>275</v>
+        <v>3</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>265</v>
+        <v>47</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>290</v>
+        <v>66</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="K50" s="13"/>
       <c r="M50" s="13"/>
-      <c r="R50" s="4" t="s">
-        <v>304</v>
+      <c r="N50" s="4">
+        <v>2</v>
+      </c>
+      <c r="R50" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="S50" s="13"/>
       <c r="T50" s="3" t="str">
         <f>", '"&amp;A50&amp;"': {megami: '"&amp;B50&amp;"'"&amp;IF(C50&lt;&gt;"", ", anotherID: '" &amp; C50 &amp; "', replace: '" &amp; D50 &amp; "'", "")&amp;", name: '"&amp;E50&amp;"', ruby: '"&amp;F50&amp;"', baseType: '"&amp;VLOOKUP(G50,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H50,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I50&lt;&gt;"",", '"&amp; VLOOKUP(I50,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J50&lt;&gt;"", ", range: '"&amp;J50&amp;"'", "")&amp;IF(L50&lt;&gt;"", ", damage: '"&amp;L50&amp;"'", "")&amp;IF(N50&lt;&gt;"", ", capacity: '"&amp;N50&amp;"'", "")&amp;IF(O50&lt;&gt;"", ", cost: '"&amp;O50&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R50, CHAR(10), "\n")&amp;"'"&amp;IF(P50="○", ", sealable: true", "")&amp;IF(Q50="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '07-shinra-o-n-4': {megami: 'shinra', name: '引用', ruby: 'いんよう', baseType: 'normal', types: ['action'], text: '相手の手札を見て、《攻撃》カードを1枚選んでもよい。そうした場合、そのカードを使用するか伏せ札にする。その後、そのカードが《全力》を持つならば現在のフェイズを終了する。'}</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+        <v>, '04-tokoyo-o-n-6': {megami: 'tokoyo', name: '風舞台', ruby: 'かぜぶたい', baseType: 'normal', types: ['enhance'], capacity: '2', text: '【展開時】間合→自オーラ：2 \n【破棄時】自オーラ→間合：2'}</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
-        <v>280</v>
+        <v>40</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>275</v>
+        <v>3</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>266</v>
+        <v>49</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>291</v>
+        <v>67</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="K51" s="13"/>
       <c r="M51" s="13"/>
+      <c r="N51" s="4">
+        <v>1</v>
+      </c>
       <c r="R51" s="5" t="s">
-        <v>310</v>
+        <v>69</v>
       </c>
       <c r="S51" s="13"/>
       <c r="T51" s="3" t="str">
         <f>", '"&amp;A51&amp;"': {megami: '"&amp;B51&amp;"'"&amp;IF(C51&lt;&gt;"", ", anotherID: '" &amp; C51 &amp; "', replace: '" &amp; D51 &amp; "'", "")&amp;", name: '"&amp;E51&amp;"', ruby: '"&amp;F51&amp;"', baseType: '"&amp;VLOOKUP(G51,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H51,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I51&lt;&gt;"",", '"&amp; VLOOKUP(I51,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J51&lt;&gt;"", ", range: '"&amp;J51&amp;"'", "")&amp;IF(L51&lt;&gt;"", ", damage: '"&amp;L51&amp;"'", "")&amp;IF(N51&lt;&gt;"", ", capacity: '"&amp;N51&amp;"'", "")&amp;IF(O51&lt;&gt;"", ", cost: '"&amp;O51&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R51, CHAR(10), "\n")&amp;"'"&amp;IF(P51="○", ", sealable: true", "")&amp;IF(Q51="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '07-shinra-o-n-5': {megami: 'shinra', name: '煽動', ruby: 'せんどう', baseType: 'normal', types: ['action', 'reaction'], text: '計略を実行し、次の計略を準備する。 \n[神算] ダスト→間合：1 \n[鬼謀] 間合→相オーラ：1'}</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" ht="48" x14ac:dyDescent="0.15">
+        <v>, '04-tokoyo-o-n-7': {megami: 'tokoyo', name: '晴舞台', ruby: 'はれぶたい', baseType: 'normal', types: ['enhance'], capacity: '1', text: '【破棄時】境地-あなたの集中力が2ならば、ダスト→自オーラ：2 \n【破棄時】境地-あなたは集中力を1得る。'}</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" ht="36" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
-        <v>281</v>
+        <v>577</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>275</v>
+        <v>3</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>267</v>
+        <v>568</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>292</v>
+        <v>571</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>7</v>
@@ -5039,101 +5648,116 @@
       <c r="K52" s="13"/>
       <c r="M52" s="13"/>
       <c r="N52" s="4" t="s">
-        <v>55</v>
+        <v>566</v>
       </c>
       <c r="R52" s="5" t="s">
-        <v>309</v>
+        <v>574</v>
       </c>
       <c r="S52" s="13"/>
       <c r="T52" s="3" t="str">
         <f>", '"&amp;A52&amp;"': {megami: '"&amp;B52&amp;"'"&amp;IF(C52&lt;&gt;"", ", anotherID: '" &amp; C52 &amp; "', replace: '" &amp; D52 &amp; "'", "")&amp;", name: '"&amp;E52&amp;"', ruby: '"&amp;F52&amp;"', baseType: '"&amp;VLOOKUP(G52,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H52,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I52&lt;&gt;"",", '"&amp; VLOOKUP(I52,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J52&lt;&gt;"", ", range: '"&amp;J52&amp;"'", "")&amp;IF(L52&lt;&gt;"", ", damage: '"&amp;L52&amp;"'", "")&amp;IF(N52&lt;&gt;"", ", capacity: '"&amp;N52&amp;"'", "")&amp;IF(O52&lt;&gt;"", ", cost: '"&amp;O52&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R52, CHAR(10), "\n")&amp;"'"&amp;IF(P52="○", ", sealable: true", "")&amp;IF(Q52="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '07-shinra-o-n-6': {megami: 'shinra', name: '壮語', ruby: 'そうご', baseType: 'normal', types: ['enhance'], capacity: '2', text: '【破棄時】計略を実行し、次の計略を準備する。 \n[神算] あなたの集中力は1増加し、このカードを山札の一番上に置く。 \n[鬼謀] 相手は手札が2枚以上ならば、手札を1枚になるまで捨て札にする。相手の集中力は0になる。'}</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+        <v>, '04-tokoyo-A1-n-7': {megami: 'tokoyo', anotherID: 'A1', replace: '04-tokoyo-o-n-7', name: '陽の音', ruby: 'ひのね', baseType: 'normal', types: ['enhance'], capacity: '2', text: '【展開時/展開中】展開時、およびあなたが《対応》カードを使用した時、その解決後にダスト→自オーラ：1 \n【展開中】相手のターンにこのカードの上の桜花結晶は移動しない。'}</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
-        <v>282</v>
+        <v>74</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>275</v>
+        <v>3</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>268</v>
+        <v>50</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>293</v>
+        <v>89</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="K53" s="13"/>
+      <c r="L53" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="M53" s="13"/>
-      <c r="N53" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="P53" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="R53" s="5" t="s">
-        <v>305</v>
+      <c r="O53" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="R53" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="S53" s="13"/>
       <c r="T53" s="3" t="str">
         <f>", '"&amp;A53&amp;"': {megami: '"&amp;B53&amp;"'"&amp;IF(C53&lt;&gt;"", ", anotherID: '" &amp; C53 &amp; "', replace: '" &amp; D53 &amp; "'", "")&amp;", name: '"&amp;E53&amp;"', ruby: '"&amp;F53&amp;"', baseType: '"&amp;VLOOKUP(G53,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H53,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I53&lt;&gt;"",", '"&amp; VLOOKUP(I53,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J53&lt;&gt;"", ", range: '"&amp;J53&amp;"'", "")&amp;IF(L53&lt;&gt;"", ", damage: '"&amp;L53&amp;"'", "")&amp;IF(N53&lt;&gt;"", ", capacity: '"&amp;N53&amp;"'", "")&amp;IF(O53&lt;&gt;"", ", cost: '"&amp;O53&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R53, CHAR(10), "\n")&amp;"'"&amp;IF(P53="○", ", sealable: true", "")&amp;IF(Q53="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '07-shinra-o-n-7': {megami: 'shinra', name: '論破', ruby: 'ろんぱ', baseType: 'normal', types: ['enhance'], capacity: '4', text: '【展開時】相手の捨て札にあるカード1枚を選び、このカードの下に封印する。 \n【破棄時】このカードに封印されたカードを相手の捨て札に戻す。', sealable: true}</v>
+        <v>, '04-tokoyo-o-s-1': {megami: 'tokoyo', name: '久遠ノ花', ruby: 'くおんのはな', baseType: 'special', types: ['attack', 'reaction'], range: '0-10', damage: '-/1', cost: '5', text: '【攻撃後】対応した《攻撃》を打ち消す。'}</v>
       </c>
     </row>
     <row r="54" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
-        <v>283</v>
+        <v>75</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>275</v>
+        <v>3</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>269</v>
+        <v>52</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>294</v>
+        <v>88</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>23</v>
+        <v>8</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="K54" s="13"/>
+      <c r="L54" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="M54" s="13"/>
       <c r="O54" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="P54" s="4" t="s">
-        <v>295</v>
+        <v>55</v>
       </c>
       <c r="R54" s="5" t="s">
-        <v>306</v>
+        <v>84</v>
       </c>
       <c r="S54" s="13"/>
       <c r="T54" s="3" t="str">
         <f>", '"&amp;A54&amp;"': {megami: '"&amp;B54&amp;"'"&amp;IF(C54&lt;&gt;"", ", anotherID: '" &amp; C54 &amp; "', replace: '" &amp; D54 &amp; "'", "")&amp;", name: '"&amp;E54&amp;"', ruby: '"&amp;F54&amp;"', baseType: '"&amp;VLOOKUP(G54,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H54,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I54&lt;&gt;"",", '"&amp; VLOOKUP(I54,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J54&lt;&gt;"", ", range: '"&amp;J54&amp;"'", "")&amp;IF(L54&lt;&gt;"", ", damage: '"&amp;L54&amp;"'", "")&amp;IF(N54&lt;&gt;"", ", capacity: '"&amp;N54&amp;"'", "")&amp;IF(O54&lt;&gt;"", ", cost: '"&amp;O54&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R54, CHAR(10), "\n")&amp;"'"&amp;IF(P54="○", ", sealable: true", "")&amp;IF(Q54="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '07-shinra-o-s-1': {megami: 'shinra', name: '完全論破', ruby: 'かんぜんろんぱ', baseType: 'special', types: ['action'], cost: '4', text: '相手の捨て札にあるカード1枚を選び、このカードの下に封印する。 \n(ゲーム中に戻ることはない)', sealable: true}</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" ht="60" x14ac:dyDescent="0.15">
+        <v>, '04-tokoyo-o-s-2': {megami: 'tokoyo', name: '千歳ノ鳥', ruby: 'ちとせのとり', baseType: 'special', types: ['attack'], range: '3-4', damage: '2/2', cost: '2', text: '【攻撃後】山札を再構成する。 \n(その際にダメージは受けない)'}</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" ht="48" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
-        <v>284</v>
+        <v>578</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>275</v>
+        <v>3</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>270</v>
+        <v>570</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>296</v>
+        <v>572</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>19</v>
@@ -5144,104 +5768,101 @@
       <c r="K55" s="13"/>
       <c r="M55" s="13"/>
       <c r="O55" s="4" t="s">
-        <v>55</v>
+        <v>567</v>
       </c>
       <c r="R55" s="5" t="s">
-        <v>312</v>
+        <v>575</v>
       </c>
       <c r="S55" s="13"/>
       <c r="T55" s="3" t="str">
         <f>", '"&amp;A55&amp;"': {megami: '"&amp;B55&amp;"'"&amp;IF(C55&lt;&gt;"", ", anotherID: '" &amp; C55 &amp; "', replace: '" &amp; D55 &amp; "'", "")&amp;", name: '"&amp;E55&amp;"', ruby: '"&amp;F55&amp;"', baseType: '"&amp;VLOOKUP(G55,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H55,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I55&lt;&gt;"",", '"&amp; VLOOKUP(I55,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J55&lt;&gt;"", ", range: '"&amp;J55&amp;"'", "")&amp;IF(L55&lt;&gt;"", ", damage: '"&amp;L55&amp;"'", "")&amp;IF(N55&lt;&gt;"", ", capacity: '"&amp;N55&amp;"'", "")&amp;IF(O55&lt;&gt;"", ", cost: '"&amp;O55&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R55, CHAR(10), "\n")&amp;"'"&amp;IF(P55="○", ", sealable: true", "")&amp;IF(Q55="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '07-shinra-o-s-2': {megami: 'shinra', name: '皆式理解', ruby: 'かいしきりかい', baseType: 'special', types: ['action'], cost: '2', text: '計略を実行し、次の計略を準備する。 \n[神算] あなたの捨て札または使用済の切札から、消費を支払わずに《付与》カード1枚を使用する。そのカードが《全力》ならば現在のフェイズを終了する。 \n[鬼謀] 切札でない相手の付与札を1枚選ぶ。その上の桜花結晶全てをダストに送る。'}</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+        <v>, '04-tokoyo-A1-s-2': {megami: 'tokoyo', anotherID: 'A1', replace: '04-tokoyo-o-s-2', name: '二重奏:吹弾陽明', ruby: 'にじゅうそう：すいだんようめい', baseType: 'special', types: ['action'], cost: '1', text: '【使用済】あなたの開始フェイズの開始時に捨て札または伏せ札からカード1枚を選び、それを山札の底に置いてもよい。 \n----\n【即再起】あなたが再構成以外でライフに1以上のダメージを受ける。'}</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" ht="60" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
-        <v>285</v>
+        <v>76</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>275</v>
+        <v>3</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>271</v>
+        <v>53</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>297</v>
+        <v>87</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="K56" s="13"/>
+      <c r="L56" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="M56" s="13"/>
-      <c r="N56" s="4" t="s">
-        <v>78</v>
-      </c>
       <c r="O56" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R56" s="5" t="s">
-        <v>307</v>
+        <v>812</v>
       </c>
       <c r="S56" s="13"/>
       <c r="T56" s="3" t="str">
         <f>", '"&amp;A56&amp;"': {megami: '"&amp;B56&amp;"'"&amp;IF(C56&lt;&gt;"", ", anotherID: '" &amp; C56 &amp; "', replace: '" &amp; D56 &amp; "'", "")&amp;", name: '"&amp;E56&amp;"', ruby: '"&amp;F56&amp;"', baseType: '"&amp;VLOOKUP(G56,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H56,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I56&lt;&gt;"",", '"&amp; VLOOKUP(I56,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J56&lt;&gt;"", ", range: '"&amp;J56&amp;"'", "")&amp;IF(L56&lt;&gt;"", ", damage: '"&amp;L56&amp;"'", "")&amp;IF(N56&lt;&gt;"", ", capacity: '"&amp;N56&amp;"'", "")&amp;IF(O56&lt;&gt;"", ", cost: '"&amp;O56&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R56, CHAR(10), "\n")&amp;"'"&amp;IF(P56="○", ", sealable: true", "")&amp;IF(Q56="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '07-shinra-o-s-3': {megami: 'shinra', name: '天地反駁', ruby: 'てんちはんぱく', baseType: 'special', types: ['enhance', 'fullpower'], capacity: '5', cost: '2', text: '【展開中】あなたの《攻撃》のオーラへのダメージとライフへのダメージを入れ替える。 \n（ダメージの入れ替えは、ダメージの増減より先に適用される）'}</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" ht="48" x14ac:dyDescent="0.15">
+        <v>, '04-tokoyo-o-s-3': {megami: 'tokoyo', name: '無窮ノ風', ruby: 'むきゅうのかぜ', baseType: 'special', types: ['attack'], range: '3-8', damage: '1/1', cost: '1', text: '対応不可 \n【攻撃後】相手は手札から《攻撃》でないカード1枚を捨て札にする。それが行えない場合、相手は手札を公開する。 \n----\n【再起】境地-あなたの集中力が2である。'}</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
-        <v>286</v>
+        <v>77</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>275</v>
+        <v>3</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>272</v>
+        <v>54</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>298</v>
+        <v>86</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="K57" s="13"/>
       <c r="M57" s="13"/>
-      <c r="N57" s="4" t="s">
-        <v>274</v>
-      </c>
       <c r="O57" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="R57" s="5" t="s">
-        <v>308</v>
+        <v>55</v>
+      </c>
+      <c r="R57" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="S57" s="13"/>
       <c r="T57" s="3" t="str">
         <f>", '"&amp;A57&amp;"': {megami: '"&amp;B57&amp;"'"&amp;IF(C57&lt;&gt;"", ", anotherID: '" &amp; C57 &amp; "', replace: '" &amp; D57 &amp; "'", "")&amp;", name: '"&amp;E57&amp;"', ruby: '"&amp;F57&amp;"', baseType: '"&amp;VLOOKUP(G57,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H57,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I57&lt;&gt;"",", '"&amp; VLOOKUP(I57,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J57&lt;&gt;"", ", range: '"&amp;J57&amp;"'", "")&amp;IF(L57&lt;&gt;"", ", damage: '"&amp;L57&amp;"'", "")&amp;IF(N57&lt;&gt;"", ", capacity: '"&amp;N57&amp;"'", "")&amp;IF(O57&lt;&gt;"", ", cost: '"&amp;O57&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R57, CHAR(10), "\n")&amp;"'"&amp;IF(P57="○", ", sealable: true", "")&amp;IF(Q57="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '07-shinra-o-s-4': {megami: 'shinra', name: '森羅判証', ruby: 'しんらばんしょう', baseType: 'special', types: ['enhance'], capacity: '6', cost: '6', text: '【展開時】ダスト→自ライフ：2 \n【展開中】あなたの他の付与札が破棄された時、相手のライフに1ダメージを与える。 \n【破棄時】あなたは敗北する。'}</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+        <v>, '04-tokoyo-o-s-4': {megami: 'tokoyo', name: '常世ノ月', ruby: 'とこよのつき', baseType: 'special', types: ['action'], cost: '2', text: 'あなたの集中力は2になり、相手の集中力は0になり、相手を畏縮させる。'}</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
-        <v>313</v>
+        <v>92</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>324</v>
+        <v>103</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>325</v>
+        <v>104</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>348</v>
+        <v>117</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>7</v>
@@ -5250,34 +5871,34 @@
         <v>8</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>326</v>
+        <v>79</v>
       </c>
       <c r="K58" s="13"/>
       <c r="L58" s="2" t="s">
-        <v>349</v>
+        <v>128</v>
       </c>
       <c r="M58" s="13"/>
-      <c r="R58" s="5" t="s">
-        <v>351</v>
+      <c r="R58" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="S58" s="13"/>
       <c r="T58" s="3" t="str">
         <f>", '"&amp;A58&amp;"': {megami: '"&amp;B58&amp;"'"&amp;IF(C58&lt;&gt;"", ", anotherID: '" &amp; C58 &amp; "', replace: '" &amp; D58 &amp; "'", "")&amp;", name: '"&amp;E58&amp;"', ruby: '"&amp;F58&amp;"', baseType: '"&amp;VLOOKUP(G58,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H58,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I58&lt;&gt;"",", '"&amp; VLOOKUP(I58,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J58&lt;&gt;"", ", range: '"&amp;J58&amp;"'", "")&amp;IF(L58&lt;&gt;"", ", damage: '"&amp;L58&amp;"'", "")&amp;IF(N58&lt;&gt;"", ", capacity: '"&amp;N58&amp;"'", "")&amp;IF(O58&lt;&gt;"", ", cost: '"&amp;O58&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R58, CHAR(10), "\n")&amp;"'"&amp;IF(P58="○", ", sealable: true", "")&amp;IF(Q58="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '08-hagane-o-n-1': {megami: 'hagane', name: '遠心撃', ruby: 'えんしんげき', baseType: 'normal', types: ['attack'], range: '2-6', damage: '5/3', text: '遠心 \n【攻撃後】現在のターンがあなたのターンならば、あなたと相手の手札を全て伏せ札にし、あなたの集中力は0になり、現在のフェイズを終了する。'}</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+        <v>, '05-oboro-o-n-1': {megami: 'oboro', name: '鋼糸', ruby: 'こうし', baseType: 'normal', types: ['attack'], range: '3-4', damage: '2/2', text: '設置'}</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
-        <v>314</v>
+        <v>93</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>324</v>
+        <v>103</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>327</v>
+        <v>106</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>347</v>
+        <v>118</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>7</v>
@@ -5286,34 +5907,34 @@
         <v>8</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>328</v>
+        <v>55</v>
       </c>
       <c r="K59" s="13"/>
       <c r="L59" s="2" t="s">
-        <v>300</v>
+        <v>129</v>
       </c>
       <c r="M59" s="13"/>
-      <c r="R59" s="5" t="s">
-        <v>352</v>
+      <c r="R59" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="S59" s="13"/>
       <c r="T59" s="3" t="str">
         <f>", '"&amp;A59&amp;"': {megami: '"&amp;B59&amp;"'"&amp;IF(C59&lt;&gt;"", ", anotherID: '" &amp; C59 &amp; "', replace: '" &amp; D59 &amp; "'", "")&amp;", name: '"&amp;E59&amp;"', ruby: '"&amp;F59&amp;"', baseType: '"&amp;VLOOKUP(G59,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H59,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I59&lt;&gt;"",", '"&amp; VLOOKUP(I59,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J59&lt;&gt;"", ", range: '"&amp;J59&amp;"'", "")&amp;IF(L59&lt;&gt;"", ", damage: '"&amp;L59&amp;"'", "")&amp;IF(N59&lt;&gt;"", ", capacity: '"&amp;N59&amp;"'", "")&amp;IF(O59&lt;&gt;"", ", cost: '"&amp;O59&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R59, CHAR(10), "\n")&amp;"'"&amp;IF(P59="○", ", sealable: true", "")&amp;IF(Q59="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '08-hagane-o-n-2': {megami: 'hagane', name: '砂風塵', ruby: 'さふうじん', baseType: 'normal', types: ['attack'], range: '0-6', damage: '1/-', text: '【攻撃後】現在の間合がターン開始時の間合から2以上変化しているならば、相手の手札を1枚無作為に選び、それを捨て札にする。'}</v>
+        <v>, '05-oboro-o-n-2': {megami: 'oboro', name: '影菱', ruby: 'かげびし', baseType: 'normal', types: ['attack'], range: '2', damage: '2/1', text: '設置　対応不可\n【攻撃後】このカードを伏せ札から使用したならば、相手の手札を見てその中から1枚を選び、それを伏せ札にする。'}</v>
       </c>
     </row>
     <row r="60" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
-        <v>315</v>
+        <v>94</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>324</v>
+        <v>103</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>329</v>
+        <v>107</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>346</v>
+        <v>119</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>7</v>
@@ -5325,34 +5946,34 @@
         <v>31</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>162</v>
+        <v>57</v>
       </c>
       <c r="K60" s="13"/>
       <c r="L60" s="2" t="s">
-        <v>299</v>
+        <v>130</v>
       </c>
       <c r="M60" s="13"/>
       <c r="R60" s="5" t="s">
-        <v>353</v>
+        <v>136</v>
       </c>
       <c r="S60" s="13"/>
       <c r="T60" s="3" t="str">
         <f>", '"&amp;A60&amp;"': {megami: '"&amp;B60&amp;"'"&amp;IF(C60&lt;&gt;"", ", anotherID: '" &amp; C60 &amp; "', replace: '" &amp; D60 &amp; "'", "")&amp;", name: '"&amp;E60&amp;"', ruby: '"&amp;F60&amp;"', baseType: '"&amp;VLOOKUP(G60,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H60,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I60&lt;&gt;"",", '"&amp; VLOOKUP(I60,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J60&lt;&gt;"", ", range: '"&amp;J60&amp;"'", "")&amp;IF(L60&lt;&gt;"", ", damage: '"&amp;L60&amp;"'", "")&amp;IF(N60&lt;&gt;"", ", capacity: '"&amp;N60&amp;"'", "")&amp;IF(O60&lt;&gt;"", ", cost: '"&amp;O60&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R60, CHAR(10), "\n")&amp;"'"&amp;IF(P60="○", ", sealable: true", "")&amp;IF(Q60="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '08-hagane-o-n-3': {megami: 'hagane', name: '大地砕き', ruby: 'だいちくだき', baseType: 'normal', types: ['attack', 'fullpower'], range: '0-3', damage: '2/-', text: '対応不可 \n【攻撃後】相手の集中力は0になり、相手を畏縮させる。'}</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.15">
+        <v>, '05-oboro-o-n-3': {megami: 'oboro', name: '斬撃乱舞', ruby: 'ざんげきらんぶ', baseType: 'normal', types: ['attack', 'fullpower'], range: '2-4', damage: '3/2', text: '【常時】相手がこのターン中にオーラへのダメージを受けているならば、この《攻撃》は+1/+1となる。'}</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" ht="48" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
-        <v>316</v>
+        <v>95</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>324</v>
+        <v>103</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>330</v>
+        <v>109</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>345</v>
+        <v>120</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>7</v>
@@ -5363,86 +5984,92 @@
       <c r="K61" s="13"/>
       <c r="M61" s="13"/>
       <c r="R61" s="5" t="s">
-        <v>354</v>
+        <v>197</v>
       </c>
       <c r="S61" s="13"/>
       <c r="T61" s="3" t="str">
         <f>", '"&amp;A61&amp;"': {megami: '"&amp;B61&amp;"'"&amp;IF(C61&lt;&gt;"", ", anotherID: '" &amp; C61 &amp; "', replace: '" &amp; D61 &amp; "'", "")&amp;", name: '"&amp;E61&amp;"', ruby: '"&amp;F61&amp;"', baseType: '"&amp;VLOOKUP(G61,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H61,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I61&lt;&gt;"",", '"&amp; VLOOKUP(I61,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J61&lt;&gt;"", ", range: '"&amp;J61&amp;"'", "")&amp;IF(L61&lt;&gt;"", ", damage: '"&amp;L61&amp;"'", "")&amp;IF(N61&lt;&gt;"", ", capacity: '"&amp;N61&amp;"'", "")&amp;IF(O61&lt;&gt;"", ", cost: '"&amp;O61&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R61, CHAR(10), "\n")&amp;"'"&amp;IF(P61="○", ", sealable: true", "")&amp;IF(Q61="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '08-hagane-o-n-4': {megami: 'hagane', name: '超反発', ruby: 'ちょうはんぱつ', baseType: 'normal', types: ['action'], text: '現在の間合が4以下ならば、相フレア→間合：1'}</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+        <v>, '05-oboro-o-n-4': {megami: 'oboro', name: '忍歩', ruby: 'にんぽ', baseType: 'normal', types: ['action'], text: '設置 \n間合⇔ダスト：1 \nこのカードを伏せ札から使用したならば、伏せ札から設置を持つカードを1枚使用してもよい。'}</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" ht="48" x14ac:dyDescent="0.15">
       <c r="A62" s="4" t="s">
-        <v>317</v>
+        <v>96</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>324</v>
+        <v>103</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>331</v>
+        <v>110</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>343</v>
+        <v>121</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H62" s="4" t="s">
         <v>23</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="K62" s="13"/>
       <c r="M62" s="13"/>
       <c r="R62" s="5" t="s">
-        <v>355</v>
+        <v>198</v>
       </c>
       <c r="S62" s="13"/>
       <c r="T62" s="3" t="str">
         <f>", '"&amp;A62&amp;"': {megami: '"&amp;B62&amp;"'"&amp;IF(C62&lt;&gt;"", ", anotherID: '" &amp; C62 &amp; "', replace: '" &amp; D62 &amp; "'", "")&amp;", name: '"&amp;E62&amp;"', ruby: '"&amp;F62&amp;"', baseType: '"&amp;VLOOKUP(G62,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H62,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I62&lt;&gt;"",", '"&amp; VLOOKUP(I62,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J62&lt;&gt;"", ", range: '"&amp;J62&amp;"'", "")&amp;IF(L62&lt;&gt;"", ", damage: '"&amp;L62&amp;"'", "")&amp;IF(N62&lt;&gt;"", ", capacity: '"&amp;N62&amp;"'", "")&amp;IF(O62&lt;&gt;"", ", cost: '"&amp;O62&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R62, CHAR(10), "\n")&amp;"'"&amp;IF(P62="○", ", sealable: true", "")&amp;IF(Q62="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '08-hagane-o-n-5': {megami: 'hagane', name: '円舞錬', ruby: 'えんぶれん', baseType: 'normal', types: ['action'], text: '遠心 \n相手のフレアが3以上ならば、相フレア→自オーラ：2'}</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" ht="60" x14ac:dyDescent="0.15">
+        <v>, '05-oboro-o-n-5': {megami: 'oboro', name: '誘導', ruby: 'ゆうどう', baseType: 'normal', types: ['action', 'reaction'], text: '設置\n以下から１つを選ぶ。\n・間合→相オーラ：1\n・相オーラ→相フレア：1'}</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" ht="36" x14ac:dyDescent="0.15">
       <c r="A63" s="4" t="s">
-        <v>318</v>
+        <v>97</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>324</v>
+        <v>103</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>332</v>
+        <v>111</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>344</v>
+        <v>122</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H63" s="4" t="s">
         <v>23</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="K63" s="13"/>
       <c r="M63" s="13"/>
       <c r="R63" s="5" t="s">
-        <v>356</v>
+        <v>137</v>
       </c>
       <c r="S63" s="13"/>
       <c r="T63" s="3" t="str">
         <f>", '"&amp;A63&amp;"': {megami: '"&amp;B63&amp;"'"&amp;IF(C63&lt;&gt;"", ", anotherID: '" &amp; C63 &amp; "', replace: '" &amp; D63 &amp; "'", "")&amp;", name: '"&amp;E63&amp;"', ruby: '"&amp;F63&amp;"', baseType: '"&amp;VLOOKUP(G63,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H63,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I63&lt;&gt;"",", '"&amp; VLOOKUP(I63,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J63&lt;&gt;"", ", range: '"&amp;J63&amp;"'", "")&amp;IF(L63&lt;&gt;"", ", damage: '"&amp;L63&amp;"'", "")&amp;IF(N63&lt;&gt;"", ", capacity: '"&amp;N63&amp;"'", "")&amp;IF(O63&lt;&gt;"", ", cost: '"&amp;O63&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R63, CHAR(10), "\n")&amp;"'"&amp;IF(P63="○", ", sealable: true", "")&amp;IF(Q63="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '08-hagane-o-n-6': {megami: 'hagane', name: '鐘鳴らし', ruby: 'かねならし', baseType: 'normal', types: ['action'], text: '遠心 \n以下から１つを選ぶ。\n・このターンにあなたが次に行う《攻撃》は対応不可を得る。\n・このターンにあなたが次に行う《攻撃》はオーラへのダメージが3以上ならば+0/+1、そうでないならば+2/+0となる。'}</v>
+        <v>, '05-oboro-o-n-6': {megami: 'oboro', name: '分身の術', ruby: 'ぶんしんのじゅつ', baseType: 'normal', types: ['action', 'fullpower'], text: '伏せ札から《全力》でないカードを1枚選び、そのカードを使用する。その後、そのカードが捨て札にあるならば捨て札からもう1回使用する。《攻撃》カードが使用されたならばそれらの《攻撃》は対応不可を得る（2回ともに対応不可を得る）。'}</v>
       </c>
     </row>
     <row r="64" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A64" s="4" t="s">
-        <v>319</v>
+        <v>98</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>324</v>
+        <v>103</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>333</v>
+        <v>112</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>342</v>
+        <v>123</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>7</v>
@@ -5453,29 +6080,29 @@
       <c r="K64" s="13"/>
       <c r="M64" s="13"/>
       <c r="N64" s="4" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="R64" s="5" t="s">
-        <v>357</v>
+        <v>138</v>
       </c>
       <c r="S64" s="13"/>
       <c r="T64" s="3" t="str">
         <f>", '"&amp;A64&amp;"': {megami: '"&amp;B64&amp;"'"&amp;IF(C64&lt;&gt;"", ", anotherID: '" &amp; C64 &amp; "', replace: '" &amp; D64 &amp; "'", "")&amp;", name: '"&amp;E64&amp;"', ruby: '"&amp;F64&amp;"', baseType: '"&amp;VLOOKUP(G64,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H64,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I64&lt;&gt;"",", '"&amp; VLOOKUP(I64,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J64&lt;&gt;"", ", range: '"&amp;J64&amp;"'", "")&amp;IF(L64&lt;&gt;"", ", damage: '"&amp;L64&amp;"'", "")&amp;IF(N64&lt;&gt;"", ", capacity: '"&amp;N64&amp;"'", "")&amp;IF(O64&lt;&gt;"", ", cost: '"&amp;O64&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R64, CHAR(10), "\n")&amp;"'"&amp;IF(P64="○", ", sealable: true", "")&amp;IF(Q64="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '08-hagane-o-n-7': {megami: 'hagane', name: '引力場', ruby: 'いんりょくば', baseType: 'normal', types: ['enhance'], capacity: '4', text: '【展開時】間合→ダスト：1 \n【展開中】達人の間合は1小さくなる。'}</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+        <v>, '05-oboro-o-n-7': {megami: 'oboro', name: '生体活性', ruby: 'せいたいかっせい', baseType: 'normal', types: ['enhance'], capacity: '4', text: '隙　設置 \n【破棄時】あなたの使用済の切札を1枚選び、それを未使用に戻す。'}</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A65" s="4" t="s">
-        <v>320</v>
+        <v>99</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>324</v>
+        <v>103</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>334</v>
+        <v>113</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>341</v>
+        <v>124</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>19</v>
@@ -5483,71 +6110,77 @@
       <c r="H65" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="I65" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J65" s="4" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="K65" s="13"/>
       <c r="L65" s="2" t="s">
-        <v>350</v>
+        <v>128</v>
       </c>
       <c r="M65" s="13"/>
       <c r="O65" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="R65" s="5" t="s">
-        <v>358</v>
+        <v>91</v>
+      </c>
+      <c r="R65" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="S65" s="13"/>
       <c r="T65" s="3" t="str">
         <f>", '"&amp;A65&amp;"': {megami: '"&amp;B65&amp;"'"&amp;IF(C65&lt;&gt;"", ", anotherID: '" &amp; C65 &amp; "', replace: '" &amp; D65 &amp; "'", "")&amp;", name: '"&amp;E65&amp;"', ruby: '"&amp;F65&amp;"', baseType: '"&amp;VLOOKUP(G65,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H65,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I65&lt;&gt;"",", '"&amp; VLOOKUP(I65,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J65&lt;&gt;"", ", range: '"&amp;J65&amp;"'", "")&amp;IF(L65&lt;&gt;"", ", damage: '"&amp;L65&amp;"'", "")&amp;IF(N65&lt;&gt;"", ", capacity: '"&amp;N65&amp;"'", "")&amp;IF(O65&lt;&gt;"", ", cost: '"&amp;O65&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R65, CHAR(10), "\n")&amp;"'"&amp;IF(P65="○", ", sealable: true", "")&amp;IF(Q65="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '08-hagane-o-s-1': {megami: 'hagane', name: '大天空クラッシュ', ruby: 'だいてんくうクラッシュ', baseType: 'special', types: ['attack'], range: '0-10', damage: 'X/Y', cost: '5', text: '超克 \n【常時】Xは現在の間合がターン開始時の間合からどれだけ変化しているかに等しい。YはXの半分(切り上げ)に等しい。'}</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.15">
+        <v>, '05-oboro-o-s-1': {megami: 'oboro', name: '熊介', ruby: 'くますけ', baseType: 'special', types: ['attack', 'fullpower'], range: '3-4', damage: '2/2', cost: '4', text: '【攻撃後】攻撃『適正距離3-4、2/2』をX回行う。Xはあなたの伏せ札の枚数に等しい。'}</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" ht="36" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
-        <v>321</v>
+        <v>100</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>324</v>
+        <v>103</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>335</v>
+        <v>114</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>338</v>
+        <v>125</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>23</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="K66" s="13"/>
       <c r="M66" s="13"/>
       <c r="O66" s="4" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="R66" s="5" t="s">
-        <v>359</v>
+        <v>140</v>
       </c>
       <c r="S66" s="13"/>
       <c r="T66" s="3" t="str">
         <f>", '"&amp;A66&amp;"': {megami: '"&amp;B66&amp;"'"&amp;IF(C66&lt;&gt;"", ", anotherID: '" &amp; C66 &amp; "', replace: '" &amp; D66 &amp; "'", "")&amp;", name: '"&amp;E66&amp;"', ruby: '"&amp;F66&amp;"', baseType: '"&amp;VLOOKUP(G66,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H66,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I66&lt;&gt;"",", '"&amp; VLOOKUP(I66,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J66&lt;&gt;"", ", range: '"&amp;J66&amp;"'", "")&amp;IF(L66&lt;&gt;"", ", damage: '"&amp;L66&amp;"'", "")&amp;IF(N66&lt;&gt;"", ", capacity: '"&amp;N66&amp;"'", "")&amp;IF(O66&lt;&gt;"", ", cost: '"&amp;O66&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R66, CHAR(10), "\n")&amp;"'"&amp;IF(P66="○", ", sealable: true", "")&amp;IF(Q66="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '08-hagane-o-s-2': {megami: 'hagane', name: '大破鐘メガロベル', ruby: 'だいはがねメガロベル', baseType: 'special', types: ['action'], cost: '2', text: 'あなたの他の切札が全て使用済ならば、ダスト→自ライフ：2'}</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" ht="48" x14ac:dyDescent="0.15">
+        <v>, '05-oboro-o-s-2': {megami: 'oboro', name: '鳶影', ruby: 'とびかげ', baseType: 'special', types: ['action', 'reaction'], cost: '3', text: '伏せ札から《全力》でないカードを1枚選び、そのカードを使用してもよい。この際、このカードが対応している《攻撃》があるならば、使用されたカードはそれに対応しているものと扱う。'}</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
-        <v>322</v>
+        <v>101</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>324</v>
+        <v>103</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>336</v>
+        <v>115</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>339</v>
+        <v>126</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>19</v>
@@ -5558,29 +6191,29 @@
       <c r="K67" s="13"/>
       <c r="M67" s="13"/>
       <c r="O67" s="4" t="s">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="R67" s="5" t="s">
-        <v>398</v>
+        <v>141</v>
       </c>
       <c r="S67" s="13"/>
       <c r="T67" s="3" t="str">
         <f>", '"&amp;A67&amp;"': {megami: '"&amp;B67&amp;"'"&amp;IF(C67&lt;&gt;"", ", anotherID: '" &amp; C67 &amp; "', replace: '" &amp; D67 &amp; "'", "")&amp;", name: '"&amp;E67&amp;"', ruby: '"&amp;F67&amp;"', baseType: '"&amp;VLOOKUP(G67,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H67,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I67&lt;&gt;"",", '"&amp; VLOOKUP(I67,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J67&lt;&gt;"", ", range: '"&amp;J67&amp;"'", "")&amp;IF(L67&lt;&gt;"", ", damage: '"&amp;L67&amp;"'", "")&amp;IF(N67&lt;&gt;"", ", capacity: '"&amp;N67&amp;"'", "")&amp;IF(O67&lt;&gt;"", ", cost: '"&amp;O67&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R67, CHAR(10), "\n")&amp;"'"&amp;IF(P67="○", ", sealable: true", "")&amp;IF(Q67="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '08-hagane-o-s-3': {megami: 'hagane', name: '大重力アトラクト', ruby: 'だいじゅうりょくアトラクト', baseType: 'special', types: ['action'], cost: '5', text: '間合→自フレア：3 \n----\n【再起】このターンにあなたが遠心を持つカードを使用しており、このカードを使用していない。'}</v>
+        <v>, '05-oboro-o-s-3': {megami: 'oboro', name: '虚魚', ruby: 'うろうお', baseType: 'special', types: ['action'], cost: '4', text: '【使用済】あなたは1回の再構成に対して、設置を持つカードを任意の枚数、任意の順で使用できる。'}</v>
       </c>
     </row>
     <row r="68" spans="1:20" ht="36" x14ac:dyDescent="0.15">
       <c r="A68" s="4" t="s">
-        <v>323</v>
+        <v>102</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>324</v>
+        <v>103</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>337</v>
+        <v>116</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>340</v>
+        <v>127</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>19</v>
@@ -5591,29 +6224,26 @@
       <c r="K68" s="13"/>
       <c r="M68" s="13"/>
       <c r="O68" s="4" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="R68" s="5" t="s">
-        <v>361</v>
+        <v>396</v>
       </c>
       <c r="S68" s="13"/>
       <c r="T68" s="3" t="str">
         <f>", '"&amp;A68&amp;"': {megami: '"&amp;B68&amp;"'"&amp;IF(C68&lt;&gt;"", ", anotherID: '" &amp; C68 &amp; "', replace: '" &amp; D68 &amp; "'", "")&amp;", name: '"&amp;E68&amp;"', ruby: '"&amp;F68&amp;"', baseType: '"&amp;VLOOKUP(G68,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H68,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I68&lt;&gt;"",", '"&amp; VLOOKUP(I68,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J68&lt;&gt;"", ", range: '"&amp;J68&amp;"'", "")&amp;IF(L68&lt;&gt;"", ", damage: '"&amp;L68&amp;"'", "")&amp;IF(N68&lt;&gt;"", ", capacity: '"&amp;N68&amp;"'", "")&amp;IF(O68&lt;&gt;"", ", cost: '"&amp;O68&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R68, CHAR(10), "\n")&amp;"'"&amp;IF(P68="○", ", sealable: true", "")&amp;IF(Q68="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '08-hagane-o-s-4': {megami: 'hagane', name: '大山脈リスペクト', ruby: 'だいさんみゃくリスペクト', baseType: 'special', types: ['action'], cost: '4', text: '遠心 \nあなたの捨て札にある異なる《全力》でないカードを2枚まで選び、任意の順番で使用する。'}</v>
+        <v>, '05-oboro-o-s-4': {megami: 'oboro', name: '壬蔓', ruby: 'みかずら', baseType: 'special', types: ['action'], cost: '0', text: '相オーラ→自フレア：1 \n----\n【再起】あなたのフレアが0である。'}</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A69" s="4" t="s">
-        <v>148</v>
+        <v>225</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>153</v>
+        <v>241</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>7</v>
@@ -5621,32 +6251,33 @@
       <c r="H69" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J69" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="K69" s="13"/>
-      <c r="L69" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="M69" s="13"/>
-      <c r="S69" s="13"/>
-      <c r="T69" s="3" t="str">
-        <f>", '"&amp;A69&amp;"': {megami: '"&amp;B69&amp;"'"&amp;IF(C69&lt;&gt;"", ", anotherID: '" &amp; C69 &amp; "', replace: '" &amp; D69 &amp; "'", "")&amp;", name: '"&amp;E69&amp;"', ruby: '"&amp;F69&amp;"', baseType: '"&amp;VLOOKUP(G69,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H69,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I69&lt;&gt;"",", '"&amp; VLOOKUP(I69,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J69&lt;&gt;"", ", range: '"&amp;J69&amp;"'", "")&amp;IF(L69&lt;&gt;"", ", damage: '"&amp;L69&amp;"'", "")&amp;IF(N69&lt;&gt;"", ", capacity: '"&amp;N69&amp;"'", "")&amp;IF(O69&lt;&gt;"", ", cost: '"&amp;O69&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R69, CHAR(10), "\n")&amp;"'"&amp;IF(P69="○", ", sealable: true", "")&amp;IF(Q69="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '09-chikage-o-n-1': {megami: 'chikage', name: '飛苦無', ruby: 'とびくない', baseType: 'normal', types: ['attack'], range: '4-5', damage: '2/2', text: ''}</v>
+      <c r="J69" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="K69" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="L69" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="M69" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="S69" s="8"/>
+      <c r="T69" s="9" t="str">
+        <f>", '"&amp;A69&amp;"': {megami: '"&amp;B69&amp;"', name: '"&amp;E69&amp;"', ruby: '"&amp;F69&amp;"', baseType: '"&amp;VLOOKUP(G69,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H69,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I69&lt;&gt;"",", '"&amp; VLOOKUP(I69,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J69&lt;&gt;"", ", range: '"&amp;J69&amp;"'", "")&amp;IF(K69&lt;&gt;"", ", rangeOpened: '"&amp;K69&amp;"'", "")&amp;IF(L69&lt;&gt;"", ", damage: '"&amp;L69&amp;"'", "")&amp;IF(M69&lt;&gt;"", ", damageOpened: '"&amp;M69&amp;"'", "")&amp;IF(N69&lt;&gt;"", ", capacity: '"&amp;N69&amp;"'", "")&amp;IF(O69&lt;&gt;"", ", cost: '"&amp;O69&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R69, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(S69, CHAR(10), "\n")&amp;"'}"</f>
+        <v>, '06-yukihi-o-n-1': {megami: 'yukihi', name: 'しこみばり / ふくみばり', ruby: '', baseType: 'normal', types: ['attack'], range: '4-6', rangeOpened: '0-2', damage: '3/1', damageOpened: '1/2', text: '', textOpened: ''}</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A70" s="4" t="s">
-        <v>142</v>
+        <v>226</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>153</v>
+        <v>241</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>178</v>
+        <v>236</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>7</v>
@@ -5655,34 +6286,34 @@
         <v>8</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="K70" s="13"/>
+        <v>253</v>
+      </c>
+      <c r="K70" s="11" t="s">
+        <v>254</v>
+      </c>
       <c r="L70" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="M70" s="13"/>
+        <v>252</v>
+      </c>
+      <c r="M70" s="11" t="s">
+        <v>252</v>
+      </c>
       <c r="R70" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="S70" s="13"/>
-      <c r="T70" s="3" t="str">
-        <f>", '"&amp;A70&amp;"': {megami: '"&amp;B70&amp;"'"&amp;IF(C70&lt;&gt;"", ", anotherID: '" &amp; C70 &amp; "', replace: '" &amp; D70 &amp; "'", "")&amp;", name: '"&amp;E70&amp;"', ruby: '"&amp;F70&amp;"', baseType: '"&amp;VLOOKUP(G70,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H70,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I70&lt;&gt;"",", '"&amp; VLOOKUP(I70,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J70&lt;&gt;"", ", range: '"&amp;J70&amp;"'", "")&amp;IF(L70&lt;&gt;"", ", damage: '"&amp;L70&amp;"'", "")&amp;IF(N70&lt;&gt;"", ", capacity: '"&amp;N70&amp;"'", "")&amp;IF(O70&lt;&gt;"", ", cost: '"&amp;O70&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R70, CHAR(10), "\n")&amp;"'"&amp;IF(P70="○", ", sealable: true", "")&amp;IF(Q70="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '09-chikage-o-n-2': {megami: 'chikage', name: '毒針', ruby: 'どくばり', baseType: 'normal', types: ['attack'], range: '4', damage: '1/1', text: '【攻撃後】毒袋から「麻痺毒」「幻覚毒」「弛緩毒」のいずれか1枚を選び、そのカードを相手の山札の一番上に置く。'}</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+        <v>251</v>
+      </c>
+      <c r="T70" s="9" t="str">
+        <f>", '"&amp;A70&amp;"': {megami: '"&amp;B70&amp;"', name: '"&amp;E70&amp;"', ruby: '"&amp;F70&amp;"', baseType: '"&amp;VLOOKUP(G70,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H70,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I70&lt;&gt;"",", '"&amp; VLOOKUP(I70,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J70&lt;&gt;"", ", range: '"&amp;J70&amp;"'", "")&amp;IF(K70&lt;&gt;"", ", rangeOpened: '"&amp;K70&amp;"'", "")&amp;IF(L70&lt;&gt;"", ", damage: '"&amp;L70&amp;"'", "")&amp;IF(M70&lt;&gt;"", ", damageOpened: '"&amp;M70&amp;"'", "")&amp;IF(N70&lt;&gt;"", ", capacity: '"&amp;N70&amp;"'", "")&amp;IF(O70&lt;&gt;"", ", cost: '"&amp;O70&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R70, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(S70, CHAR(10), "\n")&amp;"'}"</f>
+        <v>, '06-yukihi-o-n-2': {megami: 'yukihi', name: 'しこみび / ねこだまし', ruby: '', baseType: 'normal', types: ['attack'], range: '5-6', rangeOpened: '0-2', damage: '1/1', damageOpened: '1/1', text: '【攻撃後】このカードを手札に戻し、傘の開閉を行う。 ', textOpened: ''}</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
-        <v>143</v>
+        <v>227</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>153</v>
+        <v>241</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>179</v>
+        <v>235</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>7</v>
@@ -5690,38 +6321,38 @@
       <c r="H71" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I71" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="J71" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="K71" s="13"/>
+        <v>216</v>
+      </c>
+      <c r="K71" s="11" t="s">
+        <v>215</v>
+      </c>
       <c r="L71" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="M71" s="13"/>
+        <v>252</v>
+      </c>
+      <c r="M71" s="11" t="s">
+        <v>252</v>
+      </c>
       <c r="R71" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="S71" s="13"/>
-      <c r="T71" s="3" t="str">
-        <f>", '"&amp;A71&amp;"': {megami: '"&amp;B71&amp;"'"&amp;IF(C71&lt;&gt;"", ", anotherID: '" &amp; C71 &amp; "', replace: '" &amp; D71 &amp; "'", "")&amp;", name: '"&amp;E71&amp;"', ruby: '"&amp;F71&amp;"', baseType: '"&amp;VLOOKUP(G71,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H71,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I71&lt;&gt;"",", '"&amp; VLOOKUP(I71,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J71&lt;&gt;"", ", range: '"&amp;J71&amp;"'", "")&amp;IF(L71&lt;&gt;"", ", damage: '"&amp;L71&amp;"'", "")&amp;IF(N71&lt;&gt;"", ", capacity: '"&amp;N71&amp;"'", "")&amp;IF(O71&lt;&gt;"", ", cost: '"&amp;O71&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R71, CHAR(10), "\n")&amp;"'"&amp;IF(P71="○", ", sealable: true", "")&amp;IF(Q71="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '09-chikage-o-n-3': {megami: 'chikage', name: '遁術', ruby: 'とんじゅつ', baseType: 'normal', types: ['attack', 'reaction'], range: '1-3', damage: '1/-', text: '【攻撃後】自オーラ→間合：2 \n【攻撃後】このターン中、全てのプレイヤーは基本動作《前進》を行えない。'}</v>
+        <v>257</v>
+      </c>
+      <c r="S71" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="T71" s="9" t="str">
+        <f>", '"&amp;A71&amp;"': {megami: '"&amp;B71&amp;"', name: '"&amp;E71&amp;"', ruby: '"&amp;F71&amp;"', baseType: '"&amp;VLOOKUP(G71,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H71,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I71&lt;&gt;"",", '"&amp; VLOOKUP(I71,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J71&lt;&gt;"", ", range: '"&amp;J71&amp;"'", "")&amp;IF(K71&lt;&gt;"", ", rangeOpened: '"&amp;K71&amp;"'", "")&amp;IF(L71&lt;&gt;"", ", damage: '"&amp;L71&amp;"'", "")&amp;IF(M71&lt;&gt;"", ", damageOpened: '"&amp;M71&amp;"'", "")&amp;IF(N71&lt;&gt;"", ", capacity: '"&amp;N71&amp;"'", "")&amp;IF(O71&lt;&gt;"", ", cost: '"&amp;O71&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R71, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(S71, CHAR(10), "\n")&amp;"'}"</f>
+        <v>, '06-yukihi-o-n-3': {megami: 'yukihi', name: 'ふりはらい / たぐりよせ', ruby: '', baseType: 'normal', types: ['attack'], range: '2-5', rangeOpened: '0-2', damage: '1/1', damageOpened: '1/1', text: '【攻撃後】ダスト⇔間合：1 ', textOpened: '【攻撃後】間合→ダスト：2'}</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
-        <v>144</v>
+        <v>228</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>153</v>
+        <v>241</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>180</v>
+        <v>234</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>7</v>
@@ -5733,34 +6364,32 @@
         <v>31</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="K72" s="13"/>
+        <v>214</v>
+      </c>
+      <c r="K72" s="11" t="s">
+        <v>215</v>
+      </c>
       <c r="L72" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="M72" s="13"/>
-      <c r="R72" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="S72" s="13"/>
-      <c r="T72" s="3" t="str">
-        <f>", '"&amp;A72&amp;"': {megami: '"&amp;B72&amp;"'"&amp;IF(C72&lt;&gt;"", ", anotherID: '" &amp; C72 &amp; "', replace: '" &amp; D72 &amp; "'", "")&amp;", name: '"&amp;E72&amp;"', ruby: '"&amp;F72&amp;"', baseType: '"&amp;VLOOKUP(G72,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H72,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I72&lt;&gt;"",", '"&amp; VLOOKUP(I72,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J72&lt;&gt;"", ", range: '"&amp;J72&amp;"'", "")&amp;IF(L72&lt;&gt;"", ", damage: '"&amp;L72&amp;"'", "")&amp;IF(N72&lt;&gt;"", ", capacity: '"&amp;N72&amp;"'", "")&amp;IF(O72&lt;&gt;"", ", cost: '"&amp;O72&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R72, CHAR(10), "\n")&amp;"'"&amp;IF(P72="○", ", sealable: true", "")&amp;IF(Q72="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '09-chikage-o-n-4': {megami: 'chikage', name: '首切り', ruby: 'くびきり', baseType: 'normal', types: ['attack', 'fullpower'], range: '0-3', damage: '2/3', text: '【攻撃後】相手の手札が2枚以上あるならば、相手は手札を1枚捨て札にする。'}</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.15">
+        <v>255</v>
+      </c>
+      <c r="M72" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="R72" s="5"/>
+      <c r="T72" s="9" t="str">
+        <f>", '"&amp;A72&amp;"': {megami: '"&amp;B72&amp;"', name: '"&amp;E72&amp;"', ruby: '"&amp;F72&amp;"', baseType: '"&amp;VLOOKUP(G72,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H72,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I72&lt;&gt;"",", '"&amp; VLOOKUP(I72,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J72&lt;&gt;"", ", range: '"&amp;J72&amp;"'", "")&amp;IF(K72&lt;&gt;"", ", rangeOpened: '"&amp;K72&amp;"'", "")&amp;IF(L72&lt;&gt;"", ", damage: '"&amp;L72&amp;"'", "")&amp;IF(M72&lt;&gt;"", ", damageOpened: '"&amp;M72&amp;"'", "")&amp;IF(N72&lt;&gt;"", ", capacity: '"&amp;N72&amp;"'", "")&amp;IF(O72&lt;&gt;"", ", cost: '"&amp;O72&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R72, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(S72, CHAR(10), "\n")&amp;"'}"</f>
+        <v>, '06-yukihi-o-n-4': {megami: 'yukihi', name: 'ふりまわし / つきさし', ruby: '', baseType: 'normal', types: ['attack', 'fullpower'], range: '4-6', rangeOpened: '0-2', damage: '5/-', damageOpened: '-/2', text: '', textOpened: ''}</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" ht="60" x14ac:dyDescent="0.15">
       <c r="A73" s="4" t="s">
-        <v>145</v>
+        <v>229</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>153</v>
+        <v>241</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>7</v>
@@ -5768,62 +6397,57 @@
       <c r="H73" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K73" s="13"/>
-      <c r="M73" s="13"/>
-      <c r="R73" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="S73" s="13"/>
-      <c r="T73" s="3" t="str">
-        <f>", '"&amp;A73&amp;"': {megami: '"&amp;B73&amp;"'"&amp;IF(C73&lt;&gt;"", ", anotherID: '" &amp; C73 &amp; "', replace: '" &amp; D73 &amp; "'", "")&amp;", name: '"&amp;E73&amp;"', ruby: '"&amp;F73&amp;"', baseType: '"&amp;VLOOKUP(G73,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H73,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I73&lt;&gt;"",", '"&amp; VLOOKUP(I73,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J73&lt;&gt;"", ", range: '"&amp;J73&amp;"'", "")&amp;IF(L73&lt;&gt;"", ", damage: '"&amp;L73&amp;"'", "")&amp;IF(N73&lt;&gt;"", ", capacity: '"&amp;N73&amp;"'", "")&amp;IF(O73&lt;&gt;"", ", cost: '"&amp;O73&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R73, CHAR(10), "\n")&amp;"'"&amp;IF(P73="○", ", sealable: true", "")&amp;IF(Q73="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '09-chikage-o-n-5': {megami: 'chikage', name: '毒霧', ruby: 'どくぎり', baseType: 'normal', types: ['action'], text: '毒袋から「麻痺毒」「幻覚毒」「弛緩毒」のいずれか1枚を選び、そのカードを相手の手札に加える。'}</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+      <c r="K73" s="11"/>
+      <c r="M73" s="11"/>
+      <c r="R73" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="T73" s="9" t="str">
+        <f>", '"&amp;A73&amp;"': {megami: '"&amp;B73&amp;"', name: '"&amp;E73&amp;"', ruby: '"&amp;F73&amp;"', baseType: '"&amp;VLOOKUP(G73,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H73,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I73&lt;&gt;"",", '"&amp; VLOOKUP(I73,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J73&lt;&gt;"", ", range: '"&amp;J73&amp;"'", "")&amp;IF(K73&lt;&gt;"", ", rangeOpened: '"&amp;K73&amp;"'", "")&amp;IF(L73&lt;&gt;"", ", damage: '"&amp;L73&amp;"'", "")&amp;IF(M73&lt;&gt;"", ", damageOpened: '"&amp;M73&amp;"'", "")&amp;IF(N73&lt;&gt;"", ", capacity: '"&amp;N73&amp;"'", "")&amp;IF(O73&lt;&gt;"", ", cost: '"&amp;O73&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R73, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(S73, CHAR(10), "\n")&amp;"'}"</f>
+        <v>, '06-yukihi-o-n-5': {megami: 'yukihi', name: 'かさまわし', ruby: '', baseType: 'normal', types: ['action'], text: '(このカードは使用しても効果はない) \n【常時】あなたが傘の開閉を行った時、このカードを手札から公開してもよい。そうした場合、 \nダスト→自オーラ：1\n', textOpened: ''}</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
-        <v>146</v>
+        <v>230</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>153</v>
+        <v>241</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>182</v>
+        <v>233</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K74" s="13"/>
-      <c r="M74" s="13"/>
-      <c r="N74" s="4" t="s">
-        <v>90</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K74" s="11"/>
+      <c r="M74" s="11"/>
       <c r="R74" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="S74" s="13"/>
-      <c r="T74" s="3" t="str">
-        <f>", '"&amp;A74&amp;"': {megami: '"&amp;B74&amp;"'"&amp;IF(C74&lt;&gt;"", ", anotherID: '" &amp; C74 &amp; "', replace: '" &amp; D74 &amp; "'", "")&amp;", name: '"&amp;E74&amp;"', ruby: '"&amp;F74&amp;"', baseType: '"&amp;VLOOKUP(G74,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H74,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I74&lt;&gt;"",", '"&amp; VLOOKUP(I74,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J74&lt;&gt;"", ", range: '"&amp;J74&amp;"'", "")&amp;IF(L74&lt;&gt;"", ", damage: '"&amp;L74&amp;"'", "")&amp;IF(N74&lt;&gt;"", ", capacity: '"&amp;N74&amp;"'", "")&amp;IF(O74&lt;&gt;"", ", cost: '"&amp;O74&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R74, CHAR(10), "\n")&amp;"'"&amp;IF(P74="○", ", sealable: true", "")&amp;IF(Q74="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '09-chikage-o-n-6': {megami: 'chikage', name: '抜き足', ruby: 'ぬきあし', baseType: 'normal', types: ['enhance'], capacity: '4', text: '隙 \n【展開中】現在の間合は2減少する。 \n(間合は0未満にならない)'}</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.15">
+        <v>390</v>
+      </c>
+      <c r="S74" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="T74" s="9" t="str">
+        <f>", '"&amp;A74&amp;"': {megami: '"&amp;B74&amp;"', name: '"&amp;E74&amp;"', ruby: '"&amp;F74&amp;"', baseType: '"&amp;VLOOKUP(G74,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H74,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I74&lt;&gt;"",", '"&amp; VLOOKUP(I74,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J74&lt;&gt;"", ", range: '"&amp;J74&amp;"'", "")&amp;IF(K74&lt;&gt;"", ", rangeOpened: '"&amp;K74&amp;"'", "")&amp;IF(L74&lt;&gt;"", ", damage: '"&amp;L74&amp;"'", "")&amp;IF(M74&lt;&gt;"", ", damageOpened: '"&amp;M74&amp;"'", "")&amp;IF(N74&lt;&gt;"", ", capacity: '"&amp;N74&amp;"'", "")&amp;IF(O74&lt;&gt;"", ", cost: '"&amp;O74&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R74, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(S74, CHAR(10), "\n")&amp;"'}"</f>
+        <v>, '06-yukihi-o-n-6': {megami: 'yukihi', name: 'ひきあし / もぐりこみ', ruby: '', baseType: 'normal', types: ['action', 'reaction'], text: 'ダスト→間合：1 ', textOpened: '間合→ダスト：1'}</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" ht="36" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
-        <v>147</v>
+        <v>231</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>153</v>
+        <v>241</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>183</v>
+        <v>232</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>7</v>
@@ -5831,479 +6455,532 @@
       <c r="H75" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K75" s="13"/>
-      <c r="M75" s="13"/>
+      <c r="K75" s="11"/>
+      <c r="M75" s="11"/>
       <c r="N75" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="R75" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="S75" s="13"/>
-      <c r="T75" s="3" t="str">
-        <f>", '"&amp;A75&amp;"': {megami: '"&amp;B75&amp;"'"&amp;IF(C75&lt;&gt;"", ", anotherID: '" &amp; C75 &amp; "', replace: '" &amp; D75 &amp; "'", "")&amp;", name: '"&amp;E75&amp;"', ruby: '"&amp;F75&amp;"', baseType: '"&amp;VLOOKUP(G75,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H75,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I75&lt;&gt;"",", '"&amp; VLOOKUP(I75,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J75&lt;&gt;"", ", range: '"&amp;J75&amp;"'", "")&amp;IF(L75&lt;&gt;"", ", damage: '"&amp;L75&amp;"'", "")&amp;IF(N75&lt;&gt;"", ", capacity: '"&amp;N75&amp;"'", "")&amp;IF(O75&lt;&gt;"", ", cost: '"&amp;O75&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R75, CHAR(10), "\n")&amp;"'"&amp;IF(P75="○", ", sealable: true", "")&amp;IF(Q75="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '09-chikage-o-n-7': {megami: 'chikage', name: '泥濘', ruby: 'でいねい', baseType: 'normal', types: ['enhance'], capacity: '2', text: '【展開中】相手は基本動作《後退》と《離脱》を行えない。'}</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="R75" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="T75" s="9" t="str">
+        <f>", '"&amp;A75&amp;"': {megami: '"&amp;B75&amp;"', name: '"&amp;E75&amp;"', ruby: '"&amp;F75&amp;"', baseType: '"&amp;VLOOKUP(G75,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H75,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I75&lt;&gt;"",", '"&amp; VLOOKUP(I75,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J75&lt;&gt;"", ", range: '"&amp;J75&amp;"'", "")&amp;IF(K75&lt;&gt;"", ", rangeOpened: '"&amp;K75&amp;"'", "")&amp;IF(L75&lt;&gt;"", ", damage: '"&amp;L75&amp;"'", "")&amp;IF(M75&lt;&gt;"", ", damageOpened: '"&amp;M75&amp;"'", "")&amp;IF(N75&lt;&gt;"", ", capacity: '"&amp;N75&amp;"'", "")&amp;IF(O75&lt;&gt;"", ", cost: '"&amp;O75&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R75, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(S75, CHAR(10), "\n")&amp;"'}"</f>
+        <v>, '06-yukihi-o-n-7': {megami: 'yukihi', name: 'えんむすび', ruby: '', baseType: 'normal', types: ['enhance'], capacity: '2', text: '【展開時】間合→ダスト：1 \n【破棄時】ダスト→間合：1 \n【常時】あなたの傘が開いているならば、このカードの矢印(→)は逆になる。', textOpened: ''}</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" ht="48" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
-        <v>149</v>
+        <v>237</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>153</v>
+        <v>241</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K76" s="13"/>
-      <c r="M76" s="13"/>
+        <v>8</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="K76" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="M76" s="11" t="s">
+        <v>260</v>
+      </c>
       <c r="O76" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="R76" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="S76" s="13"/>
-      <c r="T76" s="3" t="str">
-        <f>", '"&amp;A76&amp;"': {megami: '"&amp;B76&amp;"'"&amp;IF(C76&lt;&gt;"", ", anotherID: '" &amp; C76 &amp; "', replace: '" &amp; D76 &amp; "'", "")&amp;", name: '"&amp;E76&amp;"', ruby: '"&amp;F76&amp;"', baseType: '"&amp;VLOOKUP(G76,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H76,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I76&lt;&gt;"",", '"&amp; VLOOKUP(I76,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J76&lt;&gt;"", ", range: '"&amp;J76&amp;"'", "")&amp;IF(L76&lt;&gt;"", ", damage: '"&amp;L76&amp;"'", "")&amp;IF(N76&lt;&gt;"", ", capacity: '"&amp;N76&amp;"'", "")&amp;IF(O76&lt;&gt;"", ", cost: '"&amp;O76&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R76, CHAR(10), "\n")&amp;"'"&amp;IF(P76="○", ", sealable: true", "")&amp;IF(Q76="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '09-chikage-o-s-1': {megami: 'chikage', name: '滅灯の魂毒', ruby: 'ほろびのみたまどく', baseType: 'special', types: ['action'], cost: '3', text: '毒袋から「滅灯毒」を1枚を選び、そのカードを相手の山札の一番上に置く。'}</v>
+        <v>242</v>
+      </c>
+      <c r="R76" s="5"/>
+      <c r="S76" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="T76" s="9" t="str">
+        <f>", '"&amp;A76&amp;"': {megami: '"&amp;B76&amp;"', name: '"&amp;E76&amp;"', ruby: '"&amp;F76&amp;"', baseType: '"&amp;VLOOKUP(G76,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H76,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I76&lt;&gt;"",", '"&amp; VLOOKUP(I76,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J76&lt;&gt;"", ", range: '"&amp;J76&amp;"'", "")&amp;IF(K76&lt;&gt;"", ", rangeOpened: '"&amp;K76&amp;"'", "")&amp;IF(L76&lt;&gt;"", ", damage: '"&amp;L76&amp;"'", "")&amp;IF(M76&lt;&gt;"", ", damageOpened: '"&amp;M76&amp;"'", "")&amp;IF(N76&lt;&gt;"", ", capacity: '"&amp;N76&amp;"'", "")&amp;IF(O76&lt;&gt;"", ", cost: '"&amp;O76&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R76, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(S76, CHAR(10), "\n")&amp;"'}"</f>
+        <v>, '06-yukihi-o-s-1': {megami: 'yukihi', name: 'はらりゆき', ruby: '', baseType: 'special', types: ['attack'], range: '3-5', rangeOpened: '0-1', damage: '3/1', damageOpened: '0/0', cost: '2', text: '', textOpened: '----\n【即再起】あなたが傘の開閉を行う。 '}</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A77" s="4" t="s">
-        <v>150</v>
+        <v>238</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>153</v>
+        <v>241</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>185</v>
+        <v>222</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I77" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K77" s="13"/>
-      <c r="M77" s="13"/>
-      <c r="N77" s="4" t="s">
-        <v>78</v>
+        <v>8</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="K77" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="M77" s="11" t="s">
+        <v>261</v>
       </c>
       <c r="O77" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="R77" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="S77" s="13"/>
-      <c r="T77" s="3" t="str">
-        <f>", '"&amp;A77&amp;"': {megami: '"&amp;B77&amp;"'"&amp;IF(C77&lt;&gt;"", ", anotherID: '" &amp; C77 &amp; "', replace: '" &amp; D77 &amp; "'", "")&amp;", name: '"&amp;E77&amp;"', ruby: '"&amp;F77&amp;"', baseType: '"&amp;VLOOKUP(G77,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H77,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I77&lt;&gt;"",", '"&amp; VLOOKUP(I77,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J77&lt;&gt;"", ", range: '"&amp;J77&amp;"'", "")&amp;IF(L77&lt;&gt;"", ", damage: '"&amp;L77&amp;"'", "")&amp;IF(N77&lt;&gt;"", ", capacity: '"&amp;N77&amp;"'", "")&amp;IF(O77&lt;&gt;"", ", cost: '"&amp;O77&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R77, CHAR(10), "\n")&amp;"'"&amp;IF(P77="○", ", sealable: true", "")&amp;IF(Q77="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '09-chikage-o-s-2': {megami: 'chikage', name: '叛旗の纏毒', ruby: 'はんきのまといどく', baseType: 'special', types: ['enhance', 'reaction'], capacity: '5', cost: '2', text: '【展開中】相手によるオーラへのダメージかライフへのダメージのどちらかが「-」である《攻撃》は打ち消される。'}</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.15">
+        <v>243</v>
+      </c>
+      <c r="R77" s="5"/>
+      <c r="T77" s="9" t="str">
+        <f>", '"&amp;A77&amp;"': {megami: '"&amp;B77&amp;"', name: '"&amp;E77&amp;"', ruby: '"&amp;F77&amp;"', baseType: '"&amp;VLOOKUP(G77,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H77,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I77&lt;&gt;"",", '"&amp; VLOOKUP(I77,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J77&lt;&gt;"", ", range: '"&amp;J77&amp;"'", "")&amp;IF(K77&lt;&gt;"", ", rangeOpened: '"&amp;K77&amp;"'", "")&amp;IF(L77&lt;&gt;"", ", damage: '"&amp;L77&amp;"'", "")&amp;IF(M77&lt;&gt;"", ", damageOpened: '"&amp;M77&amp;"'", "")&amp;IF(N77&lt;&gt;"", ", capacity: '"&amp;N77&amp;"'", "")&amp;IF(O77&lt;&gt;"", ", cost: '"&amp;O77&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R77, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(S77, CHAR(10), "\n")&amp;"'}"</f>
+        <v>, '06-yukihi-o-s-2': {megami: 'yukihi', name: 'ゆらりび', ruby: '', baseType: 'special', types: ['attack'], range: '4-6', rangeOpened: '0', damage: '0/0', damageOpened: '4/5', cost: '5', text: '', textOpened: ''}</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A78" s="4" t="s">
-        <v>151</v>
+        <v>239</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>153</v>
+        <v>241</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>186</v>
+        <v>223</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J78" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="K78" s="13"/>
-      <c r="L78" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="M78" s="13"/>
+        <v>48</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K78" s="11"/>
+      <c r="M78" s="11"/>
+      <c r="N78" s="4" t="s">
+        <v>259</v>
+      </c>
       <c r="O78" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="R78" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="S78" s="13"/>
-      <c r="T78" s="3" t="str">
-        <f>", '"&amp;A78&amp;"': {megami: '"&amp;B78&amp;"'"&amp;IF(C78&lt;&gt;"", ", anotherID: '" &amp; C78 &amp; "', replace: '" &amp; D78 &amp; "'", "")&amp;", name: '"&amp;E78&amp;"', ruby: '"&amp;F78&amp;"', baseType: '"&amp;VLOOKUP(G78,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H78,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I78&lt;&gt;"",", '"&amp; VLOOKUP(I78,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J78&lt;&gt;"", ", range: '"&amp;J78&amp;"'", "")&amp;IF(L78&lt;&gt;"", ", damage: '"&amp;L78&amp;"'", "")&amp;IF(N78&lt;&gt;"", ", capacity: '"&amp;N78&amp;"'", "")&amp;IF(O78&lt;&gt;"", ", cost: '"&amp;O78&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R78, CHAR(10), "\n")&amp;"'"&amp;IF(P78="○", ", sealable: true", "")&amp;IF(Q78="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '09-chikage-o-s-3': {megami: 'chikage', name: '流転の霞毒', ruby: 'るてんのかすみどく', baseType: 'special', types: ['attack'], range: '3-7', damage: '1/2', cost: '1', text: '【再起】相手の手札が2枚以上ある。'}</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20" ht="48" x14ac:dyDescent="0.15">
+        <v>244</v>
+      </c>
+      <c r="R78" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="T78" s="9" t="str">
+        <f>", '"&amp;A78&amp;"': {megami: '"&amp;B78&amp;"', name: '"&amp;E78&amp;"', ruby: '"&amp;F78&amp;"', baseType: '"&amp;VLOOKUP(G78,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H78,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I78&lt;&gt;"",", '"&amp; VLOOKUP(I78,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J78&lt;&gt;"", ", range: '"&amp;J78&amp;"'", "")&amp;IF(K78&lt;&gt;"", ", rangeOpened: '"&amp;K78&amp;"'", "")&amp;IF(L78&lt;&gt;"", ", damage: '"&amp;L78&amp;"'", "")&amp;IF(M78&lt;&gt;"", ", damageOpened: '"&amp;M78&amp;"'", "")&amp;IF(N78&lt;&gt;"", ", capacity: '"&amp;N78&amp;"'", "")&amp;IF(O78&lt;&gt;"", ", cost: '"&amp;O78&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R78, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(S78, CHAR(10), "\n")&amp;"'}"</f>
+        <v>, '06-yukihi-o-s-3': {megami: 'yukihi', name: 'どろりうら', ruby: '', baseType: 'special', types: ['enhance', 'fullpower'], capacity: '7', cost: '3', text: '【展開中】あなたのユキヒの《攻撃》は傘を開いた状態と傘を閉じた状態両方の適正距離を持つ。', textOpened: ''}</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A79" s="4" t="s">
-        <v>152</v>
+        <v>240</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>153</v>
+        <v>241</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>187</v>
+        <v>224</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K79" s="13"/>
-      <c r="M79" s="13"/>
-      <c r="N79" s="4" t="s">
-        <v>90</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="K79" s="11"/>
+      <c r="M79" s="11"/>
       <c r="O79" s="4" t="s">
-        <v>78</v>
+        <v>245</v>
       </c>
       <c r="R79" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="S79" s="13"/>
-      <c r="T79" s="3" t="str">
-        <f>", '"&amp;A79&amp;"': {megami: '"&amp;B79&amp;"'"&amp;IF(C79&lt;&gt;"", ", anotherID: '" &amp; C79 &amp; "', replace: '" &amp; D79 &amp; "'", "")&amp;", name: '"&amp;E79&amp;"', ruby: '"&amp;F79&amp;"', baseType: '"&amp;VLOOKUP(G79,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H79,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I79&lt;&gt;"",", '"&amp; VLOOKUP(I79,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J79&lt;&gt;"", ", range: '"&amp;J79&amp;"'", "")&amp;IF(L79&lt;&gt;"", ", damage: '"&amp;L79&amp;"'", "")&amp;IF(N79&lt;&gt;"", ", capacity: '"&amp;N79&amp;"'", "")&amp;IF(O79&lt;&gt;"", ", cost: '"&amp;O79&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R79, CHAR(10), "\n")&amp;"'"&amp;IF(P79="○", ", sealable: true", "")&amp;IF(Q79="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '09-chikage-o-s-4': {megami: 'chikage', name: '闇昏千影の生きる道', ruby: 'やみくらちかげのいきるみち', baseType: 'special', types: ['enhance', 'fullpower'], capacity: '4', cost: '5', text: '【展開中】あなたが1以上のライフへのダメージを受けた時、このカードの上の桜花結晶は全てダストに送られ、このカードは未使用に戻る。 \n(破棄時効果は失敗する) \n【破棄時】あなたの他の切札が全て使用済ならば、あなたは勝利する。'}</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" ht="48" x14ac:dyDescent="0.15">
+        <v>389</v>
+      </c>
+      <c r="T79" s="9" t="str">
+        <f>", '"&amp;A79&amp;"': {megami: '"&amp;B79&amp;"', name: '"&amp;E79&amp;"', ruby: '"&amp;F79&amp;"', baseType: '"&amp;VLOOKUP(G79,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H79,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I79&lt;&gt;"",", '"&amp; VLOOKUP(I79,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J79&lt;&gt;"", ", range: '"&amp;J79&amp;"'", "")&amp;IF(K79&lt;&gt;"", ", rangeOpened: '"&amp;K79&amp;"'", "")&amp;IF(L79&lt;&gt;"", ", damage: '"&amp;L79&amp;"'", "")&amp;IF(M79&lt;&gt;"", ", damageOpened: '"&amp;M79&amp;"'", "")&amp;IF(N79&lt;&gt;"", ", capacity: '"&amp;N79&amp;"'", "")&amp;IF(O79&lt;&gt;"", ", cost: '"&amp;O79&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R79, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(S79, CHAR(10), "\n")&amp;"'}"</f>
+        <v>, '06-yukihi-o-s-4': {megami: 'yukihi', name: 'くるりみ', ruby: '', baseType: 'special', types: ['action', 'reaction'], cost: '1', text: '傘の開閉を行う。 \nダスト→自オーラ：1', textOpened: ''}</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A80" s="4" t="s">
-        <v>154</v>
+        <v>276</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>153</v>
+        <v>275</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>170</v>
+        <v>262</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>188</v>
+        <v>287</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>192</v>
+        <v>7</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>23</v>
+        <v>8</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>273</v>
       </c>
       <c r="K80" s="13"/>
+      <c r="L80" s="2" t="s">
+        <v>299</v>
+      </c>
       <c r="M80" s="13"/>
-      <c r="R80" s="5" t="s">
-        <v>208</v>
+      <c r="R80" s="4" t="s">
+        <v>302</v>
       </c>
       <c r="S80" s="13"/>
       <c r="T80" s="3" t="str">
         <f>", '"&amp;A80&amp;"': {megami: '"&amp;B80&amp;"'"&amp;IF(C80&lt;&gt;"", ", anotherID: '" &amp; C80 &amp; "', replace: '" &amp; D80 &amp; "'", "")&amp;", name: '"&amp;E80&amp;"', ruby: '"&amp;F80&amp;"', baseType: '"&amp;VLOOKUP(G80,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H80,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I80&lt;&gt;"",", '"&amp; VLOOKUP(I80,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J80&lt;&gt;"", ", range: '"&amp;J80&amp;"'", "")&amp;IF(L80&lt;&gt;"", ", damage: '"&amp;L80&amp;"'", "")&amp;IF(N80&lt;&gt;"", ", capacity: '"&amp;N80&amp;"'", "")&amp;IF(O80&lt;&gt;"", ", cost: '"&amp;O80&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R80, CHAR(10), "\n")&amp;"'"&amp;IF(P80="○", ", sealable: true", "")&amp;IF(Q80="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '09-chikage-o-p-1': {megami: 'chikage', name: '麻痺毒', ruby: 'まひどく', baseType: 'extra', types: ['action'], text: '毒（このカードは伏せ札にできない） \n【常時】このターン中にあなたが基本動作を行ったならば、このカードは使用できない。 \nこのカードを相手の毒袋に戻す。その後、このフェイズを終了する。'}</v>
+        <v>, '07-shinra-o-n-1': {megami: 'shinra', name: '立論', ruby: 'りつろん', baseType: 'normal', types: ['attack'], range: '2-7', damage: '2/-', text: '【常時】相手の山札に2枚以上のカードがあるならば、この《攻撃》はダメージを与える代わりに山札の上から2枚を伏せ札にする。'}</v>
       </c>
     </row>
     <row r="81" spans="1:20" ht="36" x14ac:dyDescent="0.15">
       <c r="A81" s="4" t="s">
-        <v>155</v>
+        <v>277</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>153</v>
+        <v>275</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>171</v>
+        <v>263</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>189</v>
+        <v>288</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>192</v>
+        <v>7</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>23</v>
+        <v>8</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J81" s="4" t="s">
+        <v>273</v>
       </c>
       <c r="K81" s="13"/>
+      <c r="L81" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="M81" s="13"/>
       <c r="R81" s="5" t="s">
-        <v>209</v>
+        <v>303</v>
       </c>
       <c r="S81" s="13"/>
       <c r="T81" s="3" t="str">
         <f>", '"&amp;A81&amp;"': {megami: '"&amp;B81&amp;"'"&amp;IF(C81&lt;&gt;"", ", anotherID: '" &amp; C81 &amp; "', replace: '" &amp; D81 &amp; "'", "")&amp;", name: '"&amp;E81&amp;"', ruby: '"&amp;F81&amp;"', baseType: '"&amp;VLOOKUP(G81,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H81,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I81&lt;&gt;"",", '"&amp; VLOOKUP(I81,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J81&lt;&gt;"", ", range: '"&amp;J81&amp;"'", "")&amp;IF(L81&lt;&gt;"", ", damage: '"&amp;L81&amp;"'", "")&amp;IF(N81&lt;&gt;"", ", capacity: '"&amp;N81&amp;"'", "")&amp;IF(O81&lt;&gt;"", ", cost: '"&amp;O81&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R81, CHAR(10), "\n")&amp;"'"&amp;IF(P81="○", ", sealable: true", "")&amp;IF(Q81="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '09-chikage-o-p-2': {megami: 'chikage', name: '幻覚毒', ruby: 'げんかくどく', baseType: 'extra', types: ['action'], text: '毒（このカードは伏せ札にできない） \nこのカードを相手の毒袋に戻す。 \n自フレア→ダスト：2'}</v>
+        <v>, '07-shinra-o-n-2': {megami: 'shinra', name: '反論', ruby: 'はんろん', baseType: 'normal', types: ['attack', 'reaction'], range: '2-7', damage: '1/-', text: '【攻撃後】対応した切札でなく、オーラへのダメージが3以上である《攻撃》のダメージを打ち消す。 \n【攻撃後】相手はカードを1枚引く。'}</v>
       </c>
     </row>
     <row r="82" spans="1:20" ht="36" x14ac:dyDescent="0.15">
       <c r="A82" s="4" t="s">
-        <v>156</v>
+        <v>278</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>153</v>
+        <v>275</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>172</v>
+        <v>264</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>190</v>
+        <v>289</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>192</v>
+        <v>7</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J82" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="K82" s="13"/>
+      <c r="L82" s="2" t="s">
+        <v>301</v>
+      </c>
       <c r="M82" s="13"/>
-      <c r="N82" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="R82" s="5" t="s">
-        <v>210</v>
+        <v>311</v>
       </c>
       <c r="S82" s="13"/>
       <c r="T82" s="3" t="str">
         <f>", '"&amp;A82&amp;"': {megami: '"&amp;B82&amp;"'"&amp;IF(C82&lt;&gt;"", ", anotherID: '" &amp; C82 &amp; "', replace: '" &amp; D82 &amp; "'", "")&amp;", name: '"&amp;E82&amp;"', ruby: '"&amp;F82&amp;"', baseType: '"&amp;VLOOKUP(G82,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H82,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I82&lt;&gt;"",", '"&amp; VLOOKUP(I82,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J82&lt;&gt;"", ", range: '"&amp;J82&amp;"'", "")&amp;IF(L82&lt;&gt;"", ", damage: '"&amp;L82&amp;"'", "")&amp;IF(N82&lt;&gt;"", ", capacity: '"&amp;N82&amp;"'", "")&amp;IF(O82&lt;&gt;"", ", cost: '"&amp;O82&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R82, CHAR(10), "\n")&amp;"'"&amp;IF(P82="○", ", sealable: true", "")&amp;IF(Q82="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '09-chikage-o-p-3': {megami: 'chikage', name: '弛緩毒', ruby: 'しかんどく', baseType: 'extra', types: ['enhance'], capacity: '3', text: '毒（このカードは伏せ札にできない） \n【展開中】あなたは《攻撃》カードを使用できない。 \n【破棄時】このカードを相手の毒袋に戻す。'}</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+        <v>, '07-shinra-o-n-3': {megami: 'shinra', name: '詭弁', ruby: 'きべん', baseType: 'normal', types: ['attack', 'fullpower'], range: '3-8', damage: '-/1', text: '【攻撃後】計略を実行し、次の計略を準備する。 \n[神算] 相手の山札の上から3枚を伏せ札にする。 \n[鬼謀] 相手の捨て札にあるカードを1枚選び、それを使用してもよい。'}</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A83" s="4" t="s">
-        <v>157</v>
+        <v>279</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>153</v>
+        <v>275</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>173</v>
+        <v>265</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>191</v>
+        <v>290</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>192</v>
+        <v>7</v>
       </c>
       <c r="H83" s="4" t="s">
         <v>23</v>
       </c>
       <c r="K83" s="13"/>
       <c r="M83" s="13"/>
-      <c r="R83" s="5" t="s">
-        <v>211</v>
+      <c r="R83" s="4" t="s">
+        <v>304</v>
       </c>
       <c r="S83" s="13"/>
       <c r="T83" s="3" t="str">
         <f>", '"&amp;A83&amp;"': {megami: '"&amp;B83&amp;"'"&amp;IF(C83&lt;&gt;"", ", anotherID: '" &amp; C83 &amp; "', replace: '" &amp; D83 &amp; "'", "")&amp;", name: '"&amp;E83&amp;"', ruby: '"&amp;F83&amp;"', baseType: '"&amp;VLOOKUP(G83,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H83,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I83&lt;&gt;"",", '"&amp; VLOOKUP(I83,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J83&lt;&gt;"", ", range: '"&amp;J83&amp;"'", "")&amp;IF(L83&lt;&gt;"", ", damage: '"&amp;L83&amp;"'", "")&amp;IF(N83&lt;&gt;"", ", capacity: '"&amp;N83&amp;"'", "")&amp;IF(O83&lt;&gt;"", ", cost: '"&amp;O83&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R83, CHAR(10), "\n")&amp;"'"&amp;IF(P83="○", ", sealable: true", "")&amp;IF(Q83="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '09-chikage-o-p-4': {megami: 'chikage', name: '滅灯毒', ruby: 'ほろびどく', baseType: 'extra', types: ['action'], text: '毒（このカードは伏せ札にできない） \n自オーラ→ダスト：3'}</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+        <v>, '07-shinra-o-n-4': {megami: 'shinra', name: '引用', ruby: 'いんよう', baseType: 'normal', types: ['action'], text: '相手の手札を見て、《攻撃》カードを1枚選んでもよい。そうした場合、そのカードを使用するか伏せ札にする。その後、そのカードが《全力》を持つならば現在のフェイズを終了する。'}</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" ht="36" x14ac:dyDescent="0.15">
       <c r="A84" s="4" t="s">
-        <v>363</v>
+        <v>280</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>362</v>
+        <v>275</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>374</v>
+        <v>266</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>291</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H84" s="4" t="s">
         <v>23</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="K84" s="13"/>
       <c r="M84" s="13"/>
       <c r="R84" s="5" t="s">
-        <v>557</v>
+        <v>310</v>
       </c>
       <c r="S84" s="13"/>
       <c r="T84" s="3" t="str">
         <f>", '"&amp;A84&amp;"': {megami: '"&amp;B84&amp;"'"&amp;IF(C84&lt;&gt;"", ", anotherID: '" &amp; C84 &amp; "', replace: '" &amp; D84 &amp; "'", "")&amp;", name: '"&amp;E84&amp;"', ruby: '"&amp;F84&amp;"', baseType: '"&amp;VLOOKUP(G84,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H84,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I84&lt;&gt;"",", '"&amp; VLOOKUP(I84,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J84&lt;&gt;"", ", range: '"&amp;J84&amp;"'", "")&amp;IF(L84&lt;&gt;"", ", damage: '"&amp;L84&amp;"'", "")&amp;IF(N84&lt;&gt;"", ", capacity: '"&amp;N84&amp;"'", "")&amp;IF(O84&lt;&gt;"", ", cost: '"&amp;O84&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R84, CHAR(10), "\n")&amp;"'"&amp;IF(P84="○", ", sealable: true", "")&amp;IF(Q84="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '10-kururu-o-n-1': {megami: 'kururu', name: 'えれきてる', ruby: '', baseType: 'normal', types: ['action'], text: '----\n&lt;行行行対対&gt; 相手のライフに1ダメージを与える。 '}</v>
+        <v>, '07-shinra-o-n-5': {megami: 'shinra', name: '煽動', ruby: 'せんどう', baseType: 'normal', types: ['action', 'reaction'], text: '計略を実行し、次の計略を準備する。 \n[神算] ダスト→間合：1 \n[鬼謀] 間合→相オーラ：1'}</v>
       </c>
     </row>
     <row r="85" spans="1:20" ht="48" x14ac:dyDescent="0.15">
       <c r="A85" s="4" t="s">
-        <v>364</v>
+        <v>281</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>362</v>
+        <v>275</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>375</v>
+        <v>267</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>292</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="K85" s="13"/>
       <c r="M85" s="13"/>
+      <c r="N85" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="R85" s="5" t="s">
-        <v>558</v>
+        <v>309</v>
       </c>
       <c r="S85" s="13"/>
       <c r="T85" s="3" t="str">
         <f>", '"&amp;A85&amp;"': {megami: '"&amp;B85&amp;"'"&amp;IF(C85&lt;&gt;"", ", anotherID: '" &amp; C85 &amp; "', replace: '" &amp; D85 &amp; "'", "")&amp;", name: '"&amp;E85&amp;"', ruby: '"&amp;F85&amp;"', baseType: '"&amp;VLOOKUP(G85,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H85,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I85&lt;&gt;"",", '"&amp; VLOOKUP(I85,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J85&lt;&gt;"", ", range: '"&amp;J85&amp;"'", "")&amp;IF(L85&lt;&gt;"", ", damage: '"&amp;L85&amp;"'", "")&amp;IF(N85&lt;&gt;"", ", capacity: '"&amp;N85&amp;"'", "")&amp;IF(O85&lt;&gt;"", ", cost: '"&amp;O85&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R85, CHAR(10), "\n")&amp;"'"&amp;IF(P85="○", ", sealable: true", "")&amp;IF(Q85="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '10-kururu-o-n-2': {megami: 'kururu', name: 'あくせらー', ruby: '', baseType: 'normal', types: ['action'], text: '----\n&lt;行行付&gt; あなたの手札から《全力》カードを1枚選び、そのカードを使用してもよい。 \n(フェイズは終了しない) '}</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20" ht="72" x14ac:dyDescent="0.15">
+        <v>, '07-shinra-o-n-6': {megami: 'shinra', name: '壮語', ruby: 'そうご', baseType: 'normal', types: ['enhance'], capacity: '2', text: '【破棄時】計略を実行し、次の計略を準備する。 \n[神算] あなたの集中力は1増加し、このカードを山札の一番上に置く。 \n[鬼謀] 相手は手札が2枚以上ならば、手札を1枚になるまで捨て札にする。相手の集中力は0になる。'}</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A86" s="4" t="s">
-        <v>365</v>
+        <v>282</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>362</v>
+        <v>275</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>376</v>
+        <v>268</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>293</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I86" s="4" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="K86" s="13"/>
       <c r="M86" s="13"/>
+      <c r="N86" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="P86" s="4" t="s">
+        <v>295</v>
+      </c>
       <c r="R86" s="5" t="s">
-        <v>392</v>
+        <v>305</v>
       </c>
       <c r="S86" s="13"/>
       <c r="T86" s="3" t="str">
         <f>", '"&amp;A86&amp;"': {megami: '"&amp;B86&amp;"'"&amp;IF(C86&lt;&gt;"", ", anotherID: '" &amp; C86 &amp; "', replace: '" &amp; D86 &amp; "'", "")&amp;", name: '"&amp;E86&amp;"', ruby: '"&amp;F86&amp;"', baseType: '"&amp;VLOOKUP(G86,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H86,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I86&lt;&gt;"",", '"&amp; VLOOKUP(I86,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J86&lt;&gt;"", ", range: '"&amp;J86&amp;"'", "")&amp;IF(L86&lt;&gt;"", ", damage: '"&amp;L86&amp;"'", "")&amp;IF(N86&lt;&gt;"", ", capacity: '"&amp;N86&amp;"'", "")&amp;IF(O86&lt;&gt;"", ", cost: '"&amp;O86&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R86, CHAR(10), "\n")&amp;"'"&amp;IF(P86="○", ", sealable: true", "")&amp;IF(Q86="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '10-kururu-o-n-3': {megami: 'kururu', name: 'くるるーん', ruby: '', baseType: 'normal', types: ['action', 'reaction'], text: '【常時】このカードは対応でしか使用できない。 \n以下から2つまでを選び、任意の順に行う。 \n(同じものを2回選ぶことはできない)\n・カードを1枚引く。\n・伏せ札1枚を山札の底に置く。\n・相手は手札を1枚捨て札にする。'}</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" ht="48" x14ac:dyDescent="0.15">
+        <v>, '07-shinra-o-n-7': {megami: 'shinra', name: '論破', ruby: 'ろんぱ', baseType: 'normal', types: ['enhance'], capacity: '4', text: '【展開時】相手の捨て札にあるカード1枚を選び、このカードの下に封印する。 \n【破棄時】このカードに封印されたカードを相手の捨て札に戻す。', sealable: true}</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A87" s="4" t="s">
-        <v>366</v>
+        <v>283</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>362</v>
+        <v>275</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>377</v>
+        <v>269</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>294</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H87" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I87" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="K87" s="13"/>
       <c r="M87" s="13"/>
+      <c r="O87" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="P87" s="4" t="s">
+        <v>295</v>
+      </c>
       <c r="R87" s="5" t="s">
-        <v>552</v>
+        <v>306</v>
       </c>
       <c r="S87" s="13"/>
       <c r="T87" s="3" t="str">
         <f>", '"&amp;A87&amp;"': {megami: '"&amp;B87&amp;"'"&amp;IF(C87&lt;&gt;"", ", anotherID: '" &amp; C87 &amp; "', replace: '" &amp; D87 &amp; "'", "")&amp;", name: '"&amp;E87&amp;"', ruby: '"&amp;F87&amp;"', baseType: '"&amp;VLOOKUP(G87,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H87,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I87&lt;&gt;"",", '"&amp; VLOOKUP(I87,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J87&lt;&gt;"", ", range: '"&amp;J87&amp;"'", "")&amp;IF(L87&lt;&gt;"", ", damage: '"&amp;L87&amp;"'", "")&amp;IF(N87&lt;&gt;"", ", capacity: '"&amp;N87&amp;"'", "")&amp;IF(O87&lt;&gt;"", ", cost: '"&amp;O87&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R87, CHAR(10), "\n")&amp;"'"&amp;IF(P87="○", ", sealable: true", "")&amp;IF(Q87="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '10-kururu-o-n-4': {megami: 'kururu', name: 'とるねーど', ruby: '', baseType: 'normal', types: ['action', 'fullpower'], text: '----\n&lt;攻攻&gt; 相手のオーラに5ダメージを与える。 \n----\n&lt;付付&gt; 相手のライフに1ダメージを与える。'}</v>
+        <v>, '07-shinra-o-s-1': {megami: 'shinra', name: '完全論破', ruby: 'かんぜんろんぱ', baseType: 'special', types: ['action'], cost: '4', text: '相手の捨て札にあるカード1枚を選び、このカードの下に封印する。 \n(ゲーム中に戻ることはない)', sealable: true}</v>
       </c>
     </row>
     <row r="88" spans="1:20" ht="60" x14ac:dyDescent="0.15">
       <c r="A88" s="4" t="s">
-        <v>367</v>
+        <v>284</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>362</v>
+        <v>275</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>378</v>
+        <v>270</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>296</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H88" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I88" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="K88" s="13"/>
       <c r="M88" s="13"/>
+      <c r="O88" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="R88" s="5" t="s">
-        <v>553</v>
+        <v>312</v>
       </c>
       <c r="S88" s="13"/>
       <c r="T88" s="3" t="str">
         <f>", '"&amp;A88&amp;"': {megami: '"&amp;B88&amp;"'"&amp;IF(C88&lt;&gt;"", ", anotherID: '" &amp; C88 &amp; "', replace: '" &amp; D88 &amp; "'", "")&amp;", name: '"&amp;E88&amp;"', ruby: '"&amp;F88&amp;"', baseType: '"&amp;VLOOKUP(G88,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H88,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I88&lt;&gt;"",", '"&amp; VLOOKUP(I88,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J88&lt;&gt;"", ", range: '"&amp;J88&amp;"'", "")&amp;IF(L88&lt;&gt;"", ", damage: '"&amp;L88&amp;"'", "")&amp;IF(N88&lt;&gt;"", ", capacity: '"&amp;N88&amp;"'", "")&amp;IF(O88&lt;&gt;"", ", cost: '"&amp;O88&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R88, CHAR(10), "\n")&amp;"'"&amp;IF(P88="○", ", sealable: true", "")&amp;IF(Q88="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '10-kururu-o-n-5': {megami: 'kururu', name: 'りげいなー', ruby: '', baseType: 'normal', types: ['action', 'fullpower'], text: '----\n&lt;攻対&gt; あなたの使用済の切札を1枚選んでもよい。そのカードを消費を支払わずに使用する。(《全力》カードでもよい) \n----\nあなたの集中力は0になる。'}</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+        <v>, '07-shinra-o-s-2': {megami: 'shinra', name: '皆式理解', ruby: 'かいしきりかい', baseType: 'special', types: ['action'], cost: '2', text: '計略を実行し、次の計略を準備する。 \n[神算] あなたの捨て札または使用済の切札から、消費を支払わずに《付与》カード1枚を使用する。そのカードが《全力》ならば現在のフェイズを終了する。 \n[鬼謀] 切札でない相手の付与札を1枚選ぶ。その上の桜花結晶全てをダストに送る。'}</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" ht="36" x14ac:dyDescent="0.15">
       <c r="A89" s="4" t="s">
-        <v>368</v>
+        <v>285</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>362</v>
+        <v>275</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>379</v>
+        <v>271</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>297</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H89" s="4" t="s">
         <v>48</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="K89" s="13"/>
       <c r="M89" s="13"/>
       <c r="N89" s="4" t="s">
-        <v>108</v>
+        <v>78</v>
+      </c>
+      <c r="O89" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="R89" s="5" t="s">
-        <v>394</v>
+        <v>307</v>
       </c>
       <c r="S89" s="13"/>
       <c r="T89" s="3" t="str">
         <f>", '"&amp;A89&amp;"': {megami: '"&amp;B89&amp;"'"&amp;IF(C89&lt;&gt;"", ", anotherID: '" &amp; C89 &amp; "', replace: '" &amp; D89 &amp; "'", "")&amp;", name: '"&amp;E89&amp;"', ruby: '"&amp;F89&amp;"', baseType: '"&amp;VLOOKUP(G89,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H89,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I89&lt;&gt;"",", '"&amp; VLOOKUP(I89,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J89&lt;&gt;"", ", range: '"&amp;J89&amp;"'", "")&amp;IF(L89&lt;&gt;"", ", damage: '"&amp;L89&amp;"'", "")&amp;IF(N89&lt;&gt;"", ", capacity: '"&amp;N89&amp;"'", "")&amp;IF(O89&lt;&gt;"", ", cost: '"&amp;O89&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R89, CHAR(10), "\n")&amp;"'"&amp;IF(P89="○", ", sealable: true", "")&amp;IF(Q89="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '10-kururu-o-n-6': {megami: 'kururu', name: 'もじゅるー', ruby: '', baseType: 'normal', types: ['enhance'], capacity: '3', text: '【展開中】あなたが《行動》カードを使用した時、その解決後に基本動作を1回行ってもよい。'}</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" ht="60" x14ac:dyDescent="0.15">
+        <v>, '07-shinra-o-s-3': {megami: 'shinra', name: '天地反駁', ruby: 'てんちはんぱく', baseType: 'special', types: ['enhance', 'fullpower'], capacity: '5', cost: '2', text: '【展開中】あなたの《攻撃》のオーラへのダメージとライフへのダメージを入れ替える。 \n（ダメージの入れ替えは、ダメージの増減より先に適用される）'}</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" ht="48" x14ac:dyDescent="0.15">
       <c r="A90" s="4" t="s">
-        <v>369</v>
+        <v>286</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>362</v>
+        <v>275</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>380</v>
+        <v>272</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>298</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H90" s="4" t="s">
         <v>48</v>
@@ -6311,998 +6988,974 @@
       <c r="K90" s="13"/>
       <c r="M90" s="13"/>
       <c r="N90" s="4" t="s">
-        <v>221</v>
+        <v>274</v>
+      </c>
+      <c r="O90" s="4" t="s">
+        <v>274</v>
       </c>
       <c r="R90" s="5" t="s">
-        <v>554</v>
+        <v>308</v>
       </c>
       <c r="S90" s="13"/>
       <c r="T90" s="3" t="str">
         <f>", '"&amp;A90&amp;"': {megami: '"&amp;B90&amp;"'"&amp;IF(C90&lt;&gt;"", ", anotherID: '" &amp; C90 &amp; "', replace: '" &amp; D90 &amp; "'", "")&amp;", name: '"&amp;E90&amp;"', ruby: '"&amp;F90&amp;"', baseType: '"&amp;VLOOKUP(G90,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H90,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I90&lt;&gt;"",", '"&amp; VLOOKUP(I90,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J90&lt;&gt;"", ", range: '"&amp;J90&amp;"'", "")&amp;IF(L90&lt;&gt;"", ", damage: '"&amp;L90&amp;"'", "")&amp;IF(N90&lt;&gt;"", ", capacity: '"&amp;N90&amp;"'", "")&amp;IF(O90&lt;&gt;"", ", cost: '"&amp;O90&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R90, CHAR(10), "\n")&amp;"'"&amp;IF(P90="○", ", sealable: true", "")&amp;IF(Q90="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '10-kururu-o-n-7': {megami: 'kururu', name: 'りふれくた', ruby: '', baseType: 'normal', types: ['enhance'], capacity: '0', text: '----\n&lt;攻対&gt; 【展開時】このカードの上に桜花結晶を4個ダストから置く。 \n----\n【展開中】各ターンにおける相手の2回目の《攻撃》は打ち消される。\n'}</v>
+        <v>, '07-shinra-o-s-4': {megami: 'shinra', name: '森羅判証', ruby: 'しんらばんしょう', baseType: 'special', types: ['enhance'], capacity: '6', cost: '6', text: '【展開時】ダスト→自ライフ：2 \n【展開中】あなたの他の付与札が破棄された時、相手のライフに1ダメージを与える。 \n【破棄時】あなたは敗北する。'}</v>
       </c>
     </row>
     <row r="91" spans="1:20" ht="36" x14ac:dyDescent="0.15">
       <c r="A91" s="4" t="s">
-        <v>370</v>
+        <v>313</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>362</v>
+        <v>324</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>381</v>
+        <v>325</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>348</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I91" s="4" t="s">
-        <v>28</v>
+        <v>8</v>
+      </c>
+      <c r="J91" s="4" t="s">
+        <v>326</v>
       </c>
       <c r="K91" s="13"/>
+      <c r="L91" s="2" t="s">
+        <v>349</v>
+      </c>
       <c r="M91" s="13"/>
-      <c r="O91" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="R91" s="5" t="s">
-        <v>393</v>
+        <v>351</v>
       </c>
       <c r="S91" s="13"/>
       <c r="T91" s="3" t="str">
         <f>", '"&amp;A91&amp;"': {megami: '"&amp;B91&amp;"'"&amp;IF(C91&lt;&gt;"", ", anotherID: '" &amp; C91 &amp; "', replace: '" &amp; D91 &amp; "'", "")&amp;", name: '"&amp;E91&amp;"', ruby: '"&amp;F91&amp;"', baseType: '"&amp;VLOOKUP(G91,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H91,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I91&lt;&gt;"",", '"&amp; VLOOKUP(I91,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J91&lt;&gt;"", ", range: '"&amp;J91&amp;"'", "")&amp;IF(L91&lt;&gt;"", ", damage: '"&amp;L91&amp;"'", "")&amp;IF(N91&lt;&gt;"", ", capacity: '"&amp;N91&amp;"'", "")&amp;IF(O91&lt;&gt;"", ", cost: '"&amp;O91&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R91, CHAR(10), "\n")&amp;"'"&amp;IF(P91="○", ", sealable: true", "")&amp;IF(Q91="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '10-kururu-o-s-1': {megami: 'kururu', name: 'どれーんでびる', ruby: '', baseType: 'special', types: ['action', 'reaction'], cost: '2', text: '相オーラ→自オーラ：1 \n【使用済】あなたの使用済の切札が未使用に戻った時、このカードを消費を支払わずに使用してもよい。'}</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20" ht="84" x14ac:dyDescent="0.15">
+        <v>, '08-hagane-o-n-1': {megami: 'hagane', name: '遠心撃', ruby: 'えんしんげき', baseType: 'normal', types: ['attack'], range: '2-6', damage: '5/3', text: '遠心 \n【攻撃後】現在のターンがあなたのターンならば、あなたと相手の手札を全て伏せ札にし、あなたの集中力は0になり、現在のフェイズを終了する。'}</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A92" s="4" t="s">
-        <v>371</v>
+        <v>314</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>362</v>
+        <v>324</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>382</v>
+        <v>327</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>347</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>23</v>
+        <v>8</v>
+      </c>
+      <c r="J92" s="4" t="s">
+        <v>328</v>
       </c>
       <c r="K92" s="13"/>
+      <c r="L92" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="M92" s="13"/>
-      <c r="O92" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="R92" s="5" t="s">
-        <v>555</v>
+        <v>352</v>
       </c>
       <c r="S92" s="13"/>
       <c r="T92" s="3" t="str">
         <f>", '"&amp;A92&amp;"': {megami: '"&amp;B92&amp;"'"&amp;IF(C92&lt;&gt;"", ", anotherID: '" &amp; C92 &amp; "', replace: '" &amp; D92 &amp; "'", "")&amp;", name: '"&amp;E92&amp;"', ruby: '"&amp;F92&amp;"', baseType: '"&amp;VLOOKUP(G92,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H92,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I92&lt;&gt;"",", '"&amp; VLOOKUP(I92,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J92&lt;&gt;"", ", range: '"&amp;J92&amp;"'", "")&amp;IF(L92&lt;&gt;"", ", damage: '"&amp;L92&amp;"'", "")&amp;IF(N92&lt;&gt;"", ", capacity: '"&amp;N92&amp;"'", "")&amp;IF(O92&lt;&gt;"", ", cost: '"&amp;O92&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R92, CHAR(10), "\n")&amp;"'"&amp;IF(P92="○", ", sealable: true", "")&amp;IF(Q92="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '10-kururu-o-s-2': {megami: 'kururu', name: 'びっぐごーれむ', ruby: '', baseType: 'special', types: ['action'], cost: '4', text: '----\n&lt;対全全&gt; 【使用済】あなたの終了フェイズに相手のライフに1ダメージを与えてもよい。そうした場合、山札を再構成する。 \n----\n【使用済】あなたが《全力》カードを使用した時、その解決後に基本動作を1回行ってもよい。\n'}</v>
-      </c>
-    </row>
-    <row r="93" spans="1:20" ht="60" x14ac:dyDescent="0.15">
+        <v>, '08-hagane-o-n-2': {megami: 'hagane', name: '砂風塵', ruby: 'さふうじん', baseType: 'normal', types: ['attack'], range: '0-6', damage: '1/-', text: '【攻撃後】現在の間合がターン開始時の間合から2以上変化しているならば、相手の手札を1枚無作為に選び、それを捨て札にする。'}</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A93" s="4" t="s">
-        <v>372</v>
+        <v>315</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>362</v>
+        <v>324</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>383</v>
+        <v>329</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>346</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>23</v>
+        <v>8</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J93" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="K93" s="13"/>
+      <c r="L93" s="2" t="s">
+        <v>299</v>
+      </c>
       <c r="M93" s="13"/>
-      <c r="O93" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="P93" s="4" t="s">
-        <v>295</v>
-      </c>
       <c r="R93" s="5" t="s">
-        <v>400</v>
+        <v>353</v>
       </c>
       <c r="S93" s="13"/>
       <c r="T93" s="3" t="str">
         <f>", '"&amp;A93&amp;"': {megami: '"&amp;B93&amp;"'"&amp;IF(C93&lt;&gt;"", ", anotherID: '" &amp; C93 &amp; "', replace: '" &amp; D93 &amp; "'", "")&amp;", name: '"&amp;E93&amp;"', ruby: '"&amp;F93&amp;"', baseType: '"&amp;VLOOKUP(G93,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H93,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I93&lt;&gt;"",", '"&amp; VLOOKUP(I93,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J93&lt;&gt;"", ", range: '"&amp;J93&amp;"'", "")&amp;IF(L93&lt;&gt;"", ", damage: '"&amp;L93&amp;"'", "")&amp;IF(N93&lt;&gt;"", ", capacity: '"&amp;N93&amp;"'", "")&amp;IF(O93&lt;&gt;"", ", cost: '"&amp;O93&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R93, CHAR(10), "\n")&amp;"'"&amp;IF(P93="○", ", sealable: true", "")&amp;IF(Q93="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '10-kururu-o-s-3': {megami: 'kururu', name: 'いんだすとりあ', ruby: '', baseType: 'special', types: ['action'], cost: '1', text: 'このカードにカードが封印されていないならば、あなたの手札から《付与》でないカードを1枚選び、そのカードをこのカードの下に表向きで封印してもよい。 \nあなたの追加札から「でゅーぷりぎあ」を山札の底に1枚置く(最大で合計3枚)。 \n----\n【即再起】あなたが山札を再構成する(再構成の後に未使用に戻る)。', sealable: true}</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20" ht="72" x14ac:dyDescent="0.15">
+        <v>, '08-hagane-o-n-3': {megami: 'hagane', name: '大地砕き', ruby: 'だいちくだき', baseType: 'normal', types: ['attack', 'fullpower'], range: '0-3', damage: '2/-', text: '対応不可 \n【攻撃後】相手の集中力は0になり、相手を畏縮させる。'}</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A94" s="4" t="s">
-        <v>373</v>
+        <v>316</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>362</v>
+        <v>324</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>560</v>
+        <v>330</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>559</v>
+        <v>345</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H94" s="4" t="s">
         <v>23</v>
       </c>
       <c r="K94" s="13"/>
       <c r="M94" s="13"/>
-      <c r="O94" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q94" s="4" t="s">
-        <v>295</v>
-      </c>
       <c r="R94" s="5" t="s">
-        <v>556</v>
+        <v>354</v>
       </c>
       <c r="S94" s="13"/>
       <c r="T94" s="3" t="str">
         <f>", '"&amp;A94&amp;"': {megami: '"&amp;B94&amp;"'"&amp;IF(C94&lt;&gt;"", ", anotherID: '" &amp; C94 &amp; "', replace: '" &amp; D94 &amp; "'", "")&amp;", name: '"&amp;E94&amp;"', ruby: '"&amp;F94&amp;"', baseType: '"&amp;VLOOKUP(G94,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H94,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I94&lt;&gt;"",", '"&amp; VLOOKUP(I94,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J94&lt;&gt;"", ", range: '"&amp;J94&amp;"'", "")&amp;IF(L94&lt;&gt;"", ", damage: '"&amp;L94&amp;"'", "")&amp;IF(N94&lt;&gt;"", ", capacity: '"&amp;N94&amp;"'", "")&amp;IF(O94&lt;&gt;"", ", cost: '"&amp;O94&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R94, CHAR(10), "\n")&amp;"'"&amp;IF(P94="○", ", sealable: true", "")&amp;IF(Q94="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '10-kururu-o-s-4': {megami: 'kururu', name: '神渉装置:枢式', ruby: 'かんしょうそうち　くるるしき', baseType: 'special', types: ['action'], cost: '3', text: '----\n&lt;攻攻行行行付付&gt; 相手の切札を見て、その中から1枚選び、それを使用済にしてもよい。\n----\n相手の使用済の切札1枚を選んでもよい。そのカードを消費を支払わずに使用する(《全力》カードでもよい)。その後、このカードを取り除く。', removable: true}</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20" ht="48" x14ac:dyDescent="0.15">
+        <v>, '08-hagane-o-n-4': {megami: 'hagane', name: '超反発', ruby: 'ちょうはんぱつ', baseType: 'normal', types: ['action'], text: '現在の間合が4以下ならば、相フレア→間合：1'}</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A95" s="4" t="s">
-        <v>384</v>
+        <v>317</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>362</v>
+        <v>324</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>385</v>
+        <v>331</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>343</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>192</v>
+        <v>7</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>386</v>
+        <v>23</v>
       </c>
       <c r="K95" s="13"/>
       <c r="M95" s="13"/>
       <c r="R95" s="5" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="S95" s="13"/>
       <c r="T95" s="3" t="str">
         <f>", '"&amp;A95&amp;"': {megami: '"&amp;B95&amp;"'"&amp;IF(C95&lt;&gt;"", ", anotherID: '" &amp; C95 &amp; "', replace: '" &amp; D95 &amp; "'", "")&amp;", name: '"&amp;E95&amp;"', ruby: '"&amp;F95&amp;"', baseType: '"&amp;VLOOKUP(G95,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H95,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I95&lt;&gt;"",", '"&amp; VLOOKUP(I95,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J95&lt;&gt;"", ", range: '"&amp;J95&amp;"'", "")&amp;IF(L95&lt;&gt;"", ", damage: '"&amp;L95&amp;"'", "")&amp;IF(N95&lt;&gt;"", ", capacity: '"&amp;N95&amp;"'", "")&amp;IF(O95&lt;&gt;"", ", cost: '"&amp;O95&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R95, CHAR(10), "\n")&amp;"'"&amp;IF(P95="○", ", sealable: true", "")&amp;IF(Q95="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '10-kururu-o-s-3-ex1': {megami: 'kururu', name: 'でゅーぷりぎあ', ruby: '', baseType: 'extra', types: ['variable'], text: '(カードタイプが不定のカードは使用できない) \n【常時】このカードはあなたの「いんだすとりあ」に封印されたカードの複製となる。但し、名前は変更されない。 \n(「いんだすとりあ」が未使用なら複製とならないので、使用できない)'}</v>
-      </c>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.15">
+        <v>, '08-hagane-o-n-5': {megami: 'hagane', name: '円舞錬', ruby: 'えんぶれん', baseType: 'normal', types: ['action'], text: '遠心 \n相手のフレアが3以上ならば、相フレア→自オーラ：2'}</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" ht="60" x14ac:dyDescent="0.15">
       <c r="A96" s="4" t="s">
-        <v>402</v>
+        <v>318</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>401</v>
+        <v>324</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>499</v>
+        <v>332</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>510</v>
+        <v>344</v>
       </c>
       <c r="G96" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J96" s="4" t="s">
-        <v>219</v>
+        <v>23</v>
       </c>
       <c r="K96" s="13"/>
-      <c r="L96" s="10" t="s">
-        <v>498</v>
-      </c>
       <c r="M96" s="13"/>
-      <c r="R96" s="4" t="s">
-        <v>523</v>
+      <c r="R96" s="5" t="s">
+        <v>356</v>
       </c>
       <c r="S96" s="13"/>
       <c r="T96" s="3" t="str">
         <f>", '"&amp;A96&amp;"': {megami: '"&amp;B96&amp;"'"&amp;IF(C96&lt;&gt;"", ", anotherID: '" &amp; C96 &amp; "', replace: '" &amp; D96 &amp; "'", "")&amp;", name: '"&amp;E96&amp;"', ruby: '"&amp;F96&amp;"', baseType: '"&amp;VLOOKUP(G96,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H96,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I96&lt;&gt;"",", '"&amp; VLOOKUP(I96,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J96&lt;&gt;"", ", range: '"&amp;J96&amp;"'", "")&amp;IF(L96&lt;&gt;"", ", damage: '"&amp;L96&amp;"'", "")&amp;IF(N96&lt;&gt;"", ", capacity: '"&amp;N96&amp;"'", "")&amp;IF(O96&lt;&gt;"", ", cost: '"&amp;O96&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R96, CHAR(10), "\n")&amp;"'"&amp;IF(P96="○", ", sealable: true", "")&amp;IF(Q96="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '11-thallya-o-n-1': {megami: 'thallya', name: 'Burning Steam', ruby: 'バーニングスチーム', baseType: 'normal', types: ['attack'], range: '3-5', damage: '2/1', text: '【攻撃後】騎動を行う。'}</v>
+        <v>, '08-hagane-o-n-6': {megami: 'hagane', name: '鐘鳴らし', ruby: 'かねならし', baseType: 'normal', types: ['action'], text: '遠心 \n以下から１つを選ぶ。\n・このターンにあなたが次に行う《攻撃》は対応不可を得る。\n・このターンにあなたが次に行う《攻撃》はオーラへのダメージが3以上ならば+0/+1、そうでないならば+2/+0となる。'}</v>
       </c>
     </row>
     <row r="97" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A97" s="4" t="s">
-        <v>403</v>
+        <v>319</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>401</v>
+        <v>324</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>500</v>
+        <v>333</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>511</v>
+        <v>342</v>
       </c>
       <c r="G97" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J97" s="4" t="s">
-        <v>175</v>
+        <v>48</v>
       </c>
       <c r="K97" s="13"/>
-      <c r="L97" s="10" t="s">
-        <v>496</v>
-      </c>
       <c r="M97" s="13"/>
+      <c r="N97" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="R97" s="5" t="s">
-        <v>524</v>
+        <v>357</v>
       </c>
       <c r="S97" s="13"/>
       <c r="T97" s="3" t="str">
         <f>", '"&amp;A97&amp;"': {megami: '"&amp;B97&amp;"'"&amp;IF(C97&lt;&gt;"", ", anotherID: '" &amp; C97 &amp; "', replace: '" &amp; D97 &amp; "'", "")&amp;", name: '"&amp;E97&amp;"', ruby: '"&amp;F97&amp;"', baseType: '"&amp;VLOOKUP(G97,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H97,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I97&lt;&gt;"",", '"&amp; VLOOKUP(I97,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J97&lt;&gt;"", ", range: '"&amp;J97&amp;"'", "")&amp;IF(L97&lt;&gt;"", ", damage: '"&amp;L97&amp;"'", "")&amp;IF(N97&lt;&gt;"", ", capacity: '"&amp;N97&amp;"'", "")&amp;IF(O97&lt;&gt;"", ", cost: '"&amp;O97&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R97, CHAR(10), "\n")&amp;"'"&amp;IF(P97="○", ", sealable: true", "")&amp;IF(Q97="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '11-thallya-o-n-2': {megami: 'thallya', name: 'Waving Edge', ruby: 'ウェービングエッジ', baseType: 'normal', types: ['attack'], range: '1-3', damage: '3/1', text: '燃焼 \n【攻撃後】騎動を行う。'}</v>
+        <v>, '08-hagane-o-n-7': {megami: 'hagane', name: '引力場', ruby: 'いんりょくば', baseType: 'normal', types: ['enhance'], capacity: '4', text: '【展開時】間合→ダスト：1 \n【展開中】達人の間合は1小さくなる。'}</v>
       </c>
     </row>
     <row r="98" spans="1:20" ht="36" x14ac:dyDescent="0.15">
       <c r="A98" s="4" t="s">
-        <v>404</v>
+        <v>320</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>401</v>
+        <v>324</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>501</v>
+        <v>334</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>512</v>
+        <v>341</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H98" s="4" t="s">
         <v>8</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K98" s="13"/>
-      <c r="L98" s="10" t="s">
-        <v>520</v>
+      <c r="L98" s="2" t="s">
+        <v>350</v>
       </c>
       <c r="M98" s="13"/>
+      <c r="O98" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="R98" s="5" t="s">
-        <v>525</v>
+        <v>358</v>
       </c>
       <c r="S98" s="13"/>
       <c r="T98" s="3" t="str">
         <f>", '"&amp;A98&amp;"': {megami: '"&amp;B98&amp;"'"&amp;IF(C98&lt;&gt;"", ", anotherID: '" &amp; C98 &amp; "', replace: '" &amp; D98 &amp; "'", "")&amp;", name: '"&amp;E98&amp;"', ruby: '"&amp;F98&amp;"', baseType: '"&amp;VLOOKUP(G98,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H98,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I98&lt;&gt;"",", '"&amp; VLOOKUP(I98,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J98&lt;&gt;"", ", range: '"&amp;J98&amp;"'", "")&amp;IF(L98&lt;&gt;"", ", damage: '"&amp;L98&amp;"'", "")&amp;IF(N98&lt;&gt;"", ", capacity: '"&amp;N98&amp;"'", "")&amp;IF(O98&lt;&gt;"", ", cost: '"&amp;O98&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R98, CHAR(10), "\n")&amp;"'"&amp;IF(P98="○", ", sealable: true", "")&amp;IF(Q98="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '11-thallya-o-n-3': {megami: 'thallya', name: 'Shield Charge', ruby: 'シールドチャージ', baseType: 'normal', types: ['attack'], range: '1', damage: '3/2', text: '燃焼 \n【常時】この《攻撃》のダメージにより移動する桜花結晶は、ダストやフレアでなく間合に動かす。'}</v>
+        <v>, '08-hagane-o-s-1': {megami: 'hagane', name: '大天空クラッシュ', ruby: 'だいてんくうクラッシュ', baseType: 'special', types: ['attack'], range: '0-10', damage: 'X/Y', cost: '5', text: '超克 \n【常時】Xは現在の間合がターン開始時の間合からどれだけ変化しているかに等しい。YはXの半分(切り上げ)に等しい。'}</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A99" s="4" t="s">
-        <v>405</v>
+        <v>321</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>401</v>
+        <v>324</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>502</v>
+        <v>335</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>519</v>
+        <v>338</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I99" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J99" s="4" t="s">
-        <v>503</v>
+        <v>23</v>
       </c>
       <c r="K99" s="13"/>
-      <c r="L99" s="10" t="s">
-        <v>521</v>
-      </c>
       <c r="M99" s="13"/>
-      <c r="R99" s="4" t="s">
-        <v>526</v>
+      <c r="O99" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R99" s="5" t="s">
+        <v>359</v>
       </c>
       <c r="S99" s="13"/>
       <c r="T99" s="3" t="str">
         <f>", '"&amp;A99&amp;"': {megami: '"&amp;B99&amp;"'"&amp;IF(C99&lt;&gt;"", ", anotherID: '" &amp; C99 &amp; "', replace: '" &amp; D99 &amp; "'", "")&amp;", name: '"&amp;E99&amp;"', ruby: '"&amp;F99&amp;"', baseType: '"&amp;VLOOKUP(G99,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H99,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I99&lt;&gt;"",", '"&amp; VLOOKUP(I99,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J99&lt;&gt;"", ", range: '"&amp;J99&amp;"'", "")&amp;IF(L99&lt;&gt;"", ", damage: '"&amp;L99&amp;"'", "")&amp;IF(N99&lt;&gt;"", ", capacity: '"&amp;N99&amp;"'", "")&amp;IF(O99&lt;&gt;"", ", cost: '"&amp;O99&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R99, CHAR(10), "\n")&amp;"'"&amp;IF(P99="○", ", sealable: true", "")&amp;IF(Q99="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '11-thallya-o-n-4': {megami: 'thallya', name: 'Steam Cannon', ruby: 'スチームカノン', baseType: 'normal', types: ['attack', 'fullpower'], range: '2-8', damage: '3/3', text: '燃焼'}</v>
-      </c>
-    </row>
-    <row r="100" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+        <v>, '08-hagane-o-s-2': {megami: 'hagane', name: '大破鐘メガロベル', ruby: 'だいはがねメガロベル', baseType: 'special', types: ['action'], cost: '2', text: 'あなたの他の切札が全て使用済ならば、ダスト→自ライフ：2'}</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" ht="48" x14ac:dyDescent="0.15">
       <c r="A100" s="4" t="s">
-        <v>406</v>
+        <v>322</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>401</v>
+        <v>324</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>504</v>
+        <v>336</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>513</v>
+        <v>339</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H100" s="4" t="s">
         <v>23</v>
       </c>
       <c r="K100" s="13"/>
-      <c r="L100" s="10"/>
       <c r="M100" s="13"/>
+      <c r="O100" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="R100" s="5" t="s">
-        <v>527</v>
+        <v>398</v>
       </c>
       <c r="S100" s="13"/>
       <c r="T100" s="3" t="str">
         <f>", '"&amp;A100&amp;"': {megami: '"&amp;B100&amp;"'"&amp;IF(C100&lt;&gt;"", ", anotherID: '" &amp; C100 &amp; "', replace: '" &amp; D100 &amp; "'", "")&amp;", name: '"&amp;E100&amp;"', ruby: '"&amp;F100&amp;"', baseType: '"&amp;VLOOKUP(G100,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H100,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I100&lt;&gt;"",", '"&amp; VLOOKUP(I100,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J100&lt;&gt;"", ", range: '"&amp;J100&amp;"'", "")&amp;IF(L100&lt;&gt;"", ", damage: '"&amp;L100&amp;"'", "")&amp;IF(N100&lt;&gt;"", ", capacity: '"&amp;N100&amp;"'", "")&amp;IF(O100&lt;&gt;"", ", cost: '"&amp;O100&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R100, CHAR(10), "\n")&amp;"'"&amp;IF(P100="○", ", sealable: true", "")&amp;IF(Q100="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '11-thallya-o-n-5': {megami: 'thallya', name: 'Stunt', ruby: 'スタント', baseType: 'normal', types: ['action'], text: '相手を畏縮させる。 \n自オーラ→自フレア：2'}</v>
-      </c>
-    </row>
-    <row r="101" spans="1:20" ht="48" x14ac:dyDescent="0.15">
+        <v>, '08-hagane-o-s-3': {megami: 'hagane', name: '大重力アトラクト', ruby: 'だいじゅうりょくアトラクト', baseType: 'special', types: ['action'], cost: '5', text: '間合→自フレア：3 \n----\n【再起】このターンにあなたが遠心を持つカードを使用しており、このカードを使用していない。'}</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" ht="36" x14ac:dyDescent="0.15">
       <c r="A101" s="4" t="s">
-        <v>407</v>
+        <v>323</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>401</v>
+        <v>324</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>505</v>
+        <v>337</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>514</v>
+        <v>340</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H101" s="4" t="s">
         <v>23</v>
       </c>
       <c r="K101" s="13"/>
-      <c r="L101" s="10"/>
       <c r="M101" s="13"/>
+      <c r="O101" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="R101" s="5" t="s">
-        <v>528</v>
+        <v>361</v>
       </c>
       <c r="S101" s="13"/>
       <c r="T101" s="3" t="str">
         <f>", '"&amp;A101&amp;"': {megami: '"&amp;B101&amp;"'"&amp;IF(C101&lt;&gt;"", ", anotherID: '" &amp; C101 &amp; "', replace: '" &amp; D101 &amp; "'", "")&amp;", name: '"&amp;E101&amp;"', ruby: '"&amp;F101&amp;"', baseType: '"&amp;VLOOKUP(G101,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H101,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I101&lt;&gt;"",", '"&amp; VLOOKUP(I101,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J101&lt;&gt;"", ", range: '"&amp;J101&amp;"'", "")&amp;IF(L101&lt;&gt;"", ", damage: '"&amp;L101&amp;"'", "")&amp;IF(N101&lt;&gt;"", ", capacity: '"&amp;N101&amp;"'", "")&amp;IF(O101&lt;&gt;"", ", cost: '"&amp;O101&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R101, CHAR(10), "\n")&amp;"'"&amp;IF(P101="○", ", sealable: true", "")&amp;IF(Q101="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '11-thallya-o-n-6': {megami: 'thallya', name: 'Roaring', ruby: 'ロアリング', baseType: 'normal', types: ['action'], text: 'コストとして、あなたのマシンにある造花結晶を2つ燃焼済にしても良い。そうした場合、あなたは集中力を1得て、相手は集中力を1失い、相手を畏縮させる。 \nコストとして、集中力を2支払ってもよい。そうした場合、あなたの燃焼済の造花結晶を3つ回復する。'}</v>
-      </c>
-    </row>
-    <row r="102" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+        <v>, '08-hagane-o-s-4': {megami: 'hagane', name: '大山脈リスペクト', ruby: 'だいさんみゃくリスペクト', baseType: 'special', types: ['action'], cost: '4', text: '遠心 \nあなたの捨て札にある異なる《全力》でないカードを2枚まで選び、任意の順番で使用する。'}</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A102" s="4" t="s">
-        <v>408</v>
+        <v>148</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>401</v>
+        <v>153</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>506</v>
+        <v>158</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>515</v>
+        <v>177</v>
       </c>
       <c r="G102" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I102" s="4" t="s">
-        <v>28</v>
+        <v>8</v>
+      </c>
+      <c r="J102" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="K102" s="13"/>
-      <c r="L102" s="10"/>
+      <c r="L102" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="M102" s="13"/>
-      <c r="R102" s="5" t="s">
-        <v>529</v>
-      </c>
       <c r="S102" s="13"/>
       <c r="T102" s="3" t="str">
         <f>", '"&amp;A102&amp;"': {megami: '"&amp;B102&amp;"'"&amp;IF(C102&lt;&gt;"", ", anotherID: '" &amp; C102 &amp; "', replace: '" &amp; D102 &amp; "'", "")&amp;", name: '"&amp;E102&amp;"', ruby: '"&amp;F102&amp;"', baseType: '"&amp;VLOOKUP(G102,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H102,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I102&lt;&gt;"",", '"&amp; VLOOKUP(I102,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J102&lt;&gt;"", ", range: '"&amp;J102&amp;"'", "")&amp;IF(L102&lt;&gt;"", ", damage: '"&amp;L102&amp;"'", "")&amp;IF(N102&lt;&gt;"", ", capacity: '"&amp;N102&amp;"'", "")&amp;IF(O102&lt;&gt;"", ", cost: '"&amp;O102&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R102, CHAR(10), "\n")&amp;"'"&amp;IF(P102="○", ", sealable: true", "")&amp;IF(Q102="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '11-thallya-o-n-7': {megami: 'thallya', name: 'Turbo Switch', ruby: 'ターボスイッチ', baseType: 'normal', types: ['action', 'reaction'], text: '燃焼 \n騎動を行う。'}</v>
+        <v>, '09-chikage-o-n-1': {megami: 'chikage', name: '飛苦無', ruby: 'とびくない', baseType: 'normal', types: ['attack'], range: '4-5', damage: '2/2', text: ''}</v>
       </c>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A103" s="4" t="s">
-        <v>409</v>
+        <v>142</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>401</v>
+        <v>153</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>507</v>
+        <v>159</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>516</v>
+        <v>178</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H103" s="4" t="s">
         <v>8</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>508</v>
+        <v>90</v>
       </c>
       <c r="K103" s="13"/>
-      <c r="L103" s="10" t="s">
-        <v>522</v>
+      <c r="L103" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="M103" s="13"/>
-      <c r="O103" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="R103" s="5" t="s">
-        <v>551</v>
+      <c r="R103" s="4" t="s">
+        <v>199</v>
       </c>
       <c r="S103" s="13"/>
       <c r="T103" s="3" t="str">
         <f>", '"&amp;A103&amp;"': {megami: '"&amp;B103&amp;"'"&amp;IF(C103&lt;&gt;"", ", anotherID: '" &amp; C103 &amp; "', replace: '" &amp; D103 &amp; "'", "")&amp;", name: '"&amp;E103&amp;"', ruby: '"&amp;F103&amp;"', baseType: '"&amp;VLOOKUP(G103,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H103,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I103&lt;&gt;"",", '"&amp; VLOOKUP(I103,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J103&lt;&gt;"", ", range: '"&amp;J103&amp;"'", "")&amp;IF(L103&lt;&gt;"", ", damage: '"&amp;L103&amp;"'", "")&amp;IF(N103&lt;&gt;"", ", capacity: '"&amp;N103&amp;"'", "")&amp;IF(O103&lt;&gt;"", ", cost: '"&amp;O103&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R103, CHAR(10), "\n")&amp;"'"&amp;IF(P103="○", ", sealable: true", "")&amp;IF(Q103="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '11-thallya-o-s-1': {megami: 'thallya', name: 'Alpha-Edge', ruby: 'アルファエッジ', baseType: 'special', types: ['attack'], range: '1,3,5,7', damage: '1/1', cost: '1', text: '【即再起】あなたが騎動により間合を変化させる。'}</v>
-      </c>
-    </row>
-    <row r="104" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+        <v>, '09-chikage-o-n-2': {megami: 'chikage', name: '毒針', ruby: 'どくばり', baseType: 'normal', types: ['attack'], range: '4', damage: '1/1', text: '【攻撃後】毒袋から「麻痺毒」「幻覚毒」「弛緩毒」のいずれか1枚を選び、そのカードを相手の山札の一番上に置く。'}</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A104" s="4" t="s">
-        <v>410</v>
+        <v>143</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>401</v>
+        <v>153</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>509</v>
+        <v>160</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>517</v>
+        <v>179</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="I104" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="J104" s="4" t="s">
+        <v>175</v>
+      </c>
       <c r="K104" s="13"/>
-      <c r="L104" s="10"/>
+      <c r="L104" s="2" t="s">
+        <v>194</v>
+      </c>
       <c r="M104" s="13"/>
-      <c r="O104" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="R104" s="5" t="s">
-        <v>542</v>
+        <v>200</v>
       </c>
       <c r="S104" s="13"/>
       <c r="T104" s="3" t="str">
         <f>", '"&amp;A104&amp;"': {megami: '"&amp;B104&amp;"'"&amp;IF(C104&lt;&gt;"", ", anotherID: '" &amp; C104 &amp; "', replace: '" &amp; D104 &amp; "'", "")&amp;", name: '"&amp;E104&amp;"', ruby: '"&amp;F104&amp;"', baseType: '"&amp;VLOOKUP(G104,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H104,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I104&lt;&gt;"",", '"&amp; VLOOKUP(I104,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J104&lt;&gt;"", ", range: '"&amp;J104&amp;"'", "")&amp;IF(L104&lt;&gt;"", ", damage: '"&amp;L104&amp;"'", "")&amp;IF(N104&lt;&gt;"", ", capacity: '"&amp;N104&amp;"'", "")&amp;IF(O104&lt;&gt;"", ", cost: '"&amp;O104&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R104, CHAR(10), "\n")&amp;"'"&amp;IF(P104="○", ", sealable: true", "")&amp;IF(Q104="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '11-thallya-o-s-2': {megami: 'thallya', name: 'Omega-Burst', ruby: 'オメガバースト', baseType: 'special', types: ['action', 'reaction'], cost: '4', text: 'あなたの燃焼済の造花結晶を全て回復する。 \n対応した、オーラへのダメージが「-」またはX以下の《攻撃》を打ち消す。Xはこのカードにより回復した造花結晶の個数に等しい。'}</v>
-      </c>
-    </row>
-    <row r="105" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>, '09-chikage-o-n-3': {megami: 'chikage', name: '遁術', ruby: 'とんじゅつ', baseType: 'normal', types: ['attack', 'reaction'], range: '1-3', damage: '1/-', text: '【攻撃後】自オーラ→間合：2 \n【攻撃後】このターン中、全てのプレイヤーは基本動作《前進》を行えない。'}</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A105" s="4" t="s">
-        <v>411</v>
+        <v>144</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>401</v>
+        <v>153</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>561</v>
+        <v>161</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>518</v>
+        <v>180</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="I105" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="J105" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="K105" s="13"/>
-      <c r="L105" s="10"/>
+      <c r="L105" s="2" t="s">
+        <v>195</v>
+      </c>
       <c r="M105" s="13"/>
-      <c r="O105" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="R105" s="8" t="s">
-        <v>530</v>
+      <c r="R105" s="4" t="s">
+        <v>201</v>
       </c>
       <c r="S105" s="13"/>
       <c r="T105" s="3" t="str">
         <f>", '"&amp;A105&amp;"': {megami: '"&amp;B105&amp;"'"&amp;IF(C105&lt;&gt;"", ", anotherID: '" &amp; C105 &amp; "', replace: '" &amp; D105 &amp; "'", "")&amp;", name: '"&amp;E105&amp;"', ruby: '"&amp;F105&amp;"', baseType: '"&amp;VLOOKUP(G105,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H105,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I105&lt;&gt;"",", '"&amp; VLOOKUP(I105,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J105&lt;&gt;"", ", range: '"&amp;J105&amp;"'", "")&amp;IF(L105&lt;&gt;"", ", damage: '"&amp;L105&amp;"'", "")&amp;IF(N105&lt;&gt;"", ", capacity: '"&amp;N105&amp;"'", "")&amp;IF(O105&lt;&gt;"", ", cost: '"&amp;O105&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R105, CHAR(10), "\n")&amp;"'"&amp;IF(P105="○", ", sealable: true", "")&amp;IF(Q105="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '11-thallya-o-s-4': {megami: 'thallya', name: 'Julia\'s BlackBox', ruby: 'ジュリアズ　ブラックボックス', baseType: 'special', types: ['action', 'fullpower'], cost: '0', text: 'あなたのマシンに造花結晶がないならば、あなたのマシンはTransFormし、あなたの燃焼済の造花結晶を2つ回復する。そうでない場合、このカードを未使用に戻す。'}</v>
+        <v>, '09-chikage-o-n-4': {megami: 'chikage', name: '首切り', ruby: 'くびきり', baseType: 'normal', types: ['attack', 'fullpower'], range: '0-3', damage: '2/3', text: '【攻撃後】相手の手札が2枚以上あるならば、相手は手札を1枚捨て札にする。'}</v>
       </c>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A106" s="4" t="s">
-        <v>413</v>
+        <v>145</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>412</v>
+        <v>153</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>463</v>
+        <v>163</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>492</v>
+        <v>181</v>
       </c>
       <c r="G106" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J106" s="4" t="s">
-        <v>464</v>
+        <v>23</v>
       </c>
       <c r="K106" s="13"/>
-      <c r="L106" s="2" t="s">
-        <v>496</v>
-      </c>
       <c r="M106" s="13"/>
+      <c r="R106" s="4" t="s">
+        <v>202</v>
+      </c>
       <c r="S106" s="13"/>
       <c r="T106" s="3" t="str">
         <f>", '"&amp;A106&amp;"': {megami: '"&amp;B106&amp;"'"&amp;IF(C106&lt;&gt;"", ", anotherID: '" &amp; C106 &amp; "', replace: '" &amp; D106 &amp; "'", "")&amp;", name: '"&amp;E106&amp;"', ruby: '"&amp;F106&amp;"', baseType: '"&amp;VLOOKUP(G106,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H106,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I106&lt;&gt;"",", '"&amp; VLOOKUP(I106,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J106&lt;&gt;"", ", range: '"&amp;J106&amp;"'", "")&amp;IF(L106&lt;&gt;"", ", damage: '"&amp;L106&amp;"'", "")&amp;IF(N106&lt;&gt;"", ", capacity: '"&amp;N106&amp;"'", "")&amp;IF(O106&lt;&gt;"", ", cost: '"&amp;O106&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R106, CHAR(10), "\n")&amp;"'"&amp;IF(P106="○", ", sealable: true", "")&amp;IF(Q106="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-raira-o-n-1': {megami: 'raira', name: '獣爪', ruby: 'じゅうそう', baseType: 'normal', types: ['attack'], range: '1-2', damage: '3/1', text: ''}</v>
-      </c>
-    </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.15">
+        <v>, '09-chikage-o-n-5': {megami: 'chikage', name: '毒霧', ruby: 'どくぎり', baseType: 'normal', types: ['action'], text: '毒袋から「麻痺毒」「幻覚毒」「弛緩毒」のいずれか1枚を選び、そのカードを相手の手札に加える。'}</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" ht="36" x14ac:dyDescent="0.15">
       <c r="A107" s="4" t="s">
-        <v>414</v>
+        <v>146</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>412</v>
+        <v>153</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>465</v>
+        <v>164</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>493</v>
+        <v>182</v>
       </c>
       <c r="G107" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J107" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K107" s="13"/>
-      <c r="L107" s="2" t="s">
-        <v>497</v>
-      </c>
       <c r="M107" s="13"/>
-      <c r="R107" s="4" t="s">
-        <v>531</v>
+      <c r="N107" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="R107" s="5" t="s">
+        <v>203</v>
       </c>
       <c r="S107" s="13"/>
       <c r="T107" s="3" t="str">
         <f>", '"&amp;A107&amp;"': {megami: '"&amp;B107&amp;"'"&amp;IF(C107&lt;&gt;"", ", anotherID: '" &amp; C107 &amp; "', replace: '" &amp; D107 &amp; "'", "")&amp;", name: '"&amp;E107&amp;"', ruby: '"&amp;F107&amp;"', baseType: '"&amp;VLOOKUP(G107,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H107,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I107&lt;&gt;"",", '"&amp; VLOOKUP(I107,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J107&lt;&gt;"", ", range: '"&amp;J107&amp;"'", "")&amp;IF(L107&lt;&gt;"", ", damage: '"&amp;L107&amp;"'", "")&amp;IF(N107&lt;&gt;"", ", capacity: '"&amp;N107&amp;"'", "")&amp;IF(O107&lt;&gt;"", ", cost: '"&amp;O107&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R107, CHAR(10), "\n")&amp;"'"&amp;IF(P107="○", ", sealable: true", "")&amp;IF(Q107="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-raira-o-n-2': {megami: 'raira', name: '風雷撃', ruby: 'ふうらいげき', baseType: 'normal', types: ['attack'], range: '2', damage: 'X/2', text: '【常時】Xは風神ゲージと雷神ゲージのうち、小さい方の値である。'}</v>
-      </c>
-    </row>
-    <row r="108" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+        <v>, '09-chikage-o-n-6': {megami: 'chikage', name: '抜き足', ruby: 'ぬきあし', baseType: 'normal', types: ['enhance'], capacity: '4', text: '隙 \n【展開中】現在の間合は2減少する。 \n(間合は0未満にならない)'}</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A108" s="4" t="s">
-        <v>415</v>
+        <v>147</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>412</v>
+        <v>153</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>466</v>
+        <v>165</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>494</v>
+        <v>183</v>
       </c>
       <c r="G108" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J108" s="4" t="s">
-        <v>464</v>
+        <v>48</v>
       </c>
       <c r="K108" s="13"/>
-      <c r="L108" s="2" t="s">
-        <v>498</v>
-      </c>
       <c r="M108" s="13"/>
-      <c r="R108" s="5" t="s">
-        <v>532</v>
+      <c r="N108" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R108" s="4" t="s">
+        <v>204</v>
       </c>
       <c r="S108" s="13"/>
       <c r="T108" s="3" t="str">
         <f>", '"&amp;A108&amp;"': {megami: '"&amp;B108&amp;"'"&amp;IF(C108&lt;&gt;"", ", anotherID: '" &amp; C108 &amp; "', replace: '" &amp; D108 &amp; "'", "")&amp;", name: '"&amp;E108&amp;"', ruby: '"&amp;F108&amp;"', baseType: '"&amp;VLOOKUP(G108,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H108,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I108&lt;&gt;"",", '"&amp; VLOOKUP(I108,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J108&lt;&gt;"", ", range: '"&amp;J108&amp;"'", "")&amp;IF(L108&lt;&gt;"", ", damage: '"&amp;L108&amp;"'", "")&amp;IF(N108&lt;&gt;"", ", capacity: '"&amp;N108&amp;"'", "")&amp;IF(O108&lt;&gt;"", ", cost: '"&amp;O108&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R108, CHAR(10), "\n")&amp;"'"&amp;IF(P108="○", ", sealable: true", "")&amp;IF(Q108="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-raira-o-n-3': {megami: 'raira', name: '流転爪', ruby: 'るてんそう', baseType: 'normal', types: ['attack'], range: '1-2', damage: '2/1', text: '【攻撃後】あなたの捨て札にある《攻撃》カード1枚を選び、山札の一番上に置いてもよい。'}</v>
+        <v>, '09-chikage-o-n-7': {megami: 'chikage', name: '泥濘', ruby: 'でいねい', baseType: 'normal', types: ['enhance'], capacity: '2', text: '【展開中】相手は基本動作《後退》と《離脱》を行えない。'}</v>
       </c>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A109" s="4" t="s">
-        <v>416</v>
+        <v>149</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>412</v>
+        <v>153</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>467</v>
+        <v>166</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>491</v>
+        <v>184</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H109" s="4" t="s">
         <v>23</v>
       </c>
       <c r="K109" s="13"/>
       <c r="M109" s="13"/>
+      <c r="O109" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="R109" s="4" t="s">
-        <v>533</v>
+        <v>205</v>
       </c>
       <c r="S109" s="13"/>
       <c r="T109" s="3" t="str">
         <f>", '"&amp;A109&amp;"': {megami: '"&amp;B109&amp;"'"&amp;IF(C109&lt;&gt;"", ", anotherID: '" &amp; C109 &amp; "', replace: '" &amp; D109 &amp; "'", "")&amp;", name: '"&amp;E109&amp;"', ruby: '"&amp;F109&amp;"', baseType: '"&amp;VLOOKUP(G109,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H109,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I109&lt;&gt;"",", '"&amp; VLOOKUP(I109,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J109&lt;&gt;"", ", range: '"&amp;J109&amp;"'", "")&amp;IF(L109&lt;&gt;"", ", damage: '"&amp;L109&amp;"'", "")&amp;IF(N109&lt;&gt;"", ", capacity: '"&amp;N109&amp;"'", "")&amp;IF(O109&lt;&gt;"", ", cost: '"&amp;O109&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R109, CHAR(10), "\n")&amp;"'"&amp;IF(P109="○", ", sealable: true", "")&amp;IF(Q109="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-raira-o-n-4': {megami: 'raira', name: '風走り', ruby: 'かぜばしり', baseType: 'normal', types: ['action'], text: '現在の間合が3以上ならば、間合→ダスト：2'}</v>
-      </c>
-    </row>
-    <row r="110" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+        <v>, '09-chikage-o-s-1': {megami: 'chikage', name: '滅灯の魂毒', ruby: 'ほろびのみたまどく', baseType: 'special', types: ['action'], cost: '3', text: '毒袋から「滅灯毒」を1枚を選び、そのカードを相手の山札の一番上に置く。'}</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A110" s="4" t="s">
-        <v>417</v>
+        <v>150</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>412</v>
+        <v>153</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>468</v>
+        <v>167</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>489</v>
+        <v>185</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="I110" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="K110" s="13"/>
       <c r="M110" s="13"/>
-      <c r="R110" s="5" t="s">
-        <v>534</v>
+      <c r="N110" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="O110" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R110" s="4" t="s">
+        <v>206</v>
       </c>
       <c r="S110" s="13"/>
       <c r="T110" s="3" t="str">
         <f>", '"&amp;A110&amp;"': {megami: '"&amp;B110&amp;"'"&amp;IF(C110&lt;&gt;"", ", anotherID: '" &amp; C110 &amp; "', replace: '" &amp; D110 &amp; "'", "")&amp;", name: '"&amp;E110&amp;"', ruby: '"&amp;F110&amp;"', baseType: '"&amp;VLOOKUP(G110,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H110,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I110&lt;&gt;"",", '"&amp; VLOOKUP(I110,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J110&lt;&gt;"", ", range: '"&amp;J110&amp;"'", "")&amp;IF(L110&lt;&gt;"", ", damage: '"&amp;L110&amp;"'", "")&amp;IF(N110&lt;&gt;"", ", capacity: '"&amp;N110&amp;"'", "")&amp;IF(O110&lt;&gt;"", ", cost: '"&amp;O110&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R110, CHAR(10), "\n")&amp;"'"&amp;IF(P110="○", ", sealable: true", "")&amp;IF(Q110="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-raira-o-n-5': {megami: 'raira', name: '風雷の知恵', ruby: 'ふうらいのちえ', baseType: 'normal', types: ['action'], text: '風神ゲージと雷神ゲージの合計が4以上ならば、あなたの捨て札にある他のメガミのカード1枚を選び、山札の一番上に置いてもよい。 \n風神ゲージか雷神ゲージを1上げる。'}</v>
-      </c>
-    </row>
-    <row r="111" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+        <v>, '09-chikage-o-s-2': {megami: 'chikage', name: '叛旗の纏毒', ruby: 'はんきのまといどく', baseType: 'special', types: ['enhance', 'reaction'], capacity: '5', cost: '2', text: '【展開中】相手によるオーラへのダメージかライフへのダメージのどちらかが「-」である《攻撃》は打ち消される。'}</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A111" s="4" t="s">
-        <v>418</v>
+        <v>151</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>412</v>
+        <v>153</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>469</v>
+        <v>168</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>490</v>
+        <v>186</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I111" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
+      </c>
+      <c r="J111" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="K111" s="13"/>
+      <c r="L111" s="2" t="s">
+        <v>196</v>
+      </c>
       <c r="M111" s="13"/>
-      <c r="R111" s="5" t="s">
-        <v>535</v>
+      <c r="O111" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R111" s="4" t="s">
+        <v>399</v>
       </c>
       <c r="S111" s="13"/>
       <c r="T111" s="3" t="str">
         <f>", '"&amp;A111&amp;"': {megami: '"&amp;B111&amp;"'"&amp;IF(C111&lt;&gt;"", ", anotherID: '" &amp; C111 &amp; "', replace: '" &amp; D111 &amp; "'", "")&amp;", name: '"&amp;E111&amp;"', ruby: '"&amp;F111&amp;"', baseType: '"&amp;VLOOKUP(G111,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H111,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I111&lt;&gt;"",", '"&amp; VLOOKUP(I111,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J111&lt;&gt;"", ", range: '"&amp;J111&amp;"'", "")&amp;IF(L111&lt;&gt;"", ", damage: '"&amp;L111&amp;"'", "")&amp;IF(N111&lt;&gt;"", ", capacity: '"&amp;N111&amp;"'", "")&amp;IF(O111&lt;&gt;"", ", cost: '"&amp;O111&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R111, CHAR(10), "\n")&amp;"'"&amp;IF(P111="○", ", sealable: true", "")&amp;IF(Q111="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-raira-o-n-6': {megami: 'raira', name: '呼び声', ruby: 'よびごえ', baseType: 'normal', types: ['action', 'fullpower'], text: '相手を畏縮させ、以下から1つを選ぶ。\n・風神ゲージと雷神ゲージを1ずつ上げる。\n・手札を全て伏せ札にし、雷神ゲージを2倍にする。'}</v>
-      </c>
-    </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.15">
+        <v>, '09-chikage-o-s-3': {megami: 'chikage', name: '流転の霞毒', ruby: 'るてんのかすみどく', baseType: 'special', types: ['attack'], range: '3-7', damage: '1/2', cost: '1', text: '【再起】相手の手札が2枚以上ある。'}</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" ht="48" x14ac:dyDescent="0.15">
       <c r="A112" s="4" t="s">
-        <v>419</v>
+        <v>152</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>412</v>
+        <v>153</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>470</v>
+        <v>169</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>487</v>
+        <v>187</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="I112" s="4" t="s">
         <v>31</v>
       </c>
       <c r="K112" s="13"/>
       <c r="M112" s="13"/>
-      <c r="R112" s="4" t="s">
-        <v>536</v>
+      <c r="N112" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="O112" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="R112" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="S112" s="13"/>
       <c r="T112" s="3" t="str">
         <f>", '"&amp;A112&amp;"': {megami: '"&amp;B112&amp;"'"&amp;IF(C112&lt;&gt;"", ", anotherID: '" &amp; C112 &amp; "', replace: '" &amp; D112 &amp; "'", "")&amp;", name: '"&amp;E112&amp;"', ruby: '"&amp;F112&amp;"', baseType: '"&amp;VLOOKUP(G112,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H112,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I112&lt;&gt;"",", '"&amp; VLOOKUP(I112,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J112&lt;&gt;"", ", range: '"&amp;J112&amp;"'", "")&amp;IF(L112&lt;&gt;"", ", damage: '"&amp;L112&amp;"'", "")&amp;IF(N112&lt;&gt;"", ", capacity: '"&amp;N112&amp;"'", "")&amp;IF(O112&lt;&gt;"", ", cost: '"&amp;O112&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R112, CHAR(10), "\n")&amp;"'"&amp;IF(P112="○", ", sealable: true", "")&amp;IF(Q112="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-raira-o-n-7': {megami: 'raira', name: '空駆け', ruby: 'そらかけ', baseType: 'normal', types: ['action', 'fullpower'], text: '間合⇔ダスト：3'}</v>
-      </c>
-    </row>
-    <row r="113" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+        <v>, '09-chikage-o-s-4': {megami: 'chikage', name: '闇昏千影の生きる道', ruby: 'やみくらちかげのいきるみち', baseType: 'special', types: ['enhance', 'fullpower'], capacity: '4', cost: '5', text: '【展開中】あなたが1以上のライフへのダメージを受けた時、このカードの上の桜花結晶は全てダストに送られ、このカードは未使用に戻る。 \n(破棄時効果は失敗する) \n【破棄時】あなたの他の切札が全て使用済ならば、あなたは勝利する。'}</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" ht="48" x14ac:dyDescent="0.15">
       <c r="A113" s="4" t="s">
-        <v>420</v>
+        <v>154</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>412</v>
+        <v>153</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>471</v>
+        <v>170</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>488</v>
+        <v>188</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>19</v>
+        <v>192</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J113" s="4" t="s">
-        <v>464</v>
+        <v>23</v>
       </c>
       <c r="K113" s="13"/>
-      <c r="L113" s="2" t="s">
-        <v>460</v>
-      </c>
       <c r="M113" s="13"/>
-      <c r="O113" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="R113" s="5" t="s">
-        <v>537</v>
+        <v>208</v>
       </c>
       <c r="S113" s="13"/>
       <c r="T113" s="3" t="str">
         <f>", '"&amp;A113&amp;"': {megami: '"&amp;B113&amp;"'"&amp;IF(C113&lt;&gt;"", ", anotherID: '" &amp; C113 &amp; "', replace: '" &amp; D113 &amp; "'", "")&amp;", name: '"&amp;E113&amp;"', ruby: '"&amp;F113&amp;"', baseType: '"&amp;VLOOKUP(G113,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H113,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I113&lt;&gt;"",", '"&amp; VLOOKUP(I113,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J113&lt;&gt;"", ", range: '"&amp;J113&amp;"'", "")&amp;IF(L113&lt;&gt;"", ", damage: '"&amp;L113&amp;"'", "")&amp;IF(N113&lt;&gt;"", ", capacity: '"&amp;N113&amp;"'", "")&amp;IF(O113&lt;&gt;"", ", cost: '"&amp;O113&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R113, CHAR(10), "\n")&amp;"'"&amp;IF(P113="○", ", sealable: true", "")&amp;IF(Q113="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-raira-o-s-1': {megami: 'raira', name: '雷螺風神爪', ruby: 'らいらふうじんそう', baseType: 'special', types: ['attack'], range: '1-2', damage: '2/2', cost: '3', text: '【常時】あなたの雷神ゲージが4以上ならば、この《攻撃》は+1/+0となる。 \n----\n【再起】あなたの風神ゲージが4以上である。'}</v>
-      </c>
-    </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.15">
+        <v>, '09-chikage-o-p-1': {megami: 'chikage', name: '麻痺毒', ruby: 'まひどく', baseType: 'extra', types: ['action'], text: '毒（このカードは伏せ札にできない） \n【常時】このターン中にあなたが基本動作を行ったならば、このカードは使用できない。 \nこのカードを相手の毒袋に戻す。その後、このフェイズを終了する。'}</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" ht="36" x14ac:dyDescent="0.15">
       <c r="A114" s="4" t="s">
-        <v>421</v>
+        <v>155</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>412</v>
+        <v>153</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>472</v>
+        <v>171</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>485</v>
+        <v>189</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>19</v>
+        <v>192</v>
       </c>
       <c r="H114" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I114" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="K114" s="13"/>
       <c r="M114" s="13"/>
-      <c r="O114" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="R114" s="4" t="s">
-        <v>538</v>
+      <c r="R114" s="5" t="s">
+        <v>209</v>
       </c>
       <c r="S114" s="13"/>
       <c r="T114" s="3" t="str">
         <f>", '"&amp;A114&amp;"': {megami: '"&amp;B114&amp;"'"&amp;IF(C114&lt;&gt;"", ", anotherID: '" &amp; C114 &amp; "', replace: '" &amp; D114 &amp; "'", "")&amp;", name: '"&amp;E114&amp;"', ruby: '"&amp;F114&amp;"', baseType: '"&amp;VLOOKUP(G114,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H114,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I114&lt;&gt;"",", '"&amp; VLOOKUP(I114,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J114&lt;&gt;"", ", range: '"&amp;J114&amp;"'", "")&amp;IF(L114&lt;&gt;"", ", damage: '"&amp;L114&amp;"'", "")&amp;IF(N114&lt;&gt;"", ", capacity: '"&amp;N114&amp;"'", "")&amp;IF(O114&lt;&gt;"", ", cost: '"&amp;O114&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R114, CHAR(10), "\n")&amp;"'"&amp;IF(P114="○", ", sealable: true", "")&amp;IF(Q114="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-raira-o-s-2': {megami: 'raira', name: '天雷召喚陣', ruby: 'てんらいしょうかんじん', baseType: 'special', types: ['action', 'fullpower'], cost: '6', text: '攻撃『適正距離0-10、1/1』をX回行う。Xは雷神ゲージの半分(切り上げ)に等しい。'}</v>
-      </c>
-    </row>
-    <row r="115" spans="1:20" ht="60" x14ac:dyDescent="0.15">
+        <v>, '09-chikage-o-p-2': {megami: 'chikage', name: '幻覚毒', ruby: 'げんかくどく', baseType: 'extra', types: ['action'], text: '毒（このカードは伏せ札にできない） \nこのカードを相手の毒袋に戻す。 \n自フレア→ダスト：2'}</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" ht="36" x14ac:dyDescent="0.15">
       <c r="A115" s="4" t="s">
-        <v>478</v>
+        <v>156</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>412</v>
+        <v>153</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>473</v>
+        <v>172</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>486</v>
+        <v>190</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>19</v>
+        <v>192</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="K115" s="13"/>
       <c r="M115" s="13"/>
-      <c r="O115" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q115" s="4" t="s">
-        <v>295</v>
+      <c r="N115" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="R115" s="5" t="s">
-        <v>540</v>
+        <v>210</v>
       </c>
       <c r="S115" s="13"/>
       <c r="T115" s="3" t="str">
         <f>", '"&amp;A115&amp;"': {megami: '"&amp;B115&amp;"'"&amp;IF(C115&lt;&gt;"", ", anotherID: '" &amp; C115 &amp; "', replace: '" &amp; D115 &amp; "'", "")&amp;", name: '"&amp;E115&amp;"', ruby: '"&amp;F115&amp;"', baseType: '"&amp;VLOOKUP(G115,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H115,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I115&lt;&gt;"",", '"&amp; VLOOKUP(I115,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J115&lt;&gt;"", ", range: '"&amp;J115&amp;"'", "")&amp;IF(L115&lt;&gt;"", ", damage: '"&amp;L115&amp;"'", "")&amp;IF(N115&lt;&gt;"", ", capacity: '"&amp;N115&amp;"'", "")&amp;IF(O115&lt;&gt;"", ", cost: '"&amp;O115&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R115, CHAR(10), "\n")&amp;"'"&amp;IF(P115="○", ", sealable: true", "")&amp;IF(Q115="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-raira-o-s-3': {megami: 'raira', name: '風魔招来孔', ruby: 'ふうましょうらいこう', baseType: 'special', types: ['action'], cost: '0', text: '現在の風神ゲージに応じて、以下の切札を追加札から未使用で得る(条件を満たしたものは全て得る)。その後、このカードを取り除く。 \n3以上……風魔旋風 \n6以上……風魔纏廻 \n10以上……風魔天狗道', removable: true}</v>
+        <v>, '09-chikage-o-p-3': {megami: 'chikage', name: '弛緩毒', ruby: 'しかんどく', baseType: 'extra', types: ['enhance'], capacity: '3', text: '毒（このカードは伏せ札にできない） \n【展開中】あなたは《攻撃》カードを使用できない。 \n【破棄時】このカードを相手の毒袋に戻す。'}</v>
       </c>
     </row>
     <row r="116" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A116" s="4" t="s">
-        <v>422</v>
+        <v>157</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>412</v>
+        <v>153</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>474</v>
+        <v>173</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>495</v>
+        <v>191</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>19</v>
+        <v>192</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I116" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="K116" s="13"/>
       <c r="M116" s="13"/>
-      <c r="N116" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="O116" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="R116" s="5" t="s">
-        <v>539</v>
+        <v>211</v>
       </c>
       <c r="S116" s="13"/>
       <c r="T116" s="3" t="str">
         <f>", '"&amp;A116&amp;"': {megami: '"&amp;B116&amp;"'"&amp;IF(C116&lt;&gt;"", ", anotherID: '" &amp; C116 &amp; "', replace: '" &amp; D116 &amp; "'", "")&amp;", name: '"&amp;E116&amp;"', ruby: '"&amp;F116&amp;"', baseType: '"&amp;VLOOKUP(G116,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H116,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I116&lt;&gt;"",", '"&amp; VLOOKUP(I116,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J116&lt;&gt;"", ", range: '"&amp;J116&amp;"'", "")&amp;IF(L116&lt;&gt;"", ", damage: '"&amp;L116&amp;"'", "")&amp;IF(N116&lt;&gt;"", ", capacity: '"&amp;N116&amp;"'", "")&amp;IF(O116&lt;&gt;"", ", cost: '"&amp;O116&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R116, CHAR(10), "\n")&amp;"'"&amp;IF(P116="○", ", sealable: true", "")&amp;IF(Q116="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-raira-o-s-4': {megami: 'raira', name: '円環輪廻旋', ruby: 'えんかんりんかいせん', baseType: 'special', types: ['enhance', 'fullpower'], capacity: '5', cost: '3', text: '【展開中】あなたが《付与》でない通常札を使用した場合、それを捨て札にする代わりに山札の底に置く。'}</v>
-      </c>
-    </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.15">
+        <v>, '09-chikage-o-p-4': {megami: 'chikage', name: '滅灯毒', ruby: 'ほろびどく', baseType: 'extra', types: ['action'], text: '毒（このカードは伏せ札にできない） \n自オーラ→ダスト：3'}</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A117" s="4" t="s">
-        <v>479</v>
+        <v>363</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>412</v>
+        <v>362</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="F117" s="4" t="s">
-        <v>482</v>
+        <v>374</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>192</v>
+        <v>7</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J117" s="4" t="s">
-        <v>175</v>
+        <v>23</v>
       </c>
       <c r="K117" s="13"/>
-      <c r="L117" s="2" t="s">
-        <v>461</v>
-      </c>
       <c r="M117" s="13"/>
-      <c r="O117" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="R117" s="5"/>
+      <c r="R117" s="5" t="s">
+        <v>557</v>
+      </c>
       <c r="S117" s="13"/>
       <c r="T117" s="3" t="str">
         <f>", '"&amp;A117&amp;"': {megami: '"&amp;B117&amp;"'"&amp;IF(C117&lt;&gt;"", ", anotherID: '" &amp; C117 &amp; "', replace: '" &amp; D117 &amp; "'", "")&amp;", name: '"&amp;E117&amp;"', ruby: '"&amp;F117&amp;"', baseType: '"&amp;VLOOKUP(G117,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H117,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I117&lt;&gt;"",", '"&amp; VLOOKUP(I117,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J117&lt;&gt;"", ", range: '"&amp;J117&amp;"'", "")&amp;IF(L117&lt;&gt;"", ", damage: '"&amp;L117&amp;"'", "")&amp;IF(N117&lt;&gt;"", ", capacity: '"&amp;N117&amp;"'", "")&amp;IF(O117&lt;&gt;"", ", cost: '"&amp;O117&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R117, CHAR(10), "\n")&amp;"'"&amp;IF(P117="○", ", sealable: true", "")&amp;IF(Q117="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-raira-o-s-3-ex1': {megami: 'raira', name: '風魔旋風', ruby: 'ふうませんぷう', baseType: 'extra', types: ['attack'], range: '1-3', damage: '1/2', cost: '1', text: ''}</v>
-      </c>
-    </row>
-    <row r="118" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+        <v>, '10-kururu-o-n-1': {megami: 'kururu', name: 'えれきてる', ruby: '', baseType: 'normal', types: ['action'], text: '----\n&lt;行行行対対&gt; 相手のライフに1ダメージを与える。 '}</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" ht="48" x14ac:dyDescent="0.15">
       <c r="A118" s="4" t="s">
-        <v>480</v>
+        <v>364</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>412</v>
+        <v>362</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="F118" s="4" t="s">
-        <v>483</v>
+        <v>375</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>192</v>
+        <v>7</v>
       </c>
       <c r="H118" s="4" t="s">
         <v>23</v>
       </c>
       <c r="K118" s="13"/>
       <c r="M118" s="13"/>
-      <c r="O118" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="R118" s="5" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="S118" s="13"/>
       <c r="T118" s="3" t="str">
         <f>", '"&amp;A118&amp;"': {megami: '"&amp;B118&amp;"'"&amp;IF(C118&lt;&gt;"", ", anotherID: '" &amp; C118 &amp; "', replace: '" &amp; D118 &amp; "'", "")&amp;", name: '"&amp;E118&amp;"', ruby: '"&amp;F118&amp;"', baseType: '"&amp;VLOOKUP(G118,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H118,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I118&lt;&gt;"",", '"&amp; VLOOKUP(I118,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J118&lt;&gt;"", ", range: '"&amp;J118&amp;"'", "")&amp;IF(L118&lt;&gt;"", ", damage: '"&amp;L118&amp;"'", "")&amp;IF(N118&lt;&gt;"", ", capacity: '"&amp;N118&amp;"'", "")&amp;IF(O118&lt;&gt;"", ", cost: '"&amp;O118&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R118, CHAR(10), "\n")&amp;"'"&amp;IF(P118="○", ", sealable: true", "")&amp;IF(Q118="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-raira-o-s-3-ex2': {megami: 'raira', name: '風魔纏廻', ruby: 'ふうまてんかい', baseType: 'extra', types: ['action'], cost: '1', text: 'あなたの使用済の切札を1枚選び、それを未使用に戻す。 \n【使用済】あなたの切札の消費は1少なくなる(0未満にはならない)。'}</v>
-      </c>
-    </row>
-    <row r="119" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+        <v>, '10-kururu-o-n-2': {megami: 'kururu', name: 'あくせらー', ruby: '', baseType: 'normal', types: ['action'], text: '----\n&lt;行行付&gt; あなたの手札から《全力》カードを1枚選び、そのカードを使用してもよい。 \n(フェイズは終了しない) '}</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" ht="72" x14ac:dyDescent="0.15">
       <c r="A119" s="4" t="s">
-        <v>481</v>
+        <v>365</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>412</v>
+        <v>362</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="F119" s="4" t="s">
-        <v>484</v>
+        <v>376</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>192</v>
+        <v>7</v>
       </c>
       <c r="H119" s="4" t="s">
         <v>23</v>
@@ -7312,270 +7965,243 @@
       </c>
       <c r="K119" s="13"/>
       <c r="M119" s="13"/>
-      <c r="O119" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q119" s="4" t="s">
-        <v>295</v>
-      </c>
       <c r="R119" s="5" t="s">
-        <v>547</v>
+        <v>392</v>
       </c>
       <c r="S119" s="13"/>
       <c r="T119" s="3" t="str">
         <f>", '"&amp;A119&amp;"': {megami: '"&amp;B119&amp;"'"&amp;IF(C119&lt;&gt;"", ", anotherID: '" &amp; C119 &amp; "', replace: '" &amp; D119 &amp; "'", "")&amp;", name: '"&amp;E119&amp;"', ruby: '"&amp;F119&amp;"', baseType: '"&amp;VLOOKUP(G119,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H119,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I119&lt;&gt;"",", '"&amp; VLOOKUP(I119,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J119&lt;&gt;"", ", range: '"&amp;J119&amp;"'", "")&amp;IF(L119&lt;&gt;"", ", damage: '"&amp;L119&amp;"'", "")&amp;IF(N119&lt;&gt;"", ", capacity: '"&amp;N119&amp;"'", "")&amp;IF(O119&lt;&gt;"", ", cost: '"&amp;O119&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R119, CHAR(10), "\n")&amp;"'"&amp;IF(P119="○", ", sealable: true", "")&amp;IF(Q119="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-raira-o-s-3-ex3': {megami: 'raira', name: '風魔天狗道', ruby: 'ふうまてんぐどう', baseType: 'extra', types: ['action', 'reaction'], cost: '4', text: 'ダスト⇔間合：5 \nあなたはこの効果で本来より少ない個数の桜花結晶を動かしてもよい。その後、このカードを取り除く。', removable: true}</v>
-      </c>
-    </row>
-    <row r="120" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+        <v>, '10-kururu-o-n-3': {megami: 'kururu', name: 'くるるーん', ruby: '', baseType: 'normal', types: ['action', 'reaction'], text: '【常時】このカードは対応でしか使用できない。 \n以下から2つまでを選び、任意の順に行う。 \n(同じものを2回選ぶことはできない)\n・カードを1枚引く。\n・伏せ札1枚を山札の底に置く。\n・相手は手札を1枚捨て札にする。'}</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" ht="48" x14ac:dyDescent="0.15">
       <c r="A120" s="4" t="s">
-        <v>423</v>
+        <v>366</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>424</v>
+        <v>362</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="F120" s="4" t="s">
-        <v>456</v>
+        <v>377</v>
       </c>
       <c r="G120" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J120" s="4" t="s">
-        <v>436</v>
+        <v>23</v>
+      </c>
+      <c r="I120" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="K120" s="13"/>
-      <c r="L120" s="10" t="s">
-        <v>460</v>
-      </c>
       <c r="M120" s="13"/>
       <c r="R120" s="5" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="S120" s="13"/>
       <c r="T120" s="3" t="str">
         <f>", '"&amp;A120&amp;"': {megami: '"&amp;B120&amp;"'"&amp;IF(C120&lt;&gt;"", ", anotherID: '" &amp; C120 &amp; "', replace: '" &amp; D120 &amp; "'", "")&amp;", name: '"&amp;E120&amp;"', ruby: '"&amp;F120&amp;"', baseType: '"&amp;VLOOKUP(G120,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H120,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I120&lt;&gt;"",", '"&amp; VLOOKUP(I120,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J120&lt;&gt;"", ", range: '"&amp;J120&amp;"'", "")&amp;IF(L120&lt;&gt;"", ", damage: '"&amp;L120&amp;"'", "")&amp;IF(N120&lt;&gt;"", ", capacity: '"&amp;N120&amp;"'", "")&amp;IF(O120&lt;&gt;"", ", cost: '"&amp;O120&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R120, CHAR(10), "\n")&amp;"'"&amp;IF(P120="○", ", sealable: true", "")&amp;IF(Q120="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-utsuro-o-n-1': {megami: 'utsuro', name: '円月', ruby: 'えんげつ', baseType: 'normal', types: ['attack'], range: '6-7', damage: '2/2', text: '【常時】灰塵-ダストが12以上ならば、この《攻撃》のオーラへのダメージは「-」になる。'}</v>
-      </c>
-    </row>
-    <row r="121" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+        <v>, '10-kururu-o-n-4': {megami: 'kururu', name: 'とるねーど', ruby: '', baseType: 'normal', types: ['action', 'fullpower'], text: '----\n&lt;攻攻&gt; 相手のオーラに5ダメージを与える。 \n----\n&lt;付付&gt; 相手のライフに1ダメージを与える。'}</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" ht="60" x14ac:dyDescent="0.15">
       <c r="A121" s="4" t="s">
-        <v>425</v>
+        <v>367</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>424</v>
+        <v>362</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="F121" s="4" t="s">
-        <v>457</v>
+        <v>378</v>
       </c>
       <c r="G121" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J121" s="4" t="s">
-        <v>438</v>
+        <v>23</v>
+      </c>
+      <c r="I121" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="K121" s="13"/>
-      <c r="L121" s="10" t="s">
-        <v>461</v>
-      </c>
       <c r="M121" s="13"/>
       <c r="R121" s="5" t="s">
-        <v>653</v>
+        <v>553</v>
       </c>
       <c r="S121" s="13"/>
       <c r="T121" s="3" t="str">
         <f>", '"&amp;A121&amp;"': {megami: '"&amp;B121&amp;"'"&amp;IF(C121&lt;&gt;"", ", anotherID: '" &amp; C121 &amp; "', replace: '" &amp; D121 &amp; "'", "")&amp;", name: '"&amp;E121&amp;"', ruby: '"&amp;F121&amp;"', baseType: '"&amp;VLOOKUP(G121,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H121,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I121&lt;&gt;"",", '"&amp; VLOOKUP(I121,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J121&lt;&gt;"", ", range: '"&amp;J121&amp;"'", "")&amp;IF(L121&lt;&gt;"", ", damage: '"&amp;L121&amp;"'", "")&amp;IF(N121&lt;&gt;"", ", capacity: '"&amp;N121&amp;"'", "")&amp;IF(O121&lt;&gt;"", ", cost: '"&amp;O121&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R121, CHAR(10), "\n")&amp;"'"&amp;IF(P121="○", ", sealable: true", "")&amp;IF(Q121="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-utsuro-o-n-2': {megami: 'utsuro', name: '黒き波動', ruby: 'くろきはどう', baseType: 'normal', types: ['attack'], range: '4-7', damage: '1/2', text: '【攻撃後】相手がオーラへのダメージを選んだならば、相手の手札を見てその中から1枚を選び、それを捨て札にする。'}</v>
-      </c>
-    </row>
-    <row r="122" spans="1:20" ht="48" x14ac:dyDescent="0.15">
+        <v>, '10-kururu-o-n-5': {megami: 'kururu', name: 'りげいなー', ruby: '', baseType: 'normal', types: ['action', 'fullpower'], text: '----\n&lt;攻対&gt; あなたの使用済の切札を1枚選んでもよい。そのカードを消費を支払わずに使用する。(《全力》カードでもよい) \n----\nあなたの集中力は0になる。'}</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A122" s="4" t="s">
-        <v>426</v>
+        <v>368</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>424</v>
+        <v>362</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="F122" s="4" t="s">
-        <v>458</v>
+        <v>379</v>
       </c>
       <c r="G122" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J122" s="4" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="K122" s="13"/>
-      <c r="L122" s="10" t="s">
-        <v>462</v>
-      </c>
       <c r="M122" s="13"/>
+      <c r="N122" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="R122" s="5" t="s">
-        <v>657</v>
+        <v>394</v>
       </c>
       <c r="S122" s="13"/>
       <c r="T122" s="3" t="str">
         <f>", '"&amp;A122&amp;"': {megami: '"&amp;B122&amp;"'"&amp;IF(C122&lt;&gt;"", ", anotherID: '" &amp; C122 &amp; "', replace: '" &amp; D122 &amp; "'", "")&amp;", name: '"&amp;E122&amp;"', ruby: '"&amp;F122&amp;"', baseType: '"&amp;VLOOKUP(G122,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H122,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I122&lt;&gt;"",", '"&amp; VLOOKUP(I122,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J122&lt;&gt;"", ", range: '"&amp;J122&amp;"'", "")&amp;IF(L122&lt;&gt;"", ", damage: '"&amp;L122&amp;"'", "")&amp;IF(N122&lt;&gt;"", ", capacity: '"&amp;N122&amp;"'", "")&amp;IF(O122&lt;&gt;"", ", cost: '"&amp;O122&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R122, CHAR(10), "\n")&amp;"'"&amp;IF(P122="○", ", sealable: true", "")&amp;IF(Q122="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-utsuro-o-n-3': {megami: 'utsuro', name: '刈取り', ruby: 'かりとり', baseType: 'normal', types: ['attack'], range: '4', damage: '-/0', text: '【攻撃後】相手は相手のオーラ、フレア、ライフのいずれかから桜花結晶を合計2つダストへ移動させる。 \n【攻撃後】相手の付与札を1枚選んでもよい。そうした場合、その付与札の上から桜花結晶を2つダストへ送る。'}</v>
-      </c>
-    </row>
-    <row r="123" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+        <v>, '10-kururu-o-n-6': {megami: 'kururu', name: 'もじゅるー', ruby: '', baseType: 'normal', types: ['enhance'], capacity: '3', text: '【展開中】あなたが《行動》カードを使用した時、その解決後に基本動作を1回行ってもよい。'}</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" ht="60" x14ac:dyDescent="0.15">
       <c r="A123" s="4" t="s">
-        <v>427</v>
+        <v>369</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>424</v>
+        <v>362</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="F123" s="4" t="s">
-        <v>459</v>
+        <v>380</v>
       </c>
       <c r="G123" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="K123" s="13"/>
       <c r="M123" s="13"/>
+      <c r="N123" s="4" t="s">
+        <v>221</v>
+      </c>
       <c r="R123" s="5" t="s">
-        <v>656</v>
+        <v>554</v>
       </c>
       <c r="S123" s="13"/>
       <c r="T123" s="3" t="str">
         <f>", '"&amp;A123&amp;"': {megami: '"&amp;B123&amp;"'"&amp;IF(C123&lt;&gt;"", ", anotherID: '" &amp; C123 &amp; "', replace: '" &amp; D123 &amp; "'", "")&amp;", name: '"&amp;E123&amp;"', ruby: '"&amp;F123&amp;"', baseType: '"&amp;VLOOKUP(G123,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H123,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I123&lt;&gt;"",", '"&amp; VLOOKUP(I123,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J123&lt;&gt;"", ", range: '"&amp;J123&amp;"'", "")&amp;IF(L123&lt;&gt;"", ", damage: '"&amp;L123&amp;"'", "")&amp;IF(N123&lt;&gt;"", ", capacity: '"&amp;N123&amp;"'", "")&amp;IF(O123&lt;&gt;"", ", cost: '"&amp;O123&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R123, CHAR(10), "\n")&amp;"'"&amp;IF(P123="○", ", sealable: true", "")&amp;IF(Q123="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-utsuro-o-n-4': {megami: 'utsuro', name: '重圧', ruby: 'じゅうあつ', baseType: 'normal', types: ['action'], text: '相手は相手のオーラ、フレア、ライフのいずれかから桜花結晶を1つダストへ移動させる。 \n灰塵-ダストが12以上ならば、相手を畏縮させる。'}</v>
-      </c>
-    </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.15">
+        <v>, '10-kururu-o-n-7': {megami: 'kururu', name: 'りふれくた', ruby: '', baseType: 'normal', types: ['enhance'], capacity: '0', text: '----\n&lt;攻対&gt; 【展開時】このカードの上に桜花結晶を4個ダストから置く。 \n----\n【展開中】各ターンにおける相手の2回目の《攻撃》は打ち消される。\n'}</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" ht="36" x14ac:dyDescent="0.15">
       <c r="A124" s="4" t="s">
-        <v>428</v>
+        <v>370</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>424</v>
+        <v>362</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="F124" s="4" t="s">
-        <v>455</v>
+        <v>381</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H124" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="I124" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="K124" s="13"/>
       <c r="M124" s="13"/>
-      <c r="R124" s="4" t="s">
-        <v>654</v>
+      <c r="O124" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R124" s="5" t="s">
+        <v>393</v>
       </c>
       <c r="S124" s="13"/>
       <c r="T124" s="3" t="str">
         <f>", '"&amp;A124&amp;"': {megami: '"&amp;B124&amp;"'"&amp;IF(C124&lt;&gt;"", ", anotherID: '" &amp; C124 &amp; "', replace: '" &amp; D124 &amp; "'", "")&amp;", name: '"&amp;E124&amp;"', ruby: '"&amp;F124&amp;"', baseType: '"&amp;VLOOKUP(G124,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H124,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I124&lt;&gt;"",", '"&amp; VLOOKUP(I124,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J124&lt;&gt;"", ", range: '"&amp;J124&amp;"'", "")&amp;IF(L124&lt;&gt;"", ", damage: '"&amp;L124&amp;"'", "")&amp;IF(N124&lt;&gt;"", ", capacity: '"&amp;N124&amp;"'", "")&amp;IF(O124&lt;&gt;"", ", cost: '"&amp;O124&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R124, CHAR(10), "\n")&amp;"'"&amp;IF(P124="○", ", sealable: true", "")&amp;IF(Q124="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-utsuro-o-n-5': {megami: 'utsuro', name: '影の翅', ruby: 'かげのはね', baseType: 'normal', types: ['action'], text: 'このターン中、現在の間合は2増加し、達人の間合は2大きくなる。'}</v>
-      </c>
-    </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.15">
+        <v>, '10-kururu-o-s-1': {megami: 'kururu', name: 'どれーんでびる', ruby: '', baseType: 'special', types: ['action', 'reaction'], cost: '2', text: '相オーラ→自オーラ：1 \n【使用済】あなたの使用済の切札が未使用に戻った時、このカードを消費を支払わずに使用してもよい。'}</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" ht="84" x14ac:dyDescent="0.15">
       <c r="A125" s="4" t="s">
-        <v>429</v>
+        <v>371</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>424</v>
+        <v>362</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="F125" s="4" t="s">
-        <v>454</v>
+        <v>382</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H125" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I125" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="K125" s="13"/>
       <c r="M125" s="13"/>
+      <c r="O125" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="R125" s="5" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
       <c r="S125" s="13"/>
       <c r="T125" s="3" t="str">
         <f>", '"&amp;A125&amp;"': {megami: '"&amp;B125&amp;"'"&amp;IF(C125&lt;&gt;"", ", anotherID: '" &amp; C125 &amp; "', replace: '" &amp; D125 &amp; "'", "")&amp;", name: '"&amp;E125&amp;"', ruby: '"&amp;F125&amp;"', baseType: '"&amp;VLOOKUP(G125,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H125,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I125&lt;&gt;"",", '"&amp; VLOOKUP(I125,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J125&lt;&gt;"", ", range: '"&amp;J125&amp;"'", "")&amp;IF(L125&lt;&gt;"", ", damage: '"&amp;L125&amp;"'", "")&amp;IF(N125&lt;&gt;"", ", capacity: '"&amp;N125&amp;"'", "")&amp;IF(O125&lt;&gt;"", ", cost: '"&amp;O125&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R125, CHAR(10), "\n")&amp;"'"&amp;IF(P125="○", ", sealable: true", "")&amp;IF(Q125="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-utsuro-o-n-6': {megami: 'utsuro', name: '影の壁', ruby: 'かげのかべ', baseType: 'normal', types: ['action', 'reaction'], text: '対応した《攻撃》は+0/-1となる。'}</v>
-      </c>
-    </row>
-    <row r="126" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+        <v>, '10-kururu-o-s-2': {megami: 'kururu', name: 'びっぐごーれむ', ruby: '', baseType: 'special', types: ['action'], cost: '4', text: '----\n&lt;対全全&gt; 【使用済】あなたの終了フェイズに相手のライフに1ダメージを与えてもよい。そうした場合、山札を再構成する。 \n----\n【使用済】あなたが《全力》カードを使用した時、その解決後に基本動作を1回行ってもよい。\n'}</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" ht="60" x14ac:dyDescent="0.15">
       <c r="A126" s="4" t="s">
-        <v>430</v>
+        <v>372</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>424</v>
+        <v>362</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="F126" s="4" t="s">
-        <v>453</v>
+        <v>383</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I126" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="K126" s="13"/>
       <c r="M126" s="13"/>
-      <c r="N126" s="4" t="s">
-        <v>55</v>
+      <c r="O126" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="P126" s="4" t="s">
+        <v>295</v>
       </c>
       <c r="R126" s="5" t="s">
-        <v>655</v>
+        <v>400</v>
       </c>
       <c r="S126" s="13"/>
       <c r="T126" s="3" t="str">
         <f>", '"&amp;A126&amp;"': {megami: '"&amp;B126&amp;"'"&amp;IF(C126&lt;&gt;"", ", anotherID: '" &amp; C126 &amp; "', replace: '" &amp; D126 &amp; "'", "")&amp;", name: '"&amp;E126&amp;"', ruby: '"&amp;F126&amp;"', baseType: '"&amp;VLOOKUP(G126,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H126,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I126&lt;&gt;"",", '"&amp; VLOOKUP(I126,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J126&lt;&gt;"", ", range: '"&amp;J126&amp;"'", "")&amp;IF(L126&lt;&gt;"", ", damage: '"&amp;L126&amp;"'", "")&amp;IF(N126&lt;&gt;"", ", capacity: '"&amp;N126&amp;"'", "")&amp;IF(O126&lt;&gt;"", ", cost: '"&amp;O126&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R126, CHAR(10), "\n")&amp;"'"&amp;IF(P126="○", ", sealable: true", "")&amp;IF(Q126="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-utsuro-o-n-7': {megami: 'utsuro', name: '遺灰呪', ruby: 'いかいじゅ', baseType: 'normal', types: ['enhance', 'fullpower'], capacity: '2', text: '【展開時】相オーラ→ダスト：3 \n【破棄時】灰塵-ダストが12以上ならば以下を行う。 \nダスト→相オーラ：2、相ライフ→ダスト：1'}</v>
-      </c>
-    </row>
-    <row r="127" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+        <v>, '10-kururu-o-s-3': {megami: 'kururu', name: 'いんだすとりあ', ruby: '', baseType: 'special', types: ['action'], cost: '1', text: 'このカードにカードが封印されていないならば、あなたの手札から《付与》でないカードを1枚選び、そのカードをこのカードの下に表向きで封印してもよい。 \nあなたの追加札から「でゅーぷりぎあ」を山札の底に1枚置く(最大で合計3枚)。 \n----\n【即再起】あなたが山札を再構成する(再構成の後に未使用に戻る)。', sealable: true}</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" ht="72" x14ac:dyDescent="0.15">
       <c r="A127" s="4" t="s">
-        <v>431</v>
+        <v>373</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>424</v>
+        <v>362</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>444</v>
+        <v>560</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>449</v>
+        <v>559</v>
       </c>
       <c r="G127" s="4" t="s">
         <v>19</v>
@@ -7586,177 +8212,1323 @@
       <c r="K127" s="13"/>
       <c r="M127" s="13"/>
       <c r="O127" s="4" t="s">
-        <v>445</v>
+        <v>108</v>
       </c>
       <c r="Q127" s="4" t="s">
         <v>295</v>
       </c>
       <c r="R127" s="5" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="S127" s="13"/>
       <c r="T127" s="3" t="str">
         <f>", '"&amp;A127&amp;"': {megami: '"&amp;B127&amp;"'"&amp;IF(C127&lt;&gt;"", ", anotherID: '" &amp; C127 &amp; "', replace: '" &amp; D127 &amp; "'", "")&amp;", name: '"&amp;E127&amp;"', ruby: '"&amp;F127&amp;"', baseType: '"&amp;VLOOKUP(G127,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H127,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I127&lt;&gt;"",", '"&amp; VLOOKUP(I127,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J127&lt;&gt;"", ", range: '"&amp;J127&amp;"'", "")&amp;IF(L127&lt;&gt;"", ", damage: '"&amp;L127&amp;"'", "")&amp;IF(N127&lt;&gt;"", ", capacity: '"&amp;N127&amp;"'", "")&amp;IF(O127&lt;&gt;"", ", cost: '"&amp;O127&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R127, CHAR(10), "\n")&amp;"'"&amp;IF(P127="○", ", sealable: true", "")&amp;IF(Q127="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-utsuro-o-s-1': {megami: 'utsuro', name: '灰滅', ruby: 'ヴィミラニエ', baseType: 'special', types: ['action'], cost: '24', text: '【常時】このカードの消費はダストの数だけ少なくなる。 \n相ライフ→ダスト：3 \nこのカードを取り除く。', removable: true}</v>
-      </c>
-    </row>
-    <row r="128" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+        <v>, '10-kururu-o-s-4': {megami: 'kururu', name: '神渉装置:枢式', ruby: 'かんしょうそうち　くるるしき', baseType: 'special', types: ['action'], cost: '3', text: '----\n&lt;攻攻行行行付付&gt; 相手の切札を見て、その中から1枚選び、それを使用済にしてもよい。\n----\n相手の使用済の切札1枚を選んでもよい。そのカードを消費を支払わずに使用する(《全力》カードでもよい)。その後、このカードを取り除く。', removable: true}</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" ht="48" x14ac:dyDescent="0.15">
       <c r="A128" s="4" t="s">
-        <v>432</v>
+        <v>384</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>424</v>
+        <v>362</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="F128" s="4" t="s">
-        <v>450</v>
+        <v>385</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>19</v>
+        <v>192</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I128" s="4" t="s">
-        <v>28</v>
+        <v>386</v>
       </c>
       <c r="K128" s="13"/>
       <c r="M128" s="13"/>
-      <c r="N128" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="O128" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="R128" s="5" t="s">
-        <v>548</v>
+        <v>395</v>
       </c>
       <c r="S128" s="13"/>
       <c r="T128" s="3" t="str">
         <f>", '"&amp;A128&amp;"': {megami: '"&amp;B128&amp;"'"&amp;IF(C128&lt;&gt;"", ", anotherID: '" &amp; C128 &amp; "', replace: '" &amp; D128 &amp; "'", "")&amp;", name: '"&amp;E128&amp;"', ruby: '"&amp;F128&amp;"', baseType: '"&amp;VLOOKUP(G128,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H128,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I128&lt;&gt;"",", '"&amp; VLOOKUP(I128,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J128&lt;&gt;"", ", range: '"&amp;J128&amp;"'", "")&amp;IF(L128&lt;&gt;"", ", damage: '"&amp;L128&amp;"'", "")&amp;IF(N128&lt;&gt;"", ", capacity: '"&amp;N128&amp;"'", "")&amp;IF(O128&lt;&gt;"", ", cost: '"&amp;O128&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R128, CHAR(10), "\n")&amp;"'"&amp;IF(P128="○", ", sealable: true", "")&amp;IF(Q128="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-utsuro-o-s-2': {megami: 'utsuro', name: '虚偽', ruby: 'ローシェ', baseType: 'special', types: ['enhance', 'reaction'], capacity: '3', cost: '3', text: '【展開中】相手の《攻撃》は距離縮小(近1)を得て、【攻撃後】効果が解決されない。 \n【展開中】相手の《付与》カードは納が1減少し、【破棄時】効果が解決されない。'}</v>
-      </c>
-    </row>
-    <row r="129" spans="1:21" ht="60" x14ac:dyDescent="0.15">
+        <v>, '10-kururu-o-s-3-ex1': {megami: 'kururu', name: 'でゅーぷりぎあ', ruby: '', baseType: 'extra', types: ['variable'], text: '(カードタイプが不定のカードは使用できない) \n【常時】このカードはあなたの「いんだすとりあ」に封印されたカードの複製となる。但し、名前は変更されない。 \n(「いんだすとりあ」が未使用なら複製とならないので、使用できない)'}</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A129" s="4" t="s">
-        <v>433</v>
+        <v>402</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>424</v>
+        <v>401</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>447</v>
+        <v>499</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>451</v>
+        <v>510</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="J129" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="K129" s="13"/>
+      <c r="L129" s="10" t="s">
+        <v>498</v>
+      </c>
       <c r="M129" s="13"/>
-      <c r="N129" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="O129" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="R129" s="5" t="s">
-        <v>549</v>
+      <c r="R129" s="4" t="s">
+        <v>523</v>
       </c>
       <c r="S129" s="13"/>
       <c r="T129" s="3" t="str">
         <f>", '"&amp;A129&amp;"': {megami: '"&amp;B129&amp;"'"&amp;IF(C129&lt;&gt;"", ", anotherID: '" &amp; C129 &amp; "', replace: '" &amp; D129 &amp; "'", "")&amp;", name: '"&amp;E129&amp;"', ruby: '"&amp;F129&amp;"', baseType: '"&amp;VLOOKUP(G129,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H129,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I129&lt;&gt;"",", '"&amp; VLOOKUP(I129,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J129&lt;&gt;"", ", range: '"&amp;J129&amp;"'", "")&amp;IF(L129&lt;&gt;"", ", damage: '"&amp;L129&amp;"'", "")&amp;IF(N129&lt;&gt;"", ", capacity: '"&amp;N129&amp;"'", "")&amp;IF(O129&lt;&gt;"", ", cost: '"&amp;O129&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R129, CHAR(10), "\n")&amp;"'"&amp;IF(P129="○", ", sealable: true", "")&amp;IF(Q129="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '12-utsuro-o-s-3': {megami: 'utsuro', name: '終末', ruby: 'カニェッツ', baseType: 'special', types: ['enhance'], capacity: '3', cost: '2', text: '【展開中】あなたに1以上のダメージを与えた《攻撃》の解決後に、このカードの上の桜花結晶を全てをダストに送る。 \n【破棄時】現在のフェイズを終了する。 \n----\n【再起】灰塵-ダストが12以上である。'}</v>
-      </c>
-    </row>
-    <row r="130" spans="1:21" ht="36" x14ac:dyDescent="0.15">
+        <v>, '11-thallya-o-n-1': {megami: 'thallya', name: 'Burning Steam', ruby: 'バーニングスチーム', baseType: 'normal', types: ['attack'], range: '3-5', damage: '2/1', text: '【攻撃後】騎動を行う。'}</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" ht="24" x14ac:dyDescent="0.15">
       <c r="A130" s="4" t="s">
-        <v>434</v>
+        <v>403</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>424</v>
+        <v>401</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>448</v>
+        <v>500</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>452</v>
+        <v>511</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>23</v>
+        <v>8</v>
+      </c>
+      <c r="J130" s="4" t="s">
+        <v>175</v>
       </c>
       <c r="K130" s="13"/>
+      <c r="L130" s="10" t="s">
+        <v>496</v>
+      </c>
       <c r="M130" s="13"/>
-      <c r="O130" s="4" t="s">
-        <v>78</v>
-      </c>
       <c r="R130" s="5" t="s">
-        <v>550</v>
+        <v>524</v>
       </c>
       <c r="S130" s="13"/>
       <c r="T130" s="3" t="str">
         <f>", '"&amp;A130&amp;"': {megami: '"&amp;B130&amp;"'"&amp;IF(C130&lt;&gt;"", ", anotherID: '" &amp; C130 &amp; "', replace: '" &amp; D130 &amp; "'", "")&amp;", name: '"&amp;E130&amp;"', ruby: '"&amp;F130&amp;"', baseType: '"&amp;VLOOKUP(G130,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H130,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I130&lt;&gt;"",", '"&amp; VLOOKUP(I130,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J130&lt;&gt;"", ", range: '"&amp;J130&amp;"'", "")&amp;IF(L130&lt;&gt;"", ", damage: '"&amp;L130&amp;"'", "")&amp;IF(N130&lt;&gt;"", ", capacity: '"&amp;N130&amp;"'", "")&amp;IF(O130&lt;&gt;"", ", cost: '"&amp;O130&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R130, CHAR(10), "\n")&amp;"'"&amp;IF(P130="○", ", sealable: true", "")&amp;IF(Q130="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '11-thallya-o-n-2': {megami: 'thallya', name: 'Waving Edge', ruby: 'ウェービングエッジ', baseType: 'normal', types: ['attack'], range: '1-3', damage: '3/1', text: '燃焼 \n【攻撃後】騎動を行う。'}</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+      <c r="A131" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H131" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J131" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K131" s="13"/>
+      <c r="L131" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="M131" s="13"/>
+      <c r="R131" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="S131" s="13"/>
+      <c r="T131" s="3" t="str">
+        <f>", '"&amp;A131&amp;"': {megami: '"&amp;B131&amp;"'"&amp;IF(C131&lt;&gt;"", ", anotherID: '" &amp; C131 &amp; "', replace: '" &amp; D131 &amp; "'", "")&amp;", name: '"&amp;E131&amp;"', ruby: '"&amp;F131&amp;"', baseType: '"&amp;VLOOKUP(G131,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H131,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I131&lt;&gt;"",", '"&amp; VLOOKUP(I131,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J131&lt;&gt;"", ", range: '"&amp;J131&amp;"'", "")&amp;IF(L131&lt;&gt;"", ", damage: '"&amp;L131&amp;"'", "")&amp;IF(N131&lt;&gt;"", ", capacity: '"&amp;N131&amp;"'", "")&amp;IF(O131&lt;&gt;"", ", cost: '"&amp;O131&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R131, CHAR(10), "\n")&amp;"'"&amp;IF(P131="○", ", sealable: true", "")&amp;IF(Q131="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '11-thallya-o-n-3': {megami: 'thallya', name: 'Shield Charge', ruby: 'シールドチャージ', baseType: 'normal', types: ['attack'], range: '1', damage: '3/2', text: '燃焼 \n【常時】この《攻撃》のダメージにより移動する桜花結晶は、ダストやフレアでなく間合に動かす。'}</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A132" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H132" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I132" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J132" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="K132" s="13"/>
+      <c r="L132" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="M132" s="13"/>
+      <c r="R132" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="S132" s="13"/>
+      <c r="T132" s="3" t="str">
+        <f>", '"&amp;A132&amp;"': {megami: '"&amp;B132&amp;"'"&amp;IF(C132&lt;&gt;"", ", anotherID: '" &amp; C132 &amp; "', replace: '" &amp; D132 &amp; "'", "")&amp;", name: '"&amp;E132&amp;"', ruby: '"&amp;F132&amp;"', baseType: '"&amp;VLOOKUP(G132,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H132,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I132&lt;&gt;"",", '"&amp; VLOOKUP(I132,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J132&lt;&gt;"", ", range: '"&amp;J132&amp;"'", "")&amp;IF(L132&lt;&gt;"", ", damage: '"&amp;L132&amp;"'", "")&amp;IF(N132&lt;&gt;"", ", capacity: '"&amp;N132&amp;"'", "")&amp;IF(O132&lt;&gt;"", ", cost: '"&amp;O132&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R132, CHAR(10), "\n")&amp;"'"&amp;IF(P132="○", ", sealable: true", "")&amp;IF(Q132="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '11-thallya-o-n-4': {megami: 'thallya', name: 'Steam Cannon', ruby: 'スチームカノン', baseType: 'normal', types: ['attack', 'fullpower'], range: '2-8', damage: '3/3', text: '燃焼'}</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+      <c r="A133" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H133" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K133" s="13"/>
+      <c r="L133" s="10"/>
+      <c r="M133" s="13"/>
+      <c r="R133" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="S133" s="13"/>
+      <c r="T133" s="3" t="str">
+        <f>", '"&amp;A133&amp;"': {megami: '"&amp;B133&amp;"'"&amp;IF(C133&lt;&gt;"", ", anotherID: '" &amp; C133 &amp; "', replace: '" &amp; D133 &amp; "'", "")&amp;", name: '"&amp;E133&amp;"', ruby: '"&amp;F133&amp;"', baseType: '"&amp;VLOOKUP(G133,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H133,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I133&lt;&gt;"",", '"&amp; VLOOKUP(I133,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J133&lt;&gt;"", ", range: '"&amp;J133&amp;"'", "")&amp;IF(L133&lt;&gt;"", ", damage: '"&amp;L133&amp;"'", "")&amp;IF(N133&lt;&gt;"", ", capacity: '"&amp;N133&amp;"'", "")&amp;IF(O133&lt;&gt;"", ", cost: '"&amp;O133&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R133, CHAR(10), "\n")&amp;"'"&amp;IF(P133="○", ", sealable: true", "")&amp;IF(Q133="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '11-thallya-o-n-5': {megami: 'thallya', name: 'Stunt', ruby: 'スタント', baseType: 'normal', types: ['action'], text: '相手を畏縮させる。 \n自オーラ→自フレア：2'}</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" ht="48" x14ac:dyDescent="0.15">
+      <c r="A134" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H134" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K134" s="13"/>
+      <c r="L134" s="10"/>
+      <c r="M134" s="13"/>
+      <c r="R134" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="S134" s="13"/>
+      <c r="T134" s="3" t="str">
+        <f>", '"&amp;A134&amp;"': {megami: '"&amp;B134&amp;"'"&amp;IF(C134&lt;&gt;"", ", anotherID: '" &amp; C134 &amp; "', replace: '" &amp; D134 &amp; "'", "")&amp;", name: '"&amp;E134&amp;"', ruby: '"&amp;F134&amp;"', baseType: '"&amp;VLOOKUP(G134,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H134,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I134&lt;&gt;"",", '"&amp; VLOOKUP(I134,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J134&lt;&gt;"", ", range: '"&amp;J134&amp;"'", "")&amp;IF(L134&lt;&gt;"", ", damage: '"&amp;L134&amp;"'", "")&amp;IF(N134&lt;&gt;"", ", capacity: '"&amp;N134&amp;"'", "")&amp;IF(O134&lt;&gt;"", ", cost: '"&amp;O134&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R134, CHAR(10), "\n")&amp;"'"&amp;IF(P134="○", ", sealable: true", "")&amp;IF(Q134="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '11-thallya-o-n-6': {megami: 'thallya', name: 'Roaring', ruby: 'ロアリング', baseType: 'normal', types: ['action'], text: 'コストとして、あなたのマシンにある造花結晶を2つ燃焼済にしても良い。そうした場合、あなたは集中力を1得て、相手は集中力を1失い、相手を畏縮させる。 \nコストとして、集中力を2支払ってもよい。そうした場合、あなたの燃焼済の造花結晶を3つ回復する。'}</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+      <c r="A135" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I135" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K135" s="13"/>
+      <c r="L135" s="10"/>
+      <c r="M135" s="13"/>
+      <c r="R135" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="S135" s="13"/>
+      <c r="T135" s="3" t="str">
+        <f>", '"&amp;A135&amp;"': {megami: '"&amp;B135&amp;"'"&amp;IF(C135&lt;&gt;"", ", anotherID: '" &amp; C135 &amp; "', replace: '" &amp; D135 &amp; "'", "")&amp;", name: '"&amp;E135&amp;"', ruby: '"&amp;F135&amp;"', baseType: '"&amp;VLOOKUP(G135,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H135,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I135&lt;&gt;"",", '"&amp; VLOOKUP(I135,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J135&lt;&gt;"", ", range: '"&amp;J135&amp;"'", "")&amp;IF(L135&lt;&gt;"", ", damage: '"&amp;L135&amp;"'", "")&amp;IF(N135&lt;&gt;"", ", capacity: '"&amp;N135&amp;"'", "")&amp;IF(O135&lt;&gt;"", ", cost: '"&amp;O135&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R135, CHAR(10), "\n")&amp;"'"&amp;IF(P135="○", ", sealable: true", "")&amp;IF(Q135="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '11-thallya-o-n-7': {megami: 'thallya', name: 'Turbo Switch', ruby: 'ターボスイッチ', baseType: 'normal', types: ['action', 'reaction'], text: '燃焼 \n騎動を行う。'}</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A136" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J136" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="K136" s="13"/>
+      <c r="L136" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="M136" s="13"/>
+      <c r="O136" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R136" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="S136" s="13"/>
+      <c r="T136" s="3" t="str">
+        <f>", '"&amp;A136&amp;"': {megami: '"&amp;B136&amp;"'"&amp;IF(C136&lt;&gt;"", ", anotherID: '" &amp; C136 &amp; "', replace: '" &amp; D136 &amp; "'", "")&amp;", name: '"&amp;E136&amp;"', ruby: '"&amp;F136&amp;"', baseType: '"&amp;VLOOKUP(G136,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H136,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I136&lt;&gt;"",", '"&amp; VLOOKUP(I136,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J136&lt;&gt;"", ", range: '"&amp;J136&amp;"'", "")&amp;IF(L136&lt;&gt;"", ", damage: '"&amp;L136&amp;"'", "")&amp;IF(N136&lt;&gt;"", ", capacity: '"&amp;N136&amp;"'", "")&amp;IF(O136&lt;&gt;"", ", cost: '"&amp;O136&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R136, CHAR(10), "\n")&amp;"'"&amp;IF(P136="○", ", sealable: true", "")&amp;IF(Q136="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '11-thallya-o-s-1': {megami: 'thallya', name: 'Alpha-Edge', ruby: 'アルファエッジ', baseType: 'special', types: ['attack'], range: '1,3,5,7', damage: '1/1', cost: '1', text: '【即再起】あなたが騎動により間合を変化させる。'}</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+      <c r="A137" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H137" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I137" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K137" s="13"/>
+      <c r="L137" s="10"/>
+      <c r="M137" s="13"/>
+      <c r="O137" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="R137" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="S137" s="13"/>
+      <c r="T137" s="3" t="str">
+        <f>", '"&amp;A137&amp;"': {megami: '"&amp;B137&amp;"'"&amp;IF(C137&lt;&gt;"", ", anotherID: '" &amp; C137 &amp; "', replace: '" &amp; D137 &amp; "'", "")&amp;", name: '"&amp;E137&amp;"', ruby: '"&amp;F137&amp;"', baseType: '"&amp;VLOOKUP(G137,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H137,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I137&lt;&gt;"",", '"&amp; VLOOKUP(I137,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J137&lt;&gt;"", ", range: '"&amp;J137&amp;"'", "")&amp;IF(L137&lt;&gt;"", ", damage: '"&amp;L137&amp;"'", "")&amp;IF(N137&lt;&gt;"", ", capacity: '"&amp;N137&amp;"'", "")&amp;IF(O137&lt;&gt;"", ", cost: '"&amp;O137&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R137, CHAR(10), "\n")&amp;"'"&amp;IF(P137="○", ", sealable: true", "")&amp;IF(Q137="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '11-thallya-o-s-2': {megami: 'thallya', name: 'Omega-Burst', ruby: 'オメガバースト', baseType: 'special', types: ['action', 'reaction'], cost: '4', text: 'あなたの燃焼済の造花結晶を全て回復する。 \n対応した、オーラへのダメージが「-」またはX以下の《攻撃》を打ち消す。Xはこのカードにより回復した造花結晶の個数に等しい。'}</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A138" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H138" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I138" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K138" s="13"/>
+      <c r="L138" s="10"/>
+      <c r="M138" s="13"/>
+      <c r="O138" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="R138" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="S138" s="13"/>
+      <c r="T138" s="3" t="str">
+        <f>", '"&amp;A138&amp;"': {megami: '"&amp;B138&amp;"'"&amp;IF(C138&lt;&gt;"", ", anotherID: '" &amp; C138 &amp; "', replace: '" &amp; D138 &amp; "'", "")&amp;", name: '"&amp;E138&amp;"', ruby: '"&amp;F138&amp;"', baseType: '"&amp;VLOOKUP(G138,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H138,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I138&lt;&gt;"",", '"&amp; VLOOKUP(I138,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J138&lt;&gt;"", ", range: '"&amp;J138&amp;"'", "")&amp;IF(L138&lt;&gt;"", ", damage: '"&amp;L138&amp;"'", "")&amp;IF(N138&lt;&gt;"", ", capacity: '"&amp;N138&amp;"'", "")&amp;IF(O138&lt;&gt;"", ", cost: '"&amp;O138&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R138, CHAR(10), "\n")&amp;"'"&amp;IF(P138="○", ", sealable: true", "")&amp;IF(Q138="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '11-thallya-o-s-4': {megami: 'thallya', name: 'Julia\'s BlackBox', ruby: 'ジュリアズ　ブラックボックス', baseType: 'special', types: ['action', 'fullpower'], cost: '0', text: 'あなたのマシンに造花結晶がないならば、あなたのマシンはTransFormし、あなたの燃焼済の造花結晶を2つ回復する。そうでない場合、このカードを未使用に戻す。'}</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A139" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H139" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J139" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="K139" s="13"/>
+      <c r="L139" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="M139" s="13"/>
+      <c r="S139" s="13"/>
+      <c r="T139" s="3" t="str">
+        <f>", '"&amp;A139&amp;"': {megami: '"&amp;B139&amp;"'"&amp;IF(C139&lt;&gt;"", ", anotherID: '" &amp; C139 &amp; "', replace: '" &amp; D139 &amp; "'", "")&amp;", name: '"&amp;E139&amp;"', ruby: '"&amp;F139&amp;"', baseType: '"&amp;VLOOKUP(G139,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H139,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I139&lt;&gt;"",", '"&amp; VLOOKUP(I139,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J139&lt;&gt;"", ", range: '"&amp;J139&amp;"'", "")&amp;IF(L139&lt;&gt;"", ", damage: '"&amp;L139&amp;"'", "")&amp;IF(N139&lt;&gt;"", ", capacity: '"&amp;N139&amp;"'", "")&amp;IF(O139&lt;&gt;"", ", cost: '"&amp;O139&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R139, CHAR(10), "\n")&amp;"'"&amp;IF(P139="○", ", sealable: true", "")&amp;IF(Q139="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-raira-o-n-1': {megami: 'raira', name: '獣爪', ruby: 'じゅうそう', baseType: 'normal', types: ['attack'], range: '1-2', damage: '3/1', text: ''}</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A140" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H140" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J140" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K140" s="13"/>
+      <c r="L140" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="M140" s="13"/>
+      <c r="R140" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="S140" s="13"/>
+      <c r="T140" s="3" t="str">
+        <f>", '"&amp;A140&amp;"': {megami: '"&amp;B140&amp;"'"&amp;IF(C140&lt;&gt;"", ", anotherID: '" &amp; C140 &amp; "', replace: '" &amp; D140 &amp; "'", "")&amp;", name: '"&amp;E140&amp;"', ruby: '"&amp;F140&amp;"', baseType: '"&amp;VLOOKUP(G140,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H140,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I140&lt;&gt;"",", '"&amp; VLOOKUP(I140,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J140&lt;&gt;"", ", range: '"&amp;J140&amp;"'", "")&amp;IF(L140&lt;&gt;"", ", damage: '"&amp;L140&amp;"'", "")&amp;IF(N140&lt;&gt;"", ", capacity: '"&amp;N140&amp;"'", "")&amp;IF(O140&lt;&gt;"", ", cost: '"&amp;O140&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R140, CHAR(10), "\n")&amp;"'"&amp;IF(P140="○", ", sealable: true", "")&amp;IF(Q140="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-raira-o-n-2': {megami: 'raira', name: '風雷撃', ruby: 'ふうらいげき', baseType: 'normal', types: ['attack'], range: '2', damage: 'X/2', text: '【常時】Xは風神ゲージと雷神ゲージのうち、小さい方の値である。'}</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+      <c r="A141" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H141" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J141" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="K141" s="13"/>
+      <c r="L141" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="M141" s="13"/>
+      <c r="R141" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="S141" s="13"/>
+      <c r="T141" s="3" t="str">
+        <f>", '"&amp;A141&amp;"': {megami: '"&amp;B141&amp;"'"&amp;IF(C141&lt;&gt;"", ", anotherID: '" &amp; C141 &amp; "', replace: '" &amp; D141 &amp; "'", "")&amp;", name: '"&amp;E141&amp;"', ruby: '"&amp;F141&amp;"', baseType: '"&amp;VLOOKUP(G141,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H141,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I141&lt;&gt;"",", '"&amp; VLOOKUP(I141,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J141&lt;&gt;"", ", range: '"&amp;J141&amp;"'", "")&amp;IF(L141&lt;&gt;"", ", damage: '"&amp;L141&amp;"'", "")&amp;IF(N141&lt;&gt;"", ", capacity: '"&amp;N141&amp;"'", "")&amp;IF(O141&lt;&gt;"", ", cost: '"&amp;O141&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R141, CHAR(10), "\n")&amp;"'"&amp;IF(P141="○", ", sealable: true", "")&amp;IF(Q141="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-raira-o-n-3': {megami: 'raira', name: '流転爪', ruby: 'るてんそう', baseType: 'normal', types: ['attack'], range: '1-2', damage: '2/1', text: '【攻撃後】あなたの捨て札にある《攻撃》カード1枚を選び、山札の一番上に置いてもよい。'}</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A142" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H142" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K142" s="13"/>
+      <c r="M142" s="13"/>
+      <c r="R142" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="S142" s="13"/>
+      <c r="T142" s="3" t="str">
+        <f>", '"&amp;A142&amp;"': {megami: '"&amp;B142&amp;"'"&amp;IF(C142&lt;&gt;"", ", anotherID: '" &amp; C142 &amp; "', replace: '" &amp; D142 &amp; "'", "")&amp;", name: '"&amp;E142&amp;"', ruby: '"&amp;F142&amp;"', baseType: '"&amp;VLOOKUP(G142,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H142,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I142&lt;&gt;"",", '"&amp; VLOOKUP(I142,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J142&lt;&gt;"", ", range: '"&amp;J142&amp;"'", "")&amp;IF(L142&lt;&gt;"", ", damage: '"&amp;L142&amp;"'", "")&amp;IF(N142&lt;&gt;"", ", capacity: '"&amp;N142&amp;"'", "")&amp;IF(O142&lt;&gt;"", ", cost: '"&amp;O142&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R142, CHAR(10), "\n")&amp;"'"&amp;IF(P142="○", ", sealable: true", "")&amp;IF(Q142="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-raira-o-n-4': {megami: 'raira', name: '風走り', ruby: 'かぜばしり', baseType: 'normal', types: ['action'], text: '現在の間合が3以上ならば、間合→ダスト：2'}</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+      <c r="A143" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H143" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K143" s="13"/>
+      <c r="M143" s="13"/>
+      <c r="R143" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="S143" s="13"/>
+      <c r="T143" s="3" t="str">
+        <f>", '"&amp;A143&amp;"': {megami: '"&amp;B143&amp;"'"&amp;IF(C143&lt;&gt;"", ", anotherID: '" &amp; C143 &amp; "', replace: '" &amp; D143 &amp; "'", "")&amp;", name: '"&amp;E143&amp;"', ruby: '"&amp;F143&amp;"', baseType: '"&amp;VLOOKUP(G143,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H143,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I143&lt;&gt;"",", '"&amp; VLOOKUP(I143,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J143&lt;&gt;"", ", range: '"&amp;J143&amp;"'", "")&amp;IF(L143&lt;&gt;"", ", damage: '"&amp;L143&amp;"'", "")&amp;IF(N143&lt;&gt;"", ", capacity: '"&amp;N143&amp;"'", "")&amp;IF(O143&lt;&gt;"", ", cost: '"&amp;O143&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R143, CHAR(10), "\n")&amp;"'"&amp;IF(P143="○", ", sealable: true", "")&amp;IF(Q143="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-raira-o-n-5': {megami: 'raira', name: '風雷の知恵', ruby: 'ふうらいのちえ', baseType: 'normal', types: ['action'], text: '風神ゲージと雷神ゲージの合計が4以上ならば、あなたの捨て札にある他のメガミのカード1枚を選び、山札の一番上に置いてもよい。 \n風神ゲージか雷神ゲージを1上げる。'}</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+      <c r="A144" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H144" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I144" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K144" s="13"/>
+      <c r="M144" s="13"/>
+      <c r="R144" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="S144" s="13"/>
+      <c r="T144" s="3" t="str">
+        <f>", '"&amp;A144&amp;"': {megami: '"&amp;B144&amp;"'"&amp;IF(C144&lt;&gt;"", ", anotherID: '" &amp; C144 &amp; "', replace: '" &amp; D144 &amp; "'", "")&amp;", name: '"&amp;E144&amp;"', ruby: '"&amp;F144&amp;"', baseType: '"&amp;VLOOKUP(G144,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H144,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I144&lt;&gt;"",", '"&amp; VLOOKUP(I144,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J144&lt;&gt;"", ", range: '"&amp;J144&amp;"'", "")&amp;IF(L144&lt;&gt;"", ", damage: '"&amp;L144&amp;"'", "")&amp;IF(N144&lt;&gt;"", ", capacity: '"&amp;N144&amp;"'", "")&amp;IF(O144&lt;&gt;"", ", cost: '"&amp;O144&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R144, CHAR(10), "\n")&amp;"'"&amp;IF(P144="○", ", sealable: true", "")&amp;IF(Q144="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-raira-o-n-6': {megami: 'raira', name: '呼び声', ruby: 'よびごえ', baseType: 'normal', types: ['action', 'fullpower'], text: '相手を畏縮させ、以下から1つを選ぶ。\n・風神ゲージと雷神ゲージを1ずつ上げる。\n・手札を全て伏せ札にし、雷神ゲージを2倍にする。'}</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A145" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H145" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I145" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K145" s="13"/>
+      <c r="M145" s="13"/>
+      <c r="R145" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="S145" s="13"/>
+      <c r="T145" s="3" t="str">
+        <f>", '"&amp;A145&amp;"': {megami: '"&amp;B145&amp;"'"&amp;IF(C145&lt;&gt;"", ", anotherID: '" &amp; C145 &amp; "', replace: '" &amp; D145 &amp; "'", "")&amp;", name: '"&amp;E145&amp;"', ruby: '"&amp;F145&amp;"', baseType: '"&amp;VLOOKUP(G145,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H145,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I145&lt;&gt;"",", '"&amp; VLOOKUP(I145,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J145&lt;&gt;"", ", range: '"&amp;J145&amp;"'", "")&amp;IF(L145&lt;&gt;"", ", damage: '"&amp;L145&amp;"'", "")&amp;IF(N145&lt;&gt;"", ", capacity: '"&amp;N145&amp;"'", "")&amp;IF(O145&lt;&gt;"", ", cost: '"&amp;O145&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R145, CHAR(10), "\n")&amp;"'"&amp;IF(P145="○", ", sealable: true", "")&amp;IF(Q145="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-raira-o-n-7': {megami: 'raira', name: '空駆け', ruby: 'そらかけ', baseType: 'normal', types: ['action', 'fullpower'], text: '間合⇔ダスト：3'}</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+      <c r="A146" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="G146" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H146" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J146" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="K146" s="13"/>
+      <c r="L146" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="M146" s="13"/>
+      <c r="O146" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="R146" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="S146" s="13"/>
+      <c r="T146" s="3" t="str">
+        <f>", '"&amp;A146&amp;"': {megami: '"&amp;B146&amp;"'"&amp;IF(C146&lt;&gt;"", ", anotherID: '" &amp; C146 &amp; "', replace: '" &amp; D146 &amp; "'", "")&amp;", name: '"&amp;E146&amp;"', ruby: '"&amp;F146&amp;"', baseType: '"&amp;VLOOKUP(G146,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H146,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I146&lt;&gt;"",", '"&amp; VLOOKUP(I146,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J146&lt;&gt;"", ", range: '"&amp;J146&amp;"'", "")&amp;IF(L146&lt;&gt;"", ", damage: '"&amp;L146&amp;"'", "")&amp;IF(N146&lt;&gt;"", ", capacity: '"&amp;N146&amp;"'", "")&amp;IF(O146&lt;&gt;"", ", cost: '"&amp;O146&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R146, CHAR(10), "\n")&amp;"'"&amp;IF(P146="○", ", sealable: true", "")&amp;IF(Q146="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-raira-o-s-1': {megami: 'raira', name: '雷螺風神爪', ruby: 'らいらふうじんそう', baseType: 'special', types: ['attack'], range: '1-2', damage: '2/2', cost: '3', text: '【常時】あなたの雷神ゲージが4以上ならば、この《攻撃》は+1/+0となる。 \n----\n【再起】あなたの風神ゲージが4以上である。'}</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A147" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H147" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I147" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K147" s="13"/>
+      <c r="M147" s="13"/>
+      <c r="O147" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="R147" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="S147" s="13"/>
+      <c r="T147" s="3" t="str">
+        <f>", '"&amp;A147&amp;"': {megami: '"&amp;B147&amp;"'"&amp;IF(C147&lt;&gt;"", ", anotherID: '" &amp; C147 &amp; "', replace: '" &amp; D147 &amp; "'", "")&amp;", name: '"&amp;E147&amp;"', ruby: '"&amp;F147&amp;"', baseType: '"&amp;VLOOKUP(G147,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H147,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I147&lt;&gt;"",", '"&amp; VLOOKUP(I147,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J147&lt;&gt;"", ", range: '"&amp;J147&amp;"'", "")&amp;IF(L147&lt;&gt;"", ", damage: '"&amp;L147&amp;"'", "")&amp;IF(N147&lt;&gt;"", ", capacity: '"&amp;N147&amp;"'", "")&amp;IF(O147&lt;&gt;"", ", cost: '"&amp;O147&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R147, CHAR(10), "\n")&amp;"'"&amp;IF(P147="○", ", sealable: true", "")&amp;IF(Q147="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-raira-o-s-2': {megami: 'raira', name: '天雷召喚陣', ruby: 'てんらいしょうかんじん', baseType: 'special', types: ['action', 'fullpower'], cost: '6', text: '攻撃『適正距離0-10、1/1』をX回行う。Xは雷神ゲージの半分(切り上げ)に等しい。'}</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20" ht="60" x14ac:dyDescent="0.15">
+      <c r="A148" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H148" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K148" s="13"/>
+      <c r="M148" s="13"/>
+      <c r="O148" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q148" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="R148" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="S148" s="13"/>
+      <c r="T148" s="3" t="str">
+        <f>", '"&amp;A148&amp;"': {megami: '"&amp;B148&amp;"'"&amp;IF(C148&lt;&gt;"", ", anotherID: '" &amp; C148 &amp; "', replace: '" &amp; D148 &amp; "'", "")&amp;", name: '"&amp;E148&amp;"', ruby: '"&amp;F148&amp;"', baseType: '"&amp;VLOOKUP(G148,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H148,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I148&lt;&gt;"",", '"&amp; VLOOKUP(I148,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J148&lt;&gt;"", ", range: '"&amp;J148&amp;"'", "")&amp;IF(L148&lt;&gt;"", ", damage: '"&amp;L148&amp;"'", "")&amp;IF(N148&lt;&gt;"", ", capacity: '"&amp;N148&amp;"'", "")&amp;IF(O148&lt;&gt;"", ", cost: '"&amp;O148&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R148, CHAR(10), "\n")&amp;"'"&amp;IF(P148="○", ", sealable: true", "")&amp;IF(Q148="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-raira-o-s-3': {megami: 'raira', name: '風魔招来孔', ruby: 'ふうましょうらいこう', baseType: 'special', types: ['action'], cost: '0', text: '現在の風神ゲージに応じて、以下の切札を追加札から未使用で得る(条件を満たしたものは全て得る)。その後、このカードを取り除く。 \n3以上……風魔旋風 \n6以上……風魔纏廻 \n10以上……風魔天狗道', removable: true}</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+      <c r="A149" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H149" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I149" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K149" s="13"/>
+      <c r="M149" s="13"/>
+      <c r="N149" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="O149" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="R149" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="S149" s="13"/>
+      <c r="T149" s="3" t="str">
+        <f>", '"&amp;A149&amp;"': {megami: '"&amp;B149&amp;"'"&amp;IF(C149&lt;&gt;"", ", anotherID: '" &amp; C149 &amp; "', replace: '" &amp; D149 &amp; "'", "")&amp;", name: '"&amp;E149&amp;"', ruby: '"&amp;F149&amp;"', baseType: '"&amp;VLOOKUP(G149,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H149,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I149&lt;&gt;"",", '"&amp; VLOOKUP(I149,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J149&lt;&gt;"", ", range: '"&amp;J149&amp;"'", "")&amp;IF(L149&lt;&gt;"", ", damage: '"&amp;L149&amp;"'", "")&amp;IF(N149&lt;&gt;"", ", capacity: '"&amp;N149&amp;"'", "")&amp;IF(O149&lt;&gt;"", ", cost: '"&amp;O149&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R149, CHAR(10), "\n")&amp;"'"&amp;IF(P149="○", ", sealable: true", "")&amp;IF(Q149="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-raira-o-s-4': {megami: 'raira', name: '円環輪廻旋', ruby: 'えんかんりんかいせん', baseType: 'special', types: ['enhance', 'fullpower'], capacity: '5', cost: '3', text: '【展開中】あなたが《付与》でない通常札を使用した場合、それを捨て札にする代わりに山札の底に置く。'}</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A150" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="G150" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H150" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J150" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="K150" s="13"/>
+      <c r="L150" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="M150" s="13"/>
+      <c r="O150" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R150" s="5"/>
+      <c r="S150" s="13"/>
+      <c r="T150" s="3" t="str">
+        <f>", '"&amp;A150&amp;"': {megami: '"&amp;B150&amp;"'"&amp;IF(C150&lt;&gt;"", ", anotherID: '" &amp; C150 &amp; "', replace: '" &amp; D150 &amp; "'", "")&amp;", name: '"&amp;E150&amp;"', ruby: '"&amp;F150&amp;"', baseType: '"&amp;VLOOKUP(G150,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H150,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I150&lt;&gt;"",", '"&amp; VLOOKUP(I150,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J150&lt;&gt;"", ", range: '"&amp;J150&amp;"'", "")&amp;IF(L150&lt;&gt;"", ", damage: '"&amp;L150&amp;"'", "")&amp;IF(N150&lt;&gt;"", ", capacity: '"&amp;N150&amp;"'", "")&amp;IF(O150&lt;&gt;"", ", cost: '"&amp;O150&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R150, CHAR(10), "\n")&amp;"'"&amp;IF(P150="○", ", sealable: true", "")&amp;IF(Q150="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-raira-o-s-3-ex1': {megami: 'raira', name: '風魔旋風', ruby: 'ふうませんぷう', baseType: 'extra', types: ['attack'], range: '1-3', damage: '1/2', cost: '1', text: ''}</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+      <c r="A151" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="F151" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="G151" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H151" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K151" s="13"/>
+      <c r="M151" s="13"/>
+      <c r="O151" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R151" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="S151" s="13"/>
+      <c r="T151" s="3" t="str">
+        <f>", '"&amp;A151&amp;"': {megami: '"&amp;B151&amp;"'"&amp;IF(C151&lt;&gt;"", ", anotherID: '" &amp; C151 &amp; "', replace: '" &amp; D151 &amp; "'", "")&amp;", name: '"&amp;E151&amp;"', ruby: '"&amp;F151&amp;"', baseType: '"&amp;VLOOKUP(G151,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H151,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I151&lt;&gt;"",", '"&amp; VLOOKUP(I151,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J151&lt;&gt;"", ", range: '"&amp;J151&amp;"'", "")&amp;IF(L151&lt;&gt;"", ", damage: '"&amp;L151&amp;"'", "")&amp;IF(N151&lt;&gt;"", ", capacity: '"&amp;N151&amp;"'", "")&amp;IF(O151&lt;&gt;"", ", cost: '"&amp;O151&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R151, CHAR(10), "\n")&amp;"'"&amp;IF(P151="○", ", sealable: true", "")&amp;IF(Q151="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-raira-o-s-3-ex2': {megami: 'raira', name: '風魔纏廻', ruby: 'ふうまてんかい', baseType: 'extra', types: ['action'], cost: '1', text: 'あなたの使用済の切札を1枚選び、それを未使用に戻す。 \n【使用済】あなたの切札の消費は1少なくなる(0未満にはならない)。'}</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+      <c r="A152" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="G152" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H152" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I152" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K152" s="13"/>
+      <c r="M152" s="13"/>
+      <c r="O152" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q152" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="R152" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="S152" s="13"/>
+      <c r="T152" s="3" t="str">
+        <f>", '"&amp;A152&amp;"': {megami: '"&amp;B152&amp;"'"&amp;IF(C152&lt;&gt;"", ", anotherID: '" &amp; C152 &amp; "', replace: '" &amp; D152 &amp; "'", "")&amp;", name: '"&amp;E152&amp;"', ruby: '"&amp;F152&amp;"', baseType: '"&amp;VLOOKUP(G152,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H152,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I152&lt;&gt;"",", '"&amp; VLOOKUP(I152,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J152&lt;&gt;"", ", range: '"&amp;J152&amp;"'", "")&amp;IF(L152&lt;&gt;"", ", damage: '"&amp;L152&amp;"'", "")&amp;IF(N152&lt;&gt;"", ", capacity: '"&amp;N152&amp;"'", "")&amp;IF(O152&lt;&gt;"", ", cost: '"&amp;O152&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R152, CHAR(10), "\n")&amp;"'"&amp;IF(P152="○", ", sealable: true", "")&amp;IF(Q152="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-raira-o-s-3-ex3': {megami: 'raira', name: '風魔天狗道', ruby: 'ふうまてんぐどう', baseType: 'extra', types: ['action', 'reaction'], cost: '4', text: 'ダスト⇔間合：5 \nあなたはこの効果で本来より少ない個数の桜花結晶を動かしてもよい。その後、このカードを取り除く。', removable: true}</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+      <c r="A153" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="G153" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H153" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J153" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="K153" s="13"/>
+      <c r="L153" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="M153" s="13"/>
+      <c r="R153" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="S153" s="13"/>
+      <c r="T153" s="3" t="str">
+        <f>", '"&amp;A153&amp;"': {megami: '"&amp;B153&amp;"'"&amp;IF(C153&lt;&gt;"", ", anotherID: '" &amp; C153 &amp; "', replace: '" &amp; D153 &amp; "'", "")&amp;", name: '"&amp;E153&amp;"', ruby: '"&amp;F153&amp;"', baseType: '"&amp;VLOOKUP(G153,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H153,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I153&lt;&gt;"",", '"&amp; VLOOKUP(I153,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J153&lt;&gt;"", ", range: '"&amp;J153&amp;"'", "")&amp;IF(L153&lt;&gt;"", ", damage: '"&amp;L153&amp;"'", "")&amp;IF(N153&lt;&gt;"", ", capacity: '"&amp;N153&amp;"'", "")&amp;IF(O153&lt;&gt;"", ", cost: '"&amp;O153&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R153, CHAR(10), "\n")&amp;"'"&amp;IF(P153="○", ", sealable: true", "")&amp;IF(Q153="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-utsuro-o-n-1': {megami: 'utsuro', name: '円月', ruby: 'えんげつ', baseType: 'normal', types: ['attack'], range: '6-7', damage: '2/2', text: '【常時】灰塵-ダストが12以上ならば、この《攻撃》のオーラへのダメージは「-」になる。'}</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+      <c r="A154" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="F154" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="G154" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H154" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J154" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="K154" s="13"/>
+      <c r="L154" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="M154" s="13"/>
+      <c r="R154" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="S154" s="13"/>
+      <c r="T154" s="3" t="str">
+        <f>", '"&amp;A154&amp;"': {megami: '"&amp;B154&amp;"'"&amp;IF(C154&lt;&gt;"", ", anotherID: '" &amp; C154 &amp; "', replace: '" &amp; D154 &amp; "'", "")&amp;", name: '"&amp;E154&amp;"', ruby: '"&amp;F154&amp;"', baseType: '"&amp;VLOOKUP(G154,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H154,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I154&lt;&gt;"",", '"&amp; VLOOKUP(I154,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J154&lt;&gt;"", ", range: '"&amp;J154&amp;"'", "")&amp;IF(L154&lt;&gt;"", ", damage: '"&amp;L154&amp;"'", "")&amp;IF(N154&lt;&gt;"", ", capacity: '"&amp;N154&amp;"'", "")&amp;IF(O154&lt;&gt;"", ", cost: '"&amp;O154&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R154, CHAR(10), "\n")&amp;"'"&amp;IF(P154="○", ", sealable: true", "")&amp;IF(Q154="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-utsuro-o-n-2': {megami: 'utsuro', name: '黒き波動', ruby: 'くろきはどう', baseType: 'normal', types: ['attack'], range: '4-7', damage: '1/2', text: '【攻撃後】相手がオーラへのダメージを選んだならば、相手の手札を見てその中から1枚を選び、それを捨て札にする。'}</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20" ht="48" x14ac:dyDescent="0.15">
+      <c r="A155" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="G155" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H155" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J155" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="K155" s="13"/>
+      <c r="L155" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="M155" s="13"/>
+      <c r="R155" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="S155" s="13"/>
+      <c r="T155" s="3" t="str">
+        <f>", '"&amp;A155&amp;"': {megami: '"&amp;B155&amp;"'"&amp;IF(C155&lt;&gt;"", ", anotherID: '" &amp; C155 &amp; "', replace: '" &amp; D155 &amp; "'", "")&amp;", name: '"&amp;E155&amp;"', ruby: '"&amp;F155&amp;"', baseType: '"&amp;VLOOKUP(G155,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H155,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I155&lt;&gt;"",", '"&amp; VLOOKUP(I155,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J155&lt;&gt;"", ", range: '"&amp;J155&amp;"'", "")&amp;IF(L155&lt;&gt;"", ", damage: '"&amp;L155&amp;"'", "")&amp;IF(N155&lt;&gt;"", ", capacity: '"&amp;N155&amp;"'", "")&amp;IF(O155&lt;&gt;"", ", cost: '"&amp;O155&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R155, CHAR(10), "\n")&amp;"'"&amp;IF(P155="○", ", sealable: true", "")&amp;IF(Q155="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-utsuro-o-n-3': {megami: 'utsuro', name: '刈取り', ruby: 'かりとり', baseType: 'normal', types: ['attack'], range: '4', damage: '-/0', text: '【攻撃後】相手は相手のオーラ、フレア、ライフのいずれかから桜花結晶を合計2つダストへ移動させる。 \n【攻撃後】相手の付与札を1枚選んでもよい。そうした場合、その付与札の上から桜花結晶を2つダストへ送る。'}</v>
+      </c>
+    </row>
+    <row r="156" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+      <c r="A156" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="F156" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="G156" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H156" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K156" s="13"/>
+      <c r="M156" s="13"/>
+      <c r="R156" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="S156" s="13"/>
+      <c r="T156" s="3" t="str">
+        <f>", '"&amp;A156&amp;"': {megami: '"&amp;B156&amp;"'"&amp;IF(C156&lt;&gt;"", ", anotherID: '" &amp; C156 &amp; "', replace: '" &amp; D156 &amp; "'", "")&amp;", name: '"&amp;E156&amp;"', ruby: '"&amp;F156&amp;"', baseType: '"&amp;VLOOKUP(G156,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H156,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I156&lt;&gt;"",", '"&amp; VLOOKUP(I156,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J156&lt;&gt;"", ", range: '"&amp;J156&amp;"'", "")&amp;IF(L156&lt;&gt;"", ", damage: '"&amp;L156&amp;"'", "")&amp;IF(N156&lt;&gt;"", ", capacity: '"&amp;N156&amp;"'", "")&amp;IF(O156&lt;&gt;"", ", cost: '"&amp;O156&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R156, CHAR(10), "\n")&amp;"'"&amp;IF(P156="○", ", sealable: true", "")&amp;IF(Q156="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-utsuro-o-n-4': {megami: 'utsuro', name: '重圧', ruby: 'じゅうあつ', baseType: 'normal', types: ['action'], text: '相手は相手のオーラ、フレア、ライフのいずれかから桜花結晶を1つダストへ移動させる。 \n灰塵-ダストが12以上ならば、相手を畏縮させる。'}</v>
+      </c>
+    </row>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A157" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="G157" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H157" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K157" s="13"/>
+      <c r="M157" s="13"/>
+      <c r="R157" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="S157" s="13"/>
+      <c r="T157" s="3" t="str">
+        <f>", '"&amp;A157&amp;"': {megami: '"&amp;B157&amp;"'"&amp;IF(C157&lt;&gt;"", ", anotherID: '" &amp; C157 &amp; "', replace: '" &amp; D157 &amp; "'", "")&amp;", name: '"&amp;E157&amp;"', ruby: '"&amp;F157&amp;"', baseType: '"&amp;VLOOKUP(G157,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H157,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I157&lt;&gt;"",", '"&amp; VLOOKUP(I157,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J157&lt;&gt;"", ", range: '"&amp;J157&amp;"'", "")&amp;IF(L157&lt;&gt;"", ", damage: '"&amp;L157&amp;"'", "")&amp;IF(N157&lt;&gt;"", ", capacity: '"&amp;N157&amp;"'", "")&amp;IF(O157&lt;&gt;"", ", cost: '"&amp;O157&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R157, CHAR(10), "\n")&amp;"'"&amp;IF(P157="○", ", sealable: true", "")&amp;IF(Q157="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-utsuro-o-n-5': {megami: 'utsuro', name: '影の翅', ruby: 'かげのはね', baseType: 'normal', types: ['action'], text: 'このターン中、現在の間合は2増加し、達人の間合は2大きくなる。'}</v>
+      </c>
+    </row>
+    <row r="158" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A158" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="G158" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H158" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I158" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K158" s="13"/>
+      <c r="M158" s="13"/>
+      <c r="R158" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="S158" s="13"/>
+      <c r="T158" s="3" t="str">
+        <f>", '"&amp;A158&amp;"': {megami: '"&amp;B158&amp;"'"&amp;IF(C158&lt;&gt;"", ", anotherID: '" &amp; C158 &amp; "', replace: '" &amp; D158 &amp; "'", "")&amp;", name: '"&amp;E158&amp;"', ruby: '"&amp;F158&amp;"', baseType: '"&amp;VLOOKUP(G158,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H158,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I158&lt;&gt;"",", '"&amp; VLOOKUP(I158,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J158&lt;&gt;"", ", range: '"&amp;J158&amp;"'", "")&amp;IF(L158&lt;&gt;"", ", damage: '"&amp;L158&amp;"'", "")&amp;IF(N158&lt;&gt;"", ", capacity: '"&amp;N158&amp;"'", "")&amp;IF(O158&lt;&gt;"", ", cost: '"&amp;O158&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R158, CHAR(10), "\n")&amp;"'"&amp;IF(P158="○", ", sealable: true", "")&amp;IF(Q158="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-utsuro-o-n-6': {megami: 'utsuro', name: '影の壁', ruby: 'かげのかべ', baseType: 'normal', types: ['action', 'reaction'], text: '対応した《攻撃》は+0/-1となる。'}</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+      <c r="A159" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="G159" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H159" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I159" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K159" s="13"/>
+      <c r="M159" s="13"/>
+      <c r="N159" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R159" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="S159" s="13"/>
+      <c r="T159" s="3" t="str">
+        <f>", '"&amp;A159&amp;"': {megami: '"&amp;B159&amp;"'"&amp;IF(C159&lt;&gt;"", ", anotherID: '" &amp; C159 &amp; "', replace: '" &amp; D159 &amp; "'", "")&amp;", name: '"&amp;E159&amp;"', ruby: '"&amp;F159&amp;"', baseType: '"&amp;VLOOKUP(G159,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H159,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I159&lt;&gt;"",", '"&amp; VLOOKUP(I159,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J159&lt;&gt;"", ", range: '"&amp;J159&amp;"'", "")&amp;IF(L159&lt;&gt;"", ", damage: '"&amp;L159&amp;"'", "")&amp;IF(N159&lt;&gt;"", ", capacity: '"&amp;N159&amp;"'", "")&amp;IF(O159&lt;&gt;"", ", cost: '"&amp;O159&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R159, CHAR(10), "\n")&amp;"'"&amp;IF(P159="○", ", sealable: true", "")&amp;IF(Q159="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-utsuro-o-n-7': {megami: 'utsuro', name: '遺灰呪', ruby: 'いかいじゅ', baseType: 'normal', types: ['enhance', 'fullpower'], capacity: '2', text: '【展開時】相オーラ→ダスト：3 \n【破棄時】灰塵-ダストが12以上ならば以下を行う。 \nダスト→相オーラ：2、相ライフ→ダスト：1'}</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+      <c r="A160" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="G160" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H160" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K160" s="13"/>
+      <c r="M160" s="13"/>
+      <c r="O160" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q160" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="R160" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="S160" s="13"/>
+      <c r="T160" s="3" t="str">
+        <f>", '"&amp;A160&amp;"': {megami: '"&amp;B160&amp;"'"&amp;IF(C160&lt;&gt;"", ", anotherID: '" &amp; C160 &amp; "', replace: '" &amp; D160 &amp; "'", "")&amp;", name: '"&amp;E160&amp;"', ruby: '"&amp;F160&amp;"', baseType: '"&amp;VLOOKUP(G160,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H160,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I160&lt;&gt;"",", '"&amp; VLOOKUP(I160,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J160&lt;&gt;"", ", range: '"&amp;J160&amp;"'", "")&amp;IF(L160&lt;&gt;"", ", damage: '"&amp;L160&amp;"'", "")&amp;IF(N160&lt;&gt;"", ", capacity: '"&amp;N160&amp;"'", "")&amp;IF(O160&lt;&gt;"", ", cost: '"&amp;O160&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R160, CHAR(10), "\n")&amp;"'"&amp;IF(P160="○", ", sealable: true", "")&amp;IF(Q160="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-utsuro-o-s-1': {megami: 'utsuro', name: '灰滅', ruby: 'ヴィミラニエ', baseType: 'special', types: ['action'], cost: '24', text: '【常時】このカードの消費はダストの数だけ少なくなる。 \n相ライフ→ダスト：3 \nこのカードを取り除く。', removable: true}</v>
+      </c>
+    </row>
+    <row r="161" spans="1:21" ht="24" x14ac:dyDescent="0.15">
+      <c r="A161" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="G161" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H161" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I161" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K161" s="13"/>
+      <c r="M161" s="13"/>
+      <c r="N161" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="O161" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="R161" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="S161" s="13"/>
+      <c r="T161" s="3" t="str">
+        <f>", '"&amp;A161&amp;"': {megami: '"&amp;B161&amp;"'"&amp;IF(C161&lt;&gt;"", ", anotherID: '" &amp; C161 &amp; "', replace: '" &amp; D161 &amp; "'", "")&amp;", name: '"&amp;E161&amp;"', ruby: '"&amp;F161&amp;"', baseType: '"&amp;VLOOKUP(G161,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H161,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I161&lt;&gt;"",", '"&amp; VLOOKUP(I161,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J161&lt;&gt;"", ", range: '"&amp;J161&amp;"'", "")&amp;IF(L161&lt;&gt;"", ", damage: '"&amp;L161&amp;"'", "")&amp;IF(N161&lt;&gt;"", ", capacity: '"&amp;N161&amp;"'", "")&amp;IF(O161&lt;&gt;"", ", cost: '"&amp;O161&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R161, CHAR(10), "\n")&amp;"'"&amp;IF(P161="○", ", sealable: true", "")&amp;IF(Q161="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-utsuro-o-s-2': {megami: 'utsuro', name: '虚偽', ruby: 'ローシェ', baseType: 'special', types: ['enhance', 'reaction'], capacity: '3', cost: '3', text: '【展開中】相手の《攻撃》は距離縮小(近1)を得て、【攻撃後】効果が解決されない。 \n【展開中】相手の《付与》カードは納が1減少し、【破棄時】効果が解決されない。'}</v>
+      </c>
+    </row>
+    <row r="162" spans="1:21" ht="60" x14ac:dyDescent="0.15">
+      <c r="A162" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="F162" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="G162" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H162" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K162" s="13"/>
+      <c r="M162" s="13"/>
+      <c r="N162" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="O162" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R162" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="S162" s="13"/>
+      <c r="T162" s="3" t="str">
+        <f>", '"&amp;A162&amp;"': {megami: '"&amp;B162&amp;"'"&amp;IF(C162&lt;&gt;"", ", anotherID: '" &amp; C162 &amp; "', replace: '" &amp; D162 &amp; "'", "")&amp;", name: '"&amp;E162&amp;"', ruby: '"&amp;F162&amp;"', baseType: '"&amp;VLOOKUP(G162,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H162,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I162&lt;&gt;"",", '"&amp; VLOOKUP(I162,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J162&lt;&gt;"", ", range: '"&amp;J162&amp;"'", "")&amp;IF(L162&lt;&gt;"", ", damage: '"&amp;L162&amp;"'", "")&amp;IF(N162&lt;&gt;"", ", capacity: '"&amp;N162&amp;"'", "")&amp;IF(O162&lt;&gt;"", ", cost: '"&amp;O162&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R162, CHAR(10), "\n")&amp;"'"&amp;IF(P162="○", ", sealable: true", "")&amp;IF(Q162="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '12-utsuro-o-s-3': {megami: 'utsuro', name: '終末', ruby: 'カニェッツ', baseType: 'special', types: ['enhance'], capacity: '3', cost: '2', text: '【展開中】あなたに1以上のダメージを与えた《攻撃》の解決後に、このカードの上の桜花結晶を全てをダストに送る。 \n【破棄時】現在のフェイズを終了する。 \n----\n【再起】灰塵-ダストが12以上である。'}</v>
+      </c>
+    </row>
+    <row r="163" spans="1:21" ht="36" x14ac:dyDescent="0.15">
+      <c r="A163" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="F163" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="G163" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H163" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K163" s="13"/>
+      <c r="M163" s="13"/>
+      <c r="O163" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="R163" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="S163" s="13"/>
+      <c r="T163" s="3" t="str">
+        <f>", '"&amp;A163&amp;"': {megami: '"&amp;B163&amp;"'"&amp;IF(C163&lt;&gt;"", ", anotherID: '" &amp; C163 &amp; "', replace: '" &amp; D163 &amp; "'", "")&amp;", name: '"&amp;E163&amp;"', ruby: '"&amp;F163&amp;"', baseType: '"&amp;VLOOKUP(G163,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H163,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I163&lt;&gt;"",", '"&amp; VLOOKUP(I163,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J163&lt;&gt;"", ", range: '"&amp;J163&amp;"'", "")&amp;IF(L163&lt;&gt;"", ", damage: '"&amp;L163&amp;"'", "")&amp;IF(N163&lt;&gt;"", ", capacity: '"&amp;N163&amp;"'", "")&amp;IF(O163&lt;&gt;"", ", cost: '"&amp;O163&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R163, CHAR(10), "\n")&amp;"'"&amp;IF(P163="○", ", sealable: true", "")&amp;IF(Q163="○", ", removable: true", "")&amp;"}"</f>
         <v>, '12-utsuro-o-s-4': {megami: 'utsuro', name: '魔食', ruby: 'エロージャ', baseType: 'special', types: ['action'], cost: '5', text: '【使用済】あなたの開始フェイズの開始時に相手は以下のどちらかを選ぶ。\n・相オーラ→ダスト：1\n・相フレア→ダスト：2'}</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="U132" s="1" t="s">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U165" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="U133" s="1" t="s">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U166" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="U134" s="1" t="s">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U167" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="U135" s="1" t="s">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U168" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="E138" s="10"/>
-    </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="E139" s="10"/>
-    </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="E140" s="10"/>
-    </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="E141" s="10"/>
-    </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="E142" s="10"/>
-    </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="E143" s="10"/>
-    </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="E144" s="10"/>
-    </row>
-    <row r="145" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E145" s="10"/>
-    </row>
-    <row r="146" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E146" s="10"/>
-    </row>
-    <row r="147" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E147" s="10"/>
+    <row r="171" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="E171" s="10"/>
+    </row>
+    <row r="172" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="E172" s="10"/>
+    </row>
+    <row r="173" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="E173" s="10"/>
+    </row>
+    <row r="174" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="E174" s="10"/>
+    </row>
+    <row r="175" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="E175" s="10"/>
+    </row>
+    <row r="176" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="E176" s="10"/>
+    </row>
+    <row r="177" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E177" s="10"/>
+    </row>
+    <row r="178" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E178" s="10"/>
+    </row>
+    <row r="179" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E179" s="10"/>
+    </row>
+    <row r="180" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E180" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/sheet/cards.xlsx
+++ b/sheet/cards.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="869">
   <si>
     <t>カードID</t>
     <phoneticPr fontId="1"/>
@@ -3287,6 +3287,226 @@
     <t>連火-このカードがこのターンに使用した3枚目以降のカードならば、ダスト→間合：2
 ----
 【再起】あなたの手札が0枚である。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Slash</t>
+  </si>
+  <si>
+    <t>Brandish</t>
+  </si>
+  <si>
+    <t>Hilt Strike</t>
+  </si>
+  <si>
+    <t>Art of Drawing</t>
+  </si>
+  <si>
+    <t>Footwork</t>
+  </si>
+  <si>
+    <t>Overawe</t>
+  </si>
+  <si>
+    <t>Spirit of Fire</t>
+  </si>
+  <si>
+    <t>Tsukikage Crush</t>
+  </si>
+  <si>
+    <t>Uranami Storm</t>
+  </si>
+  <si>
+    <t>Ukifune Serene</t>
+  </si>
+  <si>
+    <t>Wild Swing</t>
+  </si>
+  <si>
+    <t>Outrage</t>
+  </si>
+  <si>
+    <t>Imperfect Uranami Storm</t>
+  </si>
+  <si>
+    <t>テキスト（英語）</t>
+    <rPh sb="5" eb="7">
+      <t>エイゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（英語）</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>エイゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Forced: Resolve - This attack gains +1/+0 if your Life is 3 or less.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>After Attack: Resolve - The next attack you make this turn gains +1/+0 if your Life is 3 or less.</t>
+  </si>
+  <si>
+    <t>Forced: If the current Distance is 2 or less, this attack gets -1/-1.</t>
+  </si>
+  <si>
+    <t>If the current Distance is 4 or more:
+Distance (2)→ Shadow
+If the current Distance is 1 or less:
+Shadow (2)→ Distance</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ongoing: Resolve - All your other Megami's attacks gain +1/+1 and Overwhelm if your Life is 3 or less.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>After Attack: The attack this card was played as a Reaction to gets -2/+0.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Forced: Resolve - You can't play this card unless your Life is 3 or less.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Shadow (5)→ Your Aura
+----
+Immediate Resurgence: Resolve - Your Life becomes 3 or less (from 4 or more).</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Forced: Resolve - If your Life is 3 or less, this attack gains +0/+2 and No Reactions.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unguarded
+Disenchant: You attack with "Range: 1-4, Damage: 3/-".</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Disenchant: You attack with "Range: 0-4, Damage: 1/-, No Reactions, After Attack: Flinch your opponent."</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>After Attack: The attack this card was played as a Reaction to gets -3/+0.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Yurina's Final Blow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Swing Rush</t>
+  </si>
+  <si>
+    <t>Cut Down</t>
+  </si>
+  <si>
+    <t>Cut In</t>
+  </si>
+  <si>
+    <t>Outclass</t>
+  </si>
+  <si>
+    <t>Space for Master</t>
+  </si>
+  <si>
+    <t>Wavering Crystal</t>
+  </si>
+  <si>
+    <t>Silent Wall</t>
+  </si>
+  <si>
+    <t>Rhythmic Arc</t>
+  </si>
+  <si>
+    <t>Resonant Beat</t>
+  </si>
+  <si>
+    <t>Silent Icebreaker</t>
+  </si>
+  <si>
+    <t>Saine's Final Stage</t>
+  </si>
+  <si>
+    <t>Sound of Ice</t>
+  </si>
+  <si>
+    <t>Accompaniment</t>
+  </si>
+  <si>
+    <t>Duet: Chilling Tranquility</t>
+  </si>
+  <si>
+    <t>After Attack: The attack you played this card as a Reaction to gets -1/-1.
+Resurgence: Idea - You have no Sakura tokens on your Aura.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>After Attack: Idea - You attack with "Range: 4-5, Damage: 2/1" if you have no Sakura tokens on your Aura.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>After Attack: If this card was played as a Reaction, you attack with "Range: 3-5, Damage: 2/1, No Reactions".</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Forced: Idea - You may play this card as if it were a Reaction if you have no Sakura tokens on your Aura.
+Distance (1)⇔ Shadow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Initialize: Shadow (1)→ Distance.
+Ongoing: Increase the size of the Mastery Zone by 2.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Initialize: The attack you played this card as a Reaction to gets -1/+0.
+Disenchant: You attack with "Range: 0-10, Damage: 1/-, No Reactions".</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ongoing: Treat Sakura tokens on this card as if they were on your Aura whenever you are dealt damage.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Forced: This card costs 1 less for each Sakura token on your opponent's Aura.
+Opponent's Aura (2)→ Distance</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Forced: This can only be played as a Reaction to a Special card.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Opponent's Aura (1)→ Shadow
+If this card was played as a Reaction:
+Opponent's Aura (1)→ Shadow (again)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ongoing: If at least one of your other Megami's Special cards is Devoted, the first attack your opponent makes each turn gets -1/+0.
+Ongoing: If at least one of your Saine's Special cards is Devoted, the first Special you play each turn costs 1 less to play.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>End the current phase.
+Devoted: All your other Megami's attacks gain +0/+1.
+Immediate Resurgence: You take 1 or more damage to your Life, excluding reshuffle damage.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>You attack with
+"Range: 3-4, Damage: 1/1", 
+"Range: 4-5, Damage: 1/1", and 
+"Range: 3-5, Damage: 2/2" 
+in this order.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3740,11 +3960,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U180"/>
+  <dimension ref="A1:W180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R41" sqref="R41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="N16" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -3754,18 +3976,19 @@
     <col min="4" max="4" width="14.625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.375" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="9" style="4"/>
-    <col min="10" max="11" width="12.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="9" style="4"/>
-    <col min="18" max="18" width="56" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="255.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="18.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="9" style="4"/>
+    <col min="11" max="12" width="12.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="9" style="4"/>
+    <col min="19" max="20" width="56" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="255.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3785,46 +4008,52 @@
         <v>17</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="U1" s="4" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>587</v>
       </c>
@@ -3838,27 +4067,31 @@
         <v>661</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="13"/>
+      <c r="M2" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="M2" s="13"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="3" t="str">
-        <f>", '"&amp;A2&amp;"': {megami: '"&amp;B2&amp;"'"&amp;IF(C2&lt;&gt;"", ", anotherID: '" &amp; C2 &amp; "', replace: '" &amp; D2 &amp; "'", "")&amp;", name: '"&amp;E2&amp;"', ruby: '"&amp;F2&amp;"', baseType: '"&amp;VLOOKUP(G2,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H2,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I2&lt;&gt;"",", '"&amp; VLOOKUP(I2,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J2&lt;&gt;"", ", range: '"&amp;J2&amp;"'", "")&amp;IF(L2&lt;&gt;"", ", damage: '"&amp;L2&amp;"'", "")&amp;IF(N2&lt;&gt;"", ", capacity: '"&amp;N2&amp;"'", "")&amp;IF(O2&lt;&gt;"", ", cost: '"&amp;O2&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R2, CHAR(10), "\n")&amp;"'"&amp;IF(P2="○", ", sealable: true", "")&amp;IF(Q2="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '01-yurina-o-n-1': {megami: 'yurina', name: '斬', ruby: 'ざん', baseType: 'normal', types: ['attack'], range: '3-4', damage: '3/1', text: ''}</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+      <c r="N2" s="13"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="3" t="str">
+        <f>", '"&amp;A2&amp;"': {megami: '"&amp;B2&amp;"'"&amp;IF(C2&lt;&gt;"", ", anotherID: '" &amp; C2 &amp; "', replace: '" &amp; D2 &amp; "'", "")&amp;", name: '"&amp;E2&amp;"', nameEn: '"&amp;SUBSTITUTE(G2, "'", "\'")&amp;"', ruby: '"&amp;F2&amp;"', baseType: '"&amp;VLOOKUP(H2,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I2,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J2&lt;&gt;"",", '"&amp; VLOOKUP(J2,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K2&lt;&gt;"", ", range: '"&amp;K2&amp;"'", "")&amp;IF(M2&lt;&gt;"", ", damage: '"&amp;M2&amp;"'", "")&amp;IF(O2&lt;&gt;"", ", capacity: '"&amp;O2&amp;"'", "")&amp;IF(P2&lt;&gt;"", ", cost: '"&amp;P2&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S2, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T2, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q2="○", ", sealable: true", "")&amp;IF(R2="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '01-yurina-o-n-1': {megami: 'yurina', name: '斬', nameEn: 'Slash', ruby: 'ざん', baseType: 'normal', types: ['attack'], range: '3-4', damage: '3/1', text: '', textEn: ''}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="24" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>585</v>
       </c>
@@ -3878,29 +4111,35 @@
         <v>588</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>590</v>
       </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="13"/>
+      <c r="M3" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="M3" s="13"/>
-      <c r="R3" s="5" t="s">
+      <c r="N3" s="13"/>
+      <c r="S3" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="S3" s="13"/>
-      <c r="T3" s="3" t="str">
-        <f>", '"&amp;A3&amp;"': {megami: '"&amp;B3&amp;"'"&amp;IF(C3&lt;&gt;"", ", anotherID: '" &amp; C3 &amp; "', replace: '" &amp; D3 &amp; "'", "")&amp;", name: '"&amp;E3&amp;"', ruby: '"&amp;F3&amp;"', baseType: '"&amp;VLOOKUP(G3,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H3,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I3&lt;&gt;"",", '"&amp; VLOOKUP(I3,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J3&lt;&gt;"", ", range: '"&amp;J3&amp;"'", "")&amp;IF(L3&lt;&gt;"", ", damage: '"&amp;L3&amp;"'", "")&amp;IF(N3&lt;&gt;"", ", capacity: '"&amp;N3&amp;"'", "")&amp;IF(O3&lt;&gt;"", ", cost: '"&amp;O3&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R3, CHAR(10), "\n")&amp;"'"&amp;IF(P3="○", ", sealable: true", "")&amp;IF(Q3="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '01-yurina-A1-n-1': {megami: 'yurina', anotherID: 'A1', replace: '01-yurina-o-n-1', name: '乱打', ruby: 'らんだ', baseType: 'normal', types: ['attack'], range: '2', damage: '2/1', text: '【常時】決死-あなたのライフが3以下ならば、この《攻撃》は+0/+2となり、対応不可を得る。'}</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="T3" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="U3" s="13"/>
+      <c r="V3" s="3" t="str">
+        <f>", '"&amp;A3&amp;"': {megami: '"&amp;B3&amp;"'"&amp;IF(C3&lt;&gt;"", ", anotherID: '" &amp; C3 &amp; "', replace: '" &amp; D3 &amp; "'", "")&amp;", name: '"&amp;E3&amp;"', nameEn: '"&amp;SUBSTITUTE(G3, "'", "\'")&amp;"', ruby: '"&amp;F3&amp;"', baseType: '"&amp;VLOOKUP(H3,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I3,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J3&lt;&gt;"",", '"&amp; VLOOKUP(J3,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K3&lt;&gt;"", ", range: '"&amp;K3&amp;"'", "")&amp;IF(M3&lt;&gt;"", ", damage: '"&amp;M3&amp;"'", "")&amp;IF(O3&lt;&gt;"", ", capacity: '"&amp;O3&amp;"'", "")&amp;IF(P3&lt;&gt;"", ", cost: '"&amp;P3&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S3, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T3, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q3="○", ", sealable: true", "")&amp;IF(R3="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '01-yurina-A1-n-1': {megami: 'yurina', anotherID: 'A1', replace: '01-yurina-o-n-1', name: '乱打', nameEn: 'Wild Swing', ruby: 'らんだ', baseType: 'normal', types: ['attack'], range: '2', damage: '2/1', text: '【常時】決死-あなたのライフが3以下ならば、この《攻撃》は+0/+2となり、対応不可を得る。', textEn: 'Forced: Resolve - If your Life is 3 or less, this attack gains +0/+2 and No Reactions.'}</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>652</v>
       </c>
@@ -3914,29 +4153,35 @@
         <v>674</v>
       </c>
       <c r="G4" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="13"/>
+      <c r="M4" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="M4" s="13"/>
-      <c r="R4" s="5" t="s">
+      <c r="N4" s="13"/>
+      <c r="S4" s="5" t="s">
         <v>700</v>
       </c>
-      <c r="S4" s="13"/>
-      <c r="T4" s="3" t="str">
-        <f>", '"&amp;A4&amp;"': {megami: '"&amp;B4&amp;"'"&amp;IF(C4&lt;&gt;"", ", anotherID: '" &amp; C4 &amp; "', replace: '" &amp; D4 &amp; "'", "")&amp;", name: '"&amp;E4&amp;"', ruby: '"&amp;F4&amp;"', baseType: '"&amp;VLOOKUP(G4,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H4,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I4&lt;&gt;"",", '"&amp; VLOOKUP(I4,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J4&lt;&gt;"", ", range: '"&amp;J4&amp;"'", "")&amp;IF(L4&lt;&gt;"", ", damage: '"&amp;L4&amp;"'", "")&amp;IF(N4&lt;&gt;"", ", capacity: '"&amp;N4&amp;"'", "")&amp;IF(O4&lt;&gt;"", ", cost: '"&amp;O4&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R4, CHAR(10), "\n")&amp;"'"&amp;IF(P4="○", ", sealable: true", "")&amp;IF(Q4="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '01-yurina-o-n-2': {megami: 'yurina', name: '一閃', ruby: 'いっせん', baseType: 'normal', types: ['attack'], range: '3', damage: '2/2', text: '【常時】決死-あなたのライフが3以下ならば、この《攻撃》は+1/+0となる。'}</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+      <c r="T4" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="U4" s="13"/>
+      <c r="V4" s="3" t="str">
+        <f>", '"&amp;A4&amp;"': {megami: '"&amp;B4&amp;"'"&amp;IF(C4&lt;&gt;"", ", anotherID: '" &amp; C4 &amp; "', replace: '" &amp; D4 &amp; "'", "")&amp;", name: '"&amp;E4&amp;"', nameEn: '"&amp;SUBSTITUTE(G4, "'", "\'")&amp;"', ruby: '"&amp;F4&amp;"', baseType: '"&amp;VLOOKUP(H4,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I4,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J4&lt;&gt;"",", '"&amp; VLOOKUP(J4,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K4&lt;&gt;"", ", range: '"&amp;K4&amp;"'", "")&amp;IF(M4&lt;&gt;"", ", damage: '"&amp;M4&amp;"'", "")&amp;IF(O4&lt;&gt;"", ", capacity: '"&amp;O4&amp;"'", "")&amp;IF(P4&lt;&gt;"", ", cost: '"&amp;P4&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S4, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T4, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q4="○", ", sealable: true", "")&amp;IF(R4="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '01-yurina-o-n-2': {megami: 'yurina', name: '一閃', nameEn: 'Brandish', ruby: 'いっせん', baseType: 'normal', types: ['attack'], range: '3', damage: '2/2', text: '【常時】決死-あなたのライフが3以下ならば、この《攻撃》は+1/+0となる。', textEn: 'Forced: Resolve - This attack gains +1/+0 if your Life is 3 or less.'}</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="24" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>653</v>
       </c>
@@ -3950,29 +4195,35 @@
         <v>675</v>
       </c>
       <c r="G5" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>686</v>
       </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="13"/>
+      <c r="M5" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="M5" s="13"/>
-      <c r="R5" s="5" t="s">
+      <c r="N5" s="13"/>
+      <c r="S5" s="5" t="s">
         <v>701</v>
       </c>
-      <c r="S5" s="13"/>
-      <c r="T5" s="3" t="str">
-        <f>", '"&amp;A5&amp;"': {megami: '"&amp;B5&amp;"'"&amp;IF(C5&lt;&gt;"", ", anotherID: '" &amp; C5 &amp; "', replace: '" &amp; D5 &amp; "'", "")&amp;", name: '"&amp;E5&amp;"', ruby: '"&amp;F5&amp;"', baseType: '"&amp;VLOOKUP(G5,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H5,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I5&lt;&gt;"",", '"&amp; VLOOKUP(I5,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J5&lt;&gt;"", ", range: '"&amp;J5&amp;"'", "")&amp;IF(L5&lt;&gt;"", ", damage: '"&amp;L5&amp;"'", "")&amp;IF(N5&lt;&gt;"", ", capacity: '"&amp;N5&amp;"'", "")&amp;IF(O5&lt;&gt;"", ", cost: '"&amp;O5&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R5, CHAR(10), "\n")&amp;"'"&amp;IF(P5="○", ", sealable: true", "")&amp;IF(Q5="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '01-yurina-o-n-3': {megami: 'yurina', name: '柄打ち', ruby: 'つかうち', baseType: 'normal', types: ['attack'], range: '1-2', damage: '2/1', text: '【攻撃後】決死-あなたのライフが3以下ならば、このターンにあなたが次に行う《攻撃》は+1/+0となる。'}</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="T5" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="U5" s="13"/>
+      <c r="V5" s="3" t="str">
+        <f>", '"&amp;A5&amp;"': {megami: '"&amp;B5&amp;"'"&amp;IF(C5&lt;&gt;"", ", anotherID: '" &amp; C5 &amp; "', replace: '" &amp; D5 &amp; "'", "")&amp;", name: '"&amp;E5&amp;"', nameEn: '"&amp;SUBSTITUTE(G5, "'", "\'")&amp;"', ruby: '"&amp;F5&amp;"', baseType: '"&amp;VLOOKUP(H5,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I5,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J5&lt;&gt;"",", '"&amp; VLOOKUP(J5,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K5&lt;&gt;"", ", range: '"&amp;K5&amp;"'", "")&amp;IF(M5&lt;&gt;"", ", damage: '"&amp;M5&amp;"'", "")&amp;IF(O5&lt;&gt;"", ", capacity: '"&amp;O5&amp;"'", "")&amp;IF(P5&lt;&gt;"", ", cost: '"&amp;P5&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S5, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T5, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q5="○", ", sealable: true", "")&amp;IF(R5="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '01-yurina-o-n-3': {megami: 'yurina', name: '柄打ち', nameEn: 'Hilt Strike', ruby: 'つかうち', baseType: 'normal', types: ['attack'], range: '1-2', damage: '2/1', text: '【攻撃後】決死-あなたのライフが3以下ならば、このターンにあなたが次に行う《攻撃》は+1/+0となる。', textEn: 'After Attack: Resolve - The next attack you make this turn gains +1/+0 if your Life is 3 or less.'}</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>654</v>
       </c>
@@ -3986,32 +4237,38 @@
         <v>676</v>
       </c>
       <c r="G6" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>684</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="13"/>
+      <c r="M6" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="M6" s="13"/>
-      <c r="R6" s="14" t="s">
+      <c r="N6" s="13"/>
+      <c r="S6" s="14" t="s">
         <v>702</v>
       </c>
-      <c r="S6" s="13"/>
-      <c r="T6" s="3" t="str">
-        <f>", '"&amp;A6&amp;"': {megami: '"&amp;B6&amp;"'"&amp;IF(C6&lt;&gt;"", ", anotherID: '" &amp; C6 &amp; "', replace: '" &amp; D6 &amp; "'", "")&amp;", name: '"&amp;E6&amp;"', ruby: '"&amp;F6&amp;"', baseType: '"&amp;VLOOKUP(G6,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H6,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I6&lt;&gt;"",", '"&amp; VLOOKUP(I6,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J6&lt;&gt;"", ", range: '"&amp;J6&amp;"'", "")&amp;IF(L6&lt;&gt;"", ", damage: '"&amp;L6&amp;"'", "")&amp;IF(N6&lt;&gt;"", ", capacity: '"&amp;N6&amp;"'", "")&amp;IF(O6&lt;&gt;"", ", cost: '"&amp;O6&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R6, CHAR(10), "\n")&amp;"'"&amp;IF(P6="○", ", sealable: true", "")&amp;IF(Q6="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '01-yurina-o-n-4': {megami: 'yurina', name: '居合', ruby: 'いあい', baseType: 'normal', types: ['attack', 'fullpower'], range: '2-4', damage: '4/3', text: '【常時】現在の間合が2以下ならば、この攻撃は-1/-1となる。'}</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+      <c r="T6" s="14" t="s">
+        <v>831</v>
+      </c>
+      <c r="U6" s="13"/>
+      <c r="V6" s="3" t="str">
+        <f>", '"&amp;A6&amp;"': {megami: '"&amp;B6&amp;"'"&amp;IF(C6&lt;&gt;"", ", anotherID: '" &amp; C6 &amp; "', replace: '" &amp; D6 &amp; "'", "")&amp;", name: '"&amp;E6&amp;"', nameEn: '"&amp;SUBSTITUTE(G6, "'", "\'")&amp;"', ruby: '"&amp;F6&amp;"', baseType: '"&amp;VLOOKUP(H6,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I6,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J6&lt;&gt;"",", '"&amp; VLOOKUP(J6,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K6&lt;&gt;"", ", range: '"&amp;K6&amp;"'", "")&amp;IF(M6&lt;&gt;"", ", damage: '"&amp;M6&amp;"'", "")&amp;IF(O6&lt;&gt;"", ", capacity: '"&amp;O6&amp;"'", "")&amp;IF(P6&lt;&gt;"", ", cost: '"&amp;P6&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S6, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T6, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q6="○", ", sealable: true", "")&amp;IF(R6="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '01-yurina-o-n-4': {megami: 'yurina', name: '居合', nameEn: 'Art of Drawing', ruby: 'いあい', baseType: 'normal', types: ['attack', 'fullpower'], range: '2-4', damage: '4/3', text: '【常時】現在の間合が2以下ならば、この攻撃は-1/-1となる。', textEn: 'Forced: If the current Distance is 2 or less, this attack gets -1/-1.'}</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="60" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>655</v>
       </c>
@@ -4025,23 +4282,29 @@
         <v>677</v>
       </c>
       <c r="G7" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="R7" s="5" t="s">
+      <c r="L7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="S7" s="5" t="s">
         <v>703</v>
       </c>
-      <c r="S7" s="13"/>
-      <c r="T7" s="3" t="str">
-        <f>", '"&amp;A7&amp;"': {megami: '"&amp;B7&amp;"'"&amp;IF(C7&lt;&gt;"", ", anotherID: '" &amp; C7 &amp; "', replace: '" &amp; D7 &amp; "'", "")&amp;", name: '"&amp;E7&amp;"', ruby: '"&amp;F7&amp;"', baseType: '"&amp;VLOOKUP(G7,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H7,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I7&lt;&gt;"",", '"&amp; VLOOKUP(I7,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J7&lt;&gt;"", ", range: '"&amp;J7&amp;"'", "")&amp;IF(L7&lt;&gt;"", ", damage: '"&amp;L7&amp;"'", "")&amp;IF(N7&lt;&gt;"", ", capacity: '"&amp;N7&amp;"'", "")&amp;IF(O7&lt;&gt;"", ", cost: '"&amp;O7&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R7, CHAR(10), "\n")&amp;"'"&amp;IF(P7="○", ", sealable: true", "")&amp;IF(Q7="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '01-yurina-o-n-5': {megami: 'yurina', name: '足捌き', ruby: 'あしさばき', baseType: 'normal', types: ['action'], text: '現在の間合が4以上ならば、間合→ダスト：2\n現在の間合が1以下ならば、ダスト→間合：2'}</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+      <c r="T7" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="U7" s="13"/>
+      <c r="V7" s="3" t="str">
+        <f>", '"&amp;A7&amp;"': {megami: '"&amp;B7&amp;"'"&amp;IF(C7&lt;&gt;"", ", anotherID: '" &amp; C7 &amp; "', replace: '" &amp; D7 &amp; "'", "")&amp;", name: '"&amp;E7&amp;"', nameEn: '"&amp;SUBSTITUTE(G7, "'", "\'")&amp;"', ruby: '"&amp;F7&amp;"', baseType: '"&amp;VLOOKUP(H7,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I7,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J7&lt;&gt;"",", '"&amp; VLOOKUP(J7,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K7&lt;&gt;"", ", range: '"&amp;K7&amp;"'", "")&amp;IF(M7&lt;&gt;"", ", damage: '"&amp;M7&amp;"'", "")&amp;IF(O7&lt;&gt;"", ", capacity: '"&amp;O7&amp;"'", "")&amp;IF(P7&lt;&gt;"", ", cost: '"&amp;P7&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S7, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T7, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q7="○", ", sealable: true", "")&amp;IF(R7="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '01-yurina-o-n-5': {megami: 'yurina', name: '足捌き', nameEn: 'Footwork', ruby: 'あしさばき', baseType: 'normal', types: ['action'], text: '現在の間合が4以上ならば、間合→ダスト：2\n現在の間合が1以下ならば、ダスト→間合：2', textEn: 'If the current Distance is 4 or more:\nDistance (2)→ Shadow\n\nIf the current Distance is 1 or less:\nShadow (2)→ Distance'}</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="36" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>656</v>
       </c>
@@ -4055,26 +4318,32 @@
         <v>678</v>
       </c>
       <c r="G8" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="K8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="4" t="s">
+      <c r="L8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="4" t="s">
         <v>694</v>
       </c>
-      <c r="R8" s="5" t="s">
+      <c r="S8" s="5" t="s">
         <v>704</v>
       </c>
-      <c r="S8" s="13"/>
-      <c r="T8" s="3" t="str">
-        <f>", '"&amp;A8&amp;"': {megami: '"&amp;B8&amp;"'"&amp;IF(C8&lt;&gt;"", ", anotherID: '" &amp; C8 &amp; "', replace: '" &amp; D8 &amp; "'", "")&amp;", name: '"&amp;E8&amp;"', ruby: '"&amp;F8&amp;"', baseType: '"&amp;VLOOKUP(G8,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H8,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I8&lt;&gt;"",", '"&amp; VLOOKUP(I8,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J8&lt;&gt;"", ", range: '"&amp;J8&amp;"'", "")&amp;IF(L8&lt;&gt;"", ", damage: '"&amp;L8&amp;"'", "")&amp;IF(N8&lt;&gt;"", ", capacity: '"&amp;N8&amp;"'", "")&amp;IF(O8&lt;&gt;"", ", cost: '"&amp;O8&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R8, CHAR(10), "\n")&amp;"'"&amp;IF(P8="○", ", sealable: true", "")&amp;IF(Q8="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '01-yurina-o-n-6': {megami: 'yurina', name: '圧気', ruby: 'あっき', baseType: 'normal', types: ['enhance'], capacity: '2', text: '隙\n【破棄時】攻撃『適正距離1-4、3/-』を行う。'}</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+      <c r="T8" s="5" t="s">
+        <v>838</v>
+      </c>
+      <c r="U8" s="13"/>
+      <c r="V8" s="3" t="str">
+        <f>", '"&amp;A8&amp;"': {megami: '"&amp;B8&amp;"'"&amp;IF(C8&lt;&gt;"", ", anotherID: '" &amp; C8 &amp; "', replace: '" &amp; D8 &amp; "'", "")&amp;", name: '"&amp;E8&amp;"', nameEn: '"&amp;SUBSTITUTE(G8, "'", "\'")&amp;"', ruby: '"&amp;F8&amp;"', baseType: '"&amp;VLOOKUP(H8,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I8,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J8&lt;&gt;"",", '"&amp; VLOOKUP(J8,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K8&lt;&gt;"", ", range: '"&amp;K8&amp;"'", "")&amp;IF(M8&lt;&gt;"", ", damage: '"&amp;M8&amp;"'", "")&amp;IF(O8&lt;&gt;"", ", capacity: '"&amp;O8&amp;"'", "")&amp;IF(P8&lt;&gt;"", ", cost: '"&amp;P8&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S8, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T8, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q8="○", ", sealable: true", "")&amp;IF(R8="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '01-yurina-o-n-6': {megami: 'yurina', name: '圧気', nameEn: 'Overawe', ruby: 'あっき', baseType: 'normal', types: ['enhance'], capacity: '2', text: '隙\n【破棄時】攻撃『適正距離1-4、3/-』を行う。', textEn: 'Unguarded\n\nDisenchant: You attack with "Range: 1-4, Damage: 3/-".'}</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="24" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>605</v>
       </c>
@@ -4094,29 +4363,35 @@
         <v>594</v>
       </c>
       <c r="G9" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="J9" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="K9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="4" t="s">
+      <c r="L9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="R9" s="5" t="s">
+      <c r="S9" s="5" t="s">
         <v>645</v>
       </c>
-      <c r="S9" s="13"/>
-      <c r="T9" s="3" t="str">
-        <f>", '"&amp;A9&amp;"': {megami: '"&amp;B9&amp;"'"&amp;IF(C9&lt;&gt;"", ", anotherID: '" &amp; C9 &amp; "', replace: '" &amp; D9 &amp; "'", "")&amp;", name: '"&amp;E9&amp;"', ruby: '"&amp;F9&amp;"', baseType: '"&amp;VLOOKUP(G9,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H9,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I9&lt;&gt;"",", '"&amp; VLOOKUP(I9,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J9&lt;&gt;"", ", range: '"&amp;J9&amp;"'", "")&amp;IF(L9&lt;&gt;"", ", damage: '"&amp;L9&amp;"'", "")&amp;IF(N9&lt;&gt;"", ", capacity: '"&amp;N9&amp;"'", "")&amp;IF(O9&lt;&gt;"", ", cost: '"&amp;O9&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R9, CHAR(10), "\n")&amp;"'"&amp;IF(P9="○", ", sealable: true", "")&amp;IF(Q9="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '01-yurina-A1-n-6': {megami: 'yurina', anotherID: 'A1', replace: '01-yurina-o-n-6', name: '癇癪玉', ruby: 'かんしゃくだま ', baseType: 'normal', types: ['enhance', 'reaction'], capacity: '１', text: '【破棄時】攻撃『適正距離0-4、1/-、対応不可、【攻撃後】相手を畏縮させる』を行う。'}</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+      <c r="T9" s="5" t="s">
+        <v>839</v>
+      </c>
+      <c r="U9" s="13"/>
+      <c r="V9" s="3" t="str">
+        <f>", '"&amp;A9&amp;"': {megami: '"&amp;B9&amp;"'"&amp;IF(C9&lt;&gt;"", ", anotherID: '" &amp; C9 &amp; "', replace: '" &amp; D9 &amp; "'", "")&amp;", name: '"&amp;E9&amp;"', nameEn: '"&amp;SUBSTITUTE(G9, "'", "\'")&amp;"', ruby: '"&amp;F9&amp;"', baseType: '"&amp;VLOOKUP(H9,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I9,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J9&lt;&gt;"",", '"&amp; VLOOKUP(J9,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K9&lt;&gt;"", ", range: '"&amp;K9&amp;"'", "")&amp;IF(M9&lt;&gt;"", ", damage: '"&amp;M9&amp;"'", "")&amp;IF(O9&lt;&gt;"", ", capacity: '"&amp;O9&amp;"'", "")&amp;IF(P9&lt;&gt;"", ", cost: '"&amp;P9&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S9, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T9, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q9="○", ", sealable: true", "")&amp;IF(R9="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '01-yurina-A1-n-6': {megami: 'yurina', anotherID: 'A1', replace: '01-yurina-o-n-6', name: '癇癪玉', nameEn: 'Outrage', ruby: 'かんしゃくだま ', baseType: 'normal', types: ['enhance', 'reaction'], capacity: '１', text: '【破棄時】攻撃『適正距離0-4、1/-、対応不可、【攻撃後】相手を畏縮させる』を行う。', textEn: 'Disenchant: You attack with "Range: 0-4, Damage: 1/-, No Reactions, After Attack: Flinch your opponent."'}</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="24" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>657</v>
       </c>
@@ -4130,29 +4405,35 @@
         <v>679</v>
       </c>
       <c r="G10" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="J10" s="4" t="s">
         <v>684</v>
       </c>
-      <c r="K10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="4" t="s">
+      <c r="L10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="4" t="s">
         <v>695</v>
       </c>
-      <c r="R10" s="5" t="s">
+      <c r="S10" s="5" t="s">
         <v>705</v>
       </c>
-      <c r="S10" s="13"/>
-      <c r="T10" s="3" t="str">
-        <f>", '"&amp;A10&amp;"': {megami: '"&amp;B10&amp;"'"&amp;IF(C10&lt;&gt;"", ", anotherID: '" &amp; C10 &amp; "', replace: '" &amp; D10 &amp; "'", "")&amp;", name: '"&amp;E10&amp;"', ruby: '"&amp;F10&amp;"', baseType: '"&amp;VLOOKUP(G10,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H10,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I10&lt;&gt;"",", '"&amp; VLOOKUP(I10,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J10&lt;&gt;"", ", range: '"&amp;J10&amp;"'", "")&amp;IF(L10&lt;&gt;"", ", damage: '"&amp;L10&amp;"'", "")&amp;IF(N10&lt;&gt;"", ", capacity: '"&amp;N10&amp;"'", "")&amp;IF(O10&lt;&gt;"", ", cost: '"&amp;O10&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R10, CHAR(10), "\n")&amp;"'"&amp;IF(P10="○", ", sealable: true", "")&amp;IF(Q10="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '01-yurina-o-n-7': {megami: 'yurina', name: '気炎万丈', ruby: 'きえんばんじょう', baseType: 'normal', types: ['enhance', 'fullpower'], capacity: '4', text: '【展開中】決死-あなたのライフが3以下ならば、あなたの他のメガミによる《攻撃》は+1/+1となるとともに超克を得る。'}</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="T10" s="5" t="s">
+        <v>833</v>
+      </c>
+      <c r="U10" s="13"/>
+      <c r="V10" s="3" t="str">
+        <f>", '"&amp;A10&amp;"': {megami: '"&amp;B10&amp;"'"&amp;IF(C10&lt;&gt;"", ", anotherID: '" &amp; C10 &amp; "', replace: '" &amp; D10 &amp; "'", "")&amp;", name: '"&amp;E10&amp;"', nameEn: '"&amp;SUBSTITUTE(G10, "'", "\'")&amp;"', ruby: '"&amp;F10&amp;"', baseType: '"&amp;VLOOKUP(H10,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I10,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J10&lt;&gt;"",", '"&amp; VLOOKUP(J10,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K10&lt;&gt;"", ", range: '"&amp;K10&amp;"'", "")&amp;IF(M10&lt;&gt;"", ", damage: '"&amp;M10&amp;"'", "")&amp;IF(O10&lt;&gt;"", ", capacity: '"&amp;O10&amp;"'", "")&amp;IF(P10&lt;&gt;"", ", cost: '"&amp;P10&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S10, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T10, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q10="○", ", sealable: true", "")&amp;IF(R10="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '01-yurina-o-n-7': {megami: 'yurina', name: '気炎万丈', nameEn: 'Spirit of Fire', ruby: 'きえんばんじょう', baseType: 'normal', types: ['enhance', 'fullpower'], capacity: '4', text: '【展開中】決死-あなたのライフが3以下ならば、あなたの他のメガミによる《攻撃》は+1/+1となるとともに超克を得る。', textEn: 'Ongoing: Resolve - All your other Megami\'s attacks gain +1/+1 and Overwhelm if your Life is 3 or less.'}</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>658</v>
       </c>
@@ -4166,30 +4447,34 @@
         <v>680</v>
       </c>
       <c r="G11" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="I11" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="K11" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="K11" s="13"/>
-      <c r="L11" s="2" t="s">
+      <c r="L11" s="13"/>
+      <c r="M11" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="M11" s="13"/>
-      <c r="O11" s="4" t="s">
+      <c r="N11" s="13"/>
+      <c r="P11" s="4" t="s">
         <v>696</v>
       </c>
-      <c r="R11" s="5"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="3" t="str">
-        <f>", '"&amp;A11&amp;"': {megami: '"&amp;B11&amp;"'"&amp;IF(C11&lt;&gt;"", ", anotherID: '" &amp; C11 &amp; "', replace: '" &amp; D11 &amp; "'", "")&amp;", name: '"&amp;E11&amp;"', ruby: '"&amp;F11&amp;"', baseType: '"&amp;VLOOKUP(G11,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H11,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I11&lt;&gt;"",", '"&amp; VLOOKUP(I11,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J11&lt;&gt;"", ", range: '"&amp;J11&amp;"'", "")&amp;IF(L11&lt;&gt;"", ", damage: '"&amp;L11&amp;"'", "")&amp;IF(N11&lt;&gt;"", ", capacity: '"&amp;N11&amp;"'", "")&amp;IF(O11&lt;&gt;"", ", cost: '"&amp;O11&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R11, CHAR(10), "\n")&amp;"'"&amp;IF(P11="○", ", sealable: true", "")&amp;IF(Q11="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '01-yurina-o-s-1': {megami: 'yurina', name: '月影落', ruby: 'つきかげおとし', baseType: 'special', types: ['attack'], range: '3-4', damage: '4/4', cost: '7', text: ''}</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="3" t="str">
+        <f>", '"&amp;A11&amp;"': {megami: '"&amp;B11&amp;"'"&amp;IF(C11&lt;&gt;"", ", anotherID: '" &amp; C11 &amp; "', replace: '" &amp; D11 &amp; "'", "")&amp;", name: '"&amp;E11&amp;"', nameEn: '"&amp;SUBSTITUTE(G11, "'", "\'")&amp;"', ruby: '"&amp;F11&amp;"', baseType: '"&amp;VLOOKUP(H11,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I11,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J11&lt;&gt;"",", '"&amp; VLOOKUP(J11,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K11&lt;&gt;"", ", range: '"&amp;K11&amp;"'", "")&amp;IF(M11&lt;&gt;"", ", damage: '"&amp;M11&amp;"'", "")&amp;IF(O11&lt;&gt;"", ", capacity: '"&amp;O11&amp;"'", "")&amp;IF(P11&lt;&gt;"", ", cost: '"&amp;P11&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S11, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T11, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q11="○", ", sealable: true", "")&amp;IF(R11="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '01-yurina-o-s-1': {megami: 'yurina', name: '月影落', nameEn: 'Tsukikage Crush', ruby: 'つきかげおとし', baseType: 'special', types: ['attack'], range: '3-4', damage: '4/4', cost: '7', text: '', textEn: ''}</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>608</v>
       </c>
@@ -4203,35 +4488,41 @@
         <v>681</v>
       </c>
       <c r="G12" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="I12" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="J12" s="4" t="s">
         <v>685</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="K12" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="K12" s="13"/>
-      <c r="L12" s="2" t="s">
+      <c r="L12" s="13"/>
+      <c r="M12" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="M12" s="13"/>
-      <c r="O12" s="4" t="s">
+      <c r="N12" s="13"/>
+      <c r="P12" s="4" t="s">
         <v>697</v>
       </c>
-      <c r="R12" s="5" t="s">
+      <c r="S12" s="5" t="s">
         <v>706</v>
       </c>
-      <c r="S12" s="13"/>
-      <c r="T12" s="3" t="str">
-        <f>", '"&amp;A12&amp;"': {megami: '"&amp;B12&amp;"'"&amp;IF(C12&lt;&gt;"", ", anotherID: '" &amp; C12 &amp; "', replace: '" &amp; D12 &amp; "'", "")&amp;", name: '"&amp;E12&amp;"', ruby: '"&amp;F12&amp;"', baseType: '"&amp;VLOOKUP(G12,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H12,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I12&lt;&gt;"",", '"&amp; VLOOKUP(I12,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J12&lt;&gt;"", ", range: '"&amp;J12&amp;"'", "")&amp;IF(L12&lt;&gt;"", ", damage: '"&amp;L12&amp;"'", "")&amp;IF(N12&lt;&gt;"", ", capacity: '"&amp;N12&amp;"'", "")&amp;IF(O12&lt;&gt;"", ", cost: '"&amp;O12&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R12, CHAR(10), "\n")&amp;"'"&amp;IF(P12="○", ", sealable: true", "")&amp;IF(Q12="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '01-yurina-o-s-2': {megami: 'yurina', name: '浦波嵐', ruby: 'うらなみあらし', baseType: 'special', types: ['attack', 'reaction'], range: '0-10', damage: '2/-', cost: '3', text: '【攻撃後】対応した《攻撃》は-2/+0となる。'}</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="T12" s="5" t="s">
+        <v>834</v>
+      </c>
+      <c r="U12" s="13"/>
+      <c r="V12" s="3" t="str">
+        <f>", '"&amp;A12&amp;"': {megami: '"&amp;B12&amp;"'"&amp;IF(C12&lt;&gt;"", ", anotherID: '" &amp; C12 &amp; "', replace: '" &amp; D12 &amp; "'", "")&amp;", name: '"&amp;E12&amp;"', nameEn: '"&amp;SUBSTITUTE(G12, "'", "\'")&amp;"', ruby: '"&amp;F12&amp;"', baseType: '"&amp;VLOOKUP(H12,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I12,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J12&lt;&gt;"",", '"&amp; VLOOKUP(J12,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K12&lt;&gt;"", ", range: '"&amp;K12&amp;"'", "")&amp;IF(M12&lt;&gt;"", ", damage: '"&amp;M12&amp;"'", "")&amp;IF(O12&lt;&gt;"", ", capacity: '"&amp;O12&amp;"'", "")&amp;IF(P12&lt;&gt;"", ", cost: '"&amp;P12&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S12, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T12, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q12="○", ", sealable: true", "")&amp;IF(R12="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '01-yurina-o-s-2': {megami: 'yurina', name: '浦波嵐', nameEn: 'Uranami Storm', ruby: 'うらなみあらし', baseType: 'special', types: ['attack', 'reaction'], range: '0-10', damage: '2/-', cost: '3', text: '【攻撃後】対応した《攻撃》は-2/+0となる。', textEn: 'After Attack: The attack this card was played as a Reaction to gets -2/+0.'}</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>606</v>
       </c>
@@ -4251,35 +4542,41 @@
         <v>596</v>
       </c>
       <c r="G13" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="I13" s="4" t="s">
         <v>597</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="J13" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="K13" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="K13" s="13"/>
-      <c r="L13" s="2" t="s">
+      <c r="L13" s="13"/>
+      <c r="M13" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="M13" s="13"/>
-      <c r="O13" s="4" t="s">
+      <c r="N13" s="13"/>
+      <c r="P13" s="4" t="s">
         <v>602</v>
       </c>
-      <c r="R13" s="5" t="s">
+      <c r="S13" s="5" t="s">
         <v>604</v>
       </c>
-      <c r="S13" s="13"/>
-      <c r="T13" s="3" t="str">
-        <f>", '"&amp;A13&amp;"': {megami: '"&amp;B13&amp;"'"&amp;IF(C13&lt;&gt;"", ", anotherID: '" &amp; C13 &amp; "', replace: '" &amp; D13 &amp; "'", "")&amp;", name: '"&amp;E13&amp;"', ruby: '"&amp;F13&amp;"', baseType: '"&amp;VLOOKUP(G13,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H13,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I13&lt;&gt;"",", '"&amp; VLOOKUP(I13,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J13&lt;&gt;"", ", range: '"&amp;J13&amp;"'", "")&amp;IF(L13&lt;&gt;"", ", damage: '"&amp;L13&amp;"'", "")&amp;IF(N13&lt;&gt;"", ", capacity: '"&amp;N13&amp;"'", "")&amp;IF(O13&lt;&gt;"", ", cost: '"&amp;O13&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R13, CHAR(10), "\n")&amp;"'"&amp;IF(P13="○", ", sealable: true", "")&amp;IF(Q13="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '01-yurina-A1-s-2': {megami: 'yurina', anotherID: 'A1', replace: '01-yurina-o-s-2', name: '不完全浦波嵐', ruby: 'ふかんぜんうらなみあらし', baseType: 'special', types: ['attack', 'reaction'], range: '0-10', damage: '3/-', cost: '5', text: '【攻撃後】対応した《攻撃》は-3/+0となる。'}</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+      <c r="T13" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="U13" s="13"/>
+      <c r="V13" s="3" t="str">
+        <f>", '"&amp;A13&amp;"': {megami: '"&amp;B13&amp;"'"&amp;IF(C13&lt;&gt;"", ", anotherID: '" &amp; C13 &amp; "', replace: '" &amp; D13 &amp; "'", "")&amp;", name: '"&amp;E13&amp;"', nameEn: '"&amp;SUBSTITUTE(G13, "'", "\'")&amp;"', ruby: '"&amp;F13&amp;"', baseType: '"&amp;VLOOKUP(H13,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I13,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J13&lt;&gt;"",", '"&amp; VLOOKUP(J13,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K13&lt;&gt;"", ", range: '"&amp;K13&amp;"'", "")&amp;IF(M13&lt;&gt;"", ", damage: '"&amp;M13&amp;"'", "")&amp;IF(O13&lt;&gt;"", ", capacity: '"&amp;O13&amp;"'", "")&amp;IF(P13&lt;&gt;"", ", cost: '"&amp;P13&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S13, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T13, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q13="○", ", sealable: true", "")&amp;IF(R13="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '01-yurina-A1-s-2': {megami: 'yurina', anotherID: 'A1', replace: '01-yurina-o-s-2', name: '不完全浦波嵐', nameEn: 'Imperfect Uranami Storm', ruby: 'ふかんぜんうらなみあらし', baseType: 'special', types: ['attack', 'reaction'], range: '0-10', damage: '3/-', cost: '5', text: '【攻撃後】対応した《攻撃》は-3/+0となる。', textEn: 'After Attack: The attack this card was played as a Reaction to gets -3/+0.'}</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="48" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>659</v>
       </c>
@@ -4293,26 +4590,32 @@
         <v>682</v>
       </c>
       <c r="G14" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="I14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="O14" s="4" t="s">
+      <c r="L14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="P14" s="4" t="s">
         <v>698</v>
       </c>
-      <c r="R14" s="5" t="s">
+      <c r="S14" s="5" t="s">
         <v>707</v>
       </c>
-      <c r="S14" s="13"/>
-      <c r="T14" s="3" t="str">
-        <f>", '"&amp;A14&amp;"': {megami: '"&amp;B14&amp;"'"&amp;IF(C14&lt;&gt;"", ", anotherID: '" &amp; C14 &amp; "', replace: '" &amp; D14 &amp; "'", "")&amp;", name: '"&amp;E14&amp;"', ruby: '"&amp;F14&amp;"', baseType: '"&amp;VLOOKUP(G14,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H14,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I14&lt;&gt;"",", '"&amp; VLOOKUP(I14,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J14&lt;&gt;"", ", range: '"&amp;J14&amp;"'", "")&amp;IF(L14&lt;&gt;"", ", damage: '"&amp;L14&amp;"'", "")&amp;IF(N14&lt;&gt;"", ", capacity: '"&amp;N14&amp;"'", "")&amp;IF(O14&lt;&gt;"", ", cost: '"&amp;O14&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R14, CHAR(10), "\n")&amp;"'"&amp;IF(P14="○", ", sealable: true", "")&amp;IF(Q14="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '01-yurina-o-s-3': {megami: 'yurina', name: '浮舟宿', ruby: 'うきふねやどし', baseType: 'special', types: ['action'], cost: '2', text: 'ダスト→自オーラ：5 \n----\n【即再起】決死-あなたのライフが3以下である。'}</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="T14" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="U14" s="13"/>
+      <c r="V14" s="3" t="str">
+        <f>", '"&amp;A14&amp;"': {megami: '"&amp;B14&amp;"'"&amp;IF(C14&lt;&gt;"", ", anotherID: '" &amp; C14 &amp; "', replace: '" &amp; D14 &amp; "'", "")&amp;", name: '"&amp;E14&amp;"', nameEn: '"&amp;SUBSTITUTE(G14, "'", "\'")&amp;"', ruby: '"&amp;F14&amp;"', baseType: '"&amp;VLOOKUP(H14,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I14,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J14&lt;&gt;"",", '"&amp; VLOOKUP(J14,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K14&lt;&gt;"", ", range: '"&amp;K14&amp;"'", "")&amp;IF(M14&lt;&gt;"", ", damage: '"&amp;M14&amp;"'", "")&amp;IF(O14&lt;&gt;"", ", capacity: '"&amp;O14&amp;"'", "")&amp;IF(P14&lt;&gt;"", ", cost: '"&amp;P14&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S14, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T14, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q14="○", ", sealable: true", "")&amp;IF(R14="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '01-yurina-o-s-3': {megami: 'yurina', name: '浮舟宿', nameEn: 'Ukifune Serene', ruby: 'うきふねやどし', baseType: 'special', types: ['action'], cost: '2', text: 'ダスト→自オーラ：5 \n----\n【即再起】決死-あなたのライフが3以下である。', textEn: 'Shadow (5)→ Your Aura\n----\nImmediate Resurgence: Resolve - Your Life becomes 3 or less (from 4 or more).'}</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>663</v>
       </c>
@@ -4326,35 +4629,41 @@
         <v>683</v>
       </c>
       <c r="G15" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="I15" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="J15" s="4" t="s">
         <v>684</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="K15" s="4" t="s">
         <v>687</v>
       </c>
-      <c r="K15" s="13"/>
-      <c r="L15" s="2" t="s">
+      <c r="L15" s="13"/>
+      <c r="M15" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="M15" s="13"/>
-      <c r="O15" s="4" t="s">
+      <c r="N15" s="13"/>
+      <c r="P15" s="4" t="s">
         <v>699</v>
       </c>
-      <c r="R15" s="5" t="s">
+      <c r="S15" s="5" t="s">
         <v>708</v>
       </c>
-      <c r="S15" s="13"/>
-      <c r="T15" s="3" t="str">
-        <f>", '"&amp;A15&amp;"': {megami: '"&amp;B15&amp;"'"&amp;IF(C15&lt;&gt;"", ", anotherID: '" &amp; C15 &amp; "', replace: '" &amp; D15 &amp; "'", "")&amp;", name: '"&amp;E15&amp;"', ruby: '"&amp;F15&amp;"', baseType: '"&amp;VLOOKUP(G15,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H15,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I15&lt;&gt;"",", '"&amp; VLOOKUP(I15,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J15&lt;&gt;"", ", range: '"&amp;J15&amp;"'", "")&amp;IF(L15&lt;&gt;"", ", damage: '"&amp;L15&amp;"'", "")&amp;IF(N15&lt;&gt;"", ", capacity: '"&amp;N15&amp;"'", "")&amp;IF(O15&lt;&gt;"", ", cost: '"&amp;O15&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R15, CHAR(10), "\n")&amp;"'"&amp;IF(P15="○", ", sealable: true", "")&amp;IF(Q15="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '01-yurina-o-s-4': {megami: 'yurina', name: '天音揺波の底力', ruby: 'あまねゆりなのそこぢから', baseType: 'special', types: ['attack', 'fullpower'], range: '1-4', damage: '5/5', cost: '5', text: '【常時】決死-あなたのライフが3以下でないと、このカードは使用できない。'}</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="T15" s="5" t="s">
+        <v>835</v>
+      </c>
+      <c r="U15" s="13"/>
+      <c r="V15" s="3" t="str">
+        <f>", '"&amp;A15&amp;"': {megami: '"&amp;B15&amp;"'"&amp;IF(C15&lt;&gt;"", ", anotherID: '" &amp; C15 &amp; "', replace: '" &amp; D15 &amp; "'", "")&amp;", name: '"&amp;E15&amp;"', nameEn: '"&amp;SUBSTITUTE(G15, "'", "\'")&amp;"', ruby: '"&amp;F15&amp;"', baseType: '"&amp;VLOOKUP(H15,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I15,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J15&lt;&gt;"",", '"&amp; VLOOKUP(J15,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K15&lt;&gt;"", ", range: '"&amp;K15&amp;"'", "")&amp;IF(M15&lt;&gt;"", ", damage: '"&amp;M15&amp;"'", "")&amp;IF(O15&lt;&gt;"", ", capacity: '"&amp;O15&amp;"'", "")&amp;IF(P15&lt;&gt;"", ", cost: '"&amp;P15&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S15, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T15, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q15="○", ", sealable: true", "")&amp;IF(R15="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '01-yurina-o-s-4': {megami: 'yurina', name: '天音揺波の底力', nameEn: 'Yurina\'s Final Blow', ruby: 'あまねゆりなのそこぢから', baseType: 'special', types: ['attack', 'fullpower'], range: '1-4', damage: '5/5', cost: '5', text: '【常時】決死-あなたのライフが3以下でないと、このカードは使用できない。', textEn: 'Forced: Resolve - You can\'t play this card unless your Life is 3 or less.'}</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="24" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>709</v>
       </c>
@@ -4368,29 +4677,35 @@
         <v>758</v>
       </c>
       <c r="G16" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="I16" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="K16" s="4" t="s">
         <v>769</v>
       </c>
-      <c r="K16" s="13"/>
-      <c r="L16" s="2" t="s">
+      <c r="L16" s="13"/>
+      <c r="M16" s="2" t="s">
         <v>772</v>
       </c>
-      <c r="M16" s="13"/>
-      <c r="R16" s="5" t="s">
+      <c r="N16" s="13"/>
+      <c r="S16" s="5" t="s">
         <v>780</v>
       </c>
-      <c r="S16" s="13"/>
-      <c r="T16" s="3" t="str">
-        <f>", '"&amp;A16&amp;"': {megami: '"&amp;B16&amp;"'"&amp;IF(C16&lt;&gt;"", ", anotherID: '" &amp; C16 &amp; "', replace: '" &amp; D16 &amp; "'", "")&amp;", name: '"&amp;E16&amp;"', ruby: '"&amp;F16&amp;"', baseType: '"&amp;VLOOKUP(G16,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H16,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I16&lt;&gt;"",", '"&amp; VLOOKUP(I16,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J16&lt;&gt;"", ", range: '"&amp;J16&amp;"'", "")&amp;IF(L16&lt;&gt;"", ", damage: '"&amp;L16&amp;"'", "")&amp;IF(N16&lt;&gt;"", ", capacity: '"&amp;N16&amp;"'", "")&amp;IF(O16&lt;&gt;"", ", cost: '"&amp;O16&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R16, CHAR(10), "\n")&amp;"'"&amp;IF(P16="○", ", sealable: true", "")&amp;IF(Q16="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '02-saine-o-n-1': {megami: 'saine', name: '八方振り', ruby: 'はっぽうぶり', baseType: 'normal', types: ['attack'], range: '4-5', damage: '2/1', text: '【攻撃後】八相-あなたのオーラが0ならば、攻撃『適正距離4-5、2/1』を行う。'}</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="T16" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="U16" s="13"/>
+      <c r="V16" s="3" t="str">
+        <f>", '"&amp;A16&amp;"': {megami: '"&amp;B16&amp;"'"&amp;IF(C16&lt;&gt;"", ", anotherID: '" &amp; C16 &amp; "', replace: '" &amp; D16 &amp; "'", "")&amp;", name: '"&amp;E16&amp;"', nameEn: '"&amp;SUBSTITUTE(G16, "'", "\'")&amp;"', ruby: '"&amp;F16&amp;"', baseType: '"&amp;VLOOKUP(H16,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I16,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J16&lt;&gt;"",", '"&amp; VLOOKUP(J16,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K16&lt;&gt;"", ", range: '"&amp;K16&amp;"'", "")&amp;IF(M16&lt;&gt;"", ", damage: '"&amp;M16&amp;"'", "")&amp;IF(O16&lt;&gt;"", ", capacity: '"&amp;O16&amp;"'", "")&amp;IF(P16&lt;&gt;"", ", cost: '"&amp;P16&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S16, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T16, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q16="○", ", sealable: true", "")&amp;IF(R16="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '02-saine-o-n-1': {megami: 'saine', name: '八方振り', nameEn: 'Swing Rush', ruby: 'はっぽうぶり', baseType: 'normal', types: ['attack'], range: '4-5', damage: '2/1', text: '【攻撃後】八相-あなたのオーラが0ならば、攻撃『適正距離4-5、2/1』を行う。', textEn: 'After Attack: Idea - You attack with "Range: 4-5, Damage: 2/1" if you have no Sakura tokens on your Aura.'}</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>711</v>
       </c>
@@ -4404,30 +4719,34 @@
         <v>759</v>
       </c>
       <c r="G17" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="I17" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="J17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="K17" s="4" t="s">
         <v>770</v>
       </c>
-      <c r="K17" s="13"/>
-      <c r="L17" s="2" t="s">
+      <c r="L17" s="13"/>
+      <c r="M17" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="M17" s="13"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="3" t="str">
-        <f>", '"&amp;A17&amp;"': {megami: '"&amp;B17&amp;"'"&amp;IF(C17&lt;&gt;"", ", anotherID: '" &amp; C17 &amp; "', replace: '" &amp; D17 &amp; "'", "")&amp;", name: '"&amp;E17&amp;"', ruby: '"&amp;F17&amp;"', baseType: '"&amp;VLOOKUP(G17,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H17,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I17&lt;&gt;"",", '"&amp; VLOOKUP(I17,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J17&lt;&gt;"", ", range: '"&amp;J17&amp;"'", "")&amp;IF(L17&lt;&gt;"", ", damage: '"&amp;L17&amp;"'", "")&amp;IF(N17&lt;&gt;"", ", capacity: '"&amp;N17&amp;"'", "")&amp;IF(O17&lt;&gt;"", ", cost: '"&amp;O17&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R17, CHAR(10), "\n")&amp;"'"&amp;IF(P17="○", ", sealable: true", "")&amp;IF(Q17="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '02-saine-o-n-2': {megami: 'saine', name: '薙斬り', ruby: 'なぎぎり', baseType: 'normal', types: ['attack', 'reaction'], range: '4-5', damage: '3/1', text: ''}</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+      <c r="N17" s="13"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="3" t="str">
+        <f>", '"&amp;A17&amp;"': {megami: '"&amp;B17&amp;"'"&amp;IF(C17&lt;&gt;"", ", anotherID: '" &amp; C17 &amp; "', replace: '" &amp; D17 &amp; "'", "")&amp;", name: '"&amp;E17&amp;"', nameEn: '"&amp;SUBSTITUTE(G17, "'", "\'")&amp;"', ruby: '"&amp;F17&amp;"', baseType: '"&amp;VLOOKUP(H17,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I17,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J17&lt;&gt;"",", '"&amp; VLOOKUP(J17,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K17&lt;&gt;"", ", range: '"&amp;K17&amp;"'", "")&amp;IF(M17&lt;&gt;"", ", damage: '"&amp;M17&amp;"'", "")&amp;IF(O17&lt;&gt;"", ", capacity: '"&amp;O17&amp;"'", "")&amp;IF(P17&lt;&gt;"", ", cost: '"&amp;P17&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S17, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T17, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q17="○", ", sealable: true", "")&amp;IF(R17="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '02-saine-o-n-2': {megami: 'saine', name: '薙斬り', nameEn: 'Cut Down', ruby: 'なぎぎり', baseType: 'normal', types: ['attack', 'reaction'], range: '4-5', damage: '3/1', text: '', textEn: ''}</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="24" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>712</v>
       </c>
@@ -4441,32 +4760,38 @@
         <v>760</v>
       </c>
       <c r="G18" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="I18" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="J18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="K18" s="4" t="s">
         <v>771</v>
       </c>
-      <c r="K18" s="13"/>
-      <c r="L18" s="2" t="s">
+      <c r="L18" s="13"/>
+      <c r="M18" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="M18" s="13"/>
-      <c r="R18" s="5" t="s">
+      <c r="N18" s="13"/>
+      <c r="S18" s="5" t="s">
         <v>775</v>
       </c>
-      <c r="S18" s="13"/>
-      <c r="T18" s="3" t="str">
-        <f>", '"&amp;A18&amp;"': {megami: '"&amp;B18&amp;"'"&amp;IF(C18&lt;&gt;"", ", anotherID: '" &amp; C18 &amp; "', replace: '" &amp; D18 &amp; "'", "")&amp;", name: '"&amp;E18&amp;"', ruby: '"&amp;F18&amp;"', baseType: '"&amp;VLOOKUP(G18,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H18,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I18&lt;&gt;"",", '"&amp; VLOOKUP(I18,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J18&lt;&gt;"", ", range: '"&amp;J18&amp;"'", "")&amp;IF(L18&lt;&gt;"", ", damage: '"&amp;L18&amp;"'", "")&amp;IF(N18&lt;&gt;"", ", capacity: '"&amp;N18&amp;"'", "")&amp;IF(O18&lt;&gt;"", ", cost: '"&amp;O18&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R18, CHAR(10), "\n")&amp;"'"&amp;IF(P18="○", ", sealable: true", "")&amp;IF(Q18="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '02-saine-o-n-3': {megami: 'saine', name: '返し刃', ruby: 'かえしやいば', baseType: 'normal', types: ['attack', 'reaction'], range: '3-5', damage: '1/1', text: '【攻撃後】このカードを対応で使用したならば、攻撃『適正距離3-5、2/1、対応不可』を行う。'}</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+      <c r="T18" s="5" t="s">
+        <v>858</v>
+      </c>
+      <c r="U18" s="13"/>
+      <c r="V18" s="3" t="str">
+        <f>", '"&amp;A18&amp;"': {megami: '"&amp;B18&amp;"'"&amp;IF(C18&lt;&gt;"", ", anotherID: '" &amp; C18 &amp; "', replace: '" &amp; D18 &amp; "'", "")&amp;", name: '"&amp;E18&amp;"', nameEn: '"&amp;SUBSTITUTE(G18, "'", "\'")&amp;"', ruby: '"&amp;F18&amp;"', baseType: '"&amp;VLOOKUP(H18,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I18,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J18&lt;&gt;"",", '"&amp; VLOOKUP(J18,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K18&lt;&gt;"", ", range: '"&amp;K18&amp;"'", "")&amp;IF(M18&lt;&gt;"", ", damage: '"&amp;M18&amp;"'", "")&amp;IF(O18&lt;&gt;"", ", capacity: '"&amp;O18&amp;"'", "")&amp;IF(P18&lt;&gt;"", ", cost: '"&amp;P18&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S18, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T18, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q18="○", ", sealable: true", "")&amp;IF(R18="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '02-saine-o-n-3': {megami: 'saine', name: '返し刃', nameEn: 'Cut In', ruby: 'かえしやいば', baseType: 'normal', types: ['attack', 'reaction'], range: '3-5', damage: '1/1', text: '【攻撃後】このカードを対応で使用したならば、攻撃『適正距離3-5、2/1、対応不可』を行う。', textEn: 'After Attack: If this card was played as a Reaction, you attack with "Range: 3-5, Damage: 2/1, No Reactions".'}</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="36" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>620</v>
       </c>
@@ -4486,26 +4811,32 @@
         <v>614</v>
       </c>
       <c r="G19" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="I19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="J19" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="R19" s="5" t="s">
+      <c r="L19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="S19" s="5" t="s">
         <v>798</v>
       </c>
-      <c r="S19" s="13"/>
-      <c r="T19" s="3" t="str">
-        <f>", '"&amp;A19&amp;"': {megami: '"&amp;B19&amp;"'"&amp;IF(C19&lt;&gt;"", ", anotherID: '" &amp; C19 &amp; "', replace: '" &amp; D19 &amp; "'", "")&amp;", name: '"&amp;E19&amp;"', ruby: '"&amp;F19&amp;"', baseType: '"&amp;VLOOKUP(G19,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H19,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I19&lt;&gt;"",", '"&amp; VLOOKUP(I19,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J19&lt;&gt;"", ", range: '"&amp;J19&amp;"'", "")&amp;IF(L19&lt;&gt;"", ", damage: '"&amp;L19&amp;"'", "")&amp;IF(N19&lt;&gt;"", ", capacity: '"&amp;N19&amp;"'", "")&amp;IF(O19&lt;&gt;"", ", cost: '"&amp;O19&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R19, CHAR(10), "\n")&amp;"'"&amp;IF(P19="○", ", sealable: true", "")&amp;IF(Q19="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '02-saine-A1-n-3': {megami: 'saine', anotherID: 'A1', replace: '02-saine-o-n-3', name: '氷の音', ruby: 'ひのね', baseType: 'normal', types: ['action', 'reaction'], text: '相オーラ→ダスト：1\nこのカードを対応で使用したならば、さらに\n相オーラ→ダスト：1'}</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+      <c r="T19" s="5" t="s">
+        <v>865</v>
+      </c>
+      <c r="U19" s="13"/>
+      <c r="V19" s="3" t="str">
+        <f>", '"&amp;A19&amp;"': {megami: '"&amp;B19&amp;"'"&amp;IF(C19&lt;&gt;"", ", anotherID: '" &amp; C19 &amp; "', replace: '" &amp; D19 &amp; "'", "")&amp;", name: '"&amp;E19&amp;"', nameEn: '"&amp;SUBSTITUTE(G19, "'", "\'")&amp;"', ruby: '"&amp;F19&amp;"', baseType: '"&amp;VLOOKUP(H19,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I19,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J19&lt;&gt;"",", '"&amp; VLOOKUP(J19,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K19&lt;&gt;"", ", range: '"&amp;K19&amp;"'", "")&amp;IF(M19&lt;&gt;"", ", damage: '"&amp;M19&amp;"'", "")&amp;IF(O19&lt;&gt;"", ", capacity: '"&amp;O19&amp;"'", "")&amp;IF(P19&lt;&gt;"", ", cost: '"&amp;P19&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S19, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T19, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q19="○", ", sealable: true", "")&amp;IF(R19="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '02-saine-A1-n-3': {megami: 'saine', anotherID: 'A1', replace: '02-saine-o-n-3', name: '氷の音', nameEn: 'Sound of Ice', ruby: 'ひのね', baseType: 'normal', types: ['action', 'reaction'], text: '相オーラ→ダスト：1\nこのカードを対応で使用したならば、さらに\n相オーラ→ダスト：1', textEn: 'Opponent\'s Aura (1)→ Shadow\nIf this card was played as a Reaction:\nOpponent\'s Aura (1)→ Shadow (again)'}</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="48" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>713</v>
       </c>
@@ -4519,23 +4850,29 @@
         <v>761</v>
       </c>
       <c r="G20" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="I20" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="R20" s="5" t="s">
+      <c r="L20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="S20" s="5" t="s">
         <v>797</v>
       </c>
-      <c r="S20" s="13"/>
-      <c r="T20" s="3" t="str">
-        <f>", '"&amp;A20&amp;"': {megami: '"&amp;B20&amp;"'"&amp;IF(C20&lt;&gt;"", ", anotherID: '" &amp; C20 &amp; "', replace: '" &amp; D20 &amp; "'", "")&amp;", name: '"&amp;E20&amp;"', ruby: '"&amp;F20&amp;"', baseType: '"&amp;VLOOKUP(G20,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H20,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I20&lt;&gt;"",", '"&amp; VLOOKUP(I20,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J20&lt;&gt;"", ", range: '"&amp;J20&amp;"'", "")&amp;IF(L20&lt;&gt;"", ", damage: '"&amp;L20&amp;"'", "")&amp;IF(N20&lt;&gt;"", ", capacity: '"&amp;N20&amp;"'", "")&amp;IF(O20&lt;&gt;"", ", cost: '"&amp;O20&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R20, CHAR(10), "\n")&amp;"'"&amp;IF(P20="○", ", sealable: true", "")&amp;IF(Q20="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '02-saine-o-n-4': {megami: 'saine', name: '見切り', ruby: 'みきり', baseType: 'normal', types: ['action'], text: '【常時】八相-あなたのオーラが0ならば、このカードを《対応》を持つかのように相手の《攻撃》に割り込んで使用できる。\n間合⇔ダスト：1'}</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+      <c r="T20" s="5" t="s">
+        <v>859</v>
+      </c>
+      <c r="U20" s="13"/>
+      <c r="V20" s="3" t="str">
+        <f>", '"&amp;A20&amp;"': {megami: '"&amp;B20&amp;"'"&amp;IF(C20&lt;&gt;"", ", anotherID: '" &amp; C20 &amp; "', replace: '" &amp; D20 &amp; "'", "")&amp;", name: '"&amp;E20&amp;"', nameEn: '"&amp;SUBSTITUTE(G20, "'", "\'")&amp;"', ruby: '"&amp;F20&amp;"', baseType: '"&amp;VLOOKUP(H20,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I20,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J20&lt;&gt;"",", '"&amp; VLOOKUP(J20,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K20&lt;&gt;"", ", range: '"&amp;K20&amp;"'", "")&amp;IF(M20&lt;&gt;"", ", damage: '"&amp;M20&amp;"'", "")&amp;IF(O20&lt;&gt;"", ", capacity: '"&amp;O20&amp;"'", "")&amp;IF(P20&lt;&gt;"", ", cost: '"&amp;P20&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S20, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T20, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q20="○", ", sealable: true", "")&amp;IF(R20="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '02-saine-o-n-4': {megami: 'saine', name: '見切り', nameEn: 'Outclass', ruby: 'みきり', baseType: 'normal', types: ['action'], text: '【常時】八相-あなたのオーラが0ならば、このカードを《対応》を持つかのように相手の《攻撃》に割り込んで使用できる。\n間合⇔ダスト：1', textEn: 'Forced: Idea - You may play this card as if it were a Reaction if you have no Sakura tokens on your Aura.\n\nDistance (1)⇔ Shadow'}</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="36" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>714</v>
       </c>
@@ -4549,26 +4886,32 @@
         <v>762</v>
       </c>
       <c r="G21" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="I21" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="4" t="s">
+      <c r="L21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="4" t="s">
         <v>735</v>
       </c>
-      <c r="R21" s="5" t="s">
+      <c r="S21" s="5" t="s">
         <v>799</v>
       </c>
-      <c r="S21" s="13"/>
-      <c r="T21" s="3" t="str">
-        <f>", '"&amp;A21&amp;"': {megami: '"&amp;B21&amp;"'"&amp;IF(C21&lt;&gt;"", ", anotherID: '" &amp; C21 &amp; "', replace: '" &amp; D21 &amp; "'", "")&amp;", name: '"&amp;E21&amp;"', ruby: '"&amp;F21&amp;"', baseType: '"&amp;VLOOKUP(G21,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H21,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I21&lt;&gt;"",", '"&amp; VLOOKUP(I21,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J21&lt;&gt;"", ", range: '"&amp;J21&amp;"'", "")&amp;IF(L21&lt;&gt;"", ", damage: '"&amp;L21&amp;"'", "")&amp;IF(N21&lt;&gt;"", ", capacity: '"&amp;N21&amp;"'", "")&amp;IF(O21&lt;&gt;"", ", cost: '"&amp;O21&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R21, CHAR(10), "\n")&amp;"'"&amp;IF(P21="○", ", sealable: true", "")&amp;IF(Q21="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '02-saine-o-n-5': {megami: 'saine', name: '圏域', ruby: 'けんいき', baseType: 'normal', types: ['enhance'], capacity: '3', text: '【展開時】ダスト→間合：1\n【展開中】達人の間合は2大きくなる。'}</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+      <c r="T21" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="U21" s="13"/>
+      <c r="V21" s="3" t="str">
+        <f>", '"&amp;A21&amp;"': {megami: '"&amp;B21&amp;"'"&amp;IF(C21&lt;&gt;"", ", anotherID: '" &amp; C21 &amp; "', replace: '" &amp; D21 &amp; "'", "")&amp;", name: '"&amp;E21&amp;"', nameEn: '"&amp;SUBSTITUTE(G21, "'", "\'")&amp;"', ruby: '"&amp;F21&amp;"', baseType: '"&amp;VLOOKUP(H21,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I21,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J21&lt;&gt;"",", '"&amp; VLOOKUP(J21,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K21&lt;&gt;"", ", range: '"&amp;K21&amp;"'", "")&amp;IF(M21&lt;&gt;"", ", damage: '"&amp;M21&amp;"'", "")&amp;IF(O21&lt;&gt;"", ", capacity: '"&amp;O21&amp;"'", "")&amp;IF(P21&lt;&gt;"", ", cost: '"&amp;P21&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S21, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T21, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q21="○", ", sealable: true", "")&amp;IF(R21="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '02-saine-o-n-5': {megami: 'saine', name: '圏域', nameEn: 'Space for Master', ruby: 'けんいき', baseType: 'normal', types: ['enhance'], capacity: '3', text: '【展開時】ダスト→間合：1\n【展開中】達人の間合は2大きくなる。', textEn: 'Initialize: Shadow (1)→ Distance.\n\nOngoing: Increase the size of the Mastery Zone by 2.'}</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="36" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>715</v>
       </c>
@@ -4582,29 +4925,35 @@
         <v>763</v>
       </c>
       <c r="G22" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="H22" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="I22" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="J22" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="4" t="s">
+      <c r="L22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="4" t="s">
         <v>776</v>
       </c>
-      <c r="R22" s="5" t="s">
+      <c r="S22" s="5" t="s">
         <v>800</v>
       </c>
-      <c r="S22" s="13"/>
-      <c r="T22" s="3" t="str">
-        <f>", '"&amp;A22&amp;"': {megami: '"&amp;B22&amp;"'"&amp;IF(C22&lt;&gt;"", ", anotherID: '" &amp; C22 &amp; "', replace: '" &amp; D22 &amp; "'", "")&amp;", name: '"&amp;E22&amp;"', ruby: '"&amp;F22&amp;"', baseType: '"&amp;VLOOKUP(G22,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H22,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I22&lt;&gt;"",", '"&amp; VLOOKUP(I22,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J22&lt;&gt;"", ", range: '"&amp;J22&amp;"'", "")&amp;IF(L22&lt;&gt;"", ", damage: '"&amp;L22&amp;"'", "")&amp;IF(N22&lt;&gt;"", ", capacity: '"&amp;N22&amp;"'", "")&amp;IF(O22&lt;&gt;"", ", cost: '"&amp;O22&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R22, CHAR(10), "\n")&amp;"'"&amp;IF(P22="○", ", sealable: true", "")&amp;IF(Q22="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '02-saine-o-n-6': {megami: 'saine', name: '衝音晶', ruby: 'しょうおんしょう', baseType: 'normal', types: ['enhance', 'reaction'], capacity: '1', text: '【展開時】対応した《攻撃》は-1/+0となる。\n【破棄時】攻撃『適正距離0-10、1/-、対応不可』を行う。'}</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="48" x14ac:dyDescent="0.15">
+      <c r="T22" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="U22" s="13"/>
+      <c r="V22" s="3" t="str">
+        <f>", '"&amp;A22&amp;"': {megami: '"&amp;B22&amp;"'"&amp;IF(C22&lt;&gt;"", ", anotherID: '" &amp; C22 &amp; "', replace: '" &amp; D22 &amp; "'", "")&amp;", name: '"&amp;E22&amp;"', nameEn: '"&amp;SUBSTITUTE(G22, "'", "\'")&amp;"', ruby: '"&amp;F22&amp;"', baseType: '"&amp;VLOOKUP(H22,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I22,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J22&lt;&gt;"",", '"&amp; VLOOKUP(J22,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K22&lt;&gt;"", ", range: '"&amp;K22&amp;"'", "")&amp;IF(M22&lt;&gt;"", ", damage: '"&amp;M22&amp;"'", "")&amp;IF(O22&lt;&gt;"", ", capacity: '"&amp;O22&amp;"'", "")&amp;IF(P22&lt;&gt;"", ", cost: '"&amp;P22&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S22, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T22, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q22="○", ", sealable: true", "")&amp;IF(R22="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '02-saine-o-n-6': {megami: 'saine', name: '衝音晶', nameEn: 'Wavering Crystal', ruby: 'しょうおんしょう', baseType: 'normal', types: ['enhance', 'reaction'], capacity: '1', text: '【展開時】対応した《攻撃》は-1/+0となる。\n【破棄時】攻撃『適正距離0-10、1/-、対応不可』を行う。', textEn: 'Initialize: The attack you played this card as a Reaction to gets -1/+0.\n\nDisenchant: You attack with "Range: 0-10, Damage: 1/-, No Reactions".'}</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="60" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>619</v>
       </c>
@@ -4624,26 +4973,32 @@
         <v>615</v>
       </c>
       <c r="G23" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="I23" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="4" t="s">
+      <c r="L23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="R23" s="5" t="s">
+      <c r="S23" s="5" t="s">
         <v>801</v>
       </c>
-      <c r="S23" s="13"/>
-      <c r="T23" s="3" t="str">
-        <f>", '"&amp;A23&amp;"': {megami: '"&amp;B23&amp;"'"&amp;IF(C23&lt;&gt;"", ", anotherID: '" &amp; C23 &amp; "', replace: '" &amp; D23 &amp; "'", "")&amp;", name: '"&amp;E23&amp;"', ruby: '"&amp;F23&amp;"', baseType: '"&amp;VLOOKUP(G23,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H23,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I23&lt;&gt;"",", '"&amp; VLOOKUP(I23,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J23&lt;&gt;"", ", range: '"&amp;J23&amp;"'", "")&amp;IF(L23&lt;&gt;"", ", damage: '"&amp;L23&amp;"'", "")&amp;IF(N23&lt;&gt;"", ", capacity: '"&amp;N23&amp;"'", "")&amp;IF(O23&lt;&gt;"", ", cost: '"&amp;O23&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R23, CHAR(10), "\n")&amp;"'"&amp;IF(P23="○", ", sealable: true", "")&amp;IF(Q23="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '02-saine-A1-n-6': {megami: 'saine', anotherID: 'A1', replace: '02-saine-o-n-6', name: '伴奏', ruby: 'ばんそう', baseType: 'normal', types: ['enhance'], capacity: '4', text: '【展開中】あなたの他のメガミの切札が1枚以上使用済ならば、各ターンの最初の相手の《攻撃》は-1/+0となる。\n【展開中】あなたのサイネの切札が1枚以上使用済ならば、各ターンにあなたが最初に使用する切札の消費は1少なくなる(0未満にはならない)。'}</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+      <c r="T23" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="U23" s="13"/>
+      <c r="V23" s="3" t="str">
+        <f>", '"&amp;A23&amp;"': {megami: '"&amp;B23&amp;"'"&amp;IF(C23&lt;&gt;"", ", anotherID: '" &amp; C23 &amp; "', replace: '" &amp; D23 &amp; "'", "")&amp;", name: '"&amp;E23&amp;"', nameEn: '"&amp;SUBSTITUTE(G23, "'", "\'")&amp;"', ruby: '"&amp;F23&amp;"', baseType: '"&amp;VLOOKUP(H23,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I23,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J23&lt;&gt;"",", '"&amp; VLOOKUP(J23,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K23&lt;&gt;"", ", range: '"&amp;K23&amp;"'", "")&amp;IF(M23&lt;&gt;"", ", damage: '"&amp;M23&amp;"'", "")&amp;IF(O23&lt;&gt;"", ", capacity: '"&amp;O23&amp;"'", "")&amp;IF(P23&lt;&gt;"", ", cost: '"&amp;P23&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S23, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T23, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q23="○", ", sealable: true", "")&amp;IF(R23="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '02-saine-A1-n-6': {megami: 'saine', anotherID: 'A1', replace: '02-saine-o-n-6', name: '伴奏', nameEn: 'Accompaniment', ruby: 'ばんそう', baseType: 'normal', types: ['enhance'], capacity: '4', text: '【展開中】あなたの他のメガミの切札が1枚以上使用済ならば、各ターンの最初の相手の《攻撃》は-1/+0となる。\n【展開中】あなたのサイネの切札が1枚以上使用済ならば、各ターンにあなたが最初に使用する切札の消費は1少なくなる(0未満にはならない)。', textEn: 'Ongoing: If at least one of your other Megami\'s Special cards is Devoted, the first attack your opponent makes each turn gets -1/+0.\n\nOngoing: If at least one of your Saine\'s Special cards is Devoted, the first Special you play each turn costs 1 less to play.'}</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="24" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>716</v>
       </c>
@@ -4657,29 +5012,35 @@
         <v>764</v>
       </c>
       <c r="G24" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="H24" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="I24" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="J24" s="4" t="s">
         <v>684</v>
       </c>
-      <c r="K24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="4" t="s">
+      <c r="L24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="4" t="s">
         <v>733</v>
       </c>
-      <c r="R24" s="5" t="s">
+      <c r="S24" s="5" t="s">
         <v>802</v>
       </c>
-      <c r="S24" s="13"/>
-      <c r="T24" s="3" t="str">
-        <f>", '"&amp;A24&amp;"': {megami: '"&amp;B24&amp;"'"&amp;IF(C24&lt;&gt;"", ", anotherID: '" &amp; C24 &amp; "', replace: '" &amp; D24 &amp; "'", "")&amp;", name: '"&amp;E24&amp;"', ruby: '"&amp;F24&amp;"', baseType: '"&amp;VLOOKUP(G24,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H24,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I24&lt;&gt;"",", '"&amp; VLOOKUP(I24,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J24&lt;&gt;"", ", range: '"&amp;J24&amp;"'", "")&amp;IF(L24&lt;&gt;"", ", damage: '"&amp;L24&amp;"'", "")&amp;IF(N24&lt;&gt;"", ", capacity: '"&amp;N24&amp;"'", "")&amp;IF(O24&lt;&gt;"", ", cost: '"&amp;O24&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R24, CHAR(10), "\n")&amp;"'"&amp;IF(P24="○", ", sealable: true", "")&amp;IF(Q24="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '02-saine-o-n-7': {megami: 'saine', name: '無音壁', ruby: 'むおんへき', baseType: 'normal', types: ['enhance', 'fullpower'], capacity: '5', text: '【展開中】あなたへのダメージを解決するに際し、このカードの上に置かれた桜花結晶をあなたのオーラにあるかのように扱う。'}</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+      <c r="T24" s="5" t="s">
+        <v>862</v>
+      </c>
+      <c r="U24" s="13"/>
+      <c r="V24" s="3" t="str">
+        <f>", '"&amp;A24&amp;"': {megami: '"&amp;B24&amp;"'"&amp;IF(C24&lt;&gt;"", ", anotherID: '" &amp; C24 &amp; "', replace: '" &amp; D24 &amp; "'", "")&amp;", name: '"&amp;E24&amp;"', nameEn: '"&amp;SUBSTITUTE(G24, "'", "\'")&amp;"', ruby: '"&amp;F24&amp;"', baseType: '"&amp;VLOOKUP(H24,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I24,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J24&lt;&gt;"",", '"&amp; VLOOKUP(J24,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K24&lt;&gt;"", ", range: '"&amp;K24&amp;"'", "")&amp;IF(M24&lt;&gt;"", ", damage: '"&amp;M24&amp;"'", "")&amp;IF(O24&lt;&gt;"", ", capacity: '"&amp;O24&amp;"'", "")&amp;IF(P24&lt;&gt;"", ", cost: '"&amp;P24&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S24, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T24, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q24="○", ", sealable: true", "")&amp;IF(R24="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '02-saine-o-n-7': {megami: 'saine', name: '無音壁', nameEn: 'Silent Wall', ruby: 'むおんへき', baseType: 'normal', types: ['enhance', 'fullpower'], capacity: '5', text: '【展開中】あなたへのダメージを解決するに際し、このカードの上に置かれた桜花結晶をあなたのオーラにあるかのように扱う。', textEn: 'Ongoing: Treat Sakura tokens on this card as if they were on your Aura whenever you are dealt damage.'}</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="60" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>722</v>
       </c>
@@ -4693,26 +5054,32 @@
         <v>765</v>
       </c>
       <c r="G25" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="H25" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="I25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="O25" s="4" t="s">
+      <c r="L25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="P25" s="4" t="s">
         <v>731</v>
       </c>
-      <c r="R25" s="5" t="s">
+      <c r="S25" s="5" t="s">
         <v>803</v>
       </c>
-      <c r="S25" s="13"/>
-      <c r="T25" s="3" t="str">
-        <f>", '"&amp;A25&amp;"': {megami: '"&amp;B25&amp;"'"&amp;IF(C25&lt;&gt;"", ", anotherID: '" &amp; C25 &amp; "', replace: '" &amp; D25 &amp; "'", "")&amp;", name: '"&amp;E25&amp;"', ruby: '"&amp;F25&amp;"', baseType: '"&amp;VLOOKUP(G25,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H25,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I25&lt;&gt;"",", '"&amp; VLOOKUP(I25,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J25&lt;&gt;"", ", range: '"&amp;J25&amp;"'", "")&amp;IF(L25&lt;&gt;"", ", damage: '"&amp;L25&amp;"'", "")&amp;IF(N25&lt;&gt;"", ", capacity: '"&amp;N25&amp;"'", "")&amp;IF(O25&lt;&gt;"", ", cost: '"&amp;O25&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R25, CHAR(10), "\n")&amp;"'"&amp;IF(P25="○", ", sealable: true", "")&amp;IF(Q25="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '02-saine-o-s-1': {megami: 'saine', name: '律動弧戟', ruby: 'りつどうこげき', baseType: 'special', types: ['action'], cost: '6', text: '攻撃『適正距離3-4、1/1』を行う。\n攻撃『適正距離4-5、1/1』を行う。\n攻撃『適正距離3-5、2/2』を行う。'}</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+      <c r="T25" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="U25" s="13"/>
+      <c r="V25" s="3" t="str">
+        <f>", '"&amp;A25&amp;"': {megami: '"&amp;B25&amp;"'"&amp;IF(C25&lt;&gt;"", ", anotherID: '" &amp; C25 &amp; "', replace: '" &amp; D25 &amp; "'", "")&amp;", name: '"&amp;E25&amp;"', nameEn: '"&amp;SUBSTITUTE(G25, "'", "\'")&amp;"', ruby: '"&amp;F25&amp;"', baseType: '"&amp;VLOOKUP(H25,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I25,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J25&lt;&gt;"",", '"&amp; VLOOKUP(J25,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K25&lt;&gt;"", ", range: '"&amp;K25&amp;"'", "")&amp;IF(M25&lt;&gt;"", ", damage: '"&amp;M25&amp;"'", "")&amp;IF(O25&lt;&gt;"", ", capacity: '"&amp;O25&amp;"'", "")&amp;IF(P25&lt;&gt;"", ", cost: '"&amp;P25&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S25, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T25, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q25="○", ", sealable: true", "")&amp;IF(R25="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '02-saine-o-s-1': {megami: 'saine', name: '律動弧戟', nameEn: 'Rhythmic Arc', ruby: 'りつどうこげき', baseType: 'special', types: ['action'], cost: '6', text: '攻撃『適正距離3-4、1/1』を行う。\n攻撃『適正距離4-5、1/1』を行う。\n攻撃『適正距離3-5、2/2』を行う。', textEn: 'You attack with\n"Range: 3-4, Damage: 1/1", \n"Range: 4-5, Damage: 1/1", and \n"Range: 3-5, Damage: 2/2" \nin this order.'}</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="36" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>723</v>
       </c>
@@ -4726,26 +5093,32 @@
         <v>766</v>
       </c>
       <c r="G26" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="H26" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="I26" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="O26" s="4" t="s">
+      <c r="L26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="P26" s="4" t="s">
         <v>732</v>
       </c>
-      <c r="R26" s="5" t="s">
+      <c r="S26" s="5" t="s">
         <v>804</v>
       </c>
-      <c r="S26" s="13"/>
-      <c r="T26" s="3" t="str">
-        <f>", '"&amp;A26&amp;"': {megami: '"&amp;B26&amp;"'"&amp;IF(C26&lt;&gt;"", ", anotherID: '" &amp; C26 &amp; "', replace: '" &amp; D26 &amp; "'", "")&amp;", name: '"&amp;E26&amp;"', ruby: '"&amp;F26&amp;"', baseType: '"&amp;VLOOKUP(G26,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H26,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I26&lt;&gt;"",", '"&amp; VLOOKUP(I26,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J26&lt;&gt;"", ", range: '"&amp;J26&amp;"'", "")&amp;IF(L26&lt;&gt;"", ", damage: '"&amp;L26&amp;"'", "")&amp;IF(N26&lt;&gt;"", ", capacity: '"&amp;N26&amp;"'", "")&amp;IF(O26&lt;&gt;"", ", cost: '"&amp;O26&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R26, CHAR(10), "\n")&amp;"'"&amp;IF(P26="○", ", sealable: true", "")&amp;IF(Q26="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '02-saine-o-s-2': {megami: 'saine', name: '響鳴共振', ruby: 'きょうめいきょうしん', baseType: 'special', types: ['action'], cost: '8', text: '【常時】このカードの消費は相手のオーラの数だけ少なくなる。\n相オーラ→間合：2'}</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" ht="48" x14ac:dyDescent="0.15">
+      <c r="T26" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="U26" s="13"/>
+      <c r="V26" s="3" t="str">
+        <f>", '"&amp;A26&amp;"': {megami: '"&amp;B26&amp;"'"&amp;IF(C26&lt;&gt;"", ", anotherID: '" &amp; C26 &amp; "', replace: '" &amp; D26 &amp; "'", "")&amp;", name: '"&amp;E26&amp;"', nameEn: '"&amp;SUBSTITUTE(G26, "'", "\'")&amp;"', ruby: '"&amp;F26&amp;"', baseType: '"&amp;VLOOKUP(H26,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I26,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J26&lt;&gt;"",", '"&amp; VLOOKUP(J26,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K26&lt;&gt;"", ", range: '"&amp;K26&amp;"'", "")&amp;IF(M26&lt;&gt;"", ", damage: '"&amp;M26&amp;"'", "")&amp;IF(O26&lt;&gt;"", ", capacity: '"&amp;O26&amp;"'", "")&amp;IF(P26&lt;&gt;"", ", cost: '"&amp;P26&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S26, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T26, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q26="○", ", sealable: true", "")&amp;IF(R26="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '02-saine-o-s-2': {megami: 'saine', name: '響鳴共振', nameEn: 'Resonant Beat', ruby: 'きょうめいきょうしん', baseType: 'special', types: ['action'], cost: '8', text: '【常時】このカードの消費は相手のオーラの数だけ少なくなる。\n相オーラ→間合：2', textEn: 'Forced: This card costs 1 less for each Sakura token on your opponent\'s Aura.\nOpponent\'s Aura (2)→ Distance'}</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="72" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>618</v>
       </c>
@@ -4765,26 +5138,32 @@
         <v>613</v>
       </c>
       <c r="G27" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="H27" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="I27" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="O27" s="4" t="s">
+      <c r="L27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="P27" s="4" t="s">
         <v>617</v>
       </c>
-      <c r="R27" s="5" t="s">
+      <c r="S27" s="5" t="s">
         <v>805</v>
       </c>
-      <c r="S27" s="13"/>
-      <c r="T27" s="3" t="str">
-        <f>", '"&amp;A27&amp;"': {megami: '"&amp;B27&amp;"'"&amp;IF(C27&lt;&gt;"", ", anotherID: '" &amp; C27 &amp; "', replace: '" &amp; D27 &amp; "'", "")&amp;", name: '"&amp;E27&amp;"', ruby: '"&amp;F27&amp;"', baseType: '"&amp;VLOOKUP(G27,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H27,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I27&lt;&gt;"",", '"&amp; VLOOKUP(I27,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J27&lt;&gt;"", ", range: '"&amp;J27&amp;"'", "")&amp;IF(L27&lt;&gt;"", ", damage: '"&amp;L27&amp;"'", "")&amp;IF(N27&lt;&gt;"", ", capacity: '"&amp;N27&amp;"'", "")&amp;IF(O27&lt;&gt;"", ", cost: '"&amp;O27&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R27, CHAR(10), "\n")&amp;"'"&amp;IF(P27="○", ", sealable: true", "")&amp;IF(Q27="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '02-saine-A1-s-2': {megami: 'saine', anotherID: 'A1', replace: '02-saine-o-s-2', name: '二重奏:弾奏氷瞑', ruby: 'にじゅうそう:だんそうひょうめい', baseType: 'special', types: ['action'], cost: '2', text: '現在のフェイズを終了する。\n【使用済】あなたの他のメガミによる《攻撃》は+0/+1となる。\n----\n【即再起】あなたが再構成以外でライフに1以上のダメージを受ける。'}</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+      <c r="T27" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="U27" s="13"/>
+      <c r="V27" s="3" t="str">
+        <f>", '"&amp;A27&amp;"': {megami: '"&amp;B27&amp;"'"&amp;IF(C27&lt;&gt;"", ", anotherID: '" &amp; C27 &amp; "', replace: '" &amp; D27 &amp; "'", "")&amp;", name: '"&amp;E27&amp;"', nameEn: '"&amp;SUBSTITUTE(G27, "'", "\'")&amp;"', ruby: '"&amp;F27&amp;"', baseType: '"&amp;VLOOKUP(H27,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I27,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J27&lt;&gt;"",", '"&amp; VLOOKUP(J27,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K27&lt;&gt;"", ", range: '"&amp;K27&amp;"'", "")&amp;IF(M27&lt;&gt;"", ", damage: '"&amp;M27&amp;"'", "")&amp;IF(O27&lt;&gt;"", ", capacity: '"&amp;O27&amp;"'", "")&amp;IF(P27&lt;&gt;"", ", cost: '"&amp;P27&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S27, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T27, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q27="○", ", sealable: true", "")&amp;IF(R27="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '02-saine-A1-s-2': {megami: 'saine', anotherID: 'A1', replace: '02-saine-o-s-2', name: '二重奏:弾奏氷瞑', nameEn: 'Duet: Chilling Tranquility', ruby: 'にじゅうそう:だんそうひょうめい', baseType: 'special', types: ['action'], cost: '2', text: '現在のフェイズを終了する。\n【使用済】あなたの他のメガミによる《攻撃》は+0/+1となる。\n----\n【即再起】あなたが再構成以外でライフに1以上のダメージを受ける。', textEn: 'End the current phase.\n\nDevoted: All your other Megami\'s attacks gain +0/+1.\n\nImmediate Resurgence: You take 1 or more damage to your Life, excluding reshuffle damage.'}</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="36" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
         <v>724</v>
       </c>
@@ -4798,35 +5177,41 @@
         <v>767</v>
       </c>
       <c r="G28" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="H28" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="I28" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="J28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J28" s="4" t="s">
+      <c r="K28" s="4" t="s">
         <v>777</v>
       </c>
-      <c r="K28" s="13"/>
-      <c r="L28" s="2" t="s">
+      <c r="L28" s="13"/>
+      <c r="M28" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="M28" s="13"/>
-      <c r="O28" s="4" t="s">
+      <c r="N28" s="13"/>
+      <c r="P28" s="4" t="s">
         <v>698</v>
       </c>
-      <c r="R28" s="5" t="s">
+      <c r="S28" s="5" t="s">
         <v>806</v>
       </c>
-      <c r="S28" s="13"/>
-      <c r="T28" s="3" t="str">
-        <f>", '"&amp;A28&amp;"': {megami: '"&amp;B28&amp;"'"&amp;IF(C28&lt;&gt;"", ", anotherID: '" &amp; C28 &amp; "', replace: '" &amp; D28 &amp; "'", "")&amp;", name: '"&amp;E28&amp;"', ruby: '"&amp;F28&amp;"', baseType: '"&amp;VLOOKUP(G28,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H28,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I28&lt;&gt;"",", '"&amp; VLOOKUP(I28,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J28&lt;&gt;"", ", range: '"&amp;J28&amp;"'", "")&amp;IF(L28&lt;&gt;"", ", damage: '"&amp;L28&amp;"'", "")&amp;IF(N28&lt;&gt;"", ", capacity: '"&amp;N28&amp;"'", "")&amp;IF(O28&lt;&gt;"", ", cost: '"&amp;O28&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R28, CHAR(10), "\n")&amp;"'"&amp;IF(P28="○", ", sealable: true", "")&amp;IF(Q28="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '02-saine-o-s-3': {megami: 'saine', name: '音無砕氷', ruby: 'おとなしさいひょう', baseType: 'special', types: ['attack', 'reaction'], range: '0-10', damage: '1/1', cost: '2', text: '対応した《攻撃》は-1/-1となる。\n----\n【再起】八相-あなたのオーラが0である。'}</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="T28" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="U28" s="13"/>
+      <c r="V28" s="3" t="str">
+        <f>", '"&amp;A28&amp;"': {megami: '"&amp;B28&amp;"'"&amp;IF(C28&lt;&gt;"", ", anotherID: '" &amp; C28 &amp; "', replace: '" &amp; D28 &amp; "'", "")&amp;", name: '"&amp;E28&amp;"', nameEn: '"&amp;SUBSTITUTE(G28, "'", "\'")&amp;"', ruby: '"&amp;F28&amp;"', baseType: '"&amp;VLOOKUP(H28,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I28,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J28&lt;&gt;"",", '"&amp; VLOOKUP(J28,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K28&lt;&gt;"", ", range: '"&amp;K28&amp;"'", "")&amp;IF(M28&lt;&gt;"", ", damage: '"&amp;M28&amp;"'", "")&amp;IF(O28&lt;&gt;"", ", capacity: '"&amp;O28&amp;"'", "")&amp;IF(P28&lt;&gt;"", ", cost: '"&amp;P28&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S28, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T28, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q28="○", ", sealable: true", "")&amp;IF(R28="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '02-saine-o-s-3': {megami: 'saine', name: '音無砕氷', nameEn: 'Silent Icebreaker', ruby: 'おとなしさいひょう', baseType: 'special', types: ['attack', 'reaction'], range: '0-10', damage: '1/1', cost: '2', text: '対応した《攻撃》は-1/-1となる。\n----\n【再起】八相-あなたのオーラが0である。', textEn: 'After Attack: The attack you played this card as a Reaction to gets -1/-1.\n\nResurgence: Idea - You have no Sakura tokens on your Aura.'}</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>725</v>
       </c>
@@ -4840,35 +5225,41 @@
         <v>768</v>
       </c>
       <c r="G29" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="H29" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="I29" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="J29" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J29" s="4" t="s">
+      <c r="K29" s="4" t="s">
         <v>778</v>
       </c>
-      <c r="K29" s="13"/>
-      <c r="L29" s="2" t="s">
+      <c r="L29" s="13"/>
+      <c r="M29" s="2" t="s">
         <v>779</v>
       </c>
-      <c r="M29" s="13"/>
-      <c r="O29" s="4" t="s">
+      <c r="N29" s="13"/>
+      <c r="P29" s="4" t="s">
         <v>733</v>
       </c>
-      <c r="R29" s="5" t="s">
+      <c r="S29" s="5" t="s">
         <v>807</v>
       </c>
-      <c r="S29" s="13"/>
-      <c r="T29" s="3" t="str">
-        <f>", '"&amp;A29&amp;"': {megami: '"&amp;B29&amp;"'"&amp;IF(C29&lt;&gt;"", ", anotherID: '" &amp; C29 &amp; "', replace: '" &amp; D29 &amp; "'", "")&amp;", name: '"&amp;E29&amp;"', ruby: '"&amp;F29&amp;"', baseType: '"&amp;VLOOKUP(G29,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H29,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I29&lt;&gt;"",", '"&amp; VLOOKUP(I29,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J29&lt;&gt;"", ", range: '"&amp;J29&amp;"'", "")&amp;IF(L29&lt;&gt;"", ", damage: '"&amp;L29&amp;"'", "")&amp;IF(N29&lt;&gt;"", ", capacity: '"&amp;N29&amp;"'", "")&amp;IF(O29&lt;&gt;"", ", cost: '"&amp;O29&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R29, CHAR(10), "\n")&amp;"'"&amp;IF(P29="○", ", sealable: true", "")&amp;IF(Q29="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '02-saine-o-s-4': {megami: 'saine', name: '氷雨細音の果ての果て', ruby: 'ひさめさいねのはてのはて', baseType: 'special', types: ['attack', 'reaction'], range: '1-5', damage: '5/5', cost: '5', text: '【常時】このカードは切札に対する対応でしか使用できない。'}</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="T29" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="U29" s="13"/>
+      <c r="V29" s="3" t="str">
+        <f>", '"&amp;A29&amp;"': {megami: '"&amp;B29&amp;"'"&amp;IF(C29&lt;&gt;"", ", anotherID: '" &amp; C29 &amp; "', replace: '" &amp; D29 &amp; "'", "")&amp;", name: '"&amp;E29&amp;"', nameEn: '"&amp;SUBSTITUTE(G29, "'", "\'")&amp;"', ruby: '"&amp;F29&amp;"', baseType: '"&amp;VLOOKUP(H29,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I29,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J29&lt;&gt;"",", '"&amp; VLOOKUP(J29,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K29&lt;&gt;"", ", range: '"&amp;K29&amp;"'", "")&amp;IF(M29&lt;&gt;"", ", damage: '"&amp;M29&amp;"'", "")&amp;IF(O29&lt;&gt;"", ", capacity: '"&amp;O29&amp;"'", "")&amp;IF(P29&lt;&gt;"", ", cost: '"&amp;P29&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S29, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T29, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q29="○", ", sealable: true", "")&amp;IF(R29="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '02-saine-o-s-4': {megami: 'saine', name: '氷雨細音の果ての果て', nameEn: 'Saine\'s Final Stage', ruby: 'ひさめさいねのはてのはて', baseType: 'special', types: ['attack', 'reaction'], range: '1-5', damage: '5/5', cost: '5', text: '【常時】このカードは切札に対する対応でしか使用できない。', textEn: 'Forced: This can only be played as a Reaction to a Special card.'}</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>710</v>
       </c>
@@ -4878,28 +5269,29 @@
       <c r="E30" s="4" t="s">
         <v>747</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="H30" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="I30" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="J30" s="4" t="s">
+      <c r="K30" s="4" t="s">
         <v>781</v>
       </c>
-      <c r="K30" s="13"/>
-      <c r="L30" s="2" t="s">
+      <c r="L30" s="13"/>
+      <c r="M30" s="2" t="s">
         <v>788</v>
       </c>
-      <c r="M30" s="13"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="13"/>
-      <c r="T30" s="3" t="str">
-        <f>", '"&amp;A30&amp;"': {megami: '"&amp;B30&amp;"'"&amp;IF(C30&lt;&gt;"", ", anotherID: '" &amp; C30 &amp; "', replace: '" &amp; D30 &amp; "'", "")&amp;", name: '"&amp;E30&amp;"', ruby: '"&amp;F30&amp;"', baseType: '"&amp;VLOOKUP(G30,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H30,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I30&lt;&gt;"",", '"&amp; VLOOKUP(I30,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J30&lt;&gt;"", ", range: '"&amp;J30&amp;"'", "")&amp;IF(L30&lt;&gt;"", ", damage: '"&amp;L30&amp;"'", "")&amp;IF(N30&lt;&gt;"", ", capacity: '"&amp;N30&amp;"'", "")&amp;IF(O30&lt;&gt;"", ", cost: '"&amp;O30&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R30, CHAR(10), "\n")&amp;"'"&amp;IF(P30="○", ", sealable: true", "")&amp;IF(Q30="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '03-himika-o-n-1': {megami: 'himika', name: 'シュート', ruby: '', baseType: 'normal', types: ['attack'], range: '4-10', damage: '2/1', text: ''}</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+      <c r="N30" s="13"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="3" t="str">
+        <f>", '"&amp;A30&amp;"': {megami: '"&amp;B30&amp;"'"&amp;IF(C30&lt;&gt;"", ", anotherID: '" &amp; C30 &amp; "', replace: '" &amp; D30 &amp; "'", "")&amp;", name: '"&amp;E30&amp;"', nameEn: '"&amp;SUBSTITUTE(G30, "'", "\'")&amp;"', ruby: '"&amp;F30&amp;"', baseType: '"&amp;VLOOKUP(H30,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I30,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J30&lt;&gt;"",", '"&amp; VLOOKUP(J30,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K30&lt;&gt;"", ", range: '"&amp;K30&amp;"'", "")&amp;IF(M30&lt;&gt;"", ", damage: '"&amp;M30&amp;"'", "")&amp;IF(O30&lt;&gt;"", ", capacity: '"&amp;O30&amp;"'", "")&amp;IF(P30&lt;&gt;"", ", cost: '"&amp;P30&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S30, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T30, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q30="○", ", sealable: true", "")&amp;IF(R30="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '03-himika-o-n-1': {megami: 'himika', name: 'シュート', nameEn: '', ruby: '', baseType: 'normal', types: ['attack'], range: '4-10', damage: '2/1', text: '', textEn: ''}</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="24" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>717</v>
       </c>
@@ -4909,30 +5301,31 @@
       <c r="E31" s="4" t="s">
         <v>748</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="H31" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="I31" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="J31" s="4" t="s">
+      <c r="K31" s="4" t="s">
         <v>782</v>
       </c>
-      <c r="K31" s="13"/>
-      <c r="L31" s="2" t="s">
+      <c r="L31" s="13"/>
+      <c r="M31" s="2" t="s">
         <v>788</v>
       </c>
-      <c r="M31" s="13"/>
-      <c r="R31" s="5" t="s">
+      <c r="N31" s="13"/>
+      <c r="S31" s="5" t="s">
         <v>792</v>
       </c>
-      <c r="S31" s="13"/>
-      <c r="T31" s="3" t="str">
-        <f>", '"&amp;A31&amp;"': {megami: '"&amp;B31&amp;"'"&amp;IF(C31&lt;&gt;"", ", anotherID: '" &amp; C31 &amp; "', replace: '" &amp; D31 &amp; "'", "")&amp;", name: '"&amp;E31&amp;"', ruby: '"&amp;F31&amp;"', baseType: '"&amp;VLOOKUP(G31,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H31,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I31&lt;&gt;"",", '"&amp; VLOOKUP(I31,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J31&lt;&gt;"", ", range: '"&amp;J31&amp;"'", "")&amp;IF(L31&lt;&gt;"", ", damage: '"&amp;L31&amp;"'", "")&amp;IF(N31&lt;&gt;"", ", capacity: '"&amp;N31&amp;"'", "")&amp;IF(O31&lt;&gt;"", ", cost: '"&amp;O31&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R31, CHAR(10), "\n")&amp;"'"&amp;IF(P31="○", ", sealable: true", "")&amp;IF(Q31="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '03-himika-o-n-2': {megami: 'himika', name: 'ラピッドファイア', ruby: '', baseType: 'normal', types: ['attack'], range: '7-8', damage: '2/1', text: '【常時】連火-このカードがこのターンに使用した3枚目以降のカードならば、この《攻撃》は+1/+1となる。'}</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+      <c r="T31" s="5"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="3" t="str">
+        <f>", '"&amp;A31&amp;"': {megami: '"&amp;B31&amp;"'"&amp;IF(C31&lt;&gt;"", ", anotherID: '" &amp; C31 &amp; "', replace: '" &amp; D31 &amp; "'", "")&amp;", name: '"&amp;E31&amp;"', nameEn: '"&amp;SUBSTITUTE(G31, "'", "\'")&amp;"', ruby: '"&amp;F31&amp;"', baseType: '"&amp;VLOOKUP(H31,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I31,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J31&lt;&gt;"",", '"&amp; VLOOKUP(J31,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K31&lt;&gt;"", ", range: '"&amp;K31&amp;"'", "")&amp;IF(M31&lt;&gt;"", ", damage: '"&amp;M31&amp;"'", "")&amp;IF(O31&lt;&gt;"", ", capacity: '"&amp;O31&amp;"'", "")&amp;IF(P31&lt;&gt;"", ", cost: '"&amp;P31&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S31, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T31, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q31="○", ", sealable: true", "")&amp;IF(R31="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '03-himika-o-n-2': {megami: 'himika', name: 'ラピッドファイア', nameEn: '', ruby: '', baseType: 'normal', types: ['attack'], range: '7-8', damage: '2/1', text: '【常時】連火-このカードがこのターンに使用した3枚目以降のカードならば、この《攻撃》は+1/+1となる。', textEn: ''}</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="24" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>624</v>
       </c>
@@ -4951,30 +5344,31 @@
       <c r="F32" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="H32" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="I32" s="4" t="s">
         <v>634</v>
       </c>
-      <c r="J32" s="4" t="s">
+      <c r="K32" s="4" t="s">
         <v>637</v>
       </c>
-      <c r="K32" s="13"/>
-      <c r="L32" s="2" t="s">
+      <c r="L32" s="13"/>
+      <c r="M32" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="M32" s="13"/>
-      <c r="R32" s="5" t="s">
+      <c r="N32" s="13"/>
+      <c r="S32" s="5" t="s">
         <v>791</v>
       </c>
-      <c r="S32" s="13"/>
-      <c r="T32" s="3" t="str">
-        <f>", '"&amp;A32&amp;"': {megami: '"&amp;B32&amp;"'"&amp;IF(C32&lt;&gt;"", ", anotherID: '" &amp; C32 &amp; "', replace: '" &amp; D32 &amp; "'", "")&amp;", name: '"&amp;E32&amp;"', ruby: '"&amp;F32&amp;"', baseType: '"&amp;VLOOKUP(G32,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H32,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I32&lt;&gt;"",", '"&amp; VLOOKUP(I32,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J32&lt;&gt;"", ", range: '"&amp;J32&amp;"'", "")&amp;IF(L32&lt;&gt;"", ", damage: '"&amp;L32&amp;"'", "")&amp;IF(N32&lt;&gt;"", ", capacity: '"&amp;N32&amp;"'", "")&amp;IF(O32&lt;&gt;"", ", cost: '"&amp;O32&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R32, CHAR(10), "\n")&amp;"'"&amp;IF(P32="○", ", sealable: true", "")&amp;IF(Q32="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '03-himika-A1-n-2': {megami: 'himika', anotherID: 'A1', replace: '03-himika-o-n-2', name: '火炎流', ruby: 'かえんりゅう', baseType: 'normal', types: ['attack'], range: '1-3', damage: '2/1', text: '【常時】連火-このカードがこのターンに使用した3枚目以降のカードならば、この《攻撃》は+0/+1となる。'}</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="T32" s="5"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="3" t="str">
+        <f>", '"&amp;A32&amp;"': {megami: '"&amp;B32&amp;"'"&amp;IF(C32&lt;&gt;"", ", anotherID: '" &amp; C32 &amp; "', replace: '" &amp; D32 &amp; "'", "")&amp;", name: '"&amp;E32&amp;"', nameEn: '"&amp;SUBSTITUTE(G32, "'", "\'")&amp;"', ruby: '"&amp;F32&amp;"', baseType: '"&amp;VLOOKUP(H32,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I32,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J32&lt;&gt;"",", '"&amp; VLOOKUP(J32,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K32&lt;&gt;"", ", range: '"&amp;K32&amp;"'", "")&amp;IF(M32&lt;&gt;"", ", damage: '"&amp;M32&amp;"'", "")&amp;IF(O32&lt;&gt;"", ", capacity: '"&amp;O32&amp;"'", "")&amp;IF(P32&lt;&gt;"", ", cost: '"&amp;P32&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S32, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T32, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q32="○", ", sealable: true", "")&amp;IF(R32="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '03-himika-A1-n-2': {megami: 'himika', anotherID: 'A1', replace: '03-himika-o-n-2', name: '火炎流', nameEn: '', ruby: 'かえんりゅう', baseType: 'normal', types: ['attack'], range: '1-3', damage: '2/1', text: '【常時】連火-このカードがこのターンに使用した3枚目以降のカードならば、この《攻撃》は+0/+1となる。', textEn: ''}</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>718</v>
       </c>
@@ -4984,30 +5378,31 @@
       <c r="E33" s="4" t="s">
         <v>749</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="H33" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="I33" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="J33" s="4" t="s">
+      <c r="K33" s="4" t="s">
         <v>783</v>
       </c>
-      <c r="K33" s="13"/>
-      <c r="L33" s="2" t="s">
+      <c r="L33" s="13"/>
+      <c r="M33" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="M33" s="13"/>
-      <c r="R33" s="5" t="s">
+      <c r="N33" s="13"/>
+      <c r="S33" s="5" t="s">
         <v>793</v>
       </c>
-      <c r="S33" s="13"/>
-      <c r="T33" s="3" t="str">
-        <f>", '"&amp;A33&amp;"': {megami: '"&amp;B33&amp;"'"&amp;IF(C33&lt;&gt;"", ", anotherID: '" &amp; C33 &amp; "', replace: '" &amp; D33 &amp; "'", "")&amp;", name: '"&amp;E33&amp;"', ruby: '"&amp;F33&amp;"', baseType: '"&amp;VLOOKUP(G33,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H33,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I33&lt;&gt;"",", '"&amp; VLOOKUP(I33,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J33&lt;&gt;"", ", range: '"&amp;J33&amp;"'", "")&amp;IF(L33&lt;&gt;"", ", damage: '"&amp;L33&amp;"'", "")&amp;IF(N33&lt;&gt;"", ", capacity: '"&amp;N33&amp;"'", "")&amp;IF(O33&lt;&gt;"", ", cost: '"&amp;O33&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R33, CHAR(10), "\n")&amp;"'"&amp;IF(P33="○", ", sealable: true", "")&amp;IF(Q33="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '03-himika-o-n-3': {megami: 'himika', name: 'マグナムカノン', ruby: '', baseType: 'normal', types: ['attack'], range: '5-8', damage: '3/2', text: '【攻撃後】自ライフ→ダスト：1'}</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+      <c r="T33" s="5"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="3" t="str">
+        <f>", '"&amp;A33&amp;"': {megami: '"&amp;B33&amp;"'"&amp;IF(C33&lt;&gt;"", ", anotherID: '" &amp; C33 &amp; "', replace: '" &amp; D33 &amp; "'", "")&amp;", name: '"&amp;E33&amp;"', nameEn: '"&amp;SUBSTITUTE(G33, "'", "\'")&amp;"', ruby: '"&amp;F33&amp;"', baseType: '"&amp;VLOOKUP(H33,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I33,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J33&lt;&gt;"",", '"&amp; VLOOKUP(J33,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K33&lt;&gt;"", ", range: '"&amp;K33&amp;"'", "")&amp;IF(M33&lt;&gt;"", ", damage: '"&amp;M33&amp;"'", "")&amp;IF(O33&lt;&gt;"", ", capacity: '"&amp;O33&amp;"'", "")&amp;IF(P33&lt;&gt;"", ", cost: '"&amp;P33&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S33, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T33, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q33="○", ", sealable: true", "")&amp;IF(R33="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '03-himika-o-n-3': {megami: 'himika', name: 'マグナムカノン', nameEn: '', ruby: '', baseType: 'normal', types: ['attack'], range: '5-8', damage: '3/2', text: '【攻撃後】自ライフ→ダスト：1', textEn: ''}</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="24" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
         <v>719</v>
       </c>
@@ -5017,33 +5412,34 @@
       <c r="E34" s="4" t="s">
         <v>750</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="H34" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="I34" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="I34" s="4" t="s">
+      <c r="J34" s="4" t="s">
         <v>684</v>
       </c>
-      <c r="J34" s="4" t="s">
+      <c r="K34" s="4" t="s">
         <v>784</v>
       </c>
-      <c r="K34" s="13"/>
-      <c r="L34" s="2" t="s">
+      <c r="L34" s="13"/>
+      <c r="M34" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="M34" s="13"/>
-      <c r="R34" s="5" t="s">
+      <c r="N34" s="13"/>
+      <c r="S34" s="5" t="s">
         <v>808</v>
       </c>
-      <c r="S34" s="13"/>
-      <c r="T34" s="3" t="str">
-        <f>", '"&amp;A34&amp;"': {megami: '"&amp;B34&amp;"'"&amp;IF(C34&lt;&gt;"", ", anotherID: '" &amp; C34 &amp; "', replace: '" &amp; D34 &amp; "'", "")&amp;", name: '"&amp;E34&amp;"', ruby: '"&amp;F34&amp;"', baseType: '"&amp;VLOOKUP(G34,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H34,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I34&lt;&gt;"",", '"&amp; VLOOKUP(I34,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J34&lt;&gt;"", ", range: '"&amp;J34&amp;"'", "")&amp;IF(L34&lt;&gt;"", ", damage: '"&amp;L34&amp;"'", "")&amp;IF(N34&lt;&gt;"", ", capacity: '"&amp;N34&amp;"'", "")&amp;IF(O34&lt;&gt;"", ", cost: '"&amp;O34&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R34, CHAR(10), "\n")&amp;"'"&amp;IF(P34="○", ", sealable: true", "")&amp;IF(Q34="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '03-himika-o-n-4': {megami: 'himika', name: 'フルバースト', ruby: '', baseType: 'normal', types: ['attack', 'fullpower'], range: '5-9', damage: '3/1', text: '【常時】この《攻撃》がダメージを与えるならば、相手は片方を選ぶのではなく両方のダメージを受ける。'}</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+      <c r="T34" s="5"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="3" t="str">
+        <f>", '"&amp;A34&amp;"': {megami: '"&amp;B34&amp;"'"&amp;IF(C34&lt;&gt;"", ", anotherID: '" &amp; C34 &amp; "', replace: '" &amp; D34 &amp; "'", "")&amp;", name: '"&amp;E34&amp;"', nameEn: '"&amp;SUBSTITUTE(G34, "'", "\'")&amp;"', ruby: '"&amp;F34&amp;"', baseType: '"&amp;VLOOKUP(H34,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I34,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J34&lt;&gt;"",", '"&amp; VLOOKUP(J34,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K34&lt;&gt;"", ", range: '"&amp;K34&amp;"'", "")&amp;IF(M34&lt;&gt;"", ", damage: '"&amp;M34&amp;"'", "")&amp;IF(O34&lt;&gt;"", ", capacity: '"&amp;O34&amp;"'", "")&amp;IF(P34&lt;&gt;"", ", cost: '"&amp;P34&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S34, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T34, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q34="○", ", sealable: true", "")&amp;IF(R34="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '03-himika-o-n-4': {megami: 'himika', name: 'フルバースト', nameEn: '', ruby: '', baseType: 'normal', types: ['attack', 'fullpower'], range: '5-9', damage: '3/1', text: '【常時】この《攻撃》がダメージを与えるならば、相手は片方を選ぶのではなく両方のダメージを受ける。', textEn: ''}</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" ht="24" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
         <v>720</v>
       </c>
@@ -5053,24 +5449,25 @@
       <c r="E35" s="4" t="s">
         <v>751</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="H35" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="I35" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="R35" s="5" t="s">
+      <c r="L35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="S35" s="5" t="s">
         <v>794</v>
       </c>
-      <c r="S35" s="13"/>
-      <c r="T35" s="3" t="str">
-        <f>", '"&amp;A35&amp;"': {megami: '"&amp;B35&amp;"'"&amp;IF(C35&lt;&gt;"", ", anotherID: '" &amp; C35 &amp; "', replace: '" &amp; D35 &amp; "'", "")&amp;", name: '"&amp;E35&amp;"', ruby: '"&amp;F35&amp;"', baseType: '"&amp;VLOOKUP(G35,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H35,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I35&lt;&gt;"",", '"&amp; VLOOKUP(I35,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J35&lt;&gt;"", ", range: '"&amp;J35&amp;"'", "")&amp;IF(L35&lt;&gt;"", ", damage: '"&amp;L35&amp;"'", "")&amp;IF(N35&lt;&gt;"", ", capacity: '"&amp;N35&amp;"'", "")&amp;IF(O35&lt;&gt;"", ", cost: '"&amp;O35&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R35, CHAR(10), "\n")&amp;"'"&amp;IF(P35="○", ", sealable: true", "")&amp;IF(Q35="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '03-himika-o-n-5': {megami: 'himika', name: 'バックステップ', ruby: '', baseType: 'normal', types: ['action'], text: 'カードを1枚引く。 \nダスト→間合：1'}</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="T35" s="5"/>
+      <c r="U35" s="13"/>
+      <c r="V35" s="3" t="str">
+        <f>", '"&amp;A35&amp;"': {megami: '"&amp;B35&amp;"'"&amp;IF(C35&lt;&gt;"", ", anotherID: '" &amp; C35 &amp; "', replace: '" &amp; D35 &amp; "'", "")&amp;", name: '"&amp;E35&amp;"', nameEn: '"&amp;SUBSTITUTE(G35, "'", "\'")&amp;"', ruby: '"&amp;F35&amp;"', baseType: '"&amp;VLOOKUP(H35,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I35,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J35&lt;&gt;"",", '"&amp; VLOOKUP(J35,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K35&lt;&gt;"", ", range: '"&amp;K35&amp;"'", "")&amp;IF(M35&lt;&gt;"", ", damage: '"&amp;M35&amp;"'", "")&amp;IF(O35&lt;&gt;"", ", capacity: '"&amp;O35&amp;"'", "")&amp;IF(P35&lt;&gt;"", ", cost: '"&amp;P35&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S35, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T35, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q35="○", ", sealable: true", "")&amp;IF(R35="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '03-himika-o-n-5': {megami: 'himika', name: 'バックステップ', nameEn: '', ruby: '', baseType: 'normal', types: ['action'], text: 'カードを1枚引く。 \nダスト→間合：1', textEn: ''}</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
         <v>625</v>
       </c>
@@ -5089,24 +5486,25 @@
       <c r="F36" s="4" t="s">
         <v>632</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="H36" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="I36" s="4" t="s">
         <v>636</v>
       </c>
-      <c r="K36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="R36" s="5" t="s">
+      <c r="L36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="S36" s="5" t="s">
         <v>809</v>
       </c>
-      <c r="S36" s="13"/>
-      <c r="T36" s="3" t="str">
-        <f>", '"&amp;A36&amp;"': {megami: '"&amp;B36&amp;"'"&amp;IF(C36&lt;&gt;"", ", anotherID: '" &amp; C36 &amp; "', replace: '" &amp; D36 &amp; "'", "")&amp;", name: '"&amp;E36&amp;"', ruby: '"&amp;F36&amp;"', baseType: '"&amp;VLOOKUP(G36,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H36,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I36&lt;&gt;"",", '"&amp; VLOOKUP(I36,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J36&lt;&gt;"", ", range: '"&amp;J36&amp;"'", "")&amp;IF(L36&lt;&gt;"", ", damage: '"&amp;L36&amp;"'", "")&amp;IF(N36&lt;&gt;"", ", capacity: '"&amp;N36&amp;"'", "")&amp;IF(O36&lt;&gt;"", ", cost: '"&amp;O36&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R36, CHAR(10), "\n")&amp;"'"&amp;IF(P36="○", ", sealable: true", "")&amp;IF(Q36="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '03-himika-A1-n-5': {megami: 'himika', anotherID: 'A1', replace: '03-himika-o-n-5', name: '殺意', ruby: 'さつい', baseType: 'normal', types: ['action'], text: 'あなたの手札が0枚ならば、相オーラ→ダスト：2'}</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+      <c r="T36" s="5"/>
+      <c r="U36" s="13"/>
+      <c r="V36" s="3" t="str">
+        <f>", '"&amp;A36&amp;"': {megami: '"&amp;B36&amp;"'"&amp;IF(C36&lt;&gt;"", ", anotherID: '" &amp; C36 &amp; "', replace: '" &amp; D36 &amp; "'", "")&amp;", name: '"&amp;E36&amp;"', nameEn: '"&amp;SUBSTITUTE(G36, "'", "\'")&amp;"', ruby: '"&amp;F36&amp;"', baseType: '"&amp;VLOOKUP(H36,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I36,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J36&lt;&gt;"",", '"&amp; VLOOKUP(J36,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K36&lt;&gt;"", ", range: '"&amp;K36&amp;"'", "")&amp;IF(M36&lt;&gt;"", ", damage: '"&amp;M36&amp;"'", "")&amp;IF(O36&lt;&gt;"", ", capacity: '"&amp;O36&amp;"'", "")&amp;IF(P36&lt;&gt;"", ", cost: '"&amp;P36&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S36, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T36, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q36="○", ", sealable: true", "")&amp;IF(R36="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '03-himika-A1-n-5': {megami: 'himika', anotherID: 'A1', replace: '03-himika-o-n-5', name: '殺意', nameEn: '', ruby: 'さつい', baseType: 'normal', types: ['action'], text: 'あなたの手札が0枚ならば、相オーラ→ダスト：2', textEn: ''}</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="36" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
         <v>721</v>
       </c>
@@ -5116,24 +5514,25 @@
       <c r="E37" s="4" t="s">
         <v>752</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="H37" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="I37" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="R37" s="5" t="s">
+      <c r="L37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="S37" s="5" t="s">
         <v>810</v>
       </c>
-      <c r="S37" s="13"/>
-      <c r="T37" s="3" t="str">
-        <f>", '"&amp;A37&amp;"': {megami: '"&amp;B37&amp;"'"&amp;IF(C37&lt;&gt;"", ", anotherID: '" &amp; C37 &amp; "', replace: '" &amp; D37 &amp; "'", "")&amp;", name: '"&amp;E37&amp;"', ruby: '"&amp;F37&amp;"', baseType: '"&amp;VLOOKUP(G37,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H37,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I37&lt;&gt;"",", '"&amp; VLOOKUP(I37,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J37&lt;&gt;"", ", range: '"&amp;J37&amp;"'", "")&amp;IF(L37&lt;&gt;"", ", damage: '"&amp;L37&amp;"'", "")&amp;IF(N37&lt;&gt;"", ", capacity: '"&amp;N37&amp;"'", "")&amp;IF(O37&lt;&gt;"", ", cost: '"&amp;O37&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R37, CHAR(10), "\n")&amp;"'"&amp;IF(P37="○", ", sealable: true", "")&amp;IF(Q37="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '03-himika-o-n-6': {megami: 'himika', name: 'バックドラフト', ruby: '', baseType: 'normal', types: ['action'], text: '相手を畏縮させる。\n連火-このカードがこのターンに使用した3枚目以降のカードならば、このターンにあなたが次に行う他のメガミによる《攻撃》を+1/+1する。'}</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="T37" s="5"/>
+      <c r="U37" s="13"/>
+      <c r="V37" s="3" t="str">
+        <f>", '"&amp;A37&amp;"': {megami: '"&amp;B37&amp;"'"&amp;IF(C37&lt;&gt;"", ", anotherID: '" &amp; C37 &amp; "', replace: '" &amp; D37 &amp; "'", "")&amp;", name: '"&amp;E37&amp;"', nameEn: '"&amp;SUBSTITUTE(G37, "'", "\'")&amp;"', ruby: '"&amp;F37&amp;"', baseType: '"&amp;VLOOKUP(H37,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I37,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J37&lt;&gt;"",", '"&amp; VLOOKUP(J37,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K37&lt;&gt;"", ", range: '"&amp;K37&amp;"'", "")&amp;IF(M37&lt;&gt;"", ", damage: '"&amp;M37&amp;"'", "")&amp;IF(O37&lt;&gt;"", ", capacity: '"&amp;O37&amp;"'", "")&amp;IF(P37&lt;&gt;"", ", cost: '"&amp;P37&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S37, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T37, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q37="○", ", sealable: true", "")&amp;IF(R37="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '03-himika-o-n-6': {megami: 'himika', name: 'バックドラフト', nameEn: '', ruby: '', baseType: 'normal', types: ['action'], text: '相手を畏縮させる。\n連火-このカードがこのターンに使用した3枚目以降のカードならば、このターンにあなたが次に行う他のメガミによる《攻撃》を+1/+1する。', textEn: ''}</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
         <v>726</v>
       </c>
@@ -5143,27 +5542,28 @@
       <c r="E38" s="4" t="s">
         <v>753</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="H38" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="I38" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="4" t="s">
+      <c r="L38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="4" t="s">
         <v>735</v>
       </c>
-      <c r="R38" s="5" t="s">
+      <c r="S38" s="5" t="s">
         <v>795</v>
       </c>
-      <c r="S38" s="13"/>
-      <c r="T38" s="3" t="str">
-        <f>", '"&amp;A38&amp;"': {megami: '"&amp;B38&amp;"'"&amp;IF(C38&lt;&gt;"", ", anotherID: '" &amp; C38 &amp; "', replace: '" &amp; D38 &amp; "'", "")&amp;", name: '"&amp;E38&amp;"', ruby: '"&amp;F38&amp;"', baseType: '"&amp;VLOOKUP(G38,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H38,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I38&lt;&gt;"",", '"&amp; VLOOKUP(I38,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J38&lt;&gt;"", ", range: '"&amp;J38&amp;"'", "")&amp;IF(L38&lt;&gt;"", ", damage: '"&amp;L38&amp;"'", "")&amp;IF(N38&lt;&gt;"", ", capacity: '"&amp;N38&amp;"'", "")&amp;IF(O38&lt;&gt;"", ", cost: '"&amp;O38&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R38, CHAR(10), "\n")&amp;"'"&amp;IF(P38="○", ", sealable: true", "")&amp;IF(Q38="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '03-himika-o-n-7': {megami: 'himika', name: 'スモーク', ruby: '', baseType: 'normal', types: ['enhance'], capacity: '3', text: '【展開中】カードの矢印(→)により間合にある桜花結晶は移動しない。'}</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="T38" s="5"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="3" t="str">
+        <f>", '"&amp;A38&amp;"': {megami: '"&amp;B38&amp;"'"&amp;IF(C38&lt;&gt;"", ", anotherID: '" &amp; C38 &amp; "', replace: '" &amp; D38 &amp; "'", "")&amp;", name: '"&amp;E38&amp;"', nameEn: '"&amp;SUBSTITUTE(G38, "'", "\'")&amp;"', ruby: '"&amp;F38&amp;"', baseType: '"&amp;VLOOKUP(H38,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I38,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J38&lt;&gt;"",", '"&amp; VLOOKUP(J38,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K38&lt;&gt;"", ", range: '"&amp;K38&amp;"'", "")&amp;IF(M38&lt;&gt;"", ", damage: '"&amp;M38&amp;"'", "")&amp;IF(O38&lt;&gt;"", ", capacity: '"&amp;O38&amp;"'", "")&amp;IF(P38&lt;&gt;"", ", cost: '"&amp;P38&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S38, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T38, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q38="○", ", sealable: true", "")&amp;IF(R38="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '03-himika-o-n-7': {megami: 'himika', name: 'スモーク', nameEn: '', ruby: '', baseType: 'normal', types: ['enhance'], capacity: '3', text: '【展開中】カードの矢印(→)により間合にある桜花結晶は移動しない。', textEn: ''}</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
         <v>727</v>
       </c>
@@ -5173,31 +5573,32 @@
       <c r="E39" s="4" t="s">
         <v>754</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="H39" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H39" s="4" t="s">
+      <c r="I39" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="J39" s="4" t="s">
+      <c r="K39" s="4" t="s">
         <v>785</v>
       </c>
-      <c r="K39" s="13"/>
-      <c r="L39" s="2" t="s">
+      <c r="L39" s="13"/>
+      <c r="M39" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="M39" s="13"/>
-      <c r="O39" s="4" t="s">
+      <c r="N39" s="13"/>
+      <c r="P39" s="4" t="s">
         <v>734</v>
       </c>
-      <c r="R39" s="5"/>
-      <c r="S39" s="13"/>
-      <c r="T39" s="3" t="str">
-        <f>", '"&amp;A39&amp;"': {megami: '"&amp;B39&amp;"'"&amp;IF(C39&lt;&gt;"", ", anotherID: '" &amp; C39 &amp; "', replace: '" &amp; D39 &amp; "'", "")&amp;", name: '"&amp;E39&amp;"', ruby: '"&amp;F39&amp;"', baseType: '"&amp;VLOOKUP(G39,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H39,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I39&lt;&gt;"",", '"&amp; VLOOKUP(I39,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J39&lt;&gt;"", ", range: '"&amp;J39&amp;"'", "")&amp;IF(L39&lt;&gt;"", ", damage: '"&amp;L39&amp;"'", "")&amp;IF(N39&lt;&gt;"", ", capacity: '"&amp;N39&amp;"'", "")&amp;IF(O39&lt;&gt;"", ", cost: '"&amp;O39&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R39, CHAR(10), "\n")&amp;"'"&amp;IF(P39="○", ", sealable: true", "")&amp;IF(Q39="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '03-himika-o-s-1': {megami: 'himika', name: 'レッドバレット', ruby: '', baseType: 'special', types: ['attack'], range: '5-10', damage: '3/1', cost: '0', text: ''}</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="3" t="str">
+        <f>", '"&amp;A39&amp;"': {megami: '"&amp;B39&amp;"'"&amp;IF(C39&lt;&gt;"", ", anotherID: '" &amp; C39 &amp; "', replace: '" &amp; D39 &amp; "'", "")&amp;", name: '"&amp;E39&amp;"', nameEn: '"&amp;SUBSTITUTE(G39, "'", "\'")&amp;"', ruby: '"&amp;F39&amp;"', baseType: '"&amp;VLOOKUP(H39,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I39,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J39&lt;&gt;"",", '"&amp; VLOOKUP(J39,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K39&lt;&gt;"", ", range: '"&amp;K39&amp;"'", "")&amp;IF(M39&lt;&gt;"", ", damage: '"&amp;M39&amp;"'", "")&amp;IF(O39&lt;&gt;"", ", capacity: '"&amp;O39&amp;"'", "")&amp;IF(P39&lt;&gt;"", ", cost: '"&amp;P39&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S39, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T39, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q39="○", ", sealable: true", "")&amp;IF(R39="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '03-himika-o-s-1': {megami: 'himika', name: 'レッドバレット', nameEn: '', ruby: '', baseType: 'special', types: ['attack'], range: '5-10', damage: '3/1', cost: '0', text: '', textEn: ''}</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" ht="36" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>728</v>
       </c>
@@ -5207,33 +5608,34 @@
       <c r="E40" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="H40" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H40" s="4" t="s">
+      <c r="I40" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="J40" s="4" t="s">
+      <c r="K40" s="4" t="s">
         <v>786</v>
       </c>
-      <c r="K40" s="13"/>
-      <c r="L40" s="2" t="s">
+      <c r="L40" s="13"/>
+      <c r="M40" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="M40" s="13"/>
-      <c r="O40" s="4" t="s">
+      <c r="N40" s="13"/>
+      <c r="P40" s="4" t="s">
         <v>733</v>
       </c>
-      <c r="R40" s="5" t="s">
+      <c r="S40" s="5" t="s">
         <v>811</v>
       </c>
-      <c r="S40" s="13"/>
-      <c r="T40" s="3" t="str">
-        <f>", '"&amp;A40&amp;"': {megami: '"&amp;B40&amp;"'"&amp;IF(C40&lt;&gt;"", ", anotherID: '" &amp; C40 &amp; "', replace: '" &amp; D40 &amp; "'", "")&amp;", name: '"&amp;E40&amp;"', ruby: '"&amp;F40&amp;"', baseType: '"&amp;VLOOKUP(G40,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H40,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I40&lt;&gt;"",", '"&amp; VLOOKUP(I40,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J40&lt;&gt;"", ", range: '"&amp;J40&amp;"'", "")&amp;IF(L40&lt;&gt;"", ", damage: '"&amp;L40&amp;"'", "")&amp;IF(N40&lt;&gt;"", ", capacity: '"&amp;N40&amp;"'", "")&amp;IF(O40&lt;&gt;"", ", cost: '"&amp;O40&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R40, CHAR(10), "\n")&amp;"'"&amp;IF(P40="○", ", sealable: true", "")&amp;IF(Q40="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '03-himika-o-s-2': {megami: 'himika', name: 'クリムゾンゼロ', ruby: '', baseType: 'special', types: ['attack'], range: '0-2', damage: '2/2', cost: '5', text: '【常時】この《攻撃》がダメージを与えるならば、相手は片方を選ぶのではなく両方のダメージを受ける。\n【常時】現在の間合が0ならば、この《攻撃》は対応不可を得る。'}</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+      <c r="T40" s="5"/>
+      <c r="U40" s="13"/>
+      <c r="V40" s="3" t="str">
+        <f>", '"&amp;A40&amp;"': {megami: '"&amp;B40&amp;"'"&amp;IF(C40&lt;&gt;"", ", anotherID: '" &amp; C40 &amp; "', replace: '" &amp; D40 &amp; "'", "")&amp;", name: '"&amp;E40&amp;"', nameEn: '"&amp;SUBSTITUTE(G40, "'", "\'")&amp;"', ruby: '"&amp;F40&amp;"', baseType: '"&amp;VLOOKUP(H40,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I40,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J40&lt;&gt;"",", '"&amp; VLOOKUP(J40,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K40&lt;&gt;"", ", range: '"&amp;K40&amp;"'", "")&amp;IF(M40&lt;&gt;"", ", damage: '"&amp;M40&amp;"'", "")&amp;IF(O40&lt;&gt;"", ", capacity: '"&amp;O40&amp;"'", "")&amp;IF(P40&lt;&gt;"", ", cost: '"&amp;P40&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S40, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T40, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q40="○", ", sealable: true", "")&amp;IF(R40="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '03-himika-o-s-2': {megami: 'himika', name: 'クリムゾンゼロ', nameEn: '', ruby: '', baseType: 'special', types: ['attack'], range: '0-2', damage: '2/2', cost: '5', text: '【常時】この《攻撃》がダメージを与えるならば、相手は片方を選ぶのではなく両方のダメージを受ける。\n【常時】現在の間合が0ならば、この《攻撃》は対応不可を得る。', textEn: ''}</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="36" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
         <v>643</v>
       </c>
@@ -5252,36 +5654,37 @@
       <c r="F41" s="4" t="s">
         <v>633</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="H41" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H41" s="4" t="s">
+      <c r="I41" s="4" t="s">
         <v>634</v>
       </c>
-      <c r="I41" s="4" t="s">
+      <c r="J41" s="4" t="s">
         <v>635</v>
       </c>
-      <c r="J41" s="4" t="s">
+      <c r="K41" s="4" t="s">
         <v>638</v>
       </c>
-      <c r="K41" s="13"/>
-      <c r="L41" s="2" t="s">
+      <c r="L41" s="13"/>
+      <c r="M41" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="M41" s="13"/>
-      <c r="O41" s="4" t="s">
+      <c r="N41" s="13"/>
+      <c r="P41" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="R41" s="5" t="s">
+      <c r="S41" s="5" t="s">
         <v>642</v>
       </c>
-      <c r="S41" s="13"/>
-      <c r="T41" s="3" t="str">
-        <f>", '"&amp;A41&amp;"': {megami: '"&amp;B41&amp;"'"&amp;IF(C41&lt;&gt;"", ", anotherID: '" &amp; C41 &amp; "', replace: '" &amp; D41 &amp; "'", "")&amp;", name: '"&amp;E41&amp;"', ruby: '"&amp;F41&amp;"', baseType: '"&amp;VLOOKUP(G41,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H41,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I41&lt;&gt;"",", '"&amp; VLOOKUP(I41,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J41&lt;&gt;"", ", range: '"&amp;J41&amp;"'", "")&amp;IF(L41&lt;&gt;"", ", damage: '"&amp;L41&amp;"'", "")&amp;IF(N41&lt;&gt;"", ", capacity: '"&amp;N41&amp;"'", "")&amp;IF(O41&lt;&gt;"", ", cost: '"&amp;O41&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R41, CHAR(10), "\n")&amp;"'"&amp;IF(P41="○", ", sealable: true", "")&amp;IF(Q41="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '03-himika-A1-s-2': {megami: 'himika', anotherID: 'A1', replace: '03-himika-o-s-2', name: '炎天・紅緋弥香', ruby: 'えんてん・くれないひみか', baseType: 'special', types: ['attack', 'fullpower'], range: '0-6', damage: 'X/X', cost: '7', text: '対応不可 \n【常時】Xは7から現在の間合を引いた値に等しい。 \n【攻撃後】あなたは敗北する。'}</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="T41" s="5"/>
+      <c r="U41" s="13"/>
+      <c r="V41" s="3" t="str">
+        <f>", '"&amp;A41&amp;"': {megami: '"&amp;B41&amp;"'"&amp;IF(C41&lt;&gt;"", ", anotherID: '" &amp; C41 &amp; "', replace: '" &amp; D41 &amp; "'", "")&amp;", name: '"&amp;E41&amp;"', nameEn: '"&amp;SUBSTITUTE(G41, "'", "\'")&amp;"', ruby: '"&amp;F41&amp;"', baseType: '"&amp;VLOOKUP(H41,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I41,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J41&lt;&gt;"",", '"&amp; VLOOKUP(J41,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K41&lt;&gt;"", ", range: '"&amp;K41&amp;"'", "")&amp;IF(M41&lt;&gt;"", ", damage: '"&amp;M41&amp;"'", "")&amp;IF(O41&lt;&gt;"", ", capacity: '"&amp;O41&amp;"'", "")&amp;IF(P41&lt;&gt;"", ", cost: '"&amp;P41&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S41, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T41, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q41="○", ", sealable: true", "")&amp;IF(R41="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '03-himika-A1-s-2': {megami: 'himika', anotherID: 'A1', replace: '03-himika-o-s-2', name: '炎天・紅緋弥香', nameEn: '', ruby: 'えんてん・くれないひみか', baseType: 'special', types: ['attack', 'fullpower'], range: '0-6', damage: 'X/X', cost: '7', text: '対応不可 \n【常時】Xは7から現在の間合を引いた値に等しい。 \n【攻撃後】あなたは敗北する。', textEn: ''}</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
         <v>729</v>
       </c>
@@ -5291,27 +5694,28 @@
       <c r="E42" s="4" t="s">
         <v>756</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="H42" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H42" s="4" t="s">
+      <c r="I42" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="O42" s="4" t="s">
+      <c r="L42" s="13"/>
+      <c r="N42" s="13"/>
+      <c r="P42" s="4" t="s">
         <v>735</v>
       </c>
-      <c r="R42" s="5" t="s">
+      <c r="S42" s="5" t="s">
         <v>796</v>
       </c>
-      <c r="S42" s="13"/>
-      <c r="T42" s="3" t="str">
-        <f>", '"&amp;A42&amp;"': {megami: '"&amp;B42&amp;"'"&amp;IF(C42&lt;&gt;"", ", anotherID: '" &amp; C42 &amp; "', replace: '" &amp; D42 &amp; "'", "")&amp;", name: '"&amp;E42&amp;"', ruby: '"&amp;F42&amp;"', baseType: '"&amp;VLOOKUP(G42,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H42,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I42&lt;&gt;"",", '"&amp; VLOOKUP(I42,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J42&lt;&gt;"", ", range: '"&amp;J42&amp;"'", "")&amp;IF(L42&lt;&gt;"", ", damage: '"&amp;L42&amp;"'", "")&amp;IF(N42&lt;&gt;"", ", capacity: '"&amp;N42&amp;"'", "")&amp;IF(O42&lt;&gt;"", ", cost: '"&amp;O42&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R42, CHAR(10), "\n")&amp;"'"&amp;IF(P42="○", ", sealable: true", "")&amp;IF(Q42="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '03-himika-o-s-3': {megami: 'himika', name: 'スカーレットイマジン', ruby: '', baseType: 'special', types: ['action'], cost: '3', text: 'カードを2枚引く。その後、あなたは手札を1枚伏せ札にする。'}</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" ht="48" x14ac:dyDescent="0.15">
+      <c r="T42" s="5"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="3" t="str">
+        <f>", '"&amp;A42&amp;"': {megami: '"&amp;B42&amp;"'"&amp;IF(C42&lt;&gt;"", ", anotherID: '" &amp; C42 &amp; "', replace: '" &amp; D42 &amp; "'", "")&amp;", name: '"&amp;E42&amp;"', nameEn: '"&amp;SUBSTITUTE(G42, "'", "\'")&amp;"', ruby: '"&amp;F42&amp;"', baseType: '"&amp;VLOOKUP(H42,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I42,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J42&lt;&gt;"",", '"&amp; VLOOKUP(J42,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K42&lt;&gt;"", ", range: '"&amp;K42&amp;"'", "")&amp;IF(M42&lt;&gt;"", ", damage: '"&amp;M42&amp;"'", "")&amp;IF(O42&lt;&gt;"", ", capacity: '"&amp;O42&amp;"'", "")&amp;IF(P42&lt;&gt;"", ", cost: '"&amp;P42&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S42, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T42, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q42="○", ", sealable: true", "")&amp;IF(R42="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '03-himika-o-s-3': {megami: 'himika', name: 'スカーレットイマジン', nameEn: '', ruby: '', baseType: 'special', types: ['action'], cost: '3', text: 'カードを2枚引く。その後、あなたは手札を1枚伏せ札にする。', textEn: ''}</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" ht="48" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
         <v>730</v>
       </c>
@@ -5321,27 +5725,28 @@
       <c r="E43" s="4" t="s">
         <v>757</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="H43" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H43" s="4" t="s">
+      <c r="I43" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="O43" s="4" t="s">
+      <c r="L43" s="13"/>
+      <c r="N43" s="13"/>
+      <c r="P43" s="4" t="s">
         <v>698</v>
       </c>
-      <c r="R43" s="5" t="s">
+      <c r="S43" s="5" t="s">
         <v>813</v>
       </c>
-      <c r="S43" s="13"/>
-      <c r="T43" s="3" t="str">
-        <f>", '"&amp;A43&amp;"': {megami: '"&amp;B43&amp;"'"&amp;IF(C43&lt;&gt;"", ", anotherID: '" &amp; C43 &amp; "', replace: '" &amp; D43 &amp; "'", "")&amp;", name: '"&amp;E43&amp;"', ruby: '"&amp;F43&amp;"', baseType: '"&amp;VLOOKUP(G43,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H43,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I43&lt;&gt;"",", '"&amp; VLOOKUP(I43,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J43&lt;&gt;"", ", range: '"&amp;J43&amp;"'", "")&amp;IF(L43&lt;&gt;"", ", damage: '"&amp;L43&amp;"'", "")&amp;IF(N43&lt;&gt;"", ", capacity: '"&amp;N43&amp;"'", "")&amp;IF(O43&lt;&gt;"", ", cost: '"&amp;O43&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R43, CHAR(10), "\n")&amp;"'"&amp;IF(P43="○", ", sealable: true", "")&amp;IF(Q43="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '03-himika-o-s-4': {megami: 'himika', name: 'ヴァーミリオンフィールド', ruby: '', baseType: 'special', types: ['action'], cost: '2', text: '連火-このカードがこのターンに使用した3枚目以降のカードならば、ダスト→間合：2\n----\n【再起】あなたの手札が0枚である。'}</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="T43" s="5"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="3" t="str">
+        <f>", '"&amp;A43&amp;"': {megami: '"&amp;B43&amp;"'"&amp;IF(C43&lt;&gt;"", ", anotherID: '" &amp; C43 &amp; "', replace: '" &amp; D43 &amp; "'", "")&amp;", name: '"&amp;E43&amp;"', nameEn: '"&amp;SUBSTITUTE(G43, "'", "\'")&amp;"', ruby: '"&amp;F43&amp;"', baseType: '"&amp;VLOOKUP(H43,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I43,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J43&lt;&gt;"",", '"&amp; VLOOKUP(J43,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K43&lt;&gt;"", ", range: '"&amp;K43&amp;"'", "")&amp;IF(M43&lt;&gt;"", ", damage: '"&amp;M43&amp;"'", "")&amp;IF(O43&lt;&gt;"", ", capacity: '"&amp;O43&amp;"'", "")&amp;IF(P43&lt;&gt;"", ", cost: '"&amp;P43&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S43, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T43, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q43="○", ", sealable: true", "")&amp;IF(R43="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '03-himika-o-s-4': {megami: 'himika', name: 'ヴァーミリオンフィールド', nameEn: '', ruby: '', baseType: 'special', types: ['action'], cost: '2', text: '連火-このカードがこのターンに使用した3枚目以降のカードならば、ダスト→間合：2\n----\n【再起】あなたの手札が0枚である。', textEn: ''}</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
         <v>1</v>
       </c>
@@ -5354,30 +5759,30 @@
       <c r="F44" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="H44" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H44" s="4" t="s">
+      <c r="I44" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J44" s="4">
+      <c r="K44" s="4">
         <v>4</v>
       </c>
-      <c r="K44" s="13"/>
-      <c r="L44" s="2" t="s">
+      <c r="L44" s="13"/>
+      <c r="M44" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M44" s="13"/>
-      <c r="R44" s="4" t="s">
+      <c r="N44" s="13"/>
+      <c r="S44" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="S44" s="13"/>
-      <c r="T44" s="3" t="str">
-        <f>", '"&amp;A44&amp;"': {megami: '"&amp;B44&amp;"'"&amp;IF(C44&lt;&gt;"", ", anotherID: '" &amp; C44 &amp; "', replace: '" &amp; D44 &amp; "'", "")&amp;", name: '"&amp;E44&amp;"', ruby: '"&amp;F44&amp;"', baseType: '"&amp;VLOOKUP(G44,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H44,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I44&lt;&gt;"",", '"&amp; VLOOKUP(I44,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J44&lt;&gt;"", ", range: '"&amp;J44&amp;"'", "")&amp;IF(L44&lt;&gt;"", ", damage: '"&amp;L44&amp;"'", "")&amp;IF(N44&lt;&gt;"", ", capacity: '"&amp;N44&amp;"'", "")&amp;IF(O44&lt;&gt;"", ", cost: '"&amp;O44&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R44, CHAR(10), "\n")&amp;"'"&amp;IF(P44="○", ", sealable: true", "")&amp;IF(Q44="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '04-tokoyo-o-n-1': {megami: 'tokoyo', name: '梳流し', ruby: 'すきながし', baseType: 'normal', types: ['attack'], range: '4', damage: '-/1', text: '【攻撃後】境地-あなたの集中力が2ならば、このカードを山札の上に戻す。'}</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" ht="48" x14ac:dyDescent="0.15">
+      <c r="U44" s="13"/>
+      <c r="V44" s="3" t="str">
+        <f>", '"&amp;A44&amp;"': {megami: '"&amp;B44&amp;"'"&amp;IF(C44&lt;&gt;"", ", anotherID: '" &amp; C44 &amp; "', replace: '" &amp; D44 &amp; "'", "")&amp;", name: '"&amp;E44&amp;"', nameEn: '"&amp;SUBSTITUTE(G44, "'", "\'")&amp;"', ruby: '"&amp;F44&amp;"', baseType: '"&amp;VLOOKUP(H44,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I44,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J44&lt;&gt;"",", '"&amp; VLOOKUP(J44,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K44&lt;&gt;"", ", range: '"&amp;K44&amp;"'", "")&amp;IF(M44&lt;&gt;"", ", damage: '"&amp;M44&amp;"'", "")&amp;IF(O44&lt;&gt;"", ", capacity: '"&amp;O44&amp;"'", "")&amp;IF(P44&lt;&gt;"", ", cost: '"&amp;P44&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S44, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T44, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q44="○", ", sealable: true", "")&amp;IF(R44="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '04-tokoyo-o-n-1': {megami: 'tokoyo', name: '梳流し', nameEn: '', ruby: 'すきながし', baseType: 'normal', types: ['attack'], range: '4', damage: '-/1', text: '【攻撃後】境地-あなたの集中力が2ならば、このカードを山札の上に戻す。', textEn: ''}</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" ht="48" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
         <v>576</v>
       </c>
@@ -5396,30 +5801,31 @@
       <c r="F45" s="4" t="s">
         <v>569</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="H45" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H45" s="4" t="s">
+      <c r="I45" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J45" s="4" t="s">
+      <c r="K45" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="K45" s="13"/>
-      <c r="L45" s="2" t="s">
+      <c r="L45" s="13"/>
+      <c r="M45" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="M45" s="13"/>
-      <c r="R45" s="5" t="s">
+      <c r="N45" s="13"/>
+      <c r="S45" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="S45" s="13"/>
-      <c r="T45" s="3" t="str">
-        <f>", '"&amp;A45&amp;"': {megami: '"&amp;B45&amp;"'"&amp;IF(C45&lt;&gt;"", ", anotherID: '" &amp; C45 &amp; "', replace: '" &amp; D45 &amp; "'", "")&amp;", name: '"&amp;E45&amp;"', ruby: '"&amp;F45&amp;"', baseType: '"&amp;VLOOKUP(G45,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H45,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I45&lt;&gt;"",", '"&amp; VLOOKUP(I45,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J45&lt;&gt;"", ", range: '"&amp;J45&amp;"'", "")&amp;IF(L45&lt;&gt;"", ", damage: '"&amp;L45&amp;"'", "")&amp;IF(N45&lt;&gt;"", ", capacity: '"&amp;N45&amp;"'", "")&amp;IF(O45&lt;&gt;"", ", cost: '"&amp;O45&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R45, CHAR(10), "\n")&amp;"'"&amp;IF(P45="○", ", sealable: true", "")&amp;IF(Q45="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '04-tokoyo-A1-n-1': {megami: 'tokoyo', anotherID: 'A1', replace: '04-tokoyo-o-n-1', name: '奏流し', ruby: 'かなでながし', baseType: 'normal', types: ['attack'], range: '5', damage: '-/1', text: '【常時】あなたのトコヨの切札が1枚以上使用済ならば、この《攻撃》は対応不可を得る。 \n【攻撃後】境地-あなたの集中力が2かつ、あなたの他のメガミの切札が1枚以上使用済ならば、このカードを山札の上に置く。'}</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="T45" s="5"/>
+      <c r="U45" s="13"/>
+      <c r="V45" s="3" t="str">
+        <f>", '"&amp;A45&amp;"': {megami: '"&amp;B45&amp;"'"&amp;IF(C45&lt;&gt;"", ", anotherID: '" &amp; C45 &amp; "', replace: '" &amp; D45 &amp; "'", "")&amp;", name: '"&amp;E45&amp;"', nameEn: '"&amp;SUBSTITUTE(G45, "'", "\'")&amp;"', ruby: '"&amp;F45&amp;"', baseType: '"&amp;VLOOKUP(H45,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I45,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J45&lt;&gt;"",", '"&amp; VLOOKUP(J45,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K45&lt;&gt;"", ", range: '"&amp;K45&amp;"'", "")&amp;IF(M45&lt;&gt;"", ", damage: '"&amp;M45&amp;"'", "")&amp;IF(O45&lt;&gt;"", ", capacity: '"&amp;O45&amp;"'", "")&amp;IF(P45&lt;&gt;"", ", cost: '"&amp;P45&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S45, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T45, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q45="○", ", sealable: true", "")&amp;IF(R45="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '04-tokoyo-A1-n-1': {megami: 'tokoyo', anotherID: 'A1', replace: '04-tokoyo-o-n-1', name: '奏流し', nameEn: '', ruby: 'かなでながし', baseType: 'normal', types: ['attack'], range: '5', damage: '-/1', text: '【常時】あなたのトコヨの切札が1枚以上使用済ならば、この《攻撃》は対応不可を得る。 \n【攻撃後】境地-あなたの集中力が2かつ、あなたの他のメガミの切札が1枚以上使用済ならば、このカードを山札の上に置く。', textEn: ''}</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
         <v>35</v>
       </c>
@@ -5432,33 +5838,33 @@
       <c r="F46" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G46" s="4" t="s">
+      <c r="H46" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H46" s="4" t="s">
+      <c r="I46" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I46" s="4" t="s">
+      <c r="J46" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J46" s="4" t="s">
+      <c r="K46" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="K46" s="13"/>
-      <c r="L46" s="2" t="s">
+      <c r="L46" s="13"/>
+      <c r="M46" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="M46" s="13"/>
-      <c r="R46" s="4" t="s">
+      <c r="N46" s="13"/>
+      <c r="S46" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="S46" s="13"/>
-      <c r="T46" s="3" t="str">
-        <f>", '"&amp;A46&amp;"': {megami: '"&amp;B46&amp;"'"&amp;IF(C46&lt;&gt;"", ", anotherID: '" &amp; C46 &amp; "', replace: '" &amp; D46 &amp; "'", "")&amp;", name: '"&amp;E46&amp;"', ruby: '"&amp;F46&amp;"', baseType: '"&amp;VLOOKUP(G46,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H46,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I46&lt;&gt;"",", '"&amp; VLOOKUP(I46,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J46&lt;&gt;"", ", range: '"&amp;J46&amp;"'", "")&amp;IF(L46&lt;&gt;"", ", damage: '"&amp;L46&amp;"'", "")&amp;IF(N46&lt;&gt;"", ", capacity: '"&amp;N46&amp;"'", "")&amp;IF(O46&lt;&gt;"", ", cost: '"&amp;O46&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R46, CHAR(10), "\n")&amp;"'"&amp;IF(P46="○", ", sealable: true", "")&amp;IF(Q46="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '04-tokoyo-o-n-2': {megami: 'tokoyo', name: '雅打ち', ruby: 'みやびうち', baseType: 'normal', types: ['attack', 'reaction'], range: '2-4', damage: '2/1', text: '【攻撃後】境地-あなたの集中力が2ならば、対応した切札でない《攻撃》を打ち消す。'}</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U46" s="13"/>
+      <c r="V46" s="3" t="str">
+        <f>", '"&amp;A46&amp;"': {megami: '"&amp;B46&amp;"'"&amp;IF(C46&lt;&gt;"", ", anotherID: '" &amp; C46 &amp; "', replace: '" &amp; D46 &amp; "'", "")&amp;", name: '"&amp;E46&amp;"', nameEn: '"&amp;SUBSTITUTE(G46, "'", "\'")&amp;"', ruby: '"&amp;F46&amp;"', baseType: '"&amp;VLOOKUP(H46,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I46,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J46&lt;&gt;"",", '"&amp; VLOOKUP(J46,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K46&lt;&gt;"", ", range: '"&amp;K46&amp;"'", "")&amp;IF(M46&lt;&gt;"", ", damage: '"&amp;M46&amp;"'", "")&amp;IF(O46&lt;&gt;"", ", capacity: '"&amp;O46&amp;"'", "")&amp;IF(P46&lt;&gt;"", ", cost: '"&amp;P46&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S46, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T46, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q46="○", ", sealable: true", "")&amp;IF(R46="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '04-tokoyo-o-n-2': {megami: 'tokoyo', name: '雅打ち', nameEn: '', ruby: 'みやびうち', baseType: 'normal', types: ['attack', 'reaction'], range: '2-4', damage: '2/1', text: '【攻撃後】境地-あなたの集中力が2ならば、対応した切札でない《攻撃》を打ち消す。', textEn: ''}</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
         <v>36</v>
       </c>
@@ -5471,24 +5877,25 @@
       <c r="F47" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="H47" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="I47" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K47" s="13"/>
-      <c r="M47" s="13"/>
-      <c r="R47" s="5" t="s">
+      <c r="L47" s="13"/>
+      <c r="N47" s="13"/>
+      <c r="S47" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="S47" s="13"/>
-      <c r="T47" s="3" t="str">
-        <f>", '"&amp;A47&amp;"': {megami: '"&amp;B47&amp;"'"&amp;IF(C47&lt;&gt;"", ", anotherID: '" &amp; C47 &amp; "', replace: '" &amp; D47 &amp; "'", "")&amp;", name: '"&amp;E47&amp;"', ruby: '"&amp;F47&amp;"', baseType: '"&amp;VLOOKUP(G47,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H47,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I47&lt;&gt;"",", '"&amp; VLOOKUP(I47,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J47&lt;&gt;"", ", range: '"&amp;J47&amp;"'", "")&amp;IF(L47&lt;&gt;"", ", damage: '"&amp;L47&amp;"'", "")&amp;IF(N47&lt;&gt;"", ", capacity: '"&amp;N47&amp;"'", "")&amp;IF(O47&lt;&gt;"", ", cost: '"&amp;O47&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R47, CHAR(10), "\n")&amp;"'"&amp;IF(P47="○", ", sealable: true", "")&amp;IF(Q47="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '04-tokoyo-o-n-3': {megami: 'tokoyo', name: '跳ね兎', ruby: 'はねうさぎ', baseType: 'normal', types: ['action'], text: '現在の間合が3以下ならば、ダスト→間合：2'}</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+      <c r="T47" s="5"/>
+      <c r="U47" s="13"/>
+      <c r="V47" s="3" t="str">
+        <f>", '"&amp;A47&amp;"': {megami: '"&amp;B47&amp;"'"&amp;IF(C47&lt;&gt;"", ", anotherID: '" &amp; C47 &amp; "', replace: '" &amp; D47 &amp; "'", "")&amp;", name: '"&amp;E47&amp;"', nameEn: '"&amp;SUBSTITUTE(G47, "'", "\'")&amp;"', ruby: '"&amp;F47&amp;"', baseType: '"&amp;VLOOKUP(H47,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I47,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J47&lt;&gt;"",", '"&amp; VLOOKUP(J47,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K47&lt;&gt;"", ", range: '"&amp;K47&amp;"'", "")&amp;IF(M47&lt;&gt;"", ", damage: '"&amp;M47&amp;"'", "")&amp;IF(O47&lt;&gt;"", ", capacity: '"&amp;O47&amp;"'", "")&amp;IF(P47&lt;&gt;"", ", cost: '"&amp;P47&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S47, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T47, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q47="○", ", sealable: true", "")&amp;IF(R47="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '04-tokoyo-o-n-3': {megami: 'tokoyo', name: '跳ね兎', nameEn: '', ruby: 'はねうさぎ', baseType: 'normal', types: ['action'], text: '現在の間合が3以下ならば、ダスト→間合：2', textEn: ''}</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" ht="36" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
         <v>37</v>
       </c>
@@ -5501,27 +5908,28 @@
       <c r="F48" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="H48" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H48" s="4" t="s">
+      <c r="I48" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I48" s="4" t="s">
+      <c r="J48" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K48" s="13"/>
-      <c r="M48" s="13"/>
-      <c r="R48" s="5" t="s">
+      <c r="L48" s="13"/>
+      <c r="N48" s="13"/>
+      <c r="S48" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="S48" s="13"/>
-      <c r="T48" s="3" t="str">
-        <f>", '"&amp;A48&amp;"': {megami: '"&amp;B48&amp;"'"&amp;IF(C48&lt;&gt;"", ", anotherID: '" &amp; C48 &amp; "', replace: '" &amp; D48 &amp; "'", "")&amp;", name: '"&amp;E48&amp;"', ruby: '"&amp;F48&amp;"', baseType: '"&amp;VLOOKUP(G48,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H48,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I48&lt;&gt;"",", '"&amp; VLOOKUP(I48,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J48&lt;&gt;"", ", range: '"&amp;J48&amp;"'", "")&amp;IF(L48&lt;&gt;"", ", damage: '"&amp;L48&amp;"'", "")&amp;IF(N48&lt;&gt;"", ", capacity: '"&amp;N48&amp;"'", "")&amp;IF(O48&lt;&gt;"", ", cost: '"&amp;O48&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R48, CHAR(10), "\n")&amp;"'"&amp;IF(P48="○", ", sealable: true", "")&amp;IF(Q48="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '04-tokoyo-o-n-4': {megami: 'tokoyo', name: '詩舞', ruby: 'しぶ', baseType: 'normal', types: ['action', 'reaction'], text: '集中力を1得て、以下から1つを選ぶ。\n・自フレア→自オーラ：1\n・自オーラ→間合：1'}</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+      <c r="T48" s="5"/>
+      <c r="U48" s="13"/>
+      <c r="V48" s="3" t="str">
+        <f>", '"&amp;A48&amp;"': {megami: '"&amp;B48&amp;"'"&amp;IF(C48&lt;&gt;"", ", anotherID: '" &amp; C48 &amp; "', replace: '" &amp; D48 &amp; "'", "")&amp;", name: '"&amp;E48&amp;"', nameEn: '"&amp;SUBSTITUTE(G48, "'", "\'")&amp;"', ruby: '"&amp;F48&amp;"', baseType: '"&amp;VLOOKUP(H48,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I48,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J48&lt;&gt;"",", '"&amp; VLOOKUP(J48,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K48&lt;&gt;"", ", range: '"&amp;K48&amp;"'", "")&amp;IF(M48&lt;&gt;"", ", damage: '"&amp;M48&amp;"'", "")&amp;IF(O48&lt;&gt;"", ", capacity: '"&amp;O48&amp;"'", "")&amp;IF(P48&lt;&gt;"", ", cost: '"&amp;P48&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S48, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T48, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q48="○", ", sealable: true", "")&amp;IF(R48="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '04-tokoyo-o-n-4': {megami: 'tokoyo', name: '詩舞', nameEn: '', ruby: 'しぶ', baseType: 'normal', types: ['action', 'reaction'], text: '集中力を1得て、以下から1つを選ぶ。\n・自フレア→自オーラ：1\n・自オーラ→間合：1', textEn: ''}</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" ht="36" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
         <v>38</v>
       </c>
@@ -5534,27 +5942,28 @@
       <c r="F49" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="H49" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H49" s="4" t="s">
+      <c r="I49" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I49" s="4" t="s">
+      <c r="J49" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K49" s="13"/>
-      <c r="M49" s="13"/>
-      <c r="R49" s="5" t="s">
+      <c r="L49" s="13"/>
+      <c r="N49" s="13"/>
+      <c r="S49" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="S49" s="13"/>
-      <c r="T49" s="3" t="str">
-        <f>", '"&amp;A49&amp;"': {megami: '"&amp;B49&amp;"'"&amp;IF(C49&lt;&gt;"", ", anotherID: '" &amp; C49 &amp; "', replace: '" &amp; D49 &amp; "'", "")&amp;", name: '"&amp;E49&amp;"', ruby: '"&amp;F49&amp;"', baseType: '"&amp;VLOOKUP(G49,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H49,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I49&lt;&gt;"",", '"&amp; VLOOKUP(I49,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J49&lt;&gt;"", ", range: '"&amp;J49&amp;"'", "")&amp;IF(L49&lt;&gt;"", ", damage: '"&amp;L49&amp;"'", "")&amp;IF(N49&lt;&gt;"", ", capacity: '"&amp;N49&amp;"'", "")&amp;IF(O49&lt;&gt;"", ", cost: '"&amp;O49&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R49, CHAR(10), "\n")&amp;"'"&amp;IF(P49="○", ", sealable: true", "")&amp;IF(Q49="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '04-tokoyo-o-n-5': {megami: 'tokoyo', name: '要返し', ruby: 'かなめがえし', baseType: 'normal', types: ['action', 'fullpower'], text: '捨て札か伏せ札からカードを2枚まで選ぶ。それらのカードを好きな順で山札の底に置く。 \nダスト→自オーラ：2'}</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+      <c r="T49" s="5"/>
+      <c r="U49" s="13"/>
+      <c r="V49" s="3" t="str">
+        <f>", '"&amp;A49&amp;"': {megami: '"&amp;B49&amp;"'"&amp;IF(C49&lt;&gt;"", ", anotherID: '" &amp; C49 &amp; "', replace: '" &amp; D49 &amp; "'", "")&amp;", name: '"&amp;E49&amp;"', nameEn: '"&amp;SUBSTITUTE(G49, "'", "\'")&amp;"', ruby: '"&amp;F49&amp;"', baseType: '"&amp;VLOOKUP(H49,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I49,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J49&lt;&gt;"",", '"&amp; VLOOKUP(J49,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K49&lt;&gt;"", ", range: '"&amp;K49&amp;"'", "")&amp;IF(M49&lt;&gt;"", ", damage: '"&amp;M49&amp;"'", "")&amp;IF(O49&lt;&gt;"", ", capacity: '"&amp;O49&amp;"'", "")&amp;IF(P49&lt;&gt;"", ", cost: '"&amp;P49&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S49, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T49, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q49="○", ", sealable: true", "")&amp;IF(R49="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '04-tokoyo-o-n-5': {megami: 'tokoyo', name: '要返し', nameEn: '', ruby: 'かなめがえし', baseType: 'normal', types: ['action', 'fullpower'], text: '捨て札か伏せ札からカードを2枚まで選ぶ。それらのカードを好きな順で山札の底に置く。 \nダスト→自オーラ：2', textEn: ''}</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" ht="24" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
         <v>39</v>
       </c>
@@ -5567,27 +5976,28 @@
       <c r="F50" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="H50" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H50" s="4" t="s">
+      <c r="I50" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K50" s="13"/>
-      <c r="M50" s="13"/>
-      <c r="N50" s="4">
+      <c r="L50" s="13"/>
+      <c r="N50" s="13"/>
+      <c r="O50" s="4">
         <v>2</v>
       </c>
-      <c r="R50" s="5" t="s">
+      <c r="S50" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="S50" s="13"/>
-      <c r="T50" s="3" t="str">
-        <f>", '"&amp;A50&amp;"': {megami: '"&amp;B50&amp;"'"&amp;IF(C50&lt;&gt;"", ", anotherID: '" &amp; C50 &amp; "', replace: '" &amp; D50 &amp; "'", "")&amp;", name: '"&amp;E50&amp;"', ruby: '"&amp;F50&amp;"', baseType: '"&amp;VLOOKUP(G50,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H50,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I50&lt;&gt;"",", '"&amp; VLOOKUP(I50,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J50&lt;&gt;"", ", range: '"&amp;J50&amp;"'", "")&amp;IF(L50&lt;&gt;"", ", damage: '"&amp;L50&amp;"'", "")&amp;IF(N50&lt;&gt;"", ", capacity: '"&amp;N50&amp;"'", "")&amp;IF(O50&lt;&gt;"", ", cost: '"&amp;O50&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R50, CHAR(10), "\n")&amp;"'"&amp;IF(P50="○", ", sealable: true", "")&amp;IF(Q50="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '04-tokoyo-o-n-6': {megami: 'tokoyo', name: '風舞台', ruby: 'かぜぶたい', baseType: 'normal', types: ['enhance'], capacity: '2', text: '【展開時】間合→自オーラ：2 \n【破棄時】自オーラ→間合：2'}</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+      <c r="T50" s="5"/>
+      <c r="U50" s="13"/>
+      <c r="V50" s="3" t="str">
+        <f>", '"&amp;A50&amp;"': {megami: '"&amp;B50&amp;"'"&amp;IF(C50&lt;&gt;"", ", anotherID: '" &amp; C50 &amp; "', replace: '" &amp; D50 &amp; "'", "")&amp;", name: '"&amp;E50&amp;"', nameEn: '"&amp;SUBSTITUTE(G50, "'", "\'")&amp;"', ruby: '"&amp;F50&amp;"', baseType: '"&amp;VLOOKUP(H50,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I50,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J50&lt;&gt;"",", '"&amp; VLOOKUP(J50,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K50&lt;&gt;"", ", range: '"&amp;K50&amp;"'", "")&amp;IF(M50&lt;&gt;"", ", damage: '"&amp;M50&amp;"'", "")&amp;IF(O50&lt;&gt;"", ", capacity: '"&amp;O50&amp;"'", "")&amp;IF(P50&lt;&gt;"", ", cost: '"&amp;P50&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S50, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T50, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q50="○", ", sealable: true", "")&amp;IF(R50="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '04-tokoyo-o-n-6': {megami: 'tokoyo', name: '風舞台', nameEn: '', ruby: 'かぜぶたい', baseType: 'normal', types: ['enhance'], capacity: '2', text: '【展開時】間合→自オーラ：2 \n【破棄時】自オーラ→間合：2', textEn: ''}</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" ht="24" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
         <v>40</v>
       </c>
@@ -5600,27 +6010,28 @@
       <c r="F51" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G51" s="4" t="s">
+      <c r="H51" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H51" s="4" t="s">
+      <c r="I51" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K51" s="13"/>
-      <c r="M51" s="13"/>
-      <c r="N51" s="4">
+      <c r="L51" s="13"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="4">
         <v>1</v>
       </c>
-      <c r="R51" s="5" t="s">
+      <c r="S51" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="S51" s="13"/>
-      <c r="T51" s="3" t="str">
-        <f>", '"&amp;A51&amp;"': {megami: '"&amp;B51&amp;"'"&amp;IF(C51&lt;&gt;"", ", anotherID: '" &amp; C51 &amp; "', replace: '" &amp; D51 &amp; "'", "")&amp;", name: '"&amp;E51&amp;"', ruby: '"&amp;F51&amp;"', baseType: '"&amp;VLOOKUP(G51,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H51,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I51&lt;&gt;"",", '"&amp; VLOOKUP(I51,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J51&lt;&gt;"", ", range: '"&amp;J51&amp;"'", "")&amp;IF(L51&lt;&gt;"", ", damage: '"&amp;L51&amp;"'", "")&amp;IF(N51&lt;&gt;"", ", capacity: '"&amp;N51&amp;"'", "")&amp;IF(O51&lt;&gt;"", ", cost: '"&amp;O51&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R51, CHAR(10), "\n")&amp;"'"&amp;IF(P51="○", ", sealable: true", "")&amp;IF(Q51="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '04-tokoyo-o-n-7': {megami: 'tokoyo', name: '晴舞台', ruby: 'はれぶたい', baseType: 'normal', types: ['enhance'], capacity: '1', text: '【破棄時】境地-あなたの集中力が2ならば、ダスト→自オーラ：2 \n【破棄時】境地-あなたは集中力を1得る。'}</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+      <c r="T51" s="5"/>
+      <c r="U51" s="13"/>
+      <c r="V51" s="3" t="str">
+        <f>", '"&amp;A51&amp;"': {megami: '"&amp;B51&amp;"'"&amp;IF(C51&lt;&gt;"", ", anotherID: '" &amp; C51 &amp; "', replace: '" &amp; D51 &amp; "'", "")&amp;", name: '"&amp;E51&amp;"', nameEn: '"&amp;SUBSTITUTE(G51, "'", "\'")&amp;"', ruby: '"&amp;F51&amp;"', baseType: '"&amp;VLOOKUP(H51,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I51,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J51&lt;&gt;"",", '"&amp; VLOOKUP(J51,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K51&lt;&gt;"", ", range: '"&amp;K51&amp;"'", "")&amp;IF(M51&lt;&gt;"", ", damage: '"&amp;M51&amp;"'", "")&amp;IF(O51&lt;&gt;"", ", capacity: '"&amp;O51&amp;"'", "")&amp;IF(P51&lt;&gt;"", ", cost: '"&amp;P51&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S51, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T51, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q51="○", ", sealable: true", "")&amp;IF(R51="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '04-tokoyo-o-n-7': {megami: 'tokoyo', name: '晴舞台', nameEn: '', ruby: 'はれぶたい', baseType: 'normal', types: ['enhance'], capacity: '1', text: '【破棄時】境地-あなたの集中力が2ならば、ダスト→自オーラ：2 \n【破棄時】境地-あなたは集中力を1得る。', textEn: ''}</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" ht="36" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
         <v>577</v>
       </c>
@@ -5639,27 +6050,28 @@
       <c r="F52" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="G52" s="4" t="s">
+      <c r="H52" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H52" s="4" t="s">
+      <c r="I52" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K52" s="13"/>
-      <c r="M52" s="13"/>
-      <c r="N52" s="4" t="s">
+      <c r="L52" s="13"/>
+      <c r="N52" s="13"/>
+      <c r="O52" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="R52" s="5" t="s">
+      <c r="S52" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="S52" s="13"/>
-      <c r="T52" s="3" t="str">
-        <f>", '"&amp;A52&amp;"': {megami: '"&amp;B52&amp;"'"&amp;IF(C52&lt;&gt;"", ", anotherID: '" &amp; C52 &amp; "', replace: '" &amp; D52 &amp; "'", "")&amp;", name: '"&amp;E52&amp;"', ruby: '"&amp;F52&amp;"', baseType: '"&amp;VLOOKUP(G52,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H52,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I52&lt;&gt;"",", '"&amp; VLOOKUP(I52,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J52&lt;&gt;"", ", range: '"&amp;J52&amp;"'", "")&amp;IF(L52&lt;&gt;"", ", damage: '"&amp;L52&amp;"'", "")&amp;IF(N52&lt;&gt;"", ", capacity: '"&amp;N52&amp;"'", "")&amp;IF(O52&lt;&gt;"", ", cost: '"&amp;O52&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R52, CHAR(10), "\n")&amp;"'"&amp;IF(P52="○", ", sealable: true", "")&amp;IF(Q52="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '04-tokoyo-A1-n-7': {megami: 'tokoyo', anotherID: 'A1', replace: '04-tokoyo-o-n-7', name: '陽の音', ruby: 'ひのね', baseType: 'normal', types: ['enhance'], capacity: '2', text: '【展開時/展開中】展開時、およびあなたが《対応》カードを使用した時、その解決後にダスト→自オーラ：1 \n【展開中】相手のターンにこのカードの上の桜花結晶は移動しない。'}</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="T52" s="5"/>
+      <c r="U52" s="13"/>
+      <c r="V52" s="3" t="str">
+        <f>", '"&amp;A52&amp;"': {megami: '"&amp;B52&amp;"'"&amp;IF(C52&lt;&gt;"", ", anotherID: '" &amp; C52 &amp; "', replace: '" &amp; D52 &amp; "'", "")&amp;", name: '"&amp;E52&amp;"', nameEn: '"&amp;SUBSTITUTE(G52, "'", "\'")&amp;"', ruby: '"&amp;F52&amp;"', baseType: '"&amp;VLOOKUP(H52,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I52,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J52&lt;&gt;"",", '"&amp; VLOOKUP(J52,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K52&lt;&gt;"", ", range: '"&amp;K52&amp;"'", "")&amp;IF(M52&lt;&gt;"", ", damage: '"&amp;M52&amp;"'", "")&amp;IF(O52&lt;&gt;"", ", capacity: '"&amp;O52&amp;"'", "")&amp;IF(P52&lt;&gt;"", ", cost: '"&amp;P52&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S52, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T52, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q52="○", ", sealable: true", "")&amp;IF(R52="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '04-tokoyo-A1-n-7': {megami: 'tokoyo', anotherID: 'A1', replace: '04-tokoyo-o-n-7', name: '陽の音', nameEn: '', ruby: 'ひのね', baseType: 'normal', types: ['enhance'], capacity: '2', text: '【展開時/展開中】展開時、およびあなたが《対応》カードを使用した時、その解決後にダスト→自オーラ：1 \n【展開中】相手のターンにこのカードの上の桜花結晶は移動しない。', textEn: ''}</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
         <v>74</v>
       </c>
@@ -5672,36 +6084,36 @@
       <c r="F53" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G53" s="4" t="s">
+      <c r="H53" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H53" s="4" t="s">
+      <c r="I53" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I53" s="4" t="s">
+      <c r="J53" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="J53" s="4" t="s">
+      <c r="K53" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="K53" s="13"/>
-      <c r="L53" s="2" t="s">
+      <c r="L53" s="13"/>
+      <c r="M53" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M53" s="13"/>
-      <c r="O53" s="4" t="s">
+      <c r="N53" s="13"/>
+      <c r="P53" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="R53" s="4" t="s">
+      <c r="S53" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="S53" s="13"/>
-      <c r="T53" s="3" t="str">
-        <f>", '"&amp;A53&amp;"': {megami: '"&amp;B53&amp;"'"&amp;IF(C53&lt;&gt;"", ", anotherID: '" &amp; C53 &amp; "', replace: '" &amp; D53 &amp; "'", "")&amp;", name: '"&amp;E53&amp;"', ruby: '"&amp;F53&amp;"', baseType: '"&amp;VLOOKUP(G53,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H53,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I53&lt;&gt;"",", '"&amp; VLOOKUP(I53,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J53&lt;&gt;"", ", range: '"&amp;J53&amp;"'", "")&amp;IF(L53&lt;&gt;"", ", damage: '"&amp;L53&amp;"'", "")&amp;IF(N53&lt;&gt;"", ", capacity: '"&amp;N53&amp;"'", "")&amp;IF(O53&lt;&gt;"", ", cost: '"&amp;O53&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R53, CHAR(10), "\n")&amp;"'"&amp;IF(P53="○", ", sealable: true", "")&amp;IF(Q53="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '04-tokoyo-o-s-1': {megami: 'tokoyo', name: '久遠ノ花', ruby: 'くおんのはな', baseType: 'special', types: ['attack', 'reaction'], range: '0-10', damage: '-/1', cost: '5', text: '【攻撃後】対応した《攻撃》を打ち消す。'}</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+      <c r="U53" s="13"/>
+      <c r="V53" s="3" t="str">
+        <f>", '"&amp;A53&amp;"': {megami: '"&amp;B53&amp;"'"&amp;IF(C53&lt;&gt;"", ", anotherID: '" &amp; C53 &amp; "', replace: '" &amp; D53 &amp; "'", "")&amp;", name: '"&amp;E53&amp;"', nameEn: '"&amp;SUBSTITUTE(G53, "'", "\'")&amp;"', ruby: '"&amp;F53&amp;"', baseType: '"&amp;VLOOKUP(H53,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I53,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J53&lt;&gt;"",", '"&amp; VLOOKUP(J53,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K53&lt;&gt;"", ", range: '"&amp;K53&amp;"'", "")&amp;IF(M53&lt;&gt;"", ", damage: '"&amp;M53&amp;"'", "")&amp;IF(O53&lt;&gt;"", ", capacity: '"&amp;O53&amp;"'", "")&amp;IF(P53&lt;&gt;"", ", cost: '"&amp;P53&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S53, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T53, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q53="○", ", sealable: true", "")&amp;IF(R53="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '04-tokoyo-o-s-1': {megami: 'tokoyo', name: '久遠ノ花', nameEn: '', ruby: 'くおんのはな', baseType: 'special', types: ['attack', 'reaction'], range: '0-10', damage: '-/1', cost: '5', text: '【攻撃後】対応した《攻撃》を打ち消す。', textEn: ''}</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" ht="24" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
         <v>75</v>
       </c>
@@ -5714,33 +6126,34 @@
       <c r="F54" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="G54" s="4" t="s">
+      <c r="H54" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H54" s="4" t="s">
+      <c r="I54" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J54" s="4" t="s">
+      <c r="K54" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="K54" s="13"/>
-      <c r="L54" s="2" t="s">
+      <c r="L54" s="13"/>
+      <c r="M54" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="M54" s="13"/>
-      <c r="O54" s="4" t="s">
+      <c r="N54" s="13"/>
+      <c r="P54" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="R54" s="5" t="s">
+      <c r="S54" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="S54" s="13"/>
-      <c r="T54" s="3" t="str">
-        <f>", '"&amp;A54&amp;"': {megami: '"&amp;B54&amp;"'"&amp;IF(C54&lt;&gt;"", ", anotherID: '" &amp; C54 &amp; "', replace: '" &amp; D54 &amp; "'", "")&amp;", name: '"&amp;E54&amp;"', ruby: '"&amp;F54&amp;"', baseType: '"&amp;VLOOKUP(G54,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H54,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I54&lt;&gt;"",", '"&amp; VLOOKUP(I54,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J54&lt;&gt;"", ", range: '"&amp;J54&amp;"'", "")&amp;IF(L54&lt;&gt;"", ", damage: '"&amp;L54&amp;"'", "")&amp;IF(N54&lt;&gt;"", ", capacity: '"&amp;N54&amp;"'", "")&amp;IF(O54&lt;&gt;"", ", cost: '"&amp;O54&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R54, CHAR(10), "\n")&amp;"'"&amp;IF(P54="○", ", sealable: true", "")&amp;IF(Q54="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '04-tokoyo-o-s-2': {megami: 'tokoyo', name: '千歳ノ鳥', ruby: 'ちとせのとり', baseType: 'special', types: ['attack'], range: '3-4', damage: '2/2', cost: '2', text: '【攻撃後】山札を再構成する。 \n(その際にダメージは受けない)'}</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" ht="48" x14ac:dyDescent="0.15">
+      <c r="T54" s="5"/>
+      <c r="U54" s="13"/>
+      <c r="V54" s="3" t="str">
+        <f>", '"&amp;A54&amp;"': {megami: '"&amp;B54&amp;"'"&amp;IF(C54&lt;&gt;"", ", anotherID: '" &amp; C54 &amp; "', replace: '" &amp; D54 &amp; "'", "")&amp;", name: '"&amp;E54&amp;"', nameEn: '"&amp;SUBSTITUTE(G54, "'", "\'")&amp;"', ruby: '"&amp;F54&amp;"', baseType: '"&amp;VLOOKUP(H54,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I54,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J54&lt;&gt;"",", '"&amp; VLOOKUP(J54,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K54&lt;&gt;"", ", range: '"&amp;K54&amp;"'", "")&amp;IF(M54&lt;&gt;"", ", damage: '"&amp;M54&amp;"'", "")&amp;IF(O54&lt;&gt;"", ", capacity: '"&amp;O54&amp;"'", "")&amp;IF(P54&lt;&gt;"", ", cost: '"&amp;P54&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S54, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T54, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q54="○", ", sealable: true", "")&amp;IF(R54="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '04-tokoyo-o-s-2': {megami: 'tokoyo', name: '千歳ノ鳥', nameEn: '', ruby: 'ちとせのとり', baseType: 'special', types: ['attack'], range: '3-4', damage: '2/2', cost: '2', text: '【攻撃後】山札を再構成する。 \n(その際にダメージは受けない)', textEn: ''}</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" ht="48" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
         <v>578</v>
       </c>
@@ -5759,27 +6172,28 @@
       <c r="F55" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="G55" s="4" t="s">
+      <c r="H55" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H55" s="4" t="s">
+      <c r="I55" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K55" s="13"/>
-      <c r="M55" s="13"/>
-      <c r="O55" s="4" t="s">
+      <c r="L55" s="13"/>
+      <c r="N55" s="13"/>
+      <c r="P55" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="R55" s="5" t="s">
+      <c r="S55" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="S55" s="13"/>
-      <c r="T55" s="3" t="str">
-        <f>", '"&amp;A55&amp;"': {megami: '"&amp;B55&amp;"'"&amp;IF(C55&lt;&gt;"", ", anotherID: '" &amp; C55 &amp; "', replace: '" &amp; D55 &amp; "'", "")&amp;", name: '"&amp;E55&amp;"', ruby: '"&amp;F55&amp;"', baseType: '"&amp;VLOOKUP(G55,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H55,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I55&lt;&gt;"",", '"&amp; VLOOKUP(I55,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J55&lt;&gt;"", ", range: '"&amp;J55&amp;"'", "")&amp;IF(L55&lt;&gt;"", ", damage: '"&amp;L55&amp;"'", "")&amp;IF(N55&lt;&gt;"", ", capacity: '"&amp;N55&amp;"'", "")&amp;IF(O55&lt;&gt;"", ", cost: '"&amp;O55&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R55, CHAR(10), "\n")&amp;"'"&amp;IF(P55="○", ", sealable: true", "")&amp;IF(Q55="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '04-tokoyo-A1-s-2': {megami: 'tokoyo', anotherID: 'A1', replace: '04-tokoyo-o-s-2', name: '二重奏:吹弾陽明', ruby: 'にじゅうそう：すいだんようめい', baseType: 'special', types: ['action'], cost: '1', text: '【使用済】あなたの開始フェイズの開始時に捨て札または伏せ札からカード1枚を選び、それを山札の底に置いてもよい。 \n----\n【即再起】あなたが再構成以外でライフに1以上のダメージを受ける。'}</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" ht="60" x14ac:dyDescent="0.15">
+      <c r="T55" s="5"/>
+      <c r="U55" s="13"/>
+      <c r="V55" s="3" t="str">
+        <f>", '"&amp;A55&amp;"': {megami: '"&amp;B55&amp;"'"&amp;IF(C55&lt;&gt;"", ", anotherID: '" &amp; C55 &amp; "', replace: '" &amp; D55 &amp; "'", "")&amp;", name: '"&amp;E55&amp;"', nameEn: '"&amp;SUBSTITUTE(G55, "'", "\'")&amp;"', ruby: '"&amp;F55&amp;"', baseType: '"&amp;VLOOKUP(H55,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I55,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J55&lt;&gt;"",", '"&amp; VLOOKUP(J55,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K55&lt;&gt;"", ", range: '"&amp;K55&amp;"'", "")&amp;IF(M55&lt;&gt;"", ", damage: '"&amp;M55&amp;"'", "")&amp;IF(O55&lt;&gt;"", ", capacity: '"&amp;O55&amp;"'", "")&amp;IF(P55&lt;&gt;"", ", cost: '"&amp;P55&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S55, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T55, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q55="○", ", sealable: true", "")&amp;IF(R55="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '04-tokoyo-A1-s-2': {megami: 'tokoyo', anotherID: 'A1', replace: '04-tokoyo-o-s-2', name: '二重奏:吹弾陽明', nameEn: '', ruby: 'にじゅうそう：すいだんようめい', baseType: 'special', types: ['action'], cost: '1', text: '【使用済】あなたの開始フェイズの開始時に捨て札または伏せ札からカード1枚を選び、それを山札の底に置いてもよい。 \n----\n【即再起】あなたが再構成以外でライフに1以上のダメージを受ける。', textEn: ''}</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" ht="60" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
         <v>76</v>
       </c>
@@ -5792,33 +6206,34 @@
       <c r="F56" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G56" s="4" t="s">
+      <c r="H56" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H56" s="4" t="s">
+      <c r="I56" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J56" s="4" t="s">
+      <c r="K56" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="K56" s="13"/>
-      <c r="L56" s="2" t="s">
+      <c r="L56" s="13"/>
+      <c r="M56" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="M56" s="13"/>
-      <c r="O56" s="4" t="s">
+      <c r="N56" s="13"/>
+      <c r="P56" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="R56" s="5" t="s">
+      <c r="S56" s="5" t="s">
         <v>812</v>
       </c>
-      <c r="S56" s="13"/>
-      <c r="T56" s="3" t="str">
-        <f>", '"&amp;A56&amp;"': {megami: '"&amp;B56&amp;"'"&amp;IF(C56&lt;&gt;"", ", anotherID: '" &amp; C56 &amp; "', replace: '" &amp; D56 &amp; "'", "")&amp;", name: '"&amp;E56&amp;"', ruby: '"&amp;F56&amp;"', baseType: '"&amp;VLOOKUP(G56,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H56,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I56&lt;&gt;"",", '"&amp; VLOOKUP(I56,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J56&lt;&gt;"", ", range: '"&amp;J56&amp;"'", "")&amp;IF(L56&lt;&gt;"", ", damage: '"&amp;L56&amp;"'", "")&amp;IF(N56&lt;&gt;"", ", capacity: '"&amp;N56&amp;"'", "")&amp;IF(O56&lt;&gt;"", ", cost: '"&amp;O56&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R56, CHAR(10), "\n")&amp;"'"&amp;IF(P56="○", ", sealable: true", "")&amp;IF(Q56="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '04-tokoyo-o-s-3': {megami: 'tokoyo', name: '無窮ノ風', ruby: 'むきゅうのかぜ', baseType: 'special', types: ['attack'], range: '3-8', damage: '1/1', cost: '1', text: '対応不可 \n【攻撃後】相手は手札から《攻撃》でないカード1枚を捨て札にする。それが行えない場合、相手は手札を公開する。 \n----\n【再起】境地-あなたの集中力が2である。'}</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="T56" s="5"/>
+      <c r="U56" s="13"/>
+      <c r="V56" s="3" t="str">
+        <f>", '"&amp;A56&amp;"': {megami: '"&amp;B56&amp;"'"&amp;IF(C56&lt;&gt;"", ", anotherID: '" &amp; C56 &amp; "', replace: '" &amp; D56 &amp; "'", "")&amp;", name: '"&amp;E56&amp;"', nameEn: '"&amp;SUBSTITUTE(G56, "'", "\'")&amp;"', ruby: '"&amp;F56&amp;"', baseType: '"&amp;VLOOKUP(H56,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I56,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J56&lt;&gt;"",", '"&amp; VLOOKUP(J56,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K56&lt;&gt;"", ", range: '"&amp;K56&amp;"'", "")&amp;IF(M56&lt;&gt;"", ", damage: '"&amp;M56&amp;"'", "")&amp;IF(O56&lt;&gt;"", ", capacity: '"&amp;O56&amp;"'", "")&amp;IF(P56&lt;&gt;"", ", cost: '"&amp;P56&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S56, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T56, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q56="○", ", sealable: true", "")&amp;IF(R56="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '04-tokoyo-o-s-3': {megami: 'tokoyo', name: '無窮ノ風', nameEn: '', ruby: 'むきゅうのかぜ', baseType: 'special', types: ['attack'], range: '3-8', damage: '1/1', cost: '1', text: '対応不可 \n【攻撃後】相手は手札から《攻撃》でないカード1枚を捨て札にする。それが行えない場合、相手は手札を公開する。 \n----\n【再起】境地-あなたの集中力が2である。', textEn: ''}</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
         <v>77</v>
       </c>
@@ -5831,27 +6246,27 @@
       <c r="F57" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G57" s="4" t="s">
+      <c r="H57" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H57" s="4" t="s">
+      <c r="I57" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K57" s="13"/>
-      <c r="M57" s="13"/>
-      <c r="O57" s="4" t="s">
+      <c r="L57" s="13"/>
+      <c r="N57" s="13"/>
+      <c r="P57" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="R57" s="4" t="s">
+      <c r="S57" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="S57" s="13"/>
-      <c r="T57" s="3" t="str">
-        <f>", '"&amp;A57&amp;"': {megami: '"&amp;B57&amp;"'"&amp;IF(C57&lt;&gt;"", ", anotherID: '" &amp; C57 &amp; "', replace: '" &amp; D57 &amp; "'", "")&amp;", name: '"&amp;E57&amp;"', ruby: '"&amp;F57&amp;"', baseType: '"&amp;VLOOKUP(G57,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H57,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I57&lt;&gt;"",", '"&amp; VLOOKUP(I57,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J57&lt;&gt;"", ", range: '"&amp;J57&amp;"'", "")&amp;IF(L57&lt;&gt;"", ", damage: '"&amp;L57&amp;"'", "")&amp;IF(N57&lt;&gt;"", ", capacity: '"&amp;N57&amp;"'", "")&amp;IF(O57&lt;&gt;"", ", cost: '"&amp;O57&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R57, CHAR(10), "\n")&amp;"'"&amp;IF(P57="○", ", sealable: true", "")&amp;IF(Q57="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '04-tokoyo-o-s-4': {megami: 'tokoyo', name: '常世ノ月', ruby: 'とこよのつき', baseType: 'special', types: ['action'], cost: '2', text: 'あなたの集中力は2になり、相手の集中力は0になり、相手を畏縮させる。'}</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U57" s="13"/>
+      <c r="V57" s="3" t="str">
+        <f>", '"&amp;A57&amp;"': {megami: '"&amp;B57&amp;"'"&amp;IF(C57&lt;&gt;"", ", anotherID: '" &amp; C57 &amp; "', replace: '" &amp; D57 &amp; "'", "")&amp;", name: '"&amp;E57&amp;"', nameEn: '"&amp;SUBSTITUTE(G57, "'", "\'")&amp;"', ruby: '"&amp;F57&amp;"', baseType: '"&amp;VLOOKUP(H57,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I57,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J57&lt;&gt;"",", '"&amp; VLOOKUP(J57,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K57&lt;&gt;"", ", range: '"&amp;K57&amp;"'", "")&amp;IF(M57&lt;&gt;"", ", damage: '"&amp;M57&amp;"'", "")&amp;IF(O57&lt;&gt;"", ", capacity: '"&amp;O57&amp;"'", "")&amp;IF(P57&lt;&gt;"", ", cost: '"&amp;P57&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S57, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T57, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q57="○", ", sealable: true", "")&amp;IF(R57="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '04-tokoyo-o-s-4': {megami: 'tokoyo', name: '常世ノ月', nameEn: '', ruby: 'とこよのつき', baseType: 'special', types: ['action'], cost: '2', text: 'あなたの集中力は2になり、相手の集中力は0になり、相手を畏縮させる。', textEn: ''}</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
         <v>92</v>
       </c>
@@ -5864,30 +6279,31 @@
       <c r="F58" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G58" s="4" t="s">
+      <c r="H58" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H58" s="4" t="s">
+      <c r="I58" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J58" s="4" t="s">
+      <c r="K58" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="K58" s="13"/>
-      <c r="L58" s="2" t="s">
+      <c r="L58" s="13"/>
+      <c r="M58" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="M58" s="13"/>
-      <c r="R58" s="6" t="s">
+      <c r="N58" s="13"/>
+      <c r="S58" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="S58" s="13"/>
-      <c r="T58" s="3" t="str">
-        <f>", '"&amp;A58&amp;"': {megami: '"&amp;B58&amp;"'"&amp;IF(C58&lt;&gt;"", ", anotherID: '" &amp; C58 &amp; "', replace: '" &amp; D58 &amp; "'", "")&amp;", name: '"&amp;E58&amp;"', ruby: '"&amp;F58&amp;"', baseType: '"&amp;VLOOKUP(G58,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H58,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I58&lt;&gt;"",", '"&amp; VLOOKUP(I58,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J58&lt;&gt;"", ", range: '"&amp;J58&amp;"'", "")&amp;IF(L58&lt;&gt;"", ", damage: '"&amp;L58&amp;"'", "")&amp;IF(N58&lt;&gt;"", ", capacity: '"&amp;N58&amp;"'", "")&amp;IF(O58&lt;&gt;"", ", cost: '"&amp;O58&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R58, CHAR(10), "\n")&amp;"'"&amp;IF(P58="○", ", sealable: true", "")&amp;IF(Q58="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '05-oboro-o-n-1': {megami: 'oboro', name: '鋼糸', ruby: 'こうし', baseType: 'normal', types: ['attack'], range: '3-4', damage: '2/2', text: '設置'}</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="T58" s="6"/>
+      <c r="U58" s="13"/>
+      <c r="V58" s="3" t="str">
+        <f>", '"&amp;A58&amp;"': {megami: '"&amp;B58&amp;"'"&amp;IF(C58&lt;&gt;"", ", anotherID: '" &amp; C58 &amp; "', replace: '" &amp; D58 &amp; "'", "")&amp;", name: '"&amp;E58&amp;"', nameEn: '"&amp;SUBSTITUTE(G58, "'", "\'")&amp;"', ruby: '"&amp;F58&amp;"', baseType: '"&amp;VLOOKUP(H58,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I58,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J58&lt;&gt;"",", '"&amp; VLOOKUP(J58,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K58&lt;&gt;"", ", range: '"&amp;K58&amp;"'", "")&amp;IF(M58&lt;&gt;"", ", damage: '"&amp;M58&amp;"'", "")&amp;IF(O58&lt;&gt;"", ", capacity: '"&amp;O58&amp;"'", "")&amp;IF(P58&lt;&gt;"", ", cost: '"&amp;P58&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S58, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T58, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q58="○", ", sealable: true", "")&amp;IF(R58="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '05-oboro-o-n-1': {megami: 'oboro', name: '鋼糸', nameEn: '', ruby: 'こうし', baseType: 'normal', types: ['attack'], range: '3-4', damage: '2/2', text: '設置', textEn: ''}</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
         <v>93</v>
       </c>
@@ -5900,30 +6316,31 @@
       <c r="F59" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="G59" s="4" t="s">
+      <c r="H59" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H59" s="4" t="s">
+      <c r="I59" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J59" s="4" t="s">
+      <c r="K59" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="K59" s="13"/>
-      <c r="L59" s="2" t="s">
+      <c r="L59" s="13"/>
+      <c r="M59" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="M59" s="13"/>
-      <c r="R59" s="7" t="s">
+      <c r="N59" s="13"/>
+      <c r="S59" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="S59" s="13"/>
-      <c r="T59" s="3" t="str">
-        <f>", '"&amp;A59&amp;"': {megami: '"&amp;B59&amp;"'"&amp;IF(C59&lt;&gt;"", ", anotherID: '" &amp; C59 &amp; "', replace: '" &amp; D59 &amp; "'", "")&amp;", name: '"&amp;E59&amp;"', ruby: '"&amp;F59&amp;"', baseType: '"&amp;VLOOKUP(G59,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H59,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I59&lt;&gt;"",", '"&amp; VLOOKUP(I59,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J59&lt;&gt;"", ", range: '"&amp;J59&amp;"'", "")&amp;IF(L59&lt;&gt;"", ", damage: '"&amp;L59&amp;"'", "")&amp;IF(N59&lt;&gt;"", ", capacity: '"&amp;N59&amp;"'", "")&amp;IF(O59&lt;&gt;"", ", cost: '"&amp;O59&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R59, CHAR(10), "\n")&amp;"'"&amp;IF(P59="○", ", sealable: true", "")&amp;IF(Q59="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '05-oboro-o-n-2': {megami: 'oboro', name: '影菱', ruby: 'かげびし', baseType: 'normal', types: ['attack'], range: '2', damage: '2/1', text: '設置　対応不可\n【攻撃後】このカードを伏せ札から使用したならば、相手の手札を見てその中から1枚を選び、それを伏せ札にする。'}</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+      <c r="T59" s="7"/>
+      <c r="U59" s="13"/>
+      <c r="V59" s="3" t="str">
+        <f>", '"&amp;A59&amp;"': {megami: '"&amp;B59&amp;"'"&amp;IF(C59&lt;&gt;"", ", anotherID: '" &amp; C59 &amp; "', replace: '" &amp; D59 &amp; "'", "")&amp;", name: '"&amp;E59&amp;"', nameEn: '"&amp;SUBSTITUTE(G59, "'", "\'")&amp;"', ruby: '"&amp;F59&amp;"', baseType: '"&amp;VLOOKUP(H59,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I59,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J59&lt;&gt;"",", '"&amp; VLOOKUP(J59,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K59&lt;&gt;"", ", range: '"&amp;K59&amp;"'", "")&amp;IF(M59&lt;&gt;"", ", damage: '"&amp;M59&amp;"'", "")&amp;IF(O59&lt;&gt;"", ", capacity: '"&amp;O59&amp;"'", "")&amp;IF(P59&lt;&gt;"", ", cost: '"&amp;P59&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S59, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T59, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q59="○", ", sealable: true", "")&amp;IF(R59="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '05-oboro-o-n-2': {megami: 'oboro', name: '影菱', nameEn: '', ruby: 'かげびし', baseType: 'normal', types: ['attack'], range: '2', damage: '2/1', text: '設置　対応不可\n【攻撃後】このカードを伏せ札から使用したならば、相手の手札を見てその中から1枚を選び、それを伏せ札にする。', textEn: ''}</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" ht="24" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
         <v>94</v>
       </c>
@@ -5936,33 +6353,34 @@
       <c r="F60" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="G60" s="4" t="s">
+      <c r="H60" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H60" s="4" t="s">
+      <c r="I60" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I60" s="4" t="s">
+      <c r="J60" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J60" s="4" t="s">
+      <c r="K60" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="K60" s="13"/>
-      <c r="L60" s="2" t="s">
+      <c r="L60" s="13"/>
+      <c r="M60" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="M60" s="13"/>
-      <c r="R60" s="5" t="s">
+      <c r="N60" s="13"/>
+      <c r="S60" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="S60" s="13"/>
-      <c r="T60" s="3" t="str">
-        <f>", '"&amp;A60&amp;"': {megami: '"&amp;B60&amp;"'"&amp;IF(C60&lt;&gt;"", ", anotherID: '" &amp; C60 &amp; "', replace: '" &amp; D60 &amp; "'", "")&amp;", name: '"&amp;E60&amp;"', ruby: '"&amp;F60&amp;"', baseType: '"&amp;VLOOKUP(G60,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H60,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I60&lt;&gt;"",", '"&amp; VLOOKUP(I60,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J60&lt;&gt;"", ", range: '"&amp;J60&amp;"'", "")&amp;IF(L60&lt;&gt;"", ", damage: '"&amp;L60&amp;"'", "")&amp;IF(N60&lt;&gt;"", ", capacity: '"&amp;N60&amp;"'", "")&amp;IF(O60&lt;&gt;"", ", cost: '"&amp;O60&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R60, CHAR(10), "\n")&amp;"'"&amp;IF(P60="○", ", sealable: true", "")&amp;IF(Q60="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '05-oboro-o-n-3': {megami: 'oboro', name: '斬撃乱舞', ruby: 'ざんげきらんぶ', baseType: 'normal', types: ['attack', 'fullpower'], range: '2-4', damage: '3/2', text: '【常時】相手がこのターン中にオーラへのダメージを受けているならば、この《攻撃》は+1/+1となる。'}</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" ht="48" x14ac:dyDescent="0.15">
+      <c r="T60" s="5"/>
+      <c r="U60" s="13"/>
+      <c r="V60" s="3" t="str">
+        <f>", '"&amp;A60&amp;"': {megami: '"&amp;B60&amp;"'"&amp;IF(C60&lt;&gt;"", ", anotherID: '" &amp; C60 &amp; "', replace: '" &amp; D60 &amp; "'", "")&amp;", name: '"&amp;E60&amp;"', nameEn: '"&amp;SUBSTITUTE(G60, "'", "\'")&amp;"', ruby: '"&amp;F60&amp;"', baseType: '"&amp;VLOOKUP(H60,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I60,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J60&lt;&gt;"",", '"&amp; VLOOKUP(J60,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K60&lt;&gt;"", ", range: '"&amp;K60&amp;"'", "")&amp;IF(M60&lt;&gt;"", ", damage: '"&amp;M60&amp;"'", "")&amp;IF(O60&lt;&gt;"", ", capacity: '"&amp;O60&amp;"'", "")&amp;IF(P60&lt;&gt;"", ", cost: '"&amp;P60&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S60, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T60, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q60="○", ", sealable: true", "")&amp;IF(R60="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '05-oboro-o-n-3': {megami: 'oboro', name: '斬撃乱舞', nameEn: '', ruby: 'ざんげきらんぶ', baseType: 'normal', types: ['attack', 'fullpower'], range: '2-4', damage: '3/2', text: '【常時】相手がこのターン中にオーラへのダメージを受けているならば、この《攻撃》は+1/+1となる。', textEn: ''}</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" ht="48" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
         <v>95</v>
       </c>
@@ -5975,24 +6393,25 @@
       <c r="F61" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="G61" s="4" t="s">
+      <c r="H61" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H61" s="4" t="s">
+      <c r="I61" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K61" s="13"/>
-      <c r="M61" s="13"/>
-      <c r="R61" s="5" t="s">
+      <c r="L61" s="13"/>
+      <c r="N61" s="13"/>
+      <c r="S61" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="S61" s="13"/>
-      <c r="T61" s="3" t="str">
-        <f>", '"&amp;A61&amp;"': {megami: '"&amp;B61&amp;"'"&amp;IF(C61&lt;&gt;"", ", anotherID: '" &amp; C61 &amp; "', replace: '" &amp; D61 &amp; "'", "")&amp;", name: '"&amp;E61&amp;"', ruby: '"&amp;F61&amp;"', baseType: '"&amp;VLOOKUP(G61,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H61,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I61&lt;&gt;"",", '"&amp; VLOOKUP(I61,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J61&lt;&gt;"", ", range: '"&amp;J61&amp;"'", "")&amp;IF(L61&lt;&gt;"", ", damage: '"&amp;L61&amp;"'", "")&amp;IF(N61&lt;&gt;"", ", capacity: '"&amp;N61&amp;"'", "")&amp;IF(O61&lt;&gt;"", ", cost: '"&amp;O61&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R61, CHAR(10), "\n")&amp;"'"&amp;IF(P61="○", ", sealable: true", "")&amp;IF(Q61="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '05-oboro-o-n-4': {megami: 'oboro', name: '忍歩', ruby: 'にんぽ', baseType: 'normal', types: ['action'], text: '設置 \n間合⇔ダスト：1 \nこのカードを伏せ札から使用したならば、伏せ札から設置を持つカードを1枚使用してもよい。'}</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" ht="48" x14ac:dyDescent="0.15">
+      <c r="T61" s="5"/>
+      <c r="U61" s="13"/>
+      <c r="V61" s="3" t="str">
+        <f>", '"&amp;A61&amp;"': {megami: '"&amp;B61&amp;"'"&amp;IF(C61&lt;&gt;"", ", anotherID: '" &amp; C61 &amp; "', replace: '" &amp; D61 &amp; "'", "")&amp;", name: '"&amp;E61&amp;"', nameEn: '"&amp;SUBSTITUTE(G61, "'", "\'")&amp;"', ruby: '"&amp;F61&amp;"', baseType: '"&amp;VLOOKUP(H61,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I61,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J61&lt;&gt;"",", '"&amp; VLOOKUP(J61,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K61&lt;&gt;"", ", range: '"&amp;K61&amp;"'", "")&amp;IF(M61&lt;&gt;"", ", damage: '"&amp;M61&amp;"'", "")&amp;IF(O61&lt;&gt;"", ", capacity: '"&amp;O61&amp;"'", "")&amp;IF(P61&lt;&gt;"", ", cost: '"&amp;P61&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S61, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T61, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q61="○", ", sealable: true", "")&amp;IF(R61="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '05-oboro-o-n-4': {megami: 'oboro', name: '忍歩', nameEn: '', ruby: 'にんぽ', baseType: 'normal', types: ['action'], text: '設置 \n間合⇔ダスト：1 \nこのカードを伏せ札から使用したならば、伏せ札から設置を持つカードを1枚使用してもよい。', textEn: ''}</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" ht="48" x14ac:dyDescent="0.15">
       <c r="A62" s="4" t="s">
         <v>96</v>
       </c>
@@ -6005,27 +6424,28 @@
       <c r="F62" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="G62" s="4" t="s">
+      <c r="H62" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H62" s="4" t="s">
+      <c r="I62" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I62" s="4" t="s">
+      <c r="J62" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K62" s="13"/>
-      <c r="M62" s="13"/>
-      <c r="R62" s="5" t="s">
+      <c r="L62" s="13"/>
+      <c r="N62" s="13"/>
+      <c r="S62" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="S62" s="13"/>
-      <c r="T62" s="3" t="str">
-        <f>", '"&amp;A62&amp;"': {megami: '"&amp;B62&amp;"'"&amp;IF(C62&lt;&gt;"", ", anotherID: '" &amp; C62 &amp; "', replace: '" &amp; D62 &amp; "'", "")&amp;", name: '"&amp;E62&amp;"', ruby: '"&amp;F62&amp;"', baseType: '"&amp;VLOOKUP(G62,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H62,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I62&lt;&gt;"",", '"&amp; VLOOKUP(I62,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J62&lt;&gt;"", ", range: '"&amp;J62&amp;"'", "")&amp;IF(L62&lt;&gt;"", ", damage: '"&amp;L62&amp;"'", "")&amp;IF(N62&lt;&gt;"", ", capacity: '"&amp;N62&amp;"'", "")&amp;IF(O62&lt;&gt;"", ", cost: '"&amp;O62&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R62, CHAR(10), "\n")&amp;"'"&amp;IF(P62="○", ", sealable: true", "")&amp;IF(Q62="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '05-oboro-o-n-5': {megami: 'oboro', name: '誘導', ruby: 'ゆうどう', baseType: 'normal', types: ['action', 'reaction'], text: '設置\n以下から１つを選ぶ。\n・間合→相オーラ：1\n・相オーラ→相フレア：1'}</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+      <c r="T62" s="5"/>
+      <c r="U62" s="13"/>
+      <c r="V62" s="3" t="str">
+        <f>", '"&amp;A62&amp;"': {megami: '"&amp;B62&amp;"'"&amp;IF(C62&lt;&gt;"", ", anotherID: '" &amp; C62 &amp; "', replace: '" &amp; D62 &amp; "'", "")&amp;", name: '"&amp;E62&amp;"', nameEn: '"&amp;SUBSTITUTE(G62, "'", "\'")&amp;"', ruby: '"&amp;F62&amp;"', baseType: '"&amp;VLOOKUP(H62,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I62,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J62&lt;&gt;"",", '"&amp; VLOOKUP(J62,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K62&lt;&gt;"", ", range: '"&amp;K62&amp;"'", "")&amp;IF(M62&lt;&gt;"", ", damage: '"&amp;M62&amp;"'", "")&amp;IF(O62&lt;&gt;"", ", capacity: '"&amp;O62&amp;"'", "")&amp;IF(P62&lt;&gt;"", ", cost: '"&amp;P62&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S62, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T62, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q62="○", ", sealable: true", "")&amp;IF(R62="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '05-oboro-o-n-5': {megami: 'oboro', name: '誘導', nameEn: '', ruby: 'ゆうどう', baseType: 'normal', types: ['action', 'reaction'], text: '設置\n以下から１つを選ぶ。\n・間合→相オーラ：1\n・相オーラ→相フレア：1', textEn: ''}</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" ht="36" x14ac:dyDescent="0.15">
       <c r="A63" s="4" t="s">
         <v>97</v>
       </c>
@@ -6038,27 +6458,28 @@
       <c r="F63" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="G63" s="4" t="s">
+      <c r="H63" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H63" s="4" t="s">
+      <c r="I63" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I63" s="4" t="s">
+      <c r="J63" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K63" s="13"/>
-      <c r="M63" s="13"/>
-      <c r="R63" s="5" t="s">
+      <c r="L63" s="13"/>
+      <c r="N63" s="13"/>
+      <c r="S63" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="S63" s="13"/>
-      <c r="T63" s="3" t="str">
-        <f>", '"&amp;A63&amp;"': {megami: '"&amp;B63&amp;"'"&amp;IF(C63&lt;&gt;"", ", anotherID: '" &amp; C63 &amp; "', replace: '" &amp; D63 &amp; "'", "")&amp;", name: '"&amp;E63&amp;"', ruby: '"&amp;F63&amp;"', baseType: '"&amp;VLOOKUP(G63,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H63,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I63&lt;&gt;"",", '"&amp; VLOOKUP(I63,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J63&lt;&gt;"", ", range: '"&amp;J63&amp;"'", "")&amp;IF(L63&lt;&gt;"", ", damage: '"&amp;L63&amp;"'", "")&amp;IF(N63&lt;&gt;"", ", capacity: '"&amp;N63&amp;"'", "")&amp;IF(O63&lt;&gt;"", ", cost: '"&amp;O63&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R63, CHAR(10), "\n")&amp;"'"&amp;IF(P63="○", ", sealable: true", "")&amp;IF(Q63="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '05-oboro-o-n-6': {megami: 'oboro', name: '分身の術', ruby: 'ぶんしんのじゅつ', baseType: 'normal', types: ['action', 'fullpower'], text: '伏せ札から《全力》でないカードを1枚選び、そのカードを使用する。その後、そのカードが捨て札にあるならば捨て札からもう1回使用する。《攻撃》カードが使用されたならばそれらの《攻撃》は対応不可を得る（2回ともに対応不可を得る）。'}</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+      <c r="T63" s="5"/>
+      <c r="U63" s="13"/>
+      <c r="V63" s="3" t="str">
+        <f>", '"&amp;A63&amp;"': {megami: '"&amp;B63&amp;"'"&amp;IF(C63&lt;&gt;"", ", anotherID: '" &amp; C63 &amp; "', replace: '" &amp; D63 &amp; "'", "")&amp;", name: '"&amp;E63&amp;"', nameEn: '"&amp;SUBSTITUTE(G63, "'", "\'")&amp;"', ruby: '"&amp;F63&amp;"', baseType: '"&amp;VLOOKUP(H63,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I63,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J63&lt;&gt;"",", '"&amp; VLOOKUP(J63,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K63&lt;&gt;"", ", range: '"&amp;K63&amp;"'", "")&amp;IF(M63&lt;&gt;"", ", damage: '"&amp;M63&amp;"'", "")&amp;IF(O63&lt;&gt;"", ", capacity: '"&amp;O63&amp;"'", "")&amp;IF(P63&lt;&gt;"", ", cost: '"&amp;P63&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S63, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T63, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q63="○", ", sealable: true", "")&amp;IF(R63="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '05-oboro-o-n-6': {megami: 'oboro', name: '分身の術', nameEn: '', ruby: 'ぶんしんのじゅつ', baseType: 'normal', types: ['action', 'fullpower'], text: '伏せ札から《全力》でないカードを1枚選び、そのカードを使用する。その後、そのカードが捨て札にあるならば捨て札からもう1回使用する。《攻撃》カードが使用されたならばそれらの《攻撃》は対応不可を得る（2回ともに対応不可を得る）。', textEn: ''}</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" ht="24" x14ac:dyDescent="0.15">
       <c r="A64" s="4" t="s">
         <v>98</v>
       </c>
@@ -6071,27 +6492,28 @@
       <c r="F64" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="G64" s="4" t="s">
+      <c r="H64" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H64" s="4" t="s">
+      <c r="I64" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K64" s="13"/>
-      <c r="M64" s="13"/>
-      <c r="N64" s="4" t="s">
+      <c r="L64" s="13"/>
+      <c r="N64" s="13"/>
+      <c r="O64" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="R64" s="5" t="s">
+      <c r="S64" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="S64" s="13"/>
-      <c r="T64" s="3" t="str">
-        <f>", '"&amp;A64&amp;"': {megami: '"&amp;B64&amp;"'"&amp;IF(C64&lt;&gt;"", ", anotherID: '" &amp; C64 &amp; "', replace: '" &amp; D64 &amp; "'", "")&amp;", name: '"&amp;E64&amp;"', ruby: '"&amp;F64&amp;"', baseType: '"&amp;VLOOKUP(G64,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H64,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I64&lt;&gt;"",", '"&amp; VLOOKUP(I64,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J64&lt;&gt;"", ", range: '"&amp;J64&amp;"'", "")&amp;IF(L64&lt;&gt;"", ", damage: '"&amp;L64&amp;"'", "")&amp;IF(N64&lt;&gt;"", ", capacity: '"&amp;N64&amp;"'", "")&amp;IF(O64&lt;&gt;"", ", cost: '"&amp;O64&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R64, CHAR(10), "\n")&amp;"'"&amp;IF(P64="○", ", sealable: true", "")&amp;IF(Q64="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '05-oboro-o-n-7': {megami: 'oboro', name: '生体活性', ruby: 'せいたいかっせい', baseType: 'normal', types: ['enhance'], capacity: '4', text: '隙　設置 \n【破棄時】あなたの使用済の切札を1枚選び、それを未使用に戻す。'}</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="T64" s="5"/>
+      <c r="U64" s="13"/>
+      <c r="V64" s="3" t="str">
+        <f>", '"&amp;A64&amp;"': {megami: '"&amp;B64&amp;"'"&amp;IF(C64&lt;&gt;"", ", anotherID: '" &amp; C64 &amp; "', replace: '" &amp; D64 &amp; "'", "")&amp;", name: '"&amp;E64&amp;"', nameEn: '"&amp;SUBSTITUTE(G64, "'", "\'")&amp;"', ruby: '"&amp;F64&amp;"', baseType: '"&amp;VLOOKUP(H64,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I64,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J64&lt;&gt;"",", '"&amp; VLOOKUP(J64,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K64&lt;&gt;"", ", range: '"&amp;K64&amp;"'", "")&amp;IF(M64&lt;&gt;"", ", damage: '"&amp;M64&amp;"'", "")&amp;IF(O64&lt;&gt;"", ", capacity: '"&amp;O64&amp;"'", "")&amp;IF(P64&lt;&gt;"", ", cost: '"&amp;P64&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S64, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T64, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q64="○", ", sealable: true", "")&amp;IF(R64="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '05-oboro-o-n-7': {megami: 'oboro', name: '生体活性', nameEn: '', ruby: 'せいたいかっせい', baseType: 'normal', types: ['enhance'], capacity: '4', text: '隙　設置 \n【破棄時】あなたの使用済の切札を1枚選び、それを未使用に戻す。', textEn: ''}</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A65" s="4" t="s">
         <v>99</v>
       </c>
@@ -6104,36 +6526,36 @@
       <c r="F65" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="G65" s="4" t="s">
+      <c r="H65" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H65" s="4" t="s">
+      <c r="I65" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I65" s="4" t="s">
+      <c r="J65" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J65" s="4" t="s">
+      <c r="K65" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="K65" s="13"/>
-      <c r="L65" s="2" t="s">
+      <c r="L65" s="13"/>
+      <c r="M65" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="M65" s="13"/>
-      <c r="O65" s="4" t="s">
+      <c r="N65" s="13"/>
+      <c r="P65" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="R65" s="4" t="s">
+      <c r="S65" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="S65" s="13"/>
-      <c r="T65" s="3" t="str">
-        <f>", '"&amp;A65&amp;"': {megami: '"&amp;B65&amp;"'"&amp;IF(C65&lt;&gt;"", ", anotherID: '" &amp; C65 &amp; "', replace: '" &amp; D65 &amp; "'", "")&amp;", name: '"&amp;E65&amp;"', ruby: '"&amp;F65&amp;"', baseType: '"&amp;VLOOKUP(G65,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H65,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I65&lt;&gt;"",", '"&amp; VLOOKUP(I65,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J65&lt;&gt;"", ", range: '"&amp;J65&amp;"'", "")&amp;IF(L65&lt;&gt;"", ", damage: '"&amp;L65&amp;"'", "")&amp;IF(N65&lt;&gt;"", ", capacity: '"&amp;N65&amp;"'", "")&amp;IF(O65&lt;&gt;"", ", cost: '"&amp;O65&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R65, CHAR(10), "\n")&amp;"'"&amp;IF(P65="○", ", sealable: true", "")&amp;IF(Q65="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '05-oboro-o-s-1': {megami: 'oboro', name: '熊介', ruby: 'くますけ', baseType: 'special', types: ['attack', 'fullpower'], range: '3-4', damage: '2/2', cost: '4', text: '【攻撃後】攻撃『適正距離3-4、2/2』をX回行う。Xはあなたの伏せ札の枚数に等しい。'}</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+      <c r="U65" s="13"/>
+      <c r="V65" s="3" t="str">
+        <f>", '"&amp;A65&amp;"': {megami: '"&amp;B65&amp;"'"&amp;IF(C65&lt;&gt;"", ", anotherID: '" &amp; C65 &amp; "', replace: '" &amp; D65 &amp; "'", "")&amp;", name: '"&amp;E65&amp;"', nameEn: '"&amp;SUBSTITUTE(G65, "'", "\'")&amp;"', ruby: '"&amp;F65&amp;"', baseType: '"&amp;VLOOKUP(H65,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I65,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J65&lt;&gt;"",", '"&amp; VLOOKUP(J65,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K65&lt;&gt;"", ", range: '"&amp;K65&amp;"'", "")&amp;IF(M65&lt;&gt;"", ", damage: '"&amp;M65&amp;"'", "")&amp;IF(O65&lt;&gt;"", ", capacity: '"&amp;O65&amp;"'", "")&amp;IF(P65&lt;&gt;"", ", cost: '"&amp;P65&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S65, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T65, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q65="○", ", sealable: true", "")&amp;IF(R65="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '05-oboro-o-s-1': {megami: 'oboro', name: '熊介', nameEn: '', ruby: 'くますけ', baseType: 'special', types: ['attack', 'fullpower'], range: '3-4', damage: '2/2', cost: '4', text: '【攻撃後】攻撃『適正距離3-4、2/2』をX回行う。Xはあなたの伏せ札の枚数に等しい。', textEn: ''}</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" ht="36" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
         <v>100</v>
       </c>
@@ -6146,30 +6568,31 @@
       <c r="F66" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G66" s="4" t="s">
+      <c r="H66" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H66" s="4" t="s">
+      <c r="I66" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I66" s="4" t="s">
+      <c r="J66" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K66" s="13"/>
-      <c r="M66" s="13"/>
-      <c r="O66" s="4" t="s">
+      <c r="L66" s="13"/>
+      <c r="N66" s="13"/>
+      <c r="P66" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="R66" s="5" t="s">
+      <c r="S66" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="S66" s="13"/>
-      <c r="T66" s="3" t="str">
-        <f>", '"&amp;A66&amp;"': {megami: '"&amp;B66&amp;"'"&amp;IF(C66&lt;&gt;"", ", anotherID: '" &amp; C66 &amp; "', replace: '" &amp; D66 &amp; "'", "")&amp;", name: '"&amp;E66&amp;"', ruby: '"&amp;F66&amp;"', baseType: '"&amp;VLOOKUP(G66,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H66,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I66&lt;&gt;"",", '"&amp; VLOOKUP(I66,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J66&lt;&gt;"", ", range: '"&amp;J66&amp;"'", "")&amp;IF(L66&lt;&gt;"", ", damage: '"&amp;L66&amp;"'", "")&amp;IF(N66&lt;&gt;"", ", capacity: '"&amp;N66&amp;"'", "")&amp;IF(O66&lt;&gt;"", ", cost: '"&amp;O66&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R66, CHAR(10), "\n")&amp;"'"&amp;IF(P66="○", ", sealable: true", "")&amp;IF(Q66="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '05-oboro-o-s-2': {megami: 'oboro', name: '鳶影', ruby: 'とびかげ', baseType: 'special', types: ['action', 'reaction'], cost: '3', text: '伏せ札から《全力》でないカードを1枚選び、そのカードを使用してもよい。この際、このカードが対応している《攻撃》があるならば、使用されたカードはそれに対応しているものと扱う。'}</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+      <c r="T66" s="5"/>
+      <c r="U66" s="13"/>
+      <c r="V66" s="3" t="str">
+        <f>", '"&amp;A66&amp;"': {megami: '"&amp;B66&amp;"'"&amp;IF(C66&lt;&gt;"", ", anotherID: '" &amp; C66 &amp; "', replace: '" &amp; D66 &amp; "'", "")&amp;", name: '"&amp;E66&amp;"', nameEn: '"&amp;SUBSTITUTE(G66, "'", "\'")&amp;"', ruby: '"&amp;F66&amp;"', baseType: '"&amp;VLOOKUP(H66,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I66,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J66&lt;&gt;"",", '"&amp; VLOOKUP(J66,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K66&lt;&gt;"", ", range: '"&amp;K66&amp;"'", "")&amp;IF(M66&lt;&gt;"", ", damage: '"&amp;M66&amp;"'", "")&amp;IF(O66&lt;&gt;"", ", capacity: '"&amp;O66&amp;"'", "")&amp;IF(P66&lt;&gt;"", ", cost: '"&amp;P66&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S66, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T66, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q66="○", ", sealable: true", "")&amp;IF(R66="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '05-oboro-o-s-2': {megami: 'oboro', name: '鳶影', nameEn: '', ruby: 'とびかげ', baseType: 'special', types: ['action', 'reaction'], cost: '3', text: '伏せ札から《全力》でないカードを1枚選び、そのカードを使用してもよい。この際、このカードが対応している《攻撃》があるならば、使用されたカードはそれに対応しているものと扱う。', textEn: ''}</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" ht="24" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
         <v>101</v>
       </c>
@@ -6182,27 +6605,28 @@
       <c r="F67" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="G67" s="4" t="s">
+      <c r="H67" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H67" s="4" t="s">
+      <c r="I67" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K67" s="13"/>
-      <c r="M67" s="13"/>
-      <c r="O67" s="4" t="s">
+      <c r="L67" s="13"/>
+      <c r="N67" s="13"/>
+      <c r="P67" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="R67" s="5" t="s">
+      <c r="S67" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="S67" s="13"/>
-      <c r="T67" s="3" t="str">
-        <f>", '"&amp;A67&amp;"': {megami: '"&amp;B67&amp;"'"&amp;IF(C67&lt;&gt;"", ", anotherID: '" &amp; C67 &amp; "', replace: '" &amp; D67 &amp; "'", "")&amp;", name: '"&amp;E67&amp;"', ruby: '"&amp;F67&amp;"', baseType: '"&amp;VLOOKUP(G67,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H67,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I67&lt;&gt;"",", '"&amp; VLOOKUP(I67,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J67&lt;&gt;"", ", range: '"&amp;J67&amp;"'", "")&amp;IF(L67&lt;&gt;"", ", damage: '"&amp;L67&amp;"'", "")&amp;IF(N67&lt;&gt;"", ", capacity: '"&amp;N67&amp;"'", "")&amp;IF(O67&lt;&gt;"", ", cost: '"&amp;O67&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R67, CHAR(10), "\n")&amp;"'"&amp;IF(P67="○", ", sealable: true", "")&amp;IF(Q67="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '05-oboro-o-s-3': {megami: 'oboro', name: '虚魚', ruby: 'うろうお', baseType: 'special', types: ['action'], cost: '4', text: '【使用済】あなたは1回の再構成に対して、設置を持つカードを任意の枚数、任意の順で使用できる。'}</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+      <c r="T67" s="5"/>
+      <c r="U67" s="13"/>
+      <c r="V67" s="3" t="str">
+        <f>", '"&amp;A67&amp;"': {megami: '"&amp;B67&amp;"'"&amp;IF(C67&lt;&gt;"", ", anotherID: '" &amp; C67 &amp; "', replace: '" &amp; D67 &amp; "'", "")&amp;", name: '"&amp;E67&amp;"', nameEn: '"&amp;SUBSTITUTE(G67, "'", "\'")&amp;"', ruby: '"&amp;F67&amp;"', baseType: '"&amp;VLOOKUP(H67,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I67,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J67&lt;&gt;"",", '"&amp; VLOOKUP(J67,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K67&lt;&gt;"", ", range: '"&amp;K67&amp;"'", "")&amp;IF(M67&lt;&gt;"", ", damage: '"&amp;M67&amp;"'", "")&amp;IF(O67&lt;&gt;"", ", capacity: '"&amp;O67&amp;"'", "")&amp;IF(P67&lt;&gt;"", ", cost: '"&amp;P67&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S67, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T67, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q67="○", ", sealable: true", "")&amp;IF(R67="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '05-oboro-o-s-3': {megami: 'oboro', name: '虚魚', nameEn: '', ruby: 'うろうお', baseType: 'special', types: ['action'], cost: '4', text: '【使用済】あなたは1回の再構成に対して、設置を持つカードを任意の枚数、任意の順で使用できる。', textEn: ''}</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" ht="36" x14ac:dyDescent="0.15">
       <c r="A68" s="4" t="s">
         <v>102</v>
       </c>
@@ -6215,27 +6639,28 @@
       <c r="F68" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="G68" s="4" t="s">
+      <c r="H68" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H68" s="4" t="s">
+      <c r="I68" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K68" s="13"/>
-      <c r="M68" s="13"/>
-      <c r="O68" s="4" t="s">
+      <c r="L68" s="13"/>
+      <c r="N68" s="13"/>
+      <c r="P68" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="R68" s="5" t="s">
+      <c r="S68" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="S68" s="13"/>
-      <c r="T68" s="3" t="str">
-        <f>", '"&amp;A68&amp;"': {megami: '"&amp;B68&amp;"'"&amp;IF(C68&lt;&gt;"", ", anotherID: '" &amp; C68 &amp; "', replace: '" &amp; D68 &amp; "'", "")&amp;", name: '"&amp;E68&amp;"', ruby: '"&amp;F68&amp;"', baseType: '"&amp;VLOOKUP(G68,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H68,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I68&lt;&gt;"",", '"&amp; VLOOKUP(I68,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J68&lt;&gt;"", ", range: '"&amp;J68&amp;"'", "")&amp;IF(L68&lt;&gt;"", ", damage: '"&amp;L68&amp;"'", "")&amp;IF(N68&lt;&gt;"", ", capacity: '"&amp;N68&amp;"'", "")&amp;IF(O68&lt;&gt;"", ", cost: '"&amp;O68&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R68, CHAR(10), "\n")&amp;"'"&amp;IF(P68="○", ", sealable: true", "")&amp;IF(Q68="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '05-oboro-o-s-4': {megami: 'oboro', name: '壬蔓', ruby: 'みかずら', baseType: 'special', types: ['action'], cost: '0', text: '相オーラ→自フレア：1 \n----\n【再起】あなたのフレアが0である。'}</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="T68" s="5"/>
+      <c r="U68" s="13"/>
+      <c r="V68" s="3" t="str">
+        <f>", '"&amp;A68&amp;"': {megami: '"&amp;B68&amp;"'"&amp;IF(C68&lt;&gt;"", ", anotherID: '" &amp; C68 &amp; "', replace: '" &amp; D68 &amp; "'", "")&amp;", name: '"&amp;E68&amp;"', nameEn: '"&amp;SUBSTITUTE(G68, "'", "\'")&amp;"', ruby: '"&amp;F68&amp;"', baseType: '"&amp;VLOOKUP(H68,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I68,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J68&lt;&gt;"",", '"&amp; VLOOKUP(J68,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K68&lt;&gt;"", ", range: '"&amp;K68&amp;"'", "")&amp;IF(M68&lt;&gt;"", ", damage: '"&amp;M68&amp;"'", "")&amp;IF(O68&lt;&gt;"", ", capacity: '"&amp;O68&amp;"'", "")&amp;IF(P68&lt;&gt;"", ", cost: '"&amp;P68&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S68, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T68, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q68="○", ", sealable: true", "")&amp;IF(R68="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '05-oboro-o-s-4': {megami: 'oboro', name: '壬蔓', nameEn: '', ruby: 'みかずら', baseType: 'special', types: ['action'], cost: '0', text: '相オーラ→自フレア：1 \n----\n【再起】あなたのフレアが0である。', textEn: ''}</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A69" s="4" t="s">
         <v>225</v>
       </c>
@@ -6245,31 +6670,31 @@
       <c r="E69" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="G69" s="4" t="s">
+      <c r="H69" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H69" s="4" t="s">
+      <c r="I69" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J69" s="8" t="s">
+      <c r="K69" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="K69" s="12" t="s">
+      <c r="L69" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="L69" s="8" t="s">
+      <c r="M69" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="M69" s="12" t="s">
+      <c r="N69" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="S69" s="8"/>
-      <c r="T69" s="9" t="str">
-        <f>", '"&amp;A69&amp;"': {megami: '"&amp;B69&amp;"', name: '"&amp;E69&amp;"', ruby: '"&amp;F69&amp;"', baseType: '"&amp;VLOOKUP(G69,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H69,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I69&lt;&gt;"",", '"&amp; VLOOKUP(I69,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J69&lt;&gt;"", ", range: '"&amp;J69&amp;"'", "")&amp;IF(K69&lt;&gt;"", ", rangeOpened: '"&amp;K69&amp;"'", "")&amp;IF(L69&lt;&gt;"", ", damage: '"&amp;L69&amp;"'", "")&amp;IF(M69&lt;&gt;"", ", damageOpened: '"&amp;M69&amp;"'", "")&amp;IF(N69&lt;&gt;"", ", capacity: '"&amp;N69&amp;"'", "")&amp;IF(O69&lt;&gt;"", ", cost: '"&amp;O69&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R69, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(S69, CHAR(10), "\n")&amp;"'}"</f>
+      <c r="U69" s="8"/>
+      <c r="V69" s="9" t="str">
+        <f>", '"&amp;A69&amp;"': {megami: '"&amp;B69&amp;"', name: '"&amp;E69&amp;"', ruby: '"&amp;F69&amp;"', baseType: '"&amp;VLOOKUP(H69,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I69,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J69&lt;&gt;"",", '"&amp; VLOOKUP(J69,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K69&lt;&gt;"", ", range: '"&amp;K69&amp;"'", "")&amp;IF(L69&lt;&gt;"", ", rangeOpened: '"&amp;L69&amp;"'", "")&amp;IF(M69&lt;&gt;"", ", damage: '"&amp;M69&amp;"'", "")&amp;IF(N69&lt;&gt;"", ", damageOpened: '"&amp;N69&amp;"'", "")&amp;IF(O69&lt;&gt;"", ", capacity: '"&amp;O69&amp;"'", "")&amp;IF(P69&lt;&gt;"", ", cost: '"&amp;P69&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S69, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(U69, CHAR(10), "\n")&amp;"'}"</f>
         <v>, '06-yukihi-o-n-1': {megami: 'yukihi', name: 'しこみばり / ふくみばり', ruby: '', baseType: 'normal', types: ['attack'], range: '4-6', rangeOpened: '0-2', damage: '3/1', damageOpened: '1/2', text: '', textOpened: ''}</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A70" s="4" t="s">
         <v>226</v>
       </c>
@@ -6279,33 +6704,33 @@
       <c r="E70" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="G70" s="4" t="s">
+      <c r="H70" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H70" s="4" t="s">
+      <c r="I70" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J70" s="4" t="s">
+      <c r="K70" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="K70" s="11" t="s">
+      <c r="L70" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="L70" s="2" t="s">
+      <c r="M70" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="M70" s="11" t="s">
+      <c r="N70" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="R70" s="4" t="s">
+      <c r="S70" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="T70" s="9" t="str">
-        <f>", '"&amp;A70&amp;"': {megami: '"&amp;B70&amp;"', name: '"&amp;E70&amp;"', ruby: '"&amp;F70&amp;"', baseType: '"&amp;VLOOKUP(G70,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H70,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I70&lt;&gt;"",", '"&amp; VLOOKUP(I70,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J70&lt;&gt;"", ", range: '"&amp;J70&amp;"'", "")&amp;IF(K70&lt;&gt;"", ", rangeOpened: '"&amp;K70&amp;"'", "")&amp;IF(L70&lt;&gt;"", ", damage: '"&amp;L70&amp;"'", "")&amp;IF(M70&lt;&gt;"", ", damageOpened: '"&amp;M70&amp;"'", "")&amp;IF(N70&lt;&gt;"", ", capacity: '"&amp;N70&amp;"'", "")&amp;IF(O70&lt;&gt;"", ", cost: '"&amp;O70&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R70, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(S70, CHAR(10), "\n")&amp;"'}"</f>
+      <c r="V70" s="9" t="str">
+        <f>", '"&amp;A70&amp;"': {megami: '"&amp;B70&amp;"', name: '"&amp;E70&amp;"', ruby: '"&amp;F70&amp;"', baseType: '"&amp;VLOOKUP(H70,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I70,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J70&lt;&gt;"",", '"&amp; VLOOKUP(J70,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K70&lt;&gt;"", ", range: '"&amp;K70&amp;"'", "")&amp;IF(L70&lt;&gt;"", ", rangeOpened: '"&amp;L70&amp;"'", "")&amp;IF(M70&lt;&gt;"", ", damage: '"&amp;M70&amp;"'", "")&amp;IF(N70&lt;&gt;"", ", damageOpened: '"&amp;N70&amp;"'", "")&amp;IF(O70&lt;&gt;"", ", capacity: '"&amp;O70&amp;"'", "")&amp;IF(P70&lt;&gt;"", ", cost: '"&amp;P70&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S70, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(U70, CHAR(10), "\n")&amp;"'}"</f>
         <v>, '06-yukihi-o-n-2': {megami: 'yukihi', name: 'しこみび / ねこだまし', ruby: '', baseType: 'normal', types: ['attack'], range: '5-6', rangeOpened: '0-2', damage: '1/1', damageOpened: '1/1', text: '【攻撃後】このカードを手札に戻し、傘の開閉を行う。 ', textOpened: ''}</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
         <v>227</v>
       </c>
@@ -6315,36 +6740,37 @@
       <c r="E71" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="G71" s="4" t="s">
+      <c r="H71" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H71" s="4" t="s">
+      <c r="I71" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J71" s="4" t="s">
+      <c r="K71" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="K71" s="11" t="s">
+      <c r="L71" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="L71" s="2" t="s">
+      <c r="M71" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="M71" s="11" t="s">
+      <c r="N71" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="R71" s="5" t="s">
+      <c r="S71" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="S71" s="4" t="s">
+      <c r="T71" s="5"/>
+      <c r="U71" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="T71" s="9" t="str">
-        <f>", '"&amp;A71&amp;"': {megami: '"&amp;B71&amp;"', name: '"&amp;E71&amp;"', ruby: '"&amp;F71&amp;"', baseType: '"&amp;VLOOKUP(G71,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H71,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I71&lt;&gt;"",", '"&amp; VLOOKUP(I71,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J71&lt;&gt;"", ", range: '"&amp;J71&amp;"'", "")&amp;IF(K71&lt;&gt;"", ", rangeOpened: '"&amp;K71&amp;"'", "")&amp;IF(L71&lt;&gt;"", ", damage: '"&amp;L71&amp;"'", "")&amp;IF(M71&lt;&gt;"", ", damageOpened: '"&amp;M71&amp;"'", "")&amp;IF(N71&lt;&gt;"", ", capacity: '"&amp;N71&amp;"'", "")&amp;IF(O71&lt;&gt;"", ", cost: '"&amp;O71&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R71, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(S71, CHAR(10), "\n")&amp;"'}"</f>
+      <c r="V71" s="9" t="str">
+        <f>", '"&amp;A71&amp;"': {megami: '"&amp;B71&amp;"', name: '"&amp;E71&amp;"', ruby: '"&amp;F71&amp;"', baseType: '"&amp;VLOOKUP(H71,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I71,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J71&lt;&gt;"",", '"&amp; VLOOKUP(J71,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K71&lt;&gt;"", ", range: '"&amp;K71&amp;"'", "")&amp;IF(L71&lt;&gt;"", ", rangeOpened: '"&amp;L71&amp;"'", "")&amp;IF(M71&lt;&gt;"", ", damage: '"&amp;M71&amp;"'", "")&amp;IF(N71&lt;&gt;"", ", damageOpened: '"&amp;N71&amp;"'", "")&amp;IF(O71&lt;&gt;"", ", capacity: '"&amp;O71&amp;"'", "")&amp;IF(P71&lt;&gt;"", ", cost: '"&amp;P71&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S71, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(U71, CHAR(10), "\n")&amp;"'}"</f>
         <v>, '06-yukihi-o-n-3': {megami: 'yukihi', name: 'ふりはらい / たぐりよせ', ruby: '', baseType: 'normal', types: ['attack'], range: '2-5', rangeOpened: '0-2', damage: '1/1', damageOpened: '1/1', text: '【攻撃後】ダスト⇔間合：1 ', textOpened: '【攻撃後】間合→ダスト：2'}</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
         <v>228</v>
       </c>
@@ -6354,34 +6780,35 @@
       <c r="E72" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="G72" s="4" t="s">
+      <c r="H72" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H72" s="4" t="s">
+      <c r="I72" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I72" s="4" t="s">
+      <c r="J72" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J72" s="4" t="s">
+      <c r="K72" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="K72" s="11" t="s">
+      <c r="L72" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="L72" s="2" t="s">
+      <c r="M72" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="M72" s="11" t="s">
+      <c r="N72" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="R72" s="5"/>
-      <c r="T72" s="9" t="str">
-        <f>", '"&amp;A72&amp;"': {megami: '"&amp;B72&amp;"', name: '"&amp;E72&amp;"', ruby: '"&amp;F72&amp;"', baseType: '"&amp;VLOOKUP(G72,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H72,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I72&lt;&gt;"",", '"&amp; VLOOKUP(I72,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J72&lt;&gt;"", ", range: '"&amp;J72&amp;"'", "")&amp;IF(K72&lt;&gt;"", ", rangeOpened: '"&amp;K72&amp;"'", "")&amp;IF(L72&lt;&gt;"", ", damage: '"&amp;L72&amp;"'", "")&amp;IF(M72&lt;&gt;"", ", damageOpened: '"&amp;M72&amp;"'", "")&amp;IF(N72&lt;&gt;"", ", capacity: '"&amp;N72&amp;"'", "")&amp;IF(O72&lt;&gt;"", ", cost: '"&amp;O72&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R72, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(S72, CHAR(10), "\n")&amp;"'}"</f>
+      <c r="S72" s="5"/>
+      <c r="T72" s="5"/>
+      <c r="V72" s="9" t="str">
+        <f>", '"&amp;A72&amp;"': {megami: '"&amp;B72&amp;"', name: '"&amp;E72&amp;"', ruby: '"&amp;F72&amp;"', baseType: '"&amp;VLOOKUP(H72,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I72,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J72&lt;&gt;"",", '"&amp; VLOOKUP(J72,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K72&lt;&gt;"", ", range: '"&amp;K72&amp;"'", "")&amp;IF(L72&lt;&gt;"", ", rangeOpened: '"&amp;L72&amp;"'", "")&amp;IF(M72&lt;&gt;"", ", damage: '"&amp;M72&amp;"'", "")&amp;IF(N72&lt;&gt;"", ", damageOpened: '"&amp;N72&amp;"'", "")&amp;IF(O72&lt;&gt;"", ", capacity: '"&amp;O72&amp;"'", "")&amp;IF(P72&lt;&gt;"", ", cost: '"&amp;P72&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S72, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(U72, CHAR(10), "\n")&amp;"'}"</f>
         <v>, '06-yukihi-o-n-4': {megami: 'yukihi', name: 'ふりまわし / つきさし', ruby: '', baseType: 'normal', types: ['attack', 'fullpower'], range: '4-6', rangeOpened: '0-2', damage: '5/-', damageOpened: '-/2', text: '', textOpened: ''}</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="60" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:22" ht="60" x14ac:dyDescent="0.15">
       <c r="A73" s="4" t="s">
         <v>229</v>
       </c>
@@ -6391,23 +6818,24 @@
       <c r="E73" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="G73" s="4" t="s">
+      <c r="H73" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H73" s="4" t="s">
+      <c r="I73" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K73" s="11"/>
-      <c r="M73" s="11"/>
-      <c r="R73" s="5" t="s">
+      <c r="L73" s="11"/>
+      <c r="N73" s="11"/>
+      <c r="S73" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="T73" s="9" t="str">
-        <f>", '"&amp;A73&amp;"': {megami: '"&amp;B73&amp;"', name: '"&amp;E73&amp;"', ruby: '"&amp;F73&amp;"', baseType: '"&amp;VLOOKUP(G73,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H73,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I73&lt;&gt;"",", '"&amp; VLOOKUP(I73,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J73&lt;&gt;"", ", range: '"&amp;J73&amp;"'", "")&amp;IF(K73&lt;&gt;"", ", rangeOpened: '"&amp;K73&amp;"'", "")&amp;IF(L73&lt;&gt;"", ", damage: '"&amp;L73&amp;"'", "")&amp;IF(M73&lt;&gt;"", ", damageOpened: '"&amp;M73&amp;"'", "")&amp;IF(N73&lt;&gt;"", ", capacity: '"&amp;N73&amp;"'", "")&amp;IF(O73&lt;&gt;"", ", cost: '"&amp;O73&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R73, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(S73, CHAR(10), "\n")&amp;"'}"</f>
+      <c r="T73" s="5"/>
+      <c r="V73" s="9" t="str">
+        <f>", '"&amp;A73&amp;"': {megami: '"&amp;B73&amp;"', name: '"&amp;E73&amp;"', ruby: '"&amp;F73&amp;"', baseType: '"&amp;VLOOKUP(H73,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I73,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J73&lt;&gt;"",", '"&amp; VLOOKUP(J73,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K73&lt;&gt;"", ", range: '"&amp;K73&amp;"'", "")&amp;IF(L73&lt;&gt;"", ", rangeOpened: '"&amp;L73&amp;"'", "")&amp;IF(M73&lt;&gt;"", ", damage: '"&amp;M73&amp;"'", "")&amp;IF(N73&lt;&gt;"", ", damageOpened: '"&amp;N73&amp;"'", "")&amp;IF(O73&lt;&gt;"", ", capacity: '"&amp;O73&amp;"'", "")&amp;IF(P73&lt;&gt;"", ", cost: '"&amp;P73&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S73, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(U73, CHAR(10), "\n")&amp;"'}"</f>
         <v>, '06-yukihi-o-n-5': {megami: 'yukihi', name: 'かさまわし', ruby: '', baseType: 'normal', types: ['action'], text: '(このカードは使用しても効果はない) \n【常時】あなたが傘の開閉を行った時、このカードを手札から公開してもよい。そうした場合、 \nダスト→自オーラ：1\n', textOpened: ''}</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
         <v>230</v>
       </c>
@@ -6417,29 +6845,30 @@
       <c r="E74" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G74" s="4" t="s">
+      <c r="H74" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H74" s="4" t="s">
+      <c r="I74" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I74" s="4" t="s">
+      <c r="J74" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K74" s="11"/>
-      <c r="M74" s="11"/>
-      <c r="R74" s="5" t="s">
+      <c r="L74" s="11"/>
+      <c r="N74" s="11"/>
+      <c r="S74" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="S74" s="4" t="s">
+      <c r="T74" s="5"/>
+      <c r="U74" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="T74" s="9" t="str">
-        <f>", '"&amp;A74&amp;"': {megami: '"&amp;B74&amp;"', name: '"&amp;E74&amp;"', ruby: '"&amp;F74&amp;"', baseType: '"&amp;VLOOKUP(G74,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H74,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I74&lt;&gt;"",", '"&amp; VLOOKUP(I74,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J74&lt;&gt;"", ", range: '"&amp;J74&amp;"'", "")&amp;IF(K74&lt;&gt;"", ", rangeOpened: '"&amp;K74&amp;"'", "")&amp;IF(L74&lt;&gt;"", ", damage: '"&amp;L74&amp;"'", "")&amp;IF(M74&lt;&gt;"", ", damageOpened: '"&amp;M74&amp;"'", "")&amp;IF(N74&lt;&gt;"", ", capacity: '"&amp;N74&amp;"'", "")&amp;IF(O74&lt;&gt;"", ", cost: '"&amp;O74&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R74, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(S74, CHAR(10), "\n")&amp;"'}"</f>
+      <c r="V74" s="9" t="str">
+        <f>", '"&amp;A74&amp;"': {megami: '"&amp;B74&amp;"', name: '"&amp;E74&amp;"', ruby: '"&amp;F74&amp;"', baseType: '"&amp;VLOOKUP(H74,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I74,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J74&lt;&gt;"",", '"&amp; VLOOKUP(J74,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K74&lt;&gt;"", ", range: '"&amp;K74&amp;"'", "")&amp;IF(L74&lt;&gt;"", ", rangeOpened: '"&amp;L74&amp;"'", "")&amp;IF(M74&lt;&gt;"", ", damage: '"&amp;M74&amp;"'", "")&amp;IF(N74&lt;&gt;"", ", damageOpened: '"&amp;N74&amp;"'", "")&amp;IF(O74&lt;&gt;"", ", capacity: '"&amp;O74&amp;"'", "")&amp;IF(P74&lt;&gt;"", ", cost: '"&amp;P74&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S74, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(U74, CHAR(10), "\n")&amp;"'}"</f>
         <v>, '06-yukihi-o-n-6': {megami: 'yukihi', name: 'ひきあし / もぐりこみ', ruby: '', baseType: 'normal', types: ['action', 'reaction'], text: 'ダスト→間合：1 ', textOpened: '間合→ダスト：1'}</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:22" ht="36" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
         <v>231</v>
       </c>
@@ -6449,26 +6878,27 @@
       <c r="E75" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="G75" s="4" t="s">
+      <c r="H75" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H75" s="4" t="s">
+      <c r="I75" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K75" s="11"/>
-      <c r="M75" s="11"/>
-      <c r="N75" s="4" t="s">
+      <c r="L75" s="11"/>
+      <c r="N75" s="11"/>
+      <c r="O75" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="R75" s="5" t="s">
+      <c r="S75" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="T75" s="9" t="str">
-        <f>", '"&amp;A75&amp;"': {megami: '"&amp;B75&amp;"', name: '"&amp;E75&amp;"', ruby: '"&amp;F75&amp;"', baseType: '"&amp;VLOOKUP(G75,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H75,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I75&lt;&gt;"",", '"&amp; VLOOKUP(I75,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J75&lt;&gt;"", ", range: '"&amp;J75&amp;"'", "")&amp;IF(K75&lt;&gt;"", ", rangeOpened: '"&amp;K75&amp;"'", "")&amp;IF(L75&lt;&gt;"", ", damage: '"&amp;L75&amp;"'", "")&amp;IF(M75&lt;&gt;"", ", damageOpened: '"&amp;M75&amp;"'", "")&amp;IF(N75&lt;&gt;"", ", capacity: '"&amp;N75&amp;"'", "")&amp;IF(O75&lt;&gt;"", ", cost: '"&amp;O75&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R75, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(S75, CHAR(10), "\n")&amp;"'}"</f>
+      <c r="T75" s="5"/>
+      <c r="V75" s="9" t="str">
+        <f>", '"&amp;A75&amp;"': {megami: '"&amp;B75&amp;"', name: '"&amp;E75&amp;"', ruby: '"&amp;F75&amp;"', baseType: '"&amp;VLOOKUP(H75,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I75,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J75&lt;&gt;"",", '"&amp; VLOOKUP(J75,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K75&lt;&gt;"", ", range: '"&amp;K75&amp;"'", "")&amp;IF(L75&lt;&gt;"", ", rangeOpened: '"&amp;L75&amp;"'", "")&amp;IF(M75&lt;&gt;"", ", damage: '"&amp;M75&amp;"'", "")&amp;IF(N75&lt;&gt;"", ", damageOpened: '"&amp;N75&amp;"'", "")&amp;IF(O75&lt;&gt;"", ", capacity: '"&amp;O75&amp;"'", "")&amp;IF(P75&lt;&gt;"", ", cost: '"&amp;P75&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S75, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(U75, CHAR(10), "\n")&amp;"'}"</f>
         <v>, '06-yukihi-o-n-7': {megami: 'yukihi', name: 'えんむすび', ruby: '', baseType: 'normal', types: ['enhance'], capacity: '2', text: '【展開時】間合→ダスト：1 \n【破棄時】ダスト→間合：1 \n【常時】あなたの傘が開いているならば、このカードの矢印(→)は逆になる。', textOpened: ''}</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="48" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:22" ht="48" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
         <v>237</v>
       </c>
@@ -6478,37 +6908,38 @@
       <c r="E76" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="G76" s="4" t="s">
+      <c r="H76" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H76" s="4" t="s">
+      <c r="I76" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J76" s="4" t="s">
+      <c r="K76" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="K76" s="11" t="s">
+      <c r="L76" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="L76" s="2" t="s">
+      <c r="M76" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="M76" s="11" t="s">
+      <c r="N76" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="O76" s="4" t="s">
+      <c r="P76" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="R76" s="5"/>
-      <c r="S76" s="5" t="s">
+      <c r="S76" s="5"/>
+      <c r="T76" s="5"/>
+      <c r="U76" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="T76" s="9" t="str">
-        <f>", '"&amp;A76&amp;"': {megami: '"&amp;B76&amp;"', name: '"&amp;E76&amp;"', ruby: '"&amp;F76&amp;"', baseType: '"&amp;VLOOKUP(G76,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H76,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I76&lt;&gt;"",", '"&amp; VLOOKUP(I76,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J76&lt;&gt;"", ", range: '"&amp;J76&amp;"'", "")&amp;IF(K76&lt;&gt;"", ", rangeOpened: '"&amp;K76&amp;"'", "")&amp;IF(L76&lt;&gt;"", ", damage: '"&amp;L76&amp;"'", "")&amp;IF(M76&lt;&gt;"", ", damageOpened: '"&amp;M76&amp;"'", "")&amp;IF(N76&lt;&gt;"", ", capacity: '"&amp;N76&amp;"'", "")&amp;IF(O76&lt;&gt;"", ", cost: '"&amp;O76&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R76, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(S76, CHAR(10), "\n")&amp;"'}"</f>
+      <c r="V76" s="9" t="str">
+        <f>", '"&amp;A76&amp;"': {megami: '"&amp;B76&amp;"', name: '"&amp;E76&amp;"', ruby: '"&amp;F76&amp;"', baseType: '"&amp;VLOOKUP(H76,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I76,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J76&lt;&gt;"",", '"&amp; VLOOKUP(J76,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K76&lt;&gt;"", ", range: '"&amp;K76&amp;"'", "")&amp;IF(L76&lt;&gt;"", ", rangeOpened: '"&amp;L76&amp;"'", "")&amp;IF(M76&lt;&gt;"", ", damage: '"&amp;M76&amp;"'", "")&amp;IF(N76&lt;&gt;"", ", damageOpened: '"&amp;N76&amp;"'", "")&amp;IF(O76&lt;&gt;"", ", capacity: '"&amp;O76&amp;"'", "")&amp;IF(P76&lt;&gt;"", ", cost: '"&amp;P76&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S76, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(U76, CHAR(10), "\n")&amp;"'}"</f>
         <v>, '06-yukihi-o-s-1': {megami: 'yukihi', name: 'はらりゆき', ruby: '', baseType: 'special', types: ['attack'], range: '3-5', rangeOpened: '0-1', damage: '3/1', damageOpened: '0/0', cost: '2', text: '', textOpened: '----\n【即再起】あなたが傘の開閉を行う。 '}</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A77" s="4" t="s">
         <v>238</v>
       </c>
@@ -6518,34 +6949,35 @@
       <c r="E77" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="G77" s="4" t="s">
+      <c r="H77" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H77" s="4" t="s">
+      <c r="I77" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J77" s="4" t="s">
+      <c r="K77" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="K77" s="11" t="s">
+      <c r="L77" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="L77" s="2" t="s">
+      <c r="M77" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="M77" s="11" t="s">
+      <c r="N77" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="O77" s="4" t="s">
+      <c r="P77" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="R77" s="5"/>
-      <c r="T77" s="9" t="str">
-        <f>", '"&amp;A77&amp;"': {megami: '"&amp;B77&amp;"', name: '"&amp;E77&amp;"', ruby: '"&amp;F77&amp;"', baseType: '"&amp;VLOOKUP(G77,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H77,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I77&lt;&gt;"",", '"&amp; VLOOKUP(I77,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J77&lt;&gt;"", ", range: '"&amp;J77&amp;"'", "")&amp;IF(K77&lt;&gt;"", ", rangeOpened: '"&amp;K77&amp;"'", "")&amp;IF(L77&lt;&gt;"", ", damage: '"&amp;L77&amp;"'", "")&amp;IF(M77&lt;&gt;"", ", damageOpened: '"&amp;M77&amp;"'", "")&amp;IF(N77&lt;&gt;"", ", capacity: '"&amp;N77&amp;"'", "")&amp;IF(O77&lt;&gt;"", ", cost: '"&amp;O77&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R77, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(S77, CHAR(10), "\n")&amp;"'}"</f>
+      <c r="S77" s="5"/>
+      <c r="T77" s="5"/>
+      <c r="V77" s="9" t="str">
+        <f>", '"&amp;A77&amp;"': {megami: '"&amp;B77&amp;"', name: '"&amp;E77&amp;"', ruby: '"&amp;F77&amp;"', baseType: '"&amp;VLOOKUP(H77,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I77,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J77&lt;&gt;"",", '"&amp; VLOOKUP(J77,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K77&lt;&gt;"", ", range: '"&amp;K77&amp;"'", "")&amp;IF(L77&lt;&gt;"", ", rangeOpened: '"&amp;L77&amp;"'", "")&amp;IF(M77&lt;&gt;"", ", damage: '"&amp;M77&amp;"'", "")&amp;IF(N77&lt;&gt;"", ", damageOpened: '"&amp;N77&amp;"'", "")&amp;IF(O77&lt;&gt;"", ", capacity: '"&amp;O77&amp;"'", "")&amp;IF(P77&lt;&gt;"", ", cost: '"&amp;P77&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S77, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(U77, CHAR(10), "\n")&amp;"'}"</f>
         <v>, '06-yukihi-o-s-2': {megami: 'yukihi', name: 'ゆらりび', ruby: '', baseType: 'special', types: ['attack'], range: '4-6', rangeOpened: '0', damage: '0/0', damageOpened: '4/5', cost: '5', text: '', textOpened: ''}</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:22" ht="24" x14ac:dyDescent="0.15">
       <c r="A78" s="4" t="s">
         <v>239</v>
       </c>
@@ -6555,32 +6987,33 @@
       <c r="E78" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="G78" s="4" t="s">
+      <c r="H78" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H78" s="4" t="s">
+      <c r="I78" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I78" s="4" t="s">
+      <c r="J78" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K78" s="11"/>
-      <c r="M78" s="11"/>
-      <c r="N78" s="4" t="s">
+      <c r="L78" s="11"/>
+      <c r="N78" s="11"/>
+      <c r="O78" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="O78" s="4" t="s">
+      <c r="P78" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="R78" s="5" t="s">
+      <c r="S78" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="T78" s="9" t="str">
-        <f>", '"&amp;A78&amp;"': {megami: '"&amp;B78&amp;"', name: '"&amp;E78&amp;"', ruby: '"&amp;F78&amp;"', baseType: '"&amp;VLOOKUP(G78,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H78,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I78&lt;&gt;"",", '"&amp; VLOOKUP(I78,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J78&lt;&gt;"", ", range: '"&amp;J78&amp;"'", "")&amp;IF(K78&lt;&gt;"", ", rangeOpened: '"&amp;K78&amp;"'", "")&amp;IF(L78&lt;&gt;"", ", damage: '"&amp;L78&amp;"'", "")&amp;IF(M78&lt;&gt;"", ", damageOpened: '"&amp;M78&amp;"'", "")&amp;IF(N78&lt;&gt;"", ", capacity: '"&amp;N78&amp;"'", "")&amp;IF(O78&lt;&gt;"", ", cost: '"&amp;O78&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R78, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(S78, CHAR(10), "\n")&amp;"'}"</f>
+      <c r="T78" s="5"/>
+      <c r="V78" s="9" t="str">
+        <f>", '"&amp;A78&amp;"': {megami: '"&amp;B78&amp;"', name: '"&amp;E78&amp;"', ruby: '"&amp;F78&amp;"', baseType: '"&amp;VLOOKUP(H78,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I78,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J78&lt;&gt;"",", '"&amp; VLOOKUP(J78,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K78&lt;&gt;"", ", range: '"&amp;K78&amp;"'", "")&amp;IF(L78&lt;&gt;"", ", rangeOpened: '"&amp;L78&amp;"'", "")&amp;IF(M78&lt;&gt;"", ", damage: '"&amp;M78&amp;"'", "")&amp;IF(N78&lt;&gt;"", ", damageOpened: '"&amp;N78&amp;"'", "")&amp;IF(O78&lt;&gt;"", ", capacity: '"&amp;O78&amp;"'", "")&amp;IF(P78&lt;&gt;"", ", cost: '"&amp;P78&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S78, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(U78, CHAR(10), "\n")&amp;"'}"</f>
         <v>, '06-yukihi-o-s-3': {megami: 'yukihi', name: 'どろりうら', ruby: '', baseType: 'special', types: ['enhance', 'fullpower'], capacity: '7', cost: '3', text: '【展開中】あなたのユキヒの《攻撃》は傘を開いた状態と傘を閉じた状態両方の適正距離を持つ。', textOpened: ''}</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:22" ht="24" x14ac:dyDescent="0.15">
       <c r="A79" s="4" t="s">
         <v>240</v>
       </c>
@@ -6590,29 +7023,30 @@
       <c r="E79" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="G79" s="4" t="s">
+      <c r="H79" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H79" s="4" t="s">
+      <c r="I79" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I79" s="4" t="s">
+      <c r="J79" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K79" s="11"/>
-      <c r="M79" s="11"/>
-      <c r="O79" s="4" t="s">
+      <c r="L79" s="11"/>
+      <c r="N79" s="11"/>
+      <c r="P79" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="R79" s="5" t="s">
+      <c r="S79" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="T79" s="9" t="str">
-        <f>", '"&amp;A79&amp;"': {megami: '"&amp;B79&amp;"', name: '"&amp;E79&amp;"', ruby: '"&amp;F79&amp;"', baseType: '"&amp;VLOOKUP(G79,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H79,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I79&lt;&gt;"",", '"&amp; VLOOKUP(I79,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J79&lt;&gt;"", ", range: '"&amp;J79&amp;"'", "")&amp;IF(K79&lt;&gt;"", ", rangeOpened: '"&amp;K79&amp;"'", "")&amp;IF(L79&lt;&gt;"", ", damage: '"&amp;L79&amp;"'", "")&amp;IF(M79&lt;&gt;"", ", damageOpened: '"&amp;M79&amp;"'", "")&amp;IF(N79&lt;&gt;"", ", capacity: '"&amp;N79&amp;"'", "")&amp;IF(O79&lt;&gt;"", ", cost: '"&amp;O79&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R79, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(S79, CHAR(10), "\n")&amp;"'}"</f>
+      <c r="T79" s="5"/>
+      <c r="V79" s="9" t="str">
+        <f>", '"&amp;A79&amp;"': {megami: '"&amp;B79&amp;"', name: '"&amp;E79&amp;"', ruby: '"&amp;F79&amp;"', baseType: '"&amp;VLOOKUP(H79,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I79,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J79&lt;&gt;"",", '"&amp; VLOOKUP(J79,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K79&lt;&gt;"", ", range: '"&amp;K79&amp;"'", "")&amp;IF(L79&lt;&gt;"", ", rangeOpened: '"&amp;L79&amp;"'", "")&amp;IF(M79&lt;&gt;"", ", damage: '"&amp;M79&amp;"'", "")&amp;IF(N79&lt;&gt;"", ", damageOpened: '"&amp;N79&amp;"'", "")&amp;IF(O79&lt;&gt;"", ", capacity: '"&amp;O79&amp;"'", "")&amp;IF(P79&lt;&gt;"", ", cost: '"&amp;P79&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S79, CHAR(10), "\n")&amp;"'"&amp;", textOpened: '"&amp;SUBSTITUTE(U79, CHAR(10), "\n")&amp;"'}"</f>
         <v>, '06-yukihi-o-s-4': {megami: 'yukihi', name: 'くるりみ', ruby: '', baseType: 'special', types: ['action', 'reaction'], cost: '1', text: '傘の開閉を行う。 \nダスト→自オーラ：1', textOpened: ''}</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A80" s="4" t="s">
         <v>276</v>
       </c>
@@ -6625,30 +7059,30 @@
       <c r="F80" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="G80" s="4" t="s">
+      <c r="H80" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H80" s="4" t="s">
+      <c r="I80" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J80" s="4" t="s">
+      <c r="K80" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="K80" s="13"/>
-      <c r="L80" s="2" t="s">
+      <c r="L80" s="13"/>
+      <c r="M80" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="M80" s="13"/>
-      <c r="R80" s="4" t="s">
+      <c r="N80" s="13"/>
+      <c r="S80" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="S80" s="13"/>
-      <c r="T80" s="3" t="str">
-        <f>", '"&amp;A80&amp;"': {megami: '"&amp;B80&amp;"'"&amp;IF(C80&lt;&gt;"", ", anotherID: '" &amp; C80 &amp; "', replace: '" &amp; D80 &amp; "'", "")&amp;", name: '"&amp;E80&amp;"', ruby: '"&amp;F80&amp;"', baseType: '"&amp;VLOOKUP(G80,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H80,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I80&lt;&gt;"",", '"&amp; VLOOKUP(I80,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J80&lt;&gt;"", ", range: '"&amp;J80&amp;"'", "")&amp;IF(L80&lt;&gt;"", ", damage: '"&amp;L80&amp;"'", "")&amp;IF(N80&lt;&gt;"", ", capacity: '"&amp;N80&amp;"'", "")&amp;IF(O80&lt;&gt;"", ", cost: '"&amp;O80&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R80, CHAR(10), "\n")&amp;"'"&amp;IF(P80="○", ", sealable: true", "")&amp;IF(Q80="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '07-shinra-o-n-1': {megami: 'shinra', name: '立論', ruby: 'りつろん', baseType: 'normal', types: ['attack'], range: '2-7', damage: '2/-', text: '【常時】相手の山札に2枚以上のカードがあるならば、この《攻撃》はダメージを与える代わりに山札の上から2枚を伏せ札にする。'}</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+      <c r="U80" s="13"/>
+      <c r="V80" s="3" t="str">
+        <f>", '"&amp;A80&amp;"': {megami: '"&amp;B80&amp;"'"&amp;IF(C80&lt;&gt;"", ", anotherID: '" &amp; C80 &amp; "', replace: '" &amp; D80 &amp; "'", "")&amp;", name: '"&amp;E80&amp;"', nameEn: '"&amp;SUBSTITUTE(G80, "'", "\'")&amp;"', ruby: '"&amp;F80&amp;"', baseType: '"&amp;VLOOKUP(H80,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I80,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J80&lt;&gt;"",", '"&amp; VLOOKUP(J80,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K80&lt;&gt;"", ", range: '"&amp;K80&amp;"'", "")&amp;IF(M80&lt;&gt;"", ", damage: '"&amp;M80&amp;"'", "")&amp;IF(O80&lt;&gt;"", ", capacity: '"&amp;O80&amp;"'", "")&amp;IF(P80&lt;&gt;"", ", cost: '"&amp;P80&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S80, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T80, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q80="○", ", sealable: true", "")&amp;IF(R80="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '07-shinra-o-n-1': {megami: 'shinra', name: '立論', nameEn: '', ruby: 'りつろん', baseType: 'normal', types: ['attack'], range: '2-7', damage: '2/-', text: '【常時】相手の山札に2枚以上のカードがあるならば、この《攻撃》はダメージを与える代わりに山札の上から2枚を伏せ札にする。', textEn: ''}</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" ht="36" x14ac:dyDescent="0.15">
       <c r="A81" s="4" t="s">
         <v>277</v>
       </c>
@@ -6661,33 +7095,34 @@
       <c r="F81" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="G81" s="4" t="s">
+      <c r="H81" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H81" s="4" t="s">
+      <c r="I81" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I81" s="4" t="s">
+      <c r="J81" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J81" s="4" t="s">
+      <c r="K81" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="K81" s="13"/>
-      <c r="L81" s="2" t="s">
+      <c r="L81" s="13"/>
+      <c r="M81" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="M81" s="13"/>
-      <c r="R81" s="5" t="s">
+      <c r="N81" s="13"/>
+      <c r="S81" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="S81" s="13"/>
-      <c r="T81" s="3" t="str">
-        <f>", '"&amp;A81&amp;"': {megami: '"&amp;B81&amp;"'"&amp;IF(C81&lt;&gt;"", ", anotherID: '" &amp; C81 &amp; "', replace: '" &amp; D81 &amp; "'", "")&amp;", name: '"&amp;E81&amp;"', ruby: '"&amp;F81&amp;"', baseType: '"&amp;VLOOKUP(G81,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H81,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I81&lt;&gt;"",", '"&amp; VLOOKUP(I81,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J81&lt;&gt;"", ", range: '"&amp;J81&amp;"'", "")&amp;IF(L81&lt;&gt;"", ", damage: '"&amp;L81&amp;"'", "")&amp;IF(N81&lt;&gt;"", ", capacity: '"&amp;N81&amp;"'", "")&amp;IF(O81&lt;&gt;"", ", cost: '"&amp;O81&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R81, CHAR(10), "\n")&amp;"'"&amp;IF(P81="○", ", sealable: true", "")&amp;IF(Q81="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '07-shinra-o-n-2': {megami: 'shinra', name: '反論', ruby: 'はんろん', baseType: 'normal', types: ['attack', 'reaction'], range: '2-7', damage: '1/-', text: '【攻撃後】対応した切札でなく、オーラへのダメージが3以上である《攻撃》のダメージを打ち消す。 \n【攻撃後】相手はカードを1枚引く。'}</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+      <c r="T81" s="5"/>
+      <c r="U81" s="13"/>
+      <c r="V81" s="3" t="str">
+        <f>", '"&amp;A81&amp;"': {megami: '"&amp;B81&amp;"'"&amp;IF(C81&lt;&gt;"", ", anotherID: '" &amp; C81 &amp; "', replace: '" &amp; D81 &amp; "'", "")&amp;", name: '"&amp;E81&amp;"', nameEn: '"&amp;SUBSTITUTE(G81, "'", "\'")&amp;"', ruby: '"&amp;F81&amp;"', baseType: '"&amp;VLOOKUP(H81,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I81,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J81&lt;&gt;"",", '"&amp; VLOOKUP(J81,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K81&lt;&gt;"", ", range: '"&amp;K81&amp;"'", "")&amp;IF(M81&lt;&gt;"", ", damage: '"&amp;M81&amp;"'", "")&amp;IF(O81&lt;&gt;"", ", capacity: '"&amp;O81&amp;"'", "")&amp;IF(P81&lt;&gt;"", ", cost: '"&amp;P81&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S81, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T81, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q81="○", ", sealable: true", "")&amp;IF(R81="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '07-shinra-o-n-2': {megami: 'shinra', name: '反論', nameEn: '', ruby: 'はんろん', baseType: 'normal', types: ['attack', 'reaction'], range: '2-7', damage: '1/-', text: '【攻撃後】対応した切札でなく、オーラへのダメージが3以上である《攻撃》のダメージを打ち消す。 \n【攻撃後】相手はカードを1枚引く。', textEn: ''}</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" ht="36" x14ac:dyDescent="0.15">
       <c r="A82" s="4" t="s">
         <v>278</v>
       </c>
@@ -6700,33 +7135,34 @@
       <c r="F82" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="G82" s="4" t="s">
+      <c r="H82" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H82" s="4" t="s">
+      <c r="I82" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I82" s="4" t="s">
+      <c r="J82" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J82" s="4" t="s">
+      <c r="K82" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="K82" s="13"/>
-      <c r="L82" s="2" t="s">
+      <c r="L82" s="13"/>
+      <c r="M82" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="M82" s="13"/>
-      <c r="R82" s="5" t="s">
+      <c r="N82" s="13"/>
+      <c r="S82" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="S82" s="13"/>
-      <c r="T82" s="3" t="str">
-        <f>", '"&amp;A82&amp;"': {megami: '"&amp;B82&amp;"'"&amp;IF(C82&lt;&gt;"", ", anotherID: '" &amp; C82 &amp; "', replace: '" &amp; D82 &amp; "'", "")&amp;", name: '"&amp;E82&amp;"', ruby: '"&amp;F82&amp;"', baseType: '"&amp;VLOOKUP(G82,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H82,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I82&lt;&gt;"",", '"&amp; VLOOKUP(I82,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J82&lt;&gt;"", ", range: '"&amp;J82&amp;"'", "")&amp;IF(L82&lt;&gt;"", ", damage: '"&amp;L82&amp;"'", "")&amp;IF(N82&lt;&gt;"", ", capacity: '"&amp;N82&amp;"'", "")&amp;IF(O82&lt;&gt;"", ", cost: '"&amp;O82&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R82, CHAR(10), "\n")&amp;"'"&amp;IF(P82="○", ", sealable: true", "")&amp;IF(Q82="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '07-shinra-o-n-3': {megami: 'shinra', name: '詭弁', ruby: 'きべん', baseType: 'normal', types: ['attack', 'fullpower'], range: '3-8', damage: '-/1', text: '【攻撃後】計略を実行し、次の計略を準備する。 \n[神算] 相手の山札の上から3枚を伏せ札にする。 \n[鬼謀] 相手の捨て札にあるカードを1枚選び、それを使用してもよい。'}</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="T82" s="5"/>
+      <c r="U82" s="13"/>
+      <c r="V82" s="3" t="str">
+        <f>", '"&amp;A82&amp;"': {megami: '"&amp;B82&amp;"'"&amp;IF(C82&lt;&gt;"", ", anotherID: '" &amp; C82 &amp; "', replace: '" &amp; D82 &amp; "'", "")&amp;", name: '"&amp;E82&amp;"', nameEn: '"&amp;SUBSTITUTE(G82, "'", "\'")&amp;"', ruby: '"&amp;F82&amp;"', baseType: '"&amp;VLOOKUP(H82,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I82,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J82&lt;&gt;"",", '"&amp; VLOOKUP(J82,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K82&lt;&gt;"", ", range: '"&amp;K82&amp;"'", "")&amp;IF(M82&lt;&gt;"", ", damage: '"&amp;M82&amp;"'", "")&amp;IF(O82&lt;&gt;"", ", capacity: '"&amp;O82&amp;"'", "")&amp;IF(P82&lt;&gt;"", ", cost: '"&amp;P82&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S82, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T82, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q82="○", ", sealable: true", "")&amp;IF(R82="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '07-shinra-o-n-3': {megami: 'shinra', name: '詭弁', nameEn: '', ruby: 'きべん', baseType: 'normal', types: ['attack', 'fullpower'], range: '3-8', damage: '-/1', text: '【攻撃後】計略を実行し、次の計略を準備する。 \n[神算] 相手の山札の上から3枚を伏せ札にする。 \n[鬼謀] 相手の捨て札にあるカードを1枚選び、それを使用してもよい。', textEn: ''}</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A83" s="4" t="s">
         <v>279</v>
       </c>
@@ -6739,24 +7175,24 @@
       <c r="F83" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="G83" s="4" t="s">
+      <c r="H83" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H83" s="4" t="s">
+      <c r="I83" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K83" s="13"/>
-      <c r="M83" s="13"/>
-      <c r="R83" s="4" t="s">
+      <c r="L83" s="13"/>
+      <c r="N83" s="13"/>
+      <c r="S83" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="S83" s="13"/>
-      <c r="T83" s="3" t="str">
-        <f>", '"&amp;A83&amp;"': {megami: '"&amp;B83&amp;"'"&amp;IF(C83&lt;&gt;"", ", anotherID: '" &amp; C83 &amp; "', replace: '" &amp; D83 &amp; "'", "")&amp;", name: '"&amp;E83&amp;"', ruby: '"&amp;F83&amp;"', baseType: '"&amp;VLOOKUP(G83,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H83,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I83&lt;&gt;"",", '"&amp; VLOOKUP(I83,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J83&lt;&gt;"", ", range: '"&amp;J83&amp;"'", "")&amp;IF(L83&lt;&gt;"", ", damage: '"&amp;L83&amp;"'", "")&amp;IF(N83&lt;&gt;"", ", capacity: '"&amp;N83&amp;"'", "")&amp;IF(O83&lt;&gt;"", ", cost: '"&amp;O83&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R83, CHAR(10), "\n")&amp;"'"&amp;IF(P83="○", ", sealable: true", "")&amp;IF(Q83="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '07-shinra-o-n-4': {megami: 'shinra', name: '引用', ruby: 'いんよう', baseType: 'normal', types: ['action'], text: '相手の手札を見て、《攻撃》カードを1枚選んでもよい。そうした場合、そのカードを使用するか伏せ札にする。その後、そのカードが《全力》を持つならば現在のフェイズを終了する。'}</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+      <c r="U83" s="13"/>
+      <c r="V83" s="3" t="str">
+        <f>", '"&amp;A83&amp;"': {megami: '"&amp;B83&amp;"'"&amp;IF(C83&lt;&gt;"", ", anotherID: '" &amp; C83 &amp; "', replace: '" &amp; D83 &amp; "'", "")&amp;", name: '"&amp;E83&amp;"', nameEn: '"&amp;SUBSTITUTE(G83, "'", "\'")&amp;"', ruby: '"&amp;F83&amp;"', baseType: '"&amp;VLOOKUP(H83,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I83,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J83&lt;&gt;"",", '"&amp; VLOOKUP(J83,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K83&lt;&gt;"", ", range: '"&amp;K83&amp;"'", "")&amp;IF(M83&lt;&gt;"", ", damage: '"&amp;M83&amp;"'", "")&amp;IF(O83&lt;&gt;"", ", capacity: '"&amp;O83&amp;"'", "")&amp;IF(P83&lt;&gt;"", ", cost: '"&amp;P83&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S83, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T83, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q83="○", ", sealable: true", "")&amp;IF(R83="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '07-shinra-o-n-4': {megami: 'shinra', name: '引用', nameEn: '', ruby: 'いんよう', baseType: 'normal', types: ['action'], text: '相手の手札を見て、《攻撃》カードを1枚選んでもよい。そうした場合、そのカードを使用するか伏せ札にする。その後、そのカードが《全力》を持つならば現在のフェイズを終了する。', textEn: ''}</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" ht="36" x14ac:dyDescent="0.15">
       <c r="A84" s="4" t="s">
         <v>280</v>
       </c>
@@ -6769,27 +7205,28 @@
       <c r="F84" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="G84" s="4" t="s">
+      <c r="H84" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H84" s="4" t="s">
+      <c r="I84" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I84" s="4" t="s">
+      <c r="J84" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K84" s="13"/>
-      <c r="M84" s="13"/>
-      <c r="R84" s="5" t="s">
+      <c r="L84" s="13"/>
+      <c r="N84" s="13"/>
+      <c r="S84" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="S84" s="13"/>
-      <c r="T84" s="3" t="str">
-        <f>", '"&amp;A84&amp;"': {megami: '"&amp;B84&amp;"'"&amp;IF(C84&lt;&gt;"", ", anotherID: '" &amp; C84 &amp; "', replace: '" &amp; D84 &amp; "'", "")&amp;", name: '"&amp;E84&amp;"', ruby: '"&amp;F84&amp;"', baseType: '"&amp;VLOOKUP(G84,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H84,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I84&lt;&gt;"",", '"&amp; VLOOKUP(I84,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J84&lt;&gt;"", ", range: '"&amp;J84&amp;"'", "")&amp;IF(L84&lt;&gt;"", ", damage: '"&amp;L84&amp;"'", "")&amp;IF(N84&lt;&gt;"", ", capacity: '"&amp;N84&amp;"'", "")&amp;IF(O84&lt;&gt;"", ", cost: '"&amp;O84&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R84, CHAR(10), "\n")&amp;"'"&amp;IF(P84="○", ", sealable: true", "")&amp;IF(Q84="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '07-shinra-o-n-5': {megami: 'shinra', name: '煽動', ruby: 'せんどう', baseType: 'normal', types: ['action', 'reaction'], text: '計略を実行し、次の計略を準備する。 \n[神算] ダスト→間合：1 \n[鬼謀] 間合→相オーラ：1'}</v>
-      </c>
-    </row>
-    <row r="85" spans="1:20" ht="48" x14ac:dyDescent="0.15">
+      <c r="T84" s="5"/>
+      <c r="U84" s="13"/>
+      <c r="V84" s="3" t="str">
+        <f>", '"&amp;A84&amp;"': {megami: '"&amp;B84&amp;"'"&amp;IF(C84&lt;&gt;"", ", anotherID: '" &amp; C84 &amp; "', replace: '" &amp; D84 &amp; "'", "")&amp;", name: '"&amp;E84&amp;"', nameEn: '"&amp;SUBSTITUTE(G84, "'", "\'")&amp;"', ruby: '"&amp;F84&amp;"', baseType: '"&amp;VLOOKUP(H84,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I84,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J84&lt;&gt;"",", '"&amp; VLOOKUP(J84,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K84&lt;&gt;"", ", range: '"&amp;K84&amp;"'", "")&amp;IF(M84&lt;&gt;"", ", damage: '"&amp;M84&amp;"'", "")&amp;IF(O84&lt;&gt;"", ", capacity: '"&amp;O84&amp;"'", "")&amp;IF(P84&lt;&gt;"", ", cost: '"&amp;P84&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S84, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T84, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q84="○", ", sealable: true", "")&amp;IF(R84="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '07-shinra-o-n-5': {megami: 'shinra', name: '煽動', nameEn: '', ruby: 'せんどう', baseType: 'normal', types: ['action', 'reaction'], text: '計略を実行し、次の計略を準備する。 \n[神算] ダスト→間合：1 \n[鬼謀] 間合→相オーラ：1', textEn: ''}</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" ht="48" x14ac:dyDescent="0.15">
       <c r="A85" s="4" t="s">
         <v>281</v>
       </c>
@@ -6802,27 +7239,28 @@
       <c r="F85" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="G85" s="4" t="s">
+      <c r="H85" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H85" s="4" t="s">
+      <c r="I85" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K85" s="13"/>
-      <c r="M85" s="13"/>
-      <c r="N85" s="4" t="s">
+      <c r="L85" s="13"/>
+      <c r="N85" s="13"/>
+      <c r="O85" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="R85" s="5" t="s">
+      <c r="S85" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="S85" s="13"/>
-      <c r="T85" s="3" t="str">
-        <f>", '"&amp;A85&amp;"': {megami: '"&amp;B85&amp;"'"&amp;IF(C85&lt;&gt;"", ", anotherID: '" &amp; C85 &amp; "', replace: '" &amp; D85 &amp; "'", "")&amp;", name: '"&amp;E85&amp;"', ruby: '"&amp;F85&amp;"', baseType: '"&amp;VLOOKUP(G85,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H85,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I85&lt;&gt;"",", '"&amp; VLOOKUP(I85,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J85&lt;&gt;"", ", range: '"&amp;J85&amp;"'", "")&amp;IF(L85&lt;&gt;"", ", damage: '"&amp;L85&amp;"'", "")&amp;IF(N85&lt;&gt;"", ", capacity: '"&amp;N85&amp;"'", "")&amp;IF(O85&lt;&gt;"", ", cost: '"&amp;O85&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R85, CHAR(10), "\n")&amp;"'"&amp;IF(P85="○", ", sealable: true", "")&amp;IF(Q85="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '07-shinra-o-n-6': {megami: 'shinra', name: '壮語', ruby: 'そうご', baseType: 'normal', types: ['enhance'], capacity: '2', text: '【破棄時】計略を実行し、次の計略を準備する。 \n[神算] あなたの集中力は1増加し、このカードを山札の一番上に置く。 \n[鬼謀] 相手は手札が2枚以上ならば、手札を1枚になるまで捨て札にする。相手の集中力は0になる。'}</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+      <c r="T85" s="5"/>
+      <c r="U85" s="13"/>
+      <c r="V85" s="3" t="str">
+        <f>", '"&amp;A85&amp;"': {megami: '"&amp;B85&amp;"'"&amp;IF(C85&lt;&gt;"", ", anotherID: '" &amp; C85 &amp; "', replace: '" &amp; D85 &amp; "'", "")&amp;", name: '"&amp;E85&amp;"', nameEn: '"&amp;SUBSTITUTE(G85, "'", "\'")&amp;"', ruby: '"&amp;F85&amp;"', baseType: '"&amp;VLOOKUP(H85,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I85,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J85&lt;&gt;"",", '"&amp; VLOOKUP(J85,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K85&lt;&gt;"", ", range: '"&amp;K85&amp;"'", "")&amp;IF(M85&lt;&gt;"", ", damage: '"&amp;M85&amp;"'", "")&amp;IF(O85&lt;&gt;"", ", capacity: '"&amp;O85&amp;"'", "")&amp;IF(P85&lt;&gt;"", ", cost: '"&amp;P85&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S85, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T85, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q85="○", ", sealable: true", "")&amp;IF(R85="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '07-shinra-o-n-6': {megami: 'shinra', name: '壮語', nameEn: '', ruby: 'そうご', baseType: 'normal', types: ['enhance'], capacity: '2', text: '【破棄時】計略を実行し、次の計略を準備する。 \n[神算] あなたの集中力は1増加し、このカードを山札の一番上に置く。 \n[鬼謀] 相手は手札が2枚以上ならば、手札を1枚になるまで捨て札にする。相手の集中力は0になる。', textEn: ''}</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" ht="24" x14ac:dyDescent="0.15">
       <c r="A86" s="4" t="s">
         <v>282</v>
       </c>
@@ -6835,30 +7273,31 @@
       <c r="F86" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="G86" s="4" t="s">
+      <c r="H86" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H86" s="4" t="s">
+      <c r="I86" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K86" s="13"/>
-      <c r="M86" s="13"/>
-      <c r="N86" s="4" t="s">
+      <c r="L86" s="13"/>
+      <c r="N86" s="13"/>
+      <c r="O86" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="P86" s="4" t="s">
+      <c r="Q86" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="R86" s="5" t="s">
+      <c r="S86" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="S86" s="13"/>
-      <c r="T86" s="3" t="str">
-        <f>", '"&amp;A86&amp;"': {megami: '"&amp;B86&amp;"'"&amp;IF(C86&lt;&gt;"", ", anotherID: '" &amp; C86 &amp; "', replace: '" &amp; D86 &amp; "'", "")&amp;", name: '"&amp;E86&amp;"', ruby: '"&amp;F86&amp;"', baseType: '"&amp;VLOOKUP(G86,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H86,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I86&lt;&gt;"",", '"&amp; VLOOKUP(I86,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J86&lt;&gt;"", ", range: '"&amp;J86&amp;"'", "")&amp;IF(L86&lt;&gt;"", ", damage: '"&amp;L86&amp;"'", "")&amp;IF(N86&lt;&gt;"", ", capacity: '"&amp;N86&amp;"'", "")&amp;IF(O86&lt;&gt;"", ", cost: '"&amp;O86&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R86, CHAR(10), "\n")&amp;"'"&amp;IF(P86="○", ", sealable: true", "")&amp;IF(Q86="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '07-shinra-o-n-7': {megami: 'shinra', name: '論破', ruby: 'ろんぱ', baseType: 'normal', types: ['enhance'], capacity: '4', text: '【展開時】相手の捨て札にあるカード1枚を選び、このカードの下に封印する。 \n【破棄時】このカードに封印されたカードを相手の捨て札に戻す。', sealable: true}</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+      <c r="T86" s="5"/>
+      <c r="U86" s="13"/>
+      <c r="V86" s="3" t="str">
+        <f>", '"&amp;A86&amp;"': {megami: '"&amp;B86&amp;"'"&amp;IF(C86&lt;&gt;"", ", anotherID: '" &amp; C86 &amp; "', replace: '" &amp; D86 &amp; "'", "")&amp;", name: '"&amp;E86&amp;"', nameEn: '"&amp;SUBSTITUTE(G86, "'", "\'")&amp;"', ruby: '"&amp;F86&amp;"', baseType: '"&amp;VLOOKUP(H86,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I86,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J86&lt;&gt;"",", '"&amp; VLOOKUP(J86,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K86&lt;&gt;"", ", range: '"&amp;K86&amp;"'", "")&amp;IF(M86&lt;&gt;"", ", damage: '"&amp;M86&amp;"'", "")&amp;IF(O86&lt;&gt;"", ", capacity: '"&amp;O86&amp;"'", "")&amp;IF(P86&lt;&gt;"", ", cost: '"&amp;P86&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S86, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T86, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q86="○", ", sealable: true", "")&amp;IF(R86="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '07-shinra-o-n-7': {megami: 'shinra', name: '論破', nameEn: '', ruby: 'ろんぱ', baseType: 'normal', types: ['enhance'], capacity: '4', text: '【展開時】相手の捨て札にあるカード1枚を選び、このカードの下に封印する。 \n【破棄時】このカードに封印されたカードを相手の捨て札に戻す。', textEn: '', sealable: true}</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" ht="24" x14ac:dyDescent="0.15">
       <c r="A87" s="4" t="s">
         <v>283</v>
       </c>
@@ -6871,30 +7310,31 @@
       <c r="F87" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="G87" s="4" t="s">
+      <c r="H87" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H87" s="4" t="s">
+      <c r="I87" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K87" s="13"/>
-      <c r="M87" s="13"/>
-      <c r="O87" s="4" t="s">
+      <c r="L87" s="13"/>
+      <c r="N87" s="13"/>
+      <c r="P87" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="P87" s="4" t="s">
+      <c r="Q87" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="R87" s="5" t="s">
+      <c r="S87" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="S87" s="13"/>
-      <c r="T87" s="3" t="str">
-        <f>", '"&amp;A87&amp;"': {megami: '"&amp;B87&amp;"'"&amp;IF(C87&lt;&gt;"", ", anotherID: '" &amp; C87 &amp; "', replace: '" &amp; D87 &amp; "'", "")&amp;", name: '"&amp;E87&amp;"', ruby: '"&amp;F87&amp;"', baseType: '"&amp;VLOOKUP(G87,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H87,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I87&lt;&gt;"",", '"&amp; VLOOKUP(I87,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J87&lt;&gt;"", ", range: '"&amp;J87&amp;"'", "")&amp;IF(L87&lt;&gt;"", ", damage: '"&amp;L87&amp;"'", "")&amp;IF(N87&lt;&gt;"", ", capacity: '"&amp;N87&amp;"'", "")&amp;IF(O87&lt;&gt;"", ", cost: '"&amp;O87&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R87, CHAR(10), "\n")&amp;"'"&amp;IF(P87="○", ", sealable: true", "")&amp;IF(Q87="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '07-shinra-o-s-1': {megami: 'shinra', name: '完全論破', ruby: 'かんぜんろんぱ', baseType: 'special', types: ['action'], cost: '4', text: '相手の捨て札にあるカード1枚を選び、このカードの下に封印する。 \n(ゲーム中に戻ることはない)', sealable: true}</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20" ht="60" x14ac:dyDescent="0.15">
+      <c r="T87" s="5"/>
+      <c r="U87" s="13"/>
+      <c r="V87" s="3" t="str">
+        <f>", '"&amp;A87&amp;"': {megami: '"&amp;B87&amp;"'"&amp;IF(C87&lt;&gt;"", ", anotherID: '" &amp; C87 &amp; "', replace: '" &amp; D87 &amp; "'", "")&amp;", name: '"&amp;E87&amp;"', nameEn: '"&amp;SUBSTITUTE(G87, "'", "\'")&amp;"', ruby: '"&amp;F87&amp;"', baseType: '"&amp;VLOOKUP(H87,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I87,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J87&lt;&gt;"",", '"&amp; VLOOKUP(J87,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K87&lt;&gt;"", ", range: '"&amp;K87&amp;"'", "")&amp;IF(M87&lt;&gt;"", ", damage: '"&amp;M87&amp;"'", "")&amp;IF(O87&lt;&gt;"", ", capacity: '"&amp;O87&amp;"'", "")&amp;IF(P87&lt;&gt;"", ", cost: '"&amp;P87&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S87, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T87, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q87="○", ", sealable: true", "")&amp;IF(R87="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '07-shinra-o-s-1': {megami: 'shinra', name: '完全論破', nameEn: '', ruby: 'かんぜんろんぱ', baseType: 'special', types: ['action'], cost: '4', text: '相手の捨て札にあるカード1枚を選び、このカードの下に封印する。 \n(ゲーム中に戻ることはない)', textEn: '', sealable: true}</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" ht="60" x14ac:dyDescent="0.15">
       <c r="A88" s="4" t="s">
         <v>284</v>
       </c>
@@ -6907,27 +7347,28 @@
       <c r="F88" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="G88" s="4" t="s">
+      <c r="H88" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H88" s="4" t="s">
+      <c r="I88" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K88" s="13"/>
-      <c r="M88" s="13"/>
-      <c r="O88" s="4" t="s">
+      <c r="L88" s="13"/>
+      <c r="N88" s="13"/>
+      <c r="P88" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="R88" s="5" t="s">
+      <c r="S88" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="S88" s="13"/>
-      <c r="T88" s="3" t="str">
-        <f>", '"&amp;A88&amp;"': {megami: '"&amp;B88&amp;"'"&amp;IF(C88&lt;&gt;"", ", anotherID: '" &amp; C88 &amp; "', replace: '" &amp; D88 &amp; "'", "")&amp;", name: '"&amp;E88&amp;"', ruby: '"&amp;F88&amp;"', baseType: '"&amp;VLOOKUP(G88,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H88,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I88&lt;&gt;"",", '"&amp; VLOOKUP(I88,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J88&lt;&gt;"", ", range: '"&amp;J88&amp;"'", "")&amp;IF(L88&lt;&gt;"", ", damage: '"&amp;L88&amp;"'", "")&amp;IF(N88&lt;&gt;"", ", capacity: '"&amp;N88&amp;"'", "")&amp;IF(O88&lt;&gt;"", ", cost: '"&amp;O88&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R88, CHAR(10), "\n")&amp;"'"&amp;IF(P88="○", ", sealable: true", "")&amp;IF(Q88="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '07-shinra-o-s-2': {megami: 'shinra', name: '皆式理解', ruby: 'かいしきりかい', baseType: 'special', types: ['action'], cost: '2', text: '計略を実行し、次の計略を準備する。 \n[神算] あなたの捨て札または使用済の切札から、消費を支払わずに《付与》カード1枚を使用する。そのカードが《全力》ならば現在のフェイズを終了する。 \n[鬼謀] 切札でない相手の付与札を1枚選ぶ。その上の桜花結晶全てをダストに送る。'}</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+      <c r="T88" s="5"/>
+      <c r="U88" s="13"/>
+      <c r="V88" s="3" t="str">
+        <f>", '"&amp;A88&amp;"': {megami: '"&amp;B88&amp;"'"&amp;IF(C88&lt;&gt;"", ", anotherID: '" &amp; C88 &amp; "', replace: '" &amp; D88 &amp; "'", "")&amp;", name: '"&amp;E88&amp;"', nameEn: '"&amp;SUBSTITUTE(G88, "'", "\'")&amp;"', ruby: '"&amp;F88&amp;"', baseType: '"&amp;VLOOKUP(H88,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I88,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J88&lt;&gt;"",", '"&amp; VLOOKUP(J88,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K88&lt;&gt;"", ", range: '"&amp;K88&amp;"'", "")&amp;IF(M88&lt;&gt;"", ", damage: '"&amp;M88&amp;"'", "")&amp;IF(O88&lt;&gt;"", ", capacity: '"&amp;O88&amp;"'", "")&amp;IF(P88&lt;&gt;"", ", cost: '"&amp;P88&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S88, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T88, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q88="○", ", sealable: true", "")&amp;IF(R88="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '07-shinra-o-s-2': {megami: 'shinra', name: '皆式理解', nameEn: '', ruby: 'かいしきりかい', baseType: 'special', types: ['action'], cost: '2', text: '計略を実行し、次の計略を準備する。 \n[神算] あなたの捨て札または使用済の切札から、消費を支払わずに《付与》カード1枚を使用する。そのカードが《全力》ならば現在のフェイズを終了する。 \n[鬼謀] 切札でない相手の付与札を1枚選ぶ。その上の桜花結晶全てをダストに送る。', textEn: ''}</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" ht="36" x14ac:dyDescent="0.15">
       <c r="A89" s="4" t="s">
         <v>285</v>
       </c>
@@ -6940,33 +7381,34 @@
       <c r="F89" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="G89" s="4" t="s">
+      <c r="H89" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H89" s="4" t="s">
+      <c r="I89" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I89" s="4" t="s">
+      <c r="J89" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K89" s="13"/>
-      <c r="M89" s="13"/>
-      <c r="N89" s="4" t="s">
+      <c r="L89" s="13"/>
+      <c r="N89" s="13"/>
+      <c r="O89" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="O89" s="4" t="s">
+      <c r="P89" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="R89" s="5" t="s">
+      <c r="S89" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="S89" s="13"/>
-      <c r="T89" s="3" t="str">
-        <f>", '"&amp;A89&amp;"': {megami: '"&amp;B89&amp;"'"&amp;IF(C89&lt;&gt;"", ", anotherID: '" &amp; C89 &amp; "', replace: '" &amp; D89 &amp; "'", "")&amp;", name: '"&amp;E89&amp;"', ruby: '"&amp;F89&amp;"', baseType: '"&amp;VLOOKUP(G89,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H89,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I89&lt;&gt;"",", '"&amp; VLOOKUP(I89,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J89&lt;&gt;"", ", range: '"&amp;J89&amp;"'", "")&amp;IF(L89&lt;&gt;"", ", damage: '"&amp;L89&amp;"'", "")&amp;IF(N89&lt;&gt;"", ", capacity: '"&amp;N89&amp;"'", "")&amp;IF(O89&lt;&gt;"", ", cost: '"&amp;O89&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R89, CHAR(10), "\n")&amp;"'"&amp;IF(P89="○", ", sealable: true", "")&amp;IF(Q89="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '07-shinra-o-s-3': {megami: 'shinra', name: '天地反駁', ruby: 'てんちはんぱく', baseType: 'special', types: ['enhance', 'fullpower'], capacity: '5', cost: '2', text: '【展開中】あなたの《攻撃》のオーラへのダメージとライフへのダメージを入れ替える。 \n（ダメージの入れ替えは、ダメージの増減より先に適用される）'}</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" ht="48" x14ac:dyDescent="0.15">
+      <c r="T89" s="5"/>
+      <c r="U89" s="13"/>
+      <c r="V89" s="3" t="str">
+        <f>", '"&amp;A89&amp;"': {megami: '"&amp;B89&amp;"'"&amp;IF(C89&lt;&gt;"", ", anotherID: '" &amp; C89 &amp; "', replace: '" &amp; D89 &amp; "'", "")&amp;", name: '"&amp;E89&amp;"', nameEn: '"&amp;SUBSTITUTE(G89, "'", "\'")&amp;"', ruby: '"&amp;F89&amp;"', baseType: '"&amp;VLOOKUP(H89,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I89,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J89&lt;&gt;"",", '"&amp; VLOOKUP(J89,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K89&lt;&gt;"", ", range: '"&amp;K89&amp;"'", "")&amp;IF(M89&lt;&gt;"", ", damage: '"&amp;M89&amp;"'", "")&amp;IF(O89&lt;&gt;"", ", capacity: '"&amp;O89&amp;"'", "")&amp;IF(P89&lt;&gt;"", ", cost: '"&amp;P89&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S89, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T89, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q89="○", ", sealable: true", "")&amp;IF(R89="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '07-shinra-o-s-3': {megami: 'shinra', name: '天地反駁', nameEn: '', ruby: 'てんちはんぱく', baseType: 'special', types: ['enhance', 'fullpower'], capacity: '5', cost: '2', text: '【展開中】あなたの《攻撃》のオーラへのダメージとライフへのダメージを入れ替える。 \n（ダメージの入れ替えは、ダメージの増減より先に適用される）', textEn: ''}</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" ht="48" x14ac:dyDescent="0.15">
       <c r="A90" s="4" t="s">
         <v>286</v>
       </c>
@@ -6979,30 +7421,31 @@
       <c r="F90" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="G90" s="4" t="s">
+      <c r="H90" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H90" s="4" t="s">
+      <c r="I90" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K90" s="13"/>
-      <c r="M90" s="13"/>
-      <c r="N90" s="4" t="s">
-        <v>274</v>
-      </c>
+      <c r="L90" s="13"/>
+      <c r="N90" s="13"/>
       <c r="O90" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="R90" s="5" t="s">
+      <c r="P90" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="S90" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="S90" s="13"/>
-      <c r="T90" s="3" t="str">
-        <f>", '"&amp;A90&amp;"': {megami: '"&amp;B90&amp;"'"&amp;IF(C90&lt;&gt;"", ", anotherID: '" &amp; C90 &amp; "', replace: '" &amp; D90 &amp; "'", "")&amp;", name: '"&amp;E90&amp;"', ruby: '"&amp;F90&amp;"', baseType: '"&amp;VLOOKUP(G90,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H90,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I90&lt;&gt;"",", '"&amp; VLOOKUP(I90,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J90&lt;&gt;"", ", range: '"&amp;J90&amp;"'", "")&amp;IF(L90&lt;&gt;"", ", damage: '"&amp;L90&amp;"'", "")&amp;IF(N90&lt;&gt;"", ", capacity: '"&amp;N90&amp;"'", "")&amp;IF(O90&lt;&gt;"", ", cost: '"&amp;O90&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R90, CHAR(10), "\n")&amp;"'"&amp;IF(P90="○", ", sealable: true", "")&amp;IF(Q90="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '07-shinra-o-s-4': {megami: 'shinra', name: '森羅判証', ruby: 'しんらばんしょう', baseType: 'special', types: ['enhance'], capacity: '6', cost: '6', text: '【展開時】ダスト→自ライフ：2 \n【展開中】あなたの他の付与札が破棄された時、相手のライフに1ダメージを与える。 \n【破棄時】あなたは敗北する。'}</v>
-      </c>
-    </row>
-    <row r="91" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+      <c r="T90" s="5"/>
+      <c r="U90" s="13"/>
+      <c r="V90" s="3" t="str">
+        <f>", '"&amp;A90&amp;"': {megami: '"&amp;B90&amp;"'"&amp;IF(C90&lt;&gt;"", ", anotherID: '" &amp; C90 &amp; "', replace: '" &amp; D90 &amp; "'", "")&amp;", name: '"&amp;E90&amp;"', nameEn: '"&amp;SUBSTITUTE(G90, "'", "\'")&amp;"', ruby: '"&amp;F90&amp;"', baseType: '"&amp;VLOOKUP(H90,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I90,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J90&lt;&gt;"",", '"&amp; VLOOKUP(J90,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K90&lt;&gt;"", ", range: '"&amp;K90&amp;"'", "")&amp;IF(M90&lt;&gt;"", ", damage: '"&amp;M90&amp;"'", "")&amp;IF(O90&lt;&gt;"", ", capacity: '"&amp;O90&amp;"'", "")&amp;IF(P90&lt;&gt;"", ", cost: '"&amp;P90&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S90, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T90, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q90="○", ", sealable: true", "")&amp;IF(R90="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '07-shinra-o-s-4': {megami: 'shinra', name: '森羅判証', nameEn: '', ruby: 'しんらばんしょう', baseType: 'special', types: ['enhance'], capacity: '6', cost: '6', text: '【展開時】ダスト→自ライフ：2 \n【展開中】あなたの他の付与札が破棄された時、相手のライフに1ダメージを与える。 \n【破棄時】あなたは敗北する。', textEn: ''}</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" ht="36" x14ac:dyDescent="0.15">
       <c r="A91" s="4" t="s">
         <v>313</v>
       </c>
@@ -7015,30 +7458,31 @@
       <c r="F91" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="G91" s="4" t="s">
+      <c r="H91" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H91" s="4" t="s">
+      <c r="I91" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J91" s="4" t="s">
+      <c r="K91" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="K91" s="13"/>
-      <c r="L91" s="2" t="s">
+      <c r="L91" s="13"/>
+      <c r="M91" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="M91" s="13"/>
-      <c r="R91" s="5" t="s">
+      <c r="N91" s="13"/>
+      <c r="S91" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="S91" s="13"/>
-      <c r="T91" s="3" t="str">
-        <f>", '"&amp;A91&amp;"': {megami: '"&amp;B91&amp;"'"&amp;IF(C91&lt;&gt;"", ", anotherID: '" &amp; C91 &amp; "', replace: '" &amp; D91 &amp; "'", "")&amp;", name: '"&amp;E91&amp;"', ruby: '"&amp;F91&amp;"', baseType: '"&amp;VLOOKUP(G91,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H91,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I91&lt;&gt;"",", '"&amp; VLOOKUP(I91,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J91&lt;&gt;"", ", range: '"&amp;J91&amp;"'", "")&amp;IF(L91&lt;&gt;"", ", damage: '"&amp;L91&amp;"'", "")&amp;IF(N91&lt;&gt;"", ", capacity: '"&amp;N91&amp;"'", "")&amp;IF(O91&lt;&gt;"", ", cost: '"&amp;O91&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R91, CHAR(10), "\n")&amp;"'"&amp;IF(P91="○", ", sealable: true", "")&amp;IF(Q91="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '08-hagane-o-n-1': {megami: 'hagane', name: '遠心撃', ruby: 'えんしんげき', baseType: 'normal', types: ['attack'], range: '2-6', damage: '5/3', text: '遠心 \n【攻撃後】現在のターンがあなたのターンならば、あなたと相手の手札を全て伏せ札にし、あなたの集中力は0になり、現在のフェイズを終了する。'}</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+      <c r="T91" s="5"/>
+      <c r="U91" s="13"/>
+      <c r="V91" s="3" t="str">
+        <f>", '"&amp;A91&amp;"': {megami: '"&amp;B91&amp;"'"&amp;IF(C91&lt;&gt;"", ", anotherID: '" &amp; C91 &amp; "', replace: '" &amp; D91 &amp; "'", "")&amp;", name: '"&amp;E91&amp;"', nameEn: '"&amp;SUBSTITUTE(G91, "'", "\'")&amp;"', ruby: '"&amp;F91&amp;"', baseType: '"&amp;VLOOKUP(H91,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I91,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J91&lt;&gt;"",", '"&amp; VLOOKUP(J91,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K91&lt;&gt;"", ", range: '"&amp;K91&amp;"'", "")&amp;IF(M91&lt;&gt;"", ", damage: '"&amp;M91&amp;"'", "")&amp;IF(O91&lt;&gt;"", ", capacity: '"&amp;O91&amp;"'", "")&amp;IF(P91&lt;&gt;"", ", cost: '"&amp;P91&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S91, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T91, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q91="○", ", sealable: true", "")&amp;IF(R91="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '08-hagane-o-n-1': {megami: 'hagane', name: '遠心撃', nameEn: '', ruby: 'えんしんげき', baseType: 'normal', types: ['attack'], range: '2-6', damage: '5/3', text: '遠心 \n【攻撃後】現在のターンがあなたのターンならば、あなたと相手の手札を全て伏せ札にし、あなたの集中力は0になり、現在のフェイズを終了する。', textEn: ''}</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" ht="24" x14ac:dyDescent="0.15">
       <c r="A92" s="4" t="s">
         <v>314</v>
       </c>
@@ -7051,30 +7495,31 @@
       <c r="F92" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="G92" s="4" t="s">
+      <c r="H92" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H92" s="4" t="s">
+      <c r="I92" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J92" s="4" t="s">
+      <c r="K92" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="K92" s="13"/>
-      <c r="L92" s="2" t="s">
+      <c r="L92" s="13"/>
+      <c r="M92" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="M92" s="13"/>
-      <c r="R92" s="5" t="s">
+      <c r="N92" s="13"/>
+      <c r="S92" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="S92" s="13"/>
-      <c r="T92" s="3" t="str">
-        <f>", '"&amp;A92&amp;"': {megami: '"&amp;B92&amp;"'"&amp;IF(C92&lt;&gt;"", ", anotherID: '" &amp; C92 &amp; "', replace: '" &amp; D92 &amp; "'", "")&amp;", name: '"&amp;E92&amp;"', ruby: '"&amp;F92&amp;"', baseType: '"&amp;VLOOKUP(G92,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H92,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I92&lt;&gt;"",", '"&amp; VLOOKUP(I92,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J92&lt;&gt;"", ", range: '"&amp;J92&amp;"'", "")&amp;IF(L92&lt;&gt;"", ", damage: '"&amp;L92&amp;"'", "")&amp;IF(N92&lt;&gt;"", ", capacity: '"&amp;N92&amp;"'", "")&amp;IF(O92&lt;&gt;"", ", cost: '"&amp;O92&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R92, CHAR(10), "\n")&amp;"'"&amp;IF(P92="○", ", sealable: true", "")&amp;IF(Q92="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '08-hagane-o-n-2': {megami: 'hagane', name: '砂風塵', ruby: 'さふうじん', baseType: 'normal', types: ['attack'], range: '0-6', damage: '1/-', text: '【攻撃後】現在の間合がターン開始時の間合から2以上変化しているならば、相手の手札を1枚無作為に選び、それを捨て札にする。'}</v>
-      </c>
-    </row>
-    <row r="93" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+      <c r="T92" s="5"/>
+      <c r="U92" s="13"/>
+      <c r="V92" s="3" t="str">
+        <f>", '"&amp;A92&amp;"': {megami: '"&amp;B92&amp;"'"&amp;IF(C92&lt;&gt;"", ", anotherID: '" &amp; C92 &amp; "', replace: '" &amp; D92 &amp; "'", "")&amp;", name: '"&amp;E92&amp;"', nameEn: '"&amp;SUBSTITUTE(G92, "'", "\'")&amp;"', ruby: '"&amp;F92&amp;"', baseType: '"&amp;VLOOKUP(H92,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I92,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J92&lt;&gt;"",", '"&amp; VLOOKUP(J92,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K92&lt;&gt;"", ", range: '"&amp;K92&amp;"'", "")&amp;IF(M92&lt;&gt;"", ", damage: '"&amp;M92&amp;"'", "")&amp;IF(O92&lt;&gt;"", ", capacity: '"&amp;O92&amp;"'", "")&amp;IF(P92&lt;&gt;"", ", cost: '"&amp;P92&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S92, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T92, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q92="○", ", sealable: true", "")&amp;IF(R92="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '08-hagane-o-n-2': {megami: 'hagane', name: '砂風塵', nameEn: '', ruby: 'さふうじん', baseType: 'normal', types: ['attack'], range: '0-6', damage: '1/-', text: '【攻撃後】現在の間合がターン開始時の間合から2以上変化しているならば、相手の手札を1枚無作為に選び、それを捨て札にする。', textEn: ''}</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" ht="24" x14ac:dyDescent="0.15">
       <c r="A93" s="4" t="s">
         <v>315</v>
       </c>
@@ -7087,33 +7532,34 @@
       <c r="F93" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="G93" s="4" t="s">
+      <c r="H93" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H93" s="4" t="s">
+      <c r="I93" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I93" s="4" t="s">
+      <c r="J93" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J93" s="4" t="s">
+      <c r="K93" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="K93" s="13"/>
-      <c r="L93" s="2" t="s">
+      <c r="L93" s="13"/>
+      <c r="M93" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="M93" s="13"/>
-      <c r="R93" s="5" t="s">
+      <c r="N93" s="13"/>
+      <c r="S93" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="S93" s="13"/>
-      <c r="T93" s="3" t="str">
-        <f>", '"&amp;A93&amp;"': {megami: '"&amp;B93&amp;"'"&amp;IF(C93&lt;&gt;"", ", anotherID: '" &amp; C93 &amp; "', replace: '" &amp; D93 &amp; "'", "")&amp;", name: '"&amp;E93&amp;"', ruby: '"&amp;F93&amp;"', baseType: '"&amp;VLOOKUP(G93,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H93,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I93&lt;&gt;"",", '"&amp; VLOOKUP(I93,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J93&lt;&gt;"", ", range: '"&amp;J93&amp;"'", "")&amp;IF(L93&lt;&gt;"", ", damage: '"&amp;L93&amp;"'", "")&amp;IF(N93&lt;&gt;"", ", capacity: '"&amp;N93&amp;"'", "")&amp;IF(O93&lt;&gt;"", ", cost: '"&amp;O93&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R93, CHAR(10), "\n")&amp;"'"&amp;IF(P93="○", ", sealable: true", "")&amp;IF(Q93="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '08-hagane-o-n-3': {megami: 'hagane', name: '大地砕き', ruby: 'だいちくだき', baseType: 'normal', types: ['attack', 'fullpower'], range: '0-3', damage: '2/-', text: '対応不可 \n【攻撃後】相手の集中力は0になり、相手を畏縮させる。'}</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="T93" s="5"/>
+      <c r="U93" s="13"/>
+      <c r="V93" s="3" t="str">
+        <f>", '"&amp;A93&amp;"': {megami: '"&amp;B93&amp;"'"&amp;IF(C93&lt;&gt;"", ", anotherID: '" &amp; C93 &amp; "', replace: '" &amp; D93 &amp; "'", "")&amp;", name: '"&amp;E93&amp;"', nameEn: '"&amp;SUBSTITUTE(G93, "'", "\'")&amp;"', ruby: '"&amp;F93&amp;"', baseType: '"&amp;VLOOKUP(H93,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I93,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J93&lt;&gt;"",", '"&amp; VLOOKUP(J93,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K93&lt;&gt;"", ", range: '"&amp;K93&amp;"'", "")&amp;IF(M93&lt;&gt;"", ", damage: '"&amp;M93&amp;"'", "")&amp;IF(O93&lt;&gt;"", ", capacity: '"&amp;O93&amp;"'", "")&amp;IF(P93&lt;&gt;"", ", cost: '"&amp;P93&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S93, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T93, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q93="○", ", sealable: true", "")&amp;IF(R93="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '08-hagane-o-n-3': {megami: 'hagane', name: '大地砕き', nameEn: '', ruby: 'だいちくだき', baseType: 'normal', types: ['attack', 'fullpower'], range: '0-3', damage: '2/-', text: '対応不可 \n【攻撃後】相手の集中力は0になり、相手を畏縮させる。', textEn: ''}</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A94" s="4" t="s">
         <v>316</v>
       </c>
@@ -7126,24 +7572,25 @@
       <c r="F94" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="G94" s="4" t="s">
+      <c r="H94" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H94" s="4" t="s">
+      <c r="I94" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K94" s="13"/>
-      <c r="M94" s="13"/>
-      <c r="R94" s="5" t="s">
+      <c r="L94" s="13"/>
+      <c r="N94" s="13"/>
+      <c r="S94" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="S94" s="13"/>
-      <c r="T94" s="3" t="str">
-        <f>", '"&amp;A94&amp;"': {megami: '"&amp;B94&amp;"'"&amp;IF(C94&lt;&gt;"", ", anotherID: '" &amp; C94 &amp; "', replace: '" &amp; D94 &amp; "'", "")&amp;", name: '"&amp;E94&amp;"', ruby: '"&amp;F94&amp;"', baseType: '"&amp;VLOOKUP(G94,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H94,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I94&lt;&gt;"",", '"&amp; VLOOKUP(I94,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J94&lt;&gt;"", ", range: '"&amp;J94&amp;"'", "")&amp;IF(L94&lt;&gt;"", ", damage: '"&amp;L94&amp;"'", "")&amp;IF(N94&lt;&gt;"", ", capacity: '"&amp;N94&amp;"'", "")&amp;IF(O94&lt;&gt;"", ", cost: '"&amp;O94&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R94, CHAR(10), "\n")&amp;"'"&amp;IF(P94="○", ", sealable: true", "")&amp;IF(Q94="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '08-hagane-o-n-4': {megami: 'hagane', name: '超反発', ruby: 'ちょうはんぱつ', baseType: 'normal', types: ['action'], text: '現在の間合が4以下ならば、相フレア→間合：1'}</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+      <c r="T94" s="5"/>
+      <c r="U94" s="13"/>
+      <c r="V94" s="3" t="str">
+        <f>", '"&amp;A94&amp;"': {megami: '"&amp;B94&amp;"'"&amp;IF(C94&lt;&gt;"", ", anotherID: '" &amp; C94 &amp; "', replace: '" &amp; D94 &amp; "'", "")&amp;", name: '"&amp;E94&amp;"', nameEn: '"&amp;SUBSTITUTE(G94, "'", "\'")&amp;"', ruby: '"&amp;F94&amp;"', baseType: '"&amp;VLOOKUP(H94,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I94,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J94&lt;&gt;"",", '"&amp; VLOOKUP(J94,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K94&lt;&gt;"", ", range: '"&amp;K94&amp;"'", "")&amp;IF(M94&lt;&gt;"", ", damage: '"&amp;M94&amp;"'", "")&amp;IF(O94&lt;&gt;"", ", capacity: '"&amp;O94&amp;"'", "")&amp;IF(P94&lt;&gt;"", ", cost: '"&amp;P94&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S94, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T94, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q94="○", ", sealable: true", "")&amp;IF(R94="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '08-hagane-o-n-4': {megami: 'hagane', name: '超反発', nameEn: '', ruby: 'ちょうはんぱつ', baseType: 'normal', types: ['action'], text: '現在の間合が4以下ならば、相フレア→間合：1', textEn: ''}</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" ht="24" x14ac:dyDescent="0.15">
       <c r="A95" s="4" t="s">
         <v>317</v>
       </c>
@@ -7156,24 +7603,25 @@
       <c r="F95" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="G95" s="4" t="s">
+      <c r="H95" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H95" s="4" t="s">
+      <c r="I95" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K95" s="13"/>
-      <c r="M95" s="13"/>
-      <c r="R95" s="5" t="s">
+      <c r="L95" s="13"/>
+      <c r="N95" s="13"/>
+      <c r="S95" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="S95" s="13"/>
-      <c r="T95" s="3" t="str">
-        <f>", '"&amp;A95&amp;"': {megami: '"&amp;B95&amp;"'"&amp;IF(C95&lt;&gt;"", ", anotherID: '" &amp; C95 &amp; "', replace: '" &amp; D95 &amp; "'", "")&amp;", name: '"&amp;E95&amp;"', ruby: '"&amp;F95&amp;"', baseType: '"&amp;VLOOKUP(G95,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H95,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I95&lt;&gt;"",", '"&amp; VLOOKUP(I95,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J95&lt;&gt;"", ", range: '"&amp;J95&amp;"'", "")&amp;IF(L95&lt;&gt;"", ", damage: '"&amp;L95&amp;"'", "")&amp;IF(N95&lt;&gt;"", ", capacity: '"&amp;N95&amp;"'", "")&amp;IF(O95&lt;&gt;"", ", cost: '"&amp;O95&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R95, CHAR(10), "\n")&amp;"'"&amp;IF(P95="○", ", sealable: true", "")&amp;IF(Q95="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '08-hagane-o-n-5': {megami: 'hagane', name: '円舞錬', ruby: 'えんぶれん', baseType: 'normal', types: ['action'], text: '遠心 \n相手のフレアが3以上ならば、相フレア→自オーラ：2'}</v>
-      </c>
-    </row>
-    <row r="96" spans="1:20" ht="60" x14ac:dyDescent="0.15">
+      <c r="T95" s="5"/>
+      <c r="U95" s="13"/>
+      <c r="V95" s="3" t="str">
+        <f>", '"&amp;A95&amp;"': {megami: '"&amp;B95&amp;"'"&amp;IF(C95&lt;&gt;"", ", anotherID: '" &amp; C95 &amp; "', replace: '" &amp; D95 &amp; "'", "")&amp;", name: '"&amp;E95&amp;"', nameEn: '"&amp;SUBSTITUTE(G95, "'", "\'")&amp;"', ruby: '"&amp;F95&amp;"', baseType: '"&amp;VLOOKUP(H95,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I95,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J95&lt;&gt;"",", '"&amp; VLOOKUP(J95,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K95&lt;&gt;"", ", range: '"&amp;K95&amp;"'", "")&amp;IF(M95&lt;&gt;"", ", damage: '"&amp;M95&amp;"'", "")&amp;IF(O95&lt;&gt;"", ", capacity: '"&amp;O95&amp;"'", "")&amp;IF(P95&lt;&gt;"", ", cost: '"&amp;P95&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S95, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T95, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q95="○", ", sealable: true", "")&amp;IF(R95="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '08-hagane-o-n-5': {megami: 'hagane', name: '円舞錬', nameEn: '', ruby: 'えんぶれん', baseType: 'normal', types: ['action'], text: '遠心 \n相手のフレアが3以上ならば、相フレア→自オーラ：2', textEn: ''}</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" ht="60" x14ac:dyDescent="0.15">
       <c r="A96" s="4" t="s">
         <v>318</v>
       </c>
@@ -7186,24 +7634,25 @@
       <c r="F96" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="G96" s="4" t="s">
+      <c r="H96" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H96" s="4" t="s">
+      <c r="I96" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K96" s="13"/>
-      <c r="M96" s="13"/>
-      <c r="R96" s="5" t="s">
+      <c r="L96" s="13"/>
+      <c r="N96" s="13"/>
+      <c r="S96" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="S96" s="13"/>
-      <c r="T96" s="3" t="str">
-        <f>", '"&amp;A96&amp;"': {megami: '"&amp;B96&amp;"'"&amp;IF(C96&lt;&gt;"", ", anotherID: '" &amp; C96 &amp; "', replace: '" &amp; D96 &amp; "'", "")&amp;", name: '"&amp;E96&amp;"', ruby: '"&amp;F96&amp;"', baseType: '"&amp;VLOOKUP(G96,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H96,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I96&lt;&gt;"",", '"&amp; VLOOKUP(I96,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J96&lt;&gt;"", ", range: '"&amp;J96&amp;"'", "")&amp;IF(L96&lt;&gt;"", ", damage: '"&amp;L96&amp;"'", "")&amp;IF(N96&lt;&gt;"", ", capacity: '"&amp;N96&amp;"'", "")&amp;IF(O96&lt;&gt;"", ", cost: '"&amp;O96&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R96, CHAR(10), "\n")&amp;"'"&amp;IF(P96="○", ", sealable: true", "")&amp;IF(Q96="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '08-hagane-o-n-6': {megami: 'hagane', name: '鐘鳴らし', ruby: 'かねならし', baseType: 'normal', types: ['action'], text: '遠心 \n以下から１つを選ぶ。\n・このターンにあなたが次に行う《攻撃》は対応不可を得る。\n・このターンにあなたが次に行う《攻撃》はオーラへのダメージが3以上ならば+0/+1、そうでないならば+2/+0となる。'}</v>
-      </c>
-    </row>
-    <row r="97" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+      <c r="T96" s="5"/>
+      <c r="U96" s="13"/>
+      <c r="V96" s="3" t="str">
+        <f>", '"&amp;A96&amp;"': {megami: '"&amp;B96&amp;"'"&amp;IF(C96&lt;&gt;"", ", anotherID: '" &amp; C96 &amp; "', replace: '" &amp; D96 &amp; "'", "")&amp;", name: '"&amp;E96&amp;"', nameEn: '"&amp;SUBSTITUTE(G96, "'", "\'")&amp;"', ruby: '"&amp;F96&amp;"', baseType: '"&amp;VLOOKUP(H96,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I96,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J96&lt;&gt;"",", '"&amp; VLOOKUP(J96,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K96&lt;&gt;"", ", range: '"&amp;K96&amp;"'", "")&amp;IF(M96&lt;&gt;"", ", damage: '"&amp;M96&amp;"'", "")&amp;IF(O96&lt;&gt;"", ", capacity: '"&amp;O96&amp;"'", "")&amp;IF(P96&lt;&gt;"", ", cost: '"&amp;P96&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S96, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T96, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q96="○", ", sealable: true", "")&amp;IF(R96="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '08-hagane-o-n-6': {megami: 'hagane', name: '鐘鳴らし', nameEn: '', ruby: 'かねならし', baseType: 'normal', types: ['action'], text: '遠心 \n以下から１つを選ぶ。\n・このターンにあなたが次に行う《攻撃》は対応不可を得る。\n・このターンにあなたが次に行う《攻撃》はオーラへのダメージが3以上ならば+0/+1、そうでないならば+2/+0となる。', textEn: ''}</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" ht="24" x14ac:dyDescent="0.15">
       <c r="A97" s="4" t="s">
         <v>319</v>
       </c>
@@ -7216,27 +7665,28 @@
       <c r="F97" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="G97" s="4" t="s">
+      <c r="H97" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H97" s="4" t="s">
+      <c r="I97" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K97" s="13"/>
-      <c r="M97" s="13"/>
-      <c r="N97" s="4" t="s">
+      <c r="L97" s="13"/>
+      <c r="N97" s="13"/>
+      <c r="O97" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="R97" s="5" t="s">
+      <c r="S97" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="S97" s="13"/>
-      <c r="T97" s="3" t="str">
-        <f>", '"&amp;A97&amp;"': {megami: '"&amp;B97&amp;"'"&amp;IF(C97&lt;&gt;"", ", anotherID: '" &amp; C97 &amp; "', replace: '" &amp; D97 &amp; "'", "")&amp;", name: '"&amp;E97&amp;"', ruby: '"&amp;F97&amp;"', baseType: '"&amp;VLOOKUP(G97,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H97,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I97&lt;&gt;"",", '"&amp; VLOOKUP(I97,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J97&lt;&gt;"", ", range: '"&amp;J97&amp;"'", "")&amp;IF(L97&lt;&gt;"", ", damage: '"&amp;L97&amp;"'", "")&amp;IF(N97&lt;&gt;"", ", capacity: '"&amp;N97&amp;"'", "")&amp;IF(O97&lt;&gt;"", ", cost: '"&amp;O97&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R97, CHAR(10), "\n")&amp;"'"&amp;IF(P97="○", ", sealable: true", "")&amp;IF(Q97="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '08-hagane-o-n-7': {megami: 'hagane', name: '引力場', ruby: 'いんりょくば', baseType: 'normal', types: ['enhance'], capacity: '4', text: '【展開時】間合→ダスト：1 \n【展開中】達人の間合は1小さくなる。'}</v>
-      </c>
-    </row>
-    <row r="98" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+      <c r="T97" s="5"/>
+      <c r="U97" s="13"/>
+      <c r="V97" s="3" t="str">
+        <f>", '"&amp;A97&amp;"': {megami: '"&amp;B97&amp;"'"&amp;IF(C97&lt;&gt;"", ", anotherID: '" &amp; C97 &amp; "', replace: '" &amp; D97 &amp; "'", "")&amp;", name: '"&amp;E97&amp;"', nameEn: '"&amp;SUBSTITUTE(G97, "'", "\'")&amp;"', ruby: '"&amp;F97&amp;"', baseType: '"&amp;VLOOKUP(H97,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I97,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J97&lt;&gt;"",", '"&amp; VLOOKUP(J97,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K97&lt;&gt;"", ", range: '"&amp;K97&amp;"'", "")&amp;IF(M97&lt;&gt;"", ", damage: '"&amp;M97&amp;"'", "")&amp;IF(O97&lt;&gt;"", ", capacity: '"&amp;O97&amp;"'", "")&amp;IF(P97&lt;&gt;"", ", cost: '"&amp;P97&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S97, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T97, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q97="○", ", sealable: true", "")&amp;IF(R97="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '08-hagane-o-n-7': {megami: 'hagane', name: '引力場', nameEn: '', ruby: 'いんりょくば', baseType: 'normal', types: ['enhance'], capacity: '4', text: '【展開時】間合→ダスト：1 \n【展開中】達人の間合は1小さくなる。', textEn: ''}</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" ht="36" x14ac:dyDescent="0.15">
       <c r="A98" s="4" t="s">
         <v>320</v>
       </c>
@@ -7249,33 +7699,34 @@
       <c r="F98" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="G98" s="4" t="s">
+      <c r="H98" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H98" s="4" t="s">
+      <c r="I98" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J98" s="4" t="s">
+      <c r="K98" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="K98" s="13"/>
-      <c r="L98" s="2" t="s">
+      <c r="L98" s="13"/>
+      <c r="M98" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="M98" s="13"/>
-      <c r="O98" s="4" t="s">
+      <c r="N98" s="13"/>
+      <c r="P98" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="R98" s="5" t="s">
+      <c r="S98" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="S98" s="13"/>
-      <c r="T98" s="3" t="str">
-        <f>", '"&amp;A98&amp;"': {megami: '"&amp;B98&amp;"'"&amp;IF(C98&lt;&gt;"", ", anotherID: '" &amp; C98 &amp; "', replace: '" &amp; D98 &amp; "'", "")&amp;", name: '"&amp;E98&amp;"', ruby: '"&amp;F98&amp;"', baseType: '"&amp;VLOOKUP(G98,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H98,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I98&lt;&gt;"",", '"&amp; VLOOKUP(I98,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J98&lt;&gt;"", ", range: '"&amp;J98&amp;"'", "")&amp;IF(L98&lt;&gt;"", ", damage: '"&amp;L98&amp;"'", "")&amp;IF(N98&lt;&gt;"", ", capacity: '"&amp;N98&amp;"'", "")&amp;IF(O98&lt;&gt;"", ", cost: '"&amp;O98&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R98, CHAR(10), "\n")&amp;"'"&amp;IF(P98="○", ", sealable: true", "")&amp;IF(Q98="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '08-hagane-o-s-1': {megami: 'hagane', name: '大天空クラッシュ', ruby: 'だいてんくうクラッシュ', baseType: 'special', types: ['attack'], range: '0-10', damage: 'X/Y', cost: '5', text: '超克 \n【常時】Xは現在の間合がターン開始時の間合からどれだけ変化しているかに等しい。YはXの半分(切り上げ)に等しい。'}</v>
-      </c>
-    </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="T98" s="5"/>
+      <c r="U98" s="13"/>
+      <c r="V98" s="3" t="str">
+        <f>", '"&amp;A98&amp;"': {megami: '"&amp;B98&amp;"'"&amp;IF(C98&lt;&gt;"", ", anotherID: '" &amp; C98 &amp; "', replace: '" &amp; D98 &amp; "'", "")&amp;", name: '"&amp;E98&amp;"', nameEn: '"&amp;SUBSTITUTE(G98, "'", "\'")&amp;"', ruby: '"&amp;F98&amp;"', baseType: '"&amp;VLOOKUP(H98,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I98,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J98&lt;&gt;"",", '"&amp; VLOOKUP(J98,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K98&lt;&gt;"", ", range: '"&amp;K98&amp;"'", "")&amp;IF(M98&lt;&gt;"", ", damage: '"&amp;M98&amp;"'", "")&amp;IF(O98&lt;&gt;"", ", capacity: '"&amp;O98&amp;"'", "")&amp;IF(P98&lt;&gt;"", ", cost: '"&amp;P98&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S98, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T98, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q98="○", ", sealable: true", "")&amp;IF(R98="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '08-hagane-o-s-1': {megami: 'hagane', name: '大天空クラッシュ', nameEn: '', ruby: 'だいてんくうクラッシュ', baseType: 'special', types: ['attack'], range: '0-10', damage: 'X/Y', cost: '5', text: '超克 \n【常時】Xは現在の間合がターン開始時の間合からどれだけ変化しているかに等しい。YはXの半分(切り上げ)に等しい。', textEn: ''}</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A99" s="4" t="s">
         <v>321</v>
       </c>
@@ -7288,27 +7739,28 @@
       <c r="F99" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="G99" s="4" t="s">
+      <c r="H99" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H99" s="4" t="s">
+      <c r="I99" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K99" s="13"/>
-      <c r="M99" s="13"/>
-      <c r="O99" s="4" t="s">
+      <c r="L99" s="13"/>
+      <c r="N99" s="13"/>
+      <c r="P99" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="R99" s="5" t="s">
+      <c r="S99" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="S99" s="13"/>
-      <c r="T99" s="3" t="str">
-        <f>", '"&amp;A99&amp;"': {megami: '"&amp;B99&amp;"'"&amp;IF(C99&lt;&gt;"", ", anotherID: '" &amp; C99 &amp; "', replace: '" &amp; D99 &amp; "'", "")&amp;", name: '"&amp;E99&amp;"', ruby: '"&amp;F99&amp;"', baseType: '"&amp;VLOOKUP(G99,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H99,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I99&lt;&gt;"",", '"&amp; VLOOKUP(I99,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J99&lt;&gt;"", ", range: '"&amp;J99&amp;"'", "")&amp;IF(L99&lt;&gt;"", ", damage: '"&amp;L99&amp;"'", "")&amp;IF(N99&lt;&gt;"", ", capacity: '"&amp;N99&amp;"'", "")&amp;IF(O99&lt;&gt;"", ", cost: '"&amp;O99&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R99, CHAR(10), "\n")&amp;"'"&amp;IF(P99="○", ", sealable: true", "")&amp;IF(Q99="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '08-hagane-o-s-2': {megami: 'hagane', name: '大破鐘メガロベル', ruby: 'だいはがねメガロベル', baseType: 'special', types: ['action'], cost: '2', text: 'あなたの他の切札が全て使用済ならば、ダスト→自ライフ：2'}</v>
-      </c>
-    </row>
-    <row r="100" spans="1:20" ht="48" x14ac:dyDescent="0.15">
+      <c r="T99" s="5"/>
+      <c r="U99" s="13"/>
+      <c r="V99" s="3" t="str">
+        <f>", '"&amp;A99&amp;"': {megami: '"&amp;B99&amp;"'"&amp;IF(C99&lt;&gt;"", ", anotherID: '" &amp; C99 &amp; "', replace: '" &amp; D99 &amp; "'", "")&amp;", name: '"&amp;E99&amp;"', nameEn: '"&amp;SUBSTITUTE(G99, "'", "\'")&amp;"', ruby: '"&amp;F99&amp;"', baseType: '"&amp;VLOOKUP(H99,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I99,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J99&lt;&gt;"",", '"&amp; VLOOKUP(J99,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K99&lt;&gt;"", ", range: '"&amp;K99&amp;"'", "")&amp;IF(M99&lt;&gt;"", ", damage: '"&amp;M99&amp;"'", "")&amp;IF(O99&lt;&gt;"", ", capacity: '"&amp;O99&amp;"'", "")&amp;IF(P99&lt;&gt;"", ", cost: '"&amp;P99&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S99, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T99, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q99="○", ", sealable: true", "")&amp;IF(R99="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '08-hagane-o-s-2': {megami: 'hagane', name: '大破鐘メガロベル', nameEn: '', ruby: 'だいはがねメガロベル', baseType: 'special', types: ['action'], cost: '2', text: 'あなたの他の切札が全て使用済ならば、ダスト→自ライフ：2', textEn: ''}</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" ht="48" x14ac:dyDescent="0.15">
       <c r="A100" s="4" t="s">
         <v>322</v>
       </c>
@@ -7321,27 +7773,28 @@
       <c r="F100" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="G100" s="4" t="s">
+      <c r="H100" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H100" s="4" t="s">
+      <c r="I100" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K100" s="13"/>
-      <c r="M100" s="13"/>
-      <c r="O100" s="4" t="s">
+      <c r="L100" s="13"/>
+      <c r="N100" s="13"/>
+      <c r="P100" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="R100" s="5" t="s">
+      <c r="S100" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="S100" s="13"/>
-      <c r="T100" s="3" t="str">
-        <f>", '"&amp;A100&amp;"': {megami: '"&amp;B100&amp;"'"&amp;IF(C100&lt;&gt;"", ", anotherID: '" &amp; C100 &amp; "', replace: '" &amp; D100 &amp; "'", "")&amp;", name: '"&amp;E100&amp;"', ruby: '"&amp;F100&amp;"', baseType: '"&amp;VLOOKUP(G100,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(H100,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(I100&lt;&gt;"",", '"&amp; VLOOKUP(I100,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(J100&lt;&gt;"", ", range: '"&amp;J100&amp;"'", "")&amp;IF(L100&lt;&gt;"", ", damage: '"&amp;L100&amp;"'", "")&amp;IF(N100&lt;&gt;"", ", capacity: '"&amp;N100&amp;"'", "")&amp;IF(O100&lt;&gt;"", ", cost: '"&amp;O100&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(R100, CHAR(10), "\n")&amp;"'"&amp;IF(P100="○", ", sealable: true", "")&amp;IF(Q100="○", ", removable: true", "")&amp;"}"</f>
-        <v>, '08-hagane-o-s-3': {megami: 'hagane', name: '大重力アトラクト', ruby: 'だいじゅうりょくアトラクト', baseType: 'special', types: ['action'], cost: '5', text: '間合→自フレア：3 \n----\n【再起】このターンにあなたが遠心を持つカードを使用しており、このカードを使用していない。'}</v>
-      </c>
-    </row>
-    <row r="101" spans="1:20" ht="36" x14ac:dyDescent="0.15">
+      <c r="T100" s="5"/>
+      <c r="U100" s="13"/>
+      <c r="V100" s="3" t="str">
+        <f>", '"&amp;A100&amp;"': {megami: '"&amp;B100&amp;"'"&amp;IF(C100&lt;&gt;"", ", anotherID: '" &amp; C100 &amp; "', replace: '" &amp; D100 &amp; "'", "")&amp;", name: '"&amp;E100&amp;"', nameEn: '"&amp;SUBSTITUTE(G100, "'", "\'")&amp;"', ruby: '"&amp;F100&amp;"', baseType: '"&amp;VLOOKUP(H100,Sheet2!$A$1:$B$99,2,FALSE)&amp;"', types: ['"&amp;VLOOKUP(I100,Sheet2!$D$1:$E$99,2,FALSE)&amp;"'"&amp;IF(J100&lt;&gt;"",", '"&amp; VLOOKUP(J100,Sheet2!$D$1:$E$99,2,FALSE) &amp;"'","")&amp;"]"&amp;IF(K100&lt;&gt;"", ", range: '"&amp;K100&amp;"'", "")&amp;IF(M100&lt;&gt;"", ", damage: '"&amp;M100&amp;"'", "")&amp;IF(O100&lt;&gt;"", ", capacity: '"&amp;O100&amp;"'", "")&amp;IF(P100&lt;&gt;"", ", cost: '"&amp;P100&amp;"'", "")&amp;", text: '"&amp;SUBSTITUTE(S100, CHAR(10), "\n")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(T100, CHAR(10), "\n"), "'", "\'")&amp;"'"&amp;IF(Q100="○", ", sealable: true", "")&amp;IF(R100="○", ", removable: true", "")&amp;"}"</f>
+        <v>, '08-hagane-o-s-3': {megami: 'hagane', name: '大重力アトラクト', nameEn: '', ruby: 'だいじゅうりょくアトラクト', baseType: 'special', types: ['action'], cost: '5', text: '間合→自フレア：3 \n----\n【再起】このターンにあなたが遠心を持つカードを使用しており、このカードを使用していない。', textEn: ''}</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" ht="36" x14ac:dyDescent="0.15">
       <c r="A101" s="4" t="s">
         <v>323</v>
       </c>
@@ -7354,27 +7807,28 @@
       <c r="F101" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="G101" s="4" t="s">
+      <c r="H101" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H101" s="4" t="s">
+      <c r="I101" s="4" t="s">
         <v>